--- a/schedule/ガントチャート.xlsx
+++ b/schedule/ガントチャート.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="193">
   <si>
     <t>カテゴリ</t>
     <phoneticPr fontId="1"/>
@@ -1330,6 +1330,13 @@
     <t>回復（ハート）</t>
     <rPh sb="0" eb="2">
       <t>カイフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1日</t>
+    <rPh sb="1" eb="2">
+      <t>ニチ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1901,7 +1908,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2067,22 +2074,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2096,6 +2100,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2118,6 +2125,18 @@
     <xf numFmtId="0" fontId="20" fillId="12" borderId="3" xfId="13" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2128,15 +2147,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5454,10 +5464,10 @@
   <dimension ref="A1:AS81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="10" ySplit="4" topLeftCell="K65" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="4" topLeftCell="K53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E72" sqref="E72"/>
+      <selection pane="bottomRight" activeCell="I58" sqref="I58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5742,10 +5752,10 @@
       </c>
     </row>
     <row r="5" spans="1:45" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="73" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="20" t="s">
@@ -5799,14 +5809,14 @@
       <c r="AG5" s="19"/>
       <c r="AH5" s="19"/>
       <c r="AI5" s="19"/>
-      <c r="AJ5" s="62" t="s">
+      <c r="AJ5" s="61" t="s">
         <v>88</v>
       </c>
       <c r="AK5" s="19"/>
     </row>
     <row r="6" spans="1:45" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="55"/>
-      <c r="B6" s="57"/>
+      <c r="A6" s="72"/>
+      <c r="B6" s="73"/>
       <c r="C6" s="20" t="s">
         <v>9</v>
       </c>
@@ -5852,12 +5862,12 @@
       <c r="AG6" s="19"/>
       <c r="AH6" s="19"/>
       <c r="AI6" s="19"/>
-      <c r="AJ6" s="63"/>
+      <c r="AJ6" s="62"/>
       <c r="AK6" s="19"/>
     </row>
     <row r="7" spans="1:45" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="55"/>
-      <c r="B7" s="57"/>
+      <c r="A7" s="72"/>
+      <c r="B7" s="73"/>
       <c r="C7" s="20" t="s">
         <v>10</v>
       </c>
@@ -5901,16 +5911,16 @@
       <c r="AG7" s="19"/>
       <c r="AH7" s="19"/>
       <c r="AI7" s="19"/>
-      <c r="AJ7" s="63"/>
+      <c r="AJ7" s="62"/>
       <c r="AK7" s="19"/>
     </row>
     <row r="8" spans="1:45" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="55"/>
-      <c r="B8" s="57"/>
+      <c r="A8" s="72"/>
+      <c r="B8" s="73"/>
       <c r="C8" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="78" t="s">
+      <c r="D8" s="58" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="2"/>
@@ -5950,16 +5960,16 @@
       <c r="AG8" s="19"/>
       <c r="AH8" s="19"/>
       <c r="AI8" s="19"/>
-      <c r="AJ8" s="63"/>
+      <c r="AJ8" s="62"/>
       <c r="AK8" s="19"/>
     </row>
     <row r="9" spans="1:45" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="55"/>
-      <c r="B9" s="57"/>
+      <c r="A9" s="72"/>
+      <c r="B9" s="73"/>
       <c r="C9" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="77" t="s">
+      <c r="D9" s="57" t="s">
         <v>164</v>
       </c>
       <c r="E9" s="2"/>
@@ -5997,16 +6007,16 @@
       <c r="AG9" s="19"/>
       <c r="AH9" s="19"/>
       <c r="AI9" s="19"/>
-      <c r="AJ9" s="63"/>
+      <c r="AJ9" s="62"/>
       <c r="AK9" s="19"/>
     </row>
     <row r="10" spans="1:45" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="55"/>
-      <c r="B10" s="57"/>
+      <c r="A10" s="72"/>
+      <c r="B10" s="73"/>
       <c r="C10" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="76" t="s">
+      <c r="D10" s="56" t="s">
         <v>184</v>
       </c>
       <c r="E10" s="2"/>
@@ -6044,15 +6054,15 @@
       <c r="AG10" s="19"/>
       <c r="AH10" s="19"/>
       <c r="AI10" s="19"/>
-      <c r="AJ10" s="63"/>
+      <c r="AJ10" s="62"/>
       <c r="AK10" s="19"/>
     </row>
     <row r="11" spans="1:45" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="55"/>
+      <c r="A11" s="72"/>
       <c r="B11" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="56" t="s">
+      <c r="C11" s="64" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="46" t="s">
@@ -6091,13 +6101,13 @@
       <c r="AG11" s="19"/>
       <c r="AH11" s="19"/>
       <c r="AI11" s="19"/>
-      <c r="AJ11" s="63"/>
+      <c r="AJ11" s="62"/>
       <c r="AK11" s="19"/>
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A12" s="55"/>
+      <c r="A12" s="72"/>
       <c r="B12" s="65"/>
-      <c r="C12" s="56"/>
+      <c r="C12" s="64"/>
       <c r="D12" s="2" t="s">
         <v>23</v>
       </c>
@@ -6134,13 +6144,13 @@
       <c r="AG12" s="19"/>
       <c r="AH12" s="19"/>
       <c r="AI12" s="19"/>
-      <c r="AJ12" s="63"/>
+      <c r="AJ12" s="62"/>
       <c r="AK12" s="19"/>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A13" s="55"/>
+      <c r="A13" s="72"/>
       <c r="B13" s="65"/>
-      <c r="C13" s="56"/>
+      <c r="C13" s="64"/>
       <c r="D13" s="38" t="s">
         <v>45</v>
       </c>
@@ -6177,13 +6187,13 @@
       <c r="AG13" s="19"/>
       <c r="AH13" s="19"/>
       <c r="AI13" s="19"/>
-      <c r="AJ13" s="63"/>
+      <c r="AJ13" s="62"/>
       <c r="AK13" s="19"/>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A14" s="55"/>
+      <c r="A14" s="72"/>
       <c r="B14" s="65"/>
-      <c r="C14" s="56"/>
+      <c r="C14" s="64"/>
       <c r="D14" s="39" t="s">
         <v>27</v>
       </c>
@@ -6220,13 +6230,13 @@
       <c r="AG14" s="19"/>
       <c r="AH14" s="19"/>
       <c r="AI14" s="19"/>
-      <c r="AJ14" s="63"/>
+      <c r="AJ14" s="62"/>
       <c r="AK14" s="19"/>
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A15" s="55"/>
+      <c r="A15" s="72"/>
       <c r="B15" s="65"/>
-      <c r="C15" s="56" t="s">
+      <c r="C15" s="64" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -6267,13 +6277,13 @@
       <c r="AG15" s="19"/>
       <c r="AH15" s="19"/>
       <c r="AI15" s="19"/>
-      <c r="AJ15" s="63"/>
+      <c r="AJ15" s="62"/>
       <c r="AK15" s="19"/>
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A16" s="55"/>
+      <c r="A16" s="72"/>
       <c r="B16" s="65"/>
-      <c r="C16" s="56"/>
+      <c r="C16" s="64"/>
       <c r="D16" s="40" t="s">
         <v>45</v>
       </c>
@@ -6310,13 +6320,13 @@
       <c r="AG16" s="19"/>
       <c r="AH16" s="19"/>
       <c r="AI16" s="19"/>
-      <c r="AJ16" s="63"/>
+      <c r="AJ16" s="62"/>
       <c r="AK16" s="19"/>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A17" s="55"/>
+      <c r="A17" s="72"/>
       <c r="B17" s="65"/>
-      <c r="C17" s="56"/>
+      <c r="C17" s="64"/>
       <c r="D17" s="2" t="s">
         <v>23</v>
       </c>
@@ -6353,16 +6363,16 @@
       <c r="AG17" s="19"/>
       <c r="AH17" s="19"/>
       <c r="AI17" s="19"/>
-      <c r="AJ17" s="63"/>
+      <c r="AJ17" s="62"/>
       <c r="AK17" s="19"/>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A18" s="55"/>
+      <c r="A18" s="72"/>
       <c r="B18" s="65"/>
-      <c r="C18" s="56" t="s">
+      <c r="C18" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="56" t="s">
+      <c r="D18" s="64" t="s">
         <v>95</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -6408,14 +6418,14 @@
       <c r="AG18" s="19"/>
       <c r="AH18" s="19"/>
       <c r="AI18" s="19"/>
-      <c r="AJ18" s="63"/>
+      <c r="AJ18" s="62"/>
       <c r="AK18" s="19"/>
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A19" s="55"/>
+      <c r="A19" s="72"/>
       <c r="B19" s="65"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
       <c r="E19" s="2" t="s">
         <v>138</v>
       </c>
@@ -6459,14 +6469,14 @@
       <c r="AG19" s="19"/>
       <c r="AH19" s="19"/>
       <c r="AI19" s="19"/>
-      <c r="AJ19" s="63"/>
+      <c r="AJ19" s="62"/>
       <c r="AK19" s="19"/>
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A20" s="55"/>
+      <c r="A20" s="72"/>
       <c r="B20" s="65"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
       <c r="E20" s="2" t="s">
         <v>112</v>
       </c>
@@ -6510,14 +6520,14 @@
       <c r="AG20" s="19"/>
       <c r="AH20" s="19"/>
       <c r="AI20" s="19"/>
-      <c r="AJ20" s="63"/>
+      <c r="AJ20" s="62"/>
       <c r="AK20" s="19"/>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A21" s="55"/>
+      <c r="A21" s="72"/>
       <c r="B21" s="65"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
       <c r="E21" s="2" t="s">
         <v>108</v>
       </c>
@@ -6557,14 +6567,14 @@
       <c r="AG21" s="19"/>
       <c r="AH21" s="19"/>
       <c r="AI21" s="19"/>
-      <c r="AJ21" s="63"/>
+      <c r="AJ21" s="62"/>
       <c r="AK21" s="19"/>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A22" s="55"/>
+      <c r="A22" s="72"/>
       <c r="B22" s="65"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="64"/>
       <c r="E22" s="2" t="s">
         <v>135</v>
       </c>
@@ -6608,14 +6618,14 @@
       <c r="AG22" s="19"/>
       <c r="AH22" s="19"/>
       <c r="AI22" s="19"/>
-      <c r="AJ22" s="63"/>
+      <c r="AJ22" s="62"/>
       <c r="AK22" s="19"/>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A23" s="55"/>
+      <c r="A23" s="72"/>
       <c r="B23" s="65"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="64"/>
       <c r="E23" s="2" t="s">
         <v>118</v>
       </c>
@@ -6659,14 +6669,14 @@
       <c r="AG23" s="19"/>
       <c r="AH23" s="19"/>
       <c r="AI23" s="19"/>
-      <c r="AJ23" s="63"/>
+      <c r="AJ23" s="62"/>
       <c r="AK23" s="19"/>
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A24" s="55"/>
+      <c r="A24" s="72"/>
       <c r="B24" s="65"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="64"/>
       <c r="E24" s="2" t="s">
         <v>109</v>
       </c>
@@ -6702,14 +6712,14 @@
       <c r="AG24" s="19"/>
       <c r="AH24" s="19"/>
       <c r="AI24" s="19"/>
-      <c r="AJ24" s="63"/>
+      <c r="AJ24" s="62"/>
       <c r="AK24" s="19"/>
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A25" s="55"/>
+      <c r="A25" s="72"/>
       <c r="B25" s="65"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="64"/>
       <c r="E25" s="2" t="s">
         <v>167</v>
       </c>
@@ -6749,14 +6759,14 @@
       <c r="AG25" s="51"/>
       <c r="AH25" s="51"/>
       <c r="AI25" s="51"/>
-      <c r="AJ25" s="63"/>
+      <c r="AJ25" s="62"/>
       <c r="AK25" s="51"/>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A26" s="55"/>
+      <c r="A26" s="72"/>
       <c r="B26" s="65"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="56"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="64"/>
       <c r="E26" s="2" t="s">
         <v>106</v>
       </c>
@@ -6800,14 +6810,14 @@
       <c r="AG26" s="19"/>
       <c r="AH26" s="19"/>
       <c r="AI26" s="19"/>
-      <c r="AJ26" s="63"/>
+      <c r="AJ26" s="62"/>
       <c r="AK26" s="19"/>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A27" s="55"/>
+      <c r="A27" s="72"/>
       <c r="B27" s="65"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="64"/>
       <c r="E27" s="2" t="s">
         <v>102</v>
       </c>
@@ -6843,14 +6853,14 @@
       <c r="AG27" s="19"/>
       <c r="AH27" s="19"/>
       <c r="AI27" s="19"/>
-      <c r="AJ27" s="63"/>
+      <c r="AJ27" s="62"/>
       <c r="AK27" s="19"/>
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A28" s="55"/>
+      <c r="A28" s="72"/>
       <c r="B28" s="65"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="56" t="s">
+      <c r="C28" s="64"/>
+      <c r="D28" s="64" t="s">
         <v>25</v>
       </c>
       <c r="E28" s="2" t="s">
@@ -6896,14 +6906,14 @@
       <c r="AG28" s="19"/>
       <c r="AH28" s="19"/>
       <c r="AI28" s="19"/>
-      <c r="AJ28" s="63"/>
+      <c r="AJ28" s="62"/>
       <c r="AK28" s="19"/>
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A29" s="55"/>
+      <c r="A29" s="72"/>
       <c r="B29" s="65"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="56"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="64"/>
       <c r="E29" s="2" t="s">
         <v>119</v>
       </c>
@@ -6947,14 +6957,14 @@
       <c r="AG29" s="19"/>
       <c r="AH29" s="19"/>
       <c r="AI29" s="19"/>
-      <c r="AJ29" s="63"/>
+      <c r="AJ29" s="62"/>
       <c r="AK29" s="19"/>
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A30" s="55"/>
+      <c r="A30" s="72"/>
       <c r="B30" s="65"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="56" t="s">
+      <c r="C30" s="64"/>
+      <c r="D30" s="64" t="s">
         <v>13</v>
       </c>
       <c r="E30" s="2" t="s">
@@ -6998,14 +7008,14 @@
       <c r="AG30" s="19"/>
       <c r="AH30" s="19"/>
       <c r="AI30" s="19"/>
-      <c r="AJ30" s="63"/>
+      <c r="AJ30" s="62"/>
       <c r="AK30" s="19"/>
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A31" s="55"/>
+      <c r="A31" s="72"/>
       <c r="B31" s="65"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="56"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="64"/>
       <c r="E31" s="2" t="s">
         <v>143</v>
       </c>
@@ -7041,14 +7051,14 @@
       <c r="AG31" s="19"/>
       <c r="AH31" s="19"/>
       <c r="AI31" s="19"/>
-      <c r="AJ31" s="63"/>
+      <c r="AJ31" s="62"/>
       <c r="AK31" s="19"/>
     </row>
     <row r="32" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A32" s="55"/>
+      <c r="A32" s="72"/>
       <c r="B32" s="65"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="56"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="64"/>
       <c r="E32" s="2" t="s">
         <v>113</v>
       </c>
@@ -7092,14 +7102,14 @@
       <c r="AG32" s="19"/>
       <c r="AH32" s="19"/>
       <c r="AI32" s="19"/>
-      <c r="AJ32" s="63"/>
+      <c r="AJ32" s="62"/>
       <c r="AK32" s="19"/>
     </row>
     <row r="33" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A33" s="55"/>
+      <c r="A33" s="72"/>
       <c r="B33" s="65"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56" t="s">
+      <c r="C33" s="64"/>
+      <c r="D33" s="64" t="s">
         <v>90</v>
       </c>
       <c r="E33" s="2" t="s">
@@ -7137,14 +7147,14 @@
       <c r="AG33" s="19"/>
       <c r="AH33" s="19"/>
       <c r="AI33" s="19"/>
-      <c r="AJ33" s="63"/>
+      <c r="AJ33" s="62"/>
       <c r="AK33" s="19"/>
     </row>
     <row r="34" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A34" s="55"/>
+      <c r="A34" s="72"/>
       <c r="B34" s="65"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="64"/>
       <c r="E34" s="2" t="s">
         <v>141</v>
       </c>
@@ -7188,14 +7198,14 @@
       <c r="AG34" s="19"/>
       <c r="AH34" s="19"/>
       <c r="AI34" s="19"/>
-      <c r="AJ34" s="63"/>
+      <c r="AJ34" s="62"/>
       <c r="AK34" s="19"/>
     </row>
     <row r="35" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A35" s="55"/>
+      <c r="A35" s="72"/>
       <c r="B35" s="65"/>
-      <c r="C35" s="56"/>
-      <c r="D35" s="56"/>
+      <c r="C35" s="64"/>
+      <c r="D35" s="64"/>
       <c r="E35" s="2" t="s">
         <v>103</v>
       </c>
@@ -7231,13 +7241,13 @@
       <c r="AG35" s="19"/>
       <c r="AH35" s="19"/>
       <c r="AI35" s="19"/>
-      <c r="AJ35" s="63"/>
+      <c r="AJ35" s="62"/>
       <c r="AK35" s="19"/>
     </row>
     <row r="36" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A36" s="55"/>
+      <c r="A36" s="72"/>
       <c r="B36" s="65"/>
-      <c r="C36" s="56"/>
+      <c r="C36" s="64"/>
       <c r="D36" s="2" t="s">
         <v>24</v>
       </c>
@@ -7276,13 +7286,13 @@
       <c r="AG36" s="19"/>
       <c r="AH36" s="19"/>
       <c r="AI36" s="19"/>
-      <c r="AJ36" s="63"/>
+      <c r="AJ36" s="62"/>
       <c r="AK36" s="19"/>
     </row>
     <row r="37" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A37" s="55"/>
+      <c r="A37" s="72"/>
       <c r="B37" s="65"/>
-      <c r="C37" s="56"/>
+      <c r="C37" s="64"/>
       <c r="D37" s="2" t="s">
         <v>144</v>
       </c>
@@ -7329,13 +7339,13 @@
       <c r="AG37" s="19"/>
       <c r="AH37" s="19"/>
       <c r="AI37" s="19"/>
-      <c r="AJ37" s="63"/>
+      <c r="AJ37" s="62"/>
       <c r="AK37" s="19"/>
     </row>
     <row r="38" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A38" s="55"/>
+      <c r="A38" s="72"/>
       <c r="B38" s="65"/>
-      <c r="C38" s="56"/>
+      <c r="C38" s="64"/>
       <c r="D38" s="2" t="s">
         <v>94</v>
       </c>
@@ -7372,13 +7382,13 @@
       <c r="AG38" s="19"/>
       <c r="AH38" s="19"/>
       <c r="AI38" s="19"/>
-      <c r="AJ38" s="63"/>
+      <c r="AJ38" s="62"/>
       <c r="AK38" s="19"/>
     </row>
     <row r="39" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A39" s="55"/>
+      <c r="A39" s="72"/>
       <c r="B39" s="65"/>
-      <c r="C39" s="56"/>
+      <c r="C39" s="64"/>
       <c r="D39" s="2" t="s">
         <v>23</v>
       </c>
@@ -7415,13 +7425,13 @@
       <c r="AG39" s="19"/>
       <c r="AH39" s="19"/>
       <c r="AI39" s="19"/>
-      <c r="AJ39" s="63"/>
+      <c r="AJ39" s="62"/>
       <c r="AK39" s="19"/>
     </row>
     <row r="40" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A40" s="55"/>
+      <c r="A40" s="72"/>
       <c r="B40" s="65"/>
-      <c r="C40" s="56"/>
+      <c r="C40" s="64"/>
       <c r="D40" s="39" t="s">
         <v>27</v>
       </c>
@@ -7458,13 +7468,13 @@
       <c r="AG40" s="19"/>
       <c r="AH40" s="19"/>
       <c r="AI40" s="19"/>
-      <c r="AJ40" s="63"/>
+      <c r="AJ40" s="62"/>
       <c r="AK40" s="19"/>
     </row>
     <row r="41" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A41" s="55"/>
+      <c r="A41" s="72"/>
       <c r="B41" s="65"/>
-      <c r="C41" s="56"/>
+      <c r="C41" s="64"/>
       <c r="D41" s="38" t="s">
         <v>45</v>
       </c>
@@ -7501,13 +7511,13 @@
       <c r="AG41" s="19"/>
       <c r="AH41" s="19"/>
       <c r="AI41" s="19"/>
-      <c r="AJ41" s="63"/>
+      <c r="AJ41" s="62"/>
       <c r="AK41" s="19"/>
     </row>
     <row r="42" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A42" s="55"/>
+      <c r="A42" s="72"/>
       <c r="B42" s="65"/>
-      <c r="C42" s="56"/>
+      <c r="C42" s="64"/>
       <c r="D42" s="2" t="s">
         <v>26</v>
       </c>
@@ -7544,13 +7554,13 @@
       <c r="AG42" s="19"/>
       <c r="AH42" s="19"/>
       <c r="AI42" s="19"/>
-      <c r="AJ42" s="63"/>
+      <c r="AJ42" s="62"/>
       <c r="AK42" s="19"/>
     </row>
     <row r="43" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A43" s="55"/>
+      <c r="A43" s="72"/>
       <c r="B43" s="65"/>
-      <c r="C43" s="56" t="s">
+      <c r="C43" s="64" t="s">
         <v>42</v>
       </c>
       <c r="D43" s="40" t="s">
@@ -7589,13 +7599,13 @@
       <c r="AG43" s="19"/>
       <c r="AH43" s="19"/>
       <c r="AI43" s="19"/>
-      <c r="AJ43" s="63"/>
+      <c r="AJ43" s="62"/>
       <c r="AK43" s="19"/>
     </row>
     <row r="44" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A44" s="55"/>
+      <c r="A44" s="72"/>
       <c r="B44" s="65"/>
-      <c r="C44" s="56"/>
+      <c r="C44" s="64"/>
       <c r="D44" s="2" t="s">
         <v>26</v>
       </c>
@@ -7632,13 +7642,13 @@
       <c r="AG44" s="19"/>
       <c r="AH44" s="19"/>
       <c r="AI44" s="19"/>
-      <c r="AJ44" s="63"/>
+      <c r="AJ44" s="62"/>
       <c r="AK44" s="19"/>
     </row>
     <row r="45" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A45" s="55"/>
+      <c r="A45" s="72"/>
       <c r="B45" s="65"/>
-      <c r="C45" s="56" t="s">
+      <c r="C45" s="64" t="s">
         <v>43</v>
       </c>
       <c r="D45" s="38" t="s">
@@ -7677,13 +7687,13 @@
       <c r="AG45" s="19"/>
       <c r="AH45" s="19"/>
       <c r="AI45" s="19"/>
-      <c r="AJ45" s="63"/>
+      <c r="AJ45" s="62"/>
       <c r="AK45" s="19"/>
     </row>
     <row r="46" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A46" s="55"/>
+      <c r="A46" s="72"/>
       <c r="B46" s="65"/>
-      <c r="C46" s="56"/>
+      <c r="C46" s="64"/>
       <c r="D46" s="2" t="s">
         <v>26</v>
       </c>
@@ -7720,13 +7730,13 @@
       <c r="AG46" s="19"/>
       <c r="AH46" s="19"/>
       <c r="AI46" s="19"/>
-      <c r="AJ46" s="63"/>
+      <c r="AJ46" s="62"/>
       <c r="AK46" s="19"/>
     </row>
     <row r="47" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A47" s="55"/>
+      <c r="A47" s="72"/>
       <c r="B47" s="65"/>
-      <c r="C47" s="56"/>
+      <c r="C47" s="64"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="20"/>
@@ -7761,13 +7771,13 @@
       <c r="AG47" s="19"/>
       <c r="AH47" s="19"/>
       <c r="AI47" s="19"/>
-      <c r="AJ47" s="63"/>
+      <c r="AJ47" s="62"/>
       <c r="AK47" s="19"/>
     </row>
     <row r="48" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A48" s="55"/>
+      <c r="A48" s="72"/>
       <c r="B48" s="65"/>
-      <c r="C48" s="56" t="s">
+      <c r="C48" s="64" t="s">
         <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
@@ -7806,13 +7816,13 @@
       <c r="AG48" s="19"/>
       <c r="AH48" s="19"/>
       <c r="AI48" s="19"/>
-      <c r="AJ48" s="63"/>
+      <c r="AJ48" s="62"/>
       <c r="AK48" s="19"/>
     </row>
     <row r="49" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A49" s="55"/>
+      <c r="A49" s="72"/>
       <c r="B49" s="65"/>
-      <c r="C49" s="56"/>
+      <c r="C49" s="64"/>
       <c r="D49" s="2" t="s">
         <v>36</v>
       </c>
@@ -7849,13 +7859,13 @@
       <c r="AG49" s="19"/>
       <c r="AH49" s="19"/>
       <c r="AI49" s="19"/>
-      <c r="AJ49" s="63"/>
+      <c r="AJ49" s="62"/>
       <c r="AK49" s="19"/>
     </row>
     <row r="50" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A50" s="55"/>
+      <c r="A50" s="72"/>
       <c r="B50" s="65"/>
-      <c r="C50" s="56"/>
+      <c r="C50" s="64"/>
       <c r="D50" s="2" t="s">
         <v>37</v>
       </c>
@@ -7892,13 +7902,13 @@
       <c r="AG50" s="19"/>
       <c r="AH50" s="19"/>
       <c r="AI50" s="19"/>
-      <c r="AJ50" s="63"/>
+      <c r="AJ50" s="62"/>
       <c r="AK50" s="19"/>
     </row>
     <row r="51" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A51" s="55"/>
+      <c r="A51" s="72"/>
       <c r="B51" s="65"/>
-      <c r="C51" s="56"/>
+      <c r="C51" s="64"/>
       <c r="D51" s="2" t="s">
         <v>38</v>
       </c>
@@ -7935,13 +7945,13 @@
       <c r="AG51" s="19"/>
       <c r="AH51" s="19"/>
       <c r="AI51" s="19"/>
-      <c r="AJ51" s="63"/>
+      <c r="AJ51" s="62"/>
       <c r="AK51" s="19"/>
     </row>
     <row r="52" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A52" s="55"/>
+      <c r="A52" s="72"/>
       <c r="B52" s="65"/>
-      <c r="C52" s="56"/>
+      <c r="C52" s="64"/>
       <c r="D52" s="2" t="s">
         <v>33</v>
       </c>
@@ -7978,13 +7988,13 @@
       <c r="AG52" s="19"/>
       <c r="AH52" s="19"/>
       <c r="AI52" s="19"/>
-      <c r="AJ52" s="63"/>
+      <c r="AJ52" s="62"/>
       <c r="AK52" s="19"/>
     </row>
     <row r="53" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A53" s="55"/>
+      <c r="A53" s="72"/>
       <c r="B53" s="65"/>
-      <c r="C53" s="56" t="s">
+      <c r="C53" s="64" t="s">
         <v>121</v>
       </c>
       <c r="D53" s="2" t="s">
@@ -8027,13 +8037,13 @@
       <c r="AG53" s="19"/>
       <c r="AH53" s="19"/>
       <c r="AI53" s="19"/>
-      <c r="AJ53" s="63"/>
+      <c r="AJ53" s="62"/>
       <c r="AK53" s="19"/>
     </row>
     <row r="54" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A54" s="55"/>
+      <c r="A54" s="72"/>
       <c r="B54" s="65"/>
-      <c r="C54" s="56"/>
+      <c r="C54" s="64"/>
       <c r="D54" s="2" t="s">
         <v>151</v>
       </c>
@@ -8074,11 +8084,11 @@
       <c r="AG54" s="19"/>
       <c r="AH54" s="19"/>
       <c r="AI54" s="19"/>
-      <c r="AJ54" s="63"/>
+      <c r="AJ54" s="62"/>
       <c r="AK54" s="19"/>
     </row>
     <row r="55" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="55"/>
+      <c r="A55" s="72"/>
       <c r="B55" s="65"/>
       <c r="C55" s="21" t="s">
         <v>71</v>
@@ -8119,18 +8129,18 @@
       <c r="AG55" s="19"/>
       <c r="AH55" s="19"/>
       <c r="AI55" s="19"/>
-      <c r="AJ55" s="63"/>
+      <c r="AJ55" s="62"/>
       <c r="AK55" s="19"/>
     </row>
     <row r="56" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A56" s="55"/>
-      <c r="B56" s="58" t="s">
+      <c r="A56" s="72"/>
+      <c r="B56" s="74" t="s">
         <v>120</v>
       </c>
-      <c r="C56" s="56" t="s">
+      <c r="C56" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="D56" s="56" t="s">
+      <c r="D56" s="64" t="s">
         <v>29</v>
       </c>
       <c r="E56" s="2" t="s">
@@ -8176,14 +8186,14 @@
       <c r="AG56" s="19"/>
       <c r="AH56" s="19"/>
       <c r="AI56" s="19"/>
-      <c r="AJ56" s="63"/>
+      <c r="AJ56" s="62"/>
       <c r="AK56" s="19"/>
     </row>
     <row r="57" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A57" s="55"/>
-      <c r="B57" s="58"/>
-      <c r="C57" s="56"/>
-      <c r="D57" s="56"/>
+      <c r="A57" s="72"/>
+      <c r="B57" s="74"/>
+      <c r="C57" s="64"/>
+      <c r="D57" s="64"/>
       <c r="E57" s="2" t="s">
         <v>130</v>
       </c>
@@ -8227,29 +8237,31 @@
       <c r="AG57" s="19"/>
       <c r="AH57" s="19"/>
       <c r="AI57" s="19"/>
-      <c r="AJ57" s="63"/>
+      <c r="AJ57" s="62"/>
       <c r="AK57" s="19"/>
     </row>
     <row r="58" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A58" s="55"/>
-      <c r="B58" s="58"/>
-      <c r="C58" s="56" t="s">
+      <c r="A58" s="72"/>
+      <c r="B58" s="74"/>
+      <c r="C58" s="64" t="s">
         <v>96</v>
       </c>
-      <c r="D58" s="56" t="s">
+      <c r="D58" s="64" t="s">
         <v>95</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>102</v>
       </c>
       <c r="F58" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="G58" s="20"/>
+        <v>39</v>
+      </c>
+      <c r="G58" s="20" t="s">
+        <v>192</v>
+      </c>
       <c r="H58" s="35"/>
       <c r="I58" s="35"/>
       <c r="J58" s="36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K58" s="30"/>
       <c r="L58" s="20"/>
@@ -8276,25 +8288,27 @@
       <c r="AG58" s="19"/>
       <c r="AH58" s="19"/>
       <c r="AI58" s="19"/>
-      <c r="AJ58" s="63"/>
+      <c r="AJ58" s="62"/>
       <c r="AK58" s="19"/>
     </row>
     <row r="59" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A59" s="55"/>
-      <c r="B59" s="58"/>
-      <c r="C59" s="56"/>
-      <c r="D59" s="56"/>
+      <c r="A59" s="72"/>
+      <c r="B59" s="74"/>
+      <c r="C59" s="64"/>
+      <c r="D59" s="64"/>
       <c r="E59" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F59" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="G59" s="20"/>
+      <c r="F59" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="G59" s="20" t="s">
+        <v>192</v>
+      </c>
       <c r="H59" s="35"/>
       <c r="I59" s="35"/>
       <c r="J59" s="36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K59" s="30"/>
       <c r="L59" s="20"/>
@@ -8321,25 +8335,27 @@
       <c r="AG59" s="19"/>
       <c r="AH59" s="19"/>
       <c r="AI59" s="19"/>
-      <c r="AJ59" s="63"/>
+      <c r="AJ59" s="62"/>
       <c r="AK59" s="19"/>
     </row>
     <row r="60" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A60" s="55"/>
-      <c r="B60" s="58"/>
-      <c r="C60" s="56"/>
-      <c r="D60" s="56"/>
+      <c r="A60" s="72"/>
+      <c r="B60" s="74"/>
+      <c r="C60" s="64"/>
+      <c r="D60" s="64"/>
       <c r="E60" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="F60" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="G60" s="20"/>
+      <c r="F60" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="G60" s="20" t="s">
+        <v>192</v>
+      </c>
       <c r="H60" s="35"/>
       <c r="I60" s="35"/>
       <c r="J60" s="36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K60" s="30"/>
       <c r="L60" s="20"/>
@@ -8366,25 +8382,27 @@
       <c r="AG60" s="19"/>
       <c r="AH60" s="19"/>
       <c r="AI60" s="19"/>
-      <c r="AJ60" s="63"/>
+      <c r="AJ60" s="62"/>
       <c r="AK60" s="19"/>
     </row>
     <row r="61" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A61" s="55"/>
-      <c r="B61" s="58"/>
-      <c r="C61" s="56"/>
-      <c r="D61" s="56"/>
+      <c r="A61" s="72"/>
+      <c r="B61" s="74"/>
+      <c r="C61" s="64"/>
+      <c r="D61" s="64"/>
       <c r="E61" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="F61" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="G61" s="20"/>
+      <c r="F61" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="G61" s="20" t="s">
+        <v>192</v>
+      </c>
       <c r="H61" s="35"/>
       <c r="I61" s="35"/>
       <c r="J61" s="36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K61" s="30"/>
       <c r="L61" s="20"/>
@@ -8411,25 +8429,27 @@
       <c r="AG61" s="19"/>
       <c r="AH61" s="19"/>
       <c r="AI61" s="19"/>
-      <c r="AJ61" s="63"/>
+      <c r="AJ61" s="62"/>
       <c r="AK61" s="19"/>
     </row>
     <row r="62" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A62" s="55"/>
-      <c r="B62" s="58"/>
-      <c r="C62" s="56"/>
-      <c r="D62" s="56"/>
+      <c r="A62" s="72"/>
+      <c r="B62" s="74"/>
+      <c r="C62" s="64"/>
+      <c r="D62" s="64"/>
       <c r="E62" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="F62" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="G62" s="20"/>
+      <c r="F62" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="G62" s="20" t="s">
+        <v>192</v>
+      </c>
       <c r="H62" s="35"/>
       <c r="I62" s="35"/>
       <c r="J62" s="36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K62" s="30"/>
       <c r="L62" s="20"/>
@@ -8456,14 +8476,14 @@
       <c r="AG62" s="19"/>
       <c r="AH62" s="19"/>
       <c r="AI62" s="19"/>
-      <c r="AJ62" s="63"/>
+      <c r="AJ62" s="62"/>
       <c r="AK62" s="19"/>
     </row>
     <row r="63" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A63" s="55"/>
-      <c r="B63" s="58"/>
-      <c r="C63" s="56"/>
-      <c r="D63" s="56" t="s">
+      <c r="A63" s="72"/>
+      <c r="B63" s="74"/>
+      <c r="C63" s="64"/>
+      <c r="D63" s="64" t="s">
         <v>97</v>
       </c>
       <c r="E63" s="2" t="s">
@@ -8503,14 +8523,14 @@
       <c r="AG63" s="19"/>
       <c r="AH63" s="19"/>
       <c r="AI63" s="19"/>
-      <c r="AJ63" s="63"/>
+      <c r="AJ63" s="62"/>
       <c r="AK63" s="19"/>
     </row>
     <row r="64" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A64" s="55"/>
-      <c r="B64" s="58"/>
-      <c r="C64" s="56"/>
-      <c r="D64" s="56"/>
+      <c r="A64" s="72"/>
+      <c r="B64" s="74"/>
+      <c r="C64" s="64"/>
+      <c r="D64" s="64"/>
       <c r="E64" s="2" t="s">
         <v>102</v>
       </c>
@@ -8548,16 +8568,16 @@
       <c r="AG64" s="19"/>
       <c r="AH64" s="19"/>
       <c r="AI64" s="19"/>
-      <c r="AJ64" s="63"/>
+      <c r="AJ64" s="62"/>
       <c r="AK64" s="19"/>
     </row>
     <row r="65" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="55"/>
-      <c r="B65" s="58"/>
-      <c r="C65" s="56" t="s">
+      <c r="A65" s="72"/>
+      <c r="B65" s="74"/>
+      <c r="C65" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="D65" s="56" t="s">
+      <c r="D65" s="64" t="s">
         <v>93</v>
       </c>
       <c r="E65" s="2" t="s">
@@ -8603,14 +8623,14 @@
       <c r="AG65" s="19"/>
       <c r="AH65" s="19"/>
       <c r="AI65" s="19"/>
-      <c r="AJ65" s="63"/>
+      <c r="AJ65" s="62"/>
       <c r="AK65" s="19"/>
     </row>
     <row r="66" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="55"/>
-      <c r="B66" s="58"/>
-      <c r="C66" s="56"/>
-      <c r="D66" s="56"/>
+      <c r="A66" s="72"/>
+      <c r="B66" s="74"/>
+      <c r="C66" s="64"/>
+      <c r="D66" s="64"/>
       <c r="E66" s="2" t="s">
         <v>130</v>
       </c>
@@ -8652,13 +8672,13 @@
       <c r="AG66" s="19"/>
       <c r="AH66" s="19"/>
       <c r="AI66" s="19"/>
-      <c r="AJ66" s="63"/>
+      <c r="AJ66" s="62"/>
       <c r="AK66" s="19"/>
     </row>
     <row r="67" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="55"/>
-      <c r="B67" s="58"/>
-      <c r="C67" s="56"/>
+      <c r="A67" s="72"/>
+      <c r="B67" s="74"/>
+      <c r="C67" s="64"/>
       <c r="D67" s="59" t="s">
         <v>98</v>
       </c>
@@ -8697,14 +8717,14 @@
       <c r="AG67" s="54"/>
       <c r="AH67" s="54"/>
       <c r="AI67" s="54"/>
-      <c r="AJ67" s="63"/>
+      <c r="AJ67" s="62"/>
       <c r="AK67" s="54"/>
     </row>
     <row r="68" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="55"/>
-      <c r="B68" s="58"/>
-      <c r="C68" s="56"/>
-      <c r="D68" s="61"/>
+      <c r="A68" s="72"/>
+      <c r="B68" s="74"/>
+      <c r="C68" s="64"/>
+      <c r="D68" s="60"/>
       <c r="E68" s="2" t="s">
         <v>130</v>
       </c>
@@ -8742,13 +8762,13 @@
       <c r="AG68" s="19"/>
       <c r="AH68" s="19"/>
       <c r="AI68" s="19"/>
-      <c r="AJ68" s="63"/>
+      <c r="AJ68" s="62"/>
       <c r="AK68" s="19"/>
     </row>
     <row r="69" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A69" s="55"/>
-      <c r="B69" s="58"/>
-      <c r="C69" s="60"/>
+      <c r="A69" s="72"/>
+      <c r="B69" s="74"/>
+      <c r="C69" s="75"/>
       <c r="D69" s="2" t="s">
         <v>190</v>
       </c>
@@ -8787,13 +8807,13 @@
       <c r="AG69" s="54"/>
       <c r="AH69" s="54"/>
       <c r="AI69" s="54"/>
-      <c r="AJ69" s="63"/>
+      <c r="AJ69" s="62"/>
       <c r="AK69" s="54"/>
     </row>
     <row r="70" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A70" s="55"/>
-      <c r="B70" s="58"/>
-      <c r="C70" s="60"/>
+      <c r="A70" s="72"/>
+      <c r="B70" s="74"/>
+      <c r="C70" s="75"/>
       <c r="D70" s="2" t="s">
         <v>191</v>
       </c>
@@ -8832,13 +8852,13 @@
       <c r="AG70" s="54"/>
       <c r="AH70" s="54"/>
       <c r="AI70" s="54"/>
-      <c r="AJ70" s="63"/>
+      <c r="AJ70" s="62"/>
       <c r="AK70" s="54"/>
     </row>
     <row r="71" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A71" s="55"/>
-      <c r="B71" s="58"/>
-      <c r="C71" s="61"/>
+      <c r="A71" s="72"/>
+      <c r="B71" s="74"/>
+      <c r="C71" s="60"/>
       <c r="D71" s="2" t="s">
         <v>161</v>
       </c>
@@ -8885,13 +8905,13 @@
       <c r="AG71" s="19"/>
       <c r="AH71" s="19"/>
       <c r="AI71" s="19"/>
-      <c r="AJ71" s="63"/>
+      <c r="AJ71" s="62"/>
       <c r="AK71" s="19"/>
     </row>
     <row r="72" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A72" s="55"/>
-      <c r="B72" s="58"/>
-      <c r="C72" s="56" t="s">
+      <c r="A72" s="72"/>
+      <c r="B72" s="74"/>
+      <c r="C72" s="64" t="s">
         <v>13</v>
       </c>
       <c r="D72" s="2" t="s">
@@ -8938,13 +8958,13 @@
       <c r="AG72" s="19"/>
       <c r="AH72" s="19"/>
       <c r="AI72" s="19"/>
-      <c r="AJ72" s="63"/>
+      <c r="AJ72" s="62"/>
       <c r="AK72" s="19"/>
     </row>
     <row r="73" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A73" s="55"/>
-      <c r="B73" s="58"/>
-      <c r="C73" s="56"/>
+      <c r="A73" s="72"/>
+      <c r="B73" s="74"/>
+      <c r="C73" s="64"/>
       <c r="D73" s="2" t="s">
         <v>126</v>
       </c>
@@ -8989,12 +9009,12 @@
       <c r="AG73" s="19"/>
       <c r="AH73" s="19"/>
       <c r="AI73" s="19"/>
-      <c r="AJ73" s="63"/>
+      <c r="AJ73" s="62"/>
       <c r="AK73" s="19"/>
     </row>
     <row r="74" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="55"/>
-      <c r="B74" s="58"/>
+      <c r="A74" s="72"/>
+      <c r="B74" s="74"/>
       <c r="C74" s="59" t="s">
         <v>99</v>
       </c>
@@ -9042,13 +9062,13 @@
       <c r="AG74" s="19"/>
       <c r="AH74" s="19"/>
       <c r="AI74" s="19"/>
-      <c r="AJ74" s="63"/>
+      <c r="AJ74" s="62"/>
       <c r="AK74" s="19"/>
     </row>
     <row r="75" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="55"/>
-      <c r="B75" s="58"/>
-      <c r="C75" s="60"/>
+      <c r="A75" s="72"/>
+      <c r="B75" s="74"/>
+      <c r="C75" s="75"/>
       <c r="D75" s="2" t="s">
         <v>156</v>
       </c>
@@ -9093,13 +9113,13 @@
       <c r="AG75" s="19"/>
       <c r="AH75" s="19"/>
       <c r="AI75" s="19"/>
-      <c r="AJ75" s="63"/>
+      <c r="AJ75" s="62"/>
       <c r="AK75" s="19"/>
     </row>
     <row r="76" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="55"/>
-      <c r="B76" s="58"/>
-      <c r="C76" s="60"/>
+      <c r="A76" s="72"/>
+      <c r="B76" s="74"/>
+      <c r="C76" s="75"/>
       <c r="D76" s="2" t="s">
         <v>187</v>
       </c>
@@ -9136,13 +9156,13 @@
       <c r="AG76" s="54"/>
       <c r="AH76" s="54"/>
       <c r="AI76" s="54"/>
-      <c r="AJ76" s="63"/>
+      <c r="AJ76" s="62"/>
       <c r="AK76" s="54"/>
     </row>
     <row r="77" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="55"/>
-      <c r="B77" s="58"/>
-      <c r="C77" s="61"/>
+      <c r="A77" s="72"/>
+      <c r="B77" s="74"/>
+      <c r="C77" s="60"/>
       <c r="D77" s="2" t="s">
         <v>157</v>
       </c>
@@ -9187,13 +9207,13 @@
       <c r="AG77" s="19"/>
       <c r="AH77" s="19"/>
       <c r="AI77" s="19"/>
-      <c r="AJ77" s="63"/>
+      <c r="AJ77" s="62"/>
       <c r="AK77" s="19"/>
     </row>
     <row r="78" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A78" s="55"/>
-      <c r="B78" s="58"/>
-      <c r="C78" s="56" t="s">
+      <c r="A78" s="72"/>
+      <c r="B78" s="74"/>
+      <c r="C78" s="64" t="s">
         <v>30</v>
       </c>
       <c r="D78" s="2" t="s">
@@ -9238,13 +9258,13 @@
       <c r="AG78" s="19"/>
       <c r="AH78" s="19"/>
       <c r="AI78" s="19"/>
-      <c r="AJ78" s="63"/>
+      <c r="AJ78" s="62"/>
       <c r="AK78" s="19"/>
     </row>
     <row r="79" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A79" s="55"/>
-      <c r="B79" s="58"/>
-      <c r="C79" s="56"/>
+      <c r="A79" s="72"/>
+      <c r="B79" s="74"/>
+      <c r="C79" s="64"/>
       <c r="D79" s="2" t="s">
         <v>32</v>
       </c>
@@ -9281,13 +9301,13 @@
       <c r="AG79" s="19"/>
       <c r="AH79" s="19"/>
       <c r="AI79" s="19"/>
-      <c r="AJ79" s="63"/>
+      <c r="AJ79" s="62"/>
       <c r="AK79" s="19"/>
     </row>
     <row r="80" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A80" s="55"/>
-      <c r="B80" s="58"/>
-      <c r="C80" s="56"/>
+      <c r="A80" s="72"/>
+      <c r="B80" s="74"/>
+      <c r="C80" s="64"/>
       <c r="D80" s="2" t="s">
         <v>33</v>
       </c>
@@ -9330,11 +9350,11 @@
       <c r="AG80" s="19"/>
       <c r="AH80" s="19"/>
       <c r="AI80" s="19"/>
-      <c r="AJ80" s="64"/>
+      <c r="AJ80" s="63"/>
       <c r="AK80" s="19"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A81" s="55"/>
+      <c r="A81" s="72"/>
       <c r="B81" s="44" t="s">
         <v>21</v>
       </c>
@@ -9355,6 +9375,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="A5:A81"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C78:C80"/>
+    <mergeCell ref="C48:C52"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="C65:C68"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="B56:B80"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="C74:C77"/>
+    <mergeCell ref="C69:C71"/>
     <mergeCell ref="D67:D68"/>
     <mergeCell ref="AJ5:AJ80"/>
     <mergeCell ref="C18:C42"/>
@@ -9371,20 +9405,6 @@
     <mergeCell ref="D56:D57"/>
     <mergeCell ref="D63:D64"/>
     <mergeCell ref="D65:D66"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="A5:A81"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C78:C80"/>
-    <mergeCell ref="C48:C52"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="C65:C68"/>
-    <mergeCell ref="B5:B10"/>
-    <mergeCell ref="B56:B80"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="C74:C77"/>
-    <mergeCell ref="C69:C71"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="K3:AK5 AK6:AK80 W6:AB80 AD6:AI80 K6:U80">
@@ -9465,24 +9485,24 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
     </row>
     <row r="4" spans="2:14" ht="45.75" x14ac:dyDescent="0.4">
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
       <c r="K4" s="11" t="s">
         <v>73</v>
       </c>
@@ -9491,14 +9511,14 @@
       </c>
     </row>
     <row r="5" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
       <c r="K5" s="12" t="s">
         <v>75</v>
       </c>
@@ -9507,28 +9527,28 @@
       </c>
     </row>
     <row r="6" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
       <c r="K6" s="12" t="s">
         <v>76</v>
       </c>
       <c r="L6" s="13"/>
     </row>
     <row r="7" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
       <c r="K7" s="12" t="s">
         <v>77</v>
       </c>
@@ -9537,28 +9557,28 @@
       </c>
     </row>
     <row r="8" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
       <c r="K8" s="12" t="s">
         <v>78</v>
       </c>
       <c r="L8" s="13"/>
     </row>
     <row r="9" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B9" s="72"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="72"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
       <c r="K9" s="12" t="s">
         <v>79</v>
       </c>
@@ -9567,28 +9587,28 @@
       </c>
     </row>
     <row r="10" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B10" s="72"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="72"/>
-      <c r="H10" s="72"/>
-      <c r="I10" s="72"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
       <c r="K10" s="12" t="s">
         <v>80</v>
       </c>
       <c r="L10" s="13"/>
     </row>
     <row r="11" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B11" s="72"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="72"/>
-      <c r="H11" s="72"/>
-      <c r="I11" s="72"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
       <c r="K11" s="12" t="s">
         <v>81</v>
       </c>
@@ -9598,136 +9618,136 @@
       <c r="N11" s="10"/>
     </row>
     <row r="12" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B12" s="72"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="72"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
       <c r="K12" s="12" t="s">
         <v>82</v>
       </c>
       <c r="L12" s="13"/>
     </row>
     <row r="13" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B13" s="72"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="72"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
       <c r="K13" s="12" t="s">
         <v>83</v>
       </c>
       <c r="L13" s="13"/>
     </row>
     <row r="14" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B14" s="72"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="72"/>
-      <c r="I14" s="72"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="76"/>
       <c r="K14" s="12" t="s">
         <v>84</v>
       </c>
       <c r="L14" s="13"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B15" s="72"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="72"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="76"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B16" s="72"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="72"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B17" s="72"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="72"/>
-      <c r="I17" s="72"/>
+      <c r="B17" s="76"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="76"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B18" s="72"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="72"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="76"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B19" s="72"/>
-      <c r="C19" s="72"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="72"/>
-      <c r="H19" s="72"/>
-      <c r="I19" s="72"/>
+      <c r="B19" s="76"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="76"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B20" s="72"/>
-      <c r="C20" s="72"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="72"/>
-      <c r="I20" s="72"/>
+      <c r="B20" s="76"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="76"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B21" s="72"/>
-      <c r="C21" s="72"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="72"/>
+      <c r="B21" s="76"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="76"/>
+      <c r="I21" s="76"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B22" s="72"/>
-      <c r="C22" s="72"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="72"/>
-      <c r="I22" s="72"/>
+      <c r="B22" s="76"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
+      <c r="I22" s="76"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B23" s="72"/>
-      <c r="C23" s="72"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="72"/>
+      <c r="B23" s="76"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="76"/>
+      <c r="I23" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9773,22 +9793,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" s="72"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
+      <c r="A2" s="76"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="7"/>
@@ -9875,7 +9895,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B10" s="74" t="s">
+      <c r="B10" s="78" t="s">
         <v>173</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -9889,7 +9909,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B11" s="74"/>
+      <c r="B11" s="78"/>
       <c r="C11" s="2" t="s">
         <v>176</v>
       </c>
@@ -9897,7 +9917,7 @@
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B12" s="74"/>
+      <c r="B12" s="78"/>
       <c r="C12" s="2" t="s">
         <v>172</v>
       </c>
@@ -9905,7 +9925,7 @@
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B13" s="74"/>
+      <c r="B13" s="78"/>
       <c r="C13" s="2" t="s">
         <v>175</v>
       </c>
@@ -10010,12 +10030,12 @@
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="79" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/schedule/ガントチャート.xlsx
+++ b/schedule/ガントチャート.xlsx
@@ -2086,7 +2086,22 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2100,9 +2115,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2124,18 +2136,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="12" borderId="3" xfId="13" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3459,6 +3459,316 @@
         <a:xfrm>
           <a:off x="12480027" y="17095304"/>
           <a:ext cx="1028908" cy="225326"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 52778"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>16383</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>8283</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>248478</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>215861</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="右矢印 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13815209" y="13931348"/>
+          <a:ext cx="497139" cy="207578"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 52778"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>19696</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>44726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>251791</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>12108</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="右矢印 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13818522" y="14207987"/>
+          <a:ext cx="497139" cy="207578"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 52778"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>6443</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>14908</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>238538</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>222486</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="右矢印 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13805269" y="14418365"/>
+          <a:ext cx="497139" cy="207578"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 52778"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>18038</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>26504</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>250133</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>234082</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="右矢印 29"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13816864" y="14670156"/>
+          <a:ext cx="497139" cy="207578"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 52778"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>13069</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>29816</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>245164</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>237394</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="右矢印 30"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13811895" y="14913664"/>
+          <a:ext cx="497139" cy="207578"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -5464,10 +5774,10 @@
   <dimension ref="A1:AS81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="10" ySplit="4" topLeftCell="K53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="4" topLeftCell="K47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I58" sqref="I58"/>
+      <selection pane="bottomRight" activeCell="O58" sqref="O58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5752,10 +6062,10 @@
       </c>
     </row>
     <row r="5" spans="1:45" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="61" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="20" t="s">
@@ -5791,7 +6101,7 @@
       <c r="S5" s="19"/>
       <c r="T5" s="19"/>
       <c r="U5" s="19"/>
-      <c r="V5" s="66" t="s">
+      <c r="V5" s="70" t="s">
         <v>110</v>
       </c>
       <c r="W5" s="19"/>
@@ -5800,7 +6110,7 @@
       <c r="Z5" s="19"/>
       <c r="AA5" s="19"/>
       <c r="AB5" s="19"/>
-      <c r="AC5" s="69" t="s">
+      <c r="AC5" s="73" t="s">
         <v>111</v>
       </c>
       <c r="AD5" s="19"/>
@@ -5809,14 +6119,14 @@
       <c r="AG5" s="19"/>
       <c r="AH5" s="19"/>
       <c r="AI5" s="19"/>
-      <c r="AJ5" s="61" t="s">
+      <c r="AJ5" s="66" t="s">
         <v>88</v>
       </c>
       <c r="AK5" s="19"/>
     </row>
     <row r="6" spans="1:45" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="72"/>
-      <c r="B6" s="73"/>
+      <c r="A6" s="60"/>
+      <c r="B6" s="61"/>
       <c r="C6" s="20" t="s">
         <v>9</v>
       </c>
@@ -5848,26 +6158,26 @@
       <c r="S6" s="20"/>
       <c r="T6" s="20"/>
       <c r="U6" s="20"/>
-      <c r="V6" s="67"/>
+      <c r="V6" s="71"/>
       <c r="W6" s="20"/>
       <c r="X6" s="20"/>
       <c r="Y6" s="20"/>
       <c r="Z6" s="20"/>
       <c r="AA6" s="20"/>
       <c r="AB6" s="20"/>
-      <c r="AC6" s="70"/>
+      <c r="AC6" s="74"/>
       <c r="AD6" s="19"/>
       <c r="AE6" s="19"/>
       <c r="AF6" s="19"/>
       <c r="AG6" s="19"/>
       <c r="AH6" s="19"/>
       <c r="AI6" s="19"/>
-      <c r="AJ6" s="62"/>
+      <c r="AJ6" s="67"/>
       <c r="AK6" s="19"/>
     </row>
     <row r="7" spans="1:45" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="72"/>
-      <c r="B7" s="73"/>
+      <c r="A7" s="60"/>
+      <c r="B7" s="61"/>
       <c r="C7" s="20" t="s">
         <v>10</v>
       </c>
@@ -5897,26 +6207,26 @@
       <c r="S7" s="20"/>
       <c r="T7" s="20"/>
       <c r="U7" s="20"/>
-      <c r="V7" s="67"/>
+      <c r="V7" s="71"/>
       <c r="W7" s="20"/>
       <c r="X7" s="20"/>
       <c r="Y7" s="20"/>
       <c r="Z7" s="20"/>
       <c r="AA7" s="20"/>
       <c r="AB7" s="20"/>
-      <c r="AC7" s="70"/>
+      <c r="AC7" s="74"/>
       <c r="AD7" s="19"/>
       <c r="AE7" s="19"/>
       <c r="AF7" s="19"/>
       <c r="AG7" s="19"/>
       <c r="AH7" s="19"/>
       <c r="AI7" s="19"/>
-      <c r="AJ7" s="62"/>
+      <c r="AJ7" s="67"/>
       <c r="AK7" s="19"/>
     </row>
     <row r="8" spans="1:45" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="72"/>
-      <c r="B8" s="73"/>
+      <c r="A8" s="60"/>
+      <c r="B8" s="61"/>
       <c r="C8" s="20" t="s">
         <v>11</v>
       </c>
@@ -5946,26 +6256,26 @@
       <c r="S8" s="20"/>
       <c r="T8" s="20"/>
       <c r="U8" s="20"/>
-      <c r="V8" s="67"/>
+      <c r="V8" s="71"/>
       <c r="W8" s="20"/>
       <c r="X8" s="20"/>
       <c r="Y8" s="20"/>
       <c r="Z8" s="20"/>
       <c r="AA8" s="20"/>
       <c r="AB8" s="20"/>
-      <c r="AC8" s="70"/>
+      <c r="AC8" s="74"/>
       <c r="AD8" s="19"/>
       <c r="AE8" s="19"/>
       <c r="AF8" s="19"/>
       <c r="AG8" s="19"/>
       <c r="AH8" s="19"/>
       <c r="AI8" s="19"/>
-      <c r="AJ8" s="62"/>
+      <c r="AJ8" s="67"/>
       <c r="AK8" s="19"/>
     </row>
     <row r="9" spans="1:45" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="72"/>
-      <c r="B9" s="73"/>
+      <c r="A9" s="60"/>
+      <c r="B9" s="61"/>
       <c r="C9" s="20" t="s">
         <v>34</v>
       </c>
@@ -5993,26 +6303,26 @@
       <c r="S9" s="20"/>
       <c r="T9" s="20"/>
       <c r="U9" s="20"/>
-      <c r="V9" s="67"/>
+      <c r="V9" s="71"/>
       <c r="W9" s="20"/>
       <c r="X9" s="20"/>
       <c r="Y9" s="20"/>
       <c r="Z9" s="20"/>
       <c r="AA9" s="20"/>
       <c r="AB9" s="20"/>
-      <c r="AC9" s="70"/>
+      <c r="AC9" s="74"/>
       <c r="AD9" s="19"/>
       <c r="AE9" s="19"/>
       <c r="AF9" s="19"/>
       <c r="AG9" s="19"/>
       <c r="AH9" s="19"/>
       <c r="AI9" s="19"/>
-      <c r="AJ9" s="62"/>
+      <c r="AJ9" s="67"/>
       <c r="AK9" s="19"/>
     </row>
     <row r="10" spans="1:45" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="72"/>
-      <c r="B10" s="73"/>
+      <c r="A10" s="60"/>
+      <c r="B10" s="61"/>
       <c r="C10" s="20" t="s">
         <v>35</v>
       </c>
@@ -6040,29 +6350,29 @@
       <c r="S10" s="20"/>
       <c r="T10" s="20"/>
       <c r="U10" s="20"/>
-      <c r="V10" s="67"/>
+      <c r="V10" s="71"/>
       <c r="W10" s="20"/>
       <c r="X10" s="20"/>
       <c r="Y10" s="20"/>
       <c r="Z10" s="20"/>
       <c r="AA10" s="20"/>
       <c r="AB10" s="20"/>
-      <c r="AC10" s="70"/>
+      <c r="AC10" s="74"/>
       <c r="AD10" s="19"/>
       <c r="AE10" s="19"/>
       <c r="AF10" s="19"/>
       <c r="AG10" s="19"/>
       <c r="AH10" s="19"/>
       <c r="AI10" s="19"/>
-      <c r="AJ10" s="62"/>
+      <c r="AJ10" s="67"/>
       <c r="AK10" s="19"/>
     </row>
     <row r="11" spans="1:45" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="72"/>
-      <c r="B11" s="65" t="s">
+      <c r="A11" s="60"/>
+      <c r="B11" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="64" t="s">
+      <c r="C11" s="59" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="46" t="s">
@@ -6087,27 +6397,27 @@
       <c r="S11" s="20"/>
       <c r="T11" s="20"/>
       <c r="U11" s="20"/>
-      <c r="V11" s="67"/>
+      <c r="V11" s="71"/>
       <c r="W11" s="20"/>
       <c r="X11" s="20"/>
       <c r="Y11" s="20"/>
       <c r="Z11" s="20"/>
       <c r="AA11" s="20"/>
       <c r="AB11" s="20"/>
-      <c r="AC11" s="70"/>
+      <c r="AC11" s="74"/>
       <c r="AD11" s="19"/>
       <c r="AE11" s="19"/>
       <c r="AF11" s="19"/>
       <c r="AG11" s="19"/>
       <c r="AH11" s="19"/>
       <c r="AI11" s="19"/>
-      <c r="AJ11" s="62"/>
+      <c r="AJ11" s="67"/>
       <c r="AK11" s="19"/>
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A12" s="72"/>
-      <c r="B12" s="65"/>
-      <c r="C12" s="64"/>
+      <c r="A12" s="60"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="59"/>
       <c r="D12" s="2" t="s">
         <v>23</v>
       </c>
@@ -6130,27 +6440,27 @@
       <c r="S12" s="20"/>
       <c r="T12" s="20"/>
       <c r="U12" s="20"/>
-      <c r="V12" s="67"/>
+      <c r="V12" s="71"/>
       <c r="W12" s="20"/>
       <c r="X12" s="20"/>
       <c r="Y12" s="20"/>
       <c r="Z12" s="20"/>
       <c r="AA12" s="20"/>
       <c r="AB12" s="20"/>
-      <c r="AC12" s="70"/>
+      <c r="AC12" s="74"/>
       <c r="AD12" s="19"/>
       <c r="AE12" s="19"/>
       <c r="AF12" s="19"/>
       <c r="AG12" s="19"/>
       <c r="AH12" s="19"/>
       <c r="AI12" s="19"/>
-      <c r="AJ12" s="62"/>
+      <c r="AJ12" s="67"/>
       <c r="AK12" s="19"/>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A13" s="72"/>
-      <c r="B13" s="65"/>
-      <c r="C13" s="64"/>
+      <c r="A13" s="60"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="59"/>
       <c r="D13" s="38" t="s">
         <v>45</v>
       </c>
@@ -6173,27 +6483,27 @@
       <c r="S13" s="20"/>
       <c r="T13" s="20"/>
       <c r="U13" s="20"/>
-      <c r="V13" s="67"/>
+      <c r="V13" s="71"/>
       <c r="W13" s="20"/>
       <c r="X13" s="20"/>
       <c r="Y13" s="20"/>
       <c r="Z13" s="20"/>
       <c r="AA13" s="20"/>
       <c r="AB13" s="20"/>
-      <c r="AC13" s="70"/>
+      <c r="AC13" s="74"/>
       <c r="AD13" s="19"/>
       <c r="AE13" s="19"/>
       <c r="AF13" s="19"/>
       <c r="AG13" s="19"/>
       <c r="AH13" s="19"/>
       <c r="AI13" s="19"/>
-      <c r="AJ13" s="62"/>
+      <c r="AJ13" s="67"/>
       <c r="AK13" s="19"/>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A14" s="72"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="64"/>
+      <c r="A14" s="60"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="59"/>
       <c r="D14" s="39" t="s">
         <v>27</v>
       </c>
@@ -6216,27 +6526,27 @@
       <c r="S14" s="20"/>
       <c r="T14" s="20"/>
       <c r="U14" s="20"/>
-      <c r="V14" s="67"/>
+      <c r="V14" s="71"/>
       <c r="W14" s="20"/>
       <c r="X14" s="20"/>
       <c r="Y14" s="20"/>
       <c r="Z14" s="20"/>
       <c r="AA14" s="20"/>
       <c r="AB14" s="20"/>
-      <c r="AC14" s="70"/>
+      <c r="AC14" s="74"/>
       <c r="AD14" s="19"/>
       <c r="AE14" s="19"/>
       <c r="AF14" s="19"/>
       <c r="AG14" s="19"/>
       <c r="AH14" s="19"/>
       <c r="AI14" s="19"/>
-      <c r="AJ14" s="62"/>
+      <c r="AJ14" s="67"/>
       <c r="AK14" s="19"/>
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A15" s="72"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="64" t="s">
+      <c r="A15" s="60"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="59" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -6263,27 +6573,27 @@
       <c r="S15" s="20"/>
       <c r="T15" s="20"/>
       <c r="U15" s="20"/>
-      <c r="V15" s="67"/>
+      <c r="V15" s="71"/>
       <c r="W15" s="20"/>
       <c r="X15" s="20"/>
       <c r="Y15" s="20"/>
       <c r="Z15" s="20"/>
       <c r="AA15" s="20"/>
       <c r="AB15" s="20"/>
-      <c r="AC15" s="70"/>
+      <c r="AC15" s="74"/>
       <c r="AD15" s="19"/>
       <c r="AE15" s="19"/>
       <c r="AF15" s="19"/>
       <c r="AG15" s="19"/>
       <c r="AH15" s="19"/>
       <c r="AI15" s="19"/>
-      <c r="AJ15" s="62"/>
+      <c r="AJ15" s="67"/>
       <c r="AK15" s="19"/>
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A16" s="72"/>
-      <c r="B16" s="65"/>
-      <c r="C16" s="64"/>
+      <c r="A16" s="60"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="59"/>
       <c r="D16" s="40" t="s">
         <v>45</v>
       </c>
@@ -6306,27 +6616,27 @@
       <c r="S16" s="20"/>
       <c r="T16" s="20"/>
       <c r="U16" s="20"/>
-      <c r="V16" s="67"/>
+      <c r="V16" s="71"/>
       <c r="W16" s="20"/>
       <c r="X16" s="20"/>
       <c r="Y16" s="20"/>
       <c r="Z16" s="20"/>
       <c r="AA16" s="20"/>
       <c r="AB16" s="20"/>
-      <c r="AC16" s="70"/>
+      <c r="AC16" s="74"/>
       <c r="AD16" s="19"/>
       <c r="AE16" s="19"/>
       <c r="AF16" s="19"/>
       <c r="AG16" s="19"/>
       <c r="AH16" s="19"/>
       <c r="AI16" s="19"/>
-      <c r="AJ16" s="62"/>
+      <c r="AJ16" s="67"/>
       <c r="AK16" s="19"/>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A17" s="72"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="64"/>
+      <c r="A17" s="60"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="59"/>
       <c r="D17" s="2" t="s">
         <v>23</v>
       </c>
@@ -6349,30 +6659,30 @@
       <c r="S17" s="20"/>
       <c r="T17" s="20"/>
       <c r="U17" s="20"/>
-      <c r="V17" s="67"/>
+      <c r="V17" s="71"/>
       <c r="W17" s="20"/>
       <c r="X17" s="20"/>
       <c r="Y17" s="20"/>
       <c r="Z17" s="20"/>
       <c r="AA17" s="20"/>
       <c r="AB17" s="20"/>
-      <c r="AC17" s="70"/>
+      <c r="AC17" s="74"/>
       <c r="AD17" s="19"/>
       <c r="AE17" s="19"/>
       <c r="AF17" s="19"/>
       <c r="AG17" s="19"/>
       <c r="AH17" s="19"/>
       <c r="AI17" s="19"/>
-      <c r="AJ17" s="62"/>
+      <c r="AJ17" s="67"/>
       <c r="AK17" s="19"/>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A18" s="72"/>
-      <c r="B18" s="65"/>
-      <c r="C18" s="64" t="s">
+      <c r="A18" s="60"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="64" t="s">
+      <c r="D18" s="59" t="s">
         <v>95</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -6404,28 +6714,28 @@
       <c r="S18" s="20"/>
       <c r="T18" s="20"/>
       <c r="U18" s="20"/>
-      <c r="V18" s="67"/>
+      <c r="V18" s="71"/>
       <c r="W18" s="20"/>
       <c r="X18" s="20"/>
       <c r="Y18" s="20"/>
       <c r="Z18" s="20"/>
       <c r="AA18" s="20"/>
       <c r="AB18" s="20"/>
-      <c r="AC18" s="70"/>
+      <c r="AC18" s="74"/>
       <c r="AD18" s="19"/>
       <c r="AE18" s="19"/>
       <c r="AF18" s="19"/>
       <c r="AG18" s="19"/>
       <c r="AH18" s="19"/>
       <c r="AI18" s="19"/>
-      <c r="AJ18" s="62"/>
+      <c r="AJ18" s="67"/>
       <c r="AK18" s="19"/>
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A19" s="72"/>
-      <c r="B19" s="65"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
+      <c r="A19" s="60"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
       <c r="E19" s="2" t="s">
         <v>138</v>
       </c>
@@ -6455,28 +6765,28 @@
       <c r="S19" s="20"/>
       <c r="T19" s="20"/>
       <c r="U19" s="20"/>
-      <c r="V19" s="67"/>
+      <c r="V19" s="71"/>
       <c r="W19" s="20"/>
       <c r="X19" s="20"/>
       <c r="Y19" s="20"/>
       <c r="Z19" s="20"/>
       <c r="AA19" s="20"/>
       <c r="AB19" s="20"/>
-      <c r="AC19" s="70"/>
+      <c r="AC19" s="74"/>
       <c r="AD19" s="19"/>
       <c r="AE19" s="19"/>
       <c r="AF19" s="19"/>
       <c r="AG19" s="19"/>
       <c r="AH19" s="19"/>
       <c r="AI19" s="19"/>
-      <c r="AJ19" s="62"/>
+      <c r="AJ19" s="67"/>
       <c r="AK19" s="19"/>
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A20" s="72"/>
-      <c r="B20" s="65"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
+      <c r="A20" s="60"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
       <c r="E20" s="2" t="s">
         <v>112</v>
       </c>
@@ -6506,28 +6816,28 @@
       <c r="S20" s="20"/>
       <c r="T20" s="20"/>
       <c r="U20" s="20"/>
-      <c r="V20" s="67"/>
+      <c r="V20" s="71"/>
       <c r="W20" s="20"/>
       <c r="X20" s="20"/>
       <c r="Y20" s="20"/>
       <c r="Z20" s="20"/>
       <c r="AA20" s="20"/>
       <c r="AB20" s="20"/>
-      <c r="AC20" s="70"/>
+      <c r="AC20" s="74"/>
       <c r="AD20" s="19"/>
       <c r="AE20" s="19"/>
       <c r="AF20" s="19"/>
       <c r="AG20" s="19"/>
       <c r="AH20" s="19"/>
       <c r="AI20" s="19"/>
-      <c r="AJ20" s="62"/>
+      <c r="AJ20" s="67"/>
       <c r="AK20" s="19"/>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A21" s="72"/>
-      <c r="B21" s="65"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
+      <c r="A21" s="60"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
       <c r="E21" s="2" t="s">
         <v>108</v>
       </c>
@@ -6553,28 +6863,28 @@
       <c r="S21" s="20"/>
       <c r="T21" s="20"/>
       <c r="U21" s="20"/>
-      <c r="V21" s="67"/>
+      <c r="V21" s="71"/>
       <c r="W21" s="20"/>
       <c r="X21" s="20"/>
       <c r="Y21" s="20"/>
       <c r="Z21" s="20"/>
       <c r="AA21" s="20"/>
       <c r="AB21" s="20"/>
-      <c r="AC21" s="70"/>
+      <c r="AC21" s="74"/>
       <c r="AD21" s="19"/>
       <c r="AE21" s="19"/>
       <c r="AF21" s="19"/>
       <c r="AG21" s="19"/>
       <c r="AH21" s="19"/>
       <c r="AI21" s="19"/>
-      <c r="AJ21" s="62"/>
+      <c r="AJ21" s="67"/>
       <c r="AK21" s="19"/>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A22" s="72"/>
-      <c r="B22" s="65"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="64"/>
+      <c r="A22" s="60"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
       <c r="E22" s="2" t="s">
         <v>135</v>
       </c>
@@ -6604,28 +6914,28 @@
       <c r="S22" s="20"/>
       <c r="T22" s="20"/>
       <c r="U22" s="20"/>
-      <c r="V22" s="67"/>
+      <c r="V22" s="71"/>
       <c r="W22" s="20"/>
       <c r="X22" s="20"/>
       <c r="Y22" s="20"/>
       <c r="Z22" s="20"/>
       <c r="AA22" s="20"/>
       <c r="AB22" s="20"/>
-      <c r="AC22" s="70"/>
+      <c r="AC22" s="74"/>
       <c r="AD22" s="19"/>
       <c r="AE22" s="19"/>
       <c r="AF22" s="19"/>
       <c r="AG22" s="19"/>
       <c r="AH22" s="19"/>
       <c r="AI22" s="19"/>
-      <c r="AJ22" s="62"/>
+      <c r="AJ22" s="67"/>
       <c r="AK22" s="19"/>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A23" s="72"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="64"/>
-      <c r="D23" s="64"/>
+      <c r="A23" s="60"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
       <c r="E23" s="2" t="s">
         <v>118</v>
       </c>
@@ -6655,28 +6965,28 @@
       <c r="S23" s="20"/>
       <c r="T23" s="20"/>
       <c r="U23" s="20"/>
-      <c r="V23" s="67"/>
+      <c r="V23" s="71"/>
       <c r="W23" s="20"/>
       <c r="X23" s="20"/>
       <c r="Y23" s="20"/>
       <c r="Z23" s="20"/>
       <c r="AA23" s="20"/>
       <c r="AB23" s="20"/>
-      <c r="AC23" s="70"/>
+      <c r="AC23" s="74"/>
       <c r="AD23" s="19"/>
       <c r="AE23" s="19"/>
       <c r="AF23" s="19"/>
       <c r="AG23" s="19"/>
       <c r="AH23" s="19"/>
       <c r="AI23" s="19"/>
-      <c r="AJ23" s="62"/>
+      <c r="AJ23" s="67"/>
       <c r="AK23" s="19"/>
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A24" s="72"/>
-      <c r="B24" s="65"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="64"/>
+      <c r="A24" s="60"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
       <c r="E24" s="2" t="s">
         <v>109</v>
       </c>
@@ -6698,28 +7008,28 @@
       <c r="S24" s="20"/>
       <c r="T24" s="20"/>
       <c r="U24" s="20"/>
-      <c r="V24" s="67"/>
+      <c r="V24" s="71"/>
       <c r="W24" s="20"/>
       <c r="X24" s="20"/>
       <c r="Y24" s="20"/>
       <c r="Z24" s="20"/>
       <c r="AA24" s="20"/>
       <c r="AB24" s="20"/>
-      <c r="AC24" s="70"/>
+      <c r="AC24" s="74"/>
       <c r="AD24" s="19"/>
       <c r="AE24" s="19"/>
       <c r="AF24" s="19"/>
       <c r="AG24" s="19"/>
       <c r="AH24" s="19"/>
       <c r="AI24" s="19"/>
-      <c r="AJ24" s="62"/>
+      <c r="AJ24" s="67"/>
       <c r="AK24" s="19"/>
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A25" s="72"/>
-      <c r="B25" s="65"/>
-      <c r="C25" s="64"/>
-      <c r="D25" s="64"/>
+      <c r="A25" s="60"/>
+      <c r="B25" s="69"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
       <c r="E25" s="2" t="s">
         <v>167</v>
       </c>
@@ -6745,28 +7055,28 @@
       <c r="S25" s="50"/>
       <c r="T25" s="50"/>
       <c r="U25" s="50"/>
-      <c r="V25" s="67"/>
+      <c r="V25" s="71"/>
       <c r="W25" s="50"/>
       <c r="X25" s="50"/>
       <c r="Y25" s="50"/>
       <c r="Z25" s="50"/>
       <c r="AA25" s="50"/>
       <c r="AB25" s="50"/>
-      <c r="AC25" s="70"/>
+      <c r="AC25" s="74"/>
       <c r="AD25" s="51"/>
       <c r="AE25" s="51"/>
       <c r="AF25" s="51"/>
       <c r="AG25" s="51"/>
       <c r="AH25" s="51"/>
       <c r="AI25" s="51"/>
-      <c r="AJ25" s="62"/>
+      <c r="AJ25" s="67"/>
       <c r="AK25" s="51"/>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A26" s="72"/>
-      <c r="B26" s="65"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="64"/>
+      <c r="A26" s="60"/>
+      <c r="B26" s="69"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
       <c r="E26" s="2" t="s">
         <v>106</v>
       </c>
@@ -6796,28 +7106,28 @@
       <c r="S26" s="20"/>
       <c r="T26" s="20"/>
       <c r="U26" s="20"/>
-      <c r="V26" s="67"/>
+      <c r="V26" s="71"/>
       <c r="W26" s="20"/>
       <c r="X26" s="20"/>
       <c r="Y26" s="20"/>
       <c r="Z26" s="20"/>
       <c r="AA26" s="20"/>
       <c r="AB26" s="20"/>
-      <c r="AC26" s="70"/>
+      <c r="AC26" s="74"/>
       <c r="AD26" s="19"/>
       <c r="AE26" s="19"/>
       <c r="AF26" s="19"/>
       <c r="AG26" s="19"/>
       <c r="AH26" s="19"/>
       <c r="AI26" s="19"/>
-      <c r="AJ26" s="62"/>
+      <c r="AJ26" s="67"/>
       <c r="AK26" s="19"/>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A27" s="72"/>
-      <c r="B27" s="65"/>
-      <c r="C27" s="64"/>
-      <c r="D27" s="64"/>
+      <c r="A27" s="60"/>
+      <c r="B27" s="69"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
       <c r="E27" s="2" t="s">
         <v>102</v>
       </c>
@@ -6839,28 +7149,28 @@
       <c r="S27" s="20"/>
       <c r="T27" s="20"/>
       <c r="U27" s="20"/>
-      <c r="V27" s="67"/>
+      <c r="V27" s="71"/>
       <c r="W27" s="20"/>
       <c r="X27" s="20"/>
       <c r="Y27" s="20"/>
       <c r="Z27" s="20"/>
       <c r="AA27" s="20"/>
       <c r="AB27" s="20"/>
-      <c r="AC27" s="70"/>
+      <c r="AC27" s="74"/>
       <c r="AD27" s="19"/>
       <c r="AE27" s="19"/>
       <c r="AF27" s="19"/>
       <c r="AG27" s="19"/>
       <c r="AH27" s="19"/>
       <c r="AI27" s="19"/>
-      <c r="AJ27" s="62"/>
+      <c r="AJ27" s="67"/>
       <c r="AK27" s="19"/>
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A28" s="72"/>
-      <c r="B28" s="65"/>
-      <c r="C28" s="64"/>
-      <c r="D28" s="64" t="s">
+      <c r="A28" s="60"/>
+      <c r="B28" s="69"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59" t="s">
         <v>25</v>
       </c>
       <c r="E28" s="2" t="s">
@@ -6892,28 +7202,28 @@
       <c r="S28" s="20"/>
       <c r="T28" s="20"/>
       <c r="U28" s="20"/>
-      <c r="V28" s="67"/>
+      <c r="V28" s="71"/>
       <c r="W28" s="20"/>
       <c r="X28" s="20"/>
       <c r="Y28" s="20"/>
       <c r="Z28" s="20"/>
       <c r="AA28" s="20"/>
       <c r="AB28" s="20"/>
-      <c r="AC28" s="70"/>
+      <c r="AC28" s="74"/>
       <c r="AD28" s="19"/>
       <c r="AE28" s="19"/>
       <c r="AF28" s="19"/>
       <c r="AG28" s="19"/>
       <c r="AH28" s="19"/>
       <c r="AI28" s="19"/>
-      <c r="AJ28" s="62"/>
+      <c r="AJ28" s="67"/>
       <c r="AK28" s="19"/>
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A29" s="72"/>
-      <c r="B29" s="65"/>
-      <c r="C29" s="64"/>
-      <c r="D29" s="64"/>
+      <c r="A29" s="60"/>
+      <c r="B29" s="69"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="59"/>
       <c r="E29" s="2" t="s">
         <v>119</v>
       </c>
@@ -6943,28 +7253,28 @@
       <c r="S29" s="20"/>
       <c r="T29" s="20"/>
       <c r="U29" s="20"/>
-      <c r="V29" s="67"/>
+      <c r="V29" s="71"/>
       <c r="W29" s="20"/>
       <c r="X29" s="20"/>
       <c r="Y29" s="20"/>
       <c r="Z29" s="20"/>
       <c r="AA29" s="20"/>
       <c r="AB29" s="20"/>
-      <c r="AC29" s="70"/>
+      <c r="AC29" s="74"/>
       <c r="AD29" s="19"/>
       <c r="AE29" s="19"/>
       <c r="AF29" s="19"/>
       <c r="AG29" s="19"/>
       <c r="AH29" s="19"/>
       <c r="AI29" s="19"/>
-      <c r="AJ29" s="62"/>
+      <c r="AJ29" s="67"/>
       <c r="AK29" s="19"/>
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A30" s="72"/>
-      <c r="B30" s="65"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="64" t="s">
+      <c r="A30" s="60"/>
+      <c r="B30" s="69"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="59" t="s">
         <v>13</v>
       </c>
       <c r="E30" s="2" t="s">
@@ -6994,28 +7304,28 @@
       <c r="S30" s="20"/>
       <c r="T30" s="20"/>
       <c r="U30" s="20"/>
-      <c r="V30" s="67"/>
+      <c r="V30" s="71"/>
       <c r="W30" s="20"/>
       <c r="X30" s="20"/>
       <c r="Y30" s="20"/>
       <c r="Z30" s="20"/>
       <c r="AA30" s="20"/>
       <c r="AB30" s="20"/>
-      <c r="AC30" s="70"/>
+      <c r="AC30" s="74"/>
       <c r="AD30" s="19"/>
       <c r="AE30" s="19"/>
       <c r="AF30" s="19"/>
       <c r="AG30" s="19"/>
       <c r="AH30" s="19"/>
       <c r="AI30" s="19"/>
-      <c r="AJ30" s="62"/>
+      <c r="AJ30" s="67"/>
       <c r="AK30" s="19"/>
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A31" s="72"/>
-      <c r="B31" s="65"/>
-      <c r="C31" s="64"/>
-      <c r="D31" s="64"/>
+      <c r="A31" s="60"/>
+      <c r="B31" s="69"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="59"/>
       <c r="E31" s="2" t="s">
         <v>143</v>
       </c>
@@ -7037,28 +7347,28 @@
       <c r="S31" s="20"/>
       <c r="T31" s="20"/>
       <c r="U31" s="20"/>
-      <c r="V31" s="67"/>
+      <c r="V31" s="71"/>
       <c r="W31" s="20"/>
       <c r="X31" s="20"/>
       <c r="Y31" s="20"/>
       <c r="Z31" s="20"/>
       <c r="AA31" s="20"/>
       <c r="AB31" s="20"/>
-      <c r="AC31" s="70"/>
+      <c r="AC31" s="74"/>
       <c r="AD31" s="19"/>
       <c r="AE31" s="19"/>
       <c r="AF31" s="19"/>
       <c r="AG31" s="19"/>
       <c r="AH31" s="19"/>
       <c r="AI31" s="19"/>
-      <c r="AJ31" s="62"/>
+      <c r="AJ31" s="67"/>
       <c r="AK31" s="19"/>
     </row>
     <row r="32" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A32" s="72"/>
-      <c r="B32" s="65"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="64"/>
+      <c r="A32" s="60"/>
+      <c r="B32" s="69"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="59"/>
       <c r="E32" s="2" t="s">
         <v>113</v>
       </c>
@@ -7088,28 +7398,28 @@
       <c r="S32" s="20"/>
       <c r="T32" s="20"/>
       <c r="U32" s="20"/>
-      <c r="V32" s="67"/>
+      <c r="V32" s="71"/>
       <c r="W32" s="20"/>
       <c r="X32" s="20"/>
       <c r="Y32" s="20"/>
       <c r="Z32" s="20"/>
       <c r="AA32" s="20"/>
       <c r="AB32" s="20"/>
-      <c r="AC32" s="70"/>
+      <c r="AC32" s="74"/>
       <c r="AD32" s="19"/>
       <c r="AE32" s="19"/>
       <c r="AF32" s="19"/>
       <c r="AG32" s="19"/>
       <c r="AH32" s="19"/>
       <c r="AI32" s="19"/>
-      <c r="AJ32" s="62"/>
+      <c r="AJ32" s="67"/>
       <c r="AK32" s="19"/>
     </row>
     <row r="33" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A33" s="72"/>
-      <c r="B33" s="65"/>
-      <c r="C33" s="64"/>
-      <c r="D33" s="64" t="s">
+      <c r="A33" s="60"/>
+      <c r="B33" s="69"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="59" t="s">
         <v>90</v>
       </c>
       <c r="E33" s="2" t="s">
@@ -7133,28 +7443,28 @@
       <c r="S33" s="20"/>
       <c r="T33" s="20"/>
       <c r="U33" s="20"/>
-      <c r="V33" s="67"/>
+      <c r="V33" s="71"/>
       <c r="W33" s="20"/>
       <c r="X33" s="20"/>
       <c r="Y33" s="20"/>
       <c r="Z33" s="20"/>
       <c r="AA33" s="20"/>
       <c r="AB33" s="20"/>
-      <c r="AC33" s="70"/>
+      <c r="AC33" s="74"/>
       <c r="AD33" s="19"/>
       <c r="AE33" s="19"/>
       <c r="AF33" s="19"/>
       <c r="AG33" s="19"/>
       <c r="AH33" s="19"/>
       <c r="AI33" s="19"/>
-      <c r="AJ33" s="62"/>
+      <c r="AJ33" s="67"/>
       <c r="AK33" s="19"/>
     </row>
     <row r="34" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A34" s="72"/>
-      <c r="B34" s="65"/>
-      <c r="C34" s="64"/>
-      <c r="D34" s="64"/>
+      <c r="A34" s="60"/>
+      <c r="B34" s="69"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
       <c r="E34" s="2" t="s">
         <v>141</v>
       </c>
@@ -7184,28 +7494,28 @@
       <c r="S34" s="20"/>
       <c r="T34" s="20"/>
       <c r="U34" s="20"/>
-      <c r="V34" s="67"/>
+      <c r="V34" s="71"/>
       <c r="W34" s="20"/>
       <c r="X34" s="20"/>
       <c r="Y34" s="20"/>
       <c r="Z34" s="20"/>
       <c r="AA34" s="20"/>
       <c r="AB34" s="20"/>
-      <c r="AC34" s="70"/>
+      <c r="AC34" s="74"/>
       <c r="AD34" s="19"/>
       <c r="AE34" s="19"/>
       <c r="AF34" s="19"/>
       <c r="AG34" s="19"/>
       <c r="AH34" s="19"/>
       <c r="AI34" s="19"/>
-      <c r="AJ34" s="62"/>
+      <c r="AJ34" s="67"/>
       <c r="AK34" s="19"/>
     </row>
     <row r="35" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A35" s="72"/>
-      <c r="B35" s="65"/>
-      <c r="C35" s="64"/>
-      <c r="D35" s="64"/>
+      <c r="A35" s="60"/>
+      <c r="B35" s="69"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="59"/>
       <c r="E35" s="2" t="s">
         <v>103</v>
       </c>
@@ -7227,27 +7537,27 @@
       <c r="S35" s="20"/>
       <c r="T35" s="20"/>
       <c r="U35" s="20"/>
-      <c r="V35" s="67"/>
+      <c r="V35" s="71"/>
       <c r="W35" s="20"/>
       <c r="X35" s="20"/>
       <c r="Y35" s="20"/>
       <c r="Z35" s="20"/>
       <c r="AA35" s="20"/>
       <c r="AB35" s="20"/>
-      <c r="AC35" s="70"/>
+      <c r="AC35" s="74"/>
       <c r="AD35" s="19"/>
       <c r="AE35" s="19"/>
       <c r="AF35" s="19"/>
       <c r="AG35" s="19"/>
       <c r="AH35" s="19"/>
       <c r="AI35" s="19"/>
-      <c r="AJ35" s="62"/>
+      <c r="AJ35" s="67"/>
       <c r="AK35" s="19"/>
     </row>
     <row r="36" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A36" s="72"/>
-      <c r="B36" s="65"/>
-      <c r="C36" s="64"/>
+      <c r="A36" s="60"/>
+      <c r="B36" s="69"/>
+      <c r="C36" s="59"/>
       <c r="D36" s="2" t="s">
         <v>24</v>
       </c>
@@ -7272,27 +7582,27 @@
       <c r="S36" s="20"/>
       <c r="T36" s="20"/>
       <c r="U36" s="20"/>
-      <c r="V36" s="67"/>
+      <c r="V36" s="71"/>
       <c r="W36" s="20"/>
       <c r="X36" s="20"/>
       <c r="Y36" s="20"/>
       <c r="Z36" s="20"/>
       <c r="AA36" s="20"/>
       <c r="AB36" s="20"/>
-      <c r="AC36" s="70"/>
+      <c r="AC36" s="74"/>
       <c r="AD36" s="19"/>
       <c r="AE36" s="19"/>
       <c r="AF36" s="19"/>
       <c r="AG36" s="19"/>
       <c r="AH36" s="19"/>
       <c r="AI36" s="19"/>
-      <c r="AJ36" s="62"/>
+      <c r="AJ36" s="67"/>
       <c r="AK36" s="19"/>
     </row>
     <row r="37" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A37" s="72"/>
-      <c r="B37" s="65"/>
-      <c r="C37" s="64"/>
+      <c r="A37" s="60"/>
+      <c r="B37" s="69"/>
+      <c r="C37" s="59"/>
       <c r="D37" s="2" t="s">
         <v>144</v>
       </c>
@@ -7325,27 +7635,27 @@
       <c r="S37" s="20"/>
       <c r="T37" s="20"/>
       <c r="U37" s="20"/>
-      <c r="V37" s="67"/>
+      <c r="V37" s="71"/>
       <c r="W37" s="20"/>
       <c r="X37" s="20"/>
       <c r="Y37" s="20"/>
       <c r="Z37" s="20"/>
       <c r="AA37" s="20"/>
       <c r="AB37" s="20"/>
-      <c r="AC37" s="70"/>
+      <c r="AC37" s="74"/>
       <c r="AD37" s="19"/>
       <c r="AE37" s="19"/>
       <c r="AF37" s="19"/>
       <c r="AG37" s="19"/>
       <c r="AH37" s="19"/>
       <c r="AI37" s="19"/>
-      <c r="AJ37" s="62"/>
+      <c r="AJ37" s="67"/>
       <c r="AK37" s="19"/>
     </row>
     <row r="38" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A38" s="72"/>
-      <c r="B38" s="65"/>
-      <c r="C38" s="64"/>
+      <c r="A38" s="60"/>
+      <c r="B38" s="69"/>
+      <c r="C38" s="59"/>
       <c r="D38" s="2" t="s">
         <v>94</v>
       </c>
@@ -7368,27 +7678,27 @@
       <c r="S38" s="20"/>
       <c r="T38" s="20"/>
       <c r="U38" s="20"/>
-      <c r="V38" s="67"/>
+      <c r="V38" s="71"/>
       <c r="W38" s="20"/>
       <c r="X38" s="20"/>
       <c r="Y38" s="20"/>
       <c r="Z38" s="20"/>
       <c r="AA38" s="20"/>
       <c r="AB38" s="20"/>
-      <c r="AC38" s="70"/>
+      <c r="AC38" s="74"/>
       <c r="AD38" s="19"/>
       <c r="AE38" s="19"/>
       <c r="AF38" s="19"/>
       <c r="AG38" s="19"/>
       <c r="AH38" s="19"/>
       <c r="AI38" s="19"/>
-      <c r="AJ38" s="62"/>
+      <c r="AJ38" s="67"/>
       <c r="AK38" s="19"/>
     </row>
     <row r="39" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A39" s="72"/>
-      <c r="B39" s="65"/>
-      <c r="C39" s="64"/>
+      <c r="A39" s="60"/>
+      <c r="B39" s="69"/>
+      <c r="C39" s="59"/>
       <c r="D39" s="2" t="s">
         <v>23</v>
       </c>
@@ -7411,27 +7721,27 @@
       <c r="S39" s="20"/>
       <c r="T39" s="20"/>
       <c r="U39" s="20"/>
-      <c r="V39" s="67"/>
+      <c r="V39" s="71"/>
       <c r="W39" s="20"/>
       <c r="X39" s="20"/>
       <c r="Y39" s="20"/>
       <c r="Z39" s="20"/>
       <c r="AA39" s="20"/>
       <c r="AB39" s="20"/>
-      <c r="AC39" s="70"/>
+      <c r="AC39" s="74"/>
       <c r="AD39" s="19"/>
       <c r="AE39" s="19"/>
       <c r="AF39" s="19"/>
       <c r="AG39" s="19"/>
       <c r="AH39" s="19"/>
       <c r="AI39" s="19"/>
-      <c r="AJ39" s="62"/>
+      <c r="AJ39" s="67"/>
       <c r="AK39" s="19"/>
     </row>
     <row r="40" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A40" s="72"/>
-      <c r="B40" s="65"/>
-      <c r="C40" s="64"/>
+      <c r="A40" s="60"/>
+      <c r="B40" s="69"/>
+      <c r="C40" s="59"/>
       <c r="D40" s="39" t="s">
         <v>27</v>
       </c>
@@ -7454,27 +7764,27 @@
       <c r="S40" s="20"/>
       <c r="T40" s="20"/>
       <c r="U40" s="20"/>
-      <c r="V40" s="67"/>
+      <c r="V40" s="71"/>
       <c r="W40" s="20"/>
       <c r="X40" s="20"/>
       <c r="Y40" s="20"/>
       <c r="Z40" s="20"/>
       <c r="AA40" s="20"/>
       <c r="AB40" s="20"/>
-      <c r="AC40" s="70"/>
+      <c r="AC40" s="74"/>
       <c r="AD40" s="19"/>
       <c r="AE40" s="19"/>
       <c r="AF40" s="19"/>
       <c r="AG40" s="19"/>
       <c r="AH40" s="19"/>
       <c r="AI40" s="19"/>
-      <c r="AJ40" s="62"/>
+      <c r="AJ40" s="67"/>
       <c r="AK40" s="19"/>
     </row>
     <row r="41" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A41" s="72"/>
-      <c r="B41" s="65"/>
-      <c r="C41" s="64"/>
+      <c r="A41" s="60"/>
+      <c r="B41" s="69"/>
+      <c r="C41" s="59"/>
       <c r="D41" s="38" t="s">
         <v>45</v>
       </c>
@@ -7497,27 +7807,27 @@
       <c r="S41" s="20"/>
       <c r="T41" s="20"/>
       <c r="U41" s="20"/>
-      <c r="V41" s="67"/>
+      <c r="V41" s="71"/>
       <c r="W41" s="20"/>
       <c r="X41" s="20"/>
       <c r="Y41" s="20"/>
       <c r="Z41" s="20"/>
       <c r="AA41" s="20"/>
       <c r="AB41" s="20"/>
-      <c r="AC41" s="70"/>
+      <c r="AC41" s="74"/>
       <c r="AD41" s="19"/>
       <c r="AE41" s="19"/>
       <c r="AF41" s="19"/>
       <c r="AG41" s="19"/>
       <c r="AH41" s="19"/>
       <c r="AI41" s="19"/>
-      <c r="AJ41" s="62"/>
+      <c r="AJ41" s="67"/>
       <c r="AK41" s="19"/>
     </row>
     <row r="42" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A42" s="72"/>
-      <c r="B42" s="65"/>
-      <c r="C42" s="64"/>
+      <c r="A42" s="60"/>
+      <c r="B42" s="69"/>
+      <c r="C42" s="59"/>
       <c r="D42" s="2" t="s">
         <v>26</v>
       </c>
@@ -7540,27 +7850,27 @@
       <c r="S42" s="20"/>
       <c r="T42" s="20"/>
       <c r="U42" s="20"/>
-      <c r="V42" s="67"/>
+      <c r="V42" s="71"/>
       <c r="W42" s="20"/>
       <c r="X42" s="20"/>
       <c r="Y42" s="20"/>
       <c r="Z42" s="20"/>
       <c r="AA42" s="20"/>
       <c r="AB42" s="20"/>
-      <c r="AC42" s="70"/>
+      <c r="AC42" s="74"/>
       <c r="AD42" s="19"/>
       <c r="AE42" s="19"/>
       <c r="AF42" s="19"/>
       <c r="AG42" s="19"/>
       <c r="AH42" s="19"/>
       <c r="AI42" s="19"/>
-      <c r="AJ42" s="62"/>
+      <c r="AJ42" s="67"/>
       <c r="AK42" s="19"/>
     </row>
     <row r="43" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A43" s="72"/>
-      <c r="B43" s="65"/>
-      <c r="C43" s="64" t="s">
+      <c r="A43" s="60"/>
+      <c r="B43" s="69"/>
+      <c r="C43" s="59" t="s">
         <v>42</v>
       </c>
       <c r="D43" s="40" t="s">
@@ -7585,27 +7895,27 @@
       <c r="S43" s="20"/>
       <c r="T43" s="20"/>
       <c r="U43" s="20"/>
-      <c r="V43" s="67"/>
+      <c r="V43" s="71"/>
       <c r="W43" s="20"/>
       <c r="X43" s="20"/>
       <c r="Y43" s="20"/>
       <c r="Z43" s="20"/>
       <c r="AA43" s="20"/>
       <c r="AB43" s="20"/>
-      <c r="AC43" s="70"/>
+      <c r="AC43" s="74"/>
       <c r="AD43" s="19"/>
       <c r="AE43" s="19"/>
       <c r="AF43" s="19"/>
       <c r="AG43" s="19"/>
       <c r="AH43" s="19"/>
       <c r="AI43" s="19"/>
-      <c r="AJ43" s="62"/>
+      <c r="AJ43" s="67"/>
       <c r="AK43" s="19"/>
     </row>
     <row r="44" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A44" s="72"/>
-      <c r="B44" s="65"/>
-      <c r="C44" s="64"/>
+      <c r="A44" s="60"/>
+      <c r="B44" s="69"/>
+      <c r="C44" s="59"/>
       <c r="D44" s="2" t="s">
         <v>26</v>
       </c>
@@ -7628,27 +7938,27 @@
       <c r="S44" s="20"/>
       <c r="T44" s="20"/>
       <c r="U44" s="20"/>
-      <c r="V44" s="67"/>
+      <c r="V44" s="71"/>
       <c r="W44" s="20"/>
       <c r="X44" s="20"/>
       <c r="Y44" s="20"/>
       <c r="Z44" s="20"/>
       <c r="AA44" s="20"/>
       <c r="AB44" s="20"/>
-      <c r="AC44" s="70"/>
+      <c r="AC44" s="74"/>
       <c r="AD44" s="19"/>
       <c r="AE44" s="19"/>
       <c r="AF44" s="19"/>
       <c r="AG44" s="19"/>
       <c r="AH44" s="19"/>
       <c r="AI44" s="19"/>
-      <c r="AJ44" s="62"/>
+      <c r="AJ44" s="67"/>
       <c r="AK44" s="19"/>
     </row>
     <row r="45" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A45" s="72"/>
-      <c r="B45" s="65"/>
-      <c r="C45" s="64" t="s">
+      <c r="A45" s="60"/>
+      <c r="B45" s="69"/>
+      <c r="C45" s="59" t="s">
         <v>43</v>
       </c>
       <c r="D45" s="38" t="s">
@@ -7673,27 +7983,27 @@
       <c r="S45" s="20"/>
       <c r="T45" s="20"/>
       <c r="U45" s="20"/>
-      <c r="V45" s="67"/>
+      <c r="V45" s="71"/>
       <c r="W45" s="20"/>
       <c r="X45" s="20"/>
       <c r="Y45" s="20"/>
       <c r="Z45" s="20"/>
       <c r="AA45" s="20"/>
       <c r="AB45" s="20"/>
-      <c r="AC45" s="70"/>
+      <c r="AC45" s="74"/>
       <c r="AD45" s="19"/>
       <c r="AE45" s="19"/>
       <c r="AF45" s="19"/>
       <c r="AG45" s="19"/>
       <c r="AH45" s="19"/>
       <c r="AI45" s="19"/>
-      <c r="AJ45" s="62"/>
+      <c r="AJ45" s="67"/>
       <c r="AK45" s="19"/>
     </row>
     <row r="46" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A46" s="72"/>
-      <c r="B46" s="65"/>
-      <c r="C46" s="64"/>
+      <c r="A46" s="60"/>
+      <c r="B46" s="69"/>
+      <c r="C46" s="59"/>
       <c r="D46" s="2" t="s">
         <v>26</v>
       </c>
@@ -7716,27 +8026,27 @@
       <c r="S46" s="20"/>
       <c r="T46" s="20"/>
       <c r="U46" s="20"/>
-      <c r="V46" s="67"/>
+      <c r="V46" s="71"/>
       <c r="W46" s="20"/>
       <c r="X46" s="20"/>
       <c r="Y46" s="20"/>
       <c r="Z46" s="20"/>
       <c r="AA46" s="20"/>
       <c r="AB46" s="20"/>
-      <c r="AC46" s="70"/>
+      <c r="AC46" s="74"/>
       <c r="AD46" s="19"/>
       <c r="AE46" s="19"/>
       <c r="AF46" s="19"/>
       <c r="AG46" s="19"/>
       <c r="AH46" s="19"/>
       <c r="AI46" s="19"/>
-      <c r="AJ46" s="62"/>
+      <c r="AJ46" s="67"/>
       <c r="AK46" s="19"/>
     </row>
     <row r="47" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A47" s="72"/>
-      <c r="B47" s="65"/>
-      <c r="C47" s="64"/>
+      <c r="A47" s="60"/>
+      <c r="B47" s="69"/>
+      <c r="C47" s="59"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="20"/>
@@ -7757,27 +8067,27 @@
       <c r="S47" s="20"/>
       <c r="T47" s="20"/>
       <c r="U47" s="20"/>
-      <c r="V47" s="67"/>
+      <c r="V47" s="71"/>
       <c r="W47" s="20"/>
       <c r="X47" s="20"/>
       <c r="Y47" s="20"/>
       <c r="Z47" s="20"/>
       <c r="AA47" s="20"/>
       <c r="AB47" s="20"/>
-      <c r="AC47" s="70"/>
+      <c r="AC47" s="74"/>
       <c r="AD47" s="19"/>
       <c r="AE47" s="19"/>
       <c r="AF47" s="19"/>
       <c r="AG47" s="19"/>
       <c r="AH47" s="19"/>
       <c r="AI47" s="19"/>
-      <c r="AJ47" s="62"/>
+      <c r="AJ47" s="67"/>
       <c r="AK47" s="19"/>
     </row>
     <row r="48" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A48" s="72"/>
-      <c r="B48" s="65"/>
-      <c r="C48" s="64" t="s">
+      <c r="A48" s="60"/>
+      <c r="B48" s="69"/>
+      <c r="C48" s="59" t="s">
         <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
@@ -7802,27 +8112,27 @@
       <c r="S48" s="20"/>
       <c r="T48" s="20"/>
       <c r="U48" s="20"/>
-      <c r="V48" s="67"/>
+      <c r="V48" s="71"/>
       <c r="W48" s="20"/>
       <c r="X48" s="20"/>
       <c r="Y48" s="20"/>
       <c r="Z48" s="20"/>
       <c r="AA48" s="20"/>
       <c r="AB48" s="20"/>
-      <c r="AC48" s="70"/>
+      <c r="AC48" s="74"/>
       <c r="AD48" s="19"/>
       <c r="AE48" s="19"/>
       <c r="AF48" s="19"/>
       <c r="AG48" s="19"/>
       <c r="AH48" s="19"/>
       <c r="AI48" s="19"/>
-      <c r="AJ48" s="62"/>
+      <c r="AJ48" s="67"/>
       <c r="AK48" s="19"/>
     </row>
     <row r="49" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A49" s="72"/>
-      <c r="B49" s="65"/>
-      <c r="C49" s="64"/>
+      <c r="A49" s="60"/>
+      <c r="B49" s="69"/>
+      <c r="C49" s="59"/>
       <c r="D49" s="2" t="s">
         <v>36</v>
       </c>
@@ -7845,27 +8155,27 @@
       <c r="S49" s="20"/>
       <c r="T49" s="20"/>
       <c r="U49" s="20"/>
-      <c r="V49" s="67"/>
+      <c r="V49" s="71"/>
       <c r="W49" s="20"/>
       <c r="X49" s="20"/>
       <c r="Y49" s="20"/>
       <c r="Z49" s="20"/>
       <c r="AA49" s="20"/>
       <c r="AB49" s="20"/>
-      <c r="AC49" s="70"/>
+      <c r="AC49" s="74"/>
       <c r="AD49" s="19"/>
       <c r="AE49" s="19"/>
       <c r="AF49" s="19"/>
       <c r="AG49" s="19"/>
       <c r="AH49" s="19"/>
       <c r="AI49" s="19"/>
-      <c r="AJ49" s="62"/>
+      <c r="AJ49" s="67"/>
       <c r="AK49" s="19"/>
     </row>
     <row r="50" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A50" s="72"/>
-      <c r="B50" s="65"/>
-      <c r="C50" s="64"/>
+      <c r="A50" s="60"/>
+      <c r="B50" s="69"/>
+      <c r="C50" s="59"/>
       <c r="D50" s="2" t="s">
         <v>37</v>
       </c>
@@ -7888,27 +8198,27 @@
       <c r="S50" s="20"/>
       <c r="T50" s="20"/>
       <c r="U50" s="20"/>
-      <c r="V50" s="67"/>
+      <c r="V50" s="71"/>
       <c r="W50" s="20"/>
       <c r="X50" s="20"/>
       <c r="Y50" s="20"/>
       <c r="Z50" s="20"/>
       <c r="AA50" s="20"/>
       <c r="AB50" s="20"/>
-      <c r="AC50" s="70"/>
+      <c r="AC50" s="74"/>
       <c r="AD50" s="19"/>
       <c r="AE50" s="19"/>
       <c r="AF50" s="19"/>
       <c r="AG50" s="19"/>
       <c r="AH50" s="19"/>
       <c r="AI50" s="19"/>
-      <c r="AJ50" s="62"/>
+      <c r="AJ50" s="67"/>
       <c r="AK50" s="19"/>
     </row>
     <row r="51" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A51" s="72"/>
-      <c r="B51" s="65"/>
-      <c r="C51" s="64"/>
+      <c r="A51" s="60"/>
+      <c r="B51" s="69"/>
+      <c r="C51" s="59"/>
       <c r="D51" s="2" t="s">
         <v>38</v>
       </c>
@@ -7931,27 +8241,27 @@
       <c r="S51" s="20"/>
       <c r="T51" s="20"/>
       <c r="U51" s="20"/>
-      <c r="V51" s="67"/>
+      <c r="V51" s="71"/>
       <c r="W51" s="20"/>
       <c r="X51" s="20"/>
       <c r="Y51" s="20"/>
       <c r="Z51" s="20"/>
       <c r="AA51" s="20"/>
       <c r="AB51" s="20"/>
-      <c r="AC51" s="70"/>
+      <c r="AC51" s="74"/>
       <c r="AD51" s="19"/>
       <c r="AE51" s="19"/>
       <c r="AF51" s="19"/>
       <c r="AG51" s="19"/>
       <c r="AH51" s="19"/>
       <c r="AI51" s="19"/>
-      <c r="AJ51" s="62"/>
+      <c r="AJ51" s="67"/>
       <c r="AK51" s="19"/>
     </row>
     <row r="52" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A52" s="72"/>
-      <c r="B52" s="65"/>
-      <c r="C52" s="64"/>
+      <c r="A52" s="60"/>
+      <c r="B52" s="69"/>
+      <c r="C52" s="59"/>
       <c r="D52" s="2" t="s">
         <v>33</v>
       </c>
@@ -7974,27 +8284,27 @@
       <c r="S52" s="20"/>
       <c r="T52" s="20"/>
       <c r="U52" s="20"/>
-      <c r="V52" s="67"/>
+      <c r="V52" s="71"/>
       <c r="W52" s="20"/>
       <c r="X52" s="20"/>
       <c r="Y52" s="20"/>
       <c r="Z52" s="20"/>
       <c r="AA52" s="20"/>
       <c r="AB52" s="20"/>
-      <c r="AC52" s="70"/>
+      <c r="AC52" s="74"/>
       <c r="AD52" s="19"/>
       <c r="AE52" s="19"/>
       <c r="AF52" s="19"/>
       <c r="AG52" s="19"/>
       <c r="AH52" s="19"/>
       <c r="AI52" s="19"/>
-      <c r="AJ52" s="62"/>
+      <c r="AJ52" s="67"/>
       <c r="AK52" s="19"/>
     </row>
     <row r="53" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A53" s="72"/>
-      <c r="B53" s="65"/>
-      <c r="C53" s="64" t="s">
+      <c r="A53" s="60"/>
+      <c r="B53" s="69"/>
+      <c r="C53" s="59" t="s">
         <v>121</v>
       </c>
       <c r="D53" s="2" t="s">
@@ -8023,27 +8333,27 @@
       <c r="S53" s="20"/>
       <c r="T53" s="20"/>
       <c r="U53" s="20"/>
-      <c r="V53" s="67"/>
+      <c r="V53" s="71"/>
       <c r="W53" s="20"/>
       <c r="X53" s="20"/>
       <c r="Y53" s="20"/>
       <c r="Z53" s="20"/>
       <c r="AA53" s="20"/>
       <c r="AB53" s="20"/>
-      <c r="AC53" s="70"/>
+      <c r="AC53" s="74"/>
       <c r="AD53" s="19"/>
       <c r="AE53" s="19"/>
       <c r="AF53" s="19"/>
       <c r="AG53" s="19"/>
       <c r="AH53" s="19"/>
       <c r="AI53" s="19"/>
-      <c r="AJ53" s="62"/>
+      <c r="AJ53" s="67"/>
       <c r="AK53" s="19"/>
     </row>
     <row r="54" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A54" s="72"/>
-      <c r="B54" s="65"/>
-      <c r="C54" s="64"/>
+      <c r="A54" s="60"/>
+      <c r="B54" s="69"/>
+      <c r="C54" s="59"/>
       <c r="D54" s="2" t="s">
         <v>151</v>
       </c>
@@ -8070,26 +8380,26 @@
       <c r="S54" s="20"/>
       <c r="T54" s="20"/>
       <c r="U54" s="20"/>
-      <c r="V54" s="67"/>
+      <c r="V54" s="71"/>
       <c r="W54" s="20"/>
       <c r="X54" s="20"/>
       <c r="Y54" s="20"/>
       <c r="Z54" s="20"/>
       <c r="AA54" s="20"/>
       <c r="AB54" s="20"/>
-      <c r="AC54" s="70"/>
+      <c r="AC54" s="74"/>
       <c r="AD54" s="19"/>
       <c r="AE54" s="19"/>
       <c r="AF54" s="19"/>
       <c r="AG54" s="19"/>
       <c r="AH54" s="19"/>
       <c r="AI54" s="19"/>
-      <c r="AJ54" s="62"/>
+      <c r="AJ54" s="67"/>
       <c r="AK54" s="19"/>
     </row>
     <row r="55" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="72"/>
-      <c r="B55" s="65"/>
+      <c r="A55" s="60"/>
+      <c r="B55" s="69"/>
       <c r="C55" s="21" t="s">
         <v>71</v>
       </c>
@@ -8115,32 +8425,32 @@
       <c r="S55" s="21"/>
       <c r="T55" s="21"/>
       <c r="U55" s="21"/>
-      <c r="V55" s="67"/>
+      <c r="V55" s="71"/>
       <c r="W55" s="21"/>
       <c r="X55" s="21"/>
       <c r="Y55" s="21"/>
       <c r="Z55" s="21"/>
       <c r="AA55" s="21"/>
       <c r="AB55" s="21"/>
-      <c r="AC55" s="70"/>
+      <c r="AC55" s="74"/>
       <c r="AD55" s="19"/>
       <c r="AE55" s="19"/>
       <c r="AF55" s="19"/>
       <c r="AG55" s="19"/>
       <c r="AH55" s="19"/>
       <c r="AI55" s="19"/>
-      <c r="AJ55" s="62"/>
+      <c r="AJ55" s="67"/>
       <c r="AK55" s="19"/>
     </row>
     <row r="56" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A56" s="72"/>
-      <c r="B56" s="74" t="s">
+      <c r="A56" s="60"/>
+      <c r="B56" s="62" t="s">
         <v>120</v>
       </c>
-      <c r="C56" s="64" t="s">
+      <c r="C56" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="D56" s="64" t="s">
+      <c r="D56" s="59" t="s">
         <v>29</v>
       </c>
       <c r="E56" s="2" t="s">
@@ -8172,28 +8482,28 @@
       <c r="S56" s="20"/>
       <c r="T56" s="20"/>
       <c r="U56" s="20"/>
-      <c r="V56" s="67"/>
+      <c r="V56" s="71"/>
       <c r="W56" s="20"/>
       <c r="X56" s="20"/>
       <c r="Y56" s="20"/>
       <c r="Z56" s="20"/>
       <c r="AA56" s="20"/>
       <c r="AB56" s="20"/>
-      <c r="AC56" s="70"/>
+      <c r="AC56" s="74"/>
       <c r="AD56" s="19"/>
       <c r="AE56" s="19"/>
       <c r="AF56" s="19"/>
       <c r="AG56" s="19"/>
       <c r="AH56" s="19"/>
       <c r="AI56" s="19"/>
-      <c r="AJ56" s="62"/>
+      <c r="AJ56" s="67"/>
       <c r="AK56" s="19"/>
     </row>
     <row r="57" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A57" s="72"/>
-      <c r="B57" s="74"/>
-      <c r="C57" s="64"/>
-      <c r="D57" s="64"/>
+      <c r="A57" s="60"/>
+      <c r="B57" s="62"/>
+      <c r="C57" s="59"/>
+      <c r="D57" s="59"/>
       <c r="E57" s="2" t="s">
         <v>130</v>
       </c>
@@ -8223,30 +8533,30 @@
       <c r="S57" s="20"/>
       <c r="T57" s="20"/>
       <c r="U57" s="20"/>
-      <c r="V57" s="67"/>
+      <c r="V57" s="71"/>
       <c r="W57" s="20"/>
       <c r="X57" s="20"/>
       <c r="Y57" s="20"/>
       <c r="Z57" s="20"/>
       <c r="AA57" s="20"/>
       <c r="AB57" s="20"/>
-      <c r="AC57" s="70"/>
+      <c r="AC57" s="74"/>
       <c r="AD57" s="19"/>
       <c r="AE57" s="19"/>
       <c r="AF57" s="19"/>
       <c r="AG57" s="19"/>
       <c r="AH57" s="19"/>
       <c r="AI57" s="19"/>
-      <c r="AJ57" s="62"/>
+      <c r="AJ57" s="67"/>
       <c r="AK57" s="19"/>
     </row>
     <row r="58" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A58" s="72"/>
-      <c r="B58" s="74"/>
-      <c r="C58" s="64" t="s">
+      <c r="A58" s="60"/>
+      <c r="B58" s="62"/>
+      <c r="C58" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="D58" s="64" t="s">
+      <c r="D58" s="59" t="s">
         <v>95</v>
       </c>
       <c r="E58" s="2" t="s">
@@ -8258,8 +8568,12 @@
       <c r="G58" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="H58" s="35"/>
-      <c r="I58" s="35"/>
+      <c r="H58" s="35">
+        <v>44132</v>
+      </c>
+      <c r="I58" s="35">
+        <v>44133</v>
+      </c>
       <c r="J58" s="36">
         <v>1</v>
       </c>
@@ -8274,28 +8588,28 @@
       <c r="S58" s="20"/>
       <c r="T58" s="20"/>
       <c r="U58" s="20"/>
-      <c r="V58" s="67"/>
+      <c r="V58" s="71"/>
       <c r="W58" s="20"/>
       <c r="X58" s="20"/>
       <c r="Y58" s="20"/>
       <c r="Z58" s="20"/>
       <c r="AA58" s="20"/>
       <c r="AB58" s="20"/>
-      <c r="AC58" s="70"/>
+      <c r="AC58" s="74"/>
       <c r="AD58" s="19"/>
       <c r="AE58" s="19"/>
       <c r="AF58" s="19"/>
       <c r="AG58" s="19"/>
       <c r="AH58" s="19"/>
       <c r="AI58" s="19"/>
-      <c r="AJ58" s="62"/>
+      <c r="AJ58" s="67"/>
       <c r="AK58" s="19"/>
     </row>
     <row r="59" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A59" s="72"/>
-      <c r="B59" s="74"/>
-      <c r="C59" s="64"/>
-      <c r="D59" s="64"/>
+      <c r="A59" s="60"/>
+      <c r="B59" s="62"/>
+      <c r="C59" s="59"/>
+      <c r="D59" s="59"/>
       <c r="E59" s="2" t="s">
         <v>146</v>
       </c>
@@ -8305,8 +8619,12 @@
       <c r="G59" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="H59" s="35"/>
-      <c r="I59" s="35"/>
+      <c r="H59" s="35">
+        <v>44132</v>
+      </c>
+      <c r="I59" s="35">
+        <v>44133</v>
+      </c>
       <c r="J59" s="36">
         <v>1</v>
       </c>
@@ -8321,28 +8639,28 @@
       <c r="S59" s="20"/>
       <c r="T59" s="20"/>
       <c r="U59" s="20"/>
-      <c r="V59" s="67"/>
+      <c r="V59" s="71"/>
       <c r="W59" s="20"/>
       <c r="X59" s="20"/>
       <c r="Y59" s="20"/>
       <c r="Z59" s="20"/>
       <c r="AA59" s="20"/>
       <c r="AB59" s="20"/>
-      <c r="AC59" s="70"/>
+      <c r="AC59" s="74"/>
       <c r="AD59" s="19"/>
       <c r="AE59" s="19"/>
       <c r="AF59" s="19"/>
       <c r="AG59" s="19"/>
       <c r="AH59" s="19"/>
       <c r="AI59" s="19"/>
-      <c r="AJ59" s="62"/>
+      <c r="AJ59" s="67"/>
       <c r="AK59" s="19"/>
     </row>
     <row r="60" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A60" s="72"/>
-      <c r="B60" s="74"/>
-      <c r="C60" s="64"/>
-      <c r="D60" s="64"/>
+      <c r="A60" s="60"/>
+      <c r="B60" s="62"/>
+      <c r="C60" s="59"/>
+      <c r="D60" s="59"/>
       <c r="E60" s="2" t="s">
         <v>147</v>
       </c>
@@ -8352,8 +8670,12 @@
       <c r="G60" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="H60" s="35"/>
-      <c r="I60" s="35"/>
+      <c r="H60" s="35">
+        <v>44132</v>
+      </c>
+      <c r="I60" s="35">
+        <v>44133</v>
+      </c>
       <c r="J60" s="36">
         <v>1</v>
       </c>
@@ -8368,28 +8690,28 @@
       <c r="S60" s="20"/>
       <c r="T60" s="20"/>
       <c r="U60" s="20"/>
-      <c r="V60" s="67"/>
+      <c r="V60" s="71"/>
       <c r="W60" s="20"/>
       <c r="X60" s="20"/>
       <c r="Y60" s="20"/>
       <c r="Z60" s="20"/>
       <c r="AA60" s="20"/>
       <c r="AB60" s="20"/>
-      <c r="AC60" s="70"/>
+      <c r="AC60" s="74"/>
       <c r="AD60" s="19"/>
       <c r="AE60" s="19"/>
       <c r="AF60" s="19"/>
       <c r="AG60" s="19"/>
       <c r="AH60" s="19"/>
       <c r="AI60" s="19"/>
-      <c r="AJ60" s="62"/>
+      <c r="AJ60" s="67"/>
       <c r="AK60" s="19"/>
     </row>
     <row r="61" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A61" s="72"/>
-      <c r="B61" s="74"/>
-      <c r="C61" s="64"/>
-      <c r="D61" s="64"/>
+      <c r="A61" s="60"/>
+      <c r="B61" s="62"/>
+      <c r="C61" s="59"/>
+      <c r="D61" s="59"/>
       <c r="E61" s="2" t="s">
         <v>107</v>
       </c>
@@ -8399,8 +8721,12 @@
       <c r="G61" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="H61" s="35"/>
-      <c r="I61" s="35"/>
+      <c r="H61" s="35">
+        <v>44132</v>
+      </c>
+      <c r="I61" s="35">
+        <v>44133</v>
+      </c>
       <c r="J61" s="36">
         <v>1</v>
       </c>
@@ -8415,28 +8741,28 @@
       <c r="S61" s="20"/>
       <c r="T61" s="20"/>
       <c r="U61" s="20"/>
-      <c r="V61" s="67"/>
+      <c r="V61" s="71"/>
       <c r="W61" s="20"/>
       <c r="X61" s="20"/>
       <c r="Y61" s="20"/>
       <c r="Z61" s="20"/>
       <c r="AA61" s="20"/>
       <c r="AB61" s="20"/>
-      <c r="AC61" s="70"/>
+      <c r="AC61" s="74"/>
       <c r="AD61" s="19"/>
       <c r="AE61" s="19"/>
       <c r="AF61" s="19"/>
       <c r="AG61" s="19"/>
       <c r="AH61" s="19"/>
       <c r="AI61" s="19"/>
-      <c r="AJ61" s="62"/>
+      <c r="AJ61" s="67"/>
       <c r="AK61" s="19"/>
     </row>
     <row r="62" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A62" s="72"/>
-      <c r="B62" s="74"/>
-      <c r="C62" s="64"/>
-      <c r="D62" s="64"/>
+      <c r="A62" s="60"/>
+      <c r="B62" s="62"/>
+      <c r="C62" s="59"/>
+      <c r="D62" s="59"/>
       <c r="E62" s="2" t="s">
         <v>108</v>
       </c>
@@ -8446,8 +8772,12 @@
       <c r="G62" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="H62" s="35"/>
-      <c r="I62" s="35"/>
+      <c r="H62" s="35">
+        <v>44132</v>
+      </c>
+      <c r="I62" s="35">
+        <v>44133</v>
+      </c>
       <c r="J62" s="36">
         <v>1</v>
       </c>
@@ -8462,28 +8792,28 @@
       <c r="S62" s="20"/>
       <c r="T62" s="20"/>
       <c r="U62" s="20"/>
-      <c r="V62" s="67"/>
+      <c r="V62" s="71"/>
       <c r="W62" s="20"/>
       <c r="X62" s="20"/>
       <c r="Y62" s="20"/>
       <c r="Z62" s="20"/>
       <c r="AA62" s="20"/>
       <c r="AB62" s="20"/>
-      <c r="AC62" s="70"/>
+      <c r="AC62" s="74"/>
       <c r="AD62" s="19"/>
       <c r="AE62" s="19"/>
       <c r="AF62" s="19"/>
       <c r="AG62" s="19"/>
       <c r="AH62" s="19"/>
       <c r="AI62" s="19"/>
-      <c r="AJ62" s="62"/>
+      <c r="AJ62" s="67"/>
       <c r="AK62" s="19"/>
     </row>
     <row r="63" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A63" s="72"/>
-      <c r="B63" s="74"/>
-      <c r="C63" s="64"/>
-      <c r="D63" s="64" t="s">
+      <c r="A63" s="60"/>
+      <c r="B63" s="62"/>
+      <c r="C63" s="59"/>
+      <c r="D63" s="59" t="s">
         <v>97</v>
       </c>
       <c r="E63" s="2" t="s">
@@ -8509,28 +8839,28 @@
       <c r="S63" s="20"/>
       <c r="T63" s="20"/>
       <c r="U63" s="20"/>
-      <c r="V63" s="67"/>
+      <c r="V63" s="71"/>
       <c r="W63" s="20"/>
       <c r="X63" s="20"/>
       <c r="Y63" s="20"/>
       <c r="Z63" s="20"/>
       <c r="AA63" s="20"/>
       <c r="AB63" s="20"/>
-      <c r="AC63" s="70"/>
+      <c r="AC63" s="74"/>
       <c r="AD63" s="19"/>
       <c r="AE63" s="19"/>
       <c r="AF63" s="19"/>
       <c r="AG63" s="19"/>
       <c r="AH63" s="19"/>
       <c r="AI63" s="19"/>
-      <c r="AJ63" s="62"/>
+      <c r="AJ63" s="67"/>
       <c r="AK63" s="19"/>
     </row>
     <row r="64" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A64" s="72"/>
-      <c r="B64" s="74"/>
-      <c r="C64" s="64"/>
-      <c r="D64" s="64"/>
+      <c r="A64" s="60"/>
+      <c r="B64" s="62"/>
+      <c r="C64" s="59"/>
+      <c r="D64" s="59"/>
       <c r="E64" s="2" t="s">
         <v>102</v>
       </c>
@@ -8554,30 +8884,30 @@
       <c r="S64" s="20"/>
       <c r="T64" s="20"/>
       <c r="U64" s="20"/>
-      <c r="V64" s="67"/>
+      <c r="V64" s="71"/>
       <c r="W64" s="20"/>
       <c r="X64" s="20"/>
       <c r="Y64" s="20"/>
       <c r="Z64" s="20"/>
       <c r="AA64" s="20"/>
       <c r="AB64" s="20"/>
-      <c r="AC64" s="70"/>
+      <c r="AC64" s="74"/>
       <c r="AD64" s="19"/>
       <c r="AE64" s="19"/>
       <c r="AF64" s="19"/>
       <c r="AG64" s="19"/>
       <c r="AH64" s="19"/>
       <c r="AI64" s="19"/>
-      <c r="AJ64" s="62"/>
+      <c r="AJ64" s="67"/>
       <c r="AK64" s="19"/>
     </row>
     <row r="65" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="72"/>
-      <c r="B65" s="74"/>
-      <c r="C65" s="64" t="s">
+      <c r="A65" s="60"/>
+      <c r="B65" s="62"/>
+      <c r="C65" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="D65" s="64" t="s">
+      <c r="D65" s="59" t="s">
         <v>93</v>
       </c>
       <c r="E65" s="2" t="s">
@@ -8609,28 +8939,28 @@
       <c r="S65" s="20"/>
       <c r="T65" s="20"/>
       <c r="U65" s="20"/>
-      <c r="V65" s="67"/>
+      <c r="V65" s="71"/>
       <c r="W65" s="20"/>
       <c r="X65" s="20"/>
       <c r="Y65" s="20"/>
       <c r="Z65" s="20"/>
       <c r="AA65" s="20"/>
       <c r="AB65" s="20"/>
-      <c r="AC65" s="70"/>
+      <c r="AC65" s="74"/>
       <c r="AD65" s="19"/>
       <c r="AE65" s="19"/>
       <c r="AF65" s="19"/>
       <c r="AG65" s="19"/>
       <c r="AH65" s="19"/>
       <c r="AI65" s="19"/>
-      <c r="AJ65" s="62"/>
+      <c r="AJ65" s="67"/>
       <c r="AK65" s="19"/>
     </row>
     <row r="66" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="72"/>
-      <c r="B66" s="74"/>
-      <c r="C66" s="64"/>
-      <c r="D66" s="64"/>
+      <c r="A66" s="60"/>
+      <c r="B66" s="62"/>
+      <c r="C66" s="59"/>
+      <c r="D66" s="59"/>
       <c r="E66" s="2" t="s">
         <v>130</v>
       </c>
@@ -8658,28 +8988,28 @@
       <c r="S66" s="20"/>
       <c r="T66" s="20"/>
       <c r="U66" s="20"/>
-      <c r="V66" s="67"/>
+      <c r="V66" s="71"/>
       <c r="W66" s="20"/>
       <c r="X66" s="20"/>
       <c r="Y66" s="20"/>
       <c r="Z66" s="20"/>
       <c r="AA66" s="20"/>
       <c r="AB66" s="20"/>
-      <c r="AC66" s="70"/>
+      <c r="AC66" s="74"/>
       <c r="AD66" s="19"/>
       <c r="AE66" s="19"/>
       <c r="AF66" s="19"/>
       <c r="AG66" s="19"/>
       <c r="AH66" s="19"/>
       <c r="AI66" s="19"/>
-      <c r="AJ66" s="62"/>
+      <c r="AJ66" s="67"/>
       <c r="AK66" s="19"/>
     </row>
     <row r="67" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="72"/>
-      <c r="B67" s="74"/>
-      <c r="C67" s="64"/>
-      <c r="D67" s="59" t="s">
+      <c r="A67" s="60"/>
+      <c r="B67" s="62"/>
+      <c r="C67" s="59"/>
+      <c r="D67" s="63" t="s">
         <v>98</v>
       </c>
       <c r="E67" s="2" t="s">
@@ -8703,28 +9033,28 @@
       <c r="S67" s="53"/>
       <c r="T67" s="53"/>
       <c r="U67" s="53"/>
-      <c r="V67" s="67"/>
+      <c r="V67" s="71"/>
       <c r="W67" s="53"/>
       <c r="X67" s="53"/>
       <c r="Y67" s="53"/>
       <c r="Z67" s="53"/>
       <c r="AA67" s="53"/>
       <c r="AB67" s="53"/>
-      <c r="AC67" s="70"/>
+      <c r="AC67" s="74"/>
       <c r="AD67" s="54"/>
       <c r="AE67" s="54"/>
       <c r="AF67" s="54"/>
       <c r="AG67" s="54"/>
       <c r="AH67" s="54"/>
       <c r="AI67" s="54"/>
-      <c r="AJ67" s="62"/>
+      <c r="AJ67" s="67"/>
       <c r="AK67" s="54"/>
     </row>
     <row r="68" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="72"/>
-      <c r="B68" s="74"/>
-      <c r="C68" s="64"/>
-      <c r="D68" s="60"/>
+      <c r="A68" s="60"/>
+      <c r="B68" s="62"/>
+      <c r="C68" s="59"/>
+      <c r="D68" s="65"/>
       <c r="E68" s="2" t="s">
         <v>130</v>
       </c>
@@ -8748,27 +9078,27 @@
       <c r="S68" s="20"/>
       <c r="T68" s="20"/>
       <c r="U68" s="20"/>
-      <c r="V68" s="67"/>
+      <c r="V68" s="71"/>
       <c r="W68" s="20"/>
       <c r="X68" s="20"/>
       <c r="Y68" s="20"/>
       <c r="Z68" s="20"/>
       <c r="AA68" s="20"/>
       <c r="AB68" s="20"/>
-      <c r="AC68" s="70"/>
+      <c r="AC68" s="74"/>
       <c r="AD68" s="19"/>
       <c r="AE68" s="19"/>
       <c r="AF68" s="19"/>
       <c r="AG68" s="19"/>
       <c r="AH68" s="19"/>
       <c r="AI68" s="19"/>
-      <c r="AJ68" s="62"/>
+      <c r="AJ68" s="67"/>
       <c r="AK68" s="19"/>
     </row>
     <row r="69" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A69" s="72"/>
-      <c r="B69" s="74"/>
-      <c r="C69" s="75"/>
+      <c r="A69" s="60"/>
+      <c r="B69" s="62"/>
+      <c r="C69" s="64"/>
       <c r="D69" s="2" t="s">
         <v>190</v>
       </c>
@@ -8793,27 +9123,27 @@
       <c r="S69" s="53"/>
       <c r="T69" s="53"/>
       <c r="U69" s="53"/>
-      <c r="V69" s="67"/>
+      <c r="V69" s="71"/>
       <c r="W69" s="53"/>
       <c r="X69" s="53"/>
       <c r="Y69" s="53"/>
       <c r="Z69" s="53"/>
       <c r="AA69" s="53"/>
       <c r="AB69" s="53"/>
-      <c r="AC69" s="70"/>
+      <c r="AC69" s="74"/>
       <c r="AD69" s="54"/>
       <c r="AE69" s="54"/>
       <c r="AF69" s="54"/>
       <c r="AG69" s="54"/>
       <c r="AH69" s="54"/>
       <c r="AI69" s="54"/>
-      <c r="AJ69" s="62"/>
+      <c r="AJ69" s="67"/>
       <c r="AK69" s="54"/>
     </row>
     <row r="70" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A70" s="72"/>
-      <c r="B70" s="74"/>
-      <c r="C70" s="75"/>
+      <c r="A70" s="60"/>
+      <c r="B70" s="62"/>
+      <c r="C70" s="64"/>
       <c r="D70" s="2" t="s">
         <v>191</v>
       </c>
@@ -8838,27 +9168,27 @@
       <c r="S70" s="53"/>
       <c r="T70" s="53"/>
       <c r="U70" s="53"/>
-      <c r="V70" s="67"/>
+      <c r="V70" s="71"/>
       <c r="W70" s="53"/>
       <c r="X70" s="53"/>
       <c r="Y70" s="53"/>
       <c r="Z70" s="53"/>
       <c r="AA70" s="53"/>
       <c r="AB70" s="53"/>
-      <c r="AC70" s="70"/>
+      <c r="AC70" s="74"/>
       <c r="AD70" s="54"/>
       <c r="AE70" s="54"/>
       <c r="AF70" s="54"/>
       <c r="AG70" s="54"/>
       <c r="AH70" s="54"/>
       <c r="AI70" s="54"/>
-      <c r="AJ70" s="62"/>
+      <c r="AJ70" s="67"/>
       <c r="AK70" s="54"/>
     </row>
     <row r="71" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A71" s="72"/>
-      <c r="B71" s="74"/>
-      <c r="C71" s="60"/>
+      <c r="A71" s="60"/>
+      <c r="B71" s="62"/>
+      <c r="C71" s="65"/>
       <c r="D71" s="2" t="s">
         <v>161</v>
       </c>
@@ -8891,27 +9221,27 @@
       <c r="S71" s="20"/>
       <c r="T71" s="20"/>
       <c r="U71" s="20"/>
-      <c r="V71" s="67"/>
+      <c r="V71" s="71"/>
       <c r="W71" s="20"/>
       <c r="X71" s="20"/>
       <c r="Y71" s="20"/>
       <c r="Z71" s="20"/>
       <c r="AA71" s="20"/>
       <c r="AB71" s="20"/>
-      <c r="AC71" s="70"/>
+      <c r="AC71" s="74"/>
       <c r="AD71" s="19"/>
       <c r="AE71" s="19"/>
       <c r="AF71" s="19"/>
       <c r="AG71" s="19"/>
       <c r="AH71" s="19"/>
       <c r="AI71" s="19"/>
-      <c r="AJ71" s="62"/>
+      <c r="AJ71" s="67"/>
       <c r="AK71" s="19"/>
     </row>
     <row r="72" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A72" s="72"/>
-      <c r="B72" s="74"/>
-      <c r="C72" s="64" t="s">
+      <c r="A72" s="60"/>
+      <c r="B72" s="62"/>
+      <c r="C72" s="59" t="s">
         <v>13</v>
       </c>
       <c r="D72" s="2" t="s">
@@ -8944,27 +9274,27 @@
       <c r="S72" s="20"/>
       <c r="T72" s="20"/>
       <c r="U72" s="20"/>
-      <c r="V72" s="67"/>
+      <c r="V72" s="71"/>
       <c r="W72" s="20"/>
       <c r="X72" s="20"/>
       <c r="Y72" s="20"/>
       <c r="Z72" s="20"/>
       <c r="AA72" s="20"/>
       <c r="AB72" s="20"/>
-      <c r="AC72" s="70"/>
+      <c r="AC72" s="74"/>
       <c r="AD72" s="19"/>
       <c r="AE72" s="19"/>
       <c r="AF72" s="19"/>
       <c r="AG72" s="19"/>
       <c r="AH72" s="19"/>
       <c r="AI72" s="19"/>
-      <c r="AJ72" s="62"/>
+      <c r="AJ72" s="67"/>
       <c r="AK72" s="19"/>
     </row>
     <row r="73" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A73" s="72"/>
-      <c r="B73" s="74"/>
-      <c r="C73" s="64"/>
+      <c r="A73" s="60"/>
+      <c r="B73" s="62"/>
+      <c r="C73" s="59"/>
       <c r="D73" s="2" t="s">
         <v>126</v>
       </c>
@@ -8995,27 +9325,27 @@
       <c r="S73" s="20"/>
       <c r="T73" s="20"/>
       <c r="U73" s="20"/>
-      <c r="V73" s="67"/>
+      <c r="V73" s="71"/>
       <c r="W73" s="20"/>
       <c r="X73" s="20"/>
       <c r="Y73" s="20"/>
       <c r="Z73" s="20"/>
       <c r="AA73" s="20"/>
       <c r="AB73" s="20"/>
-      <c r="AC73" s="70"/>
+      <c r="AC73" s="74"/>
       <c r="AD73" s="19"/>
       <c r="AE73" s="19"/>
       <c r="AF73" s="19"/>
       <c r="AG73" s="19"/>
       <c r="AH73" s="19"/>
       <c r="AI73" s="19"/>
-      <c r="AJ73" s="62"/>
+      <c r="AJ73" s="67"/>
       <c r="AK73" s="19"/>
     </row>
     <row r="74" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="72"/>
-      <c r="B74" s="74"/>
-      <c r="C74" s="59" t="s">
+      <c r="A74" s="60"/>
+      <c r="B74" s="62"/>
+      <c r="C74" s="63" t="s">
         <v>99</v>
       </c>
       <c r="D74" s="2" t="s">
@@ -9048,27 +9378,27 @@
       <c r="S74" s="20"/>
       <c r="T74" s="20"/>
       <c r="U74" s="20"/>
-      <c r="V74" s="67"/>
+      <c r="V74" s="71"/>
       <c r="W74" s="20"/>
       <c r="X74" s="20"/>
       <c r="Y74" s="20"/>
       <c r="Z74" s="20"/>
       <c r="AA74" s="20"/>
       <c r="AB74" s="20"/>
-      <c r="AC74" s="70"/>
+      <c r="AC74" s="74"/>
       <c r="AD74" s="19"/>
       <c r="AE74" s="19"/>
       <c r="AF74" s="19"/>
       <c r="AG74" s="19"/>
       <c r="AH74" s="19"/>
       <c r="AI74" s="19"/>
-      <c r="AJ74" s="62"/>
+      <c r="AJ74" s="67"/>
       <c r="AK74" s="19"/>
     </row>
     <row r="75" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="72"/>
-      <c r="B75" s="74"/>
-      <c r="C75" s="75"/>
+      <c r="A75" s="60"/>
+      <c r="B75" s="62"/>
+      <c r="C75" s="64"/>
       <c r="D75" s="2" t="s">
         <v>156</v>
       </c>
@@ -9099,27 +9429,27 @@
       <c r="S75" s="20"/>
       <c r="T75" s="20"/>
       <c r="U75" s="20"/>
-      <c r="V75" s="67"/>
+      <c r="V75" s="71"/>
       <c r="W75" s="20"/>
       <c r="X75" s="20"/>
       <c r="Y75" s="20"/>
       <c r="Z75" s="20"/>
       <c r="AA75" s="20"/>
       <c r="AB75" s="20"/>
-      <c r="AC75" s="70"/>
+      <c r="AC75" s="74"/>
       <c r="AD75" s="19"/>
       <c r="AE75" s="19"/>
       <c r="AF75" s="19"/>
       <c r="AG75" s="19"/>
       <c r="AH75" s="19"/>
       <c r="AI75" s="19"/>
-      <c r="AJ75" s="62"/>
+      <c r="AJ75" s="67"/>
       <c r="AK75" s="19"/>
     </row>
     <row r="76" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="72"/>
-      <c r="B76" s="74"/>
-      <c r="C76" s="75"/>
+      <c r="A76" s="60"/>
+      <c r="B76" s="62"/>
+      <c r="C76" s="64"/>
       <c r="D76" s="2" t="s">
         <v>187</v>
       </c>
@@ -9142,27 +9472,27 @@
       <c r="S76" s="53"/>
       <c r="T76" s="53"/>
       <c r="U76" s="53"/>
-      <c r="V76" s="67"/>
+      <c r="V76" s="71"/>
       <c r="W76" s="53"/>
       <c r="X76" s="53"/>
       <c r="Y76" s="53"/>
       <c r="Z76" s="53"/>
       <c r="AA76" s="53"/>
       <c r="AB76" s="53"/>
-      <c r="AC76" s="70"/>
+      <c r="AC76" s="74"/>
       <c r="AD76" s="54"/>
       <c r="AE76" s="54"/>
       <c r="AF76" s="54"/>
       <c r="AG76" s="54"/>
       <c r="AH76" s="54"/>
       <c r="AI76" s="54"/>
-      <c r="AJ76" s="62"/>
+      <c r="AJ76" s="67"/>
       <c r="AK76" s="54"/>
     </row>
     <row r="77" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="72"/>
-      <c r="B77" s="74"/>
-      <c r="C77" s="60"/>
+      <c r="A77" s="60"/>
+      <c r="B77" s="62"/>
+      <c r="C77" s="65"/>
       <c r="D77" s="2" t="s">
         <v>157</v>
       </c>
@@ -9193,27 +9523,27 @@
       <c r="S77" s="37"/>
       <c r="T77" s="37"/>
       <c r="U77" s="37"/>
-      <c r="V77" s="67"/>
+      <c r="V77" s="71"/>
       <c r="W77" s="37"/>
       <c r="X77" s="37"/>
       <c r="Y77" s="37"/>
       <c r="Z77" s="37"/>
       <c r="AA77" s="37"/>
       <c r="AB77" s="37"/>
-      <c r="AC77" s="70"/>
+      <c r="AC77" s="74"/>
       <c r="AD77" s="19"/>
       <c r="AE77" s="19"/>
       <c r="AF77" s="19"/>
       <c r="AG77" s="19"/>
       <c r="AH77" s="19"/>
       <c r="AI77" s="19"/>
-      <c r="AJ77" s="62"/>
+      <c r="AJ77" s="67"/>
       <c r="AK77" s="19"/>
     </row>
     <row r="78" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A78" s="72"/>
-      <c r="B78" s="74"/>
-      <c r="C78" s="64" t="s">
+      <c r="A78" s="60"/>
+      <c r="B78" s="62"/>
+      <c r="C78" s="59" t="s">
         <v>30</v>
       </c>
       <c r="D78" s="2" t="s">
@@ -9244,27 +9574,27 @@
       <c r="S78" s="20"/>
       <c r="T78" s="20"/>
       <c r="U78" s="20"/>
-      <c r="V78" s="67"/>
+      <c r="V78" s="71"/>
       <c r="W78" s="20"/>
       <c r="X78" s="20"/>
       <c r="Y78" s="20"/>
       <c r="Z78" s="20"/>
       <c r="AA78" s="20"/>
       <c r="AB78" s="20"/>
-      <c r="AC78" s="70"/>
+      <c r="AC78" s="74"/>
       <c r="AD78" s="19"/>
       <c r="AE78" s="19"/>
       <c r="AF78" s="19"/>
       <c r="AG78" s="19"/>
       <c r="AH78" s="19"/>
       <c r="AI78" s="19"/>
-      <c r="AJ78" s="62"/>
+      <c r="AJ78" s="67"/>
       <c r="AK78" s="19"/>
     </row>
     <row r="79" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A79" s="72"/>
-      <c r="B79" s="74"/>
-      <c r="C79" s="64"/>
+      <c r="A79" s="60"/>
+      <c r="B79" s="62"/>
+      <c r="C79" s="59"/>
       <c r="D79" s="2" t="s">
         <v>32</v>
       </c>
@@ -9287,27 +9617,27 @@
       <c r="S79" s="20"/>
       <c r="T79" s="20"/>
       <c r="U79" s="20"/>
-      <c r="V79" s="67"/>
+      <c r="V79" s="71"/>
       <c r="W79" s="20"/>
       <c r="X79" s="20"/>
       <c r="Y79" s="20"/>
       <c r="Z79" s="20"/>
       <c r="AA79" s="20"/>
       <c r="AB79" s="20"/>
-      <c r="AC79" s="70"/>
+      <c r="AC79" s="74"/>
       <c r="AD79" s="19"/>
       <c r="AE79" s="19"/>
       <c r="AF79" s="19"/>
       <c r="AG79" s="19"/>
       <c r="AH79" s="19"/>
       <c r="AI79" s="19"/>
-      <c r="AJ79" s="62"/>
+      <c r="AJ79" s="67"/>
       <c r="AK79" s="19"/>
     </row>
     <row r="80" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A80" s="72"/>
-      <c r="B80" s="74"/>
-      <c r="C80" s="64"/>
+      <c r="A80" s="60"/>
+      <c r="B80" s="62"/>
+      <c r="C80" s="59"/>
       <c r="D80" s="2" t="s">
         <v>33</v>
       </c>
@@ -9336,25 +9666,25 @@
       <c r="S80" s="20"/>
       <c r="T80" s="20"/>
       <c r="U80" s="20"/>
-      <c r="V80" s="68"/>
+      <c r="V80" s="72"/>
       <c r="W80" s="20"/>
       <c r="X80" s="20"/>
       <c r="Y80" s="20"/>
       <c r="Z80" s="20"/>
       <c r="AA80" s="20"/>
       <c r="AB80" s="20"/>
-      <c r="AC80" s="71"/>
+      <c r="AC80" s="75"/>
       <c r="AD80" s="19"/>
       <c r="AE80" s="19"/>
       <c r="AF80" s="19"/>
       <c r="AG80" s="19"/>
       <c r="AH80" s="19"/>
       <c r="AI80" s="19"/>
-      <c r="AJ80" s="63"/>
+      <c r="AJ80" s="68"/>
       <c r="AK80" s="19"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A81" s="72"/>
+      <c r="A81" s="60"/>
       <c r="B81" s="44" t="s">
         <v>21</v>
       </c>
@@ -9375,20 +9705,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="A5:A81"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C78:C80"/>
-    <mergeCell ref="C48:C52"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="C65:C68"/>
-    <mergeCell ref="B5:B10"/>
-    <mergeCell ref="B56:B80"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="C74:C77"/>
-    <mergeCell ref="C69:C71"/>
     <mergeCell ref="D67:D68"/>
     <mergeCell ref="AJ5:AJ80"/>
     <mergeCell ref="C18:C42"/>
@@ -9405,6 +9721,20 @@
     <mergeCell ref="D56:D57"/>
     <mergeCell ref="D63:D64"/>
     <mergeCell ref="D65:D66"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="A5:A81"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C78:C80"/>
+    <mergeCell ref="C48:C52"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="C65:C68"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="B56:B80"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="C74:C77"/>
+    <mergeCell ref="C69:C71"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="K3:AK5 AK6:AK80 W6:AB80 AD6:AI80 K6:U80">

--- a/schedule/ガントチャート.xlsx
+++ b/schedule/ガントチャート.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="194">
   <si>
     <t>カテゴリ</t>
     <phoneticPr fontId="1"/>
@@ -1330,6 +1330,13 @@
     <t>回復（ハート）</t>
     <rPh sb="0" eb="2">
       <t>カイフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1日</t>
+    <rPh sb="1" eb="2">
+      <t>ニチ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2086,22 +2093,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2115,6 +2107,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2136,6 +2131,18 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="12" borderId="3" xfId="13" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5774,10 +5781,10 @@
   <dimension ref="A1:AS81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="10" ySplit="4" topLeftCell="K47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="4" topLeftCell="K59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="O58" sqref="O58"/>
+      <selection pane="bottomRight" activeCell="M72" sqref="M72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6062,10 +6069,10 @@
       </c>
     </row>
     <row r="5" spans="1:45" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="73" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="20" t="s">
@@ -6101,7 +6108,7 @@
       <c r="S5" s="19"/>
       <c r="T5" s="19"/>
       <c r="U5" s="19"/>
-      <c r="V5" s="70" t="s">
+      <c r="V5" s="66" t="s">
         <v>110</v>
       </c>
       <c r="W5" s="19"/>
@@ -6110,7 +6117,7 @@
       <c r="Z5" s="19"/>
       <c r="AA5" s="19"/>
       <c r="AB5" s="19"/>
-      <c r="AC5" s="73" t="s">
+      <c r="AC5" s="69" t="s">
         <v>111</v>
       </c>
       <c r="AD5" s="19"/>
@@ -6119,14 +6126,14 @@
       <c r="AG5" s="19"/>
       <c r="AH5" s="19"/>
       <c r="AI5" s="19"/>
-      <c r="AJ5" s="66" t="s">
+      <c r="AJ5" s="61" t="s">
         <v>88</v>
       </c>
       <c r="AK5" s="19"/>
     </row>
     <row r="6" spans="1:45" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="60"/>
-      <c r="B6" s="61"/>
+      <c r="A6" s="72"/>
+      <c r="B6" s="73"/>
       <c r="C6" s="20" t="s">
         <v>9</v>
       </c>
@@ -6158,26 +6165,26 @@
       <c r="S6" s="20"/>
       <c r="T6" s="20"/>
       <c r="U6" s="20"/>
-      <c r="V6" s="71"/>
+      <c r="V6" s="67"/>
       <c r="W6" s="20"/>
       <c r="X6" s="20"/>
       <c r="Y6" s="20"/>
       <c r="Z6" s="20"/>
       <c r="AA6" s="20"/>
       <c r="AB6" s="20"/>
-      <c r="AC6" s="74"/>
+      <c r="AC6" s="70"/>
       <c r="AD6" s="19"/>
       <c r="AE6" s="19"/>
       <c r="AF6" s="19"/>
       <c r="AG6" s="19"/>
       <c r="AH6" s="19"/>
       <c r="AI6" s="19"/>
-      <c r="AJ6" s="67"/>
+      <c r="AJ6" s="62"/>
       <c r="AK6" s="19"/>
     </row>
     <row r="7" spans="1:45" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="60"/>
-      <c r="B7" s="61"/>
+      <c r="A7" s="72"/>
+      <c r="B7" s="73"/>
       <c r="C7" s="20" t="s">
         <v>10</v>
       </c>
@@ -6207,26 +6214,26 @@
       <c r="S7" s="20"/>
       <c r="T7" s="20"/>
       <c r="U7" s="20"/>
-      <c r="V7" s="71"/>
+      <c r="V7" s="67"/>
       <c r="W7" s="20"/>
       <c r="X7" s="20"/>
       <c r="Y7" s="20"/>
       <c r="Z7" s="20"/>
       <c r="AA7" s="20"/>
       <c r="AB7" s="20"/>
-      <c r="AC7" s="74"/>
+      <c r="AC7" s="70"/>
       <c r="AD7" s="19"/>
       <c r="AE7" s="19"/>
       <c r="AF7" s="19"/>
       <c r="AG7" s="19"/>
       <c r="AH7" s="19"/>
       <c r="AI7" s="19"/>
-      <c r="AJ7" s="67"/>
+      <c r="AJ7" s="62"/>
       <c r="AK7" s="19"/>
     </row>
     <row r="8" spans="1:45" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="60"/>
-      <c r="B8" s="61"/>
+      <c r="A8" s="72"/>
+      <c r="B8" s="73"/>
       <c r="C8" s="20" t="s">
         <v>11</v>
       </c>
@@ -6256,26 +6263,26 @@
       <c r="S8" s="20"/>
       <c r="T8" s="20"/>
       <c r="U8" s="20"/>
-      <c r="V8" s="71"/>
+      <c r="V8" s="67"/>
       <c r="W8" s="20"/>
       <c r="X8" s="20"/>
       <c r="Y8" s="20"/>
       <c r="Z8" s="20"/>
       <c r="AA8" s="20"/>
       <c r="AB8" s="20"/>
-      <c r="AC8" s="74"/>
+      <c r="AC8" s="70"/>
       <c r="AD8" s="19"/>
       <c r="AE8" s="19"/>
       <c r="AF8" s="19"/>
       <c r="AG8" s="19"/>
       <c r="AH8" s="19"/>
       <c r="AI8" s="19"/>
-      <c r="AJ8" s="67"/>
+      <c r="AJ8" s="62"/>
       <c r="AK8" s="19"/>
     </row>
     <row r="9" spans="1:45" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="60"/>
-      <c r="B9" s="61"/>
+      <c r="A9" s="72"/>
+      <c r="B9" s="73"/>
       <c r="C9" s="20" t="s">
         <v>34</v>
       </c>
@@ -6303,26 +6310,26 @@
       <c r="S9" s="20"/>
       <c r="T9" s="20"/>
       <c r="U9" s="20"/>
-      <c r="V9" s="71"/>
+      <c r="V9" s="67"/>
       <c r="W9" s="20"/>
       <c r="X9" s="20"/>
       <c r="Y9" s="20"/>
       <c r="Z9" s="20"/>
       <c r="AA9" s="20"/>
       <c r="AB9" s="20"/>
-      <c r="AC9" s="74"/>
+      <c r="AC9" s="70"/>
       <c r="AD9" s="19"/>
       <c r="AE9" s="19"/>
       <c r="AF9" s="19"/>
       <c r="AG9" s="19"/>
       <c r="AH9" s="19"/>
       <c r="AI9" s="19"/>
-      <c r="AJ9" s="67"/>
+      <c r="AJ9" s="62"/>
       <c r="AK9" s="19"/>
     </row>
     <row r="10" spans="1:45" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="60"/>
-      <c r="B10" s="61"/>
+      <c r="A10" s="72"/>
+      <c r="B10" s="73"/>
       <c r="C10" s="20" t="s">
         <v>35</v>
       </c>
@@ -6350,29 +6357,29 @@
       <c r="S10" s="20"/>
       <c r="T10" s="20"/>
       <c r="U10" s="20"/>
-      <c r="V10" s="71"/>
+      <c r="V10" s="67"/>
       <c r="W10" s="20"/>
       <c r="X10" s="20"/>
       <c r="Y10" s="20"/>
       <c r="Z10" s="20"/>
       <c r="AA10" s="20"/>
       <c r="AB10" s="20"/>
-      <c r="AC10" s="74"/>
+      <c r="AC10" s="70"/>
       <c r="AD10" s="19"/>
       <c r="AE10" s="19"/>
       <c r="AF10" s="19"/>
       <c r="AG10" s="19"/>
       <c r="AH10" s="19"/>
       <c r="AI10" s="19"/>
-      <c r="AJ10" s="67"/>
+      <c r="AJ10" s="62"/>
       <c r="AK10" s="19"/>
     </row>
     <row r="11" spans="1:45" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="60"/>
-      <c r="B11" s="69" t="s">
+      <c r="A11" s="72"/>
+      <c r="B11" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="59" t="s">
+      <c r="C11" s="64" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="46" t="s">
@@ -6397,27 +6404,27 @@
       <c r="S11" s="20"/>
       <c r="T11" s="20"/>
       <c r="U11" s="20"/>
-      <c r="V11" s="71"/>
+      <c r="V11" s="67"/>
       <c r="W11" s="20"/>
       <c r="X11" s="20"/>
       <c r="Y11" s="20"/>
       <c r="Z11" s="20"/>
       <c r="AA11" s="20"/>
       <c r="AB11" s="20"/>
-      <c r="AC11" s="74"/>
+      <c r="AC11" s="70"/>
       <c r="AD11" s="19"/>
       <c r="AE11" s="19"/>
       <c r="AF11" s="19"/>
       <c r="AG11" s="19"/>
       <c r="AH11" s="19"/>
       <c r="AI11" s="19"/>
-      <c r="AJ11" s="67"/>
+      <c r="AJ11" s="62"/>
       <c r="AK11" s="19"/>
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A12" s="60"/>
-      <c r="B12" s="69"/>
-      <c r="C12" s="59"/>
+      <c r="A12" s="72"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="64"/>
       <c r="D12" s="2" t="s">
         <v>23</v>
       </c>
@@ -6440,27 +6447,27 @@
       <c r="S12" s="20"/>
       <c r="T12" s="20"/>
       <c r="U12" s="20"/>
-      <c r="V12" s="71"/>
+      <c r="V12" s="67"/>
       <c r="W12" s="20"/>
       <c r="X12" s="20"/>
       <c r="Y12" s="20"/>
       <c r="Z12" s="20"/>
       <c r="AA12" s="20"/>
       <c r="AB12" s="20"/>
-      <c r="AC12" s="74"/>
+      <c r="AC12" s="70"/>
       <c r="AD12" s="19"/>
       <c r="AE12" s="19"/>
       <c r="AF12" s="19"/>
       <c r="AG12" s="19"/>
       <c r="AH12" s="19"/>
       <c r="AI12" s="19"/>
-      <c r="AJ12" s="67"/>
+      <c r="AJ12" s="62"/>
       <c r="AK12" s="19"/>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A13" s="60"/>
-      <c r="B13" s="69"/>
-      <c r="C13" s="59"/>
+      <c r="A13" s="72"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="64"/>
       <c r="D13" s="38" t="s">
         <v>45</v>
       </c>
@@ -6483,27 +6490,27 @@
       <c r="S13" s="20"/>
       <c r="T13" s="20"/>
       <c r="U13" s="20"/>
-      <c r="V13" s="71"/>
+      <c r="V13" s="67"/>
       <c r="W13" s="20"/>
       <c r="X13" s="20"/>
       <c r="Y13" s="20"/>
       <c r="Z13" s="20"/>
       <c r="AA13" s="20"/>
       <c r="AB13" s="20"/>
-      <c r="AC13" s="74"/>
+      <c r="AC13" s="70"/>
       <c r="AD13" s="19"/>
       <c r="AE13" s="19"/>
       <c r="AF13" s="19"/>
       <c r="AG13" s="19"/>
       <c r="AH13" s="19"/>
       <c r="AI13" s="19"/>
-      <c r="AJ13" s="67"/>
+      <c r="AJ13" s="62"/>
       <c r="AK13" s="19"/>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A14" s="60"/>
-      <c r="B14" s="69"/>
-      <c r="C14" s="59"/>
+      <c r="A14" s="72"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="64"/>
       <c r="D14" s="39" t="s">
         <v>27</v>
       </c>
@@ -6526,27 +6533,27 @@
       <c r="S14" s="20"/>
       <c r="T14" s="20"/>
       <c r="U14" s="20"/>
-      <c r="V14" s="71"/>
+      <c r="V14" s="67"/>
       <c r="W14" s="20"/>
       <c r="X14" s="20"/>
       <c r="Y14" s="20"/>
       <c r="Z14" s="20"/>
       <c r="AA14" s="20"/>
       <c r="AB14" s="20"/>
-      <c r="AC14" s="74"/>
+      <c r="AC14" s="70"/>
       <c r="AD14" s="19"/>
       <c r="AE14" s="19"/>
       <c r="AF14" s="19"/>
       <c r="AG14" s="19"/>
       <c r="AH14" s="19"/>
       <c r="AI14" s="19"/>
-      <c r="AJ14" s="67"/>
+      <c r="AJ14" s="62"/>
       <c r="AK14" s="19"/>
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A15" s="60"/>
-      <c r="B15" s="69"/>
-      <c r="C15" s="59" t="s">
+      <c r="A15" s="72"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="64" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -6573,27 +6580,27 @@
       <c r="S15" s="20"/>
       <c r="T15" s="20"/>
       <c r="U15" s="20"/>
-      <c r="V15" s="71"/>
+      <c r="V15" s="67"/>
       <c r="W15" s="20"/>
       <c r="X15" s="20"/>
       <c r="Y15" s="20"/>
       <c r="Z15" s="20"/>
       <c r="AA15" s="20"/>
       <c r="AB15" s="20"/>
-      <c r="AC15" s="74"/>
+      <c r="AC15" s="70"/>
       <c r="AD15" s="19"/>
       <c r="AE15" s="19"/>
       <c r="AF15" s="19"/>
       <c r="AG15" s="19"/>
       <c r="AH15" s="19"/>
       <c r="AI15" s="19"/>
-      <c r="AJ15" s="67"/>
+      <c r="AJ15" s="62"/>
       <c r="AK15" s="19"/>
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A16" s="60"/>
-      <c r="B16" s="69"/>
-      <c r="C16" s="59"/>
+      <c r="A16" s="72"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="64"/>
       <c r="D16" s="40" t="s">
         <v>45</v>
       </c>
@@ -6616,27 +6623,27 @@
       <c r="S16" s="20"/>
       <c r="T16" s="20"/>
       <c r="U16" s="20"/>
-      <c r="V16" s="71"/>
+      <c r="V16" s="67"/>
       <c r="W16" s="20"/>
       <c r="X16" s="20"/>
       <c r="Y16" s="20"/>
       <c r="Z16" s="20"/>
       <c r="AA16" s="20"/>
       <c r="AB16" s="20"/>
-      <c r="AC16" s="74"/>
+      <c r="AC16" s="70"/>
       <c r="AD16" s="19"/>
       <c r="AE16" s="19"/>
       <c r="AF16" s="19"/>
       <c r="AG16" s="19"/>
       <c r="AH16" s="19"/>
       <c r="AI16" s="19"/>
-      <c r="AJ16" s="67"/>
+      <c r="AJ16" s="62"/>
       <c r="AK16" s="19"/>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A17" s="60"/>
-      <c r="B17" s="69"/>
-      <c r="C17" s="59"/>
+      <c r="A17" s="72"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="64"/>
       <c r="D17" s="2" t="s">
         <v>23</v>
       </c>
@@ -6659,30 +6666,30 @@
       <c r="S17" s="20"/>
       <c r="T17" s="20"/>
       <c r="U17" s="20"/>
-      <c r="V17" s="71"/>
+      <c r="V17" s="67"/>
       <c r="W17" s="20"/>
       <c r="X17" s="20"/>
       <c r="Y17" s="20"/>
       <c r="Z17" s="20"/>
       <c r="AA17" s="20"/>
       <c r="AB17" s="20"/>
-      <c r="AC17" s="74"/>
+      <c r="AC17" s="70"/>
       <c r="AD17" s="19"/>
       <c r="AE17" s="19"/>
       <c r="AF17" s="19"/>
       <c r="AG17" s="19"/>
       <c r="AH17" s="19"/>
       <c r="AI17" s="19"/>
-      <c r="AJ17" s="67"/>
+      <c r="AJ17" s="62"/>
       <c r="AK17" s="19"/>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A18" s="60"/>
-      <c r="B18" s="69"/>
-      <c r="C18" s="59" t="s">
+      <c r="A18" s="72"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="59" t="s">
+      <c r="D18" s="64" t="s">
         <v>95</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -6714,28 +6721,28 @@
       <c r="S18" s="20"/>
       <c r="T18" s="20"/>
       <c r="U18" s="20"/>
-      <c r="V18" s="71"/>
+      <c r="V18" s="67"/>
       <c r="W18" s="20"/>
       <c r="X18" s="20"/>
       <c r="Y18" s="20"/>
       <c r="Z18" s="20"/>
       <c r="AA18" s="20"/>
       <c r="AB18" s="20"/>
-      <c r="AC18" s="74"/>
+      <c r="AC18" s="70"/>
       <c r="AD18" s="19"/>
       <c r="AE18" s="19"/>
       <c r="AF18" s="19"/>
       <c r="AG18" s="19"/>
       <c r="AH18" s="19"/>
       <c r="AI18" s="19"/>
-      <c r="AJ18" s="67"/>
+      <c r="AJ18" s="62"/>
       <c r="AK18" s="19"/>
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A19" s="60"/>
-      <c r="B19" s="69"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
+      <c r="A19" s="72"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
       <c r="E19" s="2" t="s">
         <v>138</v>
       </c>
@@ -6765,28 +6772,28 @@
       <c r="S19" s="20"/>
       <c r="T19" s="20"/>
       <c r="U19" s="20"/>
-      <c r="V19" s="71"/>
+      <c r="V19" s="67"/>
       <c r="W19" s="20"/>
       <c r="X19" s="20"/>
       <c r="Y19" s="20"/>
       <c r="Z19" s="20"/>
       <c r="AA19" s="20"/>
       <c r="AB19" s="20"/>
-      <c r="AC19" s="74"/>
+      <c r="AC19" s="70"/>
       <c r="AD19" s="19"/>
       <c r="AE19" s="19"/>
       <c r="AF19" s="19"/>
       <c r="AG19" s="19"/>
       <c r="AH19" s="19"/>
       <c r="AI19" s="19"/>
-      <c r="AJ19" s="67"/>
+      <c r="AJ19" s="62"/>
       <c r="AK19" s="19"/>
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A20" s="60"/>
-      <c r="B20" s="69"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
+      <c r="A20" s="72"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
       <c r="E20" s="2" t="s">
         <v>112</v>
       </c>
@@ -6816,28 +6823,28 @@
       <c r="S20" s="20"/>
       <c r="T20" s="20"/>
       <c r="U20" s="20"/>
-      <c r="V20" s="71"/>
+      <c r="V20" s="67"/>
       <c r="W20" s="20"/>
       <c r="X20" s="20"/>
       <c r="Y20" s="20"/>
       <c r="Z20" s="20"/>
       <c r="AA20" s="20"/>
       <c r="AB20" s="20"/>
-      <c r="AC20" s="74"/>
+      <c r="AC20" s="70"/>
       <c r="AD20" s="19"/>
       <c r="AE20" s="19"/>
       <c r="AF20" s="19"/>
       <c r="AG20" s="19"/>
       <c r="AH20" s="19"/>
       <c r="AI20" s="19"/>
-      <c r="AJ20" s="67"/>
+      <c r="AJ20" s="62"/>
       <c r="AK20" s="19"/>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A21" s="60"/>
-      <c r="B21" s="69"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
+      <c r="A21" s="72"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
       <c r="E21" s="2" t="s">
         <v>108</v>
       </c>
@@ -6863,28 +6870,28 @@
       <c r="S21" s="20"/>
       <c r="T21" s="20"/>
       <c r="U21" s="20"/>
-      <c r="V21" s="71"/>
+      <c r="V21" s="67"/>
       <c r="W21" s="20"/>
       <c r="X21" s="20"/>
       <c r="Y21" s="20"/>
       <c r="Z21" s="20"/>
       <c r="AA21" s="20"/>
       <c r="AB21" s="20"/>
-      <c r="AC21" s="74"/>
+      <c r="AC21" s="70"/>
       <c r="AD21" s="19"/>
       <c r="AE21" s="19"/>
       <c r="AF21" s="19"/>
       <c r="AG21" s="19"/>
       <c r="AH21" s="19"/>
       <c r="AI21" s="19"/>
-      <c r="AJ21" s="67"/>
+      <c r="AJ21" s="62"/>
       <c r="AK21" s="19"/>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A22" s="60"/>
-      <c r="B22" s="69"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
+      <c r="A22" s="72"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="64"/>
       <c r="E22" s="2" t="s">
         <v>135</v>
       </c>
@@ -6914,28 +6921,28 @@
       <c r="S22" s="20"/>
       <c r="T22" s="20"/>
       <c r="U22" s="20"/>
-      <c r="V22" s="71"/>
+      <c r="V22" s="67"/>
       <c r="W22" s="20"/>
       <c r="X22" s="20"/>
       <c r="Y22" s="20"/>
       <c r="Z22" s="20"/>
       <c r="AA22" s="20"/>
       <c r="AB22" s="20"/>
-      <c r="AC22" s="74"/>
+      <c r="AC22" s="70"/>
       <c r="AD22" s="19"/>
       <c r="AE22" s="19"/>
       <c r="AF22" s="19"/>
       <c r="AG22" s="19"/>
       <c r="AH22" s="19"/>
       <c r="AI22" s="19"/>
-      <c r="AJ22" s="67"/>
+      <c r="AJ22" s="62"/>
       <c r="AK22" s="19"/>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A23" s="60"/>
-      <c r="B23" s="69"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
+      <c r="A23" s="72"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="64"/>
       <c r="E23" s="2" t="s">
         <v>118</v>
       </c>
@@ -6965,28 +6972,28 @@
       <c r="S23" s="20"/>
       <c r="T23" s="20"/>
       <c r="U23" s="20"/>
-      <c r="V23" s="71"/>
+      <c r="V23" s="67"/>
       <c r="W23" s="20"/>
       <c r="X23" s="20"/>
       <c r="Y23" s="20"/>
       <c r="Z23" s="20"/>
       <c r="AA23" s="20"/>
       <c r="AB23" s="20"/>
-      <c r="AC23" s="74"/>
+      <c r="AC23" s="70"/>
       <c r="AD23" s="19"/>
       <c r="AE23" s="19"/>
       <c r="AF23" s="19"/>
       <c r="AG23" s="19"/>
       <c r="AH23" s="19"/>
       <c r="AI23" s="19"/>
-      <c r="AJ23" s="67"/>
+      <c r="AJ23" s="62"/>
       <c r="AK23" s="19"/>
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A24" s="60"/>
-      <c r="B24" s="69"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
+      <c r="A24" s="72"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="64"/>
       <c r="E24" s="2" t="s">
         <v>109</v>
       </c>
@@ -7008,28 +7015,28 @@
       <c r="S24" s="20"/>
       <c r="T24" s="20"/>
       <c r="U24" s="20"/>
-      <c r="V24" s="71"/>
+      <c r="V24" s="67"/>
       <c r="W24" s="20"/>
       <c r="X24" s="20"/>
       <c r="Y24" s="20"/>
       <c r="Z24" s="20"/>
       <c r="AA24" s="20"/>
       <c r="AB24" s="20"/>
-      <c r="AC24" s="74"/>
+      <c r="AC24" s="70"/>
       <c r="AD24" s="19"/>
       <c r="AE24" s="19"/>
       <c r="AF24" s="19"/>
       <c r="AG24" s="19"/>
       <c r="AH24" s="19"/>
       <c r="AI24" s="19"/>
-      <c r="AJ24" s="67"/>
+      <c r="AJ24" s="62"/>
       <c r="AK24" s="19"/>
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A25" s="60"/>
-      <c r="B25" s="69"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
+      <c r="A25" s="72"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="64"/>
       <c r="E25" s="2" t="s">
         <v>167</v>
       </c>
@@ -7055,28 +7062,28 @@
       <c r="S25" s="50"/>
       <c r="T25" s="50"/>
       <c r="U25" s="50"/>
-      <c r="V25" s="71"/>
+      <c r="V25" s="67"/>
       <c r="W25" s="50"/>
       <c r="X25" s="50"/>
       <c r="Y25" s="50"/>
       <c r="Z25" s="50"/>
       <c r="AA25" s="50"/>
       <c r="AB25" s="50"/>
-      <c r="AC25" s="74"/>
+      <c r="AC25" s="70"/>
       <c r="AD25" s="51"/>
       <c r="AE25" s="51"/>
       <c r="AF25" s="51"/>
       <c r="AG25" s="51"/>
       <c r="AH25" s="51"/>
       <c r="AI25" s="51"/>
-      <c r="AJ25" s="67"/>
+      <c r="AJ25" s="62"/>
       <c r="AK25" s="51"/>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A26" s="60"/>
-      <c r="B26" s="69"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
+      <c r="A26" s="72"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="64"/>
       <c r="E26" s="2" t="s">
         <v>106</v>
       </c>
@@ -7106,28 +7113,28 @@
       <c r="S26" s="20"/>
       <c r="T26" s="20"/>
       <c r="U26" s="20"/>
-      <c r="V26" s="71"/>
+      <c r="V26" s="67"/>
       <c r="W26" s="20"/>
       <c r="X26" s="20"/>
       <c r="Y26" s="20"/>
       <c r="Z26" s="20"/>
       <c r="AA26" s="20"/>
       <c r="AB26" s="20"/>
-      <c r="AC26" s="74"/>
+      <c r="AC26" s="70"/>
       <c r="AD26" s="19"/>
       <c r="AE26" s="19"/>
       <c r="AF26" s="19"/>
       <c r="AG26" s="19"/>
       <c r="AH26" s="19"/>
       <c r="AI26" s="19"/>
-      <c r="AJ26" s="67"/>
+      <c r="AJ26" s="62"/>
       <c r="AK26" s="19"/>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A27" s="60"/>
-      <c r="B27" s="69"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
+      <c r="A27" s="72"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="64"/>
       <c r="E27" s="2" t="s">
         <v>102</v>
       </c>
@@ -7149,28 +7156,28 @@
       <c r="S27" s="20"/>
       <c r="T27" s="20"/>
       <c r="U27" s="20"/>
-      <c r="V27" s="71"/>
+      <c r="V27" s="67"/>
       <c r="W27" s="20"/>
       <c r="X27" s="20"/>
       <c r="Y27" s="20"/>
       <c r="Z27" s="20"/>
       <c r="AA27" s="20"/>
       <c r="AB27" s="20"/>
-      <c r="AC27" s="74"/>
+      <c r="AC27" s="70"/>
       <c r="AD27" s="19"/>
       <c r="AE27" s="19"/>
       <c r="AF27" s="19"/>
       <c r="AG27" s="19"/>
       <c r="AH27" s="19"/>
       <c r="AI27" s="19"/>
-      <c r="AJ27" s="67"/>
+      <c r="AJ27" s="62"/>
       <c r="AK27" s="19"/>
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A28" s="60"/>
-      <c r="B28" s="69"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="59" t="s">
+      <c r="A28" s="72"/>
+      <c r="B28" s="65"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="64" t="s">
         <v>25</v>
       </c>
       <c r="E28" s="2" t="s">
@@ -7202,28 +7209,28 @@
       <c r="S28" s="20"/>
       <c r="T28" s="20"/>
       <c r="U28" s="20"/>
-      <c r="V28" s="71"/>
+      <c r="V28" s="67"/>
       <c r="W28" s="20"/>
       <c r="X28" s="20"/>
       <c r="Y28" s="20"/>
       <c r="Z28" s="20"/>
       <c r="AA28" s="20"/>
       <c r="AB28" s="20"/>
-      <c r="AC28" s="74"/>
+      <c r="AC28" s="70"/>
       <c r="AD28" s="19"/>
       <c r="AE28" s="19"/>
       <c r="AF28" s="19"/>
       <c r="AG28" s="19"/>
       <c r="AH28" s="19"/>
       <c r="AI28" s="19"/>
-      <c r="AJ28" s="67"/>
+      <c r="AJ28" s="62"/>
       <c r="AK28" s="19"/>
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A29" s="60"/>
-      <c r="B29" s="69"/>
-      <c r="C29" s="59"/>
-      <c r="D29" s="59"/>
+      <c r="A29" s="72"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="64"/>
       <c r="E29" s="2" t="s">
         <v>119</v>
       </c>
@@ -7253,28 +7260,28 @@
       <c r="S29" s="20"/>
       <c r="T29" s="20"/>
       <c r="U29" s="20"/>
-      <c r="V29" s="71"/>
+      <c r="V29" s="67"/>
       <c r="W29" s="20"/>
       <c r="X29" s="20"/>
       <c r="Y29" s="20"/>
       <c r="Z29" s="20"/>
       <c r="AA29" s="20"/>
       <c r="AB29" s="20"/>
-      <c r="AC29" s="74"/>
+      <c r="AC29" s="70"/>
       <c r="AD29" s="19"/>
       <c r="AE29" s="19"/>
       <c r="AF29" s="19"/>
       <c r="AG29" s="19"/>
       <c r="AH29" s="19"/>
       <c r="AI29" s="19"/>
-      <c r="AJ29" s="67"/>
+      <c r="AJ29" s="62"/>
       <c r="AK29" s="19"/>
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A30" s="60"/>
-      <c r="B30" s="69"/>
-      <c r="C30" s="59"/>
-      <c r="D30" s="59" t="s">
+      <c r="A30" s="72"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="64" t="s">
         <v>13</v>
       </c>
       <c r="E30" s="2" t="s">
@@ -7304,28 +7311,28 @@
       <c r="S30" s="20"/>
       <c r="T30" s="20"/>
       <c r="U30" s="20"/>
-      <c r="V30" s="71"/>
+      <c r="V30" s="67"/>
       <c r="W30" s="20"/>
       <c r="X30" s="20"/>
       <c r="Y30" s="20"/>
       <c r="Z30" s="20"/>
       <c r="AA30" s="20"/>
       <c r="AB30" s="20"/>
-      <c r="AC30" s="74"/>
+      <c r="AC30" s="70"/>
       <c r="AD30" s="19"/>
       <c r="AE30" s="19"/>
       <c r="AF30" s="19"/>
       <c r="AG30" s="19"/>
       <c r="AH30" s="19"/>
       <c r="AI30" s="19"/>
-      <c r="AJ30" s="67"/>
+      <c r="AJ30" s="62"/>
       <c r="AK30" s="19"/>
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A31" s="60"/>
-      <c r="B31" s="69"/>
-      <c r="C31" s="59"/>
-      <c r="D31" s="59"/>
+      <c r="A31" s="72"/>
+      <c r="B31" s="65"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="64"/>
       <c r="E31" s="2" t="s">
         <v>143</v>
       </c>
@@ -7347,28 +7354,28 @@
       <c r="S31" s="20"/>
       <c r="T31" s="20"/>
       <c r="U31" s="20"/>
-      <c r="V31" s="71"/>
+      <c r="V31" s="67"/>
       <c r="W31" s="20"/>
       <c r="X31" s="20"/>
       <c r="Y31" s="20"/>
       <c r="Z31" s="20"/>
       <c r="AA31" s="20"/>
       <c r="AB31" s="20"/>
-      <c r="AC31" s="74"/>
+      <c r="AC31" s="70"/>
       <c r="AD31" s="19"/>
       <c r="AE31" s="19"/>
       <c r="AF31" s="19"/>
       <c r="AG31" s="19"/>
       <c r="AH31" s="19"/>
       <c r="AI31" s="19"/>
-      <c r="AJ31" s="67"/>
+      <c r="AJ31" s="62"/>
       <c r="AK31" s="19"/>
     </row>
     <row r="32" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A32" s="60"/>
-      <c r="B32" s="69"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="59"/>
+      <c r="A32" s="72"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="64"/>
       <c r="E32" s="2" t="s">
         <v>113</v>
       </c>
@@ -7398,28 +7405,28 @@
       <c r="S32" s="20"/>
       <c r="T32" s="20"/>
       <c r="U32" s="20"/>
-      <c r="V32" s="71"/>
+      <c r="V32" s="67"/>
       <c r="W32" s="20"/>
       <c r="X32" s="20"/>
       <c r="Y32" s="20"/>
       <c r="Z32" s="20"/>
       <c r="AA32" s="20"/>
       <c r="AB32" s="20"/>
-      <c r="AC32" s="74"/>
+      <c r="AC32" s="70"/>
       <c r="AD32" s="19"/>
       <c r="AE32" s="19"/>
       <c r="AF32" s="19"/>
       <c r="AG32" s="19"/>
       <c r="AH32" s="19"/>
       <c r="AI32" s="19"/>
-      <c r="AJ32" s="67"/>
+      <c r="AJ32" s="62"/>
       <c r="AK32" s="19"/>
     </row>
     <row r="33" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A33" s="60"/>
-      <c r="B33" s="69"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59" t="s">
+      <c r="A33" s="72"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="64"/>
+      <c r="D33" s="64" t="s">
         <v>90</v>
       </c>
       <c r="E33" s="2" t="s">
@@ -7443,28 +7450,28 @@
       <c r="S33" s="20"/>
       <c r="T33" s="20"/>
       <c r="U33" s="20"/>
-      <c r="V33" s="71"/>
+      <c r="V33" s="67"/>
       <c r="W33" s="20"/>
       <c r="X33" s="20"/>
       <c r="Y33" s="20"/>
       <c r="Z33" s="20"/>
       <c r="AA33" s="20"/>
       <c r="AB33" s="20"/>
-      <c r="AC33" s="74"/>
+      <c r="AC33" s="70"/>
       <c r="AD33" s="19"/>
       <c r="AE33" s="19"/>
       <c r="AF33" s="19"/>
       <c r="AG33" s="19"/>
       <c r="AH33" s="19"/>
       <c r="AI33" s="19"/>
-      <c r="AJ33" s="67"/>
+      <c r="AJ33" s="62"/>
       <c r="AK33" s="19"/>
     </row>
     <row r="34" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A34" s="60"/>
-      <c r="B34" s="69"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
+      <c r="A34" s="72"/>
+      <c r="B34" s="65"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="64"/>
       <c r="E34" s="2" t="s">
         <v>141</v>
       </c>
@@ -7494,28 +7501,28 @@
       <c r="S34" s="20"/>
       <c r="T34" s="20"/>
       <c r="U34" s="20"/>
-      <c r="V34" s="71"/>
+      <c r="V34" s="67"/>
       <c r="W34" s="20"/>
       <c r="X34" s="20"/>
       <c r="Y34" s="20"/>
       <c r="Z34" s="20"/>
       <c r="AA34" s="20"/>
       <c r="AB34" s="20"/>
-      <c r="AC34" s="74"/>
+      <c r="AC34" s="70"/>
       <c r="AD34" s="19"/>
       <c r="AE34" s="19"/>
       <c r="AF34" s="19"/>
       <c r="AG34" s="19"/>
       <c r="AH34" s="19"/>
       <c r="AI34" s="19"/>
-      <c r="AJ34" s="67"/>
+      <c r="AJ34" s="62"/>
       <c r="AK34" s="19"/>
     </row>
     <row r="35" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A35" s="60"/>
-      <c r="B35" s="69"/>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59"/>
+      <c r="A35" s="72"/>
+      <c r="B35" s="65"/>
+      <c r="C35" s="64"/>
+      <c r="D35" s="64"/>
       <c r="E35" s="2" t="s">
         <v>103</v>
       </c>
@@ -7537,27 +7544,27 @@
       <c r="S35" s="20"/>
       <c r="T35" s="20"/>
       <c r="U35" s="20"/>
-      <c r="V35" s="71"/>
+      <c r="V35" s="67"/>
       <c r="W35" s="20"/>
       <c r="X35" s="20"/>
       <c r="Y35" s="20"/>
       <c r="Z35" s="20"/>
       <c r="AA35" s="20"/>
       <c r="AB35" s="20"/>
-      <c r="AC35" s="74"/>
+      <c r="AC35" s="70"/>
       <c r="AD35" s="19"/>
       <c r="AE35" s="19"/>
       <c r="AF35" s="19"/>
       <c r="AG35" s="19"/>
       <c r="AH35" s="19"/>
       <c r="AI35" s="19"/>
-      <c r="AJ35" s="67"/>
+      <c r="AJ35" s="62"/>
       <c r="AK35" s="19"/>
     </row>
     <row r="36" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A36" s="60"/>
-      <c r="B36" s="69"/>
-      <c r="C36" s="59"/>
+      <c r="A36" s="72"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="64"/>
       <c r="D36" s="2" t="s">
         <v>24</v>
       </c>
@@ -7582,27 +7589,27 @@
       <c r="S36" s="20"/>
       <c r="T36" s="20"/>
       <c r="U36" s="20"/>
-      <c r="V36" s="71"/>
+      <c r="V36" s="67"/>
       <c r="W36" s="20"/>
       <c r="X36" s="20"/>
       <c r="Y36" s="20"/>
       <c r="Z36" s="20"/>
       <c r="AA36" s="20"/>
       <c r="AB36" s="20"/>
-      <c r="AC36" s="74"/>
+      <c r="AC36" s="70"/>
       <c r="AD36" s="19"/>
       <c r="AE36" s="19"/>
       <c r="AF36" s="19"/>
       <c r="AG36" s="19"/>
       <c r="AH36" s="19"/>
       <c r="AI36" s="19"/>
-      <c r="AJ36" s="67"/>
+      <c r="AJ36" s="62"/>
       <c r="AK36" s="19"/>
     </row>
     <row r="37" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A37" s="60"/>
-      <c r="B37" s="69"/>
-      <c r="C37" s="59"/>
+      <c r="A37" s="72"/>
+      <c r="B37" s="65"/>
+      <c r="C37" s="64"/>
       <c r="D37" s="2" t="s">
         <v>144</v>
       </c>
@@ -7635,27 +7642,27 @@
       <c r="S37" s="20"/>
       <c r="T37" s="20"/>
       <c r="U37" s="20"/>
-      <c r="V37" s="71"/>
+      <c r="V37" s="67"/>
       <c r="W37" s="20"/>
       <c r="X37" s="20"/>
       <c r="Y37" s="20"/>
       <c r="Z37" s="20"/>
       <c r="AA37" s="20"/>
       <c r="AB37" s="20"/>
-      <c r="AC37" s="74"/>
+      <c r="AC37" s="70"/>
       <c r="AD37" s="19"/>
       <c r="AE37" s="19"/>
       <c r="AF37" s="19"/>
       <c r="AG37" s="19"/>
       <c r="AH37" s="19"/>
       <c r="AI37" s="19"/>
-      <c r="AJ37" s="67"/>
+      <c r="AJ37" s="62"/>
       <c r="AK37" s="19"/>
     </row>
     <row r="38" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A38" s="60"/>
-      <c r="B38" s="69"/>
-      <c r="C38" s="59"/>
+      <c r="A38" s="72"/>
+      <c r="B38" s="65"/>
+      <c r="C38" s="64"/>
       <c r="D38" s="2" t="s">
         <v>94</v>
       </c>
@@ -7678,27 +7685,27 @@
       <c r="S38" s="20"/>
       <c r="T38" s="20"/>
       <c r="U38" s="20"/>
-      <c r="V38" s="71"/>
+      <c r="V38" s="67"/>
       <c r="W38" s="20"/>
       <c r="X38" s="20"/>
       <c r="Y38" s="20"/>
       <c r="Z38" s="20"/>
       <c r="AA38" s="20"/>
       <c r="AB38" s="20"/>
-      <c r="AC38" s="74"/>
+      <c r="AC38" s="70"/>
       <c r="AD38" s="19"/>
       <c r="AE38" s="19"/>
       <c r="AF38" s="19"/>
       <c r="AG38" s="19"/>
       <c r="AH38" s="19"/>
       <c r="AI38" s="19"/>
-      <c r="AJ38" s="67"/>
+      <c r="AJ38" s="62"/>
       <c r="AK38" s="19"/>
     </row>
     <row r="39" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A39" s="60"/>
-      <c r="B39" s="69"/>
-      <c r="C39" s="59"/>
+      <c r="A39" s="72"/>
+      <c r="B39" s="65"/>
+      <c r="C39" s="64"/>
       <c r="D39" s="2" t="s">
         <v>23</v>
       </c>
@@ -7721,27 +7728,27 @@
       <c r="S39" s="20"/>
       <c r="T39" s="20"/>
       <c r="U39" s="20"/>
-      <c r="V39" s="71"/>
+      <c r="V39" s="67"/>
       <c r="W39" s="20"/>
       <c r="X39" s="20"/>
       <c r="Y39" s="20"/>
       <c r="Z39" s="20"/>
       <c r="AA39" s="20"/>
       <c r="AB39" s="20"/>
-      <c r="AC39" s="74"/>
+      <c r="AC39" s="70"/>
       <c r="AD39" s="19"/>
       <c r="AE39" s="19"/>
       <c r="AF39" s="19"/>
       <c r="AG39" s="19"/>
       <c r="AH39" s="19"/>
       <c r="AI39" s="19"/>
-      <c r="AJ39" s="67"/>
+      <c r="AJ39" s="62"/>
       <c r="AK39" s="19"/>
     </row>
     <row r="40" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A40" s="60"/>
-      <c r="B40" s="69"/>
-      <c r="C40" s="59"/>
+      <c r="A40" s="72"/>
+      <c r="B40" s="65"/>
+      <c r="C40" s="64"/>
       <c r="D40" s="39" t="s">
         <v>27</v>
       </c>
@@ -7764,27 +7771,27 @@
       <c r="S40" s="20"/>
       <c r="T40" s="20"/>
       <c r="U40" s="20"/>
-      <c r="V40" s="71"/>
+      <c r="V40" s="67"/>
       <c r="W40" s="20"/>
       <c r="X40" s="20"/>
       <c r="Y40" s="20"/>
       <c r="Z40" s="20"/>
       <c r="AA40" s="20"/>
       <c r="AB40" s="20"/>
-      <c r="AC40" s="74"/>
+      <c r="AC40" s="70"/>
       <c r="AD40" s="19"/>
       <c r="AE40" s="19"/>
       <c r="AF40" s="19"/>
       <c r="AG40" s="19"/>
       <c r="AH40" s="19"/>
       <c r="AI40" s="19"/>
-      <c r="AJ40" s="67"/>
+      <c r="AJ40" s="62"/>
       <c r="AK40" s="19"/>
     </row>
     <row r="41" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A41" s="60"/>
-      <c r="B41" s="69"/>
-      <c r="C41" s="59"/>
+      <c r="A41" s="72"/>
+      <c r="B41" s="65"/>
+      <c r="C41" s="64"/>
       <c r="D41" s="38" t="s">
         <v>45</v>
       </c>
@@ -7807,27 +7814,27 @@
       <c r="S41" s="20"/>
       <c r="T41" s="20"/>
       <c r="U41" s="20"/>
-      <c r="V41" s="71"/>
+      <c r="V41" s="67"/>
       <c r="W41" s="20"/>
       <c r="X41" s="20"/>
       <c r="Y41" s="20"/>
       <c r="Z41" s="20"/>
       <c r="AA41" s="20"/>
       <c r="AB41" s="20"/>
-      <c r="AC41" s="74"/>
+      <c r="AC41" s="70"/>
       <c r="AD41" s="19"/>
       <c r="AE41" s="19"/>
       <c r="AF41" s="19"/>
       <c r="AG41" s="19"/>
       <c r="AH41" s="19"/>
       <c r="AI41" s="19"/>
-      <c r="AJ41" s="67"/>
+      <c r="AJ41" s="62"/>
       <c r="AK41" s="19"/>
     </row>
     <row r="42" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A42" s="60"/>
-      <c r="B42" s="69"/>
-      <c r="C42" s="59"/>
+      <c r="A42" s="72"/>
+      <c r="B42" s="65"/>
+      <c r="C42" s="64"/>
       <c r="D42" s="2" t="s">
         <v>26</v>
       </c>
@@ -7850,27 +7857,27 @@
       <c r="S42" s="20"/>
       <c r="T42" s="20"/>
       <c r="U42" s="20"/>
-      <c r="V42" s="71"/>
+      <c r="V42" s="67"/>
       <c r="W42" s="20"/>
       <c r="X42" s="20"/>
       <c r="Y42" s="20"/>
       <c r="Z42" s="20"/>
       <c r="AA42" s="20"/>
       <c r="AB42" s="20"/>
-      <c r="AC42" s="74"/>
+      <c r="AC42" s="70"/>
       <c r="AD42" s="19"/>
       <c r="AE42" s="19"/>
       <c r="AF42" s="19"/>
       <c r="AG42" s="19"/>
       <c r="AH42" s="19"/>
       <c r="AI42" s="19"/>
-      <c r="AJ42" s="67"/>
+      <c r="AJ42" s="62"/>
       <c r="AK42" s="19"/>
     </row>
     <row r="43" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A43" s="60"/>
-      <c r="B43" s="69"/>
-      <c r="C43" s="59" t="s">
+      <c r="A43" s="72"/>
+      <c r="B43" s="65"/>
+      <c r="C43" s="64" t="s">
         <v>42</v>
       </c>
       <c r="D43" s="40" t="s">
@@ -7895,27 +7902,27 @@
       <c r="S43" s="20"/>
       <c r="T43" s="20"/>
       <c r="U43" s="20"/>
-      <c r="V43" s="71"/>
+      <c r="V43" s="67"/>
       <c r="W43" s="20"/>
       <c r="X43" s="20"/>
       <c r="Y43" s="20"/>
       <c r="Z43" s="20"/>
       <c r="AA43" s="20"/>
       <c r="AB43" s="20"/>
-      <c r="AC43" s="74"/>
+      <c r="AC43" s="70"/>
       <c r="AD43" s="19"/>
       <c r="AE43" s="19"/>
       <c r="AF43" s="19"/>
       <c r="AG43" s="19"/>
       <c r="AH43" s="19"/>
       <c r="AI43" s="19"/>
-      <c r="AJ43" s="67"/>
+      <c r="AJ43" s="62"/>
       <c r="AK43" s="19"/>
     </row>
     <row r="44" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A44" s="60"/>
-      <c r="B44" s="69"/>
-      <c r="C44" s="59"/>
+      <c r="A44" s="72"/>
+      <c r="B44" s="65"/>
+      <c r="C44" s="64"/>
       <c r="D44" s="2" t="s">
         <v>26</v>
       </c>
@@ -7938,27 +7945,27 @@
       <c r="S44" s="20"/>
       <c r="T44" s="20"/>
       <c r="U44" s="20"/>
-      <c r="V44" s="71"/>
+      <c r="V44" s="67"/>
       <c r="W44" s="20"/>
       <c r="X44" s="20"/>
       <c r="Y44" s="20"/>
       <c r="Z44" s="20"/>
       <c r="AA44" s="20"/>
       <c r="AB44" s="20"/>
-      <c r="AC44" s="74"/>
+      <c r="AC44" s="70"/>
       <c r="AD44" s="19"/>
       <c r="AE44" s="19"/>
       <c r="AF44" s="19"/>
       <c r="AG44" s="19"/>
       <c r="AH44" s="19"/>
       <c r="AI44" s="19"/>
-      <c r="AJ44" s="67"/>
+      <c r="AJ44" s="62"/>
       <c r="AK44" s="19"/>
     </row>
     <row r="45" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A45" s="60"/>
-      <c r="B45" s="69"/>
-      <c r="C45" s="59" t="s">
+      <c r="A45" s="72"/>
+      <c r="B45" s="65"/>
+      <c r="C45" s="64" t="s">
         <v>43</v>
       </c>
       <c r="D45" s="38" t="s">
@@ -7983,27 +7990,27 @@
       <c r="S45" s="20"/>
       <c r="T45" s="20"/>
       <c r="U45" s="20"/>
-      <c r="V45" s="71"/>
+      <c r="V45" s="67"/>
       <c r="W45" s="20"/>
       <c r="X45" s="20"/>
       <c r="Y45" s="20"/>
       <c r="Z45" s="20"/>
       <c r="AA45" s="20"/>
       <c r="AB45" s="20"/>
-      <c r="AC45" s="74"/>
+      <c r="AC45" s="70"/>
       <c r="AD45" s="19"/>
       <c r="AE45" s="19"/>
       <c r="AF45" s="19"/>
       <c r="AG45" s="19"/>
       <c r="AH45" s="19"/>
       <c r="AI45" s="19"/>
-      <c r="AJ45" s="67"/>
+      <c r="AJ45" s="62"/>
       <c r="AK45" s="19"/>
     </row>
     <row r="46" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A46" s="60"/>
-      <c r="B46" s="69"/>
-      <c r="C46" s="59"/>
+      <c r="A46" s="72"/>
+      <c r="B46" s="65"/>
+      <c r="C46" s="64"/>
       <c r="D46" s="2" t="s">
         <v>26</v>
       </c>
@@ -8026,27 +8033,27 @@
       <c r="S46" s="20"/>
       <c r="T46" s="20"/>
       <c r="U46" s="20"/>
-      <c r="V46" s="71"/>
+      <c r="V46" s="67"/>
       <c r="W46" s="20"/>
       <c r="X46" s="20"/>
       <c r="Y46" s="20"/>
       <c r="Z46" s="20"/>
       <c r="AA46" s="20"/>
       <c r="AB46" s="20"/>
-      <c r="AC46" s="74"/>
+      <c r="AC46" s="70"/>
       <c r="AD46" s="19"/>
       <c r="AE46" s="19"/>
       <c r="AF46" s="19"/>
       <c r="AG46" s="19"/>
       <c r="AH46" s="19"/>
       <c r="AI46" s="19"/>
-      <c r="AJ46" s="67"/>
+      <c r="AJ46" s="62"/>
       <c r="AK46" s="19"/>
     </row>
     <row r="47" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A47" s="60"/>
-      <c r="B47" s="69"/>
-      <c r="C47" s="59"/>
+      <c r="A47" s="72"/>
+      <c r="B47" s="65"/>
+      <c r="C47" s="64"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="20"/>
@@ -8067,27 +8074,27 @@
       <c r="S47" s="20"/>
       <c r="T47" s="20"/>
       <c r="U47" s="20"/>
-      <c r="V47" s="71"/>
+      <c r="V47" s="67"/>
       <c r="W47" s="20"/>
       <c r="X47" s="20"/>
       <c r="Y47" s="20"/>
       <c r="Z47" s="20"/>
       <c r="AA47" s="20"/>
       <c r="AB47" s="20"/>
-      <c r="AC47" s="74"/>
+      <c r="AC47" s="70"/>
       <c r="AD47" s="19"/>
       <c r="AE47" s="19"/>
       <c r="AF47" s="19"/>
       <c r="AG47" s="19"/>
       <c r="AH47" s="19"/>
       <c r="AI47" s="19"/>
-      <c r="AJ47" s="67"/>
+      <c r="AJ47" s="62"/>
       <c r="AK47" s="19"/>
     </row>
     <row r="48" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A48" s="60"/>
-      <c r="B48" s="69"/>
-      <c r="C48" s="59" t="s">
+      <c r="A48" s="72"/>
+      <c r="B48" s="65"/>
+      <c r="C48" s="64" t="s">
         <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
@@ -8112,27 +8119,27 @@
       <c r="S48" s="20"/>
       <c r="T48" s="20"/>
       <c r="U48" s="20"/>
-      <c r="V48" s="71"/>
+      <c r="V48" s="67"/>
       <c r="W48" s="20"/>
       <c r="X48" s="20"/>
       <c r="Y48" s="20"/>
       <c r="Z48" s="20"/>
       <c r="AA48" s="20"/>
       <c r="AB48" s="20"/>
-      <c r="AC48" s="74"/>
+      <c r="AC48" s="70"/>
       <c r="AD48" s="19"/>
       <c r="AE48" s="19"/>
       <c r="AF48" s="19"/>
       <c r="AG48" s="19"/>
       <c r="AH48" s="19"/>
       <c r="AI48" s="19"/>
-      <c r="AJ48" s="67"/>
+      <c r="AJ48" s="62"/>
       <c r="AK48" s="19"/>
     </row>
     <row r="49" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A49" s="60"/>
-      <c r="B49" s="69"/>
-      <c r="C49" s="59"/>
+      <c r="A49" s="72"/>
+      <c r="B49" s="65"/>
+      <c r="C49" s="64"/>
       <c r="D49" s="2" t="s">
         <v>36</v>
       </c>
@@ -8155,27 +8162,27 @@
       <c r="S49" s="20"/>
       <c r="T49" s="20"/>
       <c r="U49" s="20"/>
-      <c r="V49" s="71"/>
+      <c r="V49" s="67"/>
       <c r="W49" s="20"/>
       <c r="X49" s="20"/>
       <c r="Y49" s="20"/>
       <c r="Z49" s="20"/>
       <c r="AA49" s="20"/>
       <c r="AB49" s="20"/>
-      <c r="AC49" s="74"/>
+      <c r="AC49" s="70"/>
       <c r="AD49" s="19"/>
       <c r="AE49" s="19"/>
       <c r="AF49" s="19"/>
       <c r="AG49" s="19"/>
       <c r="AH49" s="19"/>
       <c r="AI49" s="19"/>
-      <c r="AJ49" s="67"/>
+      <c r="AJ49" s="62"/>
       <c r="AK49" s="19"/>
     </row>
     <row r="50" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A50" s="60"/>
-      <c r="B50" s="69"/>
-      <c r="C50" s="59"/>
+      <c r="A50" s="72"/>
+      <c r="B50" s="65"/>
+      <c r="C50" s="64"/>
       <c r="D50" s="2" t="s">
         <v>37</v>
       </c>
@@ -8198,27 +8205,27 @@
       <c r="S50" s="20"/>
       <c r="T50" s="20"/>
       <c r="U50" s="20"/>
-      <c r="V50" s="71"/>
+      <c r="V50" s="67"/>
       <c r="W50" s="20"/>
       <c r="X50" s="20"/>
       <c r="Y50" s="20"/>
       <c r="Z50" s="20"/>
       <c r="AA50" s="20"/>
       <c r="AB50" s="20"/>
-      <c r="AC50" s="74"/>
+      <c r="AC50" s="70"/>
       <c r="AD50" s="19"/>
       <c r="AE50" s="19"/>
       <c r="AF50" s="19"/>
       <c r="AG50" s="19"/>
       <c r="AH50" s="19"/>
       <c r="AI50" s="19"/>
-      <c r="AJ50" s="67"/>
+      <c r="AJ50" s="62"/>
       <c r="AK50" s="19"/>
     </row>
     <row r="51" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A51" s="60"/>
-      <c r="B51" s="69"/>
-      <c r="C51" s="59"/>
+      <c r="A51" s="72"/>
+      <c r="B51" s="65"/>
+      <c r="C51" s="64"/>
       <c r="D51" s="2" t="s">
         <v>38</v>
       </c>
@@ -8241,27 +8248,27 @@
       <c r="S51" s="20"/>
       <c r="T51" s="20"/>
       <c r="U51" s="20"/>
-      <c r="V51" s="71"/>
+      <c r="V51" s="67"/>
       <c r="W51" s="20"/>
       <c r="X51" s="20"/>
       <c r="Y51" s="20"/>
       <c r="Z51" s="20"/>
       <c r="AA51" s="20"/>
       <c r="AB51" s="20"/>
-      <c r="AC51" s="74"/>
+      <c r="AC51" s="70"/>
       <c r="AD51" s="19"/>
       <c r="AE51" s="19"/>
       <c r="AF51" s="19"/>
       <c r="AG51" s="19"/>
       <c r="AH51" s="19"/>
       <c r="AI51" s="19"/>
-      <c r="AJ51" s="67"/>
+      <c r="AJ51" s="62"/>
       <c r="AK51" s="19"/>
     </row>
     <row r="52" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A52" s="60"/>
-      <c r="B52" s="69"/>
-      <c r="C52" s="59"/>
+      <c r="A52" s="72"/>
+      <c r="B52" s="65"/>
+      <c r="C52" s="64"/>
       <c r="D52" s="2" t="s">
         <v>33</v>
       </c>
@@ -8284,27 +8291,27 @@
       <c r="S52" s="20"/>
       <c r="T52" s="20"/>
       <c r="U52" s="20"/>
-      <c r="V52" s="71"/>
+      <c r="V52" s="67"/>
       <c r="W52" s="20"/>
       <c r="X52" s="20"/>
       <c r="Y52" s="20"/>
       <c r="Z52" s="20"/>
       <c r="AA52" s="20"/>
       <c r="AB52" s="20"/>
-      <c r="AC52" s="74"/>
+      <c r="AC52" s="70"/>
       <c r="AD52" s="19"/>
       <c r="AE52" s="19"/>
       <c r="AF52" s="19"/>
       <c r="AG52" s="19"/>
       <c r="AH52" s="19"/>
       <c r="AI52" s="19"/>
-      <c r="AJ52" s="67"/>
+      <c r="AJ52" s="62"/>
       <c r="AK52" s="19"/>
     </row>
     <row r="53" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A53" s="60"/>
-      <c r="B53" s="69"/>
-      <c r="C53" s="59" t="s">
+      <c r="A53" s="72"/>
+      <c r="B53" s="65"/>
+      <c r="C53" s="64" t="s">
         <v>121</v>
       </c>
       <c r="D53" s="2" t="s">
@@ -8333,27 +8340,27 @@
       <c r="S53" s="20"/>
       <c r="T53" s="20"/>
       <c r="U53" s="20"/>
-      <c r="V53" s="71"/>
+      <c r="V53" s="67"/>
       <c r="W53" s="20"/>
       <c r="X53" s="20"/>
       <c r="Y53" s="20"/>
       <c r="Z53" s="20"/>
       <c r="AA53" s="20"/>
       <c r="AB53" s="20"/>
-      <c r="AC53" s="74"/>
+      <c r="AC53" s="70"/>
       <c r="AD53" s="19"/>
       <c r="AE53" s="19"/>
       <c r="AF53" s="19"/>
       <c r="AG53" s="19"/>
       <c r="AH53" s="19"/>
       <c r="AI53" s="19"/>
-      <c r="AJ53" s="67"/>
+      <c r="AJ53" s="62"/>
       <c r="AK53" s="19"/>
     </row>
     <row r="54" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A54" s="60"/>
-      <c r="B54" s="69"/>
-      <c r="C54" s="59"/>
+      <c r="A54" s="72"/>
+      <c r="B54" s="65"/>
+      <c r="C54" s="64"/>
       <c r="D54" s="2" t="s">
         <v>151</v>
       </c>
@@ -8380,26 +8387,26 @@
       <c r="S54" s="20"/>
       <c r="T54" s="20"/>
       <c r="U54" s="20"/>
-      <c r="V54" s="71"/>
+      <c r="V54" s="67"/>
       <c r="W54" s="20"/>
       <c r="X54" s="20"/>
       <c r="Y54" s="20"/>
       <c r="Z54" s="20"/>
       <c r="AA54" s="20"/>
       <c r="AB54" s="20"/>
-      <c r="AC54" s="74"/>
+      <c r="AC54" s="70"/>
       <c r="AD54" s="19"/>
       <c r="AE54" s="19"/>
       <c r="AF54" s="19"/>
       <c r="AG54" s="19"/>
       <c r="AH54" s="19"/>
       <c r="AI54" s="19"/>
-      <c r="AJ54" s="67"/>
+      <c r="AJ54" s="62"/>
       <c r="AK54" s="19"/>
     </row>
     <row r="55" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="60"/>
-      <c r="B55" s="69"/>
+      <c r="A55" s="72"/>
+      <c r="B55" s="65"/>
       <c r="C55" s="21" t="s">
         <v>71</v>
       </c>
@@ -8425,32 +8432,32 @@
       <c r="S55" s="21"/>
       <c r="T55" s="21"/>
       <c r="U55" s="21"/>
-      <c r="V55" s="71"/>
+      <c r="V55" s="67"/>
       <c r="W55" s="21"/>
       <c r="X55" s="21"/>
       <c r="Y55" s="21"/>
       <c r="Z55" s="21"/>
       <c r="AA55" s="21"/>
       <c r="AB55" s="21"/>
-      <c r="AC55" s="74"/>
+      <c r="AC55" s="70"/>
       <c r="AD55" s="19"/>
       <c r="AE55" s="19"/>
       <c r="AF55" s="19"/>
       <c r="AG55" s="19"/>
       <c r="AH55" s="19"/>
       <c r="AI55" s="19"/>
-      <c r="AJ55" s="67"/>
+      <c r="AJ55" s="62"/>
       <c r="AK55" s="19"/>
     </row>
     <row r="56" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A56" s="60"/>
-      <c r="B56" s="62" t="s">
+      <c r="A56" s="72"/>
+      <c r="B56" s="74" t="s">
         <v>120</v>
       </c>
-      <c r="C56" s="59" t="s">
+      <c r="C56" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="D56" s="59" t="s">
+      <c r="D56" s="64" t="s">
         <v>29</v>
       </c>
       <c r="E56" s="2" t="s">
@@ -8482,28 +8489,28 @@
       <c r="S56" s="20"/>
       <c r="T56" s="20"/>
       <c r="U56" s="20"/>
-      <c r="V56" s="71"/>
+      <c r="V56" s="67"/>
       <c r="W56" s="20"/>
       <c r="X56" s="20"/>
       <c r="Y56" s="20"/>
       <c r="Z56" s="20"/>
       <c r="AA56" s="20"/>
       <c r="AB56" s="20"/>
-      <c r="AC56" s="74"/>
+      <c r="AC56" s="70"/>
       <c r="AD56" s="19"/>
       <c r="AE56" s="19"/>
       <c r="AF56" s="19"/>
       <c r="AG56" s="19"/>
       <c r="AH56" s="19"/>
       <c r="AI56" s="19"/>
-      <c r="AJ56" s="67"/>
+      <c r="AJ56" s="62"/>
       <c r="AK56" s="19"/>
     </row>
     <row r="57" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A57" s="60"/>
-      <c r="B57" s="62"/>
-      <c r="C57" s="59"/>
-      <c r="D57" s="59"/>
+      <c r="A57" s="72"/>
+      <c r="B57" s="74"/>
+      <c r="C57" s="64"/>
+      <c r="D57" s="64"/>
       <c r="E57" s="2" t="s">
         <v>130</v>
       </c>
@@ -8533,30 +8540,30 @@
       <c r="S57" s="20"/>
       <c r="T57" s="20"/>
       <c r="U57" s="20"/>
-      <c r="V57" s="71"/>
+      <c r="V57" s="67"/>
       <c r="W57" s="20"/>
       <c r="X57" s="20"/>
       <c r="Y57" s="20"/>
       <c r="Z57" s="20"/>
       <c r="AA57" s="20"/>
       <c r="AB57" s="20"/>
-      <c r="AC57" s="74"/>
+      <c r="AC57" s="70"/>
       <c r="AD57" s="19"/>
       <c r="AE57" s="19"/>
       <c r="AF57" s="19"/>
       <c r="AG57" s="19"/>
       <c r="AH57" s="19"/>
       <c r="AI57" s="19"/>
-      <c r="AJ57" s="67"/>
+      <c r="AJ57" s="62"/>
       <c r="AK57" s="19"/>
     </row>
     <row r="58" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A58" s="60"/>
-      <c r="B58" s="62"/>
-      <c r="C58" s="59" t="s">
+      <c r="A58" s="72"/>
+      <c r="B58" s="74"/>
+      <c r="C58" s="64" t="s">
         <v>96</v>
       </c>
-      <c r="D58" s="59" t="s">
+      <c r="D58" s="64" t="s">
         <v>95</v>
       </c>
       <c r="E58" s="2" t="s">
@@ -8588,28 +8595,28 @@
       <c r="S58" s="20"/>
       <c r="T58" s="20"/>
       <c r="U58" s="20"/>
-      <c r="V58" s="71"/>
+      <c r="V58" s="67"/>
       <c r="W58" s="20"/>
       <c r="X58" s="20"/>
       <c r="Y58" s="20"/>
       <c r="Z58" s="20"/>
       <c r="AA58" s="20"/>
       <c r="AB58" s="20"/>
-      <c r="AC58" s="74"/>
+      <c r="AC58" s="70"/>
       <c r="AD58" s="19"/>
       <c r="AE58" s="19"/>
       <c r="AF58" s="19"/>
       <c r="AG58" s="19"/>
       <c r="AH58" s="19"/>
       <c r="AI58" s="19"/>
-      <c r="AJ58" s="67"/>
+      <c r="AJ58" s="62"/>
       <c r="AK58" s="19"/>
     </row>
     <row r="59" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A59" s="60"/>
-      <c r="B59" s="62"/>
-      <c r="C59" s="59"/>
-      <c r="D59" s="59"/>
+      <c r="A59" s="72"/>
+      <c r="B59" s="74"/>
+      <c r="C59" s="64"/>
+      <c r="D59" s="64"/>
       <c r="E59" s="2" t="s">
         <v>146</v>
       </c>
@@ -8639,28 +8646,28 @@
       <c r="S59" s="20"/>
       <c r="T59" s="20"/>
       <c r="U59" s="20"/>
-      <c r="V59" s="71"/>
+      <c r="V59" s="67"/>
       <c r="W59" s="20"/>
       <c r="X59" s="20"/>
       <c r="Y59" s="20"/>
       <c r="Z59" s="20"/>
       <c r="AA59" s="20"/>
       <c r="AB59" s="20"/>
-      <c r="AC59" s="74"/>
+      <c r="AC59" s="70"/>
       <c r="AD59" s="19"/>
       <c r="AE59" s="19"/>
       <c r="AF59" s="19"/>
       <c r="AG59" s="19"/>
       <c r="AH59" s="19"/>
       <c r="AI59" s="19"/>
-      <c r="AJ59" s="67"/>
+      <c r="AJ59" s="62"/>
       <c r="AK59" s="19"/>
     </row>
     <row r="60" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A60" s="60"/>
-      <c r="B60" s="62"/>
-      <c r="C60" s="59"/>
-      <c r="D60" s="59"/>
+      <c r="A60" s="72"/>
+      <c r="B60" s="74"/>
+      <c r="C60" s="64"/>
+      <c r="D60" s="64"/>
       <c r="E60" s="2" t="s">
         <v>147</v>
       </c>
@@ -8690,28 +8697,28 @@
       <c r="S60" s="20"/>
       <c r="T60" s="20"/>
       <c r="U60" s="20"/>
-      <c r="V60" s="71"/>
+      <c r="V60" s="67"/>
       <c r="W60" s="20"/>
       <c r="X60" s="20"/>
       <c r="Y60" s="20"/>
       <c r="Z60" s="20"/>
       <c r="AA60" s="20"/>
       <c r="AB60" s="20"/>
-      <c r="AC60" s="74"/>
+      <c r="AC60" s="70"/>
       <c r="AD60" s="19"/>
       <c r="AE60" s="19"/>
       <c r="AF60" s="19"/>
       <c r="AG60" s="19"/>
       <c r="AH60" s="19"/>
       <c r="AI60" s="19"/>
-      <c r="AJ60" s="67"/>
+      <c r="AJ60" s="62"/>
       <c r="AK60" s="19"/>
     </row>
     <row r="61" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A61" s="60"/>
-      <c r="B61" s="62"/>
-      <c r="C61" s="59"/>
-      <c r="D61" s="59"/>
+      <c r="A61" s="72"/>
+      <c r="B61" s="74"/>
+      <c r="C61" s="64"/>
+      <c r="D61" s="64"/>
       <c r="E61" s="2" t="s">
         <v>107</v>
       </c>
@@ -8741,28 +8748,28 @@
       <c r="S61" s="20"/>
       <c r="T61" s="20"/>
       <c r="U61" s="20"/>
-      <c r="V61" s="71"/>
+      <c r="V61" s="67"/>
       <c r="W61" s="20"/>
       <c r="X61" s="20"/>
       <c r="Y61" s="20"/>
       <c r="Z61" s="20"/>
       <c r="AA61" s="20"/>
       <c r="AB61" s="20"/>
-      <c r="AC61" s="74"/>
+      <c r="AC61" s="70"/>
       <c r="AD61" s="19"/>
       <c r="AE61" s="19"/>
       <c r="AF61" s="19"/>
       <c r="AG61" s="19"/>
       <c r="AH61" s="19"/>
       <c r="AI61" s="19"/>
-      <c r="AJ61" s="67"/>
+      <c r="AJ61" s="62"/>
       <c r="AK61" s="19"/>
     </row>
     <row r="62" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A62" s="60"/>
-      <c r="B62" s="62"/>
-      <c r="C62" s="59"/>
-      <c r="D62" s="59"/>
+      <c r="A62" s="72"/>
+      <c r="B62" s="74"/>
+      <c r="C62" s="64"/>
+      <c r="D62" s="64"/>
       <c r="E62" s="2" t="s">
         <v>108</v>
       </c>
@@ -8792,28 +8799,28 @@
       <c r="S62" s="20"/>
       <c r="T62" s="20"/>
       <c r="U62" s="20"/>
-      <c r="V62" s="71"/>
+      <c r="V62" s="67"/>
       <c r="W62" s="20"/>
       <c r="X62" s="20"/>
       <c r="Y62" s="20"/>
       <c r="Z62" s="20"/>
       <c r="AA62" s="20"/>
       <c r="AB62" s="20"/>
-      <c r="AC62" s="74"/>
+      <c r="AC62" s="70"/>
       <c r="AD62" s="19"/>
       <c r="AE62" s="19"/>
       <c r="AF62" s="19"/>
       <c r="AG62" s="19"/>
       <c r="AH62" s="19"/>
       <c r="AI62" s="19"/>
-      <c r="AJ62" s="67"/>
+      <c r="AJ62" s="62"/>
       <c r="AK62" s="19"/>
     </row>
     <row r="63" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A63" s="60"/>
-      <c r="B63" s="62"/>
-      <c r="C63" s="59"/>
-      <c r="D63" s="59" t="s">
+      <c r="A63" s="72"/>
+      <c r="B63" s="74"/>
+      <c r="C63" s="64"/>
+      <c r="D63" s="64" t="s">
         <v>97</v>
       </c>
       <c r="E63" s="2" t="s">
@@ -8839,39 +8846,45 @@
       <c r="S63" s="20"/>
       <c r="T63" s="20"/>
       <c r="U63" s="20"/>
-      <c r="V63" s="71"/>
+      <c r="V63" s="67"/>
       <c r="W63" s="20"/>
       <c r="X63" s="20"/>
       <c r="Y63" s="20"/>
       <c r="Z63" s="20"/>
       <c r="AA63" s="20"/>
       <c r="AB63" s="20"/>
-      <c r="AC63" s="74"/>
+      <c r="AC63" s="70"/>
       <c r="AD63" s="19"/>
       <c r="AE63" s="19"/>
       <c r="AF63" s="19"/>
       <c r="AG63" s="19"/>
       <c r="AH63" s="19"/>
       <c r="AI63" s="19"/>
-      <c r="AJ63" s="67"/>
+      <c r="AJ63" s="62"/>
       <c r="AK63" s="19"/>
     </row>
     <row r="64" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A64" s="60"/>
-      <c r="B64" s="62"/>
-      <c r="C64" s="59"/>
-      <c r="D64" s="59"/>
+      <c r="A64" s="72"/>
+      <c r="B64" s="74"/>
+      <c r="C64" s="64"/>
+      <c r="D64" s="64"/>
       <c r="E64" s="2" t="s">
-        <v>102</v>
+        <v>146</v>
       </c>
       <c r="F64" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="G64" s="20"/>
-      <c r="H64" s="35"/>
-      <c r="I64" s="35"/>
+        <v>39</v>
+      </c>
+      <c r="G64" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="H64" s="35">
+        <v>44133</v>
+      </c>
+      <c r="I64" s="35">
+        <v>44133</v>
+      </c>
       <c r="J64" s="36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K64" s="30"/>
       <c r="L64" s="20"/>
@@ -8884,30 +8897,30 @@
       <c r="S64" s="20"/>
       <c r="T64" s="20"/>
       <c r="U64" s="20"/>
-      <c r="V64" s="71"/>
+      <c r="V64" s="67"/>
       <c r="W64" s="20"/>
       <c r="X64" s="20"/>
       <c r="Y64" s="20"/>
       <c r="Z64" s="20"/>
       <c r="AA64" s="20"/>
       <c r="AB64" s="20"/>
-      <c r="AC64" s="74"/>
+      <c r="AC64" s="70"/>
       <c r="AD64" s="19"/>
       <c r="AE64" s="19"/>
       <c r="AF64" s="19"/>
       <c r="AG64" s="19"/>
       <c r="AH64" s="19"/>
       <c r="AI64" s="19"/>
-      <c r="AJ64" s="67"/>
+      <c r="AJ64" s="62"/>
       <c r="AK64" s="19"/>
     </row>
     <row r="65" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="60"/>
-      <c r="B65" s="62"/>
-      <c r="C65" s="59" t="s">
+      <c r="A65" s="72"/>
+      <c r="B65" s="74"/>
+      <c r="C65" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="D65" s="59" t="s">
+      <c r="D65" s="64" t="s">
         <v>93</v>
       </c>
       <c r="E65" s="2" t="s">
@@ -8939,28 +8952,28 @@
       <c r="S65" s="20"/>
       <c r="T65" s="20"/>
       <c r="U65" s="20"/>
-      <c r="V65" s="71"/>
+      <c r="V65" s="67"/>
       <c r="W65" s="20"/>
       <c r="X65" s="20"/>
       <c r="Y65" s="20"/>
       <c r="Z65" s="20"/>
       <c r="AA65" s="20"/>
       <c r="AB65" s="20"/>
-      <c r="AC65" s="74"/>
+      <c r="AC65" s="70"/>
       <c r="AD65" s="19"/>
       <c r="AE65" s="19"/>
       <c r="AF65" s="19"/>
       <c r="AG65" s="19"/>
       <c r="AH65" s="19"/>
       <c r="AI65" s="19"/>
-      <c r="AJ65" s="67"/>
+      <c r="AJ65" s="62"/>
       <c r="AK65" s="19"/>
     </row>
     <row r="66" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="60"/>
-      <c r="B66" s="62"/>
-      <c r="C66" s="59"/>
-      <c r="D66" s="59"/>
+      <c r="A66" s="72"/>
+      <c r="B66" s="74"/>
+      <c r="C66" s="64"/>
+      <c r="D66" s="64"/>
       <c r="E66" s="2" t="s">
         <v>130</v>
       </c>
@@ -8973,9 +8986,11 @@
       <c r="H66" s="35">
         <v>44126</v>
       </c>
-      <c r="I66" s="35"/>
+      <c r="I66" s="35">
+        <v>44126</v>
+      </c>
       <c r="J66" s="36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K66" s="30"/>
       <c r="L66" s="20"/>
@@ -8988,28 +9003,28 @@
       <c r="S66" s="20"/>
       <c r="T66" s="20"/>
       <c r="U66" s="20"/>
-      <c r="V66" s="71"/>
+      <c r="V66" s="67"/>
       <c r="W66" s="20"/>
       <c r="X66" s="20"/>
       <c r="Y66" s="20"/>
       <c r="Z66" s="20"/>
       <c r="AA66" s="20"/>
       <c r="AB66" s="20"/>
-      <c r="AC66" s="74"/>
+      <c r="AC66" s="70"/>
       <c r="AD66" s="19"/>
       <c r="AE66" s="19"/>
       <c r="AF66" s="19"/>
       <c r="AG66" s="19"/>
       <c r="AH66" s="19"/>
       <c r="AI66" s="19"/>
-      <c r="AJ66" s="67"/>
+      <c r="AJ66" s="62"/>
       <c r="AK66" s="19"/>
     </row>
     <row r="67" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="60"/>
-      <c r="B67" s="62"/>
-      <c r="C67" s="59"/>
-      <c r="D67" s="63" t="s">
+      <c r="A67" s="72"/>
+      <c r="B67" s="74"/>
+      <c r="C67" s="64"/>
+      <c r="D67" s="59" t="s">
         <v>98</v>
       </c>
       <c r="E67" s="2" t="s">
@@ -9018,10 +9033,18 @@
       <c r="F67" s="53" t="s">
         <v>186</v>
       </c>
-      <c r="G67" s="53"/>
-      <c r="H67" s="35"/>
-      <c r="I67" s="35"/>
-      <c r="J67" s="36"/>
+      <c r="G67" s="53" t="s">
+        <v>193</v>
+      </c>
+      <c r="H67" s="35">
+        <v>44132</v>
+      </c>
+      <c r="I67" s="35">
+        <v>44133</v>
+      </c>
+      <c r="J67" s="36">
+        <v>1</v>
+      </c>
       <c r="K67" s="30"/>
       <c r="L67" s="53"/>
       <c r="M67" s="53"/>
@@ -9033,35 +9056,37 @@
       <c r="S67" s="53"/>
       <c r="T67" s="53"/>
       <c r="U67" s="53"/>
-      <c r="V67" s="71"/>
+      <c r="V67" s="67"/>
       <c r="W67" s="53"/>
       <c r="X67" s="53"/>
       <c r="Y67" s="53"/>
       <c r="Z67" s="53"/>
       <c r="AA67" s="53"/>
       <c r="AB67" s="53"/>
-      <c r="AC67" s="74"/>
+      <c r="AC67" s="70"/>
       <c r="AD67" s="54"/>
       <c r="AE67" s="54"/>
       <c r="AF67" s="54"/>
       <c r="AG67" s="54"/>
       <c r="AH67" s="54"/>
       <c r="AI67" s="54"/>
-      <c r="AJ67" s="67"/>
+      <c r="AJ67" s="62"/>
       <c r="AK67" s="54"/>
     </row>
     <row r="68" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="60"/>
-      <c r="B68" s="62"/>
-      <c r="C68" s="59"/>
-      <c r="D68" s="65"/>
+      <c r="A68" s="72"/>
+      <c r="B68" s="74"/>
+      <c r="C68" s="64"/>
+      <c r="D68" s="60"/>
       <c r="E68" s="2" t="s">
         <v>130</v>
       </c>
       <c r="F68" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="G68" s="20"/>
+      <c r="G68" s="20" t="s">
+        <v>193</v>
+      </c>
       <c r="H68" s="35"/>
       <c r="I68" s="35"/>
       <c r="J68" s="36">
@@ -9078,27 +9103,27 @@
       <c r="S68" s="20"/>
       <c r="T68" s="20"/>
       <c r="U68" s="20"/>
-      <c r="V68" s="71"/>
+      <c r="V68" s="67"/>
       <c r="W68" s="20"/>
       <c r="X68" s="20"/>
       <c r="Y68" s="20"/>
       <c r="Z68" s="20"/>
       <c r="AA68" s="20"/>
       <c r="AB68" s="20"/>
-      <c r="AC68" s="74"/>
+      <c r="AC68" s="70"/>
       <c r="AD68" s="19"/>
       <c r="AE68" s="19"/>
       <c r="AF68" s="19"/>
       <c r="AG68" s="19"/>
       <c r="AH68" s="19"/>
       <c r="AI68" s="19"/>
-      <c r="AJ68" s="67"/>
+      <c r="AJ68" s="62"/>
       <c r="AK68" s="19"/>
     </row>
     <row r="69" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A69" s="60"/>
-      <c r="B69" s="62"/>
-      <c r="C69" s="64"/>
+      <c r="A69" s="72"/>
+      <c r="B69" s="74"/>
+      <c r="C69" s="75"/>
       <c r="D69" s="2" t="s">
         <v>190</v>
       </c>
@@ -9108,10 +9133,18 @@
       <c r="F69" s="53" t="s">
         <v>188</v>
       </c>
-      <c r="G69" s="53"/>
-      <c r="H69" s="35"/>
-      <c r="I69" s="35"/>
-      <c r="J69" s="36"/>
+      <c r="G69" s="53" t="s">
+        <v>193</v>
+      </c>
+      <c r="H69" s="35">
+        <v>44132</v>
+      </c>
+      <c r="I69" s="35">
+        <v>44132</v>
+      </c>
+      <c r="J69" s="36">
+        <v>1</v>
+      </c>
       <c r="K69" s="30"/>
       <c r="L69" s="53"/>
       <c r="M69" s="53"/>
@@ -9123,27 +9156,27 @@
       <c r="S69" s="53"/>
       <c r="T69" s="53"/>
       <c r="U69" s="53"/>
-      <c r="V69" s="71"/>
+      <c r="V69" s="67"/>
       <c r="W69" s="53"/>
       <c r="X69" s="53"/>
       <c r="Y69" s="53"/>
       <c r="Z69" s="53"/>
       <c r="AA69" s="53"/>
       <c r="AB69" s="53"/>
-      <c r="AC69" s="74"/>
+      <c r="AC69" s="70"/>
       <c r="AD69" s="54"/>
       <c r="AE69" s="54"/>
       <c r="AF69" s="54"/>
       <c r="AG69" s="54"/>
       <c r="AH69" s="54"/>
       <c r="AI69" s="54"/>
-      <c r="AJ69" s="67"/>
+      <c r="AJ69" s="62"/>
       <c r="AK69" s="54"/>
     </row>
     <row r="70" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A70" s="60"/>
-      <c r="B70" s="62"/>
-      <c r="C70" s="64"/>
+      <c r="A70" s="72"/>
+      <c r="B70" s="74"/>
+      <c r="C70" s="75"/>
       <c r="D70" s="2" t="s">
         <v>191</v>
       </c>
@@ -9153,10 +9186,18 @@
       <c r="F70" s="53" t="s">
         <v>188</v>
       </c>
-      <c r="G70" s="53"/>
-      <c r="H70" s="35"/>
-      <c r="I70" s="35"/>
-      <c r="J70" s="36"/>
+      <c r="G70" s="53" t="s">
+        <v>193</v>
+      </c>
+      <c r="H70" s="35">
+        <v>44132</v>
+      </c>
+      <c r="I70" s="35">
+        <v>44132</v>
+      </c>
+      <c r="J70" s="36">
+        <v>1</v>
+      </c>
       <c r="K70" s="30"/>
       <c r="L70" s="53"/>
       <c r="M70" s="53"/>
@@ -9168,27 +9209,27 @@
       <c r="S70" s="53"/>
       <c r="T70" s="53"/>
       <c r="U70" s="53"/>
-      <c r="V70" s="71"/>
+      <c r="V70" s="67"/>
       <c r="W70" s="53"/>
       <c r="X70" s="53"/>
       <c r="Y70" s="53"/>
       <c r="Z70" s="53"/>
       <c r="AA70" s="53"/>
       <c r="AB70" s="53"/>
-      <c r="AC70" s="74"/>
+      <c r="AC70" s="70"/>
       <c r="AD70" s="54"/>
       <c r="AE70" s="54"/>
       <c r="AF70" s="54"/>
       <c r="AG70" s="54"/>
       <c r="AH70" s="54"/>
       <c r="AI70" s="54"/>
-      <c r="AJ70" s="67"/>
+      <c r="AJ70" s="62"/>
       <c r="AK70" s="54"/>
     </row>
     <row r="71" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A71" s="60"/>
-      <c r="B71" s="62"/>
-      <c r="C71" s="65"/>
+      <c r="A71" s="72"/>
+      <c r="B71" s="74"/>
+      <c r="C71" s="60"/>
       <c r="D71" s="2" t="s">
         <v>161</v>
       </c>
@@ -9221,27 +9262,27 @@
       <c r="S71" s="20"/>
       <c r="T71" s="20"/>
       <c r="U71" s="20"/>
-      <c r="V71" s="71"/>
+      <c r="V71" s="67"/>
       <c r="W71" s="20"/>
       <c r="X71" s="20"/>
       <c r="Y71" s="20"/>
       <c r="Z71" s="20"/>
       <c r="AA71" s="20"/>
       <c r="AB71" s="20"/>
-      <c r="AC71" s="74"/>
+      <c r="AC71" s="70"/>
       <c r="AD71" s="19"/>
       <c r="AE71" s="19"/>
       <c r="AF71" s="19"/>
       <c r="AG71" s="19"/>
       <c r="AH71" s="19"/>
       <c r="AI71" s="19"/>
-      <c r="AJ71" s="67"/>
+      <c r="AJ71" s="62"/>
       <c r="AK71" s="19"/>
     </row>
     <row r="72" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A72" s="60"/>
-      <c r="B72" s="62"/>
-      <c r="C72" s="59" t="s">
+      <c r="A72" s="72"/>
+      <c r="B72" s="74"/>
+      <c r="C72" s="64" t="s">
         <v>13</v>
       </c>
       <c r="D72" s="2" t="s">
@@ -9274,27 +9315,27 @@
       <c r="S72" s="20"/>
       <c r="T72" s="20"/>
       <c r="U72" s="20"/>
-      <c r="V72" s="71"/>
+      <c r="V72" s="67"/>
       <c r="W72" s="20"/>
       <c r="X72" s="20"/>
       <c r="Y72" s="20"/>
       <c r="Z72" s="20"/>
       <c r="AA72" s="20"/>
       <c r="AB72" s="20"/>
-      <c r="AC72" s="74"/>
+      <c r="AC72" s="70"/>
       <c r="AD72" s="19"/>
       <c r="AE72" s="19"/>
       <c r="AF72" s="19"/>
       <c r="AG72" s="19"/>
       <c r="AH72" s="19"/>
       <c r="AI72" s="19"/>
-      <c r="AJ72" s="67"/>
+      <c r="AJ72" s="62"/>
       <c r="AK72" s="19"/>
     </row>
     <row r="73" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A73" s="60"/>
-      <c r="B73" s="62"/>
-      <c r="C73" s="59"/>
+      <c r="A73" s="72"/>
+      <c r="B73" s="74"/>
+      <c r="C73" s="64"/>
       <c r="D73" s="2" t="s">
         <v>126</v>
       </c>
@@ -9325,27 +9366,27 @@
       <c r="S73" s="20"/>
       <c r="T73" s="20"/>
       <c r="U73" s="20"/>
-      <c r="V73" s="71"/>
+      <c r="V73" s="67"/>
       <c r="W73" s="20"/>
       <c r="X73" s="20"/>
       <c r="Y73" s="20"/>
       <c r="Z73" s="20"/>
       <c r="AA73" s="20"/>
       <c r="AB73" s="20"/>
-      <c r="AC73" s="74"/>
+      <c r="AC73" s="70"/>
       <c r="AD73" s="19"/>
       <c r="AE73" s="19"/>
       <c r="AF73" s="19"/>
       <c r="AG73" s="19"/>
       <c r="AH73" s="19"/>
       <c r="AI73" s="19"/>
-      <c r="AJ73" s="67"/>
+      <c r="AJ73" s="62"/>
       <c r="AK73" s="19"/>
     </row>
     <row r="74" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="60"/>
-      <c r="B74" s="62"/>
-      <c r="C74" s="63" t="s">
+      <c r="A74" s="72"/>
+      <c r="B74" s="74"/>
+      <c r="C74" s="59" t="s">
         <v>99</v>
       </c>
       <c r="D74" s="2" t="s">
@@ -9378,27 +9419,27 @@
       <c r="S74" s="20"/>
       <c r="T74" s="20"/>
       <c r="U74" s="20"/>
-      <c r="V74" s="71"/>
+      <c r="V74" s="67"/>
       <c r="W74" s="20"/>
       <c r="X74" s="20"/>
       <c r="Y74" s="20"/>
       <c r="Z74" s="20"/>
       <c r="AA74" s="20"/>
       <c r="AB74" s="20"/>
-      <c r="AC74" s="74"/>
+      <c r="AC74" s="70"/>
       <c r="AD74" s="19"/>
       <c r="AE74" s="19"/>
       <c r="AF74" s="19"/>
       <c r="AG74" s="19"/>
       <c r="AH74" s="19"/>
       <c r="AI74" s="19"/>
-      <c r="AJ74" s="67"/>
+      <c r="AJ74" s="62"/>
       <c r="AK74" s="19"/>
     </row>
     <row r="75" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="60"/>
-      <c r="B75" s="62"/>
-      <c r="C75" s="64"/>
+      <c r="A75" s="72"/>
+      <c r="B75" s="74"/>
+      <c r="C75" s="75"/>
       <c r="D75" s="2" t="s">
         <v>156</v>
       </c>
@@ -9429,27 +9470,27 @@
       <c r="S75" s="20"/>
       <c r="T75" s="20"/>
       <c r="U75" s="20"/>
-      <c r="V75" s="71"/>
+      <c r="V75" s="67"/>
       <c r="W75" s="20"/>
       <c r="X75" s="20"/>
       <c r="Y75" s="20"/>
       <c r="Z75" s="20"/>
       <c r="AA75" s="20"/>
       <c r="AB75" s="20"/>
-      <c r="AC75" s="74"/>
+      <c r="AC75" s="70"/>
       <c r="AD75" s="19"/>
       <c r="AE75" s="19"/>
       <c r="AF75" s="19"/>
       <c r="AG75" s="19"/>
       <c r="AH75" s="19"/>
       <c r="AI75" s="19"/>
-      <c r="AJ75" s="67"/>
+      <c r="AJ75" s="62"/>
       <c r="AK75" s="19"/>
     </row>
     <row r="76" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="60"/>
-      <c r="B76" s="62"/>
-      <c r="C76" s="64"/>
+      <c r="A76" s="72"/>
+      <c r="B76" s="74"/>
+      <c r="C76" s="75"/>
       <c r="D76" s="2" t="s">
         <v>187</v>
       </c>
@@ -9472,27 +9513,27 @@
       <c r="S76" s="53"/>
       <c r="T76" s="53"/>
       <c r="U76" s="53"/>
-      <c r="V76" s="71"/>
+      <c r="V76" s="67"/>
       <c r="W76" s="53"/>
       <c r="X76" s="53"/>
       <c r="Y76" s="53"/>
       <c r="Z76" s="53"/>
       <c r="AA76" s="53"/>
       <c r="AB76" s="53"/>
-      <c r="AC76" s="74"/>
+      <c r="AC76" s="70"/>
       <c r="AD76" s="54"/>
       <c r="AE76" s="54"/>
       <c r="AF76" s="54"/>
       <c r="AG76" s="54"/>
       <c r="AH76" s="54"/>
       <c r="AI76" s="54"/>
-      <c r="AJ76" s="67"/>
+      <c r="AJ76" s="62"/>
       <c r="AK76" s="54"/>
     </row>
     <row r="77" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="60"/>
-      <c r="B77" s="62"/>
-      <c r="C77" s="65"/>
+      <c r="A77" s="72"/>
+      <c r="B77" s="74"/>
+      <c r="C77" s="60"/>
       <c r="D77" s="2" t="s">
         <v>157</v>
       </c>
@@ -9523,27 +9564,27 @@
       <c r="S77" s="37"/>
       <c r="T77" s="37"/>
       <c r="U77" s="37"/>
-      <c r="V77" s="71"/>
+      <c r="V77" s="67"/>
       <c r="W77" s="37"/>
       <c r="X77" s="37"/>
       <c r="Y77" s="37"/>
       <c r="Z77" s="37"/>
       <c r="AA77" s="37"/>
       <c r="AB77" s="37"/>
-      <c r="AC77" s="74"/>
+      <c r="AC77" s="70"/>
       <c r="AD77" s="19"/>
       <c r="AE77" s="19"/>
       <c r="AF77" s="19"/>
       <c r="AG77" s="19"/>
       <c r="AH77" s="19"/>
       <c r="AI77" s="19"/>
-      <c r="AJ77" s="67"/>
+      <c r="AJ77" s="62"/>
       <c r="AK77" s="19"/>
     </row>
     <row r="78" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A78" s="60"/>
-      <c r="B78" s="62"/>
-      <c r="C78" s="59" t="s">
+      <c r="A78" s="72"/>
+      <c r="B78" s="74"/>
+      <c r="C78" s="64" t="s">
         <v>30</v>
       </c>
       <c r="D78" s="2" t="s">
@@ -9574,27 +9615,27 @@
       <c r="S78" s="20"/>
       <c r="T78" s="20"/>
       <c r="U78" s="20"/>
-      <c r="V78" s="71"/>
+      <c r="V78" s="67"/>
       <c r="W78" s="20"/>
       <c r="X78" s="20"/>
       <c r="Y78" s="20"/>
       <c r="Z78" s="20"/>
       <c r="AA78" s="20"/>
       <c r="AB78" s="20"/>
-      <c r="AC78" s="74"/>
+      <c r="AC78" s="70"/>
       <c r="AD78" s="19"/>
       <c r="AE78" s="19"/>
       <c r="AF78" s="19"/>
       <c r="AG78" s="19"/>
       <c r="AH78" s="19"/>
       <c r="AI78" s="19"/>
-      <c r="AJ78" s="67"/>
+      <c r="AJ78" s="62"/>
       <c r="AK78" s="19"/>
     </row>
     <row r="79" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A79" s="60"/>
-      <c r="B79" s="62"/>
-      <c r="C79" s="59"/>
+      <c r="A79" s="72"/>
+      <c r="B79" s="74"/>
+      <c r="C79" s="64"/>
       <c r="D79" s="2" t="s">
         <v>32</v>
       </c>
@@ -9617,27 +9658,27 @@
       <c r="S79" s="20"/>
       <c r="T79" s="20"/>
       <c r="U79" s="20"/>
-      <c r="V79" s="71"/>
+      <c r="V79" s="67"/>
       <c r="W79" s="20"/>
       <c r="X79" s="20"/>
       <c r="Y79" s="20"/>
       <c r="Z79" s="20"/>
       <c r="AA79" s="20"/>
       <c r="AB79" s="20"/>
-      <c r="AC79" s="74"/>
+      <c r="AC79" s="70"/>
       <c r="AD79" s="19"/>
       <c r="AE79" s="19"/>
       <c r="AF79" s="19"/>
       <c r="AG79" s="19"/>
       <c r="AH79" s="19"/>
       <c r="AI79" s="19"/>
-      <c r="AJ79" s="67"/>
+      <c r="AJ79" s="62"/>
       <c r="AK79" s="19"/>
     </row>
     <row r="80" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A80" s="60"/>
-      <c r="B80" s="62"/>
-      <c r="C80" s="59"/>
+      <c r="A80" s="72"/>
+      <c r="B80" s="74"/>
+      <c r="C80" s="64"/>
       <c r="D80" s="2" t="s">
         <v>33</v>
       </c>
@@ -9666,25 +9707,25 @@
       <c r="S80" s="20"/>
       <c r="T80" s="20"/>
       <c r="U80" s="20"/>
-      <c r="V80" s="72"/>
+      <c r="V80" s="68"/>
       <c r="W80" s="20"/>
       <c r="X80" s="20"/>
       <c r="Y80" s="20"/>
       <c r="Z80" s="20"/>
       <c r="AA80" s="20"/>
       <c r="AB80" s="20"/>
-      <c r="AC80" s="75"/>
+      <c r="AC80" s="71"/>
       <c r="AD80" s="19"/>
       <c r="AE80" s="19"/>
       <c r="AF80" s="19"/>
       <c r="AG80" s="19"/>
       <c r="AH80" s="19"/>
       <c r="AI80" s="19"/>
-      <c r="AJ80" s="68"/>
+      <c r="AJ80" s="63"/>
       <c r="AK80" s="19"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A81" s="60"/>
+      <c r="A81" s="72"/>
       <c r="B81" s="44" t="s">
         <v>21</v>
       </c>
@@ -9705,6 +9746,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="A5:A81"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C78:C80"/>
+    <mergeCell ref="C48:C52"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="C65:C68"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="B56:B80"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="C74:C77"/>
+    <mergeCell ref="C69:C71"/>
     <mergeCell ref="D67:D68"/>
     <mergeCell ref="AJ5:AJ80"/>
     <mergeCell ref="C18:C42"/>
@@ -9721,20 +9776,6 @@
     <mergeCell ref="D56:D57"/>
     <mergeCell ref="D63:D64"/>
     <mergeCell ref="D65:D66"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="A5:A81"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C78:C80"/>
-    <mergeCell ref="C48:C52"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="C65:C68"/>
-    <mergeCell ref="B5:B10"/>
-    <mergeCell ref="B56:B80"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="C74:C77"/>
-    <mergeCell ref="C69:C71"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="K3:AK5 AK6:AK80 W6:AB80 AD6:AI80 K6:U80">

--- a/schedule/ガントチャート.xlsx
+++ b/schedule/ガントチャート.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\okashi_222\schedule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GSP023\Desktop\data\就活関連\20_筒井\okashi_222\schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="201">
   <si>
     <t>カテゴリ</t>
     <phoneticPr fontId="1"/>
@@ -1345,6 +1345,52 @@
     <rPh sb="1" eb="2">
       <t>ニチ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>筒井</t>
+    <rPh sb="0" eb="2">
+      <t>ツツイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2日</t>
+    <rPh sb="1" eb="2">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>筒井</t>
+    <rPh sb="0" eb="2">
+      <t>ツツイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1日</t>
+    <rPh sb="1" eb="2">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>筒井</t>
+    <rPh sb="0" eb="1">
+      <t>ツツ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2日</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3816,6 +3862,68 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>8284</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>16565</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>2376</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>205665</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="右矢印 31"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14337197" y="6493565"/>
+          <a:ext cx="259136" cy="189100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 52778"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5781,10 +5889,10 @@
   <dimension ref="A1:AS81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="10" ySplit="4" topLeftCell="K59" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="4" topLeftCell="K50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M72" sqref="M72"/>
+      <selection pane="bottomRight" activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6851,13 +6959,17 @@
       <c r="F21" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="G21" s="20"/>
+      <c r="G21" s="20" t="s">
+        <v>200</v>
+      </c>
       <c r="H21" s="35">
         <v>44130</v>
       </c>
-      <c r="I21" s="35"/>
+      <c r="I21" s="35">
+        <v>44132</v>
+      </c>
       <c r="J21" s="36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" s="30"/>
       <c r="L21" s="20"/>
@@ -6997,10 +7109,18 @@
       <c r="E24" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
+      <c r="F24" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="H24" s="35">
+        <v>44134</v>
+      </c>
+      <c r="I24" s="35">
+        <v>44134</v>
+      </c>
       <c r="J24" s="36">
         <v>0</v>
       </c>
@@ -7049,8 +7169,12 @@
       <c r="H25" s="35">
         <v>44127</v>
       </c>
-      <c r="I25" s="35"/>
-      <c r="J25" s="36"/>
+      <c r="I25" s="35">
+        <v>44127</v>
+      </c>
+      <c r="J25" s="36">
+        <v>1</v>
+      </c>
       <c r="K25" s="30"/>
       <c r="L25" s="50"/>
       <c r="M25" s="50"/>
@@ -7138,12 +7262,20 @@
       <c r="E27" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
+      <c r="F27" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="H27" s="35">
+        <v>44134</v>
+      </c>
+      <c r="I27" s="35">
+        <v>44134</v>
+      </c>
       <c r="J27" s="36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" s="30"/>
       <c r="L27" s="20"/>
@@ -7432,12 +7564,20 @@
       <c r="E33" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="35"/>
-      <c r="I33" s="35"/>
+      <c r="F33" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="G33" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="H33" s="35">
+        <v>44126</v>
+      </c>
+      <c r="I33" s="35">
+        <v>44128</v>
+      </c>
       <c r="J33" s="36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" s="30"/>
       <c r="L33" s="20"/>
@@ -7526,12 +7666,20 @@
       <c r="E35" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="35"/>
+      <c r="F35" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="G35" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="H35" s="35">
+        <v>44126</v>
+      </c>
+      <c r="I35" s="35">
+        <v>44128</v>
+      </c>
       <c r="J35" s="36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" s="30"/>
       <c r="L35" s="20"/>

--- a/schedule/ガントチャート.xlsx
+++ b/schedule/ガントチャート.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GSP023\Desktop\data\就活関連\20_筒井\okashi_222\schedule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\okashi_222\schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="203">
   <si>
     <t>カテゴリ</t>
     <phoneticPr fontId="1"/>
@@ -1391,6 +1391,17 @@
   </si>
   <si>
     <t>2日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>優先度</t>
+    <rPh sb="0" eb="3">
+      <t>ユウセンド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1961,7 +1972,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2139,7 +2150,22 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2153,9 +2179,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2178,18 +2201,6 @@
     <xf numFmtId="0" fontId="20" fillId="12" borderId="3" xfId="13" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2200,6 +2211,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2252,13 +2269,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>14007</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>49026</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>7003</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
@@ -2314,13 +2331,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>14007</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>33338</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>257454</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>222438</xdr:rowOff>
@@ -2376,13 +2393,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>14007</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>38660</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>252132</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>227760</xdr:rowOff>
@@ -2438,13 +2455,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>14007</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>35019</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>7003</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>224119</xdr:rowOff>
@@ -2500,13 +2517,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>7005</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>35018</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>224118</xdr:rowOff>
@@ -2562,13 +2579,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>292475</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>40340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>257457</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>229440</xdr:rowOff>
@@ -2624,13 +2641,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>12326</xdr:colOff>
       <xdr:row>71</xdr:row>
       <xdr:rowOff>24654</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>255773</xdr:colOff>
       <xdr:row>71</xdr:row>
       <xdr:rowOff>213754</xdr:rowOff>
@@ -2686,13 +2703,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>10646</xdr:colOff>
       <xdr:row>72</xdr:row>
       <xdr:rowOff>29977</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>254093</xdr:colOff>
       <xdr:row>72</xdr:row>
       <xdr:rowOff>219077</xdr:rowOff>
@@ -2748,13 +2765,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>5324</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>264460</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>222437</xdr:rowOff>
@@ -2810,13 +2827,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>5322</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>33338</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>264458</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>222438</xdr:rowOff>
@@ -2872,13 +2889,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>13021</xdr:colOff>
       <xdr:row>73</xdr:row>
       <xdr:rowOff>24849</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>256760</xdr:colOff>
       <xdr:row>73</xdr:row>
       <xdr:rowOff>245144</xdr:rowOff>
@@ -2934,13 +2951,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>4739</xdr:colOff>
       <xdr:row>74</xdr:row>
       <xdr:rowOff>31196</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>248186</xdr:colOff>
       <xdr:row>74</xdr:row>
       <xdr:rowOff>220296</xdr:rowOff>
@@ -2996,13 +3013,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>16334</xdr:colOff>
       <xdr:row>76</xdr:row>
       <xdr:rowOff>42790</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>259781</xdr:colOff>
       <xdr:row>76</xdr:row>
       <xdr:rowOff>231890</xdr:rowOff>
@@ -3058,13 +3075,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>24665</xdr:colOff>
       <xdr:row>64</xdr:row>
       <xdr:rowOff>43326</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>3068</xdr:colOff>
       <xdr:row>64</xdr:row>
       <xdr:rowOff>232426</xdr:rowOff>
@@ -3120,13 +3137,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>16383</xdr:colOff>
       <xdr:row>56</xdr:row>
       <xdr:rowOff>16566</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>248478</xdr:colOff>
       <xdr:row>56</xdr:row>
       <xdr:rowOff>224144</xdr:rowOff>
@@ -3182,13 +3199,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>1157</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>16566</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>248478</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>7919</xdr:rowOff>
@@ -3244,13 +3261,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>12753</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>11596</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>260073</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>2950</xdr:rowOff>
@@ -3306,13 +3323,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>4470</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>19879</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>251790</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>11232</xdr:rowOff>
@@ -3368,13 +3385,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>15982</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>37114</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>10074</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>226214</xdr:rowOff>
@@ -3430,13 +3447,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>11013</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>32144</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>5105</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>221244</xdr:rowOff>
@@ -3492,13 +3509,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>6418</xdr:colOff>
       <xdr:row>70</xdr:row>
       <xdr:rowOff>16565</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>240196</xdr:colOff>
       <xdr:row>71</xdr:row>
       <xdr:rowOff>1695</xdr:rowOff>
@@ -3554,13 +3571,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>16383</xdr:colOff>
       <xdr:row>57</xdr:row>
       <xdr:rowOff>8283</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>248478</xdr:colOff>
       <xdr:row>57</xdr:row>
       <xdr:rowOff>215861</xdr:rowOff>
@@ -3616,13 +3633,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>19696</xdr:colOff>
       <xdr:row>58</xdr:row>
       <xdr:rowOff>44726</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>251791</xdr:colOff>
       <xdr:row>59</xdr:row>
       <xdr:rowOff>12108</xdr:rowOff>
@@ -3678,13 +3695,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>6443</xdr:colOff>
       <xdr:row>59</xdr:row>
       <xdr:rowOff>14908</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>238538</xdr:colOff>
       <xdr:row>59</xdr:row>
       <xdr:rowOff>222486</xdr:rowOff>
@@ -3740,13 +3757,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>18038</xdr:colOff>
       <xdr:row>60</xdr:row>
       <xdr:rowOff>26504</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>250133</xdr:colOff>
       <xdr:row>60</xdr:row>
       <xdr:rowOff>234082</xdr:rowOff>
@@ -3802,13 +3819,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>13069</xdr:colOff>
       <xdr:row>61</xdr:row>
       <xdr:rowOff>29816</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>245164</xdr:colOff>
       <xdr:row>61</xdr:row>
       <xdr:rowOff>237394</xdr:rowOff>
@@ -3864,13 +3881,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>8284</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>16565</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>2376</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>205665</xdr:rowOff>
@@ -5886,13 +5903,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AS81"/>
+  <dimension ref="A1:AT81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="10" ySplit="4" topLeftCell="K50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="4" topLeftCell="L5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J22" sqref="J22"/>
+      <selection pane="bottomRight" activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5905,132 +5922,132 @@
     <col min="6" max="6" width="7.125" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="7"/>
     <col min="8" max="9" width="7.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5" style="3" customWidth="1"/>
-    <col min="12" max="15" width="3.5" customWidth="1"/>
-    <col min="16" max="16" width="4.375" customWidth="1"/>
-    <col min="17" max="17" width="3.5" customWidth="1"/>
-    <col min="18" max="18" width="3.875" customWidth="1"/>
-    <col min="19" max="35" width="3.5" customWidth="1"/>
-    <col min="36" max="36" width="6.75" customWidth="1"/>
-    <col min="37" max="45" width="3.5" customWidth="1"/>
+    <col min="10" max="10" width="7.125" style="80" customWidth="1"/>
+    <col min="11" max="11" width="10.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5" style="3" customWidth="1"/>
+    <col min="13" max="16" width="3.5" customWidth="1"/>
+    <col min="17" max="17" width="4.375" customWidth="1"/>
+    <col min="18" max="18" width="3.5" customWidth="1"/>
+    <col min="19" max="19" width="3.875" customWidth="1"/>
+    <col min="20" max="36" width="3.5" customWidth="1"/>
+    <col min="37" max="37" width="6.75" customWidth="1"/>
+    <col min="38" max="46" width="3.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="25.5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:46" ht="25.5" x14ac:dyDescent="0.4">
       <c r="B1" s="16" t="s">
         <v>86</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="K1" s="3">
+      <c r="L1" s="3">
         <v>2020</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>14</v>
       </c>
-      <c r="M1">
+      <c r="N1">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="26" t="s">
+      <c r="Q1" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="27" t="s">
+      <c r="R1" s="23"/>
+      <c r="S1" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="S1" s="24"/>
-      <c r="T1" s="28" t="s">
+      <c r="T1" s="24"/>
+      <c r="U1" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="U1" s="25"/>
-    </row>
-    <row r="3" spans="1:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="K3" s="17">
+      <c r="V1" s="25"/>
+    </row>
+    <row r="3" spans="1:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L3" s="17">
         <v>44116</v>
       </c>
-      <c r="L3" s="17">
+      <c r="M3" s="17">
         <v>44117</v>
       </c>
-      <c r="M3" s="17">
+      <c r="N3" s="17">
         <v>44118</v>
       </c>
-      <c r="N3" s="17">
+      <c r="O3" s="17">
         <v>44119</v>
       </c>
-      <c r="O3" s="17">
+      <c r="P3" s="17">
         <v>44120</v>
       </c>
-      <c r="P3" s="17">
+      <c r="Q3" s="17">
         <v>44121</v>
       </c>
-      <c r="Q3" s="17">
+      <c r="R3" s="17">
         <v>44122</v>
       </c>
-      <c r="R3" s="17">
+      <c r="S3" s="17">
         <v>44123</v>
       </c>
-      <c r="S3" s="17">
+      <c r="T3" s="17">
         <v>44124</v>
       </c>
-      <c r="T3" s="17">
+      <c r="U3" s="17">
         <v>44125</v>
       </c>
-      <c r="U3" s="17">
+      <c r="V3" s="17">
         <v>44126</v>
       </c>
-      <c r="V3" s="17">
+      <c r="W3" s="17">
         <v>44127</v>
       </c>
-      <c r="W3" s="17">
+      <c r="X3" s="17">
         <v>44128</v>
       </c>
-      <c r="X3" s="17">
+      <c r="Y3" s="17">
         <v>44129</v>
       </c>
-      <c r="Y3" s="17">
+      <c r="Z3" s="17">
         <v>44130</v>
       </c>
-      <c r="Z3" s="17">
+      <c r="AA3" s="17">
         <v>44131</v>
       </c>
-      <c r="AA3" s="17">
+      <c r="AB3" s="17">
         <v>44132</v>
       </c>
-      <c r="AB3" s="17">
+      <c r="AC3" s="17">
         <v>44133</v>
       </c>
-      <c r="AC3" s="17">
+      <c r="AD3" s="17">
         <v>44134</v>
       </c>
-      <c r="AD3" s="17">
+      <c r="AE3" s="17">
         <v>44135</v>
       </c>
-      <c r="AE3" s="17">
+      <c r="AF3" s="17">
         <v>44136</v>
       </c>
-      <c r="AF3" s="17">
+      <c r="AG3" s="17">
         <v>44137</v>
       </c>
-      <c r="AG3" s="17">
+      <c r="AH3" s="17">
         <v>44138</v>
       </c>
-      <c r="AH3" s="17">
+      <c r="AI3" s="17">
         <v>44139</v>
       </c>
-      <c r="AI3" s="17">
+      <c r="AJ3" s="17">
         <v>44140</v>
       </c>
-      <c r="AJ3" s="17">
+      <c r="AK3" s="17">
         <v>44141</v>
       </c>
-      <c r="AK3" s="17">
+      <c r="AL3" s="17">
         <v>44142</v>
       </c>
-      <c r="AL3" s="1"/>
       <c r="AM3" s="1"/>
       <c r="AN3" s="1"/>
       <c r="AO3" s="1"/>
@@ -6038,8 +6055,9 @@
       <c r="AQ3" s="1"/>
       <c r="AR3" s="1"/>
       <c r="AS3" s="1"/>
-    </row>
-    <row r="4" spans="1:45" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="AT3" s="1"/>
+    </row>
+    <row r="4" spans="1:46" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B4" s="32" t="s">
         <v>6</v>
       </c>
@@ -6064,123 +6082,126 @@
       <c r="I4" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="34" t="s">
+      <c r="J4" s="33" t="s">
+        <v>201</v>
+      </c>
+      <c r="K4" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="18">
-        <f>K3</f>
+      <c r="L4" s="18">
+        <f>L3</f>
         <v>44116</v>
       </c>
-      <c r="L4" s="18">
-        <f t="shared" ref="L4:AK4" si="0">L3</f>
+      <c r="M4" s="18">
+        <f t="shared" ref="M4:AL4" si="0">M3</f>
         <v>44117</v>
       </c>
-      <c r="M4" s="18">
+      <c r="N4" s="18">
         <f t="shared" si="0"/>
         <v>44118</v>
       </c>
-      <c r="N4" s="18">
+      <c r="O4" s="18">
         <f t="shared" si="0"/>
         <v>44119</v>
       </c>
-      <c r="O4" s="18">
+      <c r="P4" s="18">
         <f t="shared" si="0"/>
         <v>44120</v>
       </c>
-      <c r="P4" s="18">
+      <c r="Q4" s="18">
         <f t="shared" si="0"/>
         <v>44121</v>
       </c>
-      <c r="Q4" s="18">
+      <c r="R4" s="18">
         <f t="shared" si="0"/>
         <v>44122</v>
       </c>
-      <c r="R4" s="18">
+      <c r="S4" s="18">
         <f t="shared" si="0"/>
         <v>44123</v>
       </c>
-      <c r="S4" s="18">
+      <c r="T4" s="18">
         <f t="shared" si="0"/>
         <v>44124</v>
       </c>
-      <c r="T4" s="18">
+      <c r="U4" s="18">
         <f t="shared" si="0"/>
         <v>44125</v>
       </c>
-      <c r="U4" s="18">
+      <c r="V4" s="18">
         <f t="shared" si="0"/>
         <v>44126</v>
       </c>
-      <c r="V4" s="18">
+      <c r="W4" s="18">
         <f t="shared" si="0"/>
         <v>44127</v>
       </c>
-      <c r="W4" s="18">
+      <c r="X4" s="18">
         <f t="shared" si="0"/>
         <v>44128</v>
       </c>
-      <c r="X4" s="18">
+      <c r="Y4" s="18">
         <f t="shared" si="0"/>
         <v>44129</v>
       </c>
-      <c r="Y4" s="18">
+      <c r="Z4" s="18">
         <f t="shared" si="0"/>
         <v>44130</v>
       </c>
-      <c r="Z4" s="18">
+      <c r="AA4" s="18">
         <f t="shared" si="0"/>
         <v>44131</v>
       </c>
-      <c r="AA4" s="18">
+      <c r="AB4" s="18">
         <f t="shared" si="0"/>
         <v>44132</v>
       </c>
-      <c r="AB4" s="18">
+      <c r="AC4" s="18">
         <f t="shared" si="0"/>
         <v>44133</v>
       </c>
-      <c r="AC4" s="18">
+      <c r="AD4" s="18">
         <f t="shared" si="0"/>
         <v>44134</v>
       </c>
-      <c r="AD4" s="18">
+      <c r="AE4" s="18">
         <f t="shared" si="0"/>
         <v>44135</v>
       </c>
-      <c r="AE4" s="18">
+      <c r="AF4" s="18">
         <f t="shared" si="0"/>
         <v>44136</v>
       </c>
-      <c r="AF4" s="18">
+      <c r="AG4" s="18">
         <f t="shared" si="0"/>
         <v>44137</v>
       </c>
-      <c r="AG4" s="18">
+      <c r="AH4" s="18">
         <f t="shared" si="0"/>
         <v>44138</v>
       </c>
-      <c r="AH4" s="18">
+      <c r="AI4" s="18">
         <f t="shared" si="0"/>
         <v>44139</v>
       </c>
-      <c r="AI4" s="18">
+      <c r="AJ4" s="18">
         <f t="shared" si="0"/>
         <v>44140</v>
       </c>
-      <c r="AJ4" s="18">
+      <c r="AK4" s="18">
         <f t="shared" si="0"/>
         <v>44141</v>
       </c>
-      <c r="AK4" s="18">
+      <c r="AL4" s="18">
         <f t="shared" si="0"/>
         <v>44142</v>
       </c>
     </row>
-    <row r="5" spans="1:45" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="72" t="s">
+    <row r="5" spans="1:46" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="61" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="20" t="s">
@@ -6202,11 +6223,13 @@
       <c r="I5" s="35">
         <v>44125</v>
       </c>
-      <c r="J5" s="36">
+      <c r="J5" s="81" t="s">
+        <v>202</v>
+      </c>
+      <c r="K5" s="36">
         <v>1</v>
       </c>
-      <c r="K5" s="29"/>
-      <c r="L5" s="19"/>
+      <c r="L5" s="29"/>
       <c r="M5" s="19"/>
       <c r="N5" s="19"/>
       <c r="O5" s="19"/>
@@ -6216,32 +6239,33 @@
       <c r="S5" s="19"/>
       <c r="T5" s="19"/>
       <c r="U5" s="19"/>
-      <c r="V5" s="66" t="s">
+      <c r="V5" s="19"/>
+      <c r="W5" s="70" t="s">
         <v>110</v>
       </c>
-      <c r="W5" s="19"/>
       <c r="X5" s="19"/>
       <c r="Y5" s="19"/>
       <c r="Z5" s="19"/>
       <c r="AA5" s="19"/>
       <c r="AB5" s="19"/>
-      <c r="AC5" s="69" t="s">
+      <c r="AC5" s="19"/>
+      <c r="AD5" s="73" t="s">
         <v>111</v>
       </c>
-      <c r="AD5" s="19"/>
       <c r="AE5" s="19"/>
       <c r="AF5" s="19"/>
       <c r="AG5" s="19"/>
       <c r="AH5" s="19"/>
       <c r="AI5" s="19"/>
-      <c r="AJ5" s="61" t="s">
+      <c r="AJ5" s="19"/>
+      <c r="AK5" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="AK5" s="19"/>
-    </row>
-    <row r="6" spans="1:45" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="72"/>
-      <c r="B6" s="73"/>
+      <c r="AL5" s="19"/>
+    </row>
+    <row r="6" spans="1:46" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="60"/>
+      <c r="B6" s="61"/>
       <c r="C6" s="20" t="s">
         <v>9</v>
       </c>
@@ -6259,11 +6283,13 @@
       <c r="I6" s="35">
         <v>44131</v>
       </c>
-      <c r="J6" s="36">
+      <c r="J6" s="81" t="s">
+        <v>202</v>
+      </c>
+      <c r="K6" s="36">
         <v>0.9</v>
       </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="20"/>
+      <c r="L6" s="30"/>
       <c r="M6" s="20"/>
       <c r="N6" s="20"/>
       <c r="O6" s="20"/>
@@ -6273,26 +6299,27 @@
       <c r="S6" s="20"/>
       <c r="T6" s="20"/>
       <c r="U6" s="20"/>
-      <c r="V6" s="67"/>
-      <c r="W6" s="20"/>
+      <c r="V6" s="20"/>
+      <c r="W6" s="71"/>
       <c r="X6" s="20"/>
       <c r="Y6" s="20"/>
       <c r="Z6" s="20"/>
       <c r="AA6" s="20"/>
       <c r="AB6" s="20"/>
-      <c r="AC6" s="70"/>
-      <c r="AD6" s="19"/>
+      <c r="AC6" s="20"/>
+      <c r="AD6" s="74"/>
       <c r="AE6" s="19"/>
       <c r="AF6" s="19"/>
       <c r="AG6" s="19"/>
       <c r="AH6" s="19"/>
       <c r="AI6" s="19"/>
-      <c r="AJ6" s="62"/>
-      <c r="AK6" s="19"/>
-    </row>
-    <row r="7" spans="1:45" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="72"/>
-      <c r="B7" s="73"/>
+      <c r="AJ6" s="19"/>
+      <c r="AK6" s="67"/>
+      <c r="AL6" s="19"/>
+    </row>
+    <row r="7" spans="1:46" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="60"/>
+      <c r="B7" s="61"/>
       <c r="C7" s="20" t="s">
         <v>10</v>
       </c>
@@ -6308,11 +6335,13 @@
         <v>44125</v>
       </c>
       <c r="I7" s="35"/>
-      <c r="J7" s="36">
+      <c r="J7" s="81" t="s">
+        <v>202</v>
+      </c>
+      <c r="K7" s="36">
         <v>0.6</v>
       </c>
-      <c r="K7" s="30"/>
-      <c r="L7" s="20"/>
+      <c r="L7" s="30"/>
       <c r="M7" s="20"/>
       <c r="N7" s="20"/>
       <c r="O7" s="20"/>
@@ -6322,26 +6351,27 @@
       <c r="S7" s="20"/>
       <c r="T7" s="20"/>
       <c r="U7" s="20"/>
-      <c r="V7" s="67"/>
-      <c r="W7" s="20"/>
+      <c r="V7" s="20"/>
+      <c r="W7" s="71"/>
       <c r="X7" s="20"/>
       <c r="Y7" s="20"/>
       <c r="Z7" s="20"/>
       <c r="AA7" s="20"/>
       <c r="AB7" s="20"/>
-      <c r="AC7" s="70"/>
-      <c r="AD7" s="19"/>
+      <c r="AC7" s="20"/>
+      <c r="AD7" s="74"/>
       <c r="AE7" s="19"/>
       <c r="AF7" s="19"/>
       <c r="AG7" s="19"/>
       <c r="AH7" s="19"/>
       <c r="AI7" s="19"/>
-      <c r="AJ7" s="62"/>
-      <c r="AK7" s="19"/>
-    </row>
-    <row r="8" spans="1:45" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="72"/>
-      <c r="B8" s="73"/>
+      <c r="AJ7" s="19"/>
+      <c r="AK7" s="67"/>
+      <c r="AL7" s="19"/>
+    </row>
+    <row r="8" spans="1:46" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="60"/>
+      <c r="B8" s="61"/>
       <c r="C8" s="20" t="s">
         <v>11</v>
       </c>
@@ -6357,11 +6387,13 @@
         <v>44119</v>
       </c>
       <c r="I8" s="35"/>
-      <c r="J8" s="36">
+      <c r="J8" s="81" t="s">
+        <v>202</v>
+      </c>
+      <c r="K8" s="36">
         <v>0.1</v>
       </c>
-      <c r="K8" s="30"/>
-      <c r="L8" s="20"/>
+      <c r="L8" s="30"/>
       <c r="M8" s="20"/>
       <c r="N8" s="20"/>
       <c r="O8" s="20"/>
@@ -6371,26 +6403,27 @@
       <c r="S8" s="20"/>
       <c r="T8" s="20"/>
       <c r="U8" s="20"/>
-      <c r="V8" s="67"/>
-      <c r="W8" s="20"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="71"/>
       <c r="X8" s="20"/>
       <c r="Y8" s="20"/>
       <c r="Z8" s="20"/>
       <c r="AA8" s="20"/>
       <c r="AB8" s="20"/>
-      <c r="AC8" s="70"/>
-      <c r="AD8" s="19"/>
+      <c r="AC8" s="20"/>
+      <c r="AD8" s="74"/>
       <c r="AE8" s="19"/>
       <c r="AF8" s="19"/>
       <c r="AG8" s="19"/>
       <c r="AH8" s="19"/>
       <c r="AI8" s="19"/>
-      <c r="AJ8" s="62"/>
-      <c r="AK8" s="19"/>
-    </row>
-    <row r="9" spans="1:45" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="72"/>
-      <c r="B9" s="73"/>
+      <c r="AJ8" s="19"/>
+      <c r="AK8" s="67"/>
+      <c r="AL8" s="19"/>
+    </row>
+    <row r="9" spans="1:46" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="60"/>
+      <c r="B9" s="61"/>
       <c r="C9" s="20" t="s">
         <v>34</v>
       </c>
@@ -6404,11 +6437,13 @@
       <c r="G9" s="20"/>
       <c r="H9" s="35"/>
       <c r="I9" s="35"/>
-      <c r="J9" s="36">
+      <c r="J9" s="81" t="s">
+        <v>202</v>
+      </c>
+      <c r="K9" s="36">
         <v>0</v>
       </c>
-      <c r="K9" s="30"/>
-      <c r="L9" s="20"/>
+      <c r="L9" s="30"/>
       <c r="M9" s="20"/>
       <c r="N9" s="20"/>
       <c r="O9" s="20"/>
@@ -6418,26 +6453,27 @@
       <c r="S9" s="20"/>
       <c r="T9" s="20"/>
       <c r="U9" s="20"/>
-      <c r="V9" s="67"/>
-      <c r="W9" s="20"/>
+      <c r="V9" s="20"/>
+      <c r="W9" s="71"/>
       <c r="X9" s="20"/>
       <c r="Y9" s="20"/>
       <c r="Z9" s="20"/>
       <c r="AA9" s="20"/>
       <c r="AB9" s="20"/>
-      <c r="AC9" s="70"/>
-      <c r="AD9" s="19"/>
+      <c r="AC9" s="20"/>
+      <c r="AD9" s="74"/>
       <c r="AE9" s="19"/>
       <c r="AF9" s="19"/>
       <c r="AG9" s="19"/>
       <c r="AH9" s="19"/>
       <c r="AI9" s="19"/>
-      <c r="AJ9" s="62"/>
-      <c r="AK9" s="19"/>
-    </row>
-    <row r="10" spans="1:45" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="72"/>
-      <c r="B10" s="73"/>
+      <c r="AJ9" s="19"/>
+      <c r="AK9" s="67"/>
+      <c r="AL9" s="19"/>
+    </row>
+    <row r="10" spans="1:46" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="60"/>
+      <c r="B10" s="61"/>
       <c r="C10" s="20" t="s">
         <v>35</v>
       </c>
@@ -6451,11 +6487,13 @@
       <c r="G10" s="20"/>
       <c r="H10" s="35"/>
       <c r="I10" s="35"/>
-      <c r="J10" s="36">
+      <c r="J10" s="81" t="s">
+        <v>202</v>
+      </c>
+      <c r="K10" s="36">
         <v>0</v>
       </c>
-      <c r="K10" s="30"/>
-      <c r="L10" s="20"/>
+      <c r="L10" s="30"/>
       <c r="M10" s="20"/>
       <c r="N10" s="20"/>
       <c r="O10" s="20"/>
@@ -6465,29 +6503,30 @@
       <c r="S10" s="20"/>
       <c r="T10" s="20"/>
       <c r="U10" s="20"/>
-      <c r="V10" s="67"/>
-      <c r="W10" s="20"/>
+      <c r="V10" s="20"/>
+      <c r="W10" s="71"/>
       <c r="X10" s="20"/>
       <c r="Y10" s="20"/>
       <c r="Z10" s="20"/>
       <c r="AA10" s="20"/>
       <c r="AB10" s="20"/>
-      <c r="AC10" s="70"/>
-      <c r="AD10" s="19"/>
+      <c r="AC10" s="20"/>
+      <c r="AD10" s="74"/>
       <c r="AE10" s="19"/>
       <c r="AF10" s="19"/>
       <c r="AG10" s="19"/>
       <c r="AH10" s="19"/>
       <c r="AI10" s="19"/>
-      <c r="AJ10" s="62"/>
-      <c r="AK10" s="19"/>
-    </row>
-    <row r="11" spans="1:45" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="72"/>
-      <c r="B11" s="65" t="s">
+      <c r="AJ10" s="19"/>
+      <c r="AK10" s="67"/>
+      <c r="AL10" s="19"/>
+    </row>
+    <row r="11" spans="1:46" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="60"/>
+      <c r="B11" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="64" t="s">
+      <c r="C11" s="59" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="46" t="s">
@@ -6498,11 +6537,13 @@
       <c r="G11" s="20"/>
       <c r="H11" s="35"/>
       <c r="I11" s="35"/>
-      <c r="J11" s="36">
+      <c r="J11" s="81" t="s">
+        <v>202</v>
+      </c>
+      <c r="K11" s="36">
         <v>0</v>
       </c>
-      <c r="K11" s="30"/>
-      <c r="L11" s="20"/>
+      <c r="L11" s="30"/>
       <c r="M11" s="20"/>
       <c r="N11" s="20"/>
       <c r="O11" s="20"/>
@@ -6512,27 +6553,28 @@
       <c r="S11" s="20"/>
       <c r="T11" s="20"/>
       <c r="U11" s="20"/>
-      <c r="V11" s="67"/>
-      <c r="W11" s="20"/>
+      <c r="V11" s="20"/>
+      <c r="W11" s="71"/>
       <c r="X11" s="20"/>
       <c r="Y11" s="20"/>
       <c r="Z11" s="20"/>
       <c r="AA11" s="20"/>
       <c r="AB11" s="20"/>
-      <c r="AC11" s="70"/>
-      <c r="AD11" s="19"/>
+      <c r="AC11" s="20"/>
+      <c r="AD11" s="74"/>
       <c r="AE11" s="19"/>
       <c r="AF11" s="19"/>
       <c r="AG11" s="19"/>
       <c r="AH11" s="19"/>
       <c r="AI11" s="19"/>
-      <c r="AJ11" s="62"/>
-      <c r="AK11" s="19"/>
-    </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A12" s="72"/>
-      <c r="B12" s="65"/>
-      <c r="C12" s="64"/>
+      <c r="AJ11" s="19"/>
+      <c r="AK11" s="67"/>
+      <c r="AL11" s="19"/>
+    </row>
+    <row r="12" spans="1:46" x14ac:dyDescent="0.4">
+      <c r="A12" s="60"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="59"/>
       <c r="D12" s="2" t="s">
         <v>23</v>
       </c>
@@ -6541,11 +6583,13 @@
       <c r="G12" s="20"/>
       <c r="H12" s="35"/>
       <c r="I12" s="35"/>
-      <c r="J12" s="36">
+      <c r="J12" s="81" t="s">
+        <v>202</v>
+      </c>
+      <c r="K12" s="36">
         <v>0</v>
       </c>
-      <c r="K12" s="30"/>
-      <c r="L12" s="20"/>
+      <c r="L12" s="30"/>
       <c r="M12" s="20"/>
       <c r="N12" s="20"/>
       <c r="O12" s="20"/>
@@ -6555,27 +6599,28 @@
       <c r="S12" s="20"/>
       <c r="T12" s="20"/>
       <c r="U12" s="20"/>
-      <c r="V12" s="67"/>
-      <c r="W12" s="20"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="71"/>
       <c r="X12" s="20"/>
       <c r="Y12" s="20"/>
       <c r="Z12" s="20"/>
       <c r="AA12" s="20"/>
       <c r="AB12" s="20"/>
-      <c r="AC12" s="70"/>
-      <c r="AD12" s="19"/>
+      <c r="AC12" s="20"/>
+      <c r="AD12" s="74"/>
       <c r="AE12" s="19"/>
       <c r="AF12" s="19"/>
       <c r="AG12" s="19"/>
       <c r="AH12" s="19"/>
       <c r="AI12" s="19"/>
-      <c r="AJ12" s="62"/>
-      <c r="AK12" s="19"/>
-    </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A13" s="72"/>
-      <c r="B13" s="65"/>
-      <c r="C13" s="64"/>
+      <c r="AJ12" s="19"/>
+      <c r="AK12" s="67"/>
+      <c r="AL12" s="19"/>
+    </row>
+    <row r="13" spans="1:46" x14ac:dyDescent="0.4">
+      <c r="A13" s="60"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="59"/>
       <c r="D13" s="38" t="s">
         <v>45</v>
       </c>
@@ -6584,11 +6629,13 @@
       <c r="G13" s="20"/>
       <c r="H13" s="35"/>
       <c r="I13" s="35"/>
-      <c r="J13" s="36">
+      <c r="J13" s="81" t="s">
+        <v>202</v>
+      </c>
+      <c r="K13" s="36">
         <v>0</v>
       </c>
-      <c r="K13" s="30"/>
-      <c r="L13" s="20"/>
+      <c r="L13" s="30"/>
       <c r="M13" s="20"/>
       <c r="N13" s="20"/>
       <c r="O13" s="20"/>
@@ -6598,27 +6645,28 @@
       <c r="S13" s="20"/>
       <c r="T13" s="20"/>
       <c r="U13" s="20"/>
-      <c r="V13" s="67"/>
-      <c r="W13" s="20"/>
+      <c r="V13" s="20"/>
+      <c r="W13" s="71"/>
       <c r="X13" s="20"/>
       <c r="Y13" s="20"/>
       <c r="Z13" s="20"/>
       <c r="AA13" s="20"/>
       <c r="AB13" s="20"/>
-      <c r="AC13" s="70"/>
-      <c r="AD13" s="19"/>
+      <c r="AC13" s="20"/>
+      <c r="AD13" s="74"/>
       <c r="AE13" s="19"/>
       <c r="AF13" s="19"/>
       <c r="AG13" s="19"/>
       <c r="AH13" s="19"/>
       <c r="AI13" s="19"/>
-      <c r="AJ13" s="62"/>
-      <c r="AK13" s="19"/>
-    </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A14" s="72"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="64"/>
+      <c r="AJ13" s="19"/>
+      <c r="AK13" s="67"/>
+      <c r="AL13" s="19"/>
+    </row>
+    <row r="14" spans="1:46" x14ac:dyDescent="0.4">
+      <c r="A14" s="60"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="59"/>
       <c r="D14" s="39" t="s">
         <v>27</v>
       </c>
@@ -6627,11 +6675,13 @@
       <c r="G14" s="20"/>
       <c r="H14" s="35"/>
       <c r="I14" s="35"/>
-      <c r="J14" s="36">
+      <c r="J14" s="81" t="s">
+        <v>202</v>
+      </c>
+      <c r="K14" s="36">
         <v>0</v>
       </c>
-      <c r="K14" s="30"/>
-      <c r="L14" s="20"/>
+      <c r="L14" s="30"/>
       <c r="M14" s="20"/>
       <c r="N14" s="20"/>
       <c r="O14" s="20"/>
@@ -6641,27 +6691,28 @@
       <c r="S14" s="20"/>
       <c r="T14" s="20"/>
       <c r="U14" s="20"/>
-      <c r="V14" s="67"/>
-      <c r="W14" s="20"/>
+      <c r="V14" s="20"/>
+      <c r="W14" s="71"/>
       <c r="X14" s="20"/>
       <c r="Y14" s="20"/>
       <c r="Z14" s="20"/>
       <c r="AA14" s="20"/>
       <c r="AB14" s="20"/>
-      <c r="AC14" s="70"/>
-      <c r="AD14" s="19"/>
+      <c r="AC14" s="20"/>
+      <c r="AD14" s="74"/>
       <c r="AE14" s="19"/>
       <c r="AF14" s="19"/>
       <c r="AG14" s="19"/>
       <c r="AH14" s="19"/>
       <c r="AI14" s="19"/>
-      <c r="AJ14" s="62"/>
-      <c r="AK14" s="19"/>
-    </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A15" s="72"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="64" t="s">
+      <c r="AJ14" s="19"/>
+      <c r="AK14" s="67"/>
+      <c r="AL14" s="19"/>
+    </row>
+    <row r="15" spans="1:46" x14ac:dyDescent="0.4">
+      <c r="A15" s="60"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="59" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -6674,11 +6725,13 @@
       <c r="G15" s="20"/>
       <c r="H15" s="35"/>
       <c r="I15" s="35"/>
-      <c r="J15" s="36">
+      <c r="J15" s="81" t="s">
+        <v>202</v>
+      </c>
+      <c r="K15" s="36">
         <v>0</v>
       </c>
-      <c r="K15" s="30"/>
-      <c r="L15" s="20"/>
+      <c r="L15" s="30"/>
       <c r="M15" s="20"/>
       <c r="N15" s="20"/>
       <c r="O15" s="20"/>
@@ -6688,27 +6741,28 @@
       <c r="S15" s="20"/>
       <c r="T15" s="20"/>
       <c r="U15" s="20"/>
-      <c r="V15" s="67"/>
-      <c r="W15" s="20"/>
+      <c r="V15" s="20"/>
+      <c r="W15" s="71"/>
       <c r="X15" s="20"/>
       <c r="Y15" s="20"/>
       <c r="Z15" s="20"/>
       <c r="AA15" s="20"/>
       <c r="AB15" s="20"/>
-      <c r="AC15" s="70"/>
-      <c r="AD15" s="19"/>
+      <c r="AC15" s="20"/>
+      <c r="AD15" s="74"/>
       <c r="AE15" s="19"/>
       <c r="AF15" s="19"/>
       <c r="AG15" s="19"/>
       <c r="AH15" s="19"/>
       <c r="AI15" s="19"/>
-      <c r="AJ15" s="62"/>
-      <c r="AK15" s="19"/>
-    </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A16" s="72"/>
-      <c r="B16" s="65"/>
-      <c r="C16" s="64"/>
+      <c r="AJ15" s="19"/>
+      <c r="AK15" s="67"/>
+      <c r="AL15" s="19"/>
+    </row>
+    <row r="16" spans="1:46" x14ac:dyDescent="0.4">
+      <c r="A16" s="60"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="59"/>
       <c r="D16" s="40" t="s">
         <v>45</v>
       </c>
@@ -6717,11 +6771,13 @@
       <c r="G16" s="20"/>
       <c r="H16" s="35"/>
       <c r="I16" s="35"/>
-      <c r="J16" s="36">
+      <c r="J16" s="81" t="s">
+        <v>202</v>
+      </c>
+      <c r="K16" s="36">
         <v>0</v>
       </c>
-      <c r="K16" s="30"/>
-      <c r="L16" s="20"/>
+      <c r="L16" s="30"/>
       <c r="M16" s="20"/>
       <c r="N16" s="20"/>
       <c r="O16" s="20"/>
@@ -6731,27 +6787,28 @@
       <c r="S16" s="20"/>
       <c r="T16" s="20"/>
       <c r="U16" s="20"/>
-      <c r="V16" s="67"/>
-      <c r="W16" s="20"/>
+      <c r="V16" s="20"/>
+      <c r="W16" s="71"/>
       <c r="X16" s="20"/>
       <c r="Y16" s="20"/>
       <c r="Z16" s="20"/>
       <c r="AA16" s="20"/>
       <c r="AB16" s="20"/>
-      <c r="AC16" s="70"/>
-      <c r="AD16" s="19"/>
+      <c r="AC16" s="20"/>
+      <c r="AD16" s="74"/>
       <c r="AE16" s="19"/>
       <c r="AF16" s="19"/>
       <c r="AG16" s="19"/>
       <c r="AH16" s="19"/>
       <c r="AI16" s="19"/>
-      <c r="AJ16" s="62"/>
-      <c r="AK16" s="19"/>
-    </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A17" s="72"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="64"/>
+      <c r="AJ16" s="19"/>
+      <c r="AK16" s="67"/>
+      <c r="AL16" s="19"/>
+    </row>
+    <row r="17" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A17" s="60"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="59"/>
       <c r="D17" s="2" t="s">
         <v>23</v>
       </c>
@@ -6760,11 +6817,13 @@
       <c r="G17" s="20"/>
       <c r="H17" s="35"/>
       <c r="I17" s="35"/>
-      <c r="J17" s="36">
+      <c r="J17" s="81" t="s">
+        <v>202</v>
+      </c>
+      <c r="K17" s="36">
         <v>0</v>
       </c>
-      <c r="K17" s="30"/>
-      <c r="L17" s="20"/>
+      <c r="L17" s="30"/>
       <c r="M17" s="20"/>
       <c r="N17" s="20"/>
       <c r="O17" s="20"/>
@@ -6774,30 +6833,31 @@
       <c r="S17" s="20"/>
       <c r="T17" s="20"/>
       <c r="U17" s="20"/>
-      <c r="V17" s="67"/>
-      <c r="W17" s="20"/>
+      <c r="V17" s="20"/>
+      <c r="W17" s="71"/>
       <c r="X17" s="20"/>
       <c r="Y17" s="20"/>
       <c r="Z17" s="20"/>
       <c r="AA17" s="20"/>
       <c r="AB17" s="20"/>
-      <c r="AC17" s="70"/>
-      <c r="AD17" s="19"/>
+      <c r="AC17" s="20"/>
+      <c r="AD17" s="74"/>
       <c r="AE17" s="19"/>
       <c r="AF17" s="19"/>
       <c r="AG17" s="19"/>
       <c r="AH17" s="19"/>
       <c r="AI17" s="19"/>
-      <c r="AJ17" s="62"/>
-      <c r="AK17" s="19"/>
-    </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A18" s="72"/>
-      <c r="B18" s="65"/>
-      <c r="C18" s="64" t="s">
+      <c r="AJ17" s="19"/>
+      <c r="AK17" s="67"/>
+      <c r="AL17" s="19"/>
+    </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A18" s="60"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="64" t="s">
+      <c r="D18" s="59" t="s">
         <v>95</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -6815,11 +6875,13 @@
       <c r="I18" s="35">
         <v>44127</v>
       </c>
-      <c r="J18" s="36">
+      <c r="J18" s="81" t="s">
+        <v>202</v>
+      </c>
+      <c r="K18" s="36">
         <v>1</v>
       </c>
-      <c r="K18" s="30"/>
-      <c r="L18" s="20"/>
+      <c r="L18" s="30"/>
       <c r="M18" s="20"/>
       <c r="N18" s="20"/>
       <c r="O18" s="20"/>
@@ -6829,28 +6891,29 @@
       <c r="S18" s="20"/>
       <c r="T18" s="20"/>
       <c r="U18" s="20"/>
-      <c r="V18" s="67"/>
-      <c r="W18" s="20"/>
+      <c r="V18" s="20"/>
+      <c r="W18" s="71"/>
       <c r="X18" s="20"/>
       <c r="Y18" s="20"/>
       <c r="Z18" s="20"/>
       <c r="AA18" s="20"/>
       <c r="AB18" s="20"/>
-      <c r="AC18" s="70"/>
-      <c r="AD18" s="19"/>
+      <c r="AC18" s="20"/>
+      <c r="AD18" s="74"/>
       <c r="AE18" s="19"/>
       <c r="AF18" s="19"/>
       <c r="AG18" s="19"/>
       <c r="AH18" s="19"/>
       <c r="AI18" s="19"/>
-      <c r="AJ18" s="62"/>
-      <c r="AK18" s="19"/>
-    </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A19" s="72"/>
-      <c r="B19" s="65"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
+      <c r="AJ18" s="19"/>
+      <c r="AK18" s="67"/>
+      <c r="AL18" s="19"/>
+    </row>
+    <row r="19" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A19" s="60"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
       <c r="E19" s="2" t="s">
         <v>138</v>
       </c>
@@ -6866,11 +6929,13 @@
       <c r="I19" s="35">
         <v>44126</v>
       </c>
-      <c r="J19" s="36">
+      <c r="J19" s="81" t="s">
+        <v>202</v>
+      </c>
+      <c r="K19" s="36">
         <v>1</v>
       </c>
-      <c r="K19" s="30"/>
-      <c r="L19" s="20"/>
+      <c r="L19" s="30"/>
       <c r="M19" s="20"/>
       <c r="N19" s="20"/>
       <c r="O19" s="20"/>
@@ -6880,28 +6945,29 @@
       <c r="S19" s="20"/>
       <c r="T19" s="20"/>
       <c r="U19" s="20"/>
-      <c r="V19" s="67"/>
-      <c r="W19" s="20"/>
+      <c r="V19" s="20"/>
+      <c r="W19" s="71"/>
       <c r="X19" s="20"/>
       <c r="Y19" s="20"/>
       <c r="Z19" s="20"/>
       <c r="AA19" s="20"/>
       <c r="AB19" s="20"/>
-      <c r="AC19" s="70"/>
-      <c r="AD19" s="19"/>
+      <c r="AC19" s="20"/>
+      <c r="AD19" s="74"/>
       <c r="AE19" s="19"/>
       <c r="AF19" s="19"/>
       <c r="AG19" s="19"/>
       <c r="AH19" s="19"/>
       <c r="AI19" s="19"/>
-      <c r="AJ19" s="62"/>
-      <c r="AK19" s="19"/>
-    </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A20" s="72"/>
-      <c r="B20" s="65"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
+      <c r="AJ19" s="19"/>
+      <c r="AK19" s="67"/>
+      <c r="AL19" s="19"/>
+    </row>
+    <row r="20" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A20" s="60"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
       <c r="E20" s="2" t="s">
         <v>112</v>
       </c>
@@ -6917,11 +6983,13 @@
       <c r="I20" s="35">
         <v>44124</v>
       </c>
-      <c r="J20" s="36">
+      <c r="J20" s="81" t="s">
+        <v>202</v>
+      </c>
+      <c r="K20" s="36">
         <v>1</v>
       </c>
-      <c r="K20" s="30"/>
-      <c r="L20" s="20"/>
+      <c r="L20" s="30"/>
       <c r="M20" s="20"/>
       <c r="N20" s="20"/>
       <c r="O20" s="20"/>
@@ -6931,28 +6999,29 @@
       <c r="S20" s="20"/>
       <c r="T20" s="20"/>
       <c r="U20" s="20"/>
-      <c r="V20" s="67"/>
-      <c r="W20" s="20"/>
+      <c r="V20" s="20"/>
+      <c r="W20" s="71"/>
       <c r="X20" s="20"/>
       <c r="Y20" s="20"/>
       <c r="Z20" s="20"/>
       <c r="AA20" s="20"/>
       <c r="AB20" s="20"/>
-      <c r="AC20" s="70"/>
-      <c r="AD20" s="19"/>
+      <c r="AC20" s="20"/>
+      <c r="AD20" s="74"/>
       <c r="AE20" s="19"/>
       <c r="AF20" s="19"/>
       <c r="AG20" s="19"/>
       <c r="AH20" s="19"/>
       <c r="AI20" s="19"/>
-      <c r="AJ20" s="62"/>
-      <c r="AK20" s="19"/>
-    </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A21" s="72"/>
-      <c r="B21" s="65"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
+      <c r="AJ20" s="19"/>
+      <c r="AK20" s="67"/>
+      <c r="AL20" s="19"/>
+    </row>
+    <row r="21" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A21" s="60"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
       <c r="E21" s="2" t="s">
         <v>108</v>
       </c>
@@ -6968,11 +7037,13 @@
       <c r="I21" s="35">
         <v>44132</v>
       </c>
-      <c r="J21" s="36">
+      <c r="J21" s="81" t="s">
+        <v>202</v>
+      </c>
+      <c r="K21" s="36">
         <v>1</v>
       </c>
-      <c r="K21" s="30"/>
-      <c r="L21" s="20"/>
+      <c r="L21" s="30"/>
       <c r="M21" s="20"/>
       <c r="N21" s="20"/>
       <c r="O21" s="20"/>
@@ -6982,28 +7053,29 @@
       <c r="S21" s="20"/>
       <c r="T21" s="20"/>
       <c r="U21" s="20"/>
-      <c r="V21" s="67"/>
-      <c r="W21" s="20"/>
+      <c r="V21" s="20"/>
+      <c r="W21" s="71"/>
       <c r="X21" s="20"/>
       <c r="Y21" s="20"/>
       <c r="Z21" s="20"/>
       <c r="AA21" s="20"/>
       <c r="AB21" s="20"/>
-      <c r="AC21" s="70"/>
-      <c r="AD21" s="19"/>
+      <c r="AC21" s="20"/>
+      <c r="AD21" s="74"/>
       <c r="AE21" s="19"/>
       <c r="AF21" s="19"/>
       <c r="AG21" s="19"/>
       <c r="AH21" s="19"/>
       <c r="AI21" s="19"/>
-      <c r="AJ21" s="62"/>
-      <c r="AK21" s="19"/>
-    </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A22" s="72"/>
-      <c r="B22" s="65"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="64"/>
+      <c r="AJ21" s="19"/>
+      <c r="AK21" s="67"/>
+      <c r="AL21" s="19"/>
+    </row>
+    <row r="22" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A22" s="60"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
       <c r="E22" s="2" t="s">
         <v>135</v>
       </c>
@@ -7019,11 +7091,13 @@
       <c r="I22" s="35">
         <v>44125</v>
       </c>
-      <c r="J22" s="36">
+      <c r="J22" s="81" t="s">
+        <v>202</v>
+      </c>
+      <c r="K22" s="36">
         <v>1</v>
       </c>
-      <c r="K22" s="30"/>
-      <c r="L22" s="20"/>
+      <c r="L22" s="30"/>
       <c r="M22" s="20"/>
       <c r="N22" s="20"/>
       <c r="O22" s="20"/>
@@ -7033,28 +7107,29 @@
       <c r="S22" s="20"/>
       <c r="T22" s="20"/>
       <c r="U22" s="20"/>
-      <c r="V22" s="67"/>
-      <c r="W22" s="20"/>
+      <c r="V22" s="20"/>
+      <c r="W22" s="71"/>
       <c r="X22" s="20"/>
       <c r="Y22" s="20"/>
       <c r="Z22" s="20"/>
       <c r="AA22" s="20"/>
       <c r="AB22" s="20"/>
-      <c r="AC22" s="70"/>
-      <c r="AD22" s="19"/>
+      <c r="AC22" s="20"/>
+      <c r="AD22" s="74"/>
       <c r="AE22" s="19"/>
       <c r="AF22" s="19"/>
       <c r="AG22" s="19"/>
       <c r="AH22" s="19"/>
       <c r="AI22" s="19"/>
-      <c r="AJ22" s="62"/>
-      <c r="AK22" s="19"/>
-    </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A23" s="72"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="64"/>
-      <c r="D23" s="64"/>
+      <c r="AJ22" s="19"/>
+      <c r="AK22" s="67"/>
+      <c r="AL22" s="19"/>
+    </row>
+    <row r="23" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A23" s="60"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
       <c r="E23" s="2" t="s">
         <v>118</v>
       </c>
@@ -7070,11 +7145,13 @@
       <c r="I23" s="35">
         <v>44124</v>
       </c>
-      <c r="J23" s="36">
+      <c r="J23" s="81" t="s">
+        <v>202</v>
+      </c>
+      <c r="K23" s="36">
         <v>1</v>
       </c>
-      <c r="K23" s="30"/>
-      <c r="L23" s="20"/>
+      <c r="L23" s="30"/>
       <c r="M23" s="20"/>
       <c r="N23" s="20"/>
       <c r="O23" s="20"/>
@@ -7084,28 +7161,29 @@
       <c r="S23" s="20"/>
       <c r="T23" s="20"/>
       <c r="U23" s="20"/>
-      <c r="V23" s="67"/>
-      <c r="W23" s="20"/>
+      <c r="V23" s="20"/>
+      <c r="W23" s="71"/>
       <c r="X23" s="20"/>
       <c r="Y23" s="20"/>
       <c r="Z23" s="20"/>
       <c r="AA23" s="20"/>
       <c r="AB23" s="20"/>
-      <c r="AC23" s="70"/>
-      <c r="AD23" s="19"/>
+      <c r="AC23" s="20"/>
+      <c r="AD23" s="74"/>
       <c r="AE23" s="19"/>
       <c r="AF23" s="19"/>
       <c r="AG23" s="19"/>
       <c r="AH23" s="19"/>
       <c r="AI23" s="19"/>
-      <c r="AJ23" s="62"/>
-      <c r="AK23" s="19"/>
-    </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A24" s="72"/>
-      <c r="B24" s="65"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="64"/>
+      <c r="AJ23" s="19"/>
+      <c r="AK23" s="67"/>
+      <c r="AL23" s="19"/>
+    </row>
+    <row r="24" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A24" s="60"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
       <c r="E24" s="2" t="s">
         <v>109</v>
       </c>
@@ -7121,42 +7199,45 @@
       <c r="I24" s="35">
         <v>44134</v>
       </c>
-      <c r="J24" s="36">
+      <c r="J24" s="81" t="s">
+        <v>202</v>
+      </c>
+      <c r="K24" s="36">
         <v>0</v>
       </c>
-      <c r="K24" s="30"/>
-      <c r="L24" s="20"/>
+      <c r="L24" s="30"/>
       <c r="M24" s="20"/>
       <c r="N24" s="20"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="20"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="22"/>
       <c r="Q24" s="20"/>
       <c r="R24" s="20"/>
       <c r="S24" s="20"/>
       <c r="T24" s="20"/>
       <c r="U24" s="20"/>
-      <c r="V24" s="67"/>
-      <c r="W24" s="20"/>
+      <c r="V24" s="20"/>
+      <c r="W24" s="71"/>
       <c r="X24" s="20"/>
       <c r="Y24" s="20"/>
       <c r="Z24" s="20"/>
       <c r="AA24" s="20"/>
       <c r="AB24" s="20"/>
-      <c r="AC24" s="70"/>
-      <c r="AD24" s="19"/>
+      <c r="AC24" s="20"/>
+      <c r="AD24" s="74"/>
       <c r="AE24" s="19"/>
       <c r="AF24" s="19"/>
       <c r="AG24" s="19"/>
       <c r="AH24" s="19"/>
       <c r="AI24" s="19"/>
-      <c r="AJ24" s="62"/>
-      <c r="AK24" s="19"/>
-    </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A25" s="72"/>
-      <c r="B25" s="65"/>
-      <c r="C25" s="64"/>
-      <c r="D25" s="64"/>
+      <c r="AJ24" s="19"/>
+      <c r="AK24" s="67"/>
+      <c r="AL24" s="19"/>
+    </row>
+    <row r="25" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A25" s="60"/>
+      <c r="B25" s="69"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
       <c r="E25" s="2" t="s">
         <v>167</v>
       </c>
@@ -7172,42 +7253,45 @@
       <c r="I25" s="35">
         <v>44127</v>
       </c>
-      <c r="J25" s="36">
+      <c r="J25" s="81" t="s">
+        <v>202</v>
+      </c>
+      <c r="K25" s="36">
         <v>1</v>
       </c>
-      <c r="K25" s="30"/>
-      <c r="L25" s="50"/>
+      <c r="L25" s="30"/>
       <c r="M25" s="50"/>
       <c r="N25" s="50"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="50"/>
+      <c r="O25" s="50"/>
+      <c r="P25" s="22"/>
       <c r="Q25" s="50"/>
       <c r="R25" s="50"/>
       <c r="S25" s="50"/>
       <c r="T25" s="50"/>
       <c r="U25" s="50"/>
-      <c r="V25" s="67"/>
-      <c r="W25" s="50"/>
+      <c r="V25" s="50"/>
+      <c r="W25" s="71"/>
       <c r="X25" s="50"/>
       <c r="Y25" s="50"/>
       <c r="Z25" s="50"/>
       <c r="AA25" s="50"/>
       <c r="AB25" s="50"/>
-      <c r="AC25" s="70"/>
-      <c r="AD25" s="51"/>
+      <c r="AC25" s="50"/>
+      <c r="AD25" s="74"/>
       <c r="AE25" s="51"/>
       <c r="AF25" s="51"/>
       <c r="AG25" s="51"/>
       <c r="AH25" s="51"/>
       <c r="AI25" s="51"/>
-      <c r="AJ25" s="62"/>
-      <c r="AK25" s="51"/>
-    </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A26" s="72"/>
-      <c r="B26" s="65"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="64"/>
+      <c r="AJ25" s="51"/>
+      <c r="AK25" s="67"/>
+      <c r="AL25" s="51"/>
+    </row>
+    <row r="26" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A26" s="60"/>
+      <c r="B26" s="69"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
       <c r="E26" s="2" t="s">
         <v>106</v>
       </c>
@@ -7223,11 +7307,13 @@
       <c r="I26" s="35">
         <v>44125</v>
       </c>
-      <c r="J26" s="36">
+      <c r="J26" s="81" t="s">
+        <v>202</v>
+      </c>
+      <c r="K26" s="36">
         <v>1</v>
       </c>
-      <c r="K26" s="30"/>
-      <c r="L26" s="20"/>
+      <c r="L26" s="30"/>
       <c r="M26" s="20"/>
       <c r="N26" s="20"/>
       <c r="O26" s="20"/>
@@ -7237,28 +7323,29 @@
       <c r="S26" s="20"/>
       <c r="T26" s="20"/>
       <c r="U26" s="20"/>
-      <c r="V26" s="67"/>
-      <c r="W26" s="20"/>
+      <c r="V26" s="20"/>
+      <c r="W26" s="71"/>
       <c r="X26" s="20"/>
       <c r="Y26" s="20"/>
       <c r="Z26" s="20"/>
       <c r="AA26" s="20"/>
       <c r="AB26" s="20"/>
-      <c r="AC26" s="70"/>
-      <c r="AD26" s="19"/>
+      <c r="AC26" s="20"/>
+      <c r="AD26" s="74"/>
       <c r="AE26" s="19"/>
       <c r="AF26" s="19"/>
       <c r="AG26" s="19"/>
       <c r="AH26" s="19"/>
       <c r="AI26" s="19"/>
-      <c r="AJ26" s="62"/>
-      <c r="AK26" s="19"/>
-    </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A27" s="72"/>
-      <c r="B27" s="65"/>
-      <c r="C27" s="64"/>
-      <c r="D27" s="64"/>
+      <c r="AJ26" s="19"/>
+      <c r="AK26" s="67"/>
+      <c r="AL26" s="19"/>
+    </row>
+    <row r="27" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A27" s="60"/>
+      <c r="B27" s="69"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
       <c r="E27" s="2" t="s">
         <v>102</v>
       </c>
@@ -7274,11 +7361,13 @@
       <c r="I27" s="35">
         <v>44134</v>
       </c>
-      <c r="J27" s="36">
+      <c r="J27" s="81" t="s">
+        <v>202</v>
+      </c>
+      <c r="K27" s="36">
         <v>1</v>
       </c>
-      <c r="K27" s="30"/>
-      <c r="L27" s="20"/>
+      <c r="L27" s="30"/>
       <c r="M27" s="20"/>
       <c r="N27" s="20"/>
       <c r="O27" s="20"/>
@@ -7288,28 +7377,29 @@
       <c r="S27" s="20"/>
       <c r="T27" s="20"/>
       <c r="U27" s="20"/>
-      <c r="V27" s="67"/>
-      <c r="W27" s="20"/>
+      <c r="V27" s="20"/>
+      <c r="W27" s="71"/>
       <c r="X27" s="20"/>
       <c r="Y27" s="20"/>
       <c r="Z27" s="20"/>
       <c r="AA27" s="20"/>
       <c r="AB27" s="20"/>
-      <c r="AC27" s="70"/>
-      <c r="AD27" s="19"/>
+      <c r="AC27" s="20"/>
+      <c r="AD27" s="74"/>
       <c r="AE27" s="19"/>
       <c r="AF27" s="19"/>
       <c r="AG27" s="19"/>
       <c r="AH27" s="19"/>
       <c r="AI27" s="19"/>
-      <c r="AJ27" s="62"/>
-      <c r="AK27" s="19"/>
-    </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A28" s="72"/>
-      <c r="B28" s="65"/>
-      <c r="C28" s="64"/>
-      <c r="D28" s="64" t="s">
+      <c r="AJ27" s="19"/>
+      <c r="AK27" s="67"/>
+      <c r="AL27" s="19"/>
+    </row>
+    <row r="28" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A28" s="60"/>
+      <c r="B28" s="69"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59" t="s">
         <v>25</v>
       </c>
       <c r="E28" s="2" t="s">
@@ -7327,11 +7417,13 @@
       <c r="I28" s="35">
         <v>44124</v>
       </c>
-      <c r="J28" s="36">
+      <c r="J28" s="81" t="s">
+        <v>202</v>
+      </c>
+      <c r="K28" s="36">
         <v>1</v>
       </c>
-      <c r="K28" s="30"/>
-      <c r="L28" s="20"/>
+      <c r="L28" s="30"/>
       <c r="M28" s="20"/>
       <c r="N28" s="20"/>
       <c r="O28" s="20"/>
@@ -7341,28 +7433,29 @@
       <c r="S28" s="20"/>
       <c r="T28" s="20"/>
       <c r="U28" s="20"/>
-      <c r="V28" s="67"/>
-      <c r="W28" s="20"/>
+      <c r="V28" s="20"/>
+      <c r="W28" s="71"/>
       <c r="X28" s="20"/>
       <c r="Y28" s="20"/>
       <c r="Z28" s="20"/>
       <c r="AA28" s="20"/>
       <c r="AB28" s="20"/>
-      <c r="AC28" s="70"/>
-      <c r="AD28" s="19"/>
+      <c r="AC28" s="20"/>
+      <c r="AD28" s="74"/>
       <c r="AE28" s="19"/>
       <c r="AF28" s="19"/>
       <c r="AG28" s="19"/>
       <c r="AH28" s="19"/>
       <c r="AI28" s="19"/>
-      <c r="AJ28" s="62"/>
-      <c r="AK28" s="19"/>
-    </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A29" s="72"/>
-      <c r="B29" s="65"/>
-      <c r="C29" s="64"/>
-      <c r="D29" s="64"/>
+      <c r="AJ28" s="19"/>
+      <c r="AK28" s="67"/>
+      <c r="AL28" s="19"/>
+    </row>
+    <row r="29" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A29" s="60"/>
+      <c r="B29" s="69"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="59"/>
       <c r="E29" s="2" t="s">
         <v>119</v>
       </c>
@@ -7378,11 +7471,13 @@
       <c r="I29" s="35">
         <v>44124</v>
       </c>
-      <c r="J29" s="36">
+      <c r="J29" s="81" t="s">
+        <v>202</v>
+      </c>
+      <c r="K29" s="36">
         <v>1</v>
       </c>
-      <c r="K29" s="30"/>
-      <c r="L29" s="20"/>
+      <c r="L29" s="30"/>
       <c r="M29" s="20"/>
       <c r="N29" s="20"/>
       <c r="O29" s="20"/>
@@ -7392,28 +7487,29 @@
       <c r="S29" s="20"/>
       <c r="T29" s="20"/>
       <c r="U29" s="20"/>
-      <c r="V29" s="67"/>
-      <c r="W29" s="20"/>
+      <c r="V29" s="20"/>
+      <c r="W29" s="71"/>
       <c r="X29" s="20"/>
       <c r="Y29" s="20"/>
       <c r="Z29" s="20"/>
       <c r="AA29" s="20"/>
       <c r="AB29" s="20"/>
-      <c r="AC29" s="70"/>
-      <c r="AD29" s="19"/>
+      <c r="AC29" s="20"/>
+      <c r="AD29" s="74"/>
       <c r="AE29" s="19"/>
       <c r="AF29" s="19"/>
       <c r="AG29" s="19"/>
       <c r="AH29" s="19"/>
       <c r="AI29" s="19"/>
-      <c r="AJ29" s="62"/>
-      <c r="AK29" s="19"/>
-    </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A30" s="72"/>
-      <c r="B30" s="65"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="64" t="s">
+      <c r="AJ29" s="19"/>
+      <c r="AK29" s="67"/>
+      <c r="AL29" s="19"/>
+    </row>
+    <row r="30" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A30" s="60"/>
+      <c r="B30" s="69"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="59" t="s">
         <v>13</v>
       </c>
       <c r="E30" s="2" t="s">
@@ -7429,11 +7525,13 @@
         <v>44130</v>
       </c>
       <c r="I30" s="35"/>
-      <c r="J30" s="36">
+      <c r="J30" s="81" t="s">
+        <v>202</v>
+      </c>
+      <c r="K30" s="36">
         <v>0</v>
       </c>
-      <c r="K30" s="30"/>
-      <c r="L30" s="20"/>
+      <c r="L30" s="30"/>
       <c r="M30" s="20"/>
       <c r="N30" s="20"/>
       <c r="O30" s="20"/>
@@ -7443,28 +7541,29 @@
       <c r="S30" s="20"/>
       <c r="T30" s="20"/>
       <c r="U30" s="20"/>
-      <c r="V30" s="67"/>
-      <c r="W30" s="20"/>
+      <c r="V30" s="20"/>
+      <c r="W30" s="71"/>
       <c r="X30" s="20"/>
       <c r="Y30" s="20"/>
       <c r="Z30" s="20"/>
       <c r="AA30" s="20"/>
       <c r="AB30" s="20"/>
-      <c r="AC30" s="70"/>
-      <c r="AD30" s="19"/>
+      <c r="AC30" s="20"/>
+      <c r="AD30" s="74"/>
       <c r="AE30" s="19"/>
       <c r="AF30" s="19"/>
       <c r="AG30" s="19"/>
       <c r="AH30" s="19"/>
       <c r="AI30" s="19"/>
-      <c r="AJ30" s="62"/>
-      <c r="AK30" s="19"/>
-    </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A31" s="72"/>
-      <c r="B31" s="65"/>
-      <c r="C31" s="64"/>
-      <c r="D31" s="64"/>
+      <c r="AJ30" s="19"/>
+      <c r="AK30" s="67"/>
+      <c r="AL30" s="19"/>
+    </row>
+    <row r="31" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A31" s="60"/>
+      <c r="B31" s="69"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="59"/>
       <c r="E31" s="2" t="s">
         <v>143</v>
       </c>
@@ -7472,11 +7571,13 @@
       <c r="G31" s="20"/>
       <c r="H31" s="35"/>
       <c r="I31" s="35"/>
-      <c r="J31" s="36">
+      <c r="J31" s="81" t="s">
+        <v>202</v>
+      </c>
+      <c r="K31" s="36">
         <v>0</v>
       </c>
-      <c r="K31" s="30"/>
-      <c r="L31" s="20"/>
+      <c r="L31" s="30"/>
       <c r="M31" s="20"/>
       <c r="N31" s="20"/>
       <c r="O31" s="20"/>
@@ -7486,28 +7587,29 @@
       <c r="S31" s="20"/>
       <c r="T31" s="20"/>
       <c r="U31" s="20"/>
-      <c r="V31" s="67"/>
-      <c r="W31" s="20"/>
+      <c r="V31" s="20"/>
+      <c r="W31" s="71"/>
       <c r="X31" s="20"/>
       <c r="Y31" s="20"/>
       <c r="Z31" s="20"/>
       <c r="AA31" s="20"/>
       <c r="AB31" s="20"/>
-      <c r="AC31" s="70"/>
-      <c r="AD31" s="19"/>
+      <c r="AC31" s="20"/>
+      <c r="AD31" s="74"/>
       <c r="AE31" s="19"/>
       <c r="AF31" s="19"/>
       <c r="AG31" s="19"/>
       <c r="AH31" s="19"/>
       <c r="AI31" s="19"/>
-      <c r="AJ31" s="62"/>
-      <c r="AK31" s="19"/>
-    </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A32" s="72"/>
-      <c r="B32" s="65"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="64"/>
+      <c r="AJ31" s="19"/>
+      <c r="AK31" s="67"/>
+      <c r="AL31" s="19"/>
+    </row>
+    <row r="32" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A32" s="60"/>
+      <c r="B32" s="69"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="59"/>
       <c r="E32" s="2" t="s">
         <v>113</v>
       </c>
@@ -7523,11 +7625,13 @@
       <c r="I32" s="35">
         <v>44124</v>
       </c>
-      <c r="J32" s="36">
+      <c r="J32" s="81" t="s">
+        <v>202</v>
+      </c>
+      <c r="K32" s="36">
         <v>1</v>
       </c>
-      <c r="K32" s="30"/>
-      <c r="L32" s="20"/>
+      <c r="L32" s="30"/>
       <c r="M32" s="20"/>
       <c r="N32" s="20"/>
       <c r="O32" s="20"/>
@@ -7537,28 +7641,29 @@
       <c r="S32" s="20"/>
       <c r="T32" s="20"/>
       <c r="U32" s="20"/>
-      <c r="V32" s="67"/>
-      <c r="W32" s="20"/>
+      <c r="V32" s="20"/>
+      <c r="W32" s="71"/>
       <c r="X32" s="20"/>
       <c r="Y32" s="20"/>
       <c r="Z32" s="20"/>
       <c r="AA32" s="20"/>
       <c r="AB32" s="20"/>
-      <c r="AC32" s="70"/>
-      <c r="AD32" s="19"/>
+      <c r="AC32" s="20"/>
+      <c r="AD32" s="74"/>
       <c r="AE32" s="19"/>
       <c r="AF32" s="19"/>
       <c r="AG32" s="19"/>
       <c r="AH32" s="19"/>
       <c r="AI32" s="19"/>
-      <c r="AJ32" s="62"/>
-      <c r="AK32" s="19"/>
-    </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A33" s="72"/>
-      <c r="B33" s="65"/>
-      <c r="C33" s="64"/>
-      <c r="D33" s="64" t="s">
+      <c r="AJ32" s="19"/>
+      <c r="AK32" s="67"/>
+      <c r="AL32" s="19"/>
+    </row>
+    <row r="33" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A33" s="60"/>
+      <c r="B33" s="69"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="59" t="s">
         <v>90</v>
       </c>
       <c r="E33" s="2" t="s">
@@ -7576,11 +7681,13 @@
       <c r="I33" s="35">
         <v>44128</v>
       </c>
-      <c r="J33" s="36">
+      <c r="J33" s="81" t="s">
+        <v>202</v>
+      </c>
+      <c r="K33" s="36">
         <v>1</v>
       </c>
-      <c r="K33" s="30"/>
-      <c r="L33" s="20"/>
+      <c r="L33" s="30"/>
       <c r="M33" s="20"/>
       <c r="N33" s="20"/>
       <c r="O33" s="20"/>
@@ -7590,28 +7697,29 @@
       <c r="S33" s="20"/>
       <c r="T33" s="20"/>
       <c r="U33" s="20"/>
-      <c r="V33" s="67"/>
-      <c r="W33" s="20"/>
+      <c r="V33" s="20"/>
+      <c r="W33" s="71"/>
       <c r="X33" s="20"/>
       <c r="Y33" s="20"/>
       <c r="Z33" s="20"/>
       <c r="AA33" s="20"/>
       <c r="AB33" s="20"/>
-      <c r="AC33" s="70"/>
-      <c r="AD33" s="19"/>
+      <c r="AC33" s="20"/>
+      <c r="AD33" s="74"/>
       <c r="AE33" s="19"/>
       <c r="AF33" s="19"/>
       <c r="AG33" s="19"/>
       <c r="AH33" s="19"/>
       <c r="AI33" s="19"/>
-      <c r="AJ33" s="62"/>
-      <c r="AK33" s="19"/>
-    </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A34" s="72"/>
-      <c r="B34" s="65"/>
-      <c r="C34" s="64"/>
-      <c r="D34" s="64"/>
+      <c r="AJ33" s="19"/>
+      <c r="AK33" s="67"/>
+      <c r="AL33" s="19"/>
+    </row>
+    <row r="34" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A34" s="60"/>
+      <c r="B34" s="69"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
       <c r="E34" s="2" t="s">
         <v>141</v>
       </c>
@@ -7627,11 +7735,13 @@
       <c r="I34" s="35">
         <v>44126</v>
       </c>
-      <c r="J34" s="36">
+      <c r="J34" s="81" t="s">
+        <v>202</v>
+      </c>
+      <c r="K34" s="36">
         <v>1</v>
       </c>
-      <c r="K34" s="30"/>
-      <c r="L34" s="20"/>
+      <c r="L34" s="30"/>
       <c r="M34" s="20"/>
       <c r="N34" s="20"/>
       <c r="O34" s="20"/>
@@ -7641,28 +7751,29 @@
       <c r="S34" s="20"/>
       <c r="T34" s="20"/>
       <c r="U34" s="20"/>
-      <c r="V34" s="67"/>
-      <c r="W34" s="20"/>
+      <c r="V34" s="20"/>
+      <c r="W34" s="71"/>
       <c r="X34" s="20"/>
       <c r="Y34" s="20"/>
       <c r="Z34" s="20"/>
       <c r="AA34" s="20"/>
       <c r="AB34" s="20"/>
-      <c r="AC34" s="70"/>
-      <c r="AD34" s="19"/>
+      <c r="AC34" s="20"/>
+      <c r="AD34" s="74"/>
       <c r="AE34" s="19"/>
       <c r="AF34" s="19"/>
       <c r="AG34" s="19"/>
       <c r="AH34" s="19"/>
       <c r="AI34" s="19"/>
-      <c r="AJ34" s="62"/>
-      <c r="AK34" s="19"/>
-    </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A35" s="72"/>
-      <c r="B35" s="65"/>
-      <c r="C35" s="64"/>
-      <c r="D35" s="64"/>
+      <c r="AJ34" s="19"/>
+      <c r="AK34" s="67"/>
+      <c r="AL34" s="19"/>
+    </row>
+    <row r="35" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A35" s="60"/>
+      <c r="B35" s="69"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="59"/>
       <c r="E35" s="2" t="s">
         <v>103</v>
       </c>
@@ -7678,11 +7789,13 @@
       <c r="I35" s="35">
         <v>44128</v>
       </c>
-      <c r="J35" s="36">
+      <c r="J35" s="81" t="s">
+        <v>202</v>
+      </c>
+      <c r="K35" s="36">
         <v>1</v>
       </c>
-      <c r="K35" s="30"/>
-      <c r="L35" s="20"/>
+      <c r="L35" s="30"/>
       <c r="M35" s="20"/>
       <c r="N35" s="20"/>
       <c r="O35" s="20"/>
@@ -7692,27 +7805,28 @@
       <c r="S35" s="20"/>
       <c r="T35" s="20"/>
       <c r="U35" s="20"/>
-      <c r="V35" s="67"/>
-      <c r="W35" s="20"/>
+      <c r="V35" s="20"/>
+      <c r="W35" s="71"/>
       <c r="X35" s="20"/>
       <c r="Y35" s="20"/>
       <c r="Z35" s="20"/>
       <c r="AA35" s="20"/>
       <c r="AB35" s="20"/>
-      <c r="AC35" s="70"/>
-      <c r="AD35" s="19"/>
+      <c r="AC35" s="20"/>
+      <c r="AD35" s="74"/>
       <c r="AE35" s="19"/>
       <c r="AF35" s="19"/>
       <c r="AG35" s="19"/>
       <c r="AH35" s="19"/>
       <c r="AI35" s="19"/>
-      <c r="AJ35" s="62"/>
-      <c r="AK35" s="19"/>
-    </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A36" s="72"/>
-      <c r="B36" s="65"/>
-      <c r="C36" s="64"/>
+      <c r="AJ35" s="19"/>
+      <c r="AK35" s="67"/>
+      <c r="AL35" s="19"/>
+    </row>
+    <row r="36" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A36" s="60"/>
+      <c r="B36" s="69"/>
+      <c r="C36" s="59"/>
       <c r="D36" s="2" t="s">
         <v>24</v>
       </c>
@@ -7723,11 +7837,13 @@
       <c r="G36" s="20"/>
       <c r="H36" s="35"/>
       <c r="I36" s="35"/>
-      <c r="J36" s="36">
+      <c r="J36" s="81" t="s">
+        <v>202</v>
+      </c>
+      <c r="K36" s="36">
         <v>0</v>
       </c>
-      <c r="K36" s="30"/>
-      <c r="L36" s="20"/>
+      <c r="L36" s="30"/>
       <c r="M36" s="20"/>
       <c r="N36" s="20"/>
       <c r="O36" s="20"/>
@@ -7737,27 +7853,28 @@
       <c r="S36" s="20"/>
       <c r="T36" s="20"/>
       <c r="U36" s="20"/>
-      <c r="V36" s="67"/>
-      <c r="W36" s="20"/>
+      <c r="V36" s="20"/>
+      <c r="W36" s="71"/>
       <c r="X36" s="20"/>
       <c r="Y36" s="20"/>
       <c r="Z36" s="20"/>
       <c r="AA36" s="20"/>
       <c r="AB36" s="20"/>
-      <c r="AC36" s="70"/>
-      <c r="AD36" s="19"/>
+      <c r="AC36" s="20"/>
+      <c r="AD36" s="74"/>
       <c r="AE36" s="19"/>
       <c r="AF36" s="19"/>
       <c r="AG36" s="19"/>
       <c r="AH36" s="19"/>
       <c r="AI36" s="19"/>
-      <c r="AJ36" s="62"/>
-      <c r="AK36" s="19"/>
-    </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A37" s="72"/>
-      <c r="B37" s="65"/>
-      <c r="C37" s="64"/>
+      <c r="AJ36" s="19"/>
+      <c r="AK36" s="67"/>
+      <c r="AL36" s="19"/>
+    </row>
+    <row r="37" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A37" s="60"/>
+      <c r="B37" s="69"/>
+      <c r="C37" s="59"/>
       <c r="D37" s="2" t="s">
         <v>144</v>
       </c>
@@ -7776,11 +7893,13 @@
       <c r="I37" s="35">
         <v>44126</v>
       </c>
-      <c r="J37" s="36">
+      <c r="J37" s="81" t="s">
+        <v>202</v>
+      </c>
+      <c r="K37" s="36">
         <v>1</v>
       </c>
-      <c r="K37" s="30"/>
-      <c r="L37" s="20"/>
+      <c r="L37" s="30"/>
       <c r="M37" s="20"/>
       <c r="N37" s="20"/>
       <c r="O37" s="20"/>
@@ -7790,27 +7909,28 @@
       <c r="S37" s="20"/>
       <c r="T37" s="20"/>
       <c r="U37" s="20"/>
-      <c r="V37" s="67"/>
-      <c r="W37" s="20"/>
+      <c r="V37" s="20"/>
+      <c r="W37" s="71"/>
       <c r="X37" s="20"/>
       <c r="Y37" s="20"/>
       <c r="Z37" s="20"/>
       <c r="AA37" s="20"/>
       <c r="AB37" s="20"/>
-      <c r="AC37" s="70"/>
-      <c r="AD37" s="19"/>
+      <c r="AC37" s="20"/>
+      <c r="AD37" s="74"/>
       <c r="AE37" s="19"/>
       <c r="AF37" s="19"/>
       <c r="AG37" s="19"/>
       <c r="AH37" s="19"/>
       <c r="AI37" s="19"/>
-      <c r="AJ37" s="62"/>
-      <c r="AK37" s="19"/>
-    </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A38" s="72"/>
-      <c r="B38" s="65"/>
-      <c r="C38" s="64"/>
+      <c r="AJ37" s="19"/>
+      <c r="AK37" s="67"/>
+      <c r="AL37" s="19"/>
+    </row>
+    <row r="38" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A38" s="60"/>
+      <c r="B38" s="69"/>
+      <c r="C38" s="59"/>
       <c r="D38" s="2" t="s">
         <v>94</v>
       </c>
@@ -7819,11 +7939,13 @@
       <c r="G38" s="20"/>
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
-      <c r="J38" s="36">
+      <c r="J38" s="81" t="s">
+        <v>202</v>
+      </c>
+      <c r="K38" s="36">
         <v>0</v>
       </c>
-      <c r="K38" s="30"/>
-      <c r="L38" s="20"/>
+      <c r="L38" s="30"/>
       <c r="M38" s="20"/>
       <c r="N38" s="20"/>
       <c r="O38" s="20"/>
@@ -7833,27 +7955,28 @@
       <c r="S38" s="20"/>
       <c r="T38" s="20"/>
       <c r="U38" s="20"/>
-      <c r="V38" s="67"/>
-      <c r="W38" s="20"/>
+      <c r="V38" s="20"/>
+      <c r="W38" s="71"/>
       <c r="X38" s="20"/>
       <c r="Y38" s="20"/>
       <c r="Z38" s="20"/>
       <c r="AA38" s="20"/>
       <c r="AB38" s="20"/>
-      <c r="AC38" s="70"/>
-      <c r="AD38" s="19"/>
+      <c r="AC38" s="20"/>
+      <c r="AD38" s="74"/>
       <c r="AE38" s="19"/>
       <c r="AF38" s="19"/>
       <c r="AG38" s="19"/>
       <c r="AH38" s="19"/>
       <c r="AI38" s="19"/>
-      <c r="AJ38" s="62"/>
-      <c r="AK38" s="19"/>
-    </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A39" s="72"/>
-      <c r="B39" s="65"/>
-      <c r="C39" s="64"/>
+      <c r="AJ38" s="19"/>
+      <c r="AK38" s="67"/>
+      <c r="AL38" s="19"/>
+    </row>
+    <row r="39" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A39" s="60"/>
+      <c r="B39" s="69"/>
+      <c r="C39" s="59"/>
       <c r="D39" s="2" t="s">
         <v>23</v>
       </c>
@@ -7862,11 +7985,13 @@
       <c r="G39" s="20"/>
       <c r="H39" s="35"/>
       <c r="I39" s="35"/>
-      <c r="J39" s="36">
+      <c r="J39" s="81" t="s">
+        <v>202</v>
+      </c>
+      <c r="K39" s="36">
         <v>0</v>
       </c>
-      <c r="K39" s="30"/>
-      <c r="L39" s="20"/>
+      <c r="L39" s="30"/>
       <c r="M39" s="20"/>
       <c r="N39" s="20"/>
       <c r="O39" s="20"/>
@@ -7876,27 +8001,28 @@
       <c r="S39" s="20"/>
       <c r="T39" s="20"/>
       <c r="U39" s="20"/>
-      <c r="V39" s="67"/>
-      <c r="W39" s="20"/>
+      <c r="V39" s="20"/>
+      <c r="W39" s="71"/>
       <c r="X39" s="20"/>
       <c r="Y39" s="20"/>
       <c r="Z39" s="20"/>
       <c r="AA39" s="20"/>
       <c r="AB39" s="20"/>
-      <c r="AC39" s="70"/>
-      <c r="AD39" s="19"/>
+      <c r="AC39" s="20"/>
+      <c r="AD39" s="74"/>
       <c r="AE39" s="19"/>
       <c r="AF39" s="19"/>
       <c r="AG39" s="19"/>
       <c r="AH39" s="19"/>
       <c r="AI39" s="19"/>
-      <c r="AJ39" s="62"/>
-      <c r="AK39" s="19"/>
-    </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A40" s="72"/>
-      <c r="B40" s="65"/>
-      <c r="C40" s="64"/>
+      <c r="AJ39" s="19"/>
+      <c r="AK39" s="67"/>
+      <c r="AL39" s="19"/>
+    </row>
+    <row r="40" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A40" s="60"/>
+      <c r="B40" s="69"/>
+      <c r="C40" s="59"/>
       <c r="D40" s="39" t="s">
         <v>27</v>
       </c>
@@ -7905,11 +8031,13 @@
       <c r="G40" s="20"/>
       <c r="H40" s="35"/>
       <c r="I40" s="35"/>
-      <c r="J40" s="36">
+      <c r="J40" s="81" t="s">
+        <v>202</v>
+      </c>
+      <c r="K40" s="36">
         <v>0</v>
       </c>
-      <c r="K40" s="30"/>
-      <c r="L40" s="20"/>
+      <c r="L40" s="30"/>
       <c r="M40" s="20"/>
       <c r="N40" s="20"/>
       <c r="O40" s="20"/>
@@ -7919,27 +8047,28 @@
       <c r="S40" s="20"/>
       <c r="T40" s="20"/>
       <c r="U40" s="20"/>
-      <c r="V40" s="67"/>
-      <c r="W40" s="20"/>
+      <c r="V40" s="20"/>
+      <c r="W40" s="71"/>
       <c r="X40" s="20"/>
       <c r="Y40" s="20"/>
       <c r="Z40" s="20"/>
       <c r="AA40" s="20"/>
       <c r="AB40" s="20"/>
-      <c r="AC40" s="70"/>
-      <c r="AD40" s="19"/>
+      <c r="AC40" s="20"/>
+      <c r="AD40" s="74"/>
       <c r="AE40" s="19"/>
       <c r="AF40" s="19"/>
       <c r="AG40" s="19"/>
       <c r="AH40" s="19"/>
       <c r="AI40" s="19"/>
-      <c r="AJ40" s="62"/>
-      <c r="AK40" s="19"/>
-    </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A41" s="72"/>
-      <c r="B41" s="65"/>
-      <c r="C41" s="64"/>
+      <c r="AJ40" s="19"/>
+      <c r="AK40" s="67"/>
+      <c r="AL40" s="19"/>
+    </row>
+    <row r="41" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A41" s="60"/>
+      <c r="B41" s="69"/>
+      <c r="C41" s="59"/>
       <c r="D41" s="38" t="s">
         <v>45</v>
       </c>
@@ -7948,11 +8077,13 @@
       <c r="G41" s="20"/>
       <c r="H41" s="35"/>
       <c r="I41" s="35"/>
-      <c r="J41" s="36">
+      <c r="J41" s="81" t="s">
+        <v>202</v>
+      </c>
+      <c r="K41" s="36">
         <v>0</v>
       </c>
-      <c r="K41" s="30"/>
-      <c r="L41" s="20"/>
+      <c r="L41" s="30"/>
       <c r="M41" s="20"/>
       <c r="N41" s="20"/>
       <c r="O41" s="20"/>
@@ -7962,27 +8093,28 @@
       <c r="S41" s="20"/>
       <c r="T41" s="20"/>
       <c r="U41" s="20"/>
-      <c r="V41" s="67"/>
-      <c r="W41" s="20"/>
+      <c r="V41" s="20"/>
+      <c r="W41" s="71"/>
       <c r="X41" s="20"/>
       <c r="Y41" s="20"/>
       <c r="Z41" s="20"/>
       <c r="AA41" s="20"/>
       <c r="AB41" s="20"/>
-      <c r="AC41" s="70"/>
-      <c r="AD41" s="19"/>
+      <c r="AC41" s="20"/>
+      <c r="AD41" s="74"/>
       <c r="AE41" s="19"/>
       <c r="AF41" s="19"/>
       <c r="AG41" s="19"/>
       <c r="AH41" s="19"/>
       <c r="AI41" s="19"/>
-      <c r="AJ41" s="62"/>
-      <c r="AK41" s="19"/>
-    </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A42" s="72"/>
-      <c r="B42" s="65"/>
-      <c r="C42" s="64"/>
+      <c r="AJ41" s="19"/>
+      <c r="AK41" s="67"/>
+      <c r="AL41" s="19"/>
+    </row>
+    <row r="42" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A42" s="60"/>
+      <c r="B42" s="69"/>
+      <c r="C42" s="59"/>
       <c r="D42" s="2" t="s">
         <v>26</v>
       </c>
@@ -7991,11 +8123,13 @@
       <c r="G42" s="20"/>
       <c r="H42" s="35"/>
       <c r="I42" s="35"/>
-      <c r="J42" s="36">
+      <c r="J42" s="81" t="s">
+        <v>202</v>
+      </c>
+      <c r="K42" s="36">
         <v>0</v>
       </c>
-      <c r="K42" s="30"/>
-      <c r="L42" s="20"/>
+      <c r="L42" s="30"/>
       <c r="M42" s="20"/>
       <c r="N42" s="20"/>
       <c r="O42" s="20"/>
@@ -8005,27 +8139,28 @@
       <c r="S42" s="20"/>
       <c r="T42" s="20"/>
       <c r="U42" s="20"/>
-      <c r="V42" s="67"/>
-      <c r="W42" s="20"/>
+      <c r="V42" s="20"/>
+      <c r="W42" s="71"/>
       <c r="X42" s="20"/>
       <c r="Y42" s="20"/>
       <c r="Z42" s="20"/>
       <c r="AA42" s="20"/>
       <c r="AB42" s="20"/>
-      <c r="AC42" s="70"/>
-      <c r="AD42" s="19"/>
+      <c r="AC42" s="20"/>
+      <c r="AD42" s="74"/>
       <c r="AE42" s="19"/>
       <c r="AF42" s="19"/>
       <c r="AG42" s="19"/>
       <c r="AH42" s="19"/>
       <c r="AI42" s="19"/>
-      <c r="AJ42" s="62"/>
-      <c r="AK42" s="19"/>
-    </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A43" s="72"/>
-      <c r="B43" s="65"/>
-      <c r="C43" s="64" t="s">
+      <c r="AJ42" s="19"/>
+      <c r="AK42" s="67"/>
+      <c r="AL42" s="19"/>
+    </row>
+    <row r="43" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A43" s="60"/>
+      <c r="B43" s="69"/>
+      <c r="C43" s="59" t="s">
         <v>42</v>
       </c>
       <c r="D43" s="40" t="s">
@@ -8036,11 +8171,13 @@
       <c r="G43" s="20"/>
       <c r="H43" s="35"/>
       <c r="I43" s="35"/>
-      <c r="J43" s="36">
+      <c r="J43" s="81" t="s">
+        <v>202</v>
+      </c>
+      <c r="K43" s="36">
         <v>0</v>
       </c>
-      <c r="K43" s="30"/>
-      <c r="L43" s="20"/>
+      <c r="L43" s="30"/>
       <c r="M43" s="20"/>
       <c r="N43" s="20"/>
       <c r="O43" s="20"/>
@@ -8050,27 +8187,28 @@
       <c r="S43" s="20"/>
       <c r="T43" s="20"/>
       <c r="U43" s="20"/>
-      <c r="V43" s="67"/>
-      <c r="W43" s="20"/>
+      <c r="V43" s="20"/>
+      <c r="W43" s="71"/>
       <c r="X43" s="20"/>
       <c r="Y43" s="20"/>
       <c r="Z43" s="20"/>
       <c r="AA43" s="20"/>
       <c r="AB43" s="20"/>
-      <c r="AC43" s="70"/>
-      <c r="AD43" s="19"/>
+      <c r="AC43" s="20"/>
+      <c r="AD43" s="74"/>
       <c r="AE43" s="19"/>
       <c r="AF43" s="19"/>
       <c r="AG43" s="19"/>
       <c r="AH43" s="19"/>
       <c r="AI43" s="19"/>
-      <c r="AJ43" s="62"/>
-      <c r="AK43" s="19"/>
-    </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A44" s="72"/>
-      <c r="B44" s="65"/>
-      <c r="C44" s="64"/>
+      <c r="AJ43" s="19"/>
+      <c r="AK43" s="67"/>
+      <c r="AL43" s="19"/>
+    </row>
+    <row r="44" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A44" s="60"/>
+      <c r="B44" s="69"/>
+      <c r="C44" s="59"/>
       <c r="D44" s="2" t="s">
         <v>26</v>
       </c>
@@ -8079,11 +8217,13 @@
       <c r="G44" s="20"/>
       <c r="H44" s="35"/>
       <c r="I44" s="35"/>
-      <c r="J44" s="36">
+      <c r="J44" s="81" t="s">
+        <v>202</v>
+      </c>
+      <c r="K44" s="36">
         <v>0</v>
       </c>
-      <c r="K44" s="30"/>
-      <c r="L44" s="20"/>
+      <c r="L44" s="30"/>
       <c r="M44" s="20"/>
       <c r="N44" s="20"/>
       <c r="O44" s="20"/>
@@ -8093,27 +8233,28 @@
       <c r="S44" s="20"/>
       <c r="T44" s="20"/>
       <c r="U44" s="20"/>
-      <c r="V44" s="67"/>
-      <c r="W44" s="20"/>
+      <c r="V44" s="20"/>
+      <c r="W44" s="71"/>
       <c r="X44" s="20"/>
       <c r="Y44" s="20"/>
       <c r="Z44" s="20"/>
       <c r="AA44" s="20"/>
       <c r="AB44" s="20"/>
-      <c r="AC44" s="70"/>
-      <c r="AD44" s="19"/>
+      <c r="AC44" s="20"/>
+      <c r="AD44" s="74"/>
       <c r="AE44" s="19"/>
       <c r="AF44" s="19"/>
       <c r="AG44" s="19"/>
       <c r="AH44" s="19"/>
       <c r="AI44" s="19"/>
-      <c r="AJ44" s="62"/>
-      <c r="AK44" s="19"/>
-    </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A45" s="72"/>
-      <c r="B45" s="65"/>
-      <c r="C45" s="64" t="s">
+      <c r="AJ44" s="19"/>
+      <c r="AK44" s="67"/>
+      <c r="AL44" s="19"/>
+    </row>
+    <row r="45" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A45" s="60"/>
+      <c r="B45" s="69"/>
+      <c r="C45" s="59" t="s">
         <v>43</v>
       </c>
       <c r="D45" s="38" t="s">
@@ -8124,11 +8265,13 @@
       <c r="G45" s="20"/>
       <c r="H45" s="35"/>
       <c r="I45" s="35"/>
-      <c r="J45" s="36">
+      <c r="J45" s="81" t="s">
+        <v>202</v>
+      </c>
+      <c r="K45" s="36">
         <v>0</v>
       </c>
-      <c r="K45" s="30"/>
-      <c r="L45" s="20"/>
+      <c r="L45" s="30"/>
       <c r="M45" s="20"/>
       <c r="N45" s="20"/>
       <c r="O45" s="20"/>
@@ -8138,27 +8281,28 @@
       <c r="S45" s="20"/>
       <c r="T45" s="20"/>
       <c r="U45" s="20"/>
-      <c r="V45" s="67"/>
-      <c r="W45" s="20"/>
+      <c r="V45" s="20"/>
+      <c r="W45" s="71"/>
       <c r="X45" s="20"/>
       <c r="Y45" s="20"/>
       <c r="Z45" s="20"/>
       <c r="AA45" s="20"/>
       <c r="AB45" s="20"/>
-      <c r="AC45" s="70"/>
-      <c r="AD45" s="19"/>
+      <c r="AC45" s="20"/>
+      <c r="AD45" s="74"/>
       <c r="AE45" s="19"/>
       <c r="AF45" s="19"/>
       <c r="AG45" s="19"/>
       <c r="AH45" s="19"/>
       <c r="AI45" s="19"/>
-      <c r="AJ45" s="62"/>
-      <c r="AK45" s="19"/>
-    </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A46" s="72"/>
-      <c r="B46" s="65"/>
-      <c r="C46" s="64"/>
+      <c r="AJ45" s="19"/>
+      <c r="AK45" s="67"/>
+      <c r="AL45" s="19"/>
+    </row>
+    <row r="46" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A46" s="60"/>
+      <c r="B46" s="69"/>
+      <c r="C46" s="59"/>
       <c r="D46" s="2" t="s">
         <v>26</v>
       </c>
@@ -8167,11 +8311,13 @@
       <c r="G46" s="20"/>
       <c r="H46" s="35"/>
       <c r="I46" s="35"/>
-      <c r="J46" s="36">
+      <c r="J46" s="81" t="s">
+        <v>202</v>
+      </c>
+      <c r="K46" s="36">
         <v>0</v>
       </c>
-      <c r="K46" s="30"/>
-      <c r="L46" s="20"/>
+      <c r="L46" s="30"/>
       <c r="M46" s="20"/>
       <c r="N46" s="20"/>
       <c r="O46" s="20"/>
@@ -8181,38 +8327,41 @@
       <c r="S46" s="20"/>
       <c r="T46" s="20"/>
       <c r="U46" s="20"/>
-      <c r="V46" s="67"/>
-      <c r="W46" s="20"/>
+      <c r="V46" s="20"/>
+      <c r="W46" s="71"/>
       <c r="X46" s="20"/>
       <c r="Y46" s="20"/>
       <c r="Z46" s="20"/>
       <c r="AA46" s="20"/>
       <c r="AB46" s="20"/>
-      <c r="AC46" s="70"/>
-      <c r="AD46" s="19"/>
+      <c r="AC46" s="20"/>
+      <c r="AD46" s="74"/>
       <c r="AE46" s="19"/>
       <c r="AF46" s="19"/>
       <c r="AG46" s="19"/>
       <c r="AH46" s="19"/>
       <c r="AI46" s="19"/>
-      <c r="AJ46" s="62"/>
-      <c r="AK46" s="19"/>
-    </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A47" s="72"/>
-      <c r="B47" s="65"/>
-      <c r="C47" s="64"/>
+      <c r="AJ46" s="19"/>
+      <c r="AK46" s="67"/>
+      <c r="AL46" s="19"/>
+    </row>
+    <row r="47" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A47" s="60"/>
+      <c r="B47" s="69"/>
+      <c r="C47" s="59"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="20"/>
       <c r="G47" s="20"/>
       <c r="H47" s="35"/>
       <c r="I47" s="35"/>
-      <c r="J47" s="36">
+      <c r="J47" s="81" t="s">
+        <v>202</v>
+      </c>
+      <c r="K47" s="36">
         <v>0</v>
       </c>
-      <c r="K47" s="30"/>
-      <c r="L47" s="20"/>
+      <c r="L47" s="30"/>
       <c r="M47" s="20"/>
       <c r="N47" s="20"/>
       <c r="O47" s="20"/>
@@ -8222,27 +8371,28 @@
       <c r="S47" s="20"/>
       <c r="T47" s="20"/>
       <c r="U47" s="20"/>
-      <c r="V47" s="67"/>
-      <c r="W47" s="20"/>
+      <c r="V47" s="20"/>
+      <c r="W47" s="71"/>
       <c r="X47" s="20"/>
       <c r="Y47" s="20"/>
       <c r="Z47" s="20"/>
       <c r="AA47" s="20"/>
       <c r="AB47" s="20"/>
-      <c r="AC47" s="70"/>
-      <c r="AD47" s="19"/>
+      <c r="AC47" s="20"/>
+      <c r="AD47" s="74"/>
       <c r="AE47" s="19"/>
       <c r="AF47" s="19"/>
       <c r="AG47" s="19"/>
       <c r="AH47" s="19"/>
       <c r="AI47" s="19"/>
-      <c r="AJ47" s="62"/>
-      <c r="AK47" s="19"/>
-    </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A48" s="72"/>
-      <c r="B48" s="65"/>
-      <c r="C48" s="64" t="s">
+      <c r="AJ47" s="19"/>
+      <c r="AK47" s="67"/>
+      <c r="AL47" s="19"/>
+    </row>
+    <row r="48" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A48" s="60"/>
+      <c r="B48" s="69"/>
+      <c r="C48" s="59" t="s">
         <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
@@ -8253,11 +8403,13 @@
       <c r="G48" s="20"/>
       <c r="H48" s="35"/>
       <c r="I48" s="35"/>
-      <c r="J48" s="36">
+      <c r="J48" s="81" t="s">
+        <v>202</v>
+      </c>
+      <c r="K48" s="36">
         <v>0</v>
       </c>
-      <c r="K48" s="30"/>
-      <c r="L48" s="20"/>
+      <c r="L48" s="30"/>
       <c r="M48" s="20"/>
       <c r="N48" s="20"/>
       <c r="O48" s="20"/>
@@ -8267,27 +8419,28 @@
       <c r="S48" s="20"/>
       <c r="T48" s="20"/>
       <c r="U48" s="20"/>
-      <c r="V48" s="67"/>
-      <c r="W48" s="20"/>
+      <c r="V48" s="20"/>
+      <c r="W48" s="71"/>
       <c r="X48" s="20"/>
       <c r="Y48" s="20"/>
       <c r="Z48" s="20"/>
       <c r="AA48" s="20"/>
       <c r="AB48" s="20"/>
-      <c r="AC48" s="70"/>
-      <c r="AD48" s="19"/>
+      <c r="AC48" s="20"/>
+      <c r="AD48" s="74"/>
       <c r="AE48" s="19"/>
       <c r="AF48" s="19"/>
       <c r="AG48" s="19"/>
       <c r="AH48" s="19"/>
       <c r="AI48" s="19"/>
-      <c r="AJ48" s="62"/>
-      <c r="AK48" s="19"/>
-    </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A49" s="72"/>
-      <c r="B49" s="65"/>
-      <c r="C49" s="64"/>
+      <c r="AJ48" s="19"/>
+      <c r="AK48" s="67"/>
+      <c r="AL48" s="19"/>
+    </row>
+    <row r="49" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A49" s="60"/>
+      <c r="B49" s="69"/>
+      <c r="C49" s="59"/>
       <c r="D49" s="2" t="s">
         <v>36</v>
       </c>
@@ -8296,11 +8449,13 @@
       <c r="G49" s="20"/>
       <c r="H49" s="35"/>
       <c r="I49" s="35"/>
-      <c r="J49" s="36">
+      <c r="J49" s="81" t="s">
+        <v>202</v>
+      </c>
+      <c r="K49" s="36">
         <v>0</v>
       </c>
-      <c r="K49" s="30"/>
-      <c r="L49" s="20"/>
+      <c r="L49" s="30"/>
       <c r="M49" s="20"/>
       <c r="N49" s="20"/>
       <c r="O49" s="20"/>
@@ -8310,27 +8465,28 @@
       <c r="S49" s="20"/>
       <c r="T49" s="20"/>
       <c r="U49" s="20"/>
-      <c r="V49" s="67"/>
-      <c r="W49" s="20"/>
+      <c r="V49" s="20"/>
+      <c r="W49" s="71"/>
       <c r="X49" s="20"/>
       <c r="Y49" s="20"/>
       <c r="Z49" s="20"/>
       <c r="AA49" s="20"/>
       <c r="AB49" s="20"/>
-      <c r="AC49" s="70"/>
-      <c r="AD49" s="19"/>
+      <c r="AC49" s="20"/>
+      <c r="AD49" s="74"/>
       <c r="AE49" s="19"/>
       <c r="AF49" s="19"/>
       <c r="AG49" s="19"/>
       <c r="AH49" s="19"/>
       <c r="AI49" s="19"/>
-      <c r="AJ49" s="62"/>
-      <c r="AK49" s="19"/>
-    </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A50" s="72"/>
-      <c r="B50" s="65"/>
-      <c r="C50" s="64"/>
+      <c r="AJ49" s="19"/>
+      <c r="AK49" s="67"/>
+      <c r="AL49" s="19"/>
+    </row>
+    <row r="50" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A50" s="60"/>
+      <c r="B50" s="69"/>
+      <c r="C50" s="59"/>
       <c r="D50" s="2" t="s">
         <v>37</v>
       </c>
@@ -8339,11 +8495,13 @@
       <c r="G50" s="20"/>
       <c r="H50" s="35"/>
       <c r="I50" s="35"/>
-      <c r="J50" s="36">
+      <c r="J50" s="81" t="s">
+        <v>202</v>
+      </c>
+      <c r="K50" s="36">
         <v>0</v>
       </c>
-      <c r="K50" s="30"/>
-      <c r="L50" s="20"/>
+      <c r="L50" s="30"/>
       <c r="M50" s="20"/>
       <c r="N50" s="20"/>
       <c r="O50" s="20"/>
@@ -8353,27 +8511,28 @@
       <c r="S50" s="20"/>
       <c r="T50" s="20"/>
       <c r="U50" s="20"/>
-      <c r="V50" s="67"/>
-      <c r="W50" s="20"/>
+      <c r="V50" s="20"/>
+      <c r="W50" s="71"/>
       <c r="X50" s="20"/>
       <c r="Y50" s="20"/>
       <c r="Z50" s="20"/>
       <c r="AA50" s="20"/>
       <c r="AB50" s="20"/>
-      <c r="AC50" s="70"/>
-      <c r="AD50" s="19"/>
+      <c r="AC50" s="20"/>
+      <c r="AD50" s="74"/>
       <c r="AE50" s="19"/>
       <c r="AF50" s="19"/>
       <c r="AG50" s="19"/>
       <c r="AH50" s="19"/>
       <c r="AI50" s="19"/>
-      <c r="AJ50" s="62"/>
-      <c r="AK50" s="19"/>
-    </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A51" s="72"/>
-      <c r="B51" s="65"/>
-      <c r="C51" s="64"/>
+      <c r="AJ50" s="19"/>
+      <c r="AK50" s="67"/>
+      <c r="AL50" s="19"/>
+    </row>
+    <row r="51" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A51" s="60"/>
+      <c r="B51" s="69"/>
+      <c r="C51" s="59"/>
       <c r="D51" s="2" t="s">
         <v>38</v>
       </c>
@@ -8382,11 +8541,13 @@
       <c r="G51" s="20"/>
       <c r="H51" s="35"/>
       <c r="I51" s="35"/>
-      <c r="J51" s="36">
+      <c r="J51" s="81" t="s">
+        <v>202</v>
+      </c>
+      <c r="K51" s="36">
         <v>0</v>
       </c>
-      <c r="K51" s="30"/>
-      <c r="L51" s="20"/>
+      <c r="L51" s="30"/>
       <c r="M51" s="20"/>
       <c r="N51" s="20"/>
       <c r="O51" s="20"/>
@@ -8396,27 +8557,28 @@
       <c r="S51" s="20"/>
       <c r="T51" s="20"/>
       <c r="U51" s="20"/>
-      <c r="V51" s="67"/>
-      <c r="W51" s="20"/>
+      <c r="V51" s="20"/>
+      <c r="W51" s="71"/>
       <c r="X51" s="20"/>
       <c r="Y51" s="20"/>
       <c r="Z51" s="20"/>
       <c r="AA51" s="20"/>
       <c r="AB51" s="20"/>
-      <c r="AC51" s="70"/>
-      <c r="AD51" s="19"/>
+      <c r="AC51" s="20"/>
+      <c r="AD51" s="74"/>
       <c r="AE51" s="19"/>
       <c r="AF51" s="19"/>
       <c r="AG51" s="19"/>
       <c r="AH51" s="19"/>
       <c r="AI51" s="19"/>
-      <c r="AJ51" s="62"/>
-      <c r="AK51" s="19"/>
-    </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A52" s="72"/>
-      <c r="B52" s="65"/>
-      <c r="C52" s="64"/>
+      <c r="AJ51" s="19"/>
+      <c r="AK51" s="67"/>
+      <c r="AL51" s="19"/>
+    </row>
+    <row r="52" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A52" s="60"/>
+      <c r="B52" s="69"/>
+      <c r="C52" s="59"/>
       <c r="D52" s="2" t="s">
         <v>33</v>
       </c>
@@ -8425,11 +8587,13 @@
       <c r="G52" s="20"/>
       <c r="H52" s="35"/>
       <c r="I52" s="35"/>
-      <c r="J52" s="36">
+      <c r="J52" s="81" t="s">
+        <v>202</v>
+      </c>
+      <c r="K52" s="36">
         <v>0</v>
       </c>
-      <c r="K52" s="30"/>
-      <c r="L52" s="20"/>
+      <c r="L52" s="30"/>
       <c r="M52" s="20"/>
       <c r="N52" s="20"/>
       <c r="O52" s="20"/>
@@ -8439,27 +8603,28 @@
       <c r="S52" s="20"/>
       <c r="T52" s="20"/>
       <c r="U52" s="20"/>
-      <c r="V52" s="67"/>
-      <c r="W52" s="20"/>
+      <c r="V52" s="20"/>
+      <c r="W52" s="71"/>
       <c r="X52" s="20"/>
       <c r="Y52" s="20"/>
       <c r="Z52" s="20"/>
       <c r="AA52" s="20"/>
       <c r="AB52" s="20"/>
-      <c r="AC52" s="70"/>
-      <c r="AD52" s="19"/>
+      <c r="AC52" s="20"/>
+      <c r="AD52" s="74"/>
       <c r="AE52" s="19"/>
       <c r="AF52" s="19"/>
       <c r="AG52" s="19"/>
       <c r="AH52" s="19"/>
       <c r="AI52" s="19"/>
-      <c r="AJ52" s="62"/>
-      <c r="AK52" s="19"/>
-    </row>
-    <row r="53" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A53" s="72"/>
-      <c r="B53" s="65"/>
-      <c r="C53" s="64" t="s">
+      <c r="AJ52" s="19"/>
+      <c r="AK52" s="67"/>
+      <c r="AL52" s="19"/>
+    </row>
+    <row r="53" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A53" s="60"/>
+      <c r="B53" s="69"/>
+      <c r="C53" s="59" t="s">
         <v>121</v>
       </c>
       <c r="D53" s="2" t="s">
@@ -8474,11 +8639,13 @@
         <v>44124</v>
       </c>
       <c r="I53" s="35"/>
-      <c r="J53" s="36">
+      <c r="J53" s="81" t="s">
+        <v>202</v>
+      </c>
+      <c r="K53" s="36">
         <v>0.7</v>
       </c>
-      <c r="K53" s="30"/>
-      <c r="L53" s="20"/>
+      <c r="L53" s="30"/>
       <c r="M53" s="20"/>
       <c r="N53" s="20"/>
       <c r="O53" s="20"/>
@@ -8488,27 +8655,28 @@
       <c r="S53" s="20"/>
       <c r="T53" s="20"/>
       <c r="U53" s="20"/>
-      <c r="V53" s="67"/>
-      <c r="W53" s="20"/>
+      <c r="V53" s="20"/>
+      <c r="W53" s="71"/>
       <c r="X53" s="20"/>
       <c r="Y53" s="20"/>
       <c r="Z53" s="20"/>
       <c r="AA53" s="20"/>
       <c r="AB53" s="20"/>
-      <c r="AC53" s="70"/>
-      <c r="AD53" s="19"/>
+      <c r="AC53" s="20"/>
+      <c r="AD53" s="74"/>
       <c r="AE53" s="19"/>
       <c r="AF53" s="19"/>
       <c r="AG53" s="19"/>
       <c r="AH53" s="19"/>
       <c r="AI53" s="19"/>
-      <c r="AJ53" s="62"/>
-      <c r="AK53" s="19"/>
-    </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A54" s="72"/>
-      <c r="B54" s="65"/>
-      <c r="C54" s="64"/>
+      <c r="AJ53" s="19"/>
+      <c r="AK53" s="67"/>
+      <c r="AL53" s="19"/>
+    </row>
+    <row r="54" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A54" s="60"/>
+      <c r="B54" s="69"/>
+      <c r="C54" s="59"/>
       <c r="D54" s="2" t="s">
         <v>151</v>
       </c>
@@ -8521,11 +8689,13 @@
         <v>44124</v>
       </c>
       <c r="I54" s="35"/>
-      <c r="J54" s="36">
+      <c r="J54" s="81" t="s">
+        <v>202</v>
+      </c>
+      <c r="K54" s="36">
         <v>0</v>
       </c>
-      <c r="K54" s="30"/>
-      <c r="L54" s="20"/>
+      <c r="L54" s="30"/>
       <c r="M54" s="20"/>
       <c r="N54" s="20"/>
       <c r="O54" s="20"/>
@@ -8535,26 +8705,27 @@
       <c r="S54" s="20"/>
       <c r="T54" s="20"/>
       <c r="U54" s="20"/>
-      <c r="V54" s="67"/>
-      <c r="W54" s="20"/>
+      <c r="V54" s="20"/>
+      <c r="W54" s="71"/>
       <c r="X54" s="20"/>
       <c r="Y54" s="20"/>
       <c r="Z54" s="20"/>
       <c r="AA54" s="20"/>
       <c r="AB54" s="20"/>
-      <c r="AC54" s="70"/>
-      <c r="AD54" s="19"/>
+      <c r="AC54" s="20"/>
+      <c r="AD54" s="74"/>
       <c r="AE54" s="19"/>
       <c r="AF54" s="19"/>
       <c r="AG54" s="19"/>
       <c r="AH54" s="19"/>
       <c r="AI54" s="19"/>
-      <c r="AJ54" s="62"/>
-      <c r="AK54" s="19"/>
-    </row>
-    <row r="55" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="72"/>
-      <c r="B55" s="65"/>
+      <c r="AJ54" s="19"/>
+      <c r="AK54" s="67"/>
+      <c r="AL54" s="19"/>
+    </row>
+    <row r="55" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="60"/>
+      <c r="B55" s="69"/>
       <c r="C55" s="21" t="s">
         <v>71</v>
       </c>
@@ -8566,11 +8737,13 @@
       <c r="G55" s="21"/>
       <c r="H55" s="42"/>
       <c r="I55" s="42"/>
-      <c r="J55" s="43">
+      <c r="J55" s="81" t="s">
+        <v>202</v>
+      </c>
+      <c r="K55" s="43">
         <v>0</v>
       </c>
-      <c r="K55" s="31"/>
-      <c r="L55" s="21"/>
+      <c r="L55" s="31"/>
       <c r="M55" s="21"/>
       <c r="N55" s="21"/>
       <c r="O55" s="21"/>
@@ -8580,32 +8753,33 @@
       <c r="S55" s="21"/>
       <c r="T55" s="21"/>
       <c r="U55" s="21"/>
-      <c r="V55" s="67"/>
-      <c r="W55" s="21"/>
+      <c r="V55" s="21"/>
+      <c r="W55" s="71"/>
       <c r="X55" s="21"/>
       <c r="Y55" s="21"/>
       <c r="Z55" s="21"/>
       <c r="AA55" s="21"/>
       <c r="AB55" s="21"/>
-      <c r="AC55" s="70"/>
-      <c r="AD55" s="19"/>
+      <c r="AC55" s="21"/>
+      <c r="AD55" s="74"/>
       <c r="AE55" s="19"/>
       <c r="AF55" s="19"/>
       <c r="AG55" s="19"/>
       <c r="AH55" s="19"/>
       <c r="AI55" s="19"/>
-      <c r="AJ55" s="62"/>
-      <c r="AK55" s="19"/>
-    </row>
-    <row r="56" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A56" s="72"/>
-      <c r="B56" s="74" t="s">
+      <c r="AJ55" s="19"/>
+      <c r="AK55" s="67"/>
+      <c r="AL55" s="19"/>
+    </row>
+    <row r="56" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A56" s="60"/>
+      <c r="B56" s="62" t="s">
         <v>120</v>
       </c>
-      <c r="C56" s="64" t="s">
+      <c r="C56" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="D56" s="64" t="s">
+      <c r="D56" s="59" t="s">
         <v>29</v>
       </c>
       <c r="E56" s="2" t="s">
@@ -8623,11 +8797,13 @@
       <c r="I56" s="35">
         <v>44124</v>
       </c>
-      <c r="J56" s="36">
+      <c r="J56" s="81" t="s">
+        <v>202</v>
+      </c>
+      <c r="K56" s="36">
         <v>1</v>
       </c>
-      <c r="K56" s="30"/>
-      <c r="L56" s="20"/>
+      <c r="L56" s="30"/>
       <c r="M56" s="20"/>
       <c r="N56" s="20"/>
       <c r="O56" s="20"/>
@@ -8637,28 +8813,29 @@
       <c r="S56" s="20"/>
       <c r="T56" s="20"/>
       <c r="U56" s="20"/>
-      <c r="V56" s="67"/>
-      <c r="W56" s="20"/>
+      <c r="V56" s="20"/>
+      <c r="W56" s="71"/>
       <c r="X56" s="20"/>
       <c r="Y56" s="20"/>
       <c r="Z56" s="20"/>
       <c r="AA56" s="20"/>
       <c r="AB56" s="20"/>
-      <c r="AC56" s="70"/>
-      <c r="AD56" s="19"/>
+      <c r="AC56" s="20"/>
+      <c r="AD56" s="74"/>
       <c r="AE56" s="19"/>
       <c r="AF56" s="19"/>
       <c r="AG56" s="19"/>
       <c r="AH56" s="19"/>
       <c r="AI56" s="19"/>
-      <c r="AJ56" s="62"/>
-      <c r="AK56" s="19"/>
-    </row>
-    <row r="57" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A57" s="72"/>
-      <c r="B57" s="74"/>
-      <c r="C57" s="64"/>
-      <c r="D57" s="64"/>
+      <c r="AJ56" s="19"/>
+      <c r="AK56" s="67"/>
+      <c r="AL56" s="19"/>
+    </row>
+    <row r="57" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A57" s="60"/>
+      <c r="B57" s="62"/>
+      <c r="C57" s="59"/>
+      <c r="D57" s="59"/>
       <c r="E57" s="2" t="s">
         <v>130</v>
       </c>
@@ -8674,11 +8851,13 @@
       <c r="I57" s="35">
         <v>44125</v>
       </c>
-      <c r="J57" s="36">
+      <c r="J57" s="81" t="s">
+        <v>202</v>
+      </c>
+      <c r="K57" s="36">
         <v>1</v>
       </c>
-      <c r="K57" s="30"/>
-      <c r="L57" s="20"/>
+      <c r="L57" s="30"/>
       <c r="M57" s="20"/>
       <c r="N57" s="20"/>
       <c r="O57" s="20"/>
@@ -8688,30 +8867,31 @@
       <c r="S57" s="20"/>
       <c r="T57" s="20"/>
       <c r="U57" s="20"/>
-      <c r="V57" s="67"/>
-      <c r="W57" s="20"/>
+      <c r="V57" s="20"/>
+      <c r="W57" s="71"/>
       <c r="X57" s="20"/>
       <c r="Y57" s="20"/>
       <c r="Z57" s="20"/>
       <c r="AA57" s="20"/>
       <c r="AB57" s="20"/>
-      <c r="AC57" s="70"/>
-      <c r="AD57" s="19"/>
+      <c r="AC57" s="20"/>
+      <c r="AD57" s="74"/>
       <c r="AE57" s="19"/>
       <c r="AF57" s="19"/>
       <c r="AG57" s="19"/>
       <c r="AH57" s="19"/>
       <c r="AI57" s="19"/>
-      <c r="AJ57" s="62"/>
-      <c r="AK57" s="19"/>
-    </row>
-    <row r="58" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A58" s="72"/>
-      <c r="B58" s="74"/>
-      <c r="C58" s="64" t="s">
+      <c r="AJ57" s="19"/>
+      <c r="AK57" s="67"/>
+      <c r="AL57" s="19"/>
+    </row>
+    <row r="58" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A58" s="60"/>
+      <c r="B58" s="62"/>
+      <c r="C58" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="D58" s="64" t="s">
+      <c r="D58" s="59" t="s">
         <v>95</v>
       </c>
       <c r="E58" s="2" t="s">
@@ -8729,11 +8909,13 @@
       <c r="I58" s="35">
         <v>44133</v>
       </c>
-      <c r="J58" s="36">
+      <c r="J58" s="81" t="s">
+        <v>202</v>
+      </c>
+      <c r="K58" s="36">
         <v>1</v>
       </c>
-      <c r="K58" s="30"/>
-      <c r="L58" s="20"/>
+      <c r="L58" s="30"/>
       <c r="M58" s="20"/>
       <c r="N58" s="20"/>
       <c r="O58" s="20"/>
@@ -8743,28 +8925,29 @@
       <c r="S58" s="20"/>
       <c r="T58" s="20"/>
       <c r="U58" s="20"/>
-      <c r="V58" s="67"/>
-      <c r="W58" s="20"/>
+      <c r="V58" s="20"/>
+      <c r="W58" s="71"/>
       <c r="X58" s="20"/>
       <c r="Y58" s="20"/>
       <c r="Z58" s="20"/>
       <c r="AA58" s="20"/>
       <c r="AB58" s="20"/>
-      <c r="AC58" s="70"/>
-      <c r="AD58" s="19"/>
+      <c r="AC58" s="20"/>
+      <c r="AD58" s="74"/>
       <c r="AE58" s="19"/>
       <c r="AF58" s="19"/>
       <c r="AG58" s="19"/>
       <c r="AH58" s="19"/>
       <c r="AI58" s="19"/>
-      <c r="AJ58" s="62"/>
-      <c r="AK58" s="19"/>
-    </row>
-    <row r="59" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A59" s="72"/>
-      <c r="B59" s="74"/>
-      <c r="C59" s="64"/>
-      <c r="D59" s="64"/>
+      <c r="AJ58" s="19"/>
+      <c r="AK58" s="67"/>
+      <c r="AL58" s="19"/>
+    </row>
+    <row r="59" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A59" s="60"/>
+      <c r="B59" s="62"/>
+      <c r="C59" s="59"/>
+      <c r="D59" s="59"/>
       <c r="E59" s="2" t="s">
         <v>146</v>
       </c>
@@ -8780,11 +8963,13 @@
       <c r="I59" s="35">
         <v>44133</v>
       </c>
-      <c r="J59" s="36">
+      <c r="J59" s="81" t="s">
+        <v>202</v>
+      </c>
+      <c r="K59" s="36">
         <v>1</v>
       </c>
-      <c r="K59" s="30"/>
-      <c r="L59" s="20"/>
+      <c r="L59" s="30"/>
       <c r="M59" s="20"/>
       <c r="N59" s="20"/>
       <c r="O59" s="20"/>
@@ -8794,28 +8979,29 @@
       <c r="S59" s="20"/>
       <c r="T59" s="20"/>
       <c r="U59" s="20"/>
-      <c r="V59" s="67"/>
-      <c r="W59" s="20"/>
+      <c r="V59" s="20"/>
+      <c r="W59" s="71"/>
       <c r="X59" s="20"/>
       <c r="Y59" s="20"/>
       <c r="Z59" s="20"/>
       <c r="AA59" s="20"/>
       <c r="AB59" s="20"/>
-      <c r="AC59" s="70"/>
-      <c r="AD59" s="19"/>
+      <c r="AC59" s="20"/>
+      <c r="AD59" s="74"/>
       <c r="AE59" s="19"/>
       <c r="AF59" s="19"/>
       <c r="AG59" s="19"/>
       <c r="AH59" s="19"/>
       <c r="AI59" s="19"/>
-      <c r="AJ59" s="62"/>
-      <c r="AK59" s="19"/>
-    </row>
-    <row r="60" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A60" s="72"/>
-      <c r="B60" s="74"/>
-      <c r="C60" s="64"/>
-      <c r="D60" s="64"/>
+      <c r="AJ59" s="19"/>
+      <c r="AK59" s="67"/>
+      <c r="AL59" s="19"/>
+    </row>
+    <row r="60" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A60" s="60"/>
+      <c r="B60" s="62"/>
+      <c r="C60" s="59"/>
+      <c r="D60" s="59"/>
       <c r="E60" s="2" t="s">
         <v>147</v>
       </c>
@@ -8831,11 +9017,13 @@
       <c r="I60" s="35">
         <v>44133</v>
       </c>
-      <c r="J60" s="36">
+      <c r="J60" s="81" t="s">
+        <v>202</v>
+      </c>
+      <c r="K60" s="36">
         <v>1</v>
       </c>
-      <c r="K60" s="30"/>
-      <c r="L60" s="20"/>
+      <c r="L60" s="30"/>
       <c r="M60" s="20"/>
       <c r="N60" s="20"/>
       <c r="O60" s="20"/>
@@ -8845,28 +9033,29 @@
       <c r="S60" s="20"/>
       <c r="T60" s="20"/>
       <c r="U60" s="20"/>
-      <c r="V60" s="67"/>
-      <c r="W60" s="20"/>
+      <c r="V60" s="20"/>
+      <c r="W60" s="71"/>
       <c r="X60" s="20"/>
       <c r="Y60" s="20"/>
       <c r="Z60" s="20"/>
       <c r="AA60" s="20"/>
       <c r="AB60" s="20"/>
-      <c r="AC60" s="70"/>
-      <c r="AD60" s="19"/>
+      <c r="AC60" s="20"/>
+      <c r="AD60" s="74"/>
       <c r="AE60" s="19"/>
       <c r="AF60" s="19"/>
       <c r="AG60" s="19"/>
       <c r="AH60" s="19"/>
       <c r="AI60" s="19"/>
-      <c r="AJ60" s="62"/>
-      <c r="AK60" s="19"/>
-    </row>
-    <row r="61" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A61" s="72"/>
-      <c r="B61" s="74"/>
-      <c r="C61" s="64"/>
-      <c r="D61" s="64"/>
+      <c r="AJ60" s="19"/>
+      <c r="AK60" s="67"/>
+      <c r="AL60" s="19"/>
+    </row>
+    <row r="61" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A61" s="60"/>
+      <c r="B61" s="62"/>
+      <c r="C61" s="59"/>
+      <c r="D61" s="59"/>
       <c r="E61" s="2" t="s">
         <v>107</v>
       </c>
@@ -8882,11 +9071,13 @@
       <c r="I61" s="35">
         <v>44133</v>
       </c>
-      <c r="J61" s="36">
+      <c r="J61" s="81" t="s">
+        <v>202</v>
+      </c>
+      <c r="K61" s="36">
         <v>1</v>
       </c>
-      <c r="K61" s="30"/>
-      <c r="L61" s="20"/>
+      <c r="L61" s="30"/>
       <c r="M61" s="20"/>
       <c r="N61" s="20"/>
       <c r="O61" s="20"/>
@@ -8896,28 +9087,29 @@
       <c r="S61" s="20"/>
       <c r="T61" s="20"/>
       <c r="U61" s="20"/>
-      <c r="V61" s="67"/>
-      <c r="W61" s="20"/>
+      <c r="V61" s="20"/>
+      <c r="W61" s="71"/>
       <c r="X61" s="20"/>
       <c r="Y61" s="20"/>
       <c r="Z61" s="20"/>
       <c r="AA61" s="20"/>
       <c r="AB61" s="20"/>
-      <c r="AC61" s="70"/>
-      <c r="AD61" s="19"/>
+      <c r="AC61" s="20"/>
+      <c r="AD61" s="74"/>
       <c r="AE61" s="19"/>
       <c r="AF61" s="19"/>
       <c r="AG61" s="19"/>
       <c r="AH61" s="19"/>
       <c r="AI61" s="19"/>
-      <c r="AJ61" s="62"/>
-      <c r="AK61" s="19"/>
-    </row>
-    <row r="62" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A62" s="72"/>
-      <c r="B62" s="74"/>
-      <c r="C62" s="64"/>
-      <c r="D62" s="64"/>
+      <c r="AJ61" s="19"/>
+      <c r="AK61" s="67"/>
+      <c r="AL61" s="19"/>
+    </row>
+    <row r="62" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A62" s="60"/>
+      <c r="B62" s="62"/>
+      <c r="C62" s="59"/>
+      <c r="D62" s="59"/>
       <c r="E62" s="2" t="s">
         <v>108</v>
       </c>
@@ -8933,11 +9125,13 @@
       <c r="I62" s="35">
         <v>44133</v>
       </c>
-      <c r="J62" s="36">
+      <c r="J62" s="81" t="s">
+        <v>202</v>
+      </c>
+      <c r="K62" s="36">
         <v>1</v>
       </c>
-      <c r="K62" s="30"/>
-      <c r="L62" s="20"/>
+      <c r="L62" s="30"/>
       <c r="M62" s="20"/>
       <c r="N62" s="20"/>
       <c r="O62" s="20"/>
@@ -8947,28 +9141,29 @@
       <c r="S62" s="20"/>
       <c r="T62" s="20"/>
       <c r="U62" s="20"/>
-      <c r="V62" s="67"/>
-      <c r="W62" s="20"/>
+      <c r="V62" s="20"/>
+      <c r="W62" s="71"/>
       <c r="X62" s="20"/>
       <c r="Y62" s="20"/>
       <c r="Z62" s="20"/>
       <c r="AA62" s="20"/>
       <c r="AB62" s="20"/>
-      <c r="AC62" s="70"/>
-      <c r="AD62" s="19"/>
+      <c r="AC62" s="20"/>
+      <c r="AD62" s="74"/>
       <c r="AE62" s="19"/>
       <c r="AF62" s="19"/>
       <c r="AG62" s="19"/>
       <c r="AH62" s="19"/>
       <c r="AI62" s="19"/>
-      <c r="AJ62" s="62"/>
-      <c r="AK62" s="19"/>
-    </row>
-    <row r="63" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A63" s="72"/>
-      <c r="B63" s="74"/>
-      <c r="C63" s="64"/>
-      <c r="D63" s="64" t="s">
+      <c r="AJ62" s="19"/>
+      <c r="AK62" s="67"/>
+      <c r="AL62" s="19"/>
+    </row>
+    <row r="63" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A63" s="60"/>
+      <c r="B63" s="62"/>
+      <c r="C63" s="59"/>
+      <c r="D63" s="59" t="s">
         <v>97</v>
       </c>
       <c r="E63" s="2" t="s">
@@ -8980,11 +9175,13 @@
       <c r="G63" s="20"/>
       <c r="H63" s="35"/>
       <c r="I63" s="35"/>
-      <c r="J63" s="36">
+      <c r="J63" s="81" t="s">
+        <v>202</v>
+      </c>
+      <c r="K63" s="36">
         <v>0</v>
       </c>
-      <c r="K63" s="30"/>
-      <c r="L63" s="20"/>
+      <c r="L63" s="30"/>
       <c r="M63" s="20"/>
       <c r="N63" s="20"/>
       <c r="O63" s="20"/>
@@ -8994,28 +9191,29 @@
       <c r="S63" s="20"/>
       <c r="T63" s="20"/>
       <c r="U63" s="20"/>
-      <c r="V63" s="67"/>
-      <c r="W63" s="20"/>
+      <c r="V63" s="20"/>
+      <c r="W63" s="71"/>
       <c r="X63" s="20"/>
       <c r="Y63" s="20"/>
       <c r="Z63" s="20"/>
       <c r="AA63" s="20"/>
       <c r="AB63" s="20"/>
-      <c r="AC63" s="70"/>
-      <c r="AD63" s="19"/>
+      <c r="AC63" s="20"/>
+      <c r="AD63" s="74"/>
       <c r="AE63" s="19"/>
       <c r="AF63" s="19"/>
       <c r="AG63" s="19"/>
       <c r="AH63" s="19"/>
       <c r="AI63" s="19"/>
-      <c r="AJ63" s="62"/>
-      <c r="AK63" s="19"/>
-    </row>
-    <row r="64" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A64" s="72"/>
-      <c r="B64" s="74"/>
-      <c r="C64" s="64"/>
-      <c r="D64" s="64"/>
+      <c r="AJ63" s="19"/>
+      <c r="AK63" s="67"/>
+      <c r="AL63" s="19"/>
+    </row>
+    <row r="64" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A64" s="60"/>
+      <c r="B64" s="62"/>
+      <c r="C64" s="59"/>
+      <c r="D64" s="59"/>
       <c r="E64" s="2" t="s">
         <v>146</v>
       </c>
@@ -9031,11 +9229,13 @@
       <c r="I64" s="35">
         <v>44133</v>
       </c>
-      <c r="J64" s="36">
+      <c r="J64" s="81" t="s">
+        <v>202</v>
+      </c>
+      <c r="K64" s="36">
         <v>1</v>
       </c>
-      <c r="K64" s="30"/>
-      <c r="L64" s="20"/>
+      <c r="L64" s="30"/>
       <c r="M64" s="20"/>
       <c r="N64" s="20"/>
       <c r="O64" s="20"/>
@@ -9045,30 +9245,31 @@
       <c r="S64" s="20"/>
       <c r="T64" s="20"/>
       <c r="U64" s="20"/>
-      <c r="V64" s="67"/>
-      <c r="W64" s="20"/>
+      <c r="V64" s="20"/>
+      <c r="W64" s="71"/>
       <c r="X64" s="20"/>
       <c r="Y64" s="20"/>
       <c r="Z64" s="20"/>
       <c r="AA64" s="20"/>
       <c r="AB64" s="20"/>
-      <c r="AC64" s="70"/>
-      <c r="AD64" s="19"/>
+      <c r="AC64" s="20"/>
+      <c r="AD64" s="74"/>
       <c r="AE64" s="19"/>
       <c r="AF64" s="19"/>
       <c r="AG64" s="19"/>
       <c r="AH64" s="19"/>
       <c r="AI64" s="19"/>
-      <c r="AJ64" s="62"/>
-      <c r="AK64" s="19"/>
-    </row>
-    <row r="65" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="72"/>
-      <c r="B65" s="74"/>
-      <c r="C65" s="64" t="s">
+      <c r="AJ64" s="19"/>
+      <c r="AK64" s="67"/>
+      <c r="AL64" s="19"/>
+    </row>
+    <row r="65" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="60"/>
+      <c r="B65" s="62"/>
+      <c r="C65" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="D65" s="64" t="s">
+      <c r="D65" s="59" t="s">
         <v>93</v>
       </c>
       <c r="E65" s="2" t="s">
@@ -9086,11 +9287,13 @@
       <c r="I65" s="35">
         <v>44126</v>
       </c>
-      <c r="J65" s="36">
+      <c r="J65" s="81" t="s">
+        <v>202</v>
+      </c>
+      <c r="K65" s="36">
         <v>1</v>
       </c>
-      <c r="K65" s="30"/>
-      <c r="L65" s="20"/>
+      <c r="L65" s="30"/>
       <c r="M65" s="20"/>
       <c r="N65" s="20"/>
       <c r="O65" s="20"/>
@@ -9100,28 +9303,29 @@
       <c r="S65" s="20"/>
       <c r="T65" s="20"/>
       <c r="U65" s="20"/>
-      <c r="V65" s="67"/>
-      <c r="W65" s="20"/>
+      <c r="V65" s="20"/>
+      <c r="W65" s="71"/>
       <c r="X65" s="20"/>
       <c r="Y65" s="20"/>
       <c r="Z65" s="20"/>
       <c r="AA65" s="20"/>
       <c r="AB65" s="20"/>
-      <c r="AC65" s="70"/>
-      <c r="AD65" s="19"/>
+      <c r="AC65" s="20"/>
+      <c r="AD65" s="74"/>
       <c r="AE65" s="19"/>
       <c r="AF65" s="19"/>
       <c r="AG65" s="19"/>
       <c r="AH65" s="19"/>
       <c r="AI65" s="19"/>
-      <c r="AJ65" s="62"/>
-      <c r="AK65" s="19"/>
-    </row>
-    <row r="66" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="72"/>
-      <c r="B66" s="74"/>
-      <c r="C66" s="64"/>
-      <c r="D66" s="64"/>
+      <c r="AJ65" s="19"/>
+      <c r="AK65" s="67"/>
+      <c r="AL65" s="19"/>
+    </row>
+    <row r="66" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="60"/>
+      <c r="B66" s="62"/>
+      <c r="C66" s="59"/>
+      <c r="D66" s="59"/>
       <c r="E66" s="2" t="s">
         <v>130</v>
       </c>
@@ -9137,11 +9341,13 @@
       <c r="I66" s="35">
         <v>44126</v>
       </c>
-      <c r="J66" s="36">
+      <c r="J66" s="81" t="s">
+        <v>202</v>
+      </c>
+      <c r="K66" s="36">
         <v>1</v>
       </c>
-      <c r="K66" s="30"/>
-      <c r="L66" s="20"/>
+      <c r="L66" s="30"/>
       <c r="M66" s="20"/>
       <c r="N66" s="20"/>
       <c r="O66" s="20"/>
@@ -9151,28 +9357,29 @@
       <c r="S66" s="20"/>
       <c r="T66" s="20"/>
       <c r="U66" s="20"/>
-      <c r="V66" s="67"/>
-      <c r="W66" s="20"/>
+      <c r="V66" s="20"/>
+      <c r="W66" s="71"/>
       <c r="X66" s="20"/>
       <c r="Y66" s="20"/>
       <c r="Z66" s="20"/>
       <c r="AA66" s="20"/>
       <c r="AB66" s="20"/>
-      <c r="AC66" s="70"/>
-      <c r="AD66" s="19"/>
+      <c r="AC66" s="20"/>
+      <c r="AD66" s="74"/>
       <c r="AE66" s="19"/>
       <c r="AF66" s="19"/>
       <c r="AG66" s="19"/>
       <c r="AH66" s="19"/>
       <c r="AI66" s="19"/>
-      <c r="AJ66" s="62"/>
-      <c r="AK66" s="19"/>
-    </row>
-    <row r="67" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="72"/>
-      <c r="B67" s="74"/>
-      <c r="C67" s="64"/>
-      <c r="D67" s="59" t="s">
+      <c r="AJ66" s="19"/>
+      <c r="AK66" s="67"/>
+      <c r="AL66" s="19"/>
+    </row>
+    <row r="67" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="60"/>
+      <c r="B67" s="62"/>
+      <c r="C67" s="59"/>
+      <c r="D67" s="63" t="s">
         <v>98</v>
       </c>
       <c r="E67" s="2" t="s">
@@ -9190,11 +9397,13 @@
       <c r="I67" s="35">
         <v>44133</v>
       </c>
-      <c r="J67" s="36">
+      <c r="J67" s="81" t="s">
+        <v>202</v>
+      </c>
+      <c r="K67" s="36">
         <v>1</v>
       </c>
-      <c r="K67" s="30"/>
-      <c r="L67" s="53"/>
+      <c r="L67" s="30"/>
       <c r="M67" s="53"/>
       <c r="N67" s="53"/>
       <c r="O67" s="53"/>
@@ -9204,28 +9413,29 @@
       <c r="S67" s="53"/>
       <c r="T67" s="53"/>
       <c r="U67" s="53"/>
-      <c r="V67" s="67"/>
-      <c r="W67" s="53"/>
+      <c r="V67" s="53"/>
+      <c r="W67" s="71"/>
       <c r="X67" s="53"/>
       <c r="Y67" s="53"/>
       <c r="Z67" s="53"/>
       <c r="AA67" s="53"/>
       <c r="AB67" s="53"/>
-      <c r="AC67" s="70"/>
-      <c r="AD67" s="54"/>
+      <c r="AC67" s="53"/>
+      <c r="AD67" s="74"/>
       <c r="AE67" s="54"/>
       <c r="AF67" s="54"/>
       <c r="AG67" s="54"/>
       <c r="AH67" s="54"/>
       <c r="AI67" s="54"/>
-      <c r="AJ67" s="62"/>
-      <c r="AK67" s="54"/>
-    </row>
-    <row r="68" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="72"/>
-      <c r="B68" s="74"/>
-      <c r="C68" s="64"/>
-      <c r="D68" s="60"/>
+      <c r="AJ67" s="54"/>
+      <c r="AK67" s="67"/>
+      <c r="AL67" s="54"/>
+    </row>
+    <row r="68" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="60"/>
+      <c r="B68" s="62"/>
+      <c r="C68" s="59"/>
+      <c r="D68" s="65"/>
       <c r="E68" s="2" t="s">
         <v>130</v>
       </c>
@@ -9237,11 +9447,13 @@
       </c>
       <c r="H68" s="35"/>
       <c r="I68" s="35"/>
-      <c r="J68" s="36">
+      <c r="J68" s="81" t="s">
+        <v>202</v>
+      </c>
+      <c r="K68" s="36">
         <v>0</v>
       </c>
-      <c r="K68" s="30"/>
-      <c r="L68" s="20"/>
+      <c r="L68" s="30"/>
       <c r="M68" s="20"/>
       <c r="N68" s="20"/>
       <c r="O68" s="20"/>
@@ -9251,27 +9463,28 @@
       <c r="S68" s="20"/>
       <c r="T68" s="20"/>
       <c r="U68" s="20"/>
-      <c r="V68" s="67"/>
-      <c r="W68" s="20"/>
+      <c r="V68" s="20"/>
+      <c r="W68" s="71"/>
       <c r="X68" s="20"/>
       <c r="Y68" s="20"/>
       <c r="Z68" s="20"/>
       <c r="AA68" s="20"/>
       <c r="AB68" s="20"/>
-      <c r="AC68" s="70"/>
-      <c r="AD68" s="19"/>
+      <c r="AC68" s="20"/>
+      <c r="AD68" s="74"/>
       <c r="AE68" s="19"/>
       <c r="AF68" s="19"/>
       <c r="AG68" s="19"/>
       <c r="AH68" s="19"/>
       <c r="AI68" s="19"/>
-      <c r="AJ68" s="62"/>
-      <c r="AK68" s="19"/>
-    </row>
-    <row r="69" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A69" s="72"/>
-      <c r="B69" s="74"/>
-      <c r="C69" s="75"/>
+      <c r="AJ68" s="19"/>
+      <c r="AK68" s="67"/>
+      <c r="AL68" s="19"/>
+    </row>
+    <row r="69" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A69" s="60"/>
+      <c r="B69" s="62"/>
+      <c r="C69" s="64"/>
       <c r="D69" s="2" t="s">
         <v>190</v>
       </c>
@@ -9290,11 +9503,13 @@
       <c r="I69" s="35">
         <v>44132</v>
       </c>
-      <c r="J69" s="36">
+      <c r="J69" s="81" t="s">
+        <v>202</v>
+      </c>
+      <c r="K69" s="36">
         <v>1</v>
       </c>
-      <c r="K69" s="30"/>
-      <c r="L69" s="53"/>
+      <c r="L69" s="30"/>
       <c r="M69" s="53"/>
       <c r="N69" s="53"/>
       <c r="O69" s="53"/>
@@ -9304,27 +9519,28 @@
       <c r="S69" s="53"/>
       <c r="T69" s="53"/>
       <c r="U69" s="53"/>
-      <c r="V69" s="67"/>
-      <c r="W69" s="53"/>
+      <c r="V69" s="53"/>
+      <c r="W69" s="71"/>
       <c r="X69" s="53"/>
       <c r="Y69" s="53"/>
       <c r="Z69" s="53"/>
       <c r="AA69" s="53"/>
       <c r="AB69" s="53"/>
-      <c r="AC69" s="70"/>
-      <c r="AD69" s="54"/>
+      <c r="AC69" s="53"/>
+      <c r="AD69" s="74"/>
       <c r="AE69" s="54"/>
       <c r="AF69" s="54"/>
       <c r="AG69" s="54"/>
       <c r="AH69" s="54"/>
       <c r="AI69" s="54"/>
-      <c r="AJ69" s="62"/>
-      <c r="AK69" s="54"/>
-    </row>
-    <row r="70" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A70" s="72"/>
-      <c r="B70" s="74"/>
-      <c r="C70" s="75"/>
+      <c r="AJ69" s="54"/>
+      <c r="AK69" s="67"/>
+      <c r="AL69" s="54"/>
+    </row>
+    <row r="70" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A70" s="60"/>
+      <c r="B70" s="62"/>
+      <c r="C70" s="64"/>
       <c r="D70" s="2" t="s">
         <v>191</v>
       </c>
@@ -9343,11 +9559,13 @@
       <c r="I70" s="35">
         <v>44132</v>
       </c>
-      <c r="J70" s="36">
+      <c r="J70" s="81" t="s">
+        <v>202</v>
+      </c>
+      <c r="K70" s="36">
         <v>1</v>
       </c>
-      <c r="K70" s="30"/>
-      <c r="L70" s="53"/>
+      <c r="L70" s="30"/>
       <c r="M70" s="53"/>
       <c r="N70" s="53"/>
       <c r="O70" s="53"/>
@@ -9357,27 +9575,28 @@
       <c r="S70" s="53"/>
       <c r="T70" s="53"/>
       <c r="U70" s="53"/>
-      <c r="V70" s="67"/>
-      <c r="W70" s="53"/>
+      <c r="V70" s="53"/>
+      <c r="W70" s="71"/>
       <c r="X70" s="53"/>
       <c r="Y70" s="53"/>
       <c r="Z70" s="53"/>
       <c r="AA70" s="53"/>
       <c r="AB70" s="53"/>
-      <c r="AC70" s="70"/>
-      <c r="AD70" s="54"/>
+      <c r="AC70" s="53"/>
+      <c r="AD70" s="74"/>
       <c r="AE70" s="54"/>
       <c r="AF70" s="54"/>
       <c r="AG70" s="54"/>
       <c r="AH70" s="54"/>
       <c r="AI70" s="54"/>
-      <c r="AJ70" s="62"/>
-      <c r="AK70" s="54"/>
-    </row>
-    <row r="71" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A71" s="72"/>
-      <c r="B71" s="74"/>
-      <c r="C71" s="60"/>
+      <c r="AJ70" s="54"/>
+      <c r="AK70" s="67"/>
+      <c r="AL70" s="54"/>
+    </row>
+    <row r="71" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A71" s="60"/>
+      <c r="B71" s="62"/>
+      <c r="C71" s="65"/>
       <c r="D71" s="2" t="s">
         <v>161</v>
       </c>
@@ -9396,11 +9615,13 @@
       <c r="I71" s="35">
         <v>44130</v>
       </c>
-      <c r="J71" s="36">
+      <c r="J71" s="81" t="s">
+        <v>202</v>
+      </c>
+      <c r="K71" s="36">
         <v>1</v>
       </c>
-      <c r="K71" s="30"/>
-      <c r="L71" s="20"/>
+      <c r="L71" s="30"/>
       <c r="M71" s="20"/>
       <c r="N71" s="20"/>
       <c r="O71" s="20"/>
@@ -9410,27 +9631,28 @@
       <c r="S71" s="20"/>
       <c r="T71" s="20"/>
       <c r="U71" s="20"/>
-      <c r="V71" s="67"/>
-      <c r="W71" s="20"/>
+      <c r="V71" s="20"/>
+      <c r="W71" s="71"/>
       <c r="X71" s="20"/>
       <c r="Y71" s="20"/>
       <c r="Z71" s="20"/>
       <c r="AA71" s="20"/>
       <c r="AB71" s="20"/>
-      <c r="AC71" s="70"/>
-      <c r="AD71" s="19"/>
+      <c r="AC71" s="20"/>
+      <c r="AD71" s="74"/>
       <c r="AE71" s="19"/>
       <c r="AF71" s="19"/>
       <c r="AG71" s="19"/>
       <c r="AH71" s="19"/>
       <c r="AI71" s="19"/>
-      <c r="AJ71" s="62"/>
-      <c r="AK71" s="19"/>
-    </row>
-    <row r="72" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A72" s="72"/>
-      <c r="B72" s="74"/>
-      <c r="C72" s="64" t="s">
+      <c r="AJ71" s="19"/>
+      <c r="AK71" s="67"/>
+      <c r="AL71" s="19"/>
+    </row>
+    <row r="72" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A72" s="60"/>
+      <c r="B72" s="62"/>
+      <c r="C72" s="59" t="s">
         <v>13</v>
       </c>
       <c r="D72" s="2" t="s">
@@ -9449,11 +9671,13 @@
       <c r="I72" s="35">
         <v>44124</v>
       </c>
-      <c r="J72" s="36">
+      <c r="J72" s="81" t="s">
+        <v>202</v>
+      </c>
+      <c r="K72" s="36">
         <v>1</v>
       </c>
-      <c r="K72" s="30"/>
-      <c r="L72" s="20"/>
+      <c r="L72" s="30"/>
       <c r="M72" s="20"/>
       <c r="N72" s="20"/>
       <c r="O72" s="20"/>
@@ -9463,27 +9687,28 @@
       <c r="S72" s="20"/>
       <c r="T72" s="20"/>
       <c r="U72" s="20"/>
-      <c r="V72" s="67"/>
-      <c r="W72" s="20"/>
+      <c r="V72" s="20"/>
+      <c r="W72" s="71"/>
       <c r="X72" s="20"/>
       <c r="Y72" s="20"/>
       <c r="Z72" s="20"/>
       <c r="AA72" s="20"/>
       <c r="AB72" s="20"/>
-      <c r="AC72" s="70"/>
-      <c r="AD72" s="19"/>
+      <c r="AC72" s="20"/>
+      <c r="AD72" s="74"/>
       <c r="AE72" s="19"/>
       <c r="AF72" s="19"/>
       <c r="AG72" s="19"/>
       <c r="AH72" s="19"/>
       <c r="AI72" s="19"/>
-      <c r="AJ72" s="62"/>
-      <c r="AK72" s="19"/>
-    </row>
-    <row r="73" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A73" s="72"/>
-      <c r="B73" s="74"/>
-      <c r="C73" s="64"/>
+      <c r="AJ72" s="19"/>
+      <c r="AK72" s="67"/>
+      <c r="AL72" s="19"/>
+    </row>
+    <row r="73" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A73" s="60"/>
+      <c r="B73" s="62"/>
+      <c r="C73" s="59"/>
       <c r="D73" s="2" t="s">
         <v>126</v>
       </c>
@@ -9500,11 +9725,13 @@
       <c r="I73" s="35">
         <v>44124</v>
       </c>
-      <c r="J73" s="36">
+      <c r="J73" s="81" t="s">
+        <v>202</v>
+      </c>
+      <c r="K73" s="36">
         <v>1</v>
       </c>
-      <c r="K73" s="30"/>
-      <c r="L73" s="20"/>
+      <c r="L73" s="30"/>
       <c r="M73" s="20"/>
       <c r="N73" s="20"/>
       <c r="O73" s="20"/>
@@ -9514,27 +9741,28 @@
       <c r="S73" s="20"/>
       <c r="T73" s="20"/>
       <c r="U73" s="20"/>
-      <c r="V73" s="67"/>
-      <c r="W73" s="20"/>
+      <c r="V73" s="20"/>
+      <c r="W73" s="71"/>
       <c r="X73" s="20"/>
       <c r="Y73" s="20"/>
       <c r="Z73" s="20"/>
       <c r="AA73" s="20"/>
       <c r="AB73" s="20"/>
-      <c r="AC73" s="70"/>
-      <c r="AD73" s="19"/>
+      <c r="AC73" s="20"/>
+      <c r="AD73" s="74"/>
       <c r="AE73" s="19"/>
       <c r="AF73" s="19"/>
       <c r="AG73" s="19"/>
       <c r="AH73" s="19"/>
       <c r="AI73" s="19"/>
-      <c r="AJ73" s="62"/>
-      <c r="AK73" s="19"/>
-    </row>
-    <row r="74" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="72"/>
-      <c r="B74" s="74"/>
-      <c r="C74" s="59" t="s">
+      <c r="AJ73" s="19"/>
+      <c r="AK73" s="67"/>
+      <c r="AL73" s="19"/>
+    </row>
+    <row r="74" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="60"/>
+      <c r="B74" s="62"/>
+      <c r="C74" s="63" t="s">
         <v>99</v>
       </c>
       <c r="D74" s="2" t="s">
@@ -9553,11 +9781,13 @@
       <c r="I74" s="35">
         <v>44126</v>
       </c>
-      <c r="J74" s="36">
+      <c r="J74" s="81" t="s">
+        <v>202</v>
+      </c>
+      <c r="K74" s="36">
         <v>1</v>
       </c>
-      <c r="K74" s="30"/>
-      <c r="L74" s="20"/>
+      <c r="L74" s="30"/>
       <c r="M74" s="20"/>
       <c r="N74" s="20"/>
       <c r="O74" s="20"/>
@@ -9567,27 +9797,28 @@
       <c r="S74" s="20"/>
       <c r="T74" s="20"/>
       <c r="U74" s="20"/>
-      <c r="V74" s="67"/>
-      <c r="W74" s="20"/>
+      <c r="V74" s="20"/>
+      <c r="W74" s="71"/>
       <c r="X74" s="20"/>
       <c r="Y74" s="20"/>
       <c r="Z74" s="20"/>
       <c r="AA74" s="20"/>
       <c r="AB74" s="20"/>
-      <c r="AC74" s="70"/>
-      <c r="AD74" s="19"/>
+      <c r="AC74" s="20"/>
+      <c r="AD74" s="74"/>
       <c r="AE74" s="19"/>
       <c r="AF74" s="19"/>
       <c r="AG74" s="19"/>
       <c r="AH74" s="19"/>
       <c r="AI74" s="19"/>
-      <c r="AJ74" s="62"/>
-      <c r="AK74" s="19"/>
-    </row>
-    <row r="75" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="72"/>
-      <c r="B75" s="74"/>
-      <c r="C75" s="75"/>
+      <c r="AJ74" s="19"/>
+      <c r="AK74" s="67"/>
+      <c r="AL74" s="19"/>
+    </row>
+    <row r="75" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="60"/>
+      <c r="B75" s="62"/>
+      <c r="C75" s="64"/>
       <c r="D75" s="2" t="s">
         <v>156</v>
       </c>
@@ -9604,11 +9835,13 @@
       <c r="I75" s="35">
         <v>44126</v>
       </c>
-      <c r="J75" s="36">
+      <c r="J75" s="81" t="s">
+        <v>202</v>
+      </c>
+      <c r="K75" s="36">
         <v>1</v>
       </c>
-      <c r="K75" s="30"/>
-      <c r="L75" s="20"/>
+      <c r="L75" s="30"/>
       <c r="M75" s="20"/>
       <c r="N75" s="20"/>
       <c r="O75" s="20"/>
@@ -9618,27 +9851,28 @@
       <c r="S75" s="20"/>
       <c r="T75" s="20"/>
       <c r="U75" s="20"/>
-      <c r="V75" s="67"/>
-      <c r="W75" s="20"/>
+      <c r="V75" s="20"/>
+      <c r="W75" s="71"/>
       <c r="X75" s="20"/>
       <c r="Y75" s="20"/>
       <c r="Z75" s="20"/>
       <c r="AA75" s="20"/>
       <c r="AB75" s="20"/>
-      <c r="AC75" s="70"/>
-      <c r="AD75" s="19"/>
+      <c r="AC75" s="20"/>
+      <c r="AD75" s="74"/>
       <c r="AE75" s="19"/>
       <c r="AF75" s="19"/>
       <c r="AG75" s="19"/>
       <c r="AH75" s="19"/>
       <c r="AI75" s="19"/>
-      <c r="AJ75" s="62"/>
-      <c r="AK75" s="19"/>
-    </row>
-    <row r="76" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="72"/>
-      <c r="B76" s="74"/>
-      <c r="C76" s="75"/>
+      <c r="AJ75" s="19"/>
+      <c r="AK75" s="67"/>
+      <c r="AL75" s="19"/>
+    </row>
+    <row r="76" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A76" s="60"/>
+      <c r="B76" s="62"/>
+      <c r="C76" s="64"/>
       <c r="D76" s="2" t="s">
         <v>187</v>
       </c>
@@ -9649,9 +9883,11 @@
       <c r="G76" s="53"/>
       <c r="H76" s="35"/>
       <c r="I76" s="35"/>
-      <c r="J76" s="36"/>
-      <c r="K76" s="30"/>
-      <c r="L76" s="53"/>
+      <c r="J76" s="81" t="s">
+        <v>202</v>
+      </c>
+      <c r="K76" s="36"/>
+      <c r="L76" s="30"/>
       <c r="M76" s="53"/>
       <c r="N76" s="53"/>
       <c r="O76" s="53"/>
@@ -9661,27 +9897,28 @@
       <c r="S76" s="53"/>
       <c r="T76" s="53"/>
       <c r="U76" s="53"/>
-      <c r="V76" s="67"/>
-      <c r="W76" s="53"/>
+      <c r="V76" s="53"/>
+      <c r="W76" s="71"/>
       <c r="X76" s="53"/>
       <c r="Y76" s="53"/>
       <c r="Z76" s="53"/>
       <c r="AA76" s="53"/>
       <c r="AB76" s="53"/>
-      <c r="AC76" s="70"/>
-      <c r="AD76" s="54"/>
+      <c r="AC76" s="53"/>
+      <c r="AD76" s="74"/>
       <c r="AE76" s="54"/>
       <c r="AF76" s="54"/>
       <c r="AG76" s="54"/>
       <c r="AH76" s="54"/>
       <c r="AI76" s="54"/>
-      <c r="AJ76" s="62"/>
-      <c r="AK76" s="54"/>
-    </row>
-    <row r="77" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="72"/>
-      <c r="B77" s="74"/>
-      <c r="C77" s="60"/>
+      <c r="AJ76" s="54"/>
+      <c r="AK76" s="67"/>
+      <c r="AL76" s="54"/>
+    </row>
+    <row r="77" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A77" s="60"/>
+      <c r="B77" s="62"/>
+      <c r="C77" s="65"/>
       <c r="D77" s="2" t="s">
         <v>157</v>
       </c>
@@ -9698,11 +9935,13 @@
       <c r="I77" s="35">
         <v>44126</v>
       </c>
-      <c r="J77" s="36">
+      <c r="J77" s="81" t="s">
+        <v>202</v>
+      </c>
+      <c r="K77" s="36">
         <v>1</v>
       </c>
-      <c r="K77" s="30"/>
-      <c r="L77" s="37"/>
+      <c r="L77" s="30"/>
       <c r="M77" s="37"/>
       <c r="N77" s="37"/>
       <c r="O77" s="37"/>
@@ -9712,27 +9951,28 @@
       <c r="S77" s="37"/>
       <c r="T77" s="37"/>
       <c r="U77" s="37"/>
-      <c r="V77" s="67"/>
-      <c r="W77" s="37"/>
+      <c r="V77" s="37"/>
+      <c r="W77" s="71"/>
       <c r="X77" s="37"/>
       <c r="Y77" s="37"/>
       <c r="Z77" s="37"/>
       <c r="AA77" s="37"/>
       <c r="AB77" s="37"/>
-      <c r="AC77" s="70"/>
-      <c r="AD77" s="19"/>
+      <c r="AC77" s="37"/>
+      <c r="AD77" s="74"/>
       <c r="AE77" s="19"/>
       <c r="AF77" s="19"/>
       <c r="AG77" s="19"/>
       <c r="AH77" s="19"/>
       <c r="AI77" s="19"/>
-      <c r="AJ77" s="62"/>
-      <c r="AK77" s="19"/>
-    </row>
-    <row r="78" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A78" s="72"/>
-      <c r="B78" s="74"/>
-      <c r="C78" s="64" t="s">
+      <c r="AJ77" s="19"/>
+      <c r="AK77" s="67"/>
+      <c r="AL77" s="19"/>
+    </row>
+    <row r="78" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A78" s="60"/>
+      <c r="B78" s="62"/>
+      <c r="C78" s="59" t="s">
         <v>30</v>
       </c>
       <c r="D78" s="2" t="s">
@@ -9749,11 +9989,13 @@
         <v>44131</v>
       </c>
       <c r="I78" s="35"/>
-      <c r="J78" s="36">
+      <c r="J78" s="81" t="s">
+        <v>202</v>
+      </c>
+      <c r="K78" s="36">
         <v>0</v>
       </c>
-      <c r="K78" s="30"/>
-      <c r="L78" s="20"/>
+      <c r="L78" s="30"/>
       <c r="M78" s="20"/>
       <c r="N78" s="20"/>
       <c r="O78" s="20"/>
@@ -9763,27 +10005,28 @@
       <c r="S78" s="20"/>
       <c r="T78" s="20"/>
       <c r="U78" s="20"/>
-      <c r="V78" s="67"/>
-      <c r="W78" s="20"/>
+      <c r="V78" s="20"/>
+      <c r="W78" s="71"/>
       <c r="X78" s="20"/>
       <c r="Y78" s="20"/>
       <c r="Z78" s="20"/>
       <c r="AA78" s="20"/>
       <c r="AB78" s="20"/>
-      <c r="AC78" s="70"/>
-      <c r="AD78" s="19"/>
+      <c r="AC78" s="20"/>
+      <c r="AD78" s="74"/>
       <c r="AE78" s="19"/>
       <c r="AF78" s="19"/>
       <c r="AG78" s="19"/>
       <c r="AH78" s="19"/>
       <c r="AI78" s="19"/>
-      <c r="AJ78" s="62"/>
-      <c r="AK78" s="19"/>
-    </row>
-    <row r="79" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A79" s="72"/>
-      <c r="B79" s="74"/>
-      <c r="C79" s="64"/>
+      <c r="AJ78" s="19"/>
+      <c r="AK78" s="67"/>
+      <c r="AL78" s="19"/>
+    </row>
+    <row r="79" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A79" s="60"/>
+      <c r="B79" s="62"/>
+      <c r="C79" s="59"/>
       <c r="D79" s="2" t="s">
         <v>32</v>
       </c>
@@ -9792,11 +10035,13 @@
       <c r="G79" s="20"/>
       <c r="H79" s="35"/>
       <c r="I79" s="35"/>
-      <c r="J79" s="36">
+      <c r="J79" s="81" t="s">
+        <v>202</v>
+      </c>
+      <c r="K79" s="36">
         <v>0</v>
       </c>
-      <c r="K79" s="30"/>
-      <c r="L79" s="20"/>
+      <c r="L79" s="30"/>
       <c r="M79" s="20"/>
       <c r="N79" s="20"/>
       <c r="O79" s="20"/>
@@ -9806,27 +10051,28 @@
       <c r="S79" s="20"/>
       <c r="T79" s="20"/>
       <c r="U79" s="20"/>
-      <c r="V79" s="67"/>
-      <c r="W79" s="20"/>
+      <c r="V79" s="20"/>
+      <c r="W79" s="71"/>
       <c r="X79" s="20"/>
       <c r="Y79" s="20"/>
       <c r="Z79" s="20"/>
       <c r="AA79" s="20"/>
       <c r="AB79" s="20"/>
-      <c r="AC79" s="70"/>
-      <c r="AD79" s="19"/>
+      <c r="AC79" s="20"/>
+      <c r="AD79" s="74"/>
       <c r="AE79" s="19"/>
       <c r="AF79" s="19"/>
       <c r="AG79" s="19"/>
       <c r="AH79" s="19"/>
       <c r="AI79" s="19"/>
-      <c r="AJ79" s="62"/>
-      <c r="AK79" s="19"/>
-    </row>
-    <row r="80" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A80" s="72"/>
-      <c r="B80" s="74"/>
-      <c r="C80" s="64"/>
+      <c r="AJ79" s="19"/>
+      <c r="AK79" s="67"/>
+      <c r="AL79" s="19"/>
+    </row>
+    <row r="80" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A80" s="60"/>
+      <c r="B80" s="62"/>
+      <c r="C80" s="59"/>
       <c r="D80" s="2" t="s">
         <v>33</v>
       </c>
@@ -9841,11 +10087,13 @@
         <v>44131</v>
       </c>
       <c r="I80" s="35"/>
-      <c r="J80" s="36">
+      <c r="J80" s="81" t="s">
+        <v>202</v>
+      </c>
+      <c r="K80" s="36">
         <v>0</v>
       </c>
-      <c r="K80" s="30"/>
-      <c r="L80" s="20"/>
+      <c r="L80" s="30"/>
       <c r="M80" s="20"/>
       <c r="N80" s="20"/>
       <c r="O80" s="20"/>
@@ -9855,25 +10103,26 @@
       <c r="S80" s="20"/>
       <c r="T80" s="20"/>
       <c r="U80" s="20"/>
-      <c r="V80" s="68"/>
-      <c r="W80" s="20"/>
+      <c r="V80" s="20"/>
+      <c r="W80" s="72"/>
       <c r="X80" s="20"/>
       <c r="Y80" s="20"/>
       <c r="Z80" s="20"/>
       <c r="AA80" s="20"/>
       <c r="AB80" s="20"/>
-      <c r="AC80" s="71"/>
-      <c r="AD80" s="19"/>
+      <c r="AC80" s="20"/>
+      <c r="AD80" s="75"/>
       <c r="AE80" s="19"/>
       <c r="AF80" s="19"/>
       <c r="AG80" s="19"/>
       <c r="AH80" s="19"/>
       <c r="AI80" s="19"/>
-      <c r="AJ80" s="63"/>
-      <c r="AK80" s="19"/>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A81" s="72"/>
+      <c r="AJ80" s="19"/>
+      <c r="AK80" s="68"/>
+      <c r="AL80" s="19"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A81" s="60"/>
       <c r="B81" s="44" t="s">
         <v>21</v>
       </c>
@@ -9888,12 +10137,31 @@
       <c r="G81" s="20"/>
       <c r="H81" s="35"/>
       <c r="I81" s="35"/>
-      <c r="J81" s="45">
+      <c r="J81" s="81" t="s">
+        <v>202</v>
+      </c>
+      <c r="K81" s="45">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="AK5:AK80"/>
+    <mergeCell ref="C18:C42"/>
+    <mergeCell ref="B11:B55"/>
+    <mergeCell ref="D18:D27"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="W5:W80"/>
+    <mergeCell ref="AD5:AD80"/>
+    <mergeCell ref="D58:D62"/>
+    <mergeCell ref="C58:C64"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="D65:D66"/>
     <mergeCell ref="C53:C54"/>
     <mergeCell ref="A5:A81"/>
     <mergeCell ref="C11:C14"/>
@@ -9908,33 +10176,17 @@
     <mergeCell ref="C72:C73"/>
     <mergeCell ref="C74:C77"/>
     <mergeCell ref="C69:C71"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="AJ5:AJ80"/>
-    <mergeCell ref="C18:C42"/>
-    <mergeCell ref="B11:B55"/>
-    <mergeCell ref="D18:D27"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="V5:V80"/>
-    <mergeCell ref="AC5:AC80"/>
-    <mergeCell ref="D58:D62"/>
-    <mergeCell ref="C58:C64"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="D65:D66"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="K3:AK5 AK6:AK80 W6:AB80 AD6:AI80 K6:U80">
+  <conditionalFormatting sqref="L3:AL5 AL6:AL80 X6:AC80 AE6:AJ80 L6:V80">
     <cfRule type="expression" dxfId="1" priority="2">
-      <formula>WEEKDAY(K$3)=7</formula>
+      <formula>WEEKDAY(L$3)=7</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="3">
-      <formula>WEEKDAY(K$3)=1</formula>
+      <formula>WEEKDAY(L$3)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J1048576">
+  <conditionalFormatting sqref="K1:K1048576">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -9980,7 +10232,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>J1:J1048576</xm:sqref>
+          <xm:sqref>K1:K1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -9993,9 +10245,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B3:N23"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>

--- a/schedule/ガントチャート.xlsx
+++ b/schedule/ガントチャート.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="202">
   <si>
     <t>カテゴリ</t>
     <phoneticPr fontId="1"/>
@@ -1398,10 +1398,6 @@
     <rPh sb="0" eb="3">
       <t>ユウセンド</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>S</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2150,22 +2146,13 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2179,6 +2166,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2201,6 +2191,18 @@
     <xf numFmtId="0" fontId="20" fillId="12" borderId="3" xfId="13" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2211,12 +2213,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5906,10 +5902,10 @@
   <dimension ref="A1:AT81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="11" ySplit="4" topLeftCell="L5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="4" topLeftCell="L62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J47" sqref="J47"/>
+      <selection pane="bottomRight" activeCell="N80" sqref="N80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5922,7 +5918,7 @@
     <col min="6" max="6" width="7.125" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="7"/>
     <col min="8" max="9" width="7.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.125" style="80" customWidth="1"/>
+    <col min="10" max="10" width="7.125" style="59" customWidth="1"/>
     <col min="11" max="11" width="10.125" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5" style="3" customWidth="1"/>
     <col min="13" max="16" width="3.5" customWidth="1"/>
@@ -6198,10 +6194,10 @@
       </c>
     </row>
     <row r="5" spans="1:46" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="75" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="20" t="s">
@@ -6223,9 +6219,7 @@
       <c r="I5" s="35">
         <v>44125</v>
       </c>
-      <c r="J5" s="81" t="s">
-        <v>202</v>
-      </c>
+      <c r="J5" s="60"/>
       <c r="K5" s="36">
         <v>1</v>
       </c>
@@ -6240,7 +6234,7 @@
       <c r="T5" s="19"/>
       <c r="U5" s="19"/>
       <c r="V5" s="19"/>
-      <c r="W5" s="70" t="s">
+      <c r="W5" s="68" t="s">
         <v>110</v>
       </c>
       <c r="X5" s="19"/>
@@ -6249,7 +6243,7 @@
       <c r="AA5" s="19"/>
       <c r="AB5" s="19"/>
       <c r="AC5" s="19"/>
-      <c r="AD5" s="73" t="s">
+      <c r="AD5" s="71" t="s">
         <v>111</v>
       </c>
       <c r="AE5" s="19"/>
@@ -6258,14 +6252,14 @@
       <c r="AH5" s="19"/>
       <c r="AI5" s="19"/>
       <c r="AJ5" s="19"/>
-      <c r="AK5" s="66" t="s">
+      <c r="AK5" s="63" t="s">
         <v>88</v>
       </c>
       <c r="AL5" s="19"/>
     </row>
     <row r="6" spans="1:46" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="60"/>
-      <c r="B6" s="61"/>
+      <c r="A6" s="74"/>
+      <c r="B6" s="75"/>
       <c r="C6" s="20" t="s">
         <v>9</v>
       </c>
@@ -6283,9 +6277,7 @@
       <c r="I6" s="35">
         <v>44131</v>
       </c>
-      <c r="J6" s="81" t="s">
-        <v>202</v>
-      </c>
+      <c r="J6" s="60"/>
       <c r="K6" s="36">
         <v>0.9</v>
       </c>
@@ -6300,26 +6292,26 @@
       <c r="T6" s="20"/>
       <c r="U6" s="20"/>
       <c r="V6" s="20"/>
-      <c r="W6" s="71"/>
+      <c r="W6" s="69"/>
       <c r="X6" s="20"/>
       <c r="Y6" s="20"/>
       <c r="Z6" s="20"/>
       <c r="AA6" s="20"/>
       <c r="AB6" s="20"/>
       <c r="AC6" s="20"/>
-      <c r="AD6" s="74"/>
+      <c r="AD6" s="72"/>
       <c r="AE6" s="19"/>
       <c r="AF6" s="19"/>
       <c r="AG6" s="19"/>
       <c r="AH6" s="19"/>
       <c r="AI6" s="19"/>
       <c r="AJ6" s="19"/>
-      <c r="AK6" s="67"/>
+      <c r="AK6" s="64"/>
       <c r="AL6" s="19"/>
     </row>
     <row r="7" spans="1:46" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="60"/>
-      <c r="B7" s="61"/>
+      <c r="A7" s="74"/>
+      <c r="B7" s="75"/>
       <c r="C7" s="20" t="s">
         <v>10</v>
       </c>
@@ -6335,9 +6327,7 @@
         <v>44125</v>
       </c>
       <c r="I7" s="35"/>
-      <c r="J7" s="81" t="s">
-        <v>202</v>
-      </c>
+      <c r="J7" s="60"/>
       <c r="K7" s="36">
         <v>0.6</v>
       </c>
@@ -6352,26 +6342,26 @@
       <c r="T7" s="20"/>
       <c r="U7" s="20"/>
       <c r="V7" s="20"/>
-      <c r="W7" s="71"/>
+      <c r="W7" s="69"/>
       <c r="X7" s="20"/>
       <c r="Y7" s="20"/>
       <c r="Z7" s="20"/>
       <c r="AA7" s="20"/>
       <c r="AB7" s="20"/>
       <c r="AC7" s="20"/>
-      <c r="AD7" s="74"/>
+      <c r="AD7" s="72"/>
       <c r="AE7" s="19"/>
       <c r="AF7" s="19"/>
       <c r="AG7" s="19"/>
       <c r="AH7" s="19"/>
       <c r="AI7" s="19"/>
       <c r="AJ7" s="19"/>
-      <c r="AK7" s="67"/>
+      <c r="AK7" s="64"/>
       <c r="AL7" s="19"/>
     </row>
     <row r="8" spans="1:46" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="60"/>
-      <c r="B8" s="61"/>
+      <c r="A8" s="74"/>
+      <c r="B8" s="75"/>
       <c r="C8" s="20" t="s">
         <v>11</v>
       </c>
@@ -6387,9 +6377,7 @@
         <v>44119</v>
       </c>
       <c r="I8" s="35"/>
-      <c r="J8" s="81" t="s">
-        <v>202</v>
-      </c>
+      <c r="J8" s="60"/>
       <c r="K8" s="36">
         <v>0.1</v>
       </c>
@@ -6404,26 +6392,26 @@
       <c r="T8" s="20"/>
       <c r="U8" s="20"/>
       <c r="V8" s="20"/>
-      <c r="W8" s="71"/>
+      <c r="W8" s="69"/>
       <c r="X8" s="20"/>
       <c r="Y8" s="20"/>
       <c r="Z8" s="20"/>
       <c r="AA8" s="20"/>
       <c r="AB8" s="20"/>
       <c r="AC8" s="20"/>
-      <c r="AD8" s="74"/>
+      <c r="AD8" s="72"/>
       <c r="AE8" s="19"/>
       <c r="AF8" s="19"/>
       <c r="AG8" s="19"/>
       <c r="AH8" s="19"/>
       <c r="AI8" s="19"/>
       <c r="AJ8" s="19"/>
-      <c r="AK8" s="67"/>
+      <c r="AK8" s="64"/>
       <c r="AL8" s="19"/>
     </row>
     <row r="9" spans="1:46" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="60"/>
-      <c r="B9" s="61"/>
+      <c r="A9" s="74"/>
+      <c r="B9" s="75"/>
       <c r="C9" s="20" t="s">
         <v>34</v>
       </c>
@@ -6437,9 +6425,7 @@
       <c r="G9" s="20"/>
       <c r="H9" s="35"/>
       <c r="I9" s="35"/>
-      <c r="J9" s="81" t="s">
-        <v>202</v>
-      </c>
+      <c r="J9" s="60"/>
       <c r="K9" s="36">
         <v>0</v>
       </c>
@@ -6454,26 +6440,26 @@
       <c r="T9" s="20"/>
       <c r="U9" s="20"/>
       <c r="V9" s="20"/>
-      <c r="W9" s="71"/>
+      <c r="W9" s="69"/>
       <c r="X9" s="20"/>
       <c r="Y9" s="20"/>
       <c r="Z9" s="20"/>
       <c r="AA9" s="20"/>
       <c r="AB9" s="20"/>
       <c r="AC9" s="20"/>
-      <c r="AD9" s="74"/>
+      <c r="AD9" s="72"/>
       <c r="AE9" s="19"/>
       <c r="AF9" s="19"/>
       <c r="AG9" s="19"/>
       <c r="AH9" s="19"/>
       <c r="AI9" s="19"/>
       <c r="AJ9" s="19"/>
-      <c r="AK9" s="67"/>
+      <c r="AK9" s="64"/>
       <c r="AL9" s="19"/>
     </row>
     <row r="10" spans="1:46" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="60"/>
-      <c r="B10" s="61"/>
+      <c r="A10" s="74"/>
+      <c r="B10" s="75"/>
       <c r="C10" s="20" t="s">
         <v>35</v>
       </c>
@@ -6487,9 +6473,7 @@
       <c r="G10" s="20"/>
       <c r="H10" s="35"/>
       <c r="I10" s="35"/>
-      <c r="J10" s="81" t="s">
-        <v>202</v>
-      </c>
+      <c r="J10" s="60"/>
       <c r="K10" s="36">
         <v>0</v>
       </c>
@@ -6504,29 +6488,29 @@
       <c r="T10" s="20"/>
       <c r="U10" s="20"/>
       <c r="V10" s="20"/>
-      <c r="W10" s="71"/>
+      <c r="W10" s="69"/>
       <c r="X10" s="20"/>
       <c r="Y10" s="20"/>
       <c r="Z10" s="20"/>
       <c r="AA10" s="20"/>
       <c r="AB10" s="20"/>
       <c r="AC10" s="20"/>
-      <c r="AD10" s="74"/>
+      <c r="AD10" s="72"/>
       <c r="AE10" s="19"/>
       <c r="AF10" s="19"/>
       <c r="AG10" s="19"/>
       <c r="AH10" s="19"/>
       <c r="AI10" s="19"/>
       <c r="AJ10" s="19"/>
-      <c r="AK10" s="67"/>
+      <c r="AK10" s="64"/>
       <c r="AL10" s="19"/>
     </row>
     <row r="11" spans="1:46" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="60"/>
-      <c r="B11" s="69" t="s">
+      <c r="A11" s="74"/>
+      <c r="B11" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="59" t="s">
+      <c r="C11" s="66" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="46" t="s">
@@ -6537,9 +6521,7 @@
       <c r="G11" s="20"/>
       <c r="H11" s="35"/>
       <c r="I11" s="35"/>
-      <c r="J11" s="81" t="s">
-        <v>202</v>
-      </c>
+      <c r="J11" s="60"/>
       <c r="K11" s="36">
         <v>0</v>
       </c>
@@ -6554,27 +6536,27 @@
       <c r="T11" s="20"/>
       <c r="U11" s="20"/>
       <c r="V11" s="20"/>
-      <c r="W11" s="71"/>
+      <c r="W11" s="69"/>
       <c r="X11" s="20"/>
       <c r="Y11" s="20"/>
       <c r="Z11" s="20"/>
       <c r="AA11" s="20"/>
       <c r="AB11" s="20"/>
       <c r="AC11" s="20"/>
-      <c r="AD11" s="74"/>
+      <c r="AD11" s="72"/>
       <c r="AE11" s="19"/>
       <c r="AF11" s="19"/>
       <c r="AG11" s="19"/>
       <c r="AH11" s="19"/>
       <c r="AI11" s="19"/>
       <c r="AJ11" s="19"/>
-      <c r="AK11" s="67"/>
+      <c r="AK11" s="64"/>
       <c r="AL11" s="19"/>
     </row>
     <row r="12" spans="1:46" x14ac:dyDescent="0.4">
-      <c r="A12" s="60"/>
-      <c r="B12" s="69"/>
-      <c r="C12" s="59"/>
+      <c r="A12" s="74"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="66"/>
       <c r="D12" s="2" t="s">
         <v>23</v>
       </c>
@@ -6583,9 +6565,7 @@
       <c r="G12" s="20"/>
       <c r="H12" s="35"/>
       <c r="I12" s="35"/>
-      <c r="J12" s="81" t="s">
-        <v>202</v>
-      </c>
+      <c r="J12" s="60"/>
       <c r="K12" s="36">
         <v>0</v>
       </c>
@@ -6600,27 +6580,27 @@
       <c r="T12" s="20"/>
       <c r="U12" s="20"/>
       <c r="V12" s="20"/>
-      <c r="W12" s="71"/>
+      <c r="W12" s="69"/>
       <c r="X12" s="20"/>
       <c r="Y12" s="20"/>
       <c r="Z12" s="20"/>
       <c r="AA12" s="20"/>
       <c r="AB12" s="20"/>
       <c r="AC12" s="20"/>
-      <c r="AD12" s="74"/>
+      <c r="AD12" s="72"/>
       <c r="AE12" s="19"/>
       <c r="AF12" s="19"/>
       <c r="AG12" s="19"/>
       <c r="AH12" s="19"/>
       <c r="AI12" s="19"/>
       <c r="AJ12" s="19"/>
-      <c r="AK12" s="67"/>
+      <c r="AK12" s="64"/>
       <c r="AL12" s="19"/>
     </row>
     <row r="13" spans="1:46" x14ac:dyDescent="0.4">
-      <c r="A13" s="60"/>
-      <c r="B13" s="69"/>
-      <c r="C13" s="59"/>
+      <c r="A13" s="74"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="66"/>
       <c r="D13" s="38" t="s">
         <v>45</v>
       </c>
@@ -6629,9 +6609,7 @@
       <c r="G13" s="20"/>
       <c r="H13" s="35"/>
       <c r="I13" s="35"/>
-      <c r="J13" s="81" t="s">
-        <v>202</v>
-      </c>
+      <c r="J13" s="60"/>
       <c r="K13" s="36">
         <v>0</v>
       </c>
@@ -6646,27 +6624,27 @@
       <c r="T13" s="20"/>
       <c r="U13" s="20"/>
       <c r="V13" s="20"/>
-      <c r="W13" s="71"/>
+      <c r="W13" s="69"/>
       <c r="X13" s="20"/>
       <c r="Y13" s="20"/>
       <c r="Z13" s="20"/>
       <c r="AA13" s="20"/>
       <c r="AB13" s="20"/>
       <c r="AC13" s="20"/>
-      <c r="AD13" s="74"/>
+      <c r="AD13" s="72"/>
       <c r="AE13" s="19"/>
       <c r="AF13" s="19"/>
       <c r="AG13" s="19"/>
       <c r="AH13" s="19"/>
       <c r="AI13" s="19"/>
       <c r="AJ13" s="19"/>
-      <c r="AK13" s="67"/>
+      <c r="AK13" s="64"/>
       <c r="AL13" s="19"/>
     </row>
     <row r="14" spans="1:46" x14ac:dyDescent="0.4">
-      <c r="A14" s="60"/>
-      <c r="B14" s="69"/>
-      <c r="C14" s="59"/>
+      <c r="A14" s="74"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="66"/>
       <c r="D14" s="39" t="s">
         <v>27</v>
       </c>
@@ -6675,9 +6653,7 @@
       <c r="G14" s="20"/>
       <c r="H14" s="35"/>
       <c r="I14" s="35"/>
-      <c r="J14" s="81" t="s">
-        <v>202</v>
-      </c>
+      <c r="J14" s="60"/>
       <c r="K14" s="36">
         <v>0</v>
       </c>
@@ -6692,27 +6668,27 @@
       <c r="T14" s="20"/>
       <c r="U14" s="20"/>
       <c r="V14" s="20"/>
-      <c r="W14" s="71"/>
+      <c r="W14" s="69"/>
       <c r="X14" s="20"/>
       <c r="Y14" s="20"/>
       <c r="Z14" s="20"/>
       <c r="AA14" s="20"/>
       <c r="AB14" s="20"/>
       <c r="AC14" s="20"/>
-      <c r="AD14" s="74"/>
+      <c r="AD14" s="72"/>
       <c r="AE14" s="19"/>
       <c r="AF14" s="19"/>
       <c r="AG14" s="19"/>
       <c r="AH14" s="19"/>
       <c r="AI14" s="19"/>
       <c r="AJ14" s="19"/>
-      <c r="AK14" s="67"/>
+      <c r="AK14" s="64"/>
       <c r="AL14" s="19"/>
     </row>
     <row r="15" spans="1:46" x14ac:dyDescent="0.4">
-      <c r="A15" s="60"/>
-      <c r="B15" s="69"/>
-      <c r="C15" s="59" t="s">
+      <c r="A15" s="74"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="66" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -6725,9 +6701,7 @@
       <c r="G15" s="20"/>
       <c r="H15" s="35"/>
       <c r="I15" s="35"/>
-      <c r="J15" s="81" t="s">
-        <v>202</v>
-      </c>
+      <c r="J15" s="60"/>
       <c r="K15" s="36">
         <v>0</v>
       </c>
@@ -6742,27 +6716,27 @@
       <c r="T15" s="20"/>
       <c r="U15" s="20"/>
       <c r="V15" s="20"/>
-      <c r="W15" s="71"/>
+      <c r="W15" s="69"/>
       <c r="X15" s="20"/>
       <c r="Y15" s="20"/>
       <c r="Z15" s="20"/>
       <c r="AA15" s="20"/>
       <c r="AB15" s="20"/>
       <c r="AC15" s="20"/>
-      <c r="AD15" s="74"/>
+      <c r="AD15" s="72"/>
       <c r="AE15" s="19"/>
       <c r="AF15" s="19"/>
       <c r="AG15" s="19"/>
       <c r="AH15" s="19"/>
       <c r="AI15" s="19"/>
       <c r="AJ15" s="19"/>
-      <c r="AK15" s="67"/>
+      <c r="AK15" s="64"/>
       <c r="AL15" s="19"/>
     </row>
     <row r="16" spans="1:46" x14ac:dyDescent="0.4">
-      <c r="A16" s="60"/>
-      <c r="B16" s="69"/>
-      <c r="C16" s="59"/>
+      <c r="A16" s="74"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="66"/>
       <c r="D16" s="40" t="s">
         <v>45</v>
       </c>
@@ -6771,9 +6745,7 @@
       <c r="G16" s="20"/>
       <c r="H16" s="35"/>
       <c r="I16" s="35"/>
-      <c r="J16" s="81" t="s">
-        <v>202</v>
-      </c>
+      <c r="J16" s="60"/>
       <c r="K16" s="36">
         <v>0</v>
       </c>
@@ -6788,27 +6760,27 @@
       <c r="T16" s="20"/>
       <c r="U16" s="20"/>
       <c r="V16" s="20"/>
-      <c r="W16" s="71"/>
+      <c r="W16" s="69"/>
       <c r="X16" s="20"/>
       <c r="Y16" s="20"/>
       <c r="Z16" s="20"/>
       <c r="AA16" s="20"/>
       <c r="AB16" s="20"/>
       <c r="AC16" s="20"/>
-      <c r="AD16" s="74"/>
+      <c r="AD16" s="72"/>
       <c r="AE16" s="19"/>
       <c r="AF16" s="19"/>
       <c r="AG16" s="19"/>
       <c r="AH16" s="19"/>
       <c r="AI16" s="19"/>
       <c r="AJ16" s="19"/>
-      <c r="AK16" s="67"/>
+      <c r="AK16" s="64"/>
       <c r="AL16" s="19"/>
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A17" s="60"/>
-      <c r="B17" s="69"/>
-      <c r="C17" s="59"/>
+      <c r="A17" s="74"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="66"/>
       <c r="D17" s="2" t="s">
         <v>23</v>
       </c>
@@ -6817,9 +6789,7 @@
       <c r="G17" s="20"/>
       <c r="H17" s="35"/>
       <c r="I17" s="35"/>
-      <c r="J17" s="81" t="s">
-        <v>202</v>
-      </c>
+      <c r="J17" s="60"/>
       <c r="K17" s="36">
         <v>0</v>
       </c>
@@ -6834,30 +6804,30 @@
       <c r="T17" s="20"/>
       <c r="U17" s="20"/>
       <c r="V17" s="20"/>
-      <c r="W17" s="71"/>
+      <c r="W17" s="69"/>
       <c r="X17" s="20"/>
       <c r="Y17" s="20"/>
       <c r="Z17" s="20"/>
       <c r="AA17" s="20"/>
       <c r="AB17" s="20"/>
       <c r="AC17" s="20"/>
-      <c r="AD17" s="74"/>
+      <c r="AD17" s="72"/>
       <c r="AE17" s="19"/>
       <c r="AF17" s="19"/>
       <c r="AG17" s="19"/>
       <c r="AH17" s="19"/>
       <c r="AI17" s="19"/>
       <c r="AJ17" s="19"/>
-      <c r="AK17" s="67"/>
+      <c r="AK17" s="64"/>
       <c r="AL17" s="19"/>
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A18" s="60"/>
-      <c r="B18" s="69"/>
-      <c r="C18" s="59" t="s">
+      <c r="A18" s="74"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="59" t="s">
+      <c r="D18" s="66" t="s">
         <v>95</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -6875,9 +6845,7 @@
       <c r="I18" s="35">
         <v>44127</v>
       </c>
-      <c r="J18" s="81" t="s">
-        <v>202</v>
-      </c>
+      <c r="J18" s="60"/>
       <c r="K18" s="36">
         <v>1</v>
       </c>
@@ -6892,28 +6860,28 @@
       <c r="T18" s="20"/>
       <c r="U18" s="20"/>
       <c r="V18" s="20"/>
-      <c r="W18" s="71"/>
+      <c r="W18" s="69"/>
       <c r="X18" s="20"/>
       <c r="Y18" s="20"/>
       <c r="Z18" s="20"/>
       <c r="AA18" s="20"/>
       <c r="AB18" s="20"/>
       <c r="AC18" s="20"/>
-      <c r="AD18" s="74"/>
+      <c r="AD18" s="72"/>
       <c r="AE18" s="19"/>
       <c r="AF18" s="19"/>
       <c r="AG18" s="19"/>
       <c r="AH18" s="19"/>
       <c r="AI18" s="19"/>
       <c r="AJ18" s="19"/>
-      <c r="AK18" s="67"/>
+      <c r="AK18" s="64"/>
       <c r="AL18" s="19"/>
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A19" s="60"/>
-      <c r="B19" s="69"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
+      <c r="A19" s="74"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
       <c r="E19" s="2" t="s">
         <v>138</v>
       </c>
@@ -6929,9 +6897,7 @@
       <c r="I19" s="35">
         <v>44126</v>
       </c>
-      <c r="J19" s="81" t="s">
-        <v>202</v>
-      </c>
+      <c r="J19" s="60"/>
       <c r="K19" s="36">
         <v>1</v>
       </c>
@@ -6946,28 +6912,28 @@
       <c r="T19" s="20"/>
       <c r="U19" s="20"/>
       <c r="V19" s="20"/>
-      <c r="W19" s="71"/>
+      <c r="W19" s="69"/>
       <c r="X19" s="20"/>
       <c r="Y19" s="20"/>
       <c r="Z19" s="20"/>
       <c r="AA19" s="20"/>
       <c r="AB19" s="20"/>
       <c r="AC19" s="20"/>
-      <c r="AD19" s="74"/>
+      <c r="AD19" s="72"/>
       <c r="AE19" s="19"/>
       <c r="AF19" s="19"/>
       <c r="AG19" s="19"/>
       <c r="AH19" s="19"/>
       <c r="AI19" s="19"/>
       <c r="AJ19" s="19"/>
-      <c r="AK19" s="67"/>
+      <c r="AK19" s="64"/>
       <c r="AL19" s="19"/>
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A20" s="60"/>
-      <c r="B20" s="69"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
+      <c r="A20" s="74"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
       <c r="E20" s="2" t="s">
         <v>112</v>
       </c>
@@ -6983,9 +6949,7 @@
       <c r="I20" s="35">
         <v>44124</v>
       </c>
-      <c r="J20" s="81" t="s">
-        <v>202</v>
-      </c>
+      <c r="J20" s="60"/>
       <c r="K20" s="36">
         <v>1</v>
       </c>
@@ -7000,28 +6964,28 @@
       <c r="T20" s="20"/>
       <c r="U20" s="20"/>
       <c r="V20" s="20"/>
-      <c r="W20" s="71"/>
+      <c r="W20" s="69"/>
       <c r="X20" s="20"/>
       <c r="Y20" s="20"/>
       <c r="Z20" s="20"/>
       <c r="AA20" s="20"/>
       <c r="AB20" s="20"/>
       <c r="AC20" s="20"/>
-      <c r="AD20" s="74"/>
+      <c r="AD20" s="72"/>
       <c r="AE20" s="19"/>
       <c r="AF20" s="19"/>
       <c r="AG20" s="19"/>
       <c r="AH20" s="19"/>
       <c r="AI20" s="19"/>
       <c r="AJ20" s="19"/>
-      <c r="AK20" s="67"/>
+      <c r="AK20" s="64"/>
       <c r="AL20" s="19"/>
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A21" s="60"/>
-      <c r="B21" s="69"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
+      <c r="A21" s="74"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
       <c r="E21" s="2" t="s">
         <v>108</v>
       </c>
@@ -7037,9 +7001,7 @@
       <c r="I21" s="35">
         <v>44132</v>
       </c>
-      <c r="J21" s="81" t="s">
-        <v>202</v>
-      </c>
+      <c r="J21" s="60"/>
       <c r="K21" s="36">
         <v>1</v>
       </c>
@@ -7054,28 +7016,28 @@
       <c r="T21" s="20"/>
       <c r="U21" s="20"/>
       <c r="V21" s="20"/>
-      <c r="W21" s="71"/>
+      <c r="W21" s="69"/>
       <c r="X21" s="20"/>
       <c r="Y21" s="20"/>
       <c r="Z21" s="20"/>
       <c r="AA21" s="20"/>
       <c r="AB21" s="20"/>
       <c r="AC21" s="20"/>
-      <c r="AD21" s="74"/>
+      <c r="AD21" s="72"/>
       <c r="AE21" s="19"/>
       <c r="AF21" s="19"/>
       <c r="AG21" s="19"/>
       <c r="AH21" s="19"/>
       <c r="AI21" s="19"/>
       <c r="AJ21" s="19"/>
-      <c r="AK21" s="67"/>
+      <c r="AK21" s="64"/>
       <c r="AL21" s="19"/>
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A22" s="60"/>
-      <c r="B22" s="69"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
+      <c r="A22" s="74"/>
+      <c r="B22" s="67"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="66"/>
       <c r="E22" s="2" t="s">
         <v>135</v>
       </c>
@@ -7091,9 +7053,7 @@
       <c r="I22" s="35">
         <v>44125</v>
       </c>
-      <c r="J22" s="81" t="s">
-        <v>202</v>
-      </c>
+      <c r="J22" s="60"/>
       <c r="K22" s="36">
         <v>1</v>
       </c>
@@ -7108,28 +7068,28 @@
       <c r="T22" s="20"/>
       <c r="U22" s="20"/>
       <c r="V22" s="20"/>
-      <c r="W22" s="71"/>
+      <c r="W22" s="69"/>
       <c r="X22" s="20"/>
       <c r="Y22" s="20"/>
       <c r="Z22" s="20"/>
       <c r="AA22" s="20"/>
       <c r="AB22" s="20"/>
       <c r="AC22" s="20"/>
-      <c r="AD22" s="74"/>
+      <c r="AD22" s="72"/>
       <c r="AE22" s="19"/>
       <c r="AF22" s="19"/>
       <c r="AG22" s="19"/>
       <c r="AH22" s="19"/>
       <c r="AI22" s="19"/>
       <c r="AJ22" s="19"/>
-      <c r="AK22" s="67"/>
+      <c r="AK22" s="64"/>
       <c r="AL22" s="19"/>
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A23" s="60"/>
-      <c r="B23" s="69"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
+      <c r="A23" s="74"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
       <c r="E23" s="2" t="s">
         <v>118</v>
       </c>
@@ -7145,9 +7105,7 @@
       <c r="I23" s="35">
         <v>44124</v>
       </c>
-      <c r="J23" s="81" t="s">
-        <v>202</v>
-      </c>
+      <c r="J23" s="60"/>
       <c r="K23" s="36">
         <v>1</v>
       </c>
@@ -7162,28 +7120,28 @@
       <c r="T23" s="20"/>
       <c r="U23" s="20"/>
       <c r="V23" s="20"/>
-      <c r="W23" s="71"/>
+      <c r="W23" s="69"/>
       <c r="X23" s="20"/>
       <c r="Y23" s="20"/>
       <c r="Z23" s="20"/>
       <c r="AA23" s="20"/>
       <c r="AB23" s="20"/>
       <c r="AC23" s="20"/>
-      <c r="AD23" s="74"/>
+      <c r="AD23" s="72"/>
       <c r="AE23" s="19"/>
       <c r="AF23" s="19"/>
       <c r="AG23" s="19"/>
       <c r="AH23" s="19"/>
       <c r="AI23" s="19"/>
       <c r="AJ23" s="19"/>
-      <c r="AK23" s="67"/>
+      <c r="AK23" s="64"/>
       <c r="AL23" s="19"/>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A24" s="60"/>
-      <c r="B24" s="69"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
+      <c r="A24" s="74"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
       <c r="E24" s="2" t="s">
         <v>109</v>
       </c>
@@ -7199,9 +7157,7 @@
       <c r="I24" s="35">
         <v>44134</v>
       </c>
-      <c r="J24" s="81" t="s">
-        <v>202</v>
-      </c>
+      <c r="J24" s="60"/>
       <c r="K24" s="36">
         <v>0</v>
       </c>
@@ -7216,28 +7172,28 @@
       <c r="T24" s="20"/>
       <c r="U24" s="20"/>
       <c r="V24" s="20"/>
-      <c r="W24" s="71"/>
+      <c r="W24" s="69"/>
       <c r="X24" s="20"/>
       <c r="Y24" s="20"/>
       <c r="Z24" s="20"/>
       <c r="AA24" s="20"/>
       <c r="AB24" s="20"/>
       <c r="AC24" s="20"/>
-      <c r="AD24" s="74"/>
+      <c r="AD24" s="72"/>
       <c r="AE24" s="19"/>
       <c r="AF24" s="19"/>
       <c r="AG24" s="19"/>
       <c r="AH24" s="19"/>
       <c r="AI24" s="19"/>
       <c r="AJ24" s="19"/>
-      <c r="AK24" s="67"/>
+      <c r="AK24" s="64"/>
       <c r="AL24" s="19"/>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A25" s="60"/>
-      <c r="B25" s="69"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
+      <c r="A25" s="74"/>
+      <c r="B25" s="67"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="66"/>
       <c r="E25" s="2" t="s">
         <v>167</v>
       </c>
@@ -7253,9 +7209,7 @@
       <c r="I25" s="35">
         <v>44127</v>
       </c>
-      <c r="J25" s="81" t="s">
-        <v>202</v>
-      </c>
+      <c r="J25" s="60"/>
       <c r="K25" s="36">
         <v>1</v>
       </c>
@@ -7270,28 +7224,28 @@
       <c r="T25" s="50"/>
       <c r="U25" s="50"/>
       <c r="V25" s="50"/>
-      <c r="W25" s="71"/>
+      <c r="W25" s="69"/>
       <c r="X25" s="50"/>
       <c r="Y25" s="50"/>
       <c r="Z25" s="50"/>
       <c r="AA25" s="50"/>
       <c r="AB25" s="50"/>
       <c r="AC25" s="50"/>
-      <c r="AD25" s="74"/>
+      <c r="AD25" s="72"/>
       <c r="AE25" s="51"/>
       <c r="AF25" s="51"/>
       <c r="AG25" s="51"/>
       <c r="AH25" s="51"/>
       <c r="AI25" s="51"/>
       <c r="AJ25" s="51"/>
-      <c r="AK25" s="67"/>
+      <c r="AK25" s="64"/>
       <c r="AL25" s="51"/>
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A26" s="60"/>
-      <c r="B26" s="69"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
+      <c r="A26" s="74"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="66"/>
       <c r="E26" s="2" t="s">
         <v>106</v>
       </c>
@@ -7307,9 +7261,7 @@
       <c r="I26" s="35">
         <v>44125</v>
       </c>
-      <c r="J26" s="81" t="s">
-        <v>202</v>
-      </c>
+      <c r="J26" s="60"/>
       <c r="K26" s="36">
         <v>1</v>
       </c>
@@ -7324,28 +7276,28 @@
       <c r="T26" s="20"/>
       <c r="U26" s="20"/>
       <c r="V26" s="20"/>
-      <c r="W26" s="71"/>
+      <c r="W26" s="69"/>
       <c r="X26" s="20"/>
       <c r="Y26" s="20"/>
       <c r="Z26" s="20"/>
       <c r="AA26" s="20"/>
       <c r="AB26" s="20"/>
       <c r="AC26" s="20"/>
-      <c r="AD26" s="74"/>
+      <c r="AD26" s="72"/>
       <c r="AE26" s="19"/>
       <c r="AF26" s="19"/>
       <c r="AG26" s="19"/>
       <c r="AH26" s="19"/>
       <c r="AI26" s="19"/>
       <c r="AJ26" s="19"/>
-      <c r="AK26" s="67"/>
+      <c r="AK26" s="64"/>
       <c r="AL26" s="19"/>
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A27" s="60"/>
-      <c r="B27" s="69"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
+      <c r="A27" s="74"/>
+      <c r="B27" s="67"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="66"/>
       <c r="E27" s="2" t="s">
         <v>102</v>
       </c>
@@ -7361,9 +7313,7 @@
       <c r="I27" s="35">
         <v>44134</v>
       </c>
-      <c r="J27" s="81" t="s">
-        <v>202</v>
-      </c>
+      <c r="J27" s="60"/>
       <c r="K27" s="36">
         <v>1</v>
       </c>
@@ -7378,28 +7328,28 @@
       <c r="T27" s="20"/>
       <c r="U27" s="20"/>
       <c r="V27" s="20"/>
-      <c r="W27" s="71"/>
+      <c r="W27" s="69"/>
       <c r="X27" s="20"/>
       <c r="Y27" s="20"/>
       <c r="Z27" s="20"/>
       <c r="AA27" s="20"/>
       <c r="AB27" s="20"/>
       <c r="AC27" s="20"/>
-      <c r="AD27" s="74"/>
+      <c r="AD27" s="72"/>
       <c r="AE27" s="19"/>
       <c r="AF27" s="19"/>
       <c r="AG27" s="19"/>
       <c r="AH27" s="19"/>
       <c r="AI27" s="19"/>
       <c r="AJ27" s="19"/>
-      <c r="AK27" s="67"/>
+      <c r="AK27" s="64"/>
       <c r="AL27" s="19"/>
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A28" s="60"/>
-      <c r="B28" s="69"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="59" t="s">
+      <c r="A28" s="74"/>
+      <c r="B28" s="67"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="66" t="s">
         <v>25</v>
       </c>
       <c r="E28" s="2" t="s">
@@ -7417,9 +7367,7 @@
       <c r="I28" s="35">
         <v>44124</v>
       </c>
-      <c r="J28" s="81" t="s">
-        <v>202</v>
-      </c>
+      <c r="J28" s="60"/>
       <c r="K28" s="36">
         <v>1</v>
       </c>
@@ -7434,28 +7382,28 @@
       <c r="T28" s="20"/>
       <c r="U28" s="20"/>
       <c r="V28" s="20"/>
-      <c r="W28" s="71"/>
+      <c r="W28" s="69"/>
       <c r="X28" s="20"/>
       <c r="Y28" s="20"/>
       <c r="Z28" s="20"/>
       <c r="AA28" s="20"/>
       <c r="AB28" s="20"/>
       <c r="AC28" s="20"/>
-      <c r="AD28" s="74"/>
+      <c r="AD28" s="72"/>
       <c r="AE28" s="19"/>
       <c r="AF28" s="19"/>
       <c r="AG28" s="19"/>
       <c r="AH28" s="19"/>
       <c r="AI28" s="19"/>
       <c r="AJ28" s="19"/>
-      <c r="AK28" s="67"/>
+      <c r="AK28" s="64"/>
       <c r="AL28" s="19"/>
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A29" s="60"/>
-      <c r="B29" s="69"/>
-      <c r="C29" s="59"/>
-      <c r="D29" s="59"/>
+      <c r="A29" s="74"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="66"/>
       <c r="E29" s="2" t="s">
         <v>119</v>
       </c>
@@ -7471,9 +7419,7 @@
       <c r="I29" s="35">
         <v>44124</v>
       </c>
-      <c r="J29" s="81" t="s">
-        <v>202</v>
-      </c>
+      <c r="J29" s="60"/>
       <c r="K29" s="36">
         <v>1</v>
       </c>
@@ -7488,28 +7434,28 @@
       <c r="T29" s="20"/>
       <c r="U29" s="20"/>
       <c r="V29" s="20"/>
-      <c r="W29" s="71"/>
+      <c r="W29" s="69"/>
       <c r="X29" s="20"/>
       <c r="Y29" s="20"/>
       <c r="Z29" s="20"/>
       <c r="AA29" s="20"/>
       <c r="AB29" s="20"/>
       <c r="AC29" s="20"/>
-      <c r="AD29" s="74"/>
+      <c r="AD29" s="72"/>
       <c r="AE29" s="19"/>
       <c r="AF29" s="19"/>
       <c r="AG29" s="19"/>
       <c r="AH29" s="19"/>
       <c r="AI29" s="19"/>
       <c r="AJ29" s="19"/>
-      <c r="AK29" s="67"/>
+      <c r="AK29" s="64"/>
       <c r="AL29" s="19"/>
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A30" s="60"/>
-      <c r="B30" s="69"/>
-      <c r="C30" s="59"/>
-      <c r="D30" s="59" t="s">
+      <c r="A30" s="74"/>
+      <c r="B30" s="67"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="66" t="s">
         <v>13</v>
       </c>
       <c r="E30" s="2" t="s">
@@ -7525,9 +7471,7 @@
         <v>44130</v>
       </c>
       <c r="I30" s="35"/>
-      <c r="J30" s="81" t="s">
-        <v>202</v>
-      </c>
+      <c r="J30" s="60"/>
       <c r="K30" s="36">
         <v>0</v>
       </c>
@@ -7542,28 +7486,28 @@
       <c r="T30" s="20"/>
       <c r="U30" s="20"/>
       <c r="V30" s="20"/>
-      <c r="W30" s="71"/>
+      <c r="W30" s="69"/>
       <c r="X30" s="20"/>
       <c r="Y30" s="20"/>
       <c r="Z30" s="20"/>
       <c r="AA30" s="20"/>
       <c r="AB30" s="20"/>
       <c r="AC30" s="20"/>
-      <c r="AD30" s="74"/>
+      <c r="AD30" s="72"/>
       <c r="AE30" s="19"/>
       <c r="AF30" s="19"/>
       <c r="AG30" s="19"/>
       <c r="AH30" s="19"/>
       <c r="AI30" s="19"/>
       <c r="AJ30" s="19"/>
-      <c r="AK30" s="67"/>
+      <c r="AK30" s="64"/>
       <c r="AL30" s="19"/>
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A31" s="60"/>
-      <c r="B31" s="69"/>
-      <c r="C31" s="59"/>
-      <c r="D31" s="59"/>
+      <c r="A31" s="74"/>
+      <c r="B31" s="67"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="66"/>
       <c r="E31" s="2" t="s">
         <v>143</v>
       </c>
@@ -7571,9 +7515,7 @@
       <c r="G31" s="20"/>
       <c r="H31" s="35"/>
       <c r="I31" s="35"/>
-      <c r="J31" s="81" t="s">
-        <v>202</v>
-      </c>
+      <c r="J31" s="60"/>
       <c r="K31" s="36">
         <v>0</v>
       </c>
@@ -7588,28 +7530,28 @@
       <c r="T31" s="20"/>
       <c r="U31" s="20"/>
       <c r="V31" s="20"/>
-      <c r="W31" s="71"/>
+      <c r="W31" s="69"/>
       <c r="X31" s="20"/>
       <c r="Y31" s="20"/>
       <c r="Z31" s="20"/>
       <c r="AA31" s="20"/>
       <c r="AB31" s="20"/>
       <c r="AC31" s="20"/>
-      <c r="AD31" s="74"/>
+      <c r="AD31" s="72"/>
       <c r="AE31" s="19"/>
       <c r="AF31" s="19"/>
       <c r="AG31" s="19"/>
       <c r="AH31" s="19"/>
       <c r="AI31" s="19"/>
       <c r="AJ31" s="19"/>
-      <c r="AK31" s="67"/>
+      <c r="AK31" s="64"/>
       <c r="AL31" s="19"/>
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A32" s="60"/>
-      <c r="B32" s="69"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="59"/>
+      <c r="A32" s="74"/>
+      <c r="B32" s="67"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="66"/>
       <c r="E32" s="2" t="s">
         <v>113</v>
       </c>
@@ -7625,9 +7567,7 @@
       <c r="I32" s="35">
         <v>44124</v>
       </c>
-      <c r="J32" s="81" t="s">
-        <v>202</v>
-      </c>
+      <c r="J32" s="60"/>
       <c r="K32" s="36">
         <v>1</v>
       </c>
@@ -7642,28 +7582,28 @@
       <c r="T32" s="20"/>
       <c r="U32" s="20"/>
       <c r="V32" s="20"/>
-      <c r="W32" s="71"/>
+      <c r="W32" s="69"/>
       <c r="X32" s="20"/>
       <c r="Y32" s="20"/>
       <c r="Z32" s="20"/>
       <c r="AA32" s="20"/>
       <c r="AB32" s="20"/>
       <c r="AC32" s="20"/>
-      <c r="AD32" s="74"/>
+      <c r="AD32" s="72"/>
       <c r="AE32" s="19"/>
       <c r="AF32" s="19"/>
       <c r="AG32" s="19"/>
       <c r="AH32" s="19"/>
       <c r="AI32" s="19"/>
       <c r="AJ32" s="19"/>
-      <c r="AK32" s="67"/>
+      <c r="AK32" s="64"/>
       <c r="AL32" s="19"/>
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A33" s="60"/>
-      <c r="B33" s="69"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59" t="s">
+      <c r="A33" s="74"/>
+      <c r="B33" s="67"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="66" t="s">
         <v>90</v>
       </c>
       <c r="E33" s="2" t="s">
@@ -7681,9 +7621,7 @@
       <c r="I33" s="35">
         <v>44128</v>
       </c>
-      <c r="J33" s="81" t="s">
-        <v>202</v>
-      </c>
+      <c r="J33" s="60"/>
       <c r="K33" s="36">
         <v>1</v>
       </c>
@@ -7698,28 +7636,28 @@
       <c r="T33" s="20"/>
       <c r="U33" s="20"/>
       <c r="V33" s="20"/>
-      <c r="W33" s="71"/>
+      <c r="W33" s="69"/>
       <c r="X33" s="20"/>
       <c r="Y33" s="20"/>
       <c r="Z33" s="20"/>
       <c r="AA33" s="20"/>
       <c r="AB33" s="20"/>
       <c r="AC33" s="20"/>
-      <c r="AD33" s="74"/>
+      <c r="AD33" s="72"/>
       <c r="AE33" s="19"/>
       <c r="AF33" s="19"/>
       <c r="AG33" s="19"/>
       <c r="AH33" s="19"/>
       <c r="AI33" s="19"/>
       <c r="AJ33" s="19"/>
-      <c r="AK33" s="67"/>
+      <c r="AK33" s="64"/>
       <c r="AL33" s="19"/>
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A34" s="60"/>
-      <c r="B34" s="69"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
+      <c r="A34" s="74"/>
+      <c r="B34" s="67"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="66"/>
       <c r="E34" s="2" t="s">
         <v>141</v>
       </c>
@@ -7735,9 +7673,7 @@
       <c r="I34" s="35">
         <v>44126</v>
       </c>
-      <c r="J34" s="81" t="s">
-        <v>202</v>
-      </c>
+      <c r="J34" s="60"/>
       <c r="K34" s="36">
         <v>1</v>
       </c>
@@ -7752,28 +7688,28 @@
       <c r="T34" s="20"/>
       <c r="U34" s="20"/>
       <c r="V34" s="20"/>
-      <c r="W34" s="71"/>
+      <c r="W34" s="69"/>
       <c r="X34" s="20"/>
       <c r="Y34" s="20"/>
       <c r="Z34" s="20"/>
       <c r="AA34" s="20"/>
       <c r="AB34" s="20"/>
       <c r="AC34" s="20"/>
-      <c r="AD34" s="74"/>
+      <c r="AD34" s="72"/>
       <c r="AE34" s="19"/>
       <c r="AF34" s="19"/>
       <c r="AG34" s="19"/>
       <c r="AH34" s="19"/>
       <c r="AI34" s="19"/>
       <c r="AJ34" s="19"/>
-      <c r="AK34" s="67"/>
+      <c r="AK34" s="64"/>
       <c r="AL34" s="19"/>
     </row>
     <row r="35" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A35" s="60"/>
-      <c r="B35" s="69"/>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59"/>
+      <c r="A35" s="74"/>
+      <c r="B35" s="67"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="66"/>
       <c r="E35" s="2" t="s">
         <v>103</v>
       </c>
@@ -7789,9 +7725,7 @@
       <c r="I35" s="35">
         <v>44128</v>
       </c>
-      <c r="J35" s="81" t="s">
-        <v>202</v>
-      </c>
+      <c r="J35" s="60"/>
       <c r="K35" s="36">
         <v>1</v>
       </c>
@@ -7806,27 +7740,27 @@
       <c r="T35" s="20"/>
       <c r="U35" s="20"/>
       <c r="V35" s="20"/>
-      <c r="W35" s="71"/>
+      <c r="W35" s="69"/>
       <c r="X35" s="20"/>
       <c r="Y35" s="20"/>
       <c r="Z35" s="20"/>
       <c r="AA35" s="20"/>
       <c r="AB35" s="20"/>
       <c r="AC35" s="20"/>
-      <c r="AD35" s="74"/>
+      <c r="AD35" s="72"/>
       <c r="AE35" s="19"/>
       <c r="AF35" s="19"/>
       <c r="AG35" s="19"/>
       <c r="AH35" s="19"/>
       <c r="AI35" s="19"/>
       <c r="AJ35" s="19"/>
-      <c r="AK35" s="67"/>
+      <c r="AK35" s="64"/>
       <c r="AL35" s="19"/>
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A36" s="60"/>
-      <c r="B36" s="69"/>
-      <c r="C36" s="59"/>
+      <c r="A36" s="74"/>
+      <c r="B36" s="67"/>
+      <c r="C36" s="66"/>
       <c r="D36" s="2" t="s">
         <v>24</v>
       </c>
@@ -7837,9 +7771,7 @@
       <c r="G36" s="20"/>
       <c r="H36" s="35"/>
       <c r="I36" s="35"/>
-      <c r="J36" s="81" t="s">
-        <v>202</v>
-      </c>
+      <c r="J36" s="60"/>
       <c r="K36" s="36">
         <v>0</v>
       </c>
@@ -7854,27 +7786,27 @@
       <c r="T36" s="20"/>
       <c r="U36" s="20"/>
       <c r="V36" s="20"/>
-      <c r="W36" s="71"/>
+      <c r="W36" s="69"/>
       <c r="X36" s="20"/>
       <c r="Y36" s="20"/>
       <c r="Z36" s="20"/>
       <c r="AA36" s="20"/>
       <c r="AB36" s="20"/>
       <c r="AC36" s="20"/>
-      <c r="AD36" s="74"/>
+      <c r="AD36" s="72"/>
       <c r="AE36" s="19"/>
       <c r="AF36" s="19"/>
       <c r="AG36" s="19"/>
       <c r="AH36" s="19"/>
       <c r="AI36" s="19"/>
       <c r="AJ36" s="19"/>
-      <c r="AK36" s="67"/>
+      <c r="AK36" s="64"/>
       <c r="AL36" s="19"/>
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A37" s="60"/>
-      <c r="B37" s="69"/>
-      <c r="C37" s="59"/>
+      <c r="A37" s="74"/>
+      <c r="B37" s="67"/>
+      <c r="C37" s="66"/>
       <c r="D37" s="2" t="s">
         <v>144</v>
       </c>
@@ -7893,9 +7825,7 @@
       <c r="I37" s="35">
         <v>44126</v>
       </c>
-      <c r="J37" s="81" t="s">
-        <v>202</v>
-      </c>
+      <c r="J37" s="60"/>
       <c r="K37" s="36">
         <v>1</v>
       </c>
@@ -7910,27 +7840,27 @@
       <c r="T37" s="20"/>
       <c r="U37" s="20"/>
       <c r="V37" s="20"/>
-      <c r="W37" s="71"/>
+      <c r="W37" s="69"/>
       <c r="X37" s="20"/>
       <c r="Y37" s="20"/>
       <c r="Z37" s="20"/>
       <c r="AA37" s="20"/>
       <c r="AB37" s="20"/>
       <c r="AC37" s="20"/>
-      <c r="AD37" s="74"/>
+      <c r="AD37" s="72"/>
       <c r="AE37" s="19"/>
       <c r="AF37" s="19"/>
       <c r="AG37" s="19"/>
       <c r="AH37" s="19"/>
       <c r="AI37" s="19"/>
       <c r="AJ37" s="19"/>
-      <c r="AK37" s="67"/>
+      <c r="AK37" s="64"/>
       <c r="AL37" s="19"/>
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A38" s="60"/>
-      <c r="B38" s="69"/>
-      <c r="C38" s="59"/>
+      <c r="A38" s="74"/>
+      <c r="B38" s="67"/>
+      <c r="C38" s="66"/>
       <c r="D38" s="2" t="s">
         <v>94</v>
       </c>
@@ -7939,9 +7869,7 @@
       <c r="G38" s="20"/>
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
-      <c r="J38" s="81" t="s">
-        <v>202</v>
-      </c>
+      <c r="J38" s="60"/>
       <c r="K38" s="36">
         <v>0</v>
       </c>
@@ -7956,27 +7884,27 @@
       <c r="T38" s="20"/>
       <c r="U38" s="20"/>
       <c r="V38" s="20"/>
-      <c r="W38" s="71"/>
+      <c r="W38" s="69"/>
       <c r="X38" s="20"/>
       <c r="Y38" s="20"/>
       <c r="Z38" s="20"/>
       <c r="AA38" s="20"/>
       <c r="AB38" s="20"/>
       <c r="AC38" s="20"/>
-      <c r="AD38" s="74"/>
+      <c r="AD38" s="72"/>
       <c r="AE38" s="19"/>
       <c r="AF38" s="19"/>
       <c r="AG38" s="19"/>
       <c r="AH38" s="19"/>
       <c r="AI38" s="19"/>
       <c r="AJ38" s="19"/>
-      <c r="AK38" s="67"/>
+      <c r="AK38" s="64"/>
       <c r="AL38" s="19"/>
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A39" s="60"/>
-      <c r="B39" s="69"/>
-      <c r="C39" s="59"/>
+      <c r="A39" s="74"/>
+      <c r="B39" s="67"/>
+      <c r="C39" s="66"/>
       <c r="D39" s="2" t="s">
         <v>23</v>
       </c>
@@ -7985,9 +7913,7 @@
       <c r="G39" s="20"/>
       <c r="H39" s="35"/>
       <c r="I39" s="35"/>
-      <c r="J39" s="81" t="s">
-        <v>202</v>
-      </c>
+      <c r="J39" s="60"/>
       <c r="K39" s="36">
         <v>0</v>
       </c>
@@ -8002,27 +7928,27 @@
       <c r="T39" s="20"/>
       <c r="U39" s="20"/>
       <c r="V39" s="20"/>
-      <c r="W39" s="71"/>
+      <c r="W39" s="69"/>
       <c r="X39" s="20"/>
       <c r="Y39" s="20"/>
       <c r="Z39" s="20"/>
       <c r="AA39" s="20"/>
       <c r="AB39" s="20"/>
       <c r="AC39" s="20"/>
-      <c r="AD39" s="74"/>
+      <c r="AD39" s="72"/>
       <c r="AE39" s="19"/>
       <c r="AF39" s="19"/>
       <c r="AG39" s="19"/>
       <c r="AH39" s="19"/>
       <c r="AI39" s="19"/>
       <c r="AJ39" s="19"/>
-      <c r="AK39" s="67"/>
+      <c r="AK39" s="64"/>
       <c r="AL39" s="19"/>
     </row>
     <row r="40" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A40" s="60"/>
-      <c r="B40" s="69"/>
-      <c r="C40" s="59"/>
+      <c r="A40" s="74"/>
+      <c r="B40" s="67"/>
+      <c r="C40" s="66"/>
       <c r="D40" s="39" t="s">
         <v>27</v>
       </c>
@@ -8031,9 +7957,7 @@
       <c r="G40" s="20"/>
       <c r="H40" s="35"/>
       <c r="I40" s="35"/>
-      <c r="J40" s="81" t="s">
-        <v>202</v>
-      </c>
+      <c r="J40" s="60"/>
       <c r="K40" s="36">
         <v>0</v>
       </c>
@@ -8048,27 +7972,27 @@
       <c r="T40" s="20"/>
       <c r="U40" s="20"/>
       <c r="V40" s="20"/>
-      <c r="W40" s="71"/>
+      <c r="W40" s="69"/>
       <c r="X40" s="20"/>
       <c r="Y40" s="20"/>
       <c r="Z40" s="20"/>
       <c r="AA40" s="20"/>
       <c r="AB40" s="20"/>
       <c r="AC40" s="20"/>
-      <c r="AD40" s="74"/>
+      <c r="AD40" s="72"/>
       <c r="AE40" s="19"/>
       <c r="AF40" s="19"/>
       <c r="AG40" s="19"/>
       <c r="AH40" s="19"/>
       <c r="AI40" s="19"/>
       <c r="AJ40" s="19"/>
-      <c r="AK40" s="67"/>
+      <c r="AK40" s="64"/>
       <c r="AL40" s="19"/>
     </row>
     <row r="41" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A41" s="60"/>
-      <c r="B41" s="69"/>
-      <c r="C41" s="59"/>
+      <c r="A41" s="74"/>
+      <c r="B41" s="67"/>
+      <c r="C41" s="66"/>
       <c r="D41" s="38" t="s">
         <v>45</v>
       </c>
@@ -8077,9 +8001,7 @@
       <c r="G41" s="20"/>
       <c r="H41" s="35"/>
       <c r="I41" s="35"/>
-      <c r="J41" s="81" t="s">
-        <v>202</v>
-      </c>
+      <c r="J41" s="60"/>
       <c r="K41" s="36">
         <v>0</v>
       </c>
@@ -8094,27 +8016,27 @@
       <c r="T41" s="20"/>
       <c r="U41" s="20"/>
       <c r="V41" s="20"/>
-      <c r="W41" s="71"/>
+      <c r="W41" s="69"/>
       <c r="X41" s="20"/>
       <c r="Y41" s="20"/>
       <c r="Z41" s="20"/>
       <c r="AA41" s="20"/>
       <c r="AB41" s="20"/>
       <c r="AC41" s="20"/>
-      <c r="AD41" s="74"/>
+      <c r="AD41" s="72"/>
       <c r="AE41" s="19"/>
       <c r="AF41" s="19"/>
       <c r="AG41" s="19"/>
       <c r="AH41" s="19"/>
       <c r="AI41" s="19"/>
       <c r="AJ41" s="19"/>
-      <c r="AK41" s="67"/>
+      <c r="AK41" s="64"/>
       <c r="AL41" s="19"/>
     </row>
     <row r="42" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A42" s="60"/>
-      <c r="B42" s="69"/>
-      <c r="C42" s="59"/>
+      <c r="A42" s="74"/>
+      <c r="B42" s="67"/>
+      <c r="C42" s="66"/>
       <c r="D42" s="2" t="s">
         <v>26</v>
       </c>
@@ -8123,9 +8045,7 @@
       <c r="G42" s="20"/>
       <c r="H42" s="35"/>
       <c r="I42" s="35"/>
-      <c r="J42" s="81" t="s">
-        <v>202</v>
-      </c>
+      <c r="J42" s="60"/>
       <c r="K42" s="36">
         <v>0</v>
       </c>
@@ -8140,27 +8060,27 @@
       <c r="T42" s="20"/>
       <c r="U42" s="20"/>
       <c r="V42" s="20"/>
-      <c r="W42" s="71"/>
+      <c r="W42" s="69"/>
       <c r="X42" s="20"/>
       <c r="Y42" s="20"/>
       <c r="Z42" s="20"/>
       <c r="AA42" s="20"/>
       <c r="AB42" s="20"/>
       <c r="AC42" s="20"/>
-      <c r="AD42" s="74"/>
+      <c r="AD42" s="72"/>
       <c r="AE42" s="19"/>
       <c r="AF42" s="19"/>
       <c r="AG42" s="19"/>
       <c r="AH42" s="19"/>
       <c r="AI42" s="19"/>
       <c r="AJ42" s="19"/>
-      <c r="AK42" s="67"/>
+      <c r="AK42" s="64"/>
       <c r="AL42" s="19"/>
     </row>
     <row r="43" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A43" s="60"/>
-      <c r="B43" s="69"/>
-      <c r="C43" s="59" t="s">
+      <c r="A43" s="74"/>
+      <c r="B43" s="67"/>
+      <c r="C43" s="66" t="s">
         <v>42</v>
       </c>
       <c r="D43" s="40" t="s">
@@ -8171,9 +8091,7 @@
       <c r="G43" s="20"/>
       <c r="H43" s="35"/>
       <c r="I43" s="35"/>
-      <c r="J43" s="81" t="s">
-        <v>202</v>
-      </c>
+      <c r="J43" s="60"/>
       <c r="K43" s="36">
         <v>0</v>
       </c>
@@ -8188,27 +8106,27 @@
       <c r="T43" s="20"/>
       <c r="U43" s="20"/>
       <c r="V43" s="20"/>
-      <c r="W43" s="71"/>
+      <c r="W43" s="69"/>
       <c r="X43" s="20"/>
       <c r="Y43" s="20"/>
       <c r="Z43" s="20"/>
       <c r="AA43" s="20"/>
       <c r="AB43" s="20"/>
       <c r="AC43" s="20"/>
-      <c r="AD43" s="74"/>
+      <c r="AD43" s="72"/>
       <c r="AE43" s="19"/>
       <c r="AF43" s="19"/>
       <c r="AG43" s="19"/>
       <c r="AH43" s="19"/>
       <c r="AI43" s="19"/>
       <c r="AJ43" s="19"/>
-      <c r="AK43" s="67"/>
+      <c r="AK43" s="64"/>
       <c r="AL43" s="19"/>
     </row>
     <row r="44" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A44" s="60"/>
-      <c r="B44" s="69"/>
-      <c r="C44" s="59"/>
+      <c r="A44" s="74"/>
+      <c r="B44" s="67"/>
+      <c r="C44" s="66"/>
       <c r="D44" s="2" t="s">
         <v>26</v>
       </c>
@@ -8217,9 +8135,7 @@
       <c r="G44" s="20"/>
       <c r="H44" s="35"/>
       <c r="I44" s="35"/>
-      <c r="J44" s="81" t="s">
-        <v>202</v>
-      </c>
+      <c r="J44" s="60"/>
       <c r="K44" s="36">
         <v>0</v>
       </c>
@@ -8234,27 +8150,27 @@
       <c r="T44" s="20"/>
       <c r="U44" s="20"/>
       <c r="V44" s="20"/>
-      <c r="W44" s="71"/>
+      <c r="W44" s="69"/>
       <c r="X44" s="20"/>
       <c r="Y44" s="20"/>
       <c r="Z44" s="20"/>
       <c r="AA44" s="20"/>
       <c r="AB44" s="20"/>
       <c r="AC44" s="20"/>
-      <c r="AD44" s="74"/>
+      <c r="AD44" s="72"/>
       <c r="AE44" s="19"/>
       <c r="AF44" s="19"/>
       <c r="AG44" s="19"/>
       <c r="AH44" s="19"/>
       <c r="AI44" s="19"/>
       <c r="AJ44" s="19"/>
-      <c r="AK44" s="67"/>
+      <c r="AK44" s="64"/>
       <c r="AL44" s="19"/>
     </row>
     <row r="45" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A45" s="60"/>
-      <c r="B45" s="69"/>
-      <c r="C45" s="59" t="s">
+      <c r="A45" s="74"/>
+      <c r="B45" s="67"/>
+      <c r="C45" s="66" t="s">
         <v>43</v>
       </c>
       <c r="D45" s="38" t="s">
@@ -8265,9 +8181,7 @@
       <c r="G45" s="20"/>
       <c r="H45" s="35"/>
       <c r="I45" s="35"/>
-      <c r="J45" s="81" t="s">
-        <v>202</v>
-      </c>
+      <c r="J45" s="60"/>
       <c r="K45" s="36">
         <v>0</v>
       </c>
@@ -8282,27 +8196,27 @@
       <c r="T45" s="20"/>
       <c r="U45" s="20"/>
       <c r="V45" s="20"/>
-      <c r="W45" s="71"/>
+      <c r="W45" s="69"/>
       <c r="X45" s="20"/>
       <c r="Y45" s="20"/>
       <c r="Z45" s="20"/>
       <c r="AA45" s="20"/>
       <c r="AB45" s="20"/>
       <c r="AC45" s="20"/>
-      <c r="AD45" s="74"/>
+      <c r="AD45" s="72"/>
       <c r="AE45" s="19"/>
       <c r="AF45" s="19"/>
       <c r="AG45" s="19"/>
       <c r="AH45" s="19"/>
       <c r="AI45" s="19"/>
       <c r="AJ45" s="19"/>
-      <c r="AK45" s="67"/>
+      <c r="AK45" s="64"/>
       <c r="AL45" s="19"/>
     </row>
     <row r="46" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A46" s="60"/>
-      <c r="B46" s="69"/>
-      <c r="C46" s="59"/>
+      <c r="A46" s="74"/>
+      <c r="B46" s="67"/>
+      <c r="C46" s="66"/>
       <c r="D46" s="2" t="s">
         <v>26</v>
       </c>
@@ -8311,9 +8225,7 @@
       <c r="G46" s="20"/>
       <c r="H46" s="35"/>
       <c r="I46" s="35"/>
-      <c r="J46" s="81" t="s">
-        <v>202</v>
-      </c>
+      <c r="J46" s="60"/>
       <c r="K46" s="36">
         <v>0</v>
       </c>
@@ -8328,36 +8240,34 @@
       <c r="T46" s="20"/>
       <c r="U46" s="20"/>
       <c r="V46" s="20"/>
-      <c r="W46" s="71"/>
+      <c r="W46" s="69"/>
       <c r="X46" s="20"/>
       <c r="Y46" s="20"/>
       <c r="Z46" s="20"/>
       <c r="AA46" s="20"/>
       <c r="AB46" s="20"/>
       <c r="AC46" s="20"/>
-      <c r="AD46" s="74"/>
+      <c r="AD46" s="72"/>
       <c r="AE46" s="19"/>
       <c r="AF46" s="19"/>
       <c r="AG46" s="19"/>
       <c r="AH46" s="19"/>
       <c r="AI46" s="19"/>
       <c r="AJ46" s="19"/>
-      <c r="AK46" s="67"/>
+      <c r="AK46" s="64"/>
       <c r="AL46" s="19"/>
     </row>
     <row r="47" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A47" s="60"/>
-      <c r="B47" s="69"/>
-      <c r="C47" s="59"/>
+      <c r="A47" s="74"/>
+      <c r="B47" s="67"/>
+      <c r="C47" s="66"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="20"/>
       <c r="G47" s="20"/>
       <c r="H47" s="35"/>
       <c r="I47" s="35"/>
-      <c r="J47" s="81" t="s">
-        <v>202</v>
-      </c>
+      <c r="J47" s="60"/>
       <c r="K47" s="36">
         <v>0</v>
       </c>
@@ -8372,27 +8282,27 @@
       <c r="T47" s="20"/>
       <c r="U47" s="20"/>
       <c r="V47" s="20"/>
-      <c r="W47" s="71"/>
+      <c r="W47" s="69"/>
       <c r="X47" s="20"/>
       <c r="Y47" s="20"/>
       <c r="Z47" s="20"/>
       <c r="AA47" s="20"/>
       <c r="AB47" s="20"/>
       <c r="AC47" s="20"/>
-      <c r="AD47" s="74"/>
+      <c r="AD47" s="72"/>
       <c r="AE47" s="19"/>
       <c r="AF47" s="19"/>
       <c r="AG47" s="19"/>
       <c r="AH47" s="19"/>
       <c r="AI47" s="19"/>
       <c r="AJ47" s="19"/>
-      <c r="AK47" s="67"/>
+      <c r="AK47" s="64"/>
       <c r="AL47" s="19"/>
     </row>
     <row r="48" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A48" s="60"/>
-      <c r="B48" s="69"/>
-      <c r="C48" s="59" t="s">
+      <c r="A48" s="74"/>
+      <c r="B48" s="67"/>
+      <c r="C48" s="66" t="s">
         <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
@@ -8403,9 +8313,7 @@
       <c r="G48" s="20"/>
       <c r="H48" s="35"/>
       <c r="I48" s="35"/>
-      <c r="J48" s="81" t="s">
-        <v>202</v>
-      </c>
+      <c r="J48" s="60"/>
       <c r="K48" s="36">
         <v>0</v>
       </c>
@@ -8420,27 +8328,27 @@
       <c r="T48" s="20"/>
       <c r="U48" s="20"/>
       <c r="V48" s="20"/>
-      <c r="W48" s="71"/>
+      <c r="W48" s="69"/>
       <c r="X48" s="20"/>
       <c r="Y48" s="20"/>
       <c r="Z48" s="20"/>
       <c r="AA48" s="20"/>
       <c r="AB48" s="20"/>
       <c r="AC48" s="20"/>
-      <c r="AD48" s="74"/>
+      <c r="AD48" s="72"/>
       <c r="AE48" s="19"/>
       <c r="AF48" s="19"/>
       <c r="AG48" s="19"/>
       <c r="AH48" s="19"/>
       <c r="AI48" s="19"/>
       <c r="AJ48" s="19"/>
-      <c r="AK48" s="67"/>
+      <c r="AK48" s="64"/>
       <c r="AL48" s="19"/>
     </row>
     <row r="49" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A49" s="60"/>
-      <c r="B49" s="69"/>
-      <c r="C49" s="59"/>
+      <c r="A49" s="74"/>
+      <c r="B49" s="67"/>
+      <c r="C49" s="66"/>
       <c r="D49" s="2" t="s">
         <v>36</v>
       </c>
@@ -8449,9 +8357,7 @@
       <c r="G49" s="20"/>
       <c r="H49" s="35"/>
       <c r="I49" s="35"/>
-      <c r="J49" s="81" t="s">
-        <v>202</v>
-      </c>
+      <c r="J49" s="60"/>
       <c r="K49" s="36">
         <v>0</v>
       </c>
@@ -8466,27 +8372,27 @@
       <c r="T49" s="20"/>
       <c r="U49" s="20"/>
       <c r="V49" s="20"/>
-      <c r="W49" s="71"/>
+      <c r="W49" s="69"/>
       <c r="X49" s="20"/>
       <c r="Y49" s="20"/>
       <c r="Z49" s="20"/>
       <c r="AA49" s="20"/>
       <c r="AB49" s="20"/>
       <c r="AC49" s="20"/>
-      <c r="AD49" s="74"/>
+      <c r="AD49" s="72"/>
       <c r="AE49" s="19"/>
       <c r="AF49" s="19"/>
       <c r="AG49" s="19"/>
       <c r="AH49" s="19"/>
       <c r="AI49" s="19"/>
       <c r="AJ49" s="19"/>
-      <c r="AK49" s="67"/>
+      <c r="AK49" s="64"/>
       <c r="AL49" s="19"/>
     </row>
     <row r="50" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A50" s="60"/>
-      <c r="B50" s="69"/>
-      <c r="C50" s="59"/>
+      <c r="A50" s="74"/>
+      <c r="B50" s="67"/>
+      <c r="C50" s="66"/>
       <c r="D50" s="2" t="s">
         <v>37</v>
       </c>
@@ -8495,9 +8401,7 @@
       <c r="G50" s="20"/>
       <c r="H50" s="35"/>
       <c r="I50" s="35"/>
-      <c r="J50" s="81" t="s">
-        <v>202</v>
-      </c>
+      <c r="J50" s="60"/>
       <c r="K50" s="36">
         <v>0</v>
       </c>
@@ -8512,27 +8416,27 @@
       <c r="T50" s="20"/>
       <c r="U50" s="20"/>
       <c r="V50" s="20"/>
-      <c r="W50" s="71"/>
+      <c r="W50" s="69"/>
       <c r="X50" s="20"/>
       <c r="Y50" s="20"/>
       <c r="Z50" s="20"/>
       <c r="AA50" s="20"/>
       <c r="AB50" s="20"/>
       <c r="AC50" s="20"/>
-      <c r="AD50" s="74"/>
+      <c r="AD50" s="72"/>
       <c r="AE50" s="19"/>
       <c r="AF50" s="19"/>
       <c r="AG50" s="19"/>
       <c r="AH50" s="19"/>
       <c r="AI50" s="19"/>
       <c r="AJ50" s="19"/>
-      <c r="AK50" s="67"/>
+      <c r="AK50" s="64"/>
       <c r="AL50" s="19"/>
     </row>
     <row r="51" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A51" s="60"/>
-      <c r="B51" s="69"/>
-      <c r="C51" s="59"/>
+      <c r="A51" s="74"/>
+      <c r="B51" s="67"/>
+      <c r="C51" s="66"/>
       <c r="D51" s="2" t="s">
         <v>38</v>
       </c>
@@ -8541,9 +8445,7 @@
       <c r="G51" s="20"/>
       <c r="H51" s="35"/>
       <c r="I51" s="35"/>
-      <c r="J51" s="81" t="s">
-        <v>202</v>
-      </c>
+      <c r="J51" s="60"/>
       <c r="K51" s="36">
         <v>0</v>
       </c>
@@ -8558,27 +8460,27 @@
       <c r="T51" s="20"/>
       <c r="U51" s="20"/>
       <c r="V51" s="20"/>
-      <c r="W51" s="71"/>
+      <c r="W51" s="69"/>
       <c r="X51" s="20"/>
       <c r="Y51" s="20"/>
       <c r="Z51" s="20"/>
       <c r="AA51" s="20"/>
       <c r="AB51" s="20"/>
       <c r="AC51" s="20"/>
-      <c r="AD51" s="74"/>
+      <c r="AD51" s="72"/>
       <c r="AE51" s="19"/>
       <c r="AF51" s="19"/>
       <c r="AG51" s="19"/>
       <c r="AH51" s="19"/>
       <c r="AI51" s="19"/>
       <c r="AJ51" s="19"/>
-      <c r="AK51" s="67"/>
+      <c r="AK51" s="64"/>
       <c r="AL51" s="19"/>
     </row>
     <row r="52" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A52" s="60"/>
-      <c r="B52" s="69"/>
-      <c r="C52" s="59"/>
+      <c r="A52" s="74"/>
+      <c r="B52" s="67"/>
+      <c r="C52" s="66"/>
       <c r="D52" s="2" t="s">
         <v>33</v>
       </c>
@@ -8587,9 +8489,7 @@
       <c r="G52" s="20"/>
       <c r="H52" s="35"/>
       <c r="I52" s="35"/>
-      <c r="J52" s="81" t="s">
-        <v>202</v>
-      </c>
+      <c r="J52" s="60"/>
       <c r="K52" s="36">
         <v>0</v>
       </c>
@@ -8604,27 +8504,27 @@
       <c r="T52" s="20"/>
       <c r="U52" s="20"/>
       <c r="V52" s="20"/>
-      <c r="W52" s="71"/>
+      <c r="W52" s="69"/>
       <c r="X52" s="20"/>
       <c r="Y52" s="20"/>
       <c r="Z52" s="20"/>
       <c r="AA52" s="20"/>
       <c r="AB52" s="20"/>
       <c r="AC52" s="20"/>
-      <c r="AD52" s="74"/>
+      <c r="AD52" s="72"/>
       <c r="AE52" s="19"/>
       <c r="AF52" s="19"/>
       <c r="AG52" s="19"/>
       <c r="AH52" s="19"/>
       <c r="AI52" s="19"/>
       <c r="AJ52" s="19"/>
-      <c r="AK52" s="67"/>
+      <c r="AK52" s="64"/>
       <c r="AL52" s="19"/>
     </row>
     <row r="53" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A53" s="60"/>
-      <c r="B53" s="69"/>
-      <c r="C53" s="59" t="s">
+      <c r="A53" s="74"/>
+      <c r="B53" s="67"/>
+      <c r="C53" s="66" t="s">
         <v>121</v>
       </c>
       <c r="D53" s="2" t="s">
@@ -8639,9 +8539,7 @@
         <v>44124</v>
       </c>
       <c r="I53" s="35"/>
-      <c r="J53" s="81" t="s">
-        <v>202</v>
-      </c>
+      <c r="J53" s="60"/>
       <c r="K53" s="36">
         <v>0.7</v>
       </c>
@@ -8656,27 +8554,27 @@
       <c r="T53" s="20"/>
       <c r="U53" s="20"/>
       <c r="V53" s="20"/>
-      <c r="W53" s="71"/>
+      <c r="W53" s="69"/>
       <c r="X53" s="20"/>
       <c r="Y53" s="20"/>
       <c r="Z53" s="20"/>
       <c r="AA53" s="20"/>
       <c r="AB53" s="20"/>
       <c r="AC53" s="20"/>
-      <c r="AD53" s="74"/>
+      <c r="AD53" s="72"/>
       <c r="AE53" s="19"/>
       <c r="AF53" s="19"/>
       <c r="AG53" s="19"/>
       <c r="AH53" s="19"/>
       <c r="AI53" s="19"/>
       <c r="AJ53" s="19"/>
-      <c r="AK53" s="67"/>
+      <c r="AK53" s="64"/>
       <c r="AL53" s="19"/>
     </row>
     <row r="54" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A54" s="60"/>
-      <c r="B54" s="69"/>
-      <c r="C54" s="59"/>
+      <c r="A54" s="74"/>
+      <c r="B54" s="67"/>
+      <c r="C54" s="66"/>
       <c r="D54" s="2" t="s">
         <v>151</v>
       </c>
@@ -8689,9 +8587,7 @@
         <v>44124</v>
       </c>
       <c r="I54" s="35"/>
-      <c r="J54" s="81" t="s">
-        <v>202</v>
-      </c>
+      <c r="J54" s="60"/>
       <c r="K54" s="36">
         <v>0</v>
       </c>
@@ -8706,26 +8602,26 @@
       <c r="T54" s="20"/>
       <c r="U54" s="20"/>
       <c r="V54" s="20"/>
-      <c r="W54" s="71"/>
+      <c r="W54" s="69"/>
       <c r="X54" s="20"/>
       <c r="Y54" s="20"/>
       <c r="Z54" s="20"/>
       <c r="AA54" s="20"/>
       <c r="AB54" s="20"/>
       <c r="AC54" s="20"/>
-      <c r="AD54" s="74"/>
+      <c r="AD54" s="72"/>
       <c r="AE54" s="19"/>
       <c r="AF54" s="19"/>
       <c r="AG54" s="19"/>
       <c r="AH54" s="19"/>
       <c r="AI54" s="19"/>
       <c r="AJ54" s="19"/>
-      <c r="AK54" s="67"/>
+      <c r="AK54" s="64"/>
       <c r="AL54" s="19"/>
     </row>
     <row r="55" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="60"/>
-      <c r="B55" s="69"/>
+      <c r="A55" s="74"/>
+      <c r="B55" s="67"/>
       <c r="C55" s="21" t="s">
         <v>71</v>
       </c>
@@ -8737,9 +8633,7 @@
       <c r="G55" s="21"/>
       <c r="H55" s="42"/>
       <c r="I55" s="42"/>
-      <c r="J55" s="81" t="s">
-        <v>202</v>
-      </c>
+      <c r="J55" s="60"/>
       <c r="K55" s="43">
         <v>0</v>
       </c>
@@ -8754,32 +8648,32 @@
       <c r="T55" s="21"/>
       <c r="U55" s="21"/>
       <c r="V55" s="21"/>
-      <c r="W55" s="71"/>
+      <c r="W55" s="69"/>
       <c r="X55" s="21"/>
       <c r="Y55" s="21"/>
       <c r="Z55" s="21"/>
       <c r="AA55" s="21"/>
       <c r="AB55" s="21"/>
       <c r="AC55" s="21"/>
-      <c r="AD55" s="74"/>
+      <c r="AD55" s="72"/>
       <c r="AE55" s="19"/>
       <c r="AF55" s="19"/>
       <c r="AG55" s="19"/>
       <c r="AH55" s="19"/>
       <c r="AI55" s="19"/>
       <c r="AJ55" s="19"/>
-      <c r="AK55" s="67"/>
+      <c r="AK55" s="64"/>
       <c r="AL55" s="19"/>
     </row>
     <row r="56" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A56" s="60"/>
-      <c r="B56" s="62" t="s">
+      <c r="A56" s="74"/>
+      <c r="B56" s="76" t="s">
         <v>120</v>
       </c>
-      <c r="C56" s="59" t="s">
+      <c r="C56" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="D56" s="59" t="s">
+      <c r="D56" s="66" t="s">
         <v>29</v>
       </c>
       <c r="E56" s="2" t="s">
@@ -8797,9 +8691,7 @@
       <c r="I56" s="35">
         <v>44124</v>
       </c>
-      <c r="J56" s="81" t="s">
-        <v>202</v>
-      </c>
+      <c r="J56" s="60"/>
       <c r="K56" s="36">
         <v>1</v>
       </c>
@@ -8814,28 +8706,28 @@
       <c r="T56" s="20"/>
       <c r="U56" s="20"/>
       <c r="V56" s="20"/>
-      <c r="W56" s="71"/>
+      <c r="W56" s="69"/>
       <c r="X56" s="20"/>
       <c r="Y56" s="20"/>
       <c r="Z56" s="20"/>
       <c r="AA56" s="20"/>
       <c r="AB56" s="20"/>
       <c r="AC56" s="20"/>
-      <c r="AD56" s="74"/>
+      <c r="AD56" s="72"/>
       <c r="AE56" s="19"/>
       <c r="AF56" s="19"/>
       <c r="AG56" s="19"/>
       <c r="AH56" s="19"/>
       <c r="AI56" s="19"/>
       <c r="AJ56" s="19"/>
-      <c r="AK56" s="67"/>
+      <c r="AK56" s="64"/>
       <c r="AL56" s="19"/>
     </row>
     <row r="57" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A57" s="60"/>
-      <c r="B57" s="62"/>
-      <c r="C57" s="59"/>
-      <c r="D57" s="59"/>
+      <c r="A57" s="74"/>
+      <c r="B57" s="76"/>
+      <c r="C57" s="66"/>
+      <c r="D57" s="66"/>
       <c r="E57" s="2" t="s">
         <v>130</v>
       </c>
@@ -8851,9 +8743,7 @@
       <c r="I57" s="35">
         <v>44125</v>
       </c>
-      <c r="J57" s="81" t="s">
-        <v>202</v>
-      </c>
+      <c r="J57" s="60"/>
       <c r="K57" s="36">
         <v>1</v>
       </c>
@@ -8868,30 +8758,30 @@
       <c r="T57" s="20"/>
       <c r="U57" s="20"/>
       <c r="V57" s="20"/>
-      <c r="W57" s="71"/>
+      <c r="W57" s="69"/>
       <c r="X57" s="20"/>
       <c r="Y57" s="20"/>
       <c r="Z57" s="20"/>
       <c r="AA57" s="20"/>
       <c r="AB57" s="20"/>
       <c r="AC57" s="20"/>
-      <c r="AD57" s="74"/>
+      <c r="AD57" s="72"/>
       <c r="AE57" s="19"/>
       <c r="AF57" s="19"/>
       <c r="AG57" s="19"/>
       <c r="AH57" s="19"/>
       <c r="AI57" s="19"/>
       <c r="AJ57" s="19"/>
-      <c r="AK57" s="67"/>
+      <c r="AK57" s="64"/>
       <c r="AL57" s="19"/>
     </row>
     <row r="58" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A58" s="60"/>
-      <c r="B58" s="62"/>
-      <c r="C58" s="59" t="s">
+      <c r="A58" s="74"/>
+      <c r="B58" s="76"/>
+      <c r="C58" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="D58" s="59" t="s">
+      <c r="D58" s="66" t="s">
         <v>95</v>
       </c>
       <c r="E58" s="2" t="s">
@@ -8909,9 +8799,7 @@
       <c r="I58" s="35">
         <v>44133</v>
       </c>
-      <c r="J58" s="81" t="s">
-        <v>202</v>
-      </c>
+      <c r="J58" s="60"/>
       <c r="K58" s="36">
         <v>1</v>
       </c>
@@ -8926,28 +8814,28 @@
       <c r="T58" s="20"/>
       <c r="U58" s="20"/>
       <c r="V58" s="20"/>
-      <c r="W58" s="71"/>
+      <c r="W58" s="69"/>
       <c r="X58" s="20"/>
       <c r="Y58" s="20"/>
       <c r="Z58" s="20"/>
       <c r="AA58" s="20"/>
       <c r="AB58" s="20"/>
       <c r="AC58" s="20"/>
-      <c r="AD58" s="74"/>
+      <c r="AD58" s="72"/>
       <c r="AE58" s="19"/>
       <c r="AF58" s="19"/>
       <c r="AG58" s="19"/>
       <c r="AH58" s="19"/>
       <c r="AI58" s="19"/>
       <c r="AJ58" s="19"/>
-      <c r="AK58" s="67"/>
+      <c r="AK58" s="64"/>
       <c r="AL58" s="19"/>
     </row>
     <row r="59" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A59" s="60"/>
-      <c r="B59" s="62"/>
-      <c r="C59" s="59"/>
-      <c r="D59" s="59"/>
+      <c r="A59" s="74"/>
+      <c r="B59" s="76"/>
+      <c r="C59" s="66"/>
+      <c r="D59" s="66"/>
       <c r="E59" s="2" t="s">
         <v>146</v>
       </c>
@@ -8963,9 +8851,7 @@
       <c r="I59" s="35">
         <v>44133</v>
       </c>
-      <c r="J59" s="81" t="s">
-        <v>202</v>
-      </c>
+      <c r="J59" s="60"/>
       <c r="K59" s="36">
         <v>1</v>
       </c>
@@ -8980,28 +8866,28 @@
       <c r="T59" s="20"/>
       <c r="U59" s="20"/>
       <c r="V59" s="20"/>
-      <c r="W59" s="71"/>
+      <c r="W59" s="69"/>
       <c r="X59" s="20"/>
       <c r="Y59" s="20"/>
       <c r="Z59" s="20"/>
       <c r="AA59" s="20"/>
       <c r="AB59" s="20"/>
       <c r="AC59" s="20"/>
-      <c r="AD59" s="74"/>
+      <c r="AD59" s="72"/>
       <c r="AE59" s="19"/>
       <c r="AF59" s="19"/>
       <c r="AG59" s="19"/>
       <c r="AH59" s="19"/>
       <c r="AI59" s="19"/>
       <c r="AJ59" s="19"/>
-      <c r="AK59" s="67"/>
+      <c r="AK59" s="64"/>
       <c r="AL59" s="19"/>
     </row>
     <row r="60" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A60" s="60"/>
-      <c r="B60" s="62"/>
-      <c r="C60" s="59"/>
-      <c r="D60" s="59"/>
+      <c r="A60" s="74"/>
+      <c r="B60" s="76"/>
+      <c r="C60" s="66"/>
+      <c r="D60" s="66"/>
       <c r="E60" s="2" t="s">
         <v>147</v>
       </c>
@@ -9017,9 +8903,7 @@
       <c r="I60" s="35">
         <v>44133</v>
       </c>
-      <c r="J60" s="81" t="s">
-        <v>202</v>
-      </c>
+      <c r="J60" s="60"/>
       <c r="K60" s="36">
         <v>1</v>
       </c>
@@ -9034,28 +8918,28 @@
       <c r="T60" s="20"/>
       <c r="U60" s="20"/>
       <c r="V60" s="20"/>
-      <c r="W60" s="71"/>
+      <c r="W60" s="69"/>
       <c r="X60" s="20"/>
       <c r="Y60" s="20"/>
       <c r="Z60" s="20"/>
       <c r="AA60" s="20"/>
       <c r="AB60" s="20"/>
       <c r="AC60" s="20"/>
-      <c r="AD60" s="74"/>
+      <c r="AD60" s="72"/>
       <c r="AE60" s="19"/>
       <c r="AF60" s="19"/>
       <c r="AG60" s="19"/>
       <c r="AH60" s="19"/>
       <c r="AI60" s="19"/>
       <c r="AJ60" s="19"/>
-      <c r="AK60" s="67"/>
+      <c r="AK60" s="64"/>
       <c r="AL60" s="19"/>
     </row>
     <row r="61" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A61" s="60"/>
-      <c r="B61" s="62"/>
-      <c r="C61" s="59"/>
-      <c r="D61" s="59"/>
+      <c r="A61" s="74"/>
+      <c r="B61" s="76"/>
+      <c r="C61" s="66"/>
+      <c r="D61" s="66"/>
       <c r="E61" s="2" t="s">
         <v>107</v>
       </c>
@@ -9071,9 +8955,7 @@
       <c r="I61" s="35">
         <v>44133</v>
       </c>
-      <c r="J61" s="81" t="s">
-        <v>202</v>
-      </c>
+      <c r="J61" s="60"/>
       <c r="K61" s="36">
         <v>1</v>
       </c>
@@ -9088,28 +8970,28 @@
       <c r="T61" s="20"/>
       <c r="U61" s="20"/>
       <c r="V61" s="20"/>
-      <c r="W61" s="71"/>
+      <c r="W61" s="69"/>
       <c r="X61" s="20"/>
       <c r="Y61" s="20"/>
       <c r="Z61" s="20"/>
       <c r="AA61" s="20"/>
       <c r="AB61" s="20"/>
       <c r="AC61" s="20"/>
-      <c r="AD61" s="74"/>
+      <c r="AD61" s="72"/>
       <c r="AE61" s="19"/>
       <c r="AF61" s="19"/>
       <c r="AG61" s="19"/>
       <c r="AH61" s="19"/>
       <c r="AI61" s="19"/>
       <c r="AJ61" s="19"/>
-      <c r="AK61" s="67"/>
+      <c r="AK61" s="64"/>
       <c r="AL61" s="19"/>
     </row>
     <row r="62" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A62" s="60"/>
-      <c r="B62" s="62"/>
-      <c r="C62" s="59"/>
-      <c r="D62" s="59"/>
+      <c r="A62" s="74"/>
+      <c r="B62" s="76"/>
+      <c r="C62" s="66"/>
+      <c r="D62" s="66"/>
       <c r="E62" s="2" t="s">
         <v>108</v>
       </c>
@@ -9125,9 +9007,7 @@
       <c r="I62" s="35">
         <v>44133</v>
       </c>
-      <c r="J62" s="81" t="s">
-        <v>202</v>
-      </c>
+      <c r="J62" s="60"/>
       <c r="K62" s="36">
         <v>1</v>
       </c>
@@ -9142,28 +9022,28 @@
       <c r="T62" s="20"/>
       <c r="U62" s="20"/>
       <c r="V62" s="20"/>
-      <c r="W62" s="71"/>
+      <c r="W62" s="69"/>
       <c r="X62" s="20"/>
       <c r="Y62" s="20"/>
       <c r="Z62" s="20"/>
       <c r="AA62" s="20"/>
       <c r="AB62" s="20"/>
       <c r="AC62" s="20"/>
-      <c r="AD62" s="74"/>
+      <c r="AD62" s="72"/>
       <c r="AE62" s="19"/>
       <c r="AF62" s="19"/>
       <c r="AG62" s="19"/>
       <c r="AH62" s="19"/>
       <c r="AI62" s="19"/>
       <c r="AJ62" s="19"/>
-      <c r="AK62" s="67"/>
+      <c r="AK62" s="64"/>
       <c r="AL62" s="19"/>
     </row>
     <row r="63" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A63" s="60"/>
-      <c r="B63" s="62"/>
-      <c r="C63" s="59"/>
-      <c r="D63" s="59" t="s">
+      <c r="A63" s="74"/>
+      <c r="B63" s="76"/>
+      <c r="C63" s="66"/>
+      <c r="D63" s="66" t="s">
         <v>97</v>
       </c>
       <c r="E63" s="2" t="s">
@@ -9175,9 +9055,7 @@
       <c r="G63" s="20"/>
       <c r="H63" s="35"/>
       <c r="I63" s="35"/>
-      <c r="J63" s="81" t="s">
-        <v>202</v>
-      </c>
+      <c r="J63" s="60"/>
       <c r="K63" s="36">
         <v>0</v>
       </c>
@@ -9192,28 +9070,28 @@
       <c r="T63" s="20"/>
       <c r="U63" s="20"/>
       <c r="V63" s="20"/>
-      <c r="W63" s="71"/>
+      <c r="W63" s="69"/>
       <c r="X63" s="20"/>
       <c r="Y63" s="20"/>
       <c r="Z63" s="20"/>
       <c r="AA63" s="20"/>
       <c r="AB63" s="20"/>
       <c r="AC63" s="20"/>
-      <c r="AD63" s="74"/>
+      <c r="AD63" s="72"/>
       <c r="AE63" s="19"/>
       <c r="AF63" s="19"/>
       <c r="AG63" s="19"/>
       <c r="AH63" s="19"/>
       <c r="AI63" s="19"/>
       <c r="AJ63" s="19"/>
-      <c r="AK63" s="67"/>
+      <c r="AK63" s="64"/>
       <c r="AL63" s="19"/>
     </row>
     <row r="64" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A64" s="60"/>
-      <c r="B64" s="62"/>
-      <c r="C64" s="59"/>
-      <c r="D64" s="59"/>
+      <c r="A64" s="74"/>
+      <c r="B64" s="76"/>
+      <c r="C64" s="66"/>
+      <c r="D64" s="66"/>
       <c r="E64" s="2" t="s">
         <v>146</v>
       </c>
@@ -9229,9 +9107,7 @@
       <c r="I64" s="35">
         <v>44133</v>
       </c>
-      <c r="J64" s="81" t="s">
-        <v>202</v>
-      </c>
+      <c r="J64" s="60"/>
       <c r="K64" s="36">
         <v>1</v>
       </c>
@@ -9246,30 +9122,30 @@
       <c r="T64" s="20"/>
       <c r="U64" s="20"/>
       <c r="V64" s="20"/>
-      <c r="W64" s="71"/>
+      <c r="W64" s="69"/>
       <c r="X64" s="20"/>
       <c r="Y64" s="20"/>
       <c r="Z64" s="20"/>
       <c r="AA64" s="20"/>
       <c r="AB64" s="20"/>
       <c r="AC64" s="20"/>
-      <c r="AD64" s="74"/>
+      <c r="AD64" s="72"/>
       <c r="AE64" s="19"/>
       <c r="AF64" s="19"/>
       <c r="AG64" s="19"/>
       <c r="AH64" s="19"/>
       <c r="AI64" s="19"/>
       <c r="AJ64" s="19"/>
-      <c r="AK64" s="67"/>
+      <c r="AK64" s="64"/>
       <c r="AL64" s="19"/>
     </row>
     <row r="65" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="60"/>
-      <c r="B65" s="62"/>
-      <c r="C65" s="59" t="s">
+      <c r="A65" s="74"/>
+      <c r="B65" s="76"/>
+      <c r="C65" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="D65" s="59" t="s">
+      <c r="D65" s="66" t="s">
         <v>93</v>
       </c>
       <c r="E65" s="2" t="s">
@@ -9287,9 +9163,7 @@
       <c r="I65" s="35">
         <v>44126</v>
       </c>
-      <c r="J65" s="81" t="s">
-        <v>202</v>
-      </c>
+      <c r="J65" s="60"/>
       <c r="K65" s="36">
         <v>1</v>
       </c>
@@ -9304,28 +9178,28 @@
       <c r="T65" s="20"/>
       <c r="U65" s="20"/>
       <c r="V65" s="20"/>
-      <c r="W65" s="71"/>
+      <c r="W65" s="69"/>
       <c r="X65" s="20"/>
       <c r="Y65" s="20"/>
       <c r="Z65" s="20"/>
       <c r="AA65" s="20"/>
       <c r="AB65" s="20"/>
       <c r="AC65" s="20"/>
-      <c r="AD65" s="74"/>
+      <c r="AD65" s="72"/>
       <c r="AE65" s="19"/>
       <c r="AF65" s="19"/>
       <c r="AG65" s="19"/>
       <c r="AH65" s="19"/>
       <c r="AI65" s="19"/>
       <c r="AJ65" s="19"/>
-      <c r="AK65" s="67"/>
+      <c r="AK65" s="64"/>
       <c r="AL65" s="19"/>
     </row>
     <row r="66" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="60"/>
-      <c r="B66" s="62"/>
-      <c r="C66" s="59"/>
-      <c r="D66" s="59"/>
+      <c r="A66" s="74"/>
+      <c r="B66" s="76"/>
+      <c r="C66" s="66"/>
+      <c r="D66" s="66"/>
       <c r="E66" s="2" t="s">
         <v>130</v>
       </c>
@@ -9341,9 +9215,7 @@
       <c r="I66" s="35">
         <v>44126</v>
       </c>
-      <c r="J66" s="81" t="s">
-        <v>202</v>
-      </c>
+      <c r="J66" s="60"/>
       <c r="K66" s="36">
         <v>1</v>
       </c>
@@ -9358,28 +9230,28 @@
       <c r="T66" s="20"/>
       <c r="U66" s="20"/>
       <c r="V66" s="20"/>
-      <c r="W66" s="71"/>
+      <c r="W66" s="69"/>
       <c r="X66" s="20"/>
       <c r="Y66" s="20"/>
       <c r="Z66" s="20"/>
       <c r="AA66" s="20"/>
       <c r="AB66" s="20"/>
       <c r="AC66" s="20"/>
-      <c r="AD66" s="74"/>
+      <c r="AD66" s="72"/>
       <c r="AE66" s="19"/>
       <c r="AF66" s="19"/>
       <c r="AG66" s="19"/>
       <c r="AH66" s="19"/>
       <c r="AI66" s="19"/>
       <c r="AJ66" s="19"/>
-      <c r="AK66" s="67"/>
+      <c r="AK66" s="64"/>
       <c r="AL66" s="19"/>
     </row>
     <row r="67" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="60"/>
-      <c r="B67" s="62"/>
-      <c r="C67" s="59"/>
-      <c r="D67" s="63" t="s">
+      <c r="A67" s="74"/>
+      <c r="B67" s="76"/>
+      <c r="C67" s="66"/>
+      <c r="D67" s="61" t="s">
         <v>98</v>
       </c>
       <c r="E67" s="2" t="s">
@@ -9397,9 +9269,7 @@
       <c r="I67" s="35">
         <v>44133</v>
       </c>
-      <c r="J67" s="81" t="s">
-        <v>202</v>
-      </c>
+      <c r="J67" s="60"/>
       <c r="K67" s="36">
         <v>1</v>
       </c>
@@ -9414,28 +9284,28 @@
       <c r="T67" s="53"/>
       <c r="U67" s="53"/>
       <c r="V67" s="53"/>
-      <c r="W67" s="71"/>
+      <c r="W67" s="69"/>
       <c r="X67" s="53"/>
       <c r="Y67" s="53"/>
       <c r="Z67" s="53"/>
       <c r="AA67" s="53"/>
       <c r="AB67" s="53"/>
       <c r="AC67" s="53"/>
-      <c r="AD67" s="74"/>
+      <c r="AD67" s="72"/>
       <c r="AE67" s="54"/>
       <c r="AF67" s="54"/>
       <c r="AG67" s="54"/>
       <c r="AH67" s="54"/>
       <c r="AI67" s="54"/>
       <c r="AJ67" s="54"/>
-      <c r="AK67" s="67"/>
+      <c r="AK67" s="64"/>
       <c r="AL67" s="54"/>
     </row>
     <row r="68" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="60"/>
-      <c r="B68" s="62"/>
-      <c r="C68" s="59"/>
-      <c r="D68" s="65"/>
+      <c r="A68" s="74"/>
+      <c r="B68" s="76"/>
+      <c r="C68" s="66"/>
+      <c r="D68" s="62"/>
       <c r="E68" s="2" t="s">
         <v>130</v>
       </c>
@@ -9447,9 +9317,7 @@
       </c>
       <c r="H68" s="35"/>
       <c r="I68" s="35"/>
-      <c r="J68" s="81" t="s">
-        <v>202</v>
-      </c>
+      <c r="J68" s="60"/>
       <c r="K68" s="36">
         <v>0</v>
       </c>
@@ -9464,27 +9332,27 @@
       <c r="T68" s="20"/>
       <c r="U68" s="20"/>
       <c r="V68" s="20"/>
-      <c r="W68" s="71"/>
+      <c r="W68" s="69"/>
       <c r="X68" s="20"/>
       <c r="Y68" s="20"/>
       <c r="Z68" s="20"/>
       <c r="AA68" s="20"/>
       <c r="AB68" s="20"/>
       <c r="AC68" s="20"/>
-      <c r="AD68" s="74"/>
+      <c r="AD68" s="72"/>
       <c r="AE68" s="19"/>
       <c r="AF68" s="19"/>
       <c r="AG68" s="19"/>
       <c r="AH68" s="19"/>
       <c r="AI68" s="19"/>
       <c r="AJ68" s="19"/>
-      <c r="AK68" s="67"/>
+      <c r="AK68" s="64"/>
       <c r="AL68" s="19"/>
     </row>
     <row r="69" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A69" s="60"/>
-      <c r="B69" s="62"/>
-      <c r="C69" s="64"/>
+      <c r="A69" s="74"/>
+      <c r="B69" s="76"/>
+      <c r="C69" s="77"/>
       <c r="D69" s="2" t="s">
         <v>190</v>
       </c>
@@ -9503,9 +9371,7 @@
       <c r="I69" s="35">
         <v>44132</v>
       </c>
-      <c r="J69" s="81" t="s">
-        <v>202</v>
-      </c>
+      <c r="J69" s="60"/>
       <c r="K69" s="36">
         <v>1</v>
       </c>
@@ -9520,27 +9386,27 @@
       <c r="T69" s="53"/>
       <c r="U69" s="53"/>
       <c r="V69" s="53"/>
-      <c r="W69" s="71"/>
+      <c r="W69" s="69"/>
       <c r="X69" s="53"/>
       <c r="Y69" s="53"/>
       <c r="Z69" s="53"/>
       <c r="AA69" s="53"/>
       <c r="AB69" s="53"/>
       <c r="AC69" s="53"/>
-      <c r="AD69" s="74"/>
+      <c r="AD69" s="72"/>
       <c r="AE69" s="54"/>
       <c r="AF69" s="54"/>
       <c r="AG69" s="54"/>
       <c r="AH69" s="54"/>
       <c r="AI69" s="54"/>
       <c r="AJ69" s="54"/>
-      <c r="AK69" s="67"/>
+      <c r="AK69" s="64"/>
       <c r="AL69" s="54"/>
     </row>
     <row r="70" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A70" s="60"/>
-      <c r="B70" s="62"/>
-      <c r="C70" s="64"/>
+      <c r="A70" s="74"/>
+      <c r="B70" s="76"/>
+      <c r="C70" s="77"/>
       <c r="D70" s="2" t="s">
         <v>191</v>
       </c>
@@ -9559,9 +9425,7 @@
       <c r="I70" s="35">
         <v>44132</v>
       </c>
-      <c r="J70" s="81" t="s">
-        <v>202</v>
-      </c>
+      <c r="J70" s="60"/>
       <c r="K70" s="36">
         <v>1</v>
       </c>
@@ -9576,27 +9440,27 @@
       <c r="T70" s="53"/>
       <c r="U70" s="53"/>
       <c r="V70" s="53"/>
-      <c r="W70" s="71"/>
+      <c r="W70" s="69"/>
       <c r="X70" s="53"/>
       <c r="Y70" s="53"/>
       <c r="Z70" s="53"/>
       <c r="AA70" s="53"/>
       <c r="AB70" s="53"/>
       <c r="AC70" s="53"/>
-      <c r="AD70" s="74"/>
+      <c r="AD70" s="72"/>
       <c r="AE70" s="54"/>
       <c r="AF70" s="54"/>
       <c r="AG70" s="54"/>
       <c r="AH70" s="54"/>
       <c r="AI70" s="54"/>
       <c r="AJ70" s="54"/>
-      <c r="AK70" s="67"/>
+      <c r="AK70" s="64"/>
       <c r="AL70" s="54"/>
     </row>
     <row r="71" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A71" s="60"/>
-      <c r="B71" s="62"/>
-      <c r="C71" s="65"/>
+      <c r="A71" s="74"/>
+      <c r="B71" s="76"/>
+      <c r="C71" s="62"/>
       <c r="D71" s="2" t="s">
         <v>161</v>
       </c>
@@ -9615,9 +9479,7 @@
       <c r="I71" s="35">
         <v>44130</v>
       </c>
-      <c r="J71" s="81" t="s">
-        <v>202</v>
-      </c>
+      <c r="J71" s="60"/>
       <c r="K71" s="36">
         <v>1</v>
       </c>
@@ -9632,27 +9494,27 @@
       <c r="T71" s="20"/>
       <c r="U71" s="20"/>
       <c r="V71" s="20"/>
-      <c r="W71" s="71"/>
+      <c r="W71" s="69"/>
       <c r="X71" s="20"/>
       <c r="Y71" s="20"/>
       <c r="Z71" s="20"/>
       <c r="AA71" s="20"/>
       <c r="AB71" s="20"/>
       <c r="AC71" s="20"/>
-      <c r="AD71" s="74"/>
+      <c r="AD71" s="72"/>
       <c r="AE71" s="19"/>
       <c r="AF71" s="19"/>
       <c r="AG71" s="19"/>
       <c r="AH71" s="19"/>
       <c r="AI71" s="19"/>
       <c r="AJ71" s="19"/>
-      <c r="AK71" s="67"/>
+      <c r="AK71" s="64"/>
       <c r="AL71" s="19"/>
     </row>
     <row r="72" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A72" s="60"/>
-      <c r="B72" s="62"/>
-      <c r="C72" s="59" t="s">
+      <c r="A72" s="74"/>
+      <c r="B72" s="76"/>
+      <c r="C72" s="66" t="s">
         <v>13</v>
       </c>
       <c r="D72" s="2" t="s">
@@ -9671,9 +9533,7 @@
       <c r="I72" s="35">
         <v>44124</v>
       </c>
-      <c r="J72" s="81" t="s">
-        <v>202</v>
-      </c>
+      <c r="J72" s="60"/>
       <c r="K72" s="36">
         <v>1</v>
       </c>
@@ -9688,27 +9548,27 @@
       <c r="T72" s="20"/>
       <c r="U72" s="20"/>
       <c r="V72" s="20"/>
-      <c r="W72" s="71"/>
+      <c r="W72" s="69"/>
       <c r="X72" s="20"/>
       <c r="Y72" s="20"/>
       <c r="Z72" s="20"/>
       <c r="AA72" s="20"/>
       <c r="AB72" s="20"/>
       <c r="AC72" s="20"/>
-      <c r="AD72" s="74"/>
+      <c r="AD72" s="72"/>
       <c r="AE72" s="19"/>
       <c r="AF72" s="19"/>
       <c r="AG72" s="19"/>
       <c r="AH72" s="19"/>
       <c r="AI72" s="19"/>
       <c r="AJ72" s="19"/>
-      <c r="AK72" s="67"/>
+      <c r="AK72" s="64"/>
       <c r="AL72" s="19"/>
     </row>
     <row r="73" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A73" s="60"/>
-      <c r="B73" s="62"/>
-      <c r="C73" s="59"/>
+      <c r="A73" s="74"/>
+      <c r="B73" s="76"/>
+      <c r="C73" s="66"/>
       <c r="D73" s="2" t="s">
         <v>126</v>
       </c>
@@ -9725,9 +9585,7 @@
       <c r="I73" s="35">
         <v>44124</v>
       </c>
-      <c r="J73" s="81" t="s">
-        <v>202</v>
-      </c>
+      <c r="J73" s="60"/>
       <c r="K73" s="36">
         <v>1</v>
       </c>
@@ -9742,27 +9600,27 @@
       <c r="T73" s="20"/>
       <c r="U73" s="20"/>
       <c r="V73" s="20"/>
-      <c r="W73" s="71"/>
+      <c r="W73" s="69"/>
       <c r="X73" s="20"/>
       <c r="Y73" s="20"/>
       <c r="Z73" s="20"/>
       <c r="AA73" s="20"/>
       <c r="AB73" s="20"/>
       <c r="AC73" s="20"/>
-      <c r="AD73" s="74"/>
+      <c r="AD73" s="72"/>
       <c r="AE73" s="19"/>
       <c r="AF73" s="19"/>
       <c r="AG73" s="19"/>
       <c r="AH73" s="19"/>
       <c r="AI73" s="19"/>
       <c r="AJ73" s="19"/>
-      <c r="AK73" s="67"/>
+      <c r="AK73" s="64"/>
       <c r="AL73" s="19"/>
     </row>
     <row r="74" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="60"/>
-      <c r="B74" s="62"/>
-      <c r="C74" s="63" t="s">
+      <c r="A74" s="74"/>
+      <c r="B74" s="76"/>
+      <c r="C74" s="61" t="s">
         <v>99</v>
       </c>
       <c r="D74" s="2" t="s">
@@ -9781,9 +9639,7 @@
       <c r="I74" s="35">
         <v>44126</v>
       </c>
-      <c r="J74" s="81" t="s">
-        <v>202</v>
-      </c>
+      <c r="J74" s="60"/>
       <c r="K74" s="36">
         <v>1</v>
       </c>
@@ -9798,27 +9654,27 @@
       <c r="T74" s="20"/>
       <c r="U74" s="20"/>
       <c r="V74" s="20"/>
-      <c r="W74" s="71"/>
+      <c r="W74" s="69"/>
       <c r="X74" s="20"/>
       <c r="Y74" s="20"/>
       <c r="Z74" s="20"/>
       <c r="AA74" s="20"/>
       <c r="AB74" s="20"/>
       <c r="AC74" s="20"/>
-      <c r="AD74" s="74"/>
+      <c r="AD74" s="72"/>
       <c r="AE74" s="19"/>
       <c r="AF74" s="19"/>
       <c r="AG74" s="19"/>
       <c r="AH74" s="19"/>
       <c r="AI74" s="19"/>
       <c r="AJ74" s="19"/>
-      <c r="AK74" s="67"/>
+      <c r="AK74" s="64"/>
       <c r="AL74" s="19"/>
     </row>
     <row r="75" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="60"/>
-      <c r="B75" s="62"/>
-      <c r="C75" s="64"/>
+      <c r="A75" s="74"/>
+      <c r="B75" s="76"/>
+      <c r="C75" s="77"/>
       <c r="D75" s="2" t="s">
         <v>156</v>
       </c>
@@ -9835,9 +9691,7 @@
       <c r="I75" s="35">
         <v>44126</v>
       </c>
-      <c r="J75" s="81" t="s">
-        <v>202</v>
-      </c>
+      <c r="J75" s="60"/>
       <c r="K75" s="36">
         <v>1</v>
       </c>
@@ -9852,27 +9706,27 @@
       <c r="T75" s="20"/>
       <c r="U75" s="20"/>
       <c r="V75" s="20"/>
-      <c r="W75" s="71"/>
+      <c r="W75" s="69"/>
       <c r="X75" s="20"/>
       <c r="Y75" s="20"/>
       <c r="Z75" s="20"/>
       <c r="AA75" s="20"/>
       <c r="AB75" s="20"/>
       <c r="AC75" s="20"/>
-      <c r="AD75" s="74"/>
+      <c r="AD75" s="72"/>
       <c r="AE75" s="19"/>
       <c r="AF75" s="19"/>
       <c r="AG75" s="19"/>
       <c r="AH75" s="19"/>
       <c r="AI75" s="19"/>
       <c r="AJ75" s="19"/>
-      <c r="AK75" s="67"/>
+      <c r="AK75" s="64"/>
       <c r="AL75" s="19"/>
     </row>
     <row r="76" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="60"/>
-      <c r="B76" s="62"/>
-      <c r="C76" s="64"/>
+      <c r="A76" s="74"/>
+      <c r="B76" s="76"/>
+      <c r="C76" s="77"/>
       <c r="D76" s="2" t="s">
         <v>187</v>
       </c>
@@ -9883,9 +9737,7 @@
       <c r="G76" s="53"/>
       <c r="H76" s="35"/>
       <c r="I76" s="35"/>
-      <c r="J76" s="81" t="s">
-        <v>202</v>
-      </c>
+      <c r="J76" s="60"/>
       <c r="K76" s="36"/>
       <c r="L76" s="30"/>
       <c r="M76" s="53"/>
@@ -9898,27 +9750,27 @@
       <c r="T76" s="53"/>
       <c r="U76" s="53"/>
       <c r="V76" s="53"/>
-      <c r="W76" s="71"/>
+      <c r="W76" s="69"/>
       <c r="X76" s="53"/>
       <c r="Y76" s="53"/>
       <c r="Z76" s="53"/>
       <c r="AA76" s="53"/>
       <c r="AB76" s="53"/>
       <c r="AC76" s="53"/>
-      <c r="AD76" s="74"/>
+      <c r="AD76" s="72"/>
       <c r="AE76" s="54"/>
       <c r="AF76" s="54"/>
       <c r="AG76" s="54"/>
       <c r="AH76" s="54"/>
       <c r="AI76" s="54"/>
       <c r="AJ76" s="54"/>
-      <c r="AK76" s="67"/>
+      <c r="AK76" s="64"/>
       <c r="AL76" s="54"/>
     </row>
     <row r="77" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="60"/>
-      <c r="B77" s="62"/>
-      <c r="C77" s="65"/>
+      <c r="A77" s="74"/>
+      <c r="B77" s="76"/>
+      <c r="C77" s="62"/>
       <c r="D77" s="2" t="s">
         <v>157</v>
       </c>
@@ -9935,9 +9787,7 @@
       <c r="I77" s="35">
         <v>44126</v>
       </c>
-      <c r="J77" s="81" t="s">
-        <v>202</v>
-      </c>
+      <c r="J77" s="60"/>
       <c r="K77" s="36">
         <v>1</v>
       </c>
@@ -9952,27 +9802,27 @@
       <c r="T77" s="37"/>
       <c r="U77" s="37"/>
       <c r="V77" s="37"/>
-      <c r="W77" s="71"/>
+      <c r="W77" s="69"/>
       <c r="X77" s="37"/>
       <c r="Y77" s="37"/>
       <c r="Z77" s="37"/>
       <c r="AA77" s="37"/>
       <c r="AB77" s="37"/>
       <c r="AC77" s="37"/>
-      <c r="AD77" s="74"/>
+      <c r="AD77" s="72"/>
       <c r="AE77" s="19"/>
       <c r="AF77" s="19"/>
       <c r="AG77" s="19"/>
       <c r="AH77" s="19"/>
       <c r="AI77" s="19"/>
       <c r="AJ77" s="19"/>
-      <c r="AK77" s="67"/>
+      <c r="AK77" s="64"/>
       <c r="AL77" s="19"/>
     </row>
     <row r="78" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A78" s="60"/>
-      <c r="B78" s="62"/>
-      <c r="C78" s="59" t="s">
+      <c r="A78" s="74"/>
+      <c r="B78" s="76"/>
+      <c r="C78" s="66" t="s">
         <v>30</v>
       </c>
       <c r="D78" s="2" t="s">
@@ -9989,9 +9839,7 @@
         <v>44131</v>
       </c>
       <c r="I78" s="35"/>
-      <c r="J78" s="81" t="s">
-        <v>202</v>
-      </c>
+      <c r="J78" s="60"/>
       <c r="K78" s="36">
         <v>0</v>
       </c>
@@ -10006,27 +9854,27 @@
       <c r="T78" s="20"/>
       <c r="U78" s="20"/>
       <c r="V78" s="20"/>
-      <c r="W78" s="71"/>
+      <c r="W78" s="69"/>
       <c r="X78" s="20"/>
       <c r="Y78" s="20"/>
       <c r="Z78" s="20"/>
       <c r="AA78" s="20"/>
       <c r="AB78" s="20"/>
       <c r="AC78" s="20"/>
-      <c r="AD78" s="74"/>
+      <c r="AD78" s="72"/>
       <c r="AE78" s="19"/>
       <c r="AF78" s="19"/>
       <c r="AG78" s="19"/>
       <c r="AH78" s="19"/>
       <c r="AI78" s="19"/>
       <c r="AJ78" s="19"/>
-      <c r="AK78" s="67"/>
+      <c r="AK78" s="64"/>
       <c r="AL78" s="19"/>
     </row>
     <row r="79" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A79" s="60"/>
-      <c r="B79" s="62"/>
-      <c r="C79" s="59"/>
+      <c r="A79" s="74"/>
+      <c r="B79" s="76"/>
+      <c r="C79" s="66"/>
       <c r="D79" s="2" t="s">
         <v>32</v>
       </c>
@@ -10035,9 +9883,7 @@
       <c r="G79" s="20"/>
       <c r="H79" s="35"/>
       <c r="I79" s="35"/>
-      <c r="J79" s="81" t="s">
-        <v>202</v>
-      </c>
+      <c r="J79" s="60"/>
       <c r="K79" s="36">
         <v>0</v>
       </c>
@@ -10052,27 +9898,27 @@
       <c r="T79" s="20"/>
       <c r="U79" s="20"/>
       <c r="V79" s="20"/>
-      <c r="W79" s="71"/>
+      <c r="W79" s="69"/>
       <c r="X79" s="20"/>
       <c r="Y79" s="20"/>
       <c r="Z79" s="20"/>
       <c r="AA79" s="20"/>
       <c r="AB79" s="20"/>
       <c r="AC79" s="20"/>
-      <c r="AD79" s="74"/>
+      <c r="AD79" s="72"/>
       <c r="AE79" s="19"/>
       <c r="AF79" s="19"/>
       <c r="AG79" s="19"/>
       <c r="AH79" s="19"/>
       <c r="AI79" s="19"/>
       <c r="AJ79" s="19"/>
-      <c r="AK79" s="67"/>
+      <c r="AK79" s="64"/>
       <c r="AL79" s="19"/>
     </row>
     <row r="80" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A80" s="60"/>
-      <c r="B80" s="62"/>
-      <c r="C80" s="59"/>
+      <c r="A80" s="74"/>
+      <c r="B80" s="76"/>
+      <c r="C80" s="66"/>
       <c r="D80" s="2" t="s">
         <v>33</v>
       </c>
@@ -10087,9 +9933,7 @@
         <v>44131</v>
       </c>
       <c r="I80" s="35"/>
-      <c r="J80" s="81" t="s">
-        <v>202</v>
-      </c>
+      <c r="J80" s="60"/>
       <c r="K80" s="36">
         <v>0</v>
       </c>
@@ -10104,25 +9948,25 @@
       <c r="T80" s="20"/>
       <c r="U80" s="20"/>
       <c r="V80" s="20"/>
-      <c r="W80" s="72"/>
+      <c r="W80" s="70"/>
       <c r="X80" s="20"/>
       <c r="Y80" s="20"/>
       <c r="Z80" s="20"/>
       <c r="AA80" s="20"/>
       <c r="AB80" s="20"/>
       <c r="AC80" s="20"/>
-      <c r="AD80" s="75"/>
+      <c r="AD80" s="73"/>
       <c r="AE80" s="19"/>
       <c r="AF80" s="19"/>
       <c r="AG80" s="19"/>
       <c r="AH80" s="19"/>
       <c r="AI80" s="19"/>
       <c r="AJ80" s="19"/>
-      <c r="AK80" s="68"/>
+      <c r="AK80" s="65"/>
       <c r="AL80" s="19"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A81" s="60"/>
+      <c r="A81" s="74"/>
       <c r="B81" s="44" t="s">
         <v>21</v>
       </c>
@@ -10137,15 +9981,27 @@
       <c r="G81" s="20"/>
       <c r="H81" s="35"/>
       <c r="I81" s="35"/>
-      <c r="J81" s="81" t="s">
-        <v>202</v>
-      </c>
+      <c r="J81" s="60"/>
       <c r="K81" s="45">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="A5:A81"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C78:C80"/>
+    <mergeCell ref="C48:C52"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="C65:C68"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="B56:B80"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="C74:C77"/>
+    <mergeCell ref="C69:C71"/>
     <mergeCell ref="D67:D68"/>
     <mergeCell ref="AK5:AK80"/>
     <mergeCell ref="C18:C42"/>
@@ -10162,20 +10018,6 @@
     <mergeCell ref="D56:D57"/>
     <mergeCell ref="D63:D64"/>
     <mergeCell ref="D65:D66"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="A5:A81"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C78:C80"/>
-    <mergeCell ref="C48:C52"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="C65:C68"/>
-    <mergeCell ref="B5:B10"/>
-    <mergeCell ref="B56:B80"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="C74:C77"/>
-    <mergeCell ref="C69:C71"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="L3:AL5 AL6:AL80 X6:AC80 AE6:AJ80 L6:V80">
@@ -10254,24 +10096,24 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
     </row>
     <row r="4" spans="2:14" ht="45.75" x14ac:dyDescent="0.4">
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
       <c r="K4" s="11" t="s">
         <v>73</v>
       </c>
@@ -10280,14 +10122,14 @@
       </c>
     </row>
     <row r="5" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="78"/>
       <c r="K5" s="12" t="s">
         <v>75</v>
       </c>
@@ -10296,28 +10138,28 @@
       </c>
     </row>
     <row r="6" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="78"/>
       <c r="K6" s="12" t="s">
         <v>76</v>
       </c>
       <c r="L6" s="13"/>
     </row>
     <row r="7" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="76"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="78"/>
       <c r="K7" s="12" t="s">
         <v>77</v>
       </c>
@@ -10326,28 +10168,28 @@
       </c>
     </row>
     <row r="8" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B8" s="76"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="78"/>
       <c r="K8" s="12" t="s">
         <v>78</v>
       </c>
       <c r="L8" s="13"/>
     </row>
     <row r="9" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B9" s="76"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="76"/>
-      <c r="H9" s="76"/>
-      <c r="I9" s="76"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="78"/>
       <c r="K9" s="12" t="s">
         <v>79</v>
       </c>
@@ -10356,28 +10198,28 @@
       </c>
     </row>
     <row r="10" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B10" s="76"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="76"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="76"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="78"/>
       <c r="K10" s="12" t="s">
         <v>80</v>
       </c>
       <c r="L10" s="13"/>
     </row>
     <row r="11" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B11" s="76"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="76"/>
-      <c r="H11" s="76"/>
-      <c r="I11" s="76"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="78"/>
       <c r="K11" s="12" t="s">
         <v>81</v>
       </c>
@@ -10387,136 +10229,136 @@
       <c r="N11" s="10"/>
     </row>
     <row r="12" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B12" s="76"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="76"/>
-      <c r="I12" s="76"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
       <c r="K12" s="12" t="s">
         <v>82</v>
       </c>
       <c r="L12" s="13"/>
     </row>
     <row r="13" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B13" s="76"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="76"/>
-      <c r="I13" s="76"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="78"/>
+      <c r="I13" s="78"/>
       <c r="K13" s="12" t="s">
         <v>83</v>
       </c>
       <c r="L13" s="13"/>
     </row>
     <row r="14" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B14" s="76"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="76"/>
-      <c r="I14" s="76"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="78"/>
       <c r="K14" s="12" t="s">
         <v>84</v>
       </c>
       <c r="L14" s="13"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B15" s="76"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="76"/>
-      <c r="H15" s="76"/>
-      <c r="I15" s="76"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="78"/>
+      <c r="I15" s="78"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B16" s="76"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="76"/>
-      <c r="I16" s="76"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="78"/>
+      <c r="I16" s="78"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B17" s="76"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="76"/>
-      <c r="I17" s="76"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="78"/>
+      <c r="I17" s="78"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B18" s="76"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="76"/>
-      <c r="I18" s="76"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="78"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B19" s="76"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="76"/>
-      <c r="H19" s="76"/>
-      <c r="I19" s="76"/>
+      <c r="B19" s="78"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="78"/>
+      <c r="I19" s="78"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B20" s="76"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="76"/>
+      <c r="B20" s="78"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="78"/>
+      <c r="I20" s="78"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B21" s="76"/>
-      <c r="C21" s="76"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="76"/>
-      <c r="F21" s="76"/>
-      <c r="G21" s="76"/>
-      <c r="H21" s="76"/>
-      <c r="I21" s="76"/>
+      <c r="B21" s="78"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="78"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="78"/>
+      <c r="G21" s="78"/>
+      <c r="H21" s="78"/>
+      <c r="I21" s="78"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B22" s="76"/>
-      <c r="C22" s="76"/>
-      <c r="D22" s="76"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="76"/>
-      <c r="H22" s="76"/>
-      <c r="I22" s="76"/>
+      <c r="B22" s="78"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="78"/>
+      <c r="H22" s="78"/>
+      <c r="I22" s="78"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B23" s="76"/>
-      <c r="C23" s="76"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="76"/>
-      <c r="I23" s="76"/>
+      <c r="B23" s="78"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="78"/>
+      <c r="G23" s="78"/>
+      <c r="H23" s="78"/>
+      <c r="I23" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10562,22 +10404,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" s="76"/>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
+      <c r="A2" s="78"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="7"/>
@@ -10664,7 +10506,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B10" s="78" t="s">
+      <c r="B10" s="80" t="s">
         <v>173</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -10678,7 +10520,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B11" s="78"/>
+      <c r="B11" s="80"/>
       <c r="C11" s="2" t="s">
         <v>176</v>
       </c>
@@ -10686,7 +10528,7 @@
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B12" s="78"/>
+      <c r="B12" s="80"/>
       <c r="C12" s="2" t="s">
         <v>172</v>
       </c>
@@ -10694,7 +10536,7 @@
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B13" s="78"/>
+      <c r="B13" s="80"/>
       <c r="C13" s="2" t="s">
         <v>175</v>
       </c>
@@ -10799,12 +10641,12 @@
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/schedule/ガントチャート.xlsx
+++ b/schedule/ガントチャート.xlsx
@@ -2152,7 +2152,22 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2166,9 +2181,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2190,18 +2202,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="12" borderId="3" xfId="13" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5902,10 +5902,10 @@
   <dimension ref="A1:AT81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="11" ySplit="4" topLeftCell="L62" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="4" topLeftCell="L35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="N80" sqref="N80"/>
+      <selection pane="bottomRight" activeCell="K79" sqref="K79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6194,10 +6194,10 @@
       </c>
     </row>
     <row r="5" spans="1:46" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="63" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="20" t="s">
@@ -6234,7 +6234,7 @@
       <c r="T5" s="19"/>
       <c r="U5" s="19"/>
       <c r="V5" s="19"/>
-      <c r="W5" s="68" t="s">
+      <c r="W5" s="72" t="s">
         <v>110</v>
       </c>
       <c r="X5" s="19"/>
@@ -6243,7 +6243,7 @@
       <c r="AA5" s="19"/>
       <c r="AB5" s="19"/>
       <c r="AC5" s="19"/>
-      <c r="AD5" s="71" t="s">
+      <c r="AD5" s="75" t="s">
         <v>111</v>
       </c>
       <c r="AE5" s="19"/>
@@ -6252,14 +6252,14 @@
       <c r="AH5" s="19"/>
       <c r="AI5" s="19"/>
       <c r="AJ5" s="19"/>
-      <c r="AK5" s="63" t="s">
+      <c r="AK5" s="68" t="s">
         <v>88</v>
       </c>
       <c r="AL5" s="19"/>
     </row>
     <row r="6" spans="1:46" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="74"/>
-      <c r="B6" s="75"/>
+      <c r="A6" s="62"/>
+      <c r="B6" s="63"/>
       <c r="C6" s="20" t="s">
         <v>9</v>
       </c>
@@ -6292,26 +6292,26 @@
       <c r="T6" s="20"/>
       <c r="U6" s="20"/>
       <c r="V6" s="20"/>
-      <c r="W6" s="69"/>
+      <c r="W6" s="73"/>
       <c r="X6" s="20"/>
       <c r="Y6" s="20"/>
       <c r="Z6" s="20"/>
       <c r="AA6" s="20"/>
       <c r="AB6" s="20"/>
       <c r="AC6" s="20"/>
-      <c r="AD6" s="72"/>
+      <c r="AD6" s="76"/>
       <c r="AE6" s="19"/>
       <c r="AF6" s="19"/>
       <c r="AG6" s="19"/>
       <c r="AH6" s="19"/>
       <c r="AI6" s="19"/>
       <c r="AJ6" s="19"/>
-      <c r="AK6" s="64"/>
+      <c r="AK6" s="69"/>
       <c r="AL6" s="19"/>
     </row>
     <row r="7" spans="1:46" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="74"/>
-      <c r="B7" s="75"/>
+      <c r="A7" s="62"/>
+      <c r="B7" s="63"/>
       <c r="C7" s="20" t="s">
         <v>10</v>
       </c>
@@ -6342,26 +6342,26 @@
       <c r="T7" s="20"/>
       <c r="U7" s="20"/>
       <c r="V7" s="20"/>
-      <c r="W7" s="69"/>
+      <c r="W7" s="73"/>
       <c r="X7" s="20"/>
       <c r="Y7" s="20"/>
       <c r="Z7" s="20"/>
       <c r="AA7" s="20"/>
       <c r="AB7" s="20"/>
       <c r="AC7" s="20"/>
-      <c r="AD7" s="72"/>
+      <c r="AD7" s="76"/>
       <c r="AE7" s="19"/>
       <c r="AF7" s="19"/>
       <c r="AG7" s="19"/>
       <c r="AH7" s="19"/>
       <c r="AI7" s="19"/>
       <c r="AJ7" s="19"/>
-      <c r="AK7" s="64"/>
+      <c r="AK7" s="69"/>
       <c r="AL7" s="19"/>
     </row>
     <row r="8" spans="1:46" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="74"/>
-      <c r="B8" s="75"/>
+      <c r="A8" s="62"/>
+      <c r="B8" s="63"/>
       <c r="C8" s="20" t="s">
         <v>11</v>
       </c>
@@ -6392,26 +6392,26 @@
       <c r="T8" s="20"/>
       <c r="U8" s="20"/>
       <c r="V8" s="20"/>
-      <c r="W8" s="69"/>
+      <c r="W8" s="73"/>
       <c r="X8" s="20"/>
       <c r="Y8" s="20"/>
       <c r="Z8" s="20"/>
       <c r="AA8" s="20"/>
       <c r="AB8" s="20"/>
       <c r="AC8" s="20"/>
-      <c r="AD8" s="72"/>
+      <c r="AD8" s="76"/>
       <c r="AE8" s="19"/>
       <c r="AF8" s="19"/>
       <c r="AG8" s="19"/>
       <c r="AH8" s="19"/>
       <c r="AI8" s="19"/>
       <c r="AJ8" s="19"/>
-      <c r="AK8" s="64"/>
+      <c r="AK8" s="69"/>
       <c r="AL8" s="19"/>
     </row>
     <row r="9" spans="1:46" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="74"/>
-      <c r="B9" s="75"/>
+      <c r="A9" s="62"/>
+      <c r="B9" s="63"/>
       <c r="C9" s="20" t="s">
         <v>34</v>
       </c>
@@ -6440,26 +6440,26 @@
       <c r="T9" s="20"/>
       <c r="U9" s="20"/>
       <c r="V9" s="20"/>
-      <c r="W9" s="69"/>
+      <c r="W9" s="73"/>
       <c r="X9" s="20"/>
       <c r="Y9" s="20"/>
       <c r="Z9" s="20"/>
       <c r="AA9" s="20"/>
       <c r="AB9" s="20"/>
       <c r="AC9" s="20"/>
-      <c r="AD9" s="72"/>
+      <c r="AD9" s="76"/>
       <c r="AE9" s="19"/>
       <c r="AF9" s="19"/>
       <c r="AG9" s="19"/>
       <c r="AH9" s="19"/>
       <c r="AI9" s="19"/>
       <c r="AJ9" s="19"/>
-      <c r="AK9" s="64"/>
+      <c r="AK9" s="69"/>
       <c r="AL9" s="19"/>
     </row>
     <row r="10" spans="1:46" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="74"/>
-      <c r="B10" s="75"/>
+      <c r="A10" s="62"/>
+      <c r="B10" s="63"/>
       <c r="C10" s="20" t="s">
         <v>35</v>
       </c>
@@ -6488,29 +6488,29 @@
       <c r="T10" s="20"/>
       <c r="U10" s="20"/>
       <c r="V10" s="20"/>
-      <c r="W10" s="69"/>
+      <c r="W10" s="73"/>
       <c r="X10" s="20"/>
       <c r="Y10" s="20"/>
       <c r="Z10" s="20"/>
       <c r="AA10" s="20"/>
       <c r="AB10" s="20"/>
       <c r="AC10" s="20"/>
-      <c r="AD10" s="72"/>
+      <c r="AD10" s="76"/>
       <c r="AE10" s="19"/>
       <c r="AF10" s="19"/>
       <c r="AG10" s="19"/>
       <c r="AH10" s="19"/>
       <c r="AI10" s="19"/>
       <c r="AJ10" s="19"/>
-      <c r="AK10" s="64"/>
+      <c r="AK10" s="69"/>
       <c r="AL10" s="19"/>
     </row>
     <row r="11" spans="1:46" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="74"/>
-      <c r="B11" s="67" t="s">
+      <c r="A11" s="62"/>
+      <c r="B11" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="66" t="s">
+      <c r="C11" s="61" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="46" t="s">
@@ -6536,27 +6536,27 @@
       <c r="T11" s="20"/>
       <c r="U11" s="20"/>
       <c r="V11" s="20"/>
-      <c r="W11" s="69"/>
+      <c r="W11" s="73"/>
       <c r="X11" s="20"/>
       <c r="Y11" s="20"/>
       <c r="Z11" s="20"/>
       <c r="AA11" s="20"/>
       <c r="AB11" s="20"/>
       <c r="AC11" s="20"/>
-      <c r="AD11" s="72"/>
+      <c r="AD11" s="76"/>
       <c r="AE11" s="19"/>
       <c r="AF11" s="19"/>
       <c r="AG11" s="19"/>
       <c r="AH11" s="19"/>
       <c r="AI11" s="19"/>
       <c r="AJ11" s="19"/>
-      <c r="AK11" s="64"/>
+      <c r="AK11" s="69"/>
       <c r="AL11" s="19"/>
     </row>
     <row r="12" spans="1:46" x14ac:dyDescent="0.4">
-      <c r="A12" s="74"/>
-      <c r="B12" s="67"/>
-      <c r="C12" s="66"/>
+      <c r="A12" s="62"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="61"/>
       <c r="D12" s="2" t="s">
         <v>23</v>
       </c>
@@ -6580,27 +6580,27 @@
       <c r="T12" s="20"/>
       <c r="U12" s="20"/>
       <c r="V12" s="20"/>
-      <c r="W12" s="69"/>
+      <c r="W12" s="73"/>
       <c r="X12" s="20"/>
       <c r="Y12" s="20"/>
       <c r="Z12" s="20"/>
       <c r="AA12" s="20"/>
       <c r="AB12" s="20"/>
       <c r="AC12" s="20"/>
-      <c r="AD12" s="72"/>
+      <c r="AD12" s="76"/>
       <c r="AE12" s="19"/>
       <c r="AF12" s="19"/>
       <c r="AG12" s="19"/>
       <c r="AH12" s="19"/>
       <c r="AI12" s="19"/>
       <c r="AJ12" s="19"/>
-      <c r="AK12" s="64"/>
+      <c r="AK12" s="69"/>
       <c r="AL12" s="19"/>
     </row>
     <row r="13" spans="1:46" x14ac:dyDescent="0.4">
-      <c r="A13" s="74"/>
-      <c r="B13" s="67"/>
-      <c r="C13" s="66"/>
+      <c r="A13" s="62"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="61"/>
       <c r="D13" s="38" t="s">
         <v>45</v>
       </c>
@@ -6624,27 +6624,27 @@
       <c r="T13" s="20"/>
       <c r="U13" s="20"/>
       <c r="V13" s="20"/>
-      <c r="W13" s="69"/>
+      <c r="W13" s="73"/>
       <c r="X13" s="20"/>
       <c r="Y13" s="20"/>
       <c r="Z13" s="20"/>
       <c r="AA13" s="20"/>
       <c r="AB13" s="20"/>
       <c r="AC13" s="20"/>
-      <c r="AD13" s="72"/>
+      <c r="AD13" s="76"/>
       <c r="AE13" s="19"/>
       <c r="AF13" s="19"/>
       <c r="AG13" s="19"/>
       <c r="AH13" s="19"/>
       <c r="AI13" s="19"/>
       <c r="AJ13" s="19"/>
-      <c r="AK13" s="64"/>
+      <c r="AK13" s="69"/>
       <c r="AL13" s="19"/>
     </row>
     <row r="14" spans="1:46" x14ac:dyDescent="0.4">
-      <c r="A14" s="74"/>
-      <c r="B14" s="67"/>
-      <c r="C14" s="66"/>
+      <c r="A14" s="62"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="61"/>
       <c r="D14" s="39" t="s">
         <v>27</v>
       </c>
@@ -6668,27 +6668,27 @@
       <c r="T14" s="20"/>
       <c r="U14" s="20"/>
       <c r="V14" s="20"/>
-      <c r="W14" s="69"/>
+      <c r="W14" s="73"/>
       <c r="X14" s="20"/>
       <c r="Y14" s="20"/>
       <c r="Z14" s="20"/>
       <c r="AA14" s="20"/>
       <c r="AB14" s="20"/>
       <c r="AC14" s="20"/>
-      <c r="AD14" s="72"/>
+      <c r="AD14" s="76"/>
       <c r="AE14" s="19"/>
       <c r="AF14" s="19"/>
       <c r="AG14" s="19"/>
       <c r="AH14" s="19"/>
       <c r="AI14" s="19"/>
       <c r="AJ14" s="19"/>
-      <c r="AK14" s="64"/>
+      <c r="AK14" s="69"/>
       <c r="AL14" s="19"/>
     </row>
     <row r="15" spans="1:46" x14ac:dyDescent="0.4">
-      <c r="A15" s="74"/>
-      <c r="B15" s="67"/>
-      <c r="C15" s="66" t="s">
+      <c r="A15" s="62"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="61" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -6716,27 +6716,27 @@
       <c r="T15" s="20"/>
       <c r="U15" s="20"/>
       <c r="V15" s="20"/>
-      <c r="W15" s="69"/>
+      <c r="W15" s="73"/>
       <c r="X15" s="20"/>
       <c r="Y15" s="20"/>
       <c r="Z15" s="20"/>
       <c r="AA15" s="20"/>
       <c r="AB15" s="20"/>
       <c r="AC15" s="20"/>
-      <c r="AD15" s="72"/>
+      <c r="AD15" s="76"/>
       <c r="AE15" s="19"/>
       <c r="AF15" s="19"/>
       <c r="AG15" s="19"/>
       <c r="AH15" s="19"/>
       <c r="AI15" s="19"/>
       <c r="AJ15" s="19"/>
-      <c r="AK15" s="64"/>
+      <c r="AK15" s="69"/>
       <c r="AL15" s="19"/>
     </row>
     <row r="16" spans="1:46" x14ac:dyDescent="0.4">
-      <c r="A16" s="74"/>
-      <c r="B16" s="67"/>
-      <c r="C16" s="66"/>
+      <c r="A16" s="62"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="61"/>
       <c r="D16" s="40" t="s">
         <v>45</v>
       </c>
@@ -6760,27 +6760,27 @@
       <c r="T16" s="20"/>
       <c r="U16" s="20"/>
       <c r="V16" s="20"/>
-      <c r="W16" s="69"/>
+      <c r="W16" s="73"/>
       <c r="X16" s="20"/>
       <c r="Y16" s="20"/>
       <c r="Z16" s="20"/>
       <c r="AA16" s="20"/>
       <c r="AB16" s="20"/>
       <c r="AC16" s="20"/>
-      <c r="AD16" s="72"/>
+      <c r="AD16" s="76"/>
       <c r="AE16" s="19"/>
       <c r="AF16" s="19"/>
       <c r="AG16" s="19"/>
       <c r="AH16" s="19"/>
       <c r="AI16" s="19"/>
       <c r="AJ16" s="19"/>
-      <c r="AK16" s="64"/>
+      <c r="AK16" s="69"/>
       <c r="AL16" s="19"/>
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A17" s="74"/>
-      <c r="B17" s="67"/>
-      <c r="C17" s="66"/>
+      <c r="A17" s="62"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="61"/>
       <c r="D17" s="2" t="s">
         <v>23</v>
       </c>
@@ -6804,30 +6804,30 @@
       <c r="T17" s="20"/>
       <c r="U17" s="20"/>
       <c r="V17" s="20"/>
-      <c r="W17" s="69"/>
+      <c r="W17" s="73"/>
       <c r="X17" s="20"/>
       <c r="Y17" s="20"/>
       <c r="Z17" s="20"/>
       <c r="AA17" s="20"/>
       <c r="AB17" s="20"/>
       <c r="AC17" s="20"/>
-      <c r="AD17" s="72"/>
+      <c r="AD17" s="76"/>
       <c r="AE17" s="19"/>
       <c r="AF17" s="19"/>
       <c r="AG17" s="19"/>
       <c r="AH17" s="19"/>
       <c r="AI17" s="19"/>
       <c r="AJ17" s="19"/>
-      <c r="AK17" s="64"/>
+      <c r="AK17" s="69"/>
       <c r="AL17" s="19"/>
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A18" s="74"/>
-      <c r="B18" s="67"/>
-      <c r="C18" s="66" t="s">
+      <c r="A18" s="62"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="66" t="s">
+      <c r="D18" s="61" t="s">
         <v>95</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -6860,28 +6860,28 @@
       <c r="T18" s="20"/>
       <c r="U18" s="20"/>
       <c r="V18" s="20"/>
-      <c r="W18" s="69"/>
+      <c r="W18" s="73"/>
       <c r="X18" s="20"/>
       <c r="Y18" s="20"/>
       <c r="Z18" s="20"/>
       <c r="AA18" s="20"/>
       <c r="AB18" s="20"/>
       <c r="AC18" s="20"/>
-      <c r="AD18" s="72"/>
+      <c r="AD18" s="76"/>
       <c r="AE18" s="19"/>
       <c r="AF18" s="19"/>
       <c r="AG18" s="19"/>
       <c r="AH18" s="19"/>
       <c r="AI18" s="19"/>
       <c r="AJ18" s="19"/>
-      <c r="AK18" s="64"/>
+      <c r="AK18" s="69"/>
       <c r="AL18" s="19"/>
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A19" s="74"/>
-      <c r="B19" s="67"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
+      <c r="A19" s="62"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
       <c r="E19" s="2" t="s">
         <v>138</v>
       </c>
@@ -6912,28 +6912,28 @@
       <c r="T19" s="20"/>
       <c r="U19" s="20"/>
       <c r="V19" s="20"/>
-      <c r="W19" s="69"/>
+      <c r="W19" s="73"/>
       <c r="X19" s="20"/>
       <c r="Y19" s="20"/>
       <c r="Z19" s="20"/>
       <c r="AA19" s="20"/>
       <c r="AB19" s="20"/>
       <c r="AC19" s="20"/>
-      <c r="AD19" s="72"/>
+      <c r="AD19" s="76"/>
       <c r="AE19" s="19"/>
       <c r="AF19" s="19"/>
       <c r="AG19" s="19"/>
       <c r="AH19" s="19"/>
       <c r="AI19" s="19"/>
       <c r="AJ19" s="19"/>
-      <c r="AK19" s="64"/>
+      <c r="AK19" s="69"/>
       <c r="AL19" s="19"/>
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A20" s="74"/>
-      <c r="B20" s="67"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
+      <c r="A20" s="62"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
       <c r="E20" s="2" t="s">
         <v>112</v>
       </c>
@@ -6964,28 +6964,28 @@
       <c r="T20" s="20"/>
       <c r="U20" s="20"/>
       <c r="V20" s="20"/>
-      <c r="W20" s="69"/>
+      <c r="W20" s="73"/>
       <c r="X20" s="20"/>
       <c r="Y20" s="20"/>
       <c r="Z20" s="20"/>
       <c r="AA20" s="20"/>
       <c r="AB20" s="20"/>
       <c r="AC20" s="20"/>
-      <c r="AD20" s="72"/>
+      <c r="AD20" s="76"/>
       <c r="AE20" s="19"/>
       <c r="AF20" s="19"/>
       <c r="AG20" s="19"/>
       <c r="AH20" s="19"/>
       <c r="AI20" s="19"/>
       <c r="AJ20" s="19"/>
-      <c r="AK20" s="64"/>
+      <c r="AK20" s="69"/>
       <c r="AL20" s="19"/>
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A21" s="74"/>
-      <c r="B21" s="67"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="66"/>
+      <c r="A21" s="62"/>
+      <c r="B21" s="71"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
       <c r="E21" s="2" t="s">
         <v>108</v>
       </c>
@@ -7016,28 +7016,28 @@
       <c r="T21" s="20"/>
       <c r="U21" s="20"/>
       <c r="V21" s="20"/>
-      <c r="W21" s="69"/>
+      <c r="W21" s="73"/>
       <c r="X21" s="20"/>
       <c r="Y21" s="20"/>
       <c r="Z21" s="20"/>
       <c r="AA21" s="20"/>
       <c r="AB21" s="20"/>
       <c r="AC21" s="20"/>
-      <c r="AD21" s="72"/>
+      <c r="AD21" s="76"/>
       <c r="AE21" s="19"/>
       <c r="AF21" s="19"/>
       <c r="AG21" s="19"/>
       <c r="AH21" s="19"/>
       <c r="AI21" s="19"/>
       <c r="AJ21" s="19"/>
-      <c r="AK21" s="64"/>
+      <c r="AK21" s="69"/>
       <c r="AL21" s="19"/>
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A22" s="74"/>
-      <c r="B22" s="67"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="66"/>
+      <c r="A22" s="62"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
       <c r="E22" s="2" t="s">
         <v>135</v>
       </c>
@@ -7068,28 +7068,28 @@
       <c r="T22" s="20"/>
       <c r="U22" s="20"/>
       <c r="V22" s="20"/>
-      <c r="W22" s="69"/>
+      <c r="W22" s="73"/>
       <c r="X22" s="20"/>
       <c r="Y22" s="20"/>
       <c r="Z22" s="20"/>
       <c r="AA22" s="20"/>
       <c r="AB22" s="20"/>
       <c r="AC22" s="20"/>
-      <c r="AD22" s="72"/>
+      <c r="AD22" s="76"/>
       <c r="AE22" s="19"/>
       <c r="AF22" s="19"/>
       <c r="AG22" s="19"/>
       <c r="AH22" s="19"/>
       <c r="AI22" s="19"/>
       <c r="AJ22" s="19"/>
-      <c r="AK22" s="64"/>
+      <c r="AK22" s="69"/>
       <c r="AL22" s="19"/>
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A23" s="74"/>
-      <c r="B23" s="67"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="66"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="61"/>
       <c r="E23" s="2" t="s">
         <v>118</v>
       </c>
@@ -7120,28 +7120,28 @@
       <c r="T23" s="20"/>
       <c r="U23" s="20"/>
       <c r="V23" s="20"/>
-      <c r="W23" s="69"/>
+      <c r="W23" s="73"/>
       <c r="X23" s="20"/>
       <c r="Y23" s="20"/>
       <c r="Z23" s="20"/>
       <c r="AA23" s="20"/>
       <c r="AB23" s="20"/>
       <c r="AC23" s="20"/>
-      <c r="AD23" s="72"/>
+      <c r="AD23" s="76"/>
       <c r="AE23" s="19"/>
       <c r="AF23" s="19"/>
       <c r="AG23" s="19"/>
       <c r="AH23" s="19"/>
       <c r="AI23" s="19"/>
       <c r="AJ23" s="19"/>
-      <c r="AK23" s="64"/>
+      <c r="AK23" s="69"/>
       <c r="AL23" s="19"/>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A24" s="74"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="66"/>
-      <c r="D24" s="66"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
       <c r="E24" s="2" t="s">
         <v>109</v>
       </c>
@@ -7172,28 +7172,28 @@
       <c r="T24" s="20"/>
       <c r="U24" s="20"/>
       <c r="V24" s="20"/>
-      <c r="W24" s="69"/>
+      <c r="W24" s="73"/>
       <c r="X24" s="20"/>
       <c r="Y24" s="20"/>
       <c r="Z24" s="20"/>
       <c r="AA24" s="20"/>
       <c r="AB24" s="20"/>
       <c r="AC24" s="20"/>
-      <c r="AD24" s="72"/>
+      <c r="AD24" s="76"/>
       <c r="AE24" s="19"/>
       <c r="AF24" s="19"/>
       <c r="AG24" s="19"/>
       <c r="AH24" s="19"/>
       <c r="AI24" s="19"/>
       <c r="AJ24" s="19"/>
-      <c r="AK24" s="64"/>
+      <c r="AK24" s="69"/>
       <c r="AL24" s="19"/>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A25" s="74"/>
-      <c r="B25" s="67"/>
-      <c r="C25" s="66"/>
-      <c r="D25" s="66"/>
+      <c r="A25" s="62"/>
+      <c r="B25" s="71"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
       <c r="E25" s="2" t="s">
         <v>167</v>
       </c>
@@ -7224,28 +7224,28 @@
       <c r="T25" s="50"/>
       <c r="U25" s="50"/>
       <c r="V25" s="50"/>
-      <c r="W25" s="69"/>
+      <c r="W25" s="73"/>
       <c r="X25" s="50"/>
       <c r="Y25" s="50"/>
       <c r="Z25" s="50"/>
       <c r="AA25" s="50"/>
       <c r="AB25" s="50"/>
       <c r="AC25" s="50"/>
-      <c r="AD25" s="72"/>
+      <c r="AD25" s="76"/>
       <c r="AE25" s="51"/>
       <c r="AF25" s="51"/>
       <c r="AG25" s="51"/>
       <c r="AH25" s="51"/>
       <c r="AI25" s="51"/>
       <c r="AJ25" s="51"/>
-      <c r="AK25" s="64"/>
+      <c r="AK25" s="69"/>
       <c r="AL25" s="51"/>
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A26" s="74"/>
-      <c r="B26" s="67"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="66"/>
+      <c r="A26" s="62"/>
+      <c r="B26" s="71"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
       <c r="E26" s="2" t="s">
         <v>106</v>
       </c>
@@ -7276,28 +7276,28 @@
       <c r="T26" s="20"/>
       <c r="U26" s="20"/>
       <c r="V26" s="20"/>
-      <c r="W26" s="69"/>
+      <c r="W26" s="73"/>
       <c r="X26" s="20"/>
       <c r="Y26" s="20"/>
       <c r="Z26" s="20"/>
       <c r="AA26" s="20"/>
       <c r="AB26" s="20"/>
       <c r="AC26" s="20"/>
-      <c r="AD26" s="72"/>
+      <c r="AD26" s="76"/>
       <c r="AE26" s="19"/>
       <c r="AF26" s="19"/>
       <c r="AG26" s="19"/>
       <c r="AH26" s="19"/>
       <c r="AI26" s="19"/>
       <c r="AJ26" s="19"/>
-      <c r="AK26" s="64"/>
+      <c r="AK26" s="69"/>
       <c r="AL26" s="19"/>
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A27" s="74"/>
-      <c r="B27" s="67"/>
-      <c r="C27" s="66"/>
-      <c r="D27" s="66"/>
+      <c r="A27" s="62"/>
+      <c r="B27" s="71"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="61"/>
       <c r="E27" s="2" t="s">
         <v>102</v>
       </c>
@@ -7328,28 +7328,28 @@
       <c r="T27" s="20"/>
       <c r="U27" s="20"/>
       <c r="V27" s="20"/>
-      <c r="W27" s="69"/>
+      <c r="W27" s="73"/>
       <c r="X27" s="20"/>
       <c r="Y27" s="20"/>
       <c r="Z27" s="20"/>
       <c r="AA27" s="20"/>
       <c r="AB27" s="20"/>
       <c r="AC27" s="20"/>
-      <c r="AD27" s="72"/>
+      <c r="AD27" s="76"/>
       <c r="AE27" s="19"/>
       <c r="AF27" s="19"/>
       <c r="AG27" s="19"/>
       <c r="AH27" s="19"/>
       <c r="AI27" s="19"/>
       <c r="AJ27" s="19"/>
-      <c r="AK27" s="64"/>
+      <c r="AK27" s="69"/>
       <c r="AL27" s="19"/>
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A28" s="74"/>
-      <c r="B28" s="67"/>
-      <c r="C28" s="66"/>
-      <c r="D28" s="66" t="s">
+      <c r="A28" s="62"/>
+      <c r="B28" s="71"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61" t="s">
         <v>25</v>
       </c>
       <c r="E28" s="2" t="s">
@@ -7382,28 +7382,28 @@
       <c r="T28" s="20"/>
       <c r="U28" s="20"/>
       <c r="V28" s="20"/>
-      <c r="W28" s="69"/>
+      <c r="W28" s="73"/>
       <c r="X28" s="20"/>
       <c r="Y28" s="20"/>
       <c r="Z28" s="20"/>
       <c r="AA28" s="20"/>
       <c r="AB28" s="20"/>
       <c r="AC28" s="20"/>
-      <c r="AD28" s="72"/>
+      <c r="AD28" s="76"/>
       <c r="AE28" s="19"/>
       <c r="AF28" s="19"/>
       <c r="AG28" s="19"/>
       <c r="AH28" s="19"/>
       <c r="AI28" s="19"/>
       <c r="AJ28" s="19"/>
-      <c r="AK28" s="64"/>
+      <c r="AK28" s="69"/>
       <c r="AL28" s="19"/>
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A29" s="74"/>
-      <c r="B29" s="67"/>
-      <c r="C29" s="66"/>
-      <c r="D29" s="66"/>
+      <c r="A29" s="62"/>
+      <c r="B29" s="71"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="61"/>
       <c r="E29" s="2" t="s">
         <v>119</v>
       </c>
@@ -7434,28 +7434,28 @@
       <c r="T29" s="20"/>
       <c r="U29" s="20"/>
       <c r="V29" s="20"/>
-      <c r="W29" s="69"/>
+      <c r="W29" s="73"/>
       <c r="X29" s="20"/>
       <c r="Y29" s="20"/>
       <c r="Z29" s="20"/>
       <c r="AA29" s="20"/>
       <c r="AB29" s="20"/>
       <c r="AC29" s="20"/>
-      <c r="AD29" s="72"/>
+      <c r="AD29" s="76"/>
       <c r="AE29" s="19"/>
       <c r="AF29" s="19"/>
       <c r="AG29" s="19"/>
       <c r="AH29" s="19"/>
       <c r="AI29" s="19"/>
       <c r="AJ29" s="19"/>
-      <c r="AK29" s="64"/>
+      <c r="AK29" s="69"/>
       <c r="AL29" s="19"/>
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A30" s="74"/>
-      <c r="B30" s="67"/>
-      <c r="C30" s="66"/>
-      <c r="D30" s="66" t="s">
+      <c r="A30" s="62"/>
+      <c r="B30" s="71"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="61" t="s">
         <v>13</v>
       </c>
       <c r="E30" s="2" t="s">
@@ -7486,28 +7486,28 @@
       <c r="T30" s="20"/>
       <c r="U30" s="20"/>
       <c r="V30" s="20"/>
-      <c r="W30" s="69"/>
+      <c r="W30" s="73"/>
       <c r="X30" s="20"/>
       <c r="Y30" s="20"/>
       <c r="Z30" s="20"/>
       <c r="AA30" s="20"/>
       <c r="AB30" s="20"/>
       <c r="AC30" s="20"/>
-      <c r="AD30" s="72"/>
+      <c r="AD30" s="76"/>
       <c r="AE30" s="19"/>
       <c r="AF30" s="19"/>
       <c r="AG30" s="19"/>
       <c r="AH30" s="19"/>
       <c r="AI30" s="19"/>
       <c r="AJ30" s="19"/>
-      <c r="AK30" s="64"/>
+      <c r="AK30" s="69"/>
       <c r="AL30" s="19"/>
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A31" s="74"/>
-      <c r="B31" s="67"/>
-      <c r="C31" s="66"/>
-      <c r="D31" s="66"/>
+      <c r="A31" s="62"/>
+      <c r="B31" s="71"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
       <c r="E31" s="2" t="s">
         <v>143</v>
       </c>
@@ -7530,28 +7530,28 @@
       <c r="T31" s="20"/>
       <c r="U31" s="20"/>
       <c r="V31" s="20"/>
-      <c r="W31" s="69"/>
+      <c r="W31" s="73"/>
       <c r="X31" s="20"/>
       <c r="Y31" s="20"/>
       <c r="Z31" s="20"/>
       <c r="AA31" s="20"/>
       <c r="AB31" s="20"/>
       <c r="AC31" s="20"/>
-      <c r="AD31" s="72"/>
+      <c r="AD31" s="76"/>
       <c r="AE31" s="19"/>
       <c r="AF31" s="19"/>
       <c r="AG31" s="19"/>
       <c r="AH31" s="19"/>
       <c r="AI31" s="19"/>
       <c r="AJ31" s="19"/>
-      <c r="AK31" s="64"/>
+      <c r="AK31" s="69"/>
       <c r="AL31" s="19"/>
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A32" s="74"/>
-      <c r="B32" s="67"/>
-      <c r="C32" s="66"/>
-      <c r="D32" s="66"/>
+      <c r="A32" s="62"/>
+      <c r="B32" s="71"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
       <c r="E32" s="2" t="s">
         <v>113</v>
       </c>
@@ -7582,28 +7582,28 @@
       <c r="T32" s="20"/>
       <c r="U32" s="20"/>
       <c r="V32" s="20"/>
-      <c r="W32" s="69"/>
+      <c r="W32" s="73"/>
       <c r="X32" s="20"/>
       <c r="Y32" s="20"/>
       <c r="Z32" s="20"/>
       <c r="AA32" s="20"/>
       <c r="AB32" s="20"/>
       <c r="AC32" s="20"/>
-      <c r="AD32" s="72"/>
+      <c r="AD32" s="76"/>
       <c r="AE32" s="19"/>
       <c r="AF32" s="19"/>
       <c r="AG32" s="19"/>
       <c r="AH32" s="19"/>
       <c r="AI32" s="19"/>
       <c r="AJ32" s="19"/>
-      <c r="AK32" s="64"/>
+      <c r="AK32" s="69"/>
       <c r="AL32" s="19"/>
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A33" s="74"/>
-      <c r="B33" s="67"/>
-      <c r="C33" s="66"/>
-      <c r="D33" s="66" t="s">
+      <c r="A33" s="62"/>
+      <c r="B33" s="71"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61" t="s">
         <v>90</v>
       </c>
       <c r="E33" s="2" t="s">
@@ -7636,28 +7636,28 @@
       <c r="T33" s="20"/>
       <c r="U33" s="20"/>
       <c r="V33" s="20"/>
-      <c r="W33" s="69"/>
+      <c r="W33" s="73"/>
       <c r="X33" s="20"/>
       <c r="Y33" s="20"/>
       <c r="Z33" s="20"/>
       <c r="AA33" s="20"/>
       <c r="AB33" s="20"/>
       <c r="AC33" s="20"/>
-      <c r="AD33" s="72"/>
+      <c r="AD33" s="76"/>
       <c r="AE33" s="19"/>
       <c r="AF33" s="19"/>
       <c r="AG33" s="19"/>
       <c r="AH33" s="19"/>
       <c r="AI33" s="19"/>
       <c r="AJ33" s="19"/>
-      <c r="AK33" s="64"/>
+      <c r="AK33" s="69"/>
       <c r="AL33" s="19"/>
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A34" s="74"/>
-      <c r="B34" s="67"/>
-      <c r="C34" s="66"/>
-      <c r="D34" s="66"/>
+      <c r="A34" s="62"/>
+      <c r="B34" s="71"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="61"/>
       <c r="E34" s="2" t="s">
         <v>141</v>
       </c>
@@ -7688,28 +7688,28 @@
       <c r="T34" s="20"/>
       <c r="U34" s="20"/>
       <c r="V34" s="20"/>
-      <c r="W34" s="69"/>
+      <c r="W34" s="73"/>
       <c r="X34" s="20"/>
       <c r="Y34" s="20"/>
       <c r="Z34" s="20"/>
       <c r="AA34" s="20"/>
       <c r="AB34" s="20"/>
       <c r="AC34" s="20"/>
-      <c r="AD34" s="72"/>
+      <c r="AD34" s="76"/>
       <c r="AE34" s="19"/>
       <c r="AF34" s="19"/>
       <c r="AG34" s="19"/>
       <c r="AH34" s="19"/>
       <c r="AI34" s="19"/>
       <c r="AJ34" s="19"/>
-      <c r="AK34" s="64"/>
+      <c r="AK34" s="69"/>
       <c r="AL34" s="19"/>
     </row>
     <row r="35" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A35" s="74"/>
-      <c r="B35" s="67"/>
-      <c r="C35" s="66"/>
-      <c r="D35" s="66"/>
+      <c r="A35" s="62"/>
+      <c r="B35" s="71"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="61"/>
       <c r="E35" s="2" t="s">
         <v>103</v>
       </c>
@@ -7740,27 +7740,27 @@
       <c r="T35" s="20"/>
       <c r="U35" s="20"/>
       <c r="V35" s="20"/>
-      <c r="W35" s="69"/>
+      <c r="W35" s="73"/>
       <c r="X35" s="20"/>
       <c r="Y35" s="20"/>
       <c r="Z35" s="20"/>
       <c r="AA35" s="20"/>
       <c r="AB35" s="20"/>
       <c r="AC35" s="20"/>
-      <c r="AD35" s="72"/>
+      <c r="AD35" s="76"/>
       <c r="AE35" s="19"/>
       <c r="AF35" s="19"/>
       <c r="AG35" s="19"/>
       <c r="AH35" s="19"/>
       <c r="AI35" s="19"/>
       <c r="AJ35" s="19"/>
-      <c r="AK35" s="64"/>
+      <c r="AK35" s="69"/>
       <c r="AL35" s="19"/>
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A36" s="74"/>
-      <c r="B36" s="67"/>
-      <c r="C36" s="66"/>
+      <c r="A36" s="62"/>
+      <c r="B36" s="71"/>
+      <c r="C36" s="61"/>
       <c r="D36" s="2" t="s">
         <v>24</v>
       </c>
@@ -7786,27 +7786,27 @@
       <c r="T36" s="20"/>
       <c r="U36" s="20"/>
       <c r="V36" s="20"/>
-      <c r="W36" s="69"/>
+      <c r="W36" s="73"/>
       <c r="X36" s="20"/>
       <c r="Y36" s="20"/>
       <c r="Z36" s="20"/>
       <c r="AA36" s="20"/>
       <c r="AB36" s="20"/>
       <c r="AC36" s="20"/>
-      <c r="AD36" s="72"/>
+      <c r="AD36" s="76"/>
       <c r="AE36" s="19"/>
       <c r="AF36" s="19"/>
       <c r="AG36" s="19"/>
       <c r="AH36" s="19"/>
       <c r="AI36" s="19"/>
       <c r="AJ36" s="19"/>
-      <c r="AK36" s="64"/>
+      <c r="AK36" s="69"/>
       <c r="AL36" s="19"/>
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A37" s="74"/>
-      <c r="B37" s="67"/>
-      <c r="C37" s="66"/>
+      <c r="A37" s="62"/>
+      <c r="B37" s="71"/>
+      <c r="C37" s="61"/>
       <c r="D37" s="2" t="s">
         <v>144</v>
       </c>
@@ -7840,27 +7840,27 @@
       <c r="T37" s="20"/>
       <c r="U37" s="20"/>
       <c r="V37" s="20"/>
-      <c r="W37" s="69"/>
+      <c r="W37" s="73"/>
       <c r="X37" s="20"/>
       <c r="Y37" s="20"/>
       <c r="Z37" s="20"/>
       <c r="AA37" s="20"/>
       <c r="AB37" s="20"/>
       <c r="AC37" s="20"/>
-      <c r="AD37" s="72"/>
+      <c r="AD37" s="76"/>
       <c r="AE37" s="19"/>
       <c r="AF37" s="19"/>
       <c r="AG37" s="19"/>
       <c r="AH37" s="19"/>
       <c r="AI37" s="19"/>
       <c r="AJ37" s="19"/>
-      <c r="AK37" s="64"/>
+      <c r="AK37" s="69"/>
       <c r="AL37" s="19"/>
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A38" s="74"/>
-      <c r="B38" s="67"/>
-      <c r="C38" s="66"/>
+      <c r="A38" s="62"/>
+      <c r="B38" s="71"/>
+      <c r="C38" s="61"/>
       <c r="D38" s="2" t="s">
         <v>94</v>
       </c>
@@ -7884,27 +7884,27 @@
       <c r="T38" s="20"/>
       <c r="U38" s="20"/>
       <c r="V38" s="20"/>
-      <c r="W38" s="69"/>
+      <c r="W38" s="73"/>
       <c r="X38" s="20"/>
       <c r="Y38" s="20"/>
       <c r="Z38" s="20"/>
       <c r="AA38" s="20"/>
       <c r="AB38" s="20"/>
       <c r="AC38" s="20"/>
-      <c r="AD38" s="72"/>
+      <c r="AD38" s="76"/>
       <c r="AE38" s="19"/>
       <c r="AF38" s="19"/>
       <c r="AG38" s="19"/>
       <c r="AH38" s="19"/>
       <c r="AI38" s="19"/>
       <c r="AJ38" s="19"/>
-      <c r="AK38" s="64"/>
+      <c r="AK38" s="69"/>
       <c r="AL38" s="19"/>
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A39" s="74"/>
-      <c r="B39" s="67"/>
-      <c r="C39" s="66"/>
+      <c r="A39" s="62"/>
+      <c r="B39" s="71"/>
+      <c r="C39" s="61"/>
       <c r="D39" s="2" t="s">
         <v>23</v>
       </c>
@@ -7928,27 +7928,27 @@
       <c r="T39" s="20"/>
       <c r="U39" s="20"/>
       <c r="V39" s="20"/>
-      <c r="W39" s="69"/>
+      <c r="W39" s="73"/>
       <c r="X39" s="20"/>
       <c r="Y39" s="20"/>
       <c r="Z39" s="20"/>
       <c r="AA39" s="20"/>
       <c r="AB39" s="20"/>
       <c r="AC39" s="20"/>
-      <c r="AD39" s="72"/>
+      <c r="AD39" s="76"/>
       <c r="AE39" s="19"/>
       <c r="AF39" s="19"/>
       <c r="AG39" s="19"/>
       <c r="AH39" s="19"/>
       <c r="AI39" s="19"/>
       <c r="AJ39" s="19"/>
-      <c r="AK39" s="64"/>
+      <c r="AK39" s="69"/>
       <c r="AL39" s="19"/>
     </row>
     <row r="40" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A40" s="74"/>
-      <c r="B40" s="67"/>
-      <c r="C40" s="66"/>
+      <c r="A40" s="62"/>
+      <c r="B40" s="71"/>
+      <c r="C40" s="61"/>
       <c r="D40" s="39" t="s">
         <v>27</v>
       </c>
@@ -7972,27 +7972,27 @@
       <c r="T40" s="20"/>
       <c r="U40" s="20"/>
       <c r="V40" s="20"/>
-      <c r="W40" s="69"/>
+      <c r="W40" s="73"/>
       <c r="X40" s="20"/>
       <c r="Y40" s="20"/>
       <c r="Z40" s="20"/>
       <c r="AA40" s="20"/>
       <c r="AB40" s="20"/>
       <c r="AC40" s="20"/>
-      <c r="AD40" s="72"/>
+      <c r="AD40" s="76"/>
       <c r="AE40" s="19"/>
       <c r="AF40" s="19"/>
       <c r="AG40" s="19"/>
       <c r="AH40" s="19"/>
       <c r="AI40" s="19"/>
       <c r="AJ40" s="19"/>
-      <c r="AK40" s="64"/>
+      <c r="AK40" s="69"/>
       <c r="AL40" s="19"/>
     </row>
     <row r="41" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A41" s="74"/>
-      <c r="B41" s="67"/>
-      <c r="C41" s="66"/>
+      <c r="A41" s="62"/>
+      <c r="B41" s="71"/>
+      <c r="C41" s="61"/>
       <c r="D41" s="38" t="s">
         <v>45</v>
       </c>
@@ -8016,27 +8016,27 @@
       <c r="T41" s="20"/>
       <c r="U41" s="20"/>
       <c r="V41" s="20"/>
-      <c r="W41" s="69"/>
+      <c r="W41" s="73"/>
       <c r="X41" s="20"/>
       <c r="Y41" s="20"/>
       <c r="Z41" s="20"/>
       <c r="AA41" s="20"/>
       <c r="AB41" s="20"/>
       <c r="AC41" s="20"/>
-      <c r="AD41" s="72"/>
+      <c r="AD41" s="76"/>
       <c r="AE41" s="19"/>
       <c r="AF41" s="19"/>
       <c r="AG41" s="19"/>
       <c r="AH41" s="19"/>
       <c r="AI41" s="19"/>
       <c r="AJ41" s="19"/>
-      <c r="AK41" s="64"/>
+      <c r="AK41" s="69"/>
       <c r="AL41" s="19"/>
     </row>
     <row r="42" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A42" s="74"/>
-      <c r="B42" s="67"/>
-      <c r="C42" s="66"/>
+      <c r="A42" s="62"/>
+      <c r="B42" s="71"/>
+      <c r="C42" s="61"/>
       <c r="D42" s="2" t="s">
         <v>26</v>
       </c>
@@ -8060,27 +8060,27 @@
       <c r="T42" s="20"/>
       <c r="U42" s="20"/>
       <c r="V42" s="20"/>
-      <c r="W42" s="69"/>
+      <c r="W42" s="73"/>
       <c r="X42" s="20"/>
       <c r="Y42" s="20"/>
       <c r="Z42" s="20"/>
       <c r="AA42" s="20"/>
       <c r="AB42" s="20"/>
       <c r="AC42" s="20"/>
-      <c r="AD42" s="72"/>
+      <c r="AD42" s="76"/>
       <c r="AE42" s="19"/>
       <c r="AF42" s="19"/>
       <c r="AG42" s="19"/>
       <c r="AH42" s="19"/>
       <c r="AI42" s="19"/>
       <c r="AJ42" s="19"/>
-      <c r="AK42" s="64"/>
+      <c r="AK42" s="69"/>
       <c r="AL42" s="19"/>
     </row>
     <row r="43" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A43" s="74"/>
-      <c r="B43" s="67"/>
-      <c r="C43" s="66" t="s">
+      <c r="A43" s="62"/>
+      <c r="B43" s="71"/>
+      <c r="C43" s="61" t="s">
         <v>42</v>
       </c>
       <c r="D43" s="40" t="s">
@@ -8106,27 +8106,27 @@
       <c r="T43" s="20"/>
       <c r="U43" s="20"/>
       <c r="V43" s="20"/>
-      <c r="W43" s="69"/>
+      <c r="W43" s="73"/>
       <c r="X43" s="20"/>
       <c r="Y43" s="20"/>
       <c r="Z43" s="20"/>
       <c r="AA43" s="20"/>
       <c r="AB43" s="20"/>
       <c r="AC43" s="20"/>
-      <c r="AD43" s="72"/>
+      <c r="AD43" s="76"/>
       <c r="AE43" s="19"/>
       <c r="AF43" s="19"/>
       <c r="AG43" s="19"/>
       <c r="AH43" s="19"/>
       <c r="AI43" s="19"/>
       <c r="AJ43" s="19"/>
-      <c r="AK43" s="64"/>
+      <c r="AK43" s="69"/>
       <c r="AL43" s="19"/>
     </row>
     <row r="44" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A44" s="74"/>
-      <c r="B44" s="67"/>
-      <c r="C44" s="66"/>
+      <c r="A44" s="62"/>
+      <c r="B44" s="71"/>
+      <c r="C44" s="61"/>
       <c r="D44" s="2" t="s">
         <v>26</v>
       </c>
@@ -8150,27 +8150,27 @@
       <c r="T44" s="20"/>
       <c r="U44" s="20"/>
       <c r="V44" s="20"/>
-      <c r="W44" s="69"/>
+      <c r="W44" s="73"/>
       <c r="X44" s="20"/>
       <c r="Y44" s="20"/>
       <c r="Z44" s="20"/>
       <c r="AA44" s="20"/>
       <c r="AB44" s="20"/>
       <c r="AC44" s="20"/>
-      <c r="AD44" s="72"/>
+      <c r="AD44" s="76"/>
       <c r="AE44" s="19"/>
       <c r="AF44" s="19"/>
       <c r="AG44" s="19"/>
       <c r="AH44" s="19"/>
       <c r="AI44" s="19"/>
       <c r="AJ44" s="19"/>
-      <c r="AK44" s="64"/>
+      <c r="AK44" s="69"/>
       <c r="AL44" s="19"/>
     </row>
     <row r="45" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A45" s="74"/>
-      <c r="B45" s="67"/>
-      <c r="C45" s="66" t="s">
+      <c r="A45" s="62"/>
+      <c r="B45" s="71"/>
+      <c r="C45" s="61" t="s">
         <v>43</v>
       </c>
       <c r="D45" s="38" t="s">
@@ -8196,27 +8196,27 @@
       <c r="T45" s="20"/>
       <c r="U45" s="20"/>
       <c r="V45" s="20"/>
-      <c r="W45" s="69"/>
+      <c r="W45" s="73"/>
       <c r="X45" s="20"/>
       <c r="Y45" s="20"/>
       <c r="Z45" s="20"/>
       <c r="AA45" s="20"/>
       <c r="AB45" s="20"/>
       <c r="AC45" s="20"/>
-      <c r="AD45" s="72"/>
+      <c r="AD45" s="76"/>
       <c r="AE45" s="19"/>
       <c r="AF45" s="19"/>
       <c r="AG45" s="19"/>
       <c r="AH45" s="19"/>
       <c r="AI45" s="19"/>
       <c r="AJ45" s="19"/>
-      <c r="AK45" s="64"/>
+      <c r="AK45" s="69"/>
       <c r="AL45" s="19"/>
     </row>
     <row r="46" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A46" s="74"/>
-      <c r="B46" s="67"/>
-      <c r="C46" s="66"/>
+      <c r="A46" s="62"/>
+      <c r="B46" s="71"/>
+      <c r="C46" s="61"/>
       <c r="D46" s="2" t="s">
         <v>26</v>
       </c>
@@ -8240,27 +8240,27 @@
       <c r="T46" s="20"/>
       <c r="U46" s="20"/>
       <c r="V46" s="20"/>
-      <c r="W46" s="69"/>
+      <c r="W46" s="73"/>
       <c r="X46" s="20"/>
       <c r="Y46" s="20"/>
       <c r="Z46" s="20"/>
       <c r="AA46" s="20"/>
       <c r="AB46" s="20"/>
       <c r="AC46" s="20"/>
-      <c r="AD46" s="72"/>
+      <c r="AD46" s="76"/>
       <c r="AE46" s="19"/>
       <c r="AF46" s="19"/>
       <c r="AG46" s="19"/>
       <c r="AH46" s="19"/>
       <c r="AI46" s="19"/>
       <c r="AJ46" s="19"/>
-      <c r="AK46" s="64"/>
+      <c r="AK46" s="69"/>
       <c r="AL46" s="19"/>
     </row>
     <row r="47" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A47" s="74"/>
-      <c r="B47" s="67"/>
-      <c r="C47" s="66"/>
+      <c r="A47" s="62"/>
+      <c r="B47" s="71"/>
+      <c r="C47" s="61"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="20"/>
@@ -8282,27 +8282,27 @@
       <c r="T47" s="20"/>
       <c r="U47" s="20"/>
       <c r="V47" s="20"/>
-      <c r="W47" s="69"/>
+      <c r="W47" s="73"/>
       <c r="X47" s="20"/>
       <c r="Y47" s="20"/>
       <c r="Z47" s="20"/>
       <c r="AA47" s="20"/>
       <c r="AB47" s="20"/>
       <c r="AC47" s="20"/>
-      <c r="AD47" s="72"/>
+      <c r="AD47" s="76"/>
       <c r="AE47" s="19"/>
       <c r="AF47" s="19"/>
       <c r="AG47" s="19"/>
       <c r="AH47" s="19"/>
       <c r="AI47" s="19"/>
       <c r="AJ47" s="19"/>
-      <c r="AK47" s="64"/>
+      <c r="AK47" s="69"/>
       <c r="AL47" s="19"/>
     </row>
     <row r="48" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A48" s="74"/>
-      <c r="B48" s="67"/>
-      <c r="C48" s="66" t="s">
+      <c r="A48" s="62"/>
+      <c r="B48" s="71"/>
+      <c r="C48" s="61" t="s">
         <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
@@ -8328,27 +8328,27 @@
       <c r="T48" s="20"/>
       <c r="U48" s="20"/>
       <c r="V48" s="20"/>
-      <c r="W48" s="69"/>
+      <c r="W48" s="73"/>
       <c r="X48" s="20"/>
       <c r="Y48" s="20"/>
       <c r="Z48" s="20"/>
       <c r="AA48" s="20"/>
       <c r="AB48" s="20"/>
       <c r="AC48" s="20"/>
-      <c r="AD48" s="72"/>
+      <c r="AD48" s="76"/>
       <c r="AE48" s="19"/>
       <c r="AF48" s="19"/>
       <c r="AG48" s="19"/>
       <c r="AH48" s="19"/>
       <c r="AI48" s="19"/>
       <c r="AJ48" s="19"/>
-      <c r="AK48" s="64"/>
+      <c r="AK48" s="69"/>
       <c r="AL48" s="19"/>
     </row>
     <row r="49" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A49" s="74"/>
-      <c r="B49" s="67"/>
-      <c r="C49" s="66"/>
+      <c r="A49" s="62"/>
+      <c r="B49" s="71"/>
+      <c r="C49" s="61"/>
       <c r="D49" s="2" t="s">
         <v>36</v>
       </c>
@@ -8372,27 +8372,27 @@
       <c r="T49" s="20"/>
       <c r="U49" s="20"/>
       <c r="V49" s="20"/>
-      <c r="W49" s="69"/>
+      <c r="W49" s="73"/>
       <c r="X49" s="20"/>
       <c r="Y49" s="20"/>
       <c r="Z49" s="20"/>
       <c r="AA49" s="20"/>
       <c r="AB49" s="20"/>
       <c r="AC49" s="20"/>
-      <c r="AD49" s="72"/>
+      <c r="AD49" s="76"/>
       <c r="AE49" s="19"/>
       <c r="AF49" s="19"/>
       <c r="AG49" s="19"/>
       <c r="AH49" s="19"/>
       <c r="AI49" s="19"/>
       <c r="AJ49" s="19"/>
-      <c r="AK49" s="64"/>
+      <c r="AK49" s="69"/>
       <c r="AL49" s="19"/>
     </row>
     <row r="50" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A50" s="74"/>
-      <c r="B50" s="67"/>
-      <c r="C50" s="66"/>
+      <c r="A50" s="62"/>
+      <c r="B50" s="71"/>
+      <c r="C50" s="61"/>
       <c r="D50" s="2" t="s">
         <v>37</v>
       </c>
@@ -8416,27 +8416,27 @@
       <c r="T50" s="20"/>
       <c r="U50" s="20"/>
       <c r="V50" s="20"/>
-      <c r="W50" s="69"/>
+      <c r="W50" s="73"/>
       <c r="X50" s="20"/>
       <c r="Y50" s="20"/>
       <c r="Z50" s="20"/>
       <c r="AA50" s="20"/>
       <c r="AB50" s="20"/>
       <c r="AC50" s="20"/>
-      <c r="AD50" s="72"/>
+      <c r="AD50" s="76"/>
       <c r="AE50" s="19"/>
       <c r="AF50" s="19"/>
       <c r="AG50" s="19"/>
       <c r="AH50" s="19"/>
       <c r="AI50" s="19"/>
       <c r="AJ50" s="19"/>
-      <c r="AK50" s="64"/>
+      <c r="AK50" s="69"/>
       <c r="AL50" s="19"/>
     </row>
     <row r="51" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A51" s="74"/>
-      <c r="B51" s="67"/>
-      <c r="C51" s="66"/>
+      <c r="A51" s="62"/>
+      <c r="B51" s="71"/>
+      <c r="C51" s="61"/>
       <c r="D51" s="2" t="s">
         <v>38</v>
       </c>
@@ -8460,27 +8460,27 @@
       <c r="T51" s="20"/>
       <c r="U51" s="20"/>
       <c r="V51" s="20"/>
-      <c r="W51" s="69"/>
+      <c r="W51" s="73"/>
       <c r="X51" s="20"/>
       <c r="Y51" s="20"/>
       <c r="Z51" s="20"/>
       <c r="AA51" s="20"/>
       <c r="AB51" s="20"/>
       <c r="AC51" s="20"/>
-      <c r="AD51" s="72"/>
+      <c r="AD51" s="76"/>
       <c r="AE51" s="19"/>
       <c r="AF51" s="19"/>
       <c r="AG51" s="19"/>
       <c r="AH51" s="19"/>
       <c r="AI51" s="19"/>
       <c r="AJ51" s="19"/>
-      <c r="AK51" s="64"/>
+      <c r="AK51" s="69"/>
       <c r="AL51" s="19"/>
     </row>
     <row r="52" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A52" s="74"/>
-      <c r="B52" s="67"/>
-      <c r="C52" s="66"/>
+      <c r="A52" s="62"/>
+      <c r="B52" s="71"/>
+      <c r="C52" s="61"/>
       <c r="D52" s="2" t="s">
         <v>33</v>
       </c>
@@ -8504,27 +8504,27 @@
       <c r="T52" s="20"/>
       <c r="U52" s="20"/>
       <c r="V52" s="20"/>
-      <c r="W52" s="69"/>
+      <c r="W52" s="73"/>
       <c r="X52" s="20"/>
       <c r="Y52" s="20"/>
       <c r="Z52" s="20"/>
       <c r="AA52" s="20"/>
       <c r="AB52" s="20"/>
       <c r="AC52" s="20"/>
-      <c r="AD52" s="72"/>
+      <c r="AD52" s="76"/>
       <c r="AE52" s="19"/>
       <c r="AF52" s="19"/>
       <c r="AG52" s="19"/>
       <c r="AH52" s="19"/>
       <c r="AI52" s="19"/>
       <c r="AJ52" s="19"/>
-      <c r="AK52" s="64"/>
+      <c r="AK52" s="69"/>
       <c r="AL52" s="19"/>
     </row>
     <row r="53" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A53" s="74"/>
-      <c r="B53" s="67"/>
-      <c r="C53" s="66" t="s">
+      <c r="A53" s="62"/>
+      <c r="B53" s="71"/>
+      <c r="C53" s="61" t="s">
         <v>121</v>
       </c>
       <c r="D53" s="2" t="s">
@@ -8554,27 +8554,27 @@
       <c r="T53" s="20"/>
       <c r="U53" s="20"/>
       <c r="V53" s="20"/>
-      <c r="W53" s="69"/>
+      <c r="W53" s="73"/>
       <c r="X53" s="20"/>
       <c r="Y53" s="20"/>
       <c r="Z53" s="20"/>
       <c r="AA53" s="20"/>
       <c r="AB53" s="20"/>
       <c r="AC53" s="20"/>
-      <c r="AD53" s="72"/>
+      <c r="AD53" s="76"/>
       <c r="AE53" s="19"/>
       <c r="AF53" s="19"/>
       <c r="AG53" s="19"/>
       <c r="AH53" s="19"/>
       <c r="AI53" s="19"/>
       <c r="AJ53" s="19"/>
-      <c r="AK53" s="64"/>
+      <c r="AK53" s="69"/>
       <c r="AL53" s="19"/>
     </row>
     <row r="54" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A54" s="74"/>
-      <c r="B54" s="67"/>
-      <c r="C54" s="66"/>
+      <c r="A54" s="62"/>
+      <c r="B54" s="71"/>
+      <c r="C54" s="61"/>
       <c r="D54" s="2" t="s">
         <v>151</v>
       </c>
@@ -8602,26 +8602,26 @@
       <c r="T54" s="20"/>
       <c r="U54" s="20"/>
       <c r="V54" s="20"/>
-      <c r="W54" s="69"/>
+      <c r="W54" s="73"/>
       <c r="X54" s="20"/>
       <c r="Y54" s="20"/>
       <c r="Z54" s="20"/>
       <c r="AA54" s="20"/>
       <c r="AB54" s="20"/>
       <c r="AC54" s="20"/>
-      <c r="AD54" s="72"/>
+      <c r="AD54" s="76"/>
       <c r="AE54" s="19"/>
       <c r="AF54" s="19"/>
       <c r="AG54" s="19"/>
       <c r="AH54" s="19"/>
       <c r="AI54" s="19"/>
       <c r="AJ54" s="19"/>
-      <c r="AK54" s="64"/>
+      <c r="AK54" s="69"/>
       <c r="AL54" s="19"/>
     </row>
     <row r="55" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="74"/>
-      <c r="B55" s="67"/>
+      <c r="A55" s="62"/>
+      <c r="B55" s="71"/>
       <c r="C55" s="21" t="s">
         <v>71</v>
       </c>
@@ -8648,32 +8648,32 @@
       <c r="T55" s="21"/>
       <c r="U55" s="21"/>
       <c r="V55" s="21"/>
-      <c r="W55" s="69"/>
+      <c r="W55" s="73"/>
       <c r="X55" s="21"/>
       <c r="Y55" s="21"/>
       <c r="Z55" s="21"/>
       <c r="AA55" s="21"/>
       <c r="AB55" s="21"/>
       <c r="AC55" s="21"/>
-      <c r="AD55" s="72"/>
+      <c r="AD55" s="76"/>
       <c r="AE55" s="19"/>
       <c r="AF55" s="19"/>
       <c r="AG55" s="19"/>
       <c r="AH55" s="19"/>
       <c r="AI55" s="19"/>
       <c r="AJ55" s="19"/>
-      <c r="AK55" s="64"/>
+      <c r="AK55" s="69"/>
       <c r="AL55" s="19"/>
     </row>
     <row r="56" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A56" s="74"/>
-      <c r="B56" s="76" t="s">
+      <c r="A56" s="62"/>
+      <c r="B56" s="64" t="s">
         <v>120</v>
       </c>
-      <c r="C56" s="66" t="s">
+      <c r="C56" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="D56" s="66" t="s">
+      <c r="D56" s="61" t="s">
         <v>29</v>
       </c>
       <c r="E56" s="2" t="s">
@@ -8706,28 +8706,28 @@
       <c r="T56" s="20"/>
       <c r="U56" s="20"/>
       <c r="V56" s="20"/>
-      <c r="W56" s="69"/>
+      <c r="W56" s="73"/>
       <c r="X56" s="20"/>
       <c r="Y56" s="20"/>
       <c r="Z56" s="20"/>
       <c r="AA56" s="20"/>
       <c r="AB56" s="20"/>
       <c r="AC56" s="20"/>
-      <c r="AD56" s="72"/>
+      <c r="AD56" s="76"/>
       <c r="AE56" s="19"/>
       <c r="AF56" s="19"/>
       <c r="AG56" s="19"/>
       <c r="AH56" s="19"/>
       <c r="AI56" s="19"/>
       <c r="AJ56" s="19"/>
-      <c r="AK56" s="64"/>
+      <c r="AK56" s="69"/>
       <c r="AL56" s="19"/>
     </row>
     <row r="57" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A57" s="74"/>
-      <c r="B57" s="76"/>
-      <c r="C57" s="66"/>
-      <c r="D57" s="66"/>
+      <c r="A57" s="62"/>
+      <c r="B57" s="64"/>
+      <c r="C57" s="61"/>
+      <c r="D57" s="61"/>
       <c r="E57" s="2" t="s">
         <v>130</v>
       </c>
@@ -8758,30 +8758,30 @@
       <c r="T57" s="20"/>
       <c r="U57" s="20"/>
       <c r="V57" s="20"/>
-      <c r="W57" s="69"/>
+      <c r="W57" s="73"/>
       <c r="X57" s="20"/>
       <c r="Y57" s="20"/>
       <c r="Z57" s="20"/>
       <c r="AA57" s="20"/>
       <c r="AB57" s="20"/>
       <c r="AC57" s="20"/>
-      <c r="AD57" s="72"/>
+      <c r="AD57" s="76"/>
       <c r="AE57" s="19"/>
       <c r="AF57" s="19"/>
       <c r="AG57" s="19"/>
       <c r="AH57" s="19"/>
       <c r="AI57" s="19"/>
       <c r="AJ57" s="19"/>
-      <c r="AK57" s="64"/>
+      <c r="AK57" s="69"/>
       <c r="AL57" s="19"/>
     </row>
     <row r="58" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A58" s="74"/>
-      <c r="B58" s="76"/>
-      <c r="C58" s="66" t="s">
+      <c r="A58" s="62"/>
+      <c r="B58" s="64"/>
+      <c r="C58" s="61" t="s">
         <v>96</v>
       </c>
-      <c r="D58" s="66" t="s">
+      <c r="D58" s="61" t="s">
         <v>95</v>
       </c>
       <c r="E58" s="2" t="s">
@@ -8814,28 +8814,28 @@
       <c r="T58" s="20"/>
       <c r="U58" s="20"/>
       <c r="V58" s="20"/>
-      <c r="W58" s="69"/>
+      <c r="W58" s="73"/>
       <c r="X58" s="20"/>
       <c r="Y58" s="20"/>
       <c r="Z58" s="20"/>
       <c r="AA58" s="20"/>
       <c r="AB58" s="20"/>
       <c r="AC58" s="20"/>
-      <c r="AD58" s="72"/>
+      <c r="AD58" s="76"/>
       <c r="AE58" s="19"/>
       <c r="AF58" s="19"/>
       <c r="AG58" s="19"/>
       <c r="AH58" s="19"/>
       <c r="AI58" s="19"/>
       <c r="AJ58" s="19"/>
-      <c r="AK58" s="64"/>
+      <c r="AK58" s="69"/>
       <c r="AL58" s="19"/>
     </row>
     <row r="59" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A59" s="74"/>
-      <c r="B59" s="76"/>
-      <c r="C59" s="66"/>
-      <c r="D59" s="66"/>
+      <c r="A59" s="62"/>
+      <c r="B59" s="64"/>
+      <c r="C59" s="61"/>
+      <c r="D59" s="61"/>
       <c r="E59" s="2" t="s">
         <v>146</v>
       </c>
@@ -8866,28 +8866,28 @@
       <c r="T59" s="20"/>
       <c r="U59" s="20"/>
       <c r="V59" s="20"/>
-      <c r="W59" s="69"/>
+      <c r="W59" s="73"/>
       <c r="X59" s="20"/>
       <c r="Y59" s="20"/>
       <c r="Z59" s="20"/>
       <c r="AA59" s="20"/>
       <c r="AB59" s="20"/>
       <c r="AC59" s="20"/>
-      <c r="AD59" s="72"/>
+      <c r="AD59" s="76"/>
       <c r="AE59" s="19"/>
       <c r="AF59" s="19"/>
       <c r="AG59" s="19"/>
       <c r="AH59" s="19"/>
       <c r="AI59" s="19"/>
       <c r="AJ59" s="19"/>
-      <c r="AK59" s="64"/>
+      <c r="AK59" s="69"/>
       <c r="AL59" s="19"/>
     </row>
     <row r="60" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A60" s="74"/>
-      <c r="B60" s="76"/>
-      <c r="C60" s="66"/>
-      <c r="D60" s="66"/>
+      <c r="A60" s="62"/>
+      <c r="B60" s="64"/>
+      <c r="C60" s="61"/>
+      <c r="D60" s="61"/>
       <c r="E60" s="2" t="s">
         <v>147</v>
       </c>
@@ -8918,28 +8918,28 @@
       <c r="T60" s="20"/>
       <c r="U60" s="20"/>
       <c r="V60" s="20"/>
-      <c r="W60" s="69"/>
+      <c r="W60" s="73"/>
       <c r="X60" s="20"/>
       <c r="Y60" s="20"/>
       <c r="Z60" s="20"/>
       <c r="AA60" s="20"/>
       <c r="AB60" s="20"/>
       <c r="AC60" s="20"/>
-      <c r="AD60" s="72"/>
+      <c r="AD60" s="76"/>
       <c r="AE60" s="19"/>
       <c r="AF60" s="19"/>
       <c r="AG60" s="19"/>
       <c r="AH60" s="19"/>
       <c r="AI60" s="19"/>
       <c r="AJ60" s="19"/>
-      <c r="AK60" s="64"/>
+      <c r="AK60" s="69"/>
       <c r="AL60" s="19"/>
     </row>
     <row r="61" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A61" s="74"/>
-      <c r="B61" s="76"/>
-      <c r="C61" s="66"/>
-      <c r="D61" s="66"/>
+      <c r="A61" s="62"/>
+      <c r="B61" s="64"/>
+      <c r="C61" s="61"/>
+      <c r="D61" s="61"/>
       <c r="E61" s="2" t="s">
         <v>107</v>
       </c>
@@ -8970,28 +8970,28 @@
       <c r="T61" s="20"/>
       <c r="U61" s="20"/>
       <c r="V61" s="20"/>
-      <c r="W61" s="69"/>
+      <c r="W61" s="73"/>
       <c r="X61" s="20"/>
       <c r="Y61" s="20"/>
       <c r="Z61" s="20"/>
       <c r="AA61" s="20"/>
       <c r="AB61" s="20"/>
       <c r="AC61" s="20"/>
-      <c r="AD61" s="72"/>
+      <c r="AD61" s="76"/>
       <c r="AE61" s="19"/>
       <c r="AF61" s="19"/>
       <c r="AG61" s="19"/>
       <c r="AH61" s="19"/>
       <c r="AI61" s="19"/>
       <c r="AJ61" s="19"/>
-      <c r="AK61" s="64"/>
+      <c r="AK61" s="69"/>
       <c r="AL61" s="19"/>
     </row>
     <row r="62" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A62" s="74"/>
-      <c r="B62" s="76"/>
-      <c r="C62" s="66"/>
-      <c r="D62" s="66"/>
+      <c r="A62" s="62"/>
+      <c r="B62" s="64"/>
+      <c r="C62" s="61"/>
+      <c r="D62" s="61"/>
       <c r="E62" s="2" t="s">
         <v>108</v>
       </c>
@@ -9022,28 +9022,28 @@
       <c r="T62" s="20"/>
       <c r="U62" s="20"/>
       <c r="V62" s="20"/>
-      <c r="W62" s="69"/>
+      <c r="W62" s="73"/>
       <c r="X62" s="20"/>
       <c r="Y62" s="20"/>
       <c r="Z62" s="20"/>
       <c r="AA62" s="20"/>
       <c r="AB62" s="20"/>
       <c r="AC62" s="20"/>
-      <c r="AD62" s="72"/>
+      <c r="AD62" s="76"/>
       <c r="AE62" s="19"/>
       <c r="AF62" s="19"/>
       <c r="AG62" s="19"/>
       <c r="AH62" s="19"/>
       <c r="AI62" s="19"/>
       <c r="AJ62" s="19"/>
-      <c r="AK62" s="64"/>
+      <c r="AK62" s="69"/>
       <c r="AL62" s="19"/>
     </row>
     <row r="63" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A63" s="74"/>
-      <c r="B63" s="76"/>
-      <c r="C63" s="66"/>
-      <c r="D63" s="66" t="s">
+      <c r="A63" s="62"/>
+      <c r="B63" s="64"/>
+      <c r="C63" s="61"/>
+      <c r="D63" s="61" t="s">
         <v>97</v>
       </c>
       <c r="E63" s="2" t="s">
@@ -9057,7 +9057,7 @@
       <c r="I63" s="35"/>
       <c r="J63" s="60"/>
       <c r="K63" s="36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L63" s="30"/>
       <c r="M63" s="20"/>
@@ -9070,28 +9070,28 @@
       <c r="T63" s="20"/>
       <c r="U63" s="20"/>
       <c r="V63" s="20"/>
-      <c r="W63" s="69"/>
+      <c r="W63" s="73"/>
       <c r="X63" s="20"/>
       <c r="Y63" s="20"/>
       <c r="Z63" s="20"/>
       <c r="AA63" s="20"/>
       <c r="AB63" s="20"/>
       <c r="AC63" s="20"/>
-      <c r="AD63" s="72"/>
+      <c r="AD63" s="76"/>
       <c r="AE63" s="19"/>
       <c r="AF63" s="19"/>
       <c r="AG63" s="19"/>
       <c r="AH63" s="19"/>
       <c r="AI63" s="19"/>
       <c r="AJ63" s="19"/>
-      <c r="AK63" s="64"/>
+      <c r="AK63" s="69"/>
       <c r="AL63" s="19"/>
     </row>
     <row r="64" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A64" s="74"/>
-      <c r="B64" s="76"/>
-      <c r="C64" s="66"/>
-      <c r="D64" s="66"/>
+      <c r="A64" s="62"/>
+      <c r="B64" s="64"/>
+      <c r="C64" s="61"/>
+      <c r="D64" s="61"/>
       <c r="E64" s="2" t="s">
         <v>146</v>
       </c>
@@ -9122,30 +9122,30 @@
       <c r="T64" s="20"/>
       <c r="U64" s="20"/>
       <c r="V64" s="20"/>
-      <c r="W64" s="69"/>
+      <c r="W64" s="73"/>
       <c r="X64" s="20"/>
       <c r="Y64" s="20"/>
       <c r="Z64" s="20"/>
       <c r="AA64" s="20"/>
       <c r="AB64" s="20"/>
       <c r="AC64" s="20"/>
-      <c r="AD64" s="72"/>
+      <c r="AD64" s="76"/>
       <c r="AE64" s="19"/>
       <c r="AF64" s="19"/>
       <c r="AG64" s="19"/>
       <c r="AH64" s="19"/>
       <c r="AI64" s="19"/>
       <c r="AJ64" s="19"/>
-      <c r="AK64" s="64"/>
+      <c r="AK64" s="69"/>
       <c r="AL64" s="19"/>
     </row>
     <row r="65" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="74"/>
-      <c r="B65" s="76"/>
-      <c r="C65" s="66" t="s">
+      <c r="A65" s="62"/>
+      <c r="B65" s="64"/>
+      <c r="C65" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="D65" s="66" t="s">
+      <c r="D65" s="61" t="s">
         <v>93</v>
       </c>
       <c r="E65" s="2" t="s">
@@ -9178,28 +9178,28 @@
       <c r="T65" s="20"/>
       <c r="U65" s="20"/>
       <c r="V65" s="20"/>
-      <c r="W65" s="69"/>
+      <c r="W65" s="73"/>
       <c r="X65" s="20"/>
       <c r="Y65" s="20"/>
       <c r="Z65" s="20"/>
       <c r="AA65" s="20"/>
       <c r="AB65" s="20"/>
       <c r="AC65" s="20"/>
-      <c r="AD65" s="72"/>
+      <c r="AD65" s="76"/>
       <c r="AE65" s="19"/>
       <c r="AF65" s="19"/>
       <c r="AG65" s="19"/>
       <c r="AH65" s="19"/>
       <c r="AI65" s="19"/>
       <c r="AJ65" s="19"/>
-      <c r="AK65" s="64"/>
+      <c r="AK65" s="69"/>
       <c r="AL65" s="19"/>
     </row>
     <row r="66" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="74"/>
-      <c r="B66" s="76"/>
-      <c r="C66" s="66"/>
-      <c r="D66" s="66"/>
+      <c r="A66" s="62"/>
+      <c r="B66" s="64"/>
+      <c r="C66" s="61"/>
+      <c r="D66" s="61"/>
       <c r="E66" s="2" t="s">
         <v>130</v>
       </c>
@@ -9230,28 +9230,28 @@
       <c r="T66" s="20"/>
       <c r="U66" s="20"/>
       <c r="V66" s="20"/>
-      <c r="W66" s="69"/>
+      <c r="W66" s="73"/>
       <c r="X66" s="20"/>
       <c r="Y66" s="20"/>
       <c r="Z66" s="20"/>
       <c r="AA66" s="20"/>
       <c r="AB66" s="20"/>
       <c r="AC66" s="20"/>
-      <c r="AD66" s="72"/>
+      <c r="AD66" s="76"/>
       <c r="AE66" s="19"/>
       <c r="AF66" s="19"/>
       <c r="AG66" s="19"/>
       <c r="AH66" s="19"/>
       <c r="AI66" s="19"/>
       <c r="AJ66" s="19"/>
-      <c r="AK66" s="64"/>
+      <c r="AK66" s="69"/>
       <c r="AL66" s="19"/>
     </row>
     <row r="67" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="74"/>
-      <c r="B67" s="76"/>
-      <c r="C67" s="66"/>
-      <c r="D67" s="61" t="s">
+      <c r="A67" s="62"/>
+      <c r="B67" s="64"/>
+      <c r="C67" s="61"/>
+      <c r="D67" s="65" t="s">
         <v>98</v>
       </c>
       <c r="E67" s="2" t="s">
@@ -9284,28 +9284,28 @@
       <c r="T67" s="53"/>
       <c r="U67" s="53"/>
       <c r="V67" s="53"/>
-      <c r="W67" s="69"/>
+      <c r="W67" s="73"/>
       <c r="X67" s="53"/>
       <c r="Y67" s="53"/>
       <c r="Z67" s="53"/>
       <c r="AA67" s="53"/>
       <c r="AB67" s="53"/>
       <c r="AC67" s="53"/>
-      <c r="AD67" s="72"/>
+      <c r="AD67" s="76"/>
       <c r="AE67" s="54"/>
       <c r="AF67" s="54"/>
       <c r="AG67" s="54"/>
       <c r="AH67" s="54"/>
       <c r="AI67" s="54"/>
       <c r="AJ67" s="54"/>
-      <c r="AK67" s="64"/>
+      <c r="AK67" s="69"/>
       <c r="AL67" s="54"/>
     </row>
     <row r="68" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="74"/>
-      <c r="B68" s="76"/>
-      <c r="C68" s="66"/>
-      <c r="D68" s="62"/>
+      <c r="A68" s="62"/>
+      <c r="B68" s="64"/>
+      <c r="C68" s="61"/>
+      <c r="D68" s="67"/>
       <c r="E68" s="2" t="s">
         <v>130</v>
       </c>
@@ -9319,7 +9319,7 @@
       <c r="I68" s="35"/>
       <c r="J68" s="60"/>
       <c r="K68" s="36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L68" s="30"/>
       <c r="M68" s="20"/>
@@ -9332,27 +9332,27 @@
       <c r="T68" s="20"/>
       <c r="U68" s="20"/>
       <c r="V68" s="20"/>
-      <c r="W68" s="69"/>
+      <c r="W68" s="73"/>
       <c r="X68" s="20"/>
       <c r="Y68" s="20"/>
       <c r="Z68" s="20"/>
       <c r="AA68" s="20"/>
       <c r="AB68" s="20"/>
       <c r="AC68" s="20"/>
-      <c r="AD68" s="72"/>
+      <c r="AD68" s="76"/>
       <c r="AE68" s="19"/>
       <c r="AF68" s="19"/>
       <c r="AG68" s="19"/>
       <c r="AH68" s="19"/>
       <c r="AI68" s="19"/>
       <c r="AJ68" s="19"/>
-      <c r="AK68" s="64"/>
+      <c r="AK68" s="69"/>
       <c r="AL68" s="19"/>
     </row>
     <row r="69" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A69" s="74"/>
-      <c r="B69" s="76"/>
-      <c r="C69" s="77"/>
+      <c r="A69" s="62"/>
+      <c r="B69" s="64"/>
+      <c r="C69" s="66"/>
       <c r="D69" s="2" t="s">
         <v>190</v>
       </c>
@@ -9386,27 +9386,27 @@
       <c r="T69" s="53"/>
       <c r="U69" s="53"/>
       <c r="V69" s="53"/>
-      <c r="W69" s="69"/>
+      <c r="W69" s="73"/>
       <c r="X69" s="53"/>
       <c r="Y69" s="53"/>
       <c r="Z69" s="53"/>
       <c r="AA69" s="53"/>
       <c r="AB69" s="53"/>
       <c r="AC69" s="53"/>
-      <c r="AD69" s="72"/>
+      <c r="AD69" s="76"/>
       <c r="AE69" s="54"/>
       <c r="AF69" s="54"/>
       <c r="AG69" s="54"/>
       <c r="AH69" s="54"/>
       <c r="AI69" s="54"/>
       <c r="AJ69" s="54"/>
-      <c r="AK69" s="64"/>
+      <c r="AK69" s="69"/>
       <c r="AL69" s="54"/>
     </row>
     <row r="70" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A70" s="74"/>
-      <c r="B70" s="76"/>
-      <c r="C70" s="77"/>
+      <c r="A70" s="62"/>
+      <c r="B70" s="64"/>
+      <c r="C70" s="66"/>
       <c r="D70" s="2" t="s">
         <v>191</v>
       </c>
@@ -9440,27 +9440,27 @@
       <c r="T70" s="53"/>
       <c r="U70" s="53"/>
       <c r="V70" s="53"/>
-      <c r="W70" s="69"/>
+      <c r="W70" s="73"/>
       <c r="X70" s="53"/>
       <c r="Y70" s="53"/>
       <c r="Z70" s="53"/>
       <c r="AA70" s="53"/>
       <c r="AB70" s="53"/>
       <c r="AC70" s="53"/>
-      <c r="AD70" s="72"/>
+      <c r="AD70" s="76"/>
       <c r="AE70" s="54"/>
       <c r="AF70" s="54"/>
       <c r="AG70" s="54"/>
       <c r="AH70" s="54"/>
       <c r="AI70" s="54"/>
       <c r="AJ70" s="54"/>
-      <c r="AK70" s="64"/>
+      <c r="AK70" s="69"/>
       <c r="AL70" s="54"/>
     </row>
     <row r="71" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A71" s="74"/>
-      <c r="B71" s="76"/>
-      <c r="C71" s="62"/>
+      <c r="A71" s="62"/>
+      <c r="B71" s="64"/>
+      <c r="C71" s="67"/>
       <c r="D71" s="2" t="s">
         <v>161</v>
       </c>
@@ -9494,27 +9494,27 @@
       <c r="T71" s="20"/>
       <c r="U71" s="20"/>
       <c r="V71" s="20"/>
-      <c r="W71" s="69"/>
+      <c r="W71" s="73"/>
       <c r="X71" s="20"/>
       <c r="Y71" s="20"/>
       <c r="Z71" s="20"/>
       <c r="AA71" s="20"/>
       <c r="AB71" s="20"/>
       <c r="AC71" s="20"/>
-      <c r="AD71" s="72"/>
+      <c r="AD71" s="76"/>
       <c r="AE71" s="19"/>
       <c r="AF71" s="19"/>
       <c r="AG71" s="19"/>
       <c r="AH71" s="19"/>
       <c r="AI71" s="19"/>
       <c r="AJ71" s="19"/>
-      <c r="AK71" s="64"/>
+      <c r="AK71" s="69"/>
       <c r="AL71" s="19"/>
     </row>
     <row r="72" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A72" s="74"/>
-      <c r="B72" s="76"/>
-      <c r="C72" s="66" t="s">
+      <c r="A72" s="62"/>
+      <c r="B72" s="64"/>
+      <c r="C72" s="61" t="s">
         <v>13</v>
       </c>
       <c r="D72" s="2" t="s">
@@ -9548,27 +9548,27 @@
       <c r="T72" s="20"/>
       <c r="U72" s="20"/>
       <c r="V72" s="20"/>
-      <c r="W72" s="69"/>
+      <c r="W72" s="73"/>
       <c r="X72" s="20"/>
       <c r="Y72" s="20"/>
       <c r="Z72" s="20"/>
       <c r="AA72" s="20"/>
       <c r="AB72" s="20"/>
       <c r="AC72" s="20"/>
-      <c r="AD72" s="72"/>
+      <c r="AD72" s="76"/>
       <c r="AE72" s="19"/>
       <c r="AF72" s="19"/>
       <c r="AG72" s="19"/>
       <c r="AH72" s="19"/>
       <c r="AI72" s="19"/>
       <c r="AJ72" s="19"/>
-      <c r="AK72" s="64"/>
+      <c r="AK72" s="69"/>
       <c r="AL72" s="19"/>
     </row>
     <row r="73" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A73" s="74"/>
-      <c r="B73" s="76"/>
-      <c r="C73" s="66"/>
+      <c r="A73" s="62"/>
+      <c r="B73" s="64"/>
+      <c r="C73" s="61"/>
       <c r="D73" s="2" t="s">
         <v>126</v>
       </c>
@@ -9600,27 +9600,27 @@
       <c r="T73" s="20"/>
       <c r="U73" s="20"/>
       <c r="V73" s="20"/>
-      <c r="W73" s="69"/>
+      <c r="W73" s="73"/>
       <c r="X73" s="20"/>
       <c r="Y73" s="20"/>
       <c r="Z73" s="20"/>
       <c r="AA73" s="20"/>
       <c r="AB73" s="20"/>
       <c r="AC73" s="20"/>
-      <c r="AD73" s="72"/>
+      <c r="AD73" s="76"/>
       <c r="AE73" s="19"/>
       <c r="AF73" s="19"/>
       <c r="AG73" s="19"/>
       <c r="AH73" s="19"/>
       <c r="AI73" s="19"/>
       <c r="AJ73" s="19"/>
-      <c r="AK73" s="64"/>
+      <c r="AK73" s="69"/>
       <c r="AL73" s="19"/>
     </row>
     <row r="74" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="74"/>
-      <c r="B74" s="76"/>
-      <c r="C74" s="61" t="s">
+      <c r="A74" s="62"/>
+      <c r="B74" s="64"/>
+      <c r="C74" s="65" t="s">
         <v>99</v>
       </c>
       <c r="D74" s="2" t="s">
@@ -9654,27 +9654,27 @@
       <c r="T74" s="20"/>
       <c r="U74" s="20"/>
       <c r="V74" s="20"/>
-      <c r="W74" s="69"/>
+      <c r="W74" s="73"/>
       <c r="X74" s="20"/>
       <c r="Y74" s="20"/>
       <c r="Z74" s="20"/>
       <c r="AA74" s="20"/>
       <c r="AB74" s="20"/>
       <c r="AC74" s="20"/>
-      <c r="AD74" s="72"/>
+      <c r="AD74" s="76"/>
       <c r="AE74" s="19"/>
       <c r="AF74" s="19"/>
       <c r="AG74" s="19"/>
       <c r="AH74" s="19"/>
       <c r="AI74" s="19"/>
       <c r="AJ74" s="19"/>
-      <c r="AK74" s="64"/>
+      <c r="AK74" s="69"/>
       <c r="AL74" s="19"/>
     </row>
     <row r="75" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="74"/>
-      <c r="B75" s="76"/>
-      <c r="C75" s="77"/>
+      <c r="A75" s="62"/>
+      <c r="B75" s="64"/>
+      <c r="C75" s="66"/>
       <c r="D75" s="2" t="s">
         <v>156</v>
       </c>
@@ -9706,27 +9706,27 @@
       <c r="T75" s="20"/>
       <c r="U75" s="20"/>
       <c r="V75" s="20"/>
-      <c r="W75" s="69"/>
+      <c r="W75" s="73"/>
       <c r="X75" s="20"/>
       <c r="Y75" s="20"/>
       <c r="Z75" s="20"/>
       <c r="AA75" s="20"/>
       <c r="AB75" s="20"/>
       <c r="AC75" s="20"/>
-      <c r="AD75" s="72"/>
+      <c r="AD75" s="76"/>
       <c r="AE75" s="19"/>
       <c r="AF75" s="19"/>
       <c r="AG75" s="19"/>
       <c r="AH75" s="19"/>
       <c r="AI75" s="19"/>
       <c r="AJ75" s="19"/>
-      <c r="AK75" s="64"/>
+      <c r="AK75" s="69"/>
       <c r="AL75" s="19"/>
     </row>
     <row r="76" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="74"/>
-      <c r="B76" s="76"/>
-      <c r="C76" s="77"/>
+      <c r="A76" s="62"/>
+      <c r="B76" s="64"/>
+      <c r="C76" s="66"/>
       <c r="D76" s="2" t="s">
         <v>187</v>
       </c>
@@ -9750,27 +9750,27 @@
       <c r="T76" s="53"/>
       <c r="U76" s="53"/>
       <c r="V76" s="53"/>
-      <c r="W76" s="69"/>
+      <c r="W76" s="73"/>
       <c r="X76" s="53"/>
       <c r="Y76" s="53"/>
       <c r="Z76" s="53"/>
       <c r="AA76" s="53"/>
       <c r="AB76" s="53"/>
       <c r="AC76" s="53"/>
-      <c r="AD76" s="72"/>
+      <c r="AD76" s="76"/>
       <c r="AE76" s="54"/>
       <c r="AF76" s="54"/>
       <c r="AG76" s="54"/>
       <c r="AH76" s="54"/>
       <c r="AI76" s="54"/>
       <c r="AJ76" s="54"/>
-      <c r="AK76" s="64"/>
+      <c r="AK76" s="69"/>
       <c r="AL76" s="54"/>
     </row>
     <row r="77" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="74"/>
-      <c r="B77" s="76"/>
-      <c r="C77" s="62"/>
+      <c r="A77" s="62"/>
+      <c r="B77" s="64"/>
+      <c r="C77" s="67"/>
       <c r="D77" s="2" t="s">
         <v>157</v>
       </c>
@@ -9802,27 +9802,27 @@
       <c r="T77" s="37"/>
       <c r="U77" s="37"/>
       <c r="V77" s="37"/>
-      <c r="W77" s="69"/>
+      <c r="W77" s="73"/>
       <c r="X77" s="37"/>
       <c r="Y77" s="37"/>
       <c r="Z77" s="37"/>
       <c r="AA77" s="37"/>
       <c r="AB77" s="37"/>
       <c r="AC77" s="37"/>
-      <c r="AD77" s="72"/>
+      <c r="AD77" s="76"/>
       <c r="AE77" s="19"/>
       <c r="AF77" s="19"/>
       <c r="AG77" s="19"/>
       <c r="AH77" s="19"/>
       <c r="AI77" s="19"/>
       <c r="AJ77" s="19"/>
-      <c r="AK77" s="64"/>
+      <c r="AK77" s="69"/>
       <c r="AL77" s="19"/>
     </row>
     <row r="78" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A78" s="74"/>
-      <c r="B78" s="76"/>
-      <c r="C78" s="66" t="s">
+      <c r="A78" s="62"/>
+      <c r="B78" s="64"/>
+      <c r="C78" s="61" t="s">
         <v>30</v>
       </c>
       <c r="D78" s="2" t="s">
@@ -9841,7 +9841,7 @@
       <c r="I78" s="35"/>
       <c r="J78" s="60"/>
       <c r="K78" s="36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L78" s="30"/>
       <c r="M78" s="20"/>
@@ -9854,27 +9854,27 @@
       <c r="T78" s="20"/>
       <c r="U78" s="20"/>
       <c r="V78" s="20"/>
-      <c r="W78" s="69"/>
+      <c r="W78" s="73"/>
       <c r="X78" s="20"/>
       <c r="Y78" s="20"/>
       <c r="Z78" s="20"/>
       <c r="AA78" s="20"/>
       <c r="AB78" s="20"/>
       <c r="AC78" s="20"/>
-      <c r="AD78" s="72"/>
+      <c r="AD78" s="76"/>
       <c r="AE78" s="19"/>
       <c r="AF78" s="19"/>
       <c r="AG78" s="19"/>
       <c r="AH78" s="19"/>
       <c r="AI78" s="19"/>
       <c r="AJ78" s="19"/>
-      <c r="AK78" s="64"/>
+      <c r="AK78" s="69"/>
       <c r="AL78" s="19"/>
     </row>
     <row r="79" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A79" s="74"/>
-      <c r="B79" s="76"/>
-      <c r="C79" s="66"/>
+      <c r="A79" s="62"/>
+      <c r="B79" s="64"/>
+      <c r="C79" s="61"/>
       <c r="D79" s="2" t="s">
         <v>32</v>
       </c>
@@ -9898,27 +9898,27 @@
       <c r="T79" s="20"/>
       <c r="U79" s="20"/>
       <c r="V79" s="20"/>
-      <c r="W79" s="69"/>
+      <c r="W79" s="73"/>
       <c r="X79" s="20"/>
       <c r="Y79" s="20"/>
       <c r="Z79" s="20"/>
       <c r="AA79" s="20"/>
       <c r="AB79" s="20"/>
       <c r="AC79" s="20"/>
-      <c r="AD79" s="72"/>
+      <c r="AD79" s="76"/>
       <c r="AE79" s="19"/>
       <c r="AF79" s="19"/>
       <c r="AG79" s="19"/>
       <c r="AH79" s="19"/>
       <c r="AI79" s="19"/>
       <c r="AJ79" s="19"/>
-      <c r="AK79" s="64"/>
+      <c r="AK79" s="69"/>
       <c r="AL79" s="19"/>
     </row>
     <row r="80" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A80" s="74"/>
-      <c r="B80" s="76"/>
-      <c r="C80" s="66"/>
+      <c r="A80" s="62"/>
+      <c r="B80" s="64"/>
+      <c r="C80" s="61"/>
       <c r="D80" s="2" t="s">
         <v>33</v>
       </c>
@@ -9948,25 +9948,25 @@
       <c r="T80" s="20"/>
       <c r="U80" s="20"/>
       <c r="V80" s="20"/>
-      <c r="W80" s="70"/>
+      <c r="W80" s="74"/>
       <c r="X80" s="20"/>
       <c r="Y80" s="20"/>
       <c r="Z80" s="20"/>
       <c r="AA80" s="20"/>
       <c r="AB80" s="20"/>
       <c r="AC80" s="20"/>
-      <c r="AD80" s="73"/>
+      <c r="AD80" s="77"/>
       <c r="AE80" s="19"/>
       <c r="AF80" s="19"/>
       <c r="AG80" s="19"/>
       <c r="AH80" s="19"/>
       <c r="AI80" s="19"/>
       <c r="AJ80" s="19"/>
-      <c r="AK80" s="65"/>
+      <c r="AK80" s="70"/>
       <c r="AL80" s="19"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A81" s="74"/>
+      <c r="A81" s="62"/>
       <c r="B81" s="44" t="s">
         <v>21</v>
       </c>
@@ -9988,20 +9988,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="A5:A81"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C78:C80"/>
-    <mergeCell ref="C48:C52"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="C65:C68"/>
-    <mergeCell ref="B5:B10"/>
-    <mergeCell ref="B56:B80"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="C74:C77"/>
-    <mergeCell ref="C69:C71"/>
     <mergeCell ref="D67:D68"/>
     <mergeCell ref="AK5:AK80"/>
     <mergeCell ref="C18:C42"/>
@@ -10018,6 +10004,20 @@
     <mergeCell ref="D56:D57"/>
     <mergeCell ref="D63:D64"/>
     <mergeCell ref="D65:D66"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="A5:A81"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C78:C80"/>
+    <mergeCell ref="C48:C52"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="C65:C68"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="B56:B80"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="C74:C77"/>
+    <mergeCell ref="C69:C71"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="L3:AL5 AL6:AL80 X6:AC80 AE6:AJ80 L6:V80">

--- a/schedule/ガントチャート.xlsx
+++ b/schedule/ガントチャート.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14925" windowHeight="12180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14925" windowHeight="12180" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="ガントチャート" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="BGM" sheetId="4" r:id="rId3"/>
     <sheet name="SE" sheetId="3" r:id="rId4"/>
     <sheet name="フローチャート" sheetId="2" r:id="rId5"/>
+    <sheet name="11月２日～マスター日まで" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="250">
   <si>
     <t>カテゴリ</t>
     <phoneticPr fontId="1"/>
@@ -1398,6 +1399,353 @@
     <rPh sb="0" eb="3">
       <t>ユウセンド</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>火</t>
+  </si>
+  <si>
+    <t>水</t>
+  </si>
+  <si>
+    <t>木</t>
+  </si>
+  <si>
+    <t>金</t>
+  </si>
+  <si>
+    <t>BGM　SE探し</t>
+    <rPh sb="6" eb="7">
+      <t>サガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テクスチャ　UI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ツール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モーション（プロ）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モーション（モデ）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム　スコア変動</t>
+    <rPh sb="8" eb="10">
+      <t>ヘンドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>優先</t>
+    <rPh sb="0" eb="2">
+      <t>ユウセン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今できるてる</t>
+    <rPh sb="0" eb="1">
+      <t>イマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵出現</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>シュツゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>弾</t>
+    <rPh sb="0" eb="1">
+      <t>タマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ツールができたら</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップ完成に近づく</t>
+    <rPh sb="3" eb="5">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>チカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵の出現位置も</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュツゲン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ひっかき攻撃＆モーション</t>
+    <rPh sb="4" eb="6">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵倒せる</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>タオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵倒せるお当たり判定</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>壁の当たり判定</t>
+    <rPh sb="0" eb="1">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム内UI</t>
+    <rPh sb="3" eb="4">
+      <t>ナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵の行動</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵の攻撃</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵が逃げる</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボスモーション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回収率</t>
+    <rPh sb="0" eb="2">
+      <t>カイシュウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム効果</t>
+    <rPh sb="4" eb="6">
+      <t>コウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BGM　SE（集めてる）</t>
+    <rPh sb="7" eb="8">
+      <t>アツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各スコアポイント詳細</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>担当</t>
+    <rPh sb="0" eb="2">
+      <t>タントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プランナー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デザイナー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プログラマー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕様書　企画書</t>
+    <rPh sb="0" eb="3">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>キカクショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各スコアポイント詳細</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム内UI変動</t>
+    <rPh sb="3" eb="4">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘンドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランキング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回収率</t>
+    <rPh sb="0" eb="2">
+      <t>カイシュウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボスモーション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム効果</t>
+    <rPh sb="4" eb="6">
+      <t>コウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵の攻撃　行動　</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面遷移</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ツールを使って敵配置とか</t>
+    <rPh sb="4" eb="5">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モデルかテクスチャか</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1410,7 +1758,7 @@
     <numFmt numFmtId="177" formatCode="aaa"/>
     <numFmt numFmtId="178" formatCode="m/d"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1670,8 +2018,43 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1736,6 +2119,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
       </patternFill>
     </fill>
   </fills>
@@ -1921,7 +2309,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1967,8 +2355,11 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2155,6 +2546,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2215,14 +2621,66 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="15" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="5" xfId="11" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="1" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="15">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="0" xfId="8" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="5" xfId="11" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="5" xfId="11" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="0" xfId="9" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" xfId="13" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" xfId="13" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" xfId="13" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="16">
     <cellStyle name="40% - アクセント 1" xfId="6" builtinId="31"/>
     <cellStyle name="60% - アクセント 1" xfId="7" builtinId="32"/>
     <cellStyle name="60% - アクセント 2" xfId="3" builtinId="36"/>
     <cellStyle name="60% - アクセント 3" xfId="4" builtinId="40"/>
     <cellStyle name="60% - アクセント 6" xfId="5" builtinId="52"/>
     <cellStyle name="アクセント 1" xfId="2" builtinId="29"/>
+    <cellStyle name="アクセント 2" xfId="15" builtinId="33"/>
     <cellStyle name="チェック セル" xfId="10" builtinId="23"/>
     <cellStyle name="どちらでもない" xfId="13" builtinId="28"/>
     <cellStyle name="パーセント" xfId="1" builtinId="5"/>
@@ -5901,11 +6359,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AT81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="11" ySplit="4" topLeftCell="L35" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="11" ySplit="4" topLeftCell="X45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K79" sqref="K79"/>
+      <selection pane="bottomRight" activeCell="AG3" sqref="AG3:AJ10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6194,10 +6652,10 @@
       </c>
     </row>
     <row r="5" spans="1:46" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="68" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="20" t="s">
@@ -6234,7 +6692,7 @@
       <c r="T5" s="19"/>
       <c r="U5" s="19"/>
       <c r="V5" s="19"/>
-      <c r="W5" s="72" t="s">
+      <c r="W5" s="77" t="s">
         <v>110</v>
       </c>
       <c r="X5" s="19"/>
@@ -6243,7 +6701,7 @@
       <c r="AA5" s="19"/>
       <c r="AB5" s="19"/>
       <c r="AC5" s="19"/>
-      <c r="AD5" s="75" t="s">
+      <c r="AD5" s="80" t="s">
         <v>111</v>
       </c>
       <c r="AE5" s="19"/>
@@ -6252,14 +6710,14 @@
       <c r="AH5" s="19"/>
       <c r="AI5" s="19"/>
       <c r="AJ5" s="19"/>
-      <c r="AK5" s="68" t="s">
+      <c r="AK5" s="73" t="s">
         <v>88</v>
       </c>
       <c r="AL5" s="19"/>
     </row>
     <row r="6" spans="1:46" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="62"/>
-      <c r="B6" s="63"/>
+      <c r="A6" s="67"/>
+      <c r="B6" s="68"/>
       <c r="C6" s="20" t="s">
         <v>9</v>
       </c>
@@ -6292,26 +6750,26 @@
       <c r="T6" s="20"/>
       <c r="U6" s="20"/>
       <c r="V6" s="20"/>
-      <c r="W6" s="73"/>
+      <c r="W6" s="78"/>
       <c r="X6" s="20"/>
       <c r="Y6" s="20"/>
       <c r="Z6" s="20"/>
       <c r="AA6" s="20"/>
       <c r="AB6" s="20"/>
       <c r="AC6" s="20"/>
-      <c r="AD6" s="76"/>
+      <c r="AD6" s="81"/>
       <c r="AE6" s="19"/>
       <c r="AF6" s="19"/>
       <c r="AG6" s="19"/>
       <c r="AH6" s="19"/>
       <c r="AI6" s="19"/>
       <c r="AJ6" s="19"/>
-      <c r="AK6" s="69"/>
+      <c r="AK6" s="74"/>
       <c r="AL6" s="19"/>
     </row>
     <row r="7" spans="1:46" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="62"/>
-      <c r="B7" s="63"/>
+      <c r="A7" s="67"/>
+      <c r="B7" s="68"/>
       <c r="C7" s="20" t="s">
         <v>10</v>
       </c>
@@ -6342,26 +6800,26 @@
       <c r="T7" s="20"/>
       <c r="U7" s="20"/>
       <c r="V7" s="20"/>
-      <c r="W7" s="73"/>
+      <c r="W7" s="78"/>
       <c r="X7" s="20"/>
       <c r="Y7" s="20"/>
       <c r="Z7" s="20"/>
       <c r="AA7" s="20"/>
       <c r="AB7" s="20"/>
       <c r="AC7" s="20"/>
-      <c r="AD7" s="76"/>
+      <c r="AD7" s="81"/>
       <c r="AE7" s="19"/>
       <c r="AF7" s="19"/>
       <c r="AG7" s="19"/>
       <c r="AH7" s="19"/>
       <c r="AI7" s="19"/>
       <c r="AJ7" s="19"/>
-      <c r="AK7" s="69"/>
+      <c r="AK7" s="74"/>
       <c r="AL7" s="19"/>
     </row>
     <row r="8" spans="1:46" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="62"/>
-      <c r="B8" s="63"/>
+      <c r="A8" s="67"/>
+      <c r="B8" s="68"/>
       <c r="C8" s="20" t="s">
         <v>11</v>
       </c>
@@ -6392,26 +6850,26 @@
       <c r="T8" s="20"/>
       <c r="U8" s="20"/>
       <c r="V8" s="20"/>
-      <c r="W8" s="73"/>
+      <c r="W8" s="78"/>
       <c r="X8" s="20"/>
       <c r="Y8" s="20"/>
       <c r="Z8" s="20"/>
       <c r="AA8" s="20"/>
       <c r="AB8" s="20"/>
       <c r="AC8" s="20"/>
-      <c r="AD8" s="76"/>
+      <c r="AD8" s="81"/>
       <c r="AE8" s="19"/>
       <c r="AF8" s="19"/>
       <c r="AG8" s="19"/>
       <c r="AH8" s="19"/>
       <c r="AI8" s="19"/>
       <c r="AJ8" s="19"/>
-      <c r="AK8" s="69"/>
+      <c r="AK8" s="74"/>
       <c r="AL8" s="19"/>
     </row>
     <row r="9" spans="1:46" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="62"/>
-      <c r="B9" s="63"/>
+      <c r="A9" s="67"/>
+      <c r="B9" s="68"/>
       <c r="C9" s="20" t="s">
         <v>34</v>
       </c>
@@ -6440,26 +6898,26 @@
       <c r="T9" s="20"/>
       <c r="U9" s="20"/>
       <c r="V9" s="20"/>
-      <c r="W9" s="73"/>
+      <c r="W9" s="78"/>
       <c r="X9" s="20"/>
       <c r="Y9" s="20"/>
       <c r="Z9" s="20"/>
       <c r="AA9" s="20"/>
       <c r="AB9" s="20"/>
       <c r="AC9" s="20"/>
-      <c r="AD9" s="76"/>
+      <c r="AD9" s="81"/>
       <c r="AE9" s="19"/>
       <c r="AF9" s="19"/>
       <c r="AG9" s="19"/>
       <c r="AH9" s="19"/>
       <c r="AI9" s="19"/>
       <c r="AJ9" s="19"/>
-      <c r="AK9" s="69"/>
+      <c r="AK9" s="74"/>
       <c r="AL9" s="19"/>
     </row>
     <row r="10" spans="1:46" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="62"/>
-      <c r="B10" s="63"/>
+      <c r="A10" s="67"/>
+      <c r="B10" s="68"/>
       <c r="C10" s="20" t="s">
         <v>35</v>
       </c>
@@ -6488,29 +6946,29 @@
       <c r="T10" s="20"/>
       <c r="U10" s="20"/>
       <c r="V10" s="20"/>
-      <c r="W10" s="73"/>
+      <c r="W10" s="78"/>
       <c r="X10" s="20"/>
       <c r="Y10" s="20"/>
       <c r="Z10" s="20"/>
       <c r="AA10" s="20"/>
       <c r="AB10" s="20"/>
       <c r="AC10" s="20"/>
-      <c r="AD10" s="76"/>
+      <c r="AD10" s="81"/>
       <c r="AE10" s="19"/>
       <c r="AF10" s="19"/>
       <c r="AG10" s="19"/>
       <c r="AH10" s="19"/>
       <c r="AI10" s="19"/>
       <c r="AJ10" s="19"/>
-      <c r="AK10" s="69"/>
+      <c r="AK10" s="74"/>
       <c r="AL10" s="19"/>
     </row>
     <row r="11" spans="1:46" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="62"/>
-      <c r="B11" s="71" t="s">
+      <c r="A11" s="67"/>
+      <c r="B11" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="61" t="s">
+      <c r="C11" s="66" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="46" t="s">
@@ -6536,27 +6994,27 @@
       <c r="T11" s="20"/>
       <c r="U11" s="20"/>
       <c r="V11" s="20"/>
-      <c r="W11" s="73"/>
+      <c r="W11" s="78"/>
       <c r="X11" s="20"/>
       <c r="Y11" s="20"/>
       <c r="Z11" s="20"/>
       <c r="AA11" s="20"/>
       <c r="AB11" s="20"/>
       <c r="AC11" s="20"/>
-      <c r="AD11" s="76"/>
+      <c r="AD11" s="81"/>
       <c r="AE11" s="19"/>
       <c r="AF11" s="19"/>
       <c r="AG11" s="19"/>
       <c r="AH11" s="19"/>
       <c r="AI11" s="19"/>
       <c r="AJ11" s="19"/>
-      <c r="AK11" s="69"/>
+      <c r="AK11" s="74"/>
       <c r="AL11" s="19"/>
     </row>
     <row r="12" spans="1:46" x14ac:dyDescent="0.4">
-      <c r="A12" s="62"/>
-      <c r="B12" s="71"/>
-      <c r="C12" s="61"/>
+      <c r="A12" s="67"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="66"/>
       <c r="D12" s="2" t="s">
         <v>23</v>
       </c>
@@ -6580,27 +7038,27 @@
       <c r="T12" s="20"/>
       <c r="U12" s="20"/>
       <c r="V12" s="20"/>
-      <c r="W12" s="73"/>
+      <c r="W12" s="78"/>
       <c r="X12" s="20"/>
       <c r="Y12" s="20"/>
       <c r="Z12" s="20"/>
       <c r="AA12" s="20"/>
       <c r="AB12" s="20"/>
       <c r="AC12" s="20"/>
-      <c r="AD12" s="76"/>
+      <c r="AD12" s="81"/>
       <c r="AE12" s="19"/>
       <c r="AF12" s="19"/>
       <c r="AG12" s="19"/>
       <c r="AH12" s="19"/>
       <c r="AI12" s="19"/>
       <c r="AJ12" s="19"/>
-      <c r="AK12" s="69"/>
+      <c r="AK12" s="74"/>
       <c r="AL12" s="19"/>
     </row>
     <row r="13" spans="1:46" x14ac:dyDescent="0.4">
-      <c r="A13" s="62"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="61"/>
+      <c r="A13" s="67"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="66"/>
       <c r="D13" s="38" t="s">
         <v>45</v>
       </c>
@@ -6624,27 +7082,27 @@
       <c r="T13" s="20"/>
       <c r="U13" s="20"/>
       <c r="V13" s="20"/>
-      <c r="W13" s="73"/>
+      <c r="W13" s="78"/>
       <c r="X13" s="20"/>
       <c r="Y13" s="20"/>
       <c r="Z13" s="20"/>
       <c r="AA13" s="20"/>
       <c r="AB13" s="20"/>
       <c r="AC13" s="20"/>
-      <c r="AD13" s="76"/>
+      <c r="AD13" s="81"/>
       <c r="AE13" s="19"/>
       <c r="AF13" s="19"/>
       <c r="AG13" s="19"/>
       <c r="AH13" s="19"/>
       <c r="AI13" s="19"/>
       <c r="AJ13" s="19"/>
-      <c r="AK13" s="69"/>
+      <c r="AK13" s="74"/>
       <c r="AL13" s="19"/>
     </row>
     <row r="14" spans="1:46" x14ac:dyDescent="0.4">
-      <c r="A14" s="62"/>
-      <c r="B14" s="71"/>
-      <c r="C14" s="61"/>
+      <c r="A14" s="67"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="66"/>
       <c r="D14" s="39" t="s">
         <v>27</v>
       </c>
@@ -6668,27 +7126,27 @@
       <c r="T14" s="20"/>
       <c r="U14" s="20"/>
       <c r="V14" s="20"/>
-      <c r="W14" s="73"/>
+      <c r="W14" s="78"/>
       <c r="X14" s="20"/>
       <c r="Y14" s="20"/>
       <c r="Z14" s="20"/>
       <c r="AA14" s="20"/>
       <c r="AB14" s="20"/>
       <c r="AC14" s="20"/>
-      <c r="AD14" s="76"/>
+      <c r="AD14" s="81"/>
       <c r="AE14" s="19"/>
       <c r="AF14" s="19"/>
       <c r="AG14" s="19"/>
       <c r="AH14" s="19"/>
       <c r="AI14" s="19"/>
       <c r="AJ14" s="19"/>
-      <c r="AK14" s="69"/>
+      <c r="AK14" s="74"/>
       <c r="AL14" s="19"/>
     </row>
     <row r="15" spans="1:46" x14ac:dyDescent="0.4">
-      <c r="A15" s="62"/>
-      <c r="B15" s="71"/>
-      <c r="C15" s="61" t="s">
+      <c r="A15" s="67"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="66" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -6716,27 +7174,27 @@
       <c r="T15" s="20"/>
       <c r="U15" s="20"/>
       <c r="V15" s="20"/>
-      <c r="W15" s="73"/>
+      <c r="W15" s="78"/>
       <c r="X15" s="20"/>
       <c r="Y15" s="20"/>
       <c r="Z15" s="20"/>
       <c r="AA15" s="20"/>
       <c r="AB15" s="20"/>
       <c r="AC15" s="20"/>
-      <c r="AD15" s="76"/>
+      <c r="AD15" s="81"/>
       <c r="AE15" s="19"/>
       <c r="AF15" s="19"/>
       <c r="AG15" s="19"/>
       <c r="AH15" s="19"/>
       <c r="AI15" s="19"/>
       <c r="AJ15" s="19"/>
-      <c r="AK15" s="69"/>
+      <c r="AK15" s="74"/>
       <c r="AL15" s="19"/>
     </row>
     <row r="16" spans="1:46" x14ac:dyDescent="0.4">
-      <c r="A16" s="62"/>
-      <c r="B16" s="71"/>
-      <c r="C16" s="61"/>
+      <c r="A16" s="67"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="66"/>
       <c r="D16" s="40" t="s">
         <v>45</v>
       </c>
@@ -6760,27 +7218,27 @@
       <c r="T16" s="20"/>
       <c r="U16" s="20"/>
       <c r="V16" s="20"/>
-      <c r="W16" s="73"/>
+      <c r="W16" s="78"/>
       <c r="X16" s="20"/>
       <c r="Y16" s="20"/>
       <c r="Z16" s="20"/>
       <c r="AA16" s="20"/>
       <c r="AB16" s="20"/>
       <c r="AC16" s="20"/>
-      <c r="AD16" s="76"/>
+      <c r="AD16" s="81"/>
       <c r="AE16" s="19"/>
       <c r="AF16" s="19"/>
       <c r="AG16" s="19"/>
       <c r="AH16" s="19"/>
       <c r="AI16" s="19"/>
       <c r="AJ16" s="19"/>
-      <c r="AK16" s="69"/>
+      <c r="AK16" s="74"/>
       <c r="AL16" s="19"/>
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A17" s="62"/>
-      <c r="B17" s="71"/>
-      <c r="C17" s="61"/>
+      <c r="A17" s="67"/>
+      <c r="B17" s="76"/>
+      <c r="C17" s="66"/>
       <c r="D17" s="2" t="s">
         <v>23</v>
       </c>
@@ -6804,30 +7262,30 @@
       <c r="T17" s="20"/>
       <c r="U17" s="20"/>
       <c r="V17" s="20"/>
-      <c r="W17" s="73"/>
+      <c r="W17" s="78"/>
       <c r="X17" s="20"/>
       <c r="Y17" s="20"/>
       <c r="Z17" s="20"/>
       <c r="AA17" s="20"/>
       <c r="AB17" s="20"/>
       <c r="AC17" s="20"/>
-      <c r="AD17" s="76"/>
+      <c r="AD17" s="81"/>
       <c r="AE17" s="19"/>
       <c r="AF17" s="19"/>
       <c r="AG17" s="19"/>
       <c r="AH17" s="19"/>
       <c r="AI17" s="19"/>
       <c r="AJ17" s="19"/>
-      <c r="AK17" s="69"/>
+      <c r="AK17" s="74"/>
       <c r="AL17" s="19"/>
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A18" s="62"/>
-      <c r="B18" s="71"/>
-      <c r="C18" s="61" t="s">
+      <c r="A18" s="67"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="61" t="s">
+      <c r="D18" s="66" t="s">
         <v>95</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -6860,28 +7318,28 @@
       <c r="T18" s="20"/>
       <c r="U18" s="20"/>
       <c r="V18" s="20"/>
-      <c r="W18" s="73"/>
+      <c r="W18" s="78"/>
       <c r="X18" s="20"/>
       <c r="Y18" s="20"/>
       <c r="Z18" s="20"/>
       <c r="AA18" s="20"/>
       <c r="AB18" s="20"/>
       <c r="AC18" s="20"/>
-      <c r="AD18" s="76"/>
+      <c r="AD18" s="81"/>
       <c r="AE18" s="19"/>
       <c r="AF18" s="19"/>
       <c r="AG18" s="19"/>
       <c r="AH18" s="19"/>
       <c r="AI18" s="19"/>
       <c r="AJ18" s="19"/>
-      <c r="AK18" s="69"/>
+      <c r="AK18" s="74"/>
       <c r="AL18" s="19"/>
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A19" s="62"/>
-      <c r="B19" s="71"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
+      <c r="A19" s="67"/>
+      <c r="B19" s="76"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
       <c r="E19" s="2" t="s">
         <v>138</v>
       </c>
@@ -6912,28 +7370,28 @@
       <c r="T19" s="20"/>
       <c r="U19" s="20"/>
       <c r="V19" s="20"/>
-      <c r="W19" s="73"/>
+      <c r="W19" s="78"/>
       <c r="X19" s="20"/>
       <c r="Y19" s="20"/>
       <c r="Z19" s="20"/>
       <c r="AA19" s="20"/>
       <c r="AB19" s="20"/>
       <c r="AC19" s="20"/>
-      <c r="AD19" s="76"/>
+      <c r="AD19" s="81"/>
       <c r="AE19" s="19"/>
       <c r="AF19" s="19"/>
       <c r="AG19" s="19"/>
       <c r="AH19" s="19"/>
       <c r="AI19" s="19"/>
       <c r="AJ19" s="19"/>
-      <c r="AK19" s="69"/>
+      <c r="AK19" s="74"/>
       <c r="AL19" s="19"/>
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A20" s="62"/>
-      <c r="B20" s="71"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
+      <c r="A20" s="67"/>
+      <c r="B20" s="76"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
       <c r="E20" s="2" t="s">
         <v>112</v>
       </c>
@@ -6964,28 +7422,28 @@
       <c r="T20" s="20"/>
       <c r="U20" s="20"/>
       <c r="V20" s="20"/>
-      <c r="W20" s="73"/>
+      <c r="W20" s="78"/>
       <c r="X20" s="20"/>
       <c r="Y20" s="20"/>
       <c r="Z20" s="20"/>
       <c r="AA20" s="20"/>
       <c r="AB20" s="20"/>
       <c r="AC20" s="20"/>
-      <c r="AD20" s="76"/>
+      <c r="AD20" s="81"/>
       <c r="AE20" s="19"/>
       <c r="AF20" s="19"/>
       <c r="AG20" s="19"/>
       <c r="AH20" s="19"/>
       <c r="AI20" s="19"/>
       <c r="AJ20" s="19"/>
-      <c r="AK20" s="69"/>
+      <c r="AK20" s="74"/>
       <c r="AL20" s="19"/>
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A21" s="62"/>
-      <c r="B21" s="71"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="61"/>
+      <c r="A21" s="67"/>
+      <c r="B21" s="76"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
       <c r="E21" s="2" t="s">
         <v>108</v>
       </c>
@@ -7016,28 +7474,28 @@
       <c r="T21" s="20"/>
       <c r="U21" s="20"/>
       <c r="V21" s="20"/>
-      <c r="W21" s="73"/>
+      <c r="W21" s="78"/>
       <c r="X21" s="20"/>
       <c r="Y21" s="20"/>
       <c r="Z21" s="20"/>
       <c r="AA21" s="20"/>
       <c r="AB21" s="20"/>
       <c r="AC21" s="20"/>
-      <c r="AD21" s="76"/>
+      <c r="AD21" s="81"/>
       <c r="AE21" s="19"/>
       <c r="AF21" s="19"/>
       <c r="AG21" s="19"/>
       <c r="AH21" s="19"/>
       <c r="AI21" s="19"/>
       <c r="AJ21" s="19"/>
-      <c r="AK21" s="69"/>
+      <c r="AK21" s="74"/>
       <c r="AL21" s="19"/>
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A22" s="62"/>
-      <c r="B22" s="71"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="61"/>
+      <c r="A22" s="67"/>
+      <c r="B22" s="76"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="66"/>
       <c r="E22" s="2" t="s">
         <v>135</v>
       </c>
@@ -7068,28 +7526,28 @@
       <c r="T22" s="20"/>
       <c r="U22" s="20"/>
       <c r="V22" s="20"/>
-      <c r="W22" s="73"/>
+      <c r="W22" s="78"/>
       <c r="X22" s="20"/>
       <c r="Y22" s="20"/>
       <c r="Z22" s="20"/>
       <c r="AA22" s="20"/>
       <c r="AB22" s="20"/>
       <c r="AC22" s="20"/>
-      <c r="AD22" s="76"/>
+      <c r="AD22" s="81"/>
       <c r="AE22" s="19"/>
       <c r="AF22" s="19"/>
       <c r="AG22" s="19"/>
       <c r="AH22" s="19"/>
       <c r="AI22" s="19"/>
       <c r="AJ22" s="19"/>
-      <c r="AK22" s="69"/>
+      <c r="AK22" s="74"/>
       <c r="AL22" s="19"/>
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A23" s="62"/>
-      <c r="B23" s="71"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
+      <c r="A23" s="67"/>
+      <c r="B23" s="76"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
       <c r="E23" s="2" t="s">
         <v>118</v>
       </c>
@@ -7120,28 +7578,28 @@
       <c r="T23" s="20"/>
       <c r="U23" s="20"/>
       <c r="V23" s="20"/>
-      <c r="W23" s="73"/>
+      <c r="W23" s="78"/>
       <c r="X23" s="20"/>
       <c r="Y23" s="20"/>
       <c r="Z23" s="20"/>
       <c r="AA23" s="20"/>
       <c r="AB23" s="20"/>
       <c r="AC23" s="20"/>
-      <c r="AD23" s="76"/>
+      <c r="AD23" s="81"/>
       <c r="AE23" s="19"/>
       <c r="AF23" s="19"/>
       <c r="AG23" s="19"/>
       <c r="AH23" s="19"/>
       <c r="AI23" s="19"/>
       <c r="AJ23" s="19"/>
-      <c r="AK23" s="69"/>
+      <c r="AK23" s="74"/>
       <c r="AL23" s="19"/>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A24" s="62"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="61"/>
+      <c r="A24" s="67"/>
+      <c r="B24" s="76"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
       <c r="E24" s="2" t="s">
         <v>109</v>
       </c>
@@ -7172,28 +7630,28 @@
       <c r="T24" s="20"/>
       <c r="U24" s="20"/>
       <c r="V24" s="20"/>
-      <c r="W24" s="73"/>
+      <c r="W24" s="78"/>
       <c r="X24" s="20"/>
       <c r="Y24" s="20"/>
       <c r="Z24" s="20"/>
       <c r="AA24" s="20"/>
       <c r="AB24" s="20"/>
       <c r="AC24" s="20"/>
-      <c r="AD24" s="76"/>
+      <c r="AD24" s="81"/>
       <c r="AE24" s="19"/>
       <c r="AF24" s="19"/>
       <c r="AG24" s="19"/>
       <c r="AH24" s="19"/>
       <c r="AI24" s="19"/>
       <c r="AJ24" s="19"/>
-      <c r="AK24" s="69"/>
+      <c r="AK24" s="74"/>
       <c r="AL24" s="19"/>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A25" s="62"/>
-      <c r="B25" s="71"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
+      <c r="A25" s="67"/>
+      <c r="B25" s="76"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="66"/>
       <c r="E25" s="2" t="s">
         <v>167</v>
       </c>
@@ -7224,28 +7682,28 @@
       <c r="T25" s="50"/>
       <c r="U25" s="50"/>
       <c r="V25" s="50"/>
-      <c r="W25" s="73"/>
+      <c r="W25" s="78"/>
       <c r="X25" s="50"/>
       <c r="Y25" s="50"/>
       <c r="Z25" s="50"/>
       <c r="AA25" s="50"/>
       <c r="AB25" s="50"/>
       <c r="AC25" s="50"/>
-      <c r="AD25" s="76"/>
+      <c r="AD25" s="81"/>
       <c r="AE25" s="51"/>
       <c r="AF25" s="51"/>
       <c r="AG25" s="51"/>
       <c r="AH25" s="51"/>
       <c r="AI25" s="51"/>
       <c r="AJ25" s="51"/>
-      <c r="AK25" s="69"/>
+      <c r="AK25" s="74"/>
       <c r="AL25" s="51"/>
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A26" s="62"/>
-      <c r="B26" s="71"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="61"/>
+      <c r="A26" s="67"/>
+      <c r="B26" s="76"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="66"/>
       <c r="E26" s="2" t="s">
         <v>106</v>
       </c>
@@ -7276,28 +7734,28 @@
       <c r="T26" s="20"/>
       <c r="U26" s="20"/>
       <c r="V26" s="20"/>
-      <c r="W26" s="73"/>
+      <c r="W26" s="78"/>
       <c r="X26" s="20"/>
       <c r="Y26" s="20"/>
       <c r="Z26" s="20"/>
       <c r="AA26" s="20"/>
       <c r="AB26" s="20"/>
       <c r="AC26" s="20"/>
-      <c r="AD26" s="76"/>
+      <c r="AD26" s="81"/>
       <c r="AE26" s="19"/>
       <c r="AF26" s="19"/>
       <c r="AG26" s="19"/>
       <c r="AH26" s="19"/>
       <c r="AI26" s="19"/>
       <c r="AJ26" s="19"/>
-      <c r="AK26" s="69"/>
+      <c r="AK26" s="74"/>
       <c r="AL26" s="19"/>
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A27" s="62"/>
-      <c r="B27" s="71"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
+      <c r="A27" s="67"/>
+      <c r="B27" s="76"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="66"/>
       <c r="E27" s="2" t="s">
         <v>102</v>
       </c>
@@ -7328,28 +7786,28 @@
       <c r="T27" s="20"/>
       <c r="U27" s="20"/>
       <c r="V27" s="20"/>
-      <c r="W27" s="73"/>
+      <c r="W27" s="78"/>
       <c r="X27" s="20"/>
       <c r="Y27" s="20"/>
       <c r="Z27" s="20"/>
       <c r="AA27" s="20"/>
       <c r="AB27" s="20"/>
       <c r="AC27" s="20"/>
-      <c r="AD27" s="76"/>
+      <c r="AD27" s="81"/>
       <c r="AE27" s="19"/>
       <c r="AF27" s="19"/>
       <c r="AG27" s="19"/>
       <c r="AH27" s="19"/>
       <c r="AI27" s="19"/>
       <c r="AJ27" s="19"/>
-      <c r="AK27" s="69"/>
+      <c r="AK27" s="74"/>
       <c r="AL27" s="19"/>
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A28" s="62"/>
-      <c r="B28" s="71"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61" t="s">
+      <c r="A28" s="67"/>
+      <c r="B28" s="76"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="66" t="s">
         <v>25</v>
       </c>
       <c r="E28" s="2" t="s">
@@ -7382,28 +7840,28 @@
       <c r="T28" s="20"/>
       <c r="U28" s="20"/>
       <c r="V28" s="20"/>
-      <c r="W28" s="73"/>
+      <c r="W28" s="78"/>
       <c r="X28" s="20"/>
       <c r="Y28" s="20"/>
       <c r="Z28" s="20"/>
       <c r="AA28" s="20"/>
       <c r="AB28" s="20"/>
       <c r="AC28" s="20"/>
-      <c r="AD28" s="76"/>
+      <c r="AD28" s="81"/>
       <c r="AE28" s="19"/>
       <c r="AF28" s="19"/>
       <c r="AG28" s="19"/>
       <c r="AH28" s="19"/>
       <c r="AI28" s="19"/>
       <c r="AJ28" s="19"/>
-      <c r="AK28" s="69"/>
+      <c r="AK28" s="74"/>
       <c r="AL28" s="19"/>
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A29" s="62"/>
-      <c r="B29" s="71"/>
-      <c r="C29" s="61"/>
-      <c r="D29" s="61"/>
+      <c r="A29" s="67"/>
+      <c r="B29" s="76"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="66"/>
       <c r="E29" s="2" t="s">
         <v>119</v>
       </c>
@@ -7434,28 +7892,28 @@
       <c r="T29" s="20"/>
       <c r="U29" s="20"/>
       <c r="V29" s="20"/>
-      <c r="W29" s="73"/>
+      <c r="W29" s="78"/>
       <c r="X29" s="20"/>
       <c r="Y29" s="20"/>
       <c r="Z29" s="20"/>
       <c r="AA29" s="20"/>
       <c r="AB29" s="20"/>
       <c r="AC29" s="20"/>
-      <c r="AD29" s="76"/>
+      <c r="AD29" s="81"/>
       <c r="AE29" s="19"/>
       <c r="AF29" s="19"/>
       <c r="AG29" s="19"/>
       <c r="AH29" s="19"/>
       <c r="AI29" s="19"/>
       <c r="AJ29" s="19"/>
-      <c r="AK29" s="69"/>
+      <c r="AK29" s="74"/>
       <c r="AL29" s="19"/>
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A30" s="62"/>
-      <c r="B30" s="71"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61" t="s">
+      <c r="A30" s="67"/>
+      <c r="B30" s="76"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="66" t="s">
         <v>13</v>
       </c>
       <c r="E30" s="2" t="s">
@@ -7486,28 +7944,28 @@
       <c r="T30" s="20"/>
       <c r="U30" s="20"/>
       <c r="V30" s="20"/>
-      <c r="W30" s="73"/>
+      <c r="W30" s="78"/>
       <c r="X30" s="20"/>
       <c r="Y30" s="20"/>
       <c r="Z30" s="20"/>
       <c r="AA30" s="20"/>
       <c r="AB30" s="20"/>
       <c r="AC30" s="20"/>
-      <c r="AD30" s="76"/>
+      <c r="AD30" s="81"/>
       <c r="AE30" s="19"/>
       <c r="AF30" s="19"/>
       <c r="AG30" s="19"/>
       <c r="AH30" s="19"/>
       <c r="AI30" s="19"/>
       <c r="AJ30" s="19"/>
-      <c r="AK30" s="69"/>
+      <c r="AK30" s="74"/>
       <c r="AL30" s="19"/>
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A31" s="62"/>
-      <c r="B31" s="71"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
+      <c r="A31" s="67"/>
+      <c r="B31" s="76"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="66"/>
       <c r="E31" s="2" t="s">
         <v>143</v>
       </c>
@@ -7530,28 +7988,28 @@
       <c r="T31" s="20"/>
       <c r="U31" s="20"/>
       <c r="V31" s="20"/>
-      <c r="W31" s="73"/>
+      <c r="W31" s="78"/>
       <c r="X31" s="20"/>
       <c r="Y31" s="20"/>
       <c r="Z31" s="20"/>
       <c r="AA31" s="20"/>
       <c r="AB31" s="20"/>
       <c r="AC31" s="20"/>
-      <c r="AD31" s="76"/>
+      <c r="AD31" s="81"/>
       <c r="AE31" s="19"/>
       <c r="AF31" s="19"/>
       <c r="AG31" s="19"/>
       <c r="AH31" s="19"/>
       <c r="AI31" s="19"/>
       <c r="AJ31" s="19"/>
-      <c r="AK31" s="69"/>
+      <c r="AK31" s="74"/>
       <c r="AL31" s="19"/>
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A32" s="62"/>
-      <c r="B32" s="71"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="61"/>
+      <c r="A32" s="67"/>
+      <c r="B32" s="76"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="66"/>
       <c r="E32" s="2" t="s">
         <v>113</v>
       </c>
@@ -7582,28 +8040,28 @@
       <c r="T32" s="20"/>
       <c r="U32" s="20"/>
       <c r="V32" s="20"/>
-      <c r="W32" s="73"/>
+      <c r="W32" s="78"/>
       <c r="X32" s="20"/>
       <c r="Y32" s="20"/>
       <c r="Z32" s="20"/>
       <c r="AA32" s="20"/>
       <c r="AB32" s="20"/>
       <c r="AC32" s="20"/>
-      <c r="AD32" s="76"/>
+      <c r="AD32" s="81"/>
       <c r="AE32" s="19"/>
       <c r="AF32" s="19"/>
       <c r="AG32" s="19"/>
       <c r="AH32" s="19"/>
       <c r="AI32" s="19"/>
       <c r="AJ32" s="19"/>
-      <c r="AK32" s="69"/>
+      <c r="AK32" s="74"/>
       <c r="AL32" s="19"/>
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A33" s="62"/>
-      <c r="B33" s="71"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="61" t="s">
+      <c r="A33" s="67"/>
+      <c r="B33" s="76"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="66" t="s">
         <v>90</v>
       </c>
       <c r="E33" s="2" t="s">
@@ -7636,28 +8094,28 @@
       <c r="T33" s="20"/>
       <c r="U33" s="20"/>
       <c r="V33" s="20"/>
-      <c r="W33" s="73"/>
+      <c r="W33" s="78"/>
       <c r="X33" s="20"/>
       <c r="Y33" s="20"/>
       <c r="Z33" s="20"/>
       <c r="AA33" s="20"/>
       <c r="AB33" s="20"/>
       <c r="AC33" s="20"/>
-      <c r="AD33" s="76"/>
+      <c r="AD33" s="81"/>
       <c r="AE33" s="19"/>
       <c r="AF33" s="19"/>
       <c r="AG33" s="19"/>
       <c r="AH33" s="19"/>
       <c r="AI33" s="19"/>
       <c r="AJ33" s="19"/>
-      <c r="AK33" s="69"/>
+      <c r="AK33" s="74"/>
       <c r="AL33" s="19"/>
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A34" s="62"/>
-      <c r="B34" s="71"/>
-      <c r="C34" s="61"/>
-      <c r="D34" s="61"/>
+      <c r="A34" s="67"/>
+      <c r="B34" s="76"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="66"/>
       <c r="E34" s="2" t="s">
         <v>141</v>
       </c>
@@ -7688,28 +8146,28 @@
       <c r="T34" s="20"/>
       <c r="U34" s="20"/>
       <c r="V34" s="20"/>
-      <c r="W34" s="73"/>
+      <c r="W34" s="78"/>
       <c r="X34" s="20"/>
       <c r="Y34" s="20"/>
       <c r="Z34" s="20"/>
       <c r="AA34" s="20"/>
       <c r="AB34" s="20"/>
       <c r="AC34" s="20"/>
-      <c r="AD34" s="76"/>
+      <c r="AD34" s="81"/>
       <c r="AE34" s="19"/>
       <c r="AF34" s="19"/>
       <c r="AG34" s="19"/>
       <c r="AH34" s="19"/>
       <c r="AI34" s="19"/>
       <c r="AJ34" s="19"/>
-      <c r="AK34" s="69"/>
+      <c r="AK34" s="74"/>
       <c r="AL34" s="19"/>
     </row>
     <row r="35" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A35" s="62"/>
-      <c r="B35" s="71"/>
-      <c r="C35" s="61"/>
-      <c r="D35" s="61"/>
+      <c r="A35" s="67"/>
+      <c r="B35" s="76"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="66"/>
       <c r="E35" s="2" t="s">
         <v>103</v>
       </c>
@@ -7740,27 +8198,27 @@
       <c r="T35" s="20"/>
       <c r="U35" s="20"/>
       <c r="V35" s="20"/>
-      <c r="W35" s="73"/>
+      <c r="W35" s="78"/>
       <c r="X35" s="20"/>
       <c r="Y35" s="20"/>
       <c r="Z35" s="20"/>
       <c r="AA35" s="20"/>
       <c r="AB35" s="20"/>
       <c r="AC35" s="20"/>
-      <c r="AD35" s="76"/>
+      <c r="AD35" s="81"/>
       <c r="AE35" s="19"/>
       <c r="AF35" s="19"/>
       <c r="AG35" s="19"/>
       <c r="AH35" s="19"/>
       <c r="AI35" s="19"/>
       <c r="AJ35" s="19"/>
-      <c r="AK35" s="69"/>
+      <c r="AK35" s="74"/>
       <c r="AL35" s="19"/>
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A36" s="62"/>
-      <c r="B36" s="71"/>
-      <c r="C36" s="61"/>
+      <c r="A36" s="67"/>
+      <c r="B36" s="76"/>
+      <c r="C36" s="66"/>
       <c r="D36" s="2" t="s">
         <v>24</v>
       </c>
@@ -7786,27 +8244,27 @@
       <c r="T36" s="20"/>
       <c r="U36" s="20"/>
       <c r="V36" s="20"/>
-      <c r="W36" s="73"/>
+      <c r="W36" s="78"/>
       <c r="X36" s="20"/>
       <c r="Y36" s="20"/>
       <c r="Z36" s="20"/>
       <c r="AA36" s="20"/>
       <c r="AB36" s="20"/>
       <c r="AC36" s="20"/>
-      <c r="AD36" s="76"/>
+      <c r="AD36" s="81"/>
       <c r="AE36" s="19"/>
       <c r="AF36" s="19"/>
       <c r="AG36" s="19"/>
       <c r="AH36" s="19"/>
       <c r="AI36" s="19"/>
       <c r="AJ36" s="19"/>
-      <c r="AK36" s="69"/>
+      <c r="AK36" s="74"/>
       <c r="AL36" s="19"/>
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A37" s="62"/>
-      <c r="B37" s="71"/>
-      <c r="C37" s="61"/>
+      <c r="A37" s="67"/>
+      <c r="B37" s="76"/>
+      <c r="C37" s="66"/>
       <c r="D37" s="2" t="s">
         <v>144</v>
       </c>
@@ -7840,27 +8298,27 @@
       <c r="T37" s="20"/>
       <c r="U37" s="20"/>
       <c r="V37" s="20"/>
-      <c r="W37" s="73"/>
+      <c r="W37" s="78"/>
       <c r="X37" s="20"/>
       <c r="Y37" s="20"/>
       <c r="Z37" s="20"/>
       <c r="AA37" s="20"/>
       <c r="AB37" s="20"/>
       <c r="AC37" s="20"/>
-      <c r="AD37" s="76"/>
+      <c r="AD37" s="81"/>
       <c r="AE37" s="19"/>
       <c r="AF37" s="19"/>
       <c r="AG37" s="19"/>
       <c r="AH37" s="19"/>
       <c r="AI37" s="19"/>
       <c r="AJ37" s="19"/>
-      <c r="AK37" s="69"/>
+      <c r="AK37" s="74"/>
       <c r="AL37" s="19"/>
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A38" s="62"/>
-      <c r="B38" s="71"/>
-      <c r="C38" s="61"/>
+      <c r="A38" s="67"/>
+      <c r="B38" s="76"/>
+      <c r="C38" s="66"/>
       <c r="D38" s="2" t="s">
         <v>94</v>
       </c>
@@ -7884,27 +8342,27 @@
       <c r="T38" s="20"/>
       <c r="U38" s="20"/>
       <c r="V38" s="20"/>
-      <c r="W38" s="73"/>
+      <c r="W38" s="78"/>
       <c r="X38" s="20"/>
       <c r="Y38" s="20"/>
       <c r="Z38" s="20"/>
       <c r="AA38" s="20"/>
       <c r="AB38" s="20"/>
       <c r="AC38" s="20"/>
-      <c r="AD38" s="76"/>
+      <c r="AD38" s="81"/>
       <c r="AE38" s="19"/>
       <c r="AF38" s="19"/>
       <c r="AG38" s="19"/>
       <c r="AH38" s="19"/>
       <c r="AI38" s="19"/>
       <c r="AJ38" s="19"/>
-      <c r="AK38" s="69"/>
+      <c r="AK38" s="74"/>
       <c r="AL38" s="19"/>
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A39" s="62"/>
-      <c r="B39" s="71"/>
-      <c r="C39" s="61"/>
+      <c r="A39" s="67"/>
+      <c r="B39" s="76"/>
+      <c r="C39" s="66"/>
       <c r="D39" s="2" t="s">
         <v>23</v>
       </c>
@@ -7928,27 +8386,27 @@
       <c r="T39" s="20"/>
       <c r="U39" s="20"/>
       <c r="V39" s="20"/>
-      <c r="W39" s="73"/>
+      <c r="W39" s="78"/>
       <c r="X39" s="20"/>
       <c r="Y39" s="20"/>
       <c r="Z39" s="20"/>
       <c r="AA39" s="20"/>
       <c r="AB39" s="20"/>
       <c r="AC39" s="20"/>
-      <c r="AD39" s="76"/>
+      <c r="AD39" s="81"/>
       <c r="AE39" s="19"/>
       <c r="AF39" s="19"/>
       <c r="AG39" s="19"/>
       <c r="AH39" s="19"/>
       <c r="AI39" s="19"/>
       <c r="AJ39" s="19"/>
-      <c r="AK39" s="69"/>
+      <c r="AK39" s="74"/>
       <c r="AL39" s="19"/>
     </row>
     <row r="40" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A40" s="62"/>
-      <c r="B40" s="71"/>
-      <c r="C40" s="61"/>
+      <c r="A40" s="67"/>
+      <c r="B40" s="76"/>
+      <c r="C40" s="66"/>
       <c r="D40" s="39" t="s">
         <v>27</v>
       </c>
@@ -7972,27 +8430,27 @@
       <c r="T40" s="20"/>
       <c r="U40" s="20"/>
       <c r="V40" s="20"/>
-      <c r="W40" s="73"/>
+      <c r="W40" s="78"/>
       <c r="X40" s="20"/>
       <c r="Y40" s="20"/>
       <c r="Z40" s="20"/>
       <c r="AA40" s="20"/>
       <c r="AB40" s="20"/>
       <c r="AC40" s="20"/>
-      <c r="AD40" s="76"/>
+      <c r="AD40" s="81"/>
       <c r="AE40" s="19"/>
       <c r="AF40" s="19"/>
       <c r="AG40" s="19"/>
       <c r="AH40" s="19"/>
       <c r="AI40" s="19"/>
       <c r="AJ40" s="19"/>
-      <c r="AK40" s="69"/>
+      <c r="AK40" s="74"/>
       <c r="AL40" s="19"/>
     </row>
     <row r="41" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A41" s="62"/>
-      <c r="B41" s="71"/>
-      <c r="C41" s="61"/>
+      <c r="A41" s="67"/>
+      <c r="B41" s="76"/>
+      <c r="C41" s="66"/>
       <c r="D41" s="38" t="s">
         <v>45</v>
       </c>
@@ -8016,27 +8474,27 @@
       <c r="T41" s="20"/>
       <c r="U41" s="20"/>
       <c r="V41" s="20"/>
-      <c r="W41" s="73"/>
+      <c r="W41" s="78"/>
       <c r="X41" s="20"/>
       <c r="Y41" s="20"/>
       <c r="Z41" s="20"/>
       <c r="AA41" s="20"/>
       <c r="AB41" s="20"/>
       <c r="AC41" s="20"/>
-      <c r="AD41" s="76"/>
+      <c r="AD41" s="81"/>
       <c r="AE41" s="19"/>
       <c r="AF41" s="19"/>
       <c r="AG41" s="19"/>
       <c r="AH41" s="19"/>
       <c r="AI41" s="19"/>
       <c r="AJ41" s="19"/>
-      <c r="AK41" s="69"/>
+      <c r="AK41" s="74"/>
       <c r="AL41" s="19"/>
     </row>
     <row r="42" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A42" s="62"/>
-      <c r="B42" s="71"/>
-      <c r="C42" s="61"/>
+      <c r="A42" s="67"/>
+      <c r="B42" s="76"/>
+      <c r="C42" s="66"/>
       <c r="D42" s="2" t="s">
         <v>26</v>
       </c>
@@ -8060,27 +8518,27 @@
       <c r="T42" s="20"/>
       <c r="U42" s="20"/>
       <c r="V42" s="20"/>
-      <c r="W42" s="73"/>
+      <c r="W42" s="78"/>
       <c r="X42" s="20"/>
       <c r="Y42" s="20"/>
       <c r="Z42" s="20"/>
       <c r="AA42" s="20"/>
       <c r="AB42" s="20"/>
       <c r="AC42" s="20"/>
-      <c r="AD42" s="76"/>
+      <c r="AD42" s="81"/>
       <c r="AE42" s="19"/>
       <c r="AF42" s="19"/>
       <c r="AG42" s="19"/>
       <c r="AH42" s="19"/>
       <c r="AI42" s="19"/>
       <c r="AJ42" s="19"/>
-      <c r="AK42" s="69"/>
+      <c r="AK42" s="74"/>
       <c r="AL42" s="19"/>
     </row>
     <row r="43" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A43" s="62"/>
-      <c r="B43" s="71"/>
-      <c r="C43" s="61" t="s">
+      <c r="A43" s="67"/>
+      <c r="B43" s="76"/>
+      <c r="C43" s="66" t="s">
         <v>42</v>
       </c>
       <c r="D43" s="40" t="s">
@@ -8106,27 +8564,27 @@
       <c r="T43" s="20"/>
       <c r="U43" s="20"/>
       <c r="V43" s="20"/>
-      <c r="W43" s="73"/>
+      <c r="W43" s="78"/>
       <c r="X43" s="20"/>
       <c r="Y43" s="20"/>
       <c r="Z43" s="20"/>
       <c r="AA43" s="20"/>
       <c r="AB43" s="20"/>
       <c r="AC43" s="20"/>
-      <c r="AD43" s="76"/>
+      <c r="AD43" s="81"/>
       <c r="AE43" s="19"/>
       <c r="AF43" s="19"/>
       <c r="AG43" s="19"/>
       <c r="AH43" s="19"/>
       <c r="AI43" s="19"/>
       <c r="AJ43" s="19"/>
-      <c r="AK43" s="69"/>
+      <c r="AK43" s="74"/>
       <c r="AL43" s="19"/>
     </row>
     <row r="44" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A44" s="62"/>
-      <c r="B44" s="71"/>
-      <c r="C44" s="61"/>
+      <c r="A44" s="67"/>
+      <c r="B44" s="76"/>
+      <c r="C44" s="66"/>
       <c r="D44" s="2" t="s">
         <v>26</v>
       </c>
@@ -8150,27 +8608,27 @@
       <c r="T44" s="20"/>
       <c r="U44" s="20"/>
       <c r="V44" s="20"/>
-      <c r="W44" s="73"/>
+      <c r="W44" s="78"/>
       <c r="X44" s="20"/>
       <c r="Y44" s="20"/>
       <c r="Z44" s="20"/>
       <c r="AA44" s="20"/>
       <c r="AB44" s="20"/>
       <c r="AC44" s="20"/>
-      <c r="AD44" s="76"/>
+      <c r="AD44" s="81"/>
       <c r="AE44" s="19"/>
       <c r="AF44" s="19"/>
       <c r="AG44" s="19"/>
       <c r="AH44" s="19"/>
       <c r="AI44" s="19"/>
       <c r="AJ44" s="19"/>
-      <c r="AK44" s="69"/>
+      <c r="AK44" s="74"/>
       <c r="AL44" s="19"/>
     </row>
     <row r="45" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A45" s="62"/>
-      <c r="B45" s="71"/>
-      <c r="C45" s="61" t="s">
+      <c r="A45" s="67"/>
+      <c r="B45" s="76"/>
+      <c r="C45" s="66" t="s">
         <v>43</v>
       </c>
       <c r="D45" s="38" t="s">
@@ -8196,27 +8654,27 @@
       <c r="T45" s="20"/>
       <c r="U45" s="20"/>
       <c r="V45" s="20"/>
-      <c r="W45" s="73"/>
+      <c r="W45" s="78"/>
       <c r="X45" s="20"/>
       <c r="Y45" s="20"/>
       <c r="Z45" s="20"/>
       <c r="AA45" s="20"/>
       <c r="AB45" s="20"/>
       <c r="AC45" s="20"/>
-      <c r="AD45" s="76"/>
+      <c r="AD45" s="81"/>
       <c r="AE45" s="19"/>
       <c r="AF45" s="19"/>
       <c r="AG45" s="19"/>
       <c r="AH45" s="19"/>
       <c r="AI45" s="19"/>
       <c r="AJ45" s="19"/>
-      <c r="AK45" s="69"/>
+      <c r="AK45" s="74"/>
       <c r="AL45" s="19"/>
     </row>
     <row r="46" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A46" s="62"/>
-      <c r="B46" s="71"/>
-      <c r="C46" s="61"/>
+      <c r="A46" s="67"/>
+      <c r="B46" s="76"/>
+      <c r="C46" s="66"/>
       <c r="D46" s="2" t="s">
         <v>26</v>
       </c>
@@ -8240,27 +8698,27 @@
       <c r="T46" s="20"/>
       <c r="U46" s="20"/>
       <c r="V46" s="20"/>
-      <c r="W46" s="73"/>
+      <c r="W46" s="78"/>
       <c r="X46" s="20"/>
       <c r="Y46" s="20"/>
       <c r="Z46" s="20"/>
       <c r="AA46" s="20"/>
       <c r="AB46" s="20"/>
       <c r="AC46" s="20"/>
-      <c r="AD46" s="76"/>
+      <c r="AD46" s="81"/>
       <c r="AE46" s="19"/>
       <c r="AF46" s="19"/>
       <c r="AG46" s="19"/>
       <c r="AH46" s="19"/>
       <c r="AI46" s="19"/>
       <c r="AJ46" s="19"/>
-      <c r="AK46" s="69"/>
+      <c r="AK46" s="74"/>
       <c r="AL46" s="19"/>
     </row>
     <row r="47" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A47" s="62"/>
-      <c r="B47" s="71"/>
-      <c r="C47" s="61"/>
+      <c r="A47" s="67"/>
+      <c r="B47" s="76"/>
+      <c r="C47" s="66"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="20"/>
@@ -8282,27 +8740,27 @@
       <c r="T47" s="20"/>
       <c r="U47" s="20"/>
       <c r="V47" s="20"/>
-      <c r="W47" s="73"/>
+      <c r="W47" s="78"/>
       <c r="X47" s="20"/>
       <c r="Y47" s="20"/>
       <c r="Z47" s="20"/>
       <c r="AA47" s="20"/>
       <c r="AB47" s="20"/>
       <c r="AC47" s="20"/>
-      <c r="AD47" s="76"/>
+      <c r="AD47" s="81"/>
       <c r="AE47" s="19"/>
       <c r="AF47" s="19"/>
       <c r="AG47" s="19"/>
       <c r="AH47" s="19"/>
       <c r="AI47" s="19"/>
       <c r="AJ47" s="19"/>
-      <c r="AK47" s="69"/>
+      <c r="AK47" s="74"/>
       <c r="AL47" s="19"/>
     </row>
     <row r="48" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A48" s="62"/>
-      <c r="B48" s="71"/>
-      <c r="C48" s="61" t="s">
+      <c r="A48" s="67"/>
+      <c r="B48" s="76"/>
+      <c r="C48" s="66" t="s">
         <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
@@ -8328,27 +8786,27 @@
       <c r="T48" s="20"/>
       <c r="U48" s="20"/>
       <c r="V48" s="20"/>
-      <c r="W48" s="73"/>
+      <c r="W48" s="78"/>
       <c r="X48" s="20"/>
       <c r="Y48" s="20"/>
       <c r="Z48" s="20"/>
       <c r="AA48" s="20"/>
       <c r="AB48" s="20"/>
       <c r="AC48" s="20"/>
-      <c r="AD48" s="76"/>
+      <c r="AD48" s="81"/>
       <c r="AE48" s="19"/>
       <c r="AF48" s="19"/>
       <c r="AG48" s="19"/>
       <c r="AH48" s="19"/>
       <c r="AI48" s="19"/>
       <c r="AJ48" s="19"/>
-      <c r="AK48" s="69"/>
+      <c r="AK48" s="74"/>
       <c r="AL48" s="19"/>
     </row>
     <row r="49" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A49" s="62"/>
-      <c r="B49" s="71"/>
-      <c r="C49" s="61"/>
+      <c r="A49" s="67"/>
+      <c r="B49" s="76"/>
+      <c r="C49" s="66"/>
       <c r="D49" s="2" t="s">
         <v>36</v>
       </c>
@@ -8372,27 +8830,27 @@
       <c r="T49" s="20"/>
       <c r="U49" s="20"/>
       <c r="V49" s="20"/>
-      <c r="W49" s="73"/>
+      <c r="W49" s="78"/>
       <c r="X49" s="20"/>
       <c r="Y49" s="20"/>
       <c r="Z49" s="20"/>
       <c r="AA49" s="20"/>
       <c r="AB49" s="20"/>
       <c r="AC49" s="20"/>
-      <c r="AD49" s="76"/>
+      <c r="AD49" s="81"/>
       <c r="AE49" s="19"/>
       <c r="AF49" s="19"/>
       <c r="AG49" s="19"/>
       <c r="AH49" s="19"/>
       <c r="AI49" s="19"/>
       <c r="AJ49" s="19"/>
-      <c r="AK49" s="69"/>
+      <c r="AK49" s="74"/>
       <c r="AL49" s="19"/>
     </row>
     <row r="50" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A50" s="62"/>
-      <c r="B50" s="71"/>
-      <c r="C50" s="61"/>
+      <c r="A50" s="67"/>
+      <c r="B50" s="76"/>
+      <c r="C50" s="66"/>
       <c r="D50" s="2" t="s">
         <v>37</v>
       </c>
@@ -8416,27 +8874,27 @@
       <c r="T50" s="20"/>
       <c r="U50" s="20"/>
       <c r="V50" s="20"/>
-      <c r="W50" s="73"/>
+      <c r="W50" s="78"/>
       <c r="X50" s="20"/>
       <c r="Y50" s="20"/>
       <c r="Z50" s="20"/>
       <c r="AA50" s="20"/>
       <c r="AB50" s="20"/>
       <c r="AC50" s="20"/>
-      <c r="AD50" s="76"/>
+      <c r="AD50" s="81"/>
       <c r="AE50" s="19"/>
       <c r="AF50" s="19"/>
       <c r="AG50" s="19"/>
       <c r="AH50" s="19"/>
       <c r="AI50" s="19"/>
       <c r="AJ50" s="19"/>
-      <c r="AK50" s="69"/>
+      <c r="AK50" s="74"/>
       <c r="AL50" s="19"/>
     </row>
     <row r="51" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A51" s="62"/>
-      <c r="B51" s="71"/>
-      <c r="C51" s="61"/>
+      <c r="A51" s="67"/>
+      <c r="B51" s="76"/>
+      <c r="C51" s="66"/>
       <c r="D51" s="2" t="s">
         <v>38</v>
       </c>
@@ -8460,27 +8918,27 @@
       <c r="T51" s="20"/>
       <c r="U51" s="20"/>
       <c r="V51" s="20"/>
-      <c r="W51" s="73"/>
+      <c r="W51" s="78"/>
       <c r="X51" s="20"/>
       <c r="Y51" s="20"/>
       <c r="Z51" s="20"/>
       <c r="AA51" s="20"/>
       <c r="AB51" s="20"/>
       <c r="AC51" s="20"/>
-      <c r="AD51" s="76"/>
+      <c r="AD51" s="81"/>
       <c r="AE51" s="19"/>
       <c r="AF51" s="19"/>
       <c r="AG51" s="19"/>
       <c r="AH51" s="19"/>
       <c r="AI51" s="19"/>
       <c r="AJ51" s="19"/>
-      <c r="AK51" s="69"/>
+      <c r="AK51" s="74"/>
       <c r="AL51" s="19"/>
     </row>
     <row r="52" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A52" s="62"/>
-      <c r="B52" s="71"/>
-      <c r="C52" s="61"/>
+      <c r="A52" s="67"/>
+      <c r="B52" s="76"/>
+      <c r="C52" s="66"/>
       <c r="D52" s="2" t="s">
         <v>33</v>
       </c>
@@ -8504,27 +8962,27 @@
       <c r="T52" s="20"/>
       <c r="U52" s="20"/>
       <c r="V52" s="20"/>
-      <c r="W52" s="73"/>
+      <c r="W52" s="78"/>
       <c r="X52" s="20"/>
       <c r="Y52" s="20"/>
       <c r="Z52" s="20"/>
       <c r="AA52" s="20"/>
       <c r="AB52" s="20"/>
       <c r="AC52" s="20"/>
-      <c r="AD52" s="76"/>
+      <c r="AD52" s="81"/>
       <c r="AE52" s="19"/>
       <c r="AF52" s="19"/>
       <c r="AG52" s="19"/>
       <c r="AH52" s="19"/>
       <c r="AI52" s="19"/>
       <c r="AJ52" s="19"/>
-      <c r="AK52" s="69"/>
+      <c r="AK52" s="74"/>
       <c r="AL52" s="19"/>
     </row>
     <row r="53" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A53" s="62"/>
-      <c r="B53" s="71"/>
-      <c r="C53" s="61" t="s">
+      <c r="A53" s="67"/>
+      <c r="B53" s="76"/>
+      <c r="C53" s="66" t="s">
         <v>121</v>
       </c>
       <c r="D53" s="2" t="s">
@@ -8554,27 +9012,27 @@
       <c r="T53" s="20"/>
       <c r="U53" s="20"/>
       <c r="V53" s="20"/>
-      <c r="W53" s="73"/>
+      <c r="W53" s="78"/>
       <c r="X53" s="20"/>
       <c r="Y53" s="20"/>
       <c r="Z53" s="20"/>
       <c r="AA53" s="20"/>
       <c r="AB53" s="20"/>
       <c r="AC53" s="20"/>
-      <c r="AD53" s="76"/>
+      <c r="AD53" s="81"/>
       <c r="AE53" s="19"/>
       <c r="AF53" s="19"/>
       <c r="AG53" s="19"/>
       <c r="AH53" s="19"/>
       <c r="AI53" s="19"/>
       <c r="AJ53" s="19"/>
-      <c r="AK53" s="69"/>
+      <c r="AK53" s="74"/>
       <c r="AL53" s="19"/>
     </row>
     <row r="54" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A54" s="62"/>
-      <c r="B54" s="71"/>
-      <c r="C54" s="61"/>
+      <c r="A54" s="67"/>
+      <c r="B54" s="76"/>
+      <c r="C54" s="66"/>
       <c r="D54" s="2" t="s">
         <v>151</v>
       </c>
@@ -8602,26 +9060,26 @@
       <c r="T54" s="20"/>
       <c r="U54" s="20"/>
       <c r="V54" s="20"/>
-      <c r="W54" s="73"/>
+      <c r="W54" s="78"/>
       <c r="X54" s="20"/>
       <c r="Y54" s="20"/>
       <c r="Z54" s="20"/>
       <c r="AA54" s="20"/>
       <c r="AB54" s="20"/>
       <c r="AC54" s="20"/>
-      <c r="AD54" s="76"/>
+      <c r="AD54" s="81"/>
       <c r="AE54" s="19"/>
       <c r="AF54" s="19"/>
       <c r="AG54" s="19"/>
       <c r="AH54" s="19"/>
       <c r="AI54" s="19"/>
       <c r="AJ54" s="19"/>
-      <c r="AK54" s="69"/>
+      <c r="AK54" s="74"/>
       <c r="AL54" s="19"/>
     </row>
     <row r="55" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="62"/>
-      <c r="B55" s="71"/>
+      <c r="A55" s="67"/>
+      <c r="B55" s="76"/>
       <c r="C55" s="21" t="s">
         <v>71</v>
       </c>
@@ -8648,32 +9106,32 @@
       <c r="T55" s="21"/>
       <c r="U55" s="21"/>
       <c r="V55" s="21"/>
-      <c r="W55" s="73"/>
+      <c r="W55" s="78"/>
       <c r="X55" s="21"/>
       <c r="Y55" s="21"/>
       <c r="Z55" s="21"/>
       <c r="AA55" s="21"/>
       <c r="AB55" s="21"/>
       <c r="AC55" s="21"/>
-      <c r="AD55" s="76"/>
+      <c r="AD55" s="81"/>
       <c r="AE55" s="19"/>
       <c r="AF55" s="19"/>
       <c r="AG55" s="19"/>
       <c r="AH55" s="19"/>
       <c r="AI55" s="19"/>
       <c r="AJ55" s="19"/>
-      <c r="AK55" s="69"/>
+      <c r="AK55" s="74"/>
       <c r="AL55" s="19"/>
     </row>
     <row r="56" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A56" s="62"/>
-      <c r="B56" s="64" t="s">
+      <c r="A56" s="67"/>
+      <c r="B56" s="69" t="s">
         <v>120</v>
       </c>
-      <c r="C56" s="61" t="s">
+      <c r="C56" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="D56" s="61" t="s">
+      <c r="D56" s="66" t="s">
         <v>29</v>
       </c>
       <c r="E56" s="2" t="s">
@@ -8706,28 +9164,28 @@
       <c r="T56" s="20"/>
       <c r="U56" s="20"/>
       <c r="V56" s="20"/>
-      <c r="W56" s="73"/>
+      <c r="W56" s="78"/>
       <c r="X56" s="20"/>
       <c r="Y56" s="20"/>
       <c r="Z56" s="20"/>
       <c r="AA56" s="20"/>
       <c r="AB56" s="20"/>
       <c r="AC56" s="20"/>
-      <c r="AD56" s="76"/>
+      <c r="AD56" s="81"/>
       <c r="AE56" s="19"/>
       <c r="AF56" s="19"/>
       <c r="AG56" s="19"/>
       <c r="AH56" s="19"/>
       <c r="AI56" s="19"/>
       <c r="AJ56" s="19"/>
-      <c r="AK56" s="69"/>
+      <c r="AK56" s="74"/>
       <c r="AL56" s="19"/>
     </row>
     <row r="57" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A57" s="62"/>
-      <c r="B57" s="64"/>
-      <c r="C57" s="61"/>
-      <c r="D57" s="61"/>
+      <c r="A57" s="67"/>
+      <c r="B57" s="69"/>
+      <c r="C57" s="66"/>
+      <c r="D57" s="66"/>
       <c r="E57" s="2" t="s">
         <v>130</v>
       </c>
@@ -8758,30 +9216,30 @@
       <c r="T57" s="20"/>
       <c r="U57" s="20"/>
       <c r="V57" s="20"/>
-      <c r="W57" s="73"/>
+      <c r="W57" s="78"/>
       <c r="X57" s="20"/>
       <c r="Y57" s="20"/>
       <c r="Z57" s="20"/>
       <c r="AA57" s="20"/>
       <c r="AB57" s="20"/>
       <c r="AC57" s="20"/>
-      <c r="AD57" s="76"/>
+      <c r="AD57" s="81"/>
       <c r="AE57" s="19"/>
       <c r="AF57" s="19"/>
       <c r="AG57" s="19"/>
       <c r="AH57" s="19"/>
       <c r="AI57" s="19"/>
       <c r="AJ57" s="19"/>
-      <c r="AK57" s="69"/>
+      <c r="AK57" s="74"/>
       <c r="AL57" s="19"/>
     </row>
     <row r="58" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A58" s="62"/>
-      <c r="B58" s="64"/>
-      <c r="C58" s="61" t="s">
+      <c r="A58" s="67"/>
+      <c r="B58" s="69"/>
+      <c r="C58" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="D58" s="61" t="s">
+      <c r="D58" s="66" t="s">
         <v>95</v>
       </c>
       <c r="E58" s="2" t="s">
@@ -8814,28 +9272,28 @@
       <c r="T58" s="20"/>
       <c r="U58" s="20"/>
       <c r="V58" s="20"/>
-      <c r="W58" s="73"/>
+      <c r="W58" s="78"/>
       <c r="X58" s="20"/>
       <c r="Y58" s="20"/>
       <c r="Z58" s="20"/>
       <c r="AA58" s="20"/>
       <c r="AB58" s="20"/>
       <c r="AC58" s="20"/>
-      <c r="AD58" s="76"/>
+      <c r="AD58" s="81"/>
       <c r="AE58" s="19"/>
       <c r="AF58" s="19"/>
       <c r="AG58" s="19"/>
       <c r="AH58" s="19"/>
       <c r="AI58" s="19"/>
       <c r="AJ58" s="19"/>
-      <c r="AK58" s="69"/>
+      <c r="AK58" s="74"/>
       <c r="AL58" s="19"/>
     </row>
     <row r="59" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A59" s="62"/>
-      <c r="B59" s="64"/>
-      <c r="C59" s="61"/>
-      <c r="D59" s="61"/>
+      <c r="A59" s="67"/>
+      <c r="B59" s="69"/>
+      <c r="C59" s="66"/>
+      <c r="D59" s="66"/>
       <c r="E59" s="2" t="s">
         <v>146</v>
       </c>
@@ -8866,28 +9324,28 @@
       <c r="T59" s="20"/>
       <c r="U59" s="20"/>
       <c r="V59" s="20"/>
-      <c r="W59" s="73"/>
+      <c r="W59" s="78"/>
       <c r="X59" s="20"/>
       <c r="Y59" s="20"/>
       <c r="Z59" s="20"/>
       <c r="AA59" s="20"/>
       <c r="AB59" s="20"/>
       <c r="AC59" s="20"/>
-      <c r="AD59" s="76"/>
+      <c r="AD59" s="81"/>
       <c r="AE59" s="19"/>
       <c r="AF59" s="19"/>
       <c r="AG59" s="19"/>
       <c r="AH59" s="19"/>
       <c r="AI59" s="19"/>
       <c r="AJ59" s="19"/>
-      <c r="AK59" s="69"/>
+      <c r="AK59" s="74"/>
       <c r="AL59" s="19"/>
     </row>
     <row r="60" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A60" s="62"/>
-      <c r="B60" s="64"/>
-      <c r="C60" s="61"/>
-      <c r="D60" s="61"/>
+      <c r="A60" s="67"/>
+      <c r="B60" s="69"/>
+      <c r="C60" s="66"/>
+      <c r="D60" s="66"/>
       <c r="E60" s="2" t="s">
         <v>147</v>
       </c>
@@ -8918,28 +9376,28 @@
       <c r="T60" s="20"/>
       <c r="U60" s="20"/>
       <c r="V60" s="20"/>
-      <c r="W60" s="73"/>
+      <c r="W60" s="78"/>
       <c r="X60" s="20"/>
       <c r="Y60" s="20"/>
       <c r="Z60" s="20"/>
       <c r="AA60" s="20"/>
       <c r="AB60" s="20"/>
       <c r="AC60" s="20"/>
-      <c r="AD60" s="76"/>
+      <c r="AD60" s="81"/>
       <c r="AE60" s="19"/>
       <c r="AF60" s="19"/>
       <c r="AG60" s="19"/>
       <c r="AH60" s="19"/>
       <c r="AI60" s="19"/>
       <c r="AJ60" s="19"/>
-      <c r="AK60" s="69"/>
+      <c r="AK60" s="74"/>
       <c r="AL60" s="19"/>
     </row>
     <row r="61" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A61" s="62"/>
-      <c r="B61" s="64"/>
-      <c r="C61" s="61"/>
-      <c r="D61" s="61"/>
+      <c r="A61" s="67"/>
+      <c r="B61" s="69"/>
+      <c r="C61" s="66"/>
+      <c r="D61" s="66"/>
       <c r="E61" s="2" t="s">
         <v>107</v>
       </c>
@@ -8970,28 +9428,28 @@
       <c r="T61" s="20"/>
       <c r="U61" s="20"/>
       <c r="V61" s="20"/>
-      <c r="W61" s="73"/>
+      <c r="W61" s="78"/>
       <c r="X61" s="20"/>
       <c r="Y61" s="20"/>
       <c r="Z61" s="20"/>
       <c r="AA61" s="20"/>
       <c r="AB61" s="20"/>
       <c r="AC61" s="20"/>
-      <c r="AD61" s="76"/>
+      <c r="AD61" s="81"/>
       <c r="AE61" s="19"/>
       <c r="AF61" s="19"/>
       <c r="AG61" s="19"/>
       <c r="AH61" s="19"/>
       <c r="AI61" s="19"/>
       <c r="AJ61" s="19"/>
-      <c r="AK61" s="69"/>
+      <c r="AK61" s="74"/>
       <c r="AL61" s="19"/>
     </row>
     <row r="62" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A62" s="62"/>
-      <c r="B62" s="64"/>
-      <c r="C62" s="61"/>
-      <c r="D62" s="61"/>
+      <c r="A62" s="67"/>
+      <c r="B62" s="69"/>
+      <c r="C62" s="66"/>
+      <c r="D62" s="66"/>
       <c r="E62" s="2" t="s">
         <v>108</v>
       </c>
@@ -9022,28 +9480,28 @@
       <c r="T62" s="20"/>
       <c r="U62" s="20"/>
       <c r="V62" s="20"/>
-      <c r="W62" s="73"/>
+      <c r="W62" s="78"/>
       <c r="X62" s="20"/>
       <c r="Y62" s="20"/>
       <c r="Z62" s="20"/>
       <c r="AA62" s="20"/>
       <c r="AB62" s="20"/>
       <c r="AC62" s="20"/>
-      <c r="AD62" s="76"/>
+      <c r="AD62" s="81"/>
       <c r="AE62" s="19"/>
       <c r="AF62" s="19"/>
       <c r="AG62" s="19"/>
       <c r="AH62" s="19"/>
       <c r="AI62" s="19"/>
       <c r="AJ62" s="19"/>
-      <c r="AK62" s="69"/>
+      <c r="AK62" s="74"/>
       <c r="AL62" s="19"/>
     </row>
     <row r="63" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A63" s="62"/>
-      <c r="B63" s="64"/>
-      <c r="C63" s="61"/>
-      <c r="D63" s="61" t="s">
+      <c r="A63" s="67"/>
+      <c r="B63" s="69"/>
+      <c r="C63" s="66"/>
+      <c r="D63" s="66" t="s">
         <v>97</v>
       </c>
       <c r="E63" s="2" t="s">
@@ -9070,28 +9528,28 @@
       <c r="T63" s="20"/>
       <c r="U63" s="20"/>
       <c r="V63" s="20"/>
-      <c r="W63" s="73"/>
+      <c r="W63" s="78"/>
       <c r="X63" s="20"/>
       <c r="Y63" s="20"/>
       <c r="Z63" s="20"/>
       <c r="AA63" s="20"/>
       <c r="AB63" s="20"/>
       <c r="AC63" s="20"/>
-      <c r="AD63" s="76"/>
+      <c r="AD63" s="81"/>
       <c r="AE63" s="19"/>
       <c r="AF63" s="19"/>
       <c r="AG63" s="19"/>
       <c r="AH63" s="19"/>
       <c r="AI63" s="19"/>
       <c r="AJ63" s="19"/>
-      <c r="AK63" s="69"/>
+      <c r="AK63" s="74"/>
       <c r="AL63" s="19"/>
     </row>
     <row r="64" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A64" s="62"/>
-      <c r="B64" s="64"/>
-      <c r="C64" s="61"/>
-      <c r="D64" s="61"/>
+      <c r="A64" s="67"/>
+      <c r="B64" s="69"/>
+      <c r="C64" s="66"/>
+      <c r="D64" s="66"/>
       <c r="E64" s="2" t="s">
         <v>146</v>
       </c>
@@ -9122,30 +9580,30 @@
       <c r="T64" s="20"/>
       <c r="U64" s="20"/>
       <c r="V64" s="20"/>
-      <c r="W64" s="73"/>
+      <c r="W64" s="78"/>
       <c r="X64" s="20"/>
       <c r="Y64" s="20"/>
       <c r="Z64" s="20"/>
       <c r="AA64" s="20"/>
       <c r="AB64" s="20"/>
       <c r="AC64" s="20"/>
-      <c r="AD64" s="76"/>
+      <c r="AD64" s="81"/>
       <c r="AE64" s="19"/>
       <c r="AF64" s="19"/>
       <c r="AG64" s="19"/>
       <c r="AH64" s="19"/>
       <c r="AI64" s="19"/>
       <c r="AJ64" s="19"/>
-      <c r="AK64" s="69"/>
+      <c r="AK64" s="74"/>
       <c r="AL64" s="19"/>
     </row>
     <row r="65" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="62"/>
-      <c r="B65" s="64"/>
-      <c r="C65" s="61" t="s">
+      <c r="A65" s="67"/>
+      <c r="B65" s="69"/>
+      <c r="C65" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="D65" s="61" t="s">
+      <c r="D65" s="66" t="s">
         <v>93</v>
       </c>
       <c r="E65" s="2" t="s">
@@ -9178,28 +9636,28 @@
       <c r="T65" s="20"/>
       <c r="U65" s="20"/>
       <c r="V65" s="20"/>
-      <c r="W65" s="73"/>
+      <c r="W65" s="78"/>
       <c r="X65" s="20"/>
       <c r="Y65" s="20"/>
       <c r="Z65" s="20"/>
       <c r="AA65" s="20"/>
       <c r="AB65" s="20"/>
       <c r="AC65" s="20"/>
-      <c r="AD65" s="76"/>
+      <c r="AD65" s="81"/>
       <c r="AE65" s="19"/>
       <c r="AF65" s="19"/>
       <c r="AG65" s="19"/>
       <c r="AH65" s="19"/>
       <c r="AI65" s="19"/>
       <c r="AJ65" s="19"/>
-      <c r="AK65" s="69"/>
+      <c r="AK65" s="74"/>
       <c r="AL65" s="19"/>
     </row>
     <row r="66" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="62"/>
-      <c r="B66" s="64"/>
-      <c r="C66" s="61"/>
-      <c r="D66" s="61"/>
+      <c r="A66" s="67"/>
+      <c r="B66" s="69"/>
+      <c r="C66" s="66"/>
+      <c r="D66" s="66"/>
       <c r="E66" s="2" t="s">
         <v>130</v>
       </c>
@@ -9230,28 +9688,28 @@
       <c r="T66" s="20"/>
       <c r="U66" s="20"/>
       <c r="V66" s="20"/>
-      <c r="W66" s="73"/>
+      <c r="W66" s="78"/>
       <c r="X66" s="20"/>
       <c r="Y66" s="20"/>
       <c r="Z66" s="20"/>
       <c r="AA66" s="20"/>
       <c r="AB66" s="20"/>
       <c r="AC66" s="20"/>
-      <c r="AD66" s="76"/>
+      <c r="AD66" s="81"/>
       <c r="AE66" s="19"/>
       <c r="AF66" s="19"/>
       <c r="AG66" s="19"/>
       <c r="AH66" s="19"/>
       <c r="AI66" s="19"/>
       <c r="AJ66" s="19"/>
-      <c r="AK66" s="69"/>
+      <c r="AK66" s="74"/>
       <c r="AL66" s="19"/>
     </row>
     <row r="67" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="62"/>
-      <c r="B67" s="64"/>
-      <c r="C67" s="61"/>
-      <c r="D67" s="65" t="s">
+      <c r="A67" s="67"/>
+      <c r="B67" s="69"/>
+      <c r="C67" s="66"/>
+      <c r="D67" s="70" t="s">
         <v>98</v>
       </c>
       <c r="E67" s="2" t="s">
@@ -9284,28 +9742,28 @@
       <c r="T67" s="53"/>
       <c r="U67" s="53"/>
       <c r="V67" s="53"/>
-      <c r="W67" s="73"/>
+      <c r="W67" s="78"/>
       <c r="X67" s="53"/>
       <c r="Y67" s="53"/>
       <c r="Z67" s="53"/>
       <c r="AA67" s="53"/>
       <c r="AB67" s="53"/>
       <c r="AC67" s="53"/>
-      <c r="AD67" s="76"/>
+      <c r="AD67" s="81"/>
       <c r="AE67" s="54"/>
       <c r="AF67" s="54"/>
       <c r="AG67" s="54"/>
       <c r="AH67" s="54"/>
       <c r="AI67" s="54"/>
       <c r="AJ67" s="54"/>
-      <c r="AK67" s="69"/>
+      <c r="AK67" s="74"/>
       <c r="AL67" s="54"/>
     </row>
     <row r="68" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="62"/>
-      <c r="B68" s="64"/>
-      <c r="C68" s="61"/>
-      <c r="D68" s="67"/>
+      <c r="A68" s="67"/>
+      <c r="B68" s="69"/>
+      <c r="C68" s="66"/>
+      <c r="D68" s="72"/>
       <c r="E68" s="2" t="s">
         <v>130</v>
       </c>
@@ -9332,27 +9790,27 @@
       <c r="T68" s="20"/>
       <c r="U68" s="20"/>
       <c r="V68" s="20"/>
-      <c r="W68" s="73"/>
+      <c r="W68" s="78"/>
       <c r="X68" s="20"/>
       <c r="Y68" s="20"/>
       <c r="Z68" s="20"/>
       <c r="AA68" s="20"/>
       <c r="AB68" s="20"/>
       <c r="AC68" s="20"/>
-      <c r="AD68" s="76"/>
+      <c r="AD68" s="81"/>
       <c r="AE68" s="19"/>
       <c r="AF68" s="19"/>
       <c r="AG68" s="19"/>
       <c r="AH68" s="19"/>
       <c r="AI68" s="19"/>
       <c r="AJ68" s="19"/>
-      <c r="AK68" s="69"/>
+      <c r="AK68" s="74"/>
       <c r="AL68" s="19"/>
     </row>
     <row r="69" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A69" s="62"/>
-      <c r="B69" s="64"/>
-      <c r="C69" s="66"/>
+      <c r="A69" s="67"/>
+      <c r="B69" s="69"/>
+      <c r="C69" s="71"/>
       <c r="D69" s="2" t="s">
         <v>190</v>
       </c>
@@ -9386,27 +9844,27 @@
       <c r="T69" s="53"/>
       <c r="U69" s="53"/>
       <c r="V69" s="53"/>
-      <c r="W69" s="73"/>
+      <c r="W69" s="78"/>
       <c r="X69" s="53"/>
       <c r="Y69" s="53"/>
       <c r="Z69" s="53"/>
       <c r="AA69" s="53"/>
       <c r="AB69" s="53"/>
       <c r="AC69" s="53"/>
-      <c r="AD69" s="76"/>
+      <c r="AD69" s="81"/>
       <c r="AE69" s="54"/>
       <c r="AF69" s="54"/>
       <c r="AG69" s="54"/>
       <c r="AH69" s="54"/>
       <c r="AI69" s="54"/>
       <c r="AJ69" s="54"/>
-      <c r="AK69" s="69"/>
+      <c r="AK69" s="74"/>
       <c r="AL69" s="54"/>
     </row>
     <row r="70" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A70" s="62"/>
-      <c r="B70" s="64"/>
-      <c r="C70" s="66"/>
+      <c r="A70" s="67"/>
+      <c r="B70" s="69"/>
+      <c r="C70" s="71"/>
       <c r="D70" s="2" t="s">
         <v>191</v>
       </c>
@@ -9440,27 +9898,27 @@
       <c r="T70" s="53"/>
       <c r="U70" s="53"/>
       <c r="V70" s="53"/>
-      <c r="W70" s="73"/>
+      <c r="W70" s="78"/>
       <c r="X70" s="53"/>
       <c r="Y70" s="53"/>
       <c r="Z70" s="53"/>
       <c r="AA70" s="53"/>
       <c r="AB70" s="53"/>
       <c r="AC70" s="53"/>
-      <c r="AD70" s="76"/>
+      <c r="AD70" s="81"/>
       <c r="AE70" s="54"/>
       <c r="AF70" s="54"/>
       <c r="AG70" s="54"/>
       <c r="AH70" s="54"/>
       <c r="AI70" s="54"/>
       <c r="AJ70" s="54"/>
-      <c r="AK70" s="69"/>
+      <c r="AK70" s="74"/>
       <c r="AL70" s="54"/>
     </row>
     <row r="71" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A71" s="62"/>
-      <c r="B71" s="64"/>
-      <c r="C71" s="67"/>
+      <c r="A71" s="67"/>
+      <c r="B71" s="69"/>
+      <c r="C71" s="72"/>
       <c r="D71" s="2" t="s">
         <v>161</v>
       </c>
@@ -9494,27 +9952,27 @@
       <c r="T71" s="20"/>
       <c r="U71" s="20"/>
       <c r="V71" s="20"/>
-      <c r="W71" s="73"/>
+      <c r="W71" s="78"/>
       <c r="X71" s="20"/>
       <c r="Y71" s="20"/>
       <c r="Z71" s="20"/>
       <c r="AA71" s="20"/>
       <c r="AB71" s="20"/>
       <c r="AC71" s="20"/>
-      <c r="AD71" s="76"/>
+      <c r="AD71" s="81"/>
       <c r="AE71" s="19"/>
       <c r="AF71" s="19"/>
       <c r="AG71" s="19"/>
       <c r="AH71" s="19"/>
       <c r="AI71" s="19"/>
       <c r="AJ71" s="19"/>
-      <c r="AK71" s="69"/>
+      <c r="AK71" s="74"/>
       <c r="AL71" s="19"/>
     </row>
     <row r="72" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A72" s="62"/>
-      <c r="B72" s="64"/>
-      <c r="C72" s="61" t="s">
+      <c r="A72" s="67"/>
+      <c r="B72" s="69"/>
+      <c r="C72" s="66" t="s">
         <v>13</v>
       </c>
       <c r="D72" s="2" t="s">
@@ -9548,27 +10006,27 @@
       <c r="T72" s="20"/>
       <c r="U72" s="20"/>
       <c r="V72" s="20"/>
-      <c r="W72" s="73"/>
+      <c r="W72" s="78"/>
       <c r="X72" s="20"/>
       <c r="Y72" s="20"/>
       <c r="Z72" s="20"/>
       <c r="AA72" s="20"/>
       <c r="AB72" s="20"/>
       <c r="AC72" s="20"/>
-      <c r="AD72" s="76"/>
+      <c r="AD72" s="81"/>
       <c r="AE72" s="19"/>
       <c r="AF72" s="19"/>
       <c r="AG72" s="19"/>
       <c r="AH72" s="19"/>
       <c r="AI72" s="19"/>
       <c r="AJ72" s="19"/>
-      <c r="AK72" s="69"/>
+      <c r="AK72" s="74"/>
       <c r="AL72" s="19"/>
     </row>
     <row r="73" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A73" s="62"/>
-      <c r="B73" s="64"/>
-      <c r="C73" s="61"/>
+      <c r="A73" s="67"/>
+      <c r="B73" s="69"/>
+      <c r="C73" s="66"/>
       <c r="D73" s="2" t="s">
         <v>126</v>
       </c>
@@ -9600,27 +10058,27 @@
       <c r="T73" s="20"/>
       <c r="U73" s="20"/>
       <c r="V73" s="20"/>
-      <c r="W73" s="73"/>
+      <c r="W73" s="78"/>
       <c r="X73" s="20"/>
       <c r="Y73" s="20"/>
       <c r="Z73" s="20"/>
       <c r="AA73" s="20"/>
       <c r="AB73" s="20"/>
       <c r="AC73" s="20"/>
-      <c r="AD73" s="76"/>
+      <c r="AD73" s="81"/>
       <c r="AE73" s="19"/>
       <c r="AF73" s="19"/>
       <c r="AG73" s="19"/>
       <c r="AH73" s="19"/>
       <c r="AI73" s="19"/>
       <c r="AJ73" s="19"/>
-      <c r="AK73" s="69"/>
+      <c r="AK73" s="74"/>
       <c r="AL73" s="19"/>
     </row>
     <row r="74" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="62"/>
-      <c r="B74" s="64"/>
-      <c r="C74" s="65" t="s">
+      <c r="A74" s="67"/>
+      <c r="B74" s="69"/>
+      <c r="C74" s="70" t="s">
         <v>99</v>
       </c>
       <c r="D74" s="2" t="s">
@@ -9654,27 +10112,27 @@
       <c r="T74" s="20"/>
       <c r="U74" s="20"/>
       <c r="V74" s="20"/>
-      <c r="W74" s="73"/>
+      <c r="W74" s="78"/>
       <c r="X74" s="20"/>
       <c r="Y74" s="20"/>
       <c r="Z74" s="20"/>
       <c r="AA74" s="20"/>
       <c r="AB74" s="20"/>
       <c r="AC74" s="20"/>
-      <c r="AD74" s="76"/>
+      <c r="AD74" s="81"/>
       <c r="AE74" s="19"/>
       <c r="AF74" s="19"/>
       <c r="AG74" s="19"/>
       <c r="AH74" s="19"/>
       <c r="AI74" s="19"/>
       <c r="AJ74" s="19"/>
-      <c r="AK74" s="69"/>
+      <c r="AK74" s="74"/>
       <c r="AL74" s="19"/>
     </row>
     <row r="75" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="62"/>
-      <c r="B75" s="64"/>
-      <c r="C75" s="66"/>
+      <c r="A75" s="67"/>
+      <c r="B75" s="69"/>
+      <c r="C75" s="71"/>
       <c r="D75" s="2" t="s">
         <v>156</v>
       </c>
@@ -9706,27 +10164,27 @@
       <c r="T75" s="20"/>
       <c r="U75" s="20"/>
       <c r="V75" s="20"/>
-      <c r="W75" s="73"/>
+      <c r="W75" s="78"/>
       <c r="X75" s="20"/>
       <c r="Y75" s="20"/>
       <c r="Z75" s="20"/>
       <c r="AA75" s="20"/>
       <c r="AB75" s="20"/>
       <c r="AC75" s="20"/>
-      <c r="AD75" s="76"/>
+      <c r="AD75" s="81"/>
       <c r="AE75" s="19"/>
       <c r="AF75" s="19"/>
       <c r="AG75" s="19"/>
       <c r="AH75" s="19"/>
       <c r="AI75" s="19"/>
       <c r="AJ75" s="19"/>
-      <c r="AK75" s="69"/>
+      <c r="AK75" s="74"/>
       <c r="AL75" s="19"/>
     </row>
     <row r="76" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="62"/>
-      <c r="B76" s="64"/>
-      <c r="C76" s="66"/>
+      <c r="A76" s="67"/>
+      <c r="B76" s="69"/>
+      <c r="C76" s="71"/>
       <c r="D76" s="2" t="s">
         <v>187</v>
       </c>
@@ -9750,27 +10208,27 @@
       <c r="T76" s="53"/>
       <c r="U76" s="53"/>
       <c r="V76" s="53"/>
-      <c r="W76" s="73"/>
+      <c r="W76" s="78"/>
       <c r="X76" s="53"/>
       <c r="Y76" s="53"/>
       <c r="Z76" s="53"/>
       <c r="AA76" s="53"/>
       <c r="AB76" s="53"/>
       <c r="AC76" s="53"/>
-      <c r="AD76" s="76"/>
+      <c r="AD76" s="81"/>
       <c r="AE76" s="54"/>
       <c r="AF76" s="54"/>
       <c r="AG76" s="54"/>
       <c r="AH76" s="54"/>
       <c r="AI76" s="54"/>
       <c r="AJ76" s="54"/>
-      <c r="AK76" s="69"/>
+      <c r="AK76" s="74"/>
       <c r="AL76" s="54"/>
     </row>
     <row r="77" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="62"/>
-      <c r="B77" s="64"/>
-      <c r="C77" s="67"/>
+      <c r="A77" s="67"/>
+      <c r="B77" s="69"/>
+      <c r="C77" s="72"/>
       <c r="D77" s="2" t="s">
         <v>157</v>
       </c>
@@ -9802,27 +10260,27 @@
       <c r="T77" s="37"/>
       <c r="U77" s="37"/>
       <c r="V77" s="37"/>
-      <c r="W77" s="73"/>
+      <c r="W77" s="78"/>
       <c r="X77" s="37"/>
       <c r="Y77" s="37"/>
       <c r="Z77" s="37"/>
       <c r="AA77" s="37"/>
       <c r="AB77" s="37"/>
       <c r="AC77" s="37"/>
-      <c r="AD77" s="76"/>
+      <c r="AD77" s="81"/>
       <c r="AE77" s="19"/>
       <c r="AF77" s="19"/>
       <c r="AG77" s="19"/>
       <c r="AH77" s="19"/>
       <c r="AI77" s="19"/>
       <c r="AJ77" s="19"/>
-      <c r="AK77" s="69"/>
+      <c r="AK77" s="74"/>
       <c r="AL77" s="19"/>
     </row>
     <row r="78" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A78" s="62"/>
-      <c r="B78" s="64"/>
-      <c r="C78" s="61" t="s">
+      <c r="A78" s="67"/>
+      <c r="B78" s="69"/>
+      <c r="C78" s="66" t="s">
         <v>30</v>
       </c>
       <c r="D78" s="2" t="s">
@@ -9854,27 +10312,27 @@
       <c r="T78" s="20"/>
       <c r="U78" s="20"/>
       <c r="V78" s="20"/>
-      <c r="W78" s="73"/>
+      <c r="W78" s="78"/>
       <c r="X78" s="20"/>
       <c r="Y78" s="20"/>
       <c r="Z78" s="20"/>
       <c r="AA78" s="20"/>
       <c r="AB78" s="20"/>
       <c r="AC78" s="20"/>
-      <c r="AD78" s="76"/>
+      <c r="AD78" s="81"/>
       <c r="AE78" s="19"/>
       <c r="AF78" s="19"/>
       <c r="AG78" s="19"/>
       <c r="AH78" s="19"/>
       <c r="AI78" s="19"/>
       <c r="AJ78" s="19"/>
-      <c r="AK78" s="69"/>
+      <c r="AK78" s="74"/>
       <c r="AL78" s="19"/>
     </row>
     <row r="79" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A79" s="62"/>
-      <c r="B79" s="64"/>
-      <c r="C79" s="61"/>
+      <c r="A79" s="67"/>
+      <c r="B79" s="69"/>
+      <c r="C79" s="66"/>
       <c r="D79" s="2" t="s">
         <v>32</v>
       </c>
@@ -9898,27 +10356,27 @@
       <c r="T79" s="20"/>
       <c r="U79" s="20"/>
       <c r="V79" s="20"/>
-      <c r="W79" s="73"/>
+      <c r="W79" s="78"/>
       <c r="X79" s="20"/>
       <c r="Y79" s="20"/>
       <c r="Z79" s="20"/>
       <c r="AA79" s="20"/>
       <c r="AB79" s="20"/>
       <c r="AC79" s="20"/>
-      <c r="AD79" s="76"/>
+      <c r="AD79" s="81"/>
       <c r="AE79" s="19"/>
       <c r="AF79" s="19"/>
       <c r="AG79" s="19"/>
       <c r="AH79" s="19"/>
       <c r="AI79" s="19"/>
       <c r="AJ79" s="19"/>
-      <c r="AK79" s="69"/>
+      <c r="AK79" s="74"/>
       <c r="AL79" s="19"/>
     </row>
     <row r="80" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A80" s="62"/>
-      <c r="B80" s="64"/>
-      <c r="C80" s="61"/>
+      <c r="A80" s="67"/>
+      <c r="B80" s="69"/>
+      <c r="C80" s="66"/>
       <c r="D80" s="2" t="s">
         <v>33</v>
       </c>
@@ -9948,25 +10406,25 @@
       <c r="T80" s="20"/>
       <c r="U80" s="20"/>
       <c r="V80" s="20"/>
-      <c r="W80" s="74"/>
+      <c r="W80" s="79"/>
       <c r="X80" s="20"/>
       <c r="Y80" s="20"/>
       <c r="Z80" s="20"/>
       <c r="AA80" s="20"/>
       <c r="AB80" s="20"/>
       <c r="AC80" s="20"/>
-      <c r="AD80" s="77"/>
+      <c r="AD80" s="82"/>
       <c r="AE80" s="19"/>
       <c r="AF80" s="19"/>
       <c r="AG80" s="19"/>
       <c r="AH80" s="19"/>
       <c r="AI80" s="19"/>
       <c r="AJ80" s="19"/>
-      <c r="AK80" s="70"/>
+      <c r="AK80" s="75"/>
       <c r="AL80" s="19"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A81" s="62"/>
+      <c r="A81" s="67"/>
       <c r="B81" s="44" t="s">
         <v>21</v>
       </c>
@@ -10096,24 +10554,24 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
     </row>
     <row r="4" spans="2:14" ht="45.75" x14ac:dyDescent="0.4">
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
       <c r="K4" s="11" t="s">
         <v>73</v>
       </c>
@@ -10122,14 +10580,14 @@
       </c>
     </row>
     <row r="5" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
       <c r="K5" s="12" t="s">
         <v>75</v>
       </c>
@@ -10138,28 +10596,28 @@
       </c>
     </row>
     <row r="6" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="78"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
       <c r="K6" s="12" t="s">
         <v>76</v>
       </c>
       <c r="L6" s="13"/>
     </row>
     <row r="7" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="78"/>
+      <c r="B7" s="83"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="83"/>
       <c r="K7" s="12" t="s">
         <v>77</v>
       </c>
@@ -10168,28 +10626,28 @@
       </c>
     </row>
     <row r="8" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="78"/>
-      <c r="H8" s="78"/>
-      <c r="I8" s="78"/>
+      <c r="B8" s="83"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="83"/>
       <c r="K8" s="12" t="s">
         <v>78</v>
       </c>
       <c r="L8" s="13"/>
     </row>
     <row r="9" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="78"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="78"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="83"/>
       <c r="K9" s="12" t="s">
         <v>79</v>
       </c>
@@ -10198,28 +10656,28 @@
       </c>
     </row>
     <row r="10" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B10" s="78"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="78"/>
-      <c r="I10" s="78"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="83"/>
       <c r="K10" s="12" t="s">
         <v>80</v>
       </c>
       <c r="L10" s="13"/>
     </row>
     <row r="11" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B11" s="78"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="78"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="78"/>
+      <c r="B11" s="83"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="83"/>
       <c r="K11" s="12" t="s">
         <v>81</v>
       </c>
@@ -10229,136 +10687,136 @@
       <c r="N11" s="10"/>
     </row>
     <row r="12" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B12" s="78"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="78"/>
-      <c r="I12" s="78"/>
+      <c r="B12" s="83"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="83"/>
       <c r="K12" s="12" t="s">
         <v>82</v>
       </c>
       <c r="L12" s="13"/>
     </row>
     <row r="13" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B13" s="78"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="78"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="78"/>
-      <c r="I13" s="78"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="83"/>
       <c r="K13" s="12" t="s">
         <v>83</v>
       </c>
       <c r="L13" s="13"/>
     </row>
     <row r="14" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B14" s="78"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="78"/>
-      <c r="I14" s="78"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="83"/>
       <c r="K14" s="12" t="s">
         <v>84</v>
       </c>
       <c r="L14" s="13"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B15" s="78"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="78"/>
-      <c r="E15" s="78"/>
-      <c r="F15" s="78"/>
-      <c r="G15" s="78"/>
-      <c r="H15" s="78"/>
-      <c r="I15" s="78"/>
+      <c r="B15" s="83"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="83"/>
+      <c r="I15" s="83"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B16" s="78"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="78"/>
-      <c r="H16" s="78"/>
-      <c r="I16" s="78"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="83"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="83"/>
+      <c r="I16" s="83"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B17" s="78"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="78"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="78"/>
-      <c r="I17" s="78"/>
+      <c r="B17" s="83"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="83"/>
+      <c r="G17" s="83"/>
+      <c r="H17" s="83"/>
+      <c r="I17" s="83"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B18" s="78"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="78"/>
-      <c r="I18" s="78"/>
+      <c r="B18" s="83"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="83"/>
+      <c r="G18" s="83"/>
+      <c r="H18" s="83"/>
+      <c r="I18" s="83"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B19" s="78"/>
-      <c r="C19" s="78"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="78"/>
-      <c r="H19" s="78"/>
-      <c r="I19" s="78"/>
+      <c r="B19" s="83"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="83"/>
+      <c r="G19" s="83"/>
+      <c r="H19" s="83"/>
+      <c r="I19" s="83"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B20" s="78"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="78"/>
-      <c r="I20" s="78"/>
+      <c r="B20" s="83"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="83"/>
+      <c r="H20" s="83"/>
+      <c r="I20" s="83"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B21" s="78"/>
-      <c r="C21" s="78"/>
-      <c r="D21" s="78"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="78"/>
-      <c r="H21" s="78"/>
-      <c r="I21" s="78"/>
+      <c r="B21" s="83"/>
+      <c r="C21" s="83"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="83"/>
+      <c r="H21" s="83"/>
+      <c r="I21" s="83"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B22" s="78"/>
-      <c r="C22" s="78"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="78"/>
-      <c r="G22" s="78"/>
-      <c r="H22" s="78"/>
-      <c r="I22" s="78"/>
+      <c r="B22" s="83"/>
+      <c r="C22" s="83"/>
+      <c r="D22" s="83"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="83"/>
+      <c r="G22" s="83"/>
+      <c r="H22" s="83"/>
+      <c r="I22" s="83"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B23" s="78"/>
-      <c r="C23" s="78"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="78"/>
-      <c r="F23" s="78"/>
-      <c r="G23" s="78"/>
-      <c r="H23" s="78"/>
-      <c r="I23" s="78"/>
+      <c r="B23" s="83"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="83"/>
+      <c r="I23" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10404,22 +10862,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" s="78"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="7"/>
@@ -10506,7 +10964,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B10" s="80" t="s">
+      <c r="B10" s="85" t="s">
         <v>173</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -10520,7 +10978,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B11" s="80"/>
+      <c r="B11" s="85"/>
       <c r="C11" s="2" t="s">
         <v>176</v>
       </c>
@@ -10528,7 +10986,7 @@
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B12" s="80"/>
+      <c r="B12" s="85"/>
       <c r="C12" s="2" t="s">
         <v>172</v>
       </c>
@@ -10536,7 +10994,7 @@
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B13" s="80"/>
+      <c r="B13" s="85"/>
       <c r="C13" s="2" t="s">
         <v>175</v>
       </c>
@@ -10641,12 +11099,12 @@
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="86" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10674,4 +11132,364 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="7.25" customWidth="1"/>
+    <col min="2" max="2" width="28.25" style="62" customWidth="1"/>
+    <col min="3" max="3" width="28.125" style="62" customWidth="1"/>
+    <col min="4" max="4" width="28.125" style="64" customWidth="1"/>
+    <col min="5" max="5" width="29.25" style="62" customWidth="1"/>
+    <col min="6" max="6" width="22.5" style="62" customWidth="1"/>
+    <col min="7" max="7" width="21.875" style="62" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1" s="2"/>
+      <c r="B1" s="61">
+        <v>2</v>
+      </c>
+      <c r="C1" s="63">
+        <v>3</v>
+      </c>
+      <c r="D1" s="63">
+        <v>4</v>
+      </c>
+      <c r="E1" s="63">
+        <v>5</v>
+      </c>
+      <c r="F1" s="87">
+        <v>6</v>
+      </c>
+      <c r="G1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" s="2"/>
+      <c r="B2" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="63" t="s">
+        <v>202</v>
+      </c>
+      <c r="D2" s="63" t="s">
+        <v>203</v>
+      </c>
+      <c r="E2" s="63" t="s">
+        <v>204</v>
+      </c>
+      <c r="F2" s="87" t="s">
+        <v>205</v>
+      </c>
+      <c r="G2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="88" t="s">
+        <v>239</v>
+      </c>
+      <c r="C3" s="89" t="s">
+        <v>210</v>
+      </c>
+      <c r="D3" s="89" t="s">
+        <v>240</v>
+      </c>
+      <c r="E3" s="90"/>
+      <c r="F3" s="87"/>
+      <c r="G3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="89" t="s">
+        <v>209</v>
+      </c>
+      <c r="C4" s="89" t="s">
+        <v>209</v>
+      </c>
+      <c r="D4" s="92" t="s">
+        <v>244</v>
+      </c>
+      <c r="E4" s="91" t="s">
+        <v>243</v>
+      </c>
+      <c r="F4" s="91" t="s">
+        <v>243</v>
+      </c>
+      <c r="G4"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" s="89" t="s">
+        <v>211</v>
+      </c>
+      <c r="C5" s="89" t="s">
+        <v>241</v>
+      </c>
+      <c r="D5" s="93" t="s">
+        <v>245</v>
+      </c>
+      <c r="E5" s="93" t="s">
+        <v>247</v>
+      </c>
+      <c r="F5" s="87"/>
+      <c r="G5"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" s="89" t="s">
+        <v>208</v>
+      </c>
+      <c r="C6" s="89" t="s">
+        <v>208</v>
+      </c>
+      <c r="D6" s="89" t="s">
+        <v>246</v>
+      </c>
+      <c r="E6" s="89" t="s">
+        <v>246</v>
+      </c>
+      <c r="F6" s="92" t="s">
+        <v>242</v>
+      </c>
+      <c r="G6"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="89" t="s">
+        <v>207</v>
+      </c>
+      <c r="C7" s="89" t="s">
+        <v>207</v>
+      </c>
+      <c r="D7" s="93" t="s">
+        <v>249</v>
+      </c>
+      <c r="E7"/>
+      <c r="F7" s="94"/>
+      <c r="G7"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B8" s="93" t="s">
+        <v>206</v>
+      </c>
+      <c r="C8" s="93" t="s">
+        <v>206</v>
+      </c>
+      <c r="D8" s="93" t="s">
+        <v>248</v>
+      </c>
+      <c r="E8" s="90"/>
+      <c r="F8" s="87"/>
+      <c r="G8"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B11" s="62" t="s">
+        <v>212</v>
+      </c>
+      <c r="C11" s="62" t="s">
+        <v>201</v>
+      </c>
+      <c r="D11" s="64" t="s">
+        <v>235</v>
+      </c>
+      <c r="E11" s="62" t="s">
+        <v>213</v>
+      </c>
+      <c r="G11" s="62" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B12" s="95" t="s">
+        <v>223</v>
+      </c>
+      <c r="C12" s="88" t="s">
+        <v>230</v>
+      </c>
+      <c r="D12" s="64" t="s">
+        <v>238</v>
+      </c>
+      <c r="E12" s="62" t="s">
+        <v>214</v>
+      </c>
+      <c r="G12" s="62" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B13" s="95" t="s">
+        <v>224</v>
+      </c>
+      <c r="C13" s="88" t="s">
+        <v>230</v>
+      </c>
+      <c r="D13" s="64" t="s">
+        <v>238</v>
+      </c>
+      <c r="E13" s="62" t="s">
+        <v>219</v>
+      </c>
+      <c r="G13" s="62" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B14" s="95" t="s">
+        <v>225</v>
+      </c>
+      <c r="C14" s="88" t="s">
+        <v>230</v>
+      </c>
+      <c r="D14" s="64" t="s">
+        <v>238</v>
+      </c>
+      <c r="E14" s="62" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B15" s="88" t="s">
+        <v>233</v>
+      </c>
+      <c r="C15" s="88" t="s">
+        <v>230</v>
+      </c>
+      <c r="D15" s="64" t="s">
+        <v>236</v>
+      </c>
+      <c r="E15" s="62" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B16" s="95" t="s">
+        <v>207</v>
+      </c>
+      <c r="C16" s="88" t="s">
+        <v>230</v>
+      </c>
+      <c r="D16" s="64" t="s">
+        <v>237</v>
+      </c>
+      <c r="E16" s="62" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B17" s="96" t="s">
+        <v>228</v>
+      </c>
+      <c r="C17" s="97" t="s">
+        <v>232</v>
+      </c>
+      <c r="D17" s="64" t="s">
+        <v>238</v>
+      </c>
+      <c r="E17" s="62" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B18" s="98" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="99" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="64" t="s">
+        <v>238</v>
+      </c>
+      <c r="F18" s="62" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B19" s="100" t="s">
+        <v>226</v>
+      </c>
+      <c r="C19" s="99" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="64" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B20" s="98" t="s">
+        <v>227</v>
+      </c>
+      <c r="C20" s="99" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="64" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B21" s="101" t="s">
+        <v>229</v>
+      </c>
+      <c r="C21" s="102" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="64" t="s">
+        <v>238</v>
+      </c>
+      <c r="F21" s="64"/>
+      <c r="G21" s="64"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B22" s="103" t="s">
+        <v>231</v>
+      </c>
+      <c r="C22" s="102" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="64" t="s">
+        <v>237</v>
+      </c>
+      <c r="F22" s="65"/>
+      <c r="G22" s="64"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B23" s="103" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="102" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="65" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/schedule/ガントチャート.xlsx
+++ b/schedule/ガントチャート.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\okashi_222\schedule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gsp030\Desktop\git\okashi_222\schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14925" windowHeight="12180" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14928" windowHeight="12180" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="ガントチャート" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="249">
   <si>
     <t>カテゴリ</t>
     <phoneticPr fontId="1"/>
@@ -1698,17 +1698,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ボスモーション</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アイテム効果</t>
-    <rPh sb="4" eb="6">
-      <t>コウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>敵の攻撃　行動　</t>
     <rPh sb="0" eb="1">
       <t>テキ</t>
@@ -1746,6 +1735,10 @@
   </si>
   <si>
     <t>モデルかテクスチャか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モーション（プロ）</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2359,7 +2352,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2558,9 +2551,96 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="15" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="5" xfId="11" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="1" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="15">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="0" xfId="8" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="5" xfId="11" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="5" xfId="11" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="0" xfId="9" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" xfId="13" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" xfId="13" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" xfId="13" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="6" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="6" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="7" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="3" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2570,45 +2650,9 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="6" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="6" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="7" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="3" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2621,56 +2665,8 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="15" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="8" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="5" xfId="11" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="9" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="1" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="15">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="0" xfId="8" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="5" xfId="11" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="5" xfId="11" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="9" borderId="0" xfId="9" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="9" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="9" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" xfId="13" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" xfId="13" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" xfId="13" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="16">
@@ -6359,36 +6355,36 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AT81"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="11" ySplit="4" topLeftCell="X45" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="11" ySplit="4" topLeftCell="X10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="AG3" sqref="AG3:AJ10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.19921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="22.625" customWidth="1"/>
-    <col min="6" max="6" width="7.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.59765625" customWidth="1"/>
+    <col min="6" max="6" width="7.09765625" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="7"/>
-    <col min="8" max="9" width="7.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.125" style="59" customWidth="1"/>
-    <col min="11" max="11" width="10.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="7.09765625" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.09765625" style="59" customWidth="1"/>
+    <col min="11" max="11" width="10.09765625" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5" style="3" customWidth="1"/>
     <col min="13" max="16" width="3.5" customWidth="1"/>
-    <col min="17" max="17" width="4.375" customWidth="1"/>
+    <col min="17" max="17" width="4.3984375" customWidth="1"/>
     <col min="18" max="18" width="3.5" customWidth="1"/>
-    <col min="19" max="19" width="3.875" customWidth="1"/>
+    <col min="19" max="19" width="3.8984375" customWidth="1"/>
     <col min="20" max="36" width="3.5" customWidth="1"/>
-    <col min="37" max="37" width="6.75" customWidth="1"/>
+    <col min="37" max="37" width="6.69921875" customWidth="1"/>
     <col min="38" max="46" width="3.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" ht="25.5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:46" ht="26.4" x14ac:dyDescent="0.45">
       <c r="B1" s="16" t="s">
         <v>86</v>
       </c>
@@ -6420,7 +6416,7 @@
       </c>
       <c r="V1" s="25"/>
     </row>
-    <row r="3" spans="1:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="L3" s="17">
         <v>44116</v>
       </c>
@@ -6511,7 +6507,7 @@
       <c r="AS3" s="1"/>
       <c r="AT3" s="1"/>
     </row>
-    <row r="4" spans="1:46" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:46" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B4" s="32" t="s">
         <v>6</v>
       </c>
@@ -6651,11 +6647,11 @@
         <v>44142</v>
       </c>
     </row>
-    <row r="5" spans="1:46" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="67" t="s">
+    <row r="5" spans="1:46" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="97" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="20" t="s">
@@ -6692,7 +6688,7 @@
       <c r="T5" s="19"/>
       <c r="U5" s="19"/>
       <c r="V5" s="19"/>
-      <c r="W5" s="77" t="s">
+      <c r="W5" s="90" t="s">
         <v>110</v>
       </c>
       <c r="X5" s="19"/>
@@ -6701,7 +6697,7 @@
       <c r="AA5" s="19"/>
       <c r="AB5" s="19"/>
       <c r="AC5" s="19"/>
-      <c r="AD5" s="80" t="s">
+      <c r="AD5" s="93" t="s">
         <v>111</v>
       </c>
       <c r="AE5" s="19"/>
@@ -6710,14 +6706,14 @@
       <c r="AH5" s="19"/>
       <c r="AI5" s="19"/>
       <c r="AJ5" s="19"/>
-      <c r="AK5" s="73" t="s">
+      <c r="AK5" s="85" t="s">
         <v>88</v>
       </c>
       <c r="AL5" s="19"/>
     </row>
-    <row r="6" spans="1:46" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="67"/>
-      <c r="B6" s="68"/>
+    <row r="6" spans="1:46" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="96"/>
+      <c r="B6" s="97"/>
       <c r="C6" s="20" t="s">
         <v>9</v>
       </c>
@@ -6750,26 +6746,26 @@
       <c r="T6" s="20"/>
       <c r="U6" s="20"/>
       <c r="V6" s="20"/>
-      <c r="W6" s="78"/>
+      <c r="W6" s="91"/>
       <c r="X6" s="20"/>
       <c r="Y6" s="20"/>
       <c r="Z6" s="20"/>
       <c r="AA6" s="20"/>
       <c r="AB6" s="20"/>
       <c r="AC6" s="20"/>
-      <c r="AD6" s="81"/>
+      <c r="AD6" s="94"/>
       <c r="AE6" s="19"/>
       <c r="AF6" s="19"/>
       <c r="AG6" s="19"/>
       <c r="AH6" s="19"/>
       <c r="AI6" s="19"/>
       <c r="AJ6" s="19"/>
-      <c r="AK6" s="74"/>
+      <c r="AK6" s="86"/>
       <c r="AL6" s="19"/>
     </row>
-    <row r="7" spans="1:46" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="67"/>
-      <c r="B7" s="68"/>
+    <row r="7" spans="1:46" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="96"/>
+      <c r="B7" s="97"/>
       <c r="C7" s="20" t="s">
         <v>10</v>
       </c>
@@ -6800,26 +6796,26 @@
       <c r="T7" s="20"/>
       <c r="U7" s="20"/>
       <c r="V7" s="20"/>
-      <c r="W7" s="78"/>
+      <c r="W7" s="91"/>
       <c r="X7" s="20"/>
       <c r="Y7" s="20"/>
       <c r="Z7" s="20"/>
       <c r="AA7" s="20"/>
       <c r="AB7" s="20"/>
       <c r="AC7" s="20"/>
-      <c r="AD7" s="81"/>
+      <c r="AD7" s="94"/>
       <c r="AE7" s="19"/>
       <c r="AF7" s="19"/>
       <c r="AG7" s="19"/>
       <c r="AH7" s="19"/>
       <c r="AI7" s="19"/>
       <c r="AJ7" s="19"/>
-      <c r="AK7" s="74"/>
+      <c r="AK7" s="86"/>
       <c r="AL7" s="19"/>
     </row>
-    <row r="8" spans="1:46" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="67"/>
-      <c r="B8" s="68"/>
+    <row r="8" spans="1:46" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="96"/>
+      <c r="B8" s="97"/>
       <c r="C8" s="20" t="s">
         <v>11</v>
       </c>
@@ -6850,26 +6846,26 @@
       <c r="T8" s="20"/>
       <c r="U8" s="20"/>
       <c r="V8" s="20"/>
-      <c r="W8" s="78"/>
+      <c r="W8" s="91"/>
       <c r="X8" s="20"/>
       <c r="Y8" s="20"/>
       <c r="Z8" s="20"/>
       <c r="AA8" s="20"/>
       <c r="AB8" s="20"/>
       <c r="AC8" s="20"/>
-      <c r="AD8" s="81"/>
+      <c r="AD8" s="94"/>
       <c r="AE8" s="19"/>
       <c r="AF8" s="19"/>
       <c r="AG8" s="19"/>
       <c r="AH8" s="19"/>
       <c r="AI8" s="19"/>
       <c r="AJ8" s="19"/>
-      <c r="AK8" s="74"/>
+      <c r="AK8" s="86"/>
       <c r="AL8" s="19"/>
     </row>
-    <row r="9" spans="1:46" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="67"/>
-      <c r="B9" s="68"/>
+    <row r="9" spans="1:46" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="96"/>
+      <c r="B9" s="97"/>
       <c r="C9" s="20" t="s">
         <v>34</v>
       </c>
@@ -6898,26 +6894,26 @@
       <c r="T9" s="20"/>
       <c r="U9" s="20"/>
       <c r="V9" s="20"/>
-      <c r="W9" s="78"/>
+      <c r="W9" s="91"/>
       <c r="X9" s="20"/>
       <c r="Y9" s="20"/>
       <c r="Z9" s="20"/>
       <c r="AA9" s="20"/>
       <c r="AB9" s="20"/>
       <c r="AC9" s="20"/>
-      <c r="AD9" s="81"/>
+      <c r="AD9" s="94"/>
       <c r="AE9" s="19"/>
       <c r="AF9" s="19"/>
       <c r="AG9" s="19"/>
       <c r="AH9" s="19"/>
       <c r="AI9" s="19"/>
       <c r="AJ9" s="19"/>
-      <c r="AK9" s="74"/>
+      <c r="AK9" s="86"/>
       <c r="AL9" s="19"/>
     </row>
-    <row r="10" spans="1:46" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="67"/>
-      <c r="B10" s="68"/>
+    <row r="10" spans="1:46" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="96"/>
+      <c r="B10" s="97"/>
       <c r="C10" s="20" t="s">
         <v>35</v>
       </c>
@@ -6946,29 +6942,29 @@
       <c r="T10" s="20"/>
       <c r="U10" s="20"/>
       <c r="V10" s="20"/>
-      <c r="W10" s="78"/>
+      <c r="W10" s="91"/>
       <c r="X10" s="20"/>
       <c r="Y10" s="20"/>
       <c r="Z10" s="20"/>
       <c r="AA10" s="20"/>
       <c r="AB10" s="20"/>
       <c r="AC10" s="20"/>
-      <c r="AD10" s="81"/>
+      <c r="AD10" s="94"/>
       <c r="AE10" s="19"/>
       <c r="AF10" s="19"/>
       <c r="AG10" s="19"/>
       <c r="AH10" s="19"/>
       <c r="AI10" s="19"/>
       <c r="AJ10" s="19"/>
-      <c r="AK10" s="74"/>
+      <c r="AK10" s="86"/>
       <c r="AL10" s="19"/>
     </row>
-    <row r="11" spans="1:46" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="67"/>
-      <c r="B11" s="76" t="s">
+    <row r="11" spans="1:46" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="96"/>
+      <c r="B11" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="66" t="s">
+      <c r="C11" s="88" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="46" t="s">
@@ -6994,27 +6990,27 @@
       <c r="T11" s="20"/>
       <c r="U11" s="20"/>
       <c r="V11" s="20"/>
-      <c r="W11" s="78"/>
+      <c r="W11" s="91"/>
       <c r="X11" s="20"/>
       <c r="Y11" s="20"/>
       <c r="Z11" s="20"/>
       <c r="AA11" s="20"/>
       <c r="AB11" s="20"/>
       <c r="AC11" s="20"/>
-      <c r="AD11" s="81"/>
+      <c r="AD11" s="94"/>
       <c r="AE11" s="19"/>
       <c r="AF11" s="19"/>
       <c r="AG11" s="19"/>
       <c r="AH11" s="19"/>
       <c r="AI11" s="19"/>
       <c r="AJ11" s="19"/>
-      <c r="AK11" s="74"/>
+      <c r="AK11" s="86"/>
       <c r="AL11" s="19"/>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.4">
-      <c r="A12" s="67"/>
-      <c r="B12" s="76"/>
-      <c r="C12" s="66"/>
+    <row r="12" spans="1:46" x14ac:dyDescent="0.45">
+      <c r="A12" s="96"/>
+      <c r="B12" s="89"/>
+      <c r="C12" s="88"/>
       <c r="D12" s="2" t="s">
         <v>23</v>
       </c>
@@ -7038,27 +7034,27 @@
       <c r="T12" s="20"/>
       <c r="U12" s="20"/>
       <c r="V12" s="20"/>
-      <c r="W12" s="78"/>
+      <c r="W12" s="91"/>
       <c r="X12" s="20"/>
       <c r="Y12" s="20"/>
       <c r="Z12" s="20"/>
       <c r="AA12" s="20"/>
       <c r="AB12" s="20"/>
       <c r="AC12" s="20"/>
-      <c r="AD12" s="81"/>
+      <c r="AD12" s="94"/>
       <c r="AE12" s="19"/>
       <c r="AF12" s="19"/>
       <c r="AG12" s="19"/>
       <c r="AH12" s="19"/>
       <c r="AI12" s="19"/>
       <c r="AJ12" s="19"/>
-      <c r="AK12" s="74"/>
+      <c r="AK12" s="86"/>
       <c r="AL12" s="19"/>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.4">
-      <c r="A13" s="67"/>
-      <c r="B13" s="76"/>
-      <c r="C13" s="66"/>
+    <row r="13" spans="1:46" x14ac:dyDescent="0.45">
+      <c r="A13" s="96"/>
+      <c r="B13" s="89"/>
+      <c r="C13" s="88"/>
       <c r="D13" s="38" t="s">
         <v>45</v>
       </c>
@@ -7082,27 +7078,27 @@
       <c r="T13" s="20"/>
       <c r="U13" s="20"/>
       <c r="V13" s="20"/>
-      <c r="W13" s="78"/>
+      <c r="W13" s="91"/>
       <c r="X13" s="20"/>
       <c r="Y13" s="20"/>
       <c r="Z13" s="20"/>
       <c r="AA13" s="20"/>
       <c r="AB13" s="20"/>
       <c r="AC13" s="20"/>
-      <c r="AD13" s="81"/>
+      <c r="AD13" s="94"/>
       <c r="AE13" s="19"/>
       <c r="AF13" s="19"/>
       <c r="AG13" s="19"/>
       <c r="AH13" s="19"/>
       <c r="AI13" s="19"/>
       <c r="AJ13" s="19"/>
-      <c r="AK13" s="74"/>
+      <c r="AK13" s="86"/>
       <c r="AL13" s="19"/>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.4">
-      <c r="A14" s="67"/>
-      <c r="B14" s="76"/>
-      <c r="C14" s="66"/>
+    <row r="14" spans="1:46" x14ac:dyDescent="0.45">
+      <c r="A14" s="96"/>
+      <c r="B14" s="89"/>
+      <c r="C14" s="88"/>
       <c r="D14" s="39" t="s">
         <v>27</v>
       </c>
@@ -7126,27 +7122,27 @@
       <c r="T14" s="20"/>
       <c r="U14" s="20"/>
       <c r="V14" s="20"/>
-      <c r="W14" s="78"/>
+      <c r="W14" s="91"/>
       <c r="X14" s="20"/>
       <c r="Y14" s="20"/>
       <c r="Z14" s="20"/>
       <c r="AA14" s="20"/>
       <c r="AB14" s="20"/>
       <c r="AC14" s="20"/>
-      <c r="AD14" s="81"/>
+      <c r="AD14" s="94"/>
       <c r="AE14" s="19"/>
       <c r="AF14" s="19"/>
       <c r="AG14" s="19"/>
       <c r="AH14" s="19"/>
       <c r="AI14" s="19"/>
       <c r="AJ14" s="19"/>
-      <c r="AK14" s="74"/>
+      <c r="AK14" s="86"/>
       <c r="AL14" s="19"/>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.4">
-      <c r="A15" s="67"/>
-      <c r="B15" s="76"/>
-      <c r="C15" s="66" t="s">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.45">
+      <c r="A15" s="96"/>
+      <c r="B15" s="89"/>
+      <c r="C15" s="88" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -7174,27 +7170,27 @@
       <c r="T15" s="20"/>
       <c r="U15" s="20"/>
       <c r="V15" s="20"/>
-      <c r="W15" s="78"/>
+      <c r="W15" s="91"/>
       <c r="X15" s="20"/>
       <c r="Y15" s="20"/>
       <c r="Z15" s="20"/>
       <c r="AA15" s="20"/>
       <c r="AB15" s="20"/>
       <c r="AC15" s="20"/>
-      <c r="AD15" s="81"/>
+      <c r="AD15" s="94"/>
       <c r="AE15" s="19"/>
       <c r="AF15" s="19"/>
       <c r="AG15" s="19"/>
       <c r="AH15" s="19"/>
       <c r="AI15" s="19"/>
       <c r="AJ15" s="19"/>
-      <c r="AK15" s="74"/>
+      <c r="AK15" s="86"/>
       <c r="AL15" s="19"/>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.4">
-      <c r="A16" s="67"/>
-      <c r="B16" s="76"/>
-      <c r="C16" s="66"/>
+    <row r="16" spans="1:46" x14ac:dyDescent="0.45">
+      <c r="A16" s="96"/>
+      <c r="B16" s="89"/>
+      <c r="C16" s="88"/>
       <c r="D16" s="40" t="s">
         <v>45</v>
       </c>
@@ -7218,27 +7214,27 @@
       <c r="T16" s="20"/>
       <c r="U16" s="20"/>
       <c r="V16" s="20"/>
-      <c r="W16" s="78"/>
+      <c r="W16" s="91"/>
       <c r="X16" s="20"/>
       <c r="Y16" s="20"/>
       <c r="Z16" s="20"/>
       <c r="AA16" s="20"/>
       <c r="AB16" s="20"/>
       <c r="AC16" s="20"/>
-      <c r="AD16" s="81"/>
+      <c r="AD16" s="94"/>
       <c r="AE16" s="19"/>
       <c r="AF16" s="19"/>
       <c r="AG16" s="19"/>
       <c r="AH16" s="19"/>
       <c r="AI16" s="19"/>
       <c r="AJ16" s="19"/>
-      <c r="AK16" s="74"/>
+      <c r="AK16" s="86"/>
       <c r="AL16" s="19"/>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A17" s="67"/>
-      <c r="B17" s="76"/>
-      <c r="C17" s="66"/>
+    <row r="17" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="A17" s="96"/>
+      <c r="B17" s="89"/>
+      <c r="C17" s="88"/>
       <c r="D17" s="2" t="s">
         <v>23</v>
       </c>
@@ -7262,30 +7258,30 @@
       <c r="T17" s="20"/>
       <c r="U17" s="20"/>
       <c r="V17" s="20"/>
-      <c r="W17" s="78"/>
+      <c r="W17" s="91"/>
       <c r="X17" s="20"/>
       <c r="Y17" s="20"/>
       <c r="Z17" s="20"/>
       <c r="AA17" s="20"/>
       <c r="AB17" s="20"/>
       <c r="AC17" s="20"/>
-      <c r="AD17" s="81"/>
+      <c r="AD17" s="94"/>
       <c r="AE17" s="19"/>
       <c r="AF17" s="19"/>
       <c r="AG17" s="19"/>
       <c r="AH17" s="19"/>
       <c r="AI17" s="19"/>
       <c r="AJ17" s="19"/>
-      <c r="AK17" s="74"/>
+      <c r="AK17" s="86"/>
       <c r="AL17" s="19"/>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A18" s="67"/>
-      <c r="B18" s="76"/>
-      <c r="C18" s="66" t="s">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="A18" s="96"/>
+      <c r="B18" s="89"/>
+      <c r="C18" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="66" t="s">
+      <c r="D18" s="88" t="s">
         <v>95</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -7318,28 +7314,28 @@
       <c r="T18" s="20"/>
       <c r="U18" s="20"/>
       <c r="V18" s="20"/>
-      <c r="W18" s="78"/>
+      <c r="W18" s="91"/>
       <c r="X18" s="20"/>
       <c r="Y18" s="20"/>
       <c r="Z18" s="20"/>
       <c r="AA18" s="20"/>
       <c r="AB18" s="20"/>
       <c r="AC18" s="20"/>
-      <c r="AD18" s="81"/>
+      <c r="AD18" s="94"/>
       <c r="AE18" s="19"/>
       <c r="AF18" s="19"/>
       <c r="AG18" s="19"/>
       <c r="AH18" s="19"/>
       <c r="AI18" s="19"/>
       <c r="AJ18" s="19"/>
-      <c r="AK18" s="74"/>
+      <c r="AK18" s="86"/>
       <c r="AL18" s="19"/>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A19" s="67"/>
-      <c r="B19" s="76"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
+    <row r="19" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="A19" s="96"/>
+      <c r="B19" s="89"/>
+      <c r="C19" s="88"/>
+      <c r="D19" s="88"/>
       <c r="E19" s="2" t="s">
         <v>138</v>
       </c>
@@ -7370,28 +7366,28 @@
       <c r="T19" s="20"/>
       <c r="U19" s="20"/>
       <c r="V19" s="20"/>
-      <c r="W19" s="78"/>
+      <c r="W19" s="91"/>
       <c r="X19" s="20"/>
       <c r="Y19" s="20"/>
       <c r="Z19" s="20"/>
       <c r="AA19" s="20"/>
       <c r="AB19" s="20"/>
       <c r="AC19" s="20"/>
-      <c r="AD19" s="81"/>
+      <c r="AD19" s="94"/>
       <c r="AE19" s="19"/>
       <c r="AF19" s="19"/>
       <c r="AG19" s="19"/>
       <c r="AH19" s="19"/>
       <c r="AI19" s="19"/>
       <c r="AJ19" s="19"/>
-      <c r="AK19" s="74"/>
+      <c r="AK19" s="86"/>
       <c r="AL19" s="19"/>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A20" s="67"/>
-      <c r="B20" s="76"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
+    <row r="20" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="A20" s="96"/>
+      <c r="B20" s="89"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="88"/>
       <c r="E20" s="2" t="s">
         <v>112</v>
       </c>
@@ -7422,28 +7418,28 @@
       <c r="T20" s="20"/>
       <c r="U20" s="20"/>
       <c r="V20" s="20"/>
-      <c r="W20" s="78"/>
+      <c r="W20" s="91"/>
       <c r="X20" s="20"/>
       <c r="Y20" s="20"/>
       <c r="Z20" s="20"/>
       <c r="AA20" s="20"/>
       <c r="AB20" s="20"/>
       <c r="AC20" s="20"/>
-      <c r="AD20" s="81"/>
+      <c r="AD20" s="94"/>
       <c r="AE20" s="19"/>
       <c r="AF20" s="19"/>
       <c r="AG20" s="19"/>
       <c r="AH20" s="19"/>
       <c r="AI20" s="19"/>
       <c r="AJ20" s="19"/>
-      <c r="AK20" s="74"/>
+      <c r="AK20" s="86"/>
       <c r="AL20" s="19"/>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A21" s="67"/>
-      <c r="B21" s="76"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="66"/>
+    <row r="21" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="A21" s="96"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="88"/>
       <c r="E21" s="2" t="s">
         <v>108</v>
       </c>
@@ -7474,28 +7470,28 @@
       <c r="T21" s="20"/>
       <c r="U21" s="20"/>
       <c r="V21" s="20"/>
-      <c r="W21" s="78"/>
+      <c r="W21" s="91"/>
       <c r="X21" s="20"/>
       <c r="Y21" s="20"/>
       <c r="Z21" s="20"/>
       <c r="AA21" s="20"/>
       <c r="AB21" s="20"/>
       <c r="AC21" s="20"/>
-      <c r="AD21" s="81"/>
+      <c r="AD21" s="94"/>
       <c r="AE21" s="19"/>
       <c r="AF21" s="19"/>
       <c r="AG21" s="19"/>
       <c r="AH21" s="19"/>
       <c r="AI21" s="19"/>
       <c r="AJ21" s="19"/>
-      <c r="AK21" s="74"/>
+      <c r="AK21" s="86"/>
       <c r="AL21" s="19"/>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A22" s="67"/>
-      <c r="B22" s="76"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="66"/>
+    <row r="22" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="A22" s="96"/>
+      <c r="B22" s="89"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="88"/>
       <c r="E22" s="2" t="s">
         <v>135</v>
       </c>
@@ -7526,28 +7522,28 @@
       <c r="T22" s="20"/>
       <c r="U22" s="20"/>
       <c r="V22" s="20"/>
-      <c r="W22" s="78"/>
+      <c r="W22" s="91"/>
       <c r="X22" s="20"/>
       <c r="Y22" s="20"/>
       <c r="Z22" s="20"/>
       <c r="AA22" s="20"/>
       <c r="AB22" s="20"/>
       <c r="AC22" s="20"/>
-      <c r="AD22" s="81"/>
+      <c r="AD22" s="94"/>
       <c r="AE22" s="19"/>
       <c r="AF22" s="19"/>
       <c r="AG22" s="19"/>
       <c r="AH22" s="19"/>
       <c r="AI22" s="19"/>
       <c r="AJ22" s="19"/>
-      <c r="AK22" s="74"/>
+      <c r="AK22" s="86"/>
       <c r="AL22" s="19"/>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A23" s="67"/>
-      <c r="B23" s="76"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="66"/>
+    <row r="23" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="A23" s="96"/>
+      <c r="B23" s="89"/>
+      <c r="C23" s="88"/>
+      <c r="D23" s="88"/>
       <c r="E23" s="2" t="s">
         <v>118</v>
       </c>
@@ -7578,28 +7574,28 @@
       <c r="T23" s="20"/>
       <c r="U23" s="20"/>
       <c r="V23" s="20"/>
-      <c r="W23" s="78"/>
+      <c r="W23" s="91"/>
       <c r="X23" s="20"/>
       <c r="Y23" s="20"/>
       <c r="Z23" s="20"/>
       <c r="AA23" s="20"/>
       <c r="AB23" s="20"/>
       <c r="AC23" s="20"/>
-      <c r="AD23" s="81"/>
+      <c r="AD23" s="94"/>
       <c r="AE23" s="19"/>
       <c r="AF23" s="19"/>
       <c r="AG23" s="19"/>
       <c r="AH23" s="19"/>
       <c r="AI23" s="19"/>
       <c r="AJ23" s="19"/>
-      <c r="AK23" s="74"/>
+      <c r="AK23" s="86"/>
       <c r="AL23" s="19"/>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A24" s="67"/>
-      <c r="B24" s="76"/>
-      <c r="C24" s="66"/>
-      <c r="D24" s="66"/>
+    <row r="24" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="A24" s="96"/>
+      <c r="B24" s="89"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="88"/>
       <c r="E24" s="2" t="s">
         <v>109</v>
       </c>
@@ -7630,28 +7626,28 @@
       <c r="T24" s="20"/>
       <c r="U24" s="20"/>
       <c r="V24" s="20"/>
-      <c r="W24" s="78"/>
+      <c r="W24" s="91"/>
       <c r="X24" s="20"/>
       <c r="Y24" s="20"/>
       <c r="Z24" s="20"/>
       <c r="AA24" s="20"/>
       <c r="AB24" s="20"/>
       <c r="AC24" s="20"/>
-      <c r="AD24" s="81"/>
+      <c r="AD24" s="94"/>
       <c r="AE24" s="19"/>
       <c r="AF24" s="19"/>
       <c r="AG24" s="19"/>
       <c r="AH24" s="19"/>
       <c r="AI24" s="19"/>
       <c r="AJ24" s="19"/>
-      <c r="AK24" s="74"/>
+      <c r="AK24" s="86"/>
       <c r="AL24" s="19"/>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A25" s="67"/>
-      <c r="B25" s="76"/>
-      <c r="C25" s="66"/>
-      <c r="D25" s="66"/>
+    <row r="25" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="A25" s="96"/>
+      <c r="B25" s="89"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="88"/>
       <c r="E25" s="2" t="s">
         <v>167</v>
       </c>
@@ -7682,28 +7678,28 @@
       <c r="T25" s="50"/>
       <c r="U25" s="50"/>
       <c r="V25" s="50"/>
-      <c r="W25" s="78"/>
+      <c r="W25" s="91"/>
       <c r="X25" s="50"/>
       <c r="Y25" s="50"/>
       <c r="Z25" s="50"/>
       <c r="AA25" s="50"/>
       <c r="AB25" s="50"/>
       <c r="AC25" s="50"/>
-      <c r="AD25" s="81"/>
+      <c r="AD25" s="94"/>
       <c r="AE25" s="51"/>
       <c r="AF25" s="51"/>
       <c r="AG25" s="51"/>
       <c r="AH25" s="51"/>
       <c r="AI25" s="51"/>
       <c r="AJ25" s="51"/>
-      <c r="AK25" s="74"/>
+      <c r="AK25" s="86"/>
       <c r="AL25" s="51"/>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A26" s="67"/>
-      <c r="B26" s="76"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="66"/>
+    <row r="26" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="A26" s="96"/>
+      <c r="B26" s="89"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="88"/>
       <c r="E26" s="2" t="s">
         <v>106</v>
       </c>
@@ -7734,28 +7730,28 @@
       <c r="T26" s="20"/>
       <c r="U26" s="20"/>
       <c r="V26" s="20"/>
-      <c r="W26" s="78"/>
+      <c r="W26" s="91"/>
       <c r="X26" s="20"/>
       <c r="Y26" s="20"/>
       <c r="Z26" s="20"/>
       <c r="AA26" s="20"/>
       <c r="AB26" s="20"/>
       <c r="AC26" s="20"/>
-      <c r="AD26" s="81"/>
+      <c r="AD26" s="94"/>
       <c r="AE26" s="19"/>
       <c r="AF26" s="19"/>
       <c r="AG26" s="19"/>
       <c r="AH26" s="19"/>
       <c r="AI26" s="19"/>
       <c r="AJ26" s="19"/>
-      <c r="AK26" s="74"/>
+      <c r="AK26" s="86"/>
       <c r="AL26" s="19"/>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A27" s="67"/>
-      <c r="B27" s="76"/>
-      <c r="C27" s="66"/>
-      <c r="D27" s="66"/>
+    <row r="27" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="A27" s="96"/>
+      <c r="B27" s="89"/>
+      <c r="C27" s="88"/>
+      <c r="D27" s="88"/>
       <c r="E27" s="2" t="s">
         <v>102</v>
       </c>
@@ -7786,28 +7782,28 @@
       <c r="T27" s="20"/>
       <c r="U27" s="20"/>
       <c r="V27" s="20"/>
-      <c r="W27" s="78"/>
+      <c r="W27" s="91"/>
       <c r="X27" s="20"/>
       <c r="Y27" s="20"/>
       <c r="Z27" s="20"/>
       <c r="AA27" s="20"/>
       <c r="AB27" s="20"/>
       <c r="AC27" s="20"/>
-      <c r="AD27" s="81"/>
+      <c r="AD27" s="94"/>
       <c r="AE27" s="19"/>
       <c r="AF27" s="19"/>
       <c r="AG27" s="19"/>
       <c r="AH27" s="19"/>
       <c r="AI27" s="19"/>
       <c r="AJ27" s="19"/>
-      <c r="AK27" s="74"/>
+      <c r="AK27" s="86"/>
       <c r="AL27" s="19"/>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A28" s="67"/>
-      <c r="B28" s="76"/>
-      <c r="C28" s="66"/>
-      <c r="D28" s="66" t="s">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="A28" s="96"/>
+      <c r="B28" s="89"/>
+      <c r="C28" s="88"/>
+      <c r="D28" s="88" t="s">
         <v>25</v>
       </c>
       <c r="E28" s="2" t="s">
@@ -7840,28 +7836,28 @@
       <c r="T28" s="20"/>
       <c r="U28" s="20"/>
       <c r="V28" s="20"/>
-      <c r="W28" s="78"/>
+      <c r="W28" s="91"/>
       <c r="X28" s="20"/>
       <c r="Y28" s="20"/>
       <c r="Z28" s="20"/>
       <c r="AA28" s="20"/>
       <c r="AB28" s="20"/>
       <c r="AC28" s="20"/>
-      <c r="AD28" s="81"/>
+      <c r="AD28" s="94"/>
       <c r="AE28" s="19"/>
       <c r="AF28" s="19"/>
       <c r="AG28" s="19"/>
       <c r="AH28" s="19"/>
       <c r="AI28" s="19"/>
       <c r="AJ28" s="19"/>
-      <c r="AK28" s="74"/>
+      <c r="AK28" s="86"/>
       <c r="AL28" s="19"/>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A29" s="67"/>
-      <c r="B29" s="76"/>
-      <c r="C29" s="66"/>
-      <c r="D29" s="66"/>
+    <row r="29" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="A29" s="96"/>
+      <c r="B29" s="89"/>
+      <c r="C29" s="88"/>
+      <c r="D29" s="88"/>
       <c r="E29" s="2" t="s">
         <v>119</v>
       </c>
@@ -7892,28 +7888,28 @@
       <c r="T29" s="20"/>
       <c r="U29" s="20"/>
       <c r="V29" s="20"/>
-      <c r="W29" s="78"/>
+      <c r="W29" s="91"/>
       <c r="X29" s="20"/>
       <c r="Y29" s="20"/>
       <c r="Z29" s="20"/>
       <c r="AA29" s="20"/>
       <c r="AB29" s="20"/>
       <c r="AC29" s="20"/>
-      <c r="AD29" s="81"/>
+      <c r="AD29" s="94"/>
       <c r="AE29" s="19"/>
       <c r="AF29" s="19"/>
       <c r="AG29" s="19"/>
       <c r="AH29" s="19"/>
       <c r="AI29" s="19"/>
       <c r="AJ29" s="19"/>
-      <c r="AK29" s="74"/>
+      <c r="AK29" s="86"/>
       <c r="AL29" s="19"/>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A30" s="67"/>
-      <c r="B30" s="76"/>
-      <c r="C30" s="66"/>
-      <c r="D30" s="66" t="s">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="A30" s="96"/>
+      <c r="B30" s="89"/>
+      <c r="C30" s="88"/>
+      <c r="D30" s="88" t="s">
         <v>13</v>
       </c>
       <c r="E30" s="2" t="s">
@@ -7944,28 +7940,28 @@
       <c r="T30" s="20"/>
       <c r="U30" s="20"/>
       <c r="V30" s="20"/>
-      <c r="W30" s="78"/>
+      <c r="W30" s="91"/>
       <c r="X30" s="20"/>
       <c r="Y30" s="20"/>
       <c r="Z30" s="20"/>
       <c r="AA30" s="20"/>
       <c r="AB30" s="20"/>
       <c r="AC30" s="20"/>
-      <c r="AD30" s="81"/>
+      <c r="AD30" s="94"/>
       <c r="AE30" s="19"/>
       <c r="AF30" s="19"/>
       <c r="AG30" s="19"/>
       <c r="AH30" s="19"/>
       <c r="AI30" s="19"/>
       <c r="AJ30" s="19"/>
-      <c r="AK30" s="74"/>
+      <c r="AK30" s="86"/>
       <c r="AL30" s="19"/>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A31" s="67"/>
-      <c r="B31" s="76"/>
-      <c r="C31" s="66"/>
-      <c r="D31" s="66"/>
+    <row r="31" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="A31" s="96"/>
+      <c r="B31" s="89"/>
+      <c r="C31" s="88"/>
+      <c r="D31" s="88"/>
       <c r="E31" s="2" t="s">
         <v>143</v>
       </c>
@@ -7988,28 +7984,28 @@
       <c r="T31" s="20"/>
       <c r="U31" s="20"/>
       <c r="V31" s="20"/>
-      <c r="W31" s="78"/>
+      <c r="W31" s="91"/>
       <c r="X31" s="20"/>
       <c r="Y31" s="20"/>
       <c r="Z31" s="20"/>
       <c r="AA31" s="20"/>
       <c r="AB31" s="20"/>
       <c r="AC31" s="20"/>
-      <c r="AD31" s="81"/>
+      <c r="AD31" s="94"/>
       <c r="AE31" s="19"/>
       <c r="AF31" s="19"/>
       <c r="AG31" s="19"/>
       <c r="AH31" s="19"/>
       <c r="AI31" s="19"/>
       <c r="AJ31" s="19"/>
-      <c r="AK31" s="74"/>
+      <c r="AK31" s="86"/>
       <c r="AL31" s="19"/>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A32" s="67"/>
-      <c r="B32" s="76"/>
-      <c r="C32" s="66"/>
-      <c r="D32" s="66"/>
+    <row r="32" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="A32" s="96"/>
+      <c r="B32" s="89"/>
+      <c r="C32" s="88"/>
+      <c r="D32" s="88"/>
       <c r="E32" s="2" t="s">
         <v>113</v>
       </c>
@@ -8040,28 +8036,28 @@
       <c r="T32" s="20"/>
       <c r="U32" s="20"/>
       <c r="V32" s="20"/>
-      <c r="W32" s="78"/>
+      <c r="W32" s="91"/>
       <c r="X32" s="20"/>
       <c r="Y32" s="20"/>
       <c r="Z32" s="20"/>
       <c r="AA32" s="20"/>
       <c r="AB32" s="20"/>
       <c r="AC32" s="20"/>
-      <c r="AD32" s="81"/>
+      <c r="AD32" s="94"/>
       <c r="AE32" s="19"/>
       <c r="AF32" s="19"/>
       <c r="AG32" s="19"/>
       <c r="AH32" s="19"/>
       <c r="AI32" s="19"/>
       <c r="AJ32" s="19"/>
-      <c r="AK32" s="74"/>
+      <c r="AK32" s="86"/>
       <c r="AL32" s="19"/>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A33" s="67"/>
-      <c r="B33" s="76"/>
-      <c r="C33" s="66"/>
-      <c r="D33" s="66" t="s">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="A33" s="96"/>
+      <c r="B33" s="89"/>
+      <c r="C33" s="88"/>
+      <c r="D33" s="88" t="s">
         <v>90</v>
       </c>
       <c r="E33" s="2" t="s">
@@ -8094,28 +8090,28 @@
       <c r="T33" s="20"/>
       <c r="U33" s="20"/>
       <c r="V33" s="20"/>
-      <c r="W33" s="78"/>
+      <c r="W33" s="91"/>
       <c r="X33" s="20"/>
       <c r="Y33" s="20"/>
       <c r="Z33" s="20"/>
       <c r="AA33" s="20"/>
       <c r="AB33" s="20"/>
       <c r="AC33" s="20"/>
-      <c r="AD33" s="81"/>
+      <c r="AD33" s="94"/>
       <c r="AE33" s="19"/>
       <c r="AF33" s="19"/>
       <c r="AG33" s="19"/>
       <c r="AH33" s="19"/>
       <c r="AI33" s="19"/>
       <c r="AJ33" s="19"/>
-      <c r="AK33" s="74"/>
+      <c r="AK33" s="86"/>
       <c r="AL33" s="19"/>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A34" s="67"/>
-      <c r="B34" s="76"/>
-      <c r="C34" s="66"/>
-      <c r="D34" s="66"/>
+    <row r="34" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="A34" s="96"/>
+      <c r="B34" s="89"/>
+      <c r="C34" s="88"/>
+      <c r="D34" s="88"/>
       <c r="E34" s="2" t="s">
         <v>141</v>
       </c>
@@ -8146,28 +8142,28 @@
       <c r="T34" s="20"/>
       <c r="U34" s="20"/>
       <c r="V34" s="20"/>
-      <c r="W34" s="78"/>
+      <c r="W34" s="91"/>
       <c r="X34" s="20"/>
       <c r="Y34" s="20"/>
       <c r="Z34" s="20"/>
       <c r="AA34" s="20"/>
       <c r="AB34" s="20"/>
       <c r="AC34" s="20"/>
-      <c r="AD34" s="81"/>
+      <c r="AD34" s="94"/>
       <c r="AE34" s="19"/>
       <c r="AF34" s="19"/>
       <c r="AG34" s="19"/>
       <c r="AH34" s="19"/>
       <c r="AI34" s="19"/>
       <c r="AJ34" s="19"/>
-      <c r="AK34" s="74"/>
+      <c r="AK34" s="86"/>
       <c r="AL34" s="19"/>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A35" s="67"/>
-      <c r="B35" s="76"/>
-      <c r="C35" s="66"/>
-      <c r="D35" s="66"/>
+    <row r="35" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="A35" s="96"/>
+      <c r="B35" s="89"/>
+      <c r="C35" s="88"/>
+      <c r="D35" s="88"/>
       <c r="E35" s="2" t="s">
         <v>103</v>
       </c>
@@ -8198,27 +8194,27 @@
       <c r="T35" s="20"/>
       <c r="U35" s="20"/>
       <c r="V35" s="20"/>
-      <c r="W35" s="78"/>
+      <c r="W35" s="91"/>
       <c r="X35" s="20"/>
       <c r="Y35" s="20"/>
       <c r="Z35" s="20"/>
       <c r="AA35" s="20"/>
       <c r="AB35" s="20"/>
       <c r="AC35" s="20"/>
-      <c r="AD35" s="81"/>
+      <c r="AD35" s="94"/>
       <c r="AE35" s="19"/>
       <c r="AF35" s="19"/>
       <c r="AG35" s="19"/>
       <c r="AH35" s="19"/>
       <c r="AI35" s="19"/>
       <c r="AJ35" s="19"/>
-      <c r="AK35" s="74"/>
+      <c r="AK35" s="86"/>
       <c r="AL35" s="19"/>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A36" s="67"/>
-      <c r="B36" s="76"/>
-      <c r="C36" s="66"/>
+    <row r="36" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="A36" s="96"/>
+      <c r="B36" s="89"/>
+      <c r="C36" s="88"/>
       <c r="D36" s="2" t="s">
         <v>24</v>
       </c>
@@ -8244,27 +8240,27 @@
       <c r="T36" s="20"/>
       <c r="U36" s="20"/>
       <c r="V36" s="20"/>
-      <c r="W36" s="78"/>
+      <c r="W36" s="91"/>
       <c r="X36" s="20"/>
       <c r="Y36" s="20"/>
       <c r="Z36" s="20"/>
       <c r="AA36" s="20"/>
       <c r="AB36" s="20"/>
       <c r="AC36" s="20"/>
-      <c r="AD36" s="81"/>
+      <c r="AD36" s="94"/>
       <c r="AE36" s="19"/>
       <c r="AF36" s="19"/>
       <c r="AG36" s="19"/>
       <c r="AH36" s="19"/>
       <c r="AI36" s="19"/>
       <c r="AJ36" s="19"/>
-      <c r="AK36" s="74"/>
+      <c r="AK36" s="86"/>
       <c r="AL36" s="19"/>
     </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A37" s="67"/>
-      <c r="B37" s="76"/>
-      <c r="C37" s="66"/>
+    <row r="37" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="A37" s="96"/>
+      <c r="B37" s="89"/>
+      <c r="C37" s="88"/>
       <c r="D37" s="2" t="s">
         <v>144</v>
       </c>
@@ -8298,27 +8294,27 @@
       <c r="T37" s="20"/>
       <c r="U37" s="20"/>
       <c r="V37" s="20"/>
-      <c r="W37" s="78"/>
+      <c r="W37" s="91"/>
       <c r="X37" s="20"/>
       <c r="Y37" s="20"/>
       <c r="Z37" s="20"/>
       <c r="AA37" s="20"/>
       <c r="AB37" s="20"/>
       <c r="AC37" s="20"/>
-      <c r="AD37" s="81"/>
+      <c r="AD37" s="94"/>
       <c r="AE37" s="19"/>
       <c r="AF37" s="19"/>
       <c r="AG37" s="19"/>
       <c r="AH37" s="19"/>
       <c r="AI37" s="19"/>
       <c r="AJ37" s="19"/>
-      <c r="AK37" s="74"/>
+      <c r="AK37" s="86"/>
       <c r="AL37" s="19"/>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A38" s="67"/>
-      <c r="B38" s="76"/>
-      <c r="C38" s="66"/>
+    <row r="38" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="A38" s="96"/>
+      <c r="B38" s="89"/>
+      <c r="C38" s="88"/>
       <c r="D38" s="2" t="s">
         <v>94</v>
       </c>
@@ -8342,27 +8338,27 @@
       <c r="T38" s="20"/>
       <c r="U38" s="20"/>
       <c r="V38" s="20"/>
-      <c r="W38" s="78"/>
+      <c r="W38" s="91"/>
       <c r="X38" s="20"/>
       <c r="Y38" s="20"/>
       <c r="Z38" s="20"/>
       <c r="AA38" s="20"/>
       <c r="AB38" s="20"/>
       <c r="AC38" s="20"/>
-      <c r="AD38" s="81"/>
+      <c r="AD38" s="94"/>
       <c r="AE38" s="19"/>
       <c r="AF38" s="19"/>
       <c r="AG38" s="19"/>
       <c r="AH38" s="19"/>
       <c r="AI38" s="19"/>
       <c r="AJ38" s="19"/>
-      <c r="AK38" s="74"/>
+      <c r="AK38" s="86"/>
       <c r="AL38" s="19"/>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A39" s="67"/>
-      <c r="B39" s="76"/>
-      <c r="C39" s="66"/>
+    <row r="39" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="A39" s="96"/>
+      <c r="B39" s="89"/>
+      <c r="C39" s="88"/>
       <c r="D39" s="2" t="s">
         <v>23</v>
       </c>
@@ -8386,27 +8382,27 @@
       <c r="T39" s="20"/>
       <c r="U39" s="20"/>
       <c r="V39" s="20"/>
-      <c r="W39" s="78"/>
+      <c r="W39" s="91"/>
       <c r="X39" s="20"/>
       <c r="Y39" s="20"/>
       <c r="Z39" s="20"/>
       <c r="AA39" s="20"/>
       <c r="AB39" s="20"/>
       <c r="AC39" s="20"/>
-      <c r="AD39" s="81"/>
+      <c r="AD39" s="94"/>
       <c r="AE39" s="19"/>
       <c r="AF39" s="19"/>
       <c r="AG39" s="19"/>
       <c r="AH39" s="19"/>
       <c r="AI39" s="19"/>
       <c r="AJ39" s="19"/>
-      <c r="AK39" s="74"/>
+      <c r="AK39" s="86"/>
       <c r="AL39" s="19"/>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A40" s="67"/>
-      <c r="B40" s="76"/>
-      <c r="C40" s="66"/>
+    <row r="40" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="A40" s="96"/>
+      <c r="B40" s="89"/>
+      <c r="C40" s="88"/>
       <c r="D40" s="39" t="s">
         <v>27</v>
       </c>
@@ -8430,27 +8426,27 @@
       <c r="T40" s="20"/>
       <c r="U40" s="20"/>
       <c r="V40" s="20"/>
-      <c r="W40" s="78"/>
+      <c r="W40" s="91"/>
       <c r="X40" s="20"/>
       <c r="Y40" s="20"/>
       <c r="Z40" s="20"/>
       <c r="AA40" s="20"/>
       <c r="AB40" s="20"/>
       <c r="AC40" s="20"/>
-      <c r="AD40" s="81"/>
+      <c r="AD40" s="94"/>
       <c r="AE40" s="19"/>
       <c r="AF40" s="19"/>
       <c r="AG40" s="19"/>
       <c r="AH40" s="19"/>
       <c r="AI40" s="19"/>
       <c r="AJ40" s="19"/>
-      <c r="AK40" s="74"/>
+      <c r="AK40" s="86"/>
       <c r="AL40" s="19"/>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A41" s="67"/>
-      <c r="B41" s="76"/>
-      <c r="C41" s="66"/>
+    <row r="41" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="A41" s="96"/>
+      <c r="B41" s="89"/>
+      <c r="C41" s="88"/>
       <c r="D41" s="38" t="s">
         <v>45</v>
       </c>
@@ -8474,27 +8470,27 @@
       <c r="T41" s="20"/>
       <c r="U41" s="20"/>
       <c r="V41" s="20"/>
-      <c r="W41" s="78"/>
+      <c r="W41" s="91"/>
       <c r="X41" s="20"/>
       <c r="Y41" s="20"/>
       <c r="Z41" s="20"/>
       <c r="AA41" s="20"/>
       <c r="AB41" s="20"/>
       <c r="AC41" s="20"/>
-      <c r="AD41" s="81"/>
+      <c r="AD41" s="94"/>
       <c r="AE41" s="19"/>
       <c r="AF41" s="19"/>
       <c r="AG41" s="19"/>
       <c r="AH41" s="19"/>
       <c r="AI41" s="19"/>
       <c r="AJ41" s="19"/>
-      <c r="AK41" s="74"/>
+      <c r="AK41" s="86"/>
       <c r="AL41" s="19"/>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A42" s="67"/>
-      <c r="B42" s="76"/>
-      <c r="C42" s="66"/>
+    <row r="42" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="A42" s="96"/>
+      <c r="B42" s="89"/>
+      <c r="C42" s="88"/>
       <c r="D42" s="2" t="s">
         <v>26</v>
       </c>
@@ -8518,27 +8514,27 @@
       <c r="T42" s="20"/>
       <c r="U42" s="20"/>
       <c r="V42" s="20"/>
-      <c r="W42" s="78"/>
+      <c r="W42" s="91"/>
       <c r="X42" s="20"/>
       <c r="Y42" s="20"/>
       <c r="Z42" s="20"/>
       <c r="AA42" s="20"/>
       <c r="AB42" s="20"/>
       <c r="AC42" s="20"/>
-      <c r="AD42" s="81"/>
+      <c r="AD42" s="94"/>
       <c r="AE42" s="19"/>
       <c r="AF42" s="19"/>
       <c r="AG42" s="19"/>
       <c r="AH42" s="19"/>
       <c r="AI42" s="19"/>
       <c r="AJ42" s="19"/>
-      <c r="AK42" s="74"/>
+      <c r="AK42" s="86"/>
       <c r="AL42" s="19"/>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A43" s="67"/>
-      <c r="B43" s="76"/>
-      <c r="C43" s="66" t="s">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="A43" s="96"/>
+      <c r="B43" s="89"/>
+      <c r="C43" s="88" t="s">
         <v>42</v>
       </c>
       <c r="D43" s="40" t="s">
@@ -8564,27 +8560,27 @@
       <c r="T43" s="20"/>
       <c r="U43" s="20"/>
       <c r="V43" s="20"/>
-      <c r="W43" s="78"/>
+      <c r="W43" s="91"/>
       <c r="X43" s="20"/>
       <c r="Y43" s="20"/>
       <c r="Z43" s="20"/>
       <c r="AA43" s="20"/>
       <c r="AB43" s="20"/>
       <c r="AC43" s="20"/>
-      <c r="AD43" s="81"/>
+      <c r="AD43" s="94"/>
       <c r="AE43" s="19"/>
       <c r="AF43" s="19"/>
       <c r="AG43" s="19"/>
       <c r="AH43" s="19"/>
       <c r="AI43" s="19"/>
       <c r="AJ43" s="19"/>
-      <c r="AK43" s="74"/>
+      <c r="AK43" s="86"/>
       <c r="AL43" s="19"/>
     </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A44" s="67"/>
-      <c r="B44" s="76"/>
-      <c r="C44" s="66"/>
+    <row r="44" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="A44" s="96"/>
+      <c r="B44" s="89"/>
+      <c r="C44" s="88"/>
       <c r="D44" s="2" t="s">
         <v>26</v>
       </c>
@@ -8608,27 +8604,27 @@
       <c r="T44" s="20"/>
       <c r="U44" s="20"/>
       <c r="V44" s="20"/>
-      <c r="W44" s="78"/>
+      <c r="W44" s="91"/>
       <c r="X44" s="20"/>
       <c r="Y44" s="20"/>
       <c r="Z44" s="20"/>
       <c r="AA44" s="20"/>
       <c r="AB44" s="20"/>
       <c r="AC44" s="20"/>
-      <c r="AD44" s="81"/>
+      <c r="AD44" s="94"/>
       <c r="AE44" s="19"/>
       <c r="AF44" s="19"/>
       <c r="AG44" s="19"/>
       <c r="AH44" s="19"/>
       <c r="AI44" s="19"/>
       <c r="AJ44" s="19"/>
-      <c r="AK44" s="74"/>
+      <c r="AK44" s="86"/>
       <c r="AL44" s="19"/>
     </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A45" s="67"/>
-      <c r="B45" s="76"/>
-      <c r="C45" s="66" t="s">
+    <row r="45" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="A45" s="96"/>
+      <c r="B45" s="89"/>
+      <c r="C45" s="88" t="s">
         <v>43</v>
       </c>
       <c r="D45" s="38" t="s">
@@ -8654,27 +8650,27 @@
       <c r="T45" s="20"/>
       <c r="U45" s="20"/>
       <c r="V45" s="20"/>
-      <c r="W45" s="78"/>
+      <c r="W45" s="91"/>
       <c r="X45" s="20"/>
       <c r="Y45" s="20"/>
       <c r="Z45" s="20"/>
       <c r="AA45" s="20"/>
       <c r="AB45" s="20"/>
       <c r="AC45" s="20"/>
-      <c r="AD45" s="81"/>
+      <c r="AD45" s="94"/>
       <c r="AE45" s="19"/>
       <c r="AF45" s="19"/>
       <c r="AG45" s="19"/>
       <c r="AH45" s="19"/>
       <c r="AI45" s="19"/>
       <c r="AJ45" s="19"/>
-      <c r="AK45" s="74"/>
+      <c r="AK45" s="86"/>
       <c r="AL45" s="19"/>
     </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A46" s="67"/>
-      <c r="B46" s="76"/>
-      <c r="C46" s="66"/>
+    <row r="46" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="A46" s="96"/>
+      <c r="B46" s="89"/>
+      <c r="C46" s="88"/>
       <c r="D46" s="2" t="s">
         <v>26</v>
       </c>
@@ -8698,27 +8694,27 @@
       <c r="T46" s="20"/>
       <c r="U46" s="20"/>
       <c r="V46" s="20"/>
-      <c r="W46" s="78"/>
+      <c r="W46" s="91"/>
       <c r="X46" s="20"/>
       <c r="Y46" s="20"/>
       <c r="Z46" s="20"/>
       <c r="AA46" s="20"/>
       <c r="AB46" s="20"/>
       <c r="AC46" s="20"/>
-      <c r="AD46" s="81"/>
+      <c r="AD46" s="94"/>
       <c r="AE46" s="19"/>
       <c r="AF46" s="19"/>
       <c r="AG46" s="19"/>
       <c r="AH46" s="19"/>
       <c r="AI46" s="19"/>
       <c r="AJ46" s="19"/>
-      <c r="AK46" s="74"/>
+      <c r="AK46" s="86"/>
       <c r="AL46" s="19"/>
     </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A47" s="67"/>
-      <c r="B47" s="76"/>
-      <c r="C47" s="66"/>
+    <row r="47" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="A47" s="96"/>
+      <c r="B47" s="89"/>
+      <c r="C47" s="88"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="20"/>
@@ -8740,27 +8736,27 @@
       <c r="T47" s="20"/>
       <c r="U47" s="20"/>
       <c r="V47" s="20"/>
-      <c r="W47" s="78"/>
+      <c r="W47" s="91"/>
       <c r="X47" s="20"/>
       <c r="Y47" s="20"/>
       <c r="Z47" s="20"/>
       <c r="AA47" s="20"/>
       <c r="AB47" s="20"/>
       <c r="AC47" s="20"/>
-      <c r="AD47" s="81"/>
+      <c r="AD47" s="94"/>
       <c r="AE47" s="19"/>
       <c r="AF47" s="19"/>
       <c r="AG47" s="19"/>
       <c r="AH47" s="19"/>
       <c r="AI47" s="19"/>
       <c r="AJ47" s="19"/>
-      <c r="AK47" s="74"/>
+      <c r="AK47" s="86"/>
       <c r="AL47" s="19"/>
     </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A48" s="67"/>
-      <c r="B48" s="76"/>
-      <c r="C48" s="66" t="s">
+    <row r="48" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="A48" s="96"/>
+      <c r="B48" s="89"/>
+      <c r="C48" s="88" t="s">
         <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
@@ -8786,27 +8782,27 @@
       <c r="T48" s="20"/>
       <c r="U48" s="20"/>
       <c r="V48" s="20"/>
-      <c r="W48" s="78"/>
+      <c r="W48" s="91"/>
       <c r="X48" s="20"/>
       <c r="Y48" s="20"/>
       <c r="Z48" s="20"/>
       <c r="AA48" s="20"/>
       <c r="AB48" s="20"/>
       <c r="AC48" s="20"/>
-      <c r="AD48" s="81"/>
+      <c r="AD48" s="94"/>
       <c r="AE48" s="19"/>
       <c r="AF48" s="19"/>
       <c r="AG48" s="19"/>
       <c r="AH48" s="19"/>
       <c r="AI48" s="19"/>
       <c r="AJ48" s="19"/>
-      <c r="AK48" s="74"/>
+      <c r="AK48" s="86"/>
       <c r="AL48" s="19"/>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A49" s="67"/>
-      <c r="B49" s="76"/>
-      <c r="C49" s="66"/>
+    <row r="49" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="A49" s="96"/>
+      <c r="B49" s="89"/>
+      <c r="C49" s="88"/>
       <c r="D49" s="2" t="s">
         <v>36</v>
       </c>
@@ -8830,27 +8826,27 @@
       <c r="T49" s="20"/>
       <c r="U49" s="20"/>
       <c r="V49" s="20"/>
-      <c r="W49" s="78"/>
+      <c r="W49" s="91"/>
       <c r="X49" s="20"/>
       <c r="Y49" s="20"/>
       <c r="Z49" s="20"/>
       <c r="AA49" s="20"/>
       <c r="AB49" s="20"/>
       <c r="AC49" s="20"/>
-      <c r="AD49" s="81"/>
+      <c r="AD49" s="94"/>
       <c r="AE49" s="19"/>
       <c r="AF49" s="19"/>
       <c r="AG49" s="19"/>
       <c r="AH49" s="19"/>
       <c r="AI49" s="19"/>
       <c r="AJ49" s="19"/>
-      <c r="AK49" s="74"/>
+      <c r="AK49" s="86"/>
       <c r="AL49" s="19"/>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A50" s="67"/>
-      <c r="B50" s="76"/>
-      <c r="C50" s="66"/>
+    <row r="50" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="A50" s="96"/>
+      <c r="B50" s="89"/>
+      <c r="C50" s="88"/>
       <c r="D50" s="2" t="s">
         <v>37</v>
       </c>
@@ -8874,27 +8870,27 @@
       <c r="T50" s="20"/>
       <c r="U50" s="20"/>
       <c r="V50" s="20"/>
-      <c r="W50" s="78"/>
+      <c r="W50" s="91"/>
       <c r="X50" s="20"/>
       <c r="Y50" s="20"/>
       <c r="Z50" s="20"/>
       <c r="AA50" s="20"/>
       <c r="AB50" s="20"/>
       <c r="AC50" s="20"/>
-      <c r="AD50" s="81"/>
+      <c r="AD50" s="94"/>
       <c r="AE50" s="19"/>
       <c r="AF50" s="19"/>
       <c r="AG50" s="19"/>
       <c r="AH50" s="19"/>
       <c r="AI50" s="19"/>
       <c r="AJ50" s="19"/>
-      <c r="AK50" s="74"/>
+      <c r="AK50" s="86"/>
       <c r="AL50" s="19"/>
     </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A51" s="67"/>
-      <c r="B51" s="76"/>
-      <c r="C51" s="66"/>
+    <row r="51" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="A51" s="96"/>
+      <c r="B51" s="89"/>
+      <c r="C51" s="88"/>
       <c r="D51" s="2" t="s">
         <v>38</v>
       </c>
@@ -8918,27 +8914,27 @@
       <c r="T51" s="20"/>
       <c r="U51" s="20"/>
       <c r="V51" s="20"/>
-      <c r="W51" s="78"/>
+      <c r="W51" s="91"/>
       <c r="X51" s="20"/>
       <c r="Y51" s="20"/>
       <c r="Z51" s="20"/>
       <c r="AA51" s="20"/>
       <c r="AB51" s="20"/>
       <c r="AC51" s="20"/>
-      <c r="AD51" s="81"/>
+      <c r="AD51" s="94"/>
       <c r="AE51" s="19"/>
       <c r="AF51" s="19"/>
       <c r="AG51" s="19"/>
       <c r="AH51" s="19"/>
       <c r="AI51" s="19"/>
       <c r="AJ51" s="19"/>
-      <c r="AK51" s="74"/>
+      <c r="AK51" s="86"/>
       <c r="AL51" s="19"/>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A52" s="67"/>
-      <c r="B52" s="76"/>
-      <c r="C52" s="66"/>
+    <row r="52" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="A52" s="96"/>
+      <c r="B52" s="89"/>
+      <c r="C52" s="88"/>
       <c r="D52" s="2" t="s">
         <v>33</v>
       </c>
@@ -8962,27 +8958,27 @@
       <c r="T52" s="20"/>
       <c r="U52" s="20"/>
       <c r="V52" s="20"/>
-      <c r="W52" s="78"/>
+      <c r="W52" s="91"/>
       <c r="X52" s="20"/>
       <c r="Y52" s="20"/>
       <c r="Z52" s="20"/>
       <c r="AA52" s="20"/>
       <c r="AB52" s="20"/>
       <c r="AC52" s="20"/>
-      <c r="AD52" s="81"/>
+      <c r="AD52" s="94"/>
       <c r="AE52" s="19"/>
       <c r="AF52" s="19"/>
       <c r="AG52" s="19"/>
       <c r="AH52" s="19"/>
       <c r="AI52" s="19"/>
       <c r="AJ52" s="19"/>
-      <c r="AK52" s="74"/>
+      <c r="AK52" s="86"/>
       <c r="AL52" s="19"/>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A53" s="67"/>
-      <c r="B53" s="76"/>
-      <c r="C53" s="66" t="s">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="A53" s="96"/>
+      <c r="B53" s="89"/>
+      <c r="C53" s="88" t="s">
         <v>121</v>
       </c>
       <c r="D53" s="2" t="s">
@@ -9012,27 +9008,27 @@
       <c r="T53" s="20"/>
       <c r="U53" s="20"/>
       <c r="V53" s="20"/>
-      <c r="W53" s="78"/>
+      <c r="W53" s="91"/>
       <c r="X53" s="20"/>
       <c r="Y53" s="20"/>
       <c r="Z53" s="20"/>
       <c r="AA53" s="20"/>
       <c r="AB53" s="20"/>
       <c r="AC53" s="20"/>
-      <c r="AD53" s="81"/>
+      <c r="AD53" s="94"/>
       <c r="AE53" s="19"/>
       <c r="AF53" s="19"/>
       <c r="AG53" s="19"/>
       <c r="AH53" s="19"/>
       <c r="AI53" s="19"/>
       <c r="AJ53" s="19"/>
-      <c r="AK53" s="74"/>
+      <c r="AK53" s="86"/>
       <c r="AL53" s="19"/>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A54" s="67"/>
-      <c r="B54" s="76"/>
-      <c r="C54" s="66"/>
+    <row r="54" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="A54" s="96"/>
+      <c r="B54" s="89"/>
+      <c r="C54" s="88"/>
       <c r="D54" s="2" t="s">
         <v>151</v>
       </c>
@@ -9060,26 +9056,26 @@
       <c r="T54" s="20"/>
       <c r="U54" s="20"/>
       <c r="V54" s="20"/>
-      <c r="W54" s="78"/>
+      <c r="W54" s="91"/>
       <c r="X54" s="20"/>
       <c r="Y54" s="20"/>
       <c r="Z54" s="20"/>
       <c r="AA54" s="20"/>
       <c r="AB54" s="20"/>
       <c r="AC54" s="20"/>
-      <c r="AD54" s="81"/>
+      <c r="AD54" s="94"/>
       <c r="AE54" s="19"/>
       <c r="AF54" s="19"/>
       <c r="AG54" s="19"/>
       <c r="AH54" s="19"/>
       <c r="AI54" s="19"/>
       <c r="AJ54" s="19"/>
-      <c r="AK54" s="74"/>
+      <c r="AK54" s="86"/>
       <c r="AL54" s="19"/>
     </row>
-    <row r="55" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="67"/>
-      <c r="B55" s="76"/>
+    <row r="55" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A55" s="96"/>
+      <c r="B55" s="89"/>
       <c r="C55" s="21" t="s">
         <v>71</v>
       </c>
@@ -9106,32 +9102,32 @@
       <c r="T55" s="21"/>
       <c r="U55" s="21"/>
       <c r="V55" s="21"/>
-      <c r="W55" s="78"/>
+      <c r="W55" s="91"/>
       <c r="X55" s="21"/>
       <c r="Y55" s="21"/>
       <c r="Z55" s="21"/>
       <c r="AA55" s="21"/>
       <c r="AB55" s="21"/>
       <c r="AC55" s="21"/>
-      <c r="AD55" s="81"/>
+      <c r="AD55" s="94"/>
       <c r="AE55" s="19"/>
       <c r="AF55" s="19"/>
       <c r="AG55" s="19"/>
       <c r="AH55" s="19"/>
       <c r="AI55" s="19"/>
       <c r="AJ55" s="19"/>
-      <c r="AK55" s="74"/>
+      <c r="AK55" s="86"/>
       <c r="AL55" s="19"/>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A56" s="67"/>
-      <c r="B56" s="69" t="s">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="A56" s="96"/>
+      <c r="B56" s="98" t="s">
         <v>120</v>
       </c>
-      <c r="C56" s="66" t="s">
+      <c r="C56" s="88" t="s">
         <v>92</v>
       </c>
-      <c r="D56" s="66" t="s">
+      <c r="D56" s="88" t="s">
         <v>29</v>
       </c>
       <c r="E56" s="2" t="s">
@@ -9164,28 +9160,28 @@
       <c r="T56" s="20"/>
       <c r="U56" s="20"/>
       <c r="V56" s="20"/>
-      <c r="W56" s="78"/>
+      <c r="W56" s="91"/>
       <c r="X56" s="20"/>
       <c r="Y56" s="20"/>
       <c r="Z56" s="20"/>
       <c r="AA56" s="20"/>
       <c r="AB56" s="20"/>
       <c r="AC56" s="20"/>
-      <c r="AD56" s="81"/>
+      <c r="AD56" s="94"/>
       <c r="AE56" s="19"/>
       <c r="AF56" s="19"/>
       <c r="AG56" s="19"/>
       <c r="AH56" s="19"/>
       <c r="AI56" s="19"/>
       <c r="AJ56" s="19"/>
-      <c r="AK56" s="74"/>
+      <c r="AK56" s="86"/>
       <c r="AL56" s="19"/>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A57" s="67"/>
-      <c r="B57" s="69"/>
-      <c r="C57" s="66"/>
-      <c r="D57" s="66"/>
+    <row r="57" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="A57" s="96"/>
+      <c r="B57" s="98"/>
+      <c r="C57" s="88"/>
+      <c r="D57" s="88"/>
       <c r="E57" s="2" t="s">
         <v>130</v>
       </c>
@@ -9216,30 +9212,30 @@
       <c r="T57" s="20"/>
       <c r="U57" s="20"/>
       <c r="V57" s="20"/>
-      <c r="W57" s="78"/>
+      <c r="W57" s="91"/>
       <c r="X57" s="20"/>
       <c r="Y57" s="20"/>
       <c r="Z57" s="20"/>
       <c r="AA57" s="20"/>
       <c r="AB57" s="20"/>
       <c r="AC57" s="20"/>
-      <c r="AD57" s="81"/>
+      <c r="AD57" s="94"/>
       <c r="AE57" s="19"/>
       <c r="AF57" s="19"/>
       <c r="AG57" s="19"/>
       <c r="AH57" s="19"/>
       <c r="AI57" s="19"/>
       <c r="AJ57" s="19"/>
-      <c r="AK57" s="74"/>
+      <c r="AK57" s="86"/>
       <c r="AL57" s="19"/>
     </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A58" s="67"/>
-      <c r="B58" s="69"/>
-      <c r="C58" s="66" t="s">
+    <row r="58" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="A58" s="96"/>
+      <c r="B58" s="98"/>
+      <c r="C58" s="88" t="s">
         <v>96</v>
       </c>
-      <c r="D58" s="66" t="s">
+      <c r="D58" s="88" t="s">
         <v>95</v>
       </c>
       <c r="E58" s="2" t="s">
@@ -9272,28 +9268,28 @@
       <c r="T58" s="20"/>
       <c r="U58" s="20"/>
       <c r="V58" s="20"/>
-      <c r="W58" s="78"/>
+      <c r="W58" s="91"/>
       <c r="X58" s="20"/>
       <c r="Y58" s="20"/>
       <c r="Z58" s="20"/>
       <c r="AA58" s="20"/>
       <c r="AB58" s="20"/>
       <c r="AC58" s="20"/>
-      <c r="AD58" s="81"/>
+      <c r="AD58" s="94"/>
       <c r="AE58" s="19"/>
       <c r="AF58" s="19"/>
       <c r="AG58" s="19"/>
       <c r="AH58" s="19"/>
       <c r="AI58" s="19"/>
       <c r="AJ58" s="19"/>
-      <c r="AK58" s="74"/>
+      <c r="AK58" s="86"/>
       <c r="AL58" s="19"/>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A59" s="67"/>
-      <c r="B59" s="69"/>
-      <c r="C59" s="66"/>
-      <c r="D59" s="66"/>
+    <row r="59" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="A59" s="96"/>
+      <c r="B59" s="98"/>
+      <c r="C59" s="88"/>
+      <c r="D59" s="88"/>
       <c r="E59" s="2" t="s">
         <v>146</v>
       </c>
@@ -9324,28 +9320,28 @@
       <c r="T59" s="20"/>
       <c r="U59" s="20"/>
       <c r="V59" s="20"/>
-      <c r="W59" s="78"/>
+      <c r="W59" s="91"/>
       <c r="X59" s="20"/>
       <c r="Y59" s="20"/>
       <c r="Z59" s="20"/>
       <c r="AA59" s="20"/>
       <c r="AB59" s="20"/>
       <c r="AC59" s="20"/>
-      <c r="AD59" s="81"/>
+      <c r="AD59" s="94"/>
       <c r="AE59" s="19"/>
       <c r="AF59" s="19"/>
       <c r="AG59" s="19"/>
       <c r="AH59" s="19"/>
       <c r="AI59" s="19"/>
       <c r="AJ59" s="19"/>
-      <c r="AK59" s="74"/>
+      <c r="AK59" s="86"/>
       <c r="AL59" s="19"/>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A60" s="67"/>
-      <c r="B60" s="69"/>
-      <c r="C60" s="66"/>
-      <c r="D60" s="66"/>
+    <row r="60" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="A60" s="96"/>
+      <c r="B60" s="98"/>
+      <c r="C60" s="88"/>
+      <c r="D60" s="88"/>
       <c r="E60" s="2" t="s">
         <v>147</v>
       </c>
@@ -9376,28 +9372,28 @@
       <c r="T60" s="20"/>
       <c r="U60" s="20"/>
       <c r="V60" s="20"/>
-      <c r="W60" s="78"/>
+      <c r="W60" s="91"/>
       <c r="X60" s="20"/>
       <c r="Y60" s="20"/>
       <c r="Z60" s="20"/>
       <c r="AA60" s="20"/>
       <c r="AB60" s="20"/>
       <c r="AC60" s="20"/>
-      <c r="AD60" s="81"/>
+      <c r="AD60" s="94"/>
       <c r="AE60" s="19"/>
       <c r="AF60" s="19"/>
       <c r="AG60" s="19"/>
       <c r="AH60" s="19"/>
       <c r="AI60" s="19"/>
       <c r="AJ60" s="19"/>
-      <c r="AK60" s="74"/>
+      <c r="AK60" s="86"/>
       <c r="AL60" s="19"/>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A61" s="67"/>
-      <c r="B61" s="69"/>
-      <c r="C61" s="66"/>
-      <c r="D61" s="66"/>
+    <row r="61" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="A61" s="96"/>
+      <c r="B61" s="98"/>
+      <c r="C61" s="88"/>
+      <c r="D61" s="88"/>
       <c r="E61" s="2" t="s">
         <v>107</v>
       </c>
@@ -9428,28 +9424,28 @@
       <c r="T61" s="20"/>
       <c r="U61" s="20"/>
       <c r="V61" s="20"/>
-      <c r="W61" s="78"/>
+      <c r="W61" s="91"/>
       <c r="X61" s="20"/>
       <c r="Y61" s="20"/>
       <c r="Z61" s="20"/>
       <c r="AA61" s="20"/>
       <c r="AB61" s="20"/>
       <c r="AC61" s="20"/>
-      <c r="AD61" s="81"/>
+      <c r="AD61" s="94"/>
       <c r="AE61" s="19"/>
       <c r="AF61" s="19"/>
       <c r="AG61" s="19"/>
       <c r="AH61" s="19"/>
       <c r="AI61" s="19"/>
       <c r="AJ61" s="19"/>
-      <c r="AK61" s="74"/>
+      <c r="AK61" s="86"/>
       <c r="AL61" s="19"/>
     </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A62" s="67"/>
-      <c r="B62" s="69"/>
-      <c r="C62" s="66"/>
-      <c r="D62" s="66"/>
+    <row r="62" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="A62" s="96"/>
+      <c r="B62" s="98"/>
+      <c r="C62" s="88"/>
+      <c r="D62" s="88"/>
       <c r="E62" s="2" t="s">
         <v>108</v>
       </c>
@@ -9480,28 +9476,28 @@
       <c r="T62" s="20"/>
       <c r="U62" s="20"/>
       <c r="V62" s="20"/>
-      <c r="W62" s="78"/>
+      <c r="W62" s="91"/>
       <c r="X62" s="20"/>
       <c r="Y62" s="20"/>
       <c r="Z62" s="20"/>
       <c r="AA62" s="20"/>
       <c r="AB62" s="20"/>
       <c r="AC62" s="20"/>
-      <c r="AD62" s="81"/>
+      <c r="AD62" s="94"/>
       <c r="AE62" s="19"/>
       <c r="AF62" s="19"/>
       <c r="AG62" s="19"/>
       <c r="AH62" s="19"/>
       <c r="AI62" s="19"/>
       <c r="AJ62" s="19"/>
-      <c r="AK62" s="74"/>
+      <c r="AK62" s="86"/>
       <c r="AL62" s="19"/>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A63" s="67"/>
-      <c r="B63" s="69"/>
-      <c r="C63" s="66"/>
-      <c r="D63" s="66" t="s">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="A63" s="96"/>
+      <c r="B63" s="98"/>
+      <c r="C63" s="88"/>
+      <c r="D63" s="88" t="s">
         <v>97</v>
       </c>
       <c r="E63" s="2" t="s">
@@ -9528,28 +9524,28 @@
       <c r="T63" s="20"/>
       <c r="U63" s="20"/>
       <c r="V63" s="20"/>
-      <c r="W63" s="78"/>
+      <c r="W63" s="91"/>
       <c r="X63" s="20"/>
       <c r="Y63" s="20"/>
       <c r="Z63" s="20"/>
       <c r="AA63" s="20"/>
       <c r="AB63" s="20"/>
       <c r="AC63" s="20"/>
-      <c r="AD63" s="81"/>
+      <c r="AD63" s="94"/>
       <c r="AE63" s="19"/>
       <c r="AF63" s="19"/>
       <c r="AG63" s="19"/>
       <c r="AH63" s="19"/>
       <c r="AI63" s="19"/>
       <c r="AJ63" s="19"/>
-      <c r="AK63" s="74"/>
+      <c r="AK63" s="86"/>
       <c r="AL63" s="19"/>
     </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A64" s="67"/>
-      <c r="B64" s="69"/>
-      <c r="C64" s="66"/>
-      <c r="D64" s="66"/>
+    <row r="64" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="A64" s="96"/>
+      <c r="B64" s="98"/>
+      <c r="C64" s="88"/>
+      <c r="D64" s="88"/>
       <c r="E64" s="2" t="s">
         <v>146</v>
       </c>
@@ -9580,30 +9576,30 @@
       <c r="T64" s="20"/>
       <c r="U64" s="20"/>
       <c r="V64" s="20"/>
-      <c r="W64" s="78"/>
+      <c r="W64" s="91"/>
       <c r="X64" s="20"/>
       <c r="Y64" s="20"/>
       <c r="Z64" s="20"/>
       <c r="AA64" s="20"/>
       <c r="AB64" s="20"/>
       <c r="AC64" s="20"/>
-      <c r="AD64" s="81"/>
+      <c r="AD64" s="94"/>
       <c r="AE64" s="19"/>
       <c r="AF64" s="19"/>
       <c r="AG64" s="19"/>
       <c r="AH64" s="19"/>
       <c r="AI64" s="19"/>
       <c r="AJ64" s="19"/>
-      <c r="AK64" s="74"/>
+      <c r="AK64" s="86"/>
       <c r="AL64" s="19"/>
     </row>
-    <row r="65" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="67"/>
-      <c r="B65" s="69"/>
-      <c r="C65" s="66" t="s">
+    <row r="65" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A65" s="96"/>
+      <c r="B65" s="98"/>
+      <c r="C65" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="D65" s="66" t="s">
+      <c r="D65" s="88" t="s">
         <v>93</v>
       </c>
       <c r="E65" s="2" t="s">
@@ -9636,28 +9632,28 @@
       <c r="T65" s="20"/>
       <c r="U65" s="20"/>
       <c r="V65" s="20"/>
-      <c r="W65" s="78"/>
+      <c r="W65" s="91"/>
       <c r="X65" s="20"/>
       <c r="Y65" s="20"/>
       <c r="Z65" s="20"/>
       <c r="AA65" s="20"/>
       <c r="AB65" s="20"/>
       <c r="AC65" s="20"/>
-      <c r="AD65" s="81"/>
+      <c r="AD65" s="94"/>
       <c r="AE65" s="19"/>
       <c r="AF65" s="19"/>
       <c r="AG65" s="19"/>
       <c r="AH65" s="19"/>
       <c r="AI65" s="19"/>
       <c r="AJ65" s="19"/>
-      <c r="AK65" s="74"/>
+      <c r="AK65" s="86"/>
       <c r="AL65" s="19"/>
     </row>
-    <row r="66" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="67"/>
-      <c r="B66" s="69"/>
-      <c r="C66" s="66"/>
-      <c r="D66" s="66"/>
+    <row r="66" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A66" s="96"/>
+      <c r="B66" s="98"/>
+      <c r="C66" s="88"/>
+      <c r="D66" s="88"/>
       <c r="E66" s="2" t="s">
         <v>130</v>
       </c>
@@ -9688,28 +9684,28 @@
       <c r="T66" s="20"/>
       <c r="U66" s="20"/>
       <c r="V66" s="20"/>
-      <c r="W66" s="78"/>
+      <c r="W66" s="91"/>
       <c r="X66" s="20"/>
       <c r="Y66" s="20"/>
       <c r="Z66" s="20"/>
       <c r="AA66" s="20"/>
       <c r="AB66" s="20"/>
       <c r="AC66" s="20"/>
-      <c r="AD66" s="81"/>
+      <c r="AD66" s="94"/>
       <c r="AE66" s="19"/>
       <c r="AF66" s="19"/>
       <c r="AG66" s="19"/>
       <c r="AH66" s="19"/>
       <c r="AI66" s="19"/>
       <c r="AJ66" s="19"/>
-      <c r="AK66" s="74"/>
+      <c r="AK66" s="86"/>
       <c r="AL66" s="19"/>
     </row>
-    <row r="67" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="67"/>
-      <c r="B67" s="69"/>
-      <c r="C67" s="66"/>
-      <c r="D67" s="70" t="s">
+    <row r="67" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A67" s="96"/>
+      <c r="B67" s="98"/>
+      <c r="C67" s="88"/>
+      <c r="D67" s="83" t="s">
         <v>98</v>
       </c>
       <c r="E67" s="2" t="s">
@@ -9742,28 +9738,28 @@
       <c r="T67" s="53"/>
       <c r="U67" s="53"/>
       <c r="V67" s="53"/>
-      <c r="W67" s="78"/>
+      <c r="W67" s="91"/>
       <c r="X67" s="53"/>
       <c r="Y67" s="53"/>
       <c r="Z67" s="53"/>
       <c r="AA67" s="53"/>
       <c r="AB67" s="53"/>
       <c r="AC67" s="53"/>
-      <c r="AD67" s="81"/>
+      <c r="AD67" s="94"/>
       <c r="AE67" s="54"/>
       <c r="AF67" s="54"/>
       <c r="AG67" s="54"/>
       <c r="AH67" s="54"/>
       <c r="AI67" s="54"/>
       <c r="AJ67" s="54"/>
-      <c r="AK67" s="74"/>
+      <c r="AK67" s="86"/>
       <c r="AL67" s="54"/>
     </row>
-    <row r="68" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="67"/>
-      <c r="B68" s="69"/>
-      <c r="C68" s="66"/>
-      <c r="D68" s="72"/>
+    <row r="68" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A68" s="96"/>
+      <c r="B68" s="98"/>
+      <c r="C68" s="88"/>
+      <c r="D68" s="84"/>
       <c r="E68" s="2" t="s">
         <v>130</v>
       </c>
@@ -9790,27 +9786,27 @@
       <c r="T68" s="20"/>
       <c r="U68" s="20"/>
       <c r="V68" s="20"/>
-      <c r="W68" s="78"/>
+      <c r="W68" s="91"/>
       <c r="X68" s="20"/>
       <c r="Y68" s="20"/>
       <c r="Z68" s="20"/>
       <c r="AA68" s="20"/>
       <c r="AB68" s="20"/>
       <c r="AC68" s="20"/>
-      <c r="AD68" s="81"/>
+      <c r="AD68" s="94"/>
       <c r="AE68" s="19"/>
       <c r="AF68" s="19"/>
       <c r="AG68" s="19"/>
       <c r="AH68" s="19"/>
       <c r="AI68" s="19"/>
       <c r="AJ68" s="19"/>
-      <c r="AK68" s="74"/>
+      <c r="AK68" s="86"/>
       <c r="AL68" s="19"/>
     </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A69" s="67"/>
-      <c r="B69" s="69"/>
-      <c r="C69" s="71"/>
+    <row r="69" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="A69" s="96"/>
+      <c r="B69" s="98"/>
+      <c r="C69" s="99"/>
       <c r="D69" s="2" t="s">
         <v>190</v>
       </c>
@@ -9844,27 +9840,27 @@
       <c r="T69" s="53"/>
       <c r="U69" s="53"/>
       <c r="V69" s="53"/>
-      <c r="W69" s="78"/>
+      <c r="W69" s="91"/>
       <c r="X69" s="53"/>
       <c r="Y69" s="53"/>
       <c r="Z69" s="53"/>
       <c r="AA69" s="53"/>
       <c r="AB69" s="53"/>
       <c r="AC69" s="53"/>
-      <c r="AD69" s="81"/>
+      <c r="AD69" s="94"/>
       <c r="AE69" s="54"/>
       <c r="AF69" s="54"/>
       <c r="AG69" s="54"/>
       <c r="AH69" s="54"/>
       <c r="AI69" s="54"/>
       <c r="AJ69" s="54"/>
-      <c r="AK69" s="74"/>
+      <c r="AK69" s="86"/>
       <c r="AL69" s="54"/>
     </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A70" s="67"/>
-      <c r="B70" s="69"/>
-      <c r="C70" s="71"/>
+    <row r="70" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="A70" s="96"/>
+      <c r="B70" s="98"/>
+      <c r="C70" s="99"/>
       <c r="D70" s="2" t="s">
         <v>191</v>
       </c>
@@ -9898,27 +9894,27 @@
       <c r="T70" s="53"/>
       <c r="U70" s="53"/>
       <c r="V70" s="53"/>
-      <c r="W70" s="78"/>
+      <c r="W70" s="91"/>
       <c r="X70" s="53"/>
       <c r="Y70" s="53"/>
       <c r="Z70" s="53"/>
       <c r="AA70" s="53"/>
       <c r="AB70" s="53"/>
       <c r="AC70" s="53"/>
-      <c r="AD70" s="81"/>
+      <c r="AD70" s="94"/>
       <c r="AE70" s="54"/>
       <c r="AF70" s="54"/>
       <c r="AG70" s="54"/>
       <c r="AH70" s="54"/>
       <c r="AI70" s="54"/>
       <c r="AJ70" s="54"/>
-      <c r="AK70" s="74"/>
+      <c r="AK70" s="86"/>
       <c r="AL70" s="54"/>
     </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A71" s="67"/>
-      <c r="B71" s="69"/>
-      <c r="C71" s="72"/>
+    <row r="71" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="A71" s="96"/>
+      <c r="B71" s="98"/>
+      <c r="C71" s="84"/>
       <c r="D71" s="2" t="s">
         <v>161</v>
       </c>
@@ -9952,27 +9948,27 @@
       <c r="T71" s="20"/>
       <c r="U71" s="20"/>
       <c r="V71" s="20"/>
-      <c r="W71" s="78"/>
+      <c r="W71" s="91"/>
       <c r="X71" s="20"/>
       <c r="Y71" s="20"/>
       <c r="Z71" s="20"/>
       <c r="AA71" s="20"/>
       <c r="AB71" s="20"/>
       <c r="AC71" s="20"/>
-      <c r="AD71" s="81"/>
+      <c r="AD71" s="94"/>
       <c r="AE71" s="19"/>
       <c r="AF71" s="19"/>
       <c r="AG71" s="19"/>
       <c r="AH71" s="19"/>
       <c r="AI71" s="19"/>
       <c r="AJ71" s="19"/>
-      <c r="AK71" s="74"/>
+      <c r="AK71" s="86"/>
       <c r="AL71" s="19"/>
     </row>
-    <row r="72" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A72" s="67"/>
-      <c r="B72" s="69"/>
-      <c r="C72" s="66" t="s">
+    <row r="72" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="A72" s="96"/>
+      <c r="B72" s="98"/>
+      <c r="C72" s="88" t="s">
         <v>13</v>
       </c>
       <c r="D72" s="2" t="s">
@@ -10006,27 +10002,27 @@
       <c r="T72" s="20"/>
       <c r="U72" s="20"/>
       <c r="V72" s="20"/>
-      <c r="W72" s="78"/>
+      <c r="W72" s="91"/>
       <c r="X72" s="20"/>
       <c r="Y72" s="20"/>
       <c r="Z72" s="20"/>
       <c r="AA72" s="20"/>
       <c r="AB72" s="20"/>
       <c r="AC72" s="20"/>
-      <c r="AD72" s="81"/>
+      <c r="AD72" s="94"/>
       <c r="AE72" s="19"/>
       <c r="AF72" s="19"/>
       <c r="AG72" s="19"/>
       <c r="AH72" s="19"/>
       <c r="AI72" s="19"/>
       <c r="AJ72" s="19"/>
-      <c r="AK72" s="74"/>
+      <c r="AK72" s="86"/>
       <c r="AL72" s="19"/>
     </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A73" s="67"/>
-      <c r="B73" s="69"/>
-      <c r="C73" s="66"/>
+    <row r="73" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="A73" s="96"/>
+      <c r="B73" s="98"/>
+      <c r="C73" s="88"/>
       <c r="D73" s="2" t="s">
         <v>126</v>
       </c>
@@ -10058,27 +10054,27 @@
       <c r="T73" s="20"/>
       <c r="U73" s="20"/>
       <c r="V73" s="20"/>
-      <c r="W73" s="78"/>
+      <c r="W73" s="91"/>
       <c r="X73" s="20"/>
       <c r="Y73" s="20"/>
       <c r="Z73" s="20"/>
       <c r="AA73" s="20"/>
       <c r="AB73" s="20"/>
       <c r="AC73" s="20"/>
-      <c r="AD73" s="81"/>
+      <c r="AD73" s="94"/>
       <c r="AE73" s="19"/>
       <c r="AF73" s="19"/>
       <c r="AG73" s="19"/>
       <c r="AH73" s="19"/>
       <c r="AI73" s="19"/>
       <c r="AJ73" s="19"/>
-      <c r="AK73" s="74"/>
+      <c r="AK73" s="86"/>
       <c r="AL73" s="19"/>
     </row>
-    <row r="74" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="67"/>
-      <c r="B74" s="69"/>
-      <c r="C74" s="70" t="s">
+    <row r="74" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A74" s="96"/>
+      <c r="B74" s="98"/>
+      <c r="C74" s="83" t="s">
         <v>99</v>
       </c>
       <c r="D74" s="2" t="s">
@@ -10112,27 +10108,27 @@
       <c r="T74" s="20"/>
       <c r="U74" s="20"/>
       <c r="V74" s="20"/>
-      <c r="W74" s="78"/>
+      <c r="W74" s="91"/>
       <c r="X74" s="20"/>
       <c r="Y74" s="20"/>
       <c r="Z74" s="20"/>
       <c r="AA74" s="20"/>
       <c r="AB74" s="20"/>
       <c r="AC74" s="20"/>
-      <c r="AD74" s="81"/>
+      <c r="AD74" s="94"/>
       <c r="AE74" s="19"/>
       <c r="AF74" s="19"/>
       <c r="AG74" s="19"/>
       <c r="AH74" s="19"/>
       <c r="AI74" s="19"/>
       <c r="AJ74" s="19"/>
-      <c r="AK74" s="74"/>
+      <c r="AK74" s="86"/>
       <c r="AL74" s="19"/>
     </row>
-    <row r="75" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="67"/>
-      <c r="B75" s="69"/>
-      <c r="C75" s="71"/>
+    <row r="75" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A75" s="96"/>
+      <c r="B75" s="98"/>
+      <c r="C75" s="99"/>
       <c r="D75" s="2" t="s">
         <v>156</v>
       </c>
@@ -10164,27 +10160,27 @@
       <c r="T75" s="20"/>
       <c r="U75" s="20"/>
       <c r="V75" s="20"/>
-      <c r="W75" s="78"/>
+      <c r="W75" s="91"/>
       <c r="X75" s="20"/>
       <c r="Y75" s="20"/>
       <c r="Z75" s="20"/>
       <c r="AA75" s="20"/>
       <c r="AB75" s="20"/>
       <c r="AC75" s="20"/>
-      <c r="AD75" s="81"/>
+      <c r="AD75" s="94"/>
       <c r="AE75" s="19"/>
       <c r="AF75" s="19"/>
       <c r="AG75" s="19"/>
       <c r="AH75" s="19"/>
       <c r="AI75" s="19"/>
       <c r="AJ75" s="19"/>
-      <c r="AK75" s="74"/>
+      <c r="AK75" s="86"/>
       <c r="AL75" s="19"/>
     </row>
-    <row r="76" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="67"/>
-      <c r="B76" s="69"/>
-      <c r="C76" s="71"/>
+    <row r="76" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A76" s="96"/>
+      <c r="B76" s="98"/>
+      <c r="C76" s="99"/>
       <c r="D76" s="2" t="s">
         <v>187</v>
       </c>
@@ -10208,27 +10204,27 @@
       <c r="T76" s="53"/>
       <c r="U76" s="53"/>
       <c r="V76" s="53"/>
-      <c r="W76" s="78"/>
+      <c r="W76" s="91"/>
       <c r="X76" s="53"/>
       <c r="Y76" s="53"/>
       <c r="Z76" s="53"/>
       <c r="AA76" s="53"/>
       <c r="AB76" s="53"/>
       <c r="AC76" s="53"/>
-      <c r="AD76" s="81"/>
+      <c r="AD76" s="94"/>
       <c r="AE76" s="54"/>
       <c r="AF76" s="54"/>
       <c r="AG76" s="54"/>
       <c r="AH76" s="54"/>
       <c r="AI76" s="54"/>
       <c r="AJ76" s="54"/>
-      <c r="AK76" s="74"/>
+      <c r="AK76" s="86"/>
       <c r="AL76" s="54"/>
     </row>
-    <row r="77" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="67"/>
-      <c r="B77" s="69"/>
-      <c r="C77" s="72"/>
+    <row r="77" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A77" s="96"/>
+      <c r="B77" s="98"/>
+      <c r="C77" s="84"/>
       <c r="D77" s="2" t="s">
         <v>157</v>
       </c>
@@ -10260,27 +10256,27 @@
       <c r="T77" s="37"/>
       <c r="U77" s="37"/>
       <c r="V77" s="37"/>
-      <c r="W77" s="78"/>
+      <c r="W77" s="91"/>
       <c r="X77" s="37"/>
       <c r="Y77" s="37"/>
       <c r="Z77" s="37"/>
       <c r="AA77" s="37"/>
       <c r="AB77" s="37"/>
       <c r="AC77" s="37"/>
-      <c r="AD77" s="81"/>
+      <c r="AD77" s="94"/>
       <c r="AE77" s="19"/>
       <c r="AF77" s="19"/>
       <c r="AG77" s="19"/>
       <c r="AH77" s="19"/>
       <c r="AI77" s="19"/>
       <c r="AJ77" s="19"/>
-      <c r="AK77" s="74"/>
+      <c r="AK77" s="86"/>
       <c r="AL77" s="19"/>
     </row>
-    <row r="78" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A78" s="67"/>
-      <c r="B78" s="69"/>
-      <c r="C78" s="66" t="s">
+    <row r="78" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="A78" s="96"/>
+      <c r="B78" s="98"/>
+      <c r="C78" s="88" t="s">
         <v>30</v>
       </c>
       <c r="D78" s="2" t="s">
@@ -10312,27 +10308,27 @@
       <c r="T78" s="20"/>
       <c r="U78" s="20"/>
       <c r="V78" s="20"/>
-      <c r="W78" s="78"/>
+      <c r="W78" s="91"/>
       <c r="X78" s="20"/>
       <c r="Y78" s="20"/>
       <c r="Z78" s="20"/>
       <c r="AA78" s="20"/>
       <c r="AB78" s="20"/>
       <c r="AC78" s="20"/>
-      <c r="AD78" s="81"/>
+      <c r="AD78" s="94"/>
       <c r="AE78" s="19"/>
       <c r="AF78" s="19"/>
       <c r="AG78" s="19"/>
       <c r="AH78" s="19"/>
       <c r="AI78" s="19"/>
       <c r="AJ78" s="19"/>
-      <c r="AK78" s="74"/>
+      <c r="AK78" s="86"/>
       <c r="AL78" s="19"/>
     </row>
-    <row r="79" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A79" s="67"/>
-      <c r="B79" s="69"/>
-      <c r="C79" s="66"/>
+    <row r="79" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="A79" s="96"/>
+      <c r="B79" s="98"/>
+      <c r="C79" s="88"/>
       <c r="D79" s="2" t="s">
         <v>32</v>
       </c>
@@ -10356,27 +10352,27 @@
       <c r="T79" s="20"/>
       <c r="U79" s="20"/>
       <c r="V79" s="20"/>
-      <c r="W79" s="78"/>
+      <c r="W79" s="91"/>
       <c r="X79" s="20"/>
       <c r="Y79" s="20"/>
       <c r="Z79" s="20"/>
       <c r="AA79" s="20"/>
       <c r="AB79" s="20"/>
       <c r="AC79" s="20"/>
-      <c r="AD79" s="81"/>
+      <c r="AD79" s="94"/>
       <c r="AE79" s="19"/>
       <c r="AF79" s="19"/>
       <c r="AG79" s="19"/>
       <c r="AH79" s="19"/>
       <c r="AI79" s="19"/>
       <c r="AJ79" s="19"/>
-      <c r="AK79" s="74"/>
+      <c r="AK79" s="86"/>
       <c r="AL79" s="19"/>
     </row>
-    <row r="80" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A80" s="67"/>
-      <c r="B80" s="69"/>
-      <c r="C80" s="66"/>
+    <row r="80" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="A80" s="96"/>
+      <c r="B80" s="98"/>
+      <c r="C80" s="88"/>
       <c r="D80" s="2" t="s">
         <v>33</v>
       </c>
@@ -10406,25 +10402,25 @@
       <c r="T80" s="20"/>
       <c r="U80" s="20"/>
       <c r="V80" s="20"/>
-      <c r="W80" s="79"/>
+      <c r="W80" s="92"/>
       <c r="X80" s="20"/>
       <c r="Y80" s="20"/>
       <c r="Z80" s="20"/>
       <c r="AA80" s="20"/>
       <c r="AB80" s="20"/>
       <c r="AC80" s="20"/>
-      <c r="AD80" s="82"/>
+      <c r="AD80" s="95"/>
       <c r="AE80" s="19"/>
       <c r="AF80" s="19"/>
       <c r="AG80" s="19"/>
       <c r="AH80" s="19"/>
       <c r="AI80" s="19"/>
       <c r="AJ80" s="19"/>
-      <c r="AK80" s="75"/>
+      <c r="AK80" s="87"/>
       <c r="AL80" s="19"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A81" s="67"/>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A81" s="96"/>
       <c r="B81" s="44" t="s">
         <v>21</v>
       </c>
@@ -10446,6 +10442,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="A5:A81"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C78:C80"/>
+    <mergeCell ref="C48:C52"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="C65:C68"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="B56:B80"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="C74:C77"/>
+    <mergeCell ref="C69:C71"/>
     <mergeCell ref="D67:D68"/>
     <mergeCell ref="AK5:AK80"/>
     <mergeCell ref="C18:C42"/>
@@ -10462,20 +10472,6 @@
     <mergeCell ref="D56:D57"/>
     <mergeCell ref="D63:D64"/>
     <mergeCell ref="D65:D66"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="A5:A81"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C78:C80"/>
-    <mergeCell ref="C48:C52"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="C65:C68"/>
-    <mergeCell ref="B5:B10"/>
-    <mergeCell ref="B56:B80"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="C74:C77"/>
-    <mergeCell ref="C69:C71"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="L3:AL5 AL6:AL80 X6:AC80 AE6:AJ80 L6:V80">
@@ -10547,31 +10543,31 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="11" max="11" width="32.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="53.375" customWidth="1"/>
+    <col min="11" max="11" width="32.3984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="53.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-    </row>
-    <row r="4" spans="2:14" ht="45.75" x14ac:dyDescent="0.4">
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+    </row>
+    <row r="4" spans="2:14" ht="45.6" x14ac:dyDescent="0.45">
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
       <c r="K4" s="11" t="s">
         <v>73</v>
       </c>
@@ -10579,15 +10575,15 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
+    <row r="5" spans="2:14" ht="45.6" x14ac:dyDescent="0.45">
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
       <c r="K5" s="12" t="s">
         <v>75</v>
       </c>
@@ -10595,29 +10591,29 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B6" s="83"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
+    <row r="6" spans="2:14" ht="45.6" x14ac:dyDescent="0.45">
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
       <c r="K6" s="12" t="s">
         <v>76</v>
       </c>
       <c r="L6" s="13"/>
     </row>
-    <row r="7" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="83"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="83"/>
+    <row r="7" spans="2:14" ht="45.6" x14ac:dyDescent="0.45">
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
       <c r="K7" s="12" t="s">
         <v>77</v>
       </c>
@@ -10625,29 +10621,29 @@
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B8" s="83"/>
-      <c r="C8" s="83"/>
-      <c r="D8" s="83"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="83"/>
+    <row r="8" spans="2:14" ht="45.6" x14ac:dyDescent="0.45">
+      <c r="B8" s="100"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
       <c r="K8" s="12" t="s">
         <v>78</v>
       </c>
       <c r="L8" s="13"/>
     </row>
-    <row r="9" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B9" s="83"/>
-      <c r="C9" s="83"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="83"/>
+    <row r="9" spans="2:14" ht="45.6" x14ac:dyDescent="0.45">
+      <c r="B9" s="100"/>
+      <c r="C9" s="100"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="100"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="100"/>
+      <c r="I9" s="100"/>
       <c r="K9" s="12" t="s">
         <v>79</v>
       </c>
@@ -10655,29 +10651,29 @@
         <v>182</v>
       </c>
     </row>
-    <row r="10" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B10" s="83"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="83"/>
+    <row r="10" spans="2:14" ht="45.6" x14ac:dyDescent="0.45">
+      <c r="B10" s="100"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="100"/>
+      <c r="I10" s="100"/>
       <c r="K10" s="12" t="s">
         <v>80</v>
       </c>
       <c r="L10" s="13"/>
     </row>
-    <row r="11" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B11" s="83"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="83"/>
+    <row r="11" spans="2:14" ht="45.6" x14ac:dyDescent="0.45">
+      <c r="B11" s="100"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="100"/>
+      <c r="F11" s="100"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="100"/>
+      <c r="I11" s="100"/>
       <c r="K11" s="12" t="s">
         <v>81</v>
       </c>
@@ -10686,137 +10682,137 @@
       </c>
       <c r="N11" s="10"/>
     </row>
-    <row r="12" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B12" s="83"/>
-      <c r="C12" s="83"/>
-      <c r="D12" s="83"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="83"/>
-      <c r="I12" s="83"/>
+    <row r="12" spans="2:14" ht="45.6" x14ac:dyDescent="0.45">
+      <c r="B12" s="100"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="100"/>
+      <c r="I12" s="100"/>
       <c r="K12" s="12" t="s">
         <v>82</v>
       </c>
       <c r="L12" s="13"/>
     </row>
-    <row r="13" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B13" s="83"/>
-      <c r="C13" s="83"/>
-      <c r="D13" s="83"/>
-      <c r="E13" s="83"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="83"/>
-      <c r="I13" s="83"/>
+    <row r="13" spans="2:14" ht="45.6" x14ac:dyDescent="0.45">
+      <c r="B13" s="100"/>
+      <c r="C13" s="100"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="100"/>
+      <c r="G13" s="100"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="100"/>
       <c r="K13" s="12" t="s">
         <v>83</v>
       </c>
       <c r="L13" s="13"/>
     </row>
-    <row r="14" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B14" s="83"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="83"/>
-      <c r="I14" s="83"/>
+    <row r="14" spans="2:14" ht="45.6" x14ac:dyDescent="0.45">
+      <c r="B14" s="100"/>
+      <c r="C14" s="100"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="100"/>
+      <c r="G14" s="100"/>
+      <c r="H14" s="100"/>
+      <c r="I14" s="100"/>
       <c r="K14" s="12" t="s">
         <v>84</v>
       </c>
       <c r="L14" s="13"/>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B15" s="83"/>
-      <c r="C15" s="83"/>
-      <c r="D15" s="83"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="83"/>
-      <c r="H15" s="83"/>
-      <c r="I15" s="83"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B16" s="83"/>
-      <c r="C16" s="83"/>
-      <c r="D16" s="83"/>
-      <c r="E16" s="83"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="83"/>
-      <c r="H16" s="83"/>
-      <c r="I16" s="83"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B17" s="83"/>
-      <c r="C17" s="83"/>
-      <c r="D17" s="83"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="83"/>
-      <c r="I17" s="83"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B18" s="83"/>
-      <c r="C18" s="83"/>
-      <c r="D18" s="83"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="83"/>
-      <c r="G18" s="83"/>
-      <c r="H18" s="83"/>
-      <c r="I18" s="83"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B19" s="83"/>
-      <c r="C19" s="83"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="83"/>
-      <c r="F19" s="83"/>
-      <c r="G19" s="83"/>
-      <c r="H19" s="83"/>
-      <c r="I19" s="83"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B20" s="83"/>
-      <c r="C20" s="83"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="83"/>
-      <c r="F20" s="83"/>
-      <c r="G20" s="83"/>
-      <c r="H20" s="83"/>
-      <c r="I20" s="83"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B21" s="83"/>
-      <c r="C21" s="83"/>
-      <c r="D21" s="83"/>
-      <c r="E21" s="83"/>
-      <c r="F21" s="83"/>
-      <c r="G21" s="83"/>
-      <c r="H21" s="83"/>
-      <c r="I21" s="83"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B22" s="83"/>
-      <c r="C22" s="83"/>
-      <c r="D22" s="83"/>
-      <c r="E22" s="83"/>
-      <c r="F22" s="83"/>
-      <c r="G22" s="83"/>
-      <c r="H22" s="83"/>
-      <c r="I22" s="83"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B23" s="83"/>
-      <c r="C23" s="83"/>
-      <c r="D23" s="83"/>
-      <c r="E23" s="83"/>
-      <c r="F23" s="83"/>
-      <c r="G23" s="83"/>
-      <c r="H23" s="83"/>
-      <c r="I23" s="83"/>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B15" s="100"/>
+      <c r="C15" s="100"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="100"/>
+      <c r="F15" s="100"/>
+      <c r="G15" s="100"/>
+      <c r="H15" s="100"/>
+      <c r="I15" s="100"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B16" s="100"/>
+      <c r="C16" s="100"/>
+      <c r="D16" s="100"/>
+      <c r="E16" s="100"/>
+      <c r="F16" s="100"/>
+      <c r="G16" s="100"/>
+      <c r="H16" s="100"/>
+      <c r="I16" s="100"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B17" s="100"/>
+      <c r="C17" s="100"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="100"/>
+      <c r="G17" s="100"/>
+      <c r="H17" s="100"/>
+      <c r="I17" s="100"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B18" s="100"/>
+      <c r="C18" s="100"/>
+      <c r="D18" s="100"/>
+      <c r="E18" s="100"/>
+      <c r="F18" s="100"/>
+      <c r="G18" s="100"/>
+      <c r="H18" s="100"/>
+      <c r="I18" s="100"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B19" s="100"/>
+      <c r="C19" s="100"/>
+      <c r="D19" s="100"/>
+      <c r="E19" s="100"/>
+      <c r="F19" s="100"/>
+      <c r="G19" s="100"/>
+      <c r="H19" s="100"/>
+      <c r="I19" s="100"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B20" s="100"/>
+      <c r="C20" s="100"/>
+      <c r="D20" s="100"/>
+      <c r="E20" s="100"/>
+      <c r="F20" s="100"/>
+      <c r="G20" s="100"/>
+      <c r="H20" s="100"/>
+      <c r="I20" s="100"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B21" s="100"/>
+      <c r="C21" s="100"/>
+      <c r="D21" s="100"/>
+      <c r="E21" s="100"/>
+      <c r="F21" s="100"/>
+      <c r="G21" s="100"/>
+      <c r="H21" s="100"/>
+      <c r="I21" s="100"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B22" s="100"/>
+      <c r="C22" s="100"/>
+      <c r="D22" s="100"/>
+      <c r="E22" s="100"/>
+      <c r="F22" s="100"/>
+      <c r="G22" s="100"/>
+      <c r="H22" s="100"/>
+      <c r="I22" s="100"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B23" s="100"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10836,7 +10832,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10852,40 +10848,40 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7.25" customWidth="1"/>
-    <col min="2" max="2" width="17.25" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.25" style="8" customWidth="1"/>
+    <col min="1" max="1" width="7.19921875" customWidth="1"/>
+    <col min="2" max="2" width="17.19921875" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.19921875" style="8" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" s="84" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" s="83"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" s="100"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="7"/>
       <c r="B4" s="14" t="s">
         <v>53</v>
@@ -10901,7 +10897,7 @@
       </c>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="15" t="s">
         <v>48</v>
       </c>
@@ -10913,7 +10909,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B6" s="15" t="s">
         <v>49</v>
       </c>
@@ -10927,7 +10923,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B7" s="15" t="s">
         <v>67</v>
       </c>
@@ -10939,7 +10935,7 @@
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B8" s="15" t="s">
         <v>50</v>
       </c>
@@ -10951,7 +10947,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B9" s="15" t="s">
         <v>51</v>
       </c>
@@ -10963,8 +10959,8 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B10" s="85" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B10" s="102" t="s">
         <v>173</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -10977,31 +10973,31 @@
         <v>174</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B11" s="85"/>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B11" s="102"/>
       <c r="C11" s="2" t="s">
         <v>176</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B12" s="85"/>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B12" s="102"/>
       <c r="C12" s="2" t="s">
         <v>172</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B13" s="85"/>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B13" s="102"/>
       <c r="C13" s="2" t="s">
         <v>175</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B14" s="15" t="s">
         <v>52</v>
       </c>
@@ -11015,7 +11011,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B15" s="15" t="s">
         <v>177</v>
       </c>
@@ -11029,7 +11025,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B16" s="15"/>
       <c r="C16" s="2" t="s">
         <v>181</v>
@@ -11039,7 +11035,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B17" s="15" t="s">
         <v>62</v>
       </c>
@@ -11051,25 +11047,25 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B18" s="15"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B19" s="15"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B20" s="15"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B21" s="15" t="s">
         <v>55</v>
       </c>
@@ -11096,15 +11092,15 @@
       <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="4.8984375" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="86" t="s">
+    <row r="1" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="103" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11138,22 +11134,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7.25" customWidth="1"/>
-    <col min="2" max="2" width="28.25" style="62" customWidth="1"/>
-    <col min="3" max="3" width="28.125" style="62" customWidth="1"/>
-    <col min="4" max="4" width="28.125" style="64" customWidth="1"/>
-    <col min="5" max="5" width="29.25" style="62" customWidth="1"/>
+    <col min="1" max="1" width="7.19921875" customWidth="1"/>
+    <col min="2" max="2" width="28.19921875" style="62" customWidth="1"/>
+    <col min="3" max="3" width="28.09765625" style="62" customWidth="1"/>
+    <col min="4" max="4" width="28.09765625" style="64" customWidth="1"/>
+    <col min="5" max="5" width="29.19921875" style="62" customWidth="1"/>
     <col min="6" max="6" width="22.5" style="62" customWidth="1"/>
-    <col min="7" max="7" width="21.875" style="62" customWidth="1"/>
+    <col min="7" max="7" width="21.8984375" style="62" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="2"/>
       <c r="B1" s="61">
         <v>2</v>
@@ -11167,12 +11163,12 @@
       <c r="E1" s="63">
         <v>5</v>
       </c>
-      <c r="F1" s="87">
+      <c r="F1" s="66">
         <v>6</v>
       </c>
       <c r="G1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="61" t="s">
         <v>15</v>
@@ -11186,124 +11182,124 @@
       <c r="E2" s="63" t="s">
         <v>204</v>
       </c>
-      <c r="F2" s="87" t="s">
+      <c r="F2" s="66" t="s">
         <v>205</v>
       </c>
       <c r="G2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="88" t="s">
+      <c r="B3" s="67" t="s">
         <v>239</v>
       </c>
-      <c r="C3" s="89" t="s">
+      <c r="C3" s="68" t="s">
         <v>210</v>
       </c>
-      <c r="D3" s="89" t="s">
+      <c r="D3" s="68" t="s">
         <v>240</v>
       </c>
-      <c r="E3" s="90"/>
-      <c r="F3" s="87"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="66"/>
       <c r="G3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B4" s="89" t="s">
+      <c r="B4" s="68" t="s">
+        <v>248</v>
+      </c>
+      <c r="C4" s="68" t="s">
         <v>209</v>
       </c>
-      <c r="C4" s="89" t="s">
-        <v>209</v>
-      </c>
-      <c r="D4" s="92" t="s">
-        <v>244</v>
-      </c>
-      <c r="E4" s="91" t="s">
+      <c r="D4" s="71" t="s">
+        <v>227</v>
+      </c>
+      <c r="E4" s="70" t="s">
         <v>243</v>
       </c>
-      <c r="F4" s="91" t="s">
+      <c r="F4" s="70" t="s">
         <v>243</v>
       </c>
       <c r="G4"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B5" s="89" t="s">
+      <c r="B5" s="68" t="s">
         <v>211</v>
       </c>
-      <c r="C5" s="89" t="s">
+      <c r="C5" s="68" t="s">
         <v>241</v>
       </c>
-      <c r="D5" s="93" t="s">
+      <c r="D5" s="72" t="s">
+        <v>229</v>
+      </c>
+      <c r="E5" s="72" t="s">
         <v>245</v>
       </c>
-      <c r="E5" s="93" t="s">
-        <v>247</v>
-      </c>
-      <c r="F5" s="87"/>
+      <c r="F5" s="66"/>
       <c r="G5"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B6" s="89" t="s">
+      <c r="B6" s="68" t="s">
         <v>208</v>
       </c>
-      <c r="C6" s="89" t="s">
+      <c r="C6" s="68" t="s">
         <v>208</v>
       </c>
-      <c r="D6" s="89" t="s">
-        <v>246</v>
-      </c>
-      <c r="E6" s="89" t="s">
-        <v>246</v>
-      </c>
-      <c r="F6" s="92" t="s">
+      <c r="D6" s="68" t="s">
+        <v>244</v>
+      </c>
+      <c r="E6" s="68" t="s">
+        <v>244</v>
+      </c>
+      <c r="F6" s="71" t="s">
         <v>242</v>
       </c>
       <c r="G6"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="89" t="s">
+      <c r="B7" s="68" t="s">
         <v>207</v>
       </c>
-      <c r="C7" s="89" t="s">
+      <c r="C7" s="68" t="s">
         <v>207</v>
       </c>
-      <c r="D7" s="93" t="s">
-        <v>249</v>
+      <c r="D7" s="72" t="s">
+        <v>247</v>
       </c>
       <c r="E7"/>
-      <c r="F7" s="94"/>
+      <c r="F7" s="73"/>
       <c r="G7"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B8" s="93" t="s">
+      <c r="B8" s="72" t="s">
         <v>206</v>
       </c>
-      <c r="C8" s="93" t="s">
+      <c r="C8" s="72" t="s">
         <v>206</v>
       </c>
-      <c r="D8" s="93" t="s">
-        <v>248</v>
-      </c>
-      <c r="E8" s="90"/>
-      <c r="F8" s="87"/>
+      <c r="D8" s="72" t="s">
+        <v>246</v>
+      </c>
+      <c r="E8" s="69"/>
+      <c r="F8" s="66"/>
       <c r="G8"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B11" s="62" t="s">
         <v>212</v>
       </c>
@@ -11320,11 +11316,11 @@
         <v>216</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B12" s="95" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B12" s="74" t="s">
         <v>223</v>
       </c>
-      <c r="C12" s="88" t="s">
+      <c r="C12" s="67" t="s">
         <v>230</v>
       </c>
       <c r="D12" s="64" t="s">
@@ -11337,11 +11333,11 @@
         <v>217</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B13" s="95" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B13" s="74" t="s">
         <v>224</v>
       </c>
-      <c r="C13" s="88" t="s">
+      <c r="C13" s="67" t="s">
         <v>230</v>
       </c>
       <c r="D13" s="64" t="s">
@@ -11354,11 +11350,11 @@
         <v>218</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B14" s="95" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B14" s="74" t="s">
         <v>225</v>
       </c>
-      <c r="C14" s="88" t="s">
+      <c r="C14" s="67" t="s">
         <v>230</v>
       </c>
       <c r="D14" s="64" t="s">
@@ -11368,11 +11364,11 @@
         <v>215</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B15" s="88" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B15" s="104" t="s">
         <v>233</v>
       </c>
-      <c r="C15" s="88" t="s">
+      <c r="C15" s="67" t="s">
         <v>230</v>
       </c>
       <c r="D15" s="64" t="s">
@@ -11382,11 +11378,11 @@
         <v>220</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B16" s="95" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B16" s="74" t="s">
         <v>207</v>
       </c>
-      <c r="C16" s="88" t="s">
+      <c r="C16" s="67" t="s">
         <v>230</v>
       </c>
       <c r="D16" s="64" t="s">
@@ -11396,11 +11392,11 @@
         <v>221</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B17" s="96" t="s">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B17" s="75" t="s">
         <v>228</v>
       </c>
-      <c r="C17" s="97" t="s">
+      <c r="C17" s="76" t="s">
         <v>232</v>
       </c>
       <c r="D17" s="64" t="s">
@@ -11410,11 +11406,11 @@
         <v>222</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B18" s="98" t="s">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B18" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="99" t="s">
+      <c r="C18" s="78" t="s">
         <v>77</v>
       </c>
       <c r="D18" s="64" t="s">
@@ -11424,33 +11420,33 @@
         <v>234</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B19" s="100" t="s">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B19" s="79" t="s">
         <v>226</v>
       </c>
-      <c r="C19" s="99" t="s">
+      <c r="C19" s="78" t="s">
         <v>77</v>
       </c>
       <c r="D19" s="64" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B20" s="98" t="s">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B20" s="77" t="s">
         <v>227</v>
       </c>
-      <c r="C20" s="99" t="s">
+      <c r="C20" s="78" t="s">
         <v>77</v>
       </c>
       <c r="D20" s="64" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B21" s="101" t="s">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B21" s="80" t="s">
         <v>229</v>
       </c>
-      <c r="C21" s="102" t="s">
+      <c r="C21" s="81" t="s">
         <v>78</v>
       </c>
       <c r="D21" s="64" t="s">
@@ -11459,11 +11455,11 @@
       <c r="F21" s="64"/>
       <c r="G21" s="64"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B22" s="103" t="s">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B22" s="82" t="s">
         <v>231</v>
       </c>
-      <c r="C22" s="102" t="s">
+      <c r="C22" s="81" t="s">
         <v>78</v>
       </c>
       <c r="D22" s="64" t="s">
@@ -11472,18 +11468,18 @@
       <c r="F22" s="65"/>
       <c r="G22" s="64"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B23" s="103" t="s">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B23" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="102" t="s">
+      <c r="C23" s="81" t="s">
         <v>78</v>
       </c>
       <c r="D23" s="65" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
       <c r="F24" s="64"/>
       <c r="G24" s="64"/>
     </row>

--- a/schedule/ガントチャート.xlsx
+++ b/schedule/ガントチャート.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gsp030\Desktop\git\okashi_222\schedule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\okashi_222\schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14928" windowHeight="12180" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14925" windowHeight="12180" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ガントチャート" sheetId="1" r:id="rId1"/>
@@ -1451,13 +1451,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>今できるてる</t>
-    <rPh sb="0" eb="1">
-      <t>イマ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>敵出現</t>
     <rPh sb="0" eb="1">
       <t>テキ</t>
@@ -1739,6 +1732,13 @@
   </si>
   <si>
     <t>モーション（プロ）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今できてる</t>
+    <rPh sb="0" eb="1">
+      <t>イマ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2047,7 +2047,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2117,6 +2117,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -2302,7 +2314,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="16">
+  <cellStyleXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2351,8 +2363,14 @@
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2602,9 +2620,27 @@
     <xf numFmtId="0" fontId="34" fillId="12" borderId="0" xfId="13" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2617,9 +2653,6 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2641,18 +2674,6 @@
     <xf numFmtId="0" fontId="20" fillId="12" borderId="3" xfId="13" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2665,12 +2686,20 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="16" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="17" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="16">
+  <cellStyles count="18">
     <cellStyle name="40% - アクセント 1" xfId="6" builtinId="31"/>
+    <cellStyle name="40% - アクセント 3" xfId="16" builtinId="39"/>
+    <cellStyle name="40% - アクセント 6" xfId="17" builtinId="51"/>
     <cellStyle name="60% - アクセント 1" xfId="7" builtinId="32"/>
     <cellStyle name="60% - アクセント 2" xfId="3" builtinId="36"/>
     <cellStyle name="60% - アクセント 3" xfId="4" builtinId="40"/>
@@ -4582,13 +4611,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4598,7 +4627,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4086226" y="9667875"/>
+          <a:off x="4086226" y="7000875"/>
           <a:ext cx="1485899" cy="666750"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartTerminator">
@@ -4915,85 +4944,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>323850</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>323850</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="フローチャート: 処理 32"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4086225" y="2990850"/>
-          <a:ext cx="1485900" cy="666750"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Loading</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>333372</xdr:colOff>
       <xdr:row>7</xdr:row>
@@ -5142,63 +5092,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="45" name="直線矢印コネクタ 44"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4829175" y="3667125"/>
-          <a:ext cx="0" cy="666750"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>371474</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5207,7 +5110,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4086225" y="4333875"/>
+          <a:off x="4086225" y="3009900"/>
           <a:ext cx="1485899" cy="666750"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartTerminator">
@@ -5263,194 +5166,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="49" name="直線矢印コネクタ 48"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4829175" y="5000625"/>
-          <a:ext cx="0" cy="666750"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>371474</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>371473</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="51" name="カギ線コネクタ 50"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="46" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000" flipH="1">
-          <a:off x="4086224" y="1333500"/>
-          <a:ext cx="742949" cy="3333750"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector4">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -48718"/>
-            <a:gd name="adj2" fmla="val 99857"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="フローチャート: 処理 15"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4086225" y="5667375"/>
-          <a:ext cx="1485900" cy="666750"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Loading</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5459,7 +5184,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4086226" y="7000875"/>
+          <a:off x="4086226" y="4343400"/>
           <a:ext cx="1485899" cy="666750"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartTerminator">
@@ -5517,14 +5242,14 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5533,7 +5258,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4829175" y="6334125"/>
+          <a:off x="4829175" y="3676650"/>
           <a:ext cx="0" cy="666750"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -5564,13 +5289,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5580,7 +5305,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4829175" y="7667625"/>
+          <a:off x="4829175" y="5000625"/>
           <a:ext cx="0" cy="666750"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -5611,13 +5336,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>371474</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5627,7 +5352,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4086225" y="8334375"/>
+          <a:off x="4086225" y="5667375"/>
           <a:ext cx="1485899" cy="666750"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartTerminator">
@@ -5685,13 +5410,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5701,7 +5426,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4829175" y="9001125"/>
+          <a:off x="4829175" y="6334125"/>
           <a:ext cx="0" cy="666750"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -5981,26 +5706,78 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>371474</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="カギ線コネクタ 26"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="46" idx="1"/>
+          <a:endCxn id="19" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipH="1">
+          <a:off x="4086224" y="2000251"/>
+          <a:ext cx="1" cy="1343025"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -22860000000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="テキスト ボックス 29"/>
+        <xdr:cNvPr id="31" name="テキスト ボックス 30"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4943475" y="3667125"/>
-          <a:ext cx="628650" cy="333375"/>
+          <a:off x="3381375" y="3381375"/>
+          <a:ext cx="733425" cy="323850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6011,23 +5788,21 @@
             <a:lumOff val="80000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
+        <a:ln>
           <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
+            <a:schemeClr val="accent6"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
         </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+          <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="dk1"/>
@@ -6039,8 +5814,8 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>接続</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050"/>
+            <a:t>最初から</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -6356,35 +6131,35 @@
   <dimension ref="A1:AT81"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="11" ySplit="4" topLeftCell="X10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="4" topLeftCell="X41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AG3" sqref="AG3:AJ10"/>
+      <selection pane="bottomRight" activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="22.59765625" customWidth="1"/>
-    <col min="6" max="6" width="7.09765625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.625" customWidth="1"/>
+    <col min="6" max="6" width="7.125" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="7"/>
-    <col min="8" max="9" width="7.09765625" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.09765625" style="59" customWidth="1"/>
-    <col min="11" max="11" width="10.09765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.125" style="59" customWidth="1"/>
+    <col min="11" max="11" width="10.125" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5" style="3" customWidth="1"/>
     <col min="13" max="16" width="3.5" customWidth="1"/>
-    <col min="17" max="17" width="4.3984375" customWidth="1"/>
+    <col min="17" max="17" width="4.375" customWidth="1"/>
     <col min="18" max="18" width="3.5" customWidth="1"/>
-    <col min="19" max="19" width="3.8984375" customWidth="1"/>
+    <col min="19" max="19" width="3.875" customWidth="1"/>
     <col min="20" max="36" width="3.5" customWidth="1"/>
-    <col min="37" max="37" width="6.69921875" customWidth="1"/>
+    <col min="37" max="37" width="6.75" customWidth="1"/>
     <col min="38" max="46" width="3.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" ht="26.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:46" ht="25.5" x14ac:dyDescent="0.4">
       <c r="B1" s="16" t="s">
         <v>86</v>
       </c>
@@ -6416,7 +6191,7 @@
       </c>
       <c r="V1" s="25"/>
     </row>
-    <row r="3" spans="1:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="L3" s="17">
         <v>44116</v>
       </c>
@@ -6507,7 +6282,7 @@
       <c r="AS3" s="1"/>
       <c r="AT3" s="1"/>
     </row>
-    <row r="4" spans="1:46" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:46" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B4" s="32" t="s">
         <v>6</v>
       </c>
@@ -6647,11 +6422,11 @@
         <v>44142</v>
       </c>
     </row>
-    <row r="5" spans="1:46" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="96" t="s">
+    <row r="5" spans="1:46" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="97" t="s">
+      <c r="B5" s="86" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="20" t="s">
@@ -6688,7 +6463,7 @@
       <c r="T5" s="19"/>
       <c r="U5" s="19"/>
       <c r="V5" s="19"/>
-      <c r="W5" s="90" t="s">
+      <c r="W5" s="95" t="s">
         <v>110</v>
       </c>
       <c r="X5" s="19"/>
@@ -6697,7 +6472,7 @@
       <c r="AA5" s="19"/>
       <c r="AB5" s="19"/>
       <c r="AC5" s="19"/>
-      <c r="AD5" s="93" t="s">
+      <c r="AD5" s="98" t="s">
         <v>111</v>
       </c>
       <c r="AE5" s="19"/>
@@ -6706,14 +6481,14 @@
       <c r="AH5" s="19"/>
       <c r="AI5" s="19"/>
       <c r="AJ5" s="19"/>
-      <c r="AK5" s="85" t="s">
+      <c r="AK5" s="91" t="s">
         <v>88</v>
       </c>
       <c r="AL5" s="19"/>
     </row>
-    <row r="6" spans="1:46" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="96"/>
-      <c r="B6" s="97"/>
+    <row r="6" spans="1:46" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="85"/>
+      <c r="B6" s="86"/>
       <c r="C6" s="20" t="s">
         <v>9</v>
       </c>
@@ -6746,26 +6521,26 @@
       <c r="T6" s="20"/>
       <c r="U6" s="20"/>
       <c r="V6" s="20"/>
-      <c r="W6" s="91"/>
+      <c r="W6" s="96"/>
       <c r="X6" s="20"/>
       <c r="Y6" s="20"/>
       <c r="Z6" s="20"/>
       <c r="AA6" s="20"/>
       <c r="AB6" s="20"/>
       <c r="AC6" s="20"/>
-      <c r="AD6" s="94"/>
+      <c r="AD6" s="99"/>
       <c r="AE6" s="19"/>
       <c r="AF6" s="19"/>
       <c r="AG6" s="19"/>
       <c r="AH6" s="19"/>
       <c r="AI6" s="19"/>
       <c r="AJ6" s="19"/>
-      <c r="AK6" s="86"/>
+      <c r="AK6" s="92"/>
       <c r="AL6" s="19"/>
     </row>
-    <row r="7" spans="1:46" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="96"/>
-      <c r="B7" s="97"/>
+    <row r="7" spans="1:46" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="85"/>
+      <c r="B7" s="86"/>
       <c r="C7" s="20" t="s">
         <v>10</v>
       </c>
@@ -6796,26 +6571,26 @@
       <c r="T7" s="20"/>
       <c r="U7" s="20"/>
       <c r="V7" s="20"/>
-      <c r="W7" s="91"/>
+      <c r="W7" s="96"/>
       <c r="X7" s="20"/>
       <c r="Y7" s="20"/>
       <c r="Z7" s="20"/>
       <c r="AA7" s="20"/>
       <c r="AB7" s="20"/>
       <c r="AC7" s="20"/>
-      <c r="AD7" s="94"/>
+      <c r="AD7" s="99"/>
       <c r="AE7" s="19"/>
       <c r="AF7" s="19"/>
       <c r="AG7" s="19"/>
       <c r="AH7" s="19"/>
       <c r="AI7" s="19"/>
       <c r="AJ7" s="19"/>
-      <c r="AK7" s="86"/>
+      <c r="AK7" s="92"/>
       <c r="AL7" s="19"/>
     </row>
-    <row r="8" spans="1:46" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="96"/>
-      <c r="B8" s="97"/>
+    <row r="8" spans="1:46" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="85"/>
+      <c r="B8" s="86"/>
       <c r="C8" s="20" t="s">
         <v>11</v>
       </c>
@@ -6846,26 +6621,26 @@
       <c r="T8" s="20"/>
       <c r="U8" s="20"/>
       <c r="V8" s="20"/>
-      <c r="W8" s="91"/>
+      <c r="W8" s="96"/>
       <c r="X8" s="20"/>
       <c r="Y8" s="20"/>
       <c r="Z8" s="20"/>
       <c r="AA8" s="20"/>
       <c r="AB8" s="20"/>
       <c r="AC8" s="20"/>
-      <c r="AD8" s="94"/>
+      <c r="AD8" s="99"/>
       <c r="AE8" s="19"/>
       <c r="AF8" s="19"/>
       <c r="AG8" s="19"/>
       <c r="AH8" s="19"/>
       <c r="AI8" s="19"/>
       <c r="AJ8" s="19"/>
-      <c r="AK8" s="86"/>
+      <c r="AK8" s="92"/>
       <c r="AL8" s="19"/>
     </row>
-    <row r="9" spans="1:46" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="96"/>
-      <c r="B9" s="97"/>
+    <row r="9" spans="1:46" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="85"/>
+      <c r="B9" s="86"/>
       <c r="C9" s="20" t="s">
         <v>34</v>
       </c>
@@ -6894,26 +6669,26 @@
       <c r="T9" s="20"/>
       <c r="U9" s="20"/>
       <c r="V9" s="20"/>
-      <c r="W9" s="91"/>
+      <c r="W9" s="96"/>
       <c r="X9" s="20"/>
       <c r="Y9" s="20"/>
       <c r="Z9" s="20"/>
       <c r="AA9" s="20"/>
       <c r="AB9" s="20"/>
       <c r="AC9" s="20"/>
-      <c r="AD9" s="94"/>
+      <c r="AD9" s="99"/>
       <c r="AE9" s="19"/>
       <c r="AF9" s="19"/>
       <c r="AG9" s="19"/>
       <c r="AH9" s="19"/>
       <c r="AI9" s="19"/>
       <c r="AJ9" s="19"/>
-      <c r="AK9" s="86"/>
+      <c r="AK9" s="92"/>
       <c r="AL9" s="19"/>
     </row>
-    <row r="10" spans="1:46" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="96"/>
-      <c r="B10" s="97"/>
+    <row r="10" spans="1:46" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="85"/>
+      <c r="B10" s="86"/>
       <c r="C10" s="20" t="s">
         <v>35</v>
       </c>
@@ -6942,29 +6717,29 @@
       <c r="T10" s="20"/>
       <c r="U10" s="20"/>
       <c r="V10" s="20"/>
-      <c r="W10" s="91"/>
+      <c r="W10" s="96"/>
       <c r="X10" s="20"/>
       <c r="Y10" s="20"/>
       <c r="Z10" s="20"/>
       <c r="AA10" s="20"/>
       <c r="AB10" s="20"/>
       <c r="AC10" s="20"/>
-      <c r="AD10" s="94"/>
+      <c r="AD10" s="99"/>
       <c r="AE10" s="19"/>
       <c r="AF10" s="19"/>
       <c r="AG10" s="19"/>
       <c r="AH10" s="19"/>
       <c r="AI10" s="19"/>
       <c r="AJ10" s="19"/>
-      <c r="AK10" s="86"/>
+      <c r="AK10" s="92"/>
       <c r="AL10" s="19"/>
     </row>
-    <row r="11" spans="1:46" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="96"/>
-      <c r="B11" s="89" t="s">
+    <row r="11" spans="1:46" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="85"/>
+      <c r="B11" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="88" t="s">
+      <c r="C11" s="84" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="46" t="s">
@@ -6990,27 +6765,27 @@
       <c r="T11" s="20"/>
       <c r="U11" s="20"/>
       <c r="V11" s="20"/>
-      <c r="W11" s="91"/>
+      <c r="W11" s="96"/>
       <c r="X11" s="20"/>
       <c r="Y11" s="20"/>
       <c r="Z11" s="20"/>
       <c r="AA11" s="20"/>
       <c r="AB11" s="20"/>
       <c r="AC11" s="20"/>
-      <c r="AD11" s="94"/>
+      <c r="AD11" s="99"/>
       <c r="AE11" s="19"/>
       <c r="AF11" s="19"/>
       <c r="AG11" s="19"/>
       <c r="AH11" s="19"/>
       <c r="AI11" s="19"/>
       <c r="AJ11" s="19"/>
-      <c r="AK11" s="86"/>
+      <c r="AK11" s="92"/>
       <c r="AL11" s="19"/>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.45">
-      <c r="A12" s="96"/>
-      <c r="B12" s="89"/>
-      <c r="C12" s="88"/>
+    <row r="12" spans="1:46" x14ac:dyDescent="0.4">
+      <c r="A12" s="85"/>
+      <c r="B12" s="94"/>
+      <c r="C12" s="84"/>
       <c r="D12" s="2" t="s">
         <v>23</v>
       </c>
@@ -7034,27 +6809,27 @@
       <c r="T12" s="20"/>
       <c r="U12" s="20"/>
       <c r="V12" s="20"/>
-      <c r="W12" s="91"/>
+      <c r="W12" s="96"/>
       <c r="X12" s="20"/>
       <c r="Y12" s="20"/>
       <c r="Z12" s="20"/>
       <c r="AA12" s="20"/>
       <c r="AB12" s="20"/>
       <c r="AC12" s="20"/>
-      <c r="AD12" s="94"/>
+      <c r="AD12" s="99"/>
       <c r="AE12" s="19"/>
       <c r="AF12" s="19"/>
       <c r="AG12" s="19"/>
       <c r="AH12" s="19"/>
       <c r="AI12" s="19"/>
       <c r="AJ12" s="19"/>
-      <c r="AK12" s="86"/>
+      <c r="AK12" s="92"/>
       <c r="AL12" s="19"/>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.45">
-      <c r="A13" s="96"/>
-      <c r="B13" s="89"/>
-      <c r="C13" s="88"/>
+    <row r="13" spans="1:46" x14ac:dyDescent="0.4">
+      <c r="A13" s="85"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="84"/>
       <c r="D13" s="38" t="s">
         <v>45</v>
       </c>
@@ -7078,27 +6853,27 @@
       <c r="T13" s="20"/>
       <c r="U13" s="20"/>
       <c r="V13" s="20"/>
-      <c r="W13" s="91"/>
+      <c r="W13" s="96"/>
       <c r="X13" s="20"/>
       <c r="Y13" s="20"/>
       <c r="Z13" s="20"/>
       <c r="AA13" s="20"/>
       <c r="AB13" s="20"/>
       <c r="AC13" s="20"/>
-      <c r="AD13" s="94"/>
+      <c r="AD13" s="99"/>
       <c r="AE13" s="19"/>
       <c r="AF13" s="19"/>
       <c r="AG13" s="19"/>
       <c r="AH13" s="19"/>
       <c r="AI13" s="19"/>
       <c r="AJ13" s="19"/>
-      <c r="AK13" s="86"/>
+      <c r="AK13" s="92"/>
       <c r="AL13" s="19"/>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.45">
-      <c r="A14" s="96"/>
-      <c r="B14" s="89"/>
-      <c r="C14" s="88"/>
+    <row r="14" spans="1:46" x14ac:dyDescent="0.4">
+      <c r="A14" s="85"/>
+      <c r="B14" s="94"/>
+      <c r="C14" s="84"/>
       <c r="D14" s="39" t="s">
         <v>27</v>
       </c>
@@ -7122,27 +6897,27 @@
       <c r="T14" s="20"/>
       <c r="U14" s="20"/>
       <c r="V14" s="20"/>
-      <c r="W14" s="91"/>
+      <c r="W14" s="96"/>
       <c r="X14" s="20"/>
       <c r="Y14" s="20"/>
       <c r="Z14" s="20"/>
       <c r="AA14" s="20"/>
       <c r="AB14" s="20"/>
       <c r="AC14" s="20"/>
-      <c r="AD14" s="94"/>
+      <c r="AD14" s="99"/>
       <c r="AE14" s="19"/>
       <c r="AF14" s="19"/>
       <c r="AG14" s="19"/>
       <c r="AH14" s="19"/>
       <c r="AI14" s="19"/>
       <c r="AJ14" s="19"/>
-      <c r="AK14" s="86"/>
+      <c r="AK14" s="92"/>
       <c r="AL14" s="19"/>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.45">
-      <c r="A15" s="96"/>
-      <c r="B15" s="89"/>
-      <c r="C15" s="88" t="s">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.4">
+      <c r="A15" s="85"/>
+      <c r="B15" s="94"/>
+      <c r="C15" s="84" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -7170,27 +6945,27 @@
       <c r="T15" s="20"/>
       <c r="U15" s="20"/>
       <c r="V15" s="20"/>
-      <c r="W15" s="91"/>
+      <c r="W15" s="96"/>
       <c r="X15" s="20"/>
       <c r="Y15" s="20"/>
       <c r="Z15" s="20"/>
       <c r="AA15" s="20"/>
       <c r="AB15" s="20"/>
       <c r="AC15" s="20"/>
-      <c r="AD15" s="94"/>
+      <c r="AD15" s="99"/>
       <c r="AE15" s="19"/>
       <c r="AF15" s="19"/>
       <c r="AG15" s="19"/>
       <c r="AH15" s="19"/>
       <c r="AI15" s="19"/>
       <c r="AJ15" s="19"/>
-      <c r="AK15" s="86"/>
+      <c r="AK15" s="92"/>
       <c r="AL15" s="19"/>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.45">
-      <c r="A16" s="96"/>
-      <c r="B16" s="89"/>
-      <c r="C16" s="88"/>
+    <row r="16" spans="1:46" x14ac:dyDescent="0.4">
+      <c r="A16" s="85"/>
+      <c r="B16" s="94"/>
+      <c r="C16" s="84"/>
       <c r="D16" s="40" t="s">
         <v>45</v>
       </c>
@@ -7214,27 +6989,27 @@
       <c r="T16" s="20"/>
       <c r="U16" s="20"/>
       <c r="V16" s="20"/>
-      <c r="W16" s="91"/>
+      <c r="W16" s="96"/>
       <c r="X16" s="20"/>
       <c r="Y16" s="20"/>
       <c r="Z16" s="20"/>
       <c r="AA16" s="20"/>
       <c r="AB16" s="20"/>
       <c r="AC16" s="20"/>
-      <c r="AD16" s="94"/>
+      <c r="AD16" s="99"/>
       <c r="AE16" s="19"/>
       <c r="AF16" s="19"/>
       <c r="AG16" s="19"/>
       <c r="AH16" s="19"/>
       <c r="AI16" s="19"/>
       <c r="AJ16" s="19"/>
-      <c r="AK16" s="86"/>
+      <c r="AK16" s="92"/>
       <c r="AL16" s="19"/>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A17" s="96"/>
-      <c r="B17" s="89"/>
-      <c r="C17" s="88"/>
+    <row r="17" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A17" s="85"/>
+      <c r="B17" s="94"/>
+      <c r="C17" s="84"/>
       <c r="D17" s="2" t="s">
         <v>23</v>
       </c>
@@ -7258,30 +7033,30 @@
       <c r="T17" s="20"/>
       <c r="U17" s="20"/>
       <c r="V17" s="20"/>
-      <c r="W17" s="91"/>
+      <c r="W17" s="96"/>
       <c r="X17" s="20"/>
       <c r="Y17" s="20"/>
       <c r="Z17" s="20"/>
       <c r="AA17" s="20"/>
       <c r="AB17" s="20"/>
       <c r="AC17" s="20"/>
-      <c r="AD17" s="94"/>
+      <c r="AD17" s="99"/>
       <c r="AE17" s="19"/>
       <c r="AF17" s="19"/>
       <c r="AG17" s="19"/>
       <c r="AH17" s="19"/>
       <c r="AI17" s="19"/>
       <c r="AJ17" s="19"/>
-      <c r="AK17" s="86"/>
+      <c r="AK17" s="92"/>
       <c r="AL17" s="19"/>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A18" s="96"/>
-      <c r="B18" s="89"/>
-      <c r="C18" s="88" t="s">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A18" s="85"/>
+      <c r="B18" s="94"/>
+      <c r="C18" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="88" t="s">
+      <c r="D18" s="84" t="s">
         <v>95</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -7314,28 +7089,28 @@
       <c r="T18" s="20"/>
       <c r="U18" s="20"/>
       <c r="V18" s="20"/>
-      <c r="W18" s="91"/>
+      <c r="W18" s="96"/>
       <c r="X18" s="20"/>
       <c r="Y18" s="20"/>
       <c r="Z18" s="20"/>
       <c r="AA18" s="20"/>
       <c r="AB18" s="20"/>
       <c r="AC18" s="20"/>
-      <c r="AD18" s="94"/>
+      <c r="AD18" s="99"/>
       <c r="AE18" s="19"/>
       <c r="AF18" s="19"/>
       <c r="AG18" s="19"/>
       <c r="AH18" s="19"/>
       <c r="AI18" s="19"/>
       <c r="AJ18" s="19"/>
-      <c r="AK18" s="86"/>
+      <c r="AK18" s="92"/>
       <c r="AL18" s="19"/>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A19" s="96"/>
-      <c r="B19" s="89"/>
-      <c r="C19" s="88"/>
-      <c r="D19" s="88"/>
+    <row r="19" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A19" s="85"/>
+      <c r="B19" s="94"/>
+      <c r="C19" s="84"/>
+      <c r="D19" s="84"/>
       <c r="E19" s="2" t="s">
         <v>138</v>
       </c>
@@ -7366,28 +7141,28 @@
       <c r="T19" s="20"/>
       <c r="U19" s="20"/>
       <c r="V19" s="20"/>
-      <c r="W19" s="91"/>
+      <c r="W19" s="96"/>
       <c r="X19" s="20"/>
       <c r="Y19" s="20"/>
       <c r="Z19" s="20"/>
       <c r="AA19" s="20"/>
       <c r="AB19" s="20"/>
       <c r="AC19" s="20"/>
-      <c r="AD19" s="94"/>
+      <c r="AD19" s="99"/>
       <c r="AE19" s="19"/>
       <c r="AF19" s="19"/>
       <c r="AG19" s="19"/>
       <c r="AH19" s="19"/>
       <c r="AI19" s="19"/>
       <c r="AJ19" s="19"/>
-      <c r="AK19" s="86"/>
+      <c r="AK19" s="92"/>
       <c r="AL19" s="19"/>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A20" s="96"/>
-      <c r="B20" s="89"/>
-      <c r="C20" s="88"/>
-      <c r="D20" s="88"/>
+    <row r="20" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A20" s="85"/>
+      <c r="B20" s="94"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="84"/>
       <c r="E20" s="2" t="s">
         <v>112</v>
       </c>
@@ -7418,28 +7193,28 @@
       <c r="T20" s="20"/>
       <c r="U20" s="20"/>
       <c r="V20" s="20"/>
-      <c r="W20" s="91"/>
+      <c r="W20" s="96"/>
       <c r="X20" s="20"/>
       <c r="Y20" s="20"/>
       <c r="Z20" s="20"/>
       <c r="AA20" s="20"/>
       <c r="AB20" s="20"/>
       <c r="AC20" s="20"/>
-      <c r="AD20" s="94"/>
+      <c r="AD20" s="99"/>
       <c r="AE20" s="19"/>
       <c r="AF20" s="19"/>
       <c r="AG20" s="19"/>
       <c r="AH20" s="19"/>
       <c r="AI20" s="19"/>
       <c r="AJ20" s="19"/>
-      <c r="AK20" s="86"/>
+      <c r="AK20" s="92"/>
       <c r="AL20" s="19"/>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A21" s="96"/>
-      <c r="B21" s="89"/>
-      <c r="C21" s="88"/>
-      <c r="D21" s="88"/>
+    <row r="21" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A21" s="85"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="84"/>
       <c r="E21" s="2" t="s">
         <v>108</v>
       </c>
@@ -7470,28 +7245,28 @@
       <c r="T21" s="20"/>
       <c r="U21" s="20"/>
       <c r="V21" s="20"/>
-      <c r="W21" s="91"/>
+      <c r="W21" s="96"/>
       <c r="X21" s="20"/>
       <c r="Y21" s="20"/>
       <c r="Z21" s="20"/>
       <c r="AA21" s="20"/>
       <c r="AB21" s="20"/>
       <c r="AC21" s="20"/>
-      <c r="AD21" s="94"/>
+      <c r="AD21" s="99"/>
       <c r="AE21" s="19"/>
       <c r="AF21" s="19"/>
       <c r="AG21" s="19"/>
       <c r="AH21" s="19"/>
       <c r="AI21" s="19"/>
       <c r="AJ21" s="19"/>
-      <c r="AK21" s="86"/>
+      <c r="AK21" s="92"/>
       <c r="AL21" s="19"/>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A22" s="96"/>
-      <c r="B22" s="89"/>
-      <c r="C22" s="88"/>
-      <c r="D22" s="88"/>
+    <row r="22" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A22" s="85"/>
+      <c r="B22" s="94"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="84"/>
       <c r="E22" s="2" t="s">
         <v>135</v>
       </c>
@@ -7522,28 +7297,28 @@
       <c r="T22" s="20"/>
       <c r="U22" s="20"/>
       <c r="V22" s="20"/>
-      <c r="W22" s="91"/>
+      <c r="W22" s="96"/>
       <c r="X22" s="20"/>
       <c r="Y22" s="20"/>
       <c r="Z22" s="20"/>
       <c r="AA22" s="20"/>
       <c r="AB22" s="20"/>
       <c r="AC22" s="20"/>
-      <c r="AD22" s="94"/>
+      <c r="AD22" s="99"/>
       <c r="AE22" s="19"/>
       <c r="AF22" s="19"/>
       <c r="AG22" s="19"/>
       <c r="AH22" s="19"/>
       <c r="AI22" s="19"/>
       <c r="AJ22" s="19"/>
-      <c r="AK22" s="86"/>
+      <c r="AK22" s="92"/>
       <c r="AL22" s="19"/>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A23" s="96"/>
-      <c r="B23" s="89"/>
-      <c r="C23" s="88"/>
-      <c r="D23" s="88"/>
+    <row r="23" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A23" s="85"/>
+      <c r="B23" s="94"/>
+      <c r="C23" s="84"/>
+      <c r="D23" s="84"/>
       <c r="E23" s="2" t="s">
         <v>118</v>
       </c>
@@ -7574,28 +7349,28 @@
       <c r="T23" s="20"/>
       <c r="U23" s="20"/>
       <c r="V23" s="20"/>
-      <c r="W23" s="91"/>
+      <c r="W23" s="96"/>
       <c r="X23" s="20"/>
       <c r="Y23" s="20"/>
       <c r="Z23" s="20"/>
       <c r="AA23" s="20"/>
       <c r="AB23" s="20"/>
       <c r="AC23" s="20"/>
-      <c r="AD23" s="94"/>
+      <c r="AD23" s="99"/>
       <c r="AE23" s="19"/>
       <c r="AF23" s="19"/>
       <c r="AG23" s="19"/>
       <c r="AH23" s="19"/>
       <c r="AI23" s="19"/>
       <c r="AJ23" s="19"/>
-      <c r="AK23" s="86"/>
+      <c r="AK23" s="92"/>
       <c r="AL23" s="19"/>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A24" s="96"/>
-      <c r="B24" s="89"/>
-      <c r="C24" s="88"/>
-      <c r="D24" s="88"/>
+    <row r="24" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A24" s="85"/>
+      <c r="B24" s="94"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="84"/>
       <c r="E24" s="2" t="s">
         <v>109</v>
       </c>
@@ -7626,28 +7401,28 @@
       <c r="T24" s="20"/>
       <c r="U24" s="20"/>
       <c r="V24" s="20"/>
-      <c r="W24" s="91"/>
+      <c r="W24" s="96"/>
       <c r="X24" s="20"/>
       <c r="Y24" s="20"/>
       <c r="Z24" s="20"/>
       <c r="AA24" s="20"/>
       <c r="AB24" s="20"/>
       <c r="AC24" s="20"/>
-      <c r="AD24" s="94"/>
+      <c r="AD24" s="99"/>
       <c r="AE24" s="19"/>
       <c r="AF24" s="19"/>
       <c r="AG24" s="19"/>
       <c r="AH24" s="19"/>
       <c r="AI24" s="19"/>
       <c r="AJ24" s="19"/>
-      <c r="AK24" s="86"/>
+      <c r="AK24" s="92"/>
       <c r="AL24" s="19"/>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A25" s="96"/>
-      <c r="B25" s="89"/>
-      <c r="C25" s="88"/>
-      <c r="D25" s="88"/>
+    <row r="25" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A25" s="85"/>
+      <c r="B25" s="94"/>
+      <c r="C25" s="84"/>
+      <c r="D25" s="84"/>
       <c r="E25" s="2" t="s">
         <v>167</v>
       </c>
@@ -7678,28 +7453,28 @@
       <c r="T25" s="50"/>
       <c r="U25" s="50"/>
       <c r="V25" s="50"/>
-      <c r="W25" s="91"/>
+      <c r="W25" s="96"/>
       <c r="X25" s="50"/>
       <c r="Y25" s="50"/>
       <c r="Z25" s="50"/>
       <c r="AA25" s="50"/>
       <c r="AB25" s="50"/>
       <c r="AC25" s="50"/>
-      <c r="AD25" s="94"/>
+      <c r="AD25" s="99"/>
       <c r="AE25" s="51"/>
       <c r="AF25" s="51"/>
       <c r="AG25" s="51"/>
       <c r="AH25" s="51"/>
       <c r="AI25" s="51"/>
       <c r="AJ25" s="51"/>
-      <c r="AK25" s="86"/>
+      <c r="AK25" s="92"/>
       <c r="AL25" s="51"/>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A26" s="96"/>
-      <c r="B26" s="89"/>
-      <c r="C26" s="88"/>
-      <c r="D26" s="88"/>
+    <row r="26" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A26" s="85"/>
+      <c r="B26" s="94"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="84"/>
       <c r="E26" s="2" t="s">
         <v>106</v>
       </c>
@@ -7730,28 +7505,28 @@
       <c r="T26" s="20"/>
       <c r="U26" s="20"/>
       <c r="V26" s="20"/>
-      <c r="W26" s="91"/>
+      <c r="W26" s="96"/>
       <c r="X26" s="20"/>
       <c r="Y26" s="20"/>
       <c r="Z26" s="20"/>
       <c r="AA26" s="20"/>
       <c r="AB26" s="20"/>
       <c r="AC26" s="20"/>
-      <c r="AD26" s="94"/>
+      <c r="AD26" s="99"/>
       <c r="AE26" s="19"/>
       <c r="AF26" s="19"/>
       <c r="AG26" s="19"/>
       <c r="AH26" s="19"/>
       <c r="AI26" s="19"/>
       <c r="AJ26" s="19"/>
-      <c r="AK26" s="86"/>
+      <c r="AK26" s="92"/>
       <c r="AL26" s="19"/>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A27" s="96"/>
-      <c r="B27" s="89"/>
-      <c r="C27" s="88"/>
-      <c r="D27" s="88"/>
+    <row r="27" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A27" s="85"/>
+      <c r="B27" s="94"/>
+      <c r="C27" s="84"/>
+      <c r="D27" s="84"/>
       <c r="E27" s="2" t="s">
         <v>102</v>
       </c>
@@ -7782,28 +7557,28 @@
       <c r="T27" s="20"/>
       <c r="U27" s="20"/>
       <c r="V27" s="20"/>
-      <c r="W27" s="91"/>
+      <c r="W27" s="96"/>
       <c r="X27" s="20"/>
       <c r="Y27" s="20"/>
       <c r="Z27" s="20"/>
       <c r="AA27" s="20"/>
       <c r="AB27" s="20"/>
       <c r="AC27" s="20"/>
-      <c r="AD27" s="94"/>
+      <c r="AD27" s="99"/>
       <c r="AE27" s="19"/>
       <c r="AF27" s="19"/>
       <c r="AG27" s="19"/>
       <c r="AH27" s="19"/>
       <c r="AI27" s="19"/>
       <c r="AJ27" s="19"/>
-      <c r="AK27" s="86"/>
+      <c r="AK27" s="92"/>
       <c r="AL27" s="19"/>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A28" s="96"/>
-      <c r="B28" s="89"/>
-      <c r="C28" s="88"/>
-      <c r="D28" s="88" t="s">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A28" s="85"/>
+      <c r="B28" s="94"/>
+      <c r="C28" s="84"/>
+      <c r="D28" s="84" t="s">
         <v>25</v>
       </c>
       <c r="E28" s="2" t="s">
@@ -7836,28 +7611,28 @@
       <c r="T28" s="20"/>
       <c r="U28" s="20"/>
       <c r="V28" s="20"/>
-      <c r="W28" s="91"/>
+      <c r="W28" s="96"/>
       <c r="X28" s="20"/>
       <c r="Y28" s="20"/>
       <c r="Z28" s="20"/>
       <c r="AA28" s="20"/>
       <c r="AB28" s="20"/>
       <c r="AC28" s="20"/>
-      <c r="AD28" s="94"/>
+      <c r="AD28" s="99"/>
       <c r="AE28" s="19"/>
       <c r="AF28" s="19"/>
       <c r="AG28" s="19"/>
       <c r="AH28" s="19"/>
       <c r="AI28" s="19"/>
       <c r="AJ28" s="19"/>
-      <c r="AK28" s="86"/>
+      <c r="AK28" s="92"/>
       <c r="AL28" s="19"/>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A29" s="96"/>
-      <c r="B29" s="89"/>
-      <c r="C29" s="88"/>
-      <c r="D29" s="88"/>
+    <row r="29" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A29" s="85"/>
+      <c r="B29" s="94"/>
+      <c r="C29" s="84"/>
+      <c r="D29" s="84"/>
       <c r="E29" s="2" t="s">
         <v>119</v>
       </c>
@@ -7888,28 +7663,28 @@
       <c r="T29" s="20"/>
       <c r="U29" s="20"/>
       <c r="V29" s="20"/>
-      <c r="W29" s="91"/>
+      <c r="W29" s="96"/>
       <c r="X29" s="20"/>
       <c r="Y29" s="20"/>
       <c r="Z29" s="20"/>
       <c r="AA29" s="20"/>
       <c r="AB29" s="20"/>
       <c r="AC29" s="20"/>
-      <c r="AD29" s="94"/>
+      <c r="AD29" s="99"/>
       <c r="AE29" s="19"/>
       <c r="AF29" s="19"/>
       <c r="AG29" s="19"/>
       <c r="AH29" s="19"/>
       <c r="AI29" s="19"/>
       <c r="AJ29" s="19"/>
-      <c r="AK29" s="86"/>
+      <c r="AK29" s="92"/>
       <c r="AL29" s="19"/>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A30" s="96"/>
-      <c r="B30" s="89"/>
-      <c r="C30" s="88"/>
-      <c r="D30" s="88" t="s">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A30" s="85"/>
+      <c r="B30" s="94"/>
+      <c r="C30" s="84"/>
+      <c r="D30" s="84" t="s">
         <v>13</v>
       </c>
       <c r="E30" s="2" t="s">
@@ -7940,28 +7715,28 @@
       <c r="T30" s="20"/>
       <c r="U30" s="20"/>
       <c r="V30" s="20"/>
-      <c r="W30" s="91"/>
+      <c r="W30" s="96"/>
       <c r="X30" s="20"/>
       <c r="Y30" s="20"/>
       <c r="Z30" s="20"/>
       <c r="AA30" s="20"/>
       <c r="AB30" s="20"/>
       <c r="AC30" s="20"/>
-      <c r="AD30" s="94"/>
+      <c r="AD30" s="99"/>
       <c r="AE30" s="19"/>
       <c r="AF30" s="19"/>
       <c r="AG30" s="19"/>
       <c r="AH30" s="19"/>
       <c r="AI30" s="19"/>
       <c r="AJ30" s="19"/>
-      <c r="AK30" s="86"/>
+      <c r="AK30" s="92"/>
       <c r="AL30" s="19"/>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A31" s="96"/>
-      <c r="B31" s="89"/>
-      <c r="C31" s="88"/>
-      <c r="D31" s="88"/>
+    <row r="31" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A31" s="85"/>
+      <c r="B31" s="94"/>
+      <c r="C31" s="84"/>
+      <c r="D31" s="84"/>
       <c r="E31" s="2" t="s">
         <v>143</v>
       </c>
@@ -7984,28 +7759,28 @@
       <c r="T31" s="20"/>
       <c r="U31" s="20"/>
       <c r="V31" s="20"/>
-      <c r="W31" s="91"/>
+      <c r="W31" s="96"/>
       <c r="X31" s="20"/>
       <c r="Y31" s="20"/>
       <c r="Z31" s="20"/>
       <c r="AA31" s="20"/>
       <c r="AB31" s="20"/>
       <c r="AC31" s="20"/>
-      <c r="AD31" s="94"/>
+      <c r="AD31" s="99"/>
       <c r="AE31" s="19"/>
       <c r="AF31" s="19"/>
       <c r="AG31" s="19"/>
       <c r="AH31" s="19"/>
       <c r="AI31" s="19"/>
       <c r="AJ31" s="19"/>
-      <c r="AK31" s="86"/>
+      <c r="AK31" s="92"/>
       <c r="AL31" s="19"/>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A32" s="96"/>
-      <c r="B32" s="89"/>
-      <c r="C32" s="88"/>
-      <c r="D32" s="88"/>
+    <row r="32" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A32" s="85"/>
+      <c r="B32" s="94"/>
+      <c r="C32" s="84"/>
+      <c r="D32" s="84"/>
       <c r="E32" s="2" t="s">
         <v>113</v>
       </c>
@@ -8036,28 +7811,28 @@
       <c r="T32" s="20"/>
       <c r="U32" s="20"/>
       <c r="V32" s="20"/>
-      <c r="W32" s="91"/>
+      <c r="W32" s="96"/>
       <c r="X32" s="20"/>
       <c r="Y32" s="20"/>
       <c r="Z32" s="20"/>
       <c r="AA32" s="20"/>
       <c r="AB32" s="20"/>
       <c r="AC32" s="20"/>
-      <c r="AD32" s="94"/>
+      <c r="AD32" s="99"/>
       <c r="AE32" s="19"/>
       <c r="AF32" s="19"/>
       <c r="AG32" s="19"/>
       <c r="AH32" s="19"/>
       <c r="AI32" s="19"/>
       <c r="AJ32" s="19"/>
-      <c r="AK32" s="86"/>
+      <c r="AK32" s="92"/>
       <c r="AL32" s="19"/>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A33" s="96"/>
-      <c r="B33" s="89"/>
-      <c r="C33" s="88"/>
-      <c r="D33" s="88" t="s">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A33" s="85"/>
+      <c r="B33" s="94"/>
+      <c r="C33" s="84"/>
+      <c r="D33" s="84" t="s">
         <v>90</v>
       </c>
       <c r="E33" s="2" t="s">
@@ -8090,28 +7865,28 @@
       <c r="T33" s="20"/>
       <c r="U33" s="20"/>
       <c r="V33" s="20"/>
-      <c r="W33" s="91"/>
+      <c r="W33" s="96"/>
       <c r="X33" s="20"/>
       <c r="Y33" s="20"/>
       <c r="Z33" s="20"/>
       <c r="AA33" s="20"/>
       <c r="AB33" s="20"/>
       <c r="AC33" s="20"/>
-      <c r="AD33" s="94"/>
+      <c r="AD33" s="99"/>
       <c r="AE33" s="19"/>
       <c r="AF33" s="19"/>
       <c r="AG33" s="19"/>
       <c r="AH33" s="19"/>
       <c r="AI33" s="19"/>
       <c r="AJ33" s="19"/>
-      <c r="AK33" s="86"/>
+      <c r="AK33" s="92"/>
       <c r="AL33" s="19"/>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A34" s="96"/>
-      <c r="B34" s="89"/>
-      <c r="C34" s="88"/>
-      <c r="D34" s="88"/>
+    <row r="34" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A34" s="85"/>
+      <c r="B34" s="94"/>
+      <c r="C34" s="84"/>
+      <c r="D34" s="84"/>
       <c r="E34" s="2" t="s">
         <v>141</v>
       </c>
@@ -8142,28 +7917,28 @@
       <c r="T34" s="20"/>
       <c r="U34" s="20"/>
       <c r="V34" s="20"/>
-      <c r="W34" s="91"/>
+      <c r="W34" s="96"/>
       <c r="X34" s="20"/>
       <c r="Y34" s="20"/>
       <c r="Z34" s="20"/>
       <c r="AA34" s="20"/>
       <c r="AB34" s="20"/>
       <c r="AC34" s="20"/>
-      <c r="AD34" s="94"/>
+      <c r="AD34" s="99"/>
       <c r="AE34" s="19"/>
       <c r="AF34" s="19"/>
       <c r="AG34" s="19"/>
       <c r="AH34" s="19"/>
       <c r="AI34" s="19"/>
       <c r="AJ34" s="19"/>
-      <c r="AK34" s="86"/>
+      <c r="AK34" s="92"/>
       <c r="AL34" s="19"/>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A35" s="96"/>
-      <c r="B35" s="89"/>
-      <c r="C35" s="88"/>
-      <c r="D35" s="88"/>
+    <row r="35" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A35" s="85"/>
+      <c r="B35" s="94"/>
+      <c r="C35" s="84"/>
+      <c r="D35" s="84"/>
       <c r="E35" s="2" t="s">
         <v>103</v>
       </c>
@@ -8194,27 +7969,27 @@
       <c r="T35" s="20"/>
       <c r="U35" s="20"/>
       <c r="V35" s="20"/>
-      <c r="W35" s="91"/>
+      <c r="W35" s="96"/>
       <c r="X35" s="20"/>
       <c r="Y35" s="20"/>
       <c r="Z35" s="20"/>
       <c r="AA35" s="20"/>
       <c r="AB35" s="20"/>
       <c r="AC35" s="20"/>
-      <c r="AD35" s="94"/>
+      <c r="AD35" s="99"/>
       <c r="AE35" s="19"/>
       <c r="AF35" s="19"/>
       <c r="AG35" s="19"/>
       <c r="AH35" s="19"/>
       <c r="AI35" s="19"/>
       <c r="AJ35" s="19"/>
-      <c r="AK35" s="86"/>
+      <c r="AK35" s="92"/>
       <c r="AL35" s="19"/>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A36" s="96"/>
-      <c r="B36" s="89"/>
-      <c r="C36" s="88"/>
+    <row r="36" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A36" s="85"/>
+      <c r="B36" s="94"/>
+      <c r="C36" s="84"/>
       <c r="D36" s="2" t="s">
         <v>24</v>
       </c>
@@ -8240,27 +8015,27 @@
       <c r="T36" s="20"/>
       <c r="U36" s="20"/>
       <c r="V36" s="20"/>
-      <c r="W36" s="91"/>
+      <c r="W36" s="96"/>
       <c r="X36" s="20"/>
       <c r="Y36" s="20"/>
       <c r="Z36" s="20"/>
       <c r="AA36" s="20"/>
       <c r="AB36" s="20"/>
       <c r="AC36" s="20"/>
-      <c r="AD36" s="94"/>
+      <c r="AD36" s="99"/>
       <c r="AE36" s="19"/>
       <c r="AF36" s="19"/>
       <c r="AG36" s="19"/>
       <c r="AH36" s="19"/>
       <c r="AI36" s="19"/>
       <c r="AJ36" s="19"/>
-      <c r="AK36" s="86"/>
+      <c r="AK36" s="92"/>
       <c r="AL36" s="19"/>
     </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A37" s="96"/>
-      <c r="B37" s="89"/>
-      <c r="C37" s="88"/>
+    <row r="37" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A37" s="85"/>
+      <c r="B37" s="94"/>
+      <c r="C37" s="84"/>
       <c r="D37" s="2" t="s">
         <v>144</v>
       </c>
@@ -8294,27 +8069,27 @@
       <c r="T37" s="20"/>
       <c r="U37" s="20"/>
       <c r="V37" s="20"/>
-      <c r="W37" s="91"/>
+      <c r="W37" s="96"/>
       <c r="X37" s="20"/>
       <c r="Y37" s="20"/>
       <c r="Z37" s="20"/>
       <c r="AA37" s="20"/>
       <c r="AB37" s="20"/>
       <c r="AC37" s="20"/>
-      <c r="AD37" s="94"/>
+      <c r="AD37" s="99"/>
       <c r="AE37" s="19"/>
       <c r="AF37" s="19"/>
       <c r="AG37" s="19"/>
       <c r="AH37" s="19"/>
       <c r="AI37" s="19"/>
       <c r="AJ37" s="19"/>
-      <c r="AK37" s="86"/>
+      <c r="AK37" s="92"/>
       <c r="AL37" s="19"/>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A38" s="96"/>
-      <c r="B38" s="89"/>
-      <c r="C38" s="88"/>
+    <row r="38" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A38" s="85"/>
+      <c r="B38" s="94"/>
+      <c r="C38" s="84"/>
       <c r="D38" s="2" t="s">
         <v>94</v>
       </c>
@@ -8338,27 +8113,27 @@
       <c r="T38" s="20"/>
       <c r="U38" s="20"/>
       <c r="V38" s="20"/>
-      <c r="W38" s="91"/>
+      <c r="W38" s="96"/>
       <c r="X38" s="20"/>
       <c r="Y38" s="20"/>
       <c r="Z38" s="20"/>
       <c r="AA38" s="20"/>
       <c r="AB38" s="20"/>
       <c r="AC38" s="20"/>
-      <c r="AD38" s="94"/>
+      <c r="AD38" s="99"/>
       <c r="AE38" s="19"/>
       <c r="AF38" s="19"/>
       <c r="AG38" s="19"/>
       <c r="AH38" s="19"/>
       <c r="AI38" s="19"/>
       <c r="AJ38" s="19"/>
-      <c r="AK38" s="86"/>
+      <c r="AK38" s="92"/>
       <c r="AL38" s="19"/>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A39" s="96"/>
-      <c r="B39" s="89"/>
-      <c r="C39" s="88"/>
+    <row r="39" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A39" s="85"/>
+      <c r="B39" s="94"/>
+      <c r="C39" s="84"/>
       <c r="D39" s="2" t="s">
         <v>23</v>
       </c>
@@ -8382,27 +8157,27 @@
       <c r="T39" s="20"/>
       <c r="U39" s="20"/>
       <c r="V39" s="20"/>
-      <c r="W39" s="91"/>
+      <c r="W39" s="96"/>
       <c r="X39" s="20"/>
       <c r="Y39" s="20"/>
       <c r="Z39" s="20"/>
       <c r="AA39" s="20"/>
       <c r="AB39" s="20"/>
       <c r="AC39" s="20"/>
-      <c r="AD39" s="94"/>
+      <c r="AD39" s="99"/>
       <c r="AE39" s="19"/>
       <c r="AF39" s="19"/>
       <c r="AG39" s="19"/>
       <c r="AH39" s="19"/>
       <c r="AI39" s="19"/>
       <c r="AJ39" s="19"/>
-      <c r="AK39" s="86"/>
+      <c r="AK39" s="92"/>
       <c r="AL39" s="19"/>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A40" s="96"/>
-      <c r="B40" s="89"/>
-      <c r="C40" s="88"/>
+    <row r="40" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A40" s="85"/>
+      <c r="B40" s="94"/>
+      <c r="C40" s="84"/>
       <c r="D40" s="39" t="s">
         <v>27</v>
       </c>
@@ -8426,27 +8201,27 @@
       <c r="T40" s="20"/>
       <c r="U40" s="20"/>
       <c r="V40" s="20"/>
-      <c r="W40" s="91"/>
+      <c r="W40" s="96"/>
       <c r="X40" s="20"/>
       <c r="Y40" s="20"/>
       <c r="Z40" s="20"/>
       <c r="AA40" s="20"/>
       <c r="AB40" s="20"/>
       <c r="AC40" s="20"/>
-      <c r="AD40" s="94"/>
+      <c r="AD40" s="99"/>
       <c r="AE40" s="19"/>
       <c r="AF40" s="19"/>
       <c r="AG40" s="19"/>
       <c r="AH40" s="19"/>
       <c r="AI40" s="19"/>
       <c r="AJ40" s="19"/>
-      <c r="AK40" s="86"/>
+      <c r="AK40" s="92"/>
       <c r="AL40" s="19"/>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A41" s="96"/>
-      <c r="B41" s="89"/>
-      <c r="C41" s="88"/>
+    <row r="41" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A41" s="85"/>
+      <c r="B41" s="94"/>
+      <c r="C41" s="84"/>
       <c r="D41" s="38" t="s">
         <v>45</v>
       </c>
@@ -8470,27 +8245,27 @@
       <c r="T41" s="20"/>
       <c r="U41" s="20"/>
       <c r="V41" s="20"/>
-      <c r="W41" s="91"/>
+      <c r="W41" s="96"/>
       <c r="X41" s="20"/>
       <c r="Y41" s="20"/>
       <c r="Z41" s="20"/>
       <c r="AA41" s="20"/>
       <c r="AB41" s="20"/>
       <c r="AC41" s="20"/>
-      <c r="AD41" s="94"/>
+      <c r="AD41" s="99"/>
       <c r="AE41" s="19"/>
       <c r="AF41" s="19"/>
       <c r="AG41" s="19"/>
       <c r="AH41" s="19"/>
       <c r="AI41" s="19"/>
       <c r="AJ41" s="19"/>
-      <c r="AK41" s="86"/>
+      <c r="AK41" s="92"/>
       <c r="AL41" s="19"/>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A42" s="96"/>
-      <c r="B42" s="89"/>
-      <c r="C42" s="88"/>
+    <row r="42" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A42" s="85"/>
+      <c r="B42" s="94"/>
+      <c r="C42" s="84"/>
       <c r="D42" s="2" t="s">
         <v>26</v>
       </c>
@@ -8514,27 +8289,27 @@
       <c r="T42" s="20"/>
       <c r="U42" s="20"/>
       <c r="V42" s="20"/>
-      <c r="W42" s="91"/>
+      <c r="W42" s="96"/>
       <c r="X42" s="20"/>
       <c r="Y42" s="20"/>
       <c r="Z42" s="20"/>
       <c r="AA42" s="20"/>
       <c r="AB42" s="20"/>
       <c r="AC42" s="20"/>
-      <c r="AD42" s="94"/>
+      <c r="AD42" s="99"/>
       <c r="AE42" s="19"/>
       <c r="AF42" s="19"/>
       <c r="AG42" s="19"/>
       <c r="AH42" s="19"/>
       <c r="AI42" s="19"/>
       <c r="AJ42" s="19"/>
-      <c r="AK42" s="86"/>
+      <c r="AK42" s="92"/>
       <c r="AL42" s="19"/>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A43" s="96"/>
-      <c r="B43" s="89"/>
-      <c r="C43" s="88" t="s">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A43" s="85"/>
+      <c r="B43" s="94"/>
+      <c r="C43" s="84" t="s">
         <v>42</v>
       </c>
       <c r="D43" s="40" t="s">
@@ -8560,27 +8335,27 @@
       <c r="T43" s="20"/>
       <c r="U43" s="20"/>
       <c r="V43" s="20"/>
-      <c r="W43" s="91"/>
+      <c r="W43" s="96"/>
       <c r="X43" s="20"/>
       <c r="Y43" s="20"/>
       <c r="Z43" s="20"/>
       <c r="AA43" s="20"/>
       <c r="AB43" s="20"/>
       <c r="AC43" s="20"/>
-      <c r="AD43" s="94"/>
+      <c r="AD43" s="99"/>
       <c r="AE43" s="19"/>
       <c r="AF43" s="19"/>
       <c r="AG43" s="19"/>
       <c r="AH43" s="19"/>
       <c r="AI43" s="19"/>
       <c r="AJ43" s="19"/>
-      <c r="AK43" s="86"/>
+      <c r="AK43" s="92"/>
       <c r="AL43" s="19"/>
     </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A44" s="96"/>
-      <c r="B44" s="89"/>
-      <c r="C44" s="88"/>
+    <row r="44" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A44" s="85"/>
+      <c r="B44" s="94"/>
+      <c r="C44" s="84"/>
       <c r="D44" s="2" t="s">
         <v>26</v>
       </c>
@@ -8604,27 +8379,27 @@
       <c r="T44" s="20"/>
       <c r="U44" s="20"/>
       <c r="V44" s="20"/>
-      <c r="W44" s="91"/>
+      <c r="W44" s="96"/>
       <c r="X44" s="20"/>
       <c r="Y44" s="20"/>
       <c r="Z44" s="20"/>
       <c r="AA44" s="20"/>
       <c r="AB44" s="20"/>
       <c r="AC44" s="20"/>
-      <c r="AD44" s="94"/>
+      <c r="AD44" s="99"/>
       <c r="AE44" s="19"/>
       <c r="AF44" s="19"/>
       <c r="AG44" s="19"/>
       <c r="AH44" s="19"/>
       <c r="AI44" s="19"/>
       <c r="AJ44" s="19"/>
-      <c r="AK44" s="86"/>
+      <c r="AK44" s="92"/>
       <c r="AL44" s="19"/>
     </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A45" s="96"/>
-      <c r="B45" s="89"/>
-      <c r="C45" s="88" t="s">
+    <row r="45" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A45" s="85"/>
+      <c r="B45" s="94"/>
+      <c r="C45" s="84" t="s">
         <v>43</v>
       </c>
       <c r="D45" s="38" t="s">
@@ -8650,27 +8425,27 @@
       <c r="T45" s="20"/>
       <c r="U45" s="20"/>
       <c r="V45" s="20"/>
-      <c r="W45" s="91"/>
+      <c r="W45" s="96"/>
       <c r="X45" s="20"/>
       <c r="Y45" s="20"/>
       <c r="Z45" s="20"/>
       <c r="AA45" s="20"/>
       <c r="AB45" s="20"/>
       <c r="AC45" s="20"/>
-      <c r="AD45" s="94"/>
+      <c r="AD45" s="99"/>
       <c r="AE45" s="19"/>
       <c r="AF45" s="19"/>
       <c r="AG45" s="19"/>
       <c r="AH45" s="19"/>
       <c r="AI45" s="19"/>
       <c r="AJ45" s="19"/>
-      <c r="AK45" s="86"/>
+      <c r="AK45" s="92"/>
       <c r="AL45" s="19"/>
     </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A46" s="96"/>
-      <c r="B46" s="89"/>
-      <c r="C46" s="88"/>
+    <row r="46" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A46" s="85"/>
+      <c r="B46" s="94"/>
+      <c r="C46" s="84"/>
       <c r="D46" s="2" t="s">
         <v>26</v>
       </c>
@@ -8694,27 +8469,27 @@
       <c r="T46" s="20"/>
       <c r="U46" s="20"/>
       <c r="V46" s="20"/>
-      <c r="W46" s="91"/>
+      <c r="W46" s="96"/>
       <c r="X46" s="20"/>
       <c r="Y46" s="20"/>
       <c r="Z46" s="20"/>
       <c r="AA46" s="20"/>
       <c r="AB46" s="20"/>
       <c r="AC46" s="20"/>
-      <c r="AD46" s="94"/>
+      <c r="AD46" s="99"/>
       <c r="AE46" s="19"/>
       <c r="AF46" s="19"/>
       <c r="AG46" s="19"/>
       <c r="AH46" s="19"/>
       <c r="AI46" s="19"/>
       <c r="AJ46" s="19"/>
-      <c r="AK46" s="86"/>
+      <c r="AK46" s="92"/>
       <c r="AL46" s="19"/>
     </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A47" s="96"/>
-      <c r="B47" s="89"/>
-      <c r="C47" s="88"/>
+    <row r="47" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A47" s="85"/>
+      <c r="B47" s="94"/>
+      <c r="C47" s="84"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="20"/>
@@ -8736,27 +8511,27 @@
       <c r="T47" s="20"/>
       <c r="U47" s="20"/>
       <c r="V47" s="20"/>
-      <c r="W47" s="91"/>
+      <c r="W47" s="96"/>
       <c r="X47" s="20"/>
       <c r="Y47" s="20"/>
       <c r="Z47" s="20"/>
       <c r="AA47" s="20"/>
       <c r="AB47" s="20"/>
       <c r="AC47" s="20"/>
-      <c r="AD47" s="94"/>
+      <c r="AD47" s="99"/>
       <c r="AE47" s="19"/>
       <c r="AF47" s="19"/>
       <c r="AG47" s="19"/>
       <c r="AH47" s="19"/>
       <c r="AI47" s="19"/>
       <c r="AJ47" s="19"/>
-      <c r="AK47" s="86"/>
+      <c r="AK47" s="92"/>
       <c r="AL47" s="19"/>
     </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A48" s="96"/>
-      <c r="B48" s="89"/>
-      <c r="C48" s="88" t="s">
+    <row r="48" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A48" s="85"/>
+      <c r="B48" s="94"/>
+      <c r="C48" s="84" t="s">
         <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
@@ -8782,27 +8557,27 @@
       <c r="T48" s="20"/>
       <c r="U48" s="20"/>
       <c r="V48" s="20"/>
-      <c r="W48" s="91"/>
+      <c r="W48" s="96"/>
       <c r="X48" s="20"/>
       <c r="Y48" s="20"/>
       <c r="Z48" s="20"/>
       <c r="AA48" s="20"/>
       <c r="AB48" s="20"/>
       <c r="AC48" s="20"/>
-      <c r="AD48" s="94"/>
+      <c r="AD48" s="99"/>
       <c r="AE48" s="19"/>
       <c r="AF48" s="19"/>
       <c r="AG48" s="19"/>
       <c r="AH48" s="19"/>
       <c r="AI48" s="19"/>
       <c r="AJ48" s="19"/>
-      <c r="AK48" s="86"/>
+      <c r="AK48" s="92"/>
       <c r="AL48" s="19"/>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A49" s="96"/>
-      <c r="B49" s="89"/>
-      <c r="C49" s="88"/>
+    <row r="49" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A49" s="85"/>
+      <c r="B49" s="94"/>
+      <c r="C49" s="84"/>
       <c r="D49" s="2" t="s">
         <v>36</v>
       </c>
@@ -8826,27 +8601,27 @@
       <c r="T49" s="20"/>
       <c r="U49" s="20"/>
       <c r="V49" s="20"/>
-      <c r="W49" s="91"/>
+      <c r="W49" s="96"/>
       <c r="X49" s="20"/>
       <c r="Y49" s="20"/>
       <c r="Z49" s="20"/>
       <c r="AA49" s="20"/>
       <c r="AB49" s="20"/>
       <c r="AC49" s="20"/>
-      <c r="AD49" s="94"/>
+      <c r="AD49" s="99"/>
       <c r="AE49" s="19"/>
       <c r="AF49" s="19"/>
       <c r="AG49" s="19"/>
       <c r="AH49" s="19"/>
       <c r="AI49" s="19"/>
       <c r="AJ49" s="19"/>
-      <c r="AK49" s="86"/>
+      <c r="AK49" s="92"/>
       <c r="AL49" s="19"/>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A50" s="96"/>
-      <c r="B50" s="89"/>
-      <c r="C50" s="88"/>
+    <row r="50" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A50" s="85"/>
+      <c r="B50" s="94"/>
+      <c r="C50" s="84"/>
       <c r="D50" s="2" t="s">
         <v>37</v>
       </c>
@@ -8870,27 +8645,27 @@
       <c r="T50" s="20"/>
       <c r="U50" s="20"/>
       <c r="V50" s="20"/>
-      <c r="W50" s="91"/>
+      <c r="W50" s="96"/>
       <c r="X50" s="20"/>
       <c r="Y50" s="20"/>
       <c r="Z50" s="20"/>
       <c r="AA50" s="20"/>
       <c r="AB50" s="20"/>
       <c r="AC50" s="20"/>
-      <c r="AD50" s="94"/>
+      <c r="AD50" s="99"/>
       <c r="AE50" s="19"/>
       <c r="AF50" s="19"/>
       <c r="AG50" s="19"/>
       <c r="AH50" s="19"/>
       <c r="AI50" s="19"/>
       <c r="AJ50" s="19"/>
-      <c r="AK50" s="86"/>
+      <c r="AK50" s="92"/>
       <c r="AL50" s="19"/>
     </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A51" s="96"/>
-      <c r="B51" s="89"/>
-      <c r="C51" s="88"/>
+    <row r="51" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A51" s="85"/>
+      <c r="B51" s="94"/>
+      <c r="C51" s="84"/>
       <c r="D51" s="2" t="s">
         <v>38</v>
       </c>
@@ -8914,27 +8689,27 @@
       <c r="T51" s="20"/>
       <c r="U51" s="20"/>
       <c r="V51" s="20"/>
-      <c r="W51" s="91"/>
+      <c r="W51" s="96"/>
       <c r="X51" s="20"/>
       <c r="Y51" s="20"/>
       <c r="Z51" s="20"/>
       <c r="AA51" s="20"/>
       <c r="AB51" s="20"/>
       <c r="AC51" s="20"/>
-      <c r="AD51" s="94"/>
+      <c r="AD51" s="99"/>
       <c r="AE51" s="19"/>
       <c r="AF51" s="19"/>
       <c r="AG51" s="19"/>
       <c r="AH51" s="19"/>
       <c r="AI51" s="19"/>
       <c r="AJ51" s="19"/>
-      <c r="AK51" s="86"/>
+      <c r="AK51" s="92"/>
       <c r="AL51" s="19"/>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A52" s="96"/>
-      <c r="B52" s="89"/>
-      <c r="C52" s="88"/>
+    <row r="52" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A52" s="85"/>
+      <c r="B52" s="94"/>
+      <c r="C52" s="84"/>
       <c r="D52" s="2" t="s">
         <v>33</v>
       </c>
@@ -8958,27 +8733,27 @@
       <c r="T52" s="20"/>
       <c r="U52" s="20"/>
       <c r="V52" s="20"/>
-      <c r="W52" s="91"/>
+      <c r="W52" s="96"/>
       <c r="X52" s="20"/>
       <c r="Y52" s="20"/>
       <c r="Z52" s="20"/>
       <c r="AA52" s="20"/>
       <c r="AB52" s="20"/>
       <c r="AC52" s="20"/>
-      <c r="AD52" s="94"/>
+      <c r="AD52" s="99"/>
       <c r="AE52" s="19"/>
       <c r="AF52" s="19"/>
       <c r="AG52" s="19"/>
       <c r="AH52" s="19"/>
       <c r="AI52" s="19"/>
       <c r="AJ52" s="19"/>
-      <c r="AK52" s="86"/>
+      <c r="AK52" s="92"/>
       <c r="AL52" s="19"/>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A53" s="96"/>
-      <c r="B53" s="89"/>
-      <c r="C53" s="88" t="s">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A53" s="85"/>
+      <c r="B53" s="94"/>
+      <c r="C53" s="84" t="s">
         <v>121</v>
       </c>
       <c r="D53" s="2" t="s">
@@ -9008,27 +8783,27 @@
       <c r="T53" s="20"/>
       <c r="U53" s="20"/>
       <c r="V53" s="20"/>
-      <c r="W53" s="91"/>
+      <c r="W53" s="96"/>
       <c r="X53" s="20"/>
       <c r="Y53" s="20"/>
       <c r="Z53" s="20"/>
       <c r="AA53" s="20"/>
       <c r="AB53" s="20"/>
       <c r="AC53" s="20"/>
-      <c r="AD53" s="94"/>
+      <c r="AD53" s="99"/>
       <c r="AE53" s="19"/>
       <c r="AF53" s="19"/>
       <c r="AG53" s="19"/>
       <c r="AH53" s="19"/>
       <c r="AI53" s="19"/>
       <c r="AJ53" s="19"/>
-      <c r="AK53" s="86"/>
+      <c r="AK53" s="92"/>
       <c r="AL53" s="19"/>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A54" s="96"/>
-      <c r="B54" s="89"/>
-      <c r="C54" s="88"/>
+    <row r="54" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A54" s="85"/>
+      <c r="B54" s="94"/>
+      <c r="C54" s="84"/>
       <c r="D54" s="2" t="s">
         <v>151</v>
       </c>
@@ -9056,26 +8831,26 @@
       <c r="T54" s="20"/>
       <c r="U54" s="20"/>
       <c r="V54" s="20"/>
-      <c r="W54" s="91"/>
+      <c r="W54" s="96"/>
       <c r="X54" s="20"/>
       <c r="Y54" s="20"/>
       <c r="Z54" s="20"/>
       <c r="AA54" s="20"/>
       <c r="AB54" s="20"/>
       <c r="AC54" s="20"/>
-      <c r="AD54" s="94"/>
+      <c r="AD54" s="99"/>
       <c r="AE54" s="19"/>
       <c r="AF54" s="19"/>
       <c r="AG54" s="19"/>
       <c r="AH54" s="19"/>
       <c r="AI54" s="19"/>
       <c r="AJ54" s="19"/>
-      <c r="AK54" s="86"/>
+      <c r="AK54" s="92"/>
       <c r="AL54" s="19"/>
     </row>
-    <row r="55" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A55" s="96"/>
-      <c r="B55" s="89"/>
+    <row r="55" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="85"/>
+      <c r="B55" s="94"/>
       <c r="C55" s="21" t="s">
         <v>71</v>
       </c>
@@ -9102,32 +8877,32 @@
       <c r="T55" s="21"/>
       <c r="U55" s="21"/>
       <c r="V55" s="21"/>
-      <c r="W55" s="91"/>
+      <c r="W55" s="96"/>
       <c r="X55" s="21"/>
       <c r="Y55" s="21"/>
       <c r="Z55" s="21"/>
       <c r="AA55" s="21"/>
       <c r="AB55" s="21"/>
       <c r="AC55" s="21"/>
-      <c r="AD55" s="94"/>
+      <c r="AD55" s="99"/>
       <c r="AE55" s="19"/>
       <c r="AF55" s="19"/>
       <c r="AG55" s="19"/>
       <c r="AH55" s="19"/>
       <c r="AI55" s="19"/>
       <c r="AJ55" s="19"/>
-      <c r="AK55" s="86"/>
+      <c r="AK55" s="92"/>
       <c r="AL55" s="19"/>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A56" s="96"/>
-      <c r="B56" s="98" t="s">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A56" s="85"/>
+      <c r="B56" s="87" t="s">
         <v>120</v>
       </c>
-      <c r="C56" s="88" t="s">
+      <c r="C56" s="84" t="s">
         <v>92</v>
       </c>
-      <c r="D56" s="88" t="s">
+      <c r="D56" s="84" t="s">
         <v>29</v>
       </c>
       <c r="E56" s="2" t="s">
@@ -9160,28 +8935,28 @@
       <c r="T56" s="20"/>
       <c r="U56" s="20"/>
       <c r="V56" s="20"/>
-      <c r="W56" s="91"/>
+      <c r="W56" s="96"/>
       <c r="X56" s="20"/>
       <c r="Y56" s="20"/>
       <c r="Z56" s="20"/>
       <c r="AA56" s="20"/>
       <c r="AB56" s="20"/>
       <c r="AC56" s="20"/>
-      <c r="AD56" s="94"/>
+      <c r="AD56" s="99"/>
       <c r="AE56" s="19"/>
       <c r="AF56" s="19"/>
       <c r="AG56" s="19"/>
       <c r="AH56" s="19"/>
       <c r="AI56" s="19"/>
       <c r="AJ56" s="19"/>
-      <c r="AK56" s="86"/>
+      <c r="AK56" s="92"/>
       <c r="AL56" s="19"/>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A57" s="96"/>
-      <c r="B57" s="98"/>
-      <c r="C57" s="88"/>
-      <c r="D57" s="88"/>
+    <row r="57" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A57" s="85"/>
+      <c r="B57" s="87"/>
+      <c r="C57" s="84"/>
+      <c r="D57" s="84"/>
       <c r="E57" s="2" t="s">
         <v>130</v>
       </c>
@@ -9212,30 +8987,30 @@
       <c r="T57" s="20"/>
       <c r="U57" s="20"/>
       <c r="V57" s="20"/>
-      <c r="W57" s="91"/>
+      <c r="W57" s="96"/>
       <c r="X57" s="20"/>
       <c r="Y57" s="20"/>
       <c r="Z57" s="20"/>
       <c r="AA57" s="20"/>
       <c r="AB57" s="20"/>
       <c r="AC57" s="20"/>
-      <c r="AD57" s="94"/>
+      <c r="AD57" s="99"/>
       <c r="AE57" s="19"/>
       <c r="AF57" s="19"/>
       <c r="AG57" s="19"/>
       <c r="AH57" s="19"/>
       <c r="AI57" s="19"/>
       <c r="AJ57" s="19"/>
-      <c r="AK57" s="86"/>
+      <c r="AK57" s="92"/>
       <c r="AL57" s="19"/>
     </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A58" s="96"/>
-      <c r="B58" s="98"/>
-      <c r="C58" s="88" t="s">
+    <row r="58" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A58" s="85"/>
+      <c r="B58" s="87"/>
+      <c r="C58" s="84" t="s">
         <v>96</v>
       </c>
-      <c r="D58" s="88" t="s">
+      <c r="D58" s="84" t="s">
         <v>95</v>
       </c>
       <c r="E58" s="2" t="s">
@@ -9268,28 +9043,28 @@
       <c r="T58" s="20"/>
       <c r="U58" s="20"/>
       <c r="V58" s="20"/>
-      <c r="W58" s="91"/>
+      <c r="W58" s="96"/>
       <c r="X58" s="20"/>
       <c r="Y58" s="20"/>
       <c r="Z58" s="20"/>
       <c r="AA58" s="20"/>
       <c r="AB58" s="20"/>
       <c r="AC58" s="20"/>
-      <c r="AD58" s="94"/>
+      <c r="AD58" s="99"/>
       <c r="AE58" s="19"/>
       <c r="AF58" s="19"/>
       <c r="AG58" s="19"/>
       <c r="AH58" s="19"/>
       <c r="AI58" s="19"/>
       <c r="AJ58" s="19"/>
-      <c r="AK58" s="86"/>
+      <c r="AK58" s="92"/>
       <c r="AL58" s="19"/>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A59" s="96"/>
-      <c r="B59" s="98"/>
-      <c r="C59" s="88"/>
-      <c r="D59" s="88"/>
+    <row r="59" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A59" s="85"/>
+      <c r="B59" s="87"/>
+      <c r="C59" s="84"/>
+      <c r="D59" s="84"/>
       <c r="E59" s="2" t="s">
         <v>146</v>
       </c>
@@ -9320,28 +9095,28 @@
       <c r="T59" s="20"/>
       <c r="U59" s="20"/>
       <c r="V59" s="20"/>
-      <c r="W59" s="91"/>
+      <c r="W59" s="96"/>
       <c r="X59" s="20"/>
       <c r="Y59" s="20"/>
       <c r="Z59" s="20"/>
       <c r="AA59" s="20"/>
       <c r="AB59" s="20"/>
       <c r="AC59" s="20"/>
-      <c r="AD59" s="94"/>
+      <c r="AD59" s="99"/>
       <c r="AE59" s="19"/>
       <c r="AF59" s="19"/>
       <c r="AG59" s="19"/>
       <c r="AH59" s="19"/>
       <c r="AI59" s="19"/>
       <c r="AJ59" s="19"/>
-      <c r="AK59" s="86"/>
+      <c r="AK59" s="92"/>
       <c r="AL59" s="19"/>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A60" s="96"/>
-      <c r="B60" s="98"/>
-      <c r="C60" s="88"/>
-      <c r="D60" s="88"/>
+    <row r="60" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A60" s="85"/>
+      <c r="B60" s="87"/>
+      <c r="C60" s="84"/>
+      <c r="D60" s="84"/>
       <c r="E60" s="2" t="s">
         <v>147</v>
       </c>
@@ -9372,28 +9147,28 @@
       <c r="T60" s="20"/>
       <c r="U60" s="20"/>
       <c r="V60" s="20"/>
-      <c r="W60" s="91"/>
+      <c r="W60" s="96"/>
       <c r="X60" s="20"/>
       <c r="Y60" s="20"/>
       <c r="Z60" s="20"/>
       <c r="AA60" s="20"/>
       <c r="AB60" s="20"/>
       <c r="AC60" s="20"/>
-      <c r="AD60" s="94"/>
+      <c r="AD60" s="99"/>
       <c r="AE60" s="19"/>
       <c r="AF60" s="19"/>
       <c r="AG60" s="19"/>
       <c r="AH60" s="19"/>
       <c r="AI60" s="19"/>
       <c r="AJ60" s="19"/>
-      <c r="AK60" s="86"/>
+      <c r="AK60" s="92"/>
       <c r="AL60" s="19"/>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A61" s="96"/>
-      <c r="B61" s="98"/>
-      <c r="C61" s="88"/>
-      <c r="D61" s="88"/>
+    <row r="61" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A61" s="85"/>
+      <c r="B61" s="87"/>
+      <c r="C61" s="84"/>
+      <c r="D61" s="84"/>
       <c r="E61" s="2" t="s">
         <v>107</v>
       </c>
@@ -9424,28 +9199,28 @@
       <c r="T61" s="20"/>
       <c r="U61" s="20"/>
       <c r="V61" s="20"/>
-      <c r="W61" s="91"/>
+      <c r="W61" s="96"/>
       <c r="X61" s="20"/>
       <c r="Y61" s="20"/>
       <c r="Z61" s="20"/>
       <c r="AA61" s="20"/>
       <c r="AB61" s="20"/>
       <c r="AC61" s="20"/>
-      <c r="AD61" s="94"/>
+      <c r="AD61" s="99"/>
       <c r="AE61" s="19"/>
       <c r="AF61" s="19"/>
       <c r="AG61" s="19"/>
       <c r="AH61" s="19"/>
       <c r="AI61" s="19"/>
       <c r="AJ61" s="19"/>
-      <c r="AK61" s="86"/>
+      <c r="AK61" s="92"/>
       <c r="AL61" s="19"/>
     </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A62" s="96"/>
-      <c r="B62" s="98"/>
-      <c r="C62" s="88"/>
-      <c r="D62" s="88"/>
+    <row r="62" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A62" s="85"/>
+      <c r="B62" s="87"/>
+      <c r="C62" s="84"/>
+      <c r="D62" s="84"/>
       <c r="E62" s="2" t="s">
         <v>108</v>
       </c>
@@ -9476,28 +9251,28 @@
       <c r="T62" s="20"/>
       <c r="U62" s="20"/>
       <c r="V62" s="20"/>
-      <c r="W62" s="91"/>
+      <c r="W62" s="96"/>
       <c r="X62" s="20"/>
       <c r="Y62" s="20"/>
       <c r="Z62" s="20"/>
       <c r="AA62" s="20"/>
       <c r="AB62" s="20"/>
       <c r="AC62" s="20"/>
-      <c r="AD62" s="94"/>
+      <c r="AD62" s="99"/>
       <c r="AE62" s="19"/>
       <c r="AF62" s="19"/>
       <c r="AG62" s="19"/>
       <c r="AH62" s="19"/>
       <c r="AI62" s="19"/>
       <c r="AJ62" s="19"/>
-      <c r="AK62" s="86"/>
+      <c r="AK62" s="92"/>
       <c r="AL62" s="19"/>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A63" s="96"/>
-      <c r="B63" s="98"/>
-      <c r="C63" s="88"/>
-      <c r="D63" s="88" t="s">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A63" s="85"/>
+      <c r="B63" s="87"/>
+      <c r="C63" s="84"/>
+      <c r="D63" s="84" t="s">
         <v>97</v>
       </c>
       <c r="E63" s="2" t="s">
@@ -9524,28 +9299,28 @@
       <c r="T63" s="20"/>
       <c r="U63" s="20"/>
       <c r="V63" s="20"/>
-      <c r="W63" s="91"/>
+      <c r="W63" s="96"/>
       <c r="X63" s="20"/>
       <c r="Y63" s="20"/>
       <c r="Z63" s="20"/>
       <c r="AA63" s="20"/>
       <c r="AB63" s="20"/>
       <c r="AC63" s="20"/>
-      <c r="AD63" s="94"/>
+      <c r="AD63" s="99"/>
       <c r="AE63" s="19"/>
       <c r="AF63" s="19"/>
       <c r="AG63" s="19"/>
       <c r="AH63" s="19"/>
       <c r="AI63" s="19"/>
       <c r="AJ63" s="19"/>
-      <c r="AK63" s="86"/>
+      <c r="AK63" s="92"/>
       <c r="AL63" s="19"/>
     </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A64" s="96"/>
-      <c r="B64" s="98"/>
-      <c r="C64" s="88"/>
-      <c r="D64" s="88"/>
+    <row r="64" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A64" s="85"/>
+      <c r="B64" s="87"/>
+      <c r="C64" s="84"/>
+      <c r="D64" s="84"/>
       <c r="E64" s="2" t="s">
         <v>146</v>
       </c>
@@ -9576,30 +9351,30 @@
       <c r="T64" s="20"/>
       <c r="U64" s="20"/>
       <c r="V64" s="20"/>
-      <c r="W64" s="91"/>
+      <c r="W64" s="96"/>
       <c r="X64" s="20"/>
       <c r="Y64" s="20"/>
       <c r="Z64" s="20"/>
       <c r="AA64" s="20"/>
       <c r="AB64" s="20"/>
       <c r="AC64" s="20"/>
-      <c r="AD64" s="94"/>
+      <c r="AD64" s="99"/>
       <c r="AE64" s="19"/>
       <c r="AF64" s="19"/>
       <c r="AG64" s="19"/>
       <c r="AH64" s="19"/>
       <c r="AI64" s="19"/>
       <c r="AJ64" s="19"/>
-      <c r="AK64" s="86"/>
+      <c r="AK64" s="92"/>
       <c r="AL64" s="19"/>
     </row>
-    <row r="65" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A65" s="96"/>
-      <c r="B65" s="98"/>
-      <c r="C65" s="88" t="s">
+    <row r="65" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="85"/>
+      <c r="B65" s="87"/>
+      <c r="C65" s="84" t="s">
         <v>44</v>
       </c>
-      <c r="D65" s="88" t="s">
+      <c r="D65" s="84" t="s">
         <v>93</v>
       </c>
       <c r="E65" s="2" t="s">
@@ -9632,28 +9407,28 @@
       <c r="T65" s="20"/>
       <c r="U65" s="20"/>
       <c r="V65" s="20"/>
-      <c r="W65" s="91"/>
+      <c r="W65" s="96"/>
       <c r="X65" s="20"/>
       <c r="Y65" s="20"/>
       <c r="Z65" s="20"/>
       <c r="AA65" s="20"/>
       <c r="AB65" s="20"/>
       <c r="AC65" s="20"/>
-      <c r="AD65" s="94"/>
+      <c r="AD65" s="99"/>
       <c r="AE65" s="19"/>
       <c r="AF65" s="19"/>
       <c r="AG65" s="19"/>
       <c r="AH65" s="19"/>
       <c r="AI65" s="19"/>
       <c r="AJ65" s="19"/>
-      <c r="AK65" s="86"/>
+      <c r="AK65" s="92"/>
       <c r="AL65" s="19"/>
     </row>
-    <row r="66" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A66" s="96"/>
-      <c r="B66" s="98"/>
-      <c r="C66" s="88"/>
-      <c r="D66" s="88"/>
+    <row r="66" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="85"/>
+      <c r="B66" s="87"/>
+      <c r="C66" s="84"/>
+      <c r="D66" s="84"/>
       <c r="E66" s="2" t="s">
         <v>130</v>
       </c>
@@ -9684,28 +9459,28 @@
       <c r="T66" s="20"/>
       <c r="U66" s="20"/>
       <c r="V66" s="20"/>
-      <c r="W66" s="91"/>
+      <c r="W66" s="96"/>
       <c r="X66" s="20"/>
       <c r="Y66" s="20"/>
       <c r="Z66" s="20"/>
       <c r="AA66" s="20"/>
       <c r="AB66" s="20"/>
       <c r="AC66" s="20"/>
-      <c r="AD66" s="94"/>
+      <c r="AD66" s="99"/>
       <c r="AE66" s="19"/>
       <c r="AF66" s="19"/>
       <c r="AG66" s="19"/>
       <c r="AH66" s="19"/>
       <c r="AI66" s="19"/>
       <c r="AJ66" s="19"/>
-      <c r="AK66" s="86"/>
+      <c r="AK66" s="92"/>
       <c r="AL66" s="19"/>
     </row>
-    <row r="67" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A67" s="96"/>
-      <c r="B67" s="98"/>
-      <c r="C67" s="88"/>
-      <c r="D67" s="83" t="s">
+    <row r="67" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="85"/>
+      <c r="B67" s="87"/>
+      <c r="C67" s="84"/>
+      <c r="D67" s="88" t="s">
         <v>98</v>
       </c>
       <c r="E67" s="2" t="s">
@@ -9738,28 +9513,28 @@
       <c r="T67" s="53"/>
       <c r="U67" s="53"/>
       <c r="V67" s="53"/>
-      <c r="W67" s="91"/>
+      <c r="W67" s="96"/>
       <c r="X67" s="53"/>
       <c r="Y67" s="53"/>
       <c r="Z67" s="53"/>
       <c r="AA67" s="53"/>
       <c r="AB67" s="53"/>
       <c r="AC67" s="53"/>
-      <c r="AD67" s="94"/>
+      <c r="AD67" s="99"/>
       <c r="AE67" s="54"/>
       <c r="AF67" s="54"/>
       <c r="AG67" s="54"/>
       <c r="AH67" s="54"/>
       <c r="AI67" s="54"/>
       <c r="AJ67" s="54"/>
-      <c r="AK67" s="86"/>
+      <c r="AK67" s="92"/>
       <c r="AL67" s="54"/>
     </row>
-    <row r="68" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A68" s="96"/>
-      <c r="B68" s="98"/>
-      <c r="C68" s="88"/>
-      <c r="D68" s="84"/>
+    <row r="68" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="85"/>
+      <c r="B68" s="87"/>
+      <c r="C68" s="84"/>
+      <c r="D68" s="90"/>
       <c r="E68" s="2" t="s">
         <v>130</v>
       </c>
@@ -9786,27 +9561,27 @@
       <c r="T68" s="20"/>
       <c r="U68" s="20"/>
       <c r="V68" s="20"/>
-      <c r="W68" s="91"/>
+      <c r="W68" s="96"/>
       <c r="X68" s="20"/>
       <c r="Y68" s="20"/>
       <c r="Z68" s="20"/>
       <c r="AA68" s="20"/>
       <c r="AB68" s="20"/>
       <c r="AC68" s="20"/>
-      <c r="AD68" s="94"/>
+      <c r="AD68" s="99"/>
       <c r="AE68" s="19"/>
       <c r="AF68" s="19"/>
       <c r="AG68" s="19"/>
       <c r="AH68" s="19"/>
       <c r="AI68" s="19"/>
       <c r="AJ68" s="19"/>
-      <c r="AK68" s="86"/>
+      <c r="AK68" s="92"/>
       <c r="AL68" s="19"/>
     </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A69" s="96"/>
-      <c r="B69" s="98"/>
-      <c r="C69" s="99"/>
+    <row r="69" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A69" s="85"/>
+      <c r="B69" s="87"/>
+      <c r="C69" s="89"/>
       <c r="D69" s="2" t="s">
         <v>190</v>
       </c>
@@ -9840,27 +9615,27 @@
       <c r="T69" s="53"/>
       <c r="U69" s="53"/>
       <c r="V69" s="53"/>
-      <c r="W69" s="91"/>
+      <c r="W69" s="96"/>
       <c r="X69" s="53"/>
       <c r="Y69" s="53"/>
       <c r="Z69" s="53"/>
       <c r="AA69" s="53"/>
       <c r="AB69" s="53"/>
       <c r="AC69" s="53"/>
-      <c r="AD69" s="94"/>
+      <c r="AD69" s="99"/>
       <c r="AE69" s="54"/>
       <c r="AF69" s="54"/>
       <c r="AG69" s="54"/>
       <c r="AH69" s="54"/>
       <c r="AI69" s="54"/>
       <c r="AJ69" s="54"/>
-      <c r="AK69" s="86"/>
+      <c r="AK69" s="92"/>
       <c r="AL69" s="54"/>
     </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A70" s="96"/>
-      <c r="B70" s="98"/>
-      <c r="C70" s="99"/>
+    <row r="70" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A70" s="85"/>
+      <c r="B70" s="87"/>
+      <c r="C70" s="89"/>
       <c r="D70" s="2" t="s">
         <v>191</v>
       </c>
@@ -9894,27 +9669,27 @@
       <c r="T70" s="53"/>
       <c r="U70" s="53"/>
       <c r="V70" s="53"/>
-      <c r="W70" s="91"/>
+      <c r="W70" s="96"/>
       <c r="X70" s="53"/>
       <c r="Y70" s="53"/>
       <c r="Z70" s="53"/>
       <c r="AA70" s="53"/>
       <c r="AB70" s="53"/>
       <c r="AC70" s="53"/>
-      <c r="AD70" s="94"/>
+      <c r="AD70" s="99"/>
       <c r="AE70" s="54"/>
       <c r="AF70" s="54"/>
       <c r="AG70" s="54"/>
       <c r="AH70" s="54"/>
       <c r="AI70" s="54"/>
       <c r="AJ70" s="54"/>
-      <c r="AK70" s="86"/>
+      <c r="AK70" s="92"/>
       <c r="AL70" s="54"/>
     </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A71" s="96"/>
-      <c r="B71" s="98"/>
-      <c r="C71" s="84"/>
+    <row r="71" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A71" s="85"/>
+      <c r="B71" s="87"/>
+      <c r="C71" s="90"/>
       <c r="D71" s="2" t="s">
         <v>161</v>
       </c>
@@ -9948,27 +9723,27 @@
       <c r="T71" s="20"/>
       <c r="U71" s="20"/>
       <c r="V71" s="20"/>
-      <c r="W71" s="91"/>
+      <c r="W71" s="96"/>
       <c r="X71" s="20"/>
       <c r="Y71" s="20"/>
       <c r="Z71" s="20"/>
       <c r="AA71" s="20"/>
       <c r="AB71" s="20"/>
       <c r="AC71" s="20"/>
-      <c r="AD71" s="94"/>
+      <c r="AD71" s="99"/>
       <c r="AE71" s="19"/>
       <c r="AF71" s="19"/>
       <c r="AG71" s="19"/>
       <c r="AH71" s="19"/>
       <c r="AI71" s="19"/>
       <c r="AJ71" s="19"/>
-      <c r="AK71" s="86"/>
+      <c r="AK71" s="92"/>
       <c r="AL71" s="19"/>
     </row>
-    <row r="72" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A72" s="96"/>
-      <c r="B72" s="98"/>
-      <c r="C72" s="88" t="s">
+    <row r="72" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A72" s="85"/>
+      <c r="B72" s="87"/>
+      <c r="C72" s="84" t="s">
         <v>13</v>
       </c>
       <c r="D72" s="2" t="s">
@@ -10002,27 +9777,27 @@
       <c r="T72" s="20"/>
       <c r="U72" s="20"/>
       <c r="V72" s="20"/>
-      <c r="W72" s="91"/>
+      <c r="W72" s="96"/>
       <c r="X72" s="20"/>
       <c r="Y72" s="20"/>
       <c r="Z72" s="20"/>
       <c r="AA72" s="20"/>
       <c r="AB72" s="20"/>
       <c r="AC72" s="20"/>
-      <c r="AD72" s="94"/>
+      <c r="AD72" s="99"/>
       <c r="AE72" s="19"/>
       <c r="AF72" s="19"/>
       <c r="AG72" s="19"/>
       <c r="AH72" s="19"/>
       <c r="AI72" s="19"/>
       <c r="AJ72" s="19"/>
-      <c r="AK72" s="86"/>
+      <c r="AK72" s="92"/>
       <c r="AL72" s="19"/>
     </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A73" s="96"/>
-      <c r="B73" s="98"/>
-      <c r="C73" s="88"/>
+    <row r="73" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A73" s="85"/>
+      <c r="B73" s="87"/>
+      <c r="C73" s="84"/>
       <c r="D73" s="2" t="s">
         <v>126</v>
       </c>
@@ -10054,27 +9829,27 @@
       <c r="T73" s="20"/>
       <c r="U73" s="20"/>
       <c r="V73" s="20"/>
-      <c r="W73" s="91"/>
+      <c r="W73" s="96"/>
       <c r="X73" s="20"/>
       <c r="Y73" s="20"/>
       <c r="Z73" s="20"/>
       <c r="AA73" s="20"/>
       <c r="AB73" s="20"/>
       <c r="AC73" s="20"/>
-      <c r="AD73" s="94"/>
+      <c r="AD73" s="99"/>
       <c r="AE73" s="19"/>
       <c r="AF73" s="19"/>
       <c r="AG73" s="19"/>
       <c r="AH73" s="19"/>
       <c r="AI73" s="19"/>
       <c r="AJ73" s="19"/>
-      <c r="AK73" s="86"/>
+      <c r="AK73" s="92"/>
       <c r="AL73" s="19"/>
     </row>
-    <row r="74" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A74" s="96"/>
-      <c r="B74" s="98"/>
-      <c r="C74" s="83" t="s">
+    <row r="74" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="85"/>
+      <c r="B74" s="87"/>
+      <c r="C74" s="88" t="s">
         <v>99</v>
       </c>
       <c r="D74" s="2" t="s">
@@ -10108,27 +9883,27 @@
       <c r="T74" s="20"/>
       <c r="U74" s="20"/>
       <c r="V74" s="20"/>
-      <c r="W74" s="91"/>
+      <c r="W74" s="96"/>
       <c r="X74" s="20"/>
       <c r="Y74" s="20"/>
       <c r="Z74" s="20"/>
       <c r="AA74" s="20"/>
       <c r="AB74" s="20"/>
       <c r="AC74" s="20"/>
-      <c r="AD74" s="94"/>
+      <c r="AD74" s="99"/>
       <c r="AE74" s="19"/>
       <c r="AF74" s="19"/>
       <c r="AG74" s="19"/>
       <c r="AH74" s="19"/>
       <c r="AI74" s="19"/>
       <c r="AJ74" s="19"/>
-      <c r="AK74" s="86"/>
+      <c r="AK74" s="92"/>
       <c r="AL74" s="19"/>
     </row>
-    <row r="75" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A75" s="96"/>
-      <c r="B75" s="98"/>
-      <c r="C75" s="99"/>
+    <row r="75" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="85"/>
+      <c r="B75" s="87"/>
+      <c r="C75" s="89"/>
       <c r="D75" s="2" t="s">
         <v>156</v>
       </c>
@@ -10160,27 +9935,27 @@
       <c r="T75" s="20"/>
       <c r="U75" s="20"/>
       <c r="V75" s="20"/>
-      <c r="W75" s="91"/>
+      <c r="W75" s="96"/>
       <c r="X75" s="20"/>
       <c r="Y75" s="20"/>
       <c r="Z75" s="20"/>
       <c r="AA75" s="20"/>
       <c r="AB75" s="20"/>
       <c r="AC75" s="20"/>
-      <c r="AD75" s="94"/>
+      <c r="AD75" s="99"/>
       <c r="AE75" s="19"/>
       <c r="AF75" s="19"/>
       <c r="AG75" s="19"/>
       <c r="AH75" s="19"/>
       <c r="AI75" s="19"/>
       <c r="AJ75" s="19"/>
-      <c r="AK75" s="86"/>
+      <c r="AK75" s="92"/>
       <c r="AL75" s="19"/>
     </row>
-    <row r="76" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A76" s="96"/>
-      <c r="B76" s="98"/>
-      <c r="C76" s="99"/>
+    <row r="76" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A76" s="85"/>
+      <c r="B76" s="87"/>
+      <c r="C76" s="89"/>
       <c r="D76" s="2" t="s">
         <v>187</v>
       </c>
@@ -10204,27 +9979,27 @@
       <c r="T76" s="53"/>
       <c r="U76" s="53"/>
       <c r="V76" s="53"/>
-      <c r="W76" s="91"/>
+      <c r="W76" s="96"/>
       <c r="X76" s="53"/>
       <c r="Y76" s="53"/>
       <c r="Z76" s="53"/>
       <c r="AA76" s="53"/>
       <c r="AB76" s="53"/>
       <c r="AC76" s="53"/>
-      <c r="AD76" s="94"/>
+      <c r="AD76" s="99"/>
       <c r="AE76" s="54"/>
       <c r="AF76" s="54"/>
       <c r="AG76" s="54"/>
       <c r="AH76" s="54"/>
       <c r="AI76" s="54"/>
       <c r="AJ76" s="54"/>
-      <c r="AK76" s="86"/>
+      <c r="AK76" s="92"/>
       <c r="AL76" s="54"/>
     </row>
-    <row r="77" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A77" s="96"/>
-      <c r="B77" s="98"/>
-      <c r="C77" s="84"/>
+    <row r="77" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A77" s="85"/>
+      <c r="B77" s="87"/>
+      <c r="C77" s="90"/>
       <c r="D77" s="2" t="s">
         <v>157</v>
       </c>
@@ -10256,27 +10031,27 @@
       <c r="T77" s="37"/>
       <c r="U77" s="37"/>
       <c r="V77" s="37"/>
-      <c r="W77" s="91"/>
+      <c r="W77" s="96"/>
       <c r="X77" s="37"/>
       <c r="Y77" s="37"/>
       <c r="Z77" s="37"/>
       <c r="AA77" s="37"/>
       <c r="AB77" s="37"/>
       <c r="AC77" s="37"/>
-      <c r="AD77" s="94"/>
+      <c r="AD77" s="99"/>
       <c r="AE77" s="19"/>
       <c r="AF77" s="19"/>
       <c r="AG77" s="19"/>
       <c r="AH77" s="19"/>
       <c r="AI77" s="19"/>
       <c r="AJ77" s="19"/>
-      <c r="AK77" s="86"/>
+      <c r="AK77" s="92"/>
       <c r="AL77" s="19"/>
     </row>
-    <row r="78" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A78" s="96"/>
-      <c r="B78" s="98"/>
-      <c r="C78" s="88" t="s">
+    <row r="78" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A78" s="85"/>
+      <c r="B78" s="87"/>
+      <c r="C78" s="84" t="s">
         <v>30</v>
       </c>
       <c r="D78" s="2" t="s">
@@ -10308,27 +10083,27 @@
       <c r="T78" s="20"/>
       <c r="U78" s="20"/>
       <c r="V78" s="20"/>
-      <c r="W78" s="91"/>
+      <c r="W78" s="96"/>
       <c r="X78" s="20"/>
       <c r="Y78" s="20"/>
       <c r="Z78" s="20"/>
       <c r="AA78" s="20"/>
       <c r="AB78" s="20"/>
       <c r="AC78" s="20"/>
-      <c r="AD78" s="94"/>
+      <c r="AD78" s="99"/>
       <c r="AE78" s="19"/>
       <c r="AF78" s="19"/>
       <c r="AG78" s="19"/>
       <c r="AH78" s="19"/>
       <c r="AI78" s="19"/>
       <c r="AJ78" s="19"/>
-      <c r="AK78" s="86"/>
+      <c r="AK78" s="92"/>
       <c r="AL78" s="19"/>
     </row>
-    <row r="79" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A79" s="96"/>
-      <c r="B79" s="98"/>
-      <c r="C79" s="88"/>
+    <row r="79" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A79" s="85"/>
+      <c r="B79" s="87"/>
+      <c r="C79" s="84"/>
       <c r="D79" s="2" t="s">
         <v>32</v>
       </c>
@@ -10352,27 +10127,27 @@
       <c r="T79" s="20"/>
       <c r="U79" s="20"/>
       <c r="V79" s="20"/>
-      <c r="W79" s="91"/>
+      <c r="W79" s="96"/>
       <c r="X79" s="20"/>
       <c r="Y79" s="20"/>
       <c r="Z79" s="20"/>
       <c r="AA79" s="20"/>
       <c r="AB79" s="20"/>
       <c r="AC79" s="20"/>
-      <c r="AD79" s="94"/>
+      <c r="AD79" s="99"/>
       <c r="AE79" s="19"/>
       <c r="AF79" s="19"/>
       <c r="AG79" s="19"/>
       <c r="AH79" s="19"/>
       <c r="AI79" s="19"/>
       <c r="AJ79" s="19"/>
-      <c r="AK79" s="86"/>
+      <c r="AK79" s="92"/>
       <c r="AL79" s="19"/>
     </row>
-    <row r="80" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A80" s="96"/>
-      <c r="B80" s="98"/>
-      <c r="C80" s="88"/>
+    <row r="80" spans="1:38" x14ac:dyDescent="0.4">
+      <c r="A80" s="85"/>
+      <c r="B80" s="87"/>
+      <c r="C80" s="84"/>
       <c r="D80" s="2" t="s">
         <v>33</v>
       </c>
@@ -10402,25 +10177,25 @@
       <c r="T80" s="20"/>
       <c r="U80" s="20"/>
       <c r="V80" s="20"/>
-      <c r="W80" s="92"/>
+      <c r="W80" s="97"/>
       <c r="X80" s="20"/>
       <c r="Y80" s="20"/>
       <c r="Z80" s="20"/>
       <c r="AA80" s="20"/>
       <c r="AB80" s="20"/>
       <c r="AC80" s="20"/>
-      <c r="AD80" s="95"/>
+      <c r="AD80" s="100"/>
       <c r="AE80" s="19"/>
       <c r="AF80" s="19"/>
       <c r="AG80" s="19"/>
       <c r="AH80" s="19"/>
       <c r="AI80" s="19"/>
       <c r="AJ80" s="19"/>
-      <c r="AK80" s="87"/>
+      <c r="AK80" s="93"/>
       <c r="AL80" s="19"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A81" s="96"/>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A81" s="85"/>
       <c r="B81" s="44" t="s">
         <v>21</v>
       </c>
@@ -10442,20 +10217,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="A5:A81"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C78:C80"/>
-    <mergeCell ref="C48:C52"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="C65:C68"/>
-    <mergeCell ref="B5:B10"/>
-    <mergeCell ref="B56:B80"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="C74:C77"/>
-    <mergeCell ref="C69:C71"/>
     <mergeCell ref="D67:D68"/>
     <mergeCell ref="AK5:AK80"/>
     <mergeCell ref="C18:C42"/>
@@ -10472,6 +10233,20 @@
     <mergeCell ref="D56:D57"/>
     <mergeCell ref="D63:D64"/>
     <mergeCell ref="D65:D66"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="A5:A81"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C78:C80"/>
+    <mergeCell ref="C48:C52"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="C65:C68"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="B56:B80"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="C74:C77"/>
+    <mergeCell ref="C69:C71"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="L3:AL5 AL6:AL80 X6:AC80 AE6:AJ80 L6:V80">
@@ -10543,31 +10318,31 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="11" max="11" width="32.3984375" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="53.3984375" customWidth="1"/>
+    <col min="11" max="11" width="32.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="53.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-    </row>
-    <row r="4" spans="2:14" ht="45.6" x14ac:dyDescent="0.45">
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+    </row>
+    <row r="4" spans="2:14" ht="45.75" x14ac:dyDescent="0.4">
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
       <c r="K4" s="11" t="s">
         <v>73</v>
       </c>
@@ -10575,15 +10350,15 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="2:14" ht="45.6" x14ac:dyDescent="0.45">
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="100"/>
+    <row r="5" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="101"/>
+      <c r="G5" s="101"/>
+      <c r="H5" s="101"/>
+      <c r="I5" s="101"/>
       <c r="K5" s="12" t="s">
         <v>75</v>
       </c>
@@ -10591,29 +10366,29 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="45.6" x14ac:dyDescent="0.45">
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
+    <row r="6" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="101"/>
+      <c r="I6" s="101"/>
       <c r="K6" s="12" t="s">
         <v>76</v>
       </c>
       <c r="L6" s="13"/>
     </row>
-    <row r="7" spans="2:14" ht="45.6" x14ac:dyDescent="0.45">
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
+    <row r="7" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
       <c r="K7" s="12" t="s">
         <v>77</v>
       </c>
@@ -10621,29 +10396,29 @@
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="2:14" ht="45.6" x14ac:dyDescent="0.45">
-      <c r="B8" s="100"/>
-      <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="100"/>
+    <row r="8" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
+      <c r="B8" s="101"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
       <c r="K8" s="12" t="s">
         <v>78</v>
       </c>
       <c r="L8" s="13"/>
     </row>
-    <row r="9" spans="2:14" ht="45.6" x14ac:dyDescent="0.45">
-      <c r="B9" s="100"/>
-      <c r="C9" s="100"/>
-      <c r="D9" s="100"/>
-      <c r="E9" s="100"/>
-      <c r="F9" s="100"/>
-      <c r="G9" s="100"/>
-      <c r="H9" s="100"/>
-      <c r="I9" s="100"/>
+    <row r="9" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
+      <c r="B9" s="101"/>
+      <c r="C9" s="101"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="101"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="101"/>
+      <c r="H9" s="101"/>
+      <c r="I9" s="101"/>
       <c r="K9" s="12" t="s">
         <v>79</v>
       </c>
@@ -10651,29 +10426,29 @@
         <v>182</v>
       </c>
     </row>
-    <row r="10" spans="2:14" ht="45.6" x14ac:dyDescent="0.45">
-      <c r="B10" s="100"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="100"/>
-      <c r="H10" s="100"/>
-      <c r="I10" s="100"/>
+    <row r="10" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
+      <c r="B10" s="101"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="101"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="101"/>
+      <c r="H10" s="101"/>
+      <c r="I10" s="101"/>
       <c r="K10" s="12" t="s">
         <v>80</v>
       </c>
       <c r="L10" s="13"/>
     </row>
-    <row r="11" spans="2:14" ht="45.6" x14ac:dyDescent="0.45">
-      <c r="B11" s="100"/>
-      <c r="C11" s="100"/>
-      <c r="D11" s="100"/>
-      <c r="E11" s="100"/>
-      <c r="F11" s="100"/>
-      <c r="G11" s="100"/>
-      <c r="H11" s="100"/>
-      <c r="I11" s="100"/>
+    <row r="11" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
+      <c r="B11" s="101"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="101"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="101"/>
       <c r="K11" s="12" t="s">
         <v>81</v>
       </c>
@@ -10682,137 +10457,137 @@
       </c>
       <c r="N11" s="10"/>
     </row>
-    <row r="12" spans="2:14" ht="45.6" x14ac:dyDescent="0.45">
-      <c r="B12" s="100"/>
-      <c r="C12" s="100"/>
-      <c r="D12" s="100"/>
-      <c r="E12" s="100"/>
-      <c r="F12" s="100"/>
-      <c r="G12" s="100"/>
-      <c r="H12" s="100"/>
-      <c r="I12" s="100"/>
+    <row r="12" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
+      <c r="B12" s="101"/>
+      <c r="C12" s="101"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="101"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="101"/>
+      <c r="H12" s="101"/>
+      <c r="I12" s="101"/>
       <c r="K12" s="12" t="s">
         <v>82</v>
       </c>
       <c r="L12" s="13"/>
     </row>
-    <row r="13" spans="2:14" ht="45.6" x14ac:dyDescent="0.45">
-      <c r="B13" s="100"/>
-      <c r="C13" s="100"/>
-      <c r="D13" s="100"/>
-      <c r="E13" s="100"/>
-      <c r="F13" s="100"/>
-      <c r="G13" s="100"/>
-      <c r="H13" s="100"/>
-      <c r="I13" s="100"/>
+    <row r="13" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
+      <c r="B13" s="101"/>
+      <c r="C13" s="101"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="101"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="101"/>
+      <c r="H13" s="101"/>
+      <c r="I13" s="101"/>
       <c r="K13" s="12" t="s">
         <v>83</v>
       </c>
       <c r="L13" s="13"/>
     </row>
-    <row r="14" spans="2:14" ht="45.6" x14ac:dyDescent="0.45">
-      <c r="B14" s="100"/>
-      <c r="C14" s="100"/>
-      <c r="D14" s="100"/>
-      <c r="E14" s="100"/>
-      <c r="F14" s="100"/>
-      <c r="G14" s="100"/>
-      <c r="H14" s="100"/>
-      <c r="I14" s="100"/>
+    <row r="14" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
+      <c r="B14" s="101"/>
+      <c r="C14" s="101"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="101"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="101"/>
+      <c r="H14" s="101"/>
+      <c r="I14" s="101"/>
       <c r="K14" s="12" t="s">
         <v>84</v>
       </c>
       <c r="L14" s="13"/>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B15" s="100"/>
-      <c r="C15" s="100"/>
-      <c r="D15" s="100"/>
-      <c r="E15" s="100"/>
-      <c r="F15" s="100"/>
-      <c r="G15" s="100"/>
-      <c r="H15" s="100"/>
-      <c r="I15" s="100"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B16" s="100"/>
-      <c r="C16" s="100"/>
-      <c r="D16" s="100"/>
-      <c r="E16" s="100"/>
-      <c r="F16" s="100"/>
-      <c r="G16" s="100"/>
-      <c r="H16" s="100"/>
-      <c r="I16" s="100"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B17" s="100"/>
-      <c r="C17" s="100"/>
-      <c r="D17" s="100"/>
-      <c r="E17" s="100"/>
-      <c r="F17" s="100"/>
-      <c r="G17" s="100"/>
-      <c r="H17" s="100"/>
-      <c r="I17" s="100"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B18" s="100"/>
-      <c r="C18" s="100"/>
-      <c r="D18" s="100"/>
-      <c r="E18" s="100"/>
-      <c r="F18" s="100"/>
-      <c r="G18" s="100"/>
-      <c r="H18" s="100"/>
-      <c r="I18" s="100"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B19" s="100"/>
-      <c r="C19" s="100"/>
-      <c r="D19" s="100"/>
-      <c r="E19" s="100"/>
-      <c r="F19" s="100"/>
-      <c r="G19" s="100"/>
-      <c r="H19" s="100"/>
-      <c r="I19" s="100"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B20" s="100"/>
-      <c r="C20" s="100"/>
-      <c r="D20" s="100"/>
-      <c r="E20" s="100"/>
-      <c r="F20" s="100"/>
-      <c r="G20" s="100"/>
-      <c r="H20" s="100"/>
-      <c r="I20" s="100"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B21" s="100"/>
-      <c r="C21" s="100"/>
-      <c r="D21" s="100"/>
-      <c r="E21" s="100"/>
-      <c r="F21" s="100"/>
-      <c r="G21" s="100"/>
-      <c r="H21" s="100"/>
-      <c r="I21" s="100"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B22" s="100"/>
-      <c r="C22" s="100"/>
-      <c r="D22" s="100"/>
-      <c r="E22" s="100"/>
-      <c r="F22" s="100"/>
-      <c r="G22" s="100"/>
-      <c r="H22" s="100"/>
-      <c r="I22" s="100"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B23" s="100"/>
-      <c r="C23" s="100"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="100"/>
-      <c r="F23" s="100"/>
-      <c r="G23" s="100"/>
-      <c r="H23" s="100"/>
-      <c r="I23" s="100"/>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B15" s="101"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="101"/>
+      <c r="F15" s="101"/>
+      <c r="G15" s="101"/>
+      <c r="H15" s="101"/>
+      <c r="I15" s="101"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B16" s="101"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="101"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="101"/>
+      <c r="G16" s="101"/>
+      <c r="H16" s="101"/>
+      <c r="I16" s="101"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B17" s="101"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="101"/>
+      <c r="H17" s="101"/>
+      <c r="I17" s="101"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B18" s="101"/>
+      <c r="C18" s="101"/>
+      <c r="D18" s="101"/>
+      <c r="E18" s="101"/>
+      <c r="F18" s="101"/>
+      <c r="G18" s="101"/>
+      <c r="H18" s="101"/>
+      <c r="I18" s="101"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B19" s="101"/>
+      <c r="C19" s="101"/>
+      <c r="D19" s="101"/>
+      <c r="E19" s="101"/>
+      <c r="F19" s="101"/>
+      <c r="G19" s="101"/>
+      <c r="H19" s="101"/>
+      <c r="I19" s="101"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B20" s="101"/>
+      <c r="C20" s="101"/>
+      <c r="D20" s="101"/>
+      <c r="E20" s="101"/>
+      <c r="F20" s="101"/>
+      <c r="G20" s="101"/>
+      <c r="H20" s="101"/>
+      <c r="I20" s="101"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B21" s="101"/>
+      <c r="C21" s="101"/>
+      <c r="D21" s="101"/>
+      <c r="E21" s="101"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="101"/>
+      <c r="H21" s="101"/>
+      <c r="I21" s="101"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B22" s="101"/>
+      <c r="C22" s="101"/>
+      <c r="D22" s="101"/>
+      <c r="E22" s="101"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="101"/>
+      <c r="H22" s="101"/>
+      <c r="I22" s="101"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B23" s="101"/>
+      <c r="C23" s="101"/>
+      <c r="D23" s="101"/>
+      <c r="E23" s="101"/>
+      <c r="F23" s="101"/>
+      <c r="G23" s="101"/>
+      <c r="H23" s="101"/>
+      <c r="I23" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10832,7 +10607,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10848,40 +10623,40 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="7.19921875" customWidth="1"/>
-    <col min="2" max="2" width="17.19921875" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.19921875" style="8" customWidth="1"/>
+    <col min="1" max="1" width="7.25" customWidth="1"/>
+    <col min="2" max="2" width="17.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" style="8" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" s="101" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" s="100"/>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2" s="101"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="7"/>
       <c r="B4" s="14" t="s">
         <v>53</v>
@@ -10897,7 +10672,7 @@
       </c>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B5" s="15" t="s">
         <v>48</v>
       </c>
@@ -10909,7 +10684,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B6" s="15" t="s">
         <v>49</v>
       </c>
@@ -10923,7 +10698,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B7" s="15" t="s">
         <v>67</v>
       </c>
@@ -10935,7 +10710,7 @@
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B8" s="15" t="s">
         <v>50</v>
       </c>
@@ -10947,7 +10722,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B9" s="15" t="s">
         <v>51</v>
       </c>
@@ -10959,8 +10734,8 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B10" s="102" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B10" s="103" t="s">
         <v>173</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -10973,31 +10748,31 @@
         <v>174</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B11" s="102"/>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B11" s="103"/>
       <c r="C11" s="2" t="s">
         <v>176</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B12" s="102"/>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B12" s="103"/>
       <c r="C12" s="2" t="s">
         <v>172</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B13" s="102"/>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B13" s="103"/>
       <c r="C13" s="2" t="s">
         <v>175</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B14" s="15" t="s">
         <v>52</v>
       </c>
@@ -11011,7 +10786,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B15" s="15" t="s">
         <v>177</v>
       </c>
@@ -11025,7 +10800,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B16" s="15"/>
       <c r="C16" s="2" t="s">
         <v>181</v>
@@ -11035,7 +10810,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B17" s="15" t="s">
         <v>62</v>
       </c>
@@ -11047,25 +10822,25 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B18" s="15"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B19" s="15"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B20" s="15"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B21" s="15" t="s">
         <v>55</v>
       </c>
@@ -11088,19 +10863,19 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="U17" sqref="U17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.8984375" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="103" t="s">
+    <row r="1" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="104" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11132,24 +10907,24 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="7.19921875" customWidth="1"/>
-    <col min="2" max="2" width="28.19921875" style="62" customWidth="1"/>
-    <col min="3" max="3" width="28.09765625" style="62" customWidth="1"/>
-    <col min="4" max="4" width="28.09765625" style="64" customWidth="1"/>
-    <col min="5" max="5" width="29.19921875" style="62" customWidth="1"/>
+    <col min="1" max="1" width="7.25" customWidth="1"/>
+    <col min="2" max="2" width="28.25" style="62" customWidth="1"/>
+    <col min="3" max="3" width="28.125" style="62" customWidth="1"/>
+    <col min="4" max="4" width="28.125" style="64" customWidth="1"/>
+    <col min="5" max="5" width="29.25" style="62" customWidth="1"/>
     <col min="6" max="6" width="22.5" style="62" customWidth="1"/>
-    <col min="7" max="7" width="21.8984375" style="62" customWidth="1"/>
+    <col min="7" max="7" width="21.875" style="62" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="2"/>
       <c r="B1" s="61">
         <v>2</v>
@@ -11168,7 +10943,7 @@
       </c>
       <c r="G1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="61" t="s">
         <v>15</v>
@@ -11187,45 +10962,45 @@
       </c>
       <c r="G2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B3" s="67" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C3" s="68" t="s">
         <v>210</v>
       </c>
       <c r="D3" s="68" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E3" s="69"/>
       <c r="F3" s="66"/>
       <c r="G3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>117</v>
       </c>
       <c r="B4" s="68" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C4" s="68" t="s">
         <v>209</v>
       </c>
       <c r="D4" s="71" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E4" s="70" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F4" s="70" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G4"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>116</v>
       </c>
@@ -11233,18 +11008,18 @@
         <v>211</v>
       </c>
       <c r="C5" s="68" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D5" s="72" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E5" s="72" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F5" s="66"/>
       <c r="G5"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>134</v>
       </c>
@@ -11255,17 +11030,17 @@
         <v>208</v>
       </c>
       <c r="D6" s="68" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E6" s="68" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F6" s="71" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G6"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>40</v>
       </c>
@@ -11276,13 +11051,13 @@
         <v>207</v>
       </c>
       <c r="D7" s="72" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E7"/>
       <c r="F7" s="73"/>
       <c r="G7"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>158</v>
       </c>
@@ -11293,13 +11068,13 @@
         <v>206</v>
       </c>
       <c r="D8" s="72" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E8" s="69"/>
       <c r="F8" s="66"/>
       <c r="G8"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B11" s="62" t="s">
         <v>212</v>
       </c>
@@ -11307,179 +11082,179 @@
         <v>201</v>
       </c>
       <c r="D11" s="64" t="s">
+        <v>234</v>
+      </c>
+      <c r="E11" s="62" t="s">
+        <v>248</v>
+      </c>
+      <c r="G11" s="62" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B12" s="74" t="s">
+        <v>222</v>
+      </c>
+      <c r="C12" s="67" t="s">
+        <v>229</v>
+      </c>
+      <c r="D12" s="106" t="s">
+        <v>237</v>
+      </c>
+      <c r="E12" s="62" t="s">
+        <v>213</v>
+      </c>
+      <c r="G12" s="62" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B13" s="74" t="s">
+        <v>223</v>
+      </c>
+      <c r="C13" s="67" t="s">
+        <v>229</v>
+      </c>
+      <c r="D13" s="106" t="s">
+        <v>237</v>
+      </c>
+      <c r="E13" s="62" t="s">
+        <v>218</v>
+      </c>
+      <c r="G13" s="62" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B14" s="74" t="s">
+        <v>224</v>
+      </c>
+      <c r="C14" s="67" t="s">
+        <v>229</v>
+      </c>
+      <c r="D14" s="106" t="s">
+        <v>237</v>
+      </c>
+      <c r="E14" s="62" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B15" s="83" t="s">
+        <v>232</v>
+      </c>
+      <c r="C15" s="67" t="s">
+        <v>229</v>
+      </c>
+      <c r="D15" s="105" t="s">
         <v>235</v>
       </c>
-      <c r="E11" s="62" t="s">
-        <v>213</v>
-      </c>
-      <c r="G11" s="62" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B12" s="74" t="s">
-        <v>223</v>
-      </c>
-      <c r="C12" s="67" t="s">
-        <v>230</v>
-      </c>
-      <c r="D12" s="64" t="s">
-        <v>238</v>
-      </c>
-      <c r="E12" s="62" t="s">
-        <v>214</v>
-      </c>
-      <c r="G12" s="62" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B13" s="74" t="s">
-        <v>224</v>
-      </c>
-      <c r="C13" s="67" t="s">
-        <v>230</v>
-      </c>
-      <c r="D13" s="64" t="s">
-        <v>238</v>
-      </c>
-      <c r="E13" s="62" t="s">
+      <c r="E15" s="62" t="s">
         <v>219</v>
       </c>
-      <c r="G13" s="62" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B14" s="74" t="s">
-        <v>225</v>
-      </c>
-      <c r="C14" s="67" t="s">
-        <v>230</v>
-      </c>
-      <c r="D14" s="64" t="s">
-        <v>238</v>
-      </c>
-      <c r="E14" s="62" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B15" s="104" t="s">
-        <v>233</v>
-      </c>
-      <c r="C15" s="67" t="s">
-        <v>230</v>
-      </c>
-      <c r="D15" s="64" t="s">
-        <v>236</v>
-      </c>
-      <c r="E15" s="62" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B16" s="74" t="s">
         <v>207</v>
       </c>
       <c r="C16" s="67" t="s">
-        <v>230</v>
-      </c>
-      <c r="D16" s="64" t="s">
+        <v>229</v>
+      </c>
+      <c r="D16" s="107" t="s">
+        <v>236</v>
+      </c>
+      <c r="E16" s="62" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B17" s="75" t="s">
+        <v>227</v>
+      </c>
+      <c r="C17" s="76" t="s">
+        <v>231</v>
+      </c>
+      <c r="D17" s="106" t="s">
         <v>237</v>
       </c>
-      <c r="E16" s="62" t="s">
+      <c r="E17" s="62" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B17" s="75" t="s">
-        <v>228</v>
-      </c>
-      <c r="C17" s="76" t="s">
-        <v>232</v>
-      </c>
-      <c r="D17" s="64" t="s">
-        <v>238</v>
-      </c>
-      <c r="E17" s="62" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B18" s="77" t="s">
         <v>38</v>
       </c>
       <c r="C18" s="78" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="64" t="s">
-        <v>238</v>
+      <c r="D18" s="106" t="s">
+        <v>237</v>
       </c>
       <c r="F18" s="62" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B19" s="79" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C19" s="78" t="s">
         <v>77</v>
       </c>
-      <c r="D19" s="64" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="D19" s="106" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B20" s="77" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C20" s="78" t="s">
         <v>77</v>
       </c>
-      <c r="D20" s="64" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="D20" s="106" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B21" s="80" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C21" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="D21" s="64" t="s">
-        <v>238</v>
+      <c r="D21" s="106" t="s">
+        <v>237</v>
       </c>
       <c r="F21" s="64"/>
-      <c r="G21" s="64"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="H21" s="62"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B22" s="82" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C22" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="D22" s="64" t="s">
-        <v>237</v>
+      <c r="D22" s="107" t="s">
+        <v>236</v>
       </c>
       <c r="F22" s="65"/>
       <c r="G22" s="64"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B23" s="82" t="s">
         <v>17</v>
       </c>
       <c r="C23" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="D23" s="65" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="D23" s="106" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
       <c r="F24" s="64"/>
       <c r="G24" s="64"/>
     </row>

--- a/schedule/ガントチャート.xlsx
+++ b/schedule/ガントチャート.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14925" windowHeight="12180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14925" windowHeight="12180" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="ガントチャート" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="SE" sheetId="3" r:id="rId4"/>
     <sheet name="フローチャート" sheetId="2" r:id="rId5"/>
     <sheet name="11月２日～マスター日まで" sheetId="6" r:id="rId6"/>
+    <sheet name="11月3日～完成まで" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="276">
   <si>
     <t>カテゴリ</t>
     <phoneticPr fontId="1"/>
@@ -1828,6 +1829,109 @@
     <rPh sb="2" eb="4">
       <t>ゼンブ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵の配置(ツール)</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵の種類（ツール）</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ＵＩとの連動</t>
+    <rPh sb="4" eb="6">
+      <t>レンドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボス行動</t>
+    <rPh sb="2" eb="4">
+      <t>コウドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ニャーと壁の当たり判定</t>
+    <rPh sb="4" eb="5">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ニャーの向き</t>
+    <rPh sb="4" eb="5">
+      <t>ム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゆかと壁のテクスチャ（和室等）</t>
+    <rPh sb="3" eb="4">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ワシツ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>トウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップの大きさ</t>
+    <rPh sb="4" eb="5">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>背景（緑）</t>
+    <rPh sb="0" eb="2">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ミドリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテムの連動（ドロップ）</t>
+    <rPh sb="5" eb="7">
+      <t>レンドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ｓ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ｓ+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ａ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2136,7 +2240,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2217,6 +2321,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -2435,7 +2545,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="18">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2490,8 +2600,11 @@
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2738,39 +2851,81 @@
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="17" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="9" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="7" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="3" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="6" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="7" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="3" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="6" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="7" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="3" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="6" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="6" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2783,48 +2938,28 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="3" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="3" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="3" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="16">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="18">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" xfId="13" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="9" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="12">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="12" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="7" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="7" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="7" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="18">
+  <cellStyles count="19">
     <cellStyle name="40% - アクセント 1" xfId="6" builtinId="31"/>
+    <cellStyle name="40% - アクセント 2" xfId="18" builtinId="35"/>
     <cellStyle name="40% - アクセント 3" xfId="16" builtinId="39"/>
     <cellStyle name="40% - アクセント 6" xfId="17" builtinId="51"/>
     <cellStyle name="60% - アクセント 1" xfId="7" builtinId="32"/>
@@ -6443,7 +6578,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AT86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="11" ySplit="4" topLeftCell="L14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -6505,7 +6640,7 @@
       <c r="V1" s="24"/>
     </row>
     <row r="3" spans="1:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="L3" s="102">
+      <c r="L3" s="85">
         <v>44116</v>
       </c>
       <c r="M3" s="17">
@@ -6626,7 +6761,7 @@
       <c r="K4" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="103">
+      <c r="L4" s="86">
         <f>L3</f>
         <v>44116</v>
       </c>
@@ -6736,10 +6871,10 @@
       </c>
     </row>
     <row r="5" spans="1:46" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="90" t="s">
+      <c r="B5" s="104" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="19" t="s">
@@ -6762,10 +6897,10 @@
         <v>44125</v>
       </c>
       <c r="J5" s="52"/>
-      <c r="K5" s="100">
+      <c r="K5" s="83">
         <v>1</v>
       </c>
-      <c r="L5" s="104"/>
+      <c r="L5" s="87"/>
       <c r="M5" s="78"/>
       <c r="N5" s="78"/>
       <c r="O5" s="78"/>
@@ -6776,7 +6911,7 @@
       <c r="T5" s="78"/>
       <c r="U5" s="78"/>
       <c r="V5" s="78"/>
-      <c r="W5" s="87" t="s">
+      <c r="W5" s="99" t="s">
         <v>110</v>
       </c>
       <c r="X5" s="78"/>
@@ -6785,7 +6920,7 @@
       <c r="AA5" s="78"/>
       <c r="AB5" s="78"/>
       <c r="AC5" s="78"/>
-      <c r="AD5" s="88" t="s">
+      <c r="AD5" s="96" t="s">
         <v>111</v>
       </c>
       <c r="AE5" s="78"/>
@@ -6794,14 +6929,14 @@
       <c r="AH5" s="78"/>
       <c r="AI5" s="78"/>
       <c r="AJ5" s="78"/>
-      <c r="AK5" s="84" t="s">
+      <c r="AK5" s="93" t="s">
         <v>88</v>
       </c>
       <c r="AL5" s="78"/>
     </row>
     <row r="6" spans="1:46" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="89"/>
-      <c r="B6" s="90"/>
+      <c r="A6" s="103"/>
+      <c r="B6" s="104"/>
       <c r="C6" s="19" t="s">
         <v>9</v>
       </c>
@@ -6820,10 +6955,10 @@
         <v>44131</v>
       </c>
       <c r="J6" s="52"/>
-      <c r="K6" s="100">
+      <c r="K6" s="83">
         <v>0.9</v>
       </c>
-      <c r="L6" s="105"/>
+      <c r="L6" s="88"/>
       <c r="M6" s="76"/>
       <c r="N6" s="76"/>
       <c r="O6" s="76"/>
@@ -6834,26 +6969,26 @@
       <c r="T6" s="76"/>
       <c r="U6" s="76"/>
       <c r="V6" s="76"/>
-      <c r="W6" s="109"/>
+      <c r="W6" s="100"/>
       <c r="X6" s="76"/>
       <c r="Y6" s="76"/>
       <c r="Z6" s="76"/>
       <c r="AA6" s="76"/>
       <c r="AB6" s="76"/>
       <c r="AC6" s="76"/>
-      <c r="AD6" s="108"/>
+      <c r="AD6" s="97"/>
       <c r="AE6" s="76"/>
       <c r="AF6" s="76"/>
       <c r="AG6" s="76"/>
       <c r="AH6" s="76"/>
       <c r="AI6" s="76"/>
       <c r="AJ6" s="76"/>
-      <c r="AK6" s="107"/>
+      <c r="AK6" s="94"/>
       <c r="AL6" s="76"/>
     </row>
     <row r="7" spans="1:46" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="89"/>
-      <c r="B7" s="90"/>
+      <c r="A7" s="103"/>
+      <c r="B7" s="104"/>
       <c r="C7" s="19" t="s">
         <v>10</v>
       </c>
@@ -6870,10 +7005,10 @@
       </c>
       <c r="I7" s="31"/>
       <c r="J7" s="52"/>
-      <c r="K7" s="100">
+      <c r="K7" s="83">
         <v>0.9</v>
       </c>
-      <c r="L7" s="105"/>
+      <c r="L7" s="88"/>
       <c r="M7" s="76"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -6884,26 +7019,26 @@
       <c r="T7" s="76"/>
       <c r="U7" s="76"/>
       <c r="V7" s="76"/>
-      <c r="W7" s="109"/>
+      <c r="W7" s="100"/>
       <c r="X7" s="76"/>
       <c r="Y7" s="76"/>
       <c r="Z7" s="76"/>
       <c r="AA7" s="76"/>
       <c r="AB7" s="76"/>
       <c r="AC7" s="76"/>
-      <c r="AD7" s="108"/>
+      <c r="AD7" s="97"/>
       <c r="AE7" s="76"/>
       <c r="AF7" s="76"/>
       <c r="AG7" s="76"/>
       <c r="AH7" s="76"/>
       <c r="AI7" s="76"/>
       <c r="AJ7" s="76"/>
-      <c r="AK7" s="107"/>
+      <c r="AK7" s="94"/>
       <c r="AL7" s="76"/>
     </row>
     <row r="8" spans="1:46" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="89"/>
-      <c r="B8" s="90"/>
+      <c r="A8" s="103"/>
+      <c r="B8" s="104"/>
       <c r="C8" s="19" t="s">
         <v>11</v>
       </c>
@@ -6920,10 +7055,10 @@
       </c>
       <c r="I8" s="31"/>
       <c r="J8" s="52"/>
-      <c r="K8" s="100">
+      <c r="K8" s="83">
         <v>0.75</v>
       </c>
-      <c r="L8" s="105"/>
+      <c r="L8" s="88"/>
       <c r="M8" s="76"/>
       <c r="N8" s="76"/>
       <c r="O8" s="76"/>
@@ -6934,26 +7069,26 @@
       <c r="T8" s="76"/>
       <c r="U8" s="76"/>
       <c r="V8" s="76"/>
-      <c r="W8" s="109"/>
+      <c r="W8" s="100"/>
       <c r="X8" s="76"/>
       <c r="Y8" s="76"/>
       <c r="Z8" s="76"/>
       <c r="AA8" s="76"/>
       <c r="AB8" s="76"/>
       <c r="AC8" s="76"/>
-      <c r="AD8" s="108"/>
+      <c r="AD8" s="97"/>
       <c r="AE8" s="76"/>
       <c r="AF8" s="76"/>
       <c r="AG8" s="76"/>
       <c r="AH8" s="76"/>
       <c r="AI8" s="76"/>
       <c r="AJ8" s="76"/>
-      <c r="AK8" s="107"/>
+      <c r="AK8" s="94"/>
       <c r="AL8" s="76"/>
     </row>
     <row r="9" spans="1:46" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="89"/>
-      <c r="B9" s="90"/>
+      <c r="A9" s="103"/>
+      <c r="B9" s="104"/>
       <c r="C9" s="19" t="s">
         <v>34</v>
       </c>
@@ -6974,10 +7109,10 @@
         <v>44131</v>
       </c>
       <c r="J9" s="52"/>
-      <c r="K9" s="100">
+      <c r="K9" s="83">
         <v>1</v>
       </c>
-      <c r="L9" s="105"/>
+      <c r="L9" s="88"/>
       <c r="M9" s="76"/>
       <c r="N9" s="76"/>
       <c r="O9" s="76"/>
@@ -6988,26 +7123,26 @@
       <c r="T9" s="76"/>
       <c r="U9" s="76"/>
       <c r="V9" s="76"/>
-      <c r="W9" s="109"/>
+      <c r="W9" s="100"/>
       <c r="X9" s="76"/>
       <c r="Y9" s="76"/>
       <c r="Z9" s="76"/>
       <c r="AA9" s="76"/>
       <c r="AB9" s="76"/>
       <c r="AC9" s="76"/>
-      <c r="AD9" s="108"/>
+      <c r="AD9" s="97"/>
       <c r="AE9" s="76"/>
       <c r="AF9" s="76"/>
       <c r="AG9" s="76"/>
       <c r="AH9" s="76"/>
       <c r="AI9" s="76"/>
       <c r="AJ9" s="76"/>
-      <c r="AK9" s="107"/>
+      <c r="AK9" s="94"/>
       <c r="AL9" s="76"/>
     </row>
     <row r="10" spans="1:46" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="89"/>
-      <c r="B10" s="90"/>
+      <c r="A10" s="103"/>
+      <c r="B10" s="104"/>
       <c r="C10" s="19" t="s">
         <v>35</v>
       </c>
@@ -7022,10 +7157,10 @@
       <c r="H10" s="31"/>
       <c r="I10" s="31"/>
       <c r="J10" s="52"/>
-      <c r="K10" s="100">
+      <c r="K10" s="83">
         <v>0</v>
       </c>
-      <c r="L10" s="105"/>
+      <c r="L10" s="88"/>
       <c r="M10" s="76"/>
       <c r="N10" s="76"/>
       <c r="O10" s="76"/>
@@ -7036,29 +7171,29 @@
       <c r="T10" s="76"/>
       <c r="U10" s="76"/>
       <c r="V10" s="76"/>
-      <c r="W10" s="109"/>
+      <c r="W10" s="100"/>
       <c r="X10" s="76"/>
       <c r="Y10" s="76"/>
       <c r="Z10" s="76"/>
       <c r="AA10" s="76"/>
       <c r="AB10" s="76"/>
       <c r="AC10" s="76"/>
-      <c r="AD10" s="108"/>
+      <c r="AD10" s="97"/>
       <c r="AE10" s="76"/>
       <c r="AF10" s="76"/>
       <c r="AG10" s="76"/>
       <c r="AH10" s="76"/>
       <c r="AI10" s="76"/>
       <c r="AJ10" s="76"/>
-      <c r="AK10" s="107"/>
+      <c r="AK10" s="94"/>
       <c r="AL10" s="76"/>
     </row>
     <row r="11" spans="1:46" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="89"/>
-      <c r="B11" s="86" t="s">
+      <c r="A11" s="103"/>
+      <c r="B11" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="85" t="s">
+      <c r="C11" s="102" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="40" t="s">
@@ -7070,10 +7205,10 @@
       <c r="H11" s="31"/>
       <c r="I11" s="31"/>
       <c r="J11" s="52"/>
-      <c r="K11" s="100">
+      <c r="K11" s="83">
         <v>0</v>
       </c>
-      <c r="L11" s="105"/>
+      <c r="L11" s="88"/>
       <c r="M11" s="76"/>
       <c r="N11" s="76"/>
       <c r="O11" s="76"/>
@@ -7084,27 +7219,27 @@
       <c r="T11" s="76"/>
       <c r="U11" s="76"/>
       <c r="V11" s="76"/>
-      <c r="W11" s="109"/>
+      <c r="W11" s="100"/>
       <c r="X11" s="76"/>
       <c r="Y11" s="76"/>
       <c r="Z11" s="76"/>
       <c r="AA11" s="76"/>
       <c r="AB11" s="76"/>
       <c r="AC11" s="76"/>
-      <c r="AD11" s="108"/>
+      <c r="AD11" s="97"/>
       <c r="AE11" s="76"/>
       <c r="AF11" s="76"/>
       <c r="AG11" s="76"/>
       <c r="AH11" s="76"/>
       <c r="AI11" s="76"/>
       <c r="AJ11" s="76"/>
-      <c r="AK11" s="107"/>
+      <c r="AK11" s="94"/>
       <c r="AL11" s="76"/>
     </row>
     <row r="12" spans="1:46" x14ac:dyDescent="0.4">
-      <c r="A12" s="89"/>
-      <c r="B12" s="86"/>
-      <c r="C12" s="85"/>
+      <c r="A12" s="103"/>
+      <c r="B12" s="106"/>
+      <c r="C12" s="102"/>
       <c r="D12" s="2" t="s">
         <v>23</v>
       </c>
@@ -7114,10 +7249,10 @@
       <c r="H12" s="31"/>
       <c r="I12" s="31"/>
       <c r="J12" s="52"/>
-      <c r="K12" s="100">
+      <c r="K12" s="83">
         <v>0</v>
       </c>
-      <c r="L12" s="105"/>
+      <c r="L12" s="88"/>
       <c r="M12" s="76"/>
       <c r="N12" s="76"/>
       <c r="O12" s="76"/>
@@ -7128,27 +7263,27 @@
       <c r="T12" s="76"/>
       <c r="U12" s="76"/>
       <c r="V12" s="76"/>
-      <c r="W12" s="109"/>
+      <c r="W12" s="100"/>
       <c r="X12" s="76"/>
       <c r="Y12" s="76"/>
       <c r="Z12" s="76"/>
       <c r="AA12" s="76"/>
       <c r="AB12" s="76"/>
       <c r="AC12" s="76"/>
-      <c r="AD12" s="108"/>
+      <c r="AD12" s="97"/>
       <c r="AE12" s="76"/>
       <c r="AF12" s="76"/>
       <c r="AG12" s="76"/>
       <c r="AH12" s="76"/>
       <c r="AI12" s="76"/>
       <c r="AJ12" s="76"/>
-      <c r="AK12" s="107"/>
+      <c r="AK12" s="94"/>
       <c r="AL12" s="76"/>
     </row>
     <row r="13" spans="1:46" x14ac:dyDescent="0.4">
-      <c r="A13" s="89"/>
-      <c r="B13" s="86"/>
-      <c r="C13" s="85"/>
+      <c r="A13" s="103"/>
+      <c r="B13" s="106"/>
+      <c r="C13" s="102"/>
       <c r="D13" s="33" t="s">
         <v>45</v>
       </c>
@@ -7158,10 +7293,10 @@
       <c r="H13" s="31"/>
       <c r="I13" s="31"/>
       <c r="J13" s="52"/>
-      <c r="K13" s="100">
+      <c r="K13" s="83">
         <v>0</v>
       </c>
-      <c r="L13" s="105"/>
+      <c r="L13" s="88"/>
       <c r="M13" s="76"/>
       <c r="N13" s="76"/>
       <c r="O13" s="76"/>
@@ -7172,27 +7307,27 @@
       <c r="T13" s="76"/>
       <c r="U13" s="76"/>
       <c r="V13" s="76"/>
-      <c r="W13" s="109"/>
+      <c r="W13" s="100"/>
       <c r="X13" s="76"/>
       <c r="Y13" s="76"/>
       <c r="Z13" s="76"/>
       <c r="AA13" s="76"/>
       <c r="AB13" s="76"/>
       <c r="AC13" s="76"/>
-      <c r="AD13" s="108"/>
+      <c r="AD13" s="97"/>
       <c r="AE13" s="76"/>
       <c r="AF13" s="76"/>
       <c r="AG13" s="76"/>
       <c r="AH13" s="76"/>
       <c r="AI13" s="76"/>
       <c r="AJ13" s="76"/>
-      <c r="AK13" s="107"/>
+      <c r="AK13" s="94"/>
       <c r="AL13" s="76"/>
     </row>
     <row r="14" spans="1:46" x14ac:dyDescent="0.4">
-      <c r="A14" s="89"/>
-      <c r="B14" s="86"/>
-      <c r="C14" s="85"/>
+      <c r="A14" s="103"/>
+      <c r="B14" s="106"/>
+      <c r="C14" s="102"/>
       <c r="D14" s="34" t="s">
         <v>27</v>
       </c>
@@ -7202,10 +7337,10 @@
       <c r="H14" s="31"/>
       <c r="I14" s="31"/>
       <c r="J14" s="52"/>
-      <c r="K14" s="100">
+      <c r="K14" s="83">
         <v>0</v>
       </c>
-      <c r="L14" s="105"/>
+      <c r="L14" s="88"/>
       <c r="M14" s="76"/>
       <c r="N14" s="76"/>
       <c r="O14" s="76"/>
@@ -7216,27 +7351,27 @@
       <c r="T14" s="76"/>
       <c r="U14" s="76"/>
       <c r="V14" s="76"/>
-      <c r="W14" s="109"/>
+      <c r="W14" s="100"/>
       <c r="X14" s="76"/>
       <c r="Y14" s="76"/>
       <c r="Z14" s="76"/>
       <c r="AA14" s="76"/>
       <c r="AB14" s="76"/>
       <c r="AC14" s="76"/>
-      <c r="AD14" s="108"/>
+      <c r="AD14" s="97"/>
       <c r="AE14" s="76"/>
       <c r="AF14" s="76"/>
       <c r="AG14" s="76"/>
       <c r="AH14" s="76"/>
       <c r="AI14" s="76"/>
       <c r="AJ14" s="76"/>
-      <c r="AK14" s="107"/>
+      <c r="AK14" s="94"/>
       <c r="AL14" s="76"/>
     </row>
     <row r="15" spans="1:46" x14ac:dyDescent="0.4">
-      <c r="A15" s="89"/>
-      <c r="B15" s="86"/>
-      <c r="C15" s="85" t="s">
+      <c r="A15" s="103"/>
+      <c r="B15" s="106"/>
+      <c r="C15" s="102" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -7250,10 +7385,10 @@
       <c r="H15" s="31"/>
       <c r="I15" s="31"/>
       <c r="J15" s="52"/>
-      <c r="K15" s="100">
+      <c r="K15" s="83">
         <v>0</v>
       </c>
-      <c r="L15" s="105"/>
+      <c r="L15" s="88"/>
       <c r="M15" s="76"/>
       <c r="N15" s="76"/>
       <c r="O15" s="76"/>
@@ -7264,27 +7399,27 @@
       <c r="T15" s="76"/>
       <c r="U15" s="76"/>
       <c r="V15" s="76"/>
-      <c r="W15" s="109"/>
+      <c r="W15" s="100"/>
       <c r="X15" s="76"/>
       <c r="Y15" s="76"/>
       <c r="Z15" s="76"/>
       <c r="AA15" s="76"/>
       <c r="AB15" s="76"/>
       <c r="AC15" s="76"/>
-      <c r="AD15" s="108"/>
+      <c r="AD15" s="97"/>
       <c r="AE15" s="76"/>
       <c r="AF15" s="76"/>
       <c r="AG15" s="76"/>
       <c r="AH15" s="76"/>
       <c r="AI15" s="76"/>
       <c r="AJ15" s="76"/>
-      <c r="AK15" s="107"/>
+      <c r="AK15" s="94"/>
       <c r="AL15" s="76"/>
     </row>
     <row r="16" spans="1:46" x14ac:dyDescent="0.4">
-      <c r="A16" s="89"/>
-      <c r="B16" s="86"/>
-      <c r="C16" s="85"/>
+      <c r="A16" s="103"/>
+      <c r="B16" s="106"/>
+      <c r="C16" s="102"/>
       <c r="D16" s="35" t="s">
         <v>45</v>
       </c>
@@ -7294,10 +7429,10 @@
       <c r="H16" s="31"/>
       <c r="I16" s="31"/>
       <c r="J16" s="52"/>
-      <c r="K16" s="100">
+      <c r="K16" s="83">
         <v>0</v>
       </c>
-      <c r="L16" s="105"/>
+      <c r="L16" s="88"/>
       <c r="M16" s="76"/>
       <c r="N16" s="76"/>
       <c r="O16" s="76"/>
@@ -7308,27 +7443,27 @@
       <c r="T16" s="76"/>
       <c r="U16" s="76"/>
       <c r="V16" s="76"/>
-      <c r="W16" s="109"/>
+      <c r="W16" s="100"/>
       <c r="X16" s="76"/>
       <c r="Y16" s="76"/>
       <c r="Z16" s="76"/>
       <c r="AA16" s="76"/>
       <c r="AB16" s="76"/>
       <c r="AC16" s="76"/>
-      <c r="AD16" s="108"/>
+      <c r="AD16" s="97"/>
       <c r="AE16" s="76"/>
       <c r="AF16" s="76"/>
       <c r="AG16" s="76"/>
       <c r="AH16" s="76"/>
       <c r="AI16" s="76"/>
       <c r="AJ16" s="76"/>
-      <c r="AK16" s="107"/>
+      <c r="AK16" s="94"/>
       <c r="AL16" s="76"/>
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A17" s="89"/>
-      <c r="B17" s="86"/>
-      <c r="C17" s="85"/>
+      <c r="A17" s="103"/>
+      <c r="B17" s="106"/>
+      <c r="C17" s="102"/>
       <c r="D17" s="2" t="s">
         <v>23</v>
       </c>
@@ -7338,10 +7473,10 @@
       <c r="H17" s="31"/>
       <c r="I17" s="31"/>
       <c r="J17" s="52"/>
-      <c r="K17" s="100">
+      <c r="K17" s="83">
         <v>0</v>
       </c>
-      <c r="L17" s="105"/>
+      <c r="L17" s="88"/>
       <c r="M17" s="76"/>
       <c r="N17" s="76"/>
       <c r="O17" s="76"/>
@@ -7352,30 +7487,30 @@
       <c r="T17" s="76"/>
       <c r="U17" s="76"/>
       <c r="V17" s="76"/>
-      <c r="W17" s="109"/>
+      <c r="W17" s="100"/>
       <c r="X17" s="76"/>
       <c r="Y17" s="76"/>
       <c r="Z17" s="76"/>
       <c r="AA17" s="76"/>
       <c r="AB17" s="76"/>
       <c r="AC17" s="76"/>
-      <c r="AD17" s="108"/>
+      <c r="AD17" s="97"/>
       <c r="AE17" s="76"/>
       <c r="AF17" s="76"/>
       <c r="AG17" s="76"/>
       <c r="AH17" s="76"/>
       <c r="AI17" s="76"/>
       <c r="AJ17" s="76"/>
-      <c r="AK17" s="107"/>
+      <c r="AK17" s="94"/>
       <c r="AL17" s="76"/>
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A18" s="89"/>
-      <c r="B18" s="86"/>
-      <c r="C18" s="85" t="s">
+      <c r="A18" s="103"/>
+      <c r="B18" s="106"/>
+      <c r="C18" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="85" t="s">
+      <c r="D18" s="102" t="s">
         <v>95</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -7394,10 +7529,10 @@
         <v>44127</v>
       </c>
       <c r="J18" s="52"/>
-      <c r="K18" s="100">
+      <c r="K18" s="83">
         <v>1</v>
       </c>
-      <c r="L18" s="105"/>
+      <c r="L18" s="88"/>
       <c r="M18" s="76"/>
       <c r="N18" s="76"/>
       <c r="O18" s="76"/>
@@ -7408,28 +7543,28 @@
       <c r="T18" s="76"/>
       <c r="U18" s="76"/>
       <c r="V18" s="76"/>
-      <c r="W18" s="109"/>
+      <c r="W18" s="100"/>
       <c r="X18" s="76"/>
       <c r="Y18" s="76"/>
       <c r="Z18" s="76"/>
       <c r="AA18" s="76"/>
       <c r="AB18" s="76"/>
       <c r="AC18" s="76"/>
-      <c r="AD18" s="108"/>
+      <c r="AD18" s="97"/>
       <c r="AE18" s="76"/>
       <c r="AF18" s="76"/>
       <c r="AG18" s="76"/>
       <c r="AH18" s="76"/>
       <c r="AI18" s="76"/>
       <c r="AJ18" s="76"/>
-      <c r="AK18" s="107"/>
+      <c r="AK18" s="94"/>
       <c r="AL18" s="76"/>
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A19" s="89"/>
-      <c r="B19" s="86"/>
-      <c r="C19" s="85"/>
-      <c r="D19" s="85"/>
+      <c r="A19" s="103"/>
+      <c r="B19" s="106"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="102"/>
       <c r="E19" s="2" t="s">
         <v>138</v>
       </c>
@@ -7446,10 +7581,10 @@
         <v>44126</v>
       </c>
       <c r="J19" s="52"/>
-      <c r="K19" s="100">
+      <c r="K19" s="83">
         <v>1</v>
       </c>
-      <c r="L19" s="105"/>
+      <c r="L19" s="88"/>
       <c r="M19" s="76"/>
       <c r="N19" s="76"/>
       <c r="O19" s="76"/>
@@ -7460,28 +7595,28 @@
       <c r="T19" s="76"/>
       <c r="U19" s="76"/>
       <c r="V19" s="76"/>
-      <c r="W19" s="109"/>
+      <c r="W19" s="100"/>
       <c r="X19" s="76"/>
       <c r="Y19" s="76"/>
       <c r="Z19" s="76"/>
       <c r="AA19" s="76"/>
       <c r="AB19" s="76"/>
       <c r="AC19" s="76"/>
-      <c r="AD19" s="108"/>
+      <c r="AD19" s="97"/>
       <c r="AE19" s="76"/>
       <c r="AF19" s="76"/>
       <c r="AG19" s="76"/>
       <c r="AH19" s="76"/>
       <c r="AI19" s="76"/>
       <c r="AJ19" s="76"/>
-      <c r="AK19" s="107"/>
+      <c r="AK19" s="94"/>
       <c r="AL19" s="76"/>
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A20" s="89"/>
-      <c r="B20" s="86"/>
-      <c r="C20" s="85"/>
-      <c r="D20" s="85"/>
+      <c r="A20" s="103"/>
+      <c r="B20" s="106"/>
+      <c r="C20" s="102"/>
+      <c r="D20" s="102"/>
       <c r="E20" s="2" t="s">
         <v>112</v>
       </c>
@@ -7498,10 +7633,10 @@
         <v>44124</v>
       </c>
       <c r="J20" s="52"/>
-      <c r="K20" s="100">
+      <c r="K20" s="83">
         <v>1</v>
       </c>
-      <c r="L20" s="105"/>
+      <c r="L20" s="88"/>
       <c r="M20" s="76"/>
       <c r="N20" s="76"/>
       <c r="O20" s="76"/>
@@ -7512,28 +7647,28 @@
       <c r="T20" s="76"/>
       <c r="U20" s="76"/>
       <c r="V20" s="76"/>
-      <c r="W20" s="109"/>
+      <c r="W20" s="100"/>
       <c r="X20" s="76"/>
       <c r="Y20" s="76"/>
       <c r="Z20" s="76"/>
       <c r="AA20" s="76"/>
       <c r="AB20" s="76"/>
       <c r="AC20" s="76"/>
-      <c r="AD20" s="108"/>
+      <c r="AD20" s="97"/>
       <c r="AE20" s="76"/>
       <c r="AF20" s="76"/>
       <c r="AG20" s="76"/>
       <c r="AH20" s="76"/>
       <c r="AI20" s="76"/>
       <c r="AJ20" s="76"/>
-      <c r="AK20" s="107"/>
+      <c r="AK20" s="94"/>
       <c r="AL20" s="76"/>
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A21" s="89"/>
-      <c r="B21" s="86"/>
-      <c r="C21" s="85"/>
-      <c r="D21" s="85"/>
+      <c r="A21" s="103"/>
+      <c r="B21" s="106"/>
+      <c r="C21" s="102"/>
+      <c r="D21" s="102"/>
       <c r="E21" s="2" t="s">
         <v>108</v>
       </c>
@@ -7550,10 +7685,10 @@
         <v>44132</v>
       </c>
       <c r="J21" s="52"/>
-      <c r="K21" s="100">
+      <c r="K21" s="83">
         <v>1</v>
       </c>
-      <c r="L21" s="105"/>
+      <c r="L21" s="88"/>
       <c r="M21" s="76"/>
       <c r="N21" s="76"/>
       <c r="O21" s="76"/>
@@ -7564,28 +7699,28 @@
       <c r="T21" s="76"/>
       <c r="U21" s="76"/>
       <c r="V21" s="76"/>
-      <c r="W21" s="109"/>
+      <c r="W21" s="100"/>
       <c r="X21" s="76"/>
       <c r="Y21" s="76"/>
       <c r="Z21" s="76"/>
       <c r="AA21" s="76"/>
       <c r="AB21" s="76"/>
       <c r="AC21" s="76"/>
-      <c r="AD21" s="108"/>
+      <c r="AD21" s="97"/>
       <c r="AE21" s="76"/>
       <c r="AF21" s="76"/>
       <c r="AG21" s="76"/>
       <c r="AH21" s="76"/>
       <c r="AI21" s="76"/>
       <c r="AJ21" s="76"/>
-      <c r="AK21" s="107"/>
+      <c r="AK21" s="94"/>
       <c r="AL21" s="76"/>
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A22" s="89"/>
-      <c r="B22" s="86"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="85"/>
+      <c r="A22" s="103"/>
+      <c r="B22" s="106"/>
+      <c r="C22" s="102"/>
+      <c r="D22" s="102"/>
       <c r="E22" s="2" t="s">
         <v>135</v>
       </c>
@@ -7602,10 +7737,10 @@
         <v>44125</v>
       </c>
       <c r="J22" s="52"/>
-      <c r="K22" s="100">
+      <c r="K22" s="83">
         <v>1</v>
       </c>
-      <c r="L22" s="105"/>
+      <c r="L22" s="88"/>
       <c r="M22" s="76"/>
       <c r="N22" s="76"/>
       <c r="O22" s="76"/>
@@ -7616,28 +7751,28 @@
       <c r="T22" s="76"/>
       <c r="U22" s="76"/>
       <c r="V22" s="76"/>
-      <c r="W22" s="109"/>
+      <c r="W22" s="100"/>
       <c r="X22" s="76"/>
       <c r="Y22" s="76"/>
       <c r="Z22" s="76"/>
       <c r="AA22" s="76"/>
       <c r="AB22" s="76"/>
       <c r="AC22" s="76"/>
-      <c r="AD22" s="108"/>
+      <c r="AD22" s="97"/>
       <c r="AE22" s="76"/>
       <c r="AF22" s="76"/>
       <c r="AG22" s="76"/>
       <c r="AH22" s="76"/>
       <c r="AI22" s="76"/>
       <c r="AJ22" s="76"/>
-      <c r="AK22" s="107"/>
+      <c r="AK22" s="94"/>
       <c r="AL22" s="76"/>
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A23" s="89"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="85"/>
-      <c r="D23" s="85"/>
+      <c r="A23" s="103"/>
+      <c r="B23" s="106"/>
+      <c r="C23" s="102"/>
+      <c r="D23" s="102"/>
       <c r="E23" s="2" t="s">
         <v>118</v>
       </c>
@@ -7654,10 +7789,10 @@
         <v>44124</v>
       </c>
       <c r="J23" s="52"/>
-      <c r="K23" s="100">
+      <c r="K23" s="83">
         <v>1</v>
       </c>
-      <c r="L23" s="105"/>
+      <c r="L23" s="88"/>
       <c r="M23" s="76"/>
       <c r="N23" s="76"/>
       <c r="O23" s="76"/>
@@ -7668,28 +7803,28 @@
       <c r="T23" s="76"/>
       <c r="U23" s="76"/>
       <c r="V23" s="76"/>
-      <c r="W23" s="109"/>
+      <c r="W23" s="100"/>
       <c r="X23" s="76"/>
       <c r="Y23" s="76"/>
       <c r="Z23" s="76"/>
       <c r="AA23" s="76"/>
       <c r="AB23" s="76"/>
       <c r="AC23" s="76"/>
-      <c r="AD23" s="108"/>
+      <c r="AD23" s="97"/>
       <c r="AE23" s="76"/>
       <c r="AF23" s="76"/>
       <c r="AG23" s="76"/>
       <c r="AH23" s="76"/>
       <c r="AI23" s="76"/>
       <c r="AJ23" s="76"/>
-      <c r="AK23" s="107"/>
+      <c r="AK23" s="94"/>
       <c r="AL23" s="76"/>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A24" s="89"/>
-      <c r="B24" s="86"/>
-      <c r="C24" s="85"/>
-      <c r="D24" s="85"/>
+      <c r="A24" s="103"/>
+      <c r="B24" s="106"/>
+      <c r="C24" s="102"/>
+      <c r="D24" s="102"/>
       <c r="E24" s="2" t="s">
         <v>109</v>
       </c>
@@ -7706,10 +7841,10 @@
         <v>44134</v>
       </c>
       <c r="J24" s="52"/>
-      <c r="K24" s="100">
+      <c r="K24" s="83">
         <v>0</v>
       </c>
-      <c r="L24" s="105"/>
+      <c r="L24" s="88"/>
       <c r="M24" s="76"/>
       <c r="N24" s="76"/>
       <c r="O24" s="76"/>
@@ -7720,28 +7855,28 @@
       <c r="T24" s="76"/>
       <c r="U24" s="76"/>
       <c r="V24" s="76"/>
-      <c r="W24" s="109"/>
+      <c r="W24" s="100"/>
       <c r="X24" s="76"/>
       <c r="Y24" s="76"/>
       <c r="Z24" s="76"/>
       <c r="AA24" s="76"/>
       <c r="AB24" s="76"/>
       <c r="AC24" s="76"/>
-      <c r="AD24" s="108"/>
+      <c r="AD24" s="97"/>
       <c r="AE24" s="76"/>
       <c r="AF24" s="76"/>
       <c r="AG24" s="76"/>
       <c r="AH24" s="76"/>
       <c r="AI24" s="76"/>
       <c r="AJ24" s="76"/>
-      <c r="AK24" s="107"/>
+      <c r="AK24" s="94"/>
       <c r="AL24" s="76"/>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A25" s="89"/>
-      <c r="B25" s="86"/>
-      <c r="C25" s="85"/>
-      <c r="D25" s="85"/>
+      <c r="A25" s="103"/>
+      <c r="B25" s="106"/>
+      <c r="C25" s="102"/>
+      <c r="D25" s="102"/>
       <c r="E25" s="2" t="s">
         <v>167</v>
       </c>
@@ -7758,10 +7893,10 @@
         <v>44127</v>
       </c>
       <c r="J25" s="52"/>
-      <c r="K25" s="100">
+      <c r="K25" s="83">
         <v>1</v>
       </c>
-      <c r="L25" s="105"/>
+      <c r="L25" s="88"/>
       <c r="M25" s="76"/>
       <c r="N25" s="76"/>
       <c r="O25" s="76"/>
@@ -7772,28 +7907,28 @@
       <c r="T25" s="76"/>
       <c r="U25" s="76"/>
       <c r="V25" s="76"/>
-      <c r="W25" s="109"/>
+      <c r="W25" s="100"/>
       <c r="X25" s="76"/>
       <c r="Y25" s="76"/>
       <c r="Z25" s="76"/>
       <c r="AA25" s="76"/>
       <c r="AB25" s="76"/>
       <c r="AC25" s="76"/>
-      <c r="AD25" s="108"/>
+      <c r="AD25" s="97"/>
       <c r="AE25" s="76"/>
       <c r="AF25" s="76"/>
       <c r="AG25" s="76"/>
       <c r="AH25" s="76"/>
       <c r="AI25" s="76"/>
       <c r="AJ25" s="76"/>
-      <c r="AK25" s="107"/>
+      <c r="AK25" s="94"/>
       <c r="AL25" s="76"/>
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A26" s="89"/>
-      <c r="B26" s="86"/>
-      <c r="C26" s="85"/>
-      <c r="D26" s="85"/>
+      <c r="A26" s="103"/>
+      <c r="B26" s="106"/>
+      <c r="C26" s="102"/>
+      <c r="D26" s="102"/>
       <c r="E26" s="2" t="s">
         <v>106</v>
       </c>
@@ -7810,10 +7945,10 @@
         <v>44125</v>
       </c>
       <c r="J26" s="52"/>
-      <c r="K26" s="100">
+      <c r="K26" s="83">
         <v>1</v>
       </c>
-      <c r="L26" s="105"/>
+      <c r="L26" s="88"/>
       <c r="M26" s="76"/>
       <c r="N26" s="76"/>
       <c r="O26" s="76"/>
@@ -7824,28 +7959,28 @@
       <c r="T26" s="76"/>
       <c r="U26" s="76"/>
       <c r="V26" s="76"/>
-      <c r="W26" s="109"/>
+      <c r="W26" s="100"/>
       <c r="X26" s="76"/>
       <c r="Y26" s="76"/>
       <c r="Z26" s="76"/>
       <c r="AA26" s="76"/>
       <c r="AB26" s="76"/>
       <c r="AC26" s="76"/>
-      <c r="AD26" s="108"/>
+      <c r="AD26" s="97"/>
       <c r="AE26" s="76"/>
       <c r="AF26" s="76"/>
       <c r="AG26" s="76"/>
       <c r="AH26" s="76"/>
       <c r="AI26" s="76"/>
       <c r="AJ26" s="76"/>
-      <c r="AK26" s="107"/>
+      <c r="AK26" s="94"/>
       <c r="AL26" s="76"/>
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A27" s="89"/>
-      <c r="B27" s="86"/>
-      <c r="C27" s="85"/>
-      <c r="D27" s="85"/>
+      <c r="A27" s="103"/>
+      <c r="B27" s="106"/>
+      <c r="C27" s="102"/>
+      <c r="D27" s="102"/>
       <c r="E27" s="2" t="s">
         <v>102</v>
       </c>
@@ -7862,10 +7997,10 @@
         <v>44134</v>
       </c>
       <c r="J27" s="52"/>
-      <c r="K27" s="100">
+      <c r="K27" s="83">
         <v>1</v>
       </c>
-      <c r="L27" s="105"/>
+      <c r="L27" s="88"/>
       <c r="M27" s="76"/>
       <c r="N27" s="76"/>
       <c r="O27" s="76"/>
@@ -7876,28 +8011,28 @@
       <c r="T27" s="76"/>
       <c r="U27" s="76"/>
       <c r="V27" s="76"/>
-      <c r="W27" s="109"/>
+      <c r="W27" s="100"/>
       <c r="X27" s="76"/>
       <c r="Y27" s="76"/>
       <c r="Z27" s="76"/>
       <c r="AA27" s="76"/>
       <c r="AB27" s="76"/>
       <c r="AC27" s="76"/>
-      <c r="AD27" s="108"/>
+      <c r="AD27" s="97"/>
       <c r="AE27" s="76"/>
       <c r="AF27" s="76"/>
       <c r="AG27" s="76"/>
       <c r="AH27" s="76"/>
       <c r="AI27" s="76"/>
       <c r="AJ27" s="76"/>
-      <c r="AK27" s="107"/>
+      <c r="AK27" s="94"/>
       <c r="AL27" s="76"/>
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A28" s="89"/>
-      <c r="B28" s="86"/>
-      <c r="C28" s="85"/>
-      <c r="D28" s="85" t="s">
+      <c r="A28" s="103"/>
+      <c r="B28" s="106"/>
+      <c r="C28" s="102"/>
+      <c r="D28" s="102" t="s">
         <v>25</v>
       </c>
       <c r="E28" s="2" t="s">
@@ -7916,10 +8051,10 @@
         <v>44124</v>
       </c>
       <c r="J28" s="52"/>
-      <c r="K28" s="100">
+      <c r="K28" s="83">
         <v>1</v>
       </c>
-      <c r="L28" s="105"/>
+      <c r="L28" s="88"/>
       <c r="M28" s="76"/>
       <c r="N28" s="76"/>
       <c r="O28" s="76"/>
@@ -7930,28 +8065,28 @@
       <c r="T28" s="76"/>
       <c r="U28" s="76"/>
       <c r="V28" s="76"/>
-      <c r="W28" s="109"/>
+      <c r="W28" s="100"/>
       <c r="X28" s="76"/>
       <c r="Y28" s="76"/>
       <c r="Z28" s="76"/>
       <c r="AA28" s="76"/>
       <c r="AB28" s="76"/>
       <c r="AC28" s="76"/>
-      <c r="AD28" s="108"/>
+      <c r="AD28" s="97"/>
       <c r="AE28" s="76"/>
       <c r="AF28" s="76"/>
       <c r="AG28" s="76"/>
       <c r="AH28" s="76"/>
       <c r="AI28" s="76"/>
       <c r="AJ28" s="76"/>
-      <c r="AK28" s="107"/>
+      <c r="AK28" s="94"/>
       <c r="AL28" s="76"/>
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A29" s="89"/>
-      <c r="B29" s="86"/>
-      <c r="C29" s="85"/>
-      <c r="D29" s="85"/>
+      <c r="A29" s="103"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="102"/>
+      <c r="D29" s="102"/>
       <c r="E29" s="2" t="s">
         <v>119</v>
       </c>
@@ -7968,10 +8103,10 @@
         <v>44124</v>
       </c>
       <c r="J29" s="52"/>
-      <c r="K29" s="100">
+      <c r="K29" s="83">
         <v>1</v>
       </c>
-      <c r="L29" s="105"/>
+      <c r="L29" s="88"/>
       <c r="M29" s="76"/>
       <c r="N29" s="76"/>
       <c r="O29" s="76"/>
@@ -7982,28 +8117,28 @@
       <c r="T29" s="76"/>
       <c r="U29" s="76"/>
       <c r="V29" s="76"/>
-      <c r="W29" s="109"/>
+      <c r="W29" s="100"/>
       <c r="X29" s="76"/>
       <c r="Y29" s="76"/>
       <c r="Z29" s="76"/>
       <c r="AA29" s="76"/>
       <c r="AB29" s="76"/>
       <c r="AC29" s="76"/>
-      <c r="AD29" s="108"/>
+      <c r="AD29" s="97"/>
       <c r="AE29" s="76"/>
       <c r="AF29" s="76"/>
       <c r="AG29" s="76"/>
       <c r="AH29" s="76"/>
       <c r="AI29" s="76"/>
       <c r="AJ29" s="76"/>
-      <c r="AK29" s="107"/>
+      <c r="AK29" s="94"/>
       <c r="AL29" s="76"/>
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A30" s="89"/>
-      <c r="B30" s="86"/>
-      <c r="C30" s="85"/>
-      <c r="D30" s="85" t="s">
+      <c r="A30" s="103"/>
+      <c r="B30" s="106"/>
+      <c r="C30" s="102"/>
+      <c r="D30" s="102" t="s">
         <v>13</v>
       </c>
       <c r="E30" s="2" t="s">
@@ -8020,10 +8155,10 @@
       </c>
       <c r="I30" s="31"/>
       <c r="J30" s="52"/>
-      <c r="K30" s="100">
+      <c r="K30" s="83">
         <v>0</v>
       </c>
-      <c r="L30" s="105"/>
+      <c r="L30" s="88"/>
       <c r="M30" s="76"/>
       <c r="N30" s="76"/>
       <c r="O30" s="76"/>
@@ -8034,28 +8169,28 @@
       <c r="T30" s="76"/>
       <c r="U30" s="76"/>
       <c r="V30" s="76"/>
-      <c r="W30" s="109"/>
+      <c r="W30" s="100"/>
       <c r="X30" s="76"/>
       <c r="Y30" s="76"/>
       <c r="Z30" s="76"/>
       <c r="AA30" s="76"/>
       <c r="AB30" s="76"/>
       <c r="AC30" s="76"/>
-      <c r="AD30" s="108"/>
+      <c r="AD30" s="97"/>
       <c r="AE30" s="76"/>
       <c r="AF30" s="76"/>
       <c r="AG30" s="76"/>
       <c r="AH30" s="76"/>
       <c r="AI30" s="76"/>
       <c r="AJ30" s="76"/>
-      <c r="AK30" s="107"/>
+      <c r="AK30" s="94"/>
       <c r="AL30" s="76"/>
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A31" s="89"/>
-      <c r="B31" s="86"/>
-      <c r="C31" s="85"/>
-      <c r="D31" s="85"/>
+      <c r="A31" s="103"/>
+      <c r="B31" s="106"/>
+      <c r="C31" s="102"/>
+      <c r="D31" s="102"/>
       <c r="E31" s="2" t="s">
         <v>143</v>
       </c>
@@ -8066,10 +8201,10 @@
       <c r="H31" s="31"/>
       <c r="I31" s="31"/>
       <c r="J31" s="52"/>
-      <c r="K31" s="100">
+      <c r="K31" s="83">
         <v>0</v>
       </c>
-      <c r="L31" s="105"/>
+      <c r="L31" s="88"/>
       <c r="M31" s="76"/>
       <c r="N31" s="76"/>
       <c r="O31" s="76"/>
@@ -8080,28 +8215,28 @@
       <c r="T31" s="76"/>
       <c r="U31" s="76"/>
       <c r="V31" s="76"/>
-      <c r="W31" s="109"/>
+      <c r="W31" s="100"/>
       <c r="X31" s="76"/>
       <c r="Y31" s="76"/>
       <c r="Z31" s="76"/>
       <c r="AA31" s="76"/>
       <c r="AB31" s="76"/>
       <c r="AC31" s="76"/>
-      <c r="AD31" s="108"/>
+      <c r="AD31" s="97"/>
       <c r="AE31" s="76"/>
       <c r="AF31" s="76"/>
       <c r="AG31" s="76"/>
       <c r="AH31" s="76"/>
       <c r="AI31" s="76"/>
       <c r="AJ31" s="76"/>
-      <c r="AK31" s="107"/>
+      <c r="AK31" s="94"/>
       <c r="AL31" s="76"/>
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A32" s="89"/>
-      <c r="B32" s="86"/>
-      <c r="C32" s="85"/>
-      <c r="D32" s="85"/>
+      <c r="A32" s="103"/>
+      <c r="B32" s="106"/>
+      <c r="C32" s="102"/>
+      <c r="D32" s="102"/>
       <c r="E32" s="2" t="s">
         <v>113</v>
       </c>
@@ -8118,10 +8253,10 @@
         <v>44124</v>
       </c>
       <c r="J32" s="52"/>
-      <c r="K32" s="100">
+      <c r="K32" s="83">
         <v>1</v>
       </c>
-      <c r="L32" s="105"/>
+      <c r="L32" s="88"/>
       <c r="M32" s="76"/>
       <c r="N32" s="76"/>
       <c r="O32" s="76"/>
@@ -8132,28 +8267,28 @@
       <c r="T32" s="76"/>
       <c r="U32" s="76"/>
       <c r="V32" s="76"/>
-      <c r="W32" s="109"/>
+      <c r="W32" s="100"/>
       <c r="X32" s="76"/>
       <c r="Y32" s="76"/>
       <c r="Z32" s="76"/>
       <c r="AA32" s="76"/>
       <c r="AB32" s="76"/>
       <c r="AC32" s="76"/>
-      <c r="AD32" s="108"/>
+      <c r="AD32" s="97"/>
       <c r="AE32" s="76"/>
       <c r="AF32" s="76"/>
       <c r="AG32" s="76"/>
       <c r="AH32" s="76"/>
       <c r="AI32" s="76"/>
       <c r="AJ32" s="76"/>
-      <c r="AK32" s="107"/>
+      <c r="AK32" s="94"/>
       <c r="AL32" s="76"/>
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A33" s="89"/>
-      <c r="B33" s="86"/>
-      <c r="C33" s="85"/>
-      <c r="D33" s="82" t="s">
+      <c r="A33" s="103"/>
+      <c r="B33" s="106"/>
+      <c r="C33" s="102"/>
+      <c r="D33" s="90" t="s">
         <v>90</v>
       </c>
       <c r="E33" s="2" t="s">
@@ -8172,10 +8307,10 @@
         <v>44128</v>
       </c>
       <c r="J33" s="52"/>
-      <c r="K33" s="100">
+      <c r="K33" s="83">
         <v>1</v>
       </c>
-      <c r="L33" s="105"/>
+      <c r="L33" s="88"/>
       <c r="M33" s="76"/>
       <c r="N33" s="76"/>
       <c r="O33" s="76"/>
@@ -8186,28 +8321,28 @@
       <c r="T33" s="76"/>
       <c r="U33" s="76"/>
       <c r="V33" s="76"/>
-      <c r="W33" s="109"/>
+      <c r="W33" s="100"/>
       <c r="X33" s="76"/>
       <c r="Y33" s="76"/>
       <c r="Z33" s="76"/>
       <c r="AA33" s="76"/>
       <c r="AB33" s="76"/>
       <c r="AC33" s="76"/>
-      <c r="AD33" s="108"/>
+      <c r="AD33" s="97"/>
       <c r="AE33" s="76"/>
       <c r="AF33" s="76"/>
       <c r="AG33" s="76"/>
       <c r="AH33" s="76"/>
       <c r="AI33" s="76"/>
       <c r="AJ33" s="76"/>
-      <c r="AK33" s="107"/>
+      <c r="AK33" s="94"/>
       <c r="AL33" s="76"/>
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A34" s="89"/>
-      <c r="B34" s="86"/>
-      <c r="C34" s="85"/>
-      <c r="D34" s="92"/>
+      <c r="A34" s="103"/>
+      <c r="B34" s="106"/>
+      <c r="C34" s="102"/>
+      <c r="D34" s="91"/>
       <c r="E34" s="2" t="s">
         <v>141</v>
       </c>
@@ -8224,10 +8359,10 @@
         <v>44126</v>
       </c>
       <c r="J34" s="52"/>
-      <c r="K34" s="100">
+      <c r="K34" s="83">
         <v>1</v>
       </c>
-      <c r="L34" s="105"/>
+      <c r="L34" s="88"/>
       <c r="M34" s="76"/>
       <c r="N34" s="76"/>
       <c r="O34" s="76"/>
@@ -8238,28 +8373,28 @@
       <c r="T34" s="76"/>
       <c r="U34" s="76"/>
       <c r="V34" s="76"/>
-      <c r="W34" s="109"/>
+      <c r="W34" s="100"/>
       <c r="X34" s="76"/>
       <c r="Y34" s="76"/>
       <c r="Z34" s="76"/>
       <c r="AA34" s="76"/>
       <c r="AB34" s="76"/>
       <c r="AC34" s="76"/>
-      <c r="AD34" s="108"/>
+      <c r="AD34" s="97"/>
       <c r="AE34" s="76"/>
       <c r="AF34" s="76"/>
       <c r="AG34" s="76"/>
       <c r="AH34" s="76"/>
       <c r="AI34" s="76"/>
       <c r="AJ34" s="76"/>
-      <c r="AK34" s="107"/>
+      <c r="AK34" s="94"/>
       <c r="AL34" s="76"/>
     </row>
     <row r="35" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A35" s="89"/>
-      <c r="B35" s="86"/>
-      <c r="C35" s="85"/>
-      <c r="D35" s="92"/>
+      <c r="A35" s="103"/>
+      <c r="B35" s="106"/>
+      <c r="C35" s="102"/>
+      <c r="D35" s="91"/>
       <c r="E35" s="2" t="s">
         <v>103</v>
       </c>
@@ -8276,10 +8411,10 @@
         <v>44128</v>
       </c>
       <c r="J35" s="52"/>
-      <c r="K35" s="100">
+      <c r="K35" s="83">
         <v>1</v>
       </c>
-      <c r="L35" s="105"/>
+      <c r="L35" s="88"/>
       <c r="M35" s="76"/>
       <c r="N35" s="76"/>
       <c r="O35" s="76"/>
@@ -8290,28 +8425,28 @@
       <c r="T35" s="76"/>
       <c r="U35" s="76"/>
       <c r="V35" s="76"/>
-      <c r="W35" s="109"/>
+      <c r="W35" s="100"/>
       <c r="X35" s="76"/>
       <c r="Y35" s="76"/>
       <c r="Z35" s="76"/>
       <c r="AA35" s="76"/>
       <c r="AB35" s="76"/>
       <c r="AC35" s="76"/>
-      <c r="AD35" s="108"/>
+      <c r="AD35" s="97"/>
       <c r="AE35" s="76"/>
       <c r="AF35" s="76"/>
       <c r="AG35" s="76"/>
       <c r="AH35" s="76"/>
       <c r="AI35" s="76"/>
       <c r="AJ35" s="76"/>
-      <c r="AK35" s="107"/>
+      <c r="AK35" s="94"/>
       <c r="AL35" s="76"/>
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A36" s="89"/>
-      <c r="B36" s="86"/>
-      <c r="C36" s="85"/>
-      <c r="D36" s="92"/>
+      <c r="A36" s="103"/>
+      <c r="B36" s="106"/>
+      <c r="C36" s="102"/>
+      <c r="D36" s="91"/>
       <c r="E36" s="2" t="s">
         <v>224</v>
       </c>
@@ -8322,8 +8457,8 @@
       <c r="H36" s="31"/>
       <c r="I36" s="31"/>
       <c r="J36" s="52"/>
-      <c r="K36" s="100"/>
-      <c r="L36" s="105"/>
+      <c r="K36" s="83"/>
+      <c r="L36" s="88"/>
       <c r="M36" s="76"/>
       <c r="N36" s="76"/>
       <c r="O36" s="76"/>
@@ -8334,28 +8469,28 @@
       <c r="T36" s="76"/>
       <c r="U36" s="76"/>
       <c r="V36" s="76"/>
-      <c r="W36" s="109"/>
+      <c r="W36" s="100"/>
       <c r="X36" s="76"/>
       <c r="Y36" s="76"/>
       <c r="Z36" s="76"/>
       <c r="AA36" s="76"/>
       <c r="AB36" s="76"/>
       <c r="AC36" s="76"/>
-      <c r="AD36" s="108"/>
+      <c r="AD36" s="97"/>
       <c r="AE36" s="76"/>
       <c r="AF36" s="76"/>
       <c r="AG36" s="76"/>
       <c r="AH36" s="76"/>
       <c r="AI36" s="76"/>
       <c r="AJ36" s="76"/>
-      <c r="AK36" s="107"/>
+      <c r="AK36" s="94"/>
       <c r="AL36" s="76"/>
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A37" s="89"/>
-      <c r="B37" s="86"/>
-      <c r="C37" s="85"/>
-      <c r="D37" s="92"/>
+      <c r="A37" s="103"/>
+      <c r="B37" s="106"/>
+      <c r="C37" s="102"/>
+      <c r="D37" s="91"/>
       <c r="E37" s="2" t="s">
         <v>251</v>
       </c>
@@ -8366,8 +8501,8 @@
       <c r="H37" s="31"/>
       <c r="I37" s="31"/>
       <c r="J37" s="52"/>
-      <c r="K37" s="100"/>
-      <c r="L37" s="105"/>
+      <c r="K37" s="83"/>
+      <c r="L37" s="88"/>
       <c r="M37" s="76"/>
       <c r="N37" s="76"/>
       <c r="O37" s="76"/>
@@ -8378,28 +8513,28 @@
       <c r="T37" s="76"/>
       <c r="U37" s="76"/>
       <c r="V37" s="76"/>
-      <c r="W37" s="109"/>
+      <c r="W37" s="100"/>
       <c r="X37" s="76"/>
       <c r="Y37" s="76"/>
       <c r="Z37" s="76"/>
       <c r="AA37" s="76"/>
       <c r="AB37" s="76"/>
       <c r="AC37" s="76"/>
-      <c r="AD37" s="108"/>
+      <c r="AD37" s="97"/>
       <c r="AE37" s="76"/>
       <c r="AF37" s="76"/>
       <c r="AG37" s="76"/>
       <c r="AH37" s="76"/>
       <c r="AI37" s="76"/>
       <c r="AJ37" s="76"/>
-      <c r="AK37" s="107"/>
+      <c r="AK37" s="94"/>
       <c r="AL37" s="76"/>
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A38" s="89"/>
-      <c r="B38" s="86"/>
-      <c r="C38" s="85"/>
-      <c r="D38" s="83"/>
+      <c r="A38" s="103"/>
+      <c r="B38" s="106"/>
+      <c r="C38" s="102"/>
+      <c r="D38" s="92"/>
       <c r="E38" s="2" t="s">
         <v>253</v>
       </c>
@@ -8410,8 +8545,8 @@
       <c r="H38" s="31"/>
       <c r="I38" s="31"/>
       <c r="J38" s="52"/>
-      <c r="K38" s="100"/>
-      <c r="L38" s="105"/>
+      <c r="K38" s="83"/>
+      <c r="L38" s="88"/>
       <c r="M38" s="76"/>
       <c r="N38" s="76"/>
       <c r="O38" s="76"/>
@@ -8422,27 +8557,27 @@
       <c r="T38" s="76"/>
       <c r="U38" s="76"/>
       <c r="V38" s="76"/>
-      <c r="W38" s="109"/>
+      <c r="W38" s="100"/>
       <c r="X38" s="76"/>
       <c r="Y38" s="76"/>
       <c r="Z38" s="76"/>
       <c r="AA38" s="76"/>
       <c r="AB38" s="76"/>
       <c r="AC38" s="76"/>
-      <c r="AD38" s="108"/>
+      <c r="AD38" s="97"/>
       <c r="AE38" s="76"/>
       <c r="AF38" s="76"/>
       <c r="AG38" s="76"/>
       <c r="AH38" s="76"/>
       <c r="AI38" s="76"/>
       <c r="AJ38" s="76"/>
-      <c r="AK38" s="107"/>
+      <c r="AK38" s="94"/>
       <c r="AL38" s="76"/>
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A39" s="89"/>
-      <c r="B39" s="86"/>
-      <c r="C39" s="85"/>
+      <c r="A39" s="103"/>
+      <c r="B39" s="106"/>
+      <c r="C39" s="102"/>
       <c r="D39" s="2" t="s">
         <v>24</v>
       </c>
@@ -8456,10 +8591,10 @@
       <c r="H39" s="31"/>
       <c r="I39" s="31"/>
       <c r="J39" s="52"/>
-      <c r="K39" s="100">
+      <c r="K39" s="83">
         <v>0</v>
       </c>
-      <c r="L39" s="105"/>
+      <c r="L39" s="88"/>
       <c r="M39" s="76"/>
       <c r="N39" s="76"/>
       <c r="O39" s="76"/>
@@ -8470,27 +8605,27 @@
       <c r="T39" s="76"/>
       <c r="U39" s="76"/>
       <c r="V39" s="76"/>
-      <c r="W39" s="109"/>
+      <c r="W39" s="100"/>
       <c r="X39" s="76"/>
       <c r="Y39" s="76"/>
       <c r="Z39" s="76"/>
       <c r="AA39" s="76"/>
       <c r="AB39" s="76"/>
       <c r="AC39" s="76"/>
-      <c r="AD39" s="108"/>
+      <c r="AD39" s="97"/>
       <c r="AE39" s="76"/>
       <c r="AF39" s="76"/>
       <c r="AG39" s="76"/>
       <c r="AH39" s="76"/>
       <c r="AI39" s="76"/>
       <c r="AJ39" s="76"/>
-      <c r="AK39" s="107"/>
+      <c r="AK39" s="94"/>
       <c r="AL39" s="76"/>
     </row>
     <row r="40" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A40" s="89"/>
-      <c r="B40" s="86"/>
-      <c r="C40" s="85"/>
+      <c r="A40" s="103"/>
+      <c r="B40" s="106"/>
+      <c r="C40" s="102"/>
       <c r="D40" s="2" t="s">
         <v>144</v>
       </c>
@@ -8510,10 +8645,10 @@
         <v>44126</v>
       </c>
       <c r="J40" s="52"/>
-      <c r="K40" s="100">
+      <c r="K40" s="83">
         <v>1</v>
       </c>
-      <c r="L40" s="105"/>
+      <c r="L40" s="88"/>
       <c r="M40" s="76"/>
       <c r="N40" s="76"/>
       <c r="O40" s="76"/>
@@ -8524,27 +8659,27 @@
       <c r="T40" s="76"/>
       <c r="U40" s="76"/>
       <c r="V40" s="76"/>
-      <c r="W40" s="109"/>
+      <c r="W40" s="100"/>
       <c r="X40" s="76"/>
       <c r="Y40" s="76"/>
       <c r="Z40" s="76"/>
       <c r="AA40" s="76"/>
       <c r="AB40" s="76"/>
       <c r="AC40" s="76"/>
-      <c r="AD40" s="108"/>
+      <c r="AD40" s="97"/>
       <c r="AE40" s="76"/>
       <c r="AF40" s="76"/>
       <c r="AG40" s="76"/>
       <c r="AH40" s="76"/>
       <c r="AI40" s="76"/>
       <c r="AJ40" s="76"/>
-      <c r="AK40" s="107"/>
+      <c r="AK40" s="94"/>
       <c r="AL40" s="76"/>
     </row>
     <row r="41" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A41" s="89"/>
-      <c r="B41" s="86"/>
-      <c r="C41" s="85"/>
+      <c r="A41" s="103"/>
+      <c r="B41" s="106"/>
+      <c r="C41" s="102"/>
       <c r="D41" s="2" t="s">
         <v>94</v>
       </c>
@@ -8554,10 +8689,10 @@
       <c r="H41" s="31"/>
       <c r="I41" s="31"/>
       <c r="J41" s="52"/>
-      <c r="K41" s="100">
+      <c r="K41" s="83">
         <v>0</v>
       </c>
-      <c r="L41" s="105"/>
+      <c r="L41" s="88"/>
       <c r="M41" s="76"/>
       <c r="N41" s="76"/>
       <c r="O41" s="76"/>
@@ -8568,27 +8703,27 @@
       <c r="T41" s="76"/>
       <c r="U41" s="76"/>
       <c r="V41" s="76"/>
-      <c r="W41" s="109"/>
+      <c r="W41" s="100"/>
       <c r="X41" s="76"/>
       <c r="Y41" s="76"/>
       <c r="Z41" s="76"/>
       <c r="AA41" s="76"/>
       <c r="AB41" s="76"/>
       <c r="AC41" s="76"/>
-      <c r="AD41" s="108"/>
+      <c r="AD41" s="97"/>
       <c r="AE41" s="76"/>
       <c r="AF41" s="76"/>
       <c r="AG41" s="76"/>
       <c r="AH41" s="76"/>
       <c r="AI41" s="76"/>
       <c r="AJ41" s="76"/>
-      <c r="AK41" s="107"/>
+      <c r="AK41" s="94"/>
       <c r="AL41" s="76"/>
     </row>
     <row r="42" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A42" s="89"/>
-      <c r="B42" s="86"/>
-      <c r="C42" s="85"/>
+      <c r="A42" s="103"/>
+      <c r="B42" s="106"/>
+      <c r="C42" s="102"/>
       <c r="D42" s="2" t="s">
         <v>23</v>
       </c>
@@ -8598,10 +8733,10 @@
       <c r="H42" s="31"/>
       <c r="I42" s="31"/>
       <c r="J42" s="52"/>
-      <c r="K42" s="100">
+      <c r="K42" s="83">
         <v>0</v>
       </c>
-      <c r="L42" s="105"/>
+      <c r="L42" s="88"/>
       <c r="M42" s="76"/>
       <c r="N42" s="76"/>
       <c r="O42" s="76"/>
@@ -8612,27 +8747,27 @@
       <c r="T42" s="76"/>
       <c r="U42" s="76"/>
       <c r="V42" s="76"/>
-      <c r="W42" s="109"/>
+      <c r="W42" s="100"/>
       <c r="X42" s="76"/>
       <c r="Y42" s="76"/>
       <c r="Z42" s="76"/>
       <c r="AA42" s="76"/>
       <c r="AB42" s="76"/>
       <c r="AC42" s="76"/>
-      <c r="AD42" s="108"/>
+      <c r="AD42" s="97"/>
       <c r="AE42" s="76"/>
       <c r="AF42" s="76"/>
       <c r="AG42" s="76"/>
       <c r="AH42" s="76"/>
       <c r="AI42" s="76"/>
       <c r="AJ42" s="76"/>
-      <c r="AK42" s="107"/>
+      <c r="AK42" s="94"/>
       <c r="AL42" s="76"/>
     </row>
     <row r="43" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A43" s="89"/>
-      <c r="B43" s="86"/>
-      <c r="C43" s="85"/>
+      <c r="A43" s="103"/>
+      <c r="B43" s="106"/>
+      <c r="C43" s="102"/>
       <c r="D43" s="34" t="s">
         <v>27</v>
       </c>
@@ -8642,10 +8777,10 @@
       <c r="H43" s="31"/>
       <c r="I43" s="31"/>
       <c r="J43" s="52"/>
-      <c r="K43" s="100">
+      <c r="K43" s="83">
         <v>0</v>
       </c>
-      <c r="L43" s="105"/>
+      <c r="L43" s="88"/>
       <c r="M43" s="76"/>
       <c r="N43" s="76"/>
       <c r="O43" s="76"/>
@@ -8656,27 +8791,27 @@
       <c r="T43" s="76"/>
       <c r="U43" s="76"/>
       <c r="V43" s="76"/>
-      <c r="W43" s="109"/>
+      <c r="W43" s="100"/>
       <c r="X43" s="76"/>
       <c r="Y43" s="76"/>
       <c r="Z43" s="76"/>
       <c r="AA43" s="76"/>
       <c r="AB43" s="76"/>
       <c r="AC43" s="76"/>
-      <c r="AD43" s="108"/>
+      <c r="AD43" s="97"/>
       <c r="AE43" s="76"/>
       <c r="AF43" s="76"/>
       <c r="AG43" s="76"/>
       <c r="AH43" s="76"/>
       <c r="AI43" s="76"/>
       <c r="AJ43" s="76"/>
-      <c r="AK43" s="107"/>
+      <c r="AK43" s="94"/>
       <c r="AL43" s="76"/>
     </row>
     <row r="44" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A44" s="89"/>
-      <c r="B44" s="86"/>
-      <c r="C44" s="85"/>
+      <c r="A44" s="103"/>
+      <c r="B44" s="106"/>
+      <c r="C44" s="102"/>
       <c r="D44" s="33" t="s">
         <v>45</v>
       </c>
@@ -8686,10 +8821,10 @@
       <c r="H44" s="31"/>
       <c r="I44" s="31"/>
       <c r="J44" s="52"/>
-      <c r="K44" s="100">
+      <c r="K44" s="83">
         <v>0</v>
       </c>
-      <c r="L44" s="105"/>
+      <c r="L44" s="88"/>
       <c r="M44" s="76"/>
       <c r="N44" s="76"/>
       <c r="O44" s="76"/>
@@ -8700,27 +8835,27 @@
       <c r="T44" s="76"/>
       <c r="U44" s="76"/>
       <c r="V44" s="76"/>
-      <c r="W44" s="109"/>
+      <c r="W44" s="100"/>
       <c r="X44" s="76"/>
       <c r="Y44" s="76"/>
       <c r="Z44" s="76"/>
       <c r="AA44" s="76"/>
       <c r="AB44" s="76"/>
       <c r="AC44" s="76"/>
-      <c r="AD44" s="108"/>
+      <c r="AD44" s="97"/>
       <c r="AE44" s="76"/>
       <c r="AF44" s="76"/>
       <c r="AG44" s="76"/>
       <c r="AH44" s="76"/>
       <c r="AI44" s="76"/>
       <c r="AJ44" s="76"/>
-      <c r="AK44" s="107"/>
+      <c r="AK44" s="94"/>
       <c r="AL44" s="76"/>
     </row>
     <row r="45" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A45" s="89"/>
-      <c r="B45" s="86"/>
-      <c r="C45" s="85"/>
+      <c r="A45" s="103"/>
+      <c r="B45" s="106"/>
+      <c r="C45" s="102"/>
       <c r="D45" s="2" t="s">
         <v>26</v>
       </c>
@@ -8730,10 +8865,10 @@
       <c r="H45" s="31"/>
       <c r="I45" s="31"/>
       <c r="J45" s="52"/>
-      <c r="K45" s="100">
+      <c r="K45" s="83">
         <v>0</v>
       </c>
-      <c r="L45" s="105"/>
+      <c r="L45" s="88"/>
       <c r="M45" s="76"/>
       <c r="N45" s="76"/>
       <c r="O45" s="76"/>
@@ -8744,27 +8879,27 @@
       <c r="T45" s="76"/>
       <c r="U45" s="76"/>
       <c r="V45" s="76"/>
-      <c r="W45" s="109"/>
+      <c r="W45" s="100"/>
       <c r="X45" s="76"/>
       <c r="Y45" s="76"/>
       <c r="Z45" s="76"/>
       <c r="AA45" s="76"/>
       <c r="AB45" s="76"/>
       <c r="AC45" s="76"/>
-      <c r="AD45" s="108"/>
+      <c r="AD45" s="97"/>
       <c r="AE45" s="76"/>
       <c r="AF45" s="76"/>
       <c r="AG45" s="76"/>
       <c r="AH45" s="76"/>
       <c r="AI45" s="76"/>
       <c r="AJ45" s="76"/>
-      <c r="AK45" s="107"/>
+      <c r="AK45" s="94"/>
       <c r="AL45" s="76"/>
     </row>
     <row r="46" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A46" s="89"/>
-      <c r="B46" s="86"/>
-      <c r="C46" s="85" t="s">
+      <c r="A46" s="103"/>
+      <c r="B46" s="106"/>
+      <c r="C46" s="102" t="s">
         <v>42</v>
       </c>
       <c r="D46" s="35" t="s">
@@ -8776,10 +8911,10 @@
       <c r="H46" s="31"/>
       <c r="I46" s="31"/>
       <c r="J46" s="52"/>
-      <c r="K46" s="100">
+      <c r="K46" s="83">
         <v>0</v>
       </c>
-      <c r="L46" s="105"/>
+      <c r="L46" s="88"/>
       <c r="M46" s="76"/>
       <c r="N46" s="76"/>
       <c r="O46" s="76"/>
@@ -8790,27 +8925,27 @@
       <c r="T46" s="76"/>
       <c r="U46" s="76"/>
       <c r="V46" s="76"/>
-      <c r="W46" s="109"/>
+      <c r="W46" s="100"/>
       <c r="X46" s="76"/>
       <c r="Y46" s="76"/>
       <c r="Z46" s="76"/>
       <c r="AA46" s="76"/>
       <c r="AB46" s="76"/>
       <c r="AC46" s="76"/>
-      <c r="AD46" s="108"/>
+      <c r="AD46" s="97"/>
       <c r="AE46" s="76"/>
       <c r="AF46" s="76"/>
       <c r="AG46" s="76"/>
       <c r="AH46" s="76"/>
       <c r="AI46" s="76"/>
       <c r="AJ46" s="76"/>
-      <c r="AK46" s="107"/>
+      <c r="AK46" s="94"/>
       <c r="AL46" s="76"/>
     </row>
     <row r="47" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A47" s="89"/>
-      <c r="B47" s="86"/>
-      <c r="C47" s="85"/>
+      <c r="A47" s="103"/>
+      <c r="B47" s="106"/>
+      <c r="C47" s="102"/>
       <c r="D47" s="2" t="s">
         <v>26</v>
       </c>
@@ -8820,10 +8955,10 @@
       <c r="H47" s="31"/>
       <c r="I47" s="31"/>
       <c r="J47" s="52"/>
-      <c r="K47" s="100">
+      <c r="K47" s="83">
         <v>0</v>
       </c>
-      <c r="L47" s="105"/>
+      <c r="L47" s="88"/>
       <c r="M47" s="76"/>
       <c r="N47" s="76"/>
       <c r="O47" s="76"/>
@@ -8834,27 +8969,27 @@
       <c r="T47" s="76"/>
       <c r="U47" s="76"/>
       <c r="V47" s="76"/>
-      <c r="W47" s="109"/>
+      <c r="W47" s="100"/>
       <c r="X47" s="76"/>
       <c r="Y47" s="76"/>
       <c r="Z47" s="76"/>
       <c r="AA47" s="76"/>
       <c r="AB47" s="76"/>
       <c r="AC47" s="76"/>
-      <c r="AD47" s="108"/>
+      <c r="AD47" s="97"/>
       <c r="AE47" s="76"/>
       <c r="AF47" s="76"/>
       <c r="AG47" s="76"/>
       <c r="AH47" s="76"/>
       <c r="AI47" s="76"/>
       <c r="AJ47" s="76"/>
-      <c r="AK47" s="107"/>
+      <c r="AK47" s="94"/>
       <c r="AL47" s="76"/>
     </row>
     <row r="48" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A48" s="89"/>
-      <c r="B48" s="86"/>
-      <c r="C48" s="85" t="s">
+      <c r="A48" s="103"/>
+      <c r="B48" s="106"/>
+      <c r="C48" s="102" t="s">
         <v>43</v>
       </c>
       <c r="D48" s="33" t="s">
@@ -8866,10 +9001,10 @@
       <c r="H48" s="31"/>
       <c r="I48" s="31"/>
       <c r="J48" s="52"/>
-      <c r="K48" s="100">
+      <c r="K48" s="83">
         <v>0</v>
       </c>
-      <c r="L48" s="105"/>
+      <c r="L48" s="88"/>
       <c r="M48" s="76"/>
       <c r="N48" s="76"/>
       <c r="O48" s="76"/>
@@ -8880,27 +9015,27 @@
       <c r="T48" s="76"/>
       <c r="U48" s="76"/>
       <c r="V48" s="76"/>
-      <c r="W48" s="109"/>
+      <c r="W48" s="100"/>
       <c r="X48" s="76"/>
       <c r="Y48" s="76"/>
       <c r="Z48" s="76"/>
       <c r="AA48" s="76"/>
       <c r="AB48" s="76"/>
       <c r="AC48" s="76"/>
-      <c r="AD48" s="108"/>
+      <c r="AD48" s="97"/>
       <c r="AE48" s="76"/>
       <c r="AF48" s="76"/>
       <c r="AG48" s="76"/>
       <c r="AH48" s="76"/>
       <c r="AI48" s="76"/>
       <c r="AJ48" s="76"/>
-      <c r="AK48" s="107"/>
+      <c r="AK48" s="94"/>
       <c r="AL48" s="76"/>
     </row>
     <row r="49" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A49" s="89"/>
-      <c r="B49" s="86"/>
-      <c r="C49" s="85"/>
+      <c r="A49" s="103"/>
+      <c r="B49" s="106"/>
+      <c r="C49" s="102"/>
       <c r="D49" s="2" t="s">
         <v>26</v>
       </c>
@@ -8910,10 +9045,10 @@
       <c r="H49" s="31"/>
       <c r="I49" s="31"/>
       <c r="J49" s="52"/>
-      <c r="K49" s="100">
+      <c r="K49" s="83">
         <v>0</v>
       </c>
-      <c r="L49" s="105"/>
+      <c r="L49" s="88"/>
       <c r="M49" s="76"/>
       <c r="N49" s="76"/>
       <c r="O49" s="76"/>
@@ -8924,27 +9059,27 @@
       <c r="T49" s="76"/>
       <c r="U49" s="76"/>
       <c r="V49" s="76"/>
-      <c r="W49" s="109"/>
+      <c r="W49" s="100"/>
       <c r="X49" s="76"/>
       <c r="Y49" s="76"/>
       <c r="Z49" s="76"/>
       <c r="AA49" s="76"/>
       <c r="AB49" s="76"/>
       <c r="AC49" s="76"/>
-      <c r="AD49" s="108"/>
+      <c r="AD49" s="97"/>
       <c r="AE49" s="76"/>
       <c r="AF49" s="76"/>
       <c r="AG49" s="76"/>
       <c r="AH49" s="76"/>
       <c r="AI49" s="76"/>
       <c r="AJ49" s="76"/>
-      <c r="AK49" s="107"/>
+      <c r="AK49" s="94"/>
       <c r="AL49" s="76"/>
     </row>
     <row r="50" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A50" s="89"/>
-      <c r="B50" s="86"/>
-      <c r="C50" s="85"/>
+      <c r="A50" s="103"/>
+      <c r="B50" s="106"/>
+      <c r="C50" s="102"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="19"/>
@@ -8952,10 +9087,10 @@
       <c r="H50" s="31"/>
       <c r="I50" s="31"/>
       <c r="J50" s="52"/>
-      <c r="K50" s="100">
+      <c r="K50" s="83">
         <v>0</v>
       </c>
-      <c r="L50" s="105"/>
+      <c r="L50" s="88"/>
       <c r="M50" s="76"/>
       <c r="N50" s="76"/>
       <c r="O50" s="76"/>
@@ -8966,27 +9101,27 @@
       <c r="T50" s="76"/>
       <c r="U50" s="76"/>
       <c r="V50" s="76"/>
-      <c r="W50" s="109"/>
+      <c r="W50" s="100"/>
       <c r="X50" s="76"/>
       <c r="Y50" s="76"/>
       <c r="Z50" s="76"/>
       <c r="AA50" s="76"/>
       <c r="AB50" s="76"/>
       <c r="AC50" s="76"/>
-      <c r="AD50" s="108"/>
+      <c r="AD50" s="97"/>
       <c r="AE50" s="76"/>
       <c r="AF50" s="76"/>
       <c r="AG50" s="76"/>
       <c r="AH50" s="76"/>
       <c r="AI50" s="76"/>
       <c r="AJ50" s="76"/>
-      <c r="AK50" s="107"/>
+      <c r="AK50" s="94"/>
       <c r="AL50" s="76"/>
     </row>
     <row r="51" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A51" s="89"/>
-      <c r="B51" s="86"/>
-      <c r="C51" s="85" t="s">
+      <c r="A51" s="103"/>
+      <c r="B51" s="106"/>
+      <c r="C51" s="102" t="s">
         <v>17</v>
       </c>
       <c r="D51" s="2" t="s">
@@ -8998,10 +9133,10 @@
       <c r="H51" s="31"/>
       <c r="I51" s="31"/>
       <c r="J51" s="52"/>
-      <c r="K51" s="100">
+      <c r="K51" s="83">
         <v>0</v>
       </c>
-      <c r="L51" s="105"/>
+      <c r="L51" s="88"/>
       <c r="M51" s="76"/>
       <c r="N51" s="76"/>
       <c r="O51" s="76"/>
@@ -9012,27 +9147,27 @@
       <c r="T51" s="76"/>
       <c r="U51" s="76"/>
       <c r="V51" s="76"/>
-      <c r="W51" s="109"/>
+      <c r="W51" s="100"/>
       <c r="X51" s="76"/>
       <c r="Y51" s="76"/>
       <c r="Z51" s="76"/>
       <c r="AA51" s="76"/>
       <c r="AB51" s="76"/>
       <c r="AC51" s="76"/>
-      <c r="AD51" s="108"/>
+      <c r="AD51" s="97"/>
       <c r="AE51" s="76"/>
       <c r="AF51" s="76"/>
       <c r="AG51" s="76"/>
       <c r="AH51" s="76"/>
       <c r="AI51" s="76"/>
       <c r="AJ51" s="76"/>
-      <c r="AK51" s="107"/>
+      <c r="AK51" s="94"/>
       <c r="AL51" s="76"/>
     </row>
     <row r="52" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A52" s="89"/>
-      <c r="B52" s="86"/>
-      <c r="C52" s="85"/>
+      <c r="A52" s="103"/>
+      <c r="B52" s="106"/>
+      <c r="C52" s="102"/>
       <c r="D52" s="2" t="s">
         <v>36</v>
       </c>
@@ -9042,10 +9177,10 @@
       <c r="H52" s="31"/>
       <c r="I52" s="31"/>
       <c r="J52" s="52"/>
-      <c r="K52" s="100">
+      <c r="K52" s="83">
         <v>0</v>
       </c>
-      <c r="L52" s="105"/>
+      <c r="L52" s="88"/>
       <c r="M52" s="76"/>
       <c r="N52" s="76"/>
       <c r="O52" s="76"/>
@@ -9056,27 +9191,27 @@
       <c r="T52" s="76"/>
       <c r="U52" s="76"/>
       <c r="V52" s="76"/>
-      <c r="W52" s="109"/>
+      <c r="W52" s="100"/>
       <c r="X52" s="76"/>
       <c r="Y52" s="76"/>
       <c r="Z52" s="76"/>
       <c r="AA52" s="76"/>
       <c r="AB52" s="76"/>
       <c r="AC52" s="76"/>
-      <c r="AD52" s="108"/>
+      <c r="AD52" s="97"/>
       <c r="AE52" s="76"/>
       <c r="AF52" s="76"/>
       <c r="AG52" s="76"/>
       <c r="AH52" s="76"/>
       <c r="AI52" s="76"/>
       <c r="AJ52" s="76"/>
-      <c r="AK52" s="107"/>
+      <c r="AK52" s="94"/>
       <c r="AL52" s="76"/>
     </row>
     <row r="53" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A53" s="89"/>
-      <c r="B53" s="86"/>
-      <c r="C53" s="85"/>
+      <c r="A53" s="103"/>
+      <c r="B53" s="106"/>
+      <c r="C53" s="102"/>
       <c r="D53" s="2" t="s">
         <v>37</v>
       </c>
@@ -9086,10 +9221,10 @@
       <c r="H53" s="31"/>
       <c r="I53" s="31"/>
       <c r="J53" s="52"/>
-      <c r="K53" s="100">
+      <c r="K53" s="83">
         <v>0</v>
       </c>
-      <c r="L53" s="105"/>
+      <c r="L53" s="88"/>
       <c r="M53" s="76"/>
       <c r="N53" s="76"/>
       <c r="O53" s="76"/>
@@ -9100,27 +9235,27 @@
       <c r="T53" s="76"/>
       <c r="U53" s="76"/>
       <c r="V53" s="76"/>
-      <c r="W53" s="109"/>
+      <c r="W53" s="100"/>
       <c r="X53" s="76"/>
       <c r="Y53" s="76"/>
       <c r="Z53" s="76"/>
       <c r="AA53" s="76"/>
       <c r="AB53" s="76"/>
       <c r="AC53" s="76"/>
-      <c r="AD53" s="108"/>
+      <c r="AD53" s="97"/>
       <c r="AE53" s="76"/>
       <c r="AF53" s="76"/>
       <c r="AG53" s="76"/>
       <c r="AH53" s="76"/>
       <c r="AI53" s="76"/>
       <c r="AJ53" s="76"/>
-      <c r="AK53" s="107"/>
+      <c r="AK53" s="94"/>
       <c r="AL53" s="76"/>
     </row>
     <row r="54" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A54" s="89"/>
-      <c r="B54" s="86"/>
-      <c r="C54" s="85"/>
+      <c r="A54" s="103"/>
+      <c r="B54" s="106"/>
+      <c r="C54" s="102"/>
       <c r="D54" s="2" t="s">
         <v>38</v>
       </c>
@@ -9130,10 +9265,10 @@
       <c r="H54" s="31"/>
       <c r="I54" s="31"/>
       <c r="J54" s="52"/>
-      <c r="K54" s="100">
+      <c r="K54" s="83">
         <v>0</v>
       </c>
-      <c r="L54" s="105"/>
+      <c r="L54" s="88"/>
       <c r="M54" s="76"/>
       <c r="N54" s="76"/>
       <c r="O54" s="76"/>
@@ -9144,27 +9279,27 @@
       <c r="T54" s="76"/>
       <c r="U54" s="76"/>
       <c r="V54" s="76"/>
-      <c r="W54" s="109"/>
+      <c r="W54" s="100"/>
       <c r="X54" s="76"/>
       <c r="Y54" s="76"/>
       <c r="Z54" s="76"/>
       <c r="AA54" s="76"/>
       <c r="AB54" s="76"/>
       <c r="AC54" s="76"/>
-      <c r="AD54" s="108"/>
+      <c r="AD54" s="97"/>
       <c r="AE54" s="76"/>
       <c r="AF54" s="76"/>
       <c r="AG54" s="76"/>
       <c r="AH54" s="76"/>
       <c r="AI54" s="76"/>
       <c r="AJ54" s="76"/>
-      <c r="AK54" s="107"/>
+      <c r="AK54" s="94"/>
       <c r="AL54" s="76"/>
     </row>
     <row r="55" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A55" s="89"/>
-      <c r="B55" s="86"/>
-      <c r="C55" s="85"/>
+      <c r="A55" s="103"/>
+      <c r="B55" s="106"/>
+      <c r="C55" s="102"/>
       <c r="D55" s="2" t="s">
         <v>33</v>
       </c>
@@ -9174,10 +9309,10 @@
       <c r="H55" s="31"/>
       <c r="I55" s="31"/>
       <c r="J55" s="52"/>
-      <c r="K55" s="100">
+      <c r="K55" s="83">
         <v>0</v>
       </c>
-      <c r="L55" s="105"/>
+      <c r="L55" s="88"/>
       <c r="M55" s="76"/>
       <c r="N55" s="76"/>
       <c r="O55" s="76"/>
@@ -9188,27 +9323,27 @@
       <c r="T55" s="76"/>
       <c r="U55" s="76"/>
       <c r="V55" s="76"/>
-      <c r="W55" s="109"/>
+      <c r="W55" s="100"/>
       <c r="X55" s="76"/>
       <c r="Y55" s="76"/>
       <c r="Z55" s="76"/>
       <c r="AA55" s="76"/>
       <c r="AB55" s="76"/>
       <c r="AC55" s="76"/>
-      <c r="AD55" s="108"/>
+      <c r="AD55" s="97"/>
       <c r="AE55" s="76"/>
       <c r="AF55" s="76"/>
       <c r="AG55" s="76"/>
       <c r="AH55" s="76"/>
       <c r="AI55" s="76"/>
       <c r="AJ55" s="76"/>
-      <c r="AK55" s="107"/>
+      <c r="AK55" s="94"/>
       <c r="AL55" s="76"/>
     </row>
     <row r="56" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A56" s="89"/>
-      <c r="B56" s="86"/>
-      <c r="C56" s="85" t="s">
+      <c r="A56" s="103"/>
+      <c r="B56" s="106"/>
+      <c r="C56" s="102" t="s">
         <v>121</v>
       </c>
       <c r="D56" s="2" t="s">
@@ -9228,10 +9363,10 @@
         <v>44138</v>
       </c>
       <c r="J56" s="52"/>
-      <c r="K56" s="100">
+      <c r="K56" s="83">
         <v>1</v>
       </c>
-      <c r="L56" s="105"/>
+      <c r="L56" s="88"/>
       <c r="M56" s="76"/>
       <c r="N56" s="76"/>
       <c r="O56" s="76"/>
@@ -9242,27 +9377,27 @@
       <c r="T56" s="76"/>
       <c r="U56" s="76"/>
       <c r="V56" s="76"/>
-      <c r="W56" s="109"/>
+      <c r="W56" s="100"/>
       <c r="X56" s="76"/>
       <c r="Y56" s="76"/>
       <c r="Z56" s="76"/>
       <c r="AA56" s="76"/>
       <c r="AB56" s="76"/>
       <c r="AC56" s="76"/>
-      <c r="AD56" s="108"/>
+      <c r="AD56" s="97"/>
       <c r="AE56" s="76"/>
       <c r="AF56" s="76"/>
       <c r="AG56" s="76"/>
       <c r="AH56" s="76"/>
       <c r="AI56" s="76"/>
       <c r="AJ56" s="76"/>
-      <c r="AK56" s="107"/>
+      <c r="AK56" s="94"/>
       <c r="AL56" s="76"/>
     </row>
     <row r="57" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A57" s="89"/>
-      <c r="B57" s="86"/>
-      <c r="C57" s="85"/>
+      <c r="A57" s="103"/>
+      <c r="B57" s="106"/>
+      <c r="C57" s="102"/>
       <c r="D57" s="2" t="s">
         <v>151</v>
       </c>
@@ -9280,10 +9415,10 @@
         <v>43833</v>
       </c>
       <c r="J57" s="52"/>
-      <c r="K57" s="100">
+      <c r="K57" s="83">
         <v>0</v>
       </c>
-      <c r="L57" s="105"/>
+      <c r="L57" s="88"/>
       <c r="M57" s="76"/>
       <c r="N57" s="76"/>
       <c r="O57" s="76"/>
@@ -9294,26 +9429,26 @@
       <c r="T57" s="76"/>
       <c r="U57" s="76"/>
       <c r="V57" s="76"/>
-      <c r="W57" s="109"/>
+      <c r="W57" s="100"/>
       <c r="X57" s="76"/>
       <c r="Y57" s="76"/>
       <c r="Z57" s="76"/>
       <c r="AA57" s="76"/>
       <c r="AB57" s="76"/>
       <c r="AC57" s="76"/>
-      <c r="AD57" s="108"/>
+      <c r="AD57" s="97"/>
       <c r="AE57" s="76"/>
       <c r="AF57" s="76"/>
       <c r="AG57" s="76"/>
       <c r="AH57" s="76"/>
       <c r="AI57" s="76"/>
       <c r="AJ57" s="76"/>
-      <c r="AK57" s="107"/>
+      <c r="AK57" s="94"/>
       <c r="AL57" s="76"/>
     </row>
     <row r="58" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="89"/>
-      <c r="B58" s="86"/>
+      <c r="A58" s="103"/>
+      <c r="B58" s="106"/>
       <c r="C58" s="20" t="s">
         <v>71</v>
       </c>
@@ -9326,10 +9461,10 @@
       <c r="H58" s="37"/>
       <c r="I58" s="37"/>
       <c r="J58" s="52"/>
-      <c r="K58" s="101">
+      <c r="K58" s="84">
         <v>0</v>
       </c>
-      <c r="L58" s="106"/>
+      <c r="L58" s="89"/>
       <c r="M58" s="20"/>
       <c r="N58" s="20"/>
       <c r="O58" s="20"/>
@@ -9340,32 +9475,32 @@
       <c r="T58" s="20"/>
       <c r="U58" s="20"/>
       <c r="V58" s="20"/>
-      <c r="W58" s="109"/>
+      <c r="W58" s="100"/>
       <c r="X58" s="20"/>
       <c r="Y58" s="20"/>
       <c r="Z58" s="20"/>
       <c r="AA58" s="20"/>
       <c r="AB58" s="20"/>
       <c r="AC58" s="20"/>
-      <c r="AD58" s="108"/>
+      <c r="AD58" s="97"/>
       <c r="AE58" s="76"/>
       <c r="AF58" s="76"/>
       <c r="AG58" s="76"/>
       <c r="AH58" s="76"/>
       <c r="AI58" s="76"/>
       <c r="AJ58" s="76"/>
-      <c r="AK58" s="107"/>
+      <c r="AK58" s="94"/>
       <c r="AL58" s="76"/>
     </row>
     <row r="59" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A59" s="89"/>
-      <c r="B59" s="91" t="s">
+      <c r="A59" s="103"/>
+      <c r="B59" s="105" t="s">
         <v>120</v>
       </c>
-      <c r="C59" s="85" t="s">
+      <c r="C59" s="102" t="s">
         <v>92</v>
       </c>
-      <c r="D59" s="85" t="s">
+      <c r="D59" s="102" t="s">
         <v>29</v>
       </c>
       <c r="E59" s="2" t="s">
@@ -9384,10 +9519,10 @@
         <v>44124</v>
       </c>
       <c r="J59" s="52"/>
-      <c r="K59" s="100">
+      <c r="K59" s="83">
         <v>1</v>
       </c>
-      <c r="L59" s="105"/>
+      <c r="L59" s="88"/>
       <c r="M59" s="76"/>
       <c r="N59" s="76"/>
       <c r="O59" s="76"/>
@@ -9398,28 +9533,28 @@
       <c r="T59" s="76"/>
       <c r="U59" s="76"/>
       <c r="V59" s="76"/>
-      <c r="W59" s="109"/>
+      <c r="W59" s="100"/>
       <c r="X59" s="76"/>
       <c r="Y59" s="76"/>
       <c r="Z59" s="76"/>
       <c r="AA59" s="76"/>
       <c r="AB59" s="76"/>
       <c r="AC59" s="76"/>
-      <c r="AD59" s="108"/>
+      <c r="AD59" s="97"/>
       <c r="AE59" s="76"/>
       <c r="AF59" s="76"/>
       <c r="AG59" s="76"/>
       <c r="AH59" s="76"/>
       <c r="AI59" s="76"/>
       <c r="AJ59" s="76"/>
-      <c r="AK59" s="107"/>
+      <c r="AK59" s="94"/>
       <c r="AL59" s="76"/>
     </row>
     <row r="60" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A60" s="89"/>
-      <c r="B60" s="91"/>
-      <c r="C60" s="85"/>
-      <c r="D60" s="85"/>
+      <c r="A60" s="103"/>
+      <c r="B60" s="105"/>
+      <c r="C60" s="102"/>
+      <c r="D60" s="102"/>
       <c r="E60" s="2" t="s">
         <v>130</v>
       </c>
@@ -9436,10 +9571,10 @@
         <v>44125</v>
       </c>
       <c r="J60" s="52"/>
-      <c r="K60" s="100">
+      <c r="K60" s="83">
         <v>1</v>
       </c>
-      <c r="L60" s="105"/>
+      <c r="L60" s="88"/>
       <c r="M60" s="76"/>
       <c r="N60" s="76"/>
       <c r="O60" s="76"/>
@@ -9450,30 +9585,30 @@
       <c r="T60" s="76"/>
       <c r="U60" s="76"/>
       <c r="V60" s="76"/>
-      <c r="W60" s="109"/>
+      <c r="W60" s="100"/>
       <c r="X60" s="76"/>
       <c r="Y60" s="76"/>
       <c r="Z60" s="76"/>
       <c r="AA60" s="76"/>
       <c r="AB60" s="76"/>
       <c r="AC60" s="76"/>
-      <c r="AD60" s="108"/>
+      <c r="AD60" s="97"/>
       <c r="AE60" s="76"/>
       <c r="AF60" s="76"/>
       <c r="AG60" s="76"/>
       <c r="AH60" s="76"/>
       <c r="AI60" s="76"/>
       <c r="AJ60" s="76"/>
-      <c r="AK60" s="107"/>
+      <c r="AK60" s="94"/>
       <c r="AL60" s="76"/>
     </row>
     <row r="61" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A61" s="89"/>
-      <c r="B61" s="91"/>
-      <c r="C61" s="85" t="s">
+      <c r="A61" s="103"/>
+      <c r="B61" s="105"/>
+      <c r="C61" s="102" t="s">
         <v>96</v>
       </c>
-      <c r="D61" s="85" t="s">
+      <c r="D61" s="102" t="s">
         <v>95</v>
       </c>
       <c r="E61" s="2" t="s">
@@ -9492,10 +9627,10 @@
         <v>44133</v>
       </c>
       <c r="J61" s="52"/>
-      <c r="K61" s="100">
+      <c r="K61" s="83">
         <v>1</v>
       </c>
-      <c r="L61" s="105"/>
+      <c r="L61" s="88"/>
       <c r="M61" s="76"/>
       <c r="N61" s="76"/>
       <c r="O61" s="76"/>
@@ -9506,28 +9641,28 @@
       <c r="T61" s="76"/>
       <c r="U61" s="76"/>
       <c r="V61" s="76"/>
-      <c r="W61" s="109"/>
+      <c r="W61" s="100"/>
       <c r="X61" s="76"/>
       <c r="Y61" s="76"/>
       <c r="Z61" s="76"/>
       <c r="AA61" s="76"/>
       <c r="AB61" s="76"/>
       <c r="AC61" s="76"/>
-      <c r="AD61" s="108"/>
+      <c r="AD61" s="97"/>
       <c r="AE61" s="76"/>
       <c r="AF61" s="76"/>
       <c r="AG61" s="76"/>
       <c r="AH61" s="76"/>
       <c r="AI61" s="76"/>
       <c r="AJ61" s="76"/>
-      <c r="AK61" s="107"/>
+      <c r="AK61" s="94"/>
       <c r="AL61" s="76"/>
     </row>
     <row r="62" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A62" s="89"/>
-      <c r="B62" s="91"/>
-      <c r="C62" s="85"/>
-      <c r="D62" s="85"/>
+      <c r="A62" s="103"/>
+      <c r="B62" s="105"/>
+      <c r="C62" s="102"/>
+      <c r="D62" s="102"/>
       <c r="E62" s="2" t="s">
         <v>146</v>
       </c>
@@ -9544,10 +9679,10 @@
         <v>44133</v>
       </c>
       <c r="J62" s="52"/>
-      <c r="K62" s="100">
+      <c r="K62" s="83">
         <v>1</v>
       </c>
-      <c r="L62" s="105"/>
+      <c r="L62" s="88"/>
       <c r="M62" s="76"/>
       <c r="N62" s="76"/>
       <c r="O62" s="76"/>
@@ -9558,28 +9693,28 @@
       <c r="T62" s="76"/>
       <c r="U62" s="76"/>
       <c r="V62" s="76"/>
-      <c r="W62" s="109"/>
+      <c r="W62" s="100"/>
       <c r="X62" s="76"/>
       <c r="Y62" s="76"/>
       <c r="Z62" s="76"/>
       <c r="AA62" s="76"/>
       <c r="AB62" s="76"/>
       <c r="AC62" s="76"/>
-      <c r="AD62" s="108"/>
+      <c r="AD62" s="97"/>
       <c r="AE62" s="76"/>
       <c r="AF62" s="76"/>
       <c r="AG62" s="76"/>
       <c r="AH62" s="76"/>
       <c r="AI62" s="76"/>
       <c r="AJ62" s="76"/>
-      <c r="AK62" s="107"/>
+      <c r="AK62" s="94"/>
       <c r="AL62" s="76"/>
     </row>
     <row r="63" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A63" s="89"/>
-      <c r="B63" s="91"/>
-      <c r="C63" s="85"/>
-      <c r="D63" s="85"/>
+      <c r="A63" s="103"/>
+      <c r="B63" s="105"/>
+      <c r="C63" s="102"/>
+      <c r="D63" s="102"/>
       <c r="E63" s="2" t="s">
         <v>147</v>
       </c>
@@ -9596,10 +9731,10 @@
         <v>44133</v>
       </c>
       <c r="J63" s="52"/>
-      <c r="K63" s="100">
+      <c r="K63" s="83">
         <v>1</v>
       </c>
-      <c r="L63" s="105"/>
+      <c r="L63" s="88"/>
       <c r="M63" s="76"/>
       <c r="N63" s="76"/>
       <c r="O63" s="76"/>
@@ -9610,28 +9745,28 @@
       <c r="T63" s="76"/>
       <c r="U63" s="76"/>
       <c r="V63" s="76"/>
-      <c r="W63" s="109"/>
+      <c r="W63" s="100"/>
       <c r="X63" s="76"/>
       <c r="Y63" s="76"/>
       <c r="Z63" s="76"/>
       <c r="AA63" s="76"/>
       <c r="AB63" s="76"/>
       <c r="AC63" s="76"/>
-      <c r="AD63" s="108"/>
+      <c r="AD63" s="97"/>
       <c r="AE63" s="76"/>
       <c r="AF63" s="76"/>
       <c r="AG63" s="76"/>
       <c r="AH63" s="76"/>
       <c r="AI63" s="76"/>
       <c r="AJ63" s="76"/>
-      <c r="AK63" s="107"/>
+      <c r="AK63" s="94"/>
       <c r="AL63" s="76"/>
     </row>
     <row r="64" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A64" s="89"/>
-      <c r="B64" s="91"/>
-      <c r="C64" s="85"/>
-      <c r="D64" s="85"/>
+      <c r="A64" s="103"/>
+      <c r="B64" s="105"/>
+      <c r="C64" s="102"/>
+      <c r="D64" s="102"/>
       <c r="E64" s="2" t="s">
         <v>107</v>
       </c>
@@ -9648,10 +9783,10 @@
         <v>44133</v>
       </c>
       <c r="J64" s="52"/>
-      <c r="K64" s="100">
+      <c r="K64" s="83">
         <v>1</v>
       </c>
-      <c r="L64" s="105"/>
+      <c r="L64" s="88"/>
       <c r="M64" s="76"/>
       <c r="N64" s="76"/>
       <c r="O64" s="76"/>
@@ -9662,28 +9797,28 @@
       <c r="T64" s="76"/>
       <c r="U64" s="76"/>
       <c r="V64" s="76"/>
-      <c r="W64" s="109"/>
+      <c r="W64" s="100"/>
       <c r="X64" s="76"/>
       <c r="Y64" s="76"/>
       <c r="Z64" s="76"/>
       <c r="AA64" s="76"/>
       <c r="AB64" s="76"/>
       <c r="AC64" s="76"/>
-      <c r="AD64" s="108"/>
+      <c r="AD64" s="97"/>
       <c r="AE64" s="76"/>
       <c r="AF64" s="76"/>
       <c r="AG64" s="76"/>
       <c r="AH64" s="76"/>
       <c r="AI64" s="76"/>
       <c r="AJ64" s="76"/>
-      <c r="AK64" s="107"/>
+      <c r="AK64" s="94"/>
       <c r="AL64" s="76"/>
     </row>
     <row r="65" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A65" s="89"/>
-      <c r="B65" s="91"/>
-      <c r="C65" s="85"/>
-      <c r="D65" s="85"/>
+      <c r="A65" s="103"/>
+      <c r="B65" s="105"/>
+      <c r="C65" s="102"/>
+      <c r="D65" s="102"/>
       <c r="E65" s="2" t="s">
         <v>108</v>
       </c>
@@ -9700,10 +9835,10 @@
         <v>44133</v>
       </c>
       <c r="J65" s="52"/>
-      <c r="K65" s="100">
+      <c r="K65" s="83">
         <v>1</v>
       </c>
-      <c r="L65" s="105"/>
+      <c r="L65" s="88"/>
       <c r="M65" s="76"/>
       <c r="N65" s="76"/>
       <c r="O65" s="76"/>
@@ -9714,28 +9849,28 @@
       <c r="T65" s="76"/>
       <c r="U65" s="76"/>
       <c r="V65" s="76"/>
-      <c r="W65" s="109"/>
+      <c r="W65" s="100"/>
       <c r="X65" s="76"/>
       <c r="Y65" s="76"/>
       <c r="Z65" s="76"/>
       <c r="AA65" s="76"/>
       <c r="AB65" s="76"/>
       <c r="AC65" s="76"/>
-      <c r="AD65" s="108"/>
+      <c r="AD65" s="97"/>
       <c r="AE65" s="76"/>
       <c r="AF65" s="76"/>
       <c r="AG65" s="76"/>
       <c r="AH65" s="76"/>
       <c r="AI65" s="76"/>
       <c r="AJ65" s="76"/>
-      <c r="AK65" s="107"/>
+      <c r="AK65" s="94"/>
       <c r="AL65" s="76"/>
     </row>
     <row r="66" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A66" s="89"/>
-      <c r="B66" s="91"/>
-      <c r="C66" s="85"/>
-      <c r="D66" s="85" t="s">
+      <c r="A66" s="103"/>
+      <c r="B66" s="105"/>
+      <c r="C66" s="102"/>
+      <c r="D66" s="102" t="s">
         <v>97</v>
       </c>
       <c r="E66" s="2" t="s">
@@ -9748,10 +9883,10 @@
       <c r="H66" s="31"/>
       <c r="I66" s="31"/>
       <c r="J66" s="52"/>
-      <c r="K66" s="100">
+      <c r="K66" s="83">
         <v>1</v>
       </c>
-      <c r="L66" s="105"/>
+      <c r="L66" s="88"/>
       <c r="M66" s="76"/>
       <c r="N66" s="76"/>
       <c r="O66" s="76"/>
@@ -9762,28 +9897,28 @@
       <c r="T66" s="76"/>
       <c r="U66" s="76"/>
       <c r="V66" s="76"/>
-      <c r="W66" s="109"/>
+      <c r="W66" s="100"/>
       <c r="X66" s="76"/>
       <c r="Y66" s="76"/>
       <c r="Z66" s="76"/>
       <c r="AA66" s="76"/>
       <c r="AB66" s="76"/>
       <c r="AC66" s="76"/>
-      <c r="AD66" s="108"/>
+      <c r="AD66" s="97"/>
       <c r="AE66" s="76"/>
       <c r="AF66" s="76"/>
       <c r="AG66" s="76"/>
       <c r="AH66" s="76"/>
       <c r="AI66" s="76"/>
       <c r="AJ66" s="76"/>
-      <c r="AK66" s="107"/>
+      <c r="AK66" s="94"/>
       <c r="AL66" s="76"/>
     </row>
     <row r="67" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A67" s="89"/>
-      <c r="B67" s="91"/>
-      <c r="C67" s="85"/>
-      <c r="D67" s="85"/>
+      <c r="A67" s="103"/>
+      <c r="B67" s="105"/>
+      <c r="C67" s="102"/>
+      <c r="D67" s="102"/>
       <c r="E67" s="2" t="s">
         <v>146</v>
       </c>
@@ -9800,10 +9935,10 @@
         <v>44133</v>
       </c>
       <c r="J67" s="52"/>
-      <c r="K67" s="100">
+      <c r="K67" s="83">
         <v>1</v>
       </c>
-      <c r="L67" s="105"/>
+      <c r="L67" s="88"/>
       <c r="M67" s="76"/>
       <c r="N67" s="76"/>
       <c r="O67" s="76"/>
@@ -9814,30 +9949,30 @@
       <c r="T67" s="76"/>
       <c r="U67" s="76"/>
       <c r="V67" s="76"/>
-      <c r="W67" s="109"/>
+      <c r="W67" s="100"/>
       <c r="X67" s="76"/>
       <c r="Y67" s="76"/>
       <c r="Z67" s="76"/>
       <c r="AA67" s="76"/>
       <c r="AB67" s="76"/>
       <c r="AC67" s="76"/>
-      <c r="AD67" s="108"/>
+      <c r="AD67" s="97"/>
       <c r="AE67" s="76"/>
       <c r="AF67" s="76"/>
       <c r="AG67" s="76"/>
       <c r="AH67" s="76"/>
       <c r="AI67" s="76"/>
       <c r="AJ67" s="76"/>
-      <c r="AK67" s="107"/>
+      <c r="AK67" s="94"/>
       <c r="AL67" s="76"/>
     </row>
     <row r="68" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="89"/>
-      <c r="B68" s="91"/>
-      <c r="C68" s="85" t="s">
+      <c r="A68" s="103"/>
+      <c r="B68" s="105"/>
+      <c r="C68" s="102" t="s">
         <v>44</v>
       </c>
-      <c r="D68" s="85" t="s">
+      <c r="D68" s="102" t="s">
         <v>93</v>
       </c>
       <c r="E68" s="2" t="s">
@@ -9856,10 +9991,10 @@
         <v>44126</v>
       </c>
       <c r="J68" s="52"/>
-      <c r="K68" s="100">
+      <c r="K68" s="83">
         <v>1</v>
       </c>
-      <c r="L68" s="105"/>
+      <c r="L68" s="88"/>
       <c r="M68" s="76"/>
       <c r="N68" s="76"/>
       <c r="O68" s="76"/>
@@ -9870,28 +10005,28 @@
       <c r="T68" s="76"/>
       <c r="U68" s="76"/>
       <c r="V68" s="76"/>
-      <c r="W68" s="109"/>
+      <c r="W68" s="100"/>
       <c r="X68" s="76"/>
       <c r="Y68" s="76"/>
       <c r="Z68" s="76"/>
       <c r="AA68" s="76"/>
       <c r="AB68" s="76"/>
       <c r="AC68" s="76"/>
-      <c r="AD68" s="108"/>
+      <c r="AD68" s="97"/>
       <c r="AE68" s="76"/>
       <c r="AF68" s="76"/>
       <c r="AG68" s="76"/>
       <c r="AH68" s="76"/>
       <c r="AI68" s="76"/>
       <c r="AJ68" s="76"/>
-      <c r="AK68" s="107"/>
+      <c r="AK68" s="94"/>
       <c r="AL68" s="76"/>
     </row>
     <row r="69" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="89"/>
-      <c r="B69" s="91"/>
-      <c r="C69" s="85"/>
-      <c r="D69" s="85"/>
+      <c r="A69" s="103"/>
+      <c r="B69" s="105"/>
+      <c r="C69" s="102"/>
+      <c r="D69" s="102"/>
       <c r="E69" s="2" t="s">
         <v>130</v>
       </c>
@@ -9908,10 +10043,10 @@
         <v>44126</v>
       </c>
       <c r="J69" s="52"/>
-      <c r="K69" s="100">
+      <c r="K69" s="83">
         <v>1</v>
       </c>
-      <c r="L69" s="105"/>
+      <c r="L69" s="88"/>
       <c r="M69" s="76"/>
       <c r="N69" s="76"/>
       <c r="O69" s="76"/>
@@ -9922,28 +10057,28 @@
       <c r="T69" s="76"/>
       <c r="U69" s="76"/>
       <c r="V69" s="76"/>
-      <c r="W69" s="109"/>
+      <c r="W69" s="100"/>
       <c r="X69" s="76"/>
       <c r="Y69" s="76"/>
       <c r="Z69" s="76"/>
       <c r="AA69" s="76"/>
       <c r="AB69" s="76"/>
       <c r="AC69" s="76"/>
-      <c r="AD69" s="108"/>
+      <c r="AD69" s="97"/>
       <c r="AE69" s="76"/>
       <c r="AF69" s="76"/>
       <c r="AG69" s="76"/>
       <c r="AH69" s="76"/>
       <c r="AI69" s="76"/>
       <c r="AJ69" s="76"/>
-      <c r="AK69" s="107"/>
+      <c r="AK69" s="94"/>
       <c r="AL69" s="76"/>
     </row>
     <row r="70" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="89"/>
-      <c r="B70" s="91"/>
-      <c r="C70" s="85"/>
-      <c r="D70" s="82" t="s">
+      <c r="A70" s="103"/>
+      <c r="B70" s="105"/>
+      <c r="C70" s="102"/>
+      <c r="D70" s="90" t="s">
         <v>98</v>
       </c>
       <c r="E70" s="2" t="s">
@@ -9962,10 +10097,10 @@
         <v>44133</v>
       </c>
       <c r="J70" s="52"/>
-      <c r="K70" s="100">
+      <c r="K70" s="83">
         <v>1</v>
       </c>
-      <c r="L70" s="105"/>
+      <c r="L70" s="88"/>
       <c r="M70" s="76"/>
       <c r="N70" s="76"/>
       <c r="O70" s="76"/>
@@ -9976,28 +10111,28 @@
       <c r="T70" s="76"/>
       <c r="U70" s="76"/>
       <c r="V70" s="76"/>
-      <c r="W70" s="109"/>
+      <c r="W70" s="100"/>
       <c r="X70" s="76"/>
       <c r="Y70" s="76"/>
       <c r="Z70" s="76"/>
       <c r="AA70" s="76"/>
       <c r="AB70" s="76"/>
       <c r="AC70" s="76"/>
-      <c r="AD70" s="108"/>
+      <c r="AD70" s="97"/>
       <c r="AE70" s="76"/>
       <c r="AF70" s="76"/>
       <c r="AG70" s="76"/>
       <c r="AH70" s="76"/>
       <c r="AI70" s="76"/>
       <c r="AJ70" s="76"/>
-      <c r="AK70" s="107"/>
+      <c r="AK70" s="94"/>
       <c r="AL70" s="76"/>
     </row>
     <row r="71" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="89"/>
-      <c r="B71" s="91"/>
-      <c r="C71" s="85"/>
-      <c r="D71" s="83"/>
+      <c r="A71" s="103"/>
+      <c r="B71" s="105"/>
+      <c r="C71" s="102"/>
+      <c r="D71" s="92"/>
       <c r="E71" s="2" t="s">
         <v>130</v>
       </c>
@@ -10010,10 +10145,10 @@
       <c r="H71" s="31"/>
       <c r="I71" s="31"/>
       <c r="J71" s="52"/>
-      <c r="K71" s="100">
+      <c r="K71" s="83">
         <v>1</v>
       </c>
-      <c r="L71" s="105"/>
+      <c r="L71" s="88"/>
       <c r="M71" s="76"/>
       <c r="N71" s="76"/>
       <c r="O71" s="76"/>
@@ -10024,27 +10159,27 @@
       <c r="T71" s="76"/>
       <c r="U71" s="76"/>
       <c r="V71" s="76"/>
-      <c r="W71" s="109"/>
+      <c r="W71" s="100"/>
       <c r="X71" s="76"/>
       <c r="Y71" s="76"/>
       <c r="Z71" s="76"/>
       <c r="AA71" s="76"/>
       <c r="AB71" s="76"/>
       <c r="AC71" s="76"/>
-      <c r="AD71" s="108"/>
+      <c r="AD71" s="97"/>
       <c r="AE71" s="76"/>
       <c r="AF71" s="76"/>
       <c r="AG71" s="76"/>
       <c r="AH71" s="76"/>
       <c r="AI71" s="76"/>
       <c r="AJ71" s="76"/>
-      <c r="AK71" s="107"/>
+      <c r="AK71" s="94"/>
       <c r="AL71" s="76"/>
     </row>
     <row r="72" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A72" s="89"/>
-      <c r="B72" s="91"/>
-      <c r="C72" s="92"/>
+      <c r="A72" s="103"/>
+      <c r="B72" s="105"/>
+      <c r="C72" s="91"/>
       <c r="D72" s="2" t="s">
         <v>190</v>
       </c>
@@ -10064,10 +10199,10 @@
         <v>44132</v>
       </c>
       <c r="J72" s="52"/>
-      <c r="K72" s="100">
+      <c r="K72" s="83">
         <v>1</v>
       </c>
-      <c r="L72" s="105"/>
+      <c r="L72" s="88"/>
       <c r="M72" s="76"/>
       <c r="N72" s="76"/>
       <c r="O72" s="76"/>
@@ -10078,27 +10213,27 @@
       <c r="T72" s="76"/>
       <c r="U72" s="76"/>
       <c r="V72" s="76"/>
-      <c r="W72" s="109"/>
+      <c r="W72" s="100"/>
       <c r="X72" s="76"/>
       <c r="Y72" s="76"/>
       <c r="Z72" s="76"/>
       <c r="AA72" s="76"/>
       <c r="AB72" s="76"/>
       <c r="AC72" s="76"/>
-      <c r="AD72" s="108"/>
+      <c r="AD72" s="97"/>
       <c r="AE72" s="76"/>
       <c r="AF72" s="76"/>
       <c r="AG72" s="76"/>
       <c r="AH72" s="76"/>
       <c r="AI72" s="76"/>
       <c r="AJ72" s="76"/>
-      <c r="AK72" s="107"/>
+      <c r="AK72" s="94"/>
       <c r="AL72" s="76"/>
     </row>
     <row r="73" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A73" s="89"/>
-      <c r="B73" s="91"/>
-      <c r="C73" s="92"/>
+      <c r="A73" s="103"/>
+      <c r="B73" s="105"/>
+      <c r="C73" s="91"/>
       <c r="D73" s="2" t="s">
         <v>191</v>
       </c>
@@ -10118,10 +10253,10 @@
         <v>44132</v>
       </c>
       <c r="J73" s="52"/>
-      <c r="K73" s="100">
+      <c r="K73" s="83">
         <v>1</v>
       </c>
-      <c r="L73" s="105"/>
+      <c r="L73" s="88"/>
       <c r="M73" s="76"/>
       <c r="N73" s="76"/>
       <c r="O73" s="76"/>
@@ -10132,27 +10267,27 @@
       <c r="T73" s="76"/>
       <c r="U73" s="76"/>
       <c r="V73" s="76"/>
-      <c r="W73" s="109"/>
+      <c r="W73" s="100"/>
       <c r="X73" s="76"/>
       <c r="Y73" s="76"/>
       <c r="Z73" s="76"/>
       <c r="AA73" s="76"/>
       <c r="AB73" s="76"/>
       <c r="AC73" s="76"/>
-      <c r="AD73" s="108"/>
+      <c r="AD73" s="97"/>
       <c r="AE73" s="76"/>
       <c r="AF73" s="76"/>
       <c r="AG73" s="76"/>
       <c r="AH73" s="76"/>
       <c r="AI73" s="76"/>
       <c r="AJ73" s="76"/>
-      <c r="AK73" s="107"/>
+      <c r="AK73" s="94"/>
       <c r="AL73" s="76"/>
     </row>
     <row r="74" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A74" s="89"/>
-      <c r="B74" s="91"/>
-      <c r="C74" s="83"/>
+      <c r="A74" s="103"/>
+      <c r="B74" s="105"/>
+      <c r="C74" s="92"/>
       <c r="D74" s="2" t="s">
         <v>161</v>
       </c>
@@ -10172,10 +10307,10 @@
         <v>44130</v>
       </c>
       <c r="J74" s="52"/>
-      <c r="K74" s="100">
+      <c r="K74" s="83">
         <v>1</v>
       </c>
-      <c r="L74" s="105"/>
+      <c r="L74" s="88"/>
       <c r="M74" s="76"/>
       <c r="N74" s="76"/>
       <c r="O74" s="76"/>
@@ -10186,27 +10321,27 @@
       <c r="T74" s="76"/>
       <c r="U74" s="76"/>
       <c r="V74" s="76"/>
-      <c r="W74" s="109"/>
+      <c r="W74" s="100"/>
       <c r="X74" s="76"/>
       <c r="Y74" s="76"/>
       <c r="Z74" s="76"/>
       <c r="AA74" s="76"/>
       <c r="AB74" s="76"/>
       <c r="AC74" s="76"/>
-      <c r="AD74" s="108"/>
+      <c r="AD74" s="97"/>
       <c r="AE74" s="76"/>
       <c r="AF74" s="76"/>
       <c r="AG74" s="76"/>
       <c r="AH74" s="76"/>
       <c r="AI74" s="76"/>
       <c r="AJ74" s="76"/>
-      <c r="AK74" s="107"/>
+      <c r="AK74" s="94"/>
       <c r="AL74" s="76"/>
     </row>
     <row r="75" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A75" s="89"/>
-      <c r="B75" s="91"/>
-      <c r="C75" s="85" t="s">
+      <c r="A75" s="103"/>
+      <c r="B75" s="105"/>
+      <c r="C75" s="102" t="s">
         <v>13</v>
       </c>
       <c r="D75" s="2" t="s">
@@ -10226,10 +10361,10 @@
         <v>44124</v>
       </c>
       <c r="J75" s="52"/>
-      <c r="K75" s="100">
+      <c r="K75" s="83">
         <v>1</v>
       </c>
-      <c r="L75" s="105"/>
+      <c r="L75" s="88"/>
       <c r="M75" s="76"/>
       <c r="N75" s="76"/>
       <c r="O75" s="76"/>
@@ -10240,27 +10375,27 @@
       <c r="T75" s="76"/>
       <c r="U75" s="76"/>
       <c r="V75" s="76"/>
-      <c r="W75" s="109"/>
+      <c r="W75" s="100"/>
       <c r="X75" s="76"/>
       <c r="Y75" s="76"/>
       <c r="Z75" s="76"/>
       <c r="AA75" s="76"/>
       <c r="AB75" s="76"/>
       <c r="AC75" s="76"/>
-      <c r="AD75" s="108"/>
+      <c r="AD75" s="97"/>
       <c r="AE75" s="76"/>
       <c r="AF75" s="76"/>
       <c r="AG75" s="76"/>
       <c r="AH75" s="76"/>
       <c r="AI75" s="76"/>
       <c r="AJ75" s="76"/>
-      <c r="AK75" s="107"/>
+      <c r="AK75" s="94"/>
       <c r="AL75" s="76"/>
     </row>
     <row r="76" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A76" s="89"/>
-      <c r="B76" s="91"/>
-      <c r="C76" s="85"/>
+      <c r="A76" s="103"/>
+      <c r="B76" s="105"/>
+      <c r="C76" s="102"/>
       <c r="D76" s="2" t="s">
         <v>126</v>
       </c>
@@ -10278,10 +10413,10 @@
         <v>44124</v>
       </c>
       <c r="J76" s="52"/>
-      <c r="K76" s="100">
+      <c r="K76" s="83">
         <v>1</v>
       </c>
-      <c r="L76" s="105"/>
+      <c r="L76" s="88"/>
       <c r="M76" s="76"/>
       <c r="N76" s="76"/>
       <c r="O76" s="76"/>
@@ -10292,27 +10427,27 @@
       <c r="T76" s="76"/>
       <c r="U76" s="76"/>
       <c r="V76" s="76"/>
-      <c r="W76" s="109"/>
+      <c r="W76" s="100"/>
       <c r="X76" s="76"/>
       <c r="Y76" s="76"/>
       <c r="Z76" s="76"/>
       <c r="AA76" s="76"/>
       <c r="AB76" s="76"/>
       <c r="AC76" s="76"/>
-      <c r="AD76" s="108"/>
+      <c r="AD76" s="97"/>
       <c r="AE76" s="76"/>
       <c r="AF76" s="76"/>
       <c r="AG76" s="76"/>
       <c r="AH76" s="76"/>
       <c r="AI76" s="76"/>
       <c r="AJ76" s="76"/>
-      <c r="AK76" s="107"/>
+      <c r="AK76" s="94"/>
       <c r="AL76" s="76"/>
     </row>
     <row r="77" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="89"/>
-      <c r="B77" s="91"/>
-      <c r="C77" s="82" t="s">
+      <c r="A77" s="103"/>
+      <c r="B77" s="105"/>
+      <c r="C77" s="90" t="s">
         <v>99</v>
       </c>
       <c r="D77" s="2" t="s">
@@ -10332,10 +10467,10 @@
         <v>44126</v>
       </c>
       <c r="J77" s="52"/>
-      <c r="K77" s="100">
+      <c r="K77" s="83">
         <v>1</v>
       </c>
-      <c r="L77" s="105"/>
+      <c r="L77" s="88"/>
       <c r="M77" s="76"/>
       <c r="N77" s="76"/>
       <c r="O77" s="76"/>
@@ -10346,27 +10481,27 @@
       <c r="T77" s="76"/>
       <c r="U77" s="76"/>
       <c r="V77" s="76"/>
-      <c r="W77" s="109"/>
+      <c r="W77" s="100"/>
       <c r="X77" s="76"/>
       <c r="Y77" s="76"/>
       <c r="Z77" s="76"/>
       <c r="AA77" s="76"/>
       <c r="AB77" s="76"/>
       <c r="AC77" s="76"/>
-      <c r="AD77" s="108"/>
+      <c r="AD77" s="97"/>
       <c r="AE77" s="76"/>
       <c r="AF77" s="76"/>
       <c r="AG77" s="76"/>
       <c r="AH77" s="76"/>
       <c r="AI77" s="76"/>
       <c r="AJ77" s="76"/>
-      <c r="AK77" s="107"/>
+      <c r="AK77" s="94"/>
       <c r="AL77" s="76"/>
     </row>
     <row r="78" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A78" s="89"/>
-      <c r="B78" s="91"/>
-      <c r="C78" s="92"/>
+      <c r="A78" s="103"/>
+      <c r="B78" s="105"/>
+      <c r="C78" s="91"/>
       <c r="D78" s="2" t="s">
         <v>156</v>
       </c>
@@ -10384,10 +10519,10 @@
         <v>44126</v>
       </c>
       <c r="J78" s="52"/>
-      <c r="K78" s="100">
+      <c r="K78" s="83">
         <v>1</v>
       </c>
-      <c r="L78" s="105"/>
+      <c r="L78" s="88"/>
       <c r="M78" s="76"/>
       <c r="N78" s="76"/>
       <c r="O78" s="76"/>
@@ -10398,27 +10533,27 @@
       <c r="T78" s="76"/>
       <c r="U78" s="76"/>
       <c r="V78" s="76"/>
-      <c r="W78" s="109"/>
+      <c r="W78" s="100"/>
       <c r="X78" s="76"/>
       <c r="Y78" s="76"/>
       <c r="Z78" s="76"/>
       <c r="AA78" s="76"/>
       <c r="AB78" s="76"/>
       <c r="AC78" s="76"/>
-      <c r="AD78" s="108"/>
+      <c r="AD78" s="97"/>
       <c r="AE78" s="76"/>
       <c r="AF78" s="76"/>
       <c r="AG78" s="76"/>
       <c r="AH78" s="76"/>
       <c r="AI78" s="76"/>
       <c r="AJ78" s="76"/>
-      <c r="AK78" s="107"/>
+      <c r="AK78" s="94"/>
       <c r="AL78" s="76"/>
     </row>
     <row r="79" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="89"/>
-      <c r="B79" s="91"/>
-      <c r="C79" s="92"/>
+      <c r="A79" s="103"/>
+      <c r="B79" s="105"/>
+      <c r="C79" s="91"/>
       <c r="D79" s="2" t="s">
         <v>187</v>
       </c>
@@ -10436,10 +10571,10 @@
         <v>44137</v>
       </c>
       <c r="J79" s="52"/>
-      <c r="K79" s="100">
+      <c r="K79" s="83">
         <v>1</v>
       </c>
-      <c r="L79" s="105"/>
+      <c r="L79" s="88"/>
       <c r="M79" s="76"/>
       <c r="N79" s="76"/>
       <c r="O79" s="76"/>
@@ -10450,27 +10585,27 @@
       <c r="T79" s="76"/>
       <c r="U79" s="76"/>
       <c r="V79" s="76"/>
-      <c r="W79" s="109"/>
+      <c r="W79" s="100"/>
       <c r="X79" s="76"/>
       <c r="Y79" s="76"/>
       <c r="Z79" s="76"/>
       <c r="AA79" s="76"/>
       <c r="AB79" s="76"/>
       <c r="AC79" s="76"/>
-      <c r="AD79" s="108"/>
+      <c r="AD79" s="97"/>
       <c r="AE79" s="76"/>
       <c r="AF79" s="76"/>
       <c r="AG79" s="76"/>
       <c r="AH79" s="76"/>
       <c r="AI79" s="76"/>
       <c r="AJ79" s="76"/>
-      <c r="AK79" s="107"/>
+      <c r="AK79" s="94"/>
       <c r="AL79" s="76"/>
     </row>
     <row r="80" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A80" s="89"/>
-      <c r="B80" s="91"/>
-      <c r="C80" s="83"/>
+      <c r="A80" s="103"/>
+      <c r="B80" s="105"/>
+      <c r="C80" s="92"/>
       <c r="D80" s="2" t="s">
         <v>157</v>
       </c>
@@ -10488,10 +10623,10 @@
         <v>44126</v>
       </c>
       <c r="J80" s="52"/>
-      <c r="K80" s="100">
+      <c r="K80" s="83">
         <v>1</v>
       </c>
-      <c r="L80" s="105"/>
+      <c r="L80" s="88"/>
       <c r="M80" s="76"/>
       <c r="N80" s="76"/>
       <c r="O80" s="76"/>
@@ -10502,27 +10637,27 @@
       <c r="T80" s="76"/>
       <c r="U80" s="76"/>
       <c r="V80" s="76"/>
-      <c r="W80" s="109"/>
+      <c r="W80" s="100"/>
       <c r="X80" s="76"/>
       <c r="Y80" s="76"/>
       <c r="Z80" s="76"/>
       <c r="AA80" s="76"/>
       <c r="AB80" s="76"/>
       <c r="AC80" s="76"/>
-      <c r="AD80" s="108"/>
+      <c r="AD80" s="97"/>
       <c r="AE80" s="76"/>
       <c r="AF80" s="76"/>
       <c r="AG80" s="76"/>
       <c r="AH80" s="76"/>
       <c r="AI80" s="76"/>
       <c r="AJ80" s="76"/>
-      <c r="AK80" s="107"/>
+      <c r="AK80" s="94"/>
       <c r="AL80" s="76"/>
     </row>
     <row r="81" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A81" s="89"/>
-      <c r="B81" s="91"/>
-      <c r="C81" s="85" t="s">
+      <c r="A81" s="103"/>
+      <c r="B81" s="105"/>
+      <c r="C81" s="102" t="s">
         <v>30</v>
       </c>
       <c r="D81" s="2" t="s">
@@ -10540,10 +10675,10 @@
       </c>
       <c r="I81" s="31"/>
       <c r="J81" s="52"/>
-      <c r="K81" s="100">
+      <c r="K81" s="83">
         <v>1</v>
       </c>
-      <c r="L81" s="105"/>
+      <c r="L81" s="88"/>
       <c r="M81" s="76"/>
       <c r="N81" s="76"/>
       <c r="O81" s="76"/>
@@ -10554,27 +10689,27 @@
       <c r="T81" s="76"/>
       <c r="U81" s="76"/>
       <c r="V81" s="76"/>
-      <c r="W81" s="109"/>
+      <c r="W81" s="100"/>
       <c r="X81" s="76"/>
       <c r="Y81" s="76"/>
       <c r="Z81" s="76"/>
       <c r="AA81" s="76"/>
       <c r="AB81" s="76"/>
       <c r="AC81" s="76"/>
-      <c r="AD81" s="108"/>
+      <c r="AD81" s="97"/>
       <c r="AE81" s="76"/>
       <c r="AF81" s="76"/>
       <c r="AG81" s="76"/>
       <c r="AH81" s="76"/>
       <c r="AI81" s="76"/>
       <c r="AJ81" s="76"/>
-      <c r="AK81" s="107"/>
+      <c r="AK81" s="94"/>
       <c r="AL81" s="76"/>
     </row>
     <row r="82" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A82" s="89"/>
-      <c r="B82" s="91"/>
-      <c r="C82" s="85"/>
+      <c r="A82" s="103"/>
+      <c r="B82" s="105"/>
+      <c r="C82" s="102"/>
       <c r="D82" s="2" t="s">
         <v>32</v>
       </c>
@@ -10584,10 +10719,10 @@
       <c r="H82" s="31"/>
       <c r="I82" s="31"/>
       <c r="J82" s="52"/>
-      <c r="K82" s="100">
+      <c r="K82" s="83">
         <v>0</v>
       </c>
-      <c r="L82" s="105"/>
+      <c r="L82" s="88"/>
       <c r="M82" s="76"/>
       <c r="N82" s="76"/>
       <c r="O82" s="76"/>
@@ -10598,27 +10733,27 @@
       <c r="T82" s="76"/>
       <c r="U82" s="76"/>
       <c r="V82" s="76"/>
-      <c r="W82" s="109"/>
+      <c r="W82" s="100"/>
       <c r="X82" s="76"/>
       <c r="Y82" s="76"/>
       <c r="Z82" s="76"/>
       <c r="AA82" s="76"/>
       <c r="AB82" s="76"/>
       <c r="AC82" s="76"/>
-      <c r="AD82" s="108"/>
+      <c r="AD82" s="97"/>
       <c r="AE82" s="76"/>
       <c r="AF82" s="76"/>
       <c r="AG82" s="76"/>
       <c r="AH82" s="76"/>
       <c r="AI82" s="76"/>
       <c r="AJ82" s="76"/>
-      <c r="AK82" s="107"/>
+      <c r="AK82" s="94"/>
       <c r="AL82" s="76"/>
     </row>
     <row r="83" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A83" s="89"/>
-      <c r="B83" s="91"/>
-      <c r="C83" s="85"/>
+      <c r="A83" s="103"/>
+      <c r="B83" s="105"/>
+      <c r="C83" s="102"/>
       <c r="D83" s="2" t="s">
         <v>33</v>
       </c>
@@ -10634,10 +10769,10 @@
       </c>
       <c r="I83" s="31"/>
       <c r="J83" s="52"/>
-      <c r="K83" s="100">
+      <c r="K83" s="83">
         <v>0</v>
       </c>
-      <c r="L83" s="105"/>
+      <c r="L83" s="88"/>
       <c r="M83" s="76"/>
       <c r="N83" s="76"/>
       <c r="O83" s="76"/>
@@ -10648,25 +10783,25 @@
       <c r="T83" s="76"/>
       <c r="U83" s="76"/>
       <c r="V83" s="76"/>
-      <c r="W83" s="109"/>
+      <c r="W83" s="100"/>
       <c r="X83" s="76"/>
       <c r="Y83" s="76"/>
       <c r="Z83" s="76"/>
       <c r="AA83" s="76"/>
       <c r="AB83" s="76"/>
       <c r="AC83" s="76"/>
-      <c r="AD83" s="108"/>
+      <c r="AD83" s="97"/>
       <c r="AE83" s="76"/>
       <c r="AF83" s="76"/>
       <c r="AG83" s="76"/>
       <c r="AH83" s="76"/>
       <c r="AI83" s="76"/>
       <c r="AJ83" s="76"/>
-      <c r="AK83" s="107"/>
+      <c r="AK83" s="94"/>
       <c r="AL83" s="76"/>
     </row>
     <row r="84" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A84" s="89"/>
+      <c r="A84" s="103"/>
       <c r="B84" s="77"/>
       <c r="C84" s="76" t="s">
         <v>258</v>
@@ -10682,8 +10817,8 @@
       <c r="H84" s="31"/>
       <c r="I84" s="31"/>
       <c r="J84" s="52"/>
-      <c r="K84" s="100"/>
-      <c r="L84" s="105"/>
+      <c r="K84" s="83"/>
+      <c r="L84" s="88"/>
       <c r="M84" s="76"/>
       <c r="N84" s="76"/>
       <c r="O84" s="76"/>
@@ -10694,25 +10829,25 @@
       <c r="T84" s="76"/>
       <c r="U84" s="76"/>
       <c r="V84" s="76"/>
-      <c r="W84" s="109"/>
+      <c r="W84" s="100"/>
       <c r="X84" s="76"/>
       <c r="Y84" s="76"/>
       <c r="Z84" s="76"/>
       <c r="AA84" s="76"/>
       <c r="AB84" s="76"/>
       <c r="AC84" s="76"/>
-      <c r="AD84" s="108"/>
+      <c r="AD84" s="97"/>
       <c r="AE84" s="76"/>
       <c r="AF84" s="76"/>
       <c r="AG84" s="76"/>
       <c r="AH84" s="76"/>
       <c r="AI84" s="76"/>
       <c r="AJ84" s="76"/>
-      <c r="AK84" s="107"/>
+      <c r="AK84" s="94"/>
       <c r="AL84" s="76"/>
     </row>
     <row r="85" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A85" s="89"/>
+      <c r="A85" s="103"/>
       <c r="B85" s="77"/>
       <c r="C85" s="76" t="s">
         <v>259</v>
@@ -10728,8 +10863,8 @@
       <c r="H85" s="31"/>
       <c r="I85" s="31"/>
       <c r="J85" s="52"/>
-      <c r="K85" s="100"/>
-      <c r="L85" s="105"/>
+      <c r="K85" s="83"/>
+      <c r="L85" s="88"/>
       <c r="M85" s="76"/>
       <c r="N85" s="76"/>
       <c r="O85" s="76"/>
@@ -10740,7 +10875,7 @@
       <c r="T85" s="76"/>
       <c r="U85" s="76"/>
       <c r="V85" s="76"/>
-      <c r="W85" s="97"/>
+      <c r="W85" s="101"/>
       <c r="X85" s="76"/>
       <c r="Y85" s="76"/>
       <c r="Z85" s="76"/>
@@ -10754,11 +10889,11 @@
       <c r="AH85" s="76"/>
       <c r="AI85" s="76"/>
       <c r="AJ85" s="76"/>
-      <c r="AK85" s="99"/>
+      <c r="AK85" s="95"/>
       <c r="AL85" s="76"/>
     </row>
     <row r="86" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A86" s="89"/>
+      <c r="A86" s="103"/>
       <c r="B86" s="38" t="s">
         <v>21</v>
       </c>
@@ -10780,11 +10915,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="D33:D38"/>
-    <mergeCell ref="AK5:AK85"/>
-    <mergeCell ref="AD5:AD85"/>
-    <mergeCell ref="W5:W85"/>
-    <mergeCell ref="C56:C57"/>
     <mergeCell ref="A5:A86"/>
     <mergeCell ref="C11:C14"/>
     <mergeCell ref="C15:C17"/>
@@ -10798,13 +10928,18 @@
     <mergeCell ref="C75:C76"/>
     <mergeCell ref="C77:C80"/>
     <mergeCell ref="C72:C74"/>
-    <mergeCell ref="D70:D71"/>
     <mergeCell ref="C18:C45"/>
     <mergeCell ref="B11:B58"/>
+    <mergeCell ref="C61:C67"/>
+    <mergeCell ref="D33:D38"/>
+    <mergeCell ref="AK5:AK85"/>
+    <mergeCell ref="AD5:AD85"/>
+    <mergeCell ref="W5:W85"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D70:D71"/>
     <mergeCell ref="D18:D27"/>
     <mergeCell ref="D30:D32"/>
     <mergeCell ref="D61:D65"/>
-    <mergeCell ref="C61:C67"/>
     <mergeCell ref="D28:D29"/>
     <mergeCell ref="C59:C60"/>
     <mergeCell ref="D59:D60"/>
@@ -10888,24 +11023,24 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
+      <c r="B3" s="107"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
     </row>
     <row r="4" spans="2:14" ht="45.75" x14ac:dyDescent="0.4">
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="93"/>
+      <c r="B4" s="107"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
       <c r="K4" s="11" t="s">
         <v>73</v>
       </c>
@@ -10914,14 +11049,14 @@
       </c>
     </row>
     <row r="5" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="93"/>
-      <c r="I5" s="93"/>
+      <c r="B5" s="107"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="107"/>
+      <c r="G5" s="107"/>
+      <c r="H5" s="107"/>
+      <c r="I5" s="107"/>
       <c r="K5" s="12" t="s">
         <v>75</v>
       </c>
@@ -10930,28 +11065,28 @@
       </c>
     </row>
     <row r="6" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="93"/>
+      <c r="B6" s="107"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="107"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="107"/>
+      <c r="H6" s="107"/>
+      <c r="I6" s="107"/>
       <c r="K6" s="12" t="s">
         <v>76</v>
       </c>
       <c r="L6" s="13"/>
     </row>
     <row r="7" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="93"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="93"/>
-      <c r="H7" s="93"/>
-      <c r="I7" s="93"/>
+      <c r="B7" s="107"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="107"/>
+      <c r="H7" s="107"/>
+      <c r="I7" s="107"/>
       <c r="K7" s="12" t="s">
         <v>77</v>
       </c>
@@ -10960,28 +11095,28 @@
       </c>
     </row>
     <row r="8" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B8" s="93"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="93"/>
-      <c r="I8" s="93"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="107"/>
       <c r="K8" s="12" t="s">
         <v>78</v>
       </c>
       <c r="L8" s="13"/>
     </row>
     <row r="9" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B9" s="93"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="93"/>
-      <c r="I9" s="93"/>
+      <c r="B9" s="107"/>
+      <c r="C9" s="107"/>
+      <c r="D9" s="107"/>
+      <c r="E9" s="107"/>
+      <c r="F9" s="107"/>
+      <c r="G9" s="107"/>
+      <c r="H9" s="107"/>
+      <c r="I9" s="107"/>
       <c r="K9" s="12" t="s">
         <v>79</v>
       </c>
@@ -10990,28 +11125,28 @@
       </c>
     </row>
     <row r="10" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B10" s="93"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="93"/>
-      <c r="F10" s="93"/>
-      <c r="G10" s="93"/>
-      <c r="H10" s="93"/>
-      <c r="I10" s="93"/>
+      <c r="B10" s="107"/>
+      <c r="C10" s="107"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="107"/>
+      <c r="F10" s="107"/>
+      <c r="G10" s="107"/>
+      <c r="H10" s="107"/>
+      <c r="I10" s="107"/>
       <c r="K10" s="12" t="s">
         <v>80</v>
       </c>
       <c r="L10" s="13"/>
     </row>
     <row r="11" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B11" s="93"/>
-      <c r="C11" s="93"/>
-      <c r="D11" s="93"/>
-      <c r="E11" s="93"/>
-      <c r="F11" s="93"/>
-      <c r="G11" s="93"/>
-      <c r="H11" s="93"/>
-      <c r="I11" s="93"/>
+      <c r="B11" s="107"/>
+      <c r="C11" s="107"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="107"/>
+      <c r="F11" s="107"/>
+      <c r="G11" s="107"/>
+      <c r="H11" s="107"/>
+      <c r="I11" s="107"/>
       <c r="K11" s="12" t="s">
         <v>81</v>
       </c>
@@ -11021,136 +11156,136 @@
       <c r="N11" s="10"/>
     </row>
     <row r="12" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B12" s="93"/>
-      <c r="C12" s="93"/>
-      <c r="D12" s="93"/>
-      <c r="E12" s="93"/>
-      <c r="F12" s="93"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="93"/>
-      <c r="I12" s="93"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="107"/>
+      <c r="D12" s="107"/>
+      <c r="E12" s="107"/>
+      <c r="F12" s="107"/>
+      <c r="G12" s="107"/>
+      <c r="H12" s="107"/>
+      <c r="I12" s="107"/>
       <c r="K12" s="12" t="s">
         <v>82</v>
       </c>
       <c r="L12" s="13"/>
     </row>
     <row r="13" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B13" s="93"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="93"/>
-      <c r="H13" s="93"/>
-      <c r="I13" s="93"/>
+      <c r="B13" s="107"/>
+      <c r="C13" s="107"/>
+      <c r="D13" s="107"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="107"/>
+      <c r="G13" s="107"/>
+      <c r="H13" s="107"/>
+      <c r="I13" s="107"/>
       <c r="K13" s="12" t="s">
         <v>83</v>
       </c>
       <c r="L13" s="13"/>
     </row>
     <row r="14" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B14" s="93"/>
-      <c r="C14" s="93"/>
-      <c r="D14" s="93"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="93"/>
-      <c r="G14" s="93"/>
-      <c r="H14" s="93"/>
-      <c r="I14" s="93"/>
+      <c r="B14" s="107"/>
+      <c r="C14" s="107"/>
+      <c r="D14" s="107"/>
+      <c r="E14" s="107"/>
+      <c r="F14" s="107"/>
+      <c r="G14" s="107"/>
+      <c r="H14" s="107"/>
+      <c r="I14" s="107"/>
       <c r="K14" s="12" t="s">
         <v>84</v>
       </c>
       <c r="L14" s="13"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B15" s="93"/>
-      <c r="C15" s="93"/>
-      <c r="D15" s="93"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="93"/>
-      <c r="G15" s="93"/>
-      <c r="H15" s="93"/>
-      <c r="I15" s="93"/>
+      <c r="B15" s="107"/>
+      <c r="C15" s="107"/>
+      <c r="D15" s="107"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="107"/>
+      <c r="G15" s="107"/>
+      <c r="H15" s="107"/>
+      <c r="I15" s="107"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B16" s="93"/>
-      <c r="C16" s="93"/>
-      <c r="D16" s="93"/>
-      <c r="E16" s="93"/>
-      <c r="F16" s="93"/>
-      <c r="G16" s="93"/>
-      <c r="H16" s="93"/>
-      <c r="I16" s="93"/>
+      <c r="B16" s="107"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="107"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="107"/>
+      <c r="G16" s="107"/>
+      <c r="H16" s="107"/>
+      <c r="I16" s="107"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B17" s="93"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="93"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="93"/>
-      <c r="I17" s="93"/>
+      <c r="B17" s="107"/>
+      <c r="C17" s="107"/>
+      <c r="D17" s="107"/>
+      <c r="E17" s="107"/>
+      <c r="F17" s="107"/>
+      <c r="G17" s="107"/>
+      <c r="H17" s="107"/>
+      <c r="I17" s="107"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B18" s="93"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="93"/>
-      <c r="F18" s="93"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="93"/>
-      <c r="I18" s="93"/>
+      <c r="B18" s="107"/>
+      <c r="C18" s="107"/>
+      <c r="D18" s="107"/>
+      <c r="E18" s="107"/>
+      <c r="F18" s="107"/>
+      <c r="G18" s="107"/>
+      <c r="H18" s="107"/>
+      <c r="I18" s="107"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B19" s="93"/>
-      <c r="C19" s="93"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="93"/>
-      <c r="F19" s="93"/>
-      <c r="G19" s="93"/>
-      <c r="H19" s="93"/>
-      <c r="I19" s="93"/>
+      <c r="B19" s="107"/>
+      <c r="C19" s="107"/>
+      <c r="D19" s="107"/>
+      <c r="E19" s="107"/>
+      <c r="F19" s="107"/>
+      <c r="G19" s="107"/>
+      <c r="H19" s="107"/>
+      <c r="I19" s="107"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B20" s="93"/>
-      <c r="C20" s="93"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="93"/>
-      <c r="F20" s="93"/>
-      <c r="G20" s="93"/>
-      <c r="H20" s="93"/>
-      <c r="I20" s="93"/>
+      <c r="B20" s="107"/>
+      <c r="C20" s="107"/>
+      <c r="D20" s="107"/>
+      <c r="E20" s="107"/>
+      <c r="F20" s="107"/>
+      <c r="G20" s="107"/>
+      <c r="H20" s="107"/>
+      <c r="I20" s="107"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
+      <c r="B21" s="107"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="107"/>
+      <c r="F21" s="107"/>
+      <c r="G21" s="107"/>
+      <c r="H21" s="107"/>
+      <c r="I21" s="107"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B22" s="93"/>
-      <c r="C22" s="93"/>
-      <c r="D22" s="93"/>
-      <c r="E22" s="93"/>
-      <c r="F22" s="93"/>
-      <c r="G22" s="93"/>
-      <c r="H22" s="93"/>
-      <c r="I22" s="93"/>
+      <c r="B22" s="107"/>
+      <c r="C22" s="107"/>
+      <c r="D22" s="107"/>
+      <c r="E22" s="107"/>
+      <c r="F22" s="107"/>
+      <c r="G22" s="107"/>
+      <c r="H22" s="107"/>
+      <c r="I22" s="107"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B23" s="93"/>
-      <c r="C23" s="93"/>
-      <c r="D23" s="93"/>
-      <c r="E23" s="93"/>
-      <c r="F23" s="93"/>
-      <c r="G23" s="93"/>
-      <c r="H23" s="93"/>
-      <c r="I23" s="93"/>
+      <c r="B23" s="107"/>
+      <c r="C23" s="107"/>
+      <c r="D23" s="107"/>
+      <c r="E23" s="107"/>
+      <c r="F23" s="107"/>
+      <c r="G23" s="107"/>
+      <c r="H23" s="107"/>
+      <c r="I23" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11196,22 +11331,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="108" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" s="93"/>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
+      <c r="A2" s="107"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="7"/>
@@ -11298,7 +11433,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B10" s="95" t="s">
+      <c r="B10" s="109" t="s">
         <v>173</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -11312,7 +11447,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B11" s="95"/>
+      <c r="B11" s="109"/>
       <c r="C11" s="2" t="s">
         <v>176</v>
       </c>
@@ -11320,7 +11455,7 @@
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B12" s="95"/>
+      <c r="B12" s="109"/>
       <c r="C12" s="2" t="s">
         <v>172</v>
       </c>
@@ -11328,7 +11463,7 @@
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B13" s="95"/>
+      <c r="B13" s="109"/>
       <c r="C13" s="2" t="s">
         <v>175</v>
       </c>
@@ -11433,12 +11568,12 @@
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="110" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11473,7 +11608,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -11826,4 +11961,292 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B6:H26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="31.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.125" style="82" customWidth="1"/>
+    <col min="4" max="4" width="21.25" customWidth="1"/>
+    <col min="5" max="5" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B6" s="82" t="s">
+        <v>210</v>
+      </c>
+      <c r="C6" s="82" t="s">
+        <v>199</v>
+      </c>
+      <c r="D6" s="82" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="82" t="s">
+        <v>246</v>
+      </c>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B7" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="C7" s="113" t="s">
+        <v>274</v>
+      </c>
+      <c r="D7" s="111" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B8" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="C8" s="113" t="s">
+        <v>274</v>
+      </c>
+      <c r="D8" s="111" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B9" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="C9" s="114" t="s">
+        <v>273</v>
+      </c>
+      <c r="D9" s="111" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B10" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="C10" s="114" t="s">
+        <v>273</v>
+      </c>
+      <c r="D10" s="111" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
+      <c r="H10" s="82"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B11" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="114" t="s">
+        <v>273</v>
+      </c>
+      <c r="D11" s="111" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="82"/>
+      <c r="F11" s="82"/>
+      <c r="H11" s="82"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B12" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="C12" s="114" t="s">
+        <v>273</v>
+      </c>
+      <c r="D12" s="111" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="82"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="82"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B13" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="C13" s="114" t="s">
+        <v>273</v>
+      </c>
+      <c r="D13" s="111" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82" t="s">
+        <v>231</v>
+      </c>
+      <c r="G13" s="82"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B14" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="C14" s="114" t="s">
+        <v>273</v>
+      </c>
+      <c r="D14" s="111" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="82"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B15" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="114" t="s">
+        <v>273</v>
+      </c>
+      <c r="D15" s="111" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="82"/>
+      <c r="F15" s="82"/>
+      <c r="H15" s="82"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B16" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="114" t="s">
+        <v>273</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="E16" s="82"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="82"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B17" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="114" t="s">
+        <v>273</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="E17" s="82"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="82"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B18" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="C18" s="114" t="s">
+        <v>273</v>
+      </c>
+      <c r="D18" s="111" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="82"/>
+      <c r="F18" s="82"/>
+      <c r="H18" s="82"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B19" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="C19" s="114" t="s">
+        <v>273</v>
+      </c>
+      <c r="D19" s="111" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B20" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="C20" s="114" t="s">
+        <v>273</v>
+      </c>
+      <c r="D20" s="111" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B21" s="115" t="s">
+        <v>268</v>
+      </c>
+      <c r="C21" s="116" t="s">
+        <v>275</v>
+      </c>
+      <c r="D21" s="111" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B22" s="115" t="s">
+        <v>269</v>
+      </c>
+      <c r="C22" s="116" t="s">
+        <v>275</v>
+      </c>
+      <c r="D22" s="111" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B24" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="114" t="s">
+        <v>273</v>
+      </c>
+      <c r="D24" s="112" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B25" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="114" t="s">
+        <v>273</v>
+      </c>
+      <c r="D25" s="112" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B26" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="114" t="s">
+        <v>273</v>
+      </c>
+      <c r="D26" s="112" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/schedule/ガントチャート.xlsx
+++ b/schedule/ガントチャート.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="282">
   <si>
     <t>カテゴリ</t>
     <phoneticPr fontId="1"/>
@@ -1932,6 +1932,51 @@
   </si>
   <si>
     <t>Ａ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>工藤</t>
+    <rPh sb="0" eb="2">
+      <t>クドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>増澤</t>
+    <rPh sb="0" eb="2">
+      <t>マスザワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>筒井</t>
+    <rPh sb="0" eb="2">
+      <t>ツツイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>岡</t>
+    <rPh sb="0" eb="1">
+      <t>オカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終わった人</t>
+    <rPh sb="0" eb="1">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>吉田</t>
+    <rPh sb="0" eb="2">
+      <t>ヨシダ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2604,7 +2649,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2875,6 +2920,39 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="16">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="18">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" xfId="13" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="9" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="12">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="12" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2884,6 +2962,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="9" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -2911,21 +2992,6 @@
     <xf numFmtId="0" fontId="21" fillId="8" borderId="3" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2936,24 +3002,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="16">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="18">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" xfId="13" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="9" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="12">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="12" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6871,10 +6919,10 @@
       </c>
     </row>
     <row r="5" spans="1:46" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="103" t="s">
+      <c r="A5" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="104" t="s">
+      <c r="B5" s="99" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="19" t="s">
@@ -6911,7 +6959,7 @@
       <c r="T5" s="78"/>
       <c r="U5" s="78"/>
       <c r="V5" s="78"/>
-      <c r="W5" s="99" t="s">
+      <c r="W5" s="111" t="s">
         <v>110</v>
       </c>
       <c r="X5" s="78"/>
@@ -6920,7 +6968,7 @@
       <c r="AA5" s="78"/>
       <c r="AB5" s="78"/>
       <c r="AC5" s="78"/>
-      <c r="AD5" s="96" t="s">
+      <c r="AD5" s="108" t="s">
         <v>111</v>
       </c>
       <c r="AE5" s="78"/>
@@ -6929,14 +6977,14 @@
       <c r="AH5" s="78"/>
       <c r="AI5" s="78"/>
       <c r="AJ5" s="78"/>
-      <c r="AK5" s="93" t="s">
+      <c r="AK5" s="105" t="s">
         <v>88</v>
       </c>
       <c r="AL5" s="78"/>
     </row>
     <row r="6" spans="1:46" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="103"/>
-      <c r="B6" s="104"/>
+      <c r="A6" s="97"/>
+      <c r="B6" s="99"/>
       <c r="C6" s="19" t="s">
         <v>9</v>
       </c>
@@ -6969,26 +7017,26 @@
       <c r="T6" s="76"/>
       <c r="U6" s="76"/>
       <c r="V6" s="76"/>
-      <c r="W6" s="100"/>
+      <c r="W6" s="112"/>
       <c r="X6" s="76"/>
       <c r="Y6" s="76"/>
       <c r="Z6" s="76"/>
       <c r="AA6" s="76"/>
       <c r="AB6" s="76"/>
       <c r="AC6" s="76"/>
-      <c r="AD6" s="97"/>
+      <c r="AD6" s="109"/>
       <c r="AE6" s="76"/>
       <c r="AF6" s="76"/>
       <c r="AG6" s="76"/>
       <c r="AH6" s="76"/>
       <c r="AI6" s="76"/>
       <c r="AJ6" s="76"/>
-      <c r="AK6" s="94"/>
+      <c r="AK6" s="106"/>
       <c r="AL6" s="76"/>
     </row>
     <row r="7" spans="1:46" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="103"/>
-      <c r="B7" s="104"/>
+      <c r="A7" s="97"/>
+      <c r="B7" s="99"/>
       <c r="C7" s="19" t="s">
         <v>10</v>
       </c>
@@ -7019,26 +7067,26 @@
       <c r="T7" s="76"/>
       <c r="U7" s="76"/>
       <c r="V7" s="76"/>
-      <c r="W7" s="100"/>
+      <c r="W7" s="112"/>
       <c r="X7" s="76"/>
       <c r="Y7" s="76"/>
       <c r="Z7" s="76"/>
       <c r="AA7" s="76"/>
       <c r="AB7" s="76"/>
       <c r="AC7" s="76"/>
-      <c r="AD7" s="97"/>
+      <c r="AD7" s="109"/>
       <c r="AE7" s="76"/>
       <c r="AF7" s="76"/>
       <c r="AG7" s="76"/>
       <c r="AH7" s="76"/>
       <c r="AI7" s="76"/>
       <c r="AJ7" s="76"/>
-      <c r="AK7" s="94"/>
+      <c r="AK7" s="106"/>
       <c r="AL7" s="76"/>
     </row>
     <row r="8" spans="1:46" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="103"/>
-      <c r="B8" s="104"/>
+      <c r="A8" s="97"/>
+      <c r="B8" s="99"/>
       <c r="C8" s="19" t="s">
         <v>11</v>
       </c>
@@ -7069,26 +7117,26 @@
       <c r="T8" s="76"/>
       <c r="U8" s="76"/>
       <c r="V8" s="76"/>
-      <c r="W8" s="100"/>
+      <c r="W8" s="112"/>
       <c r="X8" s="76"/>
       <c r="Y8" s="76"/>
       <c r="Z8" s="76"/>
       <c r="AA8" s="76"/>
       <c r="AB8" s="76"/>
       <c r="AC8" s="76"/>
-      <c r="AD8" s="97"/>
+      <c r="AD8" s="109"/>
       <c r="AE8" s="76"/>
       <c r="AF8" s="76"/>
       <c r="AG8" s="76"/>
       <c r="AH8" s="76"/>
       <c r="AI8" s="76"/>
       <c r="AJ8" s="76"/>
-      <c r="AK8" s="94"/>
+      <c r="AK8" s="106"/>
       <c r="AL8" s="76"/>
     </row>
     <row r="9" spans="1:46" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="103"/>
-      <c r="B9" s="104"/>
+      <c r="A9" s="97"/>
+      <c r="B9" s="99"/>
       <c r="C9" s="19" t="s">
         <v>34</v>
       </c>
@@ -7123,26 +7171,26 @@
       <c r="T9" s="76"/>
       <c r="U9" s="76"/>
       <c r="V9" s="76"/>
-      <c r="W9" s="100"/>
+      <c r="W9" s="112"/>
       <c r="X9" s="76"/>
       <c r="Y9" s="76"/>
       <c r="Z9" s="76"/>
       <c r="AA9" s="76"/>
       <c r="AB9" s="76"/>
       <c r="AC9" s="76"/>
-      <c r="AD9" s="97"/>
+      <c r="AD9" s="109"/>
       <c r="AE9" s="76"/>
       <c r="AF9" s="76"/>
       <c r="AG9" s="76"/>
       <c r="AH9" s="76"/>
       <c r="AI9" s="76"/>
       <c r="AJ9" s="76"/>
-      <c r="AK9" s="94"/>
+      <c r="AK9" s="106"/>
       <c r="AL9" s="76"/>
     </row>
     <row r="10" spans="1:46" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="103"/>
-      <c r="B10" s="104"/>
+      <c r="A10" s="97"/>
+      <c r="B10" s="99"/>
       <c r="C10" s="19" t="s">
         <v>35</v>
       </c>
@@ -7171,29 +7219,29 @@
       <c r="T10" s="76"/>
       <c r="U10" s="76"/>
       <c r="V10" s="76"/>
-      <c r="W10" s="100"/>
+      <c r="W10" s="112"/>
       <c r="X10" s="76"/>
       <c r="Y10" s="76"/>
       <c r="Z10" s="76"/>
       <c r="AA10" s="76"/>
       <c r="AB10" s="76"/>
       <c r="AC10" s="76"/>
-      <c r="AD10" s="97"/>
+      <c r="AD10" s="109"/>
       <c r="AE10" s="76"/>
       <c r="AF10" s="76"/>
       <c r="AG10" s="76"/>
       <c r="AH10" s="76"/>
       <c r="AI10" s="76"/>
       <c r="AJ10" s="76"/>
-      <c r="AK10" s="94"/>
+      <c r="AK10" s="106"/>
       <c r="AL10" s="76"/>
     </row>
     <row r="11" spans="1:46" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="103"/>
-      <c r="B11" s="106" t="s">
+      <c r="A11" s="97"/>
+      <c r="B11" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="102" t="s">
+      <c r="C11" s="98" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="40" t="s">
@@ -7219,27 +7267,27 @@
       <c r="T11" s="76"/>
       <c r="U11" s="76"/>
       <c r="V11" s="76"/>
-      <c r="W11" s="100"/>
+      <c r="W11" s="112"/>
       <c r="X11" s="76"/>
       <c r="Y11" s="76"/>
       <c r="Z11" s="76"/>
       <c r="AA11" s="76"/>
       <c r="AB11" s="76"/>
       <c r="AC11" s="76"/>
-      <c r="AD11" s="97"/>
+      <c r="AD11" s="109"/>
       <c r="AE11" s="76"/>
       <c r="AF11" s="76"/>
       <c r="AG11" s="76"/>
       <c r="AH11" s="76"/>
       <c r="AI11" s="76"/>
       <c r="AJ11" s="76"/>
-      <c r="AK11" s="94"/>
+      <c r="AK11" s="106"/>
       <c r="AL11" s="76"/>
     </row>
     <row r="12" spans="1:46" x14ac:dyDescent="0.4">
-      <c r="A12" s="103"/>
-      <c r="B12" s="106"/>
-      <c r="C12" s="102"/>
+      <c r="A12" s="97"/>
+      <c r="B12" s="104"/>
+      <c r="C12" s="98"/>
       <c r="D12" s="2" t="s">
         <v>23</v>
       </c>
@@ -7263,27 +7311,27 @@
       <c r="T12" s="76"/>
       <c r="U12" s="76"/>
       <c r="V12" s="76"/>
-      <c r="W12" s="100"/>
+      <c r="W12" s="112"/>
       <c r="X12" s="76"/>
       <c r="Y12" s="76"/>
       <c r="Z12" s="76"/>
       <c r="AA12" s="76"/>
       <c r="AB12" s="76"/>
       <c r="AC12" s="76"/>
-      <c r="AD12" s="97"/>
+      <c r="AD12" s="109"/>
       <c r="AE12" s="76"/>
       <c r="AF12" s="76"/>
       <c r="AG12" s="76"/>
       <c r="AH12" s="76"/>
       <c r="AI12" s="76"/>
       <c r="AJ12" s="76"/>
-      <c r="AK12" s="94"/>
+      <c r="AK12" s="106"/>
       <c r="AL12" s="76"/>
     </row>
     <row r="13" spans="1:46" x14ac:dyDescent="0.4">
-      <c r="A13" s="103"/>
-      <c r="B13" s="106"/>
-      <c r="C13" s="102"/>
+      <c r="A13" s="97"/>
+      <c r="B13" s="104"/>
+      <c r="C13" s="98"/>
       <c r="D13" s="33" t="s">
         <v>45</v>
       </c>
@@ -7307,27 +7355,27 @@
       <c r="T13" s="76"/>
       <c r="U13" s="76"/>
       <c r="V13" s="76"/>
-      <c r="W13" s="100"/>
+      <c r="W13" s="112"/>
       <c r="X13" s="76"/>
       <c r="Y13" s="76"/>
       <c r="Z13" s="76"/>
       <c r="AA13" s="76"/>
       <c r="AB13" s="76"/>
       <c r="AC13" s="76"/>
-      <c r="AD13" s="97"/>
+      <c r="AD13" s="109"/>
       <c r="AE13" s="76"/>
       <c r="AF13" s="76"/>
       <c r="AG13" s="76"/>
       <c r="AH13" s="76"/>
       <c r="AI13" s="76"/>
       <c r="AJ13" s="76"/>
-      <c r="AK13" s="94"/>
+      <c r="AK13" s="106"/>
       <c r="AL13" s="76"/>
     </row>
     <row r="14" spans="1:46" x14ac:dyDescent="0.4">
-      <c r="A14" s="103"/>
-      <c r="B14" s="106"/>
-      <c r="C14" s="102"/>
+      <c r="A14" s="97"/>
+      <c r="B14" s="104"/>
+      <c r="C14" s="98"/>
       <c r="D14" s="34" t="s">
         <v>27</v>
       </c>
@@ -7351,27 +7399,27 @@
       <c r="T14" s="76"/>
       <c r="U14" s="76"/>
       <c r="V14" s="76"/>
-      <c r="W14" s="100"/>
+      <c r="W14" s="112"/>
       <c r="X14" s="76"/>
       <c r="Y14" s="76"/>
       <c r="Z14" s="76"/>
       <c r="AA14" s="76"/>
       <c r="AB14" s="76"/>
       <c r="AC14" s="76"/>
-      <c r="AD14" s="97"/>
+      <c r="AD14" s="109"/>
       <c r="AE14" s="76"/>
       <c r="AF14" s="76"/>
       <c r="AG14" s="76"/>
       <c r="AH14" s="76"/>
       <c r="AI14" s="76"/>
       <c r="AJ14" s="76"/>
-      <c r="AK14" s="94"/>
+      <c r="AK14" s="106"/>
       <c r="AL14" s="76"/>
     </row>
     <row r="15" spans="1:46" x14ac:dyDescent="0.4">
-      <c r="A15" s="103"/>
-      <c r="B15" s="106"/>
-      <c r="C15" s="102" t="s">
+      <c r="A15" s="97"/>
+      <c r="B15" s="104"/>
+      <c r="C15" s="98" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -7399,27 +7447,27 @@
       <c r="T15" s="76"/>
       <c r="U15" s="76"/>
       <c r="V15" s="76"/>
-      <c r="W15" s="100"/>
+      <c r="W15" s="112"/>
       <c r="X15" s="76"/>
       <c r="Y15" s="76"/>
       <c r="Z15" s="76"/>
       <c r="AA15" s="76"/>
       <c r="AB15" s="76"/>
       <c r="AC15" s="76"/>
-      <c r="AD15" s="97"/>
+      <c r="AD15" s="109"/>
       <c r="AE15" s="76"/>
       <c r="AF15" s="76"/>
       <c r="AG15" s="76"/>
       <c r="AH15" s="76"/>
       <c r="AI15" s="76"/>
       <c r="AJ15" s="76"/>
-      <c r="AK15" s="94"/>
+      <c r="AK15" s="106"/>
       <c r="AL15" s="76"/>
     </row>
     <row r="16" spans="1:46" x14ac:dyDescent="0.4">
-      <c r="A16" s="103"/>
-      <c r="B16" s="106"/>
-      <c r="C16" s="102"/>
+      <c r="A16" s="97"/>
+      <c r="B16" s="104"/>
+      <c r="C16" s="98"/>
       <c r="D16" s="35" t="s">
         <v>45</v>
       </c>
@@ -7443,27 +7491,27 @@
       <c r="T16" s="76"/>
       <c r="U16" s="76"/>
       <c r="V16" s="76"/>
-      <c r="W16" s="100"/>
+      <c r="W16" s="112"/>
       <c r="X16" s="76"/>
       <c r="Y16" s="76"/>
       <c r="Z16" s="76"/>
       <c r="AA16" s="76"/>
       <c r="AB16" s="76"/>
       <c r="AC16" s="76"/>
-      <c r="AD16" s="97"/>
+      <c r="AD16" s="109"/>
       <c r="AE16" s="76"/>
       <c r="AF16" s="76"/>
       <c r="AG16" s="76"/>
       <c r="AH16" s="76"/>
       <c r="AI16" s="76"/>
       <c r="AJ16" s="76"/>
-      <c r="AK16" s="94"/>
+      <c r="AK16" s="106"/>
       <c r="AL16" s="76"/>
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A17" s="103"/>
-      <c r="B17" s="106"/>
-      <c r="C17" s="102"/>
+      <c r="A17" s="97"/>
+      <c r="B17" s="104"/>
+      <c r="C17" s="98"/>
       <c r="D17" s="2" t="s">
         <v>23</v>
       </c>
@@ -7487,30 +7535,30 @@
       <c r="T17" s="76"/>
       <c r="U17" s="76"/>
       <c r="V17" s="76"/>
-      <c r="W17" s="100"/>
+      <c r="W17" s="112"/>
       <c r="X17" s="76"/>
       <c r="Y17" s="76"/>
       <c r="Z17" s="76"/>
       <c r="AA17" s="76"/>
       <c r="AB17" s="76"/>
       <c r="AC17" s="76"/>
-      <c r="AD17" s="97"/>
+      <c r="AD17" s="109"/>
       <c r="AE17" s="76"/>
       <c r="AF17" s="76"/>
       <c r="AG17" s="76"/>
       <c r="AH17" s="76"/>
       <c r="AI17" s="76"/>
       <c r="AJ17" s="76"/>
-      <c r="AK17" s="94"/>
+      <c r="AK17" s="106"/>
       <c r="AL17" s="76"/>
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A18" s="103"/>
-      <c r="B18" s="106"/>
-      <c r="C18" s="102" t="s">
+      <c r="A18" s="97"/>
+      <c r="B18" s="104"/>
+      <c r="C18" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="102" t="s">
+      <c r="D18" s="98" t="s">
         <v>95</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -7543,28 +7591,28 @@
       <c r="T18" s="76"/>
       <c r="U18" s="76"/>
       <c r="V18" s="76"/>
-      <c r="W18" s="100"/>
+      <c r="W18" s="112"/>
       <c r="X18" s="76"/>
       <c r="Y18" s="76"/>
       <c r="Z18" s="76"/>
       <c r="AA18" s="76"/>
       <c r="AB18" s="76"/>
       <c r="AC18" s="76"/>
-      <c r="AD18" s="97"/>
+      <c r="AD18" s="109"/>
       <c r="AE18" s="76"/>
       <c r="AF18" s="76"/>
       <c r="AG18" s="76"/>
       <c r="AH18" s="76"/>
       <c r="AI18" s="76"/>
       <c r="AJ18" s="76"/>
-      <c r="AK18" s="94"/>
+      <c r="AK18" s="106"/>
       <c r="AL18" s="76"/>
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A19" s="103"/>
-      <c r="B19" s="106"/>
-      <c r="C19" s="102"/>
-      <c r="D19" s="102"/>
+      <c r="A19" s="97"/>
+      <c r="B19" s="104"/>
+      <c r="C19" s="98"/>
+      <c r="D19" s="98"/>
       <c r="E19" s="2" t="s">
         <v>138</v>
       </c>
@@ -7595,28 +7643,28 @@
       <c r="T19" s="76"/>
       <c r="U19" s="76"/>
       <c r="V19" s="76"/>
-      <c r="W19" s="100"/>
+      <c r="W19" s="112"/>
       <c r="X19" s="76"/>
       <c r="Y19" s="76"/>
       <c r="Z19" s="76"/>
       <c r="AA19" s="76"/>
       <c r="AB19" s="76"/>
       <c r="AC19" s="76"/>
-      <c r="AD19" s="97"/>
+      <c r="AD19" s="109"/>
       <c r="AE19" s="76"/>
       <c r="AF19" s="76"/>
       <c r="AG19" s="76"/>
       <c r="AH19" s="76"/>
       <c r="AI19" s="76"/>
       <c r="AJ19" s="76"/>
-      <c r="AK19" s="94"/>
+      <c r="AK19" s="106"/>
       <c r="AL19" s="76"/>
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A20" s="103"/>
-      <c r="B20" s="106"/>
-      <c r="C20" s="102"/>
-      <c r="D20" s="102"/>
+      <c r="A20" s="97"/>
+      <c r="B20" s="104"/>
+      <c r="C20" s="98"/>
+      <c r="D20" s="98"/>
       <c r="E20" s="2" t="s">
         <v>112</v>
       </c>
@@ -7647,28 +7695,28 @@
       <c r="T20" s="76"/>
       <c r="U20" s="76"/>
       <c r="V20" s="76"/>
-      <c r="W20" s="100"/>
+      <c r="W20" s="112"/>
       <c r="X20" s="76"/>
       <c r="Y20" s="76"/>
       <c r="Z20" s="76"/>
       <c r="AA20" s="76"/>
       <c r="AB20" s="76"/>
       <c r="AC20" s="76"/>
-      <c r="AD20" s="97"/>
+      <c r="AD20" s="109"/>
       <c r="AE20" s="76"/>
       <c r="AF20" s="76"/>
       <c r="AG20" s="76"/>
       <c r="AH20" s="76"/>
       <c r="AI20" s="76"/>
       <c r="AJ20" s="76"/>
-      <c r="AK20" s="94"/>
+      <c r="AK20" s="106"/>
       <c r="AL20" s="76"/>
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A21" s="103"/>
-      <c r="B21" s="106"/>
-      <c r="C21" s="102"/>
-      <c r="D21" s="102"/>
+      <c r="A21" s="97"/>
+      <c r="B21" s="104"/>
+      <c r="C21" s="98"/>
+      <c r="D21" s="98"/>
       <c r="E21" s="2" t="s">
         <v>108</v>
       </c>
@@ -7699,28 +7747,28 @@
       <c r="T21" s="76"/>
       <c r="U21" s="76"/>
       <c r="V21" s="76"/>
-      <c r="W21" s="100"/>
+      <c r="W21" s="112"/>
       <c r="X21" s="76"/>
       <c r="Y21" s="76"/>
       <c r="Z21" s="76"/>
       <c r="AA21" s="76"/>
       <c r="AB21" s="76"/>
       <c r="AC21" s="76"/>
-      <c r="AD21" s="97"/>
+      <c r="AD21" s="109"/>
       <c r="AE21" s="76"/>
       <c r="AF21" s="76"/>
       <c r="AG21" s="76"/>
       <c r="AH21" s="76"/>
       <c r="AI21" s="76"/>
       <c r="AJ21" s="76"/>
-      <c r="AK21" s="94"/>
+      <c r="AK21" s="106"/>
       <c r="AL21" s="76"/>
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A22" s="103"/>
-      <c r="B22" s="106"/>
-      <c r="C22" s="102"/>
-      <c r="D22" s="102"/>
+      <c r="A22" s="97"/>
+      <c r="B22" s="104"/>
+      <c r="C22" s="98"/>
+      <c r="D22" s="98"/>
       <c r="E22" s="2" t="s">
         <v>135</v>
       </c>
@@ -7751,28 +7799,28 @@
       <c r="T22" s="76"/>
       <c r="U22" s="76"/>
       <c r="V22" s="76"/>
-      <c r="W22" s="100"/>
+      <c r="W22" s="112"/>
       <c r="X22" s="76"/>
       <c r="Y22" s="76"/>
       <c r="Z22" s="76"/>
       <c r="AA22" s="76"/>
       <c r="AB22" s="76"/>
       <c r="AC22" s="76"/>
-      <c r="AD22" s="97"/>
+      <c r="AD22" s="109"/>
       <c r="AE22" s="76"/>
       <c r="AF22" s="76"/>
       <c r="AG22" s="76"/>
       <c r="AH22" s="76"/>
       <c r="AI22" s="76"/>
       <c r="AJ22" s="76"/>
-      <c r="AK22" s="94"/>
+      <c r="AK22" s="106"/>
       <c r="AL22" s="76"/>
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A23" s="103"/>
-      <c r="B23" s="106"/>
-      <c r="C23" s="102"/>
-      <c r="D23" s="102"/>
+      <c r="A23" s="97"/>
+      <c r="B23" s="104"/>
+      <c r="C23" s="98"/>
+      <c r="D23" s="98"/>
       <c r="E23" s="2" t="s">
         <v>118</v>
       </c>
@@ -7803,28 +7851,28 @@
       <c r="T23" s="76"/>
       <c r="U23" s="76"/>
       <c r="V23" s="76"/>
-      <c r="W23" s="100"/>
+      <c r="W23" s="112"/>
       <c r="X23" s="76"/>
       <c r="Y23" s="76"/>
       <c r="Z23" s="76"/>
       <c r="AA23" s="76"/>
       <c r="AB23" s="76"/>
       <c r="AC23" s="76"/>
-      <c r="AD23" s="97"/>
+      <c r="AD23" s="109"/>
       <c r="AE23" s="76"/>
       <c r="AF23" s="76"/>
       <c r="AG23" s="76"/>
       <c r="AH23" s="76"/>
       <c r="AI23" s="76"/>
       <c r="AJ23" s="76"/>
-      <c r="AK23" s="94"/>
+      <c r="AK23" s="106"/>
       <c r="AL23" s="76"/>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A24" s="103"/>
-      <c r="B24" s="106"/>
-      <c r="C24" s="102"/>
-      <c r="D24" s="102"/>
+      <c r="A24" s="97"/>
+      <c r="B24" s="104"/>
+      <c r="C24" s="98"/>
+      <c r="D24" s="98"/>
       <c r="E24" s="2" t="s">
         <v>109</v>
       </c>
@@ -7855,28 +7903,28 @@
       <c r="T24" s="76"/>
       <c r="U24" s="76"/>
       <c r="V24" s="76"/>
-      <c r="W24" s="100"/>
+      <c r="W24" s="112"/>
       <c r="X24" s="76"/>
       <c r="Y24" s="76"/>
       <c r="Z24" s="76"/>
       <c r="AA24" s="76"/>
       <c r="AB24" s="76"/>
       <c r="AC24" s="76"/>
-      <c r="AD24" s="97"/>
+      <c r="AD24" s="109"/>
       <c r="AE24" s="76"/>
       <c r="AF24" s="76"/>
       <c r="AG24" s="76"/>
       <c r="AH24" s="76"/>
       <c r="AI24" s="76"/>
       <c r="AJ24" s="76"/>
-      <c r="AK24" s="94"/>
+      <c r="AK24" s="106"/>
       <c r="AL24" s="76"/>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A25" s="103"/>
-      <c r="B25" s="106"/>
-      <c r="C25" s="102"/>
-      <c r="D25" s="102"/>
+      <c r="A25" s="97"/>
+      <c r="B25" s="104"/>
+      <c r="C25" s="98"/>
+      <c r="D25" s="98"/>
       <c r="E25" s="2" t="s">
         <v>167</v>
       </c>
@@ -7907,28 +7955,28 @@
       <c r="T25" s="76"/>
       <c r="U25" s="76"/>
       <c r="V25" s="76"/>
-      <c r="W25" s="100"/>
+      <c r="W25" s="112"/>
       <c r="X25" s="76"/>
       <c r="Y25" s="76"/>
       <c r="Z25" s="76"/>
       <c r="AA25" s="76"/>
       <c r="AB25" s="76"/>
       <c r="AC25" s="76"/>
-      <c r="AD25" s="97"/>
+      <c r="AD25" s="109"/>
       <c r="AE25" s="76"/>
       <c r="AF25" s="76"/>
       <c r="AG25" s="76"/>
       <c r="AH25" s="76"/>
       <c r="AI25" s="76"/>
       <c r="AJ25" s="76"/>
-      <c r="AK25" s="94"/>
+      <c r="AK25" s="106"/>
       <c r="AL25" s="76"/>
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A26" s="103"/>
-      <c r="B26" s="106"/>
-      <c r="C26" s="102"/>
-      <c r="D26" s="102"/>
+      <c r="A26" s="97"/>
+      <c r="B26" s="104"/>
+      <c r="C26" s="98"/>
+      <c r="D26" s="98"/>
       <c r="E26" s="2" t="s">
         <v>106</v>
       </c>
@@ -7959,28 +8007,28 @@
       <c r="T26" s="76"/>
       <c r="U26" s="76"/>
       <c r="V26" s="76"/>
-      <c r="W26" s="100"/>
+      <c r="W26" s="112"/>
       <c r="X26" s="76"/>
       <c r="Y26" s="76"/>
       <c r="Z26" s="76"/>
       <c r="AA26" s="76"/>
       <c r="AB26" s="76"/>
       <c r="AC26" s="76"/>
-      <c r="AD26" s="97"/>
+      <c r="AD26" s="109"/>
       <c r="AE26" s="76"/>
       <c r="AF26" s="76"/>
       <c r="AG26" s="76"/>
       <c r="AH26" s="76"/>
       <c r="AI26" s="76"/>
       <c r="AJ26" s="76"/>
-      <c r="AK26" s="94"/>
+      <c r="AK26" s="106"/>
       <c r="AL26" s="76"/>
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A27" s="103"/>
-      <c r="B27" s="106"/>
-      <c r="C27" s="102"/>
-      <c r="D27" s="102"/>
+      <c r="A27" s="97"/>
+      <c r="B27" s="104"/>
+      <c r="C27" s="98"/>
+      <c r="D27" s="98"/>
       <c r="E27" s="2" t="s">
         <v>102</v>
       </c>
@@ -8011,28 +8059,28 @@
       <c r="T27" s="76"/>
       <c r="U27" s="76"/>
       <c r="V27" s="76"/>
-      <c r="W27" s="100"/>
+      <c r="W27" s="112"/>
       <c r="X27" s="76"/>
       <c r="Y27" s="76"/>
       <c r="Z27" s="76"/>
       <c r="AA27" s="76"/>
       <c r="AB27" s="76"/>
       <c r="AC27" s="76"/>
-      <c r="AD27" s="97"/>
+      <c r="AD27" s="109"/>
       <c r="AE27" s="76"/>
       <c r="AF27" s="76"/>
       <c r="AG27" s="76"/>
       <c r="AH27" s="76"/>
       <c r="AI27" s="76"/>
       <c r="AJ27" s="76"/>
-      <c r="AK27" s="94"/>
+      <c r="AK27" s="106"/>
       <c r="AL27" s="76"/>
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A28" s="103"/>
-      <c r="B28" s="106"/>
-      <c r="C28" s="102"/>
-      <c r="D28" s="102" t="s">
+      <c r="A28" s="97"/>
+      <c r="B28" s="104"/>
+      <c r="C28" s="98"/>
+      <c r="D28" s="98" t="s">
         <v>25</v>
       </c>
       <c r="E28" s="2" t="s">
@@ -8065,28 +8113,28 @@
       <c r="T28" s="76"/>
       <c r="U28" s="76"/>
       <c r="V28" s="76"/>
-      <c r="W28" s="100"/>
+      <c r="W28" s="112"/>
       <c r="X28" s="76"/>
       <c r="Y28" s="76"/>
       <c r="Z28" s="76"/>
       <c r="AA28" s="76"/>
       <c r="AB28" s="76"/>
       <c r="AC28" s="76"/>
-      <c r="AD28" s="97"/>
+      <c r="AD28" s="109"/>
       <c r="AE28" s="76"/>
       <c r="AF28" s="76"/>
       <c r="AG28" s="76"/>
       <c r="AH28" s="76"/>
       <c r="AI28" s="76"/>
       <c r="AJ28" s="76"/>
-      <c r="AK28" s="94"/>
+      <c r="AK28" s="106"/>
       <c r="AL28" s="76"/>
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A29" s="103"/>
-      <c r="B29" s="106"/>
-      <c r="C29" s="102"/>
-      <c r="D29" s="102"/>
+      <c r="A29" s="97"/>
+      <c r="B29" s="104"/>
+      <c r="C29" s="98"/>
+      <c r="D29" s="98"/>
       <c r="E29" s="2" t="s">
         <v>119</v>
       </c>
@@ -8117,28 +8165,28 @@
       <c r="T29" s="76"/>
       <c r="U29" s="76"/>
       <c r="V29" s="76"/>
-      <c r="W29" s="100"/>
+      <c r="W29" s="112"/>
       <c r="X29" s="76"/>
       <c r="Y29" s="76"/>
       <c r="Z29" s="76"/>
       <c r="AA29" s="76"/>
       <c r="AB29" s="76"/>
       <c r="AC29" s="76"/>
-      <c r="AD29" s="97"/>
+      <c r="AD29" s="109"/>
       <c r="AE29" s="76"/>
       <c r="AF29" s="76"/>
       <c r="AG29" s="76"/>
       <c r="AH29" s="76"/>
       <c r="AI29" s="76"/>
       <c r="AJ29" s="76"/>
-      <c r="AK29" s="94"/>
+      <c r="AK29" s="106"/>
       <c r="AL29" s="76"/>
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A30" s="103"/>
-      <c r="B30" s="106"/>
-      <c r="C30" s="102"/>
-      <c r="D30" s="102" t="s">
+      <c r="A30" s="97"/>
+      <c r="B30" s="104"/>
+      <c r="C30" s="98"/>
+      <c r="D30" s="98" t="s">
         <v>13</v>
       </c>
       <c r="E30" s="2" t="s">
@@ -8169,28 +8217,28 @@
       <c r="T30" s="76"/>
       <c r="U30" s="76"/>
       <c r="V30" s="76"/>
-      <c r="W30" s="100"/>
+      <c r="W30" s="112"/>
       <c r="X30" s="76"/>
       <c r="Y30" s="76"/>
       <c r="Z30" s="76"/>
       <c r="AA30" s="76"/>
       <c r="AB30" s="76"/>
       <c r="AC30" s="76"/>
-      <c r="AD30" s="97"/>
+      <c r="AD30" s="109"/>
       <c r="AE30" s="76"/>
       <c r="AF30" s="76"/>
       <c r="AG30" s="76"/>
       <c r="AH30" s="76"/>
       <c r="AI30" s="76"/>
       <c r="AJ30" s="76"/>
-      <c r="AK30" s="94"/>
+      <c r="AK30" s="106"/>
       <c r="AL30" s="76"/>
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A31" s="103"/>
-      <c r="B31" s="106"/>
-      <c r="C31" s="102"/>
-      <c r="D31" s="102"/>
+      <c r="A31" s="97"/>
+      <c r="B31" s="104"/>
+      <c r="C31" s="98"/>
+      <c r="D31" s="98"/>
       <c r="E31" s="2" t="s">
         <v>143</v>
       </c>
@@ -8215,28 +8263,28 @@
       <c r="T31" s="76"/>
       <c r="U31" s="76"/>
       <c r="V31" s="76"/>
-      <c r="W31" s="100"/>
+      <c r="W31" s="112"/>
       <c r="X31" s="76"/>
       <c r="Y31" s="76"/>
       <c r="Z31" s="76"/>
       <c r="AA31" s="76"/>
       <c r="AB31" s="76"/>
       <c r="AC31" s="76"/>
-      <c r="AD31" s="97"/>
+      <c r="AD31" s="109"/>
       <c r="AE31" s="76"/>
       <c r="AF31" s="76"/>
       <c r="AG31" s="76"/>
       <c r="AH31" s="76"/>
       <c r="AI31" s="76"/>
       <c r="AJ31" s="76"/>
-      <c r="AK31" s="94"/>
+      <c r="AK31" s="106"/>
       <c r="AL31" s="76"/>
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A32" s="103"/>
-      <c r="B32" s="106"/>
-      <c r="C32" s="102"/>
-      <c r="D32" s="102"/>
+      <c r="A32" s="97"/>
+      <c r="B32" s="104"/>
+      <c r="C32" s="98"/>
+      <c r="D32" s="98"/>
       <c r="E32" s="2" t="s">
         <v>113</v>
       </c>
@@ -8267,28 +8315,28 @@
       <c r="T32" s="76"/>
       <c r="U32" s="76"/>
       <c r="V32" s="76"/>
-      <c r="W32" s="100"/>
+      <c r="W32" s="112"/>
       <c r="X32" s="76"/>
       <c r="Y32" s="76"/>
       <c r="Z32" s="76"/>
       <c r="AA32" s="76"/>
       <c r="AB32" s="76"/>
       <c r="AC32" s="76"/>
-      <c r="AD32" s="97"/>
+      <c r="AD32" s="109"/>
       <c r="AE32" s="76"/>
       <c r="AF32" s="76"/>
       <c r="AG32" s="76"/>
       <c r="AH32" s="76"/>
       <c r="AI32" s="76"/>
       <c r="AJ32" s="76"/>
-      <c r="AK32" s="94"/>
+      <c r="AK32" s="106"/>
       <c r="AL32" s="76"/>
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A33" s="103"/>
-      <c r="B33" s="106"/>
-      <c r="C33" s="102"/>
-      <c r="D33" s="90" t="s">
+      <c r="A33" s="97"/>
+      <c r="B33" s="104"/>
+      <c r="C33" s="98"/>
+      <c r="D33" s="101" t="s">
         <v>90</v>
       </c>
       <c r="E33" s="2" t="s">
@@ -8321,28 +8369,28 @@
       <c r="T33" s="76"/>
       <c r="U33" s="76"/>
       <c r="V33" s="76"/>
-      <c r="W33" s="100"/>
+      <c r="W33" s="112"/>
       <c r="X33" s="76"/>
       <c r="Y33" s="76"/>
       <c r="Z33" s="76"/>
       <c r="AA33" s="76"/>
       <c r="AB33" s="76"/>
       <c r="AC33" s="76"/>
-      <c r="AD33" s="97"/>
+      <c r="AD33" s="109"/>
       <c r="AE33" s="76"/>
       <c r="AF33" s="76"/>
       <c r="AG33" s="76"/>
       <c r="AH33" s="76"/>
       <c r="AI33" s="76"/>
       <c r="AJ33" s="76"/>
-      <c r="AK33" s="94"/>
+      <c r="AK33" s="106"/>
       <c r="AL33" s="76"/>
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A34" s="103"/>
-      <c r="B34" s="106"/>
-      <c r="C34" s="102"/>
-      <c r="D34" s="91"/>
+      <c r="A34" s="97"/>
+      <c r="B34" s="104"/>
+      <c r="C34" s="98"/>
+      <c r="D34" s="102"/>
       <c r="E34" s="2" t="s">
         <v>141</v>
       </c>
@@ -8373,28 +8421,28 @@
       <c r="T34" s="76"/>
       <c r="U34" s="76"/>
       <c r="V34" s="76"/>
-      <c r="W34" s="100"/>
+      <c r="W34" s="112"/>
       <c r="X34" s="76"/>
       <c r="Y34" s="76"/>
       <c r="Z34" s="76"/>
       <c r="AA34" s="76"/>
       <c r="AB34" s="76"/>
       <c r="AC34" s="76"/>
-      <c r="AD34" s="97"/>
+      <c r="AD34" s="109"/>
       <c r="AE34" s="76"/>
       <c r="AF34" s="76"/>
       <c r="AG34" s="76"/>
       <c r="AH34" s="76"/>
       <c r="AI34" s="76"/>
       <c r="AJ34" s="76"/>
-      <c r="AK34" s="94"/>
+      <c r="AK34" s="106"/>
       <c r="AL34" s="76"/>
     </row>
     <row r="35" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A35" s="103"/>
-      <c r="B35" s="106"/>
-      <c r="C35" s="102"/>
-      <c r="D35" s="91"/>
+      <c r="A35" s="97"/>
+      <c r="B35" s="104"/>
+      <c r="C35" s="98"/>
+      <c r="D35" s="102"/>
       <c r="E35" s="2" t="s">
         <v>103</v>
       </c>
@@ -8425,28 +8473,28 @@
       <c r="T35" s="76"/>
       <c r="U35" s="76"/>
       <c r="V35" s="76"/>
-      <c r="W35" s="100"/>
+      <c r="W35" s="112"/>
       <c r="X35" s="76"/>
       <c r="Y35" s="76"/>
       <c r="Z35" s="76"/>
       <c r="AA35" s="76"/>
       <c r="AB35" s="76"/>
       <c r="AC35" s="76"/>
-      <c r="AD35" s="97"/>
+      <c r="AD35" s="109"/>
       <c r="AE35" s="76"/>
       <c r="AF35" s="76"/>
       <c r="AG35" s="76"/>
       <c r="AH35" s="76"/>
       <c r="AI35" s="76"/>
       <c r="AJ35" s="76"/>
-      <c r="AK35" s="94"/>
+      <c r="AK35" s="106"/>
       <c r="AL35" s="76"/>
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A36" s="103"/>
-      <c r="B36" s="106"/>
-      <c r="C36" s="102"/>
-      <c r="D36" s="91"/>
+      <c r="A36" s="97"/>
+      <c r="B36" s="104"/>
+      <c r="C36" s="98"/>
+      <c r="D36" s="102"/>
       <c r="E36" s="2" t="s">
         <v>224</v>
       </c>
@@ -8469,28 +8517,28 @@
       <c r="T36" s="76"/>
       <c r="U36" s="76"/>
       <c r="V36" s="76"/>
-      <c r="W36" s="100"/>
+      <c r="W36" s="112"/>
       <c r="X36" s="76"/>
       <c r="Y36" s="76"/>
       <c r="Z36" s="76"/>
       <c r="AA36" s="76"/>
       <c r="AB36" s="76"/>
       <c r="AC36" s="76"/>
-      <c r="AD36" s="97"/>
+      <c r="AD36" s="109"/>
       <c r="AE36" s="76"/>
       <c r="AF36" s="76"/>
       <c r="AG36" s="76"/>
       <c r="AH36" s="76"/>
       <c r="AI36" s="76"/>
       <c r="AJ36" s="76"/>
-      <c r="AK36" s="94"/>
+      <c r="AK36" s="106"/>
       <c r="AL36" s="76"/>
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A37" s="103"/>
-      <c r="B37" s="106"/>
-      <c r="C37" s="102"/>
-      <c r="D37" s="91"/>
+      <c r="A37" s="97"/>
+      <c r="B37" s="104"/>
+      <c r="C37" s="98"/>
+      <c r="D37" s="102"/>
       <c r="E37" s="2" t="s">
         <v>251</v>
       </c>
@@ -8513,28 +8561,28 @@
       <c r="T37" s="76"/>
       <c r="U37" s="76"/>
       <c r="V37" s="76"/>
-      <c r="W37" s="100"/>
+      <c r="W37" s="112"/>
       <c r="X37" s="76"/>
       <c r="Y37" s="76"/>
       <c r="Z37" s="76"/>
       <c r="AA37" s="76"/>
       <c r="AB37" s="76"/>
       <c r="AC37" s="76"/>
-      <c r="AD37" s="97"/>
+      <c r="AD37" s="109"/>
       <c r="AE37" s="76"/>
       <c r="AF37" s="76"/>
       <c r="AG37" s="76"/>
       <c r="AH37" s="76"/>
       <c r="AI37" s="76"/>
       <c r="AJ37" s="76"/>
-      <c r="AK37" s="94"/>
+      <c r="AK37" s="106"/>
       <c r="AL37" s="76"/>
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A38" s="103"/>
-      <c r="B38" s="106"/>
-      <c r="C38" s="102"/>
-      <c r="D38" s="92"/>
+      <c r="A38" s="97"/>
+      <c r="B38" s="104"/>
+      <c r="C38" s="98"/>
+      <c r="D38" s="103"/>
       <c r="E38" s="2" t="s">
         <v>253</v>
       </c>
@@ -8557,27 +8605,27 @@
       <c r="T38" s="76"/>
       <c r="U38" s="76"/>
       <c r="V38" s="76"/>
-      <c r="W38" s="100"/>
+      <c r="W38" s="112"/>
       <c r="X38" s="76"/>
       <c r="Y38" s="76"/>
       <c r="Z38" s="76"/>
       <c r="AA38" s="76"/>
       <c r="AB38" s="76"/>
       <c r="AC38" s="76"/>
-      <c r="AD38" s="97"/>
+      <c r="AD38" s="109"/>
       <c r="AE38" s="76"/>
       <c r="AF38" s="76"/>
       <c r="AG38" s="76"/>
       <c r="AH38" s="76"/>
       <c r="AI38" s="76"/>
       <c r="AJ38" s="76"/>
-      <c r="AK38" s="94"/>
+      <c r="AK38" s="106"/>
       <c r="AL38" s="76"/>
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A39" s="103"/>
-      <c r="B39" s="106"/>
-      <c r="C39" s="102"/>
+      <c r="A39" s="97"/>
+      <c r="B39" s="104"/>
+      <c r="C39" s="98"/>
       <c r="D39" s="2" t="s">
         <v>24</v>
       </c>
@@ -8605,27 +8653,27 @@
       <c r="T39" s="76"/>
       <c r="U39" s="76"/>
       <c r="V39" s="76"/>
-      <c r="W39" s="100"/>
+      <c r="W39" s="112"/>
       <c r="X39" s="76"/>
       <c r="Y39" s="76"/>
       <c r="Z39" s="76"/>
       <c r="AA39" s="76"/>
       <c r="AB39" s="76"/>
       <c r="AC39" s="76"/>
-      <c r="AD39" s="97"/>
+      <c r="AD39" s="109"/>
       <c r="AE39" s="76"/>
       <c r="AF39" s="76"/>
       <c r="AG39" s="76"/>
       <c r="AH39" s="76"/>
       <c r="AI39" s="76"/>
       <c r="AJ39" s="76"/>
-      <c r="AK39" s="94"/>
+      <c r="AK39" s="106"/>
       <c r="AL39" s="76"/>
     </row>
     <row r="40" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A40" s="103"/>
-      <c r="B40" s="106"/>
-      <c r="C40" s="102"/>
+      <c r="A40" s="97"/>
+      <c r="B40" s="104"/>
+      <c r="C40" s="98"/>
       <c r="D40" s="2" t="s">
         <v>144</v>
       </c>
@@ -8659,27 +8707,27 @@
       <c r="T40" s="76"/>
       <c r="U40" s="76"/>
       <c r="V40" s="76"/>
-      <c r="W40" s="100"/>
+      <c r="W40" s="112"/>
       <c r="X40" s="76"/>
       <c r="Y40" s="76"/>
       <c r="Z40" s="76"/>
       <c r="AA40" s="76"/>
       <c r="AB40" s="76"/>
       <c r="AC40" s="76"/>
-      <c r="AD40" s="97"/>
+      <c r="AD40" s="109"/>
       <c r="AE40" s="76"/>
       <c r="AF40" s="76"/>
       <c r="AG40" s="76"/>
       <c r="AH40" s="76"/>
       <c r="AI40" s="76"/>
       <c r="AJ40" s="76"/>
-      <c r="AK40" s="94"/>
+      <c r="AK40" s="106"/>
       <c r="AL40" s="76"/>
     </row>
     <row r="41" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A41" s="103"/>
-      <c r="B41" s="106"/>
-      <c r="C41" s="102"/>
+      <c r="A41" s="97"/>
+      <c r="B41" s="104"/>
+      <c r="C41" s="98"/>
       <c r="D41" s="2" t="s">
         <v>94</v>
       </c>
@@ -8703,27 +8751,27 @@
       <c r="T41" s="76"/>
       <c r="U41" s="76"/>
       <c r="V41" s="76"/>
-      <c r="W41" s="100"/>
+      <c r="W41" s="112"/>
       <c r="X41" s="76"/>
       <c r="Y41" s="76"/>
       <c r="Z41" s="76"/>
       <c r="AA41" s="76"/>
       <c r="AB41" s="76"/>
       <c r="AC41" s="76"/>
-      <c r="AD41" s="97"/>
+      <c r="AD41" s="109"/>
       <c r="AE41" s="76"/>
       <c r="AF41" s="76"/>
       <c r="AG41" s="76"/>
       <c r="AH41" s="76"/>
       <c r="AI41" s="76"/>
       <c r="AJ41" s="76"/>
-      <c r="AK41" s="94"/>
+      <c r="AK41" s="106"/>
       <c r="AL41" s="76"/>
     </row>
     <row r="42" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A42" s="103"/>
-      <c r="B42" s="106"/>
-      <c r="C42" s="102"/>
+      <c r="A42" s="97"/>
+      <c r="B42" s="104"/>
+      <c r="C42" s="98"/>
       <c r="D42" s="2" t="s">
         <v>23</v>
       </c>
@@ -8747,27 +8795,27 @@
       <c r="T42" s="76"/>
       <c r="U42" s="76"/>
       <c r="V42" s="76"/>
-      <c r="W42" s="100"/>
+      <c r="W42" s="112"/>
       <c r="X42" s="76"/>
       <c r="Y42" s="76"/>
       <c r="Z42" s="76"/>
       <c r="AA42" s="76"/>
       <c r="AB42" s="76"/>
       <c r="AC42" s="76"/>
-      <c r="AD42" s="97"/>
+      <c r="AD42" s="109"/>
       <c r="AE42" s="76"/>
       <c r="AF42" s="76"/>
       <c r="AG42" s="76"/>
       <c r="AH42" s="76"/>
       <c r="AI42" s="76"/>
       <c r="AJ42" s="76"/>
-      <c r="AK42" s="94"/>
+      <c r="AK42" s="106"/>
       <c r="AL42" s="76"/>
     </row>
     <row r="43" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A43" s="103"/>
-      <c r="B43" s="106"/>
-      <c r="C43" s="102"/>
+      <c r="A43" s="97"/>
+      <c r="B43" s="104"/>
+      <c r="C43" s="98"/>
       <c r="D43" s="34" t="s">
         <v>27</v>
       </c>
@@ -8791,27 +8839,27 @@
       <c r="T43" s="76"/>
       <c r="U43" s="76"/>
       <c r="V43" s="76"/>
-      <c r="W43" s="100"/>
+      <c r="W43" s="112"/>
       <c r="X43" s="76"/>
       <c r="Y43" s="76"/>
       <c r="Z43" s="76"/>
       <c r="AA43" s="76"/>
       <c r="AB43" s="76"/>
       <c r="AC43" s="76"/>
-      <c r="AD43" s="97"/>
+      <c r="AD43" s="109"/>
       <c r="AE43" s="76"/>
       <c r="AF43" s="76"/>
       <c r="AG43" s="76"/>
       <c r="AH43" s="76"/>
       <c r="AI43" s="76"/>
       <c r="AJ43" s="76"/>
-      <c r="AK43" s="94"/>
+      <c r="AK43" s="106"/>
       <c r="AL43" s="76"/>
     </row>
     <row r="44" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A44" s="103"/>
-      <c r="B44" s="106"/>
-      <c r="C44" s="102"/>
+      <c r="A44" s="97"/>
+      <c r="B44" s="104"/>
+      <c r="C44" s="98"/>
       <c r="D44" s="33" t="s">
         <v>45</v>
       </c>
@@ -8835,27 +8883,27 @@
       <c r="T44" s="76"/>
       <c r="U44" s="76"/>
       <c r="V44" s="76"/>
-      <c r="W44" s="100"/>
+      <c r="W44" s="112"/>
       <c r="X44" s="76"/>
       <c r="Y44" s="76"/>
       <c r="Z44" s="76"/>
       <c r="AA44" s="76"/>
       <c r="AB44" s="76"/>
       <c r="AC44" s="76"/>
-      <c r="AD44" s="97"/>
+      <c r="AD44" s="109"/>
       <c r="AE44" s="76"/>
       <c r="AF44" s="76"/>
       <c r="AG44" s="76"/>
       <c r="AH44" s="76"/>
       <c r="AI44" s="76"/>
       <c r="AJ44" s="76"/>
-      <c r="AK44" s="94"/>
+      <c r="AK44" s="106"/>
       <c r="AL44" s="76"/>
     </row>
     <row r="45" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A45" s="103"/>
-      <c r="B45" s="106"/>
-      <c r="C45" s="102"/>
+      <c r="A45" s="97"/>
+      <c r="B45" s="104"/>
+      <c r="C45" s="98"/>
       <c r="D45" s="2" t="s">
         <v>26</v>
       </c>
@@ -8879,27 +8927,27 @@
       <c r="T45" s="76"/>
       <c r="U45" s="76"/>
       <c r="V45" s="76"/>
-      <c r="W45" s="100"/>
+      <c r="W45" s="112"/>
       <c r="X45" s="76"/>
       <c r="Y45" s="76"/>
       <c r="Z45" s="76"/>
       <c r="AA45" s="76"/>
       <c r="AB45" s="76"/>
       <c r="AC45" s="76"/>
-      <c r="AD45" s="97"/>
+      <c r="AD45" s="109"/>
       <c r="AE45" s="76"/>
       <c r="AF45" s="76"/>
       <c r="AG45" s="76"/>
       <c r="AH45" s="76"/>
       <c r="AI45" s="76"/>
       <c r="AJ45" s="76"/>
-      <c r="AK45" s="94"/>
+      <c r="AK45" s="106"/>
       <c r="AL45" s="76"/>
     </row>
     <row r="46" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A46" s="103"/>
-      <c r="B46" s="106"/>
-      <c r="C46" s="102" t="s">
+      <c r="A46" s="97"/>
+      <c r="B46" s="104"/>
+      <c r="C46" s="98" t="s">
         <v>42</v>
       </c>
       <c r="D46" s="35" t="s">
@@ -8925,27 +8973,27 @@
       <c r="T46" s="76"/>
       <c r="U46" s="76"/>
       <c r="V46" s="76"/>
-      <c r="W46" s="100"/>
+      <c r="W46" s="112"/>
       <c r="X46" s="76"/>
       <c r="Y46" s="76"/>
       <c r="Z46" s="76"/>
       <c r="AA46" s="76"/>
       <c r="AB46" s="76"/>
       <c r="AC46" s="76"/>
-      <c r="AD46" s="97"/>
+      <c r="AD46" s="109"/>
       <c r="AE46" s="76"/>
       <c r="AF46" s="76"/>
       <c r="AG46" s="76"/>
       <c r="AH46" s="76"/>
       <c r="AI46" s="76"/>
       <c r="AJ46" s="76"/>
-      <c r="AK46" s="94"/>
+      <c r="AK46" s="106"/>
       <c r="AL46" s="76"/>
     </row>
     <row r="47" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A47" s="103"/>
-      <c r="B47" s="106"/>
-      <c r="C47" s="102"/>
+      <c r="A47" s="97"/>
+      <c r="B47" s="104"/>
+      <c r="C47" s="98"/>
       <c r="D47" s="2" t="s">
         <v>26</v>
       </c>
@@ -8969,27 +9017,27 @@
       <c r="T47" s="76"/>
       <c r="U47" s="76"/>
       <c r="V47" s="76"/>
-      <c r="W47" s="100"/>
+      <c r="W47" s="112"/>
       <c r="X47" s="76"/>
       <c r="Y47" s="76"/>
       <c r="Z47" s="76"/>
       <c r="AA47" s="76"/>
       <c r="AB47" s="76"/>
       <c r="AC47" s="76"/>
-      <c r="AD47" s="97"/>
+      <c r="AD47" s="109"/>
       <c r="AE47" s="76"/>
       <c r="AF47" s="76"/>
       <c r="AG47" s="76"/>
       <c r="AH47" s="76"/>
       <c r="AI47" s="76"/>
       <c r="AJ47" s="76"/>
-      <c r="AK47" s="94"/>
+      <c r="AK47" s="106"/>
       <c r="AL47" s="76"/>
     </row>
     <row r="48" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A48" s="103"/>
-      <c r="B48" s="106"/>
-      <c r="C48" s="102" t="s">
+      <c r="A48" s="97"/>
+      <c r="B48" s="104"/>
+      <c r="C48" s="98" t="s">
         <v>43</v>
       </c>
       <c r="D48" s="33" t="s">
@@ -9015,27 +9063,27 @@
       <c r="T48" s="76"/>
       <c r="U48" s="76"/>
       <c r="V48" s="76"/>
-      <c r="W48" s="100"/>
+      <c r="W48" s="112"/>
       <c r="X48" s="76"/>
       <c r="Y48" s="76"/>
       <c r="Z48" s="76"/>
       <c r="AA48" s="76"/>
       <c r="AB48" s="76"/>
       <c r="AC48" s="76"/>
-      <c r="AD48" s="97"/>
+      <c r="AD48" s="109"/>
       <c r="AE48" s="76"/>
       <c r="AF48" s="76"/>
       <c r="AG48" s="76"/>
       <c r="AH48" s="76"/>
       <c r="AI48" s="76"/>
       <c r="AJ48" s="76"/>
-      <c r="AK48" s="94"/>
+      <c r="AK48" s="106"/>
       <c r="AL48" s="76"/>
     </row>
     <row r="49" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A49" s="103"/>
-      <c r="B49" s="106"/>
-      <c r="C49" s="102"/>
+      <c r="A49" s="97"/>
+      <c r="B49" s="104"/>
+      <c r="C49" s="98"/>
       <c r="D49" s="2" t="s">
         <v>26</v>
       </c>
@@ -9059,27 +9107,27 @@
       <c r="T49" s="76"/>
       <c r="U49" s="76"/>
       <c r="V49" s="76"/>
-      <c r="W49" s="100"/>
+      <c r="W49" s="112"/>
       <c r="X49" s="76"/>
       <c r="Y49" s="76"/>
       <c r="Z49" s="76"/>
       <c r="AA49" s="76"/>
       <c r="AB49" s="76"/>
       <c r="AC49" s="76"/>
-      <c r="AD49" s="97"/>
+      <c r="AD49" s="109"/>
       <c r="AE49" s="76"/>
       <c r="AF49" s="76"/>
       <c r="AG49" s="76"/>
       <c r="AH49" s="76"/>
       <c r="AI49" s="76"/>
       <c r="AJ49" s="76"/>
-      <c r="AK49" s="94"/>
+      <c r="AK49" s="106"/>
       <c r="AL49" s="76"/>
     </row>
     <row r="50" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A50" s="103"/>
-      <c r="B50" s="106"/>
-      <c r="C50" s="102"/>
+      <c r="A50" s="97"/>
+      <c r="B50" s="104"/>
+      <c r="C50" s="98"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="19"/>
@@ -9101,27 +9149,27 @@
       <c r="T50" s="76"/>
       <c r="U50" s="76"/>
       <c r="V50" s="76"/>
-      <c r="W50" s="100"/>
+      <c r="W50" s="112"/>
       <c r="X50" s="76"/>
       <c r="Y50" s="76"/>
       <c r="Z50" s="76"/>
       <c r="AA50" s="76"/>
       <c r="AB50" s="76"/>
       <c r="AC50" s="76"/>
-      <c r="AD50" s="97"/>
+      <c r="AD50" s="109"/>
       <c r="AE50" s="76"/>
       <c r="AF50" s="76"/>
       <c r="AG50" s="76"/>
       <c r="AH50" s="76"/>
       <c r="AI50" s="76"/>
       <c r="AJ50" s="76"/>
-      <c r="AK50" s="94"/>
+      <c r="AK50" s="106"/>
       <c r="AL50" s="76"/>
     </row>
     <row r="51" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A51" s="103"/>
-      <c r="B51" s="106"/>
-      <c r="C51" s="102" t="s">
+      <c r="A51" s="97"/>
+      <c r="B51" s="104"/>
+      <c r="C51" s="98" t="s">
         <v>17</v>
       </c>
       <c r="D51" s="2" t="s">
@@ -9147,27 +9195,27 @@
       <c r="T51" s="76"/>
       <c r="U51" s="76"/>
       <c r="V51" s="76"/>
-      <c r="W51" s="100"/>
+      <c r="W51" s="112"/>
       <c r="X51" s="76"/>
       <c r="Y51" s="76"/>
       <c r="Z51" s="76"/>
       <c r="AA51" s="76"/>
       <c r="AB51" s="76"/>
       <c r="AC51" s="76"/>
-      <c r="AD51" s="97"/>
+      <c r="AD51" s="109"/>
       <c r="AE51" s="76"/>
       <c r="AF51" s="76"/>
       <c r="AG51" s="76"/>
       <c r="AH51" s="76"/>
       <c r="AI51" s="76"/>
       <c r="AJ51" s="76"/>
-      <c r="AK51" s="94"/>
+      <c r="AK51" s="106"/>
       <c r="AL51" s="76"/>
     </row>
     <row r="52" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A52" s="103"/>
-      <c r="B52" s="106"/>
-      <c r="C52" s="102"/>
+      <c r="A52" s="97"/>
+      <c r="B52" s="104"/>
+      <c r="C52" s="98"/>
       <c r="D52" s="2" t="s">
         <v>36</v>
       </c>
@@ -9191,27 +9239,27 @@
       <c r="T52" s="76"/>
       <c r="U52" s="76"/>
       <c r="V52" s="76"/>
-      <c r="W52" s="100"/>
+      <c r="W52" s="112"/>
       <c r="X52" s="76"/>
       <c r="Y52" s="76"/>
       <c r="Z52" s="76"/>
       <c r="AA52" s="76"/>
       <c r="AB52" s="76"/>
       <c r="AC52" s="76"/>
-      <c r="AD52" s="97"/>
+      <c r="AD52" s="109"/>
       <c r="AE52" s="76"/>
       <c r="AF52" s="76"/>
       <c r="AG52" s="76"/>
       <c r="AH52" s="76"/>
       <c r="AI52" s="76"/>
       <c r="AJ52" s="76"/>
-      <c r="AK52" s="94"/>
+      <c r="AK52" s="106"/>
       <c r="AL52" s="76"/>
     </row>
     <row r="53" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A53" s="103"/>
-      <c r="B53" s="106"/>
-      <c r="C53" s="102"/>
+      <c r="A53" s="97"/>
+      <c r="B53" s="104"/>
+      <c r="C53" s="98"/>
       <c r="D53" s="2" t="s">
         <v>37</v>
       </c>
@@ -9235,27 +9283,27 @@
       <c r="T53" s="76"/>
       <c r="U53" s="76"/>
       <c r="V53" s="76"/>
-      <c r="W53" s="100"/>
+      <c r="W53" s="112"/>
       <c r="X53" s="76"/>
       <c r="Y53" s="76"/>
       <c r="Z53" s="76"/>
       <c r="AA53" s="76"/>
       <c r="AB53" s="76"/>
       <c r="AC53" s="76"/>
-      <c r="AD53" s="97"/>
+      <c r="AD53" s="109"/>
       <c r="AE53" s="76"/>
       <c r="AF53" s="76"/>
       <c r="AG53" s="76"/>
       <c r="AH53" s="76"/>
       <c r="AI53" s="76"/>
       <c r="AJ53" s="76"/>
-      <c r="AK53" s="94"/>
+      <c r="AK53" s="106"/>
       <c r="AL53" s="76"/>
     </row>
     <row r="54" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A54" s="103"/>
-      <c r="B54" s="106"/>
-      <c r="C54" s="102"/>
+      <c r="A54" s="97"/>
+      <c r="B54" s="104"/>
+      <c r="C54" s="98"/>
       <c r="D54" s="2" t="s">
         <v>38</v>
       </c>
@@ -9279,27 +9327,27 @@
       <c r="T54" s="76"/>
       <c r="U54" s="76"/>
       <c r="V54" s="76"/>
-      <c r="W54" s="100"/>
+      <c r="W54" s="112"/>
       <c r="X54" s="76"/>
       <c r="Y54" s="76"/>
       <c r="Z54" s="76"/>
       <c r="AA54" s="76"/>
       <c r="AB54" s="76"/>
       <c r="AC54" s="76"/>
-      <c r="AD54" s="97"/>
+      <c r="AD54" s="109"/>
       <c r="AE54" s="76"/>
       <c r="AF54" s="76"/>
       <c r="AG54" s="76"/>
       <c r="AH54" s="76"/>
       <c r="AI54" s="76"/>
       <c r="AJ54" s="76"/>
-      <c r="AK54" s="94"/>
+      <c r="AK54" s="106"/>
       <c r="AL54" s="76"/>
     </row>
     <row r="55" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A55" s="103"/>
-      <c r="B55" s="106"/>
-      <c r="C55" s="102"/>
+      <c r="A55" s="97"/>
+      <c r="B55" s="104"/>
+      <c r="C55" s="98"/>
       <c r="D55" s="2" t="s">
         <v>33</v>
       </c>
@@ -9323,27 +9371,27 @@
       <c r="T55" s="76"/>
       <c r="U55" s="76"/>
       <c r="V55" s="76"/>
-      <c r="W55" s="100"/>
+      <c r="W55" s="112"/>
       <c r="X55" s="76"/>
       <c r="Y55" s="76"/>
       <c r="Z55" s="76"/>
       <c r="AA55" s="76"/>
       <c r="AB55" s="76"/>
       <c r="AC55" s="76"/>
-      <c r="AD55" s="97"/>
+      <c r="AD55" s="109"/>
       <c r="AE55" s="76"/>
       <c r="AF55" s="76"/>
       <c r="AG55" s="76"/>
       <c r="AH55" s="76"/>
       <c r="AI55" s="76"/>
       <c r="AJ55" s="76"/>
-      <c r="AK55" s="94"/>
+      <c r="AK55" s="106"/>
       <c r="AL55" s="76"/>
     </row>
     <row r="56" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A56" s="103"/>
-      <c r="B56" s="106"/>
-      <c r="C56" s="102" t="s">
+      <c r="A56" s="97"/>
+      <c r="B56" s="104"/>
+      <c r="C56" s="98" t="s">
         <v>121</v>
       </c>
       <c r="D56" s="2" t="s">
@@ -9377,27 +9425,27 @@
       <c r="T56" s="76"/>
       <c r="U56" s="76"/>
       <c r="V56" s="76"/>
-      <c r="W56" s="100"/>
+      <c r="W56" s="112"/>
       <c r="X56" s="76"/>
       <c r="Y56" s="76"/>
       <c r="Z56" s="76"/>
       <c r="AA56" s="76"/>
       <c r="AB56" s="76"/>
       <c r="AC56" s="76"/>
-      <c r="AD56" s="97"/>
+      <c r="AD56" s="109"/>
       <c r="AE56" s="76"/>
       <c r="AF56" s="76"/>
       <c r="AG56" s="76"/>
       <c r="AH56" s="76"/>
       <c r="AI56" s="76"/>
       <c r="AJ56" s="76"/>
-      <c r="AK56" s="94"/>
+      <c r="AK56" s="106"/>
       <c r="AL56" s="76"/>
     </row>
     <row r="57" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A57" s="103"/>
-      <c r="B57" s="106"/>
-      <c r="C57" s="102"/>
+      <c r="A57" s="97"/>
+      <c r="B57" s="104"/>
+      <c r="C57" s="98"/>
       <c r="D57" s="2" t="s">
         <v>151</v>
       </c>
@@ -9429,26 +9477,26 @@
       <c r="T57" s="76"/>
       <c r="U57" s="76"/>
       <c r="V57" s="76"/>
-      <c r="W57" s="100"/>
+      <c r="W57" s="112"/>
       <c r="X57" s="76"/>
       <c r="Y57" s="76"/>
       <c r="Z57" s="76"/>
       <c r="AA57" s="76"/>
       <c r="AB57" s="76"/>
       <c r="AC57" s="76"/>
-      <c r="AD57" s="97"/>
+      <c r="AD57" s="109"/>
       <c r="AE57" s="76"/>
       <c r="AF57" s="76"/>
       <c r="AG57" s="76"/>
       <c r="AH57" s="76"/>
       <c r="AI57" s="76"/>
       <c r="AJ57" s="76"/>
-      <c r="AK57" s="94"/>
+      <c r="AK57" s="106"/>
       <c r="AL57" s="76"/>
     </row>
     <row r="58" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="103"/>
-      <c r="B58" s="106"/>
+      <c r="A58" s="97"/>
+      <c r="B58" s="104"/>
       <c r="C58" s="20" t="s">
         <v>71</v>
       </c>
@@ -9475,32 +9523,32 @@
       <c r="T58" s="20"/>
       <c r="U58" s="20"/>
       <c r="V58" s="20"/>
-      <c r="W58" s="100"/>
+      <c r="W58" s="112"/>
       <c r="X58" s="20"/>
       <c r="Y58" s="20"/>
       <c r="Z58" s="20"/>
       <c r="AA58" s="20"/>
       <c r="AB58" s="20"/>
       <c r="AC58" s="20"/>
-      <c r="AD58" s="97"/>
+      <c r="AD58" s="109"/>
       <c r="AE58" s="76"/>
       <c r="AF58" s="76"/>
       <c r="AG58" s="76"/>
       <c r="AH58" s="76"/>
       <c r="AI58" s="76"/>
       <c r="AJ58" s="76"/>
-      <c r="AK58" s="94"/>
+      <c r="AK58" s="106"/>
       <c r="AL58" s="76"/>
     </row>
     <row r="59" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A59" s="103"/>
-      <c r="B59" s="105" t="s">
+      <c r="A59" s="97"/>
+      <c r="B59" s="100" t="s">
         <v>120</v>
       </c>
-      <c r="C59" s="102" t="s">
+      <c r="C59" s="98" t="s">
         <v>92</v>
       </c>
-      <c r="D59" s="102" t="s">
+      <c r="D59" s="98" t="s">
         <v>29</v>
       </c>
       <c r="E59" s="2" t="s">
@@ -9533,28 +9581,28 @@
       <c r="T59" s="76"/>
       <c r="U59" s="76"/>
       <c r="V59" s="76"/>
-      <c r="W59" s="100"/>
+      <c r="W59" s="112"/>
       <c r="X59" s="76"/>
       <c r="Y59" s="76"/>
       <c r="Z59" s="76"/>
       <c r="AA59" s="76"/>
       <c r="AB59" s="76"/>
       <c r="AC59" s="76"/>
-      <c r="AD59" s="97"/>
+      <c r="AD59" s="109"/>
       <c r="AE59" s="76"/>
       <c r="AF59" s="76"/>
       <c r="AG59" s="76"/>
       <c r="AH59" s="76"/>
       <c r="AI59" s="76"/>
       <c r="AJ59" s="76"/>
-      <c r="AK59" s="94"/>
+      <c r="AK59" s="106"/>
       <c r="AL59" s="76"/>
     </row>
     <row r="60" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A60" s="103"/>
-      <c r="B60" s="105"/>
-      <c r="C60" s="102"/>
-      <c r="D60" s="102"/>
+      <c r="A60" s="97"/>
+      <c r="B60" s="100"/>
+      <c r="C60" s="98"/>
+      <c r="D60" s="98"/>
       <c r="E60" s="2" t="s">
         <v>130</v>
       </c>
@@ -9585,30 +9633,30 @@
       <c r="T60" s="76"/>
       <c r="U60" s="76"/>
       <c r="V60" s="76"/>
-      <c r="W60" s="100"/>
+      <c r="W60" s="112"/>
       <c r="X60" s="76"/>
       <c r="Y60" s="76"/>
       <c r="Z60" s="76"/>
       <c r="AA60" s="76"/>
       <c r="AB60" s="76"/>
       <c r="AC60" s="76"/>
-      <c r="AD60" s="97"/>
+      <c r="AD60" s="109"/>
       <c r="AE60" s="76"/>
       <c r="AF60" s="76"/>
       <c r="AG60" s="76"/>
       <c r="AH60" s="76"/>
       <c r="AI60" s="76"/>
       <c r="AJ60" s="76"/>
-      <c r="AK60" s="94"/>
+      <c r="AK60" s="106"/>
       <c r="AL60" s="76"/>
     </row>
     <row r="61" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A61" s="103"/>
-      <c r="B61" s="105"/>
-      <c r="C61" s="102" t="s">
+      <c r="A61" s="97"/>
+      <c r="B61" s="100"/>
+      <c r="C61" s="98" t="s">
         <v>96</v>
       </c>
-      <c r="D61" s="102" t="s">
+      <c r="D61" s="98" t="s">
         <v>95</v>
       </c>
       <c r="E61" s="2" t="s">
@@ -9641,28 +9689,28 @@
       <c r="T61" s="76"/>
       <c r="U61" s="76"/>
       <c r="V61" s="76"/>
-      <c r="W61" s="100"/>
+      <c r="W61" s="112"/>
       <c r="X61" s="76"/>
       <c r="Y61" s="76"/>
       <c r="Z61" s="76"/>
       <c r="AA61" s="76"/>
       <c r="AB61" s="76"/>
       <c r="AC61" s="76"/>
-      <c r="AD61" s="97"/>
+      <c r="AD61" s="109"/>
       <c r="AE61" s="76"/>
       <c r="AF61" s="76"/>
       <c r="AG61" s="76"/>
       <c r="AH61" s="76"/>
       <c r="AI61" s="76"/>
       <c r="AJ61" s="76"/>
-      <c r="AK61" s="94"/>
+      <c r="AK61" s="106"/>
       <c r="AL61" s="76"/>
     </row>
     <row r="62" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A62" s="103"/>
-      <c r="B62" s="105"/>
-      <c r="C62" s="102"/>
-      <c r="D62" s="102"/>
+      <c r="A62" s="97"/>
+      <c r="B62" s="100"/>
+      <c r="C62" s="98"/>
+      <c r="D62" s="98"/>
       <c r="E62" s="2" t="s">
         <v>146</v>
       </c>
@@ -9693,28 +9741,28 @@
       <c r="T62" s="76"/>
       <c r="U62" s="76"/>
       <c r="V62" s="76"/>
-      <c r="W62" s="100"/>
+      <c r="W62" s="112"/>
       <c r="X62" s="76"/>
       <c r="Y62" s="76"/>
       <c r="Z62" s="76"/>
       <c r="AA62" s="76"/>
       <c r="AB62" s="76"/>
       <c r="AC62" s="76"/>
-      <c r="AD62" s="97"/>
+      <c r="AD62" s="109"/>
       <c r="AE62" s="76"/>
       <c r="AF62" s="76"/>
       <c r="AG62" s="76"/>
       <c r="AH62" s="76"/>
       <c r="AI62" s="76"/>
       <c r="AJ62" s="76"/>
-      <c r="AK62" s="94"/>
+      <c r="AK62" s="106"/>
       <c r="AL62" s="76"/>
     </row>
     <row r="63" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A63" s="103"/>
-      <c r="B63" s="105"/>
-      <c r="C63" s="102"/>
-      <c r="D63" s="102"/>
+      <c r="A63" s="97"/>
+      <c r="B63" s="100"/>
+      <c r="C63" s="98"/>
+      <c r="D63" s="98"/>
       <c r="E63" s="2" t="s">
         <v>147</v>
       </c>
@@ -9745,28 +9793,28 @@
       <c r="T63" s="76"/>
       <c r="U63" s="76"/>
       <c r="V63" s="76"/>
-      <c r="W63" s="100"/>
+      <c r="W63" s="112"/>
       <c r="X63" s="76"/>
       <c r="Y63" s="76"/>
       <c r="Z63" s="76"/>
       <c r="AA63" s="76"/>
       <c r="AB63" s="76"/>
       <c r="AC63" s="76"/>
-      <c r="AD63" s="97"/>
+      <c r="AD63" s="109"/>
       <c r="AE63" s="76"/>
       <c r="AF63" s="76"/>
       <c r="AG63" s="76"/>
       <c r="AH63" s="76"/>
       <c r="AI63" s="76"/>
       <c r="AJ63" s="76"/>
-      <c r="AK63" s="94"/>
+      <c r="AK63" s="106"/>
       <c r="AL63" s="76"/>
     </row>
     <row r="64" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A64" s="103"/>
-      <c r="B64" s="105"/>
-      <c r="C64" s="102"/>
-      <c r="D64" s="102"/>
+      <c r="A64" s="97"/>
+      <c r="B64" s="100"/>
+      <c r="C64" s="98"/>
+      <c r="D64" s="98"/>
       <c r="E64" s="2" t="s">
         <v>107</v>
       </c>
@@ -9797,28 +9845,28 @@
       <c r="T64" s="76"/>
       <c r="U64" s="76"/>
       <c r="V64" s="76"/>
-      <c r="W64" s="100"/>
+      <c r="W64" s="112"/>
       <c r="X64" s="76"/>
       <c r="Y64" s="76"/>
       <c r="Z64" s="76"/>
       <c r="AA64" s="76"/>
       <c r="AB64" s="76"/>
       <c r="AC64" s="76"/>
-      <c r="AD64" s="97"/>
+      <c r="AD64" s="109"/>
       <c r="AE64" s="76"/>
       <c r="AF64" s="76"/>
       <c r="AG64" s="76"/>
       <c r="AH64" s="76"/>
       <c r="AI64" s="76"/>
       <c r="AJ64" s="76"/>
-      <c r="AK64" s="94"/>
+      <c r="AK64" s="106"/>
       <c r="AL64" s="76"/>
     </row>
     <row r="65" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A65" s="103"/>
-      <c r="B65" s="105"/>
-      <c r="C65" s="102"/>
-      <c r="D65" s="102"/>
+      <c r="A65" s="97"/>
+      <c r="B65" s="100"/>
+      <c r="C65" s="98"/>
+      <c r="D65" s="98"/>
       <c r="E65" s="2" t="s">
         <v>108</v>
       </c>
@@ -9849,28 +9897,28 @@
       <c r="T65" s="76"/>
       <c r="U65" s="76"/>
       <c r="V65" s="76"/>
-      <c r="W65" s="100"/>
+      <c r="W65" s="112"/>
       <c r="X65" s="76"/>
       <c r="Y65" s="76"/>
       <c r="Z65" s="76"/>
       <c r="AA65" s="76"/>
       <c r="AB65" s="76"/>
       <c r="AC65" s="76"/>
-      <c r="AD65" s="97"/>
+      <c r="AD65" s="109"/>
       <c r="AE65" s="76"/>
       <c r="AF65" s="76"/>
       <c r="AG65" s="76"/>
       <c r="AH65" s="76"/>
       <c r="AI65" s="76"/>
       <c r="AJ65" s="76"/>
-      <c r="AK65" s="94"/>
+      <c r="AK65" s="106"/>
       <c r="AL65" s="76"/>
     </row>
     <row r="66" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A66" s="103"/>
-      <c r="B66" s="105"/>
-      <c r="C66" s="102"/>
-      <c r="D66" s="102" t="s">
+      <c r="A66" s="97"/>
+      <c r="B66" s="100"/>
+      <c r="C66" s="98"/>
+      <c r="D66" s="98" t="s">
         <v>97</v>
       </c>
       <c r="E66" s="2" t="s">
@@ -9897,28 +9945,28 @@
       <c r="T66" s="76"/>
       <c r="U66" s="76"/>
       <c r="V66" s="76"/>
-      <c r="W66" s="100"/>
+      <c r="W66" s="112"/>
       <c r="X66" s="76"/>
       <c r="Y66" s="76"/>
       <c r="Z66" s="76"/>
       <c r="AA66" s="76"/>
       <c r="AB66" s="76"/>
       <c r="AC66" s="76"/>
-      <c r="AD66" s="97"/>
+      <c r="AD66" s="109"/>
       <c r="AE66" s="76"/>
       <c r="AF66" s="76"/>
       <c r="AG66" s="76"/>
       <c r="AH66" s="76"/>
       <c r="AI66" s="76"/>
       <c r="AJ66" s="76"/>
-      <c r="AK66" s="94"/>
+      <c r="AK66" s="106"/>
       <c r="AL66" s="76"/>
     </row>
     <row r="67" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A67" s="103"/>
-      <c r="B67" s="105"/>
-      <c r="C67" s="102"/>
-      <c r="D67" s="102"/>
+      <c r="A67" s="97"/>
+      <c r="B67" s="100"/>
+      <c r="C67" s="98"/>
+      <c r="D67" s="98"/>
       <c r="E67" s="2" t="s">
         <v>146</v>
       </c>
@@ -9949,30 +9997,30 @@
       <c r="T67" s="76"/>
       <c r="U67" s="76"/>
       <c r="V67" s="76"/>
-      <c r="W67" s="100"/>
+      <c r="W67" s="112"/>
       <c r="X67" s="76"/>
       <c r="Y67" s="76"/>
       <c r="Z67" s="76"/>
       <c r="AA67" s="76"/>
       <c r="AB67" s="76"/>
       <c r="AC67" s="76"/>
-      <c r="AD67" s="97"/>
+      <c r="AD67" s="109"/>
       <c r="AE67" s="76"/>
       <c r="AF67" s="76"/>
       <c r="AG67" s="76"/>
       <c r="AH67" s="76"/>
       <c r="AI67" s="76"/>
       <c r="AJ67" s="76"/>
-      <c r="AK67" s="94"/>
+      <c r="AK67" s="106"/>
       <c r="AL67" s="76"/>
     </row>
     <row r="68" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="103"/>
-      <c r="B68" s="105"/>
-      <c r="C68" s="102" t="s">
+      <c r="A68" s="97"/>
+      <c r="B68" s="100"/>
+      <c r="C68" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="D68" s="102" t="s">
+      <c r="D68" s="98" t="s">
         <v>93</v>
       </c>
       <c r="E68" s="2" t="s">
@@ -10005,28 +10053,28 @@
       <c r="T68" s="76"/>
       <c r="U68" s="76"/>
       <c r="V68" s="76"/>
-      <c r="W68" s="100"/>
+      <c r="W68" s="112"/>
       <c r="X68" s="76"/>
       <c r="Y68" s="76"/>
       <c r="Z68" s="76"/>
       <c r="AA68" s="76"/>
       <c r="AB68" s="76"/>
       <c r="AC68" s="76"/>
-      <c r="AD68" s="97"/>
+      <c r="AD68" s="109"/>
       <c r="AE68" s="76"/>
       <c r="AF68" s="76"/>
       <c r="AG68" s="76"/>
       <c r="AH68" s="76"/>
       <c r="AI68" s="76"/>
       <c r="AJ68" s="76"/>
-      <c r="AK68" s="94"/>
+      <c r="AK68" s="106"/>
       <c r="AL68" s="76"/>
     </row>
     <row r="69" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="103"/>
-      <c r="B69" s="105"/>
-      <c r="C69" s="102"/>
-      <c r="D69" s="102"/>
+      <c r="A69" s="97"/>
+      <c r="B69" s="100"/>
+      <c r="C69" s="98"/>
+      <c r="D69" s="98"/>
       <c r="E69" s="2" t="s">
         <v>130</v>
       </c>
@@ -10057,28 +10105,28 @@
       <c r="T69" s="76"/>
       <c r="U69" s="76"/>
       <c r="V69" s="76"/>
-      <c r="W69" s="100"/>
+      <c r="W69" s="112"/>
       <c r="X69" s="76"/>
       <c r="Y69" s="76"/>
       <c r="Z69" s="76"/>
       <c r="AA69" s="76"/>
       <c r="AB69" s="76"/>
       <c r="AC69" s="76"/>
-      <c r="AD69" s="97"/>
+      <c r="AD69" s="109"/>
       <c r="AE69" s="76"/>
       <c r="AF69" s="76"/>
       <c r="AG69" s="76"/>
       <c r="AH69" s="76"/>
       <c r="AI69" s="76"/>
       <c r="AJ69" s="76"/>
-      <c r="AK69" s="94"/>
+      <c r="AK69" s="106"/>
       <c r="AL69" s="76"/>
     </row>
     <row r="70" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="103"/>
-      <c r="B70" s="105"/>
-      <c r="C70" s="102"/>
-      <c r="D70" s="90" t="s">
+      <c r="A70" s="97"/>
+      <c r="B70" s="100"/>
+      <c r="C70" s="98"/>
+      <c r="D70" s="101" t="s">
         <v>98</v>
       </c>
       <c r="E70" s="2" t="s">
@@ -10111,28 +10159,28 @@
       <c r="T70" s="76"/>
       <c r="U70" s="76"/>
       <c r="V70" s="76"/>
-      <c r="W70" s="100"/>
+      <c r="W70" s="112"/>
       <c r="X70" s="76"/>
       <c r="Y70" s="76"/>
       <c r="Z70" s="76"/>
       <c r="AA70" s="76"/>
       <c r="AB70" s="76"/>
       <c r="AC70" s="76"/>
-      <c r="AD70" s="97"/>
+      <c r="AD70" s="109"/>
       <c r="AE70" s="76"/>
       <c r="AF70" s="76"/>
       <c r="AG70" s="76"/>
       <c r="AH70" s="76"/>
       <c r="AI70" s="76"/>
       <c r="AJ70" s="76"/>
-      <c r="AK70" s="94"/>
+      <c r="AK70" s="106"/>
       <c r="AL70" s="76"/>
     </row>
     <row r="71" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="103"/>
-      <c r="B71" s="105"/>
-      <c r="C71" s="102"/>
-      <c r="D71" s="92"/>
+      <c r="A71" s="97"/>
+      <c r="B71" s="100"/>
+      <c r="C71" s="98"/>
+      <c r="D71" s="103"/>
       <c r="E71" s="2" t="s">
         <v>130</v>
       </c>
@@ -10159,27 +10207,27 @@
       <c r="T71" s="76"/>
       <c r="U71" s="76"/>
       <c r="V71" s="76"/>
-      <c r="W71" s="100"/>
+      <c r="W71" s="112"/>
       <c r="X71" s="76"/>
       <c r="Y71" s="76"/>
       <c r="Z71" s="76"/>
       <c r="AA71" s="76"/>
       <c r="AB71" s="76"/>
       <c r="AC71" s="76"/>
-      <c r="AD71" s="97"/>
+      <c r="AD71" s="109"/>
       <c r="AE71" s="76"/>
       <c r="AF71" s="76"/>
       <c r="AG71" s="76"/>
       <c r="AH71" s="76"/>
       <c r="AI71" s="76"/>
       <c r="AJ71" s="76"/>
-      <c r="AK71" s="94"/>
+      <c r="AK71" s="106"/>
       <c r="AL71" s="76"/>
     </row>
     <row r="72" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A72" s="103"/>
-      <c r="B72" s="105"/>
-      <c r="C72" s="91"/>
+      <c r="A72" s="97"/>
+      <c r="B72" s="100"/>
+      <c r="C72" s="102"/>
       <c r="D72" s="2" t="s">
         <v>190</v>
       </c>
@@ -10213,27 +10261,27 @@
       <c r="T72" s="76"/>
       <c r="U72" s="76"/>
       <c r="V72" s="76"/>
-      <c r="W72" s="100"/>
+      <c r="W72" s="112"/>
       <c r="X72" s="76"/>
       <c r="Y72" s="76"/>
       <c r="Z72" s="76"/>
       <c r="AA72" s="76"/>
       <c r="AB72" s="76"/>
       <c r="AC72" s="76"/>
-      <c r="AD72" s="97"/>
+      <c r="AD72" s="109"/>
       <c r="AE72" s="76"/>
       <c r="AF72" s="76"/>
       <c r="AG72" s="76"/>
       <c r="AH72" s="76"/>
       <c r="AI72" s="76"/>
       <c r="AJ72" s="76"/>
-      <c r="AK72" s="94"/>
+      <c r="AK72" s="106"/>
       <c r="AL72" s="76"/>
     </row>
     <row r="73" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A73" s="103"/>
-      <c r="B73" s="105"/>
-      <c r="C73" s="91"/>
+      <c r="A73" s="97"/>
+      <c r="B73" s="100"/>
+      <c r="C73" s="102"/>
       <c r="D73" s="2" t="s">
         <v>191</v>
       </c>
@@ -10267,27 +10315,27 @@
       <c r="T73" s="76"/>
       <c r="U73" s="76"/>
       <c r="V73" s="76"/>
-      <c r="W73" s="100"/>
+      <c r="W73" s="112"/>
       <c r="X73" s="76"/>
       <c r="Y73" s="76"/>
       <c r="Z73" s="76"/>
       <c r="AA73" s="76"/>
       <c r="AB73" s="76"/>
       <c r="AC73" s="76"/>
-      <c r="AD73" s="97"/>
+      <c r="AD73" s="109"/>
       <c r="AE73" s="76"/>
       <c r="AF73" s="76"/>
       <c r="AG73" s="76"/>
       <c r="AH73" s="76"/>
       <c r="AI73" s="76"/>
       <c r="AJ73" s="76"/>
-      <c r="AK73" s="94"/>
+      <c r="AK73" s="106"/>
       <c r="AL73" s="76"/>
     </row>
     <row r="74" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A74" s="103"/>
-      <c r="B74" s="105"/>
-      <c r="C74" s="92"/>
+      <c r="A74" s="97"/>
+      <c r="B74" s="100"/>
+      <c r="C74" s="103"/>
       <c r="D74" s="2" t="s">
         <v>161</v>
       </c>
@@ -10321,27 +10369,27 @@
       <c r="T74" s="76"/>
       <c r="U74" s="76"/>
       <c r="V74" s="76"/>
-      <c r="W74" s="100"/>
+      <c r="W74" s="112"/>
       <c r="X74" s="76"/>
       <c r="Y74" s="76"/>
       <c r="Z74" s="76"/>
       <c r="AA74" s="76"/>
       <c r="AB74" s="76"/>
       <c r="AC74" s="76"/>
-      <c r="AD74" s="97"/>
+      <c r="AD74" s="109"/>
       <c r="AE74" s="76"/>
       <c r="AF74" s="76"/>
       <c r="AG74" s="76"/>
       <c r="AH74" s="76"/>
       <c r="AI74" s="76"/>
       <c r="AJ74" s="76"/>
-      <c r="AK74" s="94"/>
+      <c r="AK74" s="106"/>
       <c r="AL74" s="76"/>
     </row>
     <row r="75" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A75" s="103"/>
-      <c r="B75" s="105"/>
-      <c r="C75" s="102" t="s">
+      <c r="A75" s="97"/>
+      <c r="B75" s="100"/>
+      <c r="C75" s="98" t="s">
         <v>13</v>
       </c>
       <c r="D75" s="2" t="s">
@@ -10375,27 +10423,27 @@
       <c r="T75" s="76"/>
       <c r="U75" s="76"/>
       <c r="V75" s="76"/>
-      <c r="W75" s="100"/>
+      <c r="W75" s="112"/>
       <c r="X75" s="76"/>
       <c r="Y75" s="76"/>
       <c r="Z75" s="76"/>
       <c r="AA75" s="76"/>
       <c r="AB75" s="76"/>
       <c r="AC75" s="76"/>
-      <c r="AD75" s="97"/>
+      <c r="AD75" s="109"/>
       <c r="AE75" s="76"/>
       <c r="AF75" s="76"/>
       <c r="AG75" s="76"/>
       <c r="AH75" s="76"/>
       <c r="AI75" s="76"/>
       <c r="AJ75" s="76"/>
-      <c r="AK75" s="94"/>
+      <c r="AK75" s="106"/>
       <c r="AL75" s="76"/>
     </row>
     <row r="76" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A76" s="103"/>
-      <c r="B76" s="105"/>
-      <c r="C76" s="102"/>
+      <c r="A76" s="97"/>
+      <c r="B76" s="100"/>
+      <c r="C76" s="98"/>
       <c r="D76" s="2" t="s">
         <v>126</v>
       </c>
@@ -10427,27 +10475,27 @@
       <c r="T76" s="76"/>
       <c r="U76" s="76"/>
       <c r="V76" s="76"/>
-      <c r="W76" s="100"/>
+      <c r="W76" s="112"/>
       <c r="X76" s="76"/>
       <c r="Y76" s="76"/>
       <c r="Z76" s="76"/>
       <c r="AA76" s="76"/>
       <c r="AB76" s="76"/>
       <c r="AC76" s="76"/>
-      <c r="AD76" s="97"/>
+      <c r="AD76" s="109"/>
       <c r="AE76" s="76"/>
       <c r="AF76" s="76"/>
       <c r="AG76" s="76"/>
       <c r="AH76" s="76"/>
       <c r="AI76" s="76"/>
       <c r="AJ76" s="76"/>
-      <c r="AK76" s="94"/>
+      <c r="AK76" s="106"/>
       <c r="AL76" s="76"/>
     </row>
     <row r="77" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="103"/>
-      <c r="B77" s="105"/>
-      <c r="C77" s="90" t="s">
+      <c r="A77" s="97"/>
+      <c r="B77" s="100"/>
+      <c r="C77" s="101" t="s">
         <v>99</v>
       </c>
       <c r="D77" s="2" t="s">
@@ -10481,27 +10529,27 @@
       <c r="T77" s="76"/>
       <c r="U77" s="76"/>
       <c r="V77" s="76"/>
-      <c r="W77" s="100"/>
+      <c r="W77" s="112"/>
       <c r="X77" s="76"/>
       <c r="Y77" s="76"/>
       <c r="Z77" s="76"/>
       <c r="AA77" s="76"/>
       <c r="AB77" s="76"/>
       <c r="AC77" s="76"/>
-      <c r="AD77" s="97"/>
+      <c r="AD77" s="109"/>
       <c r="AE77" s="76"/>
       <c r="AF77" s="76"/>
       <c r="AG77" s="76"/>
       <c r="AH77" s="76"/>
       <c r="AI77" s="76"/>
       <c r="AJ77" s="76"/>
-      <c r="AK77" s="94"/>
+      <c r="AK77" s="106"/>
       <c r="AL77" s="76"/>
     </row>
     <row r="78" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A78" s="103"/>
-      <c r="B78" s="105"/>
-      <c r="C78" s="91"/>
+      <c r="A78" s="97"/>
+      <c r="B78" s="100"/>
+      <c r="C78" s="102"/>
       <c r="D78" s="2" t="s">
         <v>156</v>
       </c>
@@ -10533,27 +10581,27 @@
       <c r="T78" s="76"/>
       <c r="U78" s="76"/>
       <c r="V78" s="76"/>
-      <c r="W78" s="100"/>
+      <c r="W78" s="112"/>
       <c r="X78" s="76"/>
       <c r="Y78" s="76"/>
       <c r="Z78" s="76"/>
       <c r="AA78" s="76"/>
       <c r="AB78" s="76"/>
       <c r="AC78" s="76"/>
-      <c r="AD78" s="97"/>
+      <c r="AD78" s="109"/>
       <c r="AE78" s="76"/>
       <c r="AF78" s="76"/>
       <c r="AG78" s="76"/>
       <c r="AH78" s="76"/>
       <c r="AI78" s="76"/>
       <c r="AJ78" s="76"/>
-      <c r="AK78" s="94"/>
+      <c r="AK78" s="106"/>
       <c r="AL78" s="76"/>
     </row>
     <row r="79" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="103"/>
-      <c r="B79" s="105"/>
-      <c r="C79" s="91"/>
+      <c r="A79" s="97"/>
+      <c r="B79" s="100"/>
+      <c r="C79" s="102"/>
       <c r="D79" s="2" t="s">
         <v>187</v>
       </c>
@@ -10585,27 +10633,27 @@
       <c r="T79" s="76"/>
       <c r="U79" s="76"/>
       <c r="V79" s="76"/>
-      <c r="W79" s="100"/>
+      <c r="W79" s="112"/>
       <c r="X79" s="76"/>
       <c r="Y79" s="76"/>
       <c r="Z79" s="76"/>
       <c r="AA79" s="76"/>
       <c r="AB79" s="76"/>
       <c r="AC79" s="76"/>
-      <c r="AD79" s="97"/>
+      <c r="AD79" s="109"/>
       <c r="AE79" s="76"/>
       <c r="AF79" s="76"/>
       <c r="AG79" s="76"/>
       <c r="AH79" s="76"/>
       <c r="AI79" s="76"/>
       <c r="AJ79" s="76"/>
-      <c r="AK79" s="94"/>
+      <c r="AK79" s="106"/>
       <c r="AL79" s="76"/>
     </row>
     <row r="80" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A80" s="103"/>
-      <c r="B80" s="105"/>
-      <c r="C80" s="92"/>
+      <c r="A80" s="97"/>
+      <c r="B80" s="100"/>
+      <c r="C80" s="103"/>
       <c r="D80" s="2" t="s">
         <v>157</v>
       </c>
@@ -10637,27 +10685,27 @@
       <c r="T80" s="76"/>
       <c r="U80" s="76"/>
       <c r="V80" s="76"/>
-      <c r="W80" s="100"/>
+      <c r="W80" s="112"/>
       <c r="X80" s="76"/>
       <c r="Y80" s="76"/>
       <c r="Z80" s="76"/>
       <c r="AA80" s="76"/>
       <c r="AB80" s="76"/>
       <c r="AC80" s="76"/>
-      <c r="AD80" s="97"/>
+      <c r="AD80" s="109"/>
       <c r="AE80" s="76"/>
       <c r="AF80" s="76"/>
       <c r="AG80" s="76"/>
       <c r="AH80" s="76"/>
       <c r="AI80" s="76"/>
       <c r="AJ80" s="76"/>
-      <c r="AK80" s="94"/>
+      <c r="AK80" s="106"/>
       <c r="AL80" s="76"/>
     </row>
     <row r="81" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A81" s="103"/>
-      <c r="B81" s="105"/>
-      <c r="C81" s="102" t="s">
+      <c r="A81" s="97"/>
+      <c r="B81" s="100"/>
+      <c r="C81" s="98" t="s">
         <v>30</v>
       </c>
       <c r="D81" s="2" t="s">
@@ -10689,27 +10737,27 @@
       <c r="T81" s="76"/>
       <c r="U81" s="76"/>
       <c r="V81" s="76"/>
-      <c r="W81" s="100"/>
+      <c r="W81" s="112"/>
       <c r="X81" s="76"/>
       <c r="Y81" s="76"/>
       <c r="Z81" s="76"/>
       <c r="AA81" s="76"/>
       <c r="AB81" s="76"/>
       <c r="AC81" s="76"/>
-      <c r="AD81" s="97"/>
+      <c r="AD81" s="109"/>
       <c r="AE81" s="76"/>
       <c r="AF81" s="76"/>
       <c r="AG81" s="76"/>
       <c r="AH81" s="76"/>
       <c r="AI81" s="76"/>
       <c r="AJ81" s="76"/>
-      <c r="AK81" s="94"/>
+      <c r="AK81" s="106"/>
       <c r="AL81" s="76"/>
     </row>
     <row r="82" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A82" s="103"/>
-      <c r="B82" s="105"/>
-      <c r="C82" s="102"/>
+      <c r="A82" s="97"/>
+      <c r="B82" s="100"/>
+      <c r="C82" s="98"/>
       <c r="D82" s="2" t="s">
         <v>32</v>
       </c>
@@ -10733,27 +10781,27 @@
       <c r="T82" s="76"/>
       <c r="U82" s="76"/>
       <c r="V82" s="76"/>
-      <c r="W82" s="100"/>
+      <c r="W82" s="112"/>
       <c r="X82" s="76"/>
       <c r="Y82" s="76"/>
       <c r="Z82" s="76"/>
       <c r="AA82" s="76"/>
       <c r="AB82" s="76"/>
       <c r="AC82" s="76"/>
-      <c r="AD82" s="97"/>
+      <c r="AD82" s="109"/>
       <c r="AE82" s="76"/>
       <c r="AF82" s="76"/>
       <c r="AG82" s="76"/>
       <c r="AH82" s="76"/>
       <c r="AI82" s="76"/>
       <c r="AJ82" s="76"/>
-      <c r="AK82" s="94"/>
+      <c r="AK82" s="106"/>
       <c r="AL82" s="76"/>
     </row>
     <row r="83" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A83" s="103"/>
-      <c r="B83" s="105"/>
-      <c r="C83" s="102"/>
+      <c r="A83" s="97"/>
+      <c r="B83" s="100"/>
+      <c r="C83" s="98"/>
       <c r="D83" s="2" t="s">
         <v>33</v>
       </c>
@@ -10783,25 +10831,25 @@
       <c r="T83" s="76"/>
       <c r="U83" s="76"/>
       <c r="V83" s="76"/>
-      <c r="W83" s="100"/>
+      <c r="W83" s="112"/>
       <c r="X83" s="76"/>
       <c r="Y83" s="76"/>
       <c r="Z83" s="76"/>
       <c r="AA83" s="76"/>
       <c r="AB83" s="76"/>
       <c r="AC83" s="76"/>
-      <c r="AD83" s="97"/>
+      <c r="AD83" s="109"/>
       <c r="AE83" s="76"/>
       <c r="AF83" s="76"/>
       <c r="AG83" s="76"/>
       <c r="AH83" s="76"/>
       <c r="AI83" s="76"/>
       <c r="AJ83" s="76"/>
-      <c r="AK83" s="94"/>
+      <c r="AK83" s="106"/>
       <c r="AL83" s="76"/>
     </row>
     <row r="84" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A84" s="103"/>
+      <c r="A84" s="97"/>
       <c r="B84" s="77"/>
       <c r="C84" s="76" t="s">
         <v>258</v>
@@ -10829,25 +10877,25 @@
       <c r="T84" s="76"/>
       <c r="U84" s="76"/>
       <c r="V84" s="76"/>
-      <c r="W84" s="100"/>
+      <c r="W84" s="112"/>
       <c r="X84" s="76"/>
       <c r="Y84" s="76"/>
       <c r="Z84" s="76"/>
       <c r="AA84" s="76"/>
       <c r="AB84" s="76"/>
       <c r="AC84" s="76"/>
-      <c r="AD84" s="97"/>
+      <c r="AD84" s="109"/>
       <c r="AE84" s="76"/>
       <c r="AF84" s="76"/>
       <c r="AG84" s="76"/>
       <c r="AH84" s="76"/>
       <c r="AI84" s="76"/>
       <c r="AJ84" s="76"/>
-      <c r="AK84" s="94"/>
+      <c r="AK84" s="106"/>
       <c r="AL84" s="76"/>
     </row>
     <row r="85" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A85" s="103"/>
+      <c r="A85" s="97"/>
       <c r="B85" s="77"/>
       <c r="C85" s="76" t="s">
         <v>259</v>
@@ -10875,25 +10923,25 @@
       <c r="T85" s="76"/>
       <c r="U85" s="76"/>
       <c r="V85" s="76"/>
-      <c r="W85" s="101"/>
+      <c r="W85" s="113"/>
       <c r="X85" s="76"/>
       <c r="Y85" s="76"/>
       <c r="Z85" s="76"/>
       <c r="AA85" s="76"/>
       <c r="AB85" s="76"/>
       <c r="AC85" s="76"/>
-      <c r="AD85" s="98"/>
+      <c r="AD85" s="110"/>
       <c r="AE85" s="76"/>
       <c r="AF85" s="76"/>
       <c r="AG85" s="76"/>
       <c r="AH85" s="76"/>
       <c r="AI85" s="76"/>
       <c r="AJ85" s="76"/>
-      <c r="AK85" s="95"/>
+      <c r="AK85" s="107"/>
       <c r="AL85" s="76"/>
     </row>
     <row r="86" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A86" s="103"/>
+      <c r="A86" s="97"/>
       <c r="B86" s="38" t="s">
         <v>21</v>
       </c>
@@ -10915,6 +10963,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="D33:D38"/>
+    <mergeCell ref="AK5:AK85"/>
+    <mergeCell ref="AD5:AD85"/>
+    <mergeCell ref="W5:W85"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="D18:D27"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="D61:D65"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="D68:D69"/>
     <mergeCell ref="A5:A86"/>
     <mergeCell ref="C11:C14"/>
     <mergeCell ref="C15:C17"/>
@@ -10931,20 +10993,6 @@
     <mergeCell ref="C18:C45"/>
     <mergeCell ref="B11:B58"/>
     <mergeCell ref="C61:C67"/>
-    <mergeCell ref="D33:D38"/>
-    <mergeCell ref="AK5:AK85"/>
-    <mergeCell ref="AD5:AD85"/>
-    <mergeCell ref="W5:W85"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="D18:D27"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="D61:D65"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="D68:D69"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="L3:AL5 AL6:AL85 X6:AC85 AE6:AJ85 L6:V85">
@@ -11023,24 +11071,24 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B3" s="107"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="107"/>
+      <c r="B3" s="114"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
     </row>
     <row r="4" spans="2:14" ht="45.75" x14ac:dyDescent="0.4">
-      <c r="B4" s="107"/>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
+      <c r="B4" s="114"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="114"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="114"/>
       <c r="K4" s="11" t="s">
         <v>73</v>
       </c>
@@ -11049,14 +11097,14 @@
       </c>
     </row>
     <row r="5" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B5" s="107"/>
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="114"/>
+      <c r="G5" s="114"/>
+      <c r="H5" s="114"/>
+      <c r="I5" s="114"/>
       <c r="K5" s="12" t="s">
         <v>75</v>
       </c>
@@ -11065,28 +11113,28 @@
       </c>
     </row>
     <row r="6" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B6" s="107"/>
-      <c r="C6" s="107"/>
-      <c r="D6" s="107"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="107"/>
-      <c r="H6" s="107"/>
-      <c r="I6" s="107"/>
+      <c r="B6" s="114"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="114"/>
+      <c r="F6" s="114"/>
+      <c r="G6" s="114"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="114"/>
       <c r="K6" s="12" t="s">
         <v>76</v>
       </c>
       <c r="L6" s="13"/>
     </row>
     <row r="7" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="107"/>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="107"/>
-      <c r="I7" s="107"/>
+      <c r="B7" s="114"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
       <c r="K7" s="12" t="s">
         <v>77</v>
       </c>
@@ -11095,28 +11143,28 @@
       </c>
     </row>
     <row r="8" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B8" s="107"/>
-      <c r="C8" s="107"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="107"/>
-      <c r="F8" s="107"/>
-      <c r="G8" s="107"/>
-      <c r="H8" s="107"/>
-      <c r="I8" s="107"/>
+      <c r="B8" s="114"/>
+      <c r="C8" s="114"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="114"/>
+      <c r="F8" s="114"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="114"/>
+      <c r="I8" s="114"/>
       <c r="K8" s="12" t="s">
         <v>78</v>
       </c>
       <c r="L8" s="13"/>
     </row>
     <row r="9" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B9" s="107"/>
-      <c r="C9" s="107"/>
-      <c r="D9" s="107"/>
-      <c r="E9" s="107"/>
-      <c r="F9" s="107"/>
-      <c r="G9" s="107"/>
-      <c r="H9" s="107"/>
-      <c r="I9" s="107"/>
+      <c r="B9" s="114"/>
+      <c r="C9" s="114"/>
+      <c r="D9" s="114"/>
+      <c r="E9" s="114"/>
+      <c r="F9" s="114"/>
+      <c r="G9" s="114"/>
+      <c r="H9" s="114"/>
+      <c r="I9" s="114"/>
       <c r="K9" s="12" t="s">
         <v>79</v>
       </c>
@@ -11125,28 +11173,28 @@
       </c>
     </row>
     <row r="10" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B10" s="107"/>
-      <c r="C10" s="107"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="107"/>
-      <c r="F10" s="107"/>
-      <c r="G10" s="107"/>
-      <c r="H10" s="107"/>
-      <c r="I10" s="107"/>
+      <c r="B10" s="114"/>
+      <c r="C10" s="114"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="114"/>
+      <c r="G10" s="114"/>
+      <c r="H10" s="114"/>
+      <c r="I10" s="114"/>
       <c r="K10" s="12" t="s">
         <v>80</v>
       </c>
       <c r="L10" s="13"/>
     </row>
     <row r="11" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B11" s="107"/>
-      <c r="C11" s="107"/>
-      <c r="D11" s="107"/>
-      <c r="E11" s="107"/>
-      <c r="F11" s="107"/>
-      <c r="G11" s="107"/>
-      <c r="H11" s="107"/>
-      <c r="I11" s="107"/>
+      <c r="B11" s="114"/>
+      <c r="C11" s="114"/>
+      <c r="D11" s="114"/>
+      <c r="E11" s="114"/>
+      <c r="F11" s="114"/>
+      <c r="G11" s="114"/>
+      <c r="H11" s="114"/>
+      <c r="I11" s="114"/>
       <c r="K11" s="12" t="s">
         <v>81</v>
       </c>
@@ -11156,136 +11204,136 @@
       <c r="N11" s="10"/>
     </row>
     <row r="12" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B12" s="107"/>
-      <c r="C12" s="107"/>
-      <c r="D12" s="107"/>
-      <c r="E12" s="107"/>
-      <c r="F12" s="107"/>
-      <c r="G12" s="107"/>
-      <c r="H12" s="107"/>
-      <c r="I12" s="107"/>
+      <c r="B12" s="114"/>
+      <c r="C12" s="114"/>
+      <c r="D12" s="114"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="114"/>
+      <c r="G12" s="114"/>
+      <c r="H12" s="114"/>
+      <c r="I12" s="114"/>
       <c r="K12" s="12" t="s">
         <v>82</v>
       </c>
       <c r="L12" s="13"/>
     </row>
     <row r="13" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B13" s="107"/>
-      <c r="C13" s="107"/>
-      <c r="D13" s="107"/>
-      <c r="E13" s="107"/>
-      <c r="F13" s="107"/>
-      <c r="G13" s="107"/>
-      <c r="H13" s="107"/>
-      <c r="I13" s="107"/>
+      <c r="B13" s="114"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="114"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="114"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="114"/>
+      <c r="I13" s="114"/>
       <c r="K13" s="12" t="s">
         <v>83</v>
       </c>
       <c r="L13" s="13"/>
     </row>
     <row r="14" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B14" s="107"/>
-      <c r="C14" s="107"/>
-      <c r="D14" s="107"/>
-      <c r="E14" s="107"/>
-      <c r="F14" s="107"/>
-      <c r="G14" s="107"/>
-      <c r="H14" s="107"/>
-      <c r="I14" s="107"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="114"/>
+      <c r="D14" s="114"/>
+      <c r="E14" s="114"/>
+      <c r="F14" s="114"/>
+      <c r="G14" s="114"/>
+      <c r="H14" s="114"/>
+      <c r="I14" s="114"/>
       <c r="K14" s="12" t="s">
         <v>84</v>
       </c>
       <c r="L14" s="13"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B15" s="107"/>
-      <c r="C15" s="107"/>
-      <c r="D15" s="107"/>
-      <c r="E15" s="107"/>
-      <c r="F15" s="107"/>
-      <c r="G15" s="107"/>
-      <c r="H15" s="107"/>
-      <c r="I15" s="107"/>
+      <c r="B15" s="114"/>
+      <c r="C15" s="114"/>
+      <c r="D15" s="114"/>
+      <c r="E15" s="114"/>
+      <c r="F15" s="114"/>
+      <c r="G15" s="114"/>
+      <c r="H15" s="114"/>
+      <c r="I15" s="114"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B16" s="107"/>
-      <c r="C16" s="107"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="107"/>
-      <c r="F16" s="107"/>
-      <c r="G16" s="107"/>
-      <c r="H16" s="107"/>
-      <c r="I16" s="107"/>
+      <c r="B16" s="114"/>
+      <c r="C16" s="114"/>
+      <c r="D16" s="114"/>
+      <c r="E16" s="114"/>
+      <c r="F16" s="114"/>
+      <c r="G16" s="114"/>
+      <c r="H16" s="114"/>
+      <c r="I16" s="114"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B17" s="107"/>
-      <c r="C17" s="107"/>
-      <c r="D17" s="107"/>
-      <c r="E17" s="107"/>
-      <c r="F17" s="107"/>
-      <c r="G17" s="107"/>
-      <c r="H17" s="107"/>
-      <c r="I17" s="107"/>
+      <c r="B17" s="114"/>
+      <c r="C17" s="114"/>
+      <c r="D17" s="114"/>
+      <c r="E17" s="114"/>
+      <c r="F17" s="114"/>
+      <c r="G17" s="114"/>
+      <c r="H17" s="114"/>
+      <c r="I17" s="114"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B18" s="107"/>
-      <c r="C18" s="107"/>
-      <c r="D18" s="107"/>
-      <c r="E18" s="107"/>
-      <c r="F18" s="107"/>
-      <c r="G18" s="107"/>
-      <c r="H18" s="107"/>
-      <c r="I18" s="107"/>
+      <c r="B18" s="114"/>
+      <c r="C18" s="114"/>
+      <c r="D18" s="114"/>
+      <c r="E18" s="114"/>
+      <c r="F18" s="114"/>
+      <c r="G18" s="114"/>
+      <c r="H18" s="114"/>
+      <c r="I18" s="114"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B19" s="107"/>
-      <c r="C19" s="107"/>
-      <c r="D19" s="107"/>
-      <c r="E19" s="107"/>
-      <c r="F19" s="107"/>
-      <c r="G19" s="107"/>
-      <c r="H19" s="107"/>
-      <c r="I19" s="107"/>
+      <c r="B19" s="114"/>
+      <c r="C19" s="114"/>
+      <c r="D19" s="114"/>
+      <c r="E19" s="114"/>
+      <c r="F19" s="114"/>
+      <c r="G19" s="114"/>
+      <c r="H19" s="114"/>
+      <c r="I19" s="114"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B20" s="107"/>
-      <c r="C20" s="107"/>
-      <c r="D20" s="107"/>
-      <c r="E20" s="107"/>
-      <c r="F20" s="107"/>
-      <c r="G20" s="107"/>
-      <c r="H20" s="107"/>
-      <c r="I20" s="107"/>
+      <c r="B20" s="114"/>
+      <c r="C20" s="114"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="114"/>
+      <c r="F20" s="114"/>
+      <c r="G20" s="114"/>
+      <c r="H20" s="114"/>
+      <c r="I20" s="114"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B21" s="107"/>
-      <c r="C21" s="107"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="107"/>
-      <c r="F21" s="107"/>
-      <c r="G21" s="107"/>
-      <c r="H21" s="107"/>
-      <c r="I21" s="107"/>
+      <c r="B21" s="114"/>
+      <c r="C21" s="114"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="114"/>
+      <c r="F21" s="114"/>
+      <c r="G21" s="114"/>
+      <c r="H21" s="114"/>
+      <c r="I21" s="114"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B22" s="107"/>
-      <c r="C22" s="107"/>
-      <c r="D22" s="107"/>
-      <c r="E22" s="107"/>
-      <c r="F22" s="107"/>
-      <c r="G22" s="107"/>
-      <c r="H22" s="107"/>
-      <c r="I22" s="107"/>
+      <c r="B22" s="114"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="114"/>
+      <c r="E22" s="114"/>
+      <c r="F22" s="114"/>
+      <c r="G22" s="114"/>
+      <c r="H22" s="114"/>
+      <c r="I22" s="114"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B23" s="107"/>
-      <c r="C23" s="107"/>
-      <c r="D23" s="107"/>
-      <c r="E23" s="107"/>
-      <c r="F23" s="107"/>
-      <c r="G23" s="107"/>
-      <c r="H23" s="107"/>
-      <c r="I23" s="107"/>
+      <c r="B23" s="114"/>
+      <c r="C23" s="114"/>
+      <c r="D23" s="114"/>
+      <c r="E23" s="114"/>
+      <c r="F23" s="114"/>
+      <c r="G23" s="114"/>
+      <c r="H23" s="114"/>
+      <c r="I23" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11331,22 +11379,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="115" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" s="107"/>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
+      <c r="A2" s="114"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="7"/>
@@ -11433,7 +11481,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B10" s="109" t="s">
+      <c r="B10" s="116" t="s">
         <v>173</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -11447,7 +11495,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B11" s="109"/>
+      <c r="B11" s="116"/>
       <c r="C11" s="2" t="s">
         <v>176</v>
       </c>
@@ -11455,7 +11503,7 @@
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B12" s="109"/>
+      <c r="B12" s="116"/>
       <c r="C12" s="2" t="s">
         <v>172</v>
       </c>
@@ -11463,7 +11511,7 @@
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B13" s="109"/>
+      <c r="B13" s="116"/>
       <c r="C13" s="2" t="s">
         <v>175</v>
       </c>
@@ -11568,12 +11616,12 @@
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="117" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11608,7 +11656,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -11968,7 +12016,7 @@
   <dimension ref="B6:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -11976,7 +12024,7 @@
     <col min="2" max="2" width="31.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.125" style="82" customWidth="1"/>
     <col min="4" max="4" width="21.25" customWidth="1"/>
-    <col min="5" max="5" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5" style="90" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.25" bestFit="1" customWidth="1"/>
   </cols>
@@ -11991,9 +12039,6 @@
       <c r="D6" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="82" t="s">
-        <v>246</v>
-      </c>
       <c r="F6" s="82"/>
       <c r="G6" s="82"/>
     </row>
@@ -12001,13 +12046,15 @@
       <c r="B7" s="23" t="s">
         <v>258</v>
       </c>
-      <c r="C7" s="113" t="s">
+      <c r="C7" s="93" t="s">
         <v>274</v>
       </c>
-      <c r="D7" s="111" t="s">
+      <c r="D7" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="82"/>
+      <c r="E7" s="90" t="s">
+        <v>277</v>
+      </c>
       <c r="F7" s="82"/>
       <c r="G7" s="82"/>
     </row>
@@ -12015,13 +12062,15 @@
       <c r="B8" s="23" t="s">
         <v>259</v>
       </c>
-      <c r="C8" s="113" t="s">
+      <c r="C8" s="93" t="s">
         <v>274</v>
       </c>
-      <c r="D8" s="111" t="s">
+      <c r="D8" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="82"/>
+      <c r="E8" s="90" t="s">
+        <v>277</v>
+      </c>
       <c r="F8" s="82"/>
       <c r="G8" s="82"/>
     </row>
@@ -12029,13 +12078,15 @@
       <c r="B9" s="24" t="s">
         <v>263</v>
       </c>
-      <c r="C9" s="114" t="s">
+      <c r="C9" s="94" t="s">
         <v>273</v>
       </c>
-      <c r="D9" s="111" t="s">
+      <c r="D9" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="82"/>
+      <c r="E9" s="90" t="s">
+        <v>276</v>
+      </c>
       <c r="F9" s="82"/>
       <c r="G9" s="82"/>
     </row>
@@ -12043,13 +12094,15 @@
       <c r="B10" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="C10" s="114" t="s">
+      <c r="C10" s="94" t="s">
         <v>273</v>
       </c>
-      <c r="D10" s="111" t="s">
+      <c r="D10" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="82"/>
+      <c r="E10" s="90" t="s">
+        <v>276</v>
+      </c>
       <c r="F10" s="82"/>
       <c r="H10" s="82"/>
     </row>
@@ -12057,13 +12110,15 @@
       <c r="B11" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="C11" s="114" t="s">
+      <c r="C11" s="94" t="s">
         <v>273</v>
       </c>
-      <c r="D11" s="111" t="s">
+      <c r="D11" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="82"/>
+      <c r="E11" s="90" t="s">
+        <v>277</v>
+      </c>
       <c r="F11" s="82"/>
       <c r="H11" s="82"/>
     </row>
@@ -12071,13 +12126,15 @@
       <c r="B12" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="C12" s="114" t="s">
+      <c r="C12" s="94" t="s">
         <v>273</v>
       </c>
-      <c r="D12" s="111" t="s">
+      <c r="D12" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="82"/>
+      <c r="E12" s="90" t="s">
+        <v>278</v>
+      </c>
       <c r="F12" s="82"/>
       <c r="G12" s="82"/>
     </row>
@@ -12085,13 +12142,15 @@
       <c r="B13" s="24" t="s">
         <v>266</v>
       </c>
-      <c r="C13" s="114" t="s">
+      <c r="C13" s="94" t="s">
         <v>273</v>
       </c>
-      <c r="D13" s="111" t="s">
+      <c r="D13" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="82"/>
+      <c r="E13" s="90" t="s">
+        <v>276</v>
+      </c>
       <c r="F13" s="82" t="s">
         <v>231</v>
       </c>
@@ -12101,13 +12160,15 @@
       <c r="B14" s="24" t="s">
         <v>267</v>
       </c>
-      <c r="C14" s="114" t="s">
+      <c r="C14" s="94" t="s">
         <v>273</v>
       </c>
-      <c r="D14" s="111" t="s">
+      <c r="D14" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="82"/>
+      <c r="E14" s="90" t="s">
+        <v>277</v>
+      </c>
       <c r="F14" s="82"/>
       <c r="G14" s="82"/>
     </row>
@@ -12115,13 +12176,15 @@
       <c r="B15" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="114" t="s">
+      <c r="C15" s="94" t="s">
         <v>273</v>
       </c>
-      <c r="D15" s="111" t="s">
+      <c r="D15" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="82"/>
+      <c r="E15" s="90" t="s">
+        <v>280</v>
+      </c>
       <c r="F15" s="82"/>
       <c r="H15" s="82"/>
     </row>
@@ -12129,13 +12192,15 @@
       <c r="B16" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="114" t="s">
+      <c r="C16" s="94" t="s">
         <v>273</v>
       </c>
       <c r="D16" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="E16" s="82"/>
+      <c r="E16" s="90" t="s">
+        <v>279</v>
+      </c>
       <c r="F16" s="82"/>
       <c r="G16" s="82"/>
     </row>
@@ -12143,13 +12208,15 @@
       <c r="B17" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="114" t="s">
+      <c r="C17" s="94" t="s">
         <v>273</v>
       </c>
       <c r="D17" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="E17" s="82"/>
+      <c r="E17" s="90" t="s">
+        <v>279</v>
+      </c>
       <c r="F17" s="57"/>
       <c r="G17" s="82"/>
     </row>
@@ -12157,13 +12224,15 @@
       <c r="B18" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="C18" s="114" t="s">
+      <c r="C18" s="94" t="s">
         <v>273</v>
       </c>
-      <c r="D18" s="111" t="s">
+      <c r="D18" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="82"/>
+      <c r="E18" s="90" t="s">
+        <v>276</v>
+      </c>
       <c r="F18" s="82"/>
       <c r="H18" s="82"/>
     </row>
@@ -12171,77 +12240,98 @@
       <c r="B19" s="24" t="s">
         <v>271</v>
       </c>
-      <c r="C19" s="114" t="s">
+      <c r="C19" s="94" t="s">
         <v>273</v>
       </c>
-      <c r="D19" s="111" t="s">
+      <c r="D19" s="91" t="s">
         <v>12</v>
+      </c>
+      <c r="E19" s="90" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B20" s="24" t="s">
         <v>272</v>
       </c>
-      <c r="C20" s="114" t="s">
+      <c r="C20" s="94" t="s">
         <v>273</v>
       </c>
-      <c r="D20" s="111" t="s">
+      <c r="D20" s="91" t="s">
         <v>12</v>
       </c>
+      <c r="E20" s="90" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B21" s="115" t="s">
+      <c r="B21" s="95" t="s">
         <v>268</v>
       </c>
-      <c r="C21" s="116" t="s">
+      <c r="C21" s="96" t="s">
         <v>275</v>
       </c>
-      <c r="D21" s="111" t="s">
+      <c r="D21" s="91" t="s">
         <v>12</v>
       </c>
+      <c r="E21" s="90" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B22" s="115" t="s">
+      <c r="B22" s="95" t="s">
         <v>269</v>
       </c>
-      <c r="C22" s="116" t="s">
+      <c r="C22" s="96" t="s">
         <v>275</v>
       </c>
-      <c r="D22" s="111" t="s">
+      <c r="D22" s="91" t="s">
         <v>12</v>
+      </c>
+      <c r="E22" s="90" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B24" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="114" t="s">
+      <c r="C24" s="94" t="s">
         <v>273</v>
       </c>
-      <c r="D24" s="112" t="s">
+      <c r="D24" s="92" t="s">
         <v>7</v>
+      </c>
+      <c r="E24" s="90" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B25" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="114" t="s">
+      <c r="C25" s="94" t="s">
         <v>273</v>
       </c>
-      <c r="D25" s="112" t="s">
+      <c r="D25" s="92" t="s">
         <v>7</v>
+      </c>
+      <c r="E25" s="90" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B26" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="114" t="s">
+      <c r="C26" s="94" t="s">
         <v>273</v>
       </c>
-      <c r="D26" s="112" t="s">
+      <c r="D26" s="92" t="s">
         <v>7</v>
+      </c>
+      <c r="E26" s="90" t="s">
+        <v>281</v>
       </c>
     </row>
   </sheetData>

--- a/schedule/ガントチャート.xlsx
+++ b/schedule/ガントチャート.xlsx
@@ -2941,56 +2941,56 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="12" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="7" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="3" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="6" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="7" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="3" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="6" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="7" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="3" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="7" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="3" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="6" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="7" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="3" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="6" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="7" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="3" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6919,10 +6919,10 @@
       </c>
     </row>
     <row r="5" spans="1:46" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="97" t="s">
+      <c r="A5" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="99" t="s">
+      <c r="B5" s="111" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="19" t="s">
@@ -6959,7 +6959,7 @@
       <c r="T5" s="78"/>
       <c r="U5" s="78"/>
       <c r="V5" s="78"/>
-      <c r="W5" s="111" t="s">
+      <c r="W5" s="106" t="s">
         <v>110</v>
       </c>
       <c r="X5" s="78"/>
@@ -6968,7 +6968,7 @@
       <c r="AA5" s="78"/>
       <c r="AB5" s="78"/>
       <c r="AC5" s="78"/>
-      <c r="AD5" s="108" t="s">
+      <c r="AD5" s="103" t="s">
         <v>111</v>
       </c>
       <c r="AE5" s="78"/>
@@ -6977,14 +6977,14 @@
       <c r="AH5" s="78"/>
       <c r="AI5" s="78"/>
       <c r="AJ5" s="78"/>
-      <c r="AK5" s="105" t="s">
+      <c r="AK5" s="100" t="s">
         <v>88</v>
       </c>
       <c r="AL5" s="78"/>
     </row>
     <row r="6" spans="1:46" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="97"/>
-      <c r="B6" s="99"/>
+      <c r="A6" s="110"/>
+      <c r="B6" s="111"/>
       <c r="C6" s="19" t="s">
         <v>9</v>
       </c>
@@ -7017,26 +7017,26 @@
       <c r="T6" s="76"/>
       <c r="U6" s="76"/>
       <c r="V6" s="76"/>
-      <c r="W6" s="112"/>
+      <c r="W6" s="107"/>
       <c r="X6" s="76"/>
       <c r="Y6" s="76"/>
       <c r="Z6" s="76"/>
       <c r="AA6" s="76"/>
       <c r="AB6" s="76"/>
       <c r="AC6" s="76"/>
-      <c r="AD6" s="109"/>
+      <c r="AD6" s="104"/>
       <c r="AE6" s="76"/>
       <c r="AF6" s="76"/>
       <c r="AG6" s="76"/>
       <c r="AH6" s="76"/>
       <c r="AI6" s="76"/>
       <c r="AJ6" s="76"/>
-      <c r="AK6" s="106"/>
+      <c r="AK6" s="101"/>
       <c r="AL6" s="76"/>
     </row>
     <row r="7" spans="1:46" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="97"/>
-      <c r="B7" s="99"/>
+      <c r="A7" s="110"/>
+      <c r="B7" s="111"/>
       <c r="C7" s="19" t="s">
         <v>10</v>
       </c>
@@ -7067,26 +7067,26 @@
       <c r="T7" s="76"/>
       <c r="U7" s="76"/>
       <c r="V7" s="76"/>
-      <c r="W7" s="112"/>
+      <c r="W7" s="107"/>
       <c r="X7" s="76"/>
       <c r="Y7" s="76"/>
       <c r="Z7" s="76"/>
       <c r="AA7" s="76"/>
       <c r="AB7" s="76"/>
       <c r="AC7" s="76"/>
-      <c r="AD7" s="109"/>
+      <c r="AD7" s="104"/>
       <c r="AE7" s="76"/>
       <c r="AF7" s="76"/>
       <c r="AG7" s="76"/>
       <c r="AH7" s="76"/>
       <c r="AI7" s="76"/>
       <c r="AJ7" s="76"/>
-      <c r="AK7" s="106"/>
+      <c r="AK7" s="101"/>
       <c r="AL7" s="76"/>
     </row>
     <row r="8" spans="1:46" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="97"/>
-      <c r="B8" s="99"/>
+      <c r="A8" s="110"/>
+      <c r="B8" s="111"/>
       <c r="C8" s="19" t="s">
         <v>11</v>
       </c>
@@ -7117,26 +7117,26 @@
       <c r="T8" s="76"/>
       <c r="U8" s="76"/>
       <c r="V8" s="76"/>
-      <c r="W8" s="112"/>
+      <c r="W8" s="107"/>
       <c r="X8" s="76"/>
       <c r="Y8" s="76"/>
       <c r="Z8" s="76"/>
       <c r="AA8" s="76"/>
       <c r="AB8" s="76"/>
       <c r="AC8" s="76"/>
-      <c r="AD8" s="109"/>
+      <c r="AD8" s="104"/>
       <c r="AE8" s="76"/>
       <c r="AF8" s="76"/>
       <c r="AG8" s="76"/>
       <c r="AH8" s="76"/>
       <c r="AI8" s="76"/>
       <c r="AJ8" s="76"/>
-      <c r="AK8" s="106"/>
+      <c r="AK8" s="101"/>
       <c r="AL8" s="76"/>
     </row>
     <row r="9" spans="1:46" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="97"/>
-      <c r="B9" s="99"/>
+      <c r="A9" s="110"/>
+      <c r="B9" s="111"/>
       <c r="C9" s="19" t="s">
         <v>34</v>
       </c>
@@ -7171,26 +7171,26 @@
       <c r="T9" s="76"/>
       <c r="U9" s="76"/>
       <c r="V9" s="76"/>
-      <c r="W9" s="112"/>
+      <c r="W9" s="107"/>
       <c r="X9" s="76"/>
       <c r="Y9" s="76"/>
       <c r="Z9" s="76"/>
       <c r="AA9" s="76"/>
       <c r="AB9" s="76"/>
       <c r="AC9" s="76"/>
-      <c r="AD9" s="109"/>
+      <c r="AD9" s="104"/>
       <c r="AE9" s="76"/>
       <c r="AF9" s="76"/>
       <c r="AG9" s="76"/>
       <c r="AH9" s="76"/>
       <c r="AI9" s="76"/>
       <c r="AJ9" s="76"/>
-      <c r="AK9" s="106"/>
+      <c r="AK9" s="101"/>
       <c r="AL9" s="76"/>
     </row>
     <row r="10" spans="1:46" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="97"/>
-      <c r="B10" s="99"/>
+      <c r="A10" s="110"/>
+      <c r="B10" s="111"/>
       <c r="C10" s="19" t="s">
         <v>35</v>
       </c>
@@ -7219,29 +7219,29 @@
       <c r="T10" s="76"/>
       <c r="U10" s="76"/>
       <c r="V10" s="76"/>
-      <c r="W10" s="112"/>
+      <c r="W10" s="107"/>
       <c r="X10" s="76"/>
       <c r="Y10" s="76"/>
       <c r="Z10" s="76"/>
       <c r="AA10" s="76"/>
       <c r="AB10" s="76"/>
       <c r="AC10" s="76"/>
-      <c r="AD10" s="109"/>
+      <c r="AD10" s="104"/>
       <c r="AE10" s="76"/>
       <c r="AF10" s="76"/>
       <c r="AG10" s="76"/>
       <c r="AH10" s="76"/>
       <c r="AI10" s="76"/>
       <c r="AJ10" s="76"/>
-      <c r="AK10" s="106"/>
+      <c r="AK10" s="101"/>
       <c r="AL10" s="76"/>
     </row>
     <row r="11" spans="1:46" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="97"/>
-      <c r="B11" s="104" t="s">
+      <c r="A11" s="110"/>
+      <c r="B11" s="113" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="98" t="s">
+      <c r="C11" s="109" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="40" t="s">
@@ -7267,27 +7267,27 @@
       <c r="T11" s="76"/>
       <c r="U11" s="76"/>
       <c r="V11" s="76"/>
-      <c r="W11" s="112"/>
+      <c r="W11" s="107"/>
       <c r="X11" s="76"/>
       <c r="Y11" s="76"/>
       <c r="Z11" s="76"/>
       <c r="AA11" s="76"/>
       <c r="AB11" s="76"/>
       <c r="AC11" s="76"/>
-      <c r="AD11" s="109"/>
+      <c r="AD11" s="104"/>
       <c r="AE11" s="76"/>
       <c r="AF11" s="76"/>
       <c r="AG11" s="76"/>
       <c r="AH11" s="76"/>
       <c r="AI11" s="76"/>
       <c r="AJ11" s="76"/>
-      <c r="AK11" s="106"/>
+      <c r="AK11" s="101"/>
       <c r="AL11" s="76"/>
     </row>
     <row r="12" spans="1:46" x14ac:dyDescent="0.4">
-      <c r="A12" s="97"/>
-      <c r="B12" s="104"/>
-      <c r="C12" s="98"/>
+      <c r="A12" s="110"/>
+      <c r="B12" s="113"/>
+      <c r="C12" s="109"/>
       <c r="D12" s="2" t="s">
         <v>23</v>
       </c>
@@ -7311,27 +7311,27 @@
       <c r="T12" s="76"/>
       <c r="U12" s="76"/>
       <c r="V12" s="76"/>
-      <c r="W12" s="112"/>
+      <c r="W12" s="107"/>
       <c r="X12" s="76"/>
       <c r="Y12" s="76"/>
       <c r="Z12" s="76"/>
       <c r="AA12" s="76"/>
       <c r="AB12" s="76"/>
       <c r="AC12" s="76"/>
-      <c r="AD12" s="109"/>
+      <c r="AD12" s="104"/>
       <c r="AE12" s="76"/>
       <c r="AF12" s="76"/>
       <c r="AG12" s="76"/>
       <c r="AH12" s="76"/>
       <c r="AI12" s="76"/>
       <c r="AJ12" s="76"/>
-      <c r="AK12" s="106"/>
+      <c r="AK12" s="101"/>
       <c r="AL12" s="76"/>
     </row>
     <row r="13" spans="1:46" x14ac:dyDescent="0.4">
-      <c r="A13" s="97"/>
-      <c r="B13" s="104"/>
-      <c r="C13" s="98"/>
+      <c r="A13" s="110"/>
+      <c r="B13" s="113"/>
+      <c r="C13" s="109"/>
       <c r="D13" s="33" t="s">
         <v>45</v>
       </c>
@@ -7355,27 +7355,27 @@
       <c r="T13" s="76"/>
       <c r="U13" s="76"/>
       <c r="V13" s="76"/>
-      <c r="W13" s="112"/>
+      <c r="W13" s="107"/>
       <c r="X13" s="76"/>
       <c r="Y13" s="76"/>
       <c r="Z13" s="76"/>
       <c r="AA13" s="76"/>
       <c r="AB13" s="76"/>
       <c r="AC13" s="76"/>
-      <c r="AD13" s="109"/>
+      <c r="AD13" s="104"/>
       <c r="AE13" s="76"/>
       <c r="AF13" s="76"/>
       <c r="AG13" s="76"/>
       <c r="AH13" s="76"/>
       <c r="AI13" s="76"/>
       <c r="AJ13" s="76"/>
-      <c r="AK13" s="106"/>
+      <c r="AK13" s="101"/>
       <c r="AL13" s="76"/>
     </row>
     <row r="14" spans="1:46" x14ac:dyDescent="0.4">
-      <c r="A14" s="97"/>
-      <c r="B14" s="104"/>
-      <c r="C14" s="98"/>
+      <c r="A14" s="110"/>
+      <c r="B14" s="113"/>
+      <c r="C14" s="109"/>
       <c r="D14" s="34" t="s">
         <v>27</v>
       </c>
@@ -7399,27 +7399,27 @@
       <c r="T14" s="76"/>
       <c r="U14" s="76"/>
       <c r="V14" s="76"/>
-      <c r="W14" s="112"/>
+      <c r="W14" s="107"/>
       <c r="X14" s="76"/>
       <c r="Y14" s="76"/>
       <c r="Z14" s="76"/>
       <c r="AA14" s="76"/>
       <c r="AB14" s="76"/>
       <c r="AC14" s="76"/>
-      <c r="AD14" s="109"/>
+      <c r="AD14" s="104"/>
       <c r="AE14" s="76"/>
       <c r="AF14" s="76"/>
       <c r="AG14" s="76"/>
       <c r="AH14" s="76"/>
       <c r="AI14" s="76"/>
       <c r="AJ14" s="76"/>
-      <c r="AK14" s="106"/>
+      <c r="AK14" s="101"/>
       <c r="AL14" s="76"/>
     </row>
     <row r="15" spans="1:46" x14ac:dyDescent="0.4">
-      <c r="A15" s="97"/>
-      <c r="B15" s="104"/>
-      <c r="C15" s="98" t="s">
+      <c r="A15" s="110"/>
+      <c r="B15" s="113"/>
+      <c r="C15" s="109" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -7447,27 +7447,27 @@
       <c r="T15" s="76"/>
       <c r="U15" s="76"/>
       <c r="V15" s="76"/>
-      <c r="W15" s="112"/>
+      <c r="W15" s="107"/>
       <c r="X15" s="76"/>
       <c r="Y15" s="76"/>
       <c r="Z15" s="76"/>
       <c r="AA15" s="76"/>
       <c r="AB15" s="76"/>
       <c r="AC15" s="76"/>
-      <c r="AD15" s="109"/>
+      <c r="AD15" s="104"/>
       <c r="AE15" s="76"/>
       <c r="AF15" s="76"/>
       <c r="AG15" s="76"/>
       <c r="AH15" s="76"/>
       <c r="AI15" s="76"/>
       <c r="AJ15" s="76"/>
-      <c r="AK15" s="106"/>
+      <c r="AK15" s="101"/>
       <c r="AL15" s="76"/>
     </row>
     <row r="16" spans="1:46" x14ac:dyDescent="0.4">
-      <c r="A16" s="97"/>
-      <c r="B16" s="104"/>
-      <c r="C16" s="98"/>
+      <c r="A16" s="110"/>
+      <c r="B16" s="113"/>
+      <c r="C16" s="109"/>
       <c r="D16" s="35" t="s">
         <v>45</v>
       </c>
@@ -7491,27 +7491,27 @@
       <c r="T16" s="76"/>
       <c r="U16" s="76"/>
       <c r="V16" s="76"/>
-      <c r="W16" s="112"/>
+      <c r="W16" s="107"/>
       <c r="X16" s="76"/>
       <c r="Y16" s="76"/>
       <c r="Z16" s="76"/>
       <c r="AA16" s="76"/>
       <c r="AB16" s="76"/>
       <c r="AC16" s="76"/>
-      <c r="AD16" s="109"/>
+      <c r="AD16" s="104"/>
       <c r="AE16" s="76"/>
       <c r="AF16" s="76"/>
       <c r="AG16" s="76"/>
       <c r="AH16" s="76"/>
       <c r="AI16" s="76"/>
       <c r="AJ16" s="76"/>
-      <c r="AK16" s="106"/>
+      <c r="AK16" s="101"/>
       <c r="AL16" s="76"/>
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A17" s="97"/>
-      <c r="B17" s="104"/>
-      <c r="C17" s="98"/>
+      <c r="A17" s="110"/>
+      <c r="B17" s="113"/>
+      <c r="C17" s="109"/>
       <c r="D17" s="2" t="s">
         <v>23</v>
       </c>
@@ -7535,30 +7535,30 @@
       <c r="T17" s="76"/>
       <c r="U17" s="76"/>
       <c r="V17" s="76"/>
-      <c r="W17" s="112"/>
+      <c r="W17" s="107"/>
       <c r="X17" s="76"/>
       <c r="Y17" s="76"/>
       <c r="Z17" s="76"/>
       <c r="AA17" s="76"/>
       <c r="AB17" s="76"/>
       <c r="AC17" s="76"/>
-      <c r="AD17" s="109"/>
+      <c r="AD17" s="104"/>
       <c r="AE17" s="76"/>
       <c r="AF17" s="76"/>
       <c r="AG17" s="76"/>
       <c r="AH17" s="76"/>
       <c r="AI17" s="76"/>
       <c r="AJ17" s="76"/>
-      <c r="AK17" s="106"/>
+      <c r="AK17" s="101"/>
       <c r="AL17" s="76"/>
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A18" s="97"/>
-      <c r="B18" s="104"/>
-      <c r="C18" s="98" t="s">
+      <c r="A18" s="110"/>
+      <c r="B18" s="113"/>
+      <c r="C18" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="98" t="s">
+      <c r="D18" s="109" t="s">
         <v>95</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -7591,28 +7591,28 @@
       <c r="T18" s="76"/>
       <c r="U18" s="76"/>
       <c r="V18" s="76"/>
-      <c r="W18" s="112"/>
+      <c r="W18" s="107"/>
       <c r="X18" s="76"/>
       <c r="Y18" s="76"/>
       <c r="Z18" s="76"/>
       <c r="AA18" s="76"/>
       <c r="AB18" s="76"/>
       <c r="AC18" s="76"/>
-      <c r="AD18" s="109"/>
+      <c r="AD18" s="104"/>
       <c r="AE18" s="76"/>
       <c r="AF18" s="76"/>
       <c r="AG18" s="76"/>
       <c r="AH18" s="76"/>
       <c r="AI18" s="76"/>
       <c r="AJ18" s="76"/>
-      <c r="AK18" s="106"/>
+      <c r="AK18" s="101"/>
       <c r="AL18" s="76"/>
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A19" s="97"/>
-      <c r="B19" s="104"/>
-      <c r="C19" s="98"/>
-      <c r="D19" s="98"/>
+      <c r="A19" s="110"/>
+      <c r="B19" s="113"/>
+      <c r="C19" s="109"/>
+      <c r="D19" s="109"/>
       <c r="E19" s="2" t="s">
         <v>138</v>
       </c>
@@ -7643,28 +7643,28 @@
       <c r="T19" s="76"/>
       <c r="U19" s="76"/>
       <c r="V19" s="76"/>
-      <c r="W19" s="112"/>
+      <c r="W19" s="107"/>
       <c r="X19" s="76"/>
       <c r="Y19" s="76"/>
       <c r="Z19" s="76"/>
       <c r="AA19" s="76"/>
       <c r="AB19" s="76"/>
       <c r="AC19" s="76"/>
-      <c r="AD19" s="109"/>
+      <c r="AD19" s="104"/>
       <c r="AE19" s="76"/>
       <c r="AF19" s="76"/>
       <c r="AG19" s="76"/>
       <c r="AH19" s="76"/>
       <c r="AI19" s="76"/>
       <c r="AJ19" s="76"/>
-      <c r="AK19" s="106"/>
+      <c r="AK19" s="101"/>
       <c r="AL19" s="76"/>
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A20" s="97"/>
-      <c r="B20" s="104"/>
-      <c r="C20" s="98"/>
-      <c r="D20" s="98"/>
+      <c r="A20" s="110"/>
+      <c r="B20" s="113"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="109"/>
       <c r="E20" s="2" t="s">
         <v>112</v>
       </c>
@@ -7695,28 +7695,28 @@
       <c r="T20" s="76"/>
       <c r="U20" s="76"/>
       <c r="V20" s="76"/>
-      <c r="W20" s="112"/>
+      <c r="W20" s="107"/>
       <c r="X20" s="76"/>
       <c r="Y20" s="76"/>
       <c r="Z20" s="76"/>
       <c r="AA20" s="76"/>
       <c r="AB20" s="76"/>
       <c r="AC20" s="76"/>
-      <c r="AD20" s="109"/>
+      <c r="AD20" s="104"/>
       <c r="AE20" s="76"/>
       <c r="AF20" s="76"/>
       <c r="AG20" s="76"/>
       <c r="AH20" s="76"/>
       <c r="AI20" s="76"/>
       <c r="AJ20" s="76"/>
-      <c r="AK20" s="106"/>
+      <c r="AK20" s="101"/>
       <c r="AL20" s="76"/>
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A21" s="97"/>
-      <c r="B21" s="104"/>
-      <c r="C21" s="98"/>
-      <c r="D21" s="98"/>
+      <c r="A21" s="110"/>
+      <c r="B21" s="113"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="109"/>
       <c r="E21" s="2" t="s">
         <v>108</v>
       </c>
@@ -7747,28 +7747,28 @@
       <c r="T21" s="76"/>
       <c r="U21" s="76"/>
       <c r="V21" s="76"/>
-      <c r="W21" s="112"/>
+      <c r="W21" s="107"/>
       <c r="X21" s="76"/>
       <c r="Y21" s="76"/>
       <c r="Z21" s="76"/>
       <c r="AA21" s="76"/>
       <c r="AB21" s="76"/>
       <c r="AC21" s="76"/>
-      <c r="AD21" s="109"/>
+      <c r="AD21" s="104"/>
       <c r="AE21" s="76"/>
       <c r="AF21" s="76"/>
       <c r="AG21" s="76"/>
       <c r="AH21" s="76"/>
       <c r="AI21" s="76"/>
       <c r="AJ21" s="76"/>
-      <c r="AK21" s="106"/>
+      <c r="AK21" s="101"/>
       <c r="AL21" s="76"/>
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A22" s="97"/>
-      <c r="B22" s="104"/>
-      <c r="C22" s="98"/>
-      <c r="D22" s="98"/>
+      <c r="A22" s="110"/>
+      <c r="B22" s="113"/>
+      <c r="C22" s="109"/>
+      <c r="D22" s="109"/>
       <c r="E22" s="2" t="s">
         <v>135</v>
       </c>
@@ -7799,28 +7799,28 @@
       <c r="T22" s="76"/>
       <c r="U22" s="76"/>
       <c r="V22" s="76"/>
-      <c r="W22" s="112"/>
+      <c r="W22" s="107"/>
       <c r="X22" s="76"/>
       <c r="Y22" s="76"/>
       <c r="Z22" s="76"/>
       <c r="AA22" s="76"/>
       <c r="AB22" s="76"/>
       <c r="AC22" s="76"/>
-      <c r="AD22" s="109"/>
+      <c r="AD22" s="104"/>
       <c r="AE22" s="76"/>
       <c r="AF22" s="76"/>
       <c r="AG22" s="76"/>
       <c r="AH22" s="76"/>
       <c r="AI22" s="76"/>
       <c r="AJ22" s="76"/>
-      <c r="AK22" s="106"/>
+      <c r="AK22" s="101"/>
       <c r="AL22" s="76"/>
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A23" s="97"/>
-      <c r="B23" s="104"/>
-      <c r="C23" s="98"/>
-      <c r="D23" s="98"/>
+      <c r="A23" s="110"/>
+      <c r="B23" s="113"/>
+      <c r="C23" s="109"/>
+      <c r="D23" s="109"/>
       <c r="E23" s="2" t="s">
         <v>118</v>
       </c>
@@ -7851,28 +7851,28 @@
       <c r="T23" s="76"/>
       <c r="U23" s="76"/>
       <c r="V23" s="76"/>
-      <c r="W23" s="112"/>
+      <c r="W23" s="107"/>
       <c r="X23" s="76"/>
       <c r="Y23" s="76"/>
       <c r="Z23" s="76"/>
       <c r="AA23" s="76"/>
       <c r="AB23" s="76"/>
       <c r="AC23" s="76"/>
-      <c r="AD23" s="109"/>
+      <c r="AD23" s="104"/>
       <c r="AE23" s="76"/>
       <c r="AF23" s="76"/>
       <c r="AG23" s="76"/>
       <c r="AH23" s="76"/>
       <c r="AI23" s="76"/>
       <c r="AJ23" s="76"/>
-      <c r="AK23" s="106"/>
+      <c r="AK23" s="101"/>
       <c r="AL23" s="76"/>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A24" s="97"/>
-      <c r="B24" s="104"/>
-      <c r="C24" s="98"/>
-      <c r="D24" s="98"/>
+      <c r="A24" s="110"/>
+      <c r="B24" s="113"/>
+      <c r="C24" s="109"/>
+      <c r="D24" s="109"/>
       <c r="E24" s="2" t="s">
         <v>109</v>
       </c>
@@ -7903,28 +7903,28 @@
       <c r="T24" s="76"/>
       <c r="U24" s="76"/>
       <c r="V24" s="76"/>
-      <c r="W24" s="112"/>
+      <c r="W24" s="107"/>
       <c r="X24" s="76"/>
       <c r="Y24" s="76"/>
       <c r="Z24" s="76"/>
       <c r="AA24" s="76"/>
       <c r="AB24" s="76"/>
       <c r="AC24" s="76"/>
-      <c r="AD24" s="109"/>
+      <c r="AD24" s="104"/>
       <c r="AE24" s="76"/>
       <c r="AF24" s="76"/>
       <c r="AG24" s="76"/>
       <c r="AH24" s="76"/>
       <c r="AI24" s="76"/>
       <c r="AJ24" s="76"/>
-      <c r="AK24" s="106"/>
+      <c r="AK24" s="101"/>
       <c r="AL24" s="76"/>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A25" s="97"/>
-      <c r="B25" s="104"/>
-      <c r="C25" s="98"/>
-      <c r="D25" s="98"/>
+      <c r="A25" s="110"/>
+      <c r="B25" s="113"/>
+      <c r="C25" s="109"/>
+      <c r="D25" s="109"/>
       <c r="E25" s="2" t="s">
         <v>167</v>
       </c>
@@ -7955,28 +7955,28 @@
       <c r="T25" s="76"/>
       <c r="U25" s="76"/>
       <c r="V25" s="76"/>
-      <c r="W25" s="112"/>
+      <c r="W25" s="107"/>
       <c r="X25" s="76"/>
       <c r="Y25" s="76"/>
       <c r="Z25" s="76"/>
       <c r="AA25" s="76"/>
       <c r="AB25" s="76"/>
       <c r="AC25" s="76"/>
-      <c r="AD25" s="109"/>
+      <c r="AD25" s="104"/>
       <c r="AE25" s="76"/>
       <c r="AF25" s="76"/>
       <c r="AG25" s="76"/>
       <c r="AH25" s="76"/>
       <c r="AI25" s="76"/>
       <c r="AJ25" s="76"/>
-      <c r="AK25" s="106"/>
+      <c r="AK25" s="101"/>
       <c r="AL25" s="76"/>
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A26" s="97"/>
-      <c r="B26" s="104"/>
-      <c r="C26" s="98"/>
-      <c r="D26" s="98"/>
+      <c r="A26" s="110"/>
+      <c r="B26" s="113"/>
+      <c r="C26" s="109"/>
+      <c r="D26" s="109"/>
       <c r="E26" s="2" t="s">
         <v>106</v>
       </c>
@@ -8007,28 +8007,28 @@
       <c r="T26" s="76"/>
       <c r="U26" s="76"/>
       <c r="V26" s="76"/>
-      <c r="W26" s="112"/>
+      <c r="W26" s="107"/>
       <c r="X26" s="76"/>
       <c r="Y26" s="76"/>
       <c r="Z26" s="76"/>
       <c r="AA26" s="76"/>
       <c r="AB26" s="76"/>
       <c r="AC26" s="76"/>
-      <c r="AD26" s="109"/>
+      <c r="AD26" s="104"/>
       <c r="AE26" s="76"/>
       <c r="AF26" s="76"/>
       <c r="AG26" s="76"/>
       <c r="AH26" s="76"/>
       <c r="AI26" s="76"/>
       <c r="AJ26" s="76"/>
-      <c r="AK26" s="106"/>
+      <c r="AK26" s="101"/>
       <c r="AL26" s="76"/>
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A27" s="97"/>
-      <c r="B27" s="104"/>
-      <c r="C27" s="98"/>
-      <c r="D27" s="98"/>
+      <c r="A27" s="110"/>
+      <c r="B27" s="113"/>
+      <c r="C27" s="109"/>
+      <c r="D27" s="109"/>
       <c r="E27" s="2" t="s">
         <v>102</v>
       </c>
@@ -8059,28 +8059,28 @@
       <c r="T27" s="76"/>
       <c r="U27" s="76"/>
       <c r="V27" s="76"/>
-      <c r="W27" s="112"/>
+      <c r="W27" s="107"/>
       <c r="X27" s="76"/>
       <c r="Y27" s="76"/>
       <c r="Z27" s="76"/>
       <c r="AA27" s="76"/>
       <c r="AB27" s="76"/>
       <c r="AC27" s="76"/>
-      <c r="AD27" s="109"/>
+      <c r="AD27" s="104"/>
       <c r="AE27" s="76"/>
       <c r="AF27" s="76"/>
       <c r="AG27" s="76"/>
       <c r="AH27" s="76"/>
       <c r="AI27" s="76"/>
       <c r="AJ27" s="76"/>
-      <c r="AK27" s="106"/>
+      <c r="AK27" s="101"/>
       <c r="AL27" s="76"/>
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A28" s="97"/>
-      <c r="B28" s="104"/>
-      <c r="C28" s="98"/>
-      <c r="D28" s="98" t="s">
+      <c r="A28" s="110"/>
+      <c r="B28" s="113"/>
+      <c r="C28" s="109"/>
+      <c r="D28" s="109" t="s">
         <v>25</v>
       </c>
       <c r="E28" s="2" t="s">
@@ -8113,28 +8113,28 @@
       <c r="T28" s="76"/>
       <c r="U28" s="76"/>
       <c r="V28" s="76"/>
-      <c r="W28" s="112"/>
+      <c r="W28" s="107"/>
       <c r="X28" s="76"/>
       <c r="Y28" s="76"/>
       <c r="Z28" s="76"/>
       <c r="AA28" s="76"/>
       <c r="AB28" s="76"/>
       <c r="AC28" s="76"/>
-      <c r="AD28" s="109"/>
+      <c r="AD28" s="104"/>
       <c r="AE28" s="76"/>
       <c r="AF28" s="76"/>
       <c r="AG28" s="76"/>
       <c r="AH28" s="76"/>
       <c r="AI28" s="76"/>
       <c r="AJ28" s="76"/>
-      <c r="AK28" s="106"/>
+      <c r="AK28" s="101"/>
       <c r="AL28" s="76"/>
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A29" s="97"/>
-      <c r="B29" s="104"/>
-      <c r="C29" s="98"/>
-      <c r="D29" s="98"/>
+      <c r="A29" s="110"/>
+      <c r="B29" s="113"/>
+      <c r="C29" s="109"/>
+      <c r="D29" s="109"/>
       <c r="E29" s="2" t="s">
         <v>119</v>
       </c>
@@ -8165,28 +8165,28 @@
       <c r="T29" s="76"/>
       <c r="U29" s="76"/>
       <c r="V29" s="76"/>
-      <c r="W29" s="112"/>
+      <c r="W29" s="107"/>
       <c r="X29" s="76"/>
       <c r="Y29" s="76"/>
       <c r="Z29" s="76"/>
       <c r="AA29" s="76"/>
       <c r="AB29" s="76"/>
       <c r="AC29" s="76"/>
-      <c r="AD29" s="109"/>
+      <c r="AD29" s="104"/>
       <c r="AE29" s="76"/>
       <c r="AF29" s="76"/>
       <c r="AG29" s="76"/>
       <c r="AH29" s="76"/>
       <c r="AI29" s="76"/>
       <c r="AJ29" s="76"/>
-      <c r="AK29" s="106"/>
+      <c r="AK29" s="101"/>
       <c r="AL29" s="76"/>
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A30" s="97"/>
-      <c r="B30" s="104"/>
-      <c r="C30" s="98"/>
-      <c r="D30" s="98" t="s">
+      <c r="A30" s="110"/>
+      <c r="B30" s="113"/>
+      <c r="C30" s="109"/>
+      <c r="D30" s="109" t="s">
         <v>13</v>
       </c>
       <c r="E30" s="2" t="s">
@@ -8217,28 +8217,28 @@
       <c r="T30" s="76"/>
       <c r="U30" s="76"/>
       <c r="V30" s="76"/>
-      <c r="W30" s="112"/>
+      <c r="W30" s="107"/>
       <c r="X30" s="76"/>
       <c r="Y30" s="76"/>
       <c r="Z30" s="76"/>
       <c r="AA30" s="76"/>
       <c r="AB30" s="76"/>
       <c r="AC30" s="76"/>
-      <c r="AD30" s="109"/>
+      <c r="AD30" s="104"/>
       <c r="AE30" s="76"/>
       <c r="AF30" s="76"/>
       <c r="AG30" s="76"/>
       <c r="AH30" s="76"/>
       <c r="AI30" s="76"/>
       <c r="AJ30" s="76"/>
-      <c r="AK30" s="106"/>
+      <c r="AK30" s="101"/>
       <c r="AL30" s="76"/>
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A31" s="97"/>
-      <c r="B31" s="104"/>
-      <c r="C31" s="98"/>
-      <c r="D31" s="98"/>
+      <c r="A31" s="110"/>
+      <c r="B31" s="113"/>
+      <c r="C31" s="109"/>
+      <c r="D31" s="109"/>
       <c r="E31" s="2" t="s">
         <v>143</v>
       </c>
@@ -8263,28 +8263,28 @@
       <c r="T31" s="76"/>
       <c r="U31" s="76"/>
       <c r="V31" s="76"/>
-      <c r="W31" s="112"/>
+      <c r="W31" s="107"/>
       <c r="X31" s="76"/>
       <c r="Y31" s="76"/>
       <c r="Z31" s="76"/>
       <c r="AA31" s="76"/>
       <c r="AB31" s="76"/>
       <c r="AC31" s="76"/>
-      <c r="AD31" s="109"/>
+      <c r="AD31" s="104"/>
       <c r="AE31" s="76"/>
       <c r="AF31" s="76"/>
       <c r="AG31" s="76"/>
       <c r="AH31" s="76"/>
       <c r="AI31" s="76"/>
       <c r="AJ31" s="76"/>
-      <c r="AK31" s="106"/>
+      <c r="AK31" s="101"/>
       <c r="AL31" s="76"/>
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A32" s="97"/>
-      <c r="B32" s="104"/>
-      <c r="C32" s="98"/>
-      <c r="D32" s="98"/>
+      <c r="A32" s="110"/>
+      <c r="B32" s="113"/>
+      <c r="C32" s="109"/>
+      <c r="D32" s="109"/>
       <c r="E32" s="2" t="s">
         <v>113</v>
       </c>
@@ -8315,28 +8315,28 @@
       <c r="T32" s="76"/>
       <c r="U32" s="76"/>
       <c r="V32" s="76"/>
-      <c r="W32" s="112"/>
+      <c r="W32" s="107"/>
       <c r="X32" s="76"/>
       <c r="Y32" s="76"/>
       <c r="Z32" s="76"/>
       <c r="AA32" s="76"/>
       <c r="AB32" s="76"/>
       <c r="AC32" s="76"/>
-      <c r="AD32" s="109"/>
+      <c r="AD32" s="104"/>
       <c r="AE32" s="76"/>
       <c r="AF32" s="76"/>
       <c r="AG32" s="76"/>
       <c r="AH32" s="76"/>
       <c r="AI32" s="76"/>
       <c r="AJ32" s="76"/>
-      <c r="AK32" s="106"/>
+      <c r="AK32" s="101"/>
       <c r="AL32" s="76"/>
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A33" s="97"/>
-      <c r="B33" s="104"/>
-      <c r="C33" s="98"/>
-      <c r="D33" s="101" t="s">
+      <c r="A33" s="110"/>
+      <c r="B33" s="113"/>
+      <c r="C33" s="109"/>
+      <c r="D33" s="97" t="s">
         <v>90</v>
       </c>
       <c r="E33" s="2" t="s">
@@ -8369,28 +8369,28 @@
       <c r="T33" s="76"/>
       <c r="U33" s="76"/>
       <c r="V33" s="76"/>
-      <c r="W33" s="112"/>
+      <c r="W33" s="107"/>
       <c r="X33" s="76"/>
       <c r="Y33" s="76"/>
       <c r="Z33" s="76"/>
       <c r="AA33" s="76"/>
       <c r="AB33" s="76"/>
       <c r="AC33" s="76"/>
-      <c r="AD33" s="109"/>
+      <c r="AD33" s="104"/>
       <c r="AE33" s="76"/>
       <c r="AF33" s="76"/>
       <c r="AG33" s="76"/>
       <c r="AH33" s="76"/>
       <c r="AI33" s="76"/>
       <c r="AJ33" s="76"/>
-      <c r="AK33" s="106"/>
+      <c r="AK33" s="101"/>
       <c r="AL33" s="76"/>
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A34" s="97"/>
-      <c r="B34" s="104"/>
-      <c r="C34" s="98"/>
-      <c r="D34" s="102"/>
+      <c r="A34" s="110"/>
+      <c r="B34" s="113"/>
+      <c r="C34" s="109"/>
+      <c r="D34" s="98"/>
       <c r="E34" s="2" t="s">
         <v>141</v>
       </c>
@@ -8421,28 +8421,28 @@
       <c r="T34" s="76"/>
       <c r="U34" s="76"/>
       <c r="V34" s="76"/>
-      <c r="W34" s="112"/>
+      <c r="W34" s="107"/>
       <c r="X34" s="76"/>
       <c r="Y34" s="76"/>
       <c r="Z34" s="76"/>
       <c r="AA34" s="76"/>
       <c r="AB34" s="76"/>
       <c r="AC34" s="76"/>
-      <c r="AD34" s="109"/>
+      <c r="AD34" s="104"/>
       <c r="AE34" s="76"/>
       <c r="AF34" s="76"/>
       <c r="AG34" s="76"/>
       <c r="AH34" s="76"/>
       <c r="AI34" s="76"/>
       <c r="AJ34" s="76"/>
-      <c r="AK34" s="106"/>
+      <c r="AK34" s="101"/>
       <c r="AL34" s="76"/>
     </row>
     <row r="35" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A35" s="97"/>
-      <c r="B35" s="104"/>
-      <c r="C35" s="98"/>
-      <c r="D35" s="102"/>
+      <c r="A35" s="110"/>
+      <c r="B35" s="113"/>
+      <c r="C35" s="109"/>
+      <c r="D35" s="98"/>
       <c r="E35" s="2" t="s">
         <v>103</v>
       </c>
@@ -8473,28 +8473,28 @@
       <c r="T35" s="76"/>
       <c r="U35" s="76"/>
       <c r="V35" s="76"/>
-      <c r="W35" s="112"/>
+      <c r="W35" s="107"/>
       <c r="X35" s="76"/>
       <c r="Y35" s="76"/>
       <c r="Z35" s="76"/>
       <c r="AA35" s="76"/>
       <c r="AB35" s="76"/>
       <c r="AC35" s="76"/>
-      <c r="AD35" s="109"/>
+      <c r="AD35" s="104"/>
       <c r="AE35" s="76"/>
       <c r="AF35" s="76"/>
       <c r="AG35" s="76"/>
       <c r="AH35" s="76"/>
       <c r="AI35" s="76"/>
       <c r="AJ35" s="76"/>
-      <c r="AK35" s="106"/>
+      <c r="AK35" s="101"/>
       <c r="AL35" s="76"/>
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A36" s="97"/>
-      <c r="B36" s="104"/>
-      <c r="C36" s="98"/>
-      <c r="D36" s="102"/>
+      <c r="A36" s="110"/>
+      <c r="B36" s="113"/>
+      <c r="C36" s="109"/>
+      <c r="D36" s="98"/>
       <c r="E36" s="2" t="s">
         <v>224</v>
       </c>
@@ -8517,28 +8517,28 @@
       <c r="T36" s="76"/>
       <c r="U36" s="76"/>
       <c r="V36" s="76"/>
-      <c r="W36" s="112"/>
+      <c r="W36" s="107"/>
       <c r="X36" s="76"/>
       <c r="Y36" s="76"/>
       <c r="Z36" s="76"/>
       <c r="AA36" s="76"/>
       <c r="AB36" s="76"/>
       <c r="AC36" s="76"/>
-      <c r="AD36" s="109"/>
+      <c r="AD36" s="104"/>
       <c r="AE36" s="76"/>
       <c r="AF36" s="76"/>
       <c r="AG36" s="76"/>
       <c r="AH36" s="76"/>
       <c r="AI36" s="76"/>
       <c r="AJ36" s="76"/>
-      <c r="AK36" s="106"/>
+      <c r="AK36" s="101"/>
       <c r="AL36" s="76"/>
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A37" s="97"/>
-      <c r="B37" s="104"/>
-      <c r="C37" s="98"/>
-      <c r="D37" s="102"/>
+      <c r="A37" s="110"/>
+      <c r="B37" s="113"/>
+      <c r="C37" s="109"/>
+      <c r="D37" s="98"/>
       <c r="E37" s="2" t="s">
         <v>251</v>
       </c>
@@ -8561,28 +8561,28 @@
       <c r="T37" s="76"/>
       <c r="U37" s="76"/>
       <c r="V37" s="76"/>
-      <c r="W37" s="112"/>
+      <c r="W37" s="107"/>
       <c r="X37" s="76"/>
       <c r="Y37" s="76"/>
       <c r="Z37" s="76"/>
       <c r="AA37" s="76"/>
       <c r="AB37" s="76"/>
       <c r="AC37" s="76"/>
-      <c r="AD37" s="109"/>
+      <c r="AD37" s="104"/>
       <c r="AE37" s="76"/>
       <c r="AF37" s="76"/>
       <c r="AG37" s="76"/>
       <c r="AH37" s="76"/>
       <c r="AI37" s="76"/>
       <c r="AJ37" s="76"/>
-      <c r="AK37" s="106"/>
+      <c r="AK37" s="101"/>
       <c r="AL37" s="76"/>
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A38" s="97"/>
-      <c r="B38" s="104"/>
-      <c r="C38" s="98"/>
-      <c r="D38" s="103"/>
+      <c r="A38" s="110"/>
+      <c r="B38" s="113"/>
+      <c r="C38" s="109"/>
+      <c r="D38" s="99"/>
       <c r="E38" s="2" t="s">
         <v>253</v>
       </c>
@@ -8605,27 +8605,27 @@
       <c r="T38" s="76"/>
       <c r="U38" s="76"/>
       <c r="V38" s="76"/>
-      <c r="W38" s="112"/>
+      <c r="W38" s="107"/>
       <c r="X38" s="76"/>
       <c r="Y38" s="76"/>
       <c r="Z38" s="76"/>
       <c r="AA38" s="76"/>
       <c r="AB38" s="76"/>
       <c r="AC38" s="76"/>
-      <c r="AD38" s="109"/>
+      <c r="AD38" s="104"/>
       <c r="AE38" s="76"/>
       <c r="AF38" s="76"/>
       <c r="AG38" s="76"/>
       <c r="AH38" s="76"/>
       <c r="AI38" s="76"/>
       <c r="AJ38" s="76"/>
-      <c r="AK38" s="106"/>
+      <c r="AK38" s="101"/>
       <c r="AL38" s="76"/>
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A39" s="97"/>
-      <c r="B39" s="104"/>
-      <c r="C39" s="98"/>
+      <c r="A39" s="110"/>
+      <c r="B39" s="113"/>
+      <c r="C39" s="109"/>
       <c r="D39" s="2" t="s">
         <v>24</v>
       </c>
@@ -8653,27 +8653,27 @@
       <c r="T39" s="76"/>
       <c r="U39" s="76"/>
       <c r="V39" s="76"/>
-      <c r="W39" s="112"/>
+      <c r="W39" s="107"/>
       <c r="X39" s="76"/>
       <c r="Y39" s="76"/>
       <c r="Z39" s="76"/>
       <c r="AA39" s="76"/>
       <c r="AB39" s="76"/>
       <c r="AC39" s="76"/>
-      <c r="AD39" s="109"/>
+      <c r="AD39" s="104"/>
       <c r="AE39" s="76"/>
       <c r="AF39" s="76"/>
       <c r="AG39" s="76"/>
       <c r="AH39" s="76"/>
       <c r="AI39" s="76"/>
       <c r="AJ39" s="76"/>
-      <c r="AK39" s="106"/>
+      <c r="AK39" s="101"/>
       <c r="AL39" s="76"/>
     </row>
     <row r="40" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A40" s="97"/>
-      <c r="B40" s="104"/>
-      <c r="C40" s="98"/>
+      <c r="A40" s="110"/>
+      <c r="B40" s="113"/>
+      <c r="C40" s="109"/>
       <c r="D40" s="2" t="s">
         <v>144</v>
       </c>
@@ -8707,27 +8707,27 @@
       <c r="T40" s="76"/>
       <c r="U40" s="76"/>
       <c r="V40" s="76"/>
-      <c r="W40" s="112"/>
+      <c r="W40" s="107"/>
       <c r="X40" s="76"/>
       <c r="Y40" s="76"/>
       <c r="Z40" s="76"/>
       <c r="AA40" s="76"/>
       <c r="AB40" s="76"/>
       <c r="AC40" s="76"/>
-      <c r="AD40" s="109"/>
+      <c r="AD40" s="104"/>
       <c r="AE40" s="76"/>
       <c r="AF40" s="76"/>
       <c r="AG40" s="76"/>
       <c r="AH40" s="76"/>
       <c r="AI40" s="76"/>
       <c r="AJ40" s="76"/>
-      <c r="AK40" s="106"/>
+      <c r="AK40" s="101"/>
       <c r="AL40" s="76"/>
     </row>
     <row r="41" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A41" s="97"/>
-      <c r="B41" s="104"/>
-      <c r="C41" s="98"/>
+      <c r="A41" s="110"/>
+      <c r="B41" s="113"/>
+      <c r="C41" s="109"/>
       <c r="D41" s="2" t="s">
         <v>94</v>
       </c>
@@ -8751,27 +8751,27 @@
       <c r="T41" s="76"/>
       <c r="U41" s="76"/>
       <c r="V41" s="76"/>
-      <c r="W41" s="112"/>
+      <c r="W41" s="107"/>
       <c r="X41" s="76"/>
       <c r="Y41" s="76"/>
       <c r="Z41" s="76"/>
       <c r="AA41" s="76"/>
       <c r="AB41" s="76"/>
       <c r="AC41" s="76"/>
-      <c r="AD41" s="109"/>
+      <c r="AD41" s="104"/>
       <c r="AE41" s="76"/>
       <c r="AF41" s="76"/>
       <c r="AG41" s="76"/>
       <c r="AH41" s="76"/>
       <c r="AI41" s="76"/>
       <c r="AJ41" s="76"/>
-      <c r="AK41" s="106"/>
+      <c r="AK41" s="101"/>
       <c r="AL41" s="76"/>
     </row>
     <row r="42" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A42" s="97"/>
-      <c r="B42" s="104"/>
-      <c r="C42" s="98"/>
+      <c r="A42" s="110"/>
+      <c r="B42" s="113"/>
+      <c r="C42" s="109"/>
       <c r="D42" s="2" t="s">
         <v>23</v>
       </c>
@@ -8795,27 +8795,27 @@
       <c r="T42" s="76"/>
       <c r="U42" s="76"/>
       <c r="V42" s="76"/>
-      <c r="W42" s="112"/>
+      <c r="W42" s="107"/>
       <c r="X42" s="76"/>
       <c r="Y42" s="76"/>
       <c r="Z42" s="76"/>
       <c r="AA42" s="76"/>
       <c r="AB42" s="76"/>
       <c r="AC42" s="76"/>
-      <c r="AD42" s="109"/>
+      <c r="AD42" s="104"/>
       <c r="AE42" s="76"/>
       <c r="AF42" s="76"/>
       <c r="AG42" s="76"/>
       <c r="AH42" s="76"/>
       <c r="AI42" s="76"/>
       <c r="AJ42" s="76"/>
-      <c r="AK42" s="106"/>
+      <c r="AK42" s="101"/>
       <c r="AL42" s="76"/>
     </row>
     <row r="43" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A43" s="97"/>
-      <c r="B43" s="104"/>
-      <c r="C43" s="98"/>
+      <c r="A43" s="110"/>
+      <c r="B43" s="113"/>
+      <c r="C43" s="109"/>
       <c r="D43" s="34" t="s">
         <v>27</v>
       </c>
@@ -8839,27 +8839,27 @@
       <c r="T43" s="76"/>
       <c r="U43" s="76"/>
       <c r="V43" s="76"/>
-      <c r="W43" s="112"/>
+      <c r="W43" s="107"/>
       <c r="X43" s="76"/>
       <c r="Y43" s="76"/>
       <c r="Z43" s="76"/>
       <c r="AA43" s="76"/>
       <c r="AB43" s="76"/>
       <c r="AC43" s="76"/>
-      <c r="AD43" s="109"/>
+      <c r="AD43" s="104"/>
       <c r="AE43" s="76"/>
       <c r="AF43" s="76"/>
       <c r="AG43" s="76"/>
       <c r="AH43" s="76"/>
       <c r="AI43" s="76"/>
       <c r="AJ43" s="76"/>
-      <c r="AK43" s="106"/>
+      <c r="AK43" s="101"/>
       <c r="AL43" s="76"/>
     </row>
     <row r="44" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A44" s="97"/>
-      <c r="B44" s="104"/>
-      <c r="C44" s="98"/>
+      <c r="A44" s="110"/>
+      <c r="B44" s="113"/>
+      <c r="C44" s="109"/>
       <c r="D44" s="33" t="s">
         <v>45</v>
       </c>
@@ -8883,27 +8883,27 @@
       <c r="T44" s="76"/>
       <c r="U44" s="76"/>
       <c r="V44" s="76"/>
-      <c r="W44" s="112"/>
+      <c r="W44" s="107"/>
       <c r="X44" s="76"/>
       <c r="Y44" s="76"/>
       <c r="Z44" s="76"/>
       <c r="AA44" s="76"/>
       <c r="AB44" s="76"/>
       <c r="AC44" s="76"/>
-      <c r="AD44" s="109"/>
+      <c r="AD44" s="104"/>
       <c r="AE44" s="76"/>
       <c r="AF44" s="76"/>
       <c r="AG44" s="76"/>
       <c r="AH44" s="76"/>
       <c r="AI44" s="76"/>
       <c r="AJ44" s="76"/>
-      <c r="AK44" s="106"/>
+      <c r="AK44" s="101"/>
       <c r="AL44" s="76"/>
     </row>
     <row r="45" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A45" s="97"/>
-      <c r="B45" s="104"/>
-      <c r="C45" s="98"/>
+      <c r="A45" s="110"/>
+      <c r="B45" s="113"/>
+      <c r="C45" s="109"/>
       <c r="D45" s="2" t="s">
         <v>26</v>
       </c>
@@ -8927,27 +8927,27 @@
       <c r="T45" s="76"/>
       <c r="U45" s="76"/>
       <c r="V45" s="76"/>
-      <c r="W45" s="112"/>
+      <c r="W45" s="107"/>
       <c r="X45" s="76"/>
       <c r="Y45" s="76"/>
       <c r="Z45" s="76"/>
       <c r="AA45" s="76"/>
       <c r="AB45" s="76"/>
       <c r="AC45" s="76"/>
-      <c r="AD45" s="109"/>
+      <c r="AD45" s="104"/>
       <c r="AE45" s="76"/>
       <c r="AF45" s="76"/>
       <c r="AG45" s="76"/>
       <c r="AH45" s="76"/>
       <c r="AI45" s="76"/>
       <c r="AJ45" s="76"/>
-      <c r="AK45" s="106"/>
+      <c r="AK45" s="101"/>
       <c r="AL45" s="76"/>
     </row>
     <row r="46" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A46" s="97"/>
-      <c r="B46" s="104"/>
-      <c r="C46" s="98" t="s">
+      <c r="A46" s="110"/>
+      <c r="B46" s="113"/>
+      <c r="C46" s="109" t="s">
         <v>42</v>
       </c>
       <c r="D46" s="35" t="s">
@@ -8973,27 +8973,27 @@
       <c r="T46" s="76"/>
       <c r="U46" s="76"/>
       <c r="V46" s="76"/>
-      <c r="W46" s="112"/>
+      <c r="W46" s="107"/>
       <c r="X46" s="76"/>
       <c r="Y46" s="76"/>
       <c r="Z46" s="76"/>
       <c r="AA46" s="76"/>
       <c r="AB46" s="76"/>
       <c r="AC46" s="76"/>
-      <c r="AD46" s="109"/>
+      <c r="AD46" s="104"/>
       <c r="AE46" s="76"/>
       <c r="AF46" s="76"/>
       <c r="AG46" s="76"/>
       <c r="AH46" s="76"/>
       <c r="AI46" s="76"/>
       <c r="AJ46" s="76"/>
-      <c r="AK46" s="106"/>
+      <c r="AK46" s="101"/>
       <c r="AL46" s="76"/>
     </row>
     <row r="47" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A47" s="97"/>
-      <c r="B47" s="104"/>
-      <c r="C47" s="98"/>
+      <c r="A47" s="110"/>
+      <c r="B47" s="113"/>
+      <c r="C47" s="109"/>
       <c r="D47" s="2" t="s">
         <v>26</v>
       </c>
@@ -9017,27 +9017,27 @@
       <c r="T47" s="76"/>
       <c r="U47" s="76"/>
       <c r="V47" s="76"/>
-      <c r="W47" s="112"/>
+      <c r="W47" s="107"/>
       <c r="X47" s="76"/>
       <c r="Y47" s="76"/>
       <c r="Z47" s="76"/>
       <c r="AA47" s="76"/>
       <c r="AB47" s="76"/>
       <c r="AC47" s="76"/>
-      <c r="AD47" s="109"/>
+      <c r="AD47" s="104"/>
       <c r="AE47" s="76"/>
       <c r="AF47" s="76"/>
       <c r="AG47" s="76"/>
       <c r="AH47" s="76"/>
       <c r="AI47" s="76"/>
       <c r="AJ47" s="76"/>
-      <c r="AK47" s="106"/>
+      <c r="AK47" s="101"/>
       <c r="AL47" s="76"/>
     </row>
     <row r="48" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A48" s="97"/>
-      <c r="B48" s="104"/>
-      <c r="C48" s="98" t="s">
+      <c r="A48" s="110"/>
+      <c r="B48" s="113"/>
+      <c r="C48" s="109" t="s">
         <v>43</v>
       </c>
       <c r="D48" s="33" t="s">
@@ -9063,27 +9063,27 @@
       <c r="T48" s="76"/>
       <c r="U48" s="76"/>
       <c r="V48" s="76"/>
-      <c r="W48" s="112"/>
+      <c r="W48" s="107"/>
       <c r="X48" s="76"/>
       <c r="Y48" s="76"/>
       <c r="Z48" s="76"/>
       <c r="AA48" s="76"/>
       <c r="AB48" s="76"/>
       <c r="AC48" s="76"/>
-      <c r="AD48" s="109"/>
+      <c r="AD48" s="104"/>
       <c r="AE48" s="76"/>
       <c r="AF48" s="76"/>
       <c r="AG48" s="76"/>
       <c r="AH48" s="76"/>
       <c r="AI48" s="76"/>
       <c r="AJ48" s="76"/>
-      <c r="AK48" s="106"/>
+      <c r="AK48" s="101"/>
       <c r="AL48" s="76"/>
     </row>
     <row r="49" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A49" s="97"/>
-      <c r="B49" s="104"/>
-      <c r="C49" s="98"/>
+      <c r="A49" s="110"/>
+      <c r="B49" s="113"/>
+      <c r="C49" s="109"/>
       <c r="D49" s="2" t="s">
         <v>26</v>
       </c>
@@ -9107,27 +9107,27 @@
       <c r="T49" s="76"/>
       <c r="U49" s="76"/>
       <c r="V49" s="76"/>
-      <c r="W49" s="112"/>
+      <c r="W49" s="107"/>
       <c r="X49" s="76"/>
       <c r="Y49" s="76"/>
       <c r="Z49" s="76"/>
       <c r="AA49" s="76"/>
       <c r="AB49" s="76"/>
       <c r="AC49" s="76"/>
-      <c r="AD49" s="109"/>
+      <c r="AD49" s="104"/>
       <c r="AE49" s="76"/>
       <c r="AF49" s="76"/>
       <c r="AG49" s="76"/>
       <c r="AH49" s="76"/>
       <c r="AI49" s="76"/>
       <c r="AJ49" s="76"/>
-      <c r="AK49" s="106"/>
+      <c r="AK49" s="101"/>
       <c r="AL49" s="76"/>
     </row>
     <row r="50" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A50" s="97"/>
-      <c r="B50" s="104"/>
-      <c r="C50" s="98"/>
+      <c r="A50" s="110"/>
+      <c r="B50" s="113"/>
+      <c r="C50" s="109"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="19"/>
@@ -9149,27 +9149,27 @@
       <c r="T50" s="76"/>
       <c r="U50" s="76"/>
       <c r="V50" s="76"/>
-      <c r="W50" s="112"/>
+      <c r="W50" s="107"/>
       <c r="X50" s="76"/>
       <c r="Y50" s="76"/>
       <c r="Z50" s="76"/>
       <c r="AA50" s="76"/>
       <c r="AB50" s="76"/>
       <c r="AC50" s="76"/>
-      <c r="AD50" s="109"/>
+      <c r="AD50" s="104"/>
       <c r="AE50" s="76"/>
       <c r="AF50" s="76"/>
       <c r="AG50" s="76"/>
       <c r="AH50" s="76"/>
       <c r="AI50" s="76"/>
       <c r="AJ50" s="76"/>
-      <c r="AK50" s="106"/>
+      <c r="AK50" s="101"/>
       <c r="AL50" s="76"/>
     </row>
     <row r="51" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A51" s="97"/>
-      <c r="B51" s="104"/>
-      <c r="C51" s="98" t="s">
+      <c r="A51" s="110"/>
+      <c r="B51" s="113"/>
+      <c r="C51" s="109" t="s">
         <v>17</v>
       </c>
       <c r="D51" s="2" t="s">
@@ -9195,27 +9195,27 @@
       <c r="T51" s="76"/>
       <c r="U51" s="76"/>
       <c r="V51" s="76"/>
-      <c r="W51" s="112"/>
+      <c r="W51" s="107"/>
       <c r="X51" s="76"/>
       <c r="Y51" s="76"/>
       <c r="Z51" s="76"/>
       <c r="AA51" s="76"/>
       <c r="AB51" s="76"/>
       <c r="AC51" s="76"/>
-      <c r="AD51" s="109"/>
+      <c r="AD51" s="104"/>
       <c r="AE51" s="76"/>
       <c r="AF51" s="76"/>
       <c r="AG51" s="76"/>
       <c r="AH51" s="76"/>
       <c r="AI51" s="76"/>
       <c r="AJ51" s="76"/>
-      <c r="AK51" s="106"/>
+      <c r="AK51" s="101"/>
       <c r="AL51" s="76"/>
     </row>
     <row r="52" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A52" s="97"/>
-      <c r="B52" s="104"/>
-      <c r="C52" s="98"/>
+      <c r="A52" s="110"/>
+      <c r="B52" s="113"/>
+      <c r="C52" s="109"/>
       <c r="D52" s="2" t="s">
         <v>36</v>
       </c>
@@ -9239,27 +9239,27 @@
       <c r="T52" s="76"/>
       <c r="U52" s="76"/>
       <c r="V52" s="76"/>
-      <c r="W52" s="112"/>
+      <c r="W52" s="107"/>
       <c r="X52" s="76"/>
       <c r="Y52" s="76"/>
       <c r="Z52" s="76"/>
       <c r="AA52" s="76"/>
       <c r="AB52" s="76"/>
       <c r="AC52" s="76"/>
-      <c r="AD52" s="109"/>
+      <c r="AD52" s="104"/>
       <c r="AE52" s="76"/>
       <c r="AF52" s="76"/>
       <c r="AG52" s="76"/>
       <c r="AH52" s="76"/>
       <c r="AI52" s="76"/>
       <c r="AJ52" s="76"/>
-      <c r="AK52" s="106"/>
+      <c r="AK52" s="101"/>
       <c r="AL52" s="76"/>
     </row>
     <row r="53" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A53" s="97"/>
-      <c r="B53" s="104"/>
-      <c r="C53" s="98"/>
+      <c r="A53" s="110"/>
+      <c r="B53" s="113"/>
+      <c r="C53" s="109"/>
       <c r="D53" s="2" t="s">
         <v>37</v>
       </c>
@@ -9283,27 +9283,27 @@
       <c r="T53" s="76"/>
       <c r="U53" s="76"/>
       <c r="V53" s="76"/>
-      <c r="W53" s="112"/>
+      <c r="W53" s="107"/>
       <c r="X53" s="76"/>
       <c r="Y53" s="76"/>
       <c r="Z53" s="76"/>
       <c r="AA53" s="76"/>
       <c r="AB53" s="76"/>
       <c r="AC53" s="76"/>
-      <c r="AD53" s="109"/>
+      <c r="AD53" s="104"/>
       <c r="AE53" s="76"/>
       <c r="AF53" s="76"/>
       <c r="AG53" s="76"/>
       <c r="AH53" s="76"/>
       <c r="AI53" s="76"/>
       <c r="AJ53" s="76"/>
-      <c r="AK53" s="106"/>
+      <c r="AK53" s="101"/>
       <c r="AL53" s="76"/>
     </row>
     <row r="54" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A54" s="97"/>
-      <c r="B54" s="104"/>
-      <c r="C54" s="98"/>
+      <c r="A54" s="110"/>
+      <c r="B54" s="113"/>
+      <c r="C54" s="109"/>
       <c r="D54" s="2" t="s">
         <v>38</v>
       </c>
@@ -9327,27 +9327,27 @@
       <c r="T54" s="76"/>
       <c r="U54" s="76"/>
       <c r="V54" s="76"/>
-      <c r="W54" s="112"/>
+      <c r="W54" s="107"/>
       <c r="X54" s="76"/>
       <c r="Y54" s="76"/>
       <c r="Z54" s="76"/>
       <c r="AA54" s="76"/>
       <c r="AB54" s="76"/>
       <c r="AC54" s="76"/>
-      <c r="AD54" s="109"/>
+      <c r="AD54" s="104"/>
       <c r="AE54" s="76"/>
       <c r="AF54" s="76"/>
       <c r="AG54" s="76"/>
       <c r="AH54" s="76"/>
       <c r="AI54" s="76"/>
       <c r="AJ54" s="76"/>
-      <c r="AK54" s="106"/>
+      <c r="AK54" s="101"/>
       <c r="AL54" s="76"/>
     </row>
     <row r="55" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A55" s="97"/>
-      <c r="B55" s="104"/>
-      <c r="C55" s="98"/>
+      <c r="A55" s="110"/>
+      <c r="B55" s="113"/>
+      <c r="C55" s="109"/>
       <c r="D55" s="2" t="s">
         <v>33</v>
       </c>
@@ -9371,27 +9371,27 @@
       <c r="T55" s="76"/>
       <c r="U55" s="76"/>
       <c r="V55" s="76"/>
-      <c r="W55" s="112"/>
+      <c r="W55" s="107"/>
       <c r="X55" s="76"/>
       <c r="Y55" s="76"/>
       <c r="Z55" s="76"/>
       <c r="AA55" s="76"/>
       <c r="AB55" s="76"/>
       <c r="AC55" s="76"/>
-      <c r="AD55" s="109"/>
+      <c r="AD55" s="104"/>
       <c r="AE55" s="76"/>
       <c r="AF55" s="76"/>
       <c r="AG55" s="76"/>
       <c r="AH55" s="76"/>
       <c r="AI55" s="76"/>
       <c r="AJ55" s="76"/>
-      <c r="AK55" s="106"/>
+      <c r="AK55" s="101"/>
       <c r="AL55" s="76"/>
     </row>
     <row r="56" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A56" s="97"/>
-      <c r="B56" s="104"/>
-      <c r="C56" s="98" t="s">
+      <c r="A56" s="110"/>
+      <c r="B56" s="113"/>
+      <c r="C56" s="109" t="s">
         <v>121</v>
       </c>
       <c r="D56" s="2" t="s">
@@ -9425,27 +9425,27 @@
       <c r="T56" s="76"/>
       <c r="U56" s="76"/>
       <c r="V56" s="76"/>
-      <c r="W56" s="112"/>
+      <c r="W56" s="107"/>
       <c r="X56" s="76"/>
       <c r="Y56" s="76"/>
       <c r="Z56" s="76"/>
       <c r="AA56" s="76"/>
       <c r="AB56" s="76"/>
       <c r="AC56" s="76"/>
-      <c r="AD56" s="109"/>
+      <c r="AD56" s="104"/>
       <c r="AE56" s="76"/>
       <c r="AF56" s="76"/>
       <c r="AG56" s="76"/>
       <c r="AH56" s="76"/>
       <c r="AI56" s="76"/>
       <c r="AJ56" s="76"/>
-      <c r="AK56" s="106"/>
+      <c r="AK56" s="101"/>
       <c r="AL56" s="76"/>
     </row>
     <row r="57" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A57" s="97"/>
-      <c r="B57" s="104"/>
-      <c r="C57" s="98"/>
+      <c r="A57" s="110"/>
+      <c r="B57" s="113"/>
+      <c r="C57" s="109"/>
       <c r="D57" s="2" t="s">
         <v>151</v>
       </c>
@@ -9477,26 +9477,26 @@
       <c r="T57" s="76"/>
       <c r="U57" s="76"/>
       <c r="V57" s="76"/>
-      <c r="W57" s="112"/>
+      <c r="W57" s="107"/>
       <c r="X57" s="76"/>
       <c r="Y57" s="76"/>
       <c r="Z57" s="76"/>
       <c r="AA57" s="76"/>
       <c r="AB57" s="76"/>
       <c r="AC57" s="76"/>
-      <c r="AD57" s="109"/>
+      <c r="AD57" s="104"/>
       <c r="AE57" s="76"/>
       <c r="AF57" s="76"/>
       <c r="AG57" s="76"/>
       <c r="AH57" s="76"/>
       <c r="AI57" s="76"/>
       <c r="AJ57" s="76"/>
-      <c r="AK57" s="106"/>
+      <c r="AK57" s="101"/>
       <c r="AL57" s="76"/>
     </row>
     <row r="58" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="97"/>
-      <c r="B58" s="104"/>
+      <c r="A58" s="110"/>
+      <c r="B58" s="113"/>
       <c r="C58" s="20" t="s">
         <v>71</v>
       </c>
@@ -9523,32 +9523,32 @@
       <c r="T58" s="20"/>
       <c r="U58" s="20"/>
       <c r="V58" s="20"/>
-      <c r="W58" s="112"/>
+      <c r="W58" s="107"/>
       <c r="X58" s="20"/>
       <c r="Y58" s="20"/>
       <c r="Z58" s="20"/>
       <c r="AA58" s="20"/>
       <c r="AB58" s="20"/>
       <c r="AC58" s="20"/>
-      <c r="AD58" s="109"/>
+      <c r="AD58" s="104"/>
       <c r="AE58" s="76"/>
       <c r="AF58" s="76"/>
       <c r="AG58" s="76"/>
       <c r="AH58" s="76"/>
       <c r="AI58" s="76"/>
       <c r="AJ58" s="76"/>
-      <c r="AK58" s="106"/>
+      <c r="AK58" s="101"/>
       <c r="AL58" s="76"/>
     </row>
     <row r="59" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A59" s="97"/>
-      <c r="B59" s="100" t="s">
+      <c r="A59" s="110"/>
+      <c r="B59" s="112" t="s">
         <v>120</v>
       </c>
-      <c r="C59" s="98" t="s">
+      <c r="C59" s="109" t="s">
         <v>92</v>
       </c>
-      <c r="D59" s="98" t="s">
+      <c r="D59" s="109" t="s">
         <v>29</v>
       </c>
       <c r="E59" s="2" t="s">
@@ -9581,28 +9581,28 @@
       <c r="T59" s="76"/>
       <c r="U59" s="76"/>
       <c r="V59" s="76"/>
-      <c r="W59" s="112"/>
+      <c r="W59" s="107"/>
       <c r="X59" s="76"/>
       <c r="Y59" s="76"/>
       <c r="Z59" s="76"/>
       <c r="AA59" s="76"/>
       <c r="AB59" s="76"/>
       <c r="AC59" s="76"/>
-      <c r="AD59" s="109"/>
+      <c r="AD59" s="104"/>
       <c r="AE59" s="76"/>
       <c r="AF59" s="76"/>
       <c r="AG59" s="76"/>
       <c r="AH59" s="76"/>
       <c r="AI59" s="76"/>
       <c r="AJ59" s="76"/>
-      <c r="AK59" s="106"/>
+      <c r="AK59" s="101"/>
       <c r="AL59" s="76"/>
     </row>
     <row r="60" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A60" s="97"/>
-      <c r="B60" s="100"/>
-      <c r="C60" s="98"/>
-      <c r="D60" s="98"/>
+      <c r="A60" s="110"/>
+      <c r="B60" s="112"/>
+      <c r="C60" s="109"/>
+      <c r="D60" s="109"/>
       <c r="E60" s="2" t="s">
         <v>130</v>
       </c>
@@ -9633,30 +9633,30 @@
       <c r="T60" s="76"/>
       <c r="U60" s="76"/>
       <c r="V60" s="76"/>
-      <c r="W60" s="112"/>
+      <c r="W60" s="107"/>
       <c r="X60" s="76"/>
       <c r="Y60" s="76"/>
       <c r="Z60" s="76"/>
       <c r="AA60" s="76"/>
       <c r="AB60" s="76"/>
       <c r="AC60" s="76"/>
-      <c r="AD60" s="109"/>
+      <c r="AD60" s="104"/>
       <c r="AE60" s="76"/>
       <c r="AF60" s="76"/>
       <c r="AG60" s="76"/>
       <c r="AH60" s="76"/>
       <c r="AI60" s="76"/>
       <c r="AJ60" s="76"/>
-      <c r="AK60" s="106"/>
+      <c r="AK60" s="101"/>
       <c r="AL60" s="76"/>
     </row>
     <row r="61" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A61" s="97"/>
-      <c r="B61" s="100"/>
-      <c r="C61" s="98" t="s">
+      <c r="A61" s="110"/>
+      <c r="B61" s="112"/>
+      <c r="C61" s="109" t="s">
         <v>96</v>
       </c>
-      <c r="D61" s="98" t="s">
+      <c r="D61" s="109" t="s">
         <v>95</v>
       </c>
       <c r="E61" s="2" t="s">
@@ -9689,28 +9689,28 @@
       <c r="T61" s="76"/>
       <c r="U61" s="76"/>
       <c r="V61" s="76"/>
-      <c r="W61" s="112"/>
+      <c r="W61" s="107"/>
       <c r="X61" s="76"/>
       <c r="Y61" s="76"/>
       <c r="Z61" s="76"/>
       <c r="AA61" s="76"/>
       <c r="AB61" s="76"/>
       <c r="AC61" s="76"/>
-      <c r="AD61" s="109"/>
+      <c r="AD61" s="104"/>
       <c r="AE61" s="76"/>
       <c r="AF61" s="76"/>
       <c r="AG61" s="76"/>
       <c r="AH61" s="76"/>
       <c r="AI61" s="76"/>
       <c r="AJ61" s="76"/>
-      <c r="AK61" s="106"/>
+      <c r="AK61" s="101"/>
       <c r="AL61" s="76"/>
     </row>
     <row r="62" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A62" s="97"/>
-      <c r="B62" s="100"/>
-      <c r="C62" s="98"/>
-      <c r="D62" s="98"/>
+      <c r="A62" s="110"/>
+      <c r="B62" s="112"/>
+      <c r="C62" s="109"/>
+      <c r="D62" s="109"/>
       <c r="E62" s="2" t="s">
         <v>146</v>
       </c>
@@ -9741,28 +9741,28 @@
       <c r="T62" s="76"/>
       <c r="U62" s="76"/>
       <c r="V62" s="76"/>
-      <c r="W62" s="112"/>
+      <c r="W62" s="107"/>
       <c r="X62" s="76"/>
       <c r="Y62" s="76"/>
       <c r="Z62" s="76"/>
       <c r="AA62" s="76"/>
       <c r="AB62" s="76"/>
       <c r="AC62" s="76"/>
-      <c r="AD62" s="109"/>
+      <c r="AD62" s="104"/>
       <c r="AE62" s="76"/>
       <c r="AF62" s="76"/>
       <c r="AG62" s="76"/>
       <c r="AH62" s="76"/>
       <c r="AI62" s="76"/>
       <c r="AJ62" s="76"/>
-      <c r="AK62" s="106"/>
+      <c r="AK62" s="101"/>
       <c r="AL62" s="76"/>
     </row>
     <row r="63" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A63" s="97"/>
-      <c r="B63" s="100"/>
-      <c r="C63" s="98"/>
-      <c r="D63" s="98"/>
+      <c r="A63" s="110"/>
+      <c r="B63" s="112"/>
+      <c r="C63" s="109"/>
+      <c r="D63" s="109"/>
       <c r="E63" s="2" t="s">
         <v>147</v>
       </c>
@@ -9793,28 +9793,28 @@
       <c r="T63" s="76"/>
       <c r="U63" s="76"/>
       <c r="V63" s="76"/>
-      <c r="W63" s="112"/>
+      <c r="W63" s="107"/>
       <c r="X63" s="76"/>
       <c r="Y63" s="76"/>
       <c r="Z63" s="76"/>
       <c r="AA63" s="76"/>
       <c r="AB63" s="76"/>
       <c r="AC63" s="76"/>
-      <c r="AD63" s="109"/>
+      <c r="AD63" s="104"/>
       <c r="AE63" s="76"/>
       <c r="AF63" s="76"/>
       <c r="AG63" s="76"/>
       <c r="AH63" s="76"/>
       <c r="AI63" s="76"/>
       <c r="AJ63" s="76"/>
-      <c r="AK63" s="106"/>
+      <c r="AK63" s="101"/>
       <c r="AL63" s="76"/>
     </row>
     <row r="64" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A64" s="97"/>
-      <c r="B64" s="100"/>
-      <c r="C64" s="98"/>
-      <c r="D64" s="98"/>
+      <c r="A64" s="110"/>
+      <c r="B64" s="112"/>
+      <c r="C64" s="109"/>
+      <c r="D64" s="109"/>
       <c r="E64" s="2" t="s">
         <v>107</v>
       </c>
@@ -9845,28 +9845,28 @@
       <c r="T64" s="76"/>
       <c r="U64" s="76"/>
       <c r="V64" s="76"/>
-      <c r="W64" s="112"/>
+      <c r="W64" s="107"/>
       <c r="X64" s="76"/>
       <c r="Y64" s="76"/>
       <c r="Z64" s="76"/>
       <c r="AA64" s="76"/>
       <c r="AB64" s="76"/>
       <c r="AC64" s="76"/>
-      <c r="AD64" s="109"/>
+      <c r="AD64" s="104"/>
       <c r="AE64" s="76"/>
       <c r="AF64" s="76"/>
       <c r="AG64" s="76"/>
       <c r="AH64" s="76"/>
       <c r="AI64" s="76"/>
       <c r="AJ64" s="76"/>
-      <c r="AK64" s="106"/>
+      <c r="AK64" s="101"/>
       <c r="AL64" s="76"/>
     </row>
     <row r="65" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A65" s="97"/>
-      <c r="B65" s="100"/>
-      <c r="C65" s="98"/>
-      <c r="D65" s="98"/>
+      <c r="A65" s="110"/>
+      <c r="B65" s="112"/>
+      <c r="C65" s="109"/>
+      <c r="D65" s="109"/>
       <c r="E65" s="2" t="s">
         <v>108</v>
       </c>
@@ -9897,28 +9897,28 @@
       <c r="T65" s="76"/>
       <c r="U65" s="76"/>
       <c r="V65" s="76"/>
-      <c r="W65" s="112"/>
+      <c r="W65" s="107"/>
       <c r="X65" s="76"/>
       <c r="Y65" s="76"/>
       <c r="Z65" s="76"/>
       <c r="AA65" s="76"/>
       <c r="AB65" s="76"/>
       <c r="AC65" s="76"/>
-      <c r="AD65" s="109"/>
+      <c r="AD65" s="104"/>
       <c r="AE65" s="76"/>
       <c r="AF65" s="76"/>
       <c r="AG65" s="76"/>
       <c r="AH65" s="76"/>
       <c r="AI65" s="76"/>
       <c r="AJ65" s="76"/>
-      <c r="AK65" s="106"/>
+      <c r="AK65" s="101"/>
       <c r="AL65" s="76"/>
     </row>
     <row r="66" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A66" s="97"/>
-      <c r="B66" s="100"/>
-      <c r="C66" s="98"/>
-      <c r="D66" s="98" t="s">
+      <c r="A66" s="110"/>
+      <c r="B66" s="112"/>
+      <c r="C66" s="109"/>
+      <c r="D66" s="109" t="s">
         <v>97</v>
       </c>
       <c r="E66" s="2" t="s">
@@ -9945,28 +9945,28 @@
       <c r="T66" s="76"/>
       <c r="U66" s="76"/>
       <c r="V66" s="76"/>
-      <c r="W66" s="112"/>
+      <c r="W66" s="107"/>
       <c r="X66" s="76"/>
       <c r="Y66" s="76"/>
       <c r="Z66" s="76"/>
       <c r="AA66" s="76"/>
       <c r="AB66" s="76"/>
       <c r="AC66" s="76"/>
-      <c r="AD66" s="109"/>
+      <c r="AD66" s="104"/>
       <c r="AE66" s="76"/>
       <c r="AF66" s="76"/>
       <c r="AG66" s="76"/>
       <c r="AH66" s="76"/>
       <c r="AI66" s="76"/>
       <c r="AJ66" s="76"/>
-      <c r="AK66" s="106"/>
+      <c r="AK66" s="101"/>
       <c r="AL66" s="76"/>
     </row>
     <row r="67" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A67" s="97"/>
-      <c r="B67" s="100"/>
-      <c r="C67" s="98"/>
-      <c r="D67" s="98"/>
+      <c r="A67" s="110"/>
+      <c r="B67" s="112"/>
+      <c r="C67" s="109"/>
+      <c r="D67" s="109"/>
       <c r="E67" s="2" t="s">
         <v>146</v>
       </c>
@@ -9997,30 +9997,30 @@
       <c r="T67" s="76"/>
       <c r="U67" s="76"/>
       <c r="V67" s="76"/>
-      <c r="W67" s="112"/>
+      <c r="W67" s="107"/>
       <c r="X67" s="76"/>
       <c r="Y67" s="76"/>
       <c r="Z67" s="76"/>
       <c r="AA67" s="76"/>
       <c r="AB67" s="76"/>
       <c r="AC67" s="76"/>
-      <c r="AD67" s="109"/>
+      <c r="AD67" s="104"/>
       <c r="AE67" s="76"/>
       <c r="AF67" s="76"/>
       <c r="AG67" s="76"/>
       <c r="AH67" s="76"/>
       <c r="AI67" s="76"/>
       <c r="AJ67" s="76"/>
-      <c r="AK67" s="106"/>
+      <c r="AK67" s="101"/>
       <c r="AL67" s="76"/>
     </row>
     <row r="68" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="97"/>
-      <c r="B68" s="100"/>
-      <c r="C68" s="98" t="s">
+      <c r="A68" s="110"/>
+      <c r="B68" s="112"/>
+      <c r="C68" s="109" t="s">
         <v>44</v>
       </c>
-      <c r="D68" s="98" t="s">
+      <c r="D68" s="109" t="s">
         <v>93</v>
       </c>
       <c r="E68" s="2" t="s">
@@ -10053,28 +10053,28 @@
       <c r="T68" s="76"/>
       <c r="U68" s="76"/>
       <c r="V68" s="76"/>
-      <c r="W68" s="112"/>
+      <c r="W68" s="107"/>
       <c r="X68" s="76"/>
       <c r="Y68" s="76"/>
       <c r="Z68" s="76"/>
       <c r="AA68" s="76"/>
       <c r="AB68" s="76"/>
       <c r="AC68" s="76"/>
-      <c r="AD68" s="109"/>
+      <c r="AD68" s="104"/>
       <c r="AE68" s="76"/>
       <c r="AF68" s="76"/>
       <c r="AG68" s="76"/>
       <c r="AH68" s="76"/>
       <c r="AI68" s="76"/>
       <c r="AJ68" s="76"/>
-      <c r="AK68" s="106"/>
+      <c r="AK68" s="101"/>
       <c r="AL68" s="76"/>
     </row>
     <row r="69" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="97"/>
-      <c r="B69" s="100"/>
-      <c r="C69" s="98"/>
-      <c r="D69" s="98"/>
+      <c r="A69" s="110"/>
+      <c r="B69" s="112"/>
+      <c r="C69" s="109"/>
+      <c r="D69" s="109"/>
       <c r="E69" s="2" t="s">
         <v>130</v>
       </c>
@@ -10105,28 +10105,28 @@
       <c r="T69" s="76"/>
       <c r="U69" s="76"/>
       <c r="V69" s="76"/>
-      <c r="W69" s="112"/>
+      <c r="W69" s="107"/>
       <c r="X69" s="76"/>
       <c r="Y69" s="76"/>
       <c r="Z69" s="76"/>
       <c r="AA69" s="76"/>
       <c r="AB69" s="76"/>
       <c r="AC69" s="76"/>
-      <c r="AD69" s="109"/>
+      <c r="AD69" s="104"/>
       <c r="AE69" s="76"/>
       <c r="AF69" s="76"/>
       <c r="AG69" s="76"/>
       <c r="AH69" s="76"/>
       <c r="AI69" s="76"/>
       <c r="AJ69" s="76"/>
-      <c r="AK69" s="106"/>
+      <c r="AK69" s="101"/>
       <c r="AL69" s="76"/>
     </row>
     <row r="70" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="97"/>
-      <c r="B70" s="100"/>
-      <c r="C70" s="98"/>
-      <c r="D70" s="101" t="s">
+      <c r="A70" s="110"/>
+      <c r="B70" s="112"/>
+      <c r="C70" s="109"/>
+      <c r="D70" s="97" t="s">
         <v>98</v>
       </c>
       <c r="E70" s="2" t="s">
@@ -10159,28 +10159,28 @@
       <c r="T70" s="76"/>
       <c r="U70" s="76"/>
       <c r="V70" s="76"/>
-      <c r="W70" s="112"/>
+      <c r="W70" s="107"/>
       <c r="X70" s="76"/>
       <c r="Y70" s="76"/>
       <c r="Z70" s="76"/>
       <c r="AA70" s="76"/>
       <c r="AB70" s="76"/>
       <c r="AC70" s="76"/>
-      <c r="AD70" s="109"/>
+      <c r="AD70" s="104"/>
       <c r="AE70" s="76"/>
       <c r="AF70" s="76"/>
       <c r="AG70" s="76"/>
       <c r="AH70" s="76"/>
       <c r="AI70" s="76"/>
       <c r="AJ70" s="76"/>
-      <c r="AK70" s="106"/>
+      <c r="AK70" s="101"/>
       <c r="AL70" s="76"/>
     </row>
     <row r="71" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="97"/>
-      <c r="B71" s="100"/>
-      <c r="C71" s="98"/>
-      <c r="D71" s="103"/>
+      <c r="A71" s="110"/>
+      <c r="B71" s="112"/>
+      <c r="C71" s="109"/>
+      <c r="D71" s="99"/>
       <c r="E71" s="2" t="s">
         <v>130</v>
       </c>
@@ -10207,27 +10207,27 @@
       <c r="T71" s="76"/>
       <c r="U71" s="76"/>
       <c r="V71" s="76"/>
-      <c r="W71" s="112"/>
+      <c r="W71" s="107"/>
       <c r="X71" s="76"/>
       <c r="Y71" s="76"/>
       <c r="Z71" s="76"/>
       <c r="AA71" s="76"/>
       <c r="AB71" s="76"/>
       <c r="AC71" s="76"/>
-      <c r="AD71" s="109"/>
+      <c r="AD71" s="104"/>
       <c r="AE71" s="76"/>
       <c r="AF71" s="76"/>
       <c r="AG71" s="76"/>
       <c r="AH71" s="76"/>
       <c r="AI71" s="76"/>
       <c r="AJ71" s="76"/>
-      <c r="AK71" s="106"/>
+      <c r="AK71" s="101"/>
       <c r="AL71" s="76"/>
     </row>
     <row r="72" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A72" s="97"/>
-      <c r="B72" s="100"/>
-      <c r="C72" s="102"/>
+      <c r="A72" s="110"/>
+      <c r="B72" s="112"/>
+      <c r="C72" s="98"/>
       <c r="D72" s="2" t="s">
         <v>190</v>
       </c>
@@ -10261,27 +10261,27 @@
       <c r="T72" s="76"/>
       <c r="U72" s="76"/>
       <c r="V72" s="76"/>
-      <c r="W72" s="112"/>
+      <c r="W72" s="107"/>
       <c r="X72" s="76"/>
       <c r="Y72" s="76"/>
       <c r="Z72" s="76"/>
       <c r="AA72" s="76"/>
       <c r="AB72" s="76"/>
       <c r="AC72" s="76"/>
-      <c r="AD72" s="109"/>
+      <c r="AD72" s="104"/>
       <c r="AE72" s="76"/>
       <c r="AF72" s="76"/>
       <c r="AG72" s="76"/>
       <c r="AH72" s="76"/>
       <c r="AI72" s="76"/>
       <c r="AJ72" s="76"/>
-      <c r="AK72" s="106"/>
+      <c r="AK72" s="101"/>
       <c r="AL72" s="76"/>
     </row>
     <row r="73" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A73" s="97"/>
-      <c r="B73" s="100"/>
-      <c r="C73" s="102"/>
+      <c r="A73" s="110"/>
+      <c r="B73" s="112"/>
+      <c r="C73" s="98"/>
       <c r="D73" s="2" t="s">
         <v>191</v>
       </c>
@@ -10315,27 +10315,27 @@
       <c r="T73" s="76"/>
       <c r="U73" s="76"/>
       <c r="V73" s="76"/>
-      <c r="W73" s="112"/>
+      <c r="W73" s="107"/>
       <c r="X73" s="76"/>
       <c r="Y73" s="76"/>
       <c r="Z73" s="76"/>
       <c r="AA73" s="76"/>
       <c r="AB73" s="76"/>
       <c r="AC73" s="76"/>
-      <c r="AD73" s="109"/>
+      <c r="AD73" s="104"/>
       <c r="AE73" s="76"/>
       <c r="AF73" s="76"/>
       <c r="AG73" s="76"/>
       <c r="AH73" s="76"/>
       <c r="AI73" s="76"/>
       <c r="AJ73" s="76"/>
-      <c r="AK73" s="106"/>
+      <c r="AK73" s="101"/>
       <c r="AL73" s="76"/>
     </row>
     <row r="74" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A74" s="97"/>
-      <c r="B74" s="100"/>
-      <c r="C74" s="103"/>
+      <c r="A74" s="110"/>
+      <c r="B74" s="112"/>
+      <c r="C74" s="99"/>
       <c r="D74" s="2" t="s">
         <v>161</v>
       </c>
@@ -10369,27 +10369,27 @@
       <c r="T74" s="76"/>
       <c r="U74" s="76"/>
       <c r="V74" s="76"/>
-      <c r="W74" s="112"/>
+      <c r="W74" s="107"/>
       <c r="X74" s="76"/>
       <c r="Y74" s="76"/>
       <c r="Z74" s="76"/>
       <c r="AA74" s="76"/>
       <c r="AB74" s="76"/>
       <c r="AC74" s="76"/>
-      <c r="AD74" s="109"/>
+      <c r="AD74" s="104"/>
       <c r="AE74" s="76"/>
       <c r="AF74" s="76"/>
       <c r="AG74" s="76"/>
       <c r="AH74" s="76"/>
       <c r="AI74" s="76"/>
       <c r="AJ74" s="76"/>
-      <c r="AK74" s="106"/>
+      <c r="AK74" s="101"/>
       <c r="AL74" s="76"/>
     </row>
     <row r="75" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A75" s="97"/>
-      <c r="B75" s="100"/>
-      <c r="C75" s="98" t="s">
+      <c r="A75" s="110"/>
+      <c r="B75" s="112"/>
+      <c r="C75" s="109" t="s">
         <v>13</v>
       </c>
       <c r="D75" s="2" t="s">
@@ -10423,27 +10423,27 @@
       <c r="T75" s="76"/>
       <c r="U75" s="76"/>
       <c r="V75" s="76"/>
-      <c r="W75" s="112"/>
+      <c r="W75" s="107"/>
       <c r="X75" s="76"/>
       <c r="Y75" s="76"/>
       <c r="Z75" s="76"/>
       <c r="AA75" s="76"/>
       <c r="AB75" s="76"/>
       <c r="AC75" s="76"/>
-      <c r="AD75" s="109"/>
+      <c r="AD75" s="104"/>
       <c r="AE75" s="76"/>
       <c r="AF75" s="76"/>
       <c r="AG75" s="76"/>
       <c r="AH75" s="76"/>
       <c r="AI75" s="76"/>
       <c r="AJ75" s="76"/>
-      <c r="AK75" s="106"/>
+      <c r="AK75" s="101"/>
       <c r="AL75" s="76"/>
     </row>
     <row r="76" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A76" s="97"/>
-      <c r="B76" s="100"/>
-      <c r="C76" s="98"/>
+      <c r="A76" s="110"/>
+      <c r="B76" s="112"/>
+      <c r="C76" s="109"/>
       <c r="D76" s="2" t="s">
         <v>126</v>
       </c>
@@ -10475,27 +10475,27 @@
       <c r="T76" s="76"/>
       <c r="U76" s="76"/>
       <c r="V76" s="76"/>
-      <c r="W76" s="112"/>
+      <c r="W76" s="107"/>
       <c r="X76" s="76"/>
       <c r="Y76" s="76"/>
       <c r="Z76" s="76"/>
       <c r="AA76" s="76"/>
       <c r="AB76" s="76"/>
       <c r="AC76" s="76"/>
-      <c r="AD76" s="109"/>
+      <c r="AD76" s="104"/>
       <c r="AE76" s="76"/>
       <c r="AF76" s="76"/>
       <c r="AG76" s="76"/>
       <c r="AH76" s="76"/>
       <c r="AI76" s="76"/>
       <c r="AJ76" s="76"/>
-      <c r="AK76" s="106"/>
+      <c r="AK76" s="101"/>
       <c r="AL76" s="76"/>
     </row>
     <row r="77" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="97"/>
-      <c r="B77" s="100"/>
-      <c r="C77" s="101" t="s">
+      <c r="A77" s="110"/>
+      <c r="B77" s="112"/>
+      <c r="C77" s="97" t="s">
         <v>99</v>
       </c>
       <c r="D77" s="2" t="s">
@@ -10529,27 +10529,27 @@
       <c r="T77" s="76"/>
       <c r="U77" s="76"/>
       <c r="V77" s="76"/>
-      <c r="W77" s="112"/>
+      <c r="W77" s="107"/>
       <c r="X77" s="76"/>
       <c r="Y77" s="76"/>
       <c r="Z77" s="76"/>
       <c r="AA77" s="76"/>
       <c r="AB77" s="76"/>
       <c r="AC77" s="76"/>
-      <c r="AD77" s="109"/>
+      <c r="AD77" s="104"/>
       <c r="AE77" s="76"/>
       <c r="AF77" s="76"/>
       <c r="AG77" s="76"/>
       <c r="AH77" s="76"/>
       <c r="AI77" s="76"/>
       <c r="AJ77" s="76"/>
-      <c r="AK77" s="106"/>
+      <c r="AK77" s="101"/>
       <c r="AL77" s="76"/>
     </row>
     <row r="78" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A78" s="97"/>
-      <c r="B78" s="100"/>
-      <c r="C78" s="102"/>
+      <c r="A78" s="110"/>
+      <c r="B78" s="112"/>
+      <c r="C78" s="98"/>
       <c r="D78" s="2" t="s">
         <v>156</v>
       </c>
@@ -10581,27 +10581,27 @@
       <c r="T78" s="76"/>
       <c r="U78" s="76"/>
       <c r="V78" s="76"/>
-      <c r="W78" s="112"/>
+      <c r="W78" s="107"/>
       <c r="X78" s="76"/>
       <c r="Y78" s="76"/>
       <c r="Z78" s="76"/>
       <c r="AA78" s="76"/>
       <c r="AB78" s="76"/>
       <c r="AC78" s="76"/>
-      <c r="AD78" s="109"/>
+      <c r="AD78" s="104"/>
       <c r="AE78" s="76"/>
       <c r="AF78" s="76"/>
       <c r="AG78" s="76"/>
       <c r="AH78" s="76"/>
       <c r="AI78" s="76"/>
       <c r="AJ78" s="76"/>
-      <c r="AK78" s="106"/>
+      <c r="AK78" s="101"/>
       <c r="AL78" s="76"/>
     </row>
     <row r="79" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="97"/>
-      <c r="B79" s="100"/>
-      <c r="C79" s="102"/>
+      <c r="A79" s="110"/>
+      <c r="B79" s="112"/>
+      <c r="C79" s="98"/>
       <c r="D79" s="2" t="s">
         <v>187</v>
       </c>
@@ -10633,27 +10633,27 @@
       <c r="T79" s="76"/>
       <c r="U79" s="76"/>
       <c r="V79" s="76"/>
-      <c r="W79" s="112"/>
+      <c r="W79" s="107"/>
       <c r="X79" s="76"/>
       <c r="Y79" s="76"/>
       <c r="Z79" s="76"/>
       <c r="AA79" s="76"/>
       <c r="AB79" s="76"/>
       <c r="AC79" s="76"/>
-      <c r="AD79" s="109"/>
+      <c r="AD79" s="104"/>
       <c r="AE79" s="76"/>
       <c r="AF79" s="76"/>
       <c r="AG79" s="76"/>
       <c r="AH79" s="76"/>
       <c r="AI79" s="76"/>
       <c r="AJ79" s="76"/>
-      <c r="AK79" s="106"/>
+      <c r="AK79" s="101"/>
       <c r="AL79" s="76"/>
     </row>
     <row r="80" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A80" s="97"/>
-      <c r="B80" s="100"/>
-      <c r="C80" s="103"/>
+      <c r="A80" s="110"/>
+      <c r="B80" s="112"/>
+      <c r="C80" s="99"/>
       <c r="D80" s="2" t="s">
         <v>157</v>
       </c>
@@ -10685,27 +10685,27 @@
       <c r="T80" s="76"/>
       <c r="U80" s="76"/>
       <c r="V80" s="76"/>
-      <c r="W80" s="112"/>
+      <c r="W80" s="107"/>
       <c r="X80" s="76"/>
       <c r="Y80" s="76"/>
       <c r="Z80" s="76"/>
       <c r="AA80" s="76"/>
       <c r="AB80" s="76"/>
       <c r="AC80" s="76"/>
-      <c r="AD80" s="109"/>
+      <c r="AD80" s="104"/>
       <c r="AE80" s="76"/>
       <c r="AF80" s="76"/>
       <c r="AG80" s="76"/>
       <c r="AH80" s="76"/>
       <c r="AI80" s="76"/>
       <c r="AJ80" s="76"/>
-      <c r="AK80" s="106"/>
+      <c r="AK80" s="101"/>
       <c r="AL80" s="76"/>
     </row>
     <row r="81" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A81" s="97"/>
-      <c r="B81" s="100"/>
-      <c r="C81" s="98" t="s">
+      <c r="A81" s="110"/>
+      <c r="B81" s="112"/>
+      <c r="C81" s="109" t="s">
         <v>30</v>
       </c>
       <c r="D81" s="2" t="s">
@@ -10737,27 +10737,27 @@
       <c r="T81" s="76"/>
       <c r="U81" s="76"/>
       <c r="V81" s="76"/>
-      <c r="W81" s="112"/>
+      <c r="W81" s="107"/>
       <c r="X81" s="76"/>
       <c r="Y81" s="76"/>
       <c r="Z81" s="76"/>
       <c r="AA81" s="76"/>
       <c r="AB81" s="76"/>
       <c r="AC81" s="76"/>
-      <c r="AD81" s="109"/>
+      <c r="AD81" s="104"/>
       <c r="AE81" s="76"/>
       <c r="AF81" s="76"/>
       <c r="AG81" s="76"/>
       <c r="AH81" s="76"/>
       <c r="AI81" s="76"/>
       <c r="AJ81" s="76"/>
-      <c r="AK81" s="106"/>
+      <c r="AK81" s="101"/>
       <c r="AL81" s="76"/>
     </row>
     <row r="82" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A82" s="97"/>
-      <c r="B82" s="100"/>
-      <c r="C82" s="98"/>
+      <c r="A82" s="110"/>
+      <c r="B82" s="112"/>
+      <c r="C82" s="109"/>
       <c r="D82" s="2" t="s">
         <v>32</v>
       </c>
@@ -10781,27 +10781,27 @@
       <c r="T82" s="76"/>
       <c r="U82" s="76"/>
       <c r="V82" s="76"/>
-      <c r="W82" s="112"/>
+      <c r="W82" s="107"/>
       <c r="X82" s="76"/>
       <c r="Y82" s="76"/>
       <c r="Z82" s="76"/>
       <c r="AA82" s="76"/>
       <c r="AB82" s="76"/>
       <c r="AC82" s="76"/>
-      <c r="AD82" s="109"/>
+      <c r="AD82" s="104"/>
       <c r="AE82" s="76"/>
       <c r="AF82" s="76"/>
       <c r="AG82" s="76"/>
       <c r="AH82" s="76"/>
       <c r="AI82" s="76"/>
       <c r="AJ82" s="76"/>
-      <c r="AK82" s="106"/>
+      <c r="AK82" s="101"/>
       <c r="AL82" s="76"/>
     </row>
     <row r="83" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A83" s="97"/>
-      <c r="B83" s="100"/>
-      <c r="C83" s="98"/>
+      <c r="A83" s="110"/>
+      <c r="B83" s="112"/>
+      <c r="C83" s="109"/>
       <c r="D83" s="2" t="s">
         <v>33</v>
       </c>
@@ -10831,25 +10831,25 @@
       <c r="T83" s="76"/>
       <c r="U83" s="76"/>
       <c r="V83" s="76"/>
-      <c r="W83" s="112"/>
+      <c r="W83" s="107"/>
       <c r="X83" s="76"/>
       <c r="Y83" s="76"/>
       <c r="Z83" s="76"/>
       <c r="AA83" s="76"/>
       <c r="AB83" s="76"/>
       <c r="AC83" s="76"/>
-      <c r="AD83" s="109"/>
+      <c r="AD83" s="104"/>
       <c r="AE83" s="76"/>
       <c r="AF83" s="76"/>
       <c r="AG83" s="76"/>
       <c r="AH83" s="76"/>
       <c r="AI83" s="76"/>
       <c r="AJ83" s="76"/>
-      <c r="AK83" s="106"/>
+      <c r="AK83" s="101"/>
       <c r="AL83" s="76"/>
     </row>
     <row r="84" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A84" s="97"/>
+      <c r="A84" s="110"/>
       <c r="B84" s="77"/>
       <c r="C84" s="76" t="s">
         <v>258</v>
@@ -10877,25 +10877,25 @@
       <c r="T84" s="76"/>
       <c r="U84" s="76"/>
       <c r="V84" s="76"/>
-      <c r="W84" s="112"/>
+      <c r="W84" s="107"/>
       <c r="X84" s="76"/>
       <c r="Y84" s="76"/>
       <c r="Z84" s="76"/>
       <c r="AA84" s="76"/>
       <c r="AB84" s="76"/>
       <c r="AC84" s="76"/>
-      <c r="AD84" s="109"/>
+      <c r="AD84" s="104"/>
       <c r="AE84" s="76"/>
       <c r="AF84" s="76"/>
       <c r="AG84" s="76"/>
       <c r="AH84" s="76"/>
       <c r="AI84" s="76"/>
       <c r="AJ84" s="76"/>
-      <c r="AK84" s="106"/>
+      <c r="AK84" s="101"/>
       <c r="AL84" s="76"/>
     </row>
     <row r="85" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A85" s="97"/>
+      <c r="A85" s="110"/>
       <c r="B85" s="77"/>
       <c r="C85" s="76" t="s">
         <v>259</v>
@@ -10923,25 +10923,25 @@
       <c r="T85" s="76"/>
       <c r="U85" s="76"/>
       <c r="V85" s="76"/>
-      <c r="W85" s="113"/>
+      <c r="W85" s="108"/>
       <c r="X85" s="76"/>
       <c r="Y85" s="76"/>
       <c r="Z85" s="76"/>
       <c r="AA85" s="76"/>
       <c r="AB85" s="76"/>
       <c r="AC85" s="76"/>
-      <c r="AD85" s="110"/>
+      <c r="AD85" s="105"/>
       <c r="AE85" s="76"/>
       <c r="AF85" s="76"/>
       <c r="AG85" s="76"/>
       <c r="AH85" s="76"/>
       <c r="AI85" s="76"/>
       <c r="AJ85" s="76"/>
-      <c r="AK85" s="107"/>
+      <c r="AK85" s="102"/>
       <c r="AL85" s="76"/>
     </row>
     <row r="86" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A86" s="97"/>
+      <c r="A86" s="110"/>
       <c r="B86" s="38" t="s">
         <v>21</v>
       </c>
@@ -10963,20 +10963,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="D33:D38"/>
-    <mergeCell ref="AK5:AK85"/>
-    <mergeCell ref="AD5:AD85"/>
-    <mergeCell ref="W5:W85"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="D18:D27"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="D61:D65"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="D68:D69"/>
     <mergeCell ref="A5:A86"/>
     <mergeCell ref="C11:C14"/>
     <mergeCell ref="C15:C17"/>
@@ -10993,6 +10979,20 @@
     <mergeCell ref="C18:C45"/>
     <mergeCell ref="B11:B58"/>
     <mergeCell ref="C61:C67"/>
+    <mergeCell ref="D33:D38"/>
+    <mergeCell ref="AK5:AK85"/>
+    <mergeCell ref="AD5:AD85"/>
+    <mergeCell ref="W5:W85"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="D18:D27"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="D61:D65"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="D68:D69"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="L3:AL5 AL6:AL85 X6:AC85 AE6:AJ85 L6:V85">
@@ -12016,7 +12016,7 @@
   <dimension ref="B6:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/schedule/ガントチャート.xlsx
+++ b/schedule/ガントチャート.xlsx
@@ -2941,6 +2941,18 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="12" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2950,6 +2962,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="9" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -2976,21 +2991,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="8" borderId="3" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6919,10 +6919,10 @@
       </c>
     </row>
     <row r="5" spans="1:46" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="111" t="s">
+      <c r="B5" s="99" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="19" t="s">
@@ -6959,7 +6959,7 @@
       <c r="T5" s="78"/>
       <c r="U5" s="78"/>
       <c r="V5" s="78"/>
-      <c r="W5" s="106" t="s">
+      <c r="W5" s="111" t="s">
         <v>110</v>
       </c>
       <c r="X5" s="78"/>
@@ -6968,7 +6968,7 @@
       <c r="AA5" s="78"/>
       <c r="AB5" s="78"/>
       <c r="AC5" s="78"/>
-      <c r="AD5" s="103" t="s">
+      <c r="AD5" s="108" t="s">
         <v>111</v>
       </c>
       <c r="AE5" s="78"/>
@@ -6977,14 +6977,14 @@
       <c r="AH5" s="78"/>
       <c r="AI5" s="78"/>
       <c r="AJ5" s="78"/>
-      <c r="AK5" s="100" t="s">
+      <c r="AK5" s="105" t="s">
         <v>88</v>
       </c>
       <c r="AL5" s="78"/>
     </row>
     <row r="6" spans="1:46" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="110"/>
-      <c r="B6" s="111"/>
+      <c r="A6" s="97"/>
+      <c r="B6" s="99"/>
       <c r="C6" s="19" t="s">
         <v>9</v>
       </c>
@@ -7017,26 +7017,26 @@
       <c r="T6" s="76"/>
       <c r="U6" s="76"/>
       <c r="V6" s="76"/>
-      <c r="W6" s="107"/>
+      <c r="W6" s="112"/>
       <c r="X6" s="76"/>
       <c r="Y6" s="76"/>
       <c r="Z6" s="76"/>
       <c r="AA6" s="76"/>
       <c r="AB6" s="76"/>
       <c r="AC6" s="76"/>
-      <c r="AD6" s="104"/>
+      <c r="AD6" s="109"/>
       <c r="AE6" s="76"/>
       <c r="AF6" s="76"/>
       <c r="AG6" s="76"/>
       <c r="AH6" s="76"/>
       <c r="AI6" s="76"/>
       <c r="AJ6" s="76"/>
-      <c r="AK6" s="101"/>
+      <c r="AK6" s="106"/>
       <c r="AL6" s="76"/>
     </row>
     <row r="7" spans="1:46" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="110"/>
-      <c r="B7" s="111"/>
+      <c r="A7" s="97"/>
+      <c r="B7" s="99"/>
       <c r="C7" s="19" t="s">
         <v>10</v>
       </c>
@@ -7067,26 +7067,26 @@
       <c r="T7" s="76"/>
       <c r="U7" s="76"/>
       <c r="V7" s="76"/>
-      <c r="W7" s="107"/>
+      <c r="W7" s="112"/>
       <c r="X7" s="76"/>
       <c r="Y7" s="76"/>
       <c r="Z7" s="76"/>
       <c r="AA7" s="76"/>
       <c r="AB7" s="76"/>
       <c r="AC7" s="76"/>
-      <c r="AD7" s="104"/>
+      <c r="AD7" s="109"/>
       <c r="AE7" s="76"/>
       <c r="AF7" s="76"/>
       <c r="AG7" s="76"/>
       <c r="AH7" s="76"/>
       <c r="AI7" s="76"/>
       <c r="AJ7" s="76"/>
-      <c r="AK7" s="101"/>
+      <c r="AK7" s="106"/>
       <c r="AL7" s="76"/>
     </row>
     <row r="8" spans="1:46" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="110"/>
-      <c r="B8" s="111"/>
+      <c r="A8" s="97"/>
+      <c r="B8" s="99"/>
       <c r="C8" s="19" t="s">
         <v>11</v>
       </c>
@@ -7117,26 +7117,26 @@
       <c r="T8" s="76"/>
       <c r="U8" s="76"/>
       <c r="V8" s="76"/>
-      <c r="W8" s="107"/>
+      <c r="W8" s="112"/>
       <c r="X8" s="76"/>
       <c r="Y8" s="76"/>
       <c r="Z8" s="76"/>
       <c r="AA8" s="76"/>
       <c r="AB8" s="76"/>
       <c r="AC8" s="76"/>
-      <c r="AD8" s="104"/>
+      <c r="AD8" s="109"/>
       <c r="AE8" s="76"/>
       <c r="AF8" s="76"/>
       <c r="AG8" s="76"/>
       <c r="AH8" s="76"/>
       <c r="AI8" s="76"/>
       <c r="AJ8" s="76"/>
-      <c r="AK8" s="101"/>
+      <c r="AK8" s="106"/>
       <c r="AL8" s="76"/>
     </row>
     <row r="9" spans="1:46" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="110"/>
-      <c r="B9" s="111"/>
+      <c r="A9" s="97"/>
+      <c r="B9" s="99"/>
       <c r="C9" s="19" t="s">
         <v>34</v>
       </c>
@@ -7171,26 +7171,26 @@
       <c r="T9" s="76"/>
       <c r="U9" s="76"/>
       <c r="V9" s="76"/>
-      <c r="W9" s="107"/>
+      <c r="W9" s="112"/>
       <c r="X9" s="76"/>
       <c r="Y9" s="76"/>
       <c r="Z9" s="76"/>
       <c r="AA9" s="76"/>
       <c r="AB9" s="76"/>
       <c r="AC9" s="76"/>
-      <c r="AD9" s="104"/>
+      <c r="AD9" s="109"/>
       <c r="AE9" s="76"/>
       <c r="AF9" s="76"/>
       <c r="AG9" s="76"/>
       <c r="AH9" s="76"/>
       <c r="AI9" s="76"/>
       <c r="AJ9" s="76"/>
-      <c r="AK9" s="101"/>
+      <c r="AK9" s="106"/>
       <c r="AL9" s="76"/>
     </row>
     <row r="10" spans="1:46" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="110"/>
-      <c r="B10" s="111"/>
+      <c r="A10" s="97"/>
+      <c r="B10" s="99"/>
       <c r="C10" s="19" t="s">
         <v>35</v>
       </c>
@@ -7219,29 +7219,29 @@
       <c r="T10" s="76"/>
       <c r="U10" s="76"/>
       <c r="V10" s="76"/>
-      <c r="W10" s="107"/>
+      <c r="W10" s="112"/>
       <c r="X10" s="76"/>
       <c r="Y10" s="76"/>
       <c r="Z10" s="76"/>
       <c r="AA10" s="76"/>
       <c r="AB10" s="76"/>
       <c r="AC10" s="76"/>
-      <c r="AD10" s="104"/>
+      <c r="AD10" s="109"/>
       <c r="AE10" s="76"/>
       <c r="AF10" s="76"/>
       <c r="AG10" s="76"/>
       <c r="AH10" s="76"/>
       <c r="AI10" s="76"/>
       <c r="AJ10" s="76"/>
-      <c r="AK10" s="101"/>
+      <c r="AK10" s="106"/>
       <c r="AL10" s="76"/>
     </row>
     <row r="11" spans="1:46" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="110"/>
-      <c r="B11" s="113" t="s">
+      <c r="A11" s="97"/>
+      <c r="B11" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="109" t="s">
+      <c r="C11" s="98" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="40" t="s">
@@ -7267,27 +7267,27 @@
       <c r="T11" s="76"/>
       <c r="U11" s="76"/>
       <c r="V11" s="76"/>
-      <c r="W11" s="107"/>
+      <c r="W11" s="112"/>
       <c r="X11" s="76"/>
       <c r="Y11" s="76"/>
       <c r="Z11" s="76"/>
       <c r="AA11" s="76"/>
       <c r="AB11" s="76"/>
       <c r="AC11" s="76"/>
-      <c r="AD11" s="104"/>
+      <c r="AD11" s="109"/>
       <c r="AE11" s="76"/>
       <c r="AF11" s="76"/>
       <c r="AG11" s="76"/>
       <c r="AH11" s="76"/>
       <c r="AI11" s="76"/>
       <c r="AJ11" s="76"/>
-      <c r="AK11" s="101"/>
+      <c r="AK11" s="106"/>
       <c r="AL11" s="76"/>
     </row>
     <row r="12" spans="1:46" x14ac:dyDescent="0.4">
-      <c r="A12" s="110"/>
-      <c r="B12" s="113"/>
-      <c r="C12" s="109"/>
+      <c r="A12" s="97"/>
+      <c r="B12" s="104"/>
+      <c r="C12" s="98"/>
       <c r="D12" s="2" t="s">
         <v>23</v>
       </c>
@@ -7311,27 +7311,27 @@
       <c r="T12" s="76"/>
       <c r="U12" s="76"/>
       <c r="V12" s="76"/>
-      <c r="W12" s="107"/>
+      <c r="W12" s="112"/>
       <c r="X12" s="76"/>
       <c r="Y12" s="76"/>
       <c r="Z12" s="76"/>
       <c r="AA12" s="76"/>
       <c r="AB12" s="76"/>
       <c r="AC12" s="76"/>
-      <c r="AD12" s="104"/>
+      <c r="AD12" s="109"/>
       <c r="AE12" s="76"/>
       <c r="AF12" s="76"/>
       <c r="AG12" s="76"/>
       <c r="AH12" s="76"/>
       <c r="AI12" s="76"/>
       <c r="AJ12" s="76"/>
-      <c r="AK12" s="101"/>
+      <c r="AK12" s="106"/>
       <c r="AL12" s="76"/>
     </row>
     <row r="13" spans="1:46" x14ac:dyDescent="0.4">
-      <c r="A13" s="110"/>
-      <c r="B13" s="113"/>
-      <c r="C13" s="109"/>
+      <c r="A13" s="97"/>
+      <c r="B13" s="104"/>
+      <c r="C13" s="98"/>
       <c r="D13" s="33" t="s">
         <v>45</v>
       </c>
@@ -7355,27 +7355,27 @@
       <c r="T13" s="76"/>
       <c r="U13" s="76"/>
       <c r="V13" s="76"/>
-      <c r="W13" s="107"/>
+      <c r="W13" s="112"/>
       <c r="X13" s="76"/>
       <c r="Y13" s="76"/>
       <c r="Z13" s="76"/>
       <c r="AA13" s="76"/>
       <c r="AB13" s="76"/>
       <c r="AC13" s="76"/>
-      <c r="AD13" s="104"/>
+      <c r="AD13" s="109"/>
       <c r="AE13" s="76"/>
       <c r="AF13" s="76"/>
       <c r="AG13" s="76"/>
       <c r="AH13" s="76"/>
       <c r="AI13" s="76"/>
       <c r="AJ13" s="76"/>
-      <c r="AK13" s="101"/>
+      <c r="AK13" s="106"/>
       <c r="AL13" s="76"/>
     </row>
     <row r="14" spans="1:46" x14ac:dyDescent="0.4">
-      <c r="A14" s="110"/>
-      <c r="B14" s="113"/>
-      <c r="C14" s="109"/>
+      <c r="A14" s="97"/>
+      <c r="B14" s="104"/>
+      <c r="C14" s="98"/>
       <c r="D14" s="34" t="s">
         <v>27</v>
       </c>
@@ -7399,27 +7399,27 @@
       <c r="T14" s="76"/>
       <c r="U14" s="76"/>
       <c r="V14" s="76"/>
-      <c r="W14" s="107"/>
+      <c r="W14" s="112"/>
       <c r="X14" s="76"/>
       <c r="Y14" s="76"/>
       <c r="Z14" s="76"/>
       <c r="AA14" s="76"/>
       <c r="AB14" s="76"/>
       <c r="AC14" s="76"/>
-      <c r="AD14" s="104"/>
+      <c r="AD14" s="109"/>
       <c r="AE14" s="76"/>
       <c r="AF14" s="76"/>
       <c r="AG14" s="76"/>
       <c r="AH14" s="76"/>
       <c r="AI14" s="76"/>
       <c r="AJ14" s="76"/>
-      <c r="AK14" s="101"/>
+      <c r="AK14" s="106"/>
       <c r="AL14" s="76"/>
     </row>
     <row r="15" spans="1:46" x14ac:dyDescent="0.4">
-      <c r="A15" s="110"/>
-      <c r="B15" s="113"/>
-      <c r="C15" s="109" t="s">
+      <c r="A15" s="97"/>
+      <c r="B15" s="104"/>
+      <c r="C15" s="98" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -7447,27 +7447,27 @@
       <c r="T15" s="76"/>
       <c r="U15" s="76"/>
       <c r="V15" s="76"/>
-      <c r="W15" s="107"/>
+      <c r="W15" s="112"/>
       <c r="X15" s="76"/>
       <c r="Y15" s="76"/>
       <c r="Z15" s="76"/>
       <c r="AA15" s="76"/>
       <c r="AB15" s="76"/>
       <c r="AC15" s="76"/>
-      <c r="AD15" s="104"/>
+      <c r="AD15" s="109"/>
       <c r="AE15" s="76"/>
       <c r="AF15" s="76"/>
       <c r="AG15" s="76"/>
       <c r="AH15" s="76"/>
       <c r="AI15" s="76"/>
       <c r="AJ15" s="76"/>
-      <c r="AK15" s="101"/>
+      <c r="AK15" s="106"/>
       <c r="AL15" s="76"/>
     </row>
     <row r="16" spans="1:46" x14ac:dyDescent="0.4">
-      <c r="A16" s="110"/>
-      <c r="B16" s="113"/>
-      <c r="C16" s="109"/>
+      <c r="A16" s="97"/>
+      <c r="B16" s="104"/>
+      <c r="C16" s="98"/>
       <c r="D16" s="35" t="s">
         <v>45</v>
       </c>
@@ -7491,27 +7491,27 @@
       <c r="T16" s="76"/>
       <c r="U16" s="76"/>
       <c r="V16" s="76"/>
-      <c r="W16" s="107"/>
+      <c r="W16" s="112"/>
       <c r="X16" s="76"/>
       <c r="Y16" s="76"/>
       <c r="Z16" s="76"/>
       <c r="AA16" s="76"/>
       <c r="AB16" s="76"/>
       <c r="AC16" s="76"/>
-      <c r="AD16" s="104"/>
+      <c r="AD16" s="109"/>
       <c r="AE16" s="76"/>
       <c r="AF16" s="76"/>
       <c r="AG16" s="76"/>
       <c r="AH16" s="76"/>
       <c r="AI16" s="76"/>
       <c r="AJ16" s="76"/>
-      <c r="AK16" s="101"/>
+      <c r="AK16" s="106"/>
       <c r="AL16" s="76"/>
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A17" s="110"/>
-      <c r="B17" s="113"/>
-      <c r="C17" s="109"/>
+      <c r="A17" s="97"/>
+      <c r="B17" s="104"/>
+      <c r="C17" s="98"/>
       <c r="D17" s="2" t="s">
         <v>23</v>
       </c>
@@ -7535,30 +7535,30 @@
       <c r="T17" s="76"/>
       <c r="U17" s="76"/>
       <c r="V17" s="76"/>
-      <c r="W17" s="107"/>
+      <c r="W17" s="112"/>
       <c r="X17" s="76"/>
       <c r="Y17" s="76"/>
       <c r="Z17" s="76"/>
       <c r="AA17" s="76"/>
       <c r="AB17" s="76"/>
       <c r="AC17" s="76"/>
-      <c r="AD17" s="104"/>
+      <c r="AD17" s="109"/>
       <c r="AE17" s="76"/>
       <c r="AF17" s="76"/>
       <c r="AG17" s="76"/>
       <c r="AH17" s="76"/>
       <c r="AI17" s="76"/>
       <c r="AJ17" s="76"/>
-      <c r="AK17" s="101"/>
+      <c r="AK17" s="106"/>
       <c r="AL17" s="76"/>
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A18" s="110"/>
-      <c r="B18" s="113"/>
-      <c r="C18" s="109" t="s">
+      <c r="A18" s="97"/>
+      <c r="B18" s="104"/>
+      <c r="C18" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="109" t="s">
+      <c r="D18" s="98" t="s">
         <v>95</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -7591,28 +7591,28 @@
       <c r="T18" s="76"/>
       <c r="U18" s="76"/>
       <c r="V18" s="76"/>
-      <c r="W18" s="107"/>
+      <c r="W18" s="112"/>
       <c r="X18" s="76"/>
       <c r="Y18" s="76"/>
       <c r="Z18" s="76"/>
       <c r="AA18" s="76"/>
       <c r="AB18" s="76"/>
       <c r="AC18" s="76"/>
-      <c r="AD18" s="104"/>
+      <c r="AD18" s="109"/>
       <c r="AE18" s="76"/>
       <c r="AF18" s="76"/>
       <c r="AG18" s="76"/>
       <c r="AH18" s="76"/>
       <c r="AI18" s="76"/>
       <c r="AJ18" s="76"/>
-      <c r="AK18" s="101"/>
+      <c r="AK18" s="106"/>
       <c r="AL18" s="76"/>
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A19" s="110"/>
-      <c r="B19" s="113"/>
-      <c r="C19" s="109"/>
-      <c r="D19" s="109"/>
+      <c r="A19" s="97"/>
+      <c r="B19" s="104"/>
+      <c r="C19" s="98"/>
+      <c r="D19" s="98"/>
       <c r="E19" s="2" t="s">
         <v>138</v>
       </c>
@@ -7643,28 +7643,28 @@
       <c r="T19" s="76"/>
       <c r="U19" s="76"/>
       <c r="V19" s="76"/>
-      <c r="W19" s="107"/>
+      <c r="W19" s="112"/>
       <c r="X19" s="76"/>
       <c r="Y19" s="76"/>
       <c r="Z19" s="76"/>
       <c r="AA19" s="76"/>
       <c r="AB19" s="76"/>
       <c r="AC19" s="76"/>
-      <c r="AD19" s="104"/>
+      <c r="AD19" s="109"/>
       <c r="AE19" s="76"/>
       <c r="AF19" s="76"/>
       <c r="AG19" s="76"/>
       <c r="AH19" s="76"/>
       <c r="AI19" s="76"/>
       <c r="AJ19" s="76"/>
-      <c r="AK19" s="101"/>
+      <c r="AK19" s="106"/>
       <c r="AL19" s="76"/>
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A20" s="110"/>
-      <c r="B20" s="113"/>
-      <c r="C20" s="109"/>
-      <c r="D20" s="109"/>
+      <c r="A20" s="97"/>
+      <c r="B20" s="104"/>
+      <c r="C20" s="98"/>
+      <c r="D20" s="98"/>
       <c r="E20" s="2" t="s">
         <v>112</v>
       </c>
@@ -7695,28 +7695,28 @@
       <c r="T20" s="76"/>
       <c r="U20" s="76"/>
       <c r="V20" s="76"/>
-      <c r="W20" s="107"/>
+      <c r="W20" s="112"/>
       <c r="X20" s="76"/>
       <c r="Y20" s="76"/>
       <c r="Z20" s="76"/>
       <c r="AA20" s="76"/>
       <c r="AB20" s="76"/>
       <c r="AC20" s="76"/>
-      <c r="AD20" s="104"/>
+      <c r="AD20" s="109"/>
       <c r="AE20" s="76"/>
       <c r="AF20" s="76"/>
       <c r="AG20" s="76"/>
       <c r="AH20" s="76"/>
       <c r="AI20" s="76"/>
       <c r="AJ20" s="76"/>
-      <c r="AK20" s="101"/>
+      <c r="AK20" s="106"/>
       <c r="AL20" s="76"/>
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A21" s="110"/>
-      <c r="B21" s="113"/>
-      <c r="C21" s="109"/>
-      <c r="D21" s="109"/>
+      <c r="A21" s="97"/>
+      <c r="B21" s="104"/>
+      <c r="C21" s="98"/>
+      <c r="D21" s="98"/>
       <c r="E21" s="2" t="s">
         <v>108</v>
       </c>
@@ -7747,28 +7747,28 @@
       <c r="T21" s="76"/>
       <c r="U21" s="76"/>
       <c r="V21" s="76"/>
-      <c r="W21" s="107"/>
+      <c r="W21" s="112"/>
       <c r="X21" s="76"/>
       <c r="Y21" s="76"/>
       <c r="Z21" s="76"/>
       <c r="AA21" s="76"/>
       <c r="AB21" s="76"/>
       <c r="AC21" s="76"/>
-      <c r="AD21" s="104"/>
+      <c r="AD21" s="109"/>
       <c r="AE21" s="76"/>
       <c r="AF21" s="76"/>
       <c r="AG21" s="76"/>
       <c r="AH21" s="76"/>
       <c r="AI21" s="76"/>
       <c r="AJ21" s="76"/>
-      <c r="AK21" s="101"/>
+      <c r="AK21" s="106"/>
       <c r="AL21" s="76"/>
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A22" s="110"/>
-      <c r="B22" s="113"/>
-      <c r="C22" s="109"/>
-      <c r="D22" s="109"/>
+      <c r="A22" s="97"/>
+      <c r="B22" s="104"/>
+      <c r="C22" s="98"/>
+      <c r="D22" s="98"/>
       <c r="E22" s="2" t="s">
         <v>135</v>
       </c>
@@ -7799,28 +7799,28 @@
       <c r="T22" s="76"/>
       <c r="U22" s="76"/>
       <c r="V22" s="76"/>
-      <c r="W22" s="107"/>
+      <c r="W22" s="112"/>
       <c r="X22" s="76"/>
       <c r="Y22" s="76"/>
       <c r="Z22" s="76"/>
       <c r="AA22" s="76"/>
       <c r="AB22" s="76"/>
       <c r="AC22" s="76"/>
-      <c r="AD22" s="104"/>
+      <c r="AD22" s="109"/>
       <c r="AE22" s="76"/>
       <c r="AF22" s="76"/>
       <c r="AG22" s="76"/>
       <c r="AH22" s="76"/>
       <c r="AI22" s="76"/>
       <c r="AJ22" s="76"/>
-      <c r="AK22" s="101"/>
+      <c r="AK22" s="106"/>
       <c r="AL22" s="76"/>
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A23" s="110"/>
-      <c r="B23" s="113"/>
-      <c r="C23" s="109"/>
-      <c r="D23" s="109"/>
+      <c r="A23" s="97"/>
+      <c r="B23" s="104"/>
+      <c r="C23" s="98"/>
+      <c r="D23" s="98"/>
       <c r="E23" s="2" t="s">
         <v>118</v>
       </c>
@@ -7851,28 +7851,28 @@
       <c r="T23" s="76"/>
       <c r="U23" s="76"/>
       <c r="V23" s="76"/>
-      <c r="W23" s="107"/>
+      <c r="W23" s="112"/>
       <c r="X23" s="76"/>
       <c r="Y23" s="76"/>
       <c r="Z23" s="76"/>
       <c r="AA23" s="76"/>
       <c r="AB23" s="76"/>
       <c r="AC23" s="76"/>
-      <c r="AD23" s="104"/>
+      <c r="AD23" s="109"/>
       <c r="AE23" s="76"/>
       <c r="AF23" s="76"/>
       <c r="AG23" s="76"/>
       <c r="AH23" s="76"/>
       <c r="AI23" s="76"/>
       <c r="AJ23" s="76"/>
-      <c r="AK23" s="101"/>
+      <c r="AK23" s="106"/>
       <c r="AL23" s="76"/>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A24" s="110"/>
-      <c r="B24" s="113"/>
-      <c r="C24" s="109"/>
-      <c r="D24" s="109"/>
+      <c r="A24" s="97"/>
+      <c r="B24" s="104"/>
+      <c r="C24" s="98"/>
+      <c r="D24" s="98"/>
       <c r="E24" s="2" t="s">
         <v>109</v>
       </c>
@@ -7903,28 +7903,28 @@
       <c r="T24" s="76"/>
       <c r="U24" s="76"/>
       <c r="V24" s="76"/>
-      <c r="W24" s="107"/>
+      <c r="W24" s="112"/>
       <c r="X24" s="76"/>
       <c r="Y24" s="76"/>
       <c r="Z24" s="76"/>
       <c r="AA24" s="76"/>
       <c r="AB24" s="76"/>
       <c r="AC24" s="76"/>
-      <c r="AD24" s="104"/>
+      <c r="AD24" s="109"/>
       <c r="AE24" s="76"/>
       <c r="AF24" s="76"/>
       <c r="AG24" s="76"/>
       <c r="AH24" s="76"/>
       <c r="AI24" s="76"/>
       <c r="AJ24" s="76"/>
-      <c r="AK24" s="101"/>
+      <c r="AK24" s="106"/>
       <c r="AL24" s="76"/>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A25" s="110"/>
-      <c r="B25" s="113"/>
-      <c r="C25" s="109"/>
-      <c r="D25" s="109"/>
+      <c r="A25" s="97"/>
+      <c r="B25" s="104"/>
+      <c r="C25" s="98"/>
+      <c r="D25" s="98"/>
       <c r="E25" s="2" t="s">
         <v>167</v>
       </c>
@@ -7955,28 +7955,28 @@
       <c r="T25" s="76"/>
       <c r="U25" s="76"/>
       <c r="V25" s="76"/>
-      <c r="W25" s="107"/>
+      <c r="W25" s="112"/>
       <c r="X25" s="76"/>
       <c r="Y25" s="76"/>
       <c r="Z25" s="76"/>
       <c r="AA25" s="76"/>
       <c r="AB25" s="76"/>
       <c r="AC25" s="76"/>
-      <c r="AD25" s="104"/>
+      <c r="AD25" s="109"/>
       <c r="AE25" s="76"/>
       <c r="AF25" s="76"/>
       <c r="AG25" s="76"/>
       <c r="AH25" s="76"/>
       <c r="AI25" s="76"/>
       <c r="AJ25" s="76"/>
-      <c r="AK25" s="101"/>
+      <c r="AK25" s="106"/>
       <c r="AL25" s="76"/>
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A26" s="110"/>
-      <c r="B26" s="113"/>
-      <c r="C26" s="109"/>
-      <c r="D26" s="109"/>
+      <c r="A26" s="97"/>
+      <c r="B26" s="104"/>
+      <c r="C26" s="98"/>
+      <c r="D26" s="98"/>
       <c r="E26" s="2" t="s">
         <v>106</v>
       </c>
@@ -8007,28 +8007,28 @@
       <c r="T26" s="76"/>
       <c r="U26" s="76"/>
       <c r="V26" s="76"/>
-      <c r="W26" s="107"/>
+      <c r="W26" s="112"/>
       <c r="X26" s="76"/>
       <c r="Y26" s="76"/>
       <c r="Z26" s="76"/>
       <c r="AA26" s="76"/>
       <c r="AB26" s="76"/>
       <c r="AC26" s="76"/>
-      <c r="AD26" s="104"/>
+      <c r="AD26" s="109"/>
       <c r="AE26" s="76"/>
       <c r="AF26" s="76"/>
       <c r="AG26" s="76"/>
       <c r="AH26" s="76"/>
       <c r="AI26" s="76"/>
       <c r="AJ26" s="76"/>
-      <c r="AK26" s="101"/>
+      <c r="AK26" s="106"/>
       <c r="AL26" s="76"/>
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A27" s="110"/>
-      <c r="B27" s="113"/>
-      <c r="C27" s="109"/>
-      <c r="D27" s="109"/>
+      <c r="A27" s="97"/>
+      <c r="B27" s="104"/>
+      <c r="C27" s="98"/>
+      <c r="D27" s="98"/>
       <c r="E27" s="2" t="s">
         <v>102</v>
       </c>
@@ -8059,28 +8059,28 @@
       <c r="T27" s="76"/>
       <c r="U27" s="76"/>
       <c r="V27" s="76"/>
-      <c r="W27" s="107"/>
+      <c r="W27" s="112"/>
       <c r="X27" s="76"/>
       <c r="Y27" s="76"/>
       <c r="Z27" s="76"/>
       <c r="AA27" s="76"/>
       <c r="AB27" s="76"/>
       <c r="AC27" s="76"/>
-      <c r="AD27" s="104"/>
+      <c r="AD27" s="109"/>
       <c r="AE27" s="76"/>
       <c r="AF27" s="76"/>
       <c r="AG27" s="76"/>
       <c r="AH27" s="76"/>
       <c r="AI27" s="76"/>
       <c r="AJ27" s="76"/>
-      <c r="AK27" s="101"/>
+      <c r="AK27" s="106"/>
       <c r="AL27" s="76"/>
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A28" s="110"/>
-      <c r="B28" s="113"/>
-      <c r="C28" s="109"/>
-      <c r="D28" s="109" t="s">
+      <c r="A28" s="97"/>
+      <c r="B28" s="104"/>
+      <c r="C28" s="98"/>
+      <c r="D28" s="98" t="s">
         <v>25</v>
       </c>
       <c r="E28" s="2" t="s">
@@ -8113,28 +8113,28 @@
       <c r="T28" s="76"/>
       <c r="U28" s="76"/>
       <c r="V28" s="76"/>
-      <c r="W28" s="107"/>
+      <c r="W28" s="112"/>
       <c r="X28" s="76"/>
       <c r="Y28" s="76"/>
       <c r="Z28" s="76"/>
       <c r="AA28" s="76"/>
       <c r="AB28" s="76"/>
       <c r="AC28" s="76"/>
-      <c r="AD28" s="104"/>
+      <c r="AD28" s="109"/>
       <c r="AE28" s="76"/>
       <c r="AF28" s="76"/>
       <c r="AG28" s="76"/>
       <c r="AH28" s="76"/>
       <c r="AI28" s="76"/>
       <c r="AJ28" s="76"/>
-      <c r="AK28" s="101"/>
+      <c r="AK28" s="106"/>
       <c r="AL28" s="76"/>
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A29" s="110"/>
-      <c r="B29" s="113"/>
-      <c r="C29" s="109"/>
-      <c r="D29" s="109"/>
+      <c r="A29" s="97"/>
+      <c r="B29" s="104"/>
+      <c r="C29" s="98"/>
+      <c r="D29" s="98"/>
       <c r="E29" s="2" t="s">
         <v>119</v>
       </c>
@@ -8165,28 +8165,28 @@
       <c r="T29" s="76"/>
       <c r="U29" s="76"/>
       <c r="V29" s="76"/>
-      <c r="W29" s="107"/>
+      <c r="W29" s="112"/>
       <c r="X29" s="76"/>
       <c r="Y29" s="76"/>
       <c r="Z29" s="76"/>
       <c r="AA29" s="76"/>
       <c r="AB29" s="76"/>
       <c r="AC29" s="76"/>
-      <c r="AD29" s="104"/>
+      <c r="AD29" s="109"/>
       <c r="AE29" s="76"/>
       <c r="AF29" s="76"/>
       <c r="AG29" s="76"/>
       <c r="AH29" s="76"/>
       <c r="AI29" s="76"/>
       <c r="AJ29" s="76"/>
-      <c r="AK29" s="101"/>
+      <c r="AK29" s="106"/>
       <c r="AL29" s="76"/>
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A30" s="110"/>
-      <c r="B30" s="113"/>
-      <c r="C30" s="109"/>
-      <c r="D30" s="109" t="s">
+      <c r="A30" s="97"/>
+      <c r="B30" s="104"/>
+      <c r="C30" s="98"/>
+      <c r="D30" s="98" t="s">
         <v>13</v>
       </c>
       <c r="E30" s="2" t="s">
@@ -8217,28 +8217,28 @@
       <c r="T30" s="76"/>
       <c r="U30" s="76"/>
       <c r="V30" s="76"/>
-      <c r="W30" s="107"/>
+      <c r="W30" s="112"/>
       <c r="X30" s="76"/>
       <c r="Y30" s="76"/>
       <c r="Z30" s="76"/>
       <c r="AA30" s="76"/>
       <c r="AB30" s="76"/>
       <c r="AC30" s="76"/>
-      <c r="AD30" s="104"/>
+      <c r="AD30" s="109"/>
       <c r="AE30" s="76"/>
       <c r="AF30" s="76"/>
       <c r="AG30" s="76"/>
       <c r="AH30" s="76"/>
       <c r="AI30" s="76"/>
       <c r="AJ30" s="76"/>
-      <c r="AK30" s="101"/>
+      <c r="AK30" s="106"/>
       <c r="AL30" s="76"/>
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A31" s="110"/>
-      <c r="B31" s="113"/>
-      <c r="C31" s="109"/>
-      <c r="D31" s="109"/>
+      <c r="A31" s="97"/>
+      <c r="B31" s="104"/>
+      <c r="C31" s="98"/>
+      <c r="D31" s="98"/>
       <c r="E31" s="2" t="s">
         <v>143</v>
       </c>
@@ -8263,28 +8263,28 @@
       <c r="T31" s="76"/>
       <c r="U31" s="76"/>
       <c r="V31" s="76"/>
-      <c r="W31" s="107"/>
+      <c r="W31" s="112"/>
       <c r="X31" s="76"/>
       <c r="Y31" s="76"/>
       <c r="Z31" s="76"/>
       <c r="AA31" s="76"/>
       <c r="AB31" s="76"/>
       <c r="AC31" s="76"/>
-      <c r="AD31" s="104"/>
+      <c r="AD31" s="109"/>
       <c r="AE31" s="76"/>
       <c r="AF31" s="76"/>
       <c r="AG31" s="76"/>
       <c r="AH31" s="76"/>
       <c r="AI31" s="76"/>
       <c r="AJ31" s="76"/>
-      <c r="AK31" s="101"/>
+      <c r="AK31" s="106"/>
       <c r="AL31" s="76"/>
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A32" s="110"/>
-      <c r="B32" s="113"/>
-      <c r="C32" s="109"/>
-      <c r="D32" s="109"/>
+      <c r="A32" s="97"/>
+      <c r="B32" s="104"/>
+      <c r="C32" s="98"/>
+      <c r="D32" s="98"/>
       <c r="E32" s="2" t="s">
         <v>113</v>
       </c>
@@ -8315,28 +8315,28 @@
       <c r="T32" s="76"/>
       <c r="U32" s="76"/>
       <c r="V32" s="76"/>
-      <c r="W32" s="107"/>
+      <c r="W32" s="112"/>
       <c r="X32" s="76"/>
       <c r="Y32" s="76"/>
       <c r="Z32" s="76"/>
       <c r="AA32" s="76"/>
       <c r="AB32" s="76"/>
       <c r="AC32" s="76"/>
-      <c r="AD32" s="104"/>
+      <c r="AD32" s="109"/>
       <c r="AE32" s="76"/>
       <c r="AF32" s="76"/>
       <c r="AG32" s="76"/>
       <c r="AH32" s="76"/>
       <c r="AI32" s="76"/>
       <c r="AJ32" s="76"/>
-      <c r="AK32" s="101"/>
+      <c r="AK32" s="106"/>
       <c r="AL32" s="76"/>
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A33" s="110"/>
-      <c r="B33" s="113"/>
-      <c r="C33" s="109"/>
-      <c r="D33" s="97" t="s">
+      <c r="A33" s="97"/>
+      <c r="B33" s="104"/>
+      <c r="C33" s="98"/>
+      <c r="D33" s="101" t="s">
         <v>90</v>
       </c>
       <c r="E33" s="2" t="s">
@@ -8369,28 +8369,28 @@
       <c r="T33" s="76"/>
       <c r="U33" s="76"/>
       <c r="V33" s="76"/>
-      <c r="W33" s="107"/>
+      <c r="W33" s="112"/>
       <c r="X33" s="76"/>
       <c r="Y33" s="76"/>
       <c r="Z33" s="76"/>
       <c r="AA33" s="76"/>
       <c r="AB33" s="76"/>
       <c r="AC33" s="76"/>
-      <c r="AD33" s="104"/>
+      <c r="AD33" s="109"/>
       <c r="AE33" s="76"/>
       <c r="AF33" s="76"/>
       <c r="AG33" s="76"/>
       <c r="AH33" s="76"/>
       <c r="AI33" s="76"/>
       <c r="AJ33" s="76"/>
-      <c r="AK33" s="101"/>
+      <c r="AK33" s="106"/>
       <c r="AL33" s="76"/>
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A34" s="110"/>
-      <c r="B34" s="113"/>
-      <c r="C34" s="109"/>
-      <c r="D34" s="98"/>
+      <c r="A34" s="97"/>
+      <c r="B34" s="104"/>
+      <c r="C34" s="98"/>
+      <c r="D34" s="102"/>
       <c r="E34" s="2" t="s">
         <v>141</v>
       </c>
@@ -8421,28 +8421,28 @@
       <c r="T34" s="76"/>
       <c r="U34" s="76"/>
       <c r="V34" s="76"/>
-      <c r="W34" s="107"/>
+      <c r="W34" s="112"/>
       <c r="X34" s="76"/>
       <c r="Y34" s="76"/>
       <c r="Z34" s="76"/>
       <c r="AA34" s="76"/>
       <c r="AB34" s="76"/>
       <c r="AC34" s="76"/>
-      <c r="AD34" s="104"/>
+      <c r="AD34" s="109"/>
       <c r="AE34" s="76"/>
       <c r="AF34" s="76"/>
       <c r="AG34" s="76"/>
       <c r="AH34" s="76"/>
       <c r="AI34" s="76"/>
       <c r="AJ34" s="76"/>
-      <c r="AK34" s="101"/>
+      <c r="AK34" s="106"/>
       <c r="AL34" s="76"/>
     </row>
     <row r="35" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A35" s="110"/>
-      <c r="B35" s="113"/>
-      <c r="C35" s="109"/>
-      <c r="D35" s="98"/>
+      <c r="A35" s="97"/>
+      <c r="B35" s="104"/>
+      <c r="C35" s="98"/>
+      <c r="D35" s="102"/>
       <c r="E35" s="2" t="s">
         <v>103</v>
       </c>
@@ -8473,28 +8473,28 @@
       <c r="T35" s="76"/>
       <c r="U35" s="76"/>
       <c r="V35" s="76"/>
-      <c r="W35" s="107"/>
+      <c r="W35" s="112"/>
       <c r="X35" s="76"/>
       <c r="Y35" s="76"/>
       <c r="Z35" s="76"/>
       <c r="AA35" s="76"/>
       <c r="AB35" s="76"/>
       <c r="AC35" s="76"/>
-      <c r="AD35" s="104"/>
+      <c r="AD35" s="109"/>
       <c r="AE35" s="76"/>
       <c r="AF35" s="76"/>
       <c r="AG35" s="76"/>
       <c r="AH35" s="76"/>
       <c r="AI35" s="76"/>
       <c r="AJ35" s="76"/>
-      <c r="AK35" s="101"/>
+      <c r="AK35" s="106"/>
       <c r="AL35" s="76"/>
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A36" s="110"/>
-      <c r="B36" s="113"/>
-      <c r="C36" s="109"/>
-      <c r="D36" s="98"/>
+      <c r="A36" s="97"/>
+      <c r="B36" s="104"/>
+      <c r="C36" s="98"/>
+      <c r="D36" s="102"/>
       <c r="E36" s="2" t="s">
         <v>224</v>
       </c>
@@ -8517,28 +8517,28 @@
       <c r="T36" s="76"/>
       <c r="U36" s="76"/>
       <c r="V36" s="76"/>
-      <c r="W36" s="107"/>
+      <c r="W36" s="112"/>
       <c r="X36" s="76"/>
       <c r="Y36" s="76"/>
       <c r="Z36" s="76"/>
       <c r="AA36" s="76"/>
       <c r="AB36" s="76"/>
       <c r="AC36" s="76"/>
-      <c r="AD36" s="104"/>
+      <c r="AD36" s="109"/>
       <c r="AE36" s="76"/>
       <c r="AF36" s="76"/>
       <c r="AG36" s="76"/>
       <c r="AH36" s="76"/>
       <c r="AI36" s="76"/>
       <c r="AJ36" s="76"/>
-      <c r="AK36" s="101"/>
+      <c r="AK36" s="106"/>
       <c r="AL36" s="76"/>
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A37" s="110"/>
-      <c r="B37" s="113"/>
-      <c r="C37" s="109"/>
-      <c r="D37" s="98"/>
+      <c r="A37" s="97"/>
+      <c r="B37" s="104"/>
+      <c r="C37" s="98"/>
+      <c r="D37" s="102"/>
       <c r="E37" s="2" t="s">
         <v>251</v>
       </c>
@@ -8561,28 +8561,28 @@
       <c r="T37" s="76"/>
       <c r="U37" s="76"/>
       <c r="V37" s="76"/>
-      <c r="W37" s="107"/>
+      <c r="W37" s="112"/>
       <c r="X37" s="76"/>
       <c r="Y37" s="76"/>
       <c r="Z37" s="76"/>
       <c r="AA37" s="76"/>
       <c r="AB37" s="76"/>
       <c r="AC37" s="76"/>
-      <c r="AD37" s="104"/>
+      <c r="AD37" s="109"/>
       <c r="AE37" s="76"/>
       <c r="AF37" s="76"/>
       <c r="AG37" s="76"/>
       <c r="AH37" s="76"/>
       <c r="AI37" s="76"/>
       <c r="AJ37" s="76"/>
-      <c r="AK37" s="101"/>
+      <c r="AK37" s="106"/>
       <c r="AL37" s="76"/>
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A38" s="110"/>
-      <c r="B38" s="113"/>
-      <c r="C38" s="109"/>
-      <c r="D38" s="99"/>
+      <c r="A38" s="97"/>
+      <c r="B38" s="104"/>
+      <c r="C38" s="98"/>
+      <c r="D38" s="103"/>
       <c r="E38" s="2" t="s">
         <v>253</v>
       </c>
@@ -8605,27 +8605,27 @@
       <c r="T38" s="76"/>
       <c r="U38" s="76"/>
       <c r="V38" s="76"/>
-      <c r="W38" s="107"/>
+      <c r="W38" s="112"/>
       <c r="X38" s="76"/>
       <c r="Y38" s="76"/>
       <c r="Z38" s="76"/>
       <c r="AA38" s="76"/>
       <c r="AB38" s="76"/>
       <c r="AC38" s="76"/>
-      <c r="AD38" s="104"/>
+      <c r="AD38" s="109"/>
       <c r="AE38" s="76"/>
       <c r="AF38" s="76"/>
       <c r="AG38" s="76"/>
       <c r="AH38" s="76"/>
       <c r="AI38" s="76"/>
       <c r="AJ38" s="76"/>
-      <c r="AK38" s="101"/>
+      <c r="AK38" s="106"/>
       <c r="AL38" s="76"/>
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A39" s="110"/>
-      <c r="B39" s="113"/>
-      <c r="C39" s="109"/>
+      <c r="A39" s="97"/>
+      <c r="B39" s="104"/>
+      <c r="C39" s="98"/>
       <c r="D39" s="2" t="s">
         <v>24</v>
       </c>
@@ -8653,27 +8653,27 @@
       <c r="T39" s="76"/>
       <c r="U39" s="76"/>
       <c r="V39" s="76"/>
-      <c r="W39" s="107"/>
+      <c r="W39" s="112"/>
       <c r="X39" s="76"/>
       <c r="Y39" s="76"/>
       <c r="Z39" s="76"/>
       <c r="AA39" s="76"/>
       <c r="AB39" s="76"/>
       <c r="AC39" s="76"/>
-      <c r="AD39" s="104"/>
+      <c r="AD39" s="109"/>
       <c r="AE39" s="76"/>
       <c r="AF39" s="76"/>
       <c r="AG39" s="76"/>
       <c r="AH39" s="76"/>
       <c r="AI39" s="76"/>
       <c r="AJ39" s="76"/>
-      <c r="AK39" s="101"/>
+      <c r="AK39" s="106"/>
       <c r="AL39" s="76"/>
     </row>
     <row r="40" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A40" s="110"/>
-      <c r="B40" s="113"/>
-      <c r="C40" s="109"/>
+      <c r="A40" s="97"/>
+      <c r="B40" s="104"/>
+      <c r="C40" s="98"/>
       <c r="D40" s="2" t="s">
         <v>144</v>
       </c>
@@ -8707,27 +8707,27 @@
       <c r="T40" s="76"/>
       <c r="U40" s="76"/>
       <c r="V40" s="76"/>
-      <c r="W40" s="107"/>
+      <c r="W40" s="112"/>
       <c r="X40" s="76"/>
       <c r="Y40" s="76"/>
       <c r="Z40" s="76"/>
       <c r="AA40" s="76"/>
       <c r="AB40" s="76"/>
       <c r="AC40" s="76"/>
-      <c r="AD40" s="104"/>
+      <c r="AD40" s="109"/>
       <c r="AE40" s="76"/>
       <c r="AF40" s="76"/>
       <c r="AG40" s="76"/>
       <c r="AH40" s="76"/>
       <c r="AI40" s="76"/>
       <c r="AJ40" s="76"/>
-      <c r="AK40" s="101"/>
+      <c r="AK40" s="106"/>
       <c r="AL40" s="76"/>
     </row>
     <row r="41" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A41" s="110"/>
-      <c r="B41" s="113"/>
-      <c r="C41" s="109"/>
+      <c r="A41" s="97"/>
+      <c r="B41" s="104"/>
+      <c r="C41" s="98"/>
       <c r="D41" s="2" t="s">
         <v>94</v>
       </c>
@@ -8751,27 +8751,27 @@
       <c r="T41" s="76"/>
       <c r="U41" s="76"/>
       <c r="V41" s="76"/>
-      <c r="W41" s="107"/>
+      <c r="W41" s="112"/>
       <c r="X41" s="76"/>
       <c r="Y41" s="76"/>
       <c r="Z41" s="76"/>
       <c r="AA41" s="76"/>
       <c r="AB41" s="76"/>
       <c r="AC41" s="76"/>
-      <c r="AD41" s="104"/>
+      <c r="AD41" s="109"/>
       <c r="AE41" s="76"/>
       <c r="AF41" s="76"/>
       <c r="AG41" s="76"/>
       <c r="AH41" s="76"/>
       <c r="AI41" s="76"/>
       <c r="AJ41" s="76"/>
-      <c r="AK41" s="101"/>
+      <c r="AK41" s="106"/>
       <c r="AL41" s="76"/>
     </row>
     <row r="42" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A42" s="110"/>
-      <c r="B42" s="113"/>
-      <c r="C42" s="109"/>
+      <c r="A42" s="97"/>
+      <c r="B42" s="104"/>
+      <c r="C42" s="98"/>
       <c r="D42" s="2" t="s">
         <v>23</v>
       </c>
@@ -8795,27 +8795,27 @@
       <c r="T42" s="76"/>
       <c r="U42" s="76"/>
       <c r="V42" s="76"/>
-      <c r="W42" s="107"/>
+      <c r="W42" s="112"/>
       <c r="X42" s="76"/>
       <c r="Y42" s="76"/>
       <c r="Z42" s="76"/>
       <c r="AA42" s="76"/>
       <c r="AB42" s="76"/>
       <c r="AC42" s="76"/>
-      <c r="AD42" s="104"/>
+      <c r="AD42" s="109"/>
       <c r="AE42" s="76"/>
       <c r="AF42" s="76"/>
       <c r="AG42" s="76"/>
       <c r="AH42" s="76"/>
       <c r="AI42" s="76"/>
       <c r="AJ42" s="76"/>
-      <c r="AK42" s="101"/>
+      <c r="AK42" s="106"/>
       <c r="AL42" s="76"/>
     </row>
     <row r="43" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A43" s="110"/>
-      <c r="B43" s="113"/>
-      <c r="C43" s="109"/>
+      <c r="A43" s="97"/>
+      <c r="B43" s="104"/>
+      <c r="C43" s="98"/>
       <c r="D43" s="34" t="s">
         <v>27</v>
       </c>
@@ -8839,27 +8839,27 @@
       <c r="T43" s="76"/>
       <c r="U43" s="76"/>
       <c r="V43" s="76"/>
-      <c r="W43" s="107"/>
+      <c r="W43" s="112"/>
       <c r="X43" s="76"/>
       <c r="Y43" s="76"/>
       <c r="Z43" s="76"/>
       <c r="AA43" s="76"/>
       <c r="AB43" s="76"/>
       <c r="AC43" s="76"/>
-      <c r="AD43" s="104"/>
+      <c r="AD43" s="109"/>
       <c r="AE43" s="76"/>
       <c r="AF43" s="76"/>
       <c r="AG43" s="76"/>
       <c r="AH43" s="76"/>
       <c r="AI43" s="76"/>
       <c r="AJ43" s="76"/>
-      <c r="AK43" s="101"/>
+      <c r="AK43" s="106"/>
       <c r="AL43" s="76"/>
     </row>
     <row r="44" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A44" s="110"/>
-      <c r="B44" s="113"/>
-      <c r="C44" s="109"/>
+      <c r="A44" s="97"/>
+      <c r="B44" s="104"/>
+      <c r="C44" s="98"/>
       <c r="D44" s="33" t="s">
         <v>45</v>
       </c>
@@ -8883,27 +8883,27 @@
       <c r="T44" s="76"/>
       <c r="U44" s="76"/>
       <c r="V44" s="76"/>
-      <c r="W44" s="107"/>
+      <c r="W44" s="112"/>
       <c r="X44" s="76"/>
       <c r="Y44" s="76"/>
       <c r="Z44" s="76"/>
       <c r="AA44" s="76"/>
       <c r="AB44" s="76"/>
       <c r="AC44" s="76"/>
-      <c r="AD44" s="104"/>
+      <c r="AD44" s="109"/>
       <c r="AE44" s="76"/>
       <c r="AF44" s="76"/>
       <c r="AG44" s="76"/>
       <c r="AH44" s="76"/>
       <c r="AI44" s="76"/>
       <c r="AJ44" s="76"/>
-      <c r="AK44" s="101"/>
+      <c r="AK44" s="106"/>
       <c r="AL44" s="76"/>
     </row>
     <row r="45" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A45" s="110"/>
-      <c r="B45" s="113"/>
-      <c r="C45" s="109"/>
+      <c r="A45" s="97"/>
+      <c r="B45" s="104"/>
+      <c r="C45" s="98"/>
       <c r="D45" s="2" t="s">
         <v>26</v>
       </c>
@@ -8927,27 +8927,27 @@
       <c r="T45" s="76"/>
       <c r="U45" s="76"/>
       <c r="V45" s="76"/>
-      <c r="W45" s="107"/>
+      <c r="W45" s="112"/>
       <c r="X45" s="76"/>
       <c r="Y45" s="76"/>
       <c r="Z45" s="76"/>
       <c r="AA45" s="76"/>
       <c r="AB45" s="76"/>
       <c r="AC45" s="76"/>
-      <c r="AD45" s="104"/>
+      <c r="AD45" s="109"/>
       <c r="AE45" s="76"/>
       <c r="AF45" s="76"/>
       <c r="AG45" s="76"/>
       <c r="AH45" s="76"/>
       <c r="AI45" s="76"/>
       <c r="AJ45" s="76"/>
-      <c r="AK45" s="101"/>
+      <c r="AK45" s="106"/>
       <c r="AL45" s="76"/>
     </row>
     <row r="46" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A46" s="110"/>
-      <c r="B46" s="113"/>
-      <c r="C46" s="109" t="s">
+      <c r="A46" s="97"/>
+      <c r="B46" s="104"/>
+      <c r="C46" s="98" t="s">
         <v>42</v>
       </c>
       <c r="D46" s="35" t="s">
@@ -8973,27 +8973,27 @@
       <c r="T46" s="76"/>
       <c r="U46" s="76"/>
       <c r="V46" s="76"/>
-      <c r="W46" s="107"/>
+      <c r="W46" s="112"/>
       <c r="X46" s="76"/>
       <c r="Y46" s="76"/>
       <c r="Z46" s="76"/>
       <c r="AA46" s="76"/>
       <c r="AB46" s="76"/>
       <c r="AC46" s="76"/>
-      <c r="AD46" s="104"/>
+      <c r="AD46" s="109"/>
       <c r="AE46" s="76"/>
       <c r="AF46" s="76"/>
       <c r="AG46" s="76"/>
       <c r="AH46" s="76"/>
       <c r="AI46" s="76"/>
       <c r="AJ46" s="76"/>
-      <c r="AK46" s="101"/>
+      <c r="AK46" s="106"/>
       <c r="AL46" s="76"/>
     </row>
     <row r="47" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A47" s="110"/>
-      <c r="B47" s="113"/>
-      <c r="C47" s="109"/>
+      <c r="A47" s="97"/>
+      <c r="B47" s="104"/>
+      <c r="C47" s="98"/>
       <c r="D47" s="2" t="s">
         <v>26</v>
       </c>
@@ -9017,27 +9017,27 @@
       <c r="T47" s="76"/>
       <c r="U47" s="76"/>
       <c r="V47" s="76"/>
-      <c r="W47" s="107"/>
+      <c r="W47" s="112"/>
       <c r="X47" s="76"/>
       <c r="Y47" s="76"/>
       <c r="Z47" s="76"/>
       <c r="AA47" s="76"/>
       <c r="AB47" s="76"/>
       <c r="AC47" s="76"/>
-      <c r="AD47" s="104"/>
+      <c r="AD47" s="109"/>
       <c r="AE47" s="76"/>
       <c r="AF47" s="76"/>
       <c r="AG47" s="76"/>
       <c r="AH47" s="76"/>
       <c r="AI47" s="76"/>
       <c r="AJ47" s="76"/>
-      <c r="AK47" s="101"/>
+      <c r="AK47" s="106"/>
       <c r="AL47" s="76"/>
     </row>
     <row r="48" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A48" s="110"/>
-      <c r="B48" s="113"/>
-      <c r="C48" s="109" t="s">
+      <c r="A48" s="97"/>
+      <c r="B48" s="104"/>
+      <c r="C48" s="98" t="s">
         <v>43</v>
       </c>
       <c r="D48" s="33" t="s">
@@ -9063,27 +9063,27 @@
       <c r="T48" s="76"/>
       <c r="U48" s="76"/>
       <c r="V48" s="76"/>
-      <c r="W48" s="107"/>
+      <c r="W48" s="112"/>
       <c r="X48" s="76"/>
       <c r="Y48" s="76"/>
       <c r="Z48" s="76"/>
       <c r="AA48" s="76"/>
       <c r="AB48" s="76"/>
       <c r="AC48" s="76"/>
-      <c r="AD48" s="104"/>
+      <c r="AD48" s="109"/>
       <c r="AE48" s="76"/>
       <c r="AF48" s="76"/>
       <c r="AG48" s="76"/>
       <c r="AH48" s="76"/>
       <c r="AI48" s="76"/>
       <c r="AJ48" s="76"/>
-      <c r="AK48" s="101"/>
+      <c r="AK48" s="106"/>
       <c r="AL48" s="76"/>
     </row>
     <row r="49" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A49" s="110"/>
-      <c r="B49" s="113"/>
-      <c r="C49" s="109"/>
+      <c r="A49" s="97"/>
+      <c r="B49" s="104"/>
+      <c r="C49" s="98"/>
       <c r="D49" s="2" t="s">
         <v>26</v>
       </c>
@@ -9107,27 +9107,27 @@
       <c r="T49" s="76"/>
       <c r="U49" s="76"/>
       <c r="V49" s="76"/>
-      <c r="W49" s="107"/>
+      <c r="W49" s="112"/>
       <c r="X49" s="76"/>
       <c r="Y49" s="76"/>
       <c r="Z49" s="76"/>
       <c r="AA49" s="76"/>
       <c r="AB49" s="76"/>
       <c r="AC49" s="76"/>
-      <c r="AD49" s="104"/>
+      <c r="AD49" s="109"/>
       <c r="AE49" s="76"/>
       <c r="AF49" s="76"/>
       <c r="AG49" s="76"/>
       <c r="AH49" s="76"/>
       <c r="AI49" s="76"/>
       <c r="AJ49" s="76"/>
-      <c r="AK49" s="101"/>
+      <c r="AK49" s="106"/>
       <c r="AL49" s="76"/>
     </row>
     <row r="50" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A50" s="110"/>
-      <c r="B50" s="113"/>
-      <c r="C50" s="109"/>
+      <c r="A50" s="97"/>
+      <c r="B50" s="104"/>
+      <c r="C50" s="98"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="19"/>
@@ -9149,27 +9149,27 @@
       <c r="T50" s="76"/>
       <c r="U50" s="76"/>
       <c r="V50" s="76"/>
-      <c r="W50" s="107"/>
+      <c r="W50" s="112"/>
       <c r="X50" s="76"/>
       <c r="Y50" s="76"/>
       <c r="Z50" s="76"/>
       <c r="AA50" s="76"/>
       <c r="AB50" s="76"/>
       <c r="AC50" s="76"/>
-      <c r="AD50" s="104"/>
+      <c r="AD50" s="109"/>
       <c r="AE50" s="76"/>
       <c r="AF50" s="76"/>
       <c r="AG50" s="76"/>
       <c r="AH50" s="76"/>
       <c r="AI50" s="76"/>
       <c r="AJ50" s="76"/>
-      <c r="AK50" s="101"/>
+      <c r="AK50" s="106"/>
       <c r="AL50" s="76"/>
     </row>
     <row r="51" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A51" s="110"/>
-      <c r="B51" s="113"/>
-      <c r="C51" s="109" t="s">
+      <c r="A51" s="97"/>
+      <c r="B51" s="104"/>
+      <c r="C51" s="98" t="s">
         <v>17</v>
       </c>
       <c r="D51" s="2" t="s">
@@ -9195,27 +9195,27 @@
       <c r="T51" s="76"/>
       <c r="U51" s="76"/>
       <c r="V51" s="76"/>
-      <c r="W51" s="107"/>
+      <c r="W51" s="112"/>
       <c r="X51" s="76"/>
       <c r="Y51" s="76"/>
       <c r="Z51" s="76"/>
       <c r="AA51" s="76"/>
       <c r="AB51" s="76"/>
       <c r="AC51" s="76"/>
-      <c r="AD51" s="104"/>
+      <c r="AD51" s="109"/>
       <c r="AE51" s="76"/>
       <c r="AF51" s="76"/>
       <c r="AG51" s="76"/>
       <c r="AH51" s="76"/>
       <c r="AI51" s="76"/>
       <c r="AJ51" s="76"/>
-      <c r="AK51" s="101"/>
+      <c r="AK51" s="106"/>
       <c r="AL51" s="76"/>
     </row>
     <row r="52" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A52" s="110"/>
-      <c r="B52" s="113"/>
-      <c r="C52" s="109"/>
+      <c r="A52" s="97"/>
+      <c r="B52" s="104"/>
+      <c r="C52" s="98"/>
       <c r="D52" s="2" t="s">
         <v>36</v>
       </c>
@@ -9239,27 +9239,27 @@
       <c r="T52" s="76"/>
       <c r="U52" s="76"/>
       <c r="V52" s="76"/>
-      <c r="W52" s="107"/>
+      <c r="W52" s="112"/>
       <c r="X52" s="76"/>
       <c r="Y52" s="76"/>
       <c r="Z52" s="76"/>
       <c r="AA52" s="76"/>
       <c r="AB52" s="76"/>
       <c r="AC52" s="76"/>
-      <c r="AD52" s="104"/>
+      <c r="AD52" s="109"/>
       <c r="AE52" s="76"/>
       <c r="AF52" s="76"/>
       <c r="AG52" s="76"/>
       <c r="AH52" s="76"/>
       <c r="AI52" s="76"/>
       <c r="AJ52" s="76"/>
-      <c r="AK52" s="101"/>
+      <c r="AK52" s="106"/>
       <c r="AL52" s="76"/>
     </row>
     <row r="53" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A53" s="110"/>
-      <c r="B53" s="113"/>
-      <c r="C53" s="109"/>
+      <c r="A53" s="97"/>
+      <c r="B53" s="104"/>
+      <c r="C53" s="98"/>
       <c r="D53" s="2" t="s">
         <v>37</v>
       </c>
@@ -9283,27 +9283,27 @@
       <c r="T53" s="76"/>
       <c r="U53" s="76"/>
       <c r="V53" s="76"/>
-      <c r="W53" s="107"/>
+      <c r="W53" s="112"/>
       <c r="X53" s="76"/>
       <c r="Y53" s="76"/>
       <c r="Z53" s="76"/>
       <c r="AA53" s="76"/>
       <c r="AB53" s="76"/>
       <c r="AC53" s="76"/>
-      <c r="AD53" s="104"/>
+      <c r="AD53" s="109"/>
       <c r="AE53" s="76"/>
       <c r="AF53" s="76"/>
       <c r="AG53" s="76"/>
       <c r="AH53" s="76"/>
       <c r="AI53" s="76"/>
       <c r="AJ53" s="76"/>
-      <c r="AK53" s="101"/>
+      <c r="AK53" s="106"/>
       <c r="AL53" s="76"/>
     </row>
     <row r="54" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A54" s="110"/>
-      <c r="B54" s="113"/>
-      <c r="C54" s="109"/>
+      <c r="A54" s="97"/>
+      <c r="B54" s="104"/>
+      <c r="C54" s="98"/>
       <c r="D54" s="2" t="s">
         <v>38</v>
       </c>
@@ -9327,27 +9327,27 @@
       <c r="T54" s="76"/>
       <c r="U54" s="76"/>
       <c r="V54" s="76"/>
-      <c r="W54" s="107"/>
+      <c r="W54" s="112"/>
       <c r="X54" s="76"/>
       <c r="Y54" s="76"/>
       <c r="Z54" s="76"/>
       <c r="AA54" s="76"/>
       <c r="AB54" s="76"/>
       <c r="AC54" s="76"/>
-      <c r="AD54" s="104"/>
+      <c r="AD54" s="109"/>
       <c r="AE54" s="76"/>
       <c r="AF54" s="76"/>
       <c r="AG54" s="76"/>
       <c r="AH54" s="76"/>
       <c r="AI54" s="76"/>
       <c r="AJ54" s="76"/>
-      <c r="AK54" s="101"/>
+      <c r="AK54" s="106"/>
       <c r="AL54" s="76"/>
     </row>
     <row r="55" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A55" s="110"/>
-      <c r="B55" s="113"/>
-      <c r="C55" s="109"/>
+      <c r="A55" s="97"/>
+      <c r="B55" s="104"/>
+      <c r="C55" s="98"/>
       <c r="D55" s="2" t="s">
         <v>33</v>
       </c>
@@ -9371,27 +9371,27 @@
       <c r="T55" s="76"/>
       <c r="U55" s="76"/>
       <c r="V55" s="76"/>
-      <c r="W55" s="107"/>
+      <c r="W55" s="112"/>
       <c r="X55" s="76"/>
       <c r="Y55" s="76"/>
       <c r="Z55" s="76"/>
       <c r="AA55" s="76"/>
       <c r="AB55" s="76"/>
       <c r="AC55" s="76"/>
-      <c r="AD55" s="104"/>
+      <c r="AD55" s="109"/>
       <c r="AE55" s="76"/>
       <c r="AF55" s="76"/>
       <c r="AG55" s="76"/>
       <c r="AH55" s="76"/>
       <c r="AI55" s="76"/>
       <c r="AJ55" s="76"/>
-      <c r="AK55" s="101"/>
+      <c r="AK55" s="106"/>
       <c r="AL55" s="76"/>
     </row>
     <row r="56" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A56" s="110"/>
-      <c r="B56" s="113"/>
-      <c r="C56" s="109" t="s">
+      <c r="A56" s="97"/>
+      <c r="B56" s="104"/>
+      <c r="C56" s="98" t="s">
         <v>121</v>
       </c>
       <c r="D56" s="2" t="s">
@@ -9425,27 +9425,27 @@
       <c r="T56" s="76"/>
       <c r="U56" s="76"/>
       <c r="V56" s="76"/>
-      <c r="W56" s="107"/>
+      <c r="W56" s="112"/>
       <c r="X56" s="76"/>
       <c r="Y56" s="76"/>
       <c r="Z56" s="76"/>
       <c r="AA56" s="76"/>
       <c r="AB56" s="76"/>
       <c r="AC56" s="76"/>
-      <c r="AD56" s="104"/>
+      <c r="AD56" s="109"/>
       <c r="AE56" s="76"/>
       <c r="AF56" s="76"/>
       <c r="AG56" s="76"/>
       <c r="AH56" s="76"/>
       <c r="AI56" s="76"/>
       <c r="AJ56" s="76"/>
-      <c r="AK56" s="101"/>
+      <c r="AK56" s="106"/>
       <c r="AL56" s="76"/>
     </row>
     <row r="57" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A57" s="110"/>
-      <c r="B57" s="113"/>
-      <c r="C57" s="109"/>
+      <c r="A57" s="97"/>
+      <c r="B57" s="104"/>
+      <c r="C57" s="98"/>
       <c r="D57" s="2" t="s">
         <v>151</v>
       </c>
@@ -9477,26 +9477,26 @@
       <c r="T57" s="76"/>
       <c r="U57" s="76"/>
       <c r="V57" s="76"/>
-      <c r="W57" s="107"/>
+      <c r="W57" s="112"/>
       <c r="X57" s="76"/>
       <c r="Y57" s="76"/>
       <c r="Z57" s="76"/>
       <c r="AA57" s="76"/>
       <c r="AB57" s="76"/>
       <c r="AC57" s="76"/>
-      <c r="AD57" s="104"/>
+      <c r="AD57" s="109"/>
       <c r="AE57" s="76"/>
       <c r="AF57" s="76"/>
       <c r="AG57" s="76"/>
       <c r="AH57" s="76"/>
       <c r="AI57" s="76"/>
       <c r="AJ57" s="76"/>
-      <c r="AK57" s="101"/>
+      <c r="AK57" s="106"/>
       <c r="AL57" s="76"/>
     </row>
     <row r="58" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="110"/>
-      <c r="B58" s="113"/>
+      <c r="A58" s="97"/>
+      <c r="B58" s="104"/>
       <c r="C58" s="20" t="s">
         <v>71</v>
       </c>
@@ -9523,32 +9523,32 @@
       <c r="T58" s="20"/>
       <c r="U58" s="20"/>
       <c r="V58" s="20"/>
-      <c r="W58" s="107"/>
+      <c r="W58" s="112"/>
       <c r="X58" s="20"/>
       <c r="Y58" s="20"/>
       <c r="Z58" s="20"/>
       <c r="AA58" s="20"/>
       <c r="AB58" s="20"/>
       <c r="AC58" s="20"/>
-      <c r="AD58" s="104"/>
+      <c r="AD58" s="109"/>
       <c r="AE58" s="76"/>
       <c r="AF58" s="76"/>
       <c r="AG58" s="76"/>
       <c r="AH58" s="76"/>
       <c r="AI58" s="76"/>
       <c r="AJ58" s="76"/>
-      <c r="AK58" s="101"/>
+      <c r="AK58" s="106"/>
       <c r="AL58" s="76"/>
     </row>
     <row r="59" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A59" s="110"/>
-      <c r="B59" s="112" t="s">
+      <c r="A59" s="97"/>
+      <c r="B59" s="100" t="s">
         <v>120</v>
       </c>
-      <c r="C59" s="109" t="s">
+      <c r="C59" s="98" t="s">
         <v>92</v>
       </c>
-      <c r="D59" s="109" t="s">
+      <c r="D59" s="98" t="s">
         <v>29</v>
       </c>
       <c r="E59" s="2" t="s">
@@ -9581,28 +9581,28 @@
       <c r="T59" s="76"/>
       <c r="U59" s="76"/>
       <c r="V59" s="76"/>
-      <c r="W59" s="107"/>
+      <c r="W59" s="112"/>
       <c r="X59" s="76"/>
       <c r="Y59" s="76"/>
       <c r="Z59" s="76"/>
       <c r="AA59" s="76"/>
       <c r="AB59" s="76"/>
       <c r="AC59" s="76"/>
-      <c r="AD59" s="104"/>
+      <c r="AD59" s="109"/>
       <c r="AE59" s="76"/>
       <c r="AF59" s="76"/>
       <c r="AG59" s="76"/>
       <c r="AH59" s="76"/>
       <c r="AI59" s="76"/>
       <c r="AJ59" s="76"/>
-      <c r="AK59" s="101"/>
+      <c r="AK59" s="106"/>
       <c r="AL59" s="76"/>
     </row>
     <row r="60" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A60" s="110"/>
-      <c r="B60" s="112"/>
-      <c r="C60" s="109"/>
-      <c r="D60" s="109"/>
+      <c r="A60" s="97"/>
+      <c r="B60" s="100"/>
+      <c r="C60" s="98"/>
+      <c r="D60" s="98"/>
       <c r="E60" s="2" t="s">
         <v>130</v>
       </c>
@@ -9633,30 +9633,30 @@
       <c r="T60" s="76"/>
       <c r="U60" s="76"/>
       <c r="V60" s="76"/>
-      <c r="W60" s="107"/>
+      <c r="W60" s="112"/>
       <c r="X60" s="76"/>
       <c r="Y60" s="76"/>
       <c r="Z60" s="76"/>
       <c r="AA60" s="76"/>
       <c r="AB60" s="76"/>
       <c r="AC60" s="76"/>
-      <c r="AD60" s="104"/>
+      <c r="AD60" s="109"/>
       <c r="AE60" s="76"/>
       <c r="AF60" s="76"/>
       <c r="AG60" s="76"/>
       <c r="AH60" s="76"/>
       <c r="AI60" s="76"/>
       <c r="AJ60" s="76"/>
-      <c r="AK60" s="101"/>
+      <c r="AK60" s="106"/>
       <c r="AL60" s="76"/>
     </row>
     <row r="61" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A61" s="110"/>
-      <c r="B61" s="112"/>
-      <c r="C61" s="109" t="s">
+      <c r="A61" s="97"/>
+      <c r="B61" s="100"/>
+      <c r="C61" s="98" t="s">
         <v>96</v>
       </c>
-      <c r="D61" s="109" t="s">
+      <c r="D61" s="98" t="s">
         <v>95</v>
       </c>
       <c r="E61" s="2" t="s">
@@ -9689,28 +9689,28 @@
       <c r="T61" s="76"/>
       <c r="U61" s="76"/>
       <c r="V61" s="76"/>
-      <c r="W61" s="107"/>
+      <c r="W61" s="112"/>
       <c r="X61" s="76"/>
       <c r="Y61" s="76"/>
       <c r="Z61" s="76"/>
       <c r="AA61" s="76"/>
       <c r="AB61" s="76"/>
       <c r="AC61" s="76"/>
-      <c r="AD61" s="104"/>
+      <c r="AD61" s="109"/>
       <c r="AE61" s="76"/>
       <c r="AF61" s="76"/>
       <c r="AG61" s="76"/>
       <c r="AH61" s="76"/>
       <c r="AI61" s="76"/>
       <c r="AJ61" s="76"/>
-      <c r="AK61" s="101"/>
+      <c r="AK61" s="106"/>
       <c r="AL61" s="76"/>
     </row>
     <row r="62" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A62" s="110"/>
-      <c r="B62" s="112"/>
-      <c r="C62" s="109"/>
-      <c r="D62" s="109"/>
+      <c r="A62" s="97"/>
+      <c r="B62" s="100"/>
+      <c r="C62" s="98"/>
+      <c r="D62" s="98"/>
       <c r="E62" s="2" t="s">
         <v>146</v>
       </c>
@@ -9741,28 +9741,28 @@
       <c r="T62" s="76"/>
       <c r="U62" s="76"/>
       <c r="V62" s="76"/>
-      <c r="W62" s="107"/>
+      <c r="W62" s="112"/>
       <c r="X62" s="76"/>
       <c r="Y62" s="76"/>
       <c r="Z62" s="76"/>
       <c r="AA62" s="76"/>
       <c r="AB62" s="76"/>
       <c r="AC62" s="76"/>
-      <c r="AD62" s="104"/>
+      <c r="AD62" s="109"/>
       <c r="AE62" s="76"/>
       <c r="AF62" s="76"/>
       <c r="AG62" s="76"/>
       <c r="AH62" s="76"/>
       <c r="AI62" s="76"/>
       <c r="AJ62" s="76"/>
-      <c r="AK62" s="101"/>
+      <c r="AK62" s="106"/>
       <c r="AL62" s="76"/>
     </row>
     <row r="63" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A63" s="110"/>
-      <c r="B63" s="112"/>
-      <c r="C63" s="109"/>
-      <c r="D63" s="109"/>
+      <c r="A63" s="97"/>
+      <c r="B63" s="100"/>
+      <c r="C63" s="98"/>
+      <c r="D63" s="98"/>
       <c r="E63" s="2" t="s">
         <v>147</v>
       </c>
@@ -9793,28 +9793,28 @@
       <c r="T63" s="76"/>
       <c r="U63" s="76"/>
       <c r="V63" s="76"/>
-      <c r="W63" s="107"/>
+      <c r="W63" s="112"/>
       <c r="X63" s="76"/>
       <c r="Y63" s="76"/>
       <c r="Z63" s="76"/>
       <c r="AA63" s="76"/>
       <c r="AB63" s="76"/>
       <c r="AC63" s="76"/>
-      <c r="AD63" s="104"/>
+      <c r="AD63" s="109"/>
       <c r="AE63" s="76"/>
       <c r="AF63" s="76"/>
       <c r="AG63" s="76"/>
       <c r="AH63" s="76"/>
       <c r="AI63" s="76"/>
       <c r="AJ63" s="76"/>
-      <c r="AK63" s="101"/>
+      <c r="AK63" s="106"/>
       <c r="AL63" s="76"/>
     </row>
     <row r="64" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A64" s="110"/>
-      <c r="B64" s="112"/>
-      <c r="C64" s="109"/>
-      <c r="D64" s="109"/>
+      <c r="A64" s="97"/>
+      <c r="B64" s="100"/>
+      <c r="C64" s="98"/>
+      <c r="D64" s="98"/>
       <c r="E64" s="2" t="s">
         <v>107</v>
       </c>
@@ -9845,28 +9845,28 @@
       <c r="T64" s="76"/>
       <c r="U64" s="76"/>
       <c r="V64" s="76"/>
-      <c r="W64" s="107"/>
+      <c r="W64" s="112"/>
       <c r="X64" s="76"/>
       <c r="Y64" s="76"/>
       <c r="Z64" s="76"/>
       <c r="AA64" s="76"/>
       <c r="AB64" s="76"/>
       <c r="AC64" s="76"/>
-      <c r="AD64" s="104"/>
+      <c r="AD64" s="109"/>
       <c r="AE64" s="76"/>
       <c r="AF64" s="76"/>
       <c r="AG64" s="76"/>
       <c r="AH64" s="76"/>
       <c r="AI64" s="76"/>
       <c r="AJ64" s="76"/>
-      <c r="AK64" s="101"/>
+      <c r="AK64" s="106"/>
       <c r="AL64" s="76"/>
     </row>
     <row r="65" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A65" s="110"/>
-      <c r="B65" s="112"/>
-      <c r="C65" s="109"/>
-      <c r="D65" s="109"/>
+      <c r="A65" s="97"/>
+      <c r="B65" s="100"/>
+      <c r="C65" s="98"/>
+      <c r="D65" s="98"/>
       <c r="E65" s="2" t="s">
         <v>108</v>
       </c>
@@ -9897,28 +9897,28 @@
       <c r="T65" s="76"/>
       <c r="U65" s="76"/>
       <c r="V65" s="76"/>
-      <c r="W65" s="107"/>
+      <c r="W65" s="112"/>
       <c r="X65" s="76"/>
       <c r="Y65" s="76"/>
       <c r="Z65" s="76"/>
       <c r="AA65" s="76"/>
       <c r="AB65" s="76"/>
       <c r="AC65" s="76"/>
-      <c r="AD65" s="104"/>
+      <c r="AD65" s="109"/>
       <c r="AE65" s="76"/>
       <c r="AF65" s="76"/>
       <c r="AG65" s="76"/>
       <c r="AH65" s="76"/>
       <c r="AI65" s="76"/>
       <c r="AJ65" s="76"/>
-      <c r="AK65" s="101"/>
+      <c r="AK65" s="106"/>
       <c r="AL65" s="76"/>
     </row>
     <row r="66" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A66" s="110"/>
-      <c r="B66" s="112"/>
-      <c r="C66" s="109"/>
-      <c r="D66" s="109" t="s">
+      <c r="A66" s="97"/>
+      <c r="B66" s="100"/>
+      <c r="C66" s="98"/>
+      <c r="D66" s="98" t="s">
         <v>97</v>
       </c>
       <c r="E66" s="2" t="s">
@@ -9945,28 +9945,28 @@
       <c r="T66" s="76"/>
       <c r="U66" s="76"/>
       <c r="V66" s="76"/>
-      <c r="W66" s="107"/>
+      <c r="W66" s="112"/>
       <c r="X66" s="76"/>
       <c r="Y66" s="76"/>
       <c r="Z66" s="76"/>
       <c r="AA66" s="76"/>
       <c r="AB66" s="76"/>
       <c r="AC66" s="76"/>
-      <c r="AD66" s="104"/>
+      <c r="AD66" s="109"/>
       <c r="AE66" s="76"/>
       <c r="AF66" s="76"/>
       <c r="AG66" s="76"/>
       <c r="AH66" s="76"/>
       <c r="AI66" s="76"/>
       <c r="AJ66" s="76"/>
-      <c r="AK66" s="101"/>
+      <c r="AK66" s="106"/>
       <c r="AL66" s="76"/>
     </row>
     <row r="67" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A67" s="110"/>
-      <c r="B67" s="112"/>
-      <c r="C67" s="109"/>
-      <c r="D67" s="109"/>
+      <c r="A67" s="97"/>
+      <c r="B67" s="100"/>
+      <c r="C67" s="98"/>
+      <c r="D67" s="98"/>
       <c r="E67" s="2" t="s">
         <v>146</v>
       </c>
@@ -9997,30 +9997,30 @@
       <c r="T67" s="76"/>
       <c r="U67" s="76"/>
       <c r="V67" s="76"/>
-      <c r="W67" s="107"/>
+      <c r="W67" s="112"/>
       <c r="X67" s="76"/>
       <c r="Y67" s="76"/>
       <c r="Z67" s="76"/>
       <c r="AA67" s="76"/>
       <c r="AB67" s="76"/>
       <c r="AC67" s="76"/>
-      <c r="AD67" s="104"/>
+      <c r="AD67" s="109"/>
       <c r="AE67" s="76"/>
       <c r="AF67" s="76"/>
       <c r="AG67" s="76"/>
       <c r="AH67" s="76"/>
       <c r="AI67" s="76"/>
       <c r="AJ67" s="76"/>
-      <c r="AK67" s="101"/>
+      <c r="AK67" s="106"/>
       <c r="AL67" s="76"/>
     </row>
     <row r="68" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="110"/>
-      <c r="B68" s="112"/>
-      <c r="C68" s="109" t="s">
+      <c r="A68" s="97"/>
+      <c r="B68" s="100"/>
+      <c r="C68" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="D68" s="109" t="s">
+      <c r="D68" s="98" t="s">
         <v>93</v>
       </c>
       <c r="E68" s="2" t="s">
@@ -10053,28 +10053,28 @@
       <c r="T68" s="76"/>
       <c r="U68" s="76"/>
       <c r="V68" s="76"/>
-      <c r="W68" s="107"/>
+      <c r="W68" s="112"/>
       <c r="X68" s="76"/>
       <c r="Y68" s="76"/>
       <c r="Z68" s="76"/>
       <c r="AA68" s="76"/>
       <c r="AB68" s="76"/>
       <c r="AC68" s="76"/>
-      <c r="AD68" s="104"/>
+      <c r="AD68" s="109"/>
       <c r="AE68" s="76"/>
       <c r="AF68" s="76"/>
       <c r="AG68" s="76"/>
       <c r="AH68" s="76"/>
       <c r="AI68" s="76"/>
       <c r="AJ68" s="76"/>
-      <c r="AK68" s="101"/>
+      <c r="AK68" s="106"/>
       <c r="AL68" s="76"/>
     </row>
     <row r="69" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="110"/>
-      <c r="B69" s="112"/>
-      <c r="C69" s="109"/>
-      <c r="D69" s="109"/>
+      <c r="A69" s="97"/>
+      <c r="B69" s="100"/>
+      <c r="C69" s="98"/>
+      <c r="D69" s="98"/>
       <c r="E69" s="2" t="s">
         <v>130</v>
       </c>
@@ -10105,28 +10105,28 @@
       <c r="T69" s="76"/>
       <c r="U69" s="76"/>
       <c r="V69" s="76"/>
-      <c r="W69" s="107"/>
+      <c r="W69" s="112"/>
       <c r="X69" s="76"/>
       <c r="Y69" s="76"/>
       <c r="Z69" s="76"/>
       <c r="AA69" s="76"/>
       <c r="AB69" s="76"/>
       <c r="AC69" s="76"/>
-      <c r="AD69" s="104"/>
+      <c r="AD69" s="109"/>
       <c r="AE69" s="76"/>
       <c r="AF69" s="76"/>
       <c r="AG69" s="76"/>
       <c r="AH69" s="76"/>
       <c r="AI69" s="76"/>
       <c r="AJ69" s="76"/>
-      <c r="AK69" s="101"/>
+      <c r="AK69" s="106"/>
       <c r="AL69" s="76"/>
     </row>
     <row r="70" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="110"/>
-      <c r="B70" s="112"/>
-      <c r="C70" s="109"/>
-      <c r="D70" s="97" t="s">
+      <c r="A70" s="97"/>
+      <c r="B70" s="100"/>
+      <c r="C70" s="98"/>
+      <c r="D70" s="101" t="s">
         <v>98</v>
       </c>
       <c r="E70" s="2" t="s">
@@ -10159,28 +10159,28 @@
       <c r="T70" s="76"/>
       <c r="U70" s="76"/>
       <c r="V70" s="76"/>
-      <c r="W70" s="107"/>
+      <c r="W70" s="112"/>
       <c r="X70" s="76"/>
       <c r="Y70" s="76"/>
       <c r="Z70" s="76"/>
       <c r="AA70" s="76"/>
       <c r="AB70" s="76"/>
       <c r="AC70" s="76"/>
-      <c r="AD70" s="104"/>
+      <c r="AD70" s="109"/>
       <c r="AE70" s="76"/>
       <c r="AF70" s="76"/>
       <c r="AG70" s="76"/>
       <c r="AH70" s="76"/>
       <c r="AI70" s="76"/>
       <c r="AJ70" s="76"/>
-      <c r="AK70" s="101"/>
+      <c r="AK70" s="106"/>
       <c r="AL70" s="76"/>
     </row>
     <row r="71" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="110"/>
-      <c r="B71" s="112"/>
-      <c r="C71" s="109"/>
-      <c r="D71" s="99"/>
+      <c r="A71" s="97"/>
+      <c r="B71" s="100"/>
+      <c r="C71" s="98"/>
+      <c r="D71" s="103"/>
       <c r="E71" s="2" t="s">
         <v>130</v>
       </c>
@@ -10207,27 +10207,27 @@
       <c r="T71" s="76"/>
       <c r="U71" s="76"/>
       <c r="V71" s="76"/>
-      <c r="W71" s="107"/>
+      <c r="W71" s="112"/>
       <c r="X71" s="76"/>
       <c r="Y71" s="76"/>
       <c r="Z71" s="76"/>
       <c r="AA71" s="76"/>
       <c r="AB71" s="76"/>
       <c r="AC71" s="76"/>
-      <c r="AD71" s="104"/>
+      <c r="AD71" s="109"/>
       <c r="AE71" s="76"/>
       <c r="AF71" s="76"/>
       <c r="AG71" s="76"/>
       <c r="AH71" s="76"/>
       <c r="AI71" s="76"/>
       <c r="AJ71" s="76"/>
-      <c r="AK71" s="101"/>
+      <c r="AK71" s="106"/>
       <c r="AL71" s="76"/>
     </row>
     <row r="72" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A72" s="110"/>
-      <c r="B72" s="112"/>
-      <c r="C72" s="98"/>
+      <c r="A72" s="97"/>
+      <c r="B72" s="100"/>
+      <c r="C72" s="102"/>
       <c r="D72" s="2" t="s">
         <v>190</v>
       </c>
@@ -10261,27 +10261,27 @@
       <c r="T72" s="76"/>
       <c r="U72" s="76"/>
       <c r="V72" s="76"/>
-      <c r="W72" s="107"/>
+      <c r="W72" s="112"/>
       <c r="X72" s="76"/>
       <c r="Y72" s="76"/>
       <c r="Z72" s="76"/>
       <c r="AA72" s="76"/>
       <c r="AB72" s="76"/>
       <c r="AC72" s="76"/>
-      <c r="AD72" s="104"/>
+      <c r="AD72" s="109"/>
       <c r="AE72" s="76"/>
       <c r="AF72" s="76"/>
       <c r="AG72" s="76"/>
       <c r="AH72" s="76"/>
       <c r="AI72" s="76"/>
       <c r="AJ72" s="76"/>
-      <c r="AK72" s="101"/>
+      <c r="AK72" s="106"/>
       <c r="AL72" s="76"/>
     </row>
     <row r="73" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A73" s="110"/>
-      <c r="B73" s="112"/>
-      <c r="C73" s="98"/>
+      <c r="A73" s="97"/>
+      <c r="B73" s="100"/>
+      <c r="C73" s="102"/>
       <c r="D73" s="2" t="s">
         <v>191</v>
       </c>
@@ -10315,27 +10315,27 @@
       <c r="T73" s="76"/>
       <c r="U73" s="76"/>
       <c r="V73" s="76"/>
-      <c r="W73" s="107"/>
+      <c r="W73" s="112"/>
       <c r="X73" s="76"/>
       <c r="Y73" s="76"/>
       <c r="Z73" s="76"/>
       <c r="AA73" s="76"/>
       <c r="AB73" s="76"/>
       <c r="AC73" s="76"/>
-      <c r="AD73" s="104"/>
+      <c r="AD73" s="109"/>
       <c r="AE73" s="76"/>
       <c r="AF73" s="76"/>
       <c r="AG73" s="76"/>
       <c r="AH73" s="76"/>
       <c r="AI73" s="76"/>
       <c r="AJ73" s="76"/>
-      <c r="AK73" s="101"/>
+      <c r="AK73" s="106"/>
       <c r="AL73" s="76"/>
     </row>
     <row r="74" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A74" s="110"/>
-      <c r="B74" s="112"/>
-      <c r="C74" s="99"/>
+      <c r="A74" s="97"/>
+      <c r="B74" s="100"/>
+      <c r="C74" s="103"/>
       <c r="D74" s="2" t="s">
         <v>161</v>
       </c>
@@ -10369,27 +10369,27 @@
       <c r="T74" s="76"/>
       <c r="U74" s="76"/>
       <c r="V74" s="76"/>
-      <c r="W74" s="107"/>
+      <c r="W74" s="112"/>
       <c r="X74" s="76"/>
       <c r="Y74" s="76"/>
       <c r="Z74" s="76"/>
       <c r="AA74" s="76"/>
       <c r="AB74" s="76"/>
       <c r="AC74" s="76"/>
-      <c r="AD74" s="104"/>
+      <c r="AD74" s="109"/>
       <c r="AE74" s="76"/>
       <c r="AF74" s="76"/>
       <c r="AG74" s="76"/>
       <c r="AH74" s="76"/>
       <c r="AI74" s="76"/>
       <c r="AJ74" s="76"/>
-      <c r="AK74" s="101"/>
+      <c r="AK74" s="106"/>
       <c r="AL74" s="76"/>
     </row>
     <row r="75" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A75" s="110"/>
-      <c r="B75" s="112"/>
-      <c r="C75" s="109" t="s">
+      <c r="A75" s="97"/>
+      <c r="B75" s="100"/>
+      <c r="C75" s="98" t="s">
         <v>13</v>
       </c>
       <c r="D75" s="2" t="s">
@@ -10423,27 +10423,27 @@
       <c r="T75" s="76"/>
       <c r="U75" s="76"/>
       <c r="V75" s="76"/>
-      <c r="W75" s="107"/>
+      <c r="W75" s="112"/>
       <c r="X75" s="76"/>
       <c r="Y75" s="76"/>
       <c r="Z75" s="76"/>
       <c r="AA75" s="76"/>
       <c r="AB75" s="76"/>
       <c r="AC75" s="76"/>
-      <c r="AD75" s="104"/>
+      <c r="AD75" s="109"/>
       <c r="AE75" s="76"/>
       <c r="AF75" s="76"/>
       <c r="AG75" s="76"/>
       <c r="AH75" s="76"/>
       <c r="AI75" s="76"/>
       <c r="AJ75" s="76"/>
-      <c r="AK75" s="101"/>
+      <c r="AK75" s="106"/>
       <c r="AL75" s="76"/>
     </row>
     <row r="76" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A76" s="110"/>
-      <c r="B76" s="112"/>
-      <c r="C76" s="109"/>
+      <c r="A76" s="97"/>
+      <c r="B76" s="100"/>
+      <c r="C76" s="98"/>
       <c r="D76" s="2" t="s">
         <v>126</v>
       </c>
@@ -10475,27 +10475,27 @@
       <c r="T76" s="76"/>
       <c r="U76" s="76"/>
       <c r="V76" s="76"/>
-      <c r="W76" s="107"/>
+      <c r="W76" s="112"/>
       <c r="X76" s="76"/>
       <c r="Y76" s="76"/>
       <c r="Z76" s="76"/>
       <c r="AA76" s="76"/>
       <c r="AB76" s="76"/>
       <c r="AC76" s="76"/>
-      <c r="AD76" s="104"/>
+      <c r="AD76" s="109"/>
       <c r="AE76" s="76"/>
       <c r="AF76" s="76"/>
       <c r="AG76" s="76"/>
       <c r="AH76" s="76"/>
       <c r="AI76" s="76"/>
       <c r="AJ76" s="76"/>
-      <c r="AK76" s="101"/>
+      <c r="AK76" s="106"/>
       <c r="AL76" s="76"/>
     </row>
     <row r="77" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="110"/>
-      <c r="B77" s="112"/>
-      <c r="C77" s="97" t="s">
+      <c r="A77" s="97"/>
+      <c r="B77" s="100"/>
+      <c r="C77" s="101" t="s">
         <v>99</v>
       </c>
       <c r="D77" s="2" t="s">
@@ -10529,27 +10529,27 @@
       <c r="T77" s="76"/>
       <c r="U77" s="76"/>
       <c r="V77" s="76"/>
-      <c r="W77" s="107"/>
+      <c r="W77" s="112"/>
       <c r="X77" s="76"/>
       <c r="Y77" s="76"/>
       <c r="Z77" s="76"/>
       <c r="AA77" s="76"/>
       <c r="AB77" s="76"/>
       <c r="AC77" s="76"/>
-      <c r="AD77" s="104"/>
+      <c r="AD77" s="109"/>
       <c r="AE77" s="76"/>
       <c r="AF77" s="76"/>
       <c r="AG77" s="76"/>
       <c r="AH77" s="76"/>
       <c r="AI77" s="76"/>
       <c r="AJ77" s="76"/>
-      <c r="AK77" s="101"/>
+      <c r="AK77" s="106"/>
       <c r="AL77" s="76"/>
     </row>
     <row r="78" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A78" s="110"/>
-      <c r="B78" s="112"/>
-      <c r="C78" s="98"/>
+      <c r="A78" s="97"/>
+      <c r="B78" s="100"/>
+      <c r="C78" s="102"/>
       <c r="D78" s="2" t="s">
         <v>156</v>
       </c>
@@ -10581,27 +10581,27 @@
       <c r="T78" s="76"/>
       <c r="U78" s="76"/>
       <c r="V78" s="76"/>
-      <c r="W78" s="107"/>
+      <c r="W78" s="112"/>
       <c r="X78" s="76"/>
       <c r="Y78" s="76"/>
       <c r="Z78" s="76"/>
       <c r="AA78" s="76"/>
       <c r="AB78" s="76"/>
       <c r="AC78" s="76"/>
-      <c r="AD78" s="104"/>
+      <c r="AD78" s="109"/>
       <c r="AE78" s="76"/>
       <c r="AF78" s="76"/>
       <c r="AG78" s="76"/>
       <c r="AH78" s="76"/>
       <c r="AI78" s="76"/>
       <c r="AJ78" s="76"/>
-      <c r="AK78" s="101"/>
+      <c r="AK78" s="106"/>
       <c r="AL78" s="76"/>
     </row>
     <row r="79" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="110"/>
-      <c r="B79" s="112"/>
-      <c r="C79" s="98"/>
+      <c r="A79" s="97"/>
+      <c r="B79" s="100"/>
+      <c r="C79" s="102"/>
       <c r="D79" s="2" t="s">
         <v>187</v>
       </c>
@@ -10633,27 +10633,27 @@
       <c r="T79" s="76"/>
       <c r="U79" s="76"/>
       <c r="V79" s="76"/>
-      <c r="W79" s="107"/>
+      <c r="W79" s="112"/>
       <c r="X79" s="76"/>
       <c r="Y79" s="76"/>
       <c r="Z79" s="76"/>
       <c r="AA79" s="76"/>
       <c r="AB79" s="76"/>
       <c r="AC79" s="76"/>
-      <c r="AD79" s="104"/>
+      <c r="AD79" s="109"/>
       <c r="AE79" s="76"/>
       <c r="AF79" s="76"/>
       <c r="AG79" s="76"/>
       <c r="AH79" s="76"/>
       <c r="AI79" s="76"/>
       <c r="AJ79" s="76"/>
-      <c r="AK79" s="101"/>
+      <c r="AK79" s="106"/>
       <c r="AL79" s="76"/>
     </row>
     <row r="80" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A80" s="110"/>
-      <c r="B80" s="112"/>
-      <c r="C80" s="99"/>
+      <c r="A80" s="97"/>
+      <c r="B80" s="100"/>
+      <c r="C80" s="103"/>
       <c r="D80" s="2" t="s">
         <v>157</v>
       </c>
@@ -10685,27 +10685,27 @@
       <c r="T80" s="76"/>
       <c r="U80" s="76"/>
       <c r="V80" s="76"/>
-      <c r="W80" s="107"/>
+      <c r="W80" s="112"/>
       <c r="X80" s="76"/>
       <c r="Y80" s="76"/>
       <c r="Z80" s="76"/>
       <c r="AA80" s="76"/>
       <c r="AB80" s="76"/>
       <c r="AC80" s="76"/>
-      <c r="AD80" s="104"/>
+      <c r="AD80" s="109"/>
       <c r="AE80" s="76"/>
       <c r="AF80" s="76"/>
       <c r="AG80" s="76"/>
       <c r="AH80" s="76"/>
       <c r="AI80" s="76"/>
       <c r="AJ80" s="76"/>
-      <c r="AK80" s="101"/>
+      <c r="AK80" s="106"/>
       <c r="AL80" s="76"/>
     </row>
     <row r="81" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A81" s="110"/>
-      <c r="B81" s="112"/>
-      <c r="C81" s="109" t="s">
+      <c r="A81" s="97"/>
+      <c r="B81" s="100"/>
+      <c r="C81" s="98" t="s">
         <v>30</v>
       </c>
       <c r="D81" s="2" t="s">
@@ -10737,27 +10737,27 @@
       <c r="T81" s="76"/>
       <c r="U81" s="76"/>
       <c r="V81" s="76"/>
-      <c r="W81" s="107"/>
+      <c r="W81" s="112"/>
       <c r="X81" s="76"/>
       <c r="Y81" s="76"/>
       <c r="Z81" s="76"/>
       <c r="AA81" s="76"/>
       <c r="AB81" s="76"/>
       <c r="AC81" s="76"/>
-      <c r="AD81" s="104"/>
+      <c r="AD81" s="109"/>
       <c r="AE81" s="76"/>
       <c r="AF81" s="76"/>
       <c r="AG81" s="76"/>
       <c r="AH81" s="76"/>
       <c r="AI81" s="76"/>
       <c r="AJ81" s="76"/>
-      <c r="AK81" s="101"/>
+      <c r="AK81" s="106"/>
       <c r="AL81" s="76"/>
     </row>
     <row r="82" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A82" s="110"/>
-      <c r="B82" s="112"/>
-      <c r="C82" s="109"/>
+      <c r="A82" s="97"/>
+      <c r="B82" s="100"/>
+      <c r="C82" s="98"/>
       <c r="D82" s="2" t="s">
         <v>32</v>
       </c>
@@ -10781,27 +10781,27 @@
       <c r="T82" s="76"/>
       <c r="U82" s="76"/>
       <c r="V82" s="76"/>
-      <c r="W82" s="107"/>
+      <c r="W82" s="112"/>
       <c r="X82" s="76"/>
       <c r="Y82" s="76"/>
       <c r="Z82" s="76"/>
       <c r="AA82" s="76"/>
       <c r="AB82" s="76"/>
       <c r="AC82" s="76"/>
-      <c r="AD82" s="104"/>
+      <c r="AD82" s="109"/>
       <c r="AE82" s="76"/>
       <c r="AF82" s="76"/>
       <c r="AG82" s="76"/>
       <c r="AH82" s="76"/>
       <c r="AI82" s="76"/>
       <c r="AJ82" s="76"/>
-      <c r="AK82" s="101"/>
+      <c r="AK82" s="106"/>
       <c r="AL82" s="76"/>
     </row>
     <row r="83" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A83" s="110"/>
-      <c r="B83" s="112"/>
-      <c r="C83" s="109"/>
+      <c r="A83" s="97"/>
+      <c r="B83" s="100"/>
+      <c r="C83" s="98"/>
       <c r="D83" s="2" t="s">
         <v>33</v>
       </c>
@@ -10831,25 +10831,25 @@
       <c r="T83" s="76"/>
       <c r="U83" s="76"/>
       <c r="V83" s="76"/>
-      <c r="W83" s="107"/>
+      <c r="W83" s="112"/>
       <c r="X83" s="76"/>
       <c r="Y83" s="76"/>
       <c r="Z83" s="76"/>
       <c r="AA83" s="76"/>
       <c r="AB83" s="76"/>
       <c r="AC83" s="76"/>
-      <c r="AD83" s="104"/>
+      <c r="AD83" s="109"/>
       <c r="AE83" s="76"/>
       <c r="AF83" s="76"/>
       <c r="AG83" s="76"/>
       <c r="AH83" s="76"/>
       <c r="AI83" s="76"/>
       <c r="AJ83" s="76"/>
-      <c r="AK83" s="101"/>
+      <c r="AK83" s="106"/>
       <c r="AL83" s="76"/>
     </row>
     <row r="84" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A84" s="110"/>
+      <c r="A84" s="97"/>
       <c r="B84" s="77"/>
       <c r="C84" s="76" t="s">
         <v>258</v>
@@ -10877,25 +10877,25 @@
       <c r="T84" s="76"/>
       <c r="U84" s="76"/>
       <c r="V84" s="76"/>
-      <c r="W84" s="107"/>
+      <c r="W84" s="112"/>
       <c r="X84" s="76"/>
       <c r="Y84" s="76"/>
       <c r="Z84" s="76"/>
       <c r="AA84" s="76"/>
       <c r="AB84" s="76"/>
       <c r="AC84" s="76"/>
-      <c r="AD84" s="104"/>
+      <c r="AD84" s="109"/>
       <c r="AE84" s="76"/>
       <c r="AF84" s="76"/>
       <c r="AG84" s="76"/>
       <c r="AH84" s="76"/>
       <c r="AI84" s="76"/>
       <c r="AJ84" s="76"/>
-      <c r="AK84" s="101"/>
+      <c r="AK84" s="106"/>
       <c r="AL84" s="76"/>
     </row>
     <row r="85" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A85" s="110"/>
+      <c r="A85" s="97"/>
       <c r="B85" s="77"/>
       <c r="C85" s="76" t="s">
         <v>259</v>
@@ -10923,25 +10923,25 @@
       <c r="T85" s="76"/>
       <c r="U85" s="76"/>
       <c r="V85" s="76"/>
-      <c r="W85" s="108"/>
+      <c r="W85" s="113"/>
       <c r="X85" s="76"/>
       <c r="Y85" s="76"/>
       <c r="Z85" s="76"/>
       <c r="AA85" s="76"/>
       <c r="AB85" s="76"/>
       <c r="AC85" s="76"/>
-      <c r="AD85" s="105"/>
+      <c r="AD85" s="110"/>
       <c r="AE85" s="76"/>
       <c r="AF85" s="76"/>
       <c r="AG85" s="76"/>
       <c r="AH85" s="76"/>
       <c r="AI85" s="76"/>
       <c r="AJ85" s="76"/>
-      <c r="AK85" s="102"/>
+      <c r="AK85" s="107"/>
       <c r="AL85" s="76"/>
     </row>
     <row r="86" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A86" s="110"/>
+      <c r="A86" s="97"/>
       <c r="B86" s="38" t="s">
         <v>21</v>
       </c>
@@ -10963,6 +10963,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="D33:D38"/>
+    <mergeCell ref="AK5:AK85"/>
+    <mergeCell ref="AD5:AD85"/>
+    <mergeCell ref="W5:W85"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="D18:D27"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="D61:D65"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="D68:D69"/>
     <mergeCell ref="A5:A86"/>
     <mergeCell ref="C11:C14"/>
     <mergeCell ref="C15:C17"/>
@@ -10979,20 +10993,6 @@
     <mergeCell ref="C18:C45"/>
     <mergeCell ref="B11:B58"/>
     <mergeCell ref="C61:C67"/>
-    <mergeCell ref="D33:D38"/>
-    <mergeCell ref="AK5:AK85"/>
-    <mergeCell ref="AD5:AD85"/>
-    <mergeCell ref="W5:W85"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="D18:D27"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="D61:D65"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="D68:D69"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="L3:AL5 AL6:AL85 X6:AC85 AE6:AJ85 L6:V85">
@@ -12016,7 +12016,7 @@
   <dimension ref="B6:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/schedule/ガントチャート.xlsx
+++ b/schedule/ガントチャート.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14925" windowHeight="12180" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14925" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="ガントチャート" sheetId="1" r:id="rId1"/>
@@ -2941,56 +2941,56 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="12" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="7" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="3" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="6" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="7" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="3" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="6" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="7" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="3" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="7" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="3" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="6" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="7" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="3" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="6" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="7" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="3" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6626,8 +6626,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AT86"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="11" ySplit="4" topLeftCell="L14" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="11" ySplit="4" topLeftCell="L20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="AR21" sqref="AR21"/>
@@ -6919,10 +6919,10 @@
       </c>
     </row>
     <row r="5" spans="1:46" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="97" t="s">
+      <c r="A5" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="99" t="s">
+      <c r="B5" s="111" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="19" t="s">
@@ -6959,7 +6959,7 @@
       <c r="T5" s="78"/>
       <c r="U5" s="78"/>
       <c r="V5" s="78"/>
-      <c r="W5" s="111" t="s">
+      <c r="W5" s="106" t="s">
         <v>110</v>
       </c>
       <c r="X5" s="78"/>
@@ -6968,7 +6968,7 @@
       <c r="AA5" s="78"/>
       <c r="AB5" s="78"/>
       <c r="AC5" s="78"/>
-      <c r="AD5" s="108" t="s">
+      <c r="AD5" s="103" t="s">
         <v>111</v>
       </c>
       <c r="AE5" s="78"/>
@@ -6977,14 +6977,14 @@
       <c r="AH5" s="78"/>
       <c r="AI5" s="78"/>
       <c r="AJ5" s="78"/>
-      <c r="AK5" s="105" t="s">
+      <c r="AK5" s="100" t="s">
         <v>88</v>
       </c>
       <c r="AL5" s="78"/>
     </row>
     <row r="6" spans="1:46" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="97"/>
-      <c r="B6" s="99"/>
+      <c r="A6" s="110"/>
+      <c r="B6" s="111"/>
       <c r="C6" s="19" t="s">
         <v>9</v>
       </c>
@@ -7017,26 +7017,26 @@
       <c r="T6" s="76"/>
       <c r="U6" s="76"/>
       <c r="V6" s="76"/>
-      <c r="W6" s="112"/>
+      <c r="W6" s="107"/>
       <c r="X6" s="76"/>
       <c r="Y6" s="76"/>
       <c r="Z6" s="76"/>
       <c r="AA6" s="76"/>
       <c r="AB6" s="76"/>
       <c r="AC6" s="76"/>
-      <c r="AD6" s="109"/>
+      <c r="AD6" s="104"/>
       <c r="AE6" s="76"/>
       <c r="AF6" s="76"/>
       <c r="AG6" s="76"/>
       <c r="AH6" s="76"/>
       <c r="AI6" s="76"/>
       <c r="AJ6" s="76"/>
-      <c r="AK6" s="106"/>
+      <c r="AK6" s="101"/>
       <c r="AL6" s="76"/>
     </row>
     <row r="7" spans="1:46" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="97"/>
-      <c r="B7" s="99"/>
+      <c r="A7" s="110"/>
+      <c r="B7" s="111"/>
       <c r="C7" s="19" t="s">
         <v>10</v>
       </c>
@@ -7067,26 +7067,26 @@
       <c r="T7" s="76"/>
       <c r="U7" s="76"/>
       <c r="V7" s="76"/>
-      <c r="W7" s="112"/>
+      <c r="W7" s="107"/>
       <c r="X7" s="76"/>
       <c r="Y7" s="76"/>
       <c r="Z7" s="76"/>
       <c r="AA7" s="76"/>
       <c r="AB7" s="76"/>
       <c r="AC7" s="76"/>
-      <c r="AD7" s="109"/>
+      <c r="AD7" s="104"/>
       <c r="AE7" s="76"/>
       <c r="AF7" s="76"/>
       <c r="AG7" s="76"/>
       <c r="AH7" s="76"/>
       <c r="AI7" s="76"/>
       <c r="AJ7" s="76"/>
-      <c r="AK7" s="106"/>
+      <c r="AK7" s="101"/>
       <c r="AL7" s="76"/>
     </row>
     <row r="8" spans="1:46" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="97"/>
-      <c r="B8" s="99"/>
+      <c r="A8" s="110"/>
+      <c r="B8" s="111"/>
       <c r="C8" s="19" t="s">
         <v>11</v>
       </c>
@@ -7117,26 +7117,26 @@
       <c r="T8" s="76"/>
       <c r="U8" s="76"/>
       <c r="V8" s="76"/>
-      <c r="W8" s="112"/>
+      <c r="W8" s="107"/>
       <c r="X8" s="76"/>
       <c r="Y8" s="76"/>
       <c r="Z8" s="76"/>
       <c r="AA8" s="76"/>
       <c r="AB8" s="76"/>
       <c r="AC8" s="76"/>
-      <c r="AD8" s="109"/>
+      <c r="AD8" s="104"/>
       <c r="AE8" s="76"/>
       <c r="AF8" s="76"/>
       <c r="AG8" s="76"/>
       <c r="AH8" s="76"/>
       <c r="AI8" s="76"/>
       <c r="AJ8" s="76"/>
-      <c r="AK8" s="106"/>
+      <c r="AK8" s="101"/>
       <c r="AL8" s="76"/>
     </row>
     <row r="9" spans="1:46" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="97"/>
-      <c r="B9" s="99"/>
+      <c r="A9" s="110"/>
+      <c r="B9" s="111"/>
       <c r="C9" s="19" t="s">
         <v>34</v>
       </c>
@@ -7171,26 +7171,26 @@
       <c r="T9" s="76"/>
       <c r="U9" s="76"/>
       <c r="V9" s="76"/>
-      <c r="W9" s="112"/>
+      <c r="W9" s="107"/>
       <c r="X9" s="76"/>
       <c r="Y9" s="76"/>
       <c r="Z9" s="76"/>
       <c r="AA9" s="76"/>
       <c r="AB9" s="76"/>
       <c r="AC9" s="76"/>
-      <c r="AD9" s="109"/>
+      <c r="AD9" s="104"/>
       <c r="AE9" s="76"/>
       <c r="AF9" s="76"/>
       <c r="AG9" s="76"/>
       <c r="AH9" s="76"/>
       <c r="AI9" s="76"/>
       <c r="AJ9" s="76"/>
-      <c r="AK9" s="106"/>
+      <c r="AK9" s="101"/>
       <c r="AL9" s="76"/>
     </row>
     <row r="10" spans="1:46" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="97"/>
-      <c r="B10" s="99"/>
+      <c r="A10" s="110"/>
+      <c r="B10" s="111"/>
       <c r="C10" s="19" t="s">
         <v>35</v>
       </c>
@@ -7219,29 +7219,29 @@
       <c r="T10" s="76"/>
       <c r="U10" s="76"/>
       <c r="V10" s="76"/>
-      <c r="W10" s="112"/>
+      <c r="W10" s="107"/>
       <c r="X10" s="76"/>
       <c r="Y10" s="76"/>
       <c r="Z10" s="76"/>
       <c r="AA10" s="76"/>
       <c r="AB10" s="76"/>
       <c r="AC10" s="76"/>
-      <c r="AD10" s="109"/>
+      <c r="AD10" s="104"/>
       <c r="AE10" s="76"/>
       <c r="AF10" s="76"/>
       <c r="AG10" s="76"/>
       <c r="AH10" s="76"/>
       <c r="AI10" s="76"/>
       <c r="AJ10" s="76"/>
-      <c r="AK10" s="106"/>
+      <c r="AK10" s="101"/>
       <c r="AL10" s="76"/>
     </row>
     <row r="11" spans="1:46" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="97"/>
-      <c r="B11" s="104" t="s">
+      <c r="A11" s="110"/>
+      <c r="B11" s="113" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="98" t="s">
+      <c r="C11" s="109" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="40" t="s">
@@ -7267,27 +7267,27 @@
       <c r="T11" s="76"/>
       <c r="U11" s="76"/>
       <c r="V11" s="76"/>
-      <c r="W11" s="112"/>
+      <c r="W11" s="107"/>
       <c r="X11" s="76"/>
       <c r="Y11" s="76"/>
       <c r="Z11" s="76"/>
       <c r="AA11" s="76"/>
       <c r="AB11" s="76"/>
       <c r="AC11" s="76"/>
-      <c r="AD11" s="109"/>
+      <c r="AD11" s="104"/>
       <c r="AE11" s="76"/>
       <c r="AF11" s="76"/>
       <c r="AG11" s="76"/>
       <c r="AH11" s="76"/>
       <c r="AI11" s="76"/>
       <c r="AJ11" s="76"/>
-      <c r="AK11" s="106"/>
+      <c r="AK11" s="101"/>
       <c r="AL11" s="76"/>
     </row>
     <row r="12" spans="1:46" x14ac:dyDescent="0.4">
-      <c r="A12" s="97"/>
-      <c r="B12" s="104"/>
-      <c r="C12" s="98"/>
+      <c r="A12" s="110"/>
+      <c r="B12" s="113"/>
+      <c r="C12" s="109"/>
       <c r="D12" s="2" t="s">
         <v>23</v>
       </c>
@@ -7311,27 +7311,27 @@
       <c r="T12" s="76"/>
       <c r="U12" s="76"/>
       <c r="V12" s="76"/>
-      <c r="W12" s="112"/>
+      <c r="W12" s="107"/>
       <c r="X12" s="76"/>
       <c r="Y12" s="76"/>
       <c r="Z12" s="76"/>
       <c r="AA12" s="76"/>
       <c r="AB12" s="76"/>
       <c r="AC12" s="76"/>
-      <c r="AD12" s="109"/>
+      <c r="AD12" s="104"/>
       <c r="AE12" s="76"/>
       <c r="AF12" s="76"/>
       <c r="AG12" s="76"/>
       <c r="AH12" s="76"/>
       <c r="AI12" s="76"/>
       <c r="AJ12" s="76"/>
-      <c r="AK12" s="106"/>
+      <c r="AK12" s="101"/>
       <c r="AL12" s="76"/>
     </row>
     <row r="13" spans="1:46" x14ac:dyDescent="0.4">
-      <c r="A13" s="97"/>
-      <c r="B13" s="104"/>
-      <c r="C13" s="98"/>
+      <c r="A13" s="110"/>
+      <c r="B13" s="113"/>
+      <c r="C13" s="109"/>
       <c r="D13" s="33" t="s">
         <v>45</v>
       </c>
@@ -7355,27 +7355,27 @@
       <c r="T13" s="76"/>
       <c r="U13" s="76"/>
       <c r="V13" s="76"/>
-      <c r="W13" s="112"/>
+      <c r="W13" s="107"/>
       <c r="X13" s="76"/>
       <c r="Y13" s="76"/>
       <c r="Z13" s="76"/>
       <c r="AA13" s="76"/>
       <c r="AB13" s="76"/>
       <c r="AC13" s="76"/>
-      <c r="AD13" s="109"/>
+      <c r="AD13" s="104"/>
       <c r="AE13" s="76"/>
       <c r="AF13" s="76"/>
       <c r="AG13" s="76"/>
       <c r="AH13" s="76"/>
       <c r="AI13" s="76"/>
       <c r="AJ13" s="76"/>
-      <c r="AK13" s="106"/>
+      <c r="AK13" s="101"/>
       <c r="AL13" s="76"/>
     </row>
     <row r="14" spans="1:46" x14ac:dyDescent="0.4">
-      <c r="A14" s="97"/>
-      <c r="B14" s="104"/>
-      <c r="C14" s="98"/>
+      <c r="A14" s="110"/>
+      <c r="B14" s="113"/>
+      <c r="C14" s="109"/>
       <c r="D14" s="34" t="s">
         <v>27</v>
       </c>
@@ -7399,27 +7399,27 @@
       <c r="T14" s="76"/>
       <c r="U14" s="76"/>
       <c r="V14" s="76"/>
-      <c r="W14" s="112"/>
+      <c r="W14" s="107"/>
       <c r="X14" s="76"/>
       <c r="Y14" s="76"/>
       <c r="Z14" s="76"/>
       <c r="AA14" s="76"/>
       <c r="AB14" s="76"/>
       <c r="AC14" s="76"/>
-      <c r="AD14" s="109"/>
+      <c r="AD14" s="104"/>
       <c r="AE14" s="76"/>
       <c r="AF14" s="76"/>
       <c r="AG14" s="76"/>
       <c r="AH14" s="76"/>
       <c r="AI14" s="76"/>
       <c r="AJ14" s="76"/>
-      <c r="AK14" s="106"/>
+      <c r="AK14" s="101"/>
       <c r="AL14" s="76"/>
     </row>
     <row r="15" spans="1:46" x14ac:dyDescent="0.4">
-      <c r="A15" s="97"/>
-      <c r="B15" s="104"/>
-      <c r="C15" s="98" t="s">
+      <c r="A15" s="110"/>
+      <c r="B15" s="113"/>
+      <c r="C15" s="109" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -7447,27 +7447,27 @@
       <c r="T15" s="76"/>
       <c r="U15" s="76"/>
       <c r="V15" s="76"/>
-      <c r="W15" s="112"/>
+      <c r="W15" s="107"/>
       <c r="X15" s="76"/>
       <c r="Y15" s="76"/>
       <c r="Z15" s="76"/>
       <c r="AA15" s="76"/>
       <c r="AB15" s="76"/>
       <c r="AC15" s="76"/>
-      <c r="AD15" s="109"/>
+      <c r="AD15" s="104"/>
       <c r="AE15" s="76"/>
       <c r="AF15" s="76"/>
       <c r="AG15" s="76"/>
       <c r="AH15" s="76"/>
       <c r="AI15" s="76"/>
       <c r="AJ15" s="76"/>
-      <c r="AK15" s="106"/>
+      <c r="AK15" s="101"/>
       <c r="AL15" s="76"/>
     </row>
     <row r="16" spans="1:46" x14ac:dyDescent="0.4">
-      <c r="A16" s="97"/>
-      <c r="B16" s="104"/>
-      <c r="C16" s="98"/>
+      <c r="A16" s="110"/>
+      <c r="B16" s="113"/>
+      <c r="C16" s="109"/>
       <c r="D16" s="35" t="s">
         <v>45</v>
       </c>
@@ -7491,27 +7491,27 @@
       <c r="T16" s="76"/>
       <c r="U16" s="76"/>
       <c r="V16" s="76"/>
-      <c r="W16" s="112"/>
+      <c r="W16" s="107"/>
       <c r="X16" s="76"/>
       <c r="Y16" s="76"/>
       <c r="Z16" s="76"/>
       <c r="AA16" s="76"/>
       <c r="AB16" s="76"/>
       <c r="AC16" s="76"/>
-      <c r="AD16" s="109"/>
+      <c r="AD16" s="104"/>
       <c r="AE16" s="76"/>
       <c r="AF16" s="76"/>
       <c r="AG16" s="76"/>
       <c r="AH16" s="76"/>
       <c r="AI16" s="76"/>
       <c r="AJ16" s="76"/>
-      <c r="AK16" s="106"/>
+      <c r="AK16" s="101"/>
       <c r="AL16" s="76"/>
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A17" s="97"/>
-      <c r="B17" s="104"/>
-      <c r="C17" s="98"/>
+      <c r="A17" s="110"/>
+      <c r="B17" s="113"/>
+      <c r="C17" s="109"/>
       <c r="D17" s="2" t="s">
         <v>23</v>
       </c>
@@ -7535,30 +7535,30 @@
       <c r="T17" s="76"/>
       <c r="U17" s="76"/>
       <c r="V17" s="76"/>
-      <c r="W17" s="112"/>
+      <c r="W17" s="107"/>
       <c r="X17" s="76"/>
       <c r="Y17" s="76"/>
       <c r="Z17" s="76"/>
       <c r="AA17" s="76"/>
       <c r="AB17" s="76"/>
       <c r="AC17" s="76"/>
-      <c r="AD17" s="109"/>
+      <c r="AD17" s="104"/>
       <c r="AE17" s="76"/>
       <c r="AF17" s="76"/>
       <c r="AG17" s="76"/>
       <c r="AH17" s="76"/>
       <c r="AI17" s="76"/>
       <c r="AJ17" s="76"/>
-      <c r="AK17" s="106"/>
+      <c r="AK17" s="101"/>
       <c r="AL17" s="76"/>
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A18" s="97"/>
-      <c r="B18" s="104"/>
-      <c r="C18" s="98" t="s">
+      <c r="A18" s="110"/>
+      <c r="B18" s="113"/>
+      <c r="C18" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="98" t="s">
+      <c r="D18" s="109" t="s">
         <v>95</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -7591,28 +7591,28 @@
       <c r="T18" s="76"/>
       <c r="U18" s="76"/>
       <c r="V18" s="76"/>
-      <c r="W18" s="112"/>
+      <c r="W18" s="107"/>
       <c r="X18" s="76"/>
       <c r="Y18" s="76"/>
       <c r="Z18" s="76"/>
       <c r="AA18" s="76"/>
       <c r="AB18" s="76"/>
       <c r="AC18" s="76"/>
-      <c r="AD18" s="109"/>
+      <c r="AD18" s="104"/>
       <c r="AE18" s="76"/>
       <c r="AF18" s="76"/>
       <c r="AG18" s="76"/>
       <c r="AH18" s="76"/>
       <c r="AI18" s="76"/>
       <c r="AJ18" s="76"/>
-      <c r="AK18" s="106"/>
+      <c r="AK18" s="101"/>
       <c r="AL18" s="76"/>
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A19" s="97"/>
-      <c r="B19" s="104"/>
-      <c r="C19" s="98"/>
-      <c r="D19" s="98"/>
+      <c r="A19" s="110"/>
+      <c r="B19" s="113"/>
+      <c r="C19" s="109"/>
+      <c r="D19" s="109"/>
       <c r="E19" s="2" t="s">
         <v>138</v>
       </c>
@@ -7643,28 +7643,28 @@
       <c r="T19" s="76"/>
       <c r="U19" s="76"/>
       <c r="V19" s="76"/>
-      <c r="W19" s="112"/>
+      <c r="W19" s="107"/>
       <c r="X19" s="76"/>
       <c r="Y19" s="76"/>
       <c r="Z19" s="76"/>
       <c r="AA19" s="76"/>
       <c r="AB19" s="76"/>
       <c r="AC19" s="76"/>
-      <c r="AD19" s="109"/>
+      <c r="AD19" s="104"/>
       <c r="AE19" s="76"/>
       <c r="AF19" s="76"/>
       <c r="AG19" s="76"/>
       <c r="AH19" s="76"/>
       <c r="AI19" s="76"/>
       <c r="AJ19" s="76"/>
-      <c r="AK19" s="106"/>
+      <c r="AK19" s="101"/>
       <c r="AL19" s="76"/>
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A20" s="97"/>
-      <c r="B20" s="104"/>
-      <c r="C20" s="98"/>
-      <c r="D20" s="98"/>
+      <c r="A20" s="110"/>
+      <c r="B20" s="113"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="109"/>
       <c r="E20" s="2" t="s">
         <v>112</v>
       </c>
@@ -7695,28 +7695,28 @@
       <c r="T20" s="76"/>
       <c r="U20" s="76"/>
       <c r="V20" s="76"/>
-      <c r="W20" s="112"/>
+      <c r="W20" s="107"/>
       <c r="X20" s="76"/>
       <c r="Y20" s="76"/>
       <c r="Z20" s="76"/>
       <c r="AA20" s="76"/>
       <c r="AB20" s="76"/>
       <c r="AC20" s="76"/>
-      <c r="AD20" s="109"/>
+      <c r="AD20" s="104"/>
       <c r="AE20" s="76"/>
       <c r="AF20" s="76"/>
       <c r="AG20" s="76"/>
       <c r="AH20" s="76"/>
       <c r="AI20" s="76"/>
       <c r="AJ20" s="76"/>
-      <c r="AK20" s="106"/>
+      <c r="AK20" s="101"/>
       <c r="AL20" s="76"/>
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A21" s="97"/>
-      <c r="B21" s="104"/>
-      <c r="C21" s="98"/>
-      <c r="D21" s="98"/>
+      <c r="A21" s="110"/>
+      <c r="B21" s="113"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="109"/>
       <c r="E21" s="2" t="s">
         <v>108</v>
       </c>
@@ -7747,28 +7747,28 @@
       <c r="T21" s="76"/>
       <c r="U21" s="76"/>
       <c r="V21" s="76"/>
-      <c r="W21" s="112"/>
+      <c r="W21" s="107"/>
       <c r="X21" s="76"/>
       <c r="Y21" s="76"/>
       <c r="Z21" s="76"/>
       <c r="AA21" s="76"/>
       <c r="AB21" s="76"/>
       <c r="AC21" s="76"/>
-      <c r="AD21" s="109"/>
+      <c r="AD21" s="104"/>
       <c r="AE21" s="76"/>
       <c r="AF21" s="76"/>
       <c r="AG21" s="76"/>
       <c r="AH21" s="76"/>
       <c r="AI21" s="76"/>
       <c r="AJ21" s="76"/>
-      <c r="AK21" s="106"/>
+      <c r="AK21" s="101"/>
       <c r="AL21" s="76"/>
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A22" s="97"/>
-      <c r="B22" s="104"/>
-      <c r="C22" s="98"/>
-      <c r="D22" s="98"/>
+      <c r="A22" s="110"/>
+      <c r="B22" s="113"/>
+      <c r="C22" s="109"/>
+      <c r="D22" s="109"/>
       <c r="E22" s="2" t="s">
         <v>135</v>
       </c>
@@ -7799,28 +7799,28 @@
       <c r="T22" s="76"/>
       <c r="U22" s="76"/>
       <c r="V22" s="76"/>
-      <c r="W22" s="112"/>
+      <c r="W22" s="107"/>
       <c r="X22" s="76"/>
       <c r="Y22" s="76"/>
       <c r="Z22" s="76"/>
       <c r="AA22" s="76"/>
       <c r="AB22" s="76"/>
       <c r="AC22" s="76"/>
-      <c r="AD22" s="109"/>
+      <c r="AD22" s="104"/>
       <c r="AE22" s="76"/>
       <c r="AF22" s="76"/>
       <c r="AG22" s="76"/>
       <c r="AH22" s="76"/>
       <c r="AI22" s="76"/>
       <c r="AJ22" s="76"/>
-      <c r="AK22" s="106"/>
+      <c r="AK22" s="101"/>
       <c r="AL22" s="76"/>
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A23" s="97"/>
-      <c r="B23" s="104"/>
-      <c r="C23" s="98"/>
-      <c r="D23" s="98"/>
+      <c r="A23" s="110"/>
+      <c r="B23" s="113"/>
+      <c r="C23" s="109"/>
+      <c r="D23" s="109"/>
       <c r="E23" s="2" t="s">
         <v>118</v>
       </c>
@@ -7851,28 +7851,28 @@
       <c r="T23" s="76"/>
       <c r="U23" s="76"/>
       <c r="V23" s="76"/>
-      <c r="W23" s="112"/>
+      <c r="W23" s="107"/>
       <c r="X23" s="76"/>
       <c r="Y23" s="76"/>
       <c r="Z23" s="76"/>
       <c r="AA23" s="76"/>
       <c r="AB23" s="76"/>
       <c r="AC23" s="76"/>
-      <c r="AD23" s="109"/>
+      <c r="AD23" s="104"/>
       <c r="AE23" s="76"/>
       <c r="AF23" s="76"/>
       <c r="AG23" s="76"/>
       <c r="AH23" s="76"/>
       <c r="AI23" s="76"/>
       <c r="AJ23" s="76"/>
-      <c r="AK23" s="106"/>
+      <c r="AK23" s="101"/>
       <c r="AL23" s="76"/>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A24" s="97"/>
-      <c r="B24" s="104"/>
-      <c r="C24" s="98"/>
-      <c r="D24" s="98"/>
+      <c r="A24" s="110"/>
+      <c r="B24" s="113"/>
+      <c r="C24" s="109"/>
+      <c r="D24" s="109"/>
       <c r="E24" s="2" t="s">
         <v>109</v>
       </c>
@@ -7903,28 +7903,28 @@
       <c r="T24" s="76"/>
       <c r="U24" s="76"/>
       <c r="V24" s="76"/>
-      <c r="W24" s="112"/>
+      <c r="W24" s="107"/>
       <c r="X24" s="76"/>
       <c r="Y24" s="76"/>
       <c r="Z24" s="76"/>
       <c r="AA24" s="76"/>
       <c r="AB24" s="76"/>
       <c r="AC24" s="76"/>
-      <c r="AD24" s="109"/>
+      <c r="AD24" s="104"/>
       <c r="AE24" s="76"/>
       <c r="AF24" s="76"/>
       <c r="AG24" s="76"/>
       <c r="AH24" s="76"/>
       <c r="AI24" s="76"/>
       <c r="AJ24" s="76"/>
-      <c r="AK24" s="106"/>
+      <c r="AK24" s="101"/>
       <c r="AL24" s="76"/>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A25" s="97"/>
-      <c r="B25" s="104"/>
-      <c r="C25" s="98"/>
-      <c r="D25" s="98"/>
+      <c r="A25" s="110"/>
+      <c r="B25" s="113"/>
+      <c r="C25" s="109"/>
+      <c r="D25" s="109"/>
       <c r="E25" s="2" t="s">
         <v>167</v>
       </c>
@@ -7955,28 +7955,28 @@
       <c r="T25" s="76"/>
       <c r="U25" s="76"/>
       <c r="V25" s="76"/>
-      <c r="W25" s="112"/>
+      <c r="W25" s="107"/>
       <c r="X25" s="76"/>
       <c r="Y25" s="76"/>
       <c r="Z25" s="76"/>
       <c r="AA25" s="76"/>
       <c r="AB25" s="76"/>
       <c r="AC25" s="76"/>
-      <c r="AD25" s="109"/>
+      <c r="AD25" s="104"/>
       <c r="AE25" s="76"/>
       <c r="AF25" s="76"/>
       <c r="AG25" s="76"/>
       <c r="AH25" s="76"/>
       <c r="AI25" s="76"/>
       <c r="AJ25" s="76"/>
-      <c r="AK25" s="106"/>
+      <c r="AK25" s="101"/>
       <c r="AL25" s="76"/>
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A26" s="97"/>
-      <c r="B26" s="104"/>
-      <c r="C26" s="98"/>
-      <c r="D26" s="98"/>
+      <c r="A26" s="110"/>
+      <c r="B26" s="113"/>
+      <c r="C26" s="109"/>
+      <c r="D26" s="109"/>
       <c r="E26" s="2" t="s">
         <v>106</v>
       </c>
@@ -8007,28 +8007,28 @@
       <c r="T26" s="76"/>
       <c r="U26" s="76"/>
       <c r="V26" s="76"/>
-      <c r="W26" s="112"/>
+      <c r="W26" s="107"/>
       <c r="X26" s="76"/>
       <c r="Y26" s="76"/>
       <c r="Z26" s="76"/>
       <c r="AA26" s="76"/>
       <c r="AB26" s="76"/>
       <c r="AC26" s="76"/>
-      <c r="AD26" s="109"/>
+      <c r="AD26" s="104"/>
       <c r="AE26" s="76"/>
       <c r="AF26" s="76"/>
       <c r="AG26" s="76"/>
       <c r="AH26" s="76"/>
       <c r="AI26" s="76"/>
       <c r="AJ26" s="76"/>
-      <c r="AK26" s="106"/>
+      <c r="AK26" s="101"/>
       <c r="AL26" s="76"/>
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A27" s="97"/>
-      <c r="B27" s="104"/>
-      <c r="C27" s="98"/>
-      <c r="D27" s="98"/>
+      <c r="A27" s="110"/>
+      <c r="B27" s="113"/>
+      <c r="C27" s="109"/>
+      <c r="D27" s="109"/>
       <c r="E27" s="2" t="s">
         <v>102</v>
       </c>
@@ -8059,28 +8059,28 @@
       <c r="T27" s="76"/>
       <c r="U27" s="76"/>
       <c r="V27" s="76"/>
-      <c r="W27" s="112"/>
+      <c r="W27" s="107"/>
       <c r="X27" s="76"/>
       <c r="Y27" s="76"/>
       <c r="Z27" s="76"/>
       <c r="AA27" s="76"/>
       <c r="AB27" s="76"/>
       <c r="AC27" s="76"/>
-      <c r="AD27" s="109"/>
+      <c r="AD27" s="104"/>
       <c r="AE27" s="76"/>
       <c r="AF27" s="76"/>
       <c r="AG27" s="76"/>
       <c r="AH27" s="76"/>
       <c r="AI27" s="76"/>
       <c r="AJ27" s="76"/>
-      <c r="AK27" s="106"/>
+      <c r="AK27" s="101"/>
       <c r="AL27" s="76"/>
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A28" s="97"/>
-      <c r="B28" s="104"/>
-      <c r="C28" s="98"/>
-      <c r="D28" s="98" t="s">
+      <c r="A28" s="110"/>
+      <c r="B28" s="113"/>
+      <c r="C28" s="109"/>
+      <c r="D28" s="109" t="s">
         <v>25</v>
       </c>
       <c r="E28" s="2" t="s">
@@ -8113,28 +8113,28 @@
       <c r="T28" s="76"/>
       <c r="U28" s="76"/>
       <c r="V28" s="76"/>
-      <c r="W28" s="112"/>
+      <c r="W28" s="107"/>
       <c r="X28" s="76"/>
       <c r="Y28" s="76"/>
       <c r="Z28" s="76"/>
       <c r="AA28" s="76"/>
       <c r="AB28" s="76"/>
       <c r="AC28" s="76"/>
-      <c r="AD28" s="109"/>
+      <c r="AD28" s="104"/>
       <c r="AE28" s="76"/>
       <c r="AF28" s="76"/>
       <c r="AG28" s="76"/>
       <c r="AH28" s="76"/>
       <c r="AI28" s="76"/>
       <c r="AJ28" s="76"/>
-      <c r="AK28" s="106"/>
+      <c r="AK28" s="101"/>
       <c r="AL28" s="76"/>
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A29" s="97"/>
-      <c r="B29" s="104"/>
-      <c r="C29" s="98"/>
-      <c r="D29" s="98"/>
+      <c r="A29" s="110"/>
+      <c r="B29" s="113"/>
+      <c r="C29" s="109"/>
+      <c r="D29" s="109"/>
       <c r="E29" s="2" t="s">
         <v>119</v>
       </c>
@@ -8165,28 +8165,28 @@
       <c r="T29" s="76"/>
       <c r="U29" s="76"/>
       <c r="V29" s="76"/>
-      <c r="W29" s="112"/>
+      <c r="W29" s="107"/>
       <c r="X29" s="76"/>
       <c r="Y29" s="76"/>
       <c r="Z29" s="76"/>
       <c r="AA29" s="76"/>
       <c r="AB29" s="76"/>
       <c r="AC29" s="76"/>
-      <c r="AD29" s="109"/>
+      <c r="AD29" s="104"/>
       <c r="AE29" s="76"/>
       <c r="AF29" s="76"/>
       <c r="AG29" s="76"/>
       <c r="AH29" s="76"/>
       <c r="AI29" s="76"/>
       <c r="AJ29" s="76"/>
-      <c r="AK29" s="106"/>
+      <c r="AK29" s="101"/>
       <c r="AL29" s="76"/>
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A30" s="97"/>
-      <c r="B30" s="104"/>
-      <c r="C30" s="98"/>
-      <c r="D30" s="98" t="s">
+      <c r="A30" s="110"/>
+      <c r="B30" s="113"/>
+      <c r="C30" s="109"/>
+      <c r="D30" s="109" t="s">
         <v>13</v>
       </c>
       <c r="E30" s="2" t="s">
@@ -8217,28 +8217,28 @@
       <c r="T30" s="76"/>
       <c r="U30" s="76"/>
       <c r="V30" s="76"/>
-      <c r="W30" s="112"/>
+      <c r="W30" s="107"/>
       <c r="X30" s="76"/>
       <c r="Y30" s="76"/>
       <c r="Z30" s="76"/>
       <c r="AA30" s="76"/>
       <c r="AB30" s="76"/>
       <c r="AC30" s="76"/>
-      <c r="AD30" s="109"/>
+      <c r="AD30" s="104"/>
       <c r="AE30" s="76"/>
       <c r="AF30" s="76"/>
       <c r="AG30" s="76"/>
       <c r="AH30" s="76"/>
       <c r="AI30" s="76"/>
       <c r="AJ30" s="76"/>
-      <c r="AK30" s="106"/>
+      <c r="AK30" s="101"/>
       <c r="AL30" s="76"/>
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A31" s="97"/>
-      <c r="B31" s="104"/>
-      <c r="C31" s="98"/>
-      <c r="D31" s="98"/>
+      <c r="A31" s="110"/>
+      <c r="B31" s="113"/>
+      <c r="C31" s="109"/>
+      <c r="D31" s="109"/>
       <c r="E31" s="2" t="s">
         <v>143</v>
       </c>
@@ -8263,28 +8263,28 @@
       <c r="T31" s="76"/>
       <c r="U31" s="76"/>
       <c r="V31" s="76"/>
-      <c r="W31" s="112"/>
+      <c r="W31" s="107"/>
       <c r="X31" s="76"/>
       <c r="Y31" s="76"/>
       <c r="Z31" s="76"/>
       <c r="AA31" s="76"/>
       <c r="AB31" s="76"/>
       <c r="AC31" s="76"/>
-      <c r="AD31" s="109"/>
+      <c r="AD31" s="104"/>
       <c r="AE31" s="76"/>
       <c r="AF31" s="76"/>
       <c r="AG31" s="76"/>
       <c r="AH31" s="76"/>
       <c r="AI31" s="76"/>
       <c r="AJ31" s="76"/>
-      <c r="AK31" s="106"/>
+      <c r="AK31" s="101"/>
       <c r="AL31" s="76"/>
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A32" s="97"/>
-      <c r="B32" s="104"/>
-      <c r="C32" s="98"/>
-      <c r="D32" s="98"/>
+      <c r="A32" s="110"/>
+      <c r="B32" s="113"/>
+      <c r="C32" s="109"/>
+      <c r="D32" s="109"/>
       <c r="E32" s="2" t="s">
         <v>113</v>
       </c>
@@ -8315,28 +8315,28 @@
       <c r="T32" s="76"/>
       <c r="U32" s="76"/>
       <c r="V32" s="76"/>
-      <c r="W32" s="112"/>
+      <c r="W32" s="107"/>
       <c r="X32" s="76"/>
       <c r="Y32" s="76"/>
       <c r="Z32" s="76"/>
       <c r="AA32" s="76"/>
       <c r="AB32" s="76"/>
       <c r="AC32" s="76"/>
-      <c r="AD32" s="109"/>
+      <c r="AD32" s="104"/>
       <c r="AE32" s="76"/>
       <c r="AF32" s="76"/>
       <c r="AG32" s="76"/>
       <c r="AH32" s="76"/>
       <c r="AI32" s="76"/>
       <c r="AJ32" s="76"/>
-      <c r="AK32" s="106"/>
+      <c r="AK32" s="101"/>
       <c r="AL32" s="76"/>
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A33" s="97"/>
-      <c r="B33" s="104"/>
-      <c r="C33" s="98"/>
-      <c r="D33" s="101" t="s">
+      <c r="A33" s="110"/>
+      <c r="B33" s="113"/>
+      <c r="C33" s="109"/>
+      <c r="D33" s="97" t="s">
         <v>90</v>
       </c>
       <c r="E33" s="2" t="s">
@@ -8369,28 +8369,28 @@
       <c r="T33" s="76"/>
       <c r="U33" s="76"/>
       <c r="V33" s="76"/>
-      <c r="W33" s="112"/>
+      <c r="W33" s="107"/>
       <c r="X33" s="76"/>
       <c r="Y33" s="76"/>
       <c r="Z33" s="76"/>
       <c r="AA33" s="76"/>
       <c r="AB33" s="76"/>
       <c r="AC33" s="76"/>
-      <c r="AD33" s="109"/>
+      <c r="AD33" s="104"/>
       <c r="AE33" s="76"/>
       <c r="AF33" s="76"/>
       <c r="AG33" s="76"/>
       <c r="AH33" s="76"/>
       <c r="AI33" s="76"/>
       <c r="AJ33" s="76"/>
-      <c r="AK33" s="106"/>
+      <c r="AK33" s="101"/>
       <c r="AL33" s="76"/>
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A34" s="97"/>
-      <c r="B34" s="104"/>
-      <c r="C34" s="98"/>
-      <c r="D34" s="102"/>
+      <c r="A34" s="110"/>
+      <c r="B34" s="113"/>
+      <c r="C34" s="109"/>
+      <c r="D34" s="98"/>
       <c r="E34" s="2" t="s">
         <v>141</v>
       </c>
@@ -8421,28 +8421,28 @@
       <c r="T34" s="76"/>
       <c r="U34" s="76"/>
       <c r="V34" s="76"/>
-      <c r="W34" s="112"/>
+      <c r="W34" s="107"/>
       <c r="X34" s="76"/>
       <c r="Y34" s="76"/>
       <c r="Z34" s="76"/>
       <c r="AA34" s="76"/>
       <c r="AB34" s="76"/>
       <c r="AC34" s="76"/>
-      <c r="AD34" s="109"/>
+      <c r="AD34" s="104"/>
       <c r="AE34" s="76"/>
       <c r="AF34" s="76"/>
       <c r="AG34" s="76"/>
       <c r="AH34" s="76"/>
       <c r="AI34" s="76"/>
       <c r="AJ34" s="76"/>
-      <c r="AK34" s="106"/>
+      <c r="AK34" s="101"/>
       <c r="AL34" s="76"/>
     </row>
     <row r="35" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A35" s="97"/>
-      <c r="B35" s="104"/>
-      <c r="C35" s="98"/>
-      <c r="D35" s="102"/>
+      <c r="A35" s="110"/>
+      <c r="B35" s="113"/>
+      <c r="C35" s="109"/>
+      <c r="D35" s="98"/>
       <c r="E35" s="2" t="s">
         <v>103</v>
       </c>
@@ -8473,28 +8473,28 @@
       <c r="T35" s="76"/>
       <c r="U35" s="76"/>
       <c r="V35" s="76"/>
-      <c r="W35" s="112"/>
+      <c r="W35" s="107"/>
       <c r="X35" s="76"/>
       <c r="Y35" s="76"/>
       <c r="Z35" s="76"/>
       <c r="AA35" s="76"/>
       <c r="AB35" s="76"/>
       <c r="AC35" s="76"/>
-      <c r="AD35" s="109"/>
+      <c r="AD35" s="104"/>
       <c r="AE35" s="76"/>
       <c r="AF35" s="76"/>
       <c r="AG35" s="76"/>
       <c r="AH35" s="76"/>
       <c r="AI35" s="76"/>
       <c r="AJ35" s="76"/>
-      <c r="AK35" s="106"/>
+      <c r="AK35" s="101"/>
       <c r="AL35" s="76"/>
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A36" s="97"/>
-      <c r="B36" s="104"/>
-      <c r="C36" s="98"/>
-      <c r="D36" s="102"/>
+      <c r="A36" s="110"/>
+      <c r="B36" s="113"/>
+      <c r="C36" s="109"/>
+      <c r="D36" s="98"/>
       <c r="E36" s="2" t="s">
         <v>224</v>
       </c>
@@ -8517,28 +8517,28 @@
       <c r="T36" s="76"/>
       <c r="U36" s="76"/>
       <c r="V36" s="76"/>
-      <c r="W36" s="112"/>
+      <c r="W36" s="107"/>
       <c r="X36" s="76"/>
       <c r="Y36" s="76"/>
       <c r="Z36" s="76"/>
       <c r="AA36" s="76"/>
       <c r="AB36" s="76"/>
       <c r="AC36" s="76"/>
-      <c r="AD36" s="109"/>
+      <c r="AD36" s="104"/>
       <c r="AE36" s="76"/>
       <c r="AF36" s="76"/>
       <c r="AG36" s="76"/>
       <c r="AH36" s="76"/>
       <c r="AI36" s="76"/>
       <c r="AJ36" s="76"/>
-      <c r="AK36" s="106"/>
+      <c r="AK36" s="101"/>
       <c r="AL36" s="76"/>
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A37" s="97"/>
-      <c r="B37" s="104"/>
-      <c r="C37" s="98"/>
-      <c r="D37" s="102"/>
+      <c r="A37" s="110"/>
+      <c r="B37" s="113"/>
+      <c r="C37" s="109"/>
+      <c r="D37" s="98"/>
       <c r="E37" s="2" t="s">
         <v>251</v>
       </c>
@@ -8561,28 +8561,28 @@
       <c r="T37" s="76"/>
       <c r="U37" s="76"/>
       <c r="V37" s="76"/>
-      <c r="W37" s="112"/>
+      <c r="W37" s="107"/>
       <c r="X37" s="76"/>
       <c r="Y37" s="76"/>
       <c r="Z37" s="76"/>
       <c r="AA37" s="76"/>
       <c r="AB37" s="76"/>
       <c r="AC37" s="76"/>
-      <c r="AD37" s="109"/>
+      <c r="AD37" s="104"/>
       <c r="AE37" s="76"/>
       <c r="AF37" s="76"/>
       <c r="AG37" s="76"/>
       <c r="AH37" s="76"/>
       <c r="AI37" s="76"/>
       <c r="AJ37" s="76"/>
-      <c r="AK37" s="106"/>
+      <c r="AK37" s="101"/>
       <c r="AL37" s="76"/>
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A38" s="97"/>
-      <c r="B38" s="104"/>
-      <c r="C38" s="98"/>
-      <c r="D38" s="103"/>
+      <c r="A38" s="110"/>
+      <c r="B38" s="113"/>
+      <c r="C38" s="109"/>
+      <c r="D38" s="99"/>
       <c r="E38" s="2" t="s">
         <v>253</v>
       </c>
@@ -8605,27 +8605,27 @@
       <c r="T38" s="76"/>
       <c r="U38" s="76"/>
       <c r="V38" s="76"/>
-      <c r="W38" s="112"/>
+      <c r="W38" s="107"/>
       <c r="X38" s="76"/>
       <c r="Y38" s="76"/>
       <c r="Z38" s="76"/>
       <c r="AA38" s="76"/>
       <c r="AB38" s="76"/>
       <c r="AC38" s="76"/>
-      <c r="AD38" s="109"/>
+      <c r="AD38" s="104"/>
       <c r="AE38" s="76"/>
       <c r="AF38" s="76"/>
       <c r="AG38" s="76"/>
       <c r="AH38" s="76"/>
       <c r="AI38" s="76"/>
       <c r="AJ38" s="76"/>
-      <c r="AK38" s="106"/>
+      <c r="AK38" s="101"/>
       <c r="AL38" s="76"/>
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A39" s="97"/>
-      <c r="B39" s="104"/>
-      <c r="C39" s="98"/>
+      <c r="A39" s="110"/>
+      <c r="B39" s="113"/>
+      <c r="C39" s="109"/>
       <c r="D39" s="2" t="s">
         <v>24</v>
       </c>
@@ -8653,27 +8653,27 @@
       <c r="T39" s="76"/>
       <c r="U39" s="76"/>
       <c r="V39" s="76"/>
-      <c r="W39" s="112"/>
+      <c r="W39" s="107"/>
       <c r="X39" s="76"/>
       <c r="Y39" s="76"/>
       <c r="Z39" s="76"/>
       <c r="AA39" s="76"/>
       <c r="AB39" s="76"/>
       <c r="AC39" s="76"/>
-      <c r="AD39" s="109"/>
+      <c r="AD39" s="104"/>
       <c r="AE39" s="76"/>
       <c r="AF39" s="76"/>
       <c r="AG39" s="76"/>
       <c r="AH39" s="76"/>
       <c r="AI39" s="76"/>
       <c r="AJ39" s="76"/>
-      <c r="AK39" s="106"/>
+      <c r="AK39" s="101"/>
       <c r="AL39" s="76"/>
     </row>
     <row r="40" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A40" s="97"/>
-      <c r="B40" s="104"/>
-      <c r="C40" s="98"/>
+      <c r="A40" s="110"/>
+      <c r="B40" s="113"/>
+      <c r="C40" s="109"/>
       <c r="D40" s="2" t="s">
         <v>144</v>
       </c>
@@ -8707,27 +8707,27 @@
       <c r="T40" s="76"/>
       <c r="U40" s="76"/>
       <c r="V40" s="76"/>
-      <c r="W40" s="112"/>
+      <c r="W40" s="107"/>
       <c r="X40" s="76"/>
       <c r="Y40" s="76"/>
       <c r="Z40" s="76"/>
       <c r="AA40" s="76"/>
       <c r="AB40" s="76"/>
       <c r="AC40" s="76"/>
-      <c r="AD40" s="109"/>
+      <c r="AD40" s="104"/>
       <c r="AE40" s="76"/>
       <c r="AF40" s="76"/>
       <c r="AG40" s="76"/>
       <c r="AH40" s="76"/>
       <c r="AI40" s="76"/>
       <c r="AJ40" s="76"/>
-      <c r="AK40" s="106"/>
+      <c r="AK40" s="101"/>
       <c r="AL40" s="76"/>
     </row>
     <row r="41" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A41" s="97"/>
-      <c r="B41" s="104"/>
-      <c r="C41" s="98"/>
+      <c r="A41" s="110"/>
+      <c r="B41" s="113"/>
+      <c r="C41" s="109"/>
       <c r="D41" s="2" t="s">
         <v>94</v>
       </c>
@@ -8751,27 +8751,27 @@
       <c r="T41" s="76"/>
       <c r="U41" s="76"/>
       <c r="V41" s="76"/>
-      <c r="W41" s="112"/>
+      <c r="W41" s="107"/>
       <c r="X41" s="76"/>
       <c r="Y41" s="76"/>
       <c r="Z41" s="76"/>
       <c r="AA41" s="76"/>
       <c r="AB41" s="76"/>
       <c r="AC41" s="76"/>
-      <c r="AD41" s="109"/>
+      <c r="AD41" s="104"/>
       <c r="AE41" s="76"/>
       <c r="AF41" s="76"/>
       <c r="AG41" s="76"/>
       <c r="AH41" s="76"/>
       <c r="AI41" s="76"/>
       <c r="AJ41" s="76"/>
-      <c r="AK41" s="106"/>
+      <c r="AK41" s="101"/>
       <c r="AL41" s="76"/>
     </row>
     <row r="42" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A42" s="97"/>
-      <c r="B42" s="104"/>
-      <c r="C42" s="98"/>
+      <c r="A42" s="110"/>
+      <c r="B42" s="113"/>
+      <c r="C42" s="109"/>
       <c r="D42" s="2" t="s">
         <v>23</v>
       </c>
@@ -8795,27 +8795,27 @@
       <c r="T42" s="76"/>
       <c r="U42" s="76"/>
       <c r="V42" s="76"/>
-      <c r="W42" s="112"/>
+      <c r="W42" s="107"/>
       <c r="X42" s="76"/>
       <c r="Y42" s="76"/>
       <c r="Z42" s="76"/>
       <c r="AA42" s="76"/>
       <c r="AB42" s="76"/>
       <c r="AC42" s="76"/>
-      <c r="AD42" s="109"/>
+      <c r="AD42" s="104"/>
       <c r="AE42" s="76"/>
       <c r="AF42" s="76"/>
       <c r="AG42" s="76"/>
       <c r="AH42" s="76"/>
       <c r="AI42" s="76"/>
       <c r="AJ42" s="76"/>
-      <c r="AK42" s="106"/>
+      <c r="AK42" s="101"/>
       <c r="AL42" s="76"/>
     </row>
     <row r="43" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A43" s="97"/>
-      <c r="B43" s="104"/>
-      <c r="C43" s="98"/>
+      <c r="A43" s="110"/>
+      <c r="B43" s="113"/>
+      <c r="C43" s="109"/>
       <c r="D43" s="34" t="s">
         <v>27</v>
       </c>
@@ -8839,27 +8839,27 @@
       <c r="T43" s="76"/>
       <c r="U43" s="76"/>
       <c r="V43" s="76"/>
-      <c r="W43" s="112"/>
+      <c r="W43" s="107"/>
       <c r="X43" s="76"/>
       <c r="Y43" s="76"/>
       <c r="Z43" s="76"/>
       <c r="AA43" s="76"/>
       <c r="AB43" s="76"/>
       <c r="AC43" s="76"/>
-      <c r="AD43" s="109"/>
+      <c r="AD43" s="104"/>
       <c r="AE43" s="76"/>
       <c r="AF43" s="76"/>
       <c r="AG43" s="76"/>
       <c r="AH43" s="76"/>
       <c r="AI43" s="76"/>
       <c r="AJ43" s="76"/>
-      <c r="AK43" s="106"/>
+      <c r="AK43" s="101"/>
       <c r="AL43" s="76"/>
     </row>
     <row r="44" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A44" s="97"/>
-      <c r="B44" s="104"/>
-      <c r="C44" s="98"/>
+      <c r="A44" s="110"/>
+      <c r="B44" s="113"/>
+      <c r="C44" s="109"/>
       <c r="D44" s="33" t="s">
         <v>45</v>
       </c>
@@ -8883,27 +8883,27 @@
       <c r="T44" s="76"/>
       <c r="U44" s="76"/>
       <c r="V44" s="76"/>
-      <c r="W44" s="112"/>
+      <c r="W44" s="107"/>
       <c r="X44" s="76"/>
       <c r="Y44" s="76"/>
       <c r="Z44" s="76"/>
       <c r="AA44" s="76"/>
       <c r="AB44" s="76"/>
       <c r="AC44" s="76"/>
-      <c r="AD44" s="109"/>
+      <c r="AD44" s="104"/>
       <c r="AE44" s="76"/>
       <c r="AF44" s="76"/>
       <c r="AG44" s="76"/>
       <c r="AH44" s="76"/>
       <c r="AI44" s="76"/>
       <c r="AJ44" s="76"/>
-      <c r="AK44" s="106"/>
+      <c r="AK44" s="101"/>
       <c r="AL44" s="76"/>
     </row>
     <row r="45" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A45" s="97"/>
-      <c r="B45" s="104"/>
-      <c r="C45" s="98"/>
+      <c r="A45" s="110"/>
+      <c r="B45" s="113"/>
+      <c r="C45" s="109"/>
       <c r="D45" s="2" t="s">
         <v>26</v>
       </c>
@@ -8927,27 +8927,27 @@
       <c r="T45" s="76"/>
       <c r="U45" s="76"/>
       <c r="V45" s="76"/>
-      <c r="W45" s="112"/>
+      <c r="W45" s="107"/>
       <c r="X45" s="76"/>
       <c r="Y45" s="76"/>
       <c r="Z45" s="76"/>
       <c r="AA45" s="76"/>
       <c r="AB45" s="76"/>
       <c r="AC45" s="76"/>
-      <c r="AD45" s="109"/>
+      <c r="AD45" s="104"/>
       <c r="AE45" s="76"/>
       <c r="AF45" s="76"/>
       <c r="AG45" s="76"/>
       <c r="AH45" s="76"/>
       <c r="AI45" s="76"/>
       <c r="AJ45" s="76"/>
-      <c r="AK45" s="106"/>
+      <c r="AK45" s="101"/>
       <c r="AL45" s="76"/>
     </row>
     <row r="46" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A46" s="97"/>
-      <c r="B46" s="104"/>
-      <c r="C46" s="98" t="s">
+      <c r="A46" s="110"/>
+      <c r="B46" s="113"/>
+      <c r="C46" s="109" t="s">
         <v>42</v>
       </c>
       <c r="D46" s="35" t="s">
@@ -8973,27 +8973,27 @@
       <c r="T46" s="76"/>
       <c r="U46" s="76"/>
       <c r="V46" s="76"/>
-      <c r="W46" s="112"/>
+      <c r="W46" s="107"/>
       <c r="X46" s="76"/>
       <c r="Y46" s="76"/>
       <c r="Z46" s="76"/>
       <c r="AA46" s="76"/>
       <c r="AB46" s="76"/>
       <c r="AC46" s="76"/>
-      <c r="AD46" s="109"/>
+      <c r="AD46" s="104"/>
       <c r="AE46" s="76"/>
       <c r="AF46" s="76"/>
       <c r="AG46" s="76"/>
       <c r="AH46" s="76"/>
       <c r="AI46" s="76"/>
       <c r="AJ46" s="76"/>
-      <c r="AK46" s="106"/>
+      <c r="AK46" s="101"/>
       <c r="AL46" s="76"/>
     </row>
     <row r="47" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A47" s="97"/>
-      <c r="B47" s="104"/>
-      <c r="C47" s="98"/>
+      <c r="A47" s="110"/>
+      <c r="B47" s="113"/>
+      <c r="C47" s="109"/>
       <c r="D47" s="2" t="s">
         <v>26</v>
       </c>
@@ -9017,27 +9017,27 @@
       <c r="T47" s="76"/>
       <c r="U47" s="76"/>
       <c r="V47" s="76"/>
-      <c r="W47" s="112"/>
+      <c r="W47" s="107"/>
       <c r="X47" s="76"/>
       <c r="Y47" s="76"/>
       <c r="Z47" s="76"/>
       <c r="AA47" s="76"/>
       <c r="AB47" s="76"/>
       <c r="AC47" s="76"/>
-      <c r="AD47" s="109"/>
+      <c r="AD47" s="104"/>
       <c r="AE47" s="76"/>
       <c r="AF47" s="76"/>
       <c r="AG47" s="76"/>
       <c r="AH47" s="76"/>
       <c r="AI47" s="76"/>
       <c r="AJ47" s="76"/>
-      <c r="AK47" s="106"/>
+      <c r="AK47" s="101"/>
       <c r="AL47" s="76"/>
     </row>
     <row r="48" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A48" s="97"/>
-      <c r="B48" s="104"/>
-      <c r="C48" s="98" t="s">
+      <c r="A48" s="110"/>
+      <c r="B48" s="113"/>
+      <c r="C48" s="109" t="s">
         <v>43</v>
       </c>
       <c r="D48" s="33" t="s">
@@ -9063,27 +9063,27 @@
       <c r="T48" s="76"/>
       <c r="U48" s="76"/>
       <c r="V48" s="76"/>
-      <c r="W48" s="112"/>
+      <c r="W48" s="107"/>
       <c r="X48" s="76"/>
       <c r="Y48" s="76"/>
       <c r="Z48" s="76"/>
       <c r="AA48" s="76"/>
       <c r="AB48" s="76"/>
       <c r="AC48" s="76"/>
-      <c r="AD48" s="109"/>
+      <c r="AD48" s="104"/>
       <c r="AE48" s="76"/>
       <c r="AF48" s="76"/>
       <c r="AG48" s="76"/>
       <c r="AH48" s="76"/>
       <c r="AI48" s="76"/>
       <c r="AJ48" s="76"/>
-      <c r="AK48" s="106"/>
+      <c r="AK48" s="101"/>
       <c r="AL48" s="76"/>
     </row>
     <row r="49" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A49" s="97"/>
-      <c r="B49" s="104"/>
-      <c r="C49" s="98"/>
+      <c r="A49" s="110"/>
+      <c r="B49" s="113"/>
+      <c r="C49" s="109"/>
       <c r="D49" s="2" t="s">
         <v>26</v>
       </c>
@@ -9107,27 +9107,27 @@
       <c r="T49" s="76"/>
       <c r="U49" s="76"/>
       <c r="V49" s="76"/>
-      <c r="W49" s="112"/>
+      <c r="W49" s="107"/>
       <c r="X49" s="76"/>
       <c r="Y49" s="76"/>
       <c r="Z49" s="76"/>
       <c r="AA49" s="76"/>
       <c r="AB49" s="76"/>
       <c r="AC49" s="76"/>
-      <c r="AD49" s="109"/>
+      <c r="AD49" s="104"/>
       <c r="AE49" s="76"/>
       <c r="AF49" s="76"/>
       <c r="AG49" s="76"/>
       <c r="AH49" s="76"/>
       <c r="AI49" s="76"/>
       <c r="AJ49" s="76"/>
-      <c r="AK49" s="106"/>
+      <c r="AK49" s="101"/>
       <c r="AL49" s="76"/>
     </row>
     <row r="50" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A50" s="97"/>
-      <c r="B50" s="104"/>
-      <c r="C50" s="98"/>
+      <c r="A50" s="110"/>
+      <c r="B50" s="113"/>
+      <c r="C50" s="109"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="19"/>
@@ -9149,27 +9149,27 @@
       <c r="T50" s="76"/>
       <c r="U50" s="76"/>
       <c r="V50" s="76"/>
-      <c r="W50" s="112"/>
+      <c r="W50" s="107"/>
       <c r="X50" s="76"/>
       <c r="Y50" s="76"/>
       <c r="Z50" s="76"/>
       <c r="AA50" s="76"/>
       <c r="AB50" s="76"/>
       <c r="AC50" s="76"/>
-      <c r="AD50" s="109"/>
+      <c r="AD50" s="104"/>
       <c r="AE50" s="76"/>
       <c r="AF50" s="76"/>
       <c r="AG50" s="76"/>
       <c r="AH50" s="76"/>
       <c r="AI50" s="76"/>
       <c r="AJ50" s="76"/>
-      <c r="AK50" s="106"/>
+      <c r="AK50" s="101"/>
       <c r="AL50" s="76"/>
     </row>
     <row r="51" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A51" s="97"/>
-      <c r="B51" s="104"/>
-      <c r="C51" s="98" t="s">
+      <c r="A51" s="110"/>
+      <c r="B51" s="113"/>
+      <c r="C51" s="109" t="s">
         <v>17</v>
       </c>
       <c r="D51" s="2" t="s">
@@ -9195,27 +9195,27 @@
       <c r="T51" s="76"/>
       <c r="U51" s="76"/>
       <c r="V51" s="76"/>
-      <c r="W51" s="112"/>
+      <c r="W51" s="107"/>
       <c r="X51" s="76"/>
       <c r="Y51" s="76"/>
       <c r="Z51" s="76"/>
       <c r="AA51" s="76"/>
       <c r="AB51" s="76"/>
       <c r="AC51" s="76"/>
-      <c r="AD51" s="109"/>
+      <c r="AD51" s="104"/>
       <c r="AE51" s="76"/>
       <c r="AF51" s="76"/>
       <c r="AG51" s="76"/>
       <c r="AH51" s="76"/>
       <c r="AI51" s="76"/>
       <c r="AJ51" s="76"/>
-      <c r="AK51" s="106"/>
+      <c r="AK51" s="101"/>
       <c r="AL51" s="76"/>
     </row>
     <row r="52" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A52" s="97"/>
-      <c r="B52" s="104"/>
-      <c r="C52" s="98"/>
+      <c r="A52" s="110"/>
+      <c r="B52" s="113"/>
+      <c r="C52" s="109"/>
       <c r="D52" s="2" t="s">
         <v>36</v>
       </c>
@@ -9239,27 +9239,27 @@
       <c r="T52" s="76"/>
       <c r="U52" s="76"/>
       <c r="V52" s="76"/>
-      <c r="W52" s="112"/>
+      <c r="W52" s="107"/>
       <c r="X52" s="76"/>
       <c r="Y52" s="76"/>
       <c r="Z52" s="76"/>
       <c r="AA52" s="76"/>
       <c r="AB52" s="76"/>
       <c r="AC52" s="76"/>
-      <c r="AD52" s="109"/>
+      <c r="AD52" s="104"/>
       <c r="AE52" s="76"/>
       <c r="AF52" s="76"/>
       <c r="AG52" s="76"/>
       <c r="AH52" s="76"/>
       <c r="AI52" s="76"/>
       <c r="AJ52" s="76"/>
-      <c r="AK52" s="106"/>
+      <c r="AK52" s="101"/>
       <c r="AL52" s="76"/>
     </row>
     <row r="53" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A53" s="97"/>
-      <c r="B53" s="104"/>
-      <c r="C53" s="98"/>
+      <c r="A53" s="110"/>
+      <c r="B53" s="113"/>
+      <c r="C53" s="109"/>
       <c r="D53" s="2" t="s">
         <v>37</v>
       </c>
@@ -9283,27 +9283,27 @@
       <c r="T53" s="76"/>
       <c r="U53" s="76"/>
       <c r="V53" s="76"/>
-      <c r="W53" s="112"/>
+      <c r="W53" s="107"/>
       <c r="X53" s="76"/>
       <c r="Y53" s="76"/>
       <c r="Z53" s="76"/>
       <c r="AA53" s="76"/>
       <c r="AB53" s="76"/>
       <c r="AC53" s="76"/>
-      <c r="AD53" s="109"/>
+      <c r="AD53" s="104"/>
       <c r="AE53" s="76"/>
       <c r="AF53" s="76"/>
       <c r="AG53" s="76"/>
       <c r="AH53" s="76"/>
       <c r="AI53" s="76"/>
       <c r="AJ53" s="76"/>
-      <c r="AK53" s="106"/>
+      <c r="AK53" s="101"/>
       <c r="AL53" s="76"/>
     </row>
     <row r="54" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A54" s="97"/>
-      <c r="B54" s="104"/>
-      <c r="C54" s="98"/>
+      <c r="A54" s="110"/>
+      <c r="B54" s="113"/>
+      <c r="C54" s="109"/>
       <c r="D54" s="2" t="s">
         <v>38</v>
       </c>
@@ -9327,27 +9327,27 @@
       <c r="T54" s="76"/>
       <c r="U54" s="76"/>
       <c r="V54" s="76"/>
-      <c r="W54" s="112"/>
+      <c r="W54" s="107"/>
       <c r="X54" s="76"/>
       <c r="Y54" s="76"/>
       <c r="Z54" s="76"/>
       <c r="AA54" s="76"/>
       <c r="AB54" s="76"/>
       <c r="AC54" s="76"/>
-      <c r="AD54" s="109"/>
+      <c r="AD54" s="104"/>
       <c r="AE54" s="76"/>
       <c r="AF54" s="76"/>
       <c r="AG54" s="76"/>
       <c r="AH54" s="76"/>
       <c r="AI54" s="76"/>
       <c r="AJ54" s="76"/>
-      <c r="AK54" s="106"/>
+      <c r="AK54" s="101"/>
       <c r="AL54" s="76"/>
     </row>
     <row r="55" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A55" s="97"/>
-      <c r="B55" s="104"/>
-      <c r="C55" s="98"/>
+      <c r="A55" s="110"/>
+      <c r="B55" s="113"/>
+      <c r="C55" s="109"/>
       <c r="D55" s="2" t="s">
         <v>33</v>
       </c>
@@ -9371,27 +9371,27 @@
       <c r="T55" s="76"/>
       <c r="U55" s="76"/>
       <c r="V55" s="76"/>
-      <c r="W55" s="112"/>
+      <c r="W55" s="107"/>
       <c r="X55" s="76"/>
       <c r="Y55" s="76"/>
       <c r="Z55" s="76"/>
       <c r="AA55" s="76"/>
       <c r="AB55" s="76"/>
       <c r="AC55" s="76"/>
-      <c r="AD55" s="109"/>
+      <c r="AD55" s="104"/>
       <c r="AE55" s="76"/>
       <c r="AF55" s="76"/>
       <c r="AG55" s="76"/>
       <c r="AH55" s="76"/>
       <c r="AI55" s="76"/>
       <c r="AJ55" s="76"/>
-      <c r="AK55" s="106"/>
+      <c r="AK55" s="101"/>
       <c r="AL55" s="76"/>
     </row>
     <row r="56" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A56" s="97"/>
-      <c r="B56" s="104"/>
-      <c r="C56" s="98" t="s">
+      <c r="A56" s="110"/>
+      <c r="B56" s="113"/>
+      <c r="C56" s="109" t="s">
         <v>121</v>
       </c>
       <c r="D56" s="2" t="s">
@@ -9425,27 +9425,27 @@
       <c r="T56" s="76"/>
       <c r="U56" s="76"/>
       <c r="V56" s="76"/>
-      <c r="W56" s="112"/>
+      <c r="W56" s="107"/>
       <c r="X56" s="76"/>
       <c r="Y56" s="76"/>
       <c r="Z56" s="76"/>
       <c r="AA56" s="76"/>
       <c r="AB56" s="76"/>
       <c r="AC56" s="76"/>
-      <c r="AD56" s="109"/>
+      <c r="AD56" s="104"/>
       <c r="AE56" s="76"/>
       <c r="AF56" s="76"/>
       <c r="AG56" s="76"/>
       <c r="AH56" s="76"/>
       <c r="AI56" s="76"/>
       <c r="AJ56" s="76"/>
-      <c r="AK56" s="106"/>
+      <c r="AK56" s="101"/>
       <c r="AL56" s="76"/>
     </row>
     <row r="57" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A57" s="97"/>
-      <c r="B57" s="104"/>
-      <c r="C57" s="98"/>
+      <c r="A57" s="110"/>
+      <c r="B57" s="113"/>
+      <c r="C57" s="109"/>
       <c r="D57" s="2" t="s">
         <v>151</v>
       </c>
@@ -9477,26 +9477,26 @@
       <c r="T57" s="76"/>
       <c r="U57" s="76"/>
       <c r="V57" s="76"/>
-      <c r="W57" s="112"/>
+      <c r="W57" s="107"/>
       <c r="X57" s="76"/>
       <c r="Y57" s="76"/>
       <c r="Z57" s="76"/>
       <c r="AA57" s="76"/>
       <c r="AB57" s="76"/>
       <c r="AC57" s="76"/>
-      <c r="AD57" s="109"/>
+      <c r="AD57" s="104"/>
       <c r="AE57" s="76"/>
       <c r="AF57" s="76"/>
       <c r="AG57" s="76"/>
       <c r="AH57" s="76"/>
       <c r="AI57" s="76"/>
       <c r="AJ57" s="76"/>
-      <c r="AK57" s="106"/>
+      <c r="AK57" s="101"/>
       <c r="AL57" s="76"/>
     </row>
     <row r="58" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="97"/>
-      <c r="B58" s="104"/>
+      <c r="A58" s="110"/>
+      <c r="B58" s="113"/>
       <c r="C58" s="20" t="s">
         <v>71</v>
       </c>
@@ -9523,32 +9523,32 @@
       <c r="T58" s="20"/>
       <c r="U58" s="20"/>
       <c r="V58" s="20"/>
-      <c r="W58" s="112"/>
+      <c r="W58" s="107"/>
       <c r="X58" s="20"/>
       <c r="Y58" s="20"/>
       <c r="Z58" s="20"/>
       <c r="AA58" s="20"/>
       <c r="AB58" s="20"/>
       <c r="AC58" s="20"/>
-      <c r="AD58" s="109"/>
+      <c r="AD58" s="104"/>
       <c r="AE58" s="76"/>
       <c r="AF58" s="76"/>
       <c r="AG58" s="76"/>
       <c r="AH58" s="76"/>
       <c r="AI58" s="76"/>
       <c r="AJ58" s="76"/>
-      <c r="AK58" s="106"/>
+      <c r="AK58" s="101"/>
       <c r="AL58" s="76"/>
     </row>
     <row r="59" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A59" s="97"/>
-      <c r="B59" s="100" t="s">
+      <c r="A59" s="110"/>
+      <c r="B59" s="112" t="s">
         <v>120</v>
       </c>
-      <c r="C59" s="98" t="s">
+      <c r="C59" s="109" t="s">
         <v>92</v>
       </c>
-      <c r="D59" s="98" t="s">
+      <c r="D59" s="109" t="s">
         <v>29</v>
       </c>
       <c r="E59" s="2" t="s">
@@ -9581,28 +9581,28 @@
       <c r="T59" s="76"/>
       <c r="U59" s="76"/>
       <c r="V59" s="76"/>
-      <c r="W59" s="112"/>
+      <c r="W59" s="107"/>
       <c r="X59" s="76"/>
       <c r="Y59" s="76"/>
       <c r="Z59" s="76"/>
       <c r="AA59" s="76"/>
       <c r="AB59" s="76"/>
       <c r="AC59" s="76"/>
-      <c r="AD59" s="109"/>
+      <c r="AD59" s="104"/>
       <c r="AE59" s="76"/>
       <c r="AF59" s="76"/>
       <c r="AG59" s="76"/>
       <c r="AH59" s="76"/>
       <c r="AI59" s="76"/>
       <c r="AJ59" s="76"/>
-      <c r="AK59" s="106"/>
+      <c r="AK59" s="101"/>
       <c r="AL59" s="76"/>
     </row>
     <row r="60" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A60" s="97"/>
-      <c r="B60" s="100"/>
-      <c r="C60" s="98"/>
-      <c r="D60" s="98"/>
+      <c r="A60" s="110"/>
+      <c r="B60" s="112"/>
+      <c r="C60" s="109"/>
+      <c r="D60" s="109"/>
       <c r="E60" s="2" t="s">
         <v>130</v>
       </c>
@@ -9633,30 +9633,30 @@
       <c r="T60" s="76"/>
       <c r="U60" s="76"/>
       <c r="V60" s="76"/>
-      <c r="W60" s="112"/>
+      <c r="W60" s="107"/>
       <c r="X60" s="76"/>
       <c r="Y60" s="76"/>
       <c r="Z60" s="76"/>
       <c r="AA60" s="76"/>
       <c r="AB60" s="76"/>
       <c r="AC60" s="76"/>
-      <c r="AD60" s="109"/>
+      <c r="AD60" s="104"/>
       <c r="AE60" s="76"/>
       <c r="AF60" s="76"/>
       <c r="AG60" s="76"/>
       <c r="AH60" s="76"/>
       <c r="AI60" s="76"/>
       <c r="AJ60" s="76"/>
-      <c r="AK60" s="106"/>
+      <c r="AK60" s="101"/>
       <c r="AL60" s="76"/>
     </row>
     <row r="61" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A61" s="97"/>
-      <c r="B61" s="100"/>
-      <c r="C61" s="98" t="s">
+      <c r="A61" s="110"/>
+      <c r="B61" s="112"/>
+      <c r="C61" s="109" t="s">
         <v>96</v>
       </c>
-      <c r="D61" s="98" t="s">
+      <c r="D61" s="109" t="s">
         <v>95</v>
       </c>
       <c r="E61" s="2" t="s">
@@ -9689,28 +9689,28 @@
       <c r="T61" s="76"/>
       <c r="U61" s="76"/>
       <c r="V61" s="76"/>
-      <c r="W61" s="112"/>
+      <c r="W61" s="107"/>
       <c r="X61" s="76"/>
       <c r="Y61" s="76"/>
       <c r="Z61" s="76"/>
       <c r="AA61" s="76"/>
       <c r="AB61" s="76"/>
       <c r="AC61" s="76"/>
-      <c r="AD61" s="109"/>
+      <c r="AD61" s="104"/>
       <c r="AE61" s="76"/>
       <c r="AF61" s="76"/>
       <c r="AG61" s="76"/>
       <c r="AH61" s="76"/>
       <c r="AI61" s="76"/>
       <c r="AJ61" s="76"/>
-      <c r="AK61" s="106"/>
+      <c r="AK61" s="101"/>
       <c r="AL61" s="76"/>
     </row>
     <row r="62" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A62" s="97"/>
-      <c r="B62" s="100"/>
-      <c r="C62" s="98"/>
-      <c r="D62" s="98"/>
+      <c r="A62" s="110"/>
+      <c r="B62" s="112"/>
+      <c r="C62" s="109"/>
+      <c r="D62" s="109"/>
       <c r="E62" s="2" t="s">
         <v>146</v>
       </c>
@@ -9741,28 +9741,28 @@
       <c r="T62" s="76"/>
       <c r="U62" s="76"/>
       <c r="V62" s="76"/>
-      <c r="W62" s="112"/>
+      <c r="W62" s="107"/>
       <c r="X62" s="76"/>
       <c r="Y62" s="76"/>
       <c r="Z62" s="76"/>
       <c r="AA62" s="76"/>
       <c r="AB62" s="76"/>
       <c r="AC62" s="76"/>
-      <c r="AD62" s="109"/>
+      <c r="AD62" s="104"/>
       <c r="AE62" s="76"/>
       <c r="AF62" s="76"/>
       <c r="AG62" s="76"/>
       <c r="AH62" s="76"/>
       <c r="AI62" s="76"/>
       <c r="AJ62" s="76"/>
-      <c r="AK62" s="106"/>
+      <c r="AK62" s="101"/>
       <c r="AL62" s="76"/>
     </row>
     <row r="63" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A63" s="97"/>
-      <c r="B63" s="100"/>
-      <c r="C63" s="98"/>
-      <c r="D63" s="98"/>
+      <c r="A63" s="110"/>
+      <c r="B63" s="112"/>
+      <c r="C63" s="109"/>
+      <c r="D63" s="109"/>
       <c r="E63" s="2" t="s">
         <v>147</v>
       </c>
@@ -9793,28 +9793,28 @@
       <c r="T63" s="76"/>
       <c r="U63" s="76"/>
       <c r="V63" s="76"/>
-      <c r="W63" s="112"/>
+      <c r="W63" s="107"/>
       <c r="X63" s="76"/>
       <c r="Y63" s="76"/>
       <c r="Z63" s="76"/>
       <c r="AA63" s="76"/>
       <c r="AB63" s="76"/>
       <c r="AC63" s="76"/>
-      <c r="AD63" s="109"/>
+      <c r="AD63" s="104"/>
       <c r="AE63" s="76"/>
       <c r="AF63" s="76"/>
       <c r="AG63" s="76"/>
       <c r="AH63" s="76"/>
       <c r="AI63" s="76"/>
       <c r="AJ63" s="76"/>
-      <c r="AK63" s="106"/>
+      <c r="AK63" s="101"/>
       <c r="AL63" s="76"/>
     </row>
     <row r="64" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A64" s="97"/>
-      <c r="B64" s="100"/>
-      <c r="C64" s="98"/>
-      <c r="D64" s="98"/>
+      <c r="A64" s="110"/>
+      <c r="B64" s="112"/>
+      <c r="C64" s="109"/>
+      <c r="D64" s="109"/>
       <c r="E64" s="2" t="s">
         <v>107</v>
       </c>
@@ -9845,28 +9845,28 @@
       <c r="T64" s="76"/>
       <c r="U64" s="76"/>
       <c r="V64" s="76"/>
-      <c r="W64" s="112"/>
+      <c r="W64" s="107"/>
       <c r="X64" s="76"/>
       <c r="Y64" s="76"/>
       <c r="Z64" s="76"/>
       <c r="AA64" s="76"/>
       <c r="AB64" s="76"/>
       <c r="AC64" s="76"/>
-      <c r="AD64" s="109"/>
+      <c r="AD64" s="104"/>
       <c r="AE64" s="76"/>
       <c r="AF64" s="76"/>
       <c r="AG64" s="76"/>
       <c r="AH64" s="76"/>
       <c r="AI64" s="76"/>
       <c r="AJ64" s="76"/>
-      <c r="AK64" s="106"/>
+      <c r="AK64" s="101"/>
       <c r="AL64" s="76"/>
     </row>
     <row r="65" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A65" s="97"/>
-      <c r="B65" s="100"/>
-      <c r="C65" s="98"/>
-      <c r="D65" s="98"/>
+      <c r="A65" s="110"/>
+      <c r="B65" s="112"/>
+      <c r="C65" s="109"/>
+      <c r="D65" s="109"/>
       <c r="E65" s="2" t="s">
         <v>108</v>
       </c>
@@ -9897,28 +9897,28 @@
       <c r="T65" s="76"/>
       <c r="U65" s="76"/>
       <c r="V65" s="76"/>
-      <c r="W65" s="112"/>
+      <c r="W65" s="107"/>
       <c r="X65" s="76"/>
       <c r="Y65" s="76"/>
       <c r="Z65" s="76"/>
       <c r="AA65" s="76"/>
       <c r="AB65" s="76"/>
       <c r="AC65" s="76"/>
-      <c r="AD65" s="109"/>
+      <c r="AD65" s="104"/>
       <c r="AE65" s="76"/>
       <c r="AF65" s="76"/>
       <c r="AG65" s="76"/>
       <c r="AH65" s="76"/>
       <c r="AI65" s="76"/>
       <c r="AJ65" s="76"/>
-      <c r="AK65" s="106"/>
+      <c r="AK65" s="101"/>
       <c r="AL65" s="76"/>
     </row>
     <row r="66" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A66" s="97"/>
-      <c r="B66" s="100"/>
-      <c r="C66" s="98"/>
-      <c r="D66" s="98" t="s">
+      <c r="A66" s="110"/>
+      <c r="B66" s="112"/>
+      <c r="C66" s="109"/>
+      <c r="D66" s="109" t="s">
         <v>97</v>
       </c>
       <c r="E66" s="2" t="s">
@@ -9945,28 +9945,28 @@
       <c r="T66" s="76"/>
       <c r="U66" s="76"/>
       <c r="V66" s="76"/>
-      <c r="W66" s="112"/>
+      <c r="W66" s="107"/>
       <c r="X66" s="76"/>
       <c r="Y66" s="76"/>
       <c r="Z66" s="76"/>
       <c r="AA66" s="76"/>
       <c r="AB66" s="76"/>
       <c r="AC66" s="76"/>
-      <c r="AD66" s="109"/>
+      <c r="AD66" s="104"/>
       <c r="AE66" s="76"/>
       <c r="AF66" s="76"/>
       <c r="AG66" s="76"/>
       <c r="AH66" s="76"/>
       <c r="AI66" s="76"/>
       <c r="AJ66" s="76"/>
-      <c r="AK66" s="106"/>
+      <c r="AK66" s="101"/>
       <c r="AL66" s="76"/>
     </row>
     <row r="67" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A67" s="97"/>
-      <c r="B67" s="100"/>
-      <c r="C67" s="98"/>
-      <c r="D67" s="98"/>
+      <c r="A67" s="110"/>
+      <c r="B67" s="112"/>
+      <c r="C67" s="109"/>
+      <c r="D67" s="109"/>
       <c r="E67" s="2" t="s">
         <v>146</v>
       </c>
@@ -9997,30 +9997,30 @@
       <c r="T67" s="76"/>
       <c r="U67" s="76"/>
       <c r="V67" s="76"/>
-      <c r="W67" s="112"/>
+      <c r="W67" s="107"/>
       <c r="X67" s="76"/>
       <c r="Y67" s="76"/>
       <c r="Z67" s="76"/>
       <c r="AA67" s="76"/>
       <c r="AB67" s="76"/>
       <c r="AC67" s="76"/>
-      <c r="AD67" s="109"/>
+      <c r="AD67" s="104"/>
       <c r="AE67" s="76"/>
       <c r="AF67" s="76"/>
       <c r="AG67" s="76"/>
       <c r="AH67" s="76"/>
       <c r="AI67" s="76"/>
       <c r="AJ67" s="76"/>
-      <c r="AK67" s="106"/>
+      <c r="AK67" s="101"/>
       <c r="AL67" s="76"/>
     </row>
     <row r="68" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="97"/>
-      <c r="B68" s="100"/>
-      <c r="C68" s="98" t="s">
+      <c r="A68" s="110"/>
+      <c r="B68" s="112"/>
+      <c r="C68" s="109" t="s">
         <v>44</v>
       </c>
-      <c r="D68" s="98" t="s">
+      <c r="D68" s="109" t="s">
         <v>93</v>
       </c>
       <c r="E68" s="2" t="s">
@@ -10053,28 +10053,28 @@
       <c r="T68" s="76"/>
       <c r="U68" s="76"/>
       <c r="V68" s="76"/>
-      <c r="W68" s="112"/>
+      <c r="W68" s="107"/>
       <c r="X68" s="76"/>
       <c r="Y68" s="76"/>
       <c r="Z68" s="76"/>
       <c r="AA68" s="76"/>
       <c r="AB68" s="76"/>
       <c r="AC68" s="76"/>
-      <c r="AD68" s="109"/>
+      <c r="AD68" s="104"/>
       <c r="AE68" s="76"/>
       <c r="AF68" s="76"/>
       <c r="AG68" s="76"/>
       <c r="AH68" s="76"/>
       <c r="AI68" s="76"/>
       <c r="AJ68" s="76"/>
-      <c r="AK68" s="106"/>
+      <c r="AK68" s="101"/>
       <c r="AL68" s="76"/>
     </row>
     <row r="69" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="97"/>
-      <c r="B69" s="100"/>
-      <c r="C69" s="98"/>
-      <c r="D69" s="98"/>
+      <c r="A69" s="110"/>
+      <c r="B69" s="112"/>
+      <c r="C69" s="109"/>
+      <c r="D69" s="109"/>
       <c r="E69" s="2" t="s">
         <v>130</v>
       </c>
@@ -10105,28 +10105,28 @@
       <c r="T69" s="76"/>
       <c r="U69" s="76"/>
       <c r="V69" s="76"/>
-      <c r="W69" s="112"/>
+      <c r="W69" s="107"/>
       <c r="X69" s="76"/>
       <c r="Y69" s="76"/>
       <c r="Z69" s="76"/>
       <c r="AA69" s="76"/>
       <c r="AB69" s="76"/>
       <c r="AC69" s="76"/>
-      <c r="AD69" s="109"/>
+      <c r="AD69" s="104"/>
       <c r="AE69" s="76"/>
       <c r="AF69" s="76"/>
       <c r="AG69" s="76"/>
       <c r="AH69" s="76"/>
       <c r="AI69" s="76"/>
       <c r="AJ69" s="76"/>
-      <c r="AK69" s="106"/>
+      <c r="AK69" s="101"/>
       <c r="AL69" s="76"/>
     </row>
     <row r="70" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="97"/>
-      <c r="B70" s="100"/>
-      <c r="C70" s="98"/>
-      <c r="D70" s="101" t="s">
+      <c r="A70" s="110"/>
+      <c r="B70" s="112"/>
+      <c r="C70" s="109"/>
+      <c r="D70" s="97" t="s">
         <v>98</v>
       </c>
       <c r="E70" s="2" t="s">
@@ -10159,28 +10159,28 @@
       <c r="T70" s="76"/>
       <c r="U70" s="76"/>
       <c r="V70" s="76"/>
-      <c r="W70" s="112"/>
+      <c r="W70" s="107"/>
       <c r="X70" s="76"/>
       <c r="Y70" s="76"/>
       <c r="Z70" s="76"/>
       <c r="AA70" s="76"/>
       <c r="AB70" s="76"/>
       <c r="AC70" s="76"/>
-      <c r="AD70" s="109"/>
+      <c r="AD70" s="104"/>
       <c r="AE70" s="76"/>
       <c r="AF70" s="76"/>
       <c r="AG70" s="76"/>
       <c r="AH70" s="76"/>
       <c r="AI70" s="76"/>
       <c r="AJ70" s="76"/>
-      <c r="AK70" s="106"/>
+      <c r="AK70" s="101"/>
       <c r="AL70" s="76"/>
     </row>
     <row r="71" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="97"/>
-      <c r="B71" s="100"/>
-      <c r="C71" s="98"/>
-      <c r="D71" s="103"/>
+      <c r="A71" s="110"/>
+      <c r="B71" s="112"/>
+      <c r="C71" s="109"/>
+      <c r="D71" s="99"/>
       <c r="E71" s="2" t="s">
         <v>130</v>
       </c>
@@ -10207,27 +10207,27 @@
       <c r="T71" s="76"/>
       <c r="U71" s="76"/>
       <c r="V71" s="76"/>
-      <c r="W71" s="112"/>
+      <c r="W71" s="107"/>
       <c r="X71" s="76"/>
       <c r="Y71" s="76"/>
       <c r="Z71" s="76"/>
       <c r="AA71" s="76"/>
       <c r="AB71" s="76"/>
       <c r="AC71" s="76"/>
-      <c r="AD71" s="109"/>
+      <c r="AD71" s="104"/>
       <c r="AE71" s="76"/>
       <c r="AF71" s="76"/>
       <c r="AG71" s="76"/>
       <c r="AH71" s="76"/>
       <c r="AI71" s="76"/>
       <c r="AJ71" s="76"/>
-      <c r="AK71" s="106"/>
+      <c r="AK71" s="101"/>
       <c r="AL71" s="76"/>
     </row>
     <row r="72" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A72" s="97"/>
-      <c r="B72" s="100"/>
-      <c r="C72" s="102"/>
+      <c r="A72" s="110"/>
+      <c r="B72" s="112"/>
+      <c r="C72" s="98"/>
       <c r="D72" s="2" t="s">
         <v>190</v>
       </c>
@@ -10261,27 +10261,27 @@
       <c r="T72" s="76"/>
       <c r="U72" s="76"/>
       <c r="V72" s="76"/>
-      <c r="W72" s="112"/>
+      <c r="W72" s="107"/>
       <c r="X72" s="76"/>
       <c r="Y72" s="76"/>
       <c r="Z72" s="76"/>
       <c r="AA72" s="76"/>
       <c r="AB72" s="76"/>
       <c r="AC72" s="76"/>
-      <c r="AD72" s="109"/>
+      <c r="AD72" s="104"/>
       <c r="AE72" s="76"/>
       <c r="AF72" s="76"/>
       <c r="AG72" s="76"/>
       <c r="AH72" s="76"/>
       <c r="AI72" s="76"/>
       <c r="AJ72" s="76"/>
-      <c r="AK72" s="106"/>
+      <c r="AK72" s="101"/>
       <c r="AL72" s="76"/>
     </row>
     <row r="73" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A73" s="97"/>
-      <c r="B73" s="100"/>
-      <c r="C73" s="102"/>
+      <c r="A73" s="110"/>
+      <c r="B73" s="112"/>
+      <c r="C73" s="98"/>
       <c r="D73" s="2" t="s">
         <v>191</v>
       </c>
@@ -10315,27 +10315,27 @@
       <c r="T73" s="76"/>
       <c r="U73" s="76"/>
       <c r="V73" s="76"/>
-      <c r="W73" s="112"/>
+      <c r="W73" s="107"/>
       <c r="X73" s="76"/>
       <c r="Y73" s="76"/>
       <c r="Z73" s="76"/>
       <c r="AA73" s="76"/>
       <c r="AB73" s="76"/>
       <c r="AC73" s="76"/>
-      <c r="AD73" s="109"/>
+      <c r="AD73" s="104"/>
       <c r="AE73" s="76"/>
       <c r="AF73" s="76"/>
       <c r="AG73" s="76"/>
       <c r="AH73" s="76"/>
       <c r="AI73" s="76"/>
       <c r="AJ73" s="76"/>
-      <c r="AK73" s="106"/>
+      <c r="AK73" s="101"/>
       <c r="AL73" s="76"/>
     </row>
     <row r="74" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A74" s="97"/>
-      <c r="B74" s="100"/>
-      <c r="C74" s="103"/>
+      <c r="A74" s="110"/>
+      <c r="B74" s="112"/>
+      <c r="C74" s="99"/>
       <c r="D74" s="2" t="s">
         <v>161</v>
       </c>
@@ -10369,27 +10369,27 @@
       <c r="T74" s="76"/>
       <c r="U74" s="76"/>
       <c r="V74" s="76"/>
-      <c r="W74" s="112"/>
+      <c r="W74" s="107"/>
       <c r="X74" s="76"/>
       <c r="Y74" s="76"/>
       <c r="Z74" s="76"/>
       <c r="AA74" s="76"/>
       <c r="AB74" s="76"/>
       <c r="AC74" s="76"/>
-      <c r="AD74" s="109"/>
+      <c r="AD74" s="104"/>
       <c r="AE74" s="76"/>
       <c r="AF74" s="76"/>
       <c r="AG74" s="76"/>
       <c r="AH74" s="76"/>
       <c r="AI74" s="76"/>
       <c r="AJ74" s="76"/>
-      <c r="AK74" s="106"/>
+      <c r="AK74" s="101"/>
       <c r="AL74" s="76"/>
     </row>
     <row r="75" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A75" s="97"/>
-      <c r="B75" s="100"/>
-      <c r="C75" s="98" t="s">
+      <c r="A75" s="110"/>
+      <c r="B75" s="112"/>
+      <c r="C75" s="109" t="s">
         <v>13</v>
       </c>
       <c r="D75" s="2" t="s">
@@ -10423,27 +10423,27 @@
       <c r="T75" s="76"/>
       <c r="U75" s="76"/>
       <c r="V75" s="76"/>
-      <c r="W75" s="112"/>
+      <c r="W75" s="107"/>
       <c r="X75" s="76"/>
       <c r="Y75" s="76"/>
       <c r="Z75" s="76"/>
       <c r="AA75" s="76"/>
       <c r="AB75" s="76"/>
       <c r="AC75" s="76"/>
-      <c r="AD75" s="109"/>
+      <c r="AD75" s="104"/>
       <c r="AE75" s="76"/>
       <c r="AF75" s="76"/>
       <c r="AG75" s="76"/>
       <c r="AH75" s="76"/>
       <c r="AI75" s="76"/>
       <c r="AJ75" s="76"/>
-      <c r="AK75" s="106"/>
+      <c r="AK75" s="101"/>
       <c r="AL75" s="76"/>
     </row>
     <row r="76" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A76" s="97"/>
-      <c r="B76" s="100"/>
-      <c r="C76" s="98"/>
+      <c r="A76" s="110"/>
+      <c r="B76" s="112"/>
+      <c r="C76" s="109"/>
       <c r="D76" s="2" t="s">
         <v>126</v>
       </c>
@@ -10475,27 +10475,27 @@
       <c r="T76" s="76"/>
       <c r="U76" s="76"/>
       <c r="V76" s="76"/>
-      <c r="W76" s="112"/>
+      <c r="W76" s="107"/>
       <c r="X76" s="76"/>
       <c r="Y76" s="76"/>
       <c r="Z76" s="76"/>
       <c r="AA76" s="76"/>
       <c r="AB76" s="76"/>
       <c r="AC76" s="76"/>
-      <c r="AD76" s="109"/>
+      <c r="AD76" s="104"/>
       <c r="AE76" s="76"/>
       <c r="AF76" s="76"/>
       <c r="AG76" s="76"/>
       <c r="AH76" s="76"/>
       <c r="AI76" s="76"/>
       <c r="AJ76" s="76"/>
-      <c r="AK76" s="106"/>
+      <c r="AK76" s="101"/>
       <c r="AL76" s="76"/>
     </row>
     <row r="77" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="97"/>
-      <c r="B77" s="100"/>
-      <c r="C77" s="101" t="s">
+      <c r="A77" s="110"/>
+      <c r="B77" s="112"/>
+      <c r="C77" s="97" t="s">
         <v>99</v>
       </c>
       <c r="D77" s="2" t="s">
@@ -10529,27 +10529,27 @@
       <c r="T77" s="76"/>
       <c r="U77" s="76"/>
       <c r="V77" s="76"/>
-      <c r="W77" s="112"/>
+      <c r="W77" s="107"/>
       <c r="X77" s="76"/>
       <c r="Y77" s="76"/>
       <c r="Z77" s="76"/>
       <c r="AA77" s="76"/>
       <c r="AB77" s="76"/>
       <c r="AC77" s="76"/>
-      <c r="AD77" s="109"/>
+      <c r="AD77" s="104"/>
       <c r="AE77" s="76"/>
       <c r="AF77" s="76"/>
       <c r="AG77" s="76"/>
       <c r="AH77" s="76"/>
       <c r="AI77" s="76"/>
       <c r="AJ77" s="76"/>
-      <c r="AK77" s="106"/>
+      <c r="AK77" s="101"/>
       <c r="AL77" s="76"/>
     </row>
     <row r="78" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A78" s="97"/>
-      <c r="B78" s="100"/>
-      <c r="C78" s="102"/>
+      <c r="A78" s="110"/>
+      <c r="B78" s="112"/>
+      <c r="C78" s="98"/>
       <c r="D78" s="2" t="s">
         <v>156</v>
       </c>
@@ -10581,27 +10581,27 @@
       <c r="T78" s="76"/>
       <c r="U78" s="76"/>
       <c r="V78" s="76"/>
-      <c r="W78" s="112"/>
+      <c r="W78" s="107"/>
       <c r="X78" s="76"/>
       <c r="Y78" s="76"/>
       <c r="Z78" s="76"/>
       <c r="AA78" s="76"/>
       <c r="AB78" s="76"/>
       <c r="AC78" s="76"/>
-      <c r="AD78" s="109"/>
+      <c r="AD78" s="104"/>
       <c r="AE78" s="76"/>
       <c r="AF78" s="76"/>
       <c r="AG78" s="76"/>
       <c r="AH78" s="76"/>
       <c r="AI78" s="76"/>
       <c r="AJ78" s="76"/>
-      <c r="AK78" s="106"/>
+      <c r="AK78" s="101"/>
       <c r="AL78" s="76"/>
     </row>
     <row r="79" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="97"/>
-      <c r="B79" s="100"/>
-      <c r="C79" s="102"/>
+      <c r="A79" s="110"/>
+      <c r="B79" s="112"/>
+      <c r="C79" s="98"/>
       <c r="D79" s="2" t="s">
         <v>187</v>
       </c>
@@ -10633,27 +10633,27 @@
       <c r="T79" s="76"/>
       <c r="U79" s="76"/>
       <c r="V79" s="76"/>
-      <c r="W79" s="112"/>
+      <c r="W79" s="107"/>
       <c r="X79" s="76"/>
       <c r="Y79" s="76"/>
       <c r="Z79" s="76"/>
       <c r="AA79" s="76"/>
       <c r="AB79" s="76"/>
       <c r="AC79" s="76"/>
-      <c r="AD79" s="109"/>
+      <c r="AD79" s="104"/>
       <c r="AE79" s="76"/>
       <c r="AF79" s="76"/>
       <c r="AG79" s="76"/>
       <c r="AH79" s="76"/>
       <c r="AI79" s="76"/>
       <c r="AJ79" s="76"/>
-      <c r="AK79" s="106"/>
+      <c r="AK79" s="101"/>
       <c r="AL79" s="76"/>
     </row>
     <row r="80" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A80" s="97"/>
-      <c r="B80" s="100"/>
-      <c r="C80" s="103"/>
+      <c r="A80" s="110"/>
+      <c r="B80" s="112"/>
+      <c r="C80" s="99"/>
       <c r="D80" s="2" t="s">
         <v>157</v>
       </c>
@@ -10685,27 +10685,27 @@
       <c r="T80" s="76"/>
       <c r="U80" s="76"/>
       <c r="V80" s="76"/>
-      <c r="W80" s="112"/>
+      <c r="W80" s="107"/>
       <c r="X80" s="76"/>
       <c r="Y80" s="76"/>
       <c r="Z80" s="76"/>
       <c r="AA80" s="76"/>
       <c r="AB80" s="76"/>
       <c r="AC80" s="76"/>
-      <c r="AD80" s="109"/>
+      <c r="AD80" s="104"/>
       <c r="AE80" s="76"/>
       <c r="AF80" s="76"/>
       <c r="AG80" s="76"/>
       <c r="AH80" s="76"/>
       <c r="AI80" s="76"/>
       <c r="AJ80" s="76"/>
-      <c r="AK80" s="106"/>
+      <c r="AK80" s="101"/>
       <c r="AL80" s="76"/>
     </row>
     <row r="81" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A81" s="97"/>
-      <c r="B81" s="100"/>
-      <c r="C81" s="98" t="s">
+      <c r="A81" s="110"/>
+      <c r="B81" s="112"/>
+      <c r="C81" s="109" t="s">
         <v>30</v>
       </c>
       <c r="D81" s="2" t="s">
@@ -10737,27 +10737,27 @@
       <c r="T81" s="76"/>
       <c r="U81" s="76"/>
       <c r="V81" s="76"/>
-      <c r="W81" s="112"/>
+      <c r="W81" s="107"/>
       <c r="X81" s="76"/>
       <c r="Y81" s="76"/>
       <c r="Z81" s="76"/>
       <c r="AA81" s="76"/>
       <c r="AB81" s="76"/>
       <c r="AC81" s="76"/>
-      <c r="AD81" s="109"/>
+      <c r="AD81" s="104"/>
       <c r="AE81" s="76"/>
       <c r="AF81" s="76"/>
       <c r="AG81" s="76"/>
       <c r="AH81" s="76"/>
       <c r="AI81" s="76"/>
       <c r="AJ81" s="76"/>
-      <c r="AK81" s="106"/>
+      <c r="AK81" s="101"/>
       <c r="AL81" s="76"/>
     </row>
     <row r="82" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A82" s="97"/>
-      <c r="B82" s="100"/>
-      <c r="C82" s="98"/>
+      <c r="A82" s="110"/>
+      <c r="B82" s="112"/>
+      <c r="C82" s="109"/>
       <c r="D82" s="2" t="s">
         <v>32</v>
       </c>
@@ -10781,27 +10781,27 @@
       <c r="T82" s="76"/>
       <c r="U82" s="76"/>
       <c r="V82" s="76"/>
-      <c r="W82" s="112"/>
+      <c r="W82" s="107"/>
       <c r="X82" s="76"/>
       <c r="Y82" s="76"/>
       <c r="Z82" s="76"/>
       <c r="AA82" s="76"/>
       <c r="AB82" s="76"/>
       <c r="AC82" s="76"/>
-      <c r="AD82" s="109"/>
+      <c r="AD82" s="104"/>
       <c r="AE82" s="76"/>
       <c r="AF82" s="76"/>
       <c r="AG82" s="76"/>
       <c r="AH82" s="76"/>
       <c r="AI82" s="76"/>
       <c r="AJ82" s="76"/>
-      <c r="AK82" s="106"/>
+      <c r="AK82" s="101"/>
       <c r="AL82" s="76"/>
     </row>
     <row r="83" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A83" s="97"/>
-      <c r="B83" s="100"/>
-      <c r="C83" s="98"/>
+      <c r="A83" s="110"/>
+      <c r="B83" s="112"/>
+      <c r="C83" s="109"/>
       <c r="D83" s="2" t="s">
         <v>33</v>
       </c>
@@ -10831,25 +10831,25 @@
       <c r="T83" s="76"/>
       <c r="U83" s="76"/>
       <c r="V83" s="76"/>
-      <c r="W83" s="112"/>
+      <c r="W83" s="107"/>
       <c r="X83" s="76"/>
       <c r="Y83" s="76"/>
       <c r="Z83" s="76"/>
       <c r="AA83" s="76"/>
       <c r="AB83" s="76"/>
       <c r="AC83" s="76"/>
-      <c r="AD83" s="109"/>
+      <c r="AD83" s="104"/>
       <c r="AE83" s="76"/>
       <c r="AF83" s="76"/>
       <c r="AG83" s="76"/>
       <c r="AH83" s="76"/>
       <c r="AI83" s="76"/>
       <c r="AJ83" s="76"/>
-      <c r="AK83" s="106"/>
+      <c r="AK83" s="101"/>
       <c r="AL83" s="76"/>
     </row>
     <row r="84" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A84" s="97"/>
+      <c r="A84" s="110"/>
       <c r="B84" s="77"/>
       <c r="C84" s="76" t="s">
         <v>258</v>
@@ -10877,25 +10877,25 @@
       <c r="T84" s="76"/>
       <c r="U84" s="76"/>
       <c r="V84" s="76"/>
-      <c r="W84" s="112"/>
+      <c r="W84" s="107"/>
       <c r="X84" s="76"/>
       <c r="Y84" s="76"/>
       <c r="Z84" s="76"/>
       <c r="AA84" s="76"/>
       <c r="AB84" s="76"/>
       <c r="AC84" s="76"/>
-      <c r="AD84" s="109"/>
+      <c r="AD84" s="104"/>
       <c r="AE84" s="76"/>
       <c r="AF84" s="76"/>
       <c r="AG84" s="76"/>
       <c r="AH84" s="76"/>
       <c r="AI84" s="76"/>
       <c r="AJ84" s="76"/>
-      <c r="AK84" s="106"/>
+      <c r="AK84" s="101"/>
       <c r="AL84" s="76"/>
     </row>
     <row r="85" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A85" s="97"/>
+      <c r="A85" s="110"/>
       <c r="B85" s="77"/>
       <c r="C85" s="76" t="s">
         <v>259</v>
@@ -10923,25 +10923,25 @@
       <c r="T85" s="76"/>
       <c r="U85" s="76"/>
       <c r="V85" s="76"/>
-      <c r="W85" s="113"/>
+      <c r="W85" s="108"/>
       <c r="X85" s="76"/>
       <c r="Y85" s="76"/>
       <c r="Z85" s="76"/>
       <c r="AA85" s="76"/>
       <c r="AB85" s="76"/>
       <c r="AC85" s="76"/>
-      <c r="AD85" s="110"/>
+      <c r="AD85" s="105"/>
       <c r="AE85" s="76"/>
       <c r="AF85" s="76"/>
       <c r="AG85" s="76"/>
       <c r="AH85" s="76"/>
       <c r="AI85" s="76"/>
       <c r="AJ85" s="76"/>
-      <c r="AK85" s="107"/>
+      <c r="AK85" s="102"/>
       <c r="AL85" s="76"/>
     </row>
     <row r="86" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A86" s="97"/>
+      <c r="A86" s="110"/>
       <c r="B86" s="38" t="s">
         <v>21</v>
       </c>
@@ -10963,20 +10963,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="D33:D38"/>
-    <mergeCell ref="AK5:AK85"/>
-    <mergeCell ref="AD5:AD85"/>
-    <mergeCell ref="W5:W85"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="D18:D27"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="D61:D65"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="D68:D69"/>
     <mergeCell ref="A5:A86"/>
     <mergeCell ref="C11:C14"/>
     <mergeCell ref="C15:C17"/>
@@ -10993,6 +10979,20 @@
     <mergeCell ref="C18:C45"/>
     <mergeCell ref="B11:B58"/>
     <mergeCell ref="C61:C67"/>
+    <mergeCell ref="D33:D38"/>
+    <mergeCell ref="AK5:AK85"/>
+    <mergeCell ref="AD5:AD85"/>
+    <mergeCell ref="W5:W85"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="D18:D27"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="D61:D65"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="D68:D69"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="L3:AL5 AL6:AL85 X6:AC85 AE6:AJ85 L6:V85">
@@ -12015,8 +12015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/schedule/ガントチャート.xlsx
+++ b/schedule/ガントチャート.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14925" windowHeight="12180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14925" windowHeight="12180" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="ガントチャート" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="SE" sheetId="3" r:id="rId4"/>
     <sheet name="フローチャート" sheetId="2" r:id="rId5"/>
     <sheet name="11月２日～マスター日まで" sheetId="6" r:id="rId6"/>
-    <sheet name="11月3日～完成まで" sheetId="7" r:id="rId7"/>
+    <sheet name="11月6日～完成まで" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="289">
   <si>
     <t>カテゴリ</t>
     <phoneticPr fontId="1"/>
@@ -1886,19 +1886,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ゆかと壁のテクスチャ（和室等）</t>
-    <rPh sb="3" eb="4">
-      <t>カベ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ワシツ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>トウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>マップの大きさ</t>
     <rPh sb="4" eb="5">
       <t>オオ</t>
@@ -1976,6 +1963,68 @@
     <t>吉田</t>
     <rPh sb="0" eb="2">
       <t>ヨシダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1日</t>
+    <rPh sb="0" eb="2">
+      <t>イチニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>筒井</t>
+    <rPh sb="0" eb="2">
+      <t>ツツイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>増澤</t>
+    <rPh sb="0" eb="2">
+      <t>マスザワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>床と壁のテクスチャ（和室等）</t>
+    <rPh sb="0" eb="1">
+      <t>ユカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ワシツ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>トウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了</t>
+    <rPh sb="0" eb="2">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>担当者</t>
+    <rPh sb="0" eb="2">
+      <t>タントウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シャ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2803,12 +2852,6 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2881,9 +2924,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2902,9 +2942,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2941,6 +2978,18 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="12" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2950,6 +2999,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="9" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -2977,21 +3029,6 @@
     <xf numFmtId="0" fontId="21" fillId="8" borderId="3" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3003,6 +3040,18 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="31" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -3058,13 +3107,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>14007</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>49026</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>7003</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
@@ -3120,13 +3169,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>14007</xdr:colOff>
       <xdr:row>58</xdr:row>
       <xdr:rowOff>33338</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>257454</xdr:colOff>
       <xdr:row>58</xdr:row>
       <xdr:rowOff>222438</xdr:rowOff>
@@ -3182,13 +3231,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>14007</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>38660</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>252132</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>227760</xdr:rowOff>
@@ -3244,13 +3293,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>14007</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>35019</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>7003</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>224119</xdr:rowOff>
@@ -3306,13 +3355,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>7005</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>35018</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>224118</xdr:rowOff>
@@ -3368,13 +3417,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>292475</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>40340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>257457</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>229440</xdr:rowOff>
@@ -3430,13 +3479,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>12326</xdr:colOff>
       <xdr:row>74</xdr:row>
       <xdr:rowOff>24654</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>255773</xdr:colOff>
       <xdr:row>74</xdr:row>
       <xdr:rowOff>213754</xdr:rowOff>
@@ -3492,13 +3541,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>10646</xdr:colOff>
       <xdr:row>75</xdr:row>
       <xdr:rowOff>29977</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>254093</xdr:colOff>
       <xdr:row>75</xdr:row>
       <xdr:rowOff>219077</xdr:rowOff>
@@ -3554,13 +3603,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>5324</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>264460</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>222437</xdr:rowOff>
@@ -3616,13 +3665,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>5322</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>33338</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>264458</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>222438</xdr:rowOff>
@@ -3678,13 +3727,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>13021</xdr:colOff>
       <xdr:row>76</xdr:row>
       <xdr:rowOff>24849</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>256760</xdr:colOff>
       <xdr:row>76</xdr:row>
       <xdr:rowOff>245144</xdr:rowOff>
@@ -3740,13 +3789,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>4739</xdr:colOff>
       <xdr:row>77</xdr:row>
       <xdr:rowOff>31196</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>248186</xdr:colOff>
       <xdr:row>77</xdr:row>
       <xdr:rowOff>220296</xdr:rowOff>
@@ -3802,13 +3851,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>16334</xdr:colOff>
       <xdr:row>79</xdr:row>
       <xdr:rowOff>42790</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>259781</xdr:colOff>
       <xdr:row>79</xdr:row>
       <xdr:rowOff>231890</xdr:rowOff>
@@ -3864,13 +3913,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>24665</xdr:colOff>
       <xdr:row>67</xdr:row>
       <xdr:rowOff>43326</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>3068</xdr:colOff>
       <xdr:row>67</xdr:row>
       <xdr:rowOff>232426</xdr:rowOff>
@@ -3926,13 +3975,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>16383</xdr:colOff>
       <xdr:row>59</xdr:row>
       <xdr:rowOff>16566</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>248478</xdr:colOff>
       <xdr:row>59</xdr:row>
       <xdr:rowOff>224144</xdr:rowOff>
@@ -3988,13 +4037,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>1157</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>16566</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>248478</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>7919</xdr:rowOff>
@@ -4050,13 +4099,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>12753</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>11596</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>260073</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>2950</xdr:rowOff>
@@ -4112,13 +4161,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>15675</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>8673</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>262995</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>26</xdr:rowOff>
@@ -4174,13 +4223,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>15982</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>37114</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>10074</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>226214</xdr:rowOff>
@@ -4236,13 +4285,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>11013</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>32144</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>5105</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>221244</xdr:rowOff>
@@ -4298,13 +4347,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>6418</xdr:colOff>
       <xdr:row>73</xdr:row>
       <xdr:rowOff>16565</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>240196</xdr:colOff>
       <xdr:row>74</xdr:row>
       <xdr:rowOff>1695</xdr:rowOff>
@@ -4360,13 +4409,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>16383</xdr:colOff>
       <xdr:row>60</xdr:row>
       <xdr:rowOff>8283</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>248478</xdr:colOff>
       <xdr:row>60</xdr:row>
       <xdr:rowOff>215861</xdr:rowOff>
@@ -4422,13 +4471,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>19696</xdr:colOff>
       <xdr:row>61</xdr:row>
       <xdr:rowOff>44726</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>251791</xdr:colOff>
       <xdr:row>62</xdr:row>
       <xdr:rowOff>12108</xdr:rowOff>
@@ -4484,13 +4533,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>6443</xdr:colOff>
       <xdr:row>62</xdr:row>
       <xdr:rowOff>14908</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>238538</xdr:colOff>
       <xdr:row>62</xdr:row>
       <xdr:rowOff>222486</xdr:rowOff>
@@ -4546,13 +4595,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>18038</xdr:colOff>
       <xdr:row>63</xdr:row>
       <xdr:rowOff>26504</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>250133</xdr:colOff>
       <xdr:row>63</xdr:row>
       <xdr:rowOff>234082</xdr:rowOff>
@@ -4608,13 +4657,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>13069</xdr:colOff>
       <xdr:row>64</xdr:row>
       <xdr:rowOff>29816</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>245164</xdr:colOff>
       <xdr:row>64</xdr:row>
       <xdr:rowOff>237394</xdr:rowOff>
@@ -4670,13 +4719,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>8284</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>16565</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>2376</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>205665</xdr:rowOff>
@@ -4732,13 +4781,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>5602</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>12607</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>267539</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>201707</xdr:rowOff>
@@ -4794,13 +4843,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>11193</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>212912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>17957</xdr:rowOff>
@@ -4856,13 +4905,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>6710</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>208430</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>264458</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>13475</xdr:rowOff>
@@ -6624,13 +6673,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AT86"/>
+  <dimension ref="A1:AS86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="11" ySplit="4" topLeftCell="L20" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="10" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AR21" sqref="AR21"/>
+      <selection pane="bottomRight" activeCell="O56" sqref="O56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6643,132 +6692,132 @@
     <col min="6" max="6" width="7.125" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="7"/>
     <col min="8" max="9" width="7.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.125" style="51" customWidth="1"/>
-    <col min="11" max="11" width="10.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5" style="3" customWidth="1"/>
-    <col min="13" max="16" width="3.5" customWidth="1"/>
-    <col min="17" max="17" width="4.375" customWidth="1"/>
-    <col min="18" max="18" width="3.5" customWidth="1"/>
-    <col min="19" max="19" width="3.875" customWidth="1"/>
-    <col min="20" max="36" width="3.5" customWidth="1"/>
-    <col min="37" max="37" width="6.75" customWidth="1"/>
-    <col min="38" max="46" width="3.5" customWidth="1"/>
+    <col min="10" max="10" width="10.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5" style="3" customWidth="1"/>
+    <col min="12" max="15" width="3.5" customWidth="1"/>
+    <col min="16" max="16" width="4.375" customWidth="1"/>
+    <col min="17" max="17" width="3.5" customWidth="1"/>
+    <col min="18" max="18" width="3.875" customWidth="1"/>
+    <col min="19" max="35" width="3.5" customWidth="1"/>
+    <col min="36" max="36" width="6.75" customWidth="1"/>
+    <col min="37" max="45" width="3.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" ht="25.5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:45" ht="25.5" x14ac:dyDescent="0.4">
       <c r="B1" s="16" t="s">
         <v>86</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="L1" s="3">
+      <c r="K1" s="3">
         <v>2020</v>
       </c>
-      <c r="M1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="N1">
+      <c r="M1">
         <v>10</v>
       </c>
-      <c r="O1" t="s">
+      <c r="N1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="25" t="s">
+      <c r="P1" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="R1" s="22"/>
-      <c r="S1" s="26" t="s">
+      <c r="Q1" s="22"/>
+      <c r="R1" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="T1" s="23"/>
-      <c r="U1" s="27" t="s">
+      <c r="S1" s="23"/>
+      <c r="T1" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="V1" s="24"/>
-    </row>
-    <row r="3" spans="1:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="L3" s="85">
+      <c r="U1" s="24"/>
+    </row>
+    <row r="3" spans="1:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K3" s="81">
         <v>44116</v>
       </c>
+      <c r="L3" s="17">
+        <v>44117</v>
+      </c>
       <c r="M3" s="17">
-        <v>44117</v>
+        <v>44118</v>
       </c>
       <c r="N3" s="17">
-        <v>44118</v>
+        <v>44119</v>
       </c>
       <c r="O3" s="17">
-        <v>44119</v>
+        <v>44120</v>
       </c>
       <c r="P3" s="17">
-        <v>44120</v>
+        <v>44121</v>
       </c>
       <c r="Q3" s="17">
-        <v>44121</v>
+        <v>44122</v>
       </c>
       <c r="R3" s="17">
-        <v>44122</v>
+        <v>44123</v>
       </c>
       <c r="S3" s="17">
-        <v>44123</v>
+        <v>44124</v>
       </c>
       <c r="T3" s="17">
-        <v>44124</v>
+        <v>44125</v>
       </c>
       <c r="U3" s="17">
-        <v>44125</v>
+        <v>44126</v>
       </c>
       <c r="V3" s="17">
-        <v>44126</v>
+        <v>44127</v>
       </c>
       <c r="W3" s="17">
-        <v>44127</v>
+        <v>44128</v>
       </c>
       <c r="X3" s="17">
-        <v>44128</v>
+        <v>44129</v>
       </c>
       <c r="Y3" s="17">
-        <v>44129</v>
+        <v>44130</v>
       </c>
       <c r="Z3" s="17">
-        <v>44130</v>
+        <v>44131</v>
       </c>
       <c r="AA3" s="17">
-        <v>44131</v>
+        <v>44132</v>
       </c>
       <c r="AB3" s="17">
-        <v>44132</v>
+        <v>44133</v>
       </c>
       <c r="AC3" s="17">
-        <v>44133</v>
+        <v>44134</v>
       </c>
       <c r="AD3" s="17">
-        <v>44134</v>
+        <v>44135</v>
       </c>
       <c r="AE3" s="17">
-        <v>44135</v>
+        <v>44136</v>
       </c>
       <c r="AF3" s="17">
-        <v>44136</v>
+        <v>44137</v>
       </c>
       <c r="AG3" s="17">
-        <v>44137</v>
+        <v>44138</v>
       </c>
       <c r="AH3" s="17">
-        <v>44138</v>
+        <v>44139</v>
       </c>
       <c r="AI3" s="17">
-        <v>44139</v>
+        <v>44140</v>
       </c>
       <c r="AJ3" s="17">
-        <v>44140</v>
+        <v>44141</v>
       </c>
       <c r="AK3" s="17">
-        <v>44141</v>
-      </c>
-      <c r="AL3" s="17">
         <v>44142</v>
       </c>
+      <c r="AL3" s="1"/>
       <c r="AM3" s="1"/>
       <c r="AN3" s="1"/>
       <c r="AO3" s="1"/>
@@ -6776,9 +6825,8 @@
       <c r="AQ3" s="1"/>
       <c r="AR3" s="1"/>
       <c r="AS3" s="1"/>
-      <c r="AT3" s="1"/>
-    </row>
-    <row r="4" spans="1:46" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:45" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B4" s="28" t="s">
         <v>6</v>
       </c>
@@ -6803,126 +6851,123 @@
       <c r="I4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="29" t="s">
-        <v>199</v>
-      </c>
-      <c r="K4" s="30" t="s">
+      <c r="J4" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="86">
-        <f>L3</f>
+      <c r="K4" s="82">
+        <f>K3</f>
         <v>44116</v>
       </c>
+      <c r="L4" s="18">
+        <f t="shared" ref="L4:AK4" si="0">L3</f>
+        <v>44117</v>
+      </c>
       <c r="M4" s="18">
-        <f t="shared" ref="M4:AL4" si="0">M3</f>
-        <v>44117</v>
+        <f t="shared" si="0"/>
+        <v>44118</v>
       </c>
       <c r="N4" s="18">
         <f t="shared" si="0"/>
-        <v>44118</v>
+        <v>44119</v>
       </c>
       <c r="O4" s="18">
         <f t="shared" si="0"/>
-        <v>44119</v>
+        <v>44120</v>
       </c>
       <c r="P4" s="18">
         <f t="shared" si="0"/>
-        <v>44120</v>
+        <v>44121</v>
       </c>
       <c r="Q4" s="18">
         <f t="shared" si="0"/>
-        <v>44121</v>
+        <v>44122</v>
       </c>
       <c r="R4" s="18">
         <f t="shared" si="0"/>
-        <v>44122</v>
+        <v>44123</v>
       </c>
       <c r="S4" s="18">
         <f t="shared" si="0"/>
-        <v>44123</v>
+        <v>44124</v>
       </c>
       <c r="T4" s="18">
         <f t="shared" si="0"/>
-        <v>44124</v>
+        <v>44125</v>
       </c>
       <c r="U4" s="18">
         <f t="shared" si="0"/>
-        <v>44125</v>
+        <v>44126</v>
       </c>
       <c r="V4" s="18">
         <f t="shared" si="0"/>
-        <v>44126</v>
+        <v>44127</v>
       </c>
       <c r="W4" s="18">
         <f t="shared" si="0"/>
-        <v>44127</v>
+        <v>44128</v>
       </c>
       <c r="X4" s="18">
         <f t="shared" si="0"/>
-        <v>44128</v>
+        <v>44129</v>
       </c>
       <c r="Y4" s="18">
         <f t="shared" si="0"/>
-        <v>44129</v>
+        <v>44130</v>
       </c>
       <c r="Z4" s="18">
         <f t="shared" si="0"/>
-        <v>44130</v>
+        <v>44131</v>
       </c>
       <c r="AA4" s="18">
         <f t="shared" si="0"/>
-        <v>44131</v>
+        <v>44132</v>
       </c>
       <c r="AB4" s="18">
         <f t="shared" si="0"/>
-        <v>44132</v>
+        <v>44133</v>
       </c>
       <c r="AC4" s="18">
         <f t="shared" si="0"/>
-        <v>44133</v>
+        <v>44134</v>
       </c>
       <c r="AD4" s="18">
         <f t="shared" si="0"/>
-        <v>44134</v>
+        <v>44135</v>
       </c>
       <c r="AE4" s="18">
         <f t="shared" si="0"/>
-        <v>44135</v>
+        <v>44136</v>
       </c>
       <c r="AF4" s="18">
         <f t="shared" si="0"/>
-        <v>44136</v>
+        <v>44137</v>
       </c>
       <c r="AG4" s="18">
         <f t="shared" si="0"/>
-        <v>44137</v>
+        <v>44138</v>
       </c>
       <c r="AH4" s="18">
         <f t="shared" si="0"/>
-        <v>44138</v>
+        <v>44139</v>
       </c>
       <c r="AI4" s="18">
         <f t="shared" si="0"/>
-        <v>44139</v>
+        <v>44140</v>
       </c>
       <c r="AJ4" s="18">
         <f t="shared" si="0"/>
-        <v>44140</v>
+        <v>44141</v>
       </c>
       <c r="AK4" s="18">
         <f t="shared" si="0"/>
-        <v>44141</v>
-      </c>
-      <c r="AL4" s="18">
-        <f t="shared" si="0"/>
         <v>44142</v>
       </c>
     </row>
-    <row r="5" spans="1:46" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="110" t="s">
+    <row r="5" spans="1:45" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="111" t="s">
+      <c r="B5" s="96" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="19" t="s">
@@ -6944,47 +6989,46 @@
       <c r="I5" s="31">
         <v>44125</v>
       </c>
-      <c r="J5" s="52"/>
-      <c r="K5" s="83">
+      <c r="J5" s="80">
         <v>1</v>
       </c>
-      <c r="L5" s="87"/>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="78"/>
-      <c r="T5" s="78"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
-      <c r="W5" s="106" t="s">
+      <c r="K5" s="83"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="75"/>
+      <c r="T5" s="75"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="107" t="s">
         <v>110</v>
       </c>
-      <c r="X5" s="78"/>
-      <c r="Y5" s="78"/>
-      <c r="Z5" s="78"/>
-      <c r="AA5" s="78"/>
-      <c r="AB5" s="78"/>
-      <c r="AC5" s="78"/>
-      <c r="AD5" s="103" t="s">
+      <c r="W5" s="75"/>
+      <c r="X5" s="75"/>
+      <c r="Y5" s="75"/>
+      <c r="Z5" s="75"/>
+      <c r="AA5" s="75"/>
+      <c r="AB5" s="75"/>
+      <c r="AC5" s="104" t="s">
         <v>111</v>
       </c>
-      <c r="AE5" s="78"/>
-      <c r="AF5" s="78"/>
-      <c r="AG5" s="78"/>
-      <c r="AH5" s="78"/>
-      <c r="AI5" s="78"/>
-      <c r="AJ5" s="78"/>
-      <c r="AK5" s="100" t="s">
+      <c r="AD5" s="75"/>
+      <c r="AE5" s="75"/>
+      <c r="AF5" s="75"/>
+      <c r="AG5" s="75"/>
+      <c r="AH5" s="75"/>
+      <c r="AI5" s="75"/>
+      <c r="AJ5" s="101" t="s">
         <v>88</v>
       </c>
-      <c r="AL5" s="78"/>
-    </row>
-    <row r="6" spans="1:46" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="110"/>
-      <c r="B6" s="111"/>
+      <c r="AK5" s="75"/>
+    </row>
+    <row r="6" spans="1:45" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="94"/>
+      <c r="B6" s="96"/>
       <c r="C6" s="19" t="s">
         <v>9</v>
       </c>
@@ -7002,41 +7046,40 @@
       <c r="I6" s="31">
         <v>44131</v>
       </c>
-      <c r="J6" s="52"/>
-      <c r="K6" s="83">
+      <c r="J6" s="80">
         <v>0.9</v>
       </c>
-      <c r="L6" s="88"/>
-      <c r="M6" s="76"/>
-      <c r="N6" s="76"/>
-      <c r="O6" s="76"/>
-      <c r="P6" s="76"/>
-      <c r="Q6" s="76"/>
-      <c r="R6" s="76"/>
-      <c r="S6" s="76"/>
-      <c r="T6" s="76"/>
-      <c r="U6" s="76"/>
-      <c r="V6" s="76"/>
-      <c r="W6" s="107"/>
-      <c r="X6" s="76"/>
-      <c r="Y6" s="76"/>
-      <c r="Z6" s="76"/>
-      <c r="AA6" s="76"/>
-      <c r="AB6" s="76"/>
-      <c r="AC6" s="76"/>
-      <c r="AD6" s="104"/>
-      <c r="AE6" s="76"/>
-      <c r="AF6" s="76"/>
-      <c r="AG6" s="76"/>
-      <c r="AH6" s="76"/>
-      <c r="AI6" s="76"/>
-      <c r="AJ6" s="76"/>
-      <c r="AK6" s="101"/>
-      <c r="AL6" s="76"/>
-    </row>
-    <row r="7" spans="1:46" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="110"/>
-      <c r="B7" s="111"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="74"/>
+      <c r="O6" s="74"/>
+      <c r="P6" s="74"/>
+      <c r="Q6" s="74"/>
+      <c r="R6" s="74"/>
+      <c r="S6" s="74"/>
+      <c r="T6" s="74"/>
+      <c r="U6" s="74"/>
+      <c r="V6" s="108"/>
+      <c r="W6" s="74"/>
+      <c r="X6" s="74"/>
+      <c r="Y6" s="74"/>
+      <c r="Z6" s="74"/>
+      <c r="AA6" s="74"/>
+      <c r="AB6" s="74"/>
+      <c r="AC6" s="105"/>
+      <c r="AD6" s="74"/>
+      <c r="AE6" s="74"/>
+      <c r="AF6" s="74"/>
+      <c r="AG6" s="74"/>
+      <c r="AH6" s="74"/>
+      <c r="AI6" s="74"/>
+      <c r="AJ6" s="102"/>
+      <c r="AK6" s="74"/>
+    </row>
+    <row r="7" spans="1:45" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="94"/>
+      <c r="B7" s="96"/>
       <c r="C7" s="19" t="s">
         <v>10</v>
       </c>
@@ -7052,41 +7095,40 @@
         <v>44125</v>
       </c>
       <c r="I7" s="31"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="83">
+      <c r="J7" s="80">
         <v>0.9</v>
       </c>
-      <c r="L7" s="88"/>
-      <c r="M7" s="76"/>
-      <c r="N7" s="76"/>
-      <c r="O7" s="76"/>
-      <c r="P7" s="76"/>
-      <c r="Q7" s="76"/>
-      <c r="R7" s="76"/>
-      <c r="S7" s="76"/>
-      <c r="T7" s="76"/>
-      <c r="U7" s="76"/>
-      <c r="V7" s="76"/>
-      <c r="W7" s="107"/>
-      <c r="X7" s="76"/>
-      <c r="Y7" s="76"/>
-      <c r="Z7" s="76"/>
-      <c r="AA7" s="76"/>
-      <c r="AB7" s="76"/>
-      <c r="AC7" s="76"/>
-      <c r="AD7" s="104"/>
-      <c r="AE7" s="76"/>
-      <c r="AF7" s="76"/>
-      <c r="AG7" s="76"/>
-      <c r="AH7" s="76"/>
-      <c r="AI7" s="76"/>
-      <c r="AJ7" s="76"/>
-      <c r="AK7" s="101"/>
-      <c r="AL7" s="76"/>
-    </row>
-    <row r="8" spans="1:46" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="110"/>
-      <c r="B8" s="111"/>
+      <c r="K7" s="84"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="74"/>
+      <c r="N7" s="74"/>
+      <c r="O7" s="74"/>
+      <c r="P7" s="74"/>
+      <c r="Q7" s="74"/>
+      <c r="R7" s="74"/>
+      <c r="S7" s="74"/>
+      <c r="T7" s="74"/>
+      <c r="U7" s="74"/>
+      <c r="V7" s="108"/>
+      <c r="W7" s="74"/>
+      <c r="X7" s="74"/>
+      <c r="Y7" s="74"/>
+      <c r="Z7" s="74"/>
+      <c r="AA7" s="74"/>
+      <c r="AB7" s="74"/>
+      <c r="AC7" s="105"/>
+      <c r="AD7" s="74"/>
+      <c r="AE7" s="74"/>
+      <c r="AF7" s="74"/>
+      <c r="AG7" s="74"/>
+      <c r="AH7" s="74"/>
+      <c r="AI7" s="74"/>
+      <c r="AJ7" s="102"/>
+      <c r="AK7" s="74"/>
+    </row>
+    <row r="8" spans="1:45" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="94"/>
+      <c r="B8" s="96"/>
       <c r="C8" s="19" t="s">
         <v>11</v>
       </c>
@@ -7102,41 +7144,40 @@
         <v>44119</v>
       </c>
       <c r="I8" s="31"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="83">
+      <c r="J8" s="80">
         <v>0.75</v>
       </c>
-      <c r="L8" s="88"/>
-      <c r="M8" s="76"/>
-      <c r="N8" s="76"/>
-      <c r="O8" s="76"/>
-      <c r="P8" s="76"/>
-      <c r="Q8" s="76"/>
-      <c r="R8" s="76"/>
-      <c r="S8" s="76"/>
-      <c r="T8" s="76"/>
-      <c r="U8" s="76"/>
-      <c r="V8" s="76"/>
-      <c r="W8" s="107"/>
-      <c r="X8" s="76"/>
-      <c r="Y8" s="76"/>
-      <c r="Z8" s="76"/>
-      <c r="AA8" s="76"/>
-      <c r="AB8" s="76"/>
-      <c r="AC8" s="76"/>
-      <c r="AD8" s="104"/>
-      <c r="AE8" s="76"/>
-      <c r="AF8" s="76"/>
-      <c r="AG8" s="76"/>
-      <c r="AH8" s="76"/>
-      <c r="AI8" s="76"/>
-      <c r="AJ8" s="76"/>
-      <c r="AK8" s="101"/>
-      <c r="AL8" s="76"/>
-    </row>
-    <row r="9" spans="1:46" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="110"/>
-      <c r="B9" s="111"/>
+      <c r="K8" s="84"/>
+      <c r="L8" s="74"/>
+      <c r="M8" s="74"/>
+      <c r="N8" s="74"/>
+      <c r="O8" s="74"/>
+      <c r="P8" s="74"/>
+      <c r="Q8" s="74"/>
+      <c r="R8" s="74"/>
+      <c r="S8" s="74"/>
+      <c r="T8" s="74"/>
+      <c r="U8" s="74"/>
+      <c r="V8" s="108"/>
+      <c r="W8" s="74"/>
+      <c r="X8" s="74"/>
+      <c r="Y8" s="74"/>
+      <c r="Z8" s="74"/>
+      <c r="AA8" s="74"/>
+      <c r="AB8" s="74"/>
+      <c r="AC8" s="105"/>
+      <c r="AD8" s="74"/>
+      <c r="AE8" s="74"/>
+      <c r="AF8" s="74"/>
+      <c r="AG8" s="74"/>
+      <c r="AH8" s="74"/>
+      <c r="AI8" s="74"/>
+      <c r="AJ8" s="102"/>
+      <c r="AK8" s="74"/>
+    </row>
+    <row r="9" spans="1:45" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="94"/>
+      <c r="B9" s="96"/>
       <c r="C9" s="19" t="s">
         <v>34</v>
       </c>
@@ -7156,41 +7197,40 @@
       <c r="I9" s="31">
         <v>44131</v>
       </c>
-      <c r="J9" s="52"/>
-      <c r="K9" s="83">
+      <c r="J9" s="80">
         <v>1</v>
       </c>
-      <c r="L9" s="88"/>
-      <c r="M9" s="76"/>
-      <c r="N9" s="76"/>
-      <c r="O9" s="76"/>
-      <c r="P9" s="76"/>
-      <c r="Q9" s="76"/>
-      <c r="R9" s="76"/>
-      <c r="S9" s="76"/>
-      <c r="T9" s="76"/>
-      <c r="U9" s="76"/>
-      <c r="V9" s="76"/>
-      <c r="W9" s="107"/>
-      <c r="X9" s="76"/>
-      <c r="Y9" s="76"/>
-      <c r="Z9" s="76"/>
-      <c r="AA9" s="76"/>
-      <c r="AB9" s="76"/>
-      <c r="AC9" s="76"/>
-      <c r="AD9" s="104"/>
-      <c r="AE9" s="76"/>
-      <c r="AF9" s="76"/>
-      <c r="AG9" s="76"/>
-      <c r="AH9" s="76"/>
-      <c r="AI9" s="76"/>
-      <c r="AJ9" s="76"/>
-      <c r="AK9" s="101"/>
-      <c r="AL9" s="76"/>
-    </row>
-    <row r="10" spans="1:46" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="110"/>
-      <c r="B10" s="111"/>
+      <c r="K9" s="84"/>
+      <c r="L9" s="74"/>
+      <c r="M9" s="74"/>
+      <c r="N9" s="74"/>
+      <c r="O9" s="74"/>
+      <c r="P9" s="74"/>
+      <c r="Q9" s="74"/>
+      <c r="R9" s="74"/>
+      <c r="S9" s="74"/>
+      <c r="T9" s="74"/>
+      <c r="U9" s="74"/>
+      <c r="V9" s="108"/>
+      <c r="W9" s="74"/>
+      <c r="X9" s="74"/>
+      <c r="Y9" s="74"/>
+      <c r="Z9" s="74"/>
+      <c r="AA9" s="74"/>
+      <c r="AB9" s="74"/>
+      <c r="AC9" s="105"/>
+      <c r="AD9" s="74"/>
+      <c r="AE9" s="74"/>
+      <c r="AF9" s="74"/>
+      <c r="AG9" s="74"/>
+      <c r="AH9" s="74"/>
+      <c r="AI9" s="74"/>
+      <c r="AJ9" s="102"/>
+      <c r="AK9" s="74"/>
+    </row>
+    <row r="10" spans="1:45" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="94"/>
+      <c r="B10" s="96"/>
       <c r="C10" s="19" t="s">
         <v>35</v>
       </c>
@@ -7204,222 +7244,225 @@
       <c r="G10" s="19"/>
       <c r="H10" s="31"/>
       <c r="I10" s="31"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="83">
+      <c r="J10" s="80">
         <v>0</v>
       </c>
-      <c r="L10" s="88"/>
-      <c r="M10" s="76"/>
-      <c r="N10" s="76"/>
-      <c r="O10" s="76"/>
-      <c r="P10" s="76"/>
-      <c r="Q10" s="76"/>
-      <c r="R10" s="76"/>
-      <c r="S10" s="76"/>
-      <c r="T10" s="76"/>
-      <c r="U10" s="76"/>
-      <c r="V10" s="76"/>
-      <c r="W10" s="107"/>
-      <c r="X10" s="76"/>
-      <c r="Y10" s="76"/>
-      <c r="Z10" s="76"/>
-      <c r="AA10" s="76"/>
-      <c r="AB10" s="76"/>
-      <c r="AC10" s="76"/>
-      <c r="AD10" s="104"/>
-      <c r="AE10" s="76"/>
-      <c r="AF10" s="76"/>
-      <c r="AG10" s="76"/>
-      <c r="AH10" s="76"/>
-      <c r="AI10" s="76"/>
-      <c r="AJ10" s="76"/>
-      <c r="AK10" s="101"/>
-      <c r="AL10" s="76"/>
-    </row>
-    <row r="11" spans="1:46" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="110"/>
-      <c r="B11" s="113" t="s">
+      <c r="K10" s="84"/>
+      <c r="L10" s="74"/>
+      <c r="M10" s="74"/>
+      <c r="N10" s="74"/>
+      <c r="O10" s="74"/>
+      <c r="P10" s="74"/>
+      <c r="Q10" s="74"/>
+      <c r="R10" s="74"/>
+      <c r="S10" s="74"/>
+      <c r="T10" s="74"/>
+      <c r="U10" s="74"/>
+      <c r="V10" s="108"/>
+      <c r="W10" s="74"/>
+      <c r="X10" s="74"/>
+      <c r="Y10" s="74"/>
+      <c r="Z10" s="74"/>
+      <c r="AA10" s="74"/>
+      <c r="AB10" s="74"/>
+      <c r="AC10" s="105"/>
+      <c r="AD10" s="74"/>
+      <c r="AE10" s="74"/>
+      <c r="AF10" s="74"/>
+      <c r="AG10" s="74"/>
+      <c r="AH10" s="74"/>
+      <c r="AI10" s="74"/>
+      <c r="AJ10" s="102"/>
+      <c r="AK10" s="74"/>
+    </row>
+    <row r="11" spans="1:45" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="94"/>
+      <c r="B11" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="109" t="s">
+      <c r="C11" s="95" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="40" t="s">
         <v>26</v>
       </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="19"/>
+      <c r="F11" s="19" t="s">
+        <v>40</v>
+      </c>
       <c r="G11" s="19"/>
       <c r="H11" s="31"/>
       <c r="I11" s="31"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="83">
+      <c r="J11" s="80">
         <v>0</v>
       </c>
-      <c r="L11" s="88"/>
-      <c r="M11" s="76"/>
-      <c r="N11" s="76"/>
-      <c r="O11" s="76"/>
-      <c r="P11" s="76"/>
-      <c r="Q11" s="76"/>
-      <c r="R11" s="76"/>
-      <c r="S11" s="76"/>
-      <c r="T11" s="76"/>
-      <c r="U11" s="76"/>
-      <c r="V11" s="76"/>
-      <c r="W11" s="107"/>
-      <c r="X11" s="76"/>
-      <c r="Y11" s="76"/>
-      <c r="Z11" s="76"/>
-      <c r="AA11" s="76"/>
-      <c r="AB11" s="76"/>
-      <c r="AC11" s="76"/>
-      <c r="AD11" s="104"/>
-      <c r="AE11" s="76"/>
-      <c r="AF11" s="76"/>
-      <c r="AG11" s="76"/>
-      <c r="AH11" s="76"/>
-      <c r="AI11" s="76"/>
-      <c r="AJ11" s="76"/>
-      <c r="AK11" s="101"/>
-      <c r="AL11" s="76"/>
-    </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.4">
-      <c r="A12" s="110"/>
-      <c r="B12" s="113"/>
-      <c r="C12" s="109"/>
+      <c r="K11" s="84"/>
+      <c r="L11" s="74"/>
+      <c r="M11" s="74"/>
+      <c r="N11" s="74"/>
+      <c r="O11" s="74"/>
+      <c r="P11" s="74"/>
+      <c r="Q11" s="74"/>
+      <c r="R11" s="74"/>
+      <c r="S11" s="74"/>
+      <c r="T11" s="74"/>
+      <c r="U11" s="74"/>
+      <c r="V11" s="108"/>
+      <c r="W11" s="74"/>
+      <c r="X11" s="74"/>
+      <c r="Y11" s="74"/>
+      <c r="Z11" s="74"/>
+      <c r="AA11" s="74"/>
+      <c r="AB11" s="74"/>
+      <c r="AC11" s="105"/>
+      <c r="AD11" s="74"/>
+      <c r="AE11" s="74"/>
+      <c r="AF11" s="74"/>
+      <c r="AG11" s="74"/>
+      <c r="AH11" s="74"/>
+      <c r="AI11" s="74"/>
+      <c r="AJ11" s="102"/>
+      <c r="AK11" s="74"/>
+    </row>
+    <row r="12" spans="1:45" x14ac:dyDescent="0.4">
+      <c r="A12" s="94"/>
+      <c r="B12" s="100"/>
+      <c r="C12" s="95"/>
       <c r="D12" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="19"/>
+      <c r="F12" s="19" t="s">
+        <v>283</v>
+      </c>
       <c r="G12" s="19"/>
       <c r="H12" s="31"/>
       <c r="I12" s="31"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="83">
+      <c r="J12" s="80">
         <v>0</v>
       </c>
-      <c r="L12" s="88"/>
-      <c r="M12" s="76"/>
-      <c r="N12" s="76"/>
-      <c r="O12" s="76"/>
-      <c r="P12" s="76"/>
-      <c r="Q12" s="76"/>
-      <c r="R12" s="76"/>
-      <c r="S12" s="76"/>
-      <c r="T12" s="76"/>
-      <c r="U12" s="76"/>
-      <c r="V12" s="76"/>
-      <c r="W12" s="107"/>
-      <c r="X12" s="76"/>
-      <c r="Y12" s="76"/>
-      <c r="Z12" s="76"/>
-      <c r="AA12" s="76"/>
-      <c r="AB12" s="76"/>
-      <c r="AC12" s="76"/>
-      <c r="AD12" s="104"/>
-      <c r="AE12" s="76"/>
-      <c r="AF12" s="76"/>
-      <c r="AG12" s="76"/>
-      <c r="AH12" s="76"/>
-      <c r="AI12" s="76"/>
-      <c r="AJ12" s="76"/>
-      <c r="AK12" s="101"/>
-      <c r="AL12" s="76"/>
-    </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.4">
-      <c r="A13" s="110"/>
-      <c r="B13" s="113"/>
-      <c r="C13" s="109"/>
+      <c r="K12" s="84"/>
+      <c r="L12" s="74"/>
+      <c r="M12" s="74"/>
+      <c r="N12" s="74"/>
+      <c r="O12" s="74"/>
+      <c r="P12" s="74"/>
+      <c r="Q12" s="74"/>
+      <c r="R12" s="74"/>
+      <c r="S12" s="74"/>
+      <c r="T12" s="74"/>
+      <c r="U12" s="74"/>
+      <c r="V12" s="108"/>
+      <c r="W12" s="74"/>
+      <c r="X12" s="74"/>
+      <c r="Y12" s="74"/>
+      <c r="Z12" s="74"/>
+      <c r="AA12" s="74"/>
+      <c r="AB12" s="74"/>
+      <c r="AC12" s="105"/>
+      <c r="AD12" s="74"/>
+      <c r="AE12" s="74"/>
+      <c r="AF12" s="74"/>
+      <c r="AG12" s="74"/>
+      <c r="AH12" s="74"/>
+      <c r="AI12" s="74"/>
+      <c r="AJ12" s="102"/>
+      <c r="AK12" s="74"/>
+    </row>
+    <row r="13" spans="1:45" x14ac:dyDescent="0.4">
+      <c r="A13" s="94"/>
+      <c r="B13" s="100"/>
+      <c r="C13" s="95"/>
       <c r="D13" s="33" t="s">
         <v>45</v>
       </c>
       <c r="E13" s="33"/>
-      <c r="F13" s="19"/>
+      <c r="F13" s="19" t="s">
+        <v>117</v>
+      </c>
       <c r="G13" s="19"/>
       <c r="H13" s="31"/>
       <c r="I13" s="31"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="83">
+      <c r="J13" s="80">
         <v>0</v>
       </c>
-      <c r="L13" s="88"/>
-      <c r="M13" s="76"/>
-      <c r="N13" s="76"/>
-      <c r="O13" s="76"/>
-      <c r="P13" s="76"/>
-      <c r="Q13" s="76"/>
-      <c r="R13" s="76"/>
-      <c r="S13" s="76"/>
-      <c r="T13" s="76"/>
-      <c r="U13" s="76"/>
-      <c r="V13" s="76"/>
-      <c r="W13" s="107"/>
-      <c r="X13" s="76"/>
-      <c r="Y13" s="76"/>
-      <c r="Z13" s="76"/>
-      <c r="AA13" s="76"/>
-      <c r="AB13" s="76"/>
-      <c r="AC13" s="76"/>
-      <c r="AD13" s="104"/>
-      <c r="AE13" s="76"/>
-      <c r="AF13" s="76"/>
-      <c r="AG13" s="76"/>
-      <c r="AH13" s="76"/>
-      <c r="AI13" s="76"/>
-      <c r="AJ13" s="76"/>
-      <c r="AK13" s="101"/>
-      <c r="AL13" s="76"/>
-    </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.4">
-      <c r="A14" s="110"/>
-      <c r="B14" s="113"/>
-      <c r="C14" s="109"/>
+      <c r="K13" s="84"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="74"/>
+      <c r="N13" s="74"/>
+      <c r="O13" s="74"/>
+      <c r="P13" s="74"/>
+      <c r="Q13" s="74"/>
+      <c r="R13" s="74"/>
+      <c r="S13" s="74"/>
+      <c r="T13" s="74"/>
+      <c r="U13" s="74"/>
+      <c r="V13" s="108"/>
+      <c r="W13" s="74"/>
+      <c r="X13" s="74"/>
+      <c r="Y13" s="74"/>
+      <c r="Z13" s="74"/>
+      <c r="AA13" s="74"/>
+      <c r="AB13" s="74"/>
+      <c r="AC13" s="105"/>
+      <c r="AD13" s="74"/>
+      <c r="AE13" s="74"/>
+      <c r="AF13" s="74"/>
+      <c r="AG13" s="74"/>
+      <c r="AH13" s="74"/>
+      <c r="AI13" s="74"/>
+      <c r="AJ13" s="102"/>
+      <c r="AK13" s="74"/>
+    </row>
+    <row r="14" spans="1:45" x14ac:dyDescent="0.4">
+      <c r="A14" s="94"/>
+      <c r="B14" s="100"/>
+      <c r="C14" s="95"/>
       <c r="D14" s="34" t="s">
         <v>27</v>
       </c>
       <c r="E14" s="34"/>
-      <c r="F14" s="19"/>
+      <c r="F14" s="19" t="s">
+        <v>284</v>
+      </c>
       <c r="G14" s="19"/>
       <c r="H14" s="31"/>
       <c r="I14" s="31"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="83">
+      <c r="J14" s="80">
         <v>0</v>
       </c>
-      <c r="L14" s="88"/>
-      <c r="M14" s="76"/>
-      <c r="N14" s="76"/>
-      <c r="O14" s="76"/>
-      <c r="P14" s="76"/>
-      <c r="Q14" s="76"/>
-      <c r="R14" s="76"/>
-      <c r="S14" s="76"/>
-      <c r="T14" s="76"/>
-      <c r="U14" s="76"/>
-      <c r="V14" s="76"/>
-      <c r="W14" s="107"/>
-      <c r="X14" s="76"/>
-      <c r="Y14" s="76"/>
-      <c r="Z14" s="76"/>
-      <c r="AA14" s="76"/>
-      <c r="AB14" s="76"/>
-      <c r="AC14" s="76"/>
-      <c r="AD14" s="104"/>
-      <c r="AE14" s="76"/>
-      <c r="AF14" s="76"/>
-      <c r="AG14" s="76"/>
-      <c r="AH14" s="76"/>
-      <c r="AI14" s="76"/>
-      <c r="AJ14" s="76"/>
-      <c r="AK14" s="101"/>
-      <c r="AL14" s="76"/>
-    </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.4">
-      <c r="A15" s="110"/>
-      <c r="B15" s="113"/>
-      <c r="C15" s="109" t="s">
+      <c r="K14" s="84"/>
+      <c r="L14" s="74"/>
+      <c r="M14" s="74"/>
+      <c r="N14" s="74"/>
+      <c r="O14" s="74"/>
+      <c r="P14" s="74"/>
+      <c r="Q14" s="74"/>
+      <c r="R14" s="74"/>
+      <c r="S14" s="74"/>
+      <c r="T14" s="74"/>
+      <c r="U14" s="74"/>
+      <c r="V14" s="108"/>
+      <c r="W14" s="74"/>
+      <c r="X14" s="74"/>
+      <c r="Y14" s="74"/>
+      <c r="Z14" s="74"/>
+      <c r="AA14" s="74"/>
+      <c r="AB14" s="74"/>
+      <c r="AC14" s="105"/>
+      <c r="AD14" s="74"/>
+      <c r="AE14" s="74"/>
+      <c r="AF14" s="74"/>
+      <c r="AG14" s="74"/>
+      <c r="AH14" s="74"/>
+      <c r="AI14" s="74"/>
+      <c r="AJ14" s="102"/>
+      <c r="AK14" s="74"/>
+    </row>
+    <row r="15" spans="1:45" x14ac:dyDescent="0.4">
+      <c r="A15" s="94"/>
+      <c r="B15" s="100"/>
+      <c r="C15" s="95" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -7432,133 +7475,134 @@
       <c r="G15" s="19"/>
       <c r="H15" s="31"/>
       <c r="I15" s="31"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="83">
+      <c r="J15" s="80">
         <v>0</v>
       </c>
-      <c r="L15" s="88"/>
-      <c r="M15" s="76"/>
-      <c r="N15" s="76"/>
-      <c r="O15" s="76"/>
-      <c r="P15" s="76"/>
-      <c r="Q15" s="76"/>
-      <c r="R15" s="76"/>
-      <c r="S15" s="76"/>
-      <c r="T15" s="76"/>
-      <c r="U15" s="76"/>
-      <c r="V15" s="76"/>
-      <c r="W15" s="107"/>
-      <c r="X15" s="76"/>
-      <c r="Y15" s="76"/>
-      <c r="Z15" s="76"/>
-      <c r="AA15" s="76"/>
-      <c r="AB15" s="76"/>
-      <c r="AC15" s="76"/>
-      <c r="AD15" s="104"/>
-      <c r="AE15" s="76"/>
-      <c r="AF15" s="76"/>
-      <c r="AG15" s="76"/>
-      <c r="AH15" s="76"/>
-      <c r="AI15" s="76"/>
-      <c r="AJ15" s="76"/>
-      <c r="AK15" s="101"/>
-      <c r="AL15" s="76"/>
-    </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.4">
-      <c r="A16" s="110"/>
-      <c r="B16" s="113"/>
-      <c r="C16" s="109"/>
+      <c r="K15" s="84"/>
+      <c r="L15" s="74"/>
+      <c r="M15" s="74"/>
+      <c r="N15" s="74"/>
+      <c r="O15" s="74"/>
+      <c r="P15" s="74"/>
+      <c r="Q15" s="74"/>
+      <c r="R15" s="74"/>
+      <c r="S15" s="74"/>
+      <c r="T15" s="74"/>
+      <c r="U15" s="74"/>
+      <c r="V15" s="108"/>
+      <c r="W15" s="74"/>
+      <c r="X15" s="74"/>
+      <c r="Y15" s="74"/>
+      <c r="Z15" s="74"/>
+      <c r="AA15" s="74"/>
+      <c r="AB15" s="74"/>
+      <c r="AC15" s="105"/>
+      <c r="AD15" s="74"/>
+      <c r="AE15" s="74"/>
+      <c r="AF15" s="74"/>
+      <c r="AG15" s="74"/>
+      <c r="AH15" s="74"/>
+      <c r="AI15" s="74"/>
+      <c r="AJ15" s="102"/>
+      <c r="AK15" s="74"/>
+    </row>
+    <row r="16" spans="1:45" x14ac:dyDescent="0.4">
+      <c r="A16" s="94"/>
+      <c r="B16" s="100"/>
+      <c r="C16" s="95"/>
       <c r="D16" s="35" t="s">
         <v>45</v>
       </c>
       <c r="E16" s="35"/>
-      <c r="F16" s="19"/>
+      <c r="F16" s="19" t="s">
+        <v>284</v>
+      </c>
       <c r="G16" s="19"/>
       <c r="H16" s="31"/>
       <c r="I16" s="31"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="83">
+      <c r="J16" s="80">
         <v>0</v>
       </c>
-      <c r="L16" s="88"/>
-      <c r="M16" s="76"/>
-      <c r="N16" s="76"/>
-      <c r="O16" s="76"/>
-      <c r="P16" s="76"/>
-      <c r="Q16" s="76"/>
-      <c r="R16" s="76"/>
-      <c r="S16" s="76"/>
-      <c r="T16" s="76"/>
-      <c r="U16" s="76"/>
-      <c r="V16" s="76"/>
-      <c r="W16" s="107"/>
-      <c r="X16" s="76"/>
-      <c r="Y16" s="76"/>
-      <c r="Z16" s="76"/>
-      <c r="AA16" s="76"/>
-      <c r="AB16" s="76"/>
-      <c r="AC16" s="76"/>
-      <c r="AD16" s="104"/>
-      <c r="AE16" s="76"/>
-      <c r="AF16" s="76"/>
-      <c r="AG16" s="76"/>
-      <c r="AH16" s="76"/>
-      <c r="AI16" s="76"/>
-      <c r="AJ16" s="76"/>
-      <c r="AK16" s="101"/>
-      <c r="AL16" s="76"/>
-    </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A17" s="110"/>
-      <c r="B17" s="113"/>
-      <c r="C17" s="109"/>
+      <c r="K16" s="84"/>
+      <c r="L16" s="74"/>
+      <c r="M16" s="74"/>
+      <c r="N16" s="74"/>
+      <c r="O16" s="74"/>
+      <c r="P16" s="74"/>
+      <c r="Q16" s="74"/>
+      <c r="R16" s="74"/>
+      <c r="S16" s="74"/>
+      <c r="T16" s="74"/>
+      <c r="U16" s="74"/>
+      <c r="V16" s="108"/>
+      <c r="W16" s="74"/>
+      <c r="X16" s="74"/>
+      <c r="Y16" s="74"/>
+      <c r="Z16" s="74"/>
+      <c r="AA16" s="74"/>
+      <c r="AB16" s="74"/>
+      <c r="AC16" s="105"/>
+      <c r="AD16" s="74"/>
+      <c r="AE16" s="74"/>
+      <c r="AF16" s="74"/>
+      <c r="AG16" s="74"/>
+      <c r="AH16" s="74"/>
+      <c r="AI16" s="74"/>
+      <c r="AJ16" s="102"/>
+      <c r="AK16" s="74"/>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A17" s="94"/>
+      <c r="B17" s="100"/>
+      <c r="C17" s="95"/>
       <c r="D17" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E17" s="2"/>
-      <c r="F17" s="19"/>
+      <c r="F17" s="19" t="s">
+        <v>283</v>
+      </c>
       <c r="G17" s="19"/>
       <c r="H17" s="31"/>
       <c r="I17" s="31"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="83">
+      <c r="J17" s="80">
         <v>0</v>
       </c>
-      <c r="L17" s="88"/>
-      <c r="M17" s="76"/>
-      <c r="N17" s="76"/>
-      <c r="O17" s="76"/>
-      <c r="P17" s="76"/>
-      <c r="Q17" s="76"/>
-      <c r="R17" s="76"/>
-      <c r="S17" s="76"/>
-      <c r="T17" s="76"/>
-      <c r="U17" s="76"/>
-      <c r="V17" s="76"/>
-      <c r="W17" s="107"/>
-      <c r="X17" s="76"/>
-      <c r="Y17" s="76"/>
-      <c r="Z17" s="76"/>
-      <c r="AA17" s="76"/>
-      <c r="AB17" s="76"/>
-      <c r="AC17" s="76"/>
-      <c r="AD17" s="104"/>
-      <c r="AE17" s="76"/>
-      <c r="AF17" s="76"/>
-      <c r="AG17" s="76"/>
-      <c r="AH17" s="76"/>
-      <c r="AI17" s="76"/>
-      <c r="AJ17" s="76"/>
-      <c r="AK17" s="101"/>
-      <c r="AL17" s="76"/>
-    </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A18" s="110"/>
-      <c r="B18" s="113"/>
-      <c r="C18" s="109" t="s">
+      <c r="K17" s="84"/>
+      <c r="L17" s="74"/>
+      <c r="M17" s="74"/>
+      <c r="N17" s="74"/>
+      <c r="O17" s="74"/>
+      <c r="P17" s="74"/>
+      <c r="Q17" s="74"/>
+      <c r="R17" s="74"/>
+      <c r="S17" s="74"/>
+      <c r="T17" s="74"/>
+      <c r="U17" s="74"/>
+      <c r="V17" s="108"/>
+      <c r="W17" s="74"/>
+      <c r="X17" s="74"/>
+      <c r="Y17" s="74"/>
+      <c r="Z17" s="74"/>
+      <c r="AA17" s="74"/>
+      <c r="AB17" s="74"/>
+      <c r="AC17" s="105"/>
+      <c r="AD17" s="74"/>
+      <c r="AE17" s="74"/>
+      <c r="AF17" s="74"/>
+      <c r="AG17" s="74"/>
+      <c r="AH17" s="74"/>
+      <c r="AI17" s="74"/>
+      <c r="AJ17" s="102"/>
+      <c r="AK17" s="74"/>
+    </row>
+    <row r="18" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A18" s="94"/>
+      <c r="B18" s="100"/>
+      <c r="C18" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="109" t="s">
+      <c r="D18" s="95" t="s">
         <v>95</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -7576,43 +7620,42 @@
       <c r="I18" s="31">
         <v>44127</v>
       </c>
-      <c r="J18" s="52"/>
-      <c r="K18" s="83">
+      <c r="J18" s="80">
         <v>1</v>
       </c>
-      <c r="L18" s="88"/>
-      <c r="M18" s="76"/>
-      <c r="N18" s="76"/>
-      <c r="O18" s="76"/>
-      <c r="P18" s="76"/>
-      <c r="Q18" s="76"/>
-      <c r="R18" s="76"/>
-      <c r="S18" s="76"/>
-      <c r="T18" s="76"/>
-      <c r="U18" s="76"/>
-      <c r="V18" s="76"/>
-      <c r="W18" s="107"/>
-      <c r="X18" s="76"/>
-      <c r="Y18" s="76"/>
-      <c r="Z18" s="76"/>
-      <c r="AA18" s="76"/>
-      <c r="AB18" s="76"/>
-      <c r="AC18" s="76"/>
-      <c r="AD18" s="104"/>
-      <c r="AE18" s="76"/>
-      <c r="AF18" s="76"/>
-      <c r="AG18" s="76"/>
-      <c r="AH18" s="76"/>
-      <c r="AI18" s="76"/>
-      <c r="AJ18" s="76"/>
-      <c r="AK18" s="101"/>
-      <c r="AL18" s="76"/>
-    </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A19" s="110"/>
-      <c r="B19" s="113"/>
-      <c r="C19" s="109"/>
-      <c r="D19" s="109"/>
+      <c r="K18" s="84"/>
+      <c r="L18" s="74"/>
+      <c r="M18" s="74"/>
+      <c r="N18" s="74"/>
+      <c r="O18" s="74"/>
+      <c r="P18" s="74"/>
+      <c r="Q18" s="74"/>
+      <c r="R18" s="74"/>
+      <c r="S18" s="74"/>
+      <c r="T18" s="74"/>
+      <c r="U18" s="74"/>
+      <c r="V18" s="108"/>
+      <c r="W18" s="74"/>
+      <c r="X18" s="74"/>
+      <c r="Y18" s="74"/>
+      <c r="Z18" s="74"/>
+      <c r="AA18" s="74"/>
+      <c r="AB18" s="74"/>
+      <c r="AC18" s="105"/>
+      <c r="AD18" s="74"/>
+      <c r="AE18" s="74"/>
+      <c r="AF18" s="74"/>
+      <c r="AG18" s="74"/>
+      <c r="AH18" s="74"/>
+      <c r="AI18" s="74"/>
+      <c r="AJ18" s="102"/>
+      <c r="AK18" s="74"/>
+    </row>
+    <row r="19" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A19" s="94"/>
+      <c r="B19" s="100"/>
+      <c r="C19" s="95"/>
+      <c r="D19" s="95"/>
       <c r="E19" s="2" t="s">
         <v>138</v>
       </c>
@@ -7628,43 +7671,42 @@
       <c r="I19" s="31">
         <v>44126</v>
       </c>
-      <c r="J19" s="52"/>
-      <c r="K19" s="83">
+      <c r="J19" s="80">
         <v>1</v>
       </c>
-      <c r="L19" s="88"/>
-      <c r="M19" s="76"/>
-      <c r="N19" s="76"/>
-      <c r="O19" s="76"/>
-      <c r="P19" s="76"/>
-      <c r="Q19" s="76"/>
-      <c r="R19" s="76"/>
-      <c r="S19" s="76"/>
-      <c r="T19" s="76"/>
-      <c r="U19" s="76"/>
-      <c r="V19" s="76"/>
-      <c r="W19" s="107"/>
-      <c r="X19" s="76"/>
-      <c r="Y19" s="76"/>
-      <c r="Z19" s="76"/>
-      <c r="AA19" s="76"/>
-      <c r="AB19" s="76"/>
-      <c r="AC19" s="76"/>
-      <c r="AD19" s="104"/>
-      <c r="AE19" s="76"/>
-      <c r="AF19" s="76"/>
-      <c r="AG19" s="76"/>
-      <c r="AH19" s="76"/>
-      <c r="AI19" s="76"/>
-      <c r="AJ19" s="76"/>
-      <c r="AK19" s="101"/>
-      <c r="AL19" s="76"/>
-    </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A20" s="110"/>
-      <c r="B20" s="113"/>
-      <c r="C20" s="109"/>
-      <c r="D20" s="109"/>
+      <c r="K19" s="84"/>
+      <c r="L19" s="74"/>
+      <c r="M19" s="74"/>
+      <c r="N19" s="74"/>
+      <c r="O19" s="74"/>
+      <c r="P19" s="74"/>
+      <c r="Q19" s="74"/>
+      <c r="R19" s="74"/>
+      <c r="S19" s="74"/>
+      <c r="T19" s="74"/>
+      <c r="U19" s="74"/>
+      <c r="V19" s="108"/>
+      <c r="W19" s="74"/>
+      <c r="X19" s="74"/>
+      <c r="Y19" s="74"/>
+      <c r="Z19" s="74"/>
+      <c r="AA19" s="74"/>
+      <c r="AB19" s="74"/>
+      <c r="AC19" s="105"/>
+      <c r="AD19" s="74"/>
+      <c r="AE19" s="74"/>
+      <c r="AF19" s="74"/>
+      <c r="AG19" s="74"/>
+      <c r="AH19" s="74"/>
+      <c r="AI19" s="74"/>
+      <c r="AJ19" s="102"/>
+      <c r="AK19" s="74"/>
+    </row>
+    <row r="20" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A20" s="94"/>
+      <c r="B20" s="100"/>
+      <c r="C20" s="95"/>
+      <c r="D20" s="95"/>
       <c r="E20" s="2" t="s">
         <v>112</v>
       </c>
@@ -7680,43 +7722,42 @@
       <c r="I20" s="31">
         <v>44124</v>
       </c>
-      <c r="J20" s="52"/>
-      <c r="K20" s="83">
+      <c r="J20" s="80">
         <v>1</v>
       </c>
-      <c r="L20" s="88"/>
-      <c r="M20" s="76"/>
-      <c r="N20" s="76"/>
-      <c r="O20" s="76"/>
-      <c r="P20" s="76"/>
-      <c r="Q20" s="76"/>
-      <c r="R20" s="76"/>
-      <c r="S20" s="76"/>
-      <c r="T20" s="76"/>
-      <c r="U20" s="76"/>
-      <c r="V20" s="76"/>
-      <c r="W20" s="107"/>
-      <c r="X20" s="76"/>
-      <c r="Y20" s="76"/>
-      <c r="Z20" s="76"/>
-      <c r="AA20" s="76"/>
-      <c r="AB20" s="76"/>
-      <c r="AC20" s="76"/>
-      <c r="AD20" s="104"/>
-      <c r="AE20" s="76"/>
-      <c r="AF20" s="76"/>
-      <c r="AG20" s="76"/>
-      <c r="AH20" s="76"/>
-      <c r="AI20" s="76"/>
-      <c r="AJ20" s="76"/>
-      <c r="AK20" s="101"/>
-      <c r="AL20" s="76"/>
-    </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A21" s="110"/>
-      <c r="B21" s="113"/>
-      <c r="C21" s="109"/>
-      <c r="D21" s="109"/>
+      <c r="K20" s="84"/>
+      <c r="L20" s="74"/>
+      <c r="M20" s="74"/>
+      <c r="N20" s="74"/>
+      <c r="O20" s="74"/>
+      <c r="P20" s="74"/>
+      <c r="Q20" s="74"/>
+      <c r="R20" s="74"/>
+      <c r="S20" s="74"/>
+      <c r="T20" s="74"/>
+      <c r="U20" s="74"/>
+      <c r="V20" s="108"/>
+      <c r="W20" s="74"/>
+      <c r="X20" s="74"/>
+      <c r="Y20" s="74"/>
+      <c r="Z20" s="74"/>
+      <c r="AA20" s="74"/>
+      <c r="AB20" s="74"/>
+      <c r="AC20" s="105"/>
+      <c r="AD20" s="74"/>
+      <c r="AE20" s="74"/>
+      <c r="AF20" s="74"/>
+      <c r="AG20" s="74"/>
+      <c r="AH20" s="74"/>
+      <c r="AI20" s="74"/>
+      <c r="AJ20" s="102"/>
+      <c r="AK20" s="74"/>
+    </row>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A21" s="94"/>
+      <c r="B21" s="100"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
       <c r="E21" s="2" t="s">
         <v>108</v>
       </c>
@@ -7732,43 +7773,42 @@
       <c r="I21" s="31">
         <v>44132</v>
       </c>
-      <c r="J21" s="52"/>
-      <c r="K21" s="83">
+      <c r="J21" s="80">
         <v>1</v>
       </c>
-      <c r="L21" s="88"/>
-      <c r="M21" s="76"/>
-      <c r="N21" s="76"/>
-      <c r="O21" s="76"/>
-      <c r="P21" s="76"/>
-      <c r="Q21" s="76"/>
-      <c r="R21" s="76"/>
-      <c r="S21" s="76"/>
-      <c r="T21" s="76"/>
-      <c r="U21" s="76"/>
-      <c r="V21" s="76"/>
-      <c r="W21" s="107"/>
-      <c r="X21" s="76"/>
-      <c r="Y21" s="76"/>
-      <c r="Z21" s="76"/>
-      <c r="AA21" s="76"/>
-      <c r="AB21" s="76"/>
-      <c r="AC21" s="76"/>
-      <c r="AD21" s="104"/>
-      <c r="AE21" s="76"/>
-      <c r="AF21" s="76"/>
-      <c r="AG21" s="76"/>
-      <c r="AH21" s="76"/>
-      <c r="AI21" s="76"/>
-      <c r="AJ21" s="76"/>
-      <c r="AK21" s="101"/>
-      <c r="AL21" s="76"/>
-    </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A22" s="110"/>
-      <c r="B22" s="113"/>
-      <c r="C22" s="109"/>
-      <c r="D22" s="109"/>
+      <c r="K21" s="84"/>
+      <c r="L21" s="74"/>
+      <c r="M21" s="74"/>
+      <c r="N21" s="74"/>
+      <c r="O21" s="74"/>
+      <c r="P21" s="74"/>
+      <c r="Q21" s="74"/>
+      <c r="R21" s="74"/>
+      <c r="S21" s="74"/>
+      <c r="T21" s="74"/>
+      <c r="U21" s="74"/>
+      <c r="V21" s="108"/>
+      <c r="W21" s="74"/>
+      <c r="X21" s="74"/>
+      <c r="Y21" s="74"/>
+      <c r="Z21" s="74"/>
+      <c r="AA21" s="74"/>
+      <c r="AB21" s="74"/>
+      <c r="AC21" s="105"/>
+      <c r="AD21" s="74"/>
+      <c r="AE21" s="74"/>
+      <c r="AF21" s="74"/>
+      <c r="AG21" s="74"/>
+      <c r="AH21" s="74"/>
+      <c r="AI21" s="74"/>
+      <c r="AJ21" s="102"/>
+      <c r="AK21" s="74"/>
+    </row>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A22" s="94"/>
+      <c r="B22" s="100"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="95"/>
       <c r="E22" s="2" t="s">
         <v>135</v>
       </c>
@@ -7784,43 +7824,42 @@
       <c r="I22" s="31">
         <v>44125</v>
       </c>
-      <c r="J22" s="52"/>
-      <c r="K22" s="83">
+      <c r="J22" s="80">
         <v>1</v>
       </c>
-      <c r="L22" s="88"/>
-      <c r="M22" s="76"/>
-      <c r="N22" s="76"/>
-      <c r="O22" s="76"/>
-      <c r="P22" s="76"/>
-      <c r="Q22" s="76"/>
-      <c r="R22" s="76"/>
-      <c r="S22" s="76"/>
-      <c r="T22" s="76"/>
-      <c r="U22" s="76"/>
-      <c r="V22" s="76"/>
-      <c r="W22" s="107"/>
-      <c r="X22" s="76"/>
-      <c r="Y22" s="76"/>
-      <c r="Z22" s="76"/>
-      <c r="AA22" s="76"/>
-      <c r="AB22" s="76"/>
-      <c r="AC22" s="76"/>
-      <c r="AD22" s="104"/>
-      <c r="AE22" s="76"/>
-      <c r="AF22" s="76"/>
-      <c r="AG22" s="76"/>
-      <c r="AH22" s="76"/>
-      <c r="AI22" s="76"/>
-      <c r="AJ22" s="76"/>
-      <c r="AK22" s="101"/>
-      <c r="AL22" s="76"/>
-    </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A23" s="110"/>
-      <c r="B23" s="113"/>
-      <c r="C23" s="109"/>
-      <c r="D23" s="109"/>
+      <c r="K22" s="84"/>
+      <c r="L22" s="74"/>
+      <c r="M22" s="74"/>
+      <c r="N22" s="74"/>
+      <c r="O22" s="74"/>
+      <c r="P22" s="74"/>
+      <c r="Q22" s="74"/>
+      <c r="R22" s="74"/>
+      <c r="S22" s="74"/>
+      <c r="T22" s="74"/>
+      <c r="U22" s="74"/>
+      <c r="V22" s="108"/>
+      <c r="W22" s="74"/>
+      <c r="X22" s="74"/>
+      <c r="Y22" s="74"/>
+      <c r="Z22" s="74"/>
+      <c r="AA22" s="74"/>
+      <c r="AB22" s="74"/>
+      <c r="AC22" s="105"/>
+      <c r="AD22" s="74"/>
+      <c r="AE22" s="74"/>
+      <c r="AF22" s="74"/>
+      <c r="AG22" s="74"/>
+      <c r="AH22" s="74"/>
+      <c r="AI22" s="74"/>
+      <c r="AJ22" s="102"/>
+      <c r="AK22" s="74"/>
+    </row>
+    <row r="23" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A23" s="94"/>
+      <c r="B23" s="100"/>
+      <c r="C23" s="95"/>
+      <c r="D23" s="95"/>
       <c r="E23" s="2" t="s">
         <v>118</v>
       </c>
@@ -7836,43 +7875,42 @@
       <c r="I23" s="31">
         <v>44124</v>
       </c>
-      <c r="J23" s="52"/>
-      <c r="K23" s="83">
+      <c r="J23" s="80">
         <v>1</v>
       </c>
-      <c r="L23" s="88"/>
-      <c r="M23" s="76"/>
-      <c r="N23" s="76"/>
-      <c r="O23" s="76"/>
-      <c r="P23" s="76"/>
-      <c r="Q23" s="76"/>
-      <c r="R23" s="76"/>
-      <c r="S23" s="76"/>
-      <c r="T23" s="76"/>
-      <c r="U23" s="76"/>
-      <c r="V23" s="76"/>
-      <c r="W23" s="107"/>
-      <c r="X23" s="76"/>
-      <c r="Y23" s="76"/>
-      <c r="Z23" s="76"/>
-      <c r="AA23" s="76"/>
-      <c r="AB23" s="76"/>
-      <c r="AC23" s="76"/>
-      <c r="AD23" s="104"/>
-      <c r="AE23" s="76"/>
-      <c r="AF23" s="76"/>
-      <c r="AG23" s="76"/>
-      <c r="AH23" s="76"/>
-      <c r="AI23" s="76"/>
-      <c r="AJ23" s="76"/>
-      <c r="AK23" s="101"/>
-      <c r="AL23" s="76"/>
-    </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A24" s="110"/>
-      <c r="B24" s="113"/>
-      <c r="C24" s="109"/>
-      <c r="D24" s="109"/>
+      <c r="K23" s="84"/>
+      <c r="L23" s="74"/>
+      <c r="M23" s="74"/>
+      <c r="N23" s="74"/>
+      <c r="O23" s="74"/>
+      <c r="P23" s="74"/>
+      <c r="Q23" s="74"/>
+      <c r="R23" s="74"/>
+      <c r="S23" s="74"/>
+      <c r="T23" s="74"/>
+      <c r="U23" s="74"/>
+      <c r="V23" s="108"/>
+      <c r="W23" s="74"/>
+      <c r="X23" s="74"/>
+      <c r="Y23" s="74"/>
+      <c r="Z23" s="74"/>
+      <c r="AA23" s="74"/>
+      <c r="AB23" s="74"/>
+      <c r="AC23" s="105"/>
+      <c r="AD23" s="74"/>
+      <c r="AE23" s="74"/>
+      <c r="AF23" s="74"/>
+      <c r="AG23" s="74"/>
+      <c r="AH23" s="74"/>
+      <c r="AI23" s="74"/>
+      <c r="AJ23" s="102"/>
+      <c r="AK23" s="74"/>
+    </row>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A24" s="94"/>
+      <c r="B24" s="100"/>
+      <c r="C24" s="95"/>
+      <c r="D24" s="95"/>
       <c r="E24" s="2" t="s">
         <v>109</v>
       </c>
@@ -7888,43 +7926,42 @@
       <c r="I24" s="31">
         <v>44134</v>
       </c>
-      <c r="J24" s="52"/>
-      <c r="K24" s="83">
+      <c r="J24" s="80">
         <v>0</v>
       </c>
-      <c r="L24" s="88"/>
-      <c r="M24" s="76"/>
-      <c r="N24" s="76"/>
-      <c r="O24" s="76"/>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="76"/>
-      <c r="R24" s="76"/>
-      <c r="S24" s="76"/>
-      <c r="T24" s="76"/>
-      <c r="U24" s="76"/>
-      <c r="V24" s="76"/>
-      <c r="W24" s="107"/>
-      <c r="X24" s="76"/>
-      <c r="Y24" s="76"/>
-      <c r="Z24" s="76"/>
-      <c r="AA24" s="76"/>
-      <c r="AB24" s="76"/>
-      <c r="AC24" s="76"/>
-      <c r="AD24" s="104"/>
-      <c r="AE24" s="76"/>
-      <c r="AF24" s="76"/>
-      <c r="AG24" s="76"/>
-      <c r="AH24" s="76"/>
-      <c r="AI24" s="76"/>
-      <c r="AJ24" s="76"/>
-      <c r="AK24" s="101"/>
-      <c r="AL24" s="76"/>
-    </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A25" s="110"/>
-      <c r="B25" s="113"/>
-      <c r="C25" s="109"/>
-      <c r="D25" s="109"/>
+      <c r="K24" s="84"/>
+      <c r="L24" s="74"/>
+      <c r="M24" s="74"/>
+      <c r="N24" s="74"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="74"/>
+      <c r="Q24" s="74"/>
+      <c r="R24" s="74"/>
+      <c r="S24" s="74"/>
+      <c r="T24" s="74"/>
+      <c r="U24" s="74"/>
+      <c r="V24" s="108"/>
+      <c r="W24" s="74"/>
+      <c r="X24" s="74"/>
+      <c r="Y24" s="74"/>
+      <c r="Z24" s="74"/>
+      <c r="AA24" s="74"/>
+      <c r="AB24" s="74"/>
+      <c r="AC24" s="105"/>
+      <c r="AD24" s="74"/>
+      <c r="AE24" s="74"/>
+      <c r="AF24" s="74"/>
+      <c r="AG24" s="74"/>
+      <c r="AH24" s="74"/>
+      <c r="AI24" s="74"/>
+      <c r="AJ24" s="102"/>
+      <c r="AK24" s="74"/>
+    </row>
+    <row r="25" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A25" s="94"/>
+      <c r="B25" s="100"/>
+      <c r="C25" s="95"/>
+      <c r="D25" s="95"/>
       <c r="E25" s="2" t="s">
         <v>167</v>
       </c>
@@ -7940,43 +7977,42 @@
       <c r="I25" s="31">
         <v>44127</v>
       </c>
-      <c r="J25" s="52"/>
-      <c r="K25" s="83">
+      <c r="J25" s="80">
         <v>1</v>
       </c>
-      <c r="L25" s="88"/>
-      <c r="M25" s="76"/>
-      <c r="N25" s="76"/>
-      <c r="O25" s="76"/>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="76"/>
-      <c r="R25" s="76"/>
-      <c r="S25" s="76"/>
-      <c r="T25" s="76"/>
-      <c r="U25" s="76"/>
-      <c r="V25" s="76"/>
-      <c r="W25" s="107"/>
-      <c r="X25" s="76"/>
-      <c r="Y25" s="76"/>
-      <c r="Z25" s="76"/>
-      <c r="AA25" s="76"/>
-      <c r="AB25" s="76"/>
-      <c r="AC25" s="76"/>
-      <c r="AD25" s="104"/>
-      <c r="AE25" s="76"/>
-      <c r="AF25" s="76"/>
-      <c r="AG25" s="76"/>
-      <c r="AH25" s="76"/>
-      <c r="AI25" s="76"/>
-      <c r="AJ25" s="76"/>
-      <c r="AK25" s="101"/>
-      <c r="AL25" s="76"/>
-    </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A26" s="110"/>
-      <c r="B26" s="113"/>
-      <c r="C26" s="109"/>
-      <c r="D26" s="109"/>
+      <c r="K25" s="84"/>
+      <c r="L25" s="74"/>
+      <c r="M25" s="74"/>
+      <c r="N25" s="74"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="74"/>
+      <c r="Q25" s="74"/>
+      <c r="R25" s="74"/>
+      <c r="S25" s="74"/>
+      <c r="T25" s="74"/>
+      <c r="U25" s="74"/>
+      <c r="V25" s="108"/>
+      <c r="W25" s="74"/>
+      <c r="X25" s="74"/>
+      <c r="Y25" s="74"/>
+      <c r="Z25" s="74"/>
+      <c r="AA25" s="74"/>
+      <c r="AB25" s="74"/>
+      <c r="AC25" s="105"/>
+      <c r="AD25" s="74"/>
+      <c r="AE25" s="74"/>
+      <c r="AF25" s="74"/>
+      <c r="AG25" s="74"/>
+      <c r="AH25" s="74"/>
+      <c r="AI25" s="74"/>
+      <c r="AJ25" s="102"/>
+      <c r="AK25" s="74"/>
+    </row>
+    <row r="26" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A26" s="94"/>
+      <c r="B26" s="100"/>
+      <c r="C26" s="95"/>
+      <c r="D26" s="95"/>
       <c r="E26" s="2" t="s">
         <v>106</v>
       </c>
@@ -7992,43 +8028,42 @@
       <c r="I26" s="31">
         <v>44125</v>
       </c>
-      <c r="J26" s="52"/>
-      <c r="K26" s="83">
+      <c r="J26" s="80">
         <v>1</v>
       </c>
-      <c r="L26" s="88"/>
-      <c r="M26" s="76"/>
-      <c r="N26" s="76"/>
-      <c r="O26" s="76"/>
-      <c r="P26" s="76"/>
-      <c r="Q26" s="76"/>
-      <c r="R26" s="76"/>
-      <c r="S26" s="76"/>
-      <c r="T26" s="76"/>
-      <c r="U26" s="76"/>
-      <c r="V26" s="76"/>
-      <c r="W26" s="107"/>
-      <c r="X26" s="76"/>
-      <c r="Y26" s="76"/>
-      <c r="Z26" s="76"/>
-      <c r="AA26" s="76"/>
-      <c r="AB26" s="76"/>
-      <c r="AC26" s="76"/>
-      <c r="AD26" s="104"/>
-      <c r="AE26" s="76"/>
-      <c r="AF26" s="76"/>
-      <c r="AG26" s="76"/>
-      <c r="AH26" s="76"/>
-      <c r="AI26" s="76"/>
-      <c r="AJ26" s="76"/>
-      <c r="AK26" s="101"/>
-      <c r="AL26" s="76"/>
-    </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A27" s="110"/>
-      <c r="B27" s="113"/>
-      <c r="C27" s="109"/>
-      <c r="D27" s="109"/>
+      <c r="K26" s="84"/>
+      <c r="L26" s="74"/>
+      <c r="M26" s="74"/>
+      <c r="N26" s="74"/>
+      <c r="O26" s="74"/>
+      <c r="P26" s="74"/>
+      <c r="Q26" s="74"/>
+      <c r="R26" s="74"/>
+      <c r="S26" s="74"/>
+      <c r="T26" s="74"/>
+      <c r="U26" s="74"/>
+      <c r="V26" s="108"/>
+      <c r="W26" s="74"/>
+      <c r="X26" s="74"/>
+      <c r="Y26" s="74"/>
+      <c r="Z26" s="74"/>
+      <c r="AA26" s="74"/>
+      <c r="AB26" s="74"/>
+      <c r="AC26" s="105"/>
+      <c r="AD26" s="74"/>
+      <c r="AE26" s="74"/>
+      <c r="AF26" s="74"/>
+      <c r="AG26" s="74"/>
+      <c r="AH26" s="74"/>
+      <c r="AI26" s="74"/>
+      <c r="AJ26" s="102"/>
+      <c r="AK26" s="74"/>
+    </row>
+    <row r="27" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A27" s="94"/>
+      <c r="B27" s="100"/>
+      <c r="C27" s="95"/>
+      <c r="D27" s="95"/>
       <c r="E27" s="2" t="s">
         <v>102</v>
       </c>
@@ -8044,43 +8079,42 @@
       <c r="I27" s="31">
         <v>44134</v>
       </c>
-      <c r="J27" s="52"/>
-      <c r="K27" s="83">
+      <c r="J27" s="80">
         <v>1</v>
       </c>
-      <c r="L27" s="88"/>
-      <c r="M27" s="76"/>
-      <c r="N27" s="76"/>
-      <c r="O27" s="76"/>
-      <c r="P27" s="76"/>
-      <c r="Q27" s="76"/>
-      <c r="R27" s="76"/>
-      <c r="S27" s="76"/>
-      <c r="T27" s="76"/>
-      <c r="U27" s="76"/>
-      <c r="V27" s="76"/>
-      <c r="W27" s="107"/>
-      <c r="X27" s="76"/>
-      <c r="Y27" s="76"/>
-      <c r="Z27" s="76"/>
-      <c r="AA27" s="76"/>
-      <c r="AB27" s="76"/>
-      <c r="AC27" s="76"/>
-      <c r="AD27" s="104"/>
-      <c r="AE27" s="76"/>
-      <c r="AF27" s="76"/>
-      <c r="AG27" s="76"/>
-      <c r="AH27" s="76"/>
-      <c r="AI27" s="76"/>
-      <c r="AJ27" s="76"/>
-      <c r="AK27" s="101"/>
-      <c r="AL27" s="76"/>
-    </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A28" s="110"/>
-      <c r="B28" s="113"/>
-      <c r="C28" s="109"/>
-      <c r="D28" s="109" t="s">
+      <c r="K27" s="84"/>
+      <c r="L27" s="74"/>
+      <c r="M27" s="74"/>
+      <c r="N27" s="74"/>
+      <c r="O27" s="74"/>
+      <c r="P27" s="74"/>
+      <c r="Q27" s="74"/>
+      <c r="R27" s="74"/>
+      <c r="S27" s="74"/>
+      <c r="T27" s="74"/>
+      <c r="U27" s="74"/>
+      <c r="V27" s="108"/>
+      <c r="W27" s="74"/>
+      <c r="X27" s="74"/>
+      <c r="Y27" s="74"/>
+      <c r="Z27" s="74"/>
+      <c r="AA27" s="74"/>
+      <c r="AB27" s="74"/>
+      <c r="AC27" s="105"/>
+      <c r="AD27" s="74"/>
+      <c r="AE27" s="74"/>
+      <c r="AF27" s="74"/>
+      <c r="AG27" s="74"/>
+      <c r="AH27" s="74"/>
+      <c r="AI27" s="74"/>
+      <c r="AJ27" s="102"/>
+      <c r="AK27" s="74"/>
+    </row>
+    <row r="28" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A28" s="94"/>
+      <c r="B28" s="100"/>
+      <c r="C28" s="95"/>
+      <c r="D28" s="95" t="s">
         <v>25</v>
       </c>
       <c r="E28" s="2" t="s">
@@ -8098,43 +8132,42 @@
       <c r="I28" s="31">
         <v>44124</v>
       </c>
-      <c r="J28" s="52"/>
-      <c r="K28" s="83">
+      <c r="J28" s="80">
         <v>1</v>
       </c>
-      <c r="L28" s="88"/>
-      <c r="M28" s="76"/>
-      <c r="N28" s="76"/>
-      <c r="O28" s="76"/>
-      <c r="P28" s="76"/>
-      <c r="Q28" s="76"/>
-      <c r="R28" s="76"/>
-      <c r="S28" s="76"/>
-      <c r="T28" s="76"/>
-      <c r="U28" s="76"/>
-      <c r="V28" s="76"/>
-      <c r="W28" s="107"/>
-      <c r="X28" s="76"/>
-      <c r="Y28" s="76"/>
-      <c r="Z28" s="76"/>
-      <c r="AA28" s="76"/>
-      <c r="AB28" s="76"/>
-      <c r="AC28" s="76"/>
-      <c r="AD28" s="104"/>
-      <c r="AE28" s="76"/>
-      <c r="AF28" s="76"/>
-      <c r="AG28" s="76"/>
-      <c r="AH28" s="76"/>
-      <c r="AI28" s="76"/>
-      <c r="AJ28" s="76"/>
-      <c r="AK28" s="101"/>
-      <c r="AL28" s="76"/>
-    </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A29" s="110"/>
-      <c r="B29" s="113"/>
-      <c r="C29" s="109"/>
-      <c r="D29" s="109"/>
+      <c r="K28" s="84"/>
+      <c r="L28" s="74"/>
+      <c r="M28" s="74"/>
+      <c r="N28" s="74"/>
+      <c r="O28" s="74"/>
+      <c r="P28" s="74"/>
+      <c r="Q28" s="74"/>
+      <c r="R28" s="74"/>
+      <c r="S28" s="74"/>
+      <c r="T28" s="74"/>
+      <c r="U28" s="74"/>
+      <c r="V28" s="108"/>
+      <c r="W28" s="74"/>
+      <c r="X28" s="74"/>
+      <c r="Y28" s="74"/>
+      <c r="Z28" s="74"/>
+      <c r="AA28" s="74"/>
+      <c r="AB28" s="74"/>
+      <c r="AC28" s="105"/>
+      <c r="AD28" s="74"/>
+      <c r="AE28" s="74"/>
+      <c r="AF28" s="74"/>
+      <c r="AG28" s="74"/>
+      <c r="AH28" s="74"/>
+      <c r="AI28" s="74"/>
+      <c r="AJ28" s="102"/>
+      <c r="AK28" s="74"/>
+    </row>
+    <row r="29" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A29" s="94"/>
+      <c r="B29" s="100"/>
+      <c r="C29" s="95"/>
+      <c r="D29" s="95"/>
       <c r="E29" s="2" t="s">
         <v>119</v>
       </c>
@@ -8150,43 +8183,42 @@
       <c r="I29" s="31">
         <v>44124</v>
       </c>
-      <c r="J29" s="52"/>
-      <c r="K29" s="83">
+      <c r="J29" s="80">
         <v>1</v>
       </c>
-      <c r="L29" s="88"/>
-      <c r="M29" s="76"/>
-      <c r="N29" s="76"/>
-      <c r="O29" s="76"/>
-      <c r="P29" s="76"/>
-      <c r="Q29" s="76"/>
-      <c r="R29" s="76"/>
-      <c r="S29" s="76"/>
-      <c r="T29" s="76"/>
-      <c r="U29" s="76"/>
-      <c r="V29" s="76"/>
-      <c r="W29" s="107"/>
-      <c r="X29" s="76"/>
-      <c r="Y29" s="76"/>
-      <c r="Z29" s="76"/>
-      <c r="AA29" s="76"/>
-      <c r="AB29" s="76"/>
-      <c r="AC29" s="76"/>
-      <c r="AD29" s="104"/>
-      <c r="AE29" s="76"/>
-      <c r="AF29" s="76"/>
-      <c r="AG29" s="76"/>
-      <c r="AH29" s="76"/>
-      <c r="AI29" s="76"/>
-      <c r="AJ29" s="76"/>
-      <c r="AK29" s="101"/>
-      <c r="AL29" s="76"/>
-    </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A30" s="110"/>
-      <c r="B30" s="113"/>
-      <c r="C30" s="109"/>
-      <c r="D30" s="109" t="s">
+      <c r="K29" s="84"/>
+      <c r="L29" s="74"/>
+      <c r="M29" s="74"/>
+      <c r="N29" s="74"/>
+      <c r="O29" s="74"/>
+      <c r="P29" s="74"/>
+      <c r="Q29" s="74"/>
+      <c r="R29" s="74"/>
+      <c r="S29" s="74"/>
+      <c r="T29" s="74"/>
+      <c r="U29" s="74"/>
+      <c r="V29" s="108"/>
+      <c r="W29" s="74"/>
+      <c r="X29" s="74"/>
+      <c r="Y29" s="74"/>
+      <c r="Z29" s="74"/>
+      <c r="AA29" s="74"/>
+      <c r="AB29" s="74"/>
+      <c r="AC29" s="105"/>
+      <c r="AD29" s="74"/>
+      <c r="AE29" s="74"/>
+      <c r="AF29" s="74"/>
+      <c r="AG29" s="74"/>
+      <c r="AH29" s="74"/>
+      <c r="AI29" s="74"/>
+      <c r="AJ29" s="102"/>
+      <c r="AK29" s="74"/>
+    </row>
+    <row r="30" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A30" s="94"/>
+      <c r="B30" s="100"/>
+      <c r="C30" s="95"/>
+      <c r="D30" s="95" t="s">
         <v>13</v>
       </c>
       <c r="E30" s="2" t="s">
@@ -8202,43 +8234,42 @@
         <v>44130</v>
       </c>
       <c r="I30" s="31"/>
-      <c r="J30" s="52"/>
-      <c r="K30" s="83">
+      <c r="J30" s="80">
         <v>0</v>
       </c>
-      <c r="L30" s="88"/>
-      <c r="M30" s="76"/>
-      <c r="N30" s="76"/>
-      <c r="O30" s="76"/>
-      <c r="P30" s="76"/>
-      <c r="Q30" s="76"/>
-      <c r="R30" s="76"/>
-      <c r="S30" s="76"/>
-      <c r="T30" s="76"/>
-      <c r="U30" s="76"/>
-      <c r="V30" s="76"/>
-      <c r="W30" s="107"/>
-      <c r="X30" s="76"/>
-      <c r="Y30" s="76"/>
-      <c r="Z30" s="76"/>
-      <c r="AA30" s="76"/>
-      <c r="AB30" s="76"/>
-      <c r="AC30" s="76"/>
-      <c r="AD30" s="104"/>
-      <c r="AE30" s="76"/>
-      <c r="AF30" s="76"/>
-      <c r="AG30" s="76"/>
-      <c r="AH30" s="76"/>
-      <c r="AI30" s="76"/>
-      <c r="AJ30" s="76"/>
-      <c r="AK30" s="101"/>
-      <c r="AL30" s="76"/>
-    </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A31" s="110"/>
-      <c r="B31" s="113"/>
-      <c r="C31" s="109"/>
-      <c r="D31" s="109"/>
+      <c r="K30" s="84"/>
+      <c r="L30" s="74"/>
+      <c r="M30" s="74"/>
+      <c r="N30" s="74"/>
+      <c r="O30" s="74"/>
+      <c r="P30" s="74"/>
+      <c r="Q30" s="74"/>
+      <c r="R30" s="74"/>
+      <c r="S30" s="74"/>
+      <c r="T30" s="74"/>
+      <c r="U30" s="74"/>
+      <c r="V30" s="108"/>
+      <c r="W30" s="74"/>
+      <c r="X30" s="74"/>
+      <c r="Y30" s="74"/>
+      <c r="Z30" s="74"/>
+      <c r="AA30" s="74"/>
+      <c r="AB30" s="74"/>
+      <c r="AC30" s="105"/>
+      <c r="AD30" s="74"/>
+      <c r="AE30" s="74"/>
+      <c r="AF30" s="74"/>
+      <c r="AG30" s="74"/>
+      <c r="AH30" s="74"/>
+      <c r="AI30" s="74"/>
+      <c r="AJ30" s="102"/>
+      <c r="AK30" s="74"/>
+    </row>
+    <row r="31" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A31" s="94"/>
+      <c r="B31" s="100"/>
+      <c r="C31" s="95"/>
+      <c r="D31" s="95"/>
       <c r="E31" s="2" t="s">
         <v>143</v>
       </c>
@@ -8248,43 +8279,42 @@
       <c r="G31" s="19"/>
       <c r="H31" s="31"/>
       <c r="I31" s="31"/>
-      <c r="J31" s="52"/>
-      <c r="K31" s="83">
+      <c r="J31" s="80">
         <v>0</v>
       </c>
-      <c r="L31" s="88"/>
-      <c r="M31" s="76"/>
-      <c r="N31" s="76"/>
-      <c r="O31" s="76"/>
-      <c r="P31" s="76"/>
-      <c r="Q31" s="76"/>
-      <c r="R31" s="76"/>
-      <c r="S31" s="76"/>
-      <c r="T31" s="76"/>
-      <c r="U31" s="76"/>
-      <c r="V31" s="76"/>
-      <c r="W31" s="107"/>
-      <c r="X31" s="76"/>
-      <c r="Y31" s="76"/>
-      <c r="Z31" s="76"/>
-      <c r="AA31" s="76"/>
-      <c r="AB31" s="76"/>
-      <c r="AC31" s="76"/>
-      <c r="AD31" s="104"/>
-      <c r="AE31" s="76"/>
-      <c r="AF31" s="76"/>
-      <c r="AG31" s="76"/>
-      <c r="AH31" s="76"/>
-      <c r="AI31" s="76"/>
-      <c r="AJ31" s="76"/>
-      <c r="AK31" s="101"/>
-      <c r="AL31" s="76"/>
-    </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A32" s="110"/>
-      <c r="B32" s="113"/>
-      <c r="C32" s="109"/>
-      <c r="D32" s="109"/>
+      <c r="K31" s="84"/>
+      <c r="L31" s="74"/>
+      <c r="M31" s="74"/>
+      <c r="N31" s="74"/>
+      <c r="O31" s="74"/>
+      <c r="P31" s="74"/>
+      <c r="Q31" s="74"/>
+      <c r="R31" s="74"/>
+      <c r="S31" s="74"/>
+      <c r="T31" s="74"/>
+      <c r="U31" s="74"/>
+      <c r="V31" s="108"/>
+      <c r="W31" s="74"/>
+      <c r="X31" s="74"/>
+      <c r="Y31" s="74"/>
+      <c r="Z31" s="74"/>
+      <c r="AA31" s="74"/>
+      <c r="AB31" s="74"/>
+      <c r="AC31" s="105"/>
+      <c r="AD31" s="74"/>
+      <c r="AE31" s="74"/>
+      <c r="AF31" s="74"/>
+      <c r="AG31" s="74"/>
+      <c r="AH31" s="74"/>
+      <c r="AI31" s="74"/>
+      <c r="AJ31" s="102"/>
+      <c r="AK31" s="74"/>
+    </row>
+    <row r="32" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A32" s="94"/>
+      <c r="B32" s="100"/>
+      <c r="C32" s="95"/>
+      <c r="D32" s="95"/>
       <c r="E32" s="2" t="s">
         <v>113</v>
       </c>
@@ -8300,42 +8330,41 @@
       <c r="I32" s="31">
         <v>44124</v>
       </c>
-      <c r="J32" s="52"/>
-      <c r="K32" s="83">
+      <c r="J32" s="80">
         <v>1</v>
       </c>
-      <c r="L32" s="88"/>
-      <c r="M32" s="76"/>
-      <c r="N32" s="76"/>
-      <c r="O32" s="76"/>
-      <c r="P32" s="76"/>
-      <c r="Q32" s="76"/>
-      <c r="R32" s="76"/>
-      <c r="S32" s="76"/>
-      <c r="T32" s="76"/>
-      <c r="U32" s="76"/>
-      <c r="V32" s="76"/>
-      <c r="W32" s="107"/>
-      <c r="X32" s="76"/>
-      <c r="Y32" s="76"/>
-      <c r="Z32" s="76"/>
-      <c r="AA32" s="76"/>
-      <c r="AB32" s="76"/>
-      <c r="AC32" s="76"/>
-      <c r="AD32" s="104"/>
-      <c r="AE32" s="76"/>
-      <c r="AF32" s="76"/>
-      <c r="AG32" s="76"/>
-      <c r="AH32" s="76"/>
-      <c r="AI32" s="76"/>
-      <c r="AJ32" s="76"/>
-      <c r="AK32" s="101"/>
-      <c r="AL32" s="76"/>
-    </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A33" s="110"/>
-      <c r="B33" s="113"/>
-      <c r="C33" s="109"/>
+      <c r="K32" s="84"/>
+      <c r="L32" s="74"/>
+      <c r="M32" s="74"/>
+      <c r="N32" s="74"/>
+      <c r="O32" s="74"/>
+      <c r="P32" s="74"/>
+      <c r="Q32" s="74"/>
+      <c r="R32" s="74"/>
+      <c r="S32" s="74"/>
+      <c r="T32" s="74"/>
+      <c r="U32" s="74"/>
+      <c r="V32" s="108"/>
+      <c r="W32" s="74"/>
+      <c r="X32" s="74"/>
+      <c r="Y32" s="74"/>
+      <c r="Z32" s="74"/>
+      <c r="AA32" s="74"/>
+      <c r="AB32" s="74"/>
+      <c r="AC32" s="105"/>
+      <c r="AD32" s="74"/>
+      <c r="AE32" s="74"/>
+      <c r="AF32" s="74"/>
+      <c r="AG32" s="74"/>
+      <c r="AH32" s="74"/>
+      <c r="AI32" s="74"/>
+      <c r="AJ32" s="102"/>
+      <c r="AK32" s="74"/>
+    </row>
+    <row r="33" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A33" s="94"/>
+      <c r="B33" s="100"/>
+      <c r="C33" s="95"/>
       <c r="D33" s="97" t="s">
         <v>90</v>
       </c>
@@ -8354,42 +8383,41 @@
       <c r="I33" s="31">
         <v>44128</v>
       </c>
-      <c r="J33" s="52"/>
-      <c r="K33" s="83">
+      <c r="J33" s="80">
         <v>1</v>
       </c>
-      <c r="L33" s="88"/>
-      <c r="M33" s="76"/>
-      <c r="N33" s="76"/>
-      <c r="O33" s="76"/>
-      <c r="P33" s="76"/>
-      <c r="Q33" s="76"/>
-      <c r="R33" s="76"/>
-      <c r="S33" s="76"/>
-      <c r="T33" s="76"/>
-      <c r="U33" s="76"/>
-      <c r="V33" s="76"/>
-      <c r="W33" s="107"/>
-      <c r="X33" s="76"/>
-      <c r="Y33" s="76"/>
-      <c r="Z33" s="76"/>
-      <c r="AA33" s="76"/>
-      <c r="AB33" s="76"/>
-      <c r="AC33" s="76"/>
-      <c r="AD33" s="104"/>
-      <c r="AE33" s="76"/>
-      <c r="AF33" s="76"/>
-      <c r="AG33" s="76"/>
-      <c r="AH33" s="76"/>
-      <c r="AI33" s="76"/>
-      <c r="AJ33" s="76"/>
-      <c r="AK33" s="101"/>
-      <c r="AL33" s="76"/>
-    </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A34" s="110"/>
-      <c r="B34" s="113"/>
-      <c r="C34" s="109"/>
+      <c r="K33" s="84"/>
+      <c r="L33" s="74"/>
+      <c r="M33" s="74"/>
+      <c r="N33" s="74"/>
+      <c r="O33" s="74"/>
+      <c r="P33" s="74"/>
+      <c r="Q33" s="74"/>
+      <c r="R33" s="74"/>
+      <c r="S33" s="74"/>
+      <c r="T33" s="74"/>
+      <c r="U33" s="74"/>
+      <c r="V33" s="108"/>
+      <c r="W33" s="74"/>
+      <c r="X33" s="74"/>
+      <c r="Y33" s="74"/>
+      <c r="Z33" s="74"/>
+      <c r="AA33" s="74"/>
+      <c r="AB33" s="74"/>
+      <c r="AC33" s="105"/>
+      <c r="AD33" s="74"/>
+      <c r="AE33" s="74"/>
+      <c r="AF33" s="74"/>
+      <c r="AG33" s="74"/>
+      <c r="AH33" s="74"/>
+      <c r="AI33" s="74"/>
+      <c r="AJ33" s="102"/>
+      <c r="AK33" s="74"/>
+    </row>
+    <row r="34" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A34" s="94"/>
+      <c r="B34" s="100"/>
+      <c r="C34" s="95"/>
       <c r="D34" s="98"/>
       <c r="E34" s="2" t="s">
         <v>141</v>
@@ -8406,42 +8434,41 @@
       <c r="I34" s="31">
         <v>44126</v>
       </c>
-      <c r="J34" s="52"/>
-      <c r="K34" s="83">
+      <c r="J34" s="80">
         <v>1</v>
       </c>
-      <c r="L34" s="88"/>
-      <c r="M34" s="76"/>
-      <c r="N34" s="76"/>
-      <c r="O34" s="76"/>
-      <c r="P34" s="76"/>
-      <c r="Q34" s="76"/>
-      <c r="R34" s="76"/>
-      <c r="S34" s="76"/>
-      <c r="T34" s="76"/>
-      <c r="U34" s="76"/>
-      <c r="V34" s="76"/>
-      <c r="W34" s="107"/>
-      <c r="X34" s="76"/>
-      <c r="Y34" s="76"/>
-      <c r="Z34" s="76"/>
-      <c r="AA34" s="76"/>
-      <c r="AB34" s="76"/>
-      <c r="AC34" s="76"/>
-      <c r="AD34" s="104"/>
-      <c r="AE34" s="76"/>
-      <c r="AF34" s="76"/>
-      <c r="AG34" s="76"/>
-      <c r="AH34" s="76"/>
-      <c r="AI34" s="76"/>
-      <c r="AJ34" s="76"/>
-      <c r="AK34" s="101"/>
-      <c r="AL34" s="76"/>
-    </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A35" s="110"/>
-      <c r="B35" s="113"/>
-      <c r="C35" s="109"/>
+      <c r="K34" s="84"/>
+      <c r="L34" s="74"/>
+      <c r="M34" s="74"/>
+      <c r="N34" s="74"/>
+      <c r="O34" s="74"/>
+      <c r="P34" s="74"/>
+      <c r="Q34" s="74"/>
+      <c r="R34" s="74"/>
+      <c r="S34" s="74"/>
+      <c r="T34" s="74"/>
+      <c r="U34" s="74"/>
+      <c r="V34" s="108"/>
+      <c r="W34" s="74"/>
+      <c r="X34" s="74"/>
+      <c r="Y34" s="74"/>
+      <c r="Z34" s="74"/>
+      <c r="AA34" s="74"/>
+      <c r="AB34" s="74"/>
+      <c r="AC34" s="105"/>
+      <c r="AD34" s="74"/>
+      <c r="AE34" s="74"/>
+      <c r="AF34" s="74"/>
+      <c r="AG34" s="74"/>
+      <c r="AH34" s="74"/>
+      <c r="AI34" s="74"/>
+      <c r="AJ34" s="102"/>
+      <c r="AK34" s="74"/>
+    </row>
+    <row r="35" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A35" s="94"/>
+      <c r="B35" s="100"/>
+      <c r="C35" s="95"/>
       <c r="D35" s="98"/>
       <c r="E35" s="2" t="s">
         <v>103</v>
@@ -8458,174 +8485,186 @@
       <c r="I35" s="31">
         <v>44128</v>
       </c>
-      <c r="J35" s="52"/>
-      <c r="K35" s="83">
+      <c r="J35" s="80">
         <v>1</v>
       </c>
-      <c r="L35" s="88"/>
-      <c r="M35" s="76"/>
-      <c r="N35" s="76"/>
-      <c r="O35" s="76"/>
-      <c r="P35" s="76"/>
-      <c r="Q35" s="76"/>
-      <c r="R35" s="76"/>
-      <c r="S35" s="76"/>
-      <c r="T35" s="76"/>
-      <c r="U35" s="76"/>
-      <c r="V35" s="76"/>
-      <c r="W35" s="107"/>
-      <c r="X35" s="76"/>
-      <c r="Y35" s="76"/>
-      <c r="Z35" s="76"/>
-      <c r="AA35" s="76"/>
-      <c r="AB35" s="76"/>
-      <c r="AC35" s="76"/>
-      <c r="AD35" s="104"/>
-      <c r="AE35" s="76"/>
-      <c r="AF35" s="76"/>
-      <c r="AG35" s="76"/>
-      <c r="AH35" s="76"/>
-      <c r="AI35" s="76"/>
-      <c r="AJ35" s="76"/>
-      <c r="AK35" s="101"/>
-      <c r="AL35" s="76"/>
-    </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A36" s="110"/>
-      <c r="B36" s="113"/>
-      <c r="C36" s="109"/>
+      <c r="K35" s="84"/>
+      <c r="L35" s="74"/>
+      <c r="M35" s="74"/>
+      <c r="N35" s="74"/>
+      <c r="O35" s="74"/>
+      <c r="P35" s="74"/>
+      <c r="Q35" s="74"/>
+      <c r="R35" s="74"/>
+      <c r="S35" s="74"/>
+      <c r="T35" s="74"/>
+      <c r="U35" s="74"/>
+      <c r="V35" s="108"/>
+      <c r="W35" s="74"/>
+      <c r="X35" s="74"/>
+      <c r="Y35" s="74"/>
+      <c r="Z35" s="74"/>
+      <c r="AA35" s="74"/>
+      <c r="AB35" s="74"/>
+      <c r="AC35" s="105"/>
+      <c r="AD35" s="74"/>
+      <c r="AE35" s="74"/>
+      <c r="AF35" s="74"/>
+      <c r="AG35" s="74"/>
+      <c r="AH35" s="74"/>
+      <c r="AI35" s="74"/>
+      <c r="AJ35" s="102"/>
+      <c r="AK35" s="74"/>
+    </row>
+    <row r="36" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A36" s="94"/>
+      <c r="B36" s="100"/>
+      <c r="C36" s="95"/>
       <c r="D36" s="98"/>
       <c r="E36" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="F36" s="76" t="s">
+      <c r="F36" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="G36" s="76"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="52"/>
-      <c r="K36" s="83"/>
-      <c r="L36" s="88"/>
-      <c r="M36" s="76"/>
-      <c r="N36" s="76"/>
-      <c r="O36" s="76"/>
-      <c r="P36" s="76"/>
-      <c r="Q36" s="76"/>
-      <c r="R36" s="76"/>
-      <c r="S36" s="76"/>
-      <c r="T36" s="76"/>
-      <c r="U36" s="76"/>
-      <c r="V36" s="76"/>
-      <c r="W36" s="107"/>
-      <c r="X36" s="76"/>
-      <c r="Y36" s="76"/>
-      <c r="Z36" s="76"/>
-      <c r="AA36" s="76"/>
-      <c r="AB36" s="76"/>
-      <c r="AC36" s="76"/>
-      <c r="AD36" s="104"/>
-      <c r="AE36" s="76"/>
-      <c r="AF36" s="76"/>
-      <c r="AG36" s="76"/>
-      <c r="AH36" s="76"/>
-      <c r="AI36" s="76"/>
-      <c r="AJ36" s="76"/>
-      <c r="AK36" s="101"/>
-      <c r="AL36" s="76"/>
-    </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A37" s="110"/>
-      <c r="B37" s="113"/>
-      <c r="C37" s="109"/>
+      <c r="G36" s="74" t="s">
+        <v>281</v>
+      </c>
+      <c r="H36" s="31">
+        <v>44140</v>
+      </c>
+      <c r="I36" s="31">
+        <v>44140</v>
+      </c>
+      <c r="J36" s="80">
+        <v>1</v>
+      </c>
+      <c r="K36" s="84"/>
+      <c r="L36" s="74"/>
+      <c r="M36" s="74"/>
+      <c r="N36" s="74"/>
+      <c r="O36" s="74"/>
+      <c r="P36" s="74"/>
+      <c r="Q36" s="74"/>
+      <c r="R36" s="74"/>
+      <c r="S36" s="74"/>
+      <c r="T36" s="74"/>
+      <c r="U36" s="74"/>
+      <c r="V36" s="108"/>
+      <c r="W36" s="74"/>
+      <c r="X36" s="74"/>
+      <c r="Y36" s="74"/>
+      <c r="Z36" s="74"/>
+      <c r="AA36" s="74"/>
+      <c r="AB36" s="74"/>
+      <c r="AC36" s="105"/>
+      <c r="AD36" s="74"/>
+      <c r="AE36" s="74"/>
+      <c r="AF36" s="74"/>
+      <c r="AG36" s="74"/>
+      <c r="AH36" s="74"/>
+      <c r="AI36" s="74"/>
+      <c r="AJ36" s="102"/>
+      <c r="AK36" s="74"/>
+    </row>
+    <row r="37" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A37" s="94"/>
+      <c r="B37" s="100"/>
+      <c r="C37" s="95"/>
       <c r="D37" s="98"/>
       <c r="E37" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="F37" s="76" t="s">
+      <c r="F37" s="74" t="s">
         <v>252</v>
       </c>
-      <c r="G37" s="76"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="52"/>
-      <c r="K37" s="83"/>
-      <c r="L37" s="88"/>
-      <c r="M37" s="76"/>
-      <c r="N37" s="76"/>
-      <c r="O37" s="76"/>
-      <c r="P37" s="76"/>
-      <c r="Q37" s="76"/>
-      <c r="R37" s="76"/>
-      <c r="S37" s="76"/>
-      <c r="T37" s="76"/>
-      <c r="U37" s="76"/>
-      <c r="V37" s="76"/>
-      <c r="W37" s="107"/>
-      <c r="X37" s="76"/>
-      <c r="Y37" s="76"/>
-      <c r="Z37" s="76"/>
-      <c r="AA37" s="76"/>
-      <c r="AB37" s="76"/>
-      <c r="AC37" s="76"/>
-      <c r="AD37" s="104"/>
-      <c r="AE37" s="76"/>
-      <c r="AF37" s="76"/>
-      <c r="AG37" s="76"/>
-      <c r="AH37" s="76"/>
-      <c r="AI37" s="76"/>
-      <c r="AJ37" s="76"/>
-      <c r="AK37" s="101"/>
-      <c r="AL37" s="76"/>
-    </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A38" s="110"/>
-      <c r="B38" s="113"/>
-      <c r="C38" s="109"/>
+      <c r="G37" s="74" t="s">
+        <v>281</v>
+      </c>
+      <c r="H37" s="31">
+        <v>44140</v>
+      </c>
+      <c r="I37" s="31">
+        <v>44140</v>
+      </c>
+      <c r="J37" s="80">
+        <v>1</v>
+      </c>
+      <c r="K37" s="84"/>
+      <c r="L37" s="74"/>
+      <c r="M37" s="74"/>
+      <c r="N37" s="74"/>
+      <c r="O37" s="74"/>
+      <c r="P37" s="74"/>
+      <c r="Q37" s="74"/>
+      <c r="R37" s="74"/>
+      <c r="S37" s="74"/>
+      <c r="T37" s="74"/>
+      <c r="U37" s="74"/>
+      <c r="V37" s="108"/>
+      <c r="W37" s="74"/>
+      <c r="X37" s="74"/>
+      <c r="Y37" s="74"/>
+      <c r="Z37" s="74"/>
+      <c r="AA37" s="74"/>
+      <c r="AB37" s="74"/>
+      <c r="AC37" s="105"/>
+      <c r="AD37" s="74"/>
+      <c r="AE37" s="74"/>
+      <c r="AF37" s="74"/>
+      <c r="AG37" s="74"/>
+      <c r="AH37" s="74"/>
+      <c r="AI37" s="74"/>
+      <c r="AJ37" s="102"/>
+      <c r="AK37" s="74"/>
+    </row>
+    <row r="38" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A38" s="94"/>
+      <c r="B38" s="100"/>
+      <c r="C38" s="95"/>
       <c r="D38" s="99"/>
       <c r="E38" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="F38" s="76" t="s">
+      <c r="F38" s="74" t="s">
         <v>249</v>
       </c>
-      <c r="G38" s="76"/>
+      <c r="G38" s="74"/>
       <c r="H38" s="31"/>
       <c r="I38" s="31"/>
-      <c r="J38" s="52"/>
-      <c r="K38" s="83"/>
-      <c r="L38" s="88"/>
-      <c r="M38" s="76"/>
-      <c r="N38" s="76"/>
-      <c r="O38" s="76"/>
-      <c r="P38" s="76"/>
-      <c r="Q38" s="76"/>
-      <c r="R38" s="76"/>
-      <c r="S38" s="76"/>
-      <c r="T38" s="76"/>
-      <c r="U38" s="76"/>
-      <c r="V38" s="76"/>
-      <c r="W38" s="107"/>
-      <c r="X38" s="76"/>
-      <c r="Y38" s="76"/>
-      <c r="Z38" s="76"/>
-      <c r="AA38" s="76"/>
-      <c r="AB38" s="76"/>
-      <c r="AC38" s="76"/>
-      <c r="AD38" s="104"/>
-      <c r="AE38" s="76"/>
-      <c r="AF38" s="76"/>
-      <c r="AG38" s="76"/>
-      <c r="AH38" s="76"/>
-      <c r="AI38" s="76"/>
-      <c r="AJ38" s="76"/>
-      <c r="AK38" s="101"/>
-      <c r="AL38" s="76"/>
-    </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A39" s="110"/>
-      <c r="B39" s="113"/>
-      <c r="C39" s="109"/>
+      <c r="J38" s="80"/>
+      <c r="K38" s="84"/>
+      <c r="L38" s="74"/>
+      <c r="M38" s="74"/>
+      <c r="N38" s="74"/>
+      <c r="O38" s="74"/>
+      <c r="P38" s="74"/>
+      <c r="Q38" s="74"/>
+      <c r="R38" s="74"/>
+      <c r="S38" s="74"/>
+      <c r="T38" s="74"/>
+      <c r="U38" s="74"/>
+      <c r="V38" s="108"/>
+      <c r="W38" s="74"/>
+      <c r="X38" s="74"/>
+      <c r="Y38" s="74"/>
+      <c r="Z38" s="74"/>
+      <c r="AA38" s="74"/>
+      <c r="AB38" s="74"/>
+      <c r="AC38" s="105"/>
+      <c r="AD38" s="74"/>
+      <c r="AE38" s="74"/>
+      <c r="AF38" s="74"/>
+      <c r="AG38" s="74"/>
+      <c r="AH38" s="74"/>
+      <c r="AI38" s="74"/>
+      <c r="AJ38" s="102"/>
+      <c r="AK38" s="74"/>
+    </row>
+    <row r="39" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A39" s="94"/>
+      <c r="B39" s="100"/>
+      <c r="C39" s="95"/>
       <c r="D39" s="2" t="s">
         <v>24</v>
       </c>
@@ -8638,42 +8677,41 @@
       <c r="G39" s="19"/>
       <c r="H39" s="31"/>
       <c r="I39" s="31"/>
-      <c r="J39" s="52"/>
-      <c r="K39" s="83">
+      <c r="J39" s="80">
         <v>0</v>
       </c>
-      <c r="L39" s="88"/>
-      <c r="M39" s="76"/>
-      <c r="N39" s="76"/>
-      <c r="O39" s="76"/>
-      <c r="P39" s="76"/>
-      <c r="Q39" s="76"/>
-      <c r="R39" s="76"/>
-      <c r="S39" s="76"/>
-      <c r="T39" s="76"/>
-      <c r="U39" s="76"/>
-      <c r="V39" s="76"/>
-      <c r="W39" s="107"/>
-      <c r="X39" s="76"/>
-      <c r="Y39" s="76"/>
-      <c r="Z39" s="76"/>
-      <c r="AA39" s="76"/>
-      <c r="AB39" s="76"/>
-      <c r="AC39" s="76"/>
-      <c r="AD39" s="104"/>
-      <c r="AE39" s="76"/>
-      <c r="AF39" s="76"/>
-      <c r="AG39" s="76"/>
-      <c r="AH39" s="76"/>
-      <c r="AI39" s="76"/>
-      <c r="AJ39" s="76"/>
-      <c r="AK39" s="101"/>
-      <c r="AL39" s="76"/>
-    </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A40" s="110"/>
-      <c r="B40" s="113"/>
-      <c r="C40" s="109"/>
+      <c r="K39" s="84"/>
+      <c r="L39" s="74"/>
+      <c r="M39" s="74"/>
+      <c r="N39" s="74"/>
+      <c r="O39" s="74"/>
+      <c r="P39" s="74"/>
+      <c r="Q39" s="74"/>
+      <c r="R39" s="74"/>
+      <c r="S39" s="74"/>
+      <c r="T39" s="74"/>
+      <c r="U39" s="74"/>
+      <c r="V39" s="108"/>
+      <c r="W39" s="74"/>
+      <c r="X39" s="74"/>
+      <c r="Y39" s="74"/>
+      <c r="Z39" s="74"/>
+      <c r="AA39" s="74"/>
+      <c r="AB39" s="74"/>
+      <c r="AC39" s="105"/>
+      <c r="AD39" s="74"/>
+      <c r="AE39" s="74"/>
+      <c r="AF39" s="74"/>
+      <c r="AG39" s="74"/>
+      <c r="AH39" s="74"/>
+      <c r="AI39" s="74"/>
+      <c r="AJ39" s="102"/>
+      <c r="AK39" s="74"/>
+    </row>
+    <row r="40" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A40" s="94"/>
+      <c r="B40" s="100"/>
+      <c r="C40" s="95"/>
       <c r="D40" s="2" t="s">
         <v>144</v>
       </c>
@@ -8692,42 +8730,41 @@
       <c r="I40" s="31">
         <v>44126</v>
       </c>
-      <c r="J40" s="52"/>
-      <c r="K40" s="83">
+      <c r="J40" s="80">
         <v>1</v>
       </c>
-      <c r="L40" s="88"/>
-      <c r="M40" s="76"/>
-      <c r="N40" s="76"/>
-      <c r="O40" s="76"/>
-      <c r="P40" s="76"/>
-      <c r="Q40" s="76"/>
-      <c r="R40" s="76"/>
-      <c r="S40" s="76"/>
-      <c r="T40" s="76"/>
-      <c r="U40" s="76"/>
-      <c r="V40" s="76"/>
-      <c r="W40" s="107"/>
-      <c r="X40" s="76"/>
-      <c r="Y40" s="76"/>
-      <c r="Z40" s="76"/>
-      <c r="AA40" s="76"/>
-      <c r="AB40" s="76"/>
-      <c r="AC40" s="76"/>
-      <c r="AD40" s="104"/>
-      <c r="AE40" s="76"/>
-      <c r="AF40" s="76"/>
-      <c r="AG40" s="76"/>
-      <c r="AH40" s="76"/>
-      <c r="AI40" s="76"/>
-      <c r="AJ40" s="76"/>
-      <c r="AK40" s="101"/>
-      <c r="AL40" s="76"/>
-    </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A41" s="110"/>
-      <c r="B41" s="113"/>
-      <c r="C41" s="109"/>
+      <c r="K40" s="84"/>
+      <c r="L40" s="74"/>
+      <c r="M40" s="74"/>
+      <c r="N40" s="74"/>
+      <c r="O40" s="74"/>
+      <c r="P40" s="74"/>
+      <c r="Q40" s="74"/>
+      <c r="R40" s="74"/>
+      <c r="S40" s="74"/>
+      <c r="T40" s="74"/>
+      <c r="U40" s="74"/>
+      <c r="V40" s="108"/>
+      <c r="W40" s="74"/>
+      <c r="X40" s="74"/>
+      <c r="Y40" s="74"/>
+      <c r="Z40" s="74"/>
+      <c r="AA40" s="74"/>
+      <c r="AB40" s="74"/>
+      <c r="AC40" s="105"/>
+      <c r="AD40" s="74"/>
+      <c r="AE40" s="74"/>
+      <c r="AF40" s="74"/>
+      <c r="AG40" s="74"/>
+      <c r="AH40" s="74"/>
+      <c r="AI40" s="74"/>
+      <c r="AJ40" s="102"/>
+      <c r="AK40" s="74"/>
+    </row>
+    <row r="41" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A41" s="94"/>
+      <c r="B41" s="100"/>
+      <c r="C41" s="95"/>
       <c r="D41" s="2" t="s">
         <v>94</v>
       </c>
@@ -8736,174 +8773,176 @@
       <c r="G41" s="19"/>
       <c r="H41" s="31"/>
       <c r="I41" s="31"/>
-      <c r="J41" s="52"/>
-      <c r="K41" s="83">
+      <c r="J41" s="80">
         <v>0</v>
       </c>
-      <c r="L41" s="88"/>
-      <c r="M41" s="76"/>
-      <c r="N41" s="76"/>
-      <c r="O41" s="76"/>
-      <c r="P41" s="76"/>
-      <c r="Q41" s="76"/>
-      <c r="R41" s="76"/>
-      <c r="S41" s="76"/>
-      <c r="T41" s="76"/>
-      <c r="U41" s="76"/>
-      <c r="V41" s="76"/>
-      <c r="W41" s="107"/>
-      <c r="X41" s="76"/>
-      <c r="Y41" s="76"/>
-      <c r="Z41" s="76"/>
-      <c r="AA41" s="76"/>
-      <c r="AB41" s="76"/>
-      <c r="AC41" s="76"/>
-      <c r="AD41" s="104"/>
-      <c r="AE41" s="76"/>
-      <c r="AF41" s="76"/>
-      <c r="AG41" s="76"/>
-      <c r="AH41" s="76"/>
-      <c r="AI41" s="76"/>
-      <c r="AJ41" s="76"/>
-      <c r="AK41" s="101"/>
-      <c r="AL41" s="76"/>
-    </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A42" s="110"/>
-      <c r="B42" s="113"/>
-      <c r="C42" s="109"/>
+      <c r="K41" s="84"/>
+      <c r="L41" s="74"/>
+      <c r="M41" s="74"/>
+      <c r="N41" s="74"/>
+      <c r="O41" s="74"/>
+      <c r="P41" s="74"/>
+      <c r="Q41" s="74"/>
+      <c r="R41" s="74"/>
+      <c r="S41" s="74"/>
+      <c r="T41" s="74"/>
+      <c r="U41" s="74"/>
+      <c r="V41" s="108"/>
+      <c r="W41" s="74"/>
+      <c r="X41" s="74"/>
+      <c r="Y41" s="74"/>
+      <c r="Z41" s="74"/>
+      <c r="AA41" s="74"/>
+      <c r="AB41" s="74"/>
+      <c r="AC41" s="105"/>
+      <c r="AD41" s="74"/>
+      <c r="AE41" s="74"/>
+      <c r="AF41" s="74"/>
+      <c r="AG41" s="74"/>
+      <c r="AH41" s="74"/>
+      <c r="AI41" s="74"/>
+      <c r="AJ41" s="102"/>
+      <c r="AK41" s="74"/>
+    </row>
+    <row r="42" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A42" s="94"/>
+      <c r="B42" s="100"/>
+      <c r="C42" s="95"/>
       <c r="D42" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E42" s="2"/>
-      <c r="F42" s="19"/>
+      <c r="F42" s="19" t="s">
+        <v>283</v>
+      </c>
       <c r="G42" s="19"/>
       <c r="H42" s="31"/>
       <c r="I42" s="31"/>
-      <c r="J42" s="52"/>
-      <c r="K42" s="83">
+      <c r="J42" s="80">
         <v>0</v>
       </c>
-      <c r="L42" s="88"/>
-      <c r="M42" s="76"/>
-      <c r="N42" s="76"/>
-      <c r="O42" s="76"/>
-      <c r="P42" s="76"/>
-      <c r="Q42" s="76"/>
-      <c r="R42" s="76"/>
-      <c r="S42" s="76"/>
-      <c r="T42" s="76"/>
-      <c r="U42" s="76"/>
-      <c r="V42" s="76"/>
-      <c r="W42" s="107"/>
-      <c r="X42" s="76"/>
-      <c r="Y42" s="76"/>
-      <c r="Z42" s="76"/>
-      <c r="AA42" s="76"/>
-      <c r="AB42" s="76"/>
-      <c r="AC42" s="76"/>
-      <c r="AD42" s="104"/>
-      <c r="AE42" s="76"/>
-      <c r="AF42" s="76"/>
-      <c r="AG42" s="76"/>
-      <c r="AH42" s="76"/>
-      <c r="AI42" s="76"/>
-      <c r="AJ42" s="76"/>
-      <c r="AK42" s="101"/>
-      <c r="AL42" s="76"/>
-    </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A43" s="110"/>
-      <c r="B43" s="113"/>
-      <c r="C43" s="109"/>
+      <c r="K42" s="84"/>
+      <c r="L42" s="74"/>
+      <c r="M42" s="74"/>
+      <c r="N42" s="74"/>
+      <c r="O42" s="74"/>
+      <c r="P42" s="74"/>
+      <c r="Q42" s="74"/>
+      <c r="R42" s="74"/>
+      <c r="S42" s="74"/>
+      <c r="T42" s="74"/>
+      <c r="U42" s="74"/>
+      <c r="V42" s="108"/>
+      <c r="W42" s="74"/>
+      <c r="X42" s="74"/>
+      <c r="Y42" s="74"/>
+      <c r="Z42" s="74"/>
+      <c r="AA42" s="74"/>
+      <c r="AB42" s="74"/>
+      <c r="AC42" s="105"/>
+      <c r="AD42" s="74"/>
+      <c r="AE42" s="74"/>
+      <c r="AF42" s="74"/>
+      <c r="AG42" s="74"/>
+      <c r="AH42" s="74"/>
+      <c r="AI42" s="74"/>
+      <c r="AJ42" s="102"/>
+      <c r="AK42" s="74"/>
+    </row>
+    <row r="43" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A43" s="94"/>
+      <c r="B43" s="100"/>
+      <c r="C43" s="95"/>
       <c r="D43" s="34" t="s">
         <v>27</v>
       </c>
       <c r="E43" s="34"/>
-      <c r="F43" s="19"/>
+      <c r="F43" s="19" t="s">
+        <v>284</v>
+      </c>
       <c r="G43" s="19"/>
       <c r="H43" s="31"/>
       <c r="I43" s="31"/>
-      <c r="J43" s="52"/>
-      <c r="K43" s="83">
+      <c r="J43" s="80">
         <v>0</v>
       </c>
-      <c r="L43" s="88"/>
-      <c r="M43" s="76"/>
-      <c r="N43" s="76"/>
-      <c r="O43" s="76"/>
-      <c r="P43" s="76"/>
-      <c r="Q43" s="76"/>
-      <c r="R43" s="76"/>
-      <c r="S43" s="76"/>
-      <c r="T43" s="76"/>
-      <c r="U43" s="76"/>
-      <c r="V43" s="76"/>
-      <c r="W43" s="107"/>
-      <c r="X43" s="76"/>
-      <c r="Y43" s="76"/>
-      <c r="Z43" s="76"/>
-      <c r="AA43" s="76"/>
-      <c r="AB43" s="76"/>
-      <c r="AC43" s="76"/>
-      <c r="AD43" s="104"/>
-      <c r="AE43" s="76"/>
-      <c r="AF43" s="76"/>
-      <c r="AG43" s="76"/>
-      <c r="AH43" s="76"/>
-      <c r="AI43" s="76"/>
-      <c r="AJ43" s="76"/>
-      <c r="AK43" s="101"/>
-      <c r="AL43" s="76"/>
-    </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A44" s="110"/>
-      <c r="B44" s="113"/>
-      <c r="C44" s="109"/>
+      <c r="K43" s="84"/>
+      <c r="L43" s="74"/>
+      <c r="M43" s="74"/>
+      <c r="N43" s="74"/>
+      <c r="O43" s="74"/>
+      <c r="P43" s="74"/>
+      <c r="Q43" s="74"/>
+      <c r="R43" s="74"/>
+      <c r="S43" s="74"/>
+      <c r="T43" s="74"/>
+      <c r="U43" s="74"/>
+      <c r="V43" s="108"/>
+      <c r="W43" s="74"/>
+      <c r="X43" s="74"/>
+      <c r="Y43" s="74"/>
+      <c r="Z43" s="74"/>
+      <c r="AA43" s="74"/>
+      <c r="AB43" s="74"/>
+      <c r="AC43" s="105"/>
+      <c r="AD43" s="74"/>
+      <c r="AE43" s="74"/>
+      <c r="AF43" s="74"/>
+      <c r="AG43" s="74"/>
+      <c r="AH43" s="74"/>
+      <c r="AI43" s="74"/>
+      <c r="AJ43" s="102"/>
+      <c r="AK43" s="74"/>
+    </row>
+    <row r="44" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A44" s="94"/>
+      <c r="B44" s="100"/>
+      <c r="C44" s="95"/>
       <c r="D44" s="33" t="s">
         <v>45</v>
       </c>
       <c r="E44" s="33"/>
-      <c r="F44" s="19"/>
+      <c r="F44" s="19" t="s">
+        <v>284</v>
+      </c>
       <c r="G44" s="19"/>
       <c r="H44" s="31"/>
       <c r="I44" s="31"/>
-      <c r="J44" s="52"/>
-      <c r="K44" s="83">
+      <c r="J44" s="80">
         <v>0</v>
       </c>
-      <c r="L44" s="88"/>
-      <c r="M44" s="76"/>
-      <c r="N44" s="76"/>
-      <c r="O44" s="76"/>
-      <c r="P44" s="76"/>
-      <c r="Q44" s="76"/>
-      <c r="R44" s="76"/>
-      <c r="S44" s="76"/>
-      <c r="T44" s="76"/>
-      <c r="U44" s="76"/>
-      <c r="V44" s="76"/>
-      <c r="W44" s="107"/>
-      <c r="X44" s="76"/>
-      <c r="Y44" s="76"/>
-      <c r="Z44" s="76"/>
-      <c r="AA44" s="76"/>
-      <c r="AB44" s="76"/>
-      <c r="AC44" s="76"/>
-      <c r="AD44" s="104"/>
-      <c r="AE44" s="76"/>
-      <c r="AF44" s="76"/>
-      <c r="AG44" s="76"/>
-      <c r="AH44" s="76"/>
-      <c r="AI44" s="76"/>
-      <c r="AJ44" s="76"/>
-      <c r="AK44" s="101"/>
-      <c r="AL44" s="76"/>
-    </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A45" s="110"/>
-      <c r="B45" s="113"/>
-      <c r="C45" s="109"/>
+      <c r="K44" s="84"/>
+      <c r="L44" s="74"/>
+      <c r="M44" s="74"/>
+      <c r="N44" s="74"/>
+      <c r="O44" s="74"/>
+      <c r="P44" s="74"/>
+      <c r="Q44" s="74"/>
+      <c r="R44" s="74"/>
+      <c r="S44" s="74"/>
+      <c r="T44" s="74"/>
+      <c r="U44" s="74"/>
+      <c r="V44" s="108"/>
+      <c r="W44" s="74"/>
+      <c r="X44" s="74"/>
+      <c r="Y44" s="74"/>
+      <c r="Z44" s="74"/>
+      <c r="AA44" s="74"/>
+      <c r="AB44" s="74"/>
+      <c r="AC44" s="105"/>
+      <c r="AD44" s="74"/>
+      <c r="AE44" s="74"/>
+      <c r="AF44" s="74"/>
+      <c r="AG44" s="74"/>
+      <c r="AH44" s="74"/>
+      <c r="AI44" s="74"/>
+      <c r="AJ44" s="102"/>
+      <c r="AK44" s="74"/>
+    </row>
+    <row r="45" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A45" s="94"/>
+      <c r="B45" s="100"/>
+      <c r="C45" s="95"/>
       <c r="D45" s="2" t="s">
         <v>26</v>
       </c>
@@ -8912,42 +8951,41 @@
       <c r="G45" s="19"/>
       <c r="H45" s="31"/>
       <c r="I45" s="31"/>
-      <c r="J45" s="52"/>
-      <c r="K45" s="83">
+      <c r="J45" s="80">
         <v>0</v>
       </c>
-      <c r="L45" s="88"/>
-      <c r="M45" s="76"/>
-      <c r="N45" s="76"/>
-      <c r="O45" s="76"/>
-      <c r="P45" s="76"/>
-      <c r="Q45" s="76"/>
-      <c r="R45" s="76"/>
-      <c r="S45" s="76"/>
-      <c r="T45" s="76"/>
-      <c r="U45" s="76"/>
-      <c r="V45" s="76"/>
-      <c r="W45" s="107"/>
-      <c r="X45" s="76"/>
-      <c r="Y45" s="76"/>
-      <c r="Z45" s="76"/>
-      <c r="AA45" s="76"/>
-      <c r="AB45" s="76"/>
-      <c r="AC45" s="76"/>
-      <c r="AD45" s="104"/>
-      <c r="AE45" s="76"/>
-      <c r="AF45" s="76"/>
-      <c r="AG45" s="76"/>
-      <c r="AH45" s="76"/>
-      <c r="AI45" s="76"/>
-      <c r="AJ45" s="76"/>
-      <c r="AK45" s="101"/>
-      <c r="AL45" s="76"/>
-    </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A46" s="110"/>
-      <c r="B46" s="113"/>
-      <c r="C46" s="109" t="s">
+      <c r="K45" s="84"/>
+      <c r="L45" s="74"/>
+      <c r="M45" s="74"/>
+      <c r="N45" s="74"/>
+      <c r="O45" s="74"/>
+      <c r="P45" s="74"/>
+      <c r="Q45" s="74"/>
+      <c r="R45" s="74"/>
+      <c r="S45" s="74"/>
+      <c r="T45" s="74"/>
+      <c r="U45" s="74"/>
+      <c r="V45" s="108"/>
+      <c r="W45" s="74"/>
+      <c r="X45" s="74"/>
+      <c r="Y45" s="74"/>
+      <c r="Z45" s="74"/>
+      <c r="AA45" s="74"/>
+      <c r="AB45" s="74"/>
+      <c r="AC45" s="105"/>
+      <c r="AD45" s="74"/>
+      <c r="AE45" s="74"/>
+      <c r="AF45" s="74"/>
+      <c r="AG45" s="74"/>
+      <c r="AH45" s="74"/>
+      <c r="AI45" s="74"/>
+      <c r="AJ45" s="102"/>
+      <c r="AK45" s="74"/>
+    </row>
+    <row r="46" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A46" s="94"/>
+      <c r="B46" s="100"/>
+      <c r="C46" s="95" t="s">
         <v>42</v>
       </c>
       <c r="D46" s="35" t="s">
@@ -8958,42 +8996,41 @@
       <c r="G46" s="19"/>
       <c r="H46" s="31"/>
       <c r="I46" s="31"/>
-      <c r="J46" s="52"/>
-      <c r="K46" s="83">
+      <c r="J46" s="80">
         <v>0</v>
       </c>
-      <c r="L46" s="88"/>
-      <c r="M46" s="76"/>
-      <c r="N46" s="76"/>
-      <c r="O46" s="76"/>
-      <c r="P46" s="76"/>
-      <c r="Q46" s="76"/>
-      <c r="R46" s="76"/>
-      <c r="S46" s="76"/>
-      <c r="T46" s="76"/>
-      <c r="U46" s="76"/>
-      <c r="V46" s="76"/>
-      <c r="W46" s="107"/>
-      <c r="X46" s="76"/>
-      <c r="Y46" s="76"/>
-      <c r="Z46" s="76"/>
-      <c r="AA46" s="76"/>
-      <c r="AB46" s="76"/>
-      <c r="AC46" s="76"/>
-      <c r="AD46" s="104"/>
-      <c r="AE46" s="76"/>
-      <c r="AF46" s="76"/>
-      <c r="AG46" s="76"/>
-      <c r="AH46" s="76"/>
-      <c r="AI46" s="76"/>
-      <c r="AJ46" s="76"/>
-      <c r="AK46" s="101"/>
-      <c r="AL46" s="76"/>
-    </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A47" s="110"/>
-      <c r="B47" s="113"/>
-      <c r="C47" s="109"/>
+      <c r="K46" s="84"/>
+      <c r="L46" s="74"/>
+      <c r="M46" s="74"/>
+      <c r="N46" s="74"/>
+      <c r="O46" s="74"/>
+      <c r="P46" s="74"/>
+      <c r="Q46" s="74"/>
+      <c r="R46" s="74"/>
+      <c r="S46" s="74"/>
+      <c r="T46" s="74"/>
+      <c r="U46" s="74"/>
+      <c r="V46" s="108"/>
+      <c r="W46" s="74"/>
+      <c r="X46" s="74"/>
+      <c r="Y46" s="74"/>
+      <c r="Z46" s="74"/>
+      <c r="AA46" s="74"/>
+      <c r="AB46" s="74"/>
+      <c r="AC46" s="105"/>
+      <c r="AD46" s="74"/>
+      <c r="AE46" s="74"/>
+      <c r="AF46" s="74"/>
+      <c r="AG46" s="74"/>
+      <c r="AH46" s="74"/>
+      <c r="AI46" s="74"/>
+      <c r="AJ46" s="102"/>
+      <c r="AK46" s="74"/>
+    </row>
+    <row r="47" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A47" s="94"/>
+      <c r="B47" s="100"/>
+      <c r="C47" s="95"/>
       <c r="D47" s="2" t="s">
         <v>26</v>
       </c>
@@ -9002,42 +9039,41 @@
       <c r="G47" s="19"/>
       <c r="H47" s="31"/>
       <c r="I47" s="31"/>
-      <c r="J47" s="52"/>
-      <c r="K47" s="83">
+      <c r="J47" s="80">
         <v>0</v>
       </c>
-      <c r="L47" s="88"/>
-      <c r="M47" s="76"/>
-      <c r="N47" s="76"/>
-      <c r="O47" s="76"/>
-      <c r="P47" s="76"/>
-      <c r="Q47" s="76"/>
-      <c r="R47" s="76"/>
-      <c r="S47" s="76"/>
-      <c r="T47" s="76"/>
-      <c r="U47" s="76"/>
-      <c r="V47" s="76"/>
-      <c r="W47" s="107"/>
-      <c r="X47" s="76"/>
-      <c r="Y47" s="76"/>
-      <c r="Z47" s="76"/>
-      <c r="AA47" s="76"/>
-      <c r="AB47" s="76"/>
-      <c r="AC47" s="76"/>
-      <c r="AD47" s="104"/>
-      <c r="AE47" s="76"/>
-      <c r="AF47" s="76"/>
-      <c r="AG47" s="76"/>
-      <c r="AH47" s="76"/>
-      <c r="AI47" s="76"/>
-      <c r="AJ47" s="76"/>
-      <c r="AK47" s="101"/>
-      <c r="AL47" s="76"/>
-    </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A48" s="110"/>
-      <c r="B48" s="113"/>
-      <c r="C48" s="109" t="s">
+      <c r="K47" s="84"/>
+      <c r="L47" s="74"/>
+      <c r="M47" s="74"/>
+      <c r="N47" s="74"/>
+      <c r="O47" s="74"/>
+      <c r="P47" s="74"/>
+      <c r="Q47" s="74"/>
+      <c r="R47" s="74"/>
+      <c r="S47" s="74"/>
+      <c r="T47" s="74"/>
+      <c r="U47" s="74"/>
+      <c r="V47" s="108"/>
+      <c r="W47" s="74"/>
+      <c r="X47" s="74"/>
+      <c r="Y47" s="74"/>
+      <c r="Z47" s="74"/>
+      <c r="AA47" s="74"/>
+      <c r="AB47" s="74"/>
+      <c r="AC47" s="105"/>
+      <c r="AD47" s="74"/>
+      <c r="AE47" s="74"/>
+      <c r="AF47" s="74"/>
+      <c r="AG47" s="74"/>
+      <c r="AH47" s="74"/>
+      <c r="AI47" s="74"/>
+      <c r="AJ47" s="102"/>
+      <c r="AK47" s="74"/>
+    </row>
+    <row r="48" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A48" s="94"/>
+      <c r="B48" s="100"/>
+      <c r="C48" s="95" t="s">
         <v>43</v>
       </c>
       <c r="D48" s="33" t="s">
@@ -9048,42 +9084,41 @@
       <c r="G48" s="19"/>
       <c r="H48" s="31"/>
       <c r="I48" s="31"/>
-      <c r="J48" s="52"/>
-      <c r="K48" s="83">
+      <c r="J48" s="80">
         <v>0</v>
       </c>
-      <c r="L48" s="88"/>
-      <c r="M48" s="76"/>
-      <c r="N48" s="76"/>
-      <c r="O48" s="76"/>
-      <c r="P48" s="76"/>
-      <c r="Q48" s="76"/>
-      <c r="R48" s="76"/>
-      <c r="S48" s="76"/>
-      <c r="T48" s="76"/>
-      <c r="U48" s="76"/>
-      <c r="V48" s="76"/>
-      <c r="W48" s="107"/>
-      <c r="X48" s="76"/>
-      <c r="Y48" s="76"/>
-      <c r="Z48" s="76"/>
-      <c r="AA48" s="76"/>
-      <c r="AB48" s="76"/>
-      <c r="AC48" s="76"/>
-      <c r="AD48" s="104"/>
-      <c r="AE48" s="76"/>
-      <c r="AF48" s="76"/>
-      <c r="AG48" s="76"/>
-      <c r="AH48" s="76"/>
-      <c r="AI48" s="76"/>
-      <c r="AJ48" s="76"/>
-      <c r="AK48" s="101"/>
-      <c r="AL48" s="76"/>
-    </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A49" s="110"/>
-      <c r="B49" s="113"/>
-      <c r="C49" s="109"/>
+      <c r="K48" s="84"/>
+      <c r="L48" s="74"/>
+      <c r="M48" s="74"/>
+      <c r="N48" s="74"/>
+      <c r="O48" s="74"/>
+      <c r="P48" s="74"/>
+      <c r="Q48" s="74"/>
+      <c r="R48" s="74"/>
+      <c r="S48" s="74"/>
+      <c r="T48" s="74"/>
+      <c r="U48" s="74"/>
+      <c r="V48" s="108"/>
+      <c r="W48" s="74"/>
+      <c r="X48" s="74"/>
+      <c r="Y48" s="74"/>
+      <c r="Z48" s="74"/>
+      <c r="AA48" s="74"/>
+      <c r="AB48" s="74"/>
+      <c r="AC48" s="105"/>
+      <c r="AD48" s="74"/>
+      <c r="AE48" s="74"/>
+      <c r="AF48" s="74"/>
+      <c r="AG48" s="74"/>
+      <c r="AH48" s="74"/>
+      <c r="AI48" s="74"/>
+      <c r="AJ48" s="102"/>
+      <c r="AK48" s="74"/>
+    </row>
+    <row r="49" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A49" s="94"/>
+      <c r="B49" s="100"/>
+      <c r="C49" s="95"/>
       <c r="D49" s="2" t="s">
         <v>26</v>
       </c>
@@ -9092,306 +9127,309 @@
       <c r="G49" s="19"/>
       <c r="H49" s="31"/>
       <c r="I49" s="31"/>
-      <c r="J49" s="52"/>
-      <c r="K49" s="83">
+      <c r="J49" s="80">
         <v>0</v>
       </c>
-      <c r="L49" s="88"/>
-      <c r="M49" s="76"/>
-      <c r="N49" s="76"/>
-      <c r="O49" s="76"/>
-      <c r="P49" s="76"/>
-      <c r="Q49" s="76"/>
-      <c r="R49" s="76"/>
-      <c r="S49" s="76"/>
-      <c r="T49" s="76"/>
-      <c r="U49" s="76"/>
-      <c r="V49" s="76"/>
-      <c r="W49" s="107"/>
-      <c r="X49" s="76"/>
-      <c r="Y49" s="76"/>
-      <c r="Z49" s="76"/>
-      <c r="AA49" s="76"/>
-      <c r="AB49" s="76"/>
-      <c r="AC49" s="76"/>
-      <c r="AD49" s="104"/>
-      <c r="AE49" s="76"/>
-      <c r="AF49" s="76"/>
-      <c r="AG49" s="76"/>
-      <c r="AH49" s="76"/>
-      <c r="AI49" s="76"/>
-      <c r="AJ49" s="76"/>
-      <c r="AK49" s="101"/>
-      <c r="AL49" s="76"/>
-    </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A50" s="110"/>
-      <c r="B50" s="113"/>
-      <c r="C50" s="109"/>
+      <c r="K49" s="84"/>
+      <c r="L49" s="74"/>
+      <c r="M49" s="74"/>
+      <c r="N49" s="74"/>
+      <c r="O49" s="74"/>
+      <c r="P49" s="74"/>
+      <c r="Q49" s="74"/>
+      <c r="R49" s="74"/>
+      <c r="S49" s="74"/>
+      <c r="T49" s="74"/>
+      <c r="U49" s="74"/>
+      <c r="V49" s="108"/>
+      <c r="W49" s="74"/>
+      <c r="X49" s="74"/>
+      <c r="Y49" s="74"/>
+      <c r="Z49" s="74"/>
+      <c r="AA49" s="74"/>
+      <c r="AB49" s="74"/>
+      <c r="AC49" s="105"/>
+      <c r="AD49" s="74"/>
+      <c r="AE49" s="74"/>
+      <c r="AF49" s="74"/>
+      <c r="AG49" s="74"/>
+      <c r="AH49" s="74"/>
+      <c r="AI49" s="74"/>
+      <c r="AJ49" s="102"/>
+      <c r="AK49" s="74"/>
+    </row>
+    <row r="50" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A50" s="94"/>
+      <c r="B50" s="100"/>
+      <c r="C50" s="95"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="19"/>
       <c r="G50" s="19"/>
       <c r="H50" s="31"/>
       <c r="I50" s="31"/>
-      <c r="J50" s="52"/>
-      <c r="K50" s="83">
+      <c r="J50" s="80">
         <v>0</v>
       </c>
-      <c r="L50" s="88"/>
-      <c r="M50" s="76"/>
-      <c r="N50" s="76"/>
-      <c r="O50" s="76"/>
-      <c r="P50" s="76"/>
-      <c r="Q50" s="76"/>
-      <c r="R50" s="76"/>
-      <c r="S50" s="76"/>
-      <c r="T50" s="76"/>
-      <c r="U50" s="76"/>
-      <c r="V50" s="76"/>
-      <c r="W50" s="107"/>
-      <c r="X50" s="76"/>
-      <c r="Y50" s="76"/>
-      <c r="Z50" s="76"/>
-      <c r="AA50" s="76"/>
-      <c r="AB50" s="76"/>
-      <c r="AC50" s="76"/>
-      <c r="AD50" s="104"/>
-      <c r="AE50" s="76"/>
-      <c r="AF50" s="76"/>
-      <c r="AG50" s="76"/>
-      <c r="AH50" s="76"/>
-      <c r="AI50" s="76"/>
-      <c r="AJ50" s="76"/>
-      <c r="AK50" s="101"/>
-      <c r="AL50" s="76"/>
-    </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A51" s="110"/>
-      <c r="B51" s="113"/>
-      <c r="C51" s="109" t="s">
+      <c r="K50" s="84"/>
+      <c r="L50" s="74"/>
+      <c r="M50" s="74"/>
+      <c r="N50" s="74"/>
+      <c r="O50" s="74"/>
+      <c r="P50" s="74"/>
+      <c r="Q50" s="74"/>
+      <c r="R50" s="74"/>
+      <c r="S50" s="74"/>
+      <c r="T50" s="74"/>
+      <c r="U50" s="74"/>
+      <c r="V50" s="108"/>
+      <c r="W50" s="74"/>
+      <c r="X50" s="74"/>
+      <c r="Y50" s="74"/>
+      <c r="Z50" s="74"/>
+      <c r="AA50" s="74"/>
+      <c r="AB50" s="74"/>
+      <c r="AC50" s="105"/>
+      <c r="AD50" s="74"/>
+      <c r="AE50" s="74"/>
+      <c r="AF50" s="74"/>
+      <c r="AG50" s="74"/>
+      <c r="AH50" s="74"/>
+      <c r="AI50" s="74"/>
+      <c r="AJ50" s="102"/>
+      <c r="AK50" s="74"/>
+    </row>
+    <row r="51" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A51" s="94"/>
+      <c r="B51" s="100"/>
+      <c r="C51" s="95" t="s">
         <v>17</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E51" s="2"/>
-      <c r="F51" s="19"/>
+      <c r="F51" s="19" t="s">
+        <v>283</v>
+      </c>
       <c r="G51" s="19"/>
       <c r="H51" s="31"/>
       <c r="I51" s="31"/>
-      <c r="J51" s="52"/>
-      <c r="K51" s="83">
+      <c r="J51" s="80">
         <v>0</v>
       </c>
-      <c r="L51" s="88"/>
-      <c r="M51" s="76"/>
-      <c r="N51" s="76"/>
-      <c r="O51" s="76"/>
-      <c r="P51" s="76"/>
-      <c r="Q51" s="76"/>
-      <c r="R51" s="76"/>
-      <c r="S51" s="76"/>
-      <c r="T51" s="76"/>
-      <c r="U51" s="76"/>
-      <c r="V51" s="76"/>
-      <c r="W51" s="107"/>
-      <c r="X51" s="76"/>
-      <c r="Y51" s="76"/>
-      <c r="Z51" s="76"/>
-      <c r="AA51" s="76"/>
-      <c r="AB51" s="76"/>
-      <c r="AC51" s="76"/>
-      <c r="AD51" s="104"/>
-      <c r="AE51" s="76"/>
-      <c r="AF51" s="76"/>
-      <c r="AG51" s="76"/>
-      <c r="AH51" s="76"/>
-      <c r="AI51" s="76"/>
-      <c r="AJ51" s="76"/>
-      <c r="AK51" s="101"/>
-      <c r="AL51" s="76"/>
-    </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A52" s="110"/>
-      <c r="B52" s="113"/>
-      <c r="C52" s="109"/>
+      <c r="K51" s="84"/>
+      <c r="L51" s="74"/>
+      <c r="M51" s="74"/>
+      <c r="N51" s="74"/>
+      <c r="O51" s="74"/>
+      <c r="P51" s="74"/>
+      <c r="Q51" s="74"/>
+      <c r="R51" s="74"/>
+      <c r="S51" s="74"/>
+      <c r="T51" s="74"/>
+      <c r="U51" s="74"/>
+      <c r="V51" s="108"/>
+      <c r="W51" s="74"/>
+      <c r="X51" s="74"/>
+      <c r="Y51" s="74"/>
+      <c r="Z51" s="74"/>
+      <c r="AA51" s="74"/>
+      <c r="AB51" s="74"/>
+      <c r="AC51" s="105"/>
+      <c r="AD51" s="74"/>
+      <c r="AE51" s="74"/>
+      <c r="AF51" s="74"/>
+      <c r="AG51" s="74"/>
+      <c r="AH51" s="74"/>
+      <c r="AI51" s="74"/>
+      <c r="AJ51" s="102"/>
+      <c r="AK51" s="74"/>
+    </row>
+    <row r="52" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A52" s="94"/>
+      <c r="B52" s="100"/>
+      <c r="C52" s="95"/>
       <c r="D52" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E52" s="2"/>
-      <c r="F52" s="19"/>
+      <c r="F52" s="93" t="s">
+        <v>283</v>
+      </c>
       <c r="G52" s="19"/>
       <c r="H52" s="31"/>
       <c r="I52" s="31"/>
-      <c r="J52" s="52"/>
-      <c r="K52" s="83">
+      <c r="J52" s="80">
         <v>0</v>
       </c>
-      <c r="L52" s="88"/>
-      <c r="M52" s="76"/>
-      <c r="N52" s="76"/>
-      <c r="O52" s="76"/>
-      <c r="P52" s="76"/>
-      <c r="Q52" s="76"/>
-      <c r="R52" s="76"/>
-      <c r="S52" s="76"/>
-      <c r="T52" s="76"/>
-      <c r="U52" s="76"/>
-      <c r="V52" s="76"/>
-      <c r="W52" s="107"/>
-      <c r="X52" s="76"/>
-      <c r="Y52" s="76"/>
-      <c r="Z52" s="76"/>
-      <c r="AA52" s="76"/>
-      <c r="AB52" s="76"/>
-      <c r="AC52" s="76"/>
-      <c r="AD52" s="104"/>
-      <c r="AE52" s="76"/>
-      <c r="AF52" s="76"/>
-      <c r="AG52" s="76"/>
-      <c r="AH52" s="76"/>
-      <c r="AI52" s="76"/>
-      <c r="AJ52" s="76"/>
-      <c r="AK52" s="101"/>
-      <c r="AL52" s="76"/>
-    </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A53" s="110"/>
-      <c r="B53" s="113"/>
-      <c r="C53" s="109"/>
+      <c r="K52" s="84"/>
+      <c r="L52" s="74"/>
+      <c r="M52" s="74"/>
+      <c r="N52" s="74"/>
+      <c r="O52" s="74"/>
+      <c r="P52" s="74"/>
+      <c r="Q52" s="74"/>
+      <c r="R52" s="74"/>
+      <c r="S52" s="74"/>
+      <c r="T52" s="74"/>
+      <c r="U52" s="74"/>
+      <c r="V52" s="108"/>
+      <c r="W52" s="74"/>
+      <c r="X52" s="74"/>
+      <c r="Y52" s="74"/>
+      <c r="Z52" s="74"/>
+      <c r="AA52" s="74"/>
+      <c r="AB52" s="74"/>
+      <c r="AC52" s="105"/>
+      <c r="AD52" s="74"/>
+      <c r="AE52" s="74"/>
+      <c r="AF52" s="74"/>
+      <c r="AG52" s="74"/>
+      <c r="AH52" s="74"/>
+      <c r="AI52" s="74"/>
+      <c r="AJ52" s="102"/>
+      <c r="AK52" s="74"/>
+    </row>
+    <row r="53" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A53" s="94"/>
+      <c r="B53" s="100"/>
+      <c r="C53" s="95"/>
       <c r="D53" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E53" s="2"/>
-      <c r="F53" s="19"/>
+      <c r="F53" s="93" t="s">
+        <v>283</v>
+      </c>
       <c r="G53" s="19"/>
       <c r="H53" s="31"/>
       <c r="I53" s="31"/>
-      <c r="J53" s="52"/>
-      <c r="K53" s="83">
+      <c r="J53" s="80">
         <v>0</v>
       </c>
-      <c r="L53" s="88"/>
-      <c r="M53" s="76"/>
-      <c r="N53" s="76"/>
-      <c r="O53" s="76"/>
-      <c r="P53" s="76"/>
-      <c r="Q53" s="76"/>
-      <c r="R53" s="76"/>
-      <c r="S53" s="76"/>
-      <c r="T53" s="76"/>
-      <c r="U53" s="76"/>
-      <c r="V53" s="76"/>
-      <c r="W53" s="107"/>
-      <c r="X53" s="76"/>
-      <c r="Y53" s="76"/>
-      <c r="Z53" s="76"/>
-      <c r="AA53" s="76"/>
-      <c r="AB53" s="76"/>
-      <c r="AC53" s="76"/>
-      <c r="AD53" s="104"/>
-      <c r="AE53" s="76"/>
-      <c r="AF53" s="76"/>
-      <c r="AG53" s="76"/>
-      <c r="AH53" s="76"/>
-      <c r="AI53" s="76"/>
-      <c r="AJ53" s="76"/>
-      <c r="AK53" s="101"/>
-      <c r="AL53" s="76"/>
-    </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A54" s="110"/>
-      <c r="B54" s="113"/>
-      <c r="C54" s="109"/>
+      <c r="K53" s="84"/>
+      <c r="L53" s="74"/>
+      <c r="M53" s="74"/>
+      <c r="N53" s="74"/>
+      <c r="O53" s="74"/>
+      <c r="P53" s="74"/>
+      <c r="Q53" s="74"/>
+      <c r="R53" s="74"/>
+      <c r="S53" s="74"/>
+      <c r="T53" s="74"/>
+      <c r="U53" s="74"/>
+      <c r="V53" s="108"/>
+      <c r="W53" s="74"/>
+      <c r="X53" s="74"/>
+      <c r="Y53" s="74"/>
+      <c r="Z53" s="74"/>
+      <c r="AA53" s="74"/>
+      <c r="AB53" s="74"/>
+      <c r="AC53" s="105"/>
+      <c r="AD53" s="74"/>
+      <c r="AE53" s="74"/>
+      <c r="AF53" s="74"/>
+      <c r="AG53" s="74"/>
+      <c r="AH53" s="74"/>
+      <c r="AI53" s="74"/>
+      <c r="AJ53" s="102"/>
+      <c r="AK53" s="74"/>
+    </row>
+    <row r="54" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A54" s="94"/>
+      <c r="B54" s="100"/>
+      <c r="C54" s="95"/>
       <c r="D54" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E54" s="2"/>
-      <c r="F54" s="19"/>
+      <c r="F54" s="93" t="s">
+        <v>283</v>
+      </c>
       <c r="G54" s="19"/>
       <c r="H54" s="31"/>
       <c r="I54" s="31"/>
-      <c r="J54" s="52"/>
-      <c r="K54" s="83">
+      <c r="J54" s="80">
         <v>0</v>
       </c>
-      <c r="L54" s="88"/>
-      <c r="M54" s="76"/>
-      <c r="N54" s="76"/>
-      <c r="O54" s="76"/>
-      <c r="P54" s="76"/>
-      <c r="Q54" s="76"/>
-      <c r="R54" s="76"/>
-      <c r="S54" s="76"/>
-      <c r="T54" s="76"/>
-      <c r="U54" s="76"/>
-      <c r="V54" s="76"/>
-      <c r="W54" s="107"/>
-      <c r="X54" s="76"/>
-      <c r="Y54" s="76"/>
-      <c r="Z54" s="76"/>
-      <c r="AA54" s="76"/>
-      <c r="AB54" s="76"/>
-      <c r="AC54" s="76"/>
-      <c r="AD54" s="104"/>
-      <c r="AE54" s="76"/>
-      <c r="AF54" s="76"/>
-      <c r="AG54" s="76"/>
-      <c r="AH54" s="76"/>
-      <c r="AI54" s="76"/>
-      <c r="AJ54" s="76"/>
-      <c r="AK54" s="101"/>
-      <c r="AL54" s="76"/>
-    </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A55" s="110"/>
-      <c r="B55" s="113"/>
-      <c r="C55" s="109"/>
+      <c r="K54" s="84"/>
+      <c r="L54" s="74"/>
+      <c r="M54" s="74"/>
+      <c r="N54" s="74"/>
+      <c r="O54" s="74"/>
+      <c r="P54" s="74"/>
+      <c r="Q54" s="74"/>
+      <c r="R54" s="74"/>
+      <c r="S54" s="74"/>
+      <c r="T54" s="74"/>
+      <c r="U54" s="74"/>
+      <c r="V54" s="108"/>
+      <c r="W54" s="74"/>
+      <c r="X54" s="74"/>
+      <c r="Y54" s="74"/>
+      <c r="Z54" s="74"/>
+      <c r="AA54" s="74"/>
+      <c r="AB54" s="74"/>
+      <c r="AC54" s="105"/>
+      <c r="AD54" s="74"/>
+      <c r="AE54" s="74"/>
+      <c r="AF54" s="74"/>
+      <c r="AG54" s="74"/>
+      <c r="AH54" s="74"/>
+      <c r="AI54" s="74"/>
+      <c r="AJ54" s="102"/>
+      <c r="AK54" s="74"/>
+    </row>
+    <row r="55" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A55" s="94"/>
+      <c r="B55" s="100"/>
+      <c r="C55" s="95"/>
       <c r="D55" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E55" s="2"/>
-      <c r="F55" s="19"/>
+      <c r="F55" s="93" t="s">
+        <v>283</v>
+      </c>
       <c r="G55" s="19"/>
       <c r="H55" s="31"/>
       <c r="I55" s="31"/>
-      <c r="J55" s="52"/>
-      <c r="K55" s="83">
+      <c r="J55" s="80">
         <v>0</v>
       </c>
-      <c r="L55" s="88"/>
-      <c r="M55" s="76"/>
-      <c r="N55" s="76"/>
-      <c r="O55" s="76"/>
-      <c r="P55" s="76"/>
-      <c r="Q55" s="76"/>
-      <c r="R55" s="76"/>
-      <c r="S55" s="76"/>
-      <c r="T55" s="76"/>
-      <c r="U55" s="76"/>
-      <c r="V55" s="76"/>
-      <c r="W55" s="107"/>
-      <c r="X55" s="76"/>
-      <c r="Y55" s="76"/>
-      <c r="Z55" s="76"/>
-      <c r="AA55" s="76"/>
-      <c r="AB55" s="76"/>
-      <c r="AC55" s="76"/>
-      <c r="AD55" s="104"/>
-      <c r="AE55" s="76"/>
-      <c r="AF55" s="76"/>
-      <c r="AG55" s="76"/>
-      <c r="AH55" s="76"/>
-      <c r="AI55" s="76"/>
-      <c r="AJ55" s="76"/>
-      <c r="AK55" s="101"/>
-      <c r="AL55" s="76"/>
-    </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A56" s="110"/>
-      <c r="B56" s="113"/>
-      <c r="C56" s="109" t="s">
+      <c r="K55" s="84"/>
+      <c r="L55" s="74"/>
+      <c r="M55" s="74"/>
+      <c r="N55" s="74"/>
+      <c r="O55" s="74"/>
+      <c r="P55" s="74"/>
+      <c r="Q55" s="74"/>
+      <c r="R55" s="74"/>
+      <c r="S55" s="74"/>
+      <c r="T55" s="74"/>
+      <c r="U55" s="74"/>
+      <c r="V55" s="108"/>
+      <c r="W55" s="74"/>
+      <c r="X55" s="74"/>
+      <c r="Y55" s="74"/>
+      <c r="Z55" s="74"/>
+      <c r="AA55" s="74"/>
+      <c r="AB55" s="74"/>
+      <c r="AC55" s="105"/>
+      <c r="AD55" s="74"/>
+      <c r="AE55" s="74"/>
+      <c r="AF55" s="74"/>
+      <c r="AG55" s="74"/>
+      <c r="AH55" s="74"/>
+      <c r="AI55" s="74"/>
+      <c r="AJ55" s="102"/>
+      <c r="AK55" s="74"/>
+    </row>
+    <row r="56" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A56" s="94"/>
+      <c r="B56" s="100"/>
+      <c r="C56" s="95" t="s">
         <v>121</v>
       </c>
       <c r="D56" s="2" t="s">
@@ -9410,42 +9448,41 @@
       <c r="I56" s="31">
         <v>44138</v>
       </c>
-      <c r="J56" s="52"/>
-      <c r="K56" s="83">
+      <c r="J56" s="80">
         <v>1</v>
       </c>
-      <c r="L56" s="88"/>
-      <c r="M56" s="76"/>
-      <c r="N56" s="76"/>
-      <c r="O56" s="76"/>
-      <c r="P56" s="76"/>
-      <c r="Q56" s="76"/>
-      <c r="R56" s="76"/>
-      <c r="S56" s="76"/>
-      <c r="T56" s="76"/>
-      <c r="U56" s="76"/>
-      <c r="V56" s="76"/>
-      <c r="W56" s="107"/>
-      <c r="X56" s="76"/>
-      <c r="Y56" s="76"/>
-      <c r="Z56" s="76"/>
-      <c r="AA56" s="76"/>
-      <c r="AB56" s="76"/>
-      <c r="AC56" s="76"/>
-      <c r="AD56" s="104"/>
-      <c r="AE56" s="76"/>
-      <c r="AF56" s="76"/>
-      <c r="AG56" s="76"/>
-      <c r="AH56" s="76"/>
-      <c r="AI56" s="76"/>
-      <c r="AJ56" s="76"/>
-      <c r="AK56" s="101"/>
-      <c r="AL56" s="76"/>
-    </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A57" s="110"/>
-      <c r="B57" s="113"/>
-      <c r="C57" s="109"/>
+      <c r="K56" s="84"/>
+      <c r="L56" s="74"/>
+      <c r="M56" s="74"/>
+      <c r="N56" s="74"/>
+      <c r="O56" s="74"/>
+      <c r="P56" s="74"/>
+      <c r="Q56" s="74"/>
+      <c r="R56" s="74"/>
+      <c r="S56" s="74"/>
+      <c r="T56" s="74"/>
+      <c r="U56" s="74"/>
+      <c r="V56" s="108"/>
+      <c r="W56" s="74"/>
+      <c r="X56" s="74"/>
+      <c r="Y56" s="74"/>
+      <c r="Z56" s="74"/>
+      <c r="AA56" s="74"/>
+      <c r="AB56" s="74"/>
+      <c r="AC56" s="105"/>
+      <c r="AD56" s="74"/>
+      <c r="AE56" s="74"/>
+      <c r="AF56" s="74"/>
+      <c r="AG56" s="74"/>
+      <c r="AH56" s="74"/>
+      <c r="AI56" s="74"/>
+      <c r="AJ56" s="102"/>
+      <c r="AK56" s="74"/>
+    </row>
+    <row r="57" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A57" s="94"/>
+      <c r="B57" s="100"/>
+      <c r="C57" s="95"/>
       <c r="D57" s="2" t="s">
         <v>151</v>
       </c>
@@ -9460,43 +9497,42 @@
         <v>44124</v>
       </c>
       <c r="I57" s="31">
-        <v>43833</v>
-      </c>
-      <c r="J57" s="52"/>
-      <c r="K57" s="83">
-        <v>0</v>
-      </c>
-      <c r="L57" s="88"/>
-      <c r="M57" s="76"/>
-      <c r="N57" s="76"/>
-      <c r="O57" s="76"/>
-      <c r="P57" s="76"/>
-      <c r="Q57" s="76"/>
-      <c r="R57" s="76"/>
-      <c r="S57" s="76"/>
-      <c r="T57" s="76"/>
-      <c r="U57" s="76"/>
-      <c r="V57" s="76"/>
-      <c r="W57" s="107"/>
-      <c r="X57" s="76"/>
-      <c r="Y57" s="76"/>
-      <c r="Z57" s="76"/>
-      <c r="AA57" s="76"/>
-      <c r="AB57" s="76"/>
-      <c r="AC57" s="76"/>
-      <c r="AD57" s="104"/>
-      <c r="AE57" s="76"/>
-      <c r="AF57" s="76"/>
-      <c r="AG57" s="76"/>
-      <c r="AH57" s="76"/>
-      <c r="AI57" s="76"/>
-      <c r="AJ57" s="76"/>
-      <c r="AK57" s="101"/>
-      <c r="AL57" s="76"/>
-    </row>
-    <row r="58" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="110"/>
-      <c r="B58" s="113"/>
+        <v>44138</v>
+      </c>
+      <c r="J57" s="80">
+        <v>1</v>
+      </c>
+      <c r="K57" s="84"/>
+      <c r="L57" s="74"/>
+      <c r="M57" s="74"/>
+      <c r="N57" s="74"/>
+      <c r="O57" s="74"/>
+      <c r="P57" s="74"/>
+      <c r="Q57" s="74"/>
+      <c r="R57" s="74"/>
+      <c r="S57" s="74"/>
+      <c r="T57" s="74"/>
+      <c r="U57" s="74"/>
+      <c r="V57" s="108"/>
+      <c r="W57" s="74"/>
+      <c r="X57" s="74"/>
+      <c r="Y57" s="74"/>
+      <c r="Z57" s="74"/>
+      <c r="AA57" s="74"/>
+      <c r="AB57" s="74"/>
+      <c r="AC57" s="105"/>
+      <c r="AD57" s="74"/>
+      <c r="AE57" s="74"/>
+      <c r="AF57" s="74"/>
+      <c r="AG57" s="74"/>
+      <c r="AH57" s="74"/>
+      <c r="AI57" s="74"/>
+      <c r="AJ57" s="102"/>
+      <c r="AK57" s="74"/>
+    </row>
+    <row r="58" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="94"/>
+      <c r="B58" s="100"/>
       <c r="C58" s="20" t="s">
         <v>71</v>
       </c>
@@ -9508,11 +9544,11 @@
       <c r="G58" s="20"/>
       <c r="H58" s="37"/>
       <c r="I58" s="37"/>
-      <c r="J58" s="52"/>
-      <c r="K58" s="84">
+      <c r="J58" s="117">
         <v>0</v>
       </c>
-      <c r="L58" s="89"/>
+      <c r="K58" s="85"/>
+      <c r="L58" s="20"/>
       <c r="M58" s="20"/>
       <c r="N58" s="20"/>
       <c r="O58" s="20"/>
@@ -9522,33 +9558,32 @@
       <c r="S58" s="20"/>
       <c r="T58" s="20"/>
       <c r="U58" s="20"/>
-      <c r="V58" s="20"/>
-      <c r="W58" s="107"/>
+      <c r="V58" s="108"/>
+      <c r="W58" s="20"/>
       <c r="X58" s="20"/>
       <c r="Y58" s="20"/>
       <c r="Z58" s="20"/>
       <c r="AA58" s="20"/>
       <c r="AB58" s="20"/>
-      <c r="AC58" s="20"/>
-      <c r="AD58" s="104"/>
-      <c r="AE58" s="76"/>
-      <c r="AF58" s="76"/>
-      <c r="AG58" s="76"/>
-      <c r="AH58" s="76"/>
-      <c r="AI58" s="76"/>
-      <c r="AJ58" s="76"/>
-      <c r="AK58" s="101"/>
-      <c r="AL58" s="76"/>
-    </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A59" s="110"/>
-      <c r="B59" s="112" t="s">
+      <c r="AC58" s="105"/>
+      <c r="AD58" s="74"/>
+      <c r="AE58" s="74"/>
+      <c r="AF58" s="74"/>
+      <c r="AG58" s="74"/>
+      <c r="AH58" s="74"/>
+      <c r="AI58" s="74"/>
+      <c r="AJ58" s="102"/>
+      <c r="AK58" s="74"/>
+    </row>
+    <row r="59" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A59" s="94"/>
+      <c r="B59" s="114" t="s">
         <v>120</v>
       </c>
-      <c r="C59" s="109" t="s">
+      <c r="C59" s="95" t="s">
         <v>92</v>
       </c>
-      <c r="D59" s="109" t="s">
+      <c r="D59" s="95" t="s">
         <v>29</v>
       </c>
       <c r="E59" s="2" t="s">
@@ -9566,43 +9601,42 @@
       <c r="I59" s="31">
         <v>44124</v>
       </c>
-      <c r="J59" s="52"/>
-      <c r="K59" s="83">
+      <c r="J59" s="80">
         <v>1</v>
       </c>
-      <c r="L59" s="88"/>
-      <c r="M59" s="76"/>
-      <c r="N59" s="76"/>
-      <c r="O59" s="76"/>
-      <c r="P59" s="76"/>
-      <c r="Q59" s="76"/>
-      <c r="R59" s="76"/>
-      <c r="S59" s="76"/>
-      <c r="T59" s="76"/>
-      <c r="U59" s="76"/>
-      <c r="V59" s="76"/>
-      <c r="W59" s="107"/>
-      <c r="X59" s="76"/>
-      <c r="Y59" s="76"/>
-      <c r="Z59" s="76"/>
-      <c r="AA59" s="76"/>
-      <c r="AB59" s="76"/>
-      <c r="AC59" s="76"/>
-      <c r="AD59" s="104"/>
-      <c r="AE59" s="76"/>
-      <c r="AF59" s="76"/>
-      <c r="AG59" s="76"/>
-      <c r="AH59" s="76"/>
-      <c r="AI59" s="76"/>
-      <c r="AJ59" s="76"/>
-      <c r="AK59" s="101"/>
-      <c r="AL59" s="76"/>
-    </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A60" s="110"/>
-      <c r="B60" s="112"/>
-      <c r="C60" s="109"/>
-      <c r="D60" s="109"/>
+      <c r="K59" s="84"/>
+      <c r="L59" s="74"/>
+      <c r="M59" s="74"/>
+      <c r="N59" s="74"/>
+      <c r="O59" s="74"/>
+      <c r="P59" s="74"/>
+      <c r="Q59" s="74"/>
+      <c r="R59" s="74"/>
+      <c r="S59" s="74"/>
+      <c r="T59" s="74"/>
+      <c r="U59" s="74"/>
+      <c r="V59" s="108"/>
+      <c r="W59" s="74"/>
+      <c r="X59" s="74"/>
+      <c r="Y59" s="74"/>
+      <c r="Z59" s="74"/>
+      <c r="AA59" s="74"/>
+      <c r="AB59" s="74"/>
+      <c r="AC59" s="105"/>
+      <c r="AD59" s="74"/>
+      <c r="AE59" s="74"/>
+      <c r="AF59" s="74"/>
+      <c r="AG59" s="74"/>
+      <c r="AH59" s="74"/>
+      <c r="AI59" s="74"/>
+      <c r="AJ59" s="102"/>
+      <c r="AK59" s="74"/>
+    </row>
+    <row r="60" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A60" s="94"/>
+      <c r="B60" s="115"/>
+      <c r="C60" s="95"/>
+      <c r="D60" s="95"/>
       <c r="E60" s="2" t="s">
         <v>130</v>
       </c>
@@ -9618,45 +9652,44 @@
       <c r="I60" s="31">
         <v>44125</v>
       </c>
-      <c r="J60" s="52"/>
-      <c r="K60" s="83">
+      <c r="J60" s="80">
         <v>1</v>
       </c>
-      <c r="L60" s="88"/>
-      <c r="M60" s="76"/>
-      <c r="N60" s="76"/>
-      <c r="O60" s="76"/>
-      <c r="P60" s="76"/>
-      <c r="Q60" s="76"/>
-      <c r="R60" s="76"/>
-      <c r="S60" s="76"/>
-      <c r="T60" s="76"/>
-      <c r="U60" s="76"/>
-      <c r="V60" s="76"/>
-      <c r="W60" s="107"/>
-      <c r="X60" s="76"/>
-      <c r="Y60" s="76"/>
-      <c r="Z60" s="76"/>
-      <c r="AA60" s="76"/>
-      <c r="AB60" s="76"/>
-      <c r="AC60" s="76"/>
-      <c r="AD60" s="104"/>
-      <c r="AE60" s="76"/>
-      <c r="AF60" s="76"/>
-      <c r="AG60" s="76"/>
-      <c r="AH60" s="76"/>
-      <c r="AI60" s="76"/>
-      <c r="AJ60" s="76"/>
-      <c r="AK60" s="101"/>
-      <c r="AL60" s="76"/>
-    </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A61" s="110"/>
-      <c r="B61" s="112"/>
-      <c r="C61" s="109" t="s">
+      <c r="K60" s="84"/>
+      <c r="L60" s="74"/>
+      <c r="M60" s="74"/>
+      <c r="N60" s="74"/>
+      <c r="O60" s="74"/>
+      <c r="P60" s="74"/>
+      <c r="Q60" s="74"/>
+      <c r="R60" s="74"/>
+      <c r="S60" s="74"/>
+      <c r="T60" s="74"/>
+      <c r="U60" s="74"/>
+      <c r="V60" s="108"/>
+      <c r="W60" s="74"/>
+      <c r="X60" s="74"/>
+      <c r="Y60" s="74"/>
+      <c r="Z60" s="74"/>
+      <c r="AA60" s="74"/>
+      <c r="AB60" s="74"/>
+      <c r="AC60" s="105"/>
+      <c r="AD60" s="74"/>
+      <c r="AE60" s="74"/>
+      <c r="AF60" s="74"/>
+      <c r="AG60" s="74"/>
+      <c r="AH60" s="74"/>
+      <c r="AI60" s="74"/>
+      <c r="AJ60" s="102"/>
+      <c r="AK60" s="74"/>
+    </row>
+    <row r="61" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A61" s="94"/>
+      <c r="B61" s="115"/>
+      <c r="C61" s="95" t="s">
         <v>96</v>
       </c>
-      <c r="D61" s="109" t="s">
+      <c r="D61" s="95" t="s">
         <v>95</v>
       </c>
       <c r="E61" s="2" t="s">
@@ -9674,43 +9707,42 @@
       <c r="I61" s="31">
         <v>44133</v>
       </c>
-      <c r="J61" s="52"/>
-      <c r="K61" s="83">
+      <c r="J61" s="80">
         <v>1</v>
       </c>
-      <c r="L61" s="88"/>
-      <c r="M61" s="76"/>
-      <c r="N61" s="76"/>
-      <c r="O61" s="76"/>
-      <c r="P61" s="76"/>
-      <c r="Q61" s="76"/>
-      <c r="R61" s="76"/>
-      <c r="S61" s="76"/>
-      <c r="T61" s="76"/>
-      <c r="U61" s="76"/>
-      <c r="V61" s="76"/>
-      <c r="W61" s="107"/>
-      <c r="X61" s="76"/>
-      <c r="Y61" s="76"/>
-      <c r="Z61" s="76"/>
-      <c r="AA61" s="76"/>
-      <c r="AB61" s="76"/>
-      <c r="AC61" s="76"/>
-      <c r="AD61" s="104"/>
-      <c r="AE61" s="76"/>
-      <c r="AF61" s="76"/>
-      <c r="AG61" s="76"/>
-      <c r="AH61" s="76"/>
-      <c r="AI61" s="76"/>
-      <c r="AJ61" s="76"/>
-      <c r="AK61" s="101"/>
-      <c r="AL61" s="76"/>
-    </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A62" s="110"/>
-      <c r="B62" s="112"/>
-      <c r="C62" s="109"/>
-      <c r="D62" s="109"/>
+      <c r="K61" s="84"/>
+      <c r="L61" s="74"/>
+      <c r="M61" s="74"/>
+      <c r="N61" s="74"/>
+      <c r="O61" s="74"/>
+      <c r="P61" s="74"/>
+      <c r="Q61" s="74"/>
+      <c r="R61" s="74"/>
+      <c r="S61" s="74"/>
+      <c r="T61" s="74"/>
+      <c r="U61" s="74"/>
+      <c r="V61" s="108"/>
+      <c r="W61" s="74"/>
+      <c r="X61" s="74"/>
+      <c r="Y61" s="74"/>
+      <c r="Z61" s="74"/>
+      <c r="AA61" s="74"/>
+      <c r="AB61" s="74"/>
+      <c r="AC61" s="105"/>
+      <c r="AD61" s="74"/>
+      <c r="AE61" s="74"/>
+      <c r="AF61" s="74"/>
+      <c r="AG61" s="74"/>
+      <c r="AH61" s="74"/>
+      <c r="AI61" s="74"/>
+      <c r="AJ61" s="102"/>
+      <c r="AK61" s="74"/>
+    </row>
+    <row r="62" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A62" s="94"/>
+      <c r="B62" s="115"/>
+      <c r="C62" s="95"/>
+      <c r="D62" s="95"/>
       <c r="E62" s="2" t="s">
         <v>146</v>
       </c>
@@ -9726,43 +9758,42 @@
       <c r="I62" s="31">
         <v>44133</v>
       </c>
-      <c r="J62" s="52"/>
-      <c r="K62" s="83">
+      <c r="J62" s="80">
         <v>1</v>
       </c>
-      <c r="L62" s="88"/>
-      <c r="M62" s="76"/>
-      <c r="N62" s="76"/>
-      <c r="O62" s="76"/>
-      <c r="P62" s="76"/>
-      <c r="Q62" s="76"/>
-      <c r="R62" s="76"/>
-      <c r="S62" s="76"/>
-      <c r="T62" s="76"/>
-      <c r="U62" s="76"/>
-      <c r="V62" s="76"/>
-      <c r="W62" s="107"/>
-      <c r="X62" s="76"/>
-      <c r="Y62" s="76"/>
-      <c r="Z62" s="76"/>
-      <c r="AA62" s="76"/>
-      <c r="AB62" s="76"/>
-      <c r="AC62" s="76"/>
-      <c r="AD62" s="104"/>
-      <c r="AE62" s="76"/>
-      <c r="AF62" s="76"/>
-      <c r="AG62" s="76"/>
-      <c r="AH62" s="76"/>
-      <c r="AI62" s="76"/>
-      <c r="AJ62" s="76"/>
-      <c r="AK62" s="101"/>
-      <c r="AL62" s="76"/>
-    </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A63" s="110"/>
-      <c r="B63" s="112"/>
-      <c r="C63" s="109"/>
-      <c r="D63" s="109"/>
+      <c r="K62" s="84"/>
+      <c r="L62" s="74"/>
+      <c r="M62" s="74"/>
+      <c r="N62" s="74"/>
+      <c r="O62" s="74"/>
+      <c r="P62" s="74"/>
+      <c r="Q62" s="74"/>
+      <c r="R62" s="74"/>
+      <c r="S62" s="74"/>
+      <c r="T62" s="74"/>
+      <c r="U62" s="74"/>
+      <c r="V62" s="108"/>
+      <c r="W62" s="74"/>
+      <c r="X62" s="74"/>
+      <c r="Y62" s="74"/>
+      <c r="Z62" s="74"/>
+      <c r="AA62" s="74"/>
+      <c r="AB62" s="74"/>
+      <c r="AC62" s="105"/>
+      <c r="AD62" s="74"/>
+      <c r="AE62" s="74"/>
+      <c r="AF62" s="74"/>
+      <c r="AG62" s="74"/>
+      <c r="AH62" s="74"/>
+      <c r="AI62" s="74"/>
+      <c r="AJ62" s="102"/>
+      <c r="AK62" s="74"/>
+    </row>
+    <row r="63" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A63" s="94"/>
+      <c r="B63" s="115"/>
+      <c r="C63" s="95"/>
+      <c r="D63" s="95"/>
       <c r="E63" s="2" t="s">
         <v>147</v>
       </c>
@@ -9778,43 +9809,42 @@
       <c r="I63" s="31">
         <v>44133</v>
       </c>
-      <c r="J63" s="52"/>
-      <c r="K63" s="83">
+      <c r="J63" s="80">
         <v>1</v>
       </c>
-      <c r="L63" s="88"/>
-      <c r="M63" s="76"/>
-      <c r="N63" s="76"/>
-      <c r="O63" s="76"/>
-      <c r="P63" s="76"/>
-      <c r="Q63" s="76"/>
-      <c r="R63" s="76"/>
-      <c r="S63" s="76"/>
-      <c r="T63" s="76"/>
-      <c r="U63" s="76"/>
-      <c r="V63" s="76"/>
-      <c r="W63" s="107"/>
-      <c r="X63" s="76"/>
-      <c r="Y63" s="76"/>
-      <c r="Z63" s="76"/>
-      <c r="AA63" s="76"/>
-      <c r="AB63" s="76"/>
-      <c r="AC63" s="76"/>
-      <c r="AD63" s="104"/>
-      <c r="AE63" s="76"/>
-      <c r="AF63" s="76"/>
-      <c r="AG63" s="76"/>
-      <c r="AH63" s="76"/>
-      <c r="AI63" s="76"/>
-      <c r="AJ63" s="76"/>
-      <c r="AK63" s="101"/>
-      <c r="AL63" s="76"/>
-    </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A64" s="110"/>
-      <c r="B64" s="112"/>
-      <c r="C64" s="109"/>
-      <c r="D64" s="109"/>
+      <c r="K63" s="84"/>
+      <c r="L63" s="74"/>
+      <c r="M63" s="74"/>
+      <c r="N63" s="74"/>
+      <c r="O63" s="74"/>
+      <c r="P63" s="74"/>
+      <c r="Q63" s="74"/>
+      <c r="R63" s="74"/>
+      <c r="S63" s="74"/>
+      <c r="T63" s="74"/>
+      <c r="U63" s="74"/>
+      <c r="V63" s="108"/>
+      <c r="W63" s="74"/>
+      <c r="X63" s="74"/>
+      <c r="Y63" s="74"/>
+      <c r="Z63" s="74"/>
+      <c r="AA63" s="74"/>
+      <c r="AB63" s="74"/>
+      <c r="AC63" s="105"/>
+      <c r="AD63" s="74"/>
+      <c r="AE63" s="74"/>
+      <c r="AF63" s="74"/>
+      <c r="AG63" s="74"/>
+      <c r="AH63" s="74"/>
+      <c r="AI63" s="74"/>
+      <c r="AJ63" s="102"/>
+      <c r="AK63" s="74"/>
+    </row>
+    <row r="64" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A64" s="94"/>
+      <c r="B64" s="115"/>
+      <c r="C64" s="95"/>
+      <c r="D64" s="95"/>
       <c r="E64" s="2" t="s">
         <v>107</v>
       </c>
@@ -9830,43 +9860,42 @@
       <c r="I64" s="31">
         <v>44133</v>
       </c>
-      <c r="J64" s="52"/>
-      <c r="K64" s="83">
+      <c r="J64" s="80">
         <v>1</v>
       </c>
-      <c r="L64" s="88"/>
-      <c r="M64" s="76"/>
-      <c r="N64" s="76"/>
-      <c r="O64" s="76"/>
-      <c r="P64" s="76"/>
-      <c r="Q64" s="76"/>
-      <c r="R64" s="76"/>
-      <c r="S64" s="76"/>
-      <c r="T64" s="76"/>
-      <c r="U64" s="76"/>
-      <c r="V64" s="76"/>
-      <c r="W64" s="107"/>
-      <c r="X64" s="76"/>
-      <c r="Y64" s="76"/>
-      <c r="Z64" s="76"/>
-      <c r="AA64" s="76"/>
-      <c r="AB64" s="76"/>
-      <c r="AC64" s="76"/>
-      <c r="AD64" s="104"/>
-      <c r="AE64" s="76"/>
-      <c r="AF64" s="76"/>
-      <c r="AG64" s="76"/>
-      <c r="AH64" s="76"/>
-      <c r="AI64" s="76"/>
-      <c r="AJ64" s="76"/>
-      <c r="AK64" s="101"/>
-      <c r="AL64" s="76"/>
-    </row>
-    <row r="65" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A65" s="110"/>
-      <c r="B65" s="112"/>
-      <c r="C65" s="109"/>
-      <c r="D65" s="109"/>
+      <c r="K64" s="84"/>
+      <c r="L64" s="74"/>
+      <c r="M64" s="74"/>
+      <c r="N64" s="74"/>
+      <c r="O64" s="74"/>
+      <c r="P64" s="74"/>
+      <c r="Q64" s="74"/>
+      <c r="R64" s="74"/>
+      <c r="S64" s="74"/>
+      <c r="T64" s="74"/>
+      <c r="U64" s="74"/>
+      <c r="V64" s="108"/>
+      <c r="W64" s="74"/>
+      <c r="X64" s="74"/>
+      <c r="Y64" s="74"/>
+      <c r="Z64" s="74"/>
+      <c r="AA64" s="74"/>
+      <c r="AB64" s="74"/>
+      <c r="AC64" s="105"/>
+      <c r="AD64" s="74"/>
+      <c r="AE64" s="74"/>
+      <c r="AF64" s="74"/>
+      <c r="AG64" s="74"/>
+      <c r="AH64" s="74"/>
+      <c r="AI64" s="74"/>
+      <c r="AJ64" s="102"/>
+      <c r="AK64" s="74"/>
+    </row>
+    <row r="65" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A65" s="94"/>
+      <c r="B65" s="115"/>
+      <c r="C65" s="95"/>
+      <c r="D65" s="95"/>
       <c r="E65" s="2" t="s">
         <v>108</v>
       </c>
@@ -9882,43 +9911,42 @@
       <c r="I65" s="31">
         <v>44133</v>
       </c>
-      <c r="J65" s="52"/>
-      <c r="K65" s="83">
+      <c r="J65" s="80">
         <v>1</v>
       </c>
-      <c r="L65" s="88"/>
-      <c r="M65" s="76"/>
-      <c r="N65" s="76"/>
-      <c r="O65" s="76"/>
-      <c r="P65" s="76"/>
-      <c r="Q65" s="76"/>
-      <c r="R65" s="76"/>
-      <c r="S65" s="76"/>
-      <c r="T65" s="76"/>
-      <c r="U65" s="76"/>
-      <c r="V65" s="76"/>
-      <c r="W65" s="107"/>
-      <c r="X65" s="76"/>
-      <c r="Y65" s="76"/>
-      <c r="Z65" s="76"/>
-      <c r="AA65" s="76"/>
-      <c r="AB65" s="76"/>
-      <c r="AC65" s="76"/>
-      <c r="AD65" s="104"/>
-      <c r="AE65" s="76"/>
-      <c r="AF65" s="76"/>
-      <c r="AG65" s="76"/>
-      <c r="AH65" s="76"/>
-      <c r="AI65" s="76"/>
-      <c r="AJ65" s="76"/>
-      <c r="AK65" s="101"/>
-      <c r="AL65" s="76"/>
-    </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A66" s="110"/>
-      <c r="B66" s="112"/>
-      <c r="C66" s="109"/>
-      <c r="D66" s="109" t="s">
+      <c r="K65" s="84"/>
+      <c r="L65" s="74"/>
+      <c r="M65" s="74"/>
+      <c r="N65" s="74"/>
+      <c r="O65" s="74"/>
+      <c r="P65" s="74"/>
+      <c r="Q65" s="74"/>
+      <c r="R65" s="74"/>
+      <c r="S65" s="74"/>
+      <c r="T65" s="74"/>
+      <c r="U65" s="74"/>
+      <c r="V65" s="108"/>
+      <c r="W65" s="74"/>
+      <c r="X65" s="74"/>
+      <c r="Y65" s="74"/>
+      <c r="Z65" s="74"/>
+      <c r="AA65" s="74"/>
+      <c r="AB65" s="74"/>
+      <c r="AC65" s="105"/>
+      <c r="AD65" s="74"/>
+      <c r="AE65" s="74"/>
+      <c r="AF65" s="74"/>
+      <c r="AG65" s="74"/>
+      <c r="AH65" s="74"/>
+      <c r="AI65" s="74"/>
+      <c r="AJ65" s="102"/>
+      <c r="AK65" s="74"/>
+    </row>
+    <row r="66" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A66" s="94"/>
+      <c r="B66" s="115"/>
+      <c r="C66" s="95"/>
+      <c r="D66" s="95" t="s">
         <v>97</v>
       </c>
       <c r="E66" s="2" t="s">
@@ -9927,46 +9955,51 @@
       <c r="F66" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="G66" s="19"/>
-      <c r="H66" s="31"/>
-      <c r="I66" s="31"/>
-      <c r="J66" s="52"/>
-      <c r="K66" s="83">
+      <c r="G66" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="H66" s="31">
+        <v>44133</v>
+      </c>
+      <c r="I66" s="31">
+        <v>44133</v>
+      </c>
+      <c r="J66" s="80">
         <v>1</v>
       </c>
-      <c r="L66" s="88"/>
-      <c r="M66" s="76"/>
-      <c r="N66" s="76"/>
-      <c r="O66" s="76"/>
-      <c r="P66" s="76"/>
-      <c r="Q66" s="76"/>
-      <c r="R66" s="76"/>
-      <c r="S66" s="76"/>
-      <c r="T66" s="76"/>
-      <c r="U66" s="76"/>
-      <c r="V66" s="76"/>
-      <c r="W66" s="107"/>
-      <c r="X66" s="76"/>
-      <c r="Y66" s="76"/>
-      <c r="Z66" s="76"/>
-      <c r="AA66" s="76"/>
-      <c r="AB66" s="76"/>
-      <c r="AC66" s="76"/>
-      <c r="AD66" s="104"/>
-      <c r="AE66" s="76"/>
-      <c r="AF66" s="76"/>
-      <c r="AG66" s="76"/>
-      <c r="AH66" s="76"/>
-      <c r="AI66" s="76"/>
-      <c r="AJ66" s="76"/>
-      <c r="AK66" s="101"/>
-      <c r="AL66" s="76"/>
-    </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A67" s="110"/>
-      <c r="B67" s="112"/>
-      <c r="C67" s="109"/>
-      <c r="D67" s="109"/>
+      <c r="K66" s="84"/>
+      <c r="L66" s="74"/>
+      <c r="M66" s="74"/>
+      <c r="N66" s="74"/>
+      <c r="O66" s="74"/>
+      <c r="P66" s="74"/>
+      <c r="Q66" s="74"/>
+      <c r="R66" s="74"/>
+      <c r="S66" s="74"/>
+      <c r="T66" s="74"/>
+      <c r="U66" s="74"/>
+      <c r="V66" s="108"/>
+      <c r="W66" s="74"/>
+      <c r="X66" s="74"/>
+      <c r="Y66" s="74"/>
+      <c r="Z66" s="74"/>
+      <c r="AA66" s="74"/>
+      <c r="AB66" s="74"/>
+      <c r="AC66" s="105"/>
+      <c r="AD66" s="74"/>
+      <c r="AE66" s="74"/>
+      <c r="AF66" s="74"/>
+      <c r="AG66" s="74"/>
+      <c r="AH66" s="74"/>
+      <c r="AI66" s="74"/>
+      <c r="AJ66" s="102"/>
+      <c r="AK66" s="74"/>
+    </row>
+    <row r="67" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A67" s="94"/>
+      <c r="B67" s="115"/>
+      <c r="C67" s="95"/>
+      <c r="D67" s="95"/>
       <c r="E67" s="2" t="s">
         <v>146</v>
       </c>
@@ -9982,45 +10015,44 @@
       <c r="I67" s="31">
         <v>44133</v>
       </c>
-      <c r="J67" s="52"/>
-      <c r="K67" s="83">
+      <c r="J67" s="80">
         <v>1</v>
       </c>
-      <c r="L67" s="88"/>
-      <c r="M67" s="76"/>
-      <c r="N67" s="76"/>
-      <c r="O67" s="76"/>
-      <c r="P67" s="76"/>
-      <c r="Q67" s="76"/>
-      <c r="R67" s="76"/>
-      <c r="S67" s="76"/>
-      <c r="T67" s="76"/>
-      <c r="U67" s="76"/>
-      <c r="V67" s="76"/>
-      <c r="W67" s="107"/>
-      <c r="X67" s="76"/>
-      <c r="Y67" s="76"/>
-      <c r="Z67" s="76"/>
-      <c r="AA67" s="76"/>
-      <c r="AB67" s="76"/>
-      <c r="AC67" s="76"/>
-      <c r="AD67" s="104"/>
-      <c r="AE67" s="76"/>
-      <c r="AF67" s="76"/>
-      <c r="AG67" s="76"/>
-      <c r="AH67" s="76"/>
-      <c r="AI67" s="76"/>
-      <c r="AJ67" s="76"/>
-      <c r="AK67" s="101"/>
-      <c r="AL67" s="76"/>
-    </row>
-    <row r="68" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="110"/>
-      <c r="B68" s="112"/>
-      <c r="C68" s="109" t="s">
+      <c r="K67" s="84"/>
+      <c r="L67" s="74"/>
+      <c r="M67" s="74"/>
+      <c r="N67" s="74"/>
+      <c r="O67" s="74"/>
+      <c r="P67" s="74"/>
+      <c r="Q67" s="74"/>
+      <c r="R67" s="74"/>
+      <c r="S67" s="74"/>
+      <c r="T67" s="74"/>
+      <c r="U67" s="74"/>
+      <c r="V67" s="108"/>
+      <c r="W67" s="74"/>
+      <c r="X67" s="74"/>
+      <c r="Y67" s="74"/>
+      <c r="Z67" s="74"/>
+      <c r="AA67" s="74"/>
+      <c r="AB67" s="74"/>
+      <c r="AC67" s="105"/>
+      <c r="AD67" s="74"/>
+      <c r="AE67" s="74"/>
+      <c r="AF67" s="74"/>
+      <c r="AG67" s="74"/>
+      <c r="AH67" s="74"/>
+      <c r="AI67" s="74"/>
+      <c r="AJ67" s="102"/>
+      <c r="AK67" s="74"/>
+    </row>
+    <row r="68" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="94"/>
+      <c r="B68" s="115"/>
+      <c r="C68" s="95" t="s">
         <v>44</v>
       </c>
-      <c r="D68" s="109" t="s">
+      <c r="D68" s="95" t="s">
         <v>93</v>
       </c>
       <c r="E68" s="2" t="s">
@@ -10038,43 +10070,42 @@
       <c r="I68" s="31">
         <v>44126</v>
       </c>
-      <c r="J68" s="52"/>
-      <c r="K68" s="83">
+      <c r="J68" s="80">
         <v>1</v>
       </c>
-      <c r="L68" s="88"/>
-      <c r="M68" s="76"/>
-      <c r="N68" s="76"/>
-      <c r="O68" s="76"/>
-      <c r="P68" s="76"/>
-      <c r="Q68" s="76"/>
-      <c r="R68" s="76"/>
-      <c r="S68" s="76"/>
-      <c r="T68" s="76"/>
-      <c r="U68" s="76"/>
-      <c r="V68" s="76"/>
-      <c r="W68" s="107"/>
-      <c r="X68" s="76"/>
-      <c r="Y68" s="76"/>
-      <c r="Z68" s="76"/>
-      <c r="AA68" s="76"/>
-      <c r="AB68" s="76"/>
-      <c r="AC68" s="76"/>
-      <c r="AD68" s="104"/>
-      <c r="AE68" s="76"/>
-      <c r="AF68" s="76"/>
-      <c r="AG68" s="76"/>
-      <c r="AH68" s="76"/>
-      <c r="AI68" s="76"/>
-      <c r="AJ68" s="76"/>
-      <c r="AK68" s="101"/>
-      <c r="AL68" s="76"/>
-    </row>
-    <row r="69" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="110"/>
-      <c r="B69" s="112"/>
-      <c r="C69" s="109"/>
-      <c r="D69" s="109"/>
+      <c r="K68" s="84"/>
+      <c r="L68" s="74"/>
+      <c r="M68" s="74"/>
+      <c r="N68" s="74"/>
+      <c r="O68" s="74"/>
+      <c r="P68" s="74"/>
+      <c r="Q68" s="74"/>
+      <c r="R68" s="74"/>
+      <c r="S68" s="74"/>
+      <c r="T68" s="74"/>
+      <c r="U68" s="74"/>
+      <c r="V68" s="108"/>
+      <c r="W68" s="74"/>
+      <c r="X68" s="74"/>
+      <c r="Y68" s="74"/>
+      <c r="Z68" s="74"/>
+      <c r="AA68" s="74"/>
+      <c r="AB68" s="74"/>
+      <c r="AC68" s="105"/>
+      <c r="AD68" s="74"/>
+      <c r="AE68" s="74"/>
+      <c r="AF68" s="74"/>
+      <c r="AG68" s="74"/>
+      <c r="AH68" s="74"/>
+      <c r="AI68" s="74"/>
+      <c r="AJ68" s="102"/>
+      <c r="AK68" s="74"/>
+    </row>
+    <row r="69" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="94"/>
+      <c r="B69" s="115"/>
+      <c r="C69" s="95"/>
+      <c r="D69" s="95"/>
       <c r="E69" s="2" t="s">
         <v>130</v>
       </c>
@@ -10090,42 +10121,41 @@
       <c r="I69" s="31">
         <v>44126</v>
       </c>
-      <c r="J69" s="52"/>
-      <c r="K69" s="83">
+      <c r="J69" s="80">
         <v>1</v>
       </c>
-      <c r="L69" s="88"/>
-      <c r="M69" s="76"/>
-      <c r="N69" s="76"/>
-      <c r="O69" s="76"/>
-      <c r="P69" s="76"/>
-      <c r="Q69" s="76"/>
-      <c r="R69" s="76"/>
-      <c r="S69" s="76"/>
-      <c r="T69" s="76"/>
-      <c r="U69" s="76"/>
-      <c r="V69" s="76"/>
-      <c r="W69" s="107"/>
-      <c r="X69" s="76"/>
-      <c r="Y69" s="76"/>
-      <c r="Z69" s="76"/>
-      <c r="AA69" s="76"/>
-      <c r="AB69" s="76"/>
-      <c r="AC69" s="76"/>
-      <c r="AD69" s="104"/>
-      <c r="AE69" s="76"/>
-      <c r="AF69" s="76"/>
-      <c r="AG69" s="76"/>
-      <c r="AH69" s="76"/>
-      <c r="AI69" s="76"/>
-      <c r="AJ69" s="76"/>
-      <c r="AK69" s="101"/>
-      <c r="AL69" s="76"/>
-    </row>
-    <row r="70" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="110"/>
-      <c r="B70" s="112"/>
-      <c r="C70" s="109"/>
+      <c r="K69" s="84"/>
+      <c r="L69" s="74"/>
+      <c r="M69" s="74"/>
+      <c r="N69" s="74"/>
+      <c r="O69" s="74"/>
+      <c r="P69" s="74"/>
+      <c r="Q69" s="74"/>
+      <c r="R69" s="74"/>
+      <c r="S69" s="74"/>
+      <c r="T69" s="74"/>
+      <c r="U69" s="74"/>
+      <c r="V69" s="108"/>
+      <c r="W69" s="74"/>
+      <c r="X69" s="74"/>
+      <c r="Y69" s="74"/>
+      <c r="Z69" s="74"/>
+      <c r="AA69" s="74"/>
+      <c r="AB69" s="74"/>
+      <c r="AC69" s="105"/>
+      <c r="AD69" s="74"/>
+      <c r="AE69" s="74"/>
+      <c r="AF69" s="74"/>
+      <c r="AG69" s="74"/>
+      <c r="AH69" s="74"/>
+      <c r="AI69" s="74"/>
+      <c r="AJ69" s="102"/>
+      <c r="AK69" s="74"/>
+    </row>
+    <row r="70" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="94"/>
+      <c r="B70" s="115"/>
+      <c r="C70" s="95"/>
       <c r="D70" s="97" t="s">
         <v>98</v>
       </c>
@@ -10144,42 +10174,41 @@
       <c r="I70" s="31">
         <v>44133</v>
       </c>
-      <c r="J70" s="52"/>
-      <c r="K70" s="83">
+      <c r="J70" s="80">
         <v>1</v>
       </c>
-      <c r="L70" s="88"/>
-      <c r="M70" s="76"/>
-      <c r="N70" s="76"/>
-      <c r="O70" s="76"/>
-      <c r="P70" s="76"/>
-      <c r="Q70" s="76"/>
-      <c r="R70" s="76"/>
-      <c r="S70" s="76"/>
-      <c r="T70" s="76"/>
-      <c r="U70" s="76"/>
-      <c r="V70" s="76"/>
-      <c r="W70" s="107"/>
-      <c r="X70" s="76"/>
-      <c r="Y70" s="76"/>
-      <c r="Z70" s="76"/>
-      <c r="AA70" s="76"/>
-      <c r="AB70" s="76"/>
-      <c r="AC70" s="76"/>
-      <c r="AD70" s="104"/>
-      <c r="AE70" s="76"/>
-      <c r="AF70" s="76"/>
-      <c r="AG70" s="76"/>
-      <c r="AH70" s="76"/>
-      <c r="AI70" s="76"/>
-      <c r="AJ70" s="76"/>
-      <c r="AK70" s="101"/>
-      <c r="AL70" s="76"/>
-    </row>
-    <row r="71" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="110"/>
-      <c r="B71" s="112"/>
-      <c r="C71" s="109"/>
+      <c r="K70" s="84"/>
+      <c r="L70" s="74"/>
+      <c r="M70" s="74"/>
+      <c r="N70" s="74"/>
+      <c r="O70" s="74"/>
+      <c r="P70" s="74"/>
+      <c r="Q70" s="74"/>
+      <c r="R70" s="74"/>
+      <c r="S70" s="74"/>
+      <c r="T70" s="74"/>
+      <c r="U70" s="74"/>
+      <c r="V70" s="108"/>
+      <c r="W70" s="74"/>
+      <c r="X70" s="74"/>
+      <c r="Y70" s="74"/>
+      <c r="Z70" s="74"/>
+      <c r="AA70" s="74"/>
+      <c r="AB70" s="74"/>
+      <c r="AC70" s="105"/>
+      <c r="AD70" s="74"/>
+      <c r="AE70" s="74"/>
+      <c r="AF70" s="74"/>
+      <c r="AG70" s="74"/>
+      <c r="AH70" s="74"/>
+      <c r="AI70" s="74"/>
+      <c r="AJ70" s="102"/>
+      <c r="AK70" s="74"/>
+    </row>
+    <row r="71" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="94"/>
+      <c r="B71" s="115"/>
+      <c r="C71" s="95"/>
       <c r="D71" s="99"/>
       <c r="E71" s="2" t="s">
         <v>130</v>
@@ -10190,44 +10219,49 @@
       <c r="G71" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="H71" s="31"/>
-      <c r="I71" s="31"/>
-      <c r="J71" s="52"/>
-      <c r="K71" s="83">
+      <c r="H71" s="31">
+        <v>44133</v>
+      </c>
+      <c r="I71" s="31">
+        <v>44133</v>
+      </c>
+      <c r="J71" s="80">
         <v>1</v>
       </c>
-      <c r="L71" s="88"/>
-      <c r="M71" s="76"/>
-      <c r="N71" s="76"/>
-      <c r="O71" s="76"/>
-      <c r="P71" s="76"/>
-      <c r="Q71" s="76"/>
-      <c r="R71" s="76"/>
-      <c r="S71" s="76"/>
-      <c r="T71" s="76"/>
-      <c r="U71" s="76"/>
-      <c r="V71" s="76"/>
-      <c r="W71" s="107"/>
-      <c r="X71" s="76"/>
-      <c r="Y71" s="76"/>
-      <c r="Z71" s="76"/>
-      <c r="AA71" s="76"/>
-      <c r="AB71" s="76"/>
-      <c r="AC71" s="76"/>
-      <c r="AD71" s="104"/>
-      <c r="AE71" s="76"/>
-      <c r="AF71" s="76"/>
-      <c r="AG71" s="76"/>
-      <c r="AH71" s="76"/>
-      <c r="AI71" s="76"/>
-      <c r="AJ71" s="76"/>
-      <c r="AK71" s="101"/>
-      <c r="AL71" s="76"/>
-    </row>
-    <row r="72" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A72" s="110"/>
-      <c r="B72" s="112"/>
-      <c r="C72" s="98"/>
+      <c r="K71" s="84"/>
+      <c r="L71" s="74"/>
+      <c r="M71" s="74"/>
+      <c r="N71" s="74"/>
+      <c r="O71" s="74"/>
+      <c r="P71" s="74"/>
+      <c r="Q71" s="74"/>
+      <c r="R71" s="74"/>
+      <c r="S71" s="74"/>
+      <c r="T71" s="74"/>
+      <c r="U71" s="74"/>
+      <c r="V71" s="108"/>
+      <c r="W71" s="74"/>
+      <c r="X71" s="74"/>
+      <c r="Y71" s="74"/>
+      <c r="Z71" s="74"/>
+      <c r="AA71" s="74"/>
+      <c r="AB71" s="74"/>
+      <c r="AC71" s="105"/>
+      <c r="AD71" s="74"/>
+      <c r="AE71" s="74"/>
+      <c r="AF71" s="74"/>
+      <c r="AG71" s="74"/>
+      <c r="AH71" s="74"/>
+      <c r="AI71" s="74"/>
+      <c r="AJ71" s="102"/>
+      <c r="AK71" s="74"/>
+    </row>
+    <row r="72" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A72" s="94"/>
+      <c r="B72" s="115"/>
+      <c r="C72" s="98" t="s">
+        <v>282</v>
+      </c>
       <c r="D72" s="2" t="s">
         <v>190</v>
       </c>
@@ -10246,41 +10280,40 @@
       <c r="I72" s="31">
         <v>44132</v>
       </c>
-      <c r="J72" s="52"/>
-      <c r="K72" s="83">
+      <c r="J72" s="80">
         <v>1</v>
       </c>
-      <c r="L72" s="88"/>
-      <c r="M72" s="76"/>
-      <c r="N72" s="76"/>
-      <c r="O72" s="76"/>
-      <c r="P72" s="76"/>
-      <c r="Q72" s="76"/>
-      <c r="R72" s="76"/>
-      <c r="S72" s="76"/>
-      <c r="T72" s="76"/>
-      <c r="U72" s="76"/>
-      <c r="V72" s="76"/>
-      <c r="W72" s="107"/>
-      <c r="X72" s="76"/>
-      <c r="Y72" s="76"/>
-      <c r="Z72" s="76"/>
-      <c r="AA72" s="76"/>
-      <c r="AB72" s="76"/>
-      <c r="AC72" s="76"/>
-      <c r="AD72" s="104"/>
-      <c r="AE72" s="76"/>
-      <c r="AF72" s="76"/>
-      <c r="AG72" s="76"/>
-      <c r="AH72" s="76"/>
-      <c r="AI72" s="76"/>
-      <c r="AJ72" s="76"/>
-      <c r="AK72" s="101"/>
-      <c r="AL72" s="76"/>
-    </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A73" s="110"/>
-      <c r="B73" s="112"/>
+      <c r="K72" s="84"/>
+      <c r="L72" s="74"/>
+      <c r="M72" s="74"/>
+      <c r="N72" s="74"/>
+      <c r="O72" s="74"/>
+      <c r="P72" s="74"/>
+      <c r="Q72" s="74"/>
+      <c r="R72" s="74"/>
+      <c r="S72" s="74"/>
+      <c r="T72" s="74"/>
+      <c r="U72" s="74"/>
+      <c r="V72" s="108"/>
+      <c r="W72" s="74"/>
+      <c r="X72" s="74"/>
+      <c r="Y72" s="74"/>
+      <c r="Z72" s="74"/>
+      <c r="AA72" s="74"/>
+      <c r="AB72" s="74"/>
+      <c r="AC72" s="105"/>
+      <c r="AD72" s="74"/>
+      <c r="AE72" s="74"/>
+      <c r="AF72" s="74"/>
+      <c r="AG72" s="74"/>
+      <c r="AH72" s="74"/>
+      <c r="AI72" s="74"/>
+      <c r="AJ72" s="102"/>
+      <c r="AK72" s="74"/>
+    </row>
+    <row r="73" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A73" s="94"/>
+      <c r="B73" s="115"/>
       <c r="C73" s="98"/>
       <c r="D73" s="2" t="s">
         <v>191</v>
@@ -10300,41 +10333,40 @@
       <c r="I73" s="31">
         <v>44132</v>
       </c>
-      <c r="J73" s="52"/>
-      <c r="K73" s="83">
+      <c r="J73" s="80">
         <v>1</v>
       </c>
-      <c r="L73" s="88"/>
-      <c r="M73" s="76"/>
-      <c r="N73" s="76"/>
-      <c r="O73" s="76"/>
-      <c r="P73" s="76"/>
-      <c r="Q73" s="76"/>
-      <c r="R73" s="76"/>
-      <c r="S73" s="76"/>
-      <c r="T73" s="76"/>
-      <c r="U73" s="76"/>
-      <c r="V73" s="76"/>
-      <c r="W73" s="107"/>
-      <c r="X73" s="76"/>
-      <c r="Y73" s="76"/>
-      <c r="Z73" s="76"/>
-      <c r="AA73" s="76"/>
-      <c r="AB73" s="76"/>
-      <c r="AC73" s="76"/>
-      <c r="AD73" s="104"/>
-      <c r="AE73" s="76"/>
-      <c r="AF73" s="76"/>
-      <c r="AG73" s="76"/>
-      <c r="AH73" s="76"/>
-      <c r="AI73" s="76"/>
-      <c r="AJ73" s="76"/>
-      <c r="AK73" s="101"/>
-      <c r="AL73" s="76"/>
-    </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A74" s="110"/>
-      <c r="B74" s="112"/>
+      <c r="K73" s="84"/>
+      <c r="L73" s="74"/>
+      <c r="M73" s="74"/>
+      <c r="N73" s="74"/>
+      <c r="O73" s="74"/>
+      <c r="P73" s="74"/>
+      <c r="Q73" s="74"/>
+      <c r="R73" s="74"/>
+      <c r="S73" s="74"/>
+      <c r="T73" s="74"/>
+      <c r="U73" s="74"/>
+      <c r="V73" s="108"/>
+      <c r="W73" s="74"/>
+      <c r="X73" s="74"/>
+      <c r="Y73" s="74"/>
+      <c r="Z73" s="74"/>
+      <c r="AA73" s="74"/>
+      <c r="AB73" s="74"/>
+      <c r="AC73" s="105"/>
+      <c r="AD73" s="74"/>
+      <c r="AE73" s="74"/>
+      <c r="AF73" s="74"/>
+      <c r="AG73" s="74"/>
+      <c r="AH73" s="74"/>
+      <c r="AI73" s="74"/>
+      <c r="AJ73" s="102"/>
+      <c r="AK73" s="74"/>
+    </row>
+    <row r="74" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A74" s="94"/>
+      <c r="B74" s="115"/>
       <c r="C74" s="99"/>
       <c r="D74" s="2" t="s">
         <v>161</v>
@@ -10354,42 +10386,41 @@
       <c r="I74" s="31">
         <v>44130</v>
       </c>
-      <c r="J74" s="52"/>
-      <c r="K74" s="83">
+      <c r="J74" s="80">
         <v>1</v>
       </c>
-      <c r="L74" s="88"/>
-      <c r="M74" s="76"/>
-      <c r="N74" s="76"/>
-      <c r="O74" s="76"/>
-      <c r="P74" s="76"/>
-      <c r="Q74" s="76"/>
-      <c r="R74" s="76"/>
-      <c r="S74" s="76"/>
-      <c r="T74" s="76"/>
-      <c r="U74" s="76"/>
-      <c r="V74" s="76"/>
-      <c r="W74" s="107"/>
-      <c r="X74" s="76"/>
-      <c r="Y74" s="76"/>
-      <c r="Z74" s="76"/>
-      <c r="AA74" s="76"/>
-      <c r="AB74" s="76"/>
-      <c r="AC74" s="76"/>
-      <c r="AD74" s="104"/>
-      <c r="AE74" s="76"/>
-      <c r="AF74" s="76"/>
-      <c r="AG74" s="76"/>
-      <c r="AH74" s="76"/>
-      <c r="AI74" s="76"/>
-      <c r="AJ74" s="76"/>
-      <c r="AK74" s="101"/>
-      <c r="AL74" s="76"/>
-    </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A75" s="110"/>
-      <c r="B75" s="112"/>
-      <c r="C75" s="109" t="s">
+      <c r="K74" s="84"/>
+      <c r="L74" s="74"/>
+      <c r="M74" s="74"/>
+      <c r="N74" s="74"/>
+      <c r="O74" s="74"/>
+      <c r="P74" s="74"/>
+      <c r="Q74" s="74"/>
+      <c r="R74" s="74"/>
+      <c r="S74" s="74"/>
+      <c r="T74" s="74"/>
+      <c r="U74" s="74"/>
+      <c r="V74" s="108"/>
+      <c r="W74" s="74"/>
+      <c r="X74" s="74"/>
+      <c r="Y74" s="74"/>
+      <c r="Z74" s="74"/>
+      <c r="AA74" s="74"/>
+      <c r="AB74" s="74"/>
+      <c r="AC74" s="105"/>
+      <c r="AD74" s="74"/>
+      <c r="AE74" s="74"/>
+      <c r="AF74" s="74"/>
+      <c r="AG74" s="74"/>
+      <c r="AH74" s="74"/>
+      <c r="AI74" s="74"/>
+      <c r="AJ74" s="102"/>
+      <c r="AK74" s="74"/>
+    </row>
+    <row r="75" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A75" s="94"/>
+      <c r="B75" s="115"/>
+      <c r="C75" s="95" t="s">
         <v>13</v>
       </c>
       <c r="D75" s="2" t="s">
@@ -10408,42 +10439,41 @@
       <c r="I75" s="31">
         <v>44124</v>
       </c>
-      <c r="J75" s="52"/>
-      <c r="K75" s="83">
+      <c r="J75" s="80">
         <v>1</v>
       </c>
-      <c r="L75" s="88"/>
-      <c r="M75" s="76"/>
-      <c r="N75" s="76"/>
-      <c r="O75" s="76"/>
-      <c r="P75" s="76"/>
-      <c r="Q75" s="76"/>
-      <c r="R75" s="76"/>
-      <c r="S75" s="76"/>
-      <c r="T75" s="76"/>
-      <c r="U75" s="76"/>
-      <c r="V75" s="76"/>
-      <c r="W75" s="107"/>
-      <c r="X75" s="76"/>
-      <c r="Y75" s="76"/>
-      <c r="Z75" s="76"/>
-      <c r="AA75" s="76"/>
-      <c r="AB75" s="76"/>
-      <c r="AC75" s="76"/>
-      <c r="AD75" s="104"/>
-      <c r="AE75" s="76"/>
-      <c r="AF75" s="76"/>
-      <c r="AG75" s="76"/>
-      <c r="AH75" s="76"/>
-      <c r="AI75" s="76"/>
-      <c r="AJ75" s="76"/>
-      <c r="AK75" s="101"/>
-      <c r="AL75" s="76"/>
-    </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A76" s="110"/>
-      <c r="B76" s="112"/>
-      <c r="C76" s="109"/>
+      <c r="K75" s="84"/>
+      <c r="L75" s="74"/>
+      <c r="M75" s="74"/>
+      <c r="N75" s="74"/>
+      <c r="O75" s="74"/>
+      <c r="P75" s="74"/>
+      <c r="Q75" s="74"/>
+      <c r="R75" s="74"/>
+      <c r="S75" s="74"/>
+      <c r="T75" s="74"/>
+      <c r="U75" s="74"/>
+      <c r="V75" s="108"/>
+      <c r="W75" s="74"/>
+      <c r="X75" s="74"/>
+      <c r="Y75" s="74"/>
+      <c r="Z75" s="74"/>
+      <c r="AA75" s="74"/>
+      <c r="AB75" s="74"/>
+      <c r="AC75" s="105"/>
+      <c r="AD75" s="74"/>
+      <c r="AE75" s="74"/>
+      <c r="AF75" s="74"/>
+      <c r="AG75" s="74"/>
+      <c r="AH75" s="74"/>
+      <c r="AI75" s="74"/>
+      <c r="AJ75" s="102"/>
+      <c r="AK75" s="74"/>
+    </row>
+    <row r="76" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A76" s="94"/>
+      <c r="B76" s="115"/>
+      <c r="C76" s="95"/>
       <c r="D76" s="2" t="s">
         <v>126</v>
       </c>
@@ -10460,41 +10490,40 @@
       <c r="I76" s="31">
         <v>44124</v>
       </c>
-      <c r="J76" s="52"/>
-      <c r="K76" s="83">
+      <c r="J76" s="80">
         <v>1</v>
       </c>
-      <c r="L76" s="88"/>
-      <c r="M76" s="76"/>
-      <c r="N76" s="76"/>
-      <c r="O76" s="76"/>
-      <c r="P76" s="76"/>
-      <c r="Q76" s="76"/>
-      <c r="R76" s="76"/>
-      <c r="S76" s="76"/>
-      <c r="T76" s="76"/>
-      <c r="U76" s="76"/>
-      <c r="V76" s="76"/>
-      <c r="W76" s="107"/>
-      <c r="X76" s="76"/>
-      <c r="Y76" s="76"/>
-      <c r="Z76" s="76"/>
-      <c r="AA76" s="76"/>
-      <c r="AB76" s="76"/>
-      <c r="AC76" s="76"/>
-      <c r="AD76" s="104"/>
-      <c r="AE76" s="76"/>
-      <c r="AF76" s="76"/>
-      <c r="AG76" s="76"/>
-      <c r="AH76" s="76"/>
-      <c r="AI76" s="76"/>
-      <c r="AJ76" s="76"/>
-      <c r="AK76" s="101"/>
-      <c r="AL76" s="76"/>
-    </row>
-    <row r="77" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="110"/>
-      <c r="B77" s="112"/>
+      <c r="K76" s="84"/>
+      <c r="L76" s="74"/>
+      <c r="M76" s="74"/>
+      <c r="N76" s="74"/>
+      <c r="O76" s="74"/>
+      <c r="P76" s="74"/>
+      <c r="Q76" s="74"/>
+      <c r="R76" s="74"/>
+      <c r="S76" s="74"/>
+      <c r="T76" s="74"/>
+      <c r="U76" s="74"/>
+      <c r="V76" s="108"/>
+      <c r="W76" s="74"/>
+      <c r="X76" s="74"/>
+      <c r="Y76" s="74"/>
+      <c r="Z76" s="74"/>
+      <c r="AA76" s="74"/>
+      <c r="AB76" s="74"/>
+      <c r="AC76" s="105"/>
+      <c r="AD76" s="74"/>
+      <c r="AE76" s="74"/>
+      <c r="AF76" s="74"/>
+      <c r="AG76" s="74"/>
+      <c r="AH76" s="74"/>
+      <c r="AI76" s="74"/>
+      <c r="AJ76" s="102"/>
+      <c r="AK76" s="74"/>
+    </row>
+    <row r="77" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A77" s="94"/>
+      <c r="B77" s="115"/>
       <c r="C77" s="97" t="s">
         <v>99</v>
       </c>
@@ -10514,41 +10543,40 @@
       <c r="I77" s="31">
         <v>44126</v>
       </c>
-      <c r="J77" s="52"/>
-      <c r="K77" s="83">
+      <c r="J77" s="80">
         <v>1</v>
       </c>
-      <c r="L77" s="88"/>
-      <c r="M77" s="76"/>
-      <c r="N77" s="76"/>
-      <c r="O77" s="76"/>
-      <c r="P77" s="76"/>
-      <c r="Q77" s="76"/>
-      <c r="R77" s="76"/>
-      <c r="S77" s="76"/>
-      <c r="T77" s="76"/>
-      <c r="U77" s="76"/>
-      <c r="V77" s="76"/>
-      <c r="W77" s="107"/>
-      <c r="X77" s="76"/>
-      <c r="Y77" s="76"/>
-      <c r="Z77" s="76"/>
-      <c r="AA77" s="76"/>
-      <c r="AB77" s="76"/>
-      <c r="AC77" s="76"/>
-      <c r="AD77" s="104"/>
-      <c r="AE77" s="76"/>
-      <c r="AF77" s="76"/>
-      <c r="AG77" s="76"/>
-      <c r="AH77" s="76"/>
-      <c r="AI77" s="76"/>
-      <c r="AJ77" s="76"/>
-      <c r="AK77" s="101"/>
-      <c r="AL77" s="76"/>
-    </row>
-    <row r="78" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A78" s="110"/>
-      <c r="B78" s="112"/>
+      <c r="K77" s="84"/>
+      <c r="L77" s="74"/>
+      <c r="M77" s="74"/>
+      <c r="N77" s="74"/>
+      <c r="O77" s="74"/>
+      <c r="P77" s="74"/>
+      <c r="Q77" s="74"/>
+      <c r="R77" s="74"/>
+      <c r="S77" s="74"/>
+      <c r="T77" s="74"/>
+      <c r="U77" s="74"/>
+      <c r="V77" s="108"/>
+      <c r="W77" s="74"/>
+      <c r="X77" s="74"/>
+      <c r="Y77" s="74"/>
+      <c r="Z77" s="74"/>
+      <c r="AA77" s="74"/>
+      <c r="AB77" s="74"/>
+      <c r="AC77" s="105"/>
+      <c r="AD77" s="74"/>
+      <c r="AE77" s="74"/>
+      <c r="AF77" s="74"/>
+      <c r="AG77" s="74"/>
+      <c r="AH77" s="74"/>
+      <c r="AI77" s="74"/>
+      <c r="AJ77" s="102"/>
+      <c r="AK77" s="74"/>
+    </row>
+    <row r="78" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A78" s="94"/>
+      <c r="B78" s="115"/>
       <c r="C78" s="98"/>
       <c r="D78" s="2" t="s">
         <v>156</v>
@@ -10566,41 +10594,40 @@
       <c r="I78" s="31">
         <v>44126</v>
       </c>
-      <c r="J78" s="52"/>
-      <c r="K78" s="83">
+      <c r="J78" s="80">
         <v>1</v>
       </c>
-      <c r="L78" s="88"/>
-      <c r="M78" s="76"/>
-      <c r="N78" s="76"/>
-      <c r="O78" s="76"/>
-      <c r="P78" s="76"/>
-      <c r="Q78" s="76"/>
-      <c r="R78" s="76"/>
-      <c r="S78" s="76"/>
-      <c r="T78" s="76"/>
-      <c r="U78" s="76"/>
-      <c r="V78" s="76"/>
-      <c r="W78" s="107"/>
-      <c r="X78" s="76"/>
-      <c r="Y78" s="76"/>
-      <c r="Z78" s="76"/>
-      <c r="AA78" s="76"/>
-      <c r="AB78" s="76"/>
-      <c r="AC78" s="76"/>
-      <c r="AD78" s="104"/>
-      <c r="AE78" s="76"/>
-      <c r="AF78" s="76"/>
-      <c r="AG78" s="76"/>
-      <c r="AH78" s="76"/>
-      <c r="AI78" s="76"/>
-      <c r="AJ78" s="76"/>
-      <c r="AK78" s="101"/>
-      <c r="AL78" s="76"/>
-    </row>
-    <row r="79" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="110"/>
-      <c r="B79" s="112"/>
+      <c r="K78" s="84"/>
+      <c r="L78" s="74"/>
+      <c r="M78" s="74"/>
+      <c r="N78" s="74"/>
+      <c r="O78" s="74"/>
+      <c r="P78" s="74"/>
+      <c r="Q78" s="74"/>
+      <c r="R78" s="74"/>
+      <c r="S78" s="74"/>
+      <c r="T78" s="74"/>
+      <c r="U78" s="74"/>
+      <c r="V78" s="108"/>
+      <c r="W78" s="74"/>
+      <c r="X78" s="74"/>
+      <c r="Y78" s="74"/>
+      <c r="Z78" s="74"/>
+      <c r="AA78" s="74"/>
+      <c r="AB78" s="74"/>
+      <c r="AC78" s="105"/>
+      <c r="AD78" s="74"/>
+      <c r="AE78" s="74"/>
+      <c r="AF78" s="74"/>
+      <c r="AG78" s="74"/>
+      <c r="AH78" s="74"/>
+      <c r="AI78" s="74"/>
+      <c r="AJ78" s="102"/>
+      <c r="AK78" s="74"/>
+    </row>
+    <row r="79" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A79" s="94"/>
+      <c r="B79" s="115"/>
       <c r="C79" s="98"/>
       <c r="D79" s="2" t="s">
         <v>187</v>
@@ -10618,41 +10645,40 @@
       <c r="I79" s="31">
         <v>44137</v>
       </c>
-      <c r="J79" s="52"/>
-      <c r="K79" s="83">
+      <c r="J79" s="80">
         <v>1</v>
       </c>
-      <c r="L79" s="88"/>
-      <c r="M79" s="76"/>
-      <c r="N79" s="76"/>
-      <c r="O79" s="76"/>
-      <c r="P79" s="76"/>
-      <c r="Q79" s="76"/>
-      <c r="R79" s="76"/>
-      <c r="S79" s="76"/>
-      <c r="T79" s="76"/>
-      <c r="U79" s="76"/>
-      <c r="V79" s="76"/>
-      <c r="W79" s="107"/>
-      <c r="X79" s="76"/>
-      <c r="Y79" s="76"/>
-      <c r="Z79" s="76"/>
-      <c r="AA79" s="76"/>
-      <c r="AB79" s="76"/>
-      <c r="AC79" s="76"/>
-      <c r="AD79" s="104"/>
-      <c r="AE79" s="76"/>
-      <c r="AF79" s="76"/>
-      <c r="AG79" s="76"/>
-      <c r="AH79" s="76"/>
-      <c r="AI79" s="76"/>
-      <c r="AJ79" s="76"/>
-      <c r="AK79" s="101"/>
-      <c r="AL79" s="76"/>
-    </row>
-    <row r="80" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A80" s="110"/>
-      <c r="B80" s="112"/>
+      <c r="K79" s="84"/>
+      <c r="L79" s="74"/>
+      <c r="M79" s="74"/>
+      <c r="N79" s="74"/>
+      <c r="O79" s="74"/>
+      <c r="P79" s="74"/>
+      <c r="Q79" s="74"/>
+      <c r="R79" s="74"/>
+      <c r="S79" s="74"/>
+      <c r="T79" s="74"/>
+      <c r="U79" s="74"/>
+      <c r="V79" s="108"/>
+      <c r="W79" s="74"/>
+      <c r="X79" s="74"/>
+      <c r="Y79" s="74"/>
+      <c r="Z79" s="74"/>
+      <c r="AA79" s="74"/>
+      <c r="AB79" s="74"/>
+      <c r="AC79" s="105"/>
+      <c r="AD79" s="74"/>
+      <c r="AE79" s="74"/>
+      <c r="AF79" s="74"/>
+      <c r="AG79" s="74"/>
+      <c r="AH79" s="74"/>
+      <c r="AI79" s="74"/>
+      <c r="AJ79" s="102"/>
+      <c r="AK79" s="74"/>
+    </row>
+    <row r="80" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A80" s="94"/>
+      <c r="B80" s="115"/>
       <c r="C80" s="99"/>
       <c r="D80" s="2" t="s">
         <v>157</v>
@@ -10670,42 +10696,41 @@
       <c r="I80" s="31">
         <v>44126</v>
       </c>
-      <c r="J80" s="52"/>
-      <c r="K80" s="83">
+      <c r="J80" s="80">
         <v>1</v>
       </c>
-      <c r="L80" s="88"/>
-      <c r="M80" s="76"/>
-      <c r="N80" s="76"/>
-      <c r="O80" s="76"/>
-      <c r="P80" s="76"/>
-      <c r="Q80" s="76"/>
-      <c r="R80" s="76"/>
-      <c r="S80" s="76"/>
-      <c r="T80" s="76"/>
-      <c r="U80" s="76"/>
-      <c r="V80" s="76"/>
-      <c r="W80" s="107"/>
-      <c r="X80" s="76"/>
-      <c r="Y80" s="76"/>
-      <c r="Z80" s="76"/>
-      <c r="AA80" s="76"/>
-      <c r="AB80" s="76"/>
-      <c r="AC80" s="76"/>
-      <c r="AD80" s="104"/>
-      <c r="AE80" s="76"/>
-      <c r="AF80" s="76"/>
-      <c r="AG80" s="76"/>
-      <c r="AH80" s="76"/>
-      <c r="AI80" s="76"/>
-      <c r="AJ80" s="76"/>
-      <c r="AK80" s="101"/>
-      <c r="AL80" s="76"/>
-    </row>
-    <row r="81" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A81" s="110"/>
-      <c r="B81" s="112"/>
-      <c r="C81" s="109" t="s">
+      <c r="K80" s="84"/>
+      <c r="L80" s="74"/>
+      <c r="M80" s="74"/>
+      <c r="N80" s="74"/>
+      <c r="O80" s="74"/>
+      <c r="P80" s="74"/>
+      <c r="Q80" s="74"/>
+      <c r="R80" s="74"/>
+      <c r="S80" s="74"/>
+      <c r="T80" s="74"/>
+      <c r="U80" s="74"/>
+      <c r="V80" s="108"/>
+      <c r="W80" s="74"/>
+      <c r="X80" s="74"/>
+      <c r="Y80" s="74"/>
+      <c r="Z80" s="74"/>
+      <c r="AA80" s="74"/>
+      <c r="AB80" s="74"/>
+      <c r="AC80" s="105"/>
+      <c r="AD80" s="74"/>
+      <c r="AE80" s="74"/>
+      <c r="AF80" s="74"/>
+      <c r="AG80" s="74"/>
+      <c r="AH80" s="74"/>
+      <c r="AI80" s="74"/>
+      <c r="AJ80" s="102"/>
+      <c r="AK80" s="74"/>
+    </row>
+    <row r="81" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A81" s="94"/>
+      <c r="B81" s="115"/>
+      <c r="C81" s="95" t="s">
         <v>30</v>
       </c>
       <c r="D81" s="2" t="s">
@@ -10722,86 +10747,86 @@
         <v>44131</v>
       </c>
       <c r="I81" s="31"/>
-      <c r="J81" s="52"/>
-      <c r="K81" s="83">
+      <c r="J81" s="80">
         <v>1</v>
       </c>
-      <c r="L81" s="88"/>
-      <c r="M81" s="76"/>
-      <c r="N81" s="76"/>
-      <c r="O81" s="76"/>
-      <c r="P81" s="76"/>
-      <c r="Q81" s="76"/>
-      <c r="R81" s="76"/>
-      <c r="S81" s="76"/>
-      <c r="T81" s="76"/>
-      <c r="U81" s="76"/>
-      <c r="V81" s="76"/>
-      <c r="W81" s="107"/>
-      <c r="X81" s="76"/>
-      <c r="Y81" s="76"/>
-      <c r="Z81" s="76"/>
-      <c r="AA81" s="76"/>
-      <c r="AB81" s="76"/>
-      <c r="AC81" s="76"/>
-      <c r="AD81" s="104"/>
-      <c r="AE81" s="76"/>
-      <c r="AF81" s="76"/>
-      <c r="AG81" s="76"/>
-      <c r="AH81" s="76"/>
-      <c r="AI81" s="76"/>
-      <c r="AJ81" s="76"/>
-      <c r="AK81" s="101"/>
-      <c r="AL81" s="76"/>
-    </row>
-    <row r="82" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A82" s="110"/>
-      <c r="B82" s="112"/>
-      <c r="C82" s="109"/>
+      <c r="K81" s="84"/>
+      <c r="L81" s="74"/>
+      <c r="M81" s="74"/>
+      <c r="N81" s="74"/>
+      <c r="O81" s="74"/>
+      <c r="P81" s="74"/>
+      <c r="Q81" s="74"/>
+      <c r="R81" s="74"/>
+      <c r="S81" s="74"/>
+      <c r="T81" s="74"/>
+      <c r="U81" s="74"/>
+      <c r="V81" s="108"/>
+      <c r="W81" s="74"/>
+      <c r="X81" s="74"/>
+      <c r="Y81" s="74"/>
+      <c r="Z81" s="74"/>
+      <c r="AA81" s="74"/>
+      <c r="AB81" s="74"/>
+      <c r="AC81" s="105"/>
+      <c r="AD81" s="74"/>
+      <c r="AE81" s="74"/>
+      <c r="AF81" s="74"/>
+      <c r="AG81" s="74"/>
+      <c r="AH81" s="74"/>
+      <c r="AI81" s="74"/>
+      <c r="AJ81" s="102"/>
+      <c r="AK81" s="74"/>
+    </row>
+    <row r="82" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A82" s="94"/>
+      <c r="B82" s="115"/>
+      <c r="C82" s="95"/>
       <c r="D82" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E82" s="2"/>
-      <c r="F82" s="19"/>
+      <c r="F82" s="19" t="s">
+        <v>40</v>
+      </c>
       <c r="G82" s="19"/>
       <c r="H82" s="31"/>
       <c r="I82" s="31"/>
-      <c r="J82" s="52"/>
-      <c r="K82" s="83">
+      <c r="J82" s="80">
         <v>0</v>
       </c>
-      <c r="L82" s="88"/>
-      <c r="M82" s="76"/>
-      <c r="N82" s="76"/>
-      <c r="O82" s="76"/>
-      <c r="P82" s="76"/>
-      <c r="Q82" s="76"/>
-      <c r="R82" s="76"/>
-      <c r="S82" s="76"/>
-      <c r="T82" s="76"/>
-      <c r="U82" s="76"/>
-      <c r="V82" s="76"/>
-      <c r="W82" s="107"/>
-      <c r="X82" s="76"/>
-      <c r="Y82" s="76"/>
-      <c r="Z82" s="76"/>
-      <c r="AA82" s="76"/>
-      <c r="AB82" s="76"/>
-      <c r="AC82" s="76"/>
-      <c r="AD82" s="104"/>
-      <c r="AE82" s="76"/>
-      <c r="AF82" s="76"/>
-      <c r="AG82" s="76"/>
-      <c r="AH82" s="76"/>
-      <c r="AI82" s="76"/>
-      <c r="AJ82" s="76"/>
-      <c r="AK82" s="101"/>
-      <c r="AL82" s="76"/>
-    </row>
-    <row r="83" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A83" s="110"/>
-      <c r="B83" s="112"/>
-      <c r="C83" s="109"/>
+      <c r="K82" s="84"/>
+      <c r="L82" s="74"/>
+      <c r="M82" s="74"/>
+      <c r="N82" s="74"/>
+      <c r="O82" s="74"/>
+      <c r="P82" s="74"/>
+      <c r="Q82" s="74"/>
+      <c r="R82" s="74"/>
+      <c r="S82" s="74"/>
+      <c r="T82" s="74"/>
+      <c r="U82" s="74"/>
+      <c r="V82" s="108"/>
+      <c r="W82" s="74"/>
+      <c r="X82" s="74"/>
+      <c r="Y82" s="74"/>
+      <c r="Z82" s="74"/>
+      <c r="AA82" s="74"/>
+      <c r="AB82" s="74"/>
+      <c r="AC82" s="105"/>
+      <c r="AD82" s="74"/>
+      <c r="AE82" s="74"/>
+      <c r="AF82" s="74"/>
+      <c r="AG82" s="74"/>
+      <c r="AH82" s="74"/>
+      <c r="AI82" s="74"/>
+      <c r="AJ82" s="102"/>
+      <c r="AK82" s="74"/>
+    </row>
+    <row r="83" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A83" s="94"/>
+      <c r="B83" s="115"/>
+      <c r="C83" s="95"/>
       <c r="D83" s="2" t="s">
         <v>33</v>
       </c>
@@ -10816,132 +10841,129 @@
         <v>44131</v>
       </c>
       <c r="I83" s="31"/>
-      <c r="J83" s="52"/>
-      <c r="K83" s="83">
+      <c r="J83" s="80">
         <v>0</v>
       </c>
-      <c r="L83" s="88"/>
-      <c r="M83" s="76"/>
-      <c r="N83" s="76"/>
-      <c r="O83" s="76"/>
-      <c r="P83" s="76"/>
-      <c r="Q83" s="76"/>
-      <c r="R83" s="76"/>
-      <c r="S83" s="76"/>
-      <c r="T83" s="76"/>
-      <c r="U83" s="76"/>
-      <c r="V83" s="76"/>
-      <c r="W83" s="107"/>
-      <c r="X83" s="76"/>
-      <c r="Y83" s="76"/>
-      <c r="Z83" s="76"/>
-      <c r="AA83" s="76"/>
-      <c r="AB83" s="76"/>
-      <c r="AC83" s="76"/>
-      <c r="AD83" s="104"/>
-      <c r="AE83" s="76"/>
-      <c r="AF83" s="76"/>
-      <c r="AG83" s="76"/>
-      <c r="AH83" s="76"/>
-      <c r="AI83" s="76"/>
-      <c r="AJ83" s="76"/>
-      <c r="AK83" s="101"/>
-      <c r="AL83" s="76"/>
-    </row>
-    <row r="84" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A84" s="110"/>
-      <c r="B84" s="77"/>
-      <c r="C84" s="76" t="s">
+      <c r="K83" s="84"/>
+      <c r="L83" s="74"/>
+      <c r="M83" s="74"/>
+      <c r="N83" s="74"/>
+      <c r="O83" s="74"/>
+      <c r="P83" s="74"/>
+      <c r="Q83" s="74"/>
+      <c r="R83" s="74"/>
+      <c r="S83" s="74"/>
+      <c r="T83" s="74"/>
+      <c r="U83" s="74"/>
+      <c r="V83" s="108"/>
+      <c r="W83" s="74"/>
+      <c r="X83" s="74"/>
+      <c r="Y83" s="74"/>
+      <c r="Z83" s="74"/>
+      <c r="AA83" s="74"/>
+      <c r="AB83" s="74"/>
+      <c r="AC83" s="105"/>
+      <c r="AD83" s="74"/>
+      <c r="AE83" s="74"/>
+      <c r="AF83" s="74"/>
+      <c r="AG83" s="74"/>
+      <c r="AH83" s="74"/>
+      <c r="AI83" s="74"/>
+      <c r="AJ83" s="102"/>
+      <c r="AK83" s="74"/>
+    </row>
+    <row r="84" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A84" s="94"/>
+      <c r="B84" s="115"/>
+      <c r="C84" s="74" t="s">
         <v>258</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>261</v>
       </c>
       <c r="E84" s="2"/>
-      <c r="F84" s="76" t="s">
+      <c r="F84" s="74" t="s">
         <v>260</v>
       </c>
-      <c r="G84" s="76"/>
+      <c r="G84" s="74"/>
       <c r="H84" s="31"/>
       <c r="I84" s="31"/>
-      <c r="J84" s="52"/>
-      <c r="K84" s="83"/>
-      <c r="L84" s="88"/>
-      <c r="M84" s="76"/>
-      <c r="N84" s="76"/>
-      <c r="O84" s="76"/>
-      <c r="P84" s="76"/>
-      <c r="Q84" s="76"/>
-      <c r="R84" s="76"/>
-      <c r="S84" s="76"/>
-      <c r="T84" s="76"/>
-      <c r="U84" s="76"/>
-      <c r="V84" s="76"/>
-      <c r="W84" s="107"/>
-      <c r="X84" s="76"/>
-      <c r="Y84" s="76"/>
-      <c r="Z84" s="76"/>
-      <c r="AA84" s="76"/>
-      <c r="AB84" s="76"/>
-      <c r="AC84" s="76"/>
-      <c r="AD84" s="104"/>
-      <c r="AE84" s="76"/>
-      <c r="AF84" s="76"/>
-      <c r="AG84" s="76"/>
-      <c r="AH84" s="76"/>
-      <c r="AI84" s="76"/>
-      <c r="AJ84" s="76"/>
-      <c r="AK84" s="101"/>
-      <c r="AL84" s="76"/>
-    </row>
-    <row r="85" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A85" s="110"/>
-      <c r="B85" s="77"/>
-      <c r="C85" s="76" t="s">
+      <c r="J84" s="80"/>
+      <c r="K84" s="84"/>
+      <c r="L84" s="74"/>
+      <c r="M84" s="74"/>
+      <c r="N84" s="74"/>
+      <c r="O84" s="74"/>
+      <c r="P84" s="74"/>
+      <c r="Q84" s="74"/>
+      <c r="R84" s="74"/>
+      <c r="S84" s="74"/>
+      <c r="T84" s="74"/>
+      <c r="U84" s="74"/>
+      <c r="V84" s="108"/>
+      <c r="W84" s="74"/>
+      <c r="X84" s="74"/>
+      <c r="Y84" s="74"/>
+      <c r="Z84" s="74"/>
+      <c r="AA84" s="74"/>
+      <c r="AB84" s="74"/>
+      <c r="AC84" s="105"/>
+      <c r="AD84" s="74"/>
+      <c r="AE84" s="74"/>
+      <c r="AF84" s="74"/>
+      <c r="AG84" s="74"/>
+      <c r="AH84" s="74"/>
+      <c r="AI84" s="74"/>
+      <c r="AJ84" s="102"/>
+      <c r="AK84" s="74"/>
+    </row>
+    <row r="85" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A85" s="94"/>
+      <c r="B85" s="116"/>
+      <c r="C85" s="74" t="s">
         <v>259</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>262</v>
       </c>
       <c r="E85" s="2"/>
-      <c r="F85" s="76" t="s">
+      <c r="F85" s="74" t="s">
         <v>260</v>
       </c>
-      <c r="G85" s="76"/>
+      <c r="G85" s="74"/>
       <c r="H85" s="31"/>
       <c r="I85" s="31"/>
-      <c r="J85" s="52"/>
-      <c r="K85" s="83"/>
-      <c r="L85" s="88"/>
-      <c r="M85" s="76"/>
-      <c r="N85" s="76"/>
-      <c r="O85" s="76"/>
-      <c r="P85" s="76"/>
-      <c r="Q85" s="76"/>
-      <c r="R85" s="76"/>
-      <c r="S85" s="76"/>
-      <c r="T85" s="76"/>
-      <c r="U85" s="76"/>
-      <c r="V85" s="76"/>
-      <c r="W85" s="108"/>
-      <c r="X85" s="76"/>
-      <c r="Y85" s="76"/>
-      <c r="Z85" s="76"/>
-      <c r="AA85" s="76"/>
-      <c r="AB85" s="76"/>
-      <c r="AC85" s="76"/>
-      <c r="AD85" s="105"/>
-      <c r="AE85" s="76"/>
-      <c r="AF85" s="76"/>
-      <c r="AG85" s="76"/>
-      <c r="AH85" s="76"/>
-      <c r="AI85" s="76"/>
-      <c r="AJ85" s="76"/>
-      <c r="AK85" s="102"/>
-      <c r="AL85" s="76"/>
-    </row>
-    <row r="86" spans="1:38" x14ac:dyDescent="0.4">
-      <c r="A86" s="110"/>
+      <c r="J85" s="80"/>
+      <c r="K85" s="84"/>
+      <c r="L85" s="74"/>
+      <c r="M85" s="74"/>
+      <c r="N85" s="74"/>
+      <c r="O85" s="74"/>
+      <c r="P85" s="74"/>
+      <c r="Q85" s="74"/>
+      <c r="R85" s="74"/>
+      <c r="S85" s="74"/>
+      <c r="T85" s="74"/>
+      <c r="U85" s="74"/>
+      <c r="V85" s="109"/>
+      <c r="W85" s="74"/>
+      <c r="X85" s="74"/>
+      <c r="Y85" s="74"/>
+      <c r="Z85" s="74"/>
+      <c r="AA85" s="74"/>
+      <c r="AB85" s="74"/>
+      <c r="AC85" s="106"/>
+      <c r="AD85" s="74"/>
+      <c r="AE85" s="74"/>
+      <c r="AF85" s="74"/>
+      <c r="AG85" s="74"/>
+      <c r="AH85" s="74"/>
+      <c r="AI85" s="74"/>
+      <c r="AJ85" s="103"/>
+      <c r="AK85" s="74"/>
+    </row>
+    <row r="86" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A86" s="94"/>
       <c r="B86" s="38" t="s">
         <v>21</v>
       </c>
@@ -10956,33 +10978,17 @@
       <c r="G86" s="19"/>
       <c r="H86" s="31"/>
       <c r="I86" s="31"/>
-      <c r="J86" s="52"/>
-      <c r="K86" s="39">
+      <c r="J86" s="39">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A5:A86"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C81:C83"/>
-    <mergeCell ref="C51:C55"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="C68:C71"/>
-    <mergeCell ref="B5:B10"/>
-    <mergeCell ref="B59:B83"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C77:C80"/>
-    <mergeCell ref="C72:C74"/>
-    <mergeCell ref="C18:C45"/>
-    <mergeCell ref="B11:B58"/>
-    <mergeCell ref="C61:C67"/>
+    <mergeCell ref="B59:B85"/>
     <mergeCell ref="D33:D38"/>
-    <mergeCell ref="AK5:AK85"/>
-    <mergeCell ref="AD5:AD85"/>
-    <mergeCell ref="W5:W85"/>
+    <mergeCell ref="AJ5:AJ85"/>
+    <mergeCell ref="AC5:AC85"/>
+    <mergeCell ref="V5:V85"/>
     <mergeCell ref="C56:C57"/>
     <mergeCell ref="D70:D71"/>
     <mergeCell ref="D18:D27"/>
@@ -10993,17 +10999,32 @@
     <mergeCell ref="D59:D60"/>
     <mergeCell ref="D66:D67"/>
     <mergeCell ref="D68:D69"/>
+    <mergeCell ref="A5:A86"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C81:C83"/>
+    <mergeCell ref="C51:C55"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="C68:C71"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C77:C80"/>
+    <mergeCell ref="C72:C74"/>
+    <mergeCell ref="C18:C45"/>
+    <mergeCell ref="B11:B58"/>
+    <mergeCell ref="C61:C67"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="L3:AL5 AL6:AL85 X6:AC85 AE6:AJ85 L6:V85">
+  <conditionalFormatting sqref="K3:AK5 AK6:AK85 W6:AB85 AD6:AI85 K6:U85">
     <cfRule type="expression" dxfId="1" priority="2">
-      <formula>WEEKDAY(L$3)=7</formula>
+      <formula>WEEKDAY(K$3)=7</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="3">
-      <formula>WEEKDAY(L$3)=1</formula>
+      <formula>WEEKDAY(K$3)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1048576">
+  <conditionalFormatting sqref="J1:J1048576">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -11049,7 +11070,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>K1:K1048576</xm:sqref>
+          <xm:sqref>J1:J1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -11071,24 +11092,24 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
     </row>
     <row r="4" spans="2:14" ht="45.75" x14ac:dyDescent="0.4">
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="110"/>
       <c r="K4" s="11" t="s">
         <v>73</v>
       </c>
@@ -11097,14 +11118,14 @@
       </c>
     </row>
     <row r="5" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="114"/>
-      <c r="I5" s="114"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
       <c r="K5" s="12" t="s">
         <v>75</v>
       </c>
@@ -11113,28 +11134,28 @@
       </c>
     </row>
     <row r="6" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B6" s="114"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
+      <c r="B6" s="110"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="110"/>
+      <c r="G6" s="110"/>
+      <c r="H6" s="110"/>
+      <c r="I6" s="110"/>
       <c r="K6" s="12" t="s">
         <v>76</v>
       </c>
       <c r="L6" s="13"/>
     </row>
     <row r="7" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="114"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
+      <c r="B7" s="110"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="110"/>
+      <c r="H7" s="110"/>
+      <c r="I7" s="110"/>
       <c r="K7" s="12" t="s">
         <v>77</v>
       </c>
@@ -11143,28 +11164,28 @@
       </c>
     </row>
     <row r="8" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B8" s="114"/>
-      <c r="C8" s="114"/>
-      <c r="D8" s="114"/>
-      <c r="E8" s="114"/>
-      <c r="F8" s="114"/>
-      <c r="G8" s="114"/>
-      <c r="H8" s="114"/>
-      <c r="I8" s="114"/>
+      <c r="B8" s="110"/>
+      <c r="C8" s="110"/>
+      <c r="D8" s="110"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="110"/>
+      <c r="G8" s="110"/>
+      <c r="H8" s="110"/>
+      <c r="I8" s="110"/>
       <c r="K8" s="12" t="s">
         <v>78</v>
       </c>
       <c r="L8" s="13"/>
     </row>
     <row r="9" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B9" s="114"/>
-      <c r="C9" s="114"/>
-      <c r="D9" s="114"/>
-      <c r="E9" s="114"/>
-      <c r="F9" s="114"/>
-      <c r="G9" s="114"/>
-      <c r="H9" s="114"/>
-      <c r="I9" s="114"/>
+      <c r="B9" s="110"/>
+      <c r="C9" s="110"/>
+      <c r="D9" s="110"/>
+      <c r="E9" s="110"/>
+      <c r="F9" s="110"/>
+      <c r="G9" s="110"/>
+      <c r="H9" s="110"/>
+      <c r="I9" s="110"/>
       <c r="K9" s="12" t="s">
         <v>79</v>
       </c>
@@ -11173,28 +11194,28 @@
       </c>
     </row>
     <row r="10" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B10" s="114"/>
-      <c r="C10" s="114"/>
-      <c r="D10" s="114"/>
-      <c r="E10" s="114"/>
-      <c r="F10" s="114"/>
-      <c r="G10" s="114"/>
-      <c r="H10" s="114"/>
-      <c r="I10" s="114"/>
+      <c r="B10" s="110"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="110"/>
       <c r="K10" s="12" t="s">
         <v>80</v>
       </c>
       <c r="L10" s="13"/>
     </row>
     <row r="11" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B11" s="114"/>
-      <c r="C11" s="114"/>
-      <c r="D11" s="114"/>
-      <c r="E11" s="114"/>
-      <c r="F11" s="114"/>
-      <c r="G11" s="114"/>
-      <c r="H11" s="114"/>
-      <c r="I11" s="114"/>
+      <c r="B11" s="110"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="110"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="110"/>
+      <c r="H11" s="110"/>
+      <c r="I11" s="110"/>
       <c r="K11" s="12" t="s">
         <v>81</v>
       </c>
@@ -11204,136 +11225,136 @@
       <c r="N11" s="10"/>
     </row>
     <row r="12" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B12" s="114"/>
-      <c r="C12" s="114"/>
-      <c r="D12" s="114"/>
-      <c r="E12" s="114"/>
-      <c r="F12" s="114"/>
-      <c r="G12" s="114"/>
-      <c r="H12" s="114"/>
-      <c r="I12" s="114"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="110"/>
+      <c r="E12" s="110"/>
+      <c r="F12" s="110"/>
+      <c r="G12" s="110"/>
+      <c r="H12" s="110"/>
+      <c r="I12" s="110"/>
       <c r="K12" s="12" t="s">
         <v>82</v>
       </c>
       <c r="L12" s="13"/>
     </row>
     <row r="13" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B13" s="114"/>
-      <c r="C13" s="114"/>
-      <c r="D13" s="114"/>
-      <c r="E13" s="114"/>
-      <c r="F13" s="114"/>
-      <c r="G13" s="114"/>
-      <c r="H13" s="114"/>
-      <c r="I13" s="114"/>
+      <c r="B13" s="110"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="110"/>
+      <c r="H13" s="110"/>
+      <c r="I13" s="110"/>
       <c r="K13" s="12" t="s">
         <v>83</v>
       </c>
       <c r="L13" s="13"/>
     </row>
     <row r="14" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B14" s="114"/>
-      <c r="C14" s="114"/>
-      <c r="D14" s="114"/>
-      <c r="E14" s="114"/>
-      <c r="F14" s="114"/>
-      <c r="G14" s="114"/>
-      <c r="H14" s="114"/>
-      <c r="I14" s="114"/>
+      <c r="B14" s="110"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="110"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="110"/>
+      <c r="H14" s="110"/>
+      <c r="I14" s="110"/>
       <c r="K14" s="12" t="s">
         <v>84</v>
       </c>
       <c r="L14" s="13"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B15" s="114"/>
-      <c r="C15" s="114"/>
-      <c r="D15" s="114"/>
-      <c r="E15" s="114"/>
-      <c r="F15" s="114"/>
-      <c r="G15" s="114"/>
-      <c r="H15" s="114"/>
-      <c r="I15" s="114"/>
+      <c r="B15" s="110"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="110"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="110"/>
+      <c r="I15" s="110"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B16" s="114"/>
-      <c r="C16" s="114"/>
-      <c r="D16" s="114"/>
-      <c r="E16" s="114"/>
-      <c r="F16" s="114"/>
-      <c r="G16" s="114"/>
-      <c r="H16" s="114"/>
-      <c r="I16" s="114"/>
+      <c r="B16" s="110"/>
+      <c r="C16" s="110"/>
+      <c r="D16" s="110"/>
+      <c r="E16" s="110"/>
+      <c r="F16" s="110"/>
+      <c r="G16" s="110"/>
+      <c r="H16" s="110"/>
+      <c r="I16" s="110"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B17" s="114"/>
-      <c r="C17" s="114"/>
-      <c r="D17" s="114"/>
-      <c r="E17" s="114"/>
-      <c r="F17" s="114"/>
-      <c r="G17" s="114"/>
-      <c r="H17" s="114"/>
-      <c r="I17" s="114"/>
+      <c r="B17" s="110"/>
+      <c r="C17" s="110"/>
+      <c r="D17" s="110"/>
+      <c r="E17" s="110"/>
+      <c r="F17" s="110"/>
+      <c r="G17" s="110"/>
+      <c r="H17" s="110"/>
+      <c r="I17" s="110"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B18" s="114"/>
-      <c r="C18" s="114"/>
-      <c r="D18" s="114"/>
-      <c r="E18" s="114"/>
-      <c r="F18" s="114"/>
-      <c r="G18" s="114"/>
-      <c r="H18" s="114"/>
-      <c r="I18" s="114"/>
+      <c r="B18" s="110"/>
+      <c r="C18" s="110"/>
+      <c r="D18" s="110"/>
+      <c r="E18" s="110"/>
+      <c r="F18" s="110"/>
+      <c r="G18" s="110"/>
+      <c r="H18" s="110"/>
+      <c r="I18" s="110"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B19" s="114"/>
-      <c r="C19" s="114"/>
-      <c r="D19" s="114"/>
-      <c r="E19" s="114"/>
-      <c r="F19" s="114"/>
-      <c r="G19" s="114"/>
-      <c r="H19" s="114"/>
-      <c r="I19" s="114"/>
+      <c r="B19" s="110"/>
+      <c r="C19" s="110"/>
+      <c r="D19" s="110"/>
+      <c r="E19" s="110"/>
+      <c r="F19" s="110"/>
+      <c r="G19" s="110"/>
+      <c r="H19" s="110"/>
+      <c r="I19" s="110"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B20" s="114"/>
-      <c r="C20" s="114"/>
-      <c r="D20" s="114"/>
-      <c r="E20" s="114"/>
-      <c r="F20" s="114"/>
-      <c r="G20" s="114"/>
-      <c r="H20" s="114"/>
-      <c r="I20" s="114"/>
+      <c r="B20" s="110"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="110"/>
+      <c r="F20" s="110"/>
+      <c r="G20" s="110"/>
+      <c r="H20" s="110"/>
+      <c r="I20" s="110"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B21" s="114"/>
-      <c r="C21" s="114"/>
-      <c r="D21" s="114"/>
-      <c r="E21" s="114"/>
-      <c r="F21" s="114"/>
-      <c r="G21" s="114"/>
-      <c r="H21" s="114"/>
-      <c r="I21" s="114"/>
+      <c r="B21" s="110"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="110"/>
+      <c r="F21" s="110"/>
+      <c r="G21" s="110"/>
+      <c r="H21" s="110"/>
+      <c r="I21" s="110"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B22" s="114"/>
-      <c r="C22" s="114"/>
-      <c r="D22" s="114"/>
-      <c r="E22" s="114"/>
-      <c r="F22" s="114"/>
-      <c r="G22" s="114"/>
-      <c r="H22" s="114"/>
-      <c r="I22" s="114"/>
+      <c r="B22" s="110"/>
+      <c r="C22" s="110"/>
+      <c r="D22" s="110"/>
+      <c r="E22" s="110"/>
+      <c r="F22" s="110"/>
+      <c r="G22" s="110"/>
+      <c r="H22" s="110"/>
+      <c r="I22" s="110"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B23" s="114"/>
-      <c r="C23" s="114"/>
-      <c r="D23" s="114"/>
-      <c r="E23" s="114"/>
-      <c r="F23" s="114"/>
-      <c r="G23" s="114"/>
-      <c r="H23" s="114"/>
-      <c r="I23" s="114"/>
+      <c r="B23" s="110"/>
+      <c r="C23" s="110"/>
+      <c r="D23" s="110"/>
+      <c r="E23" s="110"/>
+      <c r="F23" s="110"/>
+      <c r="G23" s="110"/>
+      <c r="H23" s="110"/>
+      <c r="I23" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11379,22 +11400,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="111" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" s="114"/>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
+      <c r="A2" s="110"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="7"/>
@@ -11481,7 +11502,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B10" s="116" t="s">
+      <c r="B10" s="112" t="s">
         <v>173</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -11495,7 +11516,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B11" s="116"/>
+      <c r="B11" s="112"/>
       <c r="C11" s="2" t="s">
         <v>176</v>
       </c>
@@ -11503,7 +11524,7 @@
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B12" s="116"/>
+      <c r="B12" s="112"/>
       <c r="C12" s="2" t="s">
         <v>172</v>
       </c>
@@ -11511,7 +11532,7 @@
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B13" s="116"/>
+      <c r="B13" s="112"/>
       <c r="C13" s="2" t="s">
         <v>175</v>
       </c>
@@ -11616,12 +11637,12 @@
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="113" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11662,48 +11683,48 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="7.25" customWidth="1"/>
-    <col min="2" max="2" width="28.25" style="54" customWidth="1"/>
-    <col min="3" max="3" width="28.125" style="54" customWidth="1"/>
-    <col min="4" max="4" width="28.125" style="56" customWidth="1"/>
-    <col min="5" max="5" width="29.25" style="54" customWidth="1"/>
-    <col min="6" max="6" width="22.5" style="54" customWidth="1"/>
-    <col min="7" max="7" width="21.875" style="54" customWidth="1"/>
+    <col min="2" max="2" width="28.25" style="52" customWidth="1"/>
+    <col min="3" max="3" width="28.125" style="52" customWidth="1"/>
+    <col min="4" max="4" width="28.125" style="54" customWidth="1"/>
+    <col min="5" max="5" width="29.25" style="52" customWidth="1"/>
+    <col min="6" max="6" width="22.5" style="52" customWidth="1"/>
+    <col min="7" max="7" width="21.875" style="52" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="2"/>
-      <c r="B1" s="53">
+      <c r="B1" s="51">
         <v>2</v>
       </c>
-      <c r="C1" s="55">
+      <c r="C1" s="53">
         <v>3</v>
       </c>
-      <c r="D1" s="55">
+      <c r="D1" s="53">
         <v>4</v>
       </c>
-      <c r="E1" s="55">
+      <c r="E1" s="53">
         <v>5</v>
       </c>
-      <c r="F1" s="58">
+      <c r="F1" s="56">
         <v>6</v>
       </c>
       <c r="G1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="53" t="s">
         <v>200</v>
       </c>
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="53" t="s">
         <v>201</v>
       </c>
-      <c r="E2" s="55" t="s">
+      <c r="E2" s="53" t="s">
         <v>202</v>
       </c>
-      <c r="F2" s="58" t="s">
+      <c r="F2" s="56" t="s">
         <v>203</v>
       </c>
       <c r="G2"/>
@@ -11712,36 +11733,36 @@
       <c r="A3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="57" t="s">
         <v>236</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="58" t="s">
         <v>208</v>
       </c>
-      <c r="D3" s="60" t="s">
+      <c r="D3" s="58" t="s">
         <v>237</v>
       </c>
-      <c r="E3" s="61"/>
-      <c r="F3" s="58"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="56"/>
       <c r="G3"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="58" t="s">
         <v>245</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="58" t="s">
         <v>207</v>
       </c>
-      <c r="D4" s="63" t="s">
+      <c r="D4" s="61" t="s">
         <v>224</v>
       </c>
-      <c r="E4" s="62" t="s">
+      <c r="E4" s="60" t="s">
         <v>240</v>
       </c>
-      <c r="F4" s="62" t="s">
+      <c r="F4" s="60" t="s">
         <v>240</v>
       </c>
       <c r="G4"/>
@@ -11750,38 +11771,38 @@
       <c r="A5" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="58" t="s">
         <v>209</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="58" t="s">
         <v>238</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="62" t="s">
         <v>226</v>
       </c>
-      <c r="E5" s="64" t="s">
+      <c r="E5" s="62" t="s">
         <v>242</v>
       </c>
-      <c r="F5" s="58"/>
+      <c r="F5" s="56"/>
       <c r="G5"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="58" t="s">
         <v>206</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="58" t="s">
         <v>206</v>
       </c>
-      <c r="D6" s="60" t="s">
+      <c r="D6" s="58" t="s">
         <v>241</v>
       </c>
-      <c r="E6" s="60" t="s">
+      <c r="E6" s="58" t="s">
         <v>241</v>
       </c>
-      <c r="F6" s="63" t="s">
+      <c r="F6" s="61" t="s">
         <v>239</v>
       </c>
       <c r="G6"/>
@@ -11790,219 +11811,219 @@
       <c r="A7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="58" t="s">
         <v>205</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="58" t="s">
         <v>205</v>
       </c>
-      <c r="D7" s="64" t="s">
+      <c r="D7" s="62" t="s">
         <v>244</v>
       </c>
       <c r="E7"/>
-      <c r="F7" s="65"/>
+      <c r="F7" s="63"/>
       <c r="G7"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="62" t="s">
         <v>204</v>
       </c>
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="62" t="s">
         <v>204</v>
       </c>
-      <c r="D8" s="64" t="s">
+      <c r="D8" s="62" t="s">
         <v>243</v>
       </c>
-      <c r="E8" s="61"/>
-      <c r="F8" s="58"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="56"/>
       <c r="G8"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B11" s="54" t="s">
+      <c r="B11" s="52" t="s">
         <v>210</v>
       </c>
-      <c r="C11" s="54" t="s">
+      <c r="C11" s="52" t="s">
         <v>199</v>
       </c>
-      <c r="D11" s="56" t="s">
+      <c r="D11" s="54" t="s">
         <v>232</v>
       </c>
-      <c r="E11" s="54" t="s">
+      <c r="E11" s="52" t="s">
         <v>246</v>
       </c>
-      <c r="G11" s="54" t="s">
+      <c r="G11" s="52" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B12" s="66" t="s">
+      <c r="B12" s="64" t="s">
         <v>220</v>
       </c>
-      <c r="C12" s="59" t="s">
+      <c r="C12" s="57" t="s">
         <v>227</v>
       </c>
-      <c r="D12" s="80" t="s">
+      <c r="D12" s="77" t="s">
         <v>235</v>
       </c>
-      <c r="E12" s="54" t="s">
+      <c r="E12" s="52" t="s">
         <v>211</v>
       </c>
-      <c r="G12" s="54" t="s">
+      <c r="G12" s="52" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B13" s="66" t="s">
+      <c r="B13" s="64" t="s">
         <v>221</v>
       </c>
-      <c r="C13" s="59" t="s">
+      <c r="C13" s="57" t="s">
         <v>227</v>
       </c>
-      <c r="D13" s="80" t="s">
+      <c r="D13" s="77" t="s">
         <v>235</v>
       </c>
-      <c r="E13" s="54" t="s">
+      <c r="E13" s="52" t="s">
         <v>216</v>
       </c>
-      <c r="G13" s="54" t="s">
+      <c r="G13" s="52" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B14" s="66" t="s">
+      <c r="B14" s="64" t="s">
         <v>222</v>
       </c>
-      <c r="C14" s="59" t="s">
+      <c r="C14" s="57" t="s">
         <v>227</v>
       </c>
-      <c r="D14" s="80" t="s">
+      <c r="D14" s="77" t="s">
         <v>235</v>
       </c>
-      <c r="E14" s="54" t="s">
+      <c r="E14" s="52" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B15" s="75" t="s">
+      <c r="B15" s="73" t="s">
         <v>230</v>
       </c>
-      <c r="C15" s="59" t="s">
+      <c r="C15" s="57" t="s">
         <v>227</v>
       </c>
-      <c r="D15" s="79" t="s">
+      <c r="D15" s="76" t="s">
         <v>233</v>
       </c>
-      <c r="E15" s="54" t="s">
+      <c r="E15" s="52" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B16" s="66" t="s">
+      <c r="B16" s="64" t="s">
         <v>205</v>
       </c>
-      <c r="C16" s="59" t="s">
+      <c r="C16" s="57" t="s">
         <v>227</v>
       </c>
-      <c r="D16" s="81" t="s">
+      <c r="D16" s="78" t="s">
         <v>234</v>
       </c>
-      <c r="E16" s="54" t="s">
+      <c r="E16" s="52" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B17" s="67" t="s">
+      <c r="B17" s="65" t="s">
         <v>225</v>
       </c>
-      <c r="C17" s="68" t="s">
+      <c r="C17" s="66" t="s">
         <v>229</v>
       </c>
-      <c r="D17" s="80" t="s">
+      <c r="D17" s="77" t="s">
         <v>235</v>
       </c>
-      <c r="E17" s="54" t="s">
+      <c r="E17" s="52" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B18" s="69" t="s">
+      <c r="B18" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="70" t="s">
+      <c r="C18" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="80" t="s">
+      <c r="D18" s="77" t="s">
         <v>235</v>
       </c>
-      <c r="F18" s="54" t="s">
+      <c r="F18" s="52" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B19" s="71" t="s">
+      <c r="B19" s="69" t="s">
         <v>223</v>
       </c>
-      <c r="C19" s="70" t="s">
+      <c r="C19" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="D19" s="80" t="s">
+      <c r="D19" s="77" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B20" s="69" t="s">
+      <c r="B20" s="67" t="s">
         <v>224</v>
       </c>
-      <c r="C20" s="70" t="s">
+      <c r="C20" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="D20" s="80" t="s">
+      <c r="D20" s="77" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B21" s="72" t="s">
+      <c r="B21" s="70" t="s">
         <v>226</v>
       </c>
-      <c r="C21" s="73" t="s">
+      <c r="C21" s="71" t="s">
         <v>78</v>
       </c>
-      <c r="D21" s="80" t="s">
+      <c r="D21" s="77" t="s">
         <v>235</v>
       </c>
-      <c r="F21" s="56"/>
-      <c r="H21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="H21" s="52"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B22" s="74" t="s">
+      <c r="B22" s="72" t="s">
         <v>228</v>
       </c>
-      <c r="C22" s="73" t="s">
+      <c r="C22" s="71" t="s">
         <v>78</v>
       </c>
-      <c r="D22" s="81" t="s">
+      <c r="D22" s="78" t="s">
         <v>234</v>
       </c>
-      <c r="F22" s="57"/>
-      <c r="G22" s="56"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="54"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B23" s="74" t="s">
+      <c r="B23" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="73" t="s">
+      <c r="C23" s="71" t="s">
         <v>78</v>
       </c>
-      <c r="D23" s="80" t="s">
+      <c r="D23" s="77" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -12015,323 +12036,332 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="31.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.125" style="82" customWidth="1"/>
+    <col min="3" max="3" width="9.125" style="79" customWidth="1"/>
     <col min="4" max="4" width="21.25" customWidth="1"/>
-    <col min="5" max="5" width="25.5" style="90" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5" style="86" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="79" t="s">
         <v>210</v>
       </c>
-      <c r="C6" s="82" t="s">
+      <c r="C6" s="79" t="s">
         <v>199</v>
       </c>
-      <c r="D6" s="82" t="s">
+      <c r="D6" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
+      <c r="E6" s="86" t="s">
+        <v>288</v>
+      </c>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B7" s="23" t="s">
         <v>258</v>
       </c>
-      <c r="C7" s="93" t="s">
-        <v>274</v>
-      </c>
-      <c r="D7" s="91" t="s">
+      <c r="C7" s="89" t="s">
+        <v>273</v>
+      </c>
+      <c r="D7" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="90" t="s">
-        <v>277</v>
-      </c>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
+      <c r="E7" s="86" t="s">
+        <v>276</v>
+      </c>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B8" s="23" t="s">
         <v>259</v>
       </c>
-      <c r="C8" s="93" t="s">
-        <v>274</v>
-      </c>
-      <c r="D8" s="91" t="s">
+      <c r="C8" s="89" t="s">
+        <v>273</v>
+      </c>
+      <c r="D8" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="90" t="s">
-        <v>277</v>
-      </c>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
+      <c r="E8" s="86" t="s">
+        <v>276</v>
+      </c>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B9" s="24" t="s">
         <v>263</v>
       </c>
-      <c r="C9" s="94" t="s">
-        <v>273</v>
-      </c>
-      <c r="D9" s="91" t="s">
+      <c r="C9" s="90" t="s">
+        <v>272</v>
+      </c>
+      <c r="D9" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="90" t="s">
-        <v>276</v>
-      </c>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
+      <c r="E9" s="86" t="s">
+        <v>275</v>
+      </c>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B10" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="C10" s="94" t="s">
-        <v>273</v>
-      </c>
-      <c r="D10" s="91" t="s">
+      <c r="C10" s="90" t="s">
+        <v>272</v>
+      </c>
+      <c r="D10" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="90" t="s">
-        <v>276</v>
-      </c>
-      <c r="F10" s="82"/>
-      <c r="H10" s="82"/>
+      <c r="E10" s="86" t="s">
+        <v>275</v>
+      </c>
+      <c r="F10" s="79"/>
+      <c r="H10" s="79"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B11" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="C11" s="94" t="s">
-        <v>273</v>
-      </c>
-      <c r="D11" s="91" t="s">
+      <c r="C11" s="90" t="s">
+        <v>272</v>
+      </c>
+      <c r="D11" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="90" t="s">
-        <v>277</v>
-      </c>
-      <c r="F11" s="82"/>
-      <c r="H11" s="82"/>
+      <c r="E11" s="86" t="s">
+        <v>276</v>
+      </c>
+      <c r="F11" s="79"/>
+      <c r="H11" s="79"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B12" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="C12" s="94" t="s">
-        <v>273</v>
-      </c>
-      <c r="D12" s="91" t="s">
+      <c r="C12" s="90" t="s">
+        <v>272</v>
+      </c>
+      <c r="D12" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="90" t="s">
-        <v>278</v>
-      </c>
-      <c r="F12" s="82"/>
-      <c r="G12" s="82"/>
+      <c r="E12" s="86" t="s">
+        <v>277</v>
+      </c>
+      <c r="F12" s="79"/>
+      <c r="G12" s="79"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B13" s="24" t="s">
         <v>266</v>
       </c>
-      <c r="C13" s="94" t="s">
-        <v>273</v>
-      </c>
-      <c r="D13" s="91" t="s">
+      <c r="C13" s="90" t="s">
+        <v>272</v>
+      </c>
+      <c r="D13" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="90" t="s">
-        <v>276</v>
-      </c>
-      <c r="F13" s="82" t="s">
+      <c r="E13" s="86" t="s">
+        <v>275</v>
+      </c>
+      <c r="F13" s="79" t="s">
         <v>231</v>
       </c>
-      <c r="G13" s="82"/>
+      <c r="G13" s="79"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B14" s="24" t="s">
         <v>267</v>
       </c>
-      <c r="C14" s="94" t="s">
-        <v>273</v>
-      </c>
-      <c r="D14" s="91" t="s">
+      <c r="C14" s="90" t="s">
+        <v>272</v>
+      </c>
+      <c r="D14" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="90" t="s">
-        <v>277</v>
-      </c>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
+      <c r="E14" s="86" t="s">
+        <v>276</v>
+      </c>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B15" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="94" t="s">
-        <v>273</v>
-      </c>
-      <c r="D15" s="91" t="s">
+      <c r="C15" s="90" t="s">
+        <v>272</v>
+      </c>
+      <c r="D15" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="90" t="s">
-        <v>280</v>
-      </c>
-      <c r="F15" s="82"/>
-      <c r="H15" s="82"/>
+      <c r="E15" s="86" t="s">
+        <v>279</v>
+      </c>
+      <c r="F15" s="79"/>
+      <c r="H15" s="79"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B16" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="94" t="s">
-        <v>273</v>
+      <c r="C16" s="90" t="s">
+        <v>272</v>
       </c>
       <c r="D16" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="E16" s="90" t="s">
-        <v>279</v>
-      </c>
-      <c r="F16" s="82"/>
-      <c r="G16" s="82"/>
+      <c r="E16" s="86" t="s">
+        <v>278</v>
+      </c>
+      <c r="F16" s="79"/>
+      <c r="G16" s="79"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B17" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="94" t="s">
-        <v>273</v>
+      <c r="C17" s="90" t="s">
+        <v>272</v>
       </c>
       <c r="D17" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="E17" s="90" t="s">
-        <v>279</v>
-      </c>
-      <c r="F17" s="57"/>
-      <c r="G17" s="82"/>
+      <c r="E17" s="86" t="s">
+        <v>278</v>
+      </c>
+      <c r="F17" s="55"/>
+      <c r="G17" s="79"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B18" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="C18" s="94" t="s">
-        <v>273</v>
-      </c>
-      <c r="D18" s="91" t="s">
+        <v>269</v>
+      </c>
+      <c r="C18" s="90" t="s">
+        <v>272</v>
+      </c>
+      <c r="D18" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="90" t="s">
-        <v>276</v>
-      </c>
-      <c r="F18" s="82"/>
-      <c r="H18" s="82"/>
+      <c r="E18" s="86" t="s">
+        <v>275</v>
+      </c>
+      <c r="F18" s="79"/>
+      <c r="H18" s="79"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B19" s="24" t="s">
-        <v>271</v>
-      </c>
-      <c r="C19" s="94" t="s">
-        <v>273</v>
-      </c>
-      <c r="D19" s="91" t="s">
+        <v>270</v>
+      </c>
+      <c r="C19" s="90" t="s">
+        <v>272</v>
+      </c>
+      <c r="D19" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="90" t="s">
-        <v>277</v>
+      <c r="E19" s="86" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B20" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="C20" s="90" t="s">
         <v>272</v>
       </c>
-      <c r="C20" s="94" t="s">
-        <v>273</v>
-      </c>
-      <c r="D20" s="91" t="s">
+      <c r="D20" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="90" t="s">
-        <v>278</v>
+      <c r="E20" s="86" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B21" s="95" t="s">
+      <c r="B21" s="91" t="s">
         <v>268</v>
       </c>
-      <c r="C21" s="96" t="s">
+      <c r="C21" s="92" t="s">
+        <v>274</v>
+      </c>
+      <c r="D21" s="87" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="86" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B22" s="91" t="s">
+        <v>285</v>
+      </c>
+      <c r="C22" s="92" t="s">
+        <v>274</v>
+      </c>
+      <c r="D22" s="87" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="86" t="s">
         <v>275</v>
-      </c>
-      <c r="D21" s="91" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="90" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B22" s="95" t="s">
-        <v>269</v>
-      </c>
-      <c r="C22" s="96" t="s">
-        <v>275</v>
-      </c>
-      <c r="D22" s="91" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="90" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B24" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="94" t="s">
-        <v>273</v>
-      </c>
-      <c r="D24" s="92" t="s">
+      <c r="C24" s="90" t="s">
+        <v>272</v>
+      </c>
+      <c r="D24" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="90" t="s">
-        <v>281</v>
+      <c r="E24" s="86" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B25" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="94" t="s">
-        <v>273</v>
-      </c>
-      <c r="D25" s="92" t="s">
+      <c r="C25" s="90" t="s">
+        <v>272</v>
+      </c>
+      <c r="D25" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="90" t="s">
-        <v>281</v>
+      <c r="E25" s="86" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B26" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="94" t="s">
-        <v>273</v>
-      </c>
-      <c r="D26" s="92" t="s">
+      <c r="C26" s="90" t="s">
+        <v>272</v>
+      </c>
+      <c r="D26" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="90" t="s">
-        <v>281</v>
+      <c r="E26" s="86" t="s">
+        <v>280</v>
       </c>
     </row>
   </sheetData>

--- a/schedule/ガントチャート.xlsx
+++ b/schedule/ガントチャート.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="293">
   <si>
     <t>カテゴリ</t>
     <phoneticPr fontId="1"/>
@@ -2025,6 +2025,34 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>シャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家っぽくするマップを四角くする</t>
+    <rPh sb="0" eb="1">
+      <t>イエ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三浦</t>
+    <rPh sb="0" eb="2">
+      <t>ミウラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム、オブジェクトをXファイルに変換</t>
+    <rPh sb="18" eb="20">
+      <t>ヘンカン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2698,7 +2726,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2981,6 +3009,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="31" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3002,6 +3036,15 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="9" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -3040,18 +3083,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="31" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -6964,10 +6995,10 @@
       </c>
     </row>
     <row r="5" spans="1:45" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="94" t="s">
+      <c r="A5" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="96" t="s">
+      <c r="B5" s="98" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="19" t="s">
@@ -7003,7 +7034,7 @@
       <c r="S5" s="75"/>
       <c r="T5" s="75"/>
       <c r="U5" s="75"/>
-      <c r="V5" s="107" t="s">
+      <c r="V5" s="112" t="s">
         <v>110</v>
       </c>
       <c r="W5" s="75"/>
@@ -7012,7 +7043,7 @@
       <c r="Z5" s="75"/>
       <c r="AA5" s="75"/>
       <c r="AB5" s="75"/>
-      <c r="AC5" s="104" t="s">
+      <c r="AC5" s="109" t="s">
         <v>111</v>
       </c>
       <c r="AD5" s="75"/>
@@ -7021,14 +7052,14 @@
       <c r="AG5" s="75"/>
       <c r="AH5" s="75"/>
       <c r="AI5" s="75"/>
-      <c r="AJ5" s="101" t="s">
+      <c r="AJ5" s="106" t="s">
         <v>88</v>
       </c>
       <c r="AK5" s="75"/>
     </row>
     <row r="6" spans="1:45" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="94"/>
-      <c r="B6" s="96"/>
+      <c r="A6" s="96"/>
+      <c r="B6" s="98"/>
       <c r="C6" s="19" t="s">
         <v>9</v>
       </c>
@@ -7060,26 +7091,26 @@
       <c r="S6" s="74"/>
       <c r="T6" s="74"/>
       <c r="U6" s="74"/>
-      <c r="V6" s="108"/>
+      <c r="V6" s="113"/>
       <c r="W6" s="74"/>
       <c r="X6" s="74"/>
       <c r="Y6" s="74"/>
       <c r="Z6" s="74"/>
       <c r="AA6" s="74"/>
       <c r="AB6" s="74"/>
-      <c r="AC6" s="105"/>
+      <c r="AC6" s="110"/>
       <c r="AD6" s="74"/>
       <c r="AE6" s="74"/>
       <c r="AF6" s="74"/>
       <c r="AG6" s="74"/>
       <c r="AH6" s="74"/>
       <c r="AI6" s="74"/>
-      <c r="AJ6" s="102"/>
+      <c r="AJ6" s="107"/>
       <c r="AK6" s="74"/>
     </row>
     <row r="7" spans="1:45" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="94"/>
-      <c r="B7" s="96"/>
+      <c r="A7" s="96"/>
+      <c r="B7" s="98"/>
       <c r="C7" s="19" t="s">
         <v>10</v>
       </c>
@@ -7109,26 +7140,26 @@
       <c r="S7" s="74"/>
       <c r="T7" s="74"/>
       <c r="U7" s="74"/>
-      <c r="V7" s="108"/>
+      <c r="V7" s="113"/>
       <c r="W7" s="74"/>
       <c r="X7" s="74"/>
       <c r="Y7" s="74"/>
       <c r="Z7" s="74"/>
       <c r="AA7" s="74"/>
       <c r="AB7" s="74"/>
-      <c r="AC7" s="105"/>
+      <c r="AC7" s="110"/>
       <c r="AD7" s="74"/>
       <c r="AE7" s="74"/>
       <c r="AF7" s="74"/>
       <c r="AG7" s="74"/>
       <c r="AH7" s="74"/>
       <c r="AI7" s="74"/>
-      <c r="AJ7" s="102"/>
+      <c r="AJ7" s="107"/>
       <c r="AK7" s="74"/>
     </row>
     <row r="8" spans="1:45" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="94"/>
-      <c r="B8" s="96"/>
+      <c r="A8" s="96"/>
+      <c r="B8" s="98"/>
       <c r="C8" s="19" t="s">
         <v>11</v>
       </c>
@@ -7158,26 +7189,26 @@
       <c r="S8" s="74"/>
       <c r="T8" s="74"/>
       <c r="U8" s="74"/>
-      <c r="V8" s="108"/>
+      <c r="V8" s="113"/>
       <c r="W8" s="74"/>
       <c r="X8" s="74"/>
       <c r="Y8" s="74"/>
       <c r="Z8" s="74"/>
       <c r="AA8" s="74"/>
       <c r="AB8" s="74"/>
-      <c r="AC8" s="105"/>
+      <c r="AC8" s="110"/>
       <c r="AD8" s="74"/>
       <c r="AE8" s="74"/>
       <c r="AF8" s="74"/>
       <c r="AG8" s="74"/>
       <c r="AH8" s="74"/>
       <c r="AI8" s="74"/>
-      <c r="AJ8" s="102"/>
+      <c r="AJ8" s="107"/>
       <c r="AK8" s="74"/>
     </row>
     <row r="9" spans="1:45" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="94"/>
-      <c r="B9" s="96"/>
+      <c r="A9" s="96"/>
+      <c r="B9" s="98"/>
       <c r="C9" s="19" t="s">
         <v>34</v>
       </c>
@@ -7211,26 +7242,26 @@
       <c r="S9" s="74"/>
       <c r="T9" s="74"/>
       <c r="U9" s="74"/>
-      <c r="V9" s="108"/>
+      <c r="V9" s="113"/>
       <c r="W9" s="74"/>
       <c r="X9" s="74"/>
       <c r="Y9" s="74"/>
       <c r="Z9" s="74"/>
       <c r="AA9" s="74"/>
       <c r="AB9" s="74"/>
-      <c r="AC9" s="105"/>
+      <c r="AC9" s="110"/>
       <c r="AD9" s="74"/>
       <c r="AE9" s="74"/>
       <c r="AF9" s="74"/>
       <c r="AG9" s="74"/>
       <c r="AH9" s="74"/>
       <c r="AI9" s="74"/>
-      <c r="AJ9" s="102"/>
+      <c r="AJ9" s="107"/>
       <c r="AK9" s="74"/>
     </row>
     <row r="10" spans="1:45" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="94"/>
-      <c r="B10" s="96"/>
+      <c r="A10" s="96"/>
+      <c r="B10" s="98"/>
       <c r="C10" s="19" t="s">
         <v>35</v>
       </c>
@@ -7258,29 +7289,29 @@
       <c r="S10" s="74"/>
       <c r="T10" s="74"/>
       <c r="U10" s="74"/>
-      <c r="V10" s="108"/>
+      <c r="V10" s="113"/>
       <c r="W10" s="74"/>
       <c r="X10" s="74"/>
       <c r="Y10" s="74"/>
       <c r="Z10" s="74"/>
       <c r="AA10" s="74"/>
       <c r="AB10" s="74"/>
-      <c r="AC10" s="105"/>
+      <c r="AC10" s="110"/>
       <c r="AD10" s="74"/>
       <c r="AE10" s="74"/>
       <c r="AF10" s="74"/>
       <c r="AG10" s="74"/>
       <c r="AH10" s="74"/>
       <c r="AI10" s="74"/>
-      <c r="AJ10" s="102"/>
+      <c r="AJ10" s="107"/>
       <c r="AK10" s="74"/>
     </row>
     <row r="11" spans="1:45" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="94"/>
-      <c r="B11" s="100" t="s">
+      <c r="A11" s="96"/>
+      <c r="B11" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="95" t="s">
+      <c r="C11" s="97" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="40" t="s">
@@ -7307,27 +7338,27 @@
       <c r="S11" s="74"/>
       <c r="T11" s="74"/>
       <c r="U11" s="74"/>
-      <c r="V11" s="108"/>
+      <c r="V11" s="113"/>
       <c r="W11" s="74"/>
       <c r="X11" s="74"/>
       <c r="Y11" s="74"/>
       <c r="Z11" s="74"/>
       <c r="AA11" s="74"/>
       <c r="AB11" s="74"/>
-      <c r="AC11" s="105"/>
+      <c r="AC11" s="110"/>
       <c r="AD11" s="74"/>
       <c r="AE11" s="74"/>
       <c r="AF11" s="74"/>
       <c r="AG11" s="74"/>
       <c r="AH11" s="74"/>
       <c r="AI11" s="74"/>
-      <c r="AJ11" s="102"/>
+      <c r="AJ11" s="107"/>
       <c r="AK11" s="74"/>
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A12" s="94"/>
-      <c r="B12" s="100"/>
-      <c r="C12" s="95"/>
+      <c r="A12" s="96"/>
+      <c r="B12" s="102"/>
+      <c r="C12" s="97"/>
       <c r="D12" s="2" t="s">
         <v>23</v>
       </c>
@@ -7352,27 +7383,27 @@
       <c r="S12" s="74"/>
       <c r="T12" s="74"/>
       <c r="U12" s="74"/>
-      <c r="V12" s="108"/>
+      <c r="V12" s="113"/>
       <c r="W12" s="74"/>
       <c r="X12" s="74"/>
       <c r="Y12" s="74"/>
       <c r="Z12" s="74"/>
       <c r="AA12" s="74"/>
       <c r="AB12" s="74"/>
-      <c r="AC12" s="105"/>
+      <c r="AC12" s="110"/>
       <c r="AD12" s="74"/>
       <c r="AE12" s="74"/>
       <c r="AF12" s="74"/>
       <c r="AG12" s="74"/>
       <c r="AH12" s="74"/>
       <c r="AI12" s="74"/>
-      <c r="AJ12" s="102"/>
+      <c r="AJ12" s="107"/>
       <c r="AK12" s="74"/>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A13" s="94"/>
-      <c r="B13" s="100"/>
-      <c r="C13" s="95"/>
+      <c r="A13" s="96"/>
+      <c r="B13" s="102"/>
+      <c r="C13" s="97"/>
       <c r="D13" s="33" t="s">
         <v>45</v>
       </c>
@@ -7397,27 +7428,27 @@
       <c r="S13" s="74"/>
       <c r="T13" s="74"/>
       <c r="U13" s="74"/>
-      <c r="V13" s="108"/>
+      <c r="V13" s="113"/>
       <c r="W13" s="74"/>
       <c r="X13" s="74"/>
       <c r="Y13" s="74"/>
       <c r="Z13" s="74"/>
       <c r="AA13" s="74"/>
       <c r="AB13" s="74"/>
-      <c r="AC13" s="105"/>
+      <c r="AC13" s="110"/>
       <c r="AD13" s="74"/>
       <c r="AE13" s="74"/>
       <c r="AF13" s="74"/>
       <c r="AG13" s="74"/>
       <c r="AH13" s="74"/>
       <c r="AI13" s="74"/>
-      <c r="AJ13" s="102"/>
+      <c r="AJ13" s="107"/>
       <c r="AK13" s="74"/>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A14" s="94"/>
-      <c r="B14" s="100"/>
-      <c r="C14" s="95"/>
+      <c r="A14" s="96"/>
+      <c r="B14" s="102"/>
+      <c r="C14" s="97"/>
       <c r="D14" s="34" t="s">
         <v>27</v>
       </c>
@@ -7442,27 +7473,27 @@
       <c r="S14" s="74"/>
       <c r="T14" s="74"/>
       <c r="U14" s="74"/>
-      <c r="V14" s="108"/>
+      <c r="V14" s="113"/>
       <c r="W14" s="74"/>
       <c r="X14" s="74"/>
       <c r="Y14" s="74"/>
       <c r="Z14" s="74"/>
       <c r="AA14" s="74"/>
       <c r="AB14" s="74"/>
-      <c r="AC14" s="105"/>
+      <c r="AC14" s="110"/>
       <c r="AD14" s="74"/>
       <c r="AE14" s="74"/>
       <c r="AF14" s="74"/>
       <c r="AG14" s="74"/>
       <c r="AH14" s="74"/>
       <c r="AI14" s="74"/>
-      <c r="AJ14" s="102"/>
+      <c r="AJ14" s="107"/>
       <c r="AK14" s="74"/>
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A15" s="94"/>
-      <c r="B15" s="100"/>
-      <c r="C15" s="95" t="s">
+      <c r="A15" s="96"/>
+      <c r="B15" s="102"/>
+      <c r="C15" s="97" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -7489,27 +7520,27 @@
       <c r="S15" s="74"/>
       <c r="T15" s="74"/>
       <c r="U15" s="74"/>
-      <c r="V15" s="108"/>
+      <c r="V15" s="113"/>
       <c r="W15" s="74"/>
       <c r="X15" s="74"/>
       <c r="Y15" s="74"/>
       <c r="Z15" s="74"/>
       <c r="AA15" s="74"/>
       <c r="AB15" s="74"/>
-      <c r="AC15" s="105"/>
+      <c r="AC15" s="110"/>
       <c r="AD15" s="74"/>
       <c r="AE15" s="74"/>
       <c r="AF15" s="74"/>
       <c r="AG15" s="74"/>
       <c r="AH15" s="74"/>
       <c r="AI15" s="74"/>
-      <c r="AJ15" s="102"/>
+      <c r="AJ15" s="107"/>
       <c r="AK15" s="74"/>
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A16" s="94"/>
-      <c r="B16" s="100"/>
-      <c r="C16" s="95"/>
+      <c r="A16" s="96"/>
+      <c r="B16" s="102"/>
+      <c r="C16" s="97"/>
       <c r="D16" s="35" t="s">
         <v>45</v>
       </c>
@@ -7534,27 +7565,27 @@
       <c r="S16" s="74"/>
       <c r="T16" s="74"/>
       <c r="U16" s="74"/>
-      <c r="V16" s="108"/>
+      <c r="V16" s="113"/>
       <c r="W16" s="74"/>
       <c r="X16" s="74"/>
       <c r="Y16" s="74"/>
       <c r="Z16" s="74"/>
       <c r="AA16" s="74"/>
       <c r="AB16" s="74"/>
-      <c r="AC16" s="105"/>
+      <c r="AC16" s="110"/>
       <c r="AD16" s="74"/>
       <c r="AE16" s="74"/>
       <c r="AF16" s="74"/>
       <c r="AG16" s="74"/>
       <c r="AH16" s="74"/>
       <c r="AI16" s="74"/>
-      <c r="AJ16" s="102"/>
+      <c r="AJ16" s="107"/>
       <c r="AK16" s="74"/>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A17" s="94"/>
-      <c r="B17" s="100"/>
-      <c r="C17" s="95"/>
+      <c r="A17" s="96"/>
+      <c r="B17" s="102"/>
+      <c r="C17" s="97"/>
       <c r="D17" s="2" t="s">
         <v>23</v>
       </c>
@@ -7579,30 +7610,30 @@
       <c r="S17" s="74"/>
       <c r="T17" s="74"/>
       <c r="U17" s="74"/>
-      <c r="V17" s="108"/>
+      <c r="V17" s="113"/>
       <c r="W17" s="74"/>
       <c r="X17" s="74"/>
       <c r="Y17" s="74"/>
       <c r="Z17" s="74"/>
       <c r="AA17" s="74"/>
       <c r="AB17" s="74"/>
-      <c r="AC17" s="105"/>
+      <c r="AC17" s="110"/>
       <c r="AD17" s="74"/>
       <c r="AE17" s="74"/>
       <c r="AF17" s="74"/>
       <c r="AG17" s="74"/>
       <c r="AH17" s="74"/>
       <c r="AI17" s="74"/>
-      <c r="AJ17" s="102"/>
+      <c r="AJ17" s="107"/>
       <c r="AK17" s="74"/>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A18" s="94"/>
-      <c r="B18" s="100"/>
-      <c r="C18" s="95" t="s">
+      <c r="A18" s="96"/>
+      <c r="B18" s="102"/>
+      <c r="C18" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="95" t="s">
+      <c r="D18" s="97" t="s">
         <v>95</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -7634,28 +7665,28 @@
       <c r="S18" s="74"/>
       <c r="T18" s="74"/>
       <c r="U18" s="74"/>
-      <c r="V18" s="108"/>
+      <c r="V18" s="113"/>
       <c r="W18" s="74"/>
       <c r="X18" s="74"/>
       <c r="Y18" s="74"/>
       <c r="Z18" s="74"/>
       <c r="AA18" s="74"/>
       <c r="AB18" s="74"/>
-      <c r="AC18" s="105"/>
+      <c r="AC18" s="110"/>
       <c r="AD18" s="74"/>
       <c r="AE18" s="74"/>
       <c r="AF18" s="74"/>
       <c r="AG18" s="74"/>
       <c r="AH18" s="74"/>
       <c r="AI18" s="74"/>
-      <c r="AJ18" s="102"/>
+      <c r="AJ18" s="107"/>
       <c r="AK18" s="74"/>
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A19" s="94"/>
-      <c r="B19" s="100"/>
-      <c r="C19" s="95"/>
-      <c r="D19" s="95"/>
+      <c r="A19" s="96"/>
+      <c r="B19" s="102"/>
+      <c r="C19" s="97"/>
+      <c r="D19" s="97"/>
       <c r="E19" s="2" t="s">
         <v>138</v>
       </c>
@@ -7685,28 +7716,28 @@
       <c r="S19" s="74"/>
       <c r="T19" s="74"/>
       <c r="U19" s="74"/>
-      <c r="V19" s="108"/>
+      <c r="V19" s="113"/>
       <c r="W19" s="74"/>
       <c r="X19" s="74"/>
       <c r="Y19" s="74"/>
       <c r="Z19" s="74"/>
       <c r="AA19" s="74"/>
       <c r="AB19" s="74"/>
-      <c r="AC19" s="105"/>
+      <c r="AC19" s="110"/>
       <c r="AD19" s="74"/>
       <c r="AE19" s="74"/>
       <c r="AF19" s="74"/>
       <c r="AG19" s="74"/>
       <c r="AH19" s="74"/>
       <c r="AI19" s="74"/>
-      <c r="AJ19" s="102"/>
+      <c r="AJ19" s="107"/>
       <c r="AK19" s="74"/>
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A20" s="94"/>
-      <c r="B20" s="100"/>
-      <c r="C20" s="95"/>
-      <c r="D20" s="95"/>
+      <c r="A20" s="96"/>
+      <c r="B20" s="102"/>
+      <c r="C20" s="97"/>
+      <c r="D20" s="97"/>
       <c r="E20" s="2" t="s">
         <v>112</v>
       </c>
@@ -7736,28 +7767,28 @@
       <c r="S20" s="74"/>
       <c r="T20" s="74"/>
       <c r="U20" s="74"/>
-      <c r="V20" s="108"/>
+      <c r="V20" s="113"/>
       <c r="W20" s="74"/>
       <c r="X20" s="74"/>
       <c r="Y20" s="74"/>
       <c r="Z20" s="74"/>
       <c r="AA20" s="74"/>
       <c r="AB20" s="74"/>
-      <c r="AC20" s="105"/>
+      <c r="AC20" s="110"/>
       <c r="AD20" s="74"/>
       <c r="AE20" s="74"/>
       <c r="AF20" s="74"/>
       <c r="AG20" s="74"/>
       <c r="AH20" s="74"/>
       <c r="AI20" s="74"/>
-      <c r="AJ20" s="102"/>
+      <c r="AJ20" s="107"/>
       <c r="AK20" s="74"/>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A21" s="94"/>
-      <c r="B21" s="100"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
+      <c r="A21" s="96"/>
+      <c r="B21" s="102"/>
+      <c r="C21" s="97"/>
+      <c r="D21" s="97"/>
       <c r="E21" s="2" t="s">
         <v>108</v>
       </c>
@@ -7787,28 +7818,28 @@
       <c r="S21" s="74"/>
       <c r="T21" s="74"/>
       <c r="U21" s="74"/>
-      <c r="V21" s="108"/>
+      <c r="V21" s="113"/>
       <c r="W21" s="74"/>
       <c r="X21" s="74"/>
       <c r="Y21" s="74"/>
       <c r="Z21" s="74"/>
       <c r="AA21" s="74"/>
       <c r="AB21" s="74"/>
-      <c r="AC21" s="105"/>
+      <c r="AC21" s="110"/>
       <c r="AD21" s="74"/>
       <c r="AE21" s="74"/>
       <c r="AF21" s="74"/>
       <c r="AG21" s="74"/>
       <c r="AH21" s="74"/>
       <c r="AI21" s="74"/>
-      <c r="AJ21" s="102"/>
+      <c r="AJ21" s="107"/>
       <c r="AK21" s="74"/>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A22" s="94"/>
-      <c r="B22" s="100"/>
-      <c r="C22" s="95"/>
-      <c r="D22" s="95"/>
+      <c r="A22" s="96"/>
+      <c r="B22" s="102"/>
+      <c r="C22" s="97"/>
+      <c r="D22" s="97"/>
       <c r="E22" s="2" t="s">
         <v>135</v>
       </c>
@@ -7838,28 +7869,28 @@
       <c r="S22" s="74"/>
       <c r="T22" s="74"/>
       <c r="U22" s="74"/>
-      <c r="V22" s="108"/>
+      <c r="V22" s="113"/>
       <c r="W22" s="74"/>
       <c r="X22" s="74"/>
       <c r="Y22" s="74"/>
       <c r="Z22" s="74"/>
       <c r="AA22" s="74"/>
       <c r="AB22" s="74"/>
-      <c r="AC22" s="105"/>
+      <c r="AC22" s="110"/>
       <c r="AD22" s="74"/>
       <c r="AE22" s="74"/>
       <c r="AF22" s="74"/>
       <c r="AG22" s="74"/>
       <c r="AH22" s="74"/>
       <c r="AI22" s="74"/>
-      <c r="AJ22" s="102"/>
+      <c r="AJ22" s="107"/>
       <c r="AK22" s="74"/>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A23" s="94"/>
-      <c r="B23" s="100"/>
-      <c r="C23" s="95"/>
-      <c r="D23" s="95"/>
+      <c r="A23" s="96"/>
+      <c r="B23" s="102"/>
+      <c r="C23" s="97"/>
+      <c r="D23" s="97"/>
       <c r="E23" s="2" t="s">
         <v>118</v>
       </c>
@@ -7889,28 +7920,28 @@
       <c r="S23" s="74"/>
       <c r="T23" s="74"/>
       <c r="U23" s="74"/>
-      <c r="V23" s="108"/>
+      <c r="V23" s="113"/>
       <c r="W23" s="74"/>
       <c r="X23" s="74"/>
       <c r="Y23" s="74"/>
       <c r="Z23" s="74"/>
       <c r="AA23" s="74"/>
       <c r="AB23" s="74"/>
-      <c r="AC23" s="105"/>
+      <c r="AC23" s="110"/>
       <c r="AD23" s="74"/>
       <c r="AE23" s="74"/>
       <c r="AF23" s="74"/>
       <c r="AG23" s="74"/>
       <c r="AH23" s="74"/>
       <c r="AI23" s="74"/>
-      <c r="AJ23" s="102"/>
+      <c r="AJ23" s="107"/>
       <c r="AK23" s="74"/>
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A24" s="94"/>
-      <c r="B24" s="100"/>
-      <c r="C24" s="95"/>
-      <c r="D24" s="95"/>
+      <c r="A24" s="96"/>
+      <c r="B24" s="102"/>
+      <c r="C24" s="97"/>
+      <c r="D24" s="97"/>
       <c r="E24" s="2" t="s">
         <v>109</v>
       </c>
@@ -7940,28 +7971,28 @@
       <c r="S24" s="74"/>
       <c r="T24" s="74"/>
       <c r="U24" s="74"/>
-      <c r="V24" s="108"/>
+      <c r="V24" s="113"/>
       <c r="W24" s="74"/>
       <c r="X24" s="74"/>
       <c r="Y24" s="74"/>
       <c r="Z24" s="74"/>
       <c r="AA24" s="74"/>
       <c r="AB24" s="74"/>
-      <c r="AC24" s="105"/>
+      <c r="AC24" s="110"/>
       <c r="AD24" s="74"/>
       <c r="AE24" s="74"/>
       <c r="AF24" s="74"/>
       <c r="AG24" s="74"/>
       <c r="AH24" s="74"/>
       <c r="AI24" s="74"/>
-      <c r="AJ24" s="102"/>
+      <c r="AJ24" s="107"/>
       <c r="AK24" s="74"/>
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A25" s="94"/>
-      <c r="B25" s="100"/>
-      <c r="C25" s="95"/>
-      <c r="D25" s="95"/>
+      <c r="A25" s="96"/>
+      <c r="B25" s="102"/>
+      <c r="C25" s="97"/>
+      <c r="D25" s="97"/>
       <c r="E25" s="2" t="s">
         <v>167</v>
       </c>
@@ -7991,28 +8022,28 @@
       <c r="S25" s="74"/>
       <c r="T25" s="74"/>
       <c r="U25" s="74"/>
-      <c r="V25" s="108"/>
+      <c r="V25" s="113"/>
       <c r="W25" s="74"/>
       <c r="X25" s="74"/>
       <c r="Y25" s="74"/>
       <c r="Z25" s="74"/>
       <c r="AA25" s="74"/>
       <c r="AB25" s="74"/>
-      <c r="AC25" s="105"/>
+      <c r="AC25" s="110"/>
       <c r="AD25" s="74"/>
       <c r="AE25" s="74"/>
       <c r="AF25" s="74"/>
       <c r="AG25" s="74"/>
       <c r="AH25" s="74"/>
       <c r="AI25" s="74"/>
-      <c r="AJ25" s="102"/>
+      <c r="AJ25" s="107"/>
       <c r="AK25" s="74"/>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A26" s="94"/>
-      <c r="B26" s="100"/>
-      <c r="C26" s="95"/>
-      <c r="D26" s="95"/>
+      <c r="A26" s="96"/>
+      <c r="B26" s="102"/>
+      <c r="C26" s="97"/>
+      <c r="D26" s="97"/>
       <c r="E26" s="2" t="s">
         <v>106</v>
       </c>
@@ -8042,28 +8073,28 @@
       <c r="S26" s="74"/>
       <c r="T26" s="74"/>
       <c r="U26" s="74"/>
-      <c r="V26" s="108"/>
+      <c r="V26" s="113"/>
       <c r="W26" s="74"/>
       <c r="X26" s="74"/>
       <c r="Y26" s="74"/>
       <c r="Z26" s="74"/>
       <c r="AA26" s="74"/>
       <c r="AB26" s="74"/>
-      <c r="AC26" s="105"/>
+      <c r="AC26" s="110"/>
       <c r="AD26" s="74"/>
       <c r="AE26" s="74"/>
       <c r="AF26" s="74"/>
       <c r="AG26" s="74"/>
       <c r="AH26" s="74"/>
       <c r="AI26" s="74"/>
-      <c r="AJ26" s="102"/>
+      <c r="AJ26" s="107"/>
       <c r="AK26" s="74"/>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A27" s="94"/>
-      <c r="B27" s="100"/>
-      <c r="C27" s="95"/>
-      <c r="D27" s="95"/>
+      <c r="A27" s="96"/>
+      <c r="B27" s="102"/>
+      <c r="C27" s="97"/>
+      <c r="D27" s="97"/>
       <c r="E27" s="2" t="s">
         <v>102</v>
       </c>
@@ -8093,28 +8124,28 @@
       <c r="S27" s="74"/>
       <c r="T27" s="74"/>
       <c r="U27" s="74"/>
-      <c r="V27" s="108"/>
+      <c r="V27" s="113"/>
       <c r="W27" s="74"/>
       <c r="X27" s="74"/>
       <c r="Y27" s="74"/>
       <c r="Z27" s="74"/>
       <c r="AA27" s="74"/>
       <c r="AB27" s="74"/>
-      <c r="AC27" s="105"/>
+      <c r="AC27" s="110"/>
       <c r="AD27" s="74"/>
       <c r="AE27" s="74"/>
       <c r="AF27" s="74"/>
       <c r="AG27" s="74"/>
       <c r="AH27" s="74"/>
       <c r="AI27" s="74"/>
-      <c r="AJ27" s="102"/>
+      <c r="AJ27" s="107"/>
       <c r="AK27" s="74"/>
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A28" s="94"/>
-      <c r="B28" s="100"/>
-      <c r="C28" s="95"/>
-      <c r="D28" s="95" t="s">
+      <c r="A28" s="96"/>
+      <c r="B28" s="102"/>
+      <c r="C28" s="97"/>
+      <c r="D28" s="97" t="s">
         <v>25</v>
       </c>
       <c r="E28" s="2" t="s">
@@ -8146,28 +8177,28 @@
       <c r="S28" s="74"/>
       <c r="T28" s="74"/>
       <c r="U28" s="74"/>
-      <c r="V28" s="108"/>
+      <c r="V28" s="113"/>
       <c r="W28" s="74"/>
       <c r="X28" s="74"/>
       <c r="Y28" s="74"/>
       <c r="Z28" s="74"/>
       <c r="AA28" s="74"/>
       <c r="AB28" s="74"/>
-      <c r="AC28" s="105"/>
+      <c r="AC28" s="110"/>
       <c r="AD28" s="74"/>
       <c r="AE28" s="74"/>
       <c r="AF28" s="74"/>
       <c r="AG28" s="74"/>
       <c r="AH28" s="74"/>
       <c r="AI28" s="74"/>
-      <c r="AJ28" s="102"/>
+      <c r="AJ28" s="107"/>
       <c r="AK28" s="74"/>
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A29" s="94"/>
-      <c r="B29" s="100"/>
-      <c r="C29" s="95"/>
-      <c r="D29" s="95"/>
+      <c r="A29" s="96"/>
+      <c r="B29" s="102"/>
+      <c r="C29" s="97"/>
+      <c r="D29" s="97"/>
       <c r="E29" s="2" t="s">
         <v>119</v>
       </c>
@@ -8197,28 +8228,28 @@
       <c r="S29" s="74"/>
       <c r="T29" s="74"/>
       <c r="U29" s="74"/>
-      <c r="V29" s="108"/>
+      <c r="V29" s="113"/>
       <c r="W29" s="74"/>
       <c r="X29" s="74"/>
       <c r="Y29" s="74"/>
       <c r="Z29" s="74"/>
       <c r="AA29" s="74"/>
       <c r="AB29" s="74"/>
-      <c r="AC29" s="105"/>
+      <c r="AC29" s="110"/>
       <c r="AD29" s="74"/>
       <c r="AE29" s="74"/>
       <c r="AF29" s="74"/>
       <c r="AG29" s="74"/>
       <c r="AH29" s="74"/>
       <c r="AI29" s="74"/>
-      <c r="AJ29" s="102"/>
+      <c r="AJ29" s="107"/>
       <c r="AK29" s="74"/>
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A30" s="94"/>
-      <c r="B30" s="100"/>
-      <c r="C30" s="95"/>
-      <c r="D30" s="95" t="s">
+      <c r="A30" s="96"/>
+      <c r="B30" s="102"/>
+      <c r="C30" s="97"/>
+      <c r="D30" s="97" t="s">
         <v>13</v>
       </c>
       <c r="E30" s="2" t="s">
@@ -8248,28 +8279,28 @@
       <c r="S30" s="74"/>
       <c r="T30" s="74"/>
       <c r="U30" s="74"/>
-      <c r="V30" s="108"/>
+      <c r="V30" s="113"/>
       <c r="W30" s="74"/>
       <c r="X30" s="74"/>
       <c r="Y30" s="74"/>
       <c r="Z30" s="74"/>
       <c r="AA30" s="74"/>
       <c r="AB30" s="74"/>
-      <c r="AC30" s="105"/>
+      <c r="AC30" s="110"/>
       <c r="AD30" s="74"/>
       <c r="AE30" s="74"/>
       <c r="AF30" s="74"/>
       <c r="AG30" s="74"/>
       <c r="AH30" s="74"/>
       <c r="AI30" s="74"/>
-      <c r="AJ30" s="102"/>
+      <c r="AJ30" s="107"/>
       <c r="AK30" s="74"/>
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A31" s="94"/>
-      <c r="B31" s="100"/>
-      <c r="C31" s="95"/>
-      <c r="D31" s="95"/>
+      <c r="A31" s="96"/>
+      <c r="B31" s="102"/>
+      <c r="C31" s="97"/>
+      <c r="D31" s="97"/>
       <c r="E31" s="2" t="s">
         <v>143</v>
       </c>
@@ -8293,28 +8324,28 @@
       <c r="S31" s="74"/>
       <c r="T31" s="74"/>
       <c r="U31" s="74"/>
-      <c r="V31" s="108"/>
+      <c r="V31" s="113"/>
       <c r="W31" s="74"/>
       <c r="X31" s="74"/>
       <c r="Y31" s="74"/>
       <c r="Z31" s="74"/>
       <c r="AA31" s="74"/>
       <c r="AB31" s="74"/>
-      <c r="AC31" s="105"/>
+      <c r="AC31" s="110"/>
       <c r="AD31" s="74"/>
       <c r="AE31" s="74"/>
       <c r="AF31" s="74"/>
       <c r="AG31" s="74"/>
       <c r="AH31" s="74"/>
       <c r="AI31" s="74"/>
-      <c r="AJ31" s="102"/>
+      <c r="AJ31" s="107"/>
       <c r="AK31" s="74"/>
     </row>
     <row r="32" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A32" s="94"/>
-      <c r="B32" s="100"/>
-      <c r="C32" s="95"/>
-      <c r="D32" s="95"/>
+      <c r="A32" s="96"/>
+      <c r="B32" s="102"/>
+      <c r="C32" s="97"/>
+      <c r="D32" s="97"/>
       <c r="E32" s="2" t="s">
         <v>113</v>
       </c>
@@ -8344,28 +8375,28 @@
       <c r="S32" s="74"/>
       <c r="T32" s="74"/>
       <c r="U32" s="74"/>
-      <c r="V32" s="108"/>
+      <c r="V32" s="113"/>
       <c r="W32" s="74"/>
       <c r="X32" s="74"/>
       <c r="Y32" s="74"/>
       <c r="Z32" s="74"/>
       <c r="AA32" s="74"/>
       <c r="AB32" s="74"/>
-      <c r="AC32" s="105"/>
+      <c r="AC32" s="110"/>
       <c r="AD32" s="74"/>
       <c r="AE32" s="74"/>
       <c r="AF32" s="74"/>
       <c r="AG32" s="74"/>
       <c r="AH32" s="74"/>
       <c r="AI32" s="74"/>
-      <c r="AJ32" s="102"/>
+      <c r="AJ32" s="107"/>
       <c r="AK32" s="74"/>
     </row>
     <row r="33" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A33" s="94"/>
-      <c r="B33" s="100"/>
-      <c r="C33" s="95"/>
-      <c r="D33" s="97" t="s">
+      <c r="A33" s="96"/>
+      <c r="B33" s="102"/>
+      <c r="C33" s="97"/>
+      <c r="D33" s="99" t="s">
         <v>90</v>
       </c>
       <c r="E33" s="2" t="s">
@@ -8397,28 +8428,28 @@
       <c r="S33" s="74"/>
       <c r="T33" s="74"/>
       <c r="U33" s="74"/>
-      <c r="V33" s="108"/>
+      <c r="V33" s="113"/>
       <c r="W33" s="74"/>
       <c r="X33" s="74"/>
       <c r="Y33" s="74"/>
       <c r="Z33" s="74"/>
       <c r="AA33" s="74"/>
       <c r="AB33" s="74"/>
-      <c r="AC33" s="105"/>
+      <c r="AC33" s="110"/>
       <c r="AD33" s="74"/>
       <c r="AE33" s="74"/>
       <c r="AF33" s="74"/>
       <c r="AG33" s="74"/>
       <c r="AH33" s="74"/>
       <c r="AI33" s="74"/>
-      <c r="AJ33" s="102"/>
+      <c r="AJ33" s="107"/>
       <c r="AK33" s="74"/>
     </row>
     <row r="34" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A34" s="94"/>
-      <c r="B34" s="100"/>
-      <c r="C34" s="95"/>
-      <c r="D34" s="98"/>
+      <c r="A34" s="96"/>
+      <c r="B34" s="102"/>
+      <c r="C34" s="97"/>
+      <c r="D34" s="100"/>
       <c r="E34" s="2" t="s">
         <v>141</v>
       </c>
@@ -8448,28 +8479,28 @@
       <c r="S34" s="74"/>
       <c r="T34" s="74"/>
       <c r="U34" s="74"/>
-      <c r="V34" s="108"/>
+      <c r="V34" s="113"/>
       <c r="W34" s="74"/>
       <c r="X34" s="74"/>
       <c r="Y34" s="74"/>
       <c r="Z34" s="74"/>
       <c r="AA34" s="74"/>
       <c r="AB34" s="74"/>
-      <c r="AC34" s="105"/>
+      <c r="AC34" s="110"/>
       <c r="AD34" s="74"/>
       <c r="AE34" s="74"/>
       <c r="AF34" s="74"/>
       <c r="AG34" s="74"/>
       <c r="AH34" s="74"/>
       <c r="AI34" s="74"/>
-      <c r="AJ34" s="102"/>
+      <c r="AJ34" s="107"/>
       <c r="AK34" s="74"/>
     </row>
     <row r="35" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A35" s="94"/>
-      <c r="B35" s="100"/>
-      <c r="C35" s="95"/>
-      <c r="D35" s="98"/>
+      <c r="A35" s="96"/>
+      <c r="B35" s="102"/>
+      <c r="C35" s="97"/>
+      <c r="D35" s="100"/>
       <c r="E35" s="2" t="s">
         <v>103</v>
       </c>
@@ -8499,28 +8530,28 @@
       <c r="S35" s="74"/>
       <c r="T35" s="74"/>
       <c r="U35" s="74"/>
-      <c r="V35" s="108"/>
+      <c r="V35" s="113"/>
       <c r="W35" s="74"/>
       <c r="X35" s="74"/>
       <c r="Y35" s="74"/>
       <c r="Z35" s="74"/>
       <c r="AA35" s="74"/>
       <c r="AB35" s="74"/>
-      <c r="AC35" s="105"/>
+      <c r="AC35" s="110"/>
       <c r="AD35" s="74"/>
       <c r="AE35" s="74"/>
       <c r="AF35" s="74"/>
       <c r="AG35" s="74"/>
       <c r="AH35" s="74"/>
       <c r="AI35" s="74"/>
-      <c r="AJ35" s="102"/>
+      <c r="AJ35" s="107"/>
       <c r="AK35" s="74"/>
     </row>
     <row r="36" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A36" s="94"/>
-      <c r="B36" s="100"/>
-      <c r="C36" s="95"/>
-      <c r="D36" s="98"/>
+      <c r="A36" s="96"/>
+      <c r="B36" s="102"/>
+      <c r="C36" s="97"/>
+      <c r="D36" s="100"/>
       <c r="E36" s="2" t="s">
         <v>224</v>
       </c>
@@ -8550,28 +8581,28 @@
       <c r="S36" s="74"/>
       <c r="T36" s="74"/>
       <c r="U36" s="74"/>
-      <c r="V36" s="108"/>
+      <c r="V36" s="113"/>
       <c r="W36" s="74"/>
       <c r="X36" s="74"/>
       <c r="Y36" s="74"/>
       <c r="Z36" s="74"/>
       <c r="AA36" s="74"/>
       <c r="AB36" s="74"/>
-      <c r="AC36" s="105"/>
+      <c r="AC36" s="110"/>
       <c r="AD36" s="74"/>
       <c r="AE36" s="74"/>
       <c r="AF36" s="74"/>
       <c r="AG36" s="74"/>
       <c r="AH36" s="74"/>
       <c r="AI36" s="74"/>
-      <c r="AJ36" s="102"/>
+      <c r="AJ36" s="107"/>
       <c r="AK36" s="74"/>
     </row>
     <row r="37" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A37" s="94"/>
-      <c r="B37" s="100"/>
-      <c r="C37" s="95"/>
-      <c r="D37" s="98"/>
+      <c r="A37" s="96"/>
+      <c r="B37" s="102"/>
+      <c r="C37" s="97"/>
+      <c r="D37" s="100"/>
       <c r="E37" s="2" t="s">
         <v>251</v>
       </c>
@@ -8601,28 +8632,28 @@
       <c r="S37" s="74"/>
       <c r="T37" s="74"/>
       <c r="U37" s="74"/>
-      <c r="V37" s="108"/>
+      <c r="V37" s="113"/>
       <c r="W37" s="74"/>
       <c r="X37" s="74"/>
       <c r="Y37" s="74"/>
       <c r="Z37" s="74"/>
       <c r="AA37" s="74"/>
       <c r="AB37" s="74"/>
-      <c r="AC37" s="105"/>
+      <c r="AC37" s="110"/>
       <c r="AD37" s="74"/>
       <c r="AE37" s="74"/>
       <c r="AF37" s="74"/>
       <c r="AG37" s="74"/>
       <c r="AH37" s="74"/>
       <c r="AI37" s="74"/>
-      <c r="AJ37" s="102"/>
+      <c r="AJ37" s="107"/>
       <c r="AK37" s="74"/>
     </row>
     <row r="38" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A38" s="94"/>
-      <c r="B38" s="100"/>
-      <c r="C38" s="95"/>
-      <c r="D38" s="99"/>
+      <c r="A38" s="96"/>
+      <c r="B38" s="102"/>
+      <c r="C38" s="97"/>
+      <c r="D38" s="101"/>
       <c r="E38" s="2" t="s">
         <v>253</v>
       </c>
@@ -8644,27 +8675,27 @@
       <c r="S38" s="74"/>
       <c r="T38" s="74"/>
       <c r="U38" s="74"/>
-      <c r="V38" s="108"/>
+      <c r="V38" s="113"/>
       <c r="W38" s="74"/>
       <c r="X38" s="74"/>
       <c r="Y38" s="74"/>
       <c r="Z38" s="74"/>
       <c r="AA38" s="74"/>
       <c r="AB38" s="74"/>
-      <c r="AC38" s="105"/>
+      <c r="AC38" s="110"/>
       <c r="AD38" s="74"/>
       <c r="AE38" s="74"/>
       <c r="AF38" s="74"/>
       <c r="AG38" s="74"/>
       <c r="AH38" s="74"/>
       <c r="AI38" s="74"/>
-      <c r="AJ38" s="102"/>
+      <c r="AJ38" s="107"/>
       <c r="AK38" s="74"/>
     </row>
     <row r="39" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A39" s="94"/>
-      <c r="B39" s="100"/>
-      <c r="C39" s="95"/>
+      <c r="A39" s="96"/>
+      <c r="B39" s="102"/>
+      <c r="C39" s="97"/>
       <c r="D39" s="2" t="s">
         <v>24</v>
       </c>
@@ -8691,27 +8722,27 @@
       <c r="S39" s="74"/>
       <c r="T39" s="74"/>
       <c r="U39" s="74"/>
-      <c r="V39" s="108"/>
+      <c r="V39" s="113"/>
       <c r="W39" s="74"/>
       <c r="X39" s="74"/>
       <c r="Y39" s="74"/>
       <c r="Z39" s="74"/>
       <c r="AA39" s="74"/>
       <c r="AB39" s="74"/>
-      <c r="AC39" s="105"/>
+      <c r="AC39" s="110"/>
       <c r="AD39" s="74"/>
       <c r="AE39" s="74"/>
       <c r="AF39" s="74"/>
       <c r="AG39" s="74"/>
       <c r="AH39" s="74"/>
       <c r="AI39" s="74"/>
-      <c r="AJ39" s="102"/>
+      <c r="AJ39" s="107"/>
       <c r="AK39" s="74"/>
     </row>
     <row r="40" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A40" s="94"/>
-      <c r="B40" s="100"/>
-      <c r="C40" s="95"/>
+      <c r="A40" s="96"/>
+      <c r="B40" s="102"/>
+      <c r="C40" s="97"/>
       <c r="D40" s="2" t="s">
         <v>144</v>
       </c>
@@ -8744,27 +8775,27 @@
       <c r="S40" s="74"/>
       <c r="T40" s="74"/>
       <c r="U40" s="74"/>
-      <c r="V40" s="108"/>
+      <c r="V40" s="113"/>
       <c r="W40" s="74"/>
       <c r="X40" s="74"/>
       <c r="Y40" s="74"/>
       <c r="Z40" s="74"/>
       <c r="AA40" s="74"/>
       <c r="AB40" s="74"/>
-      <c r="AC40" s="105"/>
+      <c r="AC40" s="110"/>
       <c r="AD40" s="74"/>
       <c r="AE40" s="74"/>
       <c r="AF40" s="74"/>
       <c r="AG40" s="74"/>
       <c r="AH40" s="74"/>
       <c r="AI40" s="74"/>
-      <c r="AJ40" s="102"/>
+      <c r="AJ40" s="107"/>
       <c r="AK40" s="74"/>
     </row>
     <row r="41" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A41" s="94"/>
-      <c r="B41" s="100"/>
-      <c r="C41" s="95"/>
+      <c r="A41" s="96"/>
+      <c r="B41" s="102"/>
+      <c r="C41" s="97"/>
       <c r="D41" s="2" t="s">
         <v>94</v>
       </c>
@@ -8787,27 +8818,27 @@
       <c r="S41" s="74"/>
       <c r="T41" s="74"/>
       <c r="U41" s="74"/>
-      <c r="V41" s="108"/>
+      <c r="V41" s="113"/>
       <c r="W41" s="74"/>
       <c r="X41" s="74"/>
       <c r="Y41" s="74"/>
       <c r="Z41" s="74"/>
       <c r="AA41" s="74"/>
       <c r="AB41" s="74"/>
-      <c r="AC41" s="105"/>
+      <c r="AC41" s="110"/>
       <c r="AD41" s="74"/>
       <c r="AE41" s="74"/>
       <c r="AF41" s="74"/>
       <c r="AG41" s="74"/>
       <c r="AH41" s="74"/>
       <c r="AI41" s="74"/>
-      <c r="AJ41" s="102"/>
+      <c r="AJ41" s="107"/>
       <c r="AK41" s="74"/>
     </row>
     <row r="42" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A42" s="94"/>
-      <c r="B42" s="100"/>
-      <c r="C42" s="95"/>
+      <c r="A42" s="96"/>
+      <c r="B42" s="102"/>
+      <c r="C42" s="97"/>
       <c r="D42" s="2" t="s">
         <v>23</v>
       </c>
@@ -8832,27 +8863,27 @@
       <c r="S42" s="74"/>
       <c r="T42" s="74"/>
       <c r="U42" s="74"/>
-      <c r="V42" s="108"/>
+      <c r="V42" s="113"/>
       <c r="W42" s="74"/>
       <c r="X42" s="74"/>
       <c r="Y42" s="74"/>
       <c r="Z42" s="74"/>
       <c r="AA42" s="74"/>
       <c r="AB42" s="74"/>
-      <c r="AC42" s="105"/>
+      <c r="AC42" s="110"/>
       <c r="AD42" s="74"/>
       <c r="AE42" s="74"/>
       <c r="AF42" s="74"/>
       <c r="AG42" s="74"/>
       <c r="AH42" s="74"/>
       <c r="AI42" s="74"/>
-      <c r="AJ42" s="102"/>
+      <c r="AJ42" s="107"/>
       <c r="AK42" s="74"/>
     </row>
     <row r="43" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A43" s="94"/>
-      <c r="B43" s="100"/>
-      <c r="C43" s="95"/>
+      <c r="A43" s="96"/>
+      <c r="B43" s="102"/>
+      <c r="C43" s="97"/>
       <c r="D43" s="34" t="s">
         <v>27</v>
       </c>
@@ -8877,27 +8908,27 @@
       <c r="S43" s="74"/>
       <c r="T43" s="74"/>
       <c r="U43" s="74"/>
-      <c r="V43" s="108"/>
+      <c r="V43" s="113"/>
       <c r="W43" s="74"/>
       <c r="X43" s="74"/>
       <c r="Y43" s="74"/>
       <c r="Z43" s="74"/>
       <c r="AA43" s="74"/>
       <c r="AB43" s="74"/>
-      <c r="AC43" s="105"/>
+      <c r="AC43" s="110"/>
       <c r="AD43" s="74"/>
       <c r="AE43" s="74"/>
       <c r="AF43" s="74"/>
       <c r="AG43" s="74"/>
       <c r="AH43" s="74"/>
       <c r="AI43" s="74"/>
-      <c r="AJ43" s="102"/>
+      <c r="AJ43" s="107"/>
       <c r="AK43" s="74"/>
     </row>
     <row r="44" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A44" s="94"/>
-      <c r="B44" s="100"/>
-      <c r="C44" s="95"/>
+      <c r="A44" s="96"/>
+      <c r="B44" s="102"/>
+      <c r="C44" s="97"/>
       <c r="D44" s="33" t="s">
         <v>45</v>
       </c>
@@ -8922,27 +8953,27 @@
       <c r="S44" s="74"/>
       <c r="T44" s="74"/>
       <c r="U44" s="74"/>
-      <c r="V44" s="108"/>
+      <c r="V44" s="113"/>
       <c r="W44" s="74"/>
       <c r="X44" s="74"/>
       <c r="Y44" s="74"/>
       <c r="Z44" s="74"/>
       <c r="AA44" s="74"/>
       <c r="AB44" s="74"/>
-      <c r="AC44" s="105"/>
+      <c r="AC44" s="110"/>
       <c r="AD44" s="74"/>
       <c r="AE44" s="74"/>
       <c r="AF44" s="74"/>
       <c r="AG44" s="74"/>
       <c r="AH44" s="74"/>
       <c r="AI44" s="74"/>
-      <c r="AJ44" s="102"/>
+      <c r="AJ44" s="107"/>
       <c r="AK44" s="74"/>
     </row>
     <row r="45" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A45" s="94"/>
-      <c r="B45" s="100"/>
-      <c r="C45" s="95"/>
+      <c r="A45" s="96"/>
+      <c r="B45" s="102"/>
+      <c r="C45" s="97"/>
       <c r="D45" s="2" t="s">
         <v>26</v>
       </c>
@@ -8965,27 +8996,27 @@
       <c r="S45" s="74"/>
       <c r="T45" s="74"/>
       <c r="U45" s="74"/>
-      <c r="V45" s="108"/>
+      <c r="V45" s="113"/>
       <c r="W45" s="74"/>
       <c r="X45" s="74"/>
       <c r="Y45" s="74"/>
       <c r="Z45" s="74"/>
       <c r="AA45" s="74"/>
       <c r="AB45" s="74"/>
-      <c r="AC45" s="105"/>
+      <c r="AC45" s="110"/>
       <c r="AD45" s="74"/>
       <c r="AE45" s="74"/>
       <c r="AF45" s="74"/>
       <c r="AG45" s="74"/>
       <c r="AH45" s="74"/>
       <c r="AI45" s="74"/>
-      <c r="AJ45" s="102"/>
+      <c r="AJ45" s="107"/>
       <c r="AK45" s="74"/>
     </row>
     <row r="46" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A46" s="94"/>
-      <c r="B46" s="100"/>
-      <c r="C46" s="95" t="s">
+      <c r="A46" s="96"/>
+      <c r="B46" s="102"/>
+      <c r="C46" s="97" t="s">
         <v>42</v>
       </c>
       <c r="D46" s="35" t="s">
@@ -9010,27 +9041,27 @@
       <c r="S46" s="74"/>
       <c r="T46" s="74"/>
       <c r="U46" s="74"/>
-      <c r="V46" s="108"/>
+      <c r="V46" s="113"/>
       <c r="W46" s="74"/>
       <c r="X46" s="74"/>
       <c r="Y46" s="74"/>
       <c r="Z46" s="74"/>
       <c r="AA46" s="74"/>
       <c r="AB46" s="74"/>
-      <c r="AC46" s="105"/>
+      <c r="AC46" s="110"/>
       <c r="AD46" s="74"/>
       <c r="AE46" s="74"/>
       <c r="AF46" s="74"/>
       <c r="AG46" s="74"/>
       <c r="AH46" s="74"/>
       <c r="AI46" s="74"/>
-      <c r="AJ46" s="102"/>
+      <c r="AJ46" s="107"/>
       <c r="AK46" s="74"/>
     </row>
     <row r="47" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A47" s="94"/>
-      <c r="B47" s="100"/>
-      <c r="C47" s="95"/>
+      <c r="A47" s="96"/>
+      <c r="B47" s="102"/>
+      <c r="C47" s="97"/>
       <c r="D47" s="2" t="s">
         <v>26</v>
       </c>
@@ -9053,27 +9084,27 @@
       <c r="S47" s="74"/>
       <c r="T47" s="74"/>
       <c r="U47" s="74"/>
-      <c r="V47" s="108"/>
+      <c r="V47" s="113"/>
       <c r="W47" s="74"/>
       <c r="X47" s="74"/>
       <c r="Y47" s="74"/>
       <c r="Z47" s="74"/>
       <c r="AA47" s="74"/>
       <c r="AB47" s="74"/>
-      <c r="AC47" s="105"/>
+      <c r="AC47" s="110"/>
       <c r="AD47" s="74"/>
       <c r="AE47" s="74"/>
       <c r="AF47" s="74"/>
       <c r="AG47" s="74"/>
       <c r="AH47" s="74"/>
       <c r="AI47" s="74"/>
-      <c r="AJ47" s="102"/>
+      <c r="AJ47" s="107"/>
       <c r="AK47" s="74"/>
     </row>
     <row r="48" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A48" s="94"/>
-      <c r="B48" s="100"/>
-      <c r="C48" s="95" t="s">
+      <c r="A48" s="96"/>
+      <c r="B48" s="102"/>
+      <c r="C48" s="97" t="s">
         <v>43</v>
       </c>
       <c r="D48" s="33" t="s">
@@ -9098,27 +9129,27 @@
       <c r="S48" s="74"/>
       <c r="T48" s="74"/>
       <c r="U48" s="74"/>
-      <c r="V48" s="108"/>
+      <c r="V48" s="113"/>
       <c r="W48" s="74"/>
       <c r="X48" s="74"/>
       <c r="Y48" s="74"/>
       <c r="Z48" s="74"/>
       <c r="AA48" s="74"/>
       <c r="AB48" s="74"/>
-      <c r="AC48" s="105"/>
+      <c r="AC48" s="110"/>
       <c r="AD48" s="74"/>
       <c r="AE48" s="74"/>
       <c r="AF48" s="74"/>
       <c r="AG48" s="74"/>
       <c r="AH48" s="74"/>
       <c r="AI48" s="74"/>
-      <c r="AJ48" s="102"/>
+      <c r="AJ48" s="107"/>
       <c r="AK48" s="74"/>
     </row>
     <row r="49" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A49" s="94"/>
-      <c r="B49" s="100"/>
-      <c r="C49" s="95"/>
+      <c r="A49" s="96"/>
+      <c r="B49" s="102"/>
+      <c r="C49" s="97"/>
       <c r="D49" s="2" t="s">
         <v>26</v>
       </c>
@@ -9141,27 +9172,27 @@
       <c r="S49" s="74"/>
       <c r="T49" s="74"/>
       <c r="U49" s="74"/>
-      <c r="V49" s="108"/>
+      <c r="V49" s="113"/>
       <c r="W49" s="74"/>
       <c r="X49" s="74"/>
       <c r="Y49" s="74"/>
       <c r="Z49" s="74"/>
       <c r="AA49" s="74"/>
       <c r="AB49" s="74"/>
-      <c r="AC49" s="105"/>
+      <c r="AC49" s="110"/>
       <c r="AD49" s="74"/>
       <c r="AE49" s="74"/>
       <c r="AF49" s="74"/>
       <c r="AG49" s="74"/>
       <c r="AH49" s="74"/>
       <c r="AI49" s="74"/>
-      <c r="AJ49" s="102"/>
+      <c r="AJ49" s="107"/>
       <c r="AK49" s="74"/>
     </row>
     <row r="50" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A50" s="94"/>
-      <c r="B50" s="100"/>
-      <c r="C50" s="95"/>
+      <c r="A50" s="96"/>
+      <c r="B50" s="102"/>
+      <c r="C50" s="97"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="19"/>
@@ -9182,27 +9213,27 @@
       <c r="S50" s="74"/>
       <c r="T50" s="74"/>
       <c r="U50" s="74"/>
-      <c r="V50" s="108"/>
+      <c r="V50" s="113"/>
       <c r="W50" s="74"/>
       <c r="X50" s="74"/>
       <c r="Y50" s="74"/>
       <c r="Z50" s="74"/>
       <c r="AA50" s="74"/>
       <c r="AB50" s="74"/>
-      <c r="AC50" s="105"/>
+      <c r="AC50" s="110"/>
       <c r="AD50" s="74"/>
       <c r="AE50" s="74"/>
       <c r="AF50" s="74"/>
       <c r="AG50" s="74"/>
       <c r="AH50" s="74"/>
       <c r="AI50" s="74"/>
-      <c r="AJ50" s="102"/>
+      <c r="AJ50" s="107"/>
       <c r="AK50" s="74"/>
     </row>
     <row r="51" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A51" s="94"/>
-      <c r="B51" s="100"/>
-      <c r="C51" s="95" t="s">
+      <c r="A51" s="96"/>
+      <c r="B51" s="102"/>
+      <c r="C51" s="97" t="s">
         <v>17</v>
       </c>
       <c r="D51" s="2" t="s">
@@ -9229,27 +9260,27 @@
       <c r="S51" s="74"/>
       <c r="T51" s="74"/>
       <c r="U51" s="74"/>
-      <c r="V51" s="108"/>
+      <c r="V51" s="113"/>
       <c r="W51" s="74"/>
       <c r="X51" s="74"/>
       <c r="Y51" s="74"/>
       <c r="Z51" s="74"/>
       <c r="AA51" s="74"/>
       <c r="AB51" s="74"/>
-      <c r="AC51" s="105"/>
+      <c r="AC51" s="110"/>
       <c r="AD51" s="74"/>
       <c r="AE51" s="74"/>
       <c r="AF51" s="74"/>
       <c r="AG51" s="74"/>
       <c r="AH51" s="74"/>
       <c r="AI51" s="74"/>
-      <c r="AJ51" s="102"/>
+      <c r="AJ51" s="107"/>
       <c r="AK51" s="74"/>
     </row>
     <row r="52" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A52" s="94"/>
-      <c r="B52" s="100"/>
-      <c r="C52" s="95"/>
+      <c r="A52" s="96"/>
+      <c r="B52" s="102"/>
+      <c r="C52" s="97"/>
       <c r="D52" s="2" t="s">
         <v>36</v>
       </c>
@@ -9274,27 +9305,27 @@
       <c r="S52" s="74"/>
       <c r="T52" s="74"/>
       <c r="U52" s="74"/>
-      <c r="V52" s="108"/>
+      <c r="V52" s="113"/>
       <c r="W52" s="74"/>
       <c r="X52" s="74"/>
       <c r="Y52" s="74"/>
       <c r="Z52" s="74"/>
       <c r="AA52" s="74"/>
       <c r="AB52" s="74"/>
-      <c r="AC52" s="105"/>
+      <c r="AC52" s="110"/>
       <c r="AD52" s="74"/>
       <c r="AE52" s="74"/>
       <c r="AF52" s="74"/>
       <c r="AG52" s="74"/>
       <c r="AH52" s="74"/>
       <c r="AI52" s="74"/>
-      <c r="AJ52" s="102"/>
+      <c r="AJ52" s="107"/>
       <c r="AK52" s="74"/>
     </row>
     <row r="53" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A53" s="94"/>
-      <c r="B53" s="100"/>
-      <c r="C53" s="95"/>
+      <c r="A53" s="96"/>
+      <c r="B53" s="102"/>
+      <c r="C53" s="97"/>
       <c r="D53" s="2" t="s">
         <v>37</v>
       </c>
@@ -9319,27 +9350,27 @@
       <c r="S53" s="74"/>
       <c r="T53" s="74"/>
       <c r="U53" s="74"/>
-      <c r="V53" s="108"/>
+      <c r="V53" s="113"/>
       <c r="W53" s="74"/>
       <c r="X53" s="74"/>
       <c r="Y53" s="74"/>
       <c r="Z53" s="74"/>
       <c r="AA53" s="74"/>
       <c r="AB53" s="74"/>
-      <c r="AC53" s="105"/>
+      <c r="AC53" s="110"/>
       <c r="AD53" s="74"/>
       <c r="AE53" s="74"/>
       <c r="AF53" s="74"/>
       <c r="AG53" s="74"/>
       <c r="AH53" s="74"/>
       <c r="AI53" s="74"/>
-      <c r="AJ53" s="102"/>
+      <c r="AJ53" s="107"/>
       <c r="AK53" s="74"/>
     </row>
     <row r="54" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A54" s="94"/>
-      <c r="B54" s="100"/>
-      <c r="C54" s="95"/>
+      <c r="A54" s="96"/>
+      <c r="B54" s="102"/>
+      <c r="C54" s="97"/>
       <c r="D54" s="2" t="s">
         <v>38</v>
       </c>
@@ -9364,27 +9395,27 @@
       <c r="S54" s="74"/>
       <c r="T54" s="74"/>
       <c r="U54" s="74"/>
-      <c r="V54" s="108"/>
+      <c r="V54" s="113"/>
       <c r="W54" s="74"/>
       <c r="X54" s="74"/>
       <c r="Y54" s="74"/>
       <c r="Z54" s="74"/>
       <c r="AA54" s="74"/>
       <c r="AB54" s="74"/>
-      <c r="AC54" s="105"/>
+      <c r="AC54" s="110"/>
       <c r="AD54" s="74"/>
       <c r="AE54" s="74"/>
       <c r="AF54" s="74"/>
       <c r="AG54" s="74"/>
       <c r="AH54" s="74"/>
       <c r="AI54" s="74"/>
-      <c r="AJ54" s="102"/>
+      <c r="AJ54" s="107"/>
       <c r="AK54" s="74"/>
     </row>
     <row r="55" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A55" s="94"/>
-      <c r="B55" s="100"/>
-      <c r="C55" s="95"/>
+      <c r="A55" s="96"/>
+      <c r="B55" s="102"/>
+      <c r="C55" s="97"/>
       <c r="D55" s="2" t="s">
         <v>33</v>
       </c>
@@ -9409,27 +9440,27 @@
       <c r="S55" s="74"/>
       <c r="T55" s="74"/>
       <c r="U55" s="74"/>
-      <c r="V55" s="108"/>
+      <c r="V55" s="113"/>
       <c r="W55" s="74"/>
       <c r="X55" s="74"/>
       <c r="Y55" s="74"/>
       <c r="Z55" s="74"/>
       <c r="AA55" s="74"/>
       <c r="AB55" s="74"/>
-      <c r="AC55" s="105"/>
+      <c r="AC55" s="110"/>
       <c r="AD55" s="74"/>
       <c r="AE55" s="74"/>
       <c r="AF55" s="74"/>
       <c r="AG55" s="74"/>
       <c r="AH55" s="74"/>
       <c r="AI55" s="74"/>
-      <c r="AJ55" s="102"/>
+      <c r="AJ55" s="107"/>
       <c r="AK55" s="74"/>
     </row>
     <row r="56" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A56" s="94"/>
-      <c r="B56" s="100"/>
-      <c r="C56" s="95" t="s">
+      <c r="A56" s="96"/>
+      <c r="B56" s="102"/>
+      <c r="C56" s="97" t="s">
         <v>121</v>
       </c>
       <c r="D56" s="2" t="s">
@@ -9462,27 +9493,27 @@
       <c r="S56" s="74"/>
       <c r="T56" s="74"/>
       <c r="U56" s="74"/>
-      <c r="V56" s="108"/>
+      <c r="V56" s="113"/>
       <c r="W56" s="74"/>
       <c r="X56" s="74"/>
       <c r="Y56" s="74"/>
       <c r="Z56" s="74"/>
       <c r="AA56" s="74"/>
       <c r="AB56" s="74"/>
-      <c r="AC56" s="105"/>
+      <c r="AC56" s="110"/>
       <c r="AD56" s="74"/>
       <c r="AE56" s="74"/>
       <c r="AF56" s="74"/>
       <c r="AG56" s="74"/>
       <c r="AH56" s="74"/>
       <c r="AI56" s="74"/>
-      <c r="AJ56" s="102"/>
+      <c r="AJ56" s="107"/>
       <c r="AK56" s="74"/>
     </row>
     <row r="57" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A57" s="94"/>
-      <c r="B57" s="100"/>
-      <c r="C57" s="95"/>
+      <c r="A57" s="96"/>
+      <c r="B57" s="102"/>
+      <c r="C57" s="97"/>
       <c r="D57" s="2" t="s">
         <v>151</v>
       </c>
@@ -9513,26 +9544,26 @@
       <c r="S57" s="74"/>
       <c r="T57" s="74"/>
       <c r="U57" s="74"/>
-      <c r="V57" s="108"/>
+      <c r="V57" s="113"/>
       <c r="W57" s="74"/>
       <c r="X57" s="74"/>
       <c r="Y57" s="74"/>
       <c r="Z57" s="74"/>
       <c r="AA57" s="74"/>
       <c r="AB57" s="74"/>
-      <c r="AC57" s="105"/>
+      <c r="AC57" s="110"/>
       <c r="AD57" s="74"/>
       <c r="AE57" s="74"/>
       <c r="AF57" s="74"/>
       <c r="AG57" s="74"/>
       <c r="AH57" s="74"/>
       <c r="AI57" s="74"/>
-      <c r="AJ57" s="102"/>
+      <c r="AJ57" s="107"/>
       <c r="AK57" s="74"/>
     </row>
     <row r="58" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="94"/>
-      <c r="B58" s="100"/>
+      <c r="A58" s="96"/>
+      <c r="B58" s="102"/>
       <c r="C58" s="20" t="s">
         <v>71</v>
       </c>
@@ -9544,7 +9575,7 @@
       <c r="G58" s="20"/>
       <c r="H58" s="37"/>
       <c r="I58" s="37"/>
-      <c r="J58" s="117">
+      <c r="J58" s="94">
         <v>0</v>
       </c>
       <c r="K58" s="85"/>
@@ -9558,32 +9589,32 @@
       <c r="S58" s="20"/>
       <c r="T58" s="20"/>
       <c r="U58" s="20"/>
-      <c r="V58" s="108"/>
+      <c r="V58" s="113"/>
       <c r="W58" s="20"/>
       <c r="X58" s="20"/>
       <c r="Y58" s="20"/>
       <c r="Z58" s="20"/>
       <c r="AA58" s="20"/>
       <c r="AB58" s="20"/>
-      <c r="AC58" s="105"/>
+      <c r="AC58" s="110"/>
       <c r="AD58" s="74"/>
       <c r="AE58" s="74"/>
       <c r="AF58" s="74"/>
       <c r="AG58" s="74"/>
       <c r="AH58" s="74"/>
       <c r="AI58" s="74"/>
-      <c r="AJ58" s="102"/>
+      <c r="AJ58" s="107"/>
       <c r="AK58" s="74"/>
     </row>
     <row r="59" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A59" s="94"/>
-      <c r="B59" s="114" t="s">
+      <c r="A59" s="96"/>
+      <c r="B59" s="103" t="s">
         <v>120</v>
       </c>
-      <c r="C59" s="95" t="s">
+      <c r="C59" s="97" t="s">
         <v>92</v>
       </c>
-      <c r="D59" s="95" t="s">
+      <c r="D59" s="97" t="s">
         <v>29</v>
       </c>
       <c r="E59" s="2" t="s">
@@ -9615,28 +9646,28 @@
       <c r="S59" s="74"/>
       <c r="T59" s="74"/>
       <c r="U59" s="74"/>
-      <c r="V59" s="108"/>
+      <c r="V59" s="113"/>
       <c r="W59" s="74"/>
       <c r="X59" s="74"/>
       <c r="Y59" s="74"/>
       <c r="Z59" s="74"/>
       <c r="AA59" s="74"/>
       <c r="AB59" s="74"/>
-      <c r="AC59" s="105"/>
+      <c r="AC59" s="110"/>
       <c r="AD59" s="74"/>
       <c r="AE59" s="74"/>
       <c r="AF59" s="74"/>
       <c r="AG59" s="74"/>
       <c r="AH59" s="74"/>
       <c r="AI59" s="74"/>
-      <c r="AJ59" s="102"/>
+      <c r="AJ59" s="107"/>
       <c r="AK59" s="74"/>
     </row>
     <row r="60" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A60" s="94"/>
-      <c r="B60" s="115"/>
-      <c r="C60" s="95"/>
-      <c r="D60" s="95"/>
+      <c r="A60" s="96"/>
+      <c r="B60" s="104"/>
+      <c r="C60" s="97"/>
+      <c r="D60" s="97"/>
       <c r="E60" s="2" t="s">
         <v>130</v>
       </c>
@@ -9666,30 +9697,30 @@
       <c r="S60" s="74"/>
       <c r="T60" s="74"/>
       <c r="U60" s="74"/>
-      <c r="V60" s="108"/>
+      <c r="V60" s="113"/>
       <c r="W60" s="74"/>
       <c r="X60" s="74"/>
       <c r="Y60" s="74"/>
       <c r="Z60" s="74"/>
       <c r="AA60" s="74"/>
       <c r="AB60" s="74"/>
-      <c r="AC60" s="105"/>
+      <c r="AC60" s="110"/>
       <c r="AD60" s="74"/>
       <c r="AE60" s="74"/>
       <c r="AF60" s="74"/>
       <c r="AG60" s="74"/>
       <c r="AH60" s="74"/>
       <c r="AI60" s="74"/>
-      <c r="AJ60" s="102"/>
+      <c r="AJ60" s="107"/>
       <c r="AK60" s="74"/>
     </row>
     <row r="61" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A61" s="94"/>
-      <c r="B61" s="115"/>
-      <c r="C61" s="95" t="s">
+      <c r="A61" s="96"/>
+      <c r="B61" s="104"/>
+      <c r="C61" s="97" t="s">
         <v>96</v>
       </c>
-      <c r="D61" s="95" t="s">
+      <c r="D61" s="97" t="s">
         <v>95</v>
       </c>
       <c r="E61" s="2" t="s">
@@ -9721,28 +9752,28 @@
       <c r="S61" s="74"/>
       <c r="T61" s="74"/>
       <c r="U61" s="74"/>
-      <c r="V61" s="108"/>
+      <c r="V61" s="113"/>
       <c r="W61" s="74"/>
       <c r="X61" s="74"/>
       <c r="Y61" s="74"/>
       <c r="Z61" s="74"/>
       <c r="AA61" s="74"/>
       <c r="AB61" s="74"/>
-      <c r="AC61" s="105"/>
+      <c r="AC61" s="110"/>
       <c r="AD61" s="74"/>
       <c r="AE61" s="74"/>
       <c r="AF61" s="74"/>
       <c r="AG61" s="74"/>
       <c r="AH61" s="74"/>
       <c r="AI61" s="74"/>
-      <c r="AJ61" s="102"/>
+      <c r="AJ61" s="107"/>
       <c r="AK61" s="74"/>
     </row>
     <row r="62" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A62" s="94"/>
-      <c r="B62" s="115"/>
-      <c r="C62" s="95"/>
-      <c r="D62" s="95"/>
+      <c r="A62" s="96"/>
+      <c r="B62" s="104"/>
+      <c r="C62" s="97"/>
+      <c r="D62" s="97"/>
       <c r="E62" s="2" t="s">
         <v>146</v>
       </c>
@@ -9772,28 +9803,28 @@
       <c r="S62" s="74"/>
       <c r="T62" s="74"/>
       <c r="U62" s="74"/>
-      <c r="V62" s="108"/>
+      <c r="V62" s="113"/>
       <c r="W62" s="74"/>
       <c r="X62" s="74"/>
       <c r="Y62" s="74"/>
       <c r="Z62" s="74"/>
       <c r="AA62" s="74"/>
       <c r="AB62" s="74"/>
-      <c r="AC62" s="105"/>
+      <c r="AC62" s="110"/>
       <c r="AD62" s="74"/>
       <c r="AE62" s="74"/>
       <c r="AF62" s="74"/>
       <c r="AG62" s="74"/>
       <c r="AH62" s="74"/>
       <c r="AI62" s="74"/>
-      <c r="AJ62" s="102"/>
+      <c r="AJ62" s="107"/>
       <c r="AK62" s="74"/>
     </row>
     <row r="63" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A63" s="94"/>
-      <c r="B63" s="115"/>
-      <c r="C63" s="95"/>
-      <c r="D63" s="95"/>
+      <c r="A63" s="96"/>
+      <c r="B63" s="104"/>
+      <c r="C63" s="97"/>
+      <c r="D63" s="97"/>
       <c r="E63" s="2" t="s">
         <v>147</v>
       </c>
@@ -9823,28 +9854,28 @@
       <c r="S63" s="74"/>
       <c r="T63" s="74"/>
       <c r="U63" s="74"/>
-      <c r="V63" s="108"/>
+      <c r="V63" s="113"/>
       <c r="W63" s="74"/>
       <c r="X63" s="74"/>
       <c r="Y63" s="74"/>
       <c r="Z63" s="74"/>
       <c r="AA63" s="74"/>
       <c r="AB63" s="74"/>
-      <c r="AC63" s="105"/>
+      <c r="AC63" s="110"/>
       <c r="AD63" s="74"/>
       <c r="AE63" s="74"/>
       <c r="AF63" s="74"/>
       <c r="AG63" s="74"/>
       <c r="AH63" s="74"/>
       <c r="AI63" s="74"/>
-      <c r="AJ63" s="102"/>
+      <c r="AJ63" s="107"/>
       <c r="AK63" s="74"/>
     </row>
     <row r="64" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A64" s="94"/>
-      <c r="B64" s="115"/>
-      <c r="C64" s="95"/>
-      <c r="D64" s="95"/>
+      <c r="A64" s="96"/>
+      <c r="B64" s="104"/>
+      <c r="C64" s="97"/>
+      <c r="D64" s="97"/>
       <c r="E64" s="2" t="s">
         <v>107</v>
       </c>
@@ -9874,28 +9905,28 @@
       <c r="S64" s="74"/>
       <c r="T64" s="74"/>
       <c r="U64" s="74"/>
-      <c r="V64" s="108"/>
+      <c r="V64" s="113"/>
       <c r="W64" s="74"/>
       <c r="X64" s="74"/>
       <c r="Y64" s="74"/>
       <c r="Z64" s="74"/>
       <c r="AA64" s="74"/>
       <c r="AB64" s="74"/>
-      <c r="AC64" s="105"/>
+      <c r="AC64" s="110"/>
       <c r="AD64" s="74"/>
       <c r="AE64" s="74"/>
       <c r="AF64" s="74"/>
       <c r="AG64" s="74"/>
       <c r="AH64" s="74"/>
       <c r="AI64" s="74"/>
-      <c r="AJ64" s="102"/>
+      <c r="AJ64" s="107"/>
       <c r="AK64" s="74"/>
     </row>
     <row r="65" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A65" s="94"/>
-      <c r="B65" s="115"/>
-      <c r="C65" s="95"/>
-      <c r="D65" s="95"/>
+      <c r="A65" s="96"/>
+      <c r="B65" s="104"/>
+      <c r="C65" s="97"/>
+      <c r="D65" s="97"/>
       <c r="E65" s="2" t="s">
         <v>108</v>
       </c>
@@ -9925,28 +9956,28 @@
       <c r="S65" s="74"/>
       <c r="T65" s="74"/>
       <c r="U65" s="74"/>
-      <c r="V65" s="108"/>
+      <c r="V65" s="113"/>
       <c r="W65" s="74"/>
       <c r="X65" s="74"/>
       <c r="Y65" s="74"/>
       <c r="Z65" s="74"/>
       <c r="AA65" s="74"/>
       <c r="AB65" s="74"/>
-      <c r="AC65" s="105"/>
+      <c r="AC65" s="110"/>
       <c r="AD65" s="74"/>
       <c r="AE65" s="74"/>
       <c r="AF65" s="74"/>
       <c r="AG65" s="74"/>
       <c r="AH65" s="74"/>
       <c r="AI65" s="74"/>
-      <c r="AJ65" s="102"/>
+      <c r="AJ65" s="107"/>
       <c r="AK65" s="74"/>
     </row>
     <row r="66" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A66" s="94"/>
-      <c r="B66" s="115"/>
-      <c r="C66" s="95"/>
-      <c r="D66" s="95" t="s">
+      <c r="A66" s="96"/>
+      <c r="B66" s="104"/>
+      <c r="C66" s="97"/>
+      <c r="D66" s="97" t="s">
         <v>97</v>
       </c>
       <c r="E66" s="2" t="s">
@@ -9978,28 +10009,28 @@
       <c r="S66" s="74"/>
       <c r="T66" s="74"/>
       <c r="U66" s="74"/>
-      <c r="V66" s="108"/>
+      <c r="V66" s="113"/>
       <c r="W66" s="74"/>
       <c r="X66" s="74"/>
       <c r="Y66" s="74"/>
       <c r="Z66" s="74"/>
       <c r="AA66" s="74"/>
       <c r="AB66" s="74"/>
-      <c r="AC66" s="105"/>
+      <c r="AC66" s="110"/>
       <c r="AD66" s="74"/>
       <c r="AE66" s="74"/>
       <c r="AF66" s="74"/>
       <c r="AG66" s="74"/>
       <c r="AH66" s="74"/>
       <c r="AI66" s="74"/>
-      <c r="AJ66" s="102"/>
+      <c r="AJ66" s="107"/>
       <c r="AK66" s="74"/>
     </row>
     <row r="67" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A67" s="94"/>
-      <c r="B67" s="115"/>
-      <c r="C67" s="95"/>
-      <c r="D67" s="95"/>
+      <c r="A67" s="96"/>
+      <c r="B67" s="104"/>
+      <c r="C67" s="97"/>
+      <c r="D67" s="97"/>
       <c r="E67" s="2" t="s">
         <v>146</v>
       </c>
@@ -10029,30 +10060,30 @@
       <c r="S67" s="74"/>
       <c r="T67" s="74"/>
       <c r="U67" s="74"/>
-      <c r="V67" s="108"/>
+      <c r="V67" s="113"/>
       <c r="W67" s="74"/>
       <c r="X67" s="74"/>
       <c r="Y67" s="74"/>
       <c r="Z67" s="74"/>
       <c r="AA67" s="74"/>
       <c r="AB67" s="74"/>
-      <c r="AC67" s="105"/>
+      <c r="AC67" s="110"/>
       <c r="AD67" s="74"/>
       <c r="AE67" s="74"/>
       <c r="AF67" s="74"/>
       <c r="AG67" s="74"/>
       <c r="AH67" s="74"/>
       <c r="AI67" s="74"/>
-      <c r="AJ67" s="102"/>
+      <c r="AJ67" s="107"/>
       <c r="AK67" s="74"/>
     </row>
     <row r="68" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="94"/>
-      <c r="B68" s="115"/>
-      <c r="C68" s="95" t="s">
+      <c r="A68" s="96"/>
+      <c r="B68" s="104"/>
+      <c r="C68" s="97" t="s">
         <v>44</v>
       </c>
-      <c r="D68" s="95" t="s">
+      <c r="D68" s="97" t="s">
         <v>93</v>
       </c>
       <c r="E68" s="2" t="s">
@@ -10084,28 +10115,28 @@
       <c r="S68" s="74"/>
       <c r="T68" s="74"/>
       <c r="U68" s="74"/>
-      <c r="V68" s="108"/>
+      <c r="V68" s="113"/>
       <c r="W68" s="74"/>
       <c r="X68" s="74"/>
       <c r="Y68" s="74"/>
       <c r="Z68" s="74"/>
       <c r="AA68" s="74"/>
       <c r="AB68" s="74"/>
-      <c r="AC68" s="105"/>
+      <c r="AC68" s="110"/>
       <c r="AD68" s="74"/>
       <c r="AE68" s="74"/>
       <c r="AF68" s="74"/>
       <c r="AG68" s="74"/>
       <c r="AH68" s="74"/>
       <c r="AI68" s="74"/>
-      <c r="AJ68" s="102"/>
+      <c r="AJ68" s="107"/>
       <c r="AK68" s="74"/>
     </row>
     <row r="69" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="94"/>
-      <c r="B69" s="115"/>
-      <c r="C69" s="95"/>
-      <c r="D69" s="95"/>
+      <c r="A69" s="96"/>
+      <c r="B69" s="104"/>
+      <c r="C69" s="97"/>
+      <c r="D69" s="97"/>
       <c r="E69" s="2" t="s">
         <v>130</v>
       </c>
@@ -10135,28 +10166,28 @@
       <c r="S69" s="74"/>
       <c r="T69" s="74"/>
       <c r="U69" s="74"/>
-      <c r="V69" s="108"/>
+      <c r="V69" s="113"/>
       <c r="W69" s="74"/>
       <c r="X69" s="74"/>
       <c r="Y69" s="74"/>
       <c r="Z69" s="74"/>
       <c r="AA69" s="74"/>
       <c r="AB69" s="74"/>
-      <c r="AC69" s="105"/>
+      <c r="AC69" s="110"/>
       <c r="AD69" s="74"/>
       <c r="AE69" s="74"/>
       <c r="AF69" s="74"/>
       <c r="AG69" s="74"/>
       <c r="AH69" s="74"/>
       <c r="AI69" s="74"/>
-      <c r="AJ69" s="102"/>
+      <c r="AJ69" s="107"/>
       <c r="AK69" s="74"/>
     </row>
     <row r="70" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="94"/>
-      <c r="B70" s="115"/>
-      <c r="C70" s="95"/>
-      <c r="D70" s="97" t="s">
+      <c r="A70" s="96"/>
+      <c r="B70" s="104"/>
+      <c r="C70" s="97"/>
+      <c r="D70" s="99" t="s">
         <v>98</v>
       </c>
       <c r="E70" s="2" t="s">
@@ -10188,28 +10219,28 @@
       <c r="S70" s="74"/>
       <c r="T70" s="74"/>
       <c r="U70" s="74"/>
-      <c r="V70" s="108"/>
+      <c r="V70" s="113"/>
       <c r="W70" s="74"/>
       <c r="X70" s="74"/>
       <c r="Y70" s="74"/>
       <c r="Z70" s="74"/>
       <c r="AA70" s="74"/>
       <c r="AB70" s="74"/>
-      <c r="AC70" s="105"/>
+      <c r="AC70" s="110"/>
       <c r="AD70" s="74"/>
       <c r="AE70" s="74"/>
       <c r="AF70" s="74"/>
       <c r="AG70" s="74"/>
       <c r="AH70" s="74"/>
       <c r="AI70" s="74"/>
-      <c r="AJ70" s="102"/>
+      <c r="AJ70" s="107"/>
       <c r="AK70" s="74"/>
     </row>
     <row r="71" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="94"/>
-      <c r="B71" s="115"/>
-      <c r="C71" s="95"/>
-      <c r="D71" s="99"/>
+      <c r="A71" s="96"/>
+      <c r="B71" s="104"/>
+      <c r="C71" s="97"/>
+      <c r="D71" s="101"/>
       <c r="E71" s="2" t="s">
         <v>130</v>
       </c>
@@ -10239,27 +10270,27 @@
       <c r="S71" s="74"/>
       <c r="T71" s="74"/>
       <c r="U71" s="74"/>
-      <c r="V71" s="108"/>
+      <c r="V71" s="113"/>
       <c r="W71" s="74"/>
       <c r="X71" s="74"/>
       <c r="Y71" s="74"/>
       <c r="Z71" s="74"/>
       <c r="AA71" s="74"/>
       <c r="AB71" s="74"/>
-      <c r="AC71" s="105"/>
+      <c r="AC71" s="110"/>
       <c r="AD71" s="74"/>
       <c r="AE71" s="74"/>
       <c r="AF71" s="74"/>
       <c r="AG71" s="74"/>
       <c r="AH71" s="74"/>
       <c r="AI71" s="74"/>
-      <c r="AJ71" s="102"/>
+      <c r="AJ71" s="107"/>
       <c r="AK71" s="74"/>
     </row>
     <row r="72" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A72" s="94"/>
-      <c r="B72" s="115"/>
-      <c r="C72" s="98" t="s">
+      <c r="A72" s="96"/>
+      <c r="B72" s="104"/>
+      <c r="C72" s="100" t="s">
         <v>282</v>
       </c>
       <c r="D72" s="2" t="s">
@@ -10294,27 +10325,27 @@
       <c r="S72" s="74"/>
       <c r="T72" s="74"/>
       <c r="U72" s="74"/>
-      <c r="V72" s="108"/>
+      <c r="V72" s="113"/>
       <c r="W72" s="74"/>
       <c r="X72" s="74"/>
       <c r="Y72" s="74"/>
       <c r="Z72" s="74"/>
       <c r="AA72" s="74"/>
       <c r="AB72" s="74"/>
-      <c r="AC72" s="105"/>
+      <c r="AC72" s="110"/>
       <c r="AD72" s="74"/>
       <c r="AE72" s="74"/>
       <c r="AF72" s="74"/>
       <c r="AG72" s="74"/>
       <c r="AH72" s="74"/>
       <c r="AI72" s="74"/>
-      <c r="AJ72" s="102"/>
+      <c r="AJ72" s="107"/>
       <c r="AK72" s="74"/>
     </row>
     <row r="73" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A73" s="94"/>
-      <c r="B73" s="115"/>
-      <c r="C73" s="98"/>
+      <c r="A73" s="96"/>
+      <c r="B73" s="104"/>
+      <c r="C73" s="100"/>
       <c r="D73" s="2" t="s">
         <v>191</v>
       </c>
@@ -10347,27 +10378,27 @@
       <c r="S73" s="74"/>
       <c r="T73" s="74"/>
       <c r="U73" s="74"/>
-      <c r="V73" s="108"/>
+      <c r="V73" s="113"/>
       <c r="W73" s="74"/>
       <c r="X73" s="74"/>
       <c r="Y73" s="74"/>
       <c r="Z73" s="74"/>
       <c r="AA73" s="74"/>
       <c r="AB73" s="74"/>
-      <c r="AC73" s="105"/>
+      <c r="AC73" s="110"/>
       <c r="AD73" s="74"/>
       <c r="AE73" s="74"/>
       <c r="AF73" s="74"/>
       <c r="AG73" s="74"/>
       <c r="AH73" s="74"/>
       <c r="AI73" s="74"/>
-      <c r="AJ73" s="102"/>
+      <c r="AJ73" s="107"/>
       <c r="AK73" s="74"/>
     </row>
     <row r="74" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A74" s="94"/>
-      <c r="B74" s="115"/>
-      <c r="C74" s="99"/>
+      <c r="A74" s="96"/>
+      <c r="B74" s="104"/>
+      <c r="C74" s="101"/>
       <c r="D74" s="2" t="s">
         <v>161</v>
       </c>
@@ -10400,27 +10431,27 @@
       <c r="S74" s="74"/>
       <c r="T74" s="74"/>
       <c r="U74" s="74"/>
-      <c r="V74" s="108"/>
+      <c r="V74" s="113"/>
       <c r="W74" s="74"/>
       <c r="X74" s="74"/>
       <c r="Y74" s="74"/>
       <c r="Z74" s="74"/>
       <c r="AA74" s="74"/>
       <c r="AB74" s="74"/>
-      <c r="AC74" s="105"/>
+      <c r="AC74" s="110"/>
       <c r="AD74" s="74"/>
       <c r="AE74" s="74"/>
       <c r="AF74" s="74"/>
       <c r="AG74" s="74"/>
       <c r="AH74" s="74"/>
       <c r="AI74" s="74"/>
-      <c r="AJ74" s="102"/>
+      <c r="AJ74" s="107"/>
       <c r="AK74" s="74"/>
     </row>
     <row r="75" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A75" s="94"/>
-      <c r="B75" s="115"/>
-      <c r="C75" s="95" t="s">
+      <c r="A75" s="96"/>
+      <c r="B75" s="104"/>
+      <c r="C75" s="97" t="s">
         <v>13</v>
       </c>
       <c r="D75" s="2" t="s">
@@ -10453,27 +10484,27 @@
       <c r="S75" s="74"/>
       <c r="T75" s="74"/>
       <c r="U75" s="74"/>
-      <c r="V75" s="108"/>
+      <c r="V75" s="113"/>
       <c r="W75" s="74"/>
       <c r="X75" s="74"/>
       <c r="Y75" s="74"/>
       <c r="Z75" s="74"/>
       <c r="AA75" s="74"/>
       <c r="AB75" s="74"/>
-      <c r="AC75" s="105"/>
+      <c r="AC75" s="110"/>
       <c r="AD75" s="74"/>
       <c r="AE75" s="74"/>
       <c r="AF75" s="74"/>
       <c r="AG75" s="74"/>
       <c r="AH75" s="74"/>
       <c r="AI75" s="74"/>
-      <c r="AJ75" s="102"/>
+      <c r="AJ75" s="107"/>
       <c r="AK75" s="74"/>
     </row>
     <row r="76" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A76" s="94"/>
-      <c r="B76" s="115"/>
-      <c r="C76" s="95"/>
+      <c r="A76" s="96"/>
+      <c r="B76" s="104"/>
+      <c r="C76" s="97"/>
       <c r="D76" s="2" t="s">
         <v>126</v>
       </c>
@@ -10504,27 +10535,27 @@
       <c r="S76" s="74"/>
       <c r="T76" s="74"/>
       <c r="U76" s="74"/>
-      <c r="V76" s="108"/>
+      <c r="V76" s="113"/>
       <c r="W76" s="74"/>
       <c r="X76" s="74"/>
       <c r="Y76" s="74"/>
       <c r="Z76" s="74"/>
       <c r="AA76" s="74"/>
       <c r="AB76" s="74"/>
-      <c r="AC76" s="105"/>
+      <c r="AC76" s="110"/>
       <c r="AD76" s="74"/>
       <c r="AE76" s="74"/>
       <c r="AF76" s="74"/>
       <c r="AG76" s="74"/>
       <c r="AH76" s="74"/>
       <c r="AI76" s="74"/>
-      <c r="AJ76" s="102"/>
+      <c r="AJ76" s="107"/>
       <c r="AK76" s="74"/>
     </row>
     <row r="77" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="94"/>
-      <c r="B77" s="115"/>
-      <c r="C77" s="97" t="s">
+      <c r="A77" s="96"/>
+      <c r="B77" s="104"/>
+      <c r="C77" s="99" t="s">
         <v>99</v>
       </c>
       <c r="D77" s="2" t="s">
@@ -10557,27 +10588,27 @@
       <c r="S77" s="74"/>
       <c r="T77" s="74"/>
       <c r="U77" s="74"/>
-      <c r="V77" s="108"/>
+      <c r="V77" s="113"/>
       <c r="W77" s="74"/>
       <c r="X77" s="74"/>
       <c r="Y77" s="74"/>
       <c r="Z77" s="74"/>
       <c r="AA77" s="74"/>
       <c r="AB77" s="74"/>
-      <c r="AC77" s="105"/>
+      <c r="AC77" s="110"/>
       <c r="AD77" s="74"/>
       <c r="AE77" s="74"/>
       <c r="AF77" s="74"/>
       <c r="AG77" s="74"/>
       <c r="AH77" s="74"/>
       <c r="AI77" s="74"/>
-      <c r="AJ77" s="102"/>
+      <c r="AJ77" s="107"/>
       <c r="AK77" s="74"/>
     </row>
     <row r="78" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A78" s="94"/>
-      <c r="B78" s="115"/>
-      <c r="C78" s="98"/>
+      <c r="A78" s="96"/>
+      <c r="B78" s="104"/>
+      <c r="C78" s="100"/>
       <c r="D78" s="2" t="s">
         <v>156</v>
       </c>
@@ -10608,27 +10639,27 @@
       <c r="S78" s="74"/>
       <c r="T78" s="74"/>
       <c r="U78" s="74"/>
-      <c r="V78" s="108"/>
+      <c r="V78" s="113"/>
       <c r="W78" s="74"/>
       <c r="X78" s="74"/>
       <c r="Y78" s="74"/>
       <c r="Z78" s="74"/>
       <c r="AA78" s="74"/>
       <c r="AB78" s="74"/>
-      <c r="AC78" s="105"/>
+      <c r="AC78" s="110"/>
       <c r="AD78" s="74"/>
       <c r="AE78" s="74"/>
       <c r="AF78" s="74"/>
       <c r="AG78" s="74"/>
       <c r="AH78" s="74"/>
       <c r="AI78" s="74"/>
-      <c r="AJ78" s="102"/>
+      <c r="AJ78" s="107"/>
       <c r="AK78" s="74"/>
     </row>
     <row r="79" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="94"/>
-      <c r="B79" s="115"/>
-      <c r="C79" s="98"/>
+      <c r="A79" s="96"/>
+      <c r="B79" s="104"/>
+      <c r="C79" s="100"/>
       <c r="D79" s="2" t="s">
         <v>187</v>
       </c>
@@ -10659,27 +10690,27 @@
       <c r="S79" s="74"/>
       <c r="T79" s="74"/>
       <c r="U79" s="74"/>
-      <c r="V79" s="108"/>
+      <c r="V79" s="113"/>
       <c r="W79" s="74"/>
       <c r="X79" s="74"/>
       <c r="Y79" s="74"/>
       <c r="Z79" s="74"/>
       <c r="AA79" s="74"/>
       <c r="AB79" s="74"/>
-      <c r="AC79" s="105"/>
+      <c r="AC79" s="110"/>
       <c r="AD79" s="74"/>
       <c r="AE79" s="74"/>
       <c r="AF79" s="74"/>
       <c r="AG79" s="74"/>
       <c r="AH79" s="74"/>
       <c r="AI79" s="74"/>
-      <c r="AJ79" s="102"/>
+      <c r="AJ79" s="107"/>
       <c r="AK79" s="74"/>
     </row>
     <row r="80" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A80" s="94"/>
-      <c r="B80" s="115"/>
-      <c r="C80" s="99"/>
+      <c r="A80" s="96"/>
+      <c r="B80" s="104"/>
+      <c r="C80" s="101"/>
       <c r="D80" s="2" t="s">
         <v>157</v>
       </c>
@@ -10710,27 +10741,27 @@
       <c r="S80" s="74"/>
       <c r="T80" s="74"/>
       <c r="U80" s="74"/>
-      <c r="V80" s="108"/>
+      <c r="V80" s="113"/>
       <c r="W80" s="74"/>
       <c r="X80" s="74"/>
       <c r="Y80" s="74"/>
       <c r="Z80" s="74"/>
       <c r="AA80" s="74"/>
       <c r="AB80" s="74"/>
-      <c r="AC80" s="105"/>
+      <c r="AC80" s="110"/>
       <c r="AD80" s="74"/>
       <c r="AE80" s="74"/>
       <c r="AF80" s="74"/>
       <c r="AG80" s="74"/>
       <c r="AH80" s="74"/>
       <c r="AI80" s="74"/>
-      <c r="AJ80" s="102"/>
+      <c r="AJ80" s="107"/>
       <c r="AK80" s="74"/>
     </row>
     <row r="81" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A81" s="94"/>
-      <c r="B81" s="115"/>
-      <c r="C81" s="95" t="s">
+      <c r="A81" s="96"/>
+      <c r="B81" s="104"/>
+      <c r="C81" s="97" t="s">
         <v>30</v>
       </c>
       <c r="D81" s="2" t="s">
@@ -10761,27 +10792,27 @@
       <c r="S81" s="74"/>
       <c r="T81" s="74"/>
       <c r="U81" s="74"/>
-      <c r="V81" s="108"/>
+      <c r="V81" s="113"/>
       <c r="W81" s="74"/>
       <c r="X81" s="74"/>
       <c r="Y81" s="74"/>
       <c r="Z81" s="74"/>
       <c r="AA81" s="74"/>
       <c r="AB81" s="74"/>
-      <c r="AC81" s="105"/>
+      <c r="AC81" s="110"/>
       <c r="AD81" s="74"/>
       <c r="AE81" s="74"/>
       <c r="AF81" s="74"/>
       <c r="AG81" s="74"/>
       <c r="AH81" s="74"/>
       <c r="AI81" s="74"/>
-      <c r="AJ81" s="102"/>
+      <c r="AJ81" s="107"/>
       <c r="AK81" s="74"/>
     </row>
     <row r="82" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A82" s="94"/>
-      <c r="B82" s="115"/>
-      <c r="C82" s="95"/>
+      <c r="A82" s="96"/>
+      <c r="B82" s="104"/>
+      <c r="C82" s="97"/>
       <c r="D82" s="2" t="s">
         <v>32</v>
       </c>
@@ -10806,27 +10837,27 @@
       <c r="S82" s="74"/>
       <c r="T82" s="74"/>
       <c r="U82" s="74"/>
-      <c r="V82" s="108"/>
+      <c r="V82" s="113"/>
       <c r="W82" s="74"/>
       <c r="X82" s="74"/>
       <c r="Y82" s="74"/>
       <c r="Z82" s="74"/>
       <c r="AA82" s="74"/>
       <c r="AB82" s="74"/>
-      <c r="AC82" s="105"/>
+      <c r="AC82" s="110"/>
       <c r="AD82" s="74"/>
       <c r="AE82" s="74"/>
       <c r="AF82" s="74"/>
       <c r="AG82" s="74"/>
       <c r="AH82" s="74"/>
       <c r="AI82" s="74"/>
-      <c r="AJ82" s="102"/>
+      <c r="AJ82" s="107"/>
       <c r="AK82" s="74"/>
     </row>
     <row r="83" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A83" s="94"/>
-      <c r="B83" s="115"/>
-      <c r="C83" s="95"/>
+      <c r="A83" s="96"/>
+      <c r="B83" s="104"/>
+      <c r="C83" s="97"/>
       <c r="D83" s="2" t="s">
         <v>33</v>
       </c>
@@ -10855,26 +10886,26 @@
       <c r="S83" s="74"/>
       <c r="T83" s="74"/>
       <c r="U83" s="74"/>
-      <c r="V83" s="108"/>
+      <c r="V83" s="113"/>
       <c r="W83" s="74"/>
       <c r="X83" s="74"/>
       <c r="Y83" s="74"/>
       <c r="Z83" s="74"/>
       <c r="AA83" s="74"/>
       <c r="AB83" s="74"/>
-      <c r="AC83" s="105"/>
+      <c r="AC83" s="110"/>
       <c r="AD83" s="74"/>
       <c r="AE83" s="74"/>
       <c r="AF83" s="74"/>
       <c r="AG83" s="74"/>
       <c r="AH83" s="74"/>
       <c r="AI83" s="74"/>
-      <c r="AJ83" s="102"/>
+      <c r="AJ83" s="107"/>
       <c r="AK83" s="74"/>
     </row>
     <row r="84" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A84" s="94"/>
-      <c r="B84" s="115"/>
+      <c r="A84" s="96"/>
+      <c r="B84" s="104"/>
       <c r="C84" s="74" t="s">
         <v>258</v>
       </c>
@@ -10900,26 +10931,26 @@
       <c r="S84" s="74"/>
       <c r="T84" s="74"/>
       <c r="U84" s="74"/>
-      <c r="V84" s="108"/>
+      <c r="V84" s="113"/>
       <c r="W84" s="74"/>
       <c r="X84" s="74"/>
       <c r="Y84" s="74"/>
       <c r="Z84" s="74"/>
       <c r="AA84" s="74"/>
       <c r="AB84" s="74"/>
-      <c r="AC84" s="105"/>
+      <c r="AC84" s="110"/>
       <c r="AD84" s="74"/>
       <c r="AE84" s="74"/>
       <c r="AF84" s="74"/>
       <c r="AG84" s="74"/>
       <c r="AH84" s="74"/>
       <c r="AI84" s="74"/>
-      <c r="AJ84" s="102"/>
+      <c r="AJ84" s="107"/>
       <c r="AK84" s="74"/>
     </row>
     <row r="85" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A85" s="94"/>
-      <c r="B85" s="116"/>
+      <c r="A85" s="96"/>
+      <c r="B85" s="105"/>
       <c r="C85" s="74" t="s">
         <v>259</v>
       </c>
@@ -10945,25 +10976,25 @@
       <c r="S85" s="74"/>
       <c r="T85" s="74"/>
       <c r="U85" s="74"/>
-      <c r="V85" s="109"/>
+      <c r="V85" s="114"/>
       <c r="W85" s="74"/>
       <c r="X85" s="74"/>
       <c r="Y85" s="74"/>
       <c r="Z85" s="74"/>
       <c r="AA85" s="74"/>
       <c r="AB85" s="74"/>
-      <c r="AC85" s="106"/>
+      <c r="AC85" s="111"/>
       <c r="AD85" s="74"/>
       <c r="AE85" s="74"/>
       <c r="AF85" s="74"/>
       <c r="AG85" s="74"/>
       <c r="AH85" s="74"/>
       <c r="AI85" s="74"/>
-      <c r="AJ85" s="103"/>
+      <c r="AJ85" s="108"/>
       <c r="AK85" s="74"/>
     </row>
     <row r="86" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A86" s="94"/>
+      <c r="A86" s="96"/>
       <c r="B86" s="38" t="s">
         <v>21</v>
       </c>
@@ -10984,7 +11015,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B59:B85"/>
     <mergeCell ref="D33:D38"/>
     <mergeCell ref="AJ5:AJ85"/>
     <mergeCell ref="AC5:AC85"/>
@@ -11014,6 +11044,7 @@
     <mergeCell ref="C18:C45"/>
     <mergeCell ref="B11:B58"/>
     <mergeCell ref="C61:C67"/>
+    <mergeCell ref="B59:B85"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="K3:AK5 AK6:AK85 W6:AB85 AD6:AI85 K6:U85">
@@ -11092,24 +11123,24 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
+      <c r="B3" s="115"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
     </row>
     <row r="4" spans="2:14" ht="45.75" x14ac:dyDescent="0.4">
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="110"/>
-      <c r="H4" s="110"/>
-      <c r="I4" s="110"/>
+      <c r="B4" s="115"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="115"/>
       <c r="K4" s="11" t="s">
         <v>73</v>
       </c>
@@ -11118,14 +11149,14 @@
       </c>
     </row>
     <row r="5" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B5" s="110"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
+      <c r="B5" s="115"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="115"/>
       <c r="K5" s="12" t="s">
         <v>75</v>
       </c>
@@ -11134,28 +11165,28 @@
       </c>
     </row>
     <row r="6" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B6" s="110"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="110"/>
-      <c r="H6" s="110"/>
-      <c r="I6" s="110"/>
+      <c r="B6" s="115"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
       <c r="K6" s="12" t="s">
         <v>76</v>
       </c>
       <c r="L6" s="13"/>
     </row>
     <row r="7" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="110"/>
-      <c r="C7" s="110"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="110"/>
-      <c r="H7" s="110"/>
-      <c r="I7" s="110"/>
+      <c r="B7" s="115"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
       <c r="K7" s="12" t="s">
         <v>77</v>
       </c>
@@ -11164,28 +11195,28 @@
       </c>
     </row>
     <row r="8" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B8" s="110"/>
-      <c r="C8" s="110"/>
-      <c r="D8" s="110"/>
-      <c r="E8" s="110"/>
-      <c r="F8" s="110"/>
-      <c r="G8" s="110"/>
-      <c r="H8" s="110"/>
-      <c r="I8" s="110"/>
+      <c r="B8" s="115"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="115"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="115"/>
       <c r="K8" s="12" t="s">
         <v>78</v>
       </c>
       <c r="L8" s="13"/>
     </row>
     <row r="9" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B9" s="110"/>
-      <c r="C9" s="110"/>
-      <c r="D9" s="110"/>
-      <c r="E9" s="110"/>
-      <c r="F9" s="110"/>
-      <c r="G9" s="110"/>
-      <c r="H9" s="110"/>
-      <c r="I9" s="110"/>
+      <c r="B9" s="115"/>
+      <c r="C9" s="115"/>
+      <c r="D9" s="115"/>
+      <c r="E9" s="115"/>
+      <c r="F9" s="115"/>
+      <c r="G9" s="115"/>
+      <c r="H9" s="115"/>
+      <c r="I9" s="115"/>
       <c r="K9" s="12" t="s">
         <v>79</v>
       </c>
@@ -11194,28 +11225,28 @@
       </c>
     </row>
     <row r="10" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B10" s="110"/>
-      <c r="C10" s="110"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="110"/>
-      <c r="G10" s="110"/>
-      <c r="H10" s="110"/>
-      <c r="I10" s="110"/>
+      <c r="B10" s="115"/>
+      <c r="C10" s="115"/>
+      <c r="D10" s="115"/>
+      <c r="E10" s="115"/>
+      <c r="F10" s="115"/>
+      <c r="G10" s="115"/>
+      <c r="H10" s="115"/>
+      <c r="I10" s="115"/>
       <c r="K10" s="12" t="s">
         <v>80</v>
       </c>
       <c r="L10" s="13"/>
     </row>
     <row r="11" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B11" s="110"/>
-      <c r="C11" s="110"/>
-      <c r="D11" s="110"/>
-      <c r="E11" s="110"/>
-      <c r="F11" s="110"/>
-      <c r="G11" s="110"/>
-      <c r="H11" s="110"/>
-      <c r="I11" s="110"/>
+      <c r="B11" s="115"/>
+      <c r="C11" s="115"/>
+      <c r="D11" s="115"/>
+      <c r="E11" s="115"/>
+      <c r="F11" s="115"/>
+      <c r="G11" s="115"/>
+      <c r="H11" s="115"/>
+      <c r="I11" s="115"/>
       <c r="K11" s="12" t="s">
         <v>81</v>
       </c>
@@ -11225,136 +11256,136 @@
       <c r="N11" s="10"/>
     </row>
     <row r="12" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B12" s="110"/>
-      <c r="C12" s="110"/>
-      <c r="D12" s="110"/>
-      <c r="E12" s="110"/>
-      <c r="F12" s="110"/>
-      <c r="G12" s="110"/>
-      <c r="H12" s="110"/>
-      <c r="I12" s="110"/>
+      <c r="B12" s="115"/>
+      <c r="C12" s="115"/>
+      <c r="D12" s="115"/>
+      <c r="E12" s="115"/>
+      <c r="F12" s="115"/>
+      <c r="G12" s="115"/>
+      <c r="H12" s="115"/>
+      <c r="I12" s="115"/>
       <c r="K12" s="12" t="s">
         <v>82</v>
       </c>
       <c r="L12" s="13"/>
     </row>
     <row r="13" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B13" s="110"/>
-      <c r="C13" s="110"/>
-      <c r="D13" s="110"/>
-      <c r="E13" s="110"/>
-      <c r="F13" s="110"/>
-      <c r="G13" s="110"/>
-      <c r="H13" s="110"/>
-      <c r="I13" s="110"/>
+      <c r="B13" s="115"/>
+      <c r="C13" s="115"/>
+      <c r="D13" s="115"/>
+      <c r="E13" s="115"/>
+      <c r="F13" s="115"/>
+      <c r="G13" s="115"/>
+      <c r="H13" s="115"/>
+      <c r="I13" s="115"/>
       <c r="K13" s="12" t="s">
         <v>83</v>
       </c>
       <c r="L13" s="13"/>
     </row>
     <row r="14" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B14" s="110"/>
-      <c r="C14" s="110"/>
-      <c r="D14" s="110"/>
-      <c r="E14" s="110"/>
-      <c r="F14" s="110"/>
-      <c r="G14" s="110"/>
-      <c r="H14" s="110"/>
-      <c r="I14" s="110"/>
+      <c r="B14" s="115"/>
+      <c r="C14" s="115"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="115"/>
+      <c r="F14" s="115"/>
+      <c r="G14" s="115"/>
+      <c r="H14" s="115"/>
+      <c r="I14" s="115"/>
       <c r="K14" s="12" t="s">
         <v>84</v>
       </c>
       <c r="L14" s="13"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B15" s="110"/>
-      <c r="C15" s="110"/>
-      <c r="D15" s="110"/>
-      <c r="E15" s="110"/>
-      <c r="F15" s="110"/>
-      <c r="G15" s="110"/>
-      <c r="H15" s="110"/>
-      <c r="I15" s="110"/>
+      <c r="B15" s="115"/>
+      <c r="C15" s="115"/>
+      <c r="D15" s="115"/>
+      <c r="E15" s="115"/>
+      <c r="F15" s="115"/>
+      <c r="G15" s="115"/>
+      <c r="H15" s="115"/>
+      <c r="I15" s="115"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B16" s="110"/>
-      <c r="C16" s="110"/>
-      <c r="D16" s="110"/>
-      <c r="E16" s="110"/>
-      <c r="F16" s="110"/>
-      <c r="G16" s="110"/>
-      <c r="H16" s="110"/>
-      <c r="I16" s="110"/>
+      <c r="B16" s="115"/>
+      <c r="C16" s="115"/>
+      <c r="D16" s="115"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="115"/>
+      <c r="G16" s="115"/>
+      <c r="H16" s="115"/>
+      <c r="I16" s="115"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B17" s="110"/>
-      <c r="C17" s="110"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="110"/>
-      <c r="F17" s="110"/>
-      <c r="G17" s="110"/>
-      <c r="H17" s="110"/>
-      <c r="I17" s="110"/>
+      <c r="B17" s="115"/>
+      <c r="C17" s="115"/>
+      <c r="D17" s="115"/>
+      <c r="E17" s="115"/>
+      <c r="F17" s="115"/>
+      <c r="G17" s="115"/>
+      <c r="H17" s="115"/>
+      <c r="I17" s="115"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B18" s="110"/>
-      <c r="C18" s="110"/>
-      <c r="D18" s="110"/>
-      <c r="E18" s="110"/>
-      <c r="F18" s="110"/>
-      <c r="G18" s="110"/>
-      <c r="H18" s="110"/>
-      <c r="I18" s="110"/>
+      <c r="B18" s="115"/>
+      <c r="C18" s="115"/>
+      <c r="D18" s="115"/>
+      <c r="E18" s="115"/>
+      <c r="F18" s="115"/>
+      <c r="G18" s="115"/>
+      <c r="H18" s="115"/>
+      <c r="I18" s="115"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B19" s="110"/>
-      <c r="C19" s="110"/>
-      <c r="D19" s="110"/>
-      <c r="E19" s="110"/>
-      <c r="F19" s="110"/>
-      <c r="G19" s="110"/>
-      <c r="H19" s="110"/>
-      <c r="I19" s="110"/>
+      <c r="B19" s="115"/>
+      <c r="C19" s="115"/>
+      <c r="D19" s="115"/>
+      <c r="E19" s="115"/>
+      <c r="F19" s="115"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="115"/>
+      <c r="I19" s="115"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B20" s="110"/>
-      <c r="C20" s="110"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="110"/>
-      <c r="F20" s="110"/>
-      <c r="G20" s="110"/>
-      <c r="H20" s="110"/>
-      <c r="I20" s="110"/>
+      <c r="B20" s="115"/>
+      <c r="C20" s="115"/>
+      <c r="D20" s="115"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="115"/>
+      <c r="G20" s="115"/>
+      <c r="H20" s="115"/>
+      <c r="I20" s="115"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B21" s="110"/>
-      <c r="C21" s="110"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="110"/>
-      <c r="F21" s="110"/>
-      <c r="G21" s="110"/>
-      <c r="H21" s="110"/>
-      <c r="I21" s="110"/>
+      <c r="B21" s="115"/>
+      <c r="C21" s="115"/>
+      <c r="D21" s="115"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="115"/>
+      <c r="G21" s="115"/>
+      <c r="H21" s="115"/>
+      <c r="I21" s="115"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B22" s="110"/>
-      <c r="C22" s="110"/>
-      <c r="D22" s="110"/>
-      <c r="E22" s="110"/>
-      <c r="F22" s="110"/>
-      <c r="G22" s="110"/>
-      <c r="H22" s="110"/>
-      <c r="I22" s="110"/>
+      <c r="B22" s="115"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="115"/>
+      <c r="G22" s="115"/>
+      <c r="H22" s="115"/>
+      <c r="I22" s="115"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B23" s="110"/>
-      <c r="C23" s="110"/>
-      <c r="D23" s="110"/>
-      <c r="E23" s="110"/>
-      <c r="F23" s="110"/>
-      <c r="G23" s="110"/>
-      <c r="H23" s="110"/>
-      <c r="I23" s="110"/>
+      <c r="B23" s="115"/>
+      <c r="C23" s="115"/>
+      <c r="D23" s="115"/>
+      <c r="E23" s="115"/>
+      <c r="F23" s="115"/>
+      <c r="G23" s="115"/>
+      <c r="H23" s="115"/>
+      <c r="I23" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11400,22 +11431,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" s="110"/>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
+      <c r="A2" s="115"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="7"/>
@@ -11502,7 +11533,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B10" s="112" t="s">
+      <c r="B10" s="117" t="s">
         <v>173</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -11516,7 +11547,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B11" s="112"/>
+      <c r="B11" s="117"/>
       <c r="C11" s="2" t="s">
         <v>176</v>
       </c>
@@ -11524,7 +11555,7 @@
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B12" s="112"/>
+      <c r="B12" s="117"/>
       <c r="C12" s="2" t="s">
         <v>172</v>
       </c>
@@ -11532,7 +11563,7 @@
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B13" s="112"/>
+      <c r="B13" s="117"/>
       <c r="C13" s="2" t="s">
         <v>175</v>
       </c>
@@ -11637,12 +11668,12 @@
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="118" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -12034,20 +12065,20 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B6:H26"/>
+  <dimension ref="B6:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="31.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.125" style="79" customWidth="1"/>
     <col min="4" max="4" width="21.25" customWidth="1"/>
     <col min="5" max="5" width="25.5" style="86" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.75" style="95" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="2:8" x14ac:dyDescent="0.4">
@@ -12064,7 +12095,7 @@
         <v>288</v>
       </c>
       <c r="F6" s="79"/>
-      <c r="G6" s="79" t="s">
+      <c r="G6" s="95" t="s">
         <v>286</v>
       </c>
     </row>
@@ -12082,7 +12113,6 @@
         <v>276</v>
       </c>
       <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B8" s="23" t="s">
@@ -12098,7 +12128,6 @@
         <v>276</v>
       </c>
       <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B9" s="24" t="s">
@@ -12114,7 +12143,7 @@
         <v>275</v>
       </c>
       <c r="F9" s="79"/>
-      <c r="G9" s="79" t="s">
+      <c r="G9" s="95" t="s">
         <v>287</v>
       </c>
     </row>
@@ -12132,6 +12161,9 @@
         <v>275</v>
       </c>
       <c r="F10" s="79"/>
+      <c r="G10" s="95" t="s">
+        <v>287</v>
+      </c>
       <c r="H10" s="79"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.4">
@@ -12164,7 +12196,9 @@
         <v>277</v>
       </c>
       <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
+      <c r="G12" s="95" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B13" s="24" t="s">
@@ -12182,7 +12216,6 @@
       <c r="F13" s="79" t="s">
         <v>231</v>
       </c>
-      <c r="G13" s="79"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B14" s="24" t="s">
@@ -12198,7 +12231,7 @@
         <v>276</v>
       </c>
       <c r="F14" s="79"/>
-      <c r="G14" s="79" t="s">
+      <c r="G14" s="95" t="s">
         <v>287</v>
       </c>
     </row>
@@ -12232,7 +12265,6 @@
         <v>278</v>
       </c>
       <c r="F16" s="79"/>
-      <c r="G16" s="79"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B17" s="24" t="s">
@@ -12248,7 +12280,6 @@
         <v>278</v>
       </c>
       <c r="F17" s="55"/>
-      <c r="G17" s="79"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B18" s="24" t="s">
@@ -12279,6 +12310,9 @@
       <c r="E19" s="86" t="s">
         <v>276</v>
       </c>
+      <c r="G19" s="95" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B20" s="24" t="s">
@@ -12295,22 +12329,22 @@
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B21" s="91" t="s">
-        <v>268</v>
-      </c>
-      <c r="C21" s="92" t="s">
-        <v>274</v>
-      </c>
-      <c r="D21" s="87" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="86" t="s">
-        <v>276</v>
+      <c r="B21" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="C21" s="90" t="s">
+        <v>290</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="E21" s="95" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B22" s="91" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="C22" s="92" t="s">
         <v>274</v>
@@ -12319,26 +12353,26 @@
         <v>12</v>
       </c>
       <c r="E22" s="86" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B23" s="91" t="s">
+        <v>285</v>
+      </c>
+      <c r="C23" s="92" t="s">
+        <v>274</v>
+      </c>
+      <c r="D23" s="87" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="86" t="s">
         <v>275</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B24" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="90" t="s">
-        <v>272</v>
-      </c>
-      <c r="D24" s="88" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="86" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B25" s="24" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C25" s="90" t="s">
         <v>272</v>
@@ -12352,7 +12386,7 @@
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B26" s="24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C26" s="90" t="s">
         <v>272</v>
@@ -12361,6 +12395,20 @@
         <v>7</v>
       </c>
       <c r="E26" s="86" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B27" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="90" t="s">
+        <v>272</v>
+      </c>
+      <c r="D27" s="88" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="86" t="s">
         <v>280</v>
       </c>
     </row>

--- a/schedule/ガントチャート.xlsx
+++ b/schedule/ガントチャート.xlsx
@@ -2726,7 +2726,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2988,12 +2988,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="16">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="18">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="12" borderId="0" xfId="13" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3015,24 +3009,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="7" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="3" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="6" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="7" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="3" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="6" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="7" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="3" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3045,33 +3069,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="7" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="3" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="6" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="7" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="3" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="6" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="7" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="3" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3082,6 +3079,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="8" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="18" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6995,10 +6998,10 @@
       </c>
     </row>
     <row r="5" spans="1:45" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="96" t="s">
+      <c r="A5" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="98" t="s">
+      <c r="B5" s="109" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="19" t="s">
@@ -7034,7 +7037,7 @@
       <c r="S5" s="75"/>
       <c r="T5" s="75"/>
       <c r="U5" s="75"/>
-      <c r="V5" s="112" t="s">
+      <c r="V5" s="104" t="s">
         <v>110</v>
       </c>
       <c r="W5" s="75"/>
@@ -7043,7 +7046,7 @@
       <c r="Z5" s="75"/>
       <c r="AA5" s="75"/>
       <c r="AB5" s="75"/>
-      <c r="AC5" s="109" t="s">
+      <c r="AC5" s="101" t="s">
         <v>111</v>
       </c>
       <c r="AD5" s="75"/>
@@ -7052,14 +7055,14 @@
       <c r="AG5" s="75"/>
       <c r="AH5" s="75"/>
       <c r="AI5" s="75"/>
-      <c r="AJ5" s="106" t="s">
+      <c r="AJ5" s="98" t="s">
         <v>88</v>
       </c>
       <c r="AK5" s="75"/>
     </row>
     <row r="6" spans="1:45" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="96"/>
-      <c r="B6" s="98"/>
+      <c r="A6" s="108"/>
+      <c r="B6" s="109"/>
       <c r="C6" s="19" t="s">
         <v>9</v>
       </c>
@@ -7091,26 +7094,26 @@
       <c r="S6" s="74"/>
       <c r="T6" s="74"/>
       <c r="U6" s="74"/>
-      <c r="V6" s="113"/>
+      <c r="V6" s="105"/>
       <c r="W6" s="74"/>
       <c r="X6" s="74"/>
       <c r="Y6" s="74"/>
       <c r="Z6" s="74"/>
       <c r="AA6" s="74"/>
       <c r="AB6" s="74"/>
-      <c r="AC6" s="110"/>
+      <c r="AC6" s="102"/>
       <c r="AD6" s="74"/>
       <c r="AE6" s="74"/>
       <c r="AF6" s="74"/>
       <c r="AG6" s="74"/>
       <c r="AH6" s="74"/>
       <c r="AI6" s="74"/>
-      <c r="AJ6" s="107"/>
+      <c r="AJ6" s="99"/>
       <c r="AK6" s="74"/>
     </row>
     <row r="7" spans="1:45" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="96"/>
-      <c r="B7" s="98"/>
+      <c r="A7" s="108"/>
+      <c r="B7" s="109"/>
       <c r="C7" s="19" t="s">
         <v>10</v>
       </c>
@@ -7140,26 +7143,26 @@
       <c r="S7" s="74"/>
       <c r="T7" s="74"/>
       <c r="U7" s="74"/>
-      <c r="V7" s="113"/>
+      <c r="V7" s="105"/>
       <c r="W7" s="74"/>
       <c r="X7" s="74"/>
       <c r="Y7" s="74"/>
       <c r="Z7" s="74"/>
       <c r="AA7" s="74"/>
       <c r="AB7" s="74"/>
-      <c r="AC7" s="110"/>
+      <c r="AC7" s="102"/>
       <c r="AD7" s="74"/>
       <c r="AE7" s="74"/>
       <c r="AF7" s="74"/>
       <c r="AG7" s="74"/>
       <c r="AH7" s="74"/>
       <c r="AI7" s="74"/>
-      <c r="AJ7" s="107"/>
+      <c r="AJ7" s="99"/>
       <c r="AK7" s="74"/>
     </row>
     <row r="8" spans="1:45" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="96"/>
-      <c r="B8" s="98"/>
+      <c r="A8" s="108"/>
+      <c r="B8" s="109"/>
       <c r="C8" s="19" t="s">
         <v>11</v>
       </c>
@@ -7189,26 +7192,26 @@
       <c r="S8" s="74"/>
       <c r="T8" s="74"/>
       <c r="U8" s="74"/>
-      <c r="V8" s="113"/>
+      <c r="V8" s="105"/>
       <c r="W8" s="74"/>
       <c r="X8" s="74"/>
       <c r="Y8" s="74"/>
       <c r="Z8" s="74"/>
       <c r="AA8" s="74"/>
       <c r="AB8" s="74"/>
-      <c r="AC8" s="110"/>
+      <c r="AC8" s="102"/>
       <c r="AD8" s="74"/>
       <c r="AE8" s="74"/>
       <c r="AF8" s="74"/>
       <c r="AG8" s="74"/>
       <c r="AH8" s="74"/>
       <c r="AI8" s="74"/>
-      <c r="AJ8" s="107"/>
+      <c r="AJ8" s="99"/>
       <c r="AK8" s="74"/>
     </row>
     <row r="9" spans="1:45" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="96"/>
-      <c r="B9" s="98"/>
+      <c r="A9" s="108"/>
+      <c r="B9" s="109"/>
       <c r="C9" s="19" t="s">
         <v>34</v>
       </c>
@@ -7242,26 +7245,26 @@
       <c r="S9" s="74"/>
       <c r="T9" s="74"/>
       <c r="U9" s="74"/>
-      <c r="V9" s="113"/>
+      <c r="V9" s="105"/>
       <c r="W9" s="74"/>
       <c r="X9" s="74"/>
       <c r="Y9" s="74"/>
       <c r="Z9" s="74"/>
       <c r="AA9" s="74"/>
       <c r="AB9" s="74"/>
-      <c r="AC9" s="110"/>
+      <c r="AC9" s="102"/>
       <c r="AD9" s="74"/>
       <c r="AE9" s="74"/>
       <c r="AF9" s="74"/>
       <c r="AG9" s="74"/>
       <c r="AH9" s="74"/>
       <c r="AI9" s="74"/>
-      <c r="AJ9" s="107"/>
+      <c r="AJ9" s="99"/>
       <c r="AK9" s="74"/>
     </row>
     <row r="10" spans="1:45" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="96"/>
-      <c r="B10" s="98"/>
+      <c r="A10" s="108"/>
+      <c r="B10" s="109"/>
       <c r="C10" s="19" t="s">
         <v>35</v>
       </c>
@@ -7289,29 +7292,29 @@
       <c r="S10" s="74"/>
       <c r="T10" s="74"/>
       <c r="U10" s="74"/>
-      <c r="V10" s="113"/>
+      <c r="V10" s="105"/>
       <c r="W10" s="74"/>
       <c r="X10" s="74"/>
       <c r="Y10" s="74"/>
       <c r="Z10" s="74"/>
       <c r="AA10" s="74"/>
       <c r="AB10" s="74"/>
-      <c r="AC10" s="110"/>
+      <c r="AC10" s="102"/>
       <c r="AD10" s="74"/>
       <c r="AE10" s="74"/>
       <c r="AF10" s="74"/>
       <c r="AG10" s="74"/>
       <c r="AH10" s="74"/>
       <c r="AI10" s="74"/>
-      <c r="AJ10" s="107"/>
+      <c r="AJ10" s="99"/>
       <c r="AK10" s="74"/>
     </row>
     <row r="11" spans="1:45" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="96"/>
-      <c r="B11" s="102" t="s">
+      <c r="A11" s="108"/>
+      <c r="B11" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="97" t="s">
+      <c r="C11" s="107" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="40" t="s">
@@ -7338,27 +7341,27 @@
       <c r="S11" s="74"/>
       <c r="T11" s="74"/>
       <c r="U11" s="74"/>
-      <c r="V11" s="113"/>
+      <c r="V11" s="105"/>
       <c r="W11" s="74"/>
       <c r="X11" s="74"/>
       <c r="Y11" s="74"/>
       <c r="Z11" s="74"/>
       <c r="AA11" s="74"/>
       <c r="AB11" s="74"/>
-      <c r="AC11" s="110"/>
+      <c r="AC11" s="102"/>
       <c r="AD11" s="74"/>
       <c r="AE11" s="74"/>
       <c r="AF11" s="74"/>
       <c r="AG11" s="74"/>
       <c r="AH11" s="74"/>
       <c r="AI11" s="74"/>
-      <c r="AJ11" s="107"/>
+      <c r="AJ11" s="99"/>
       <c r="AK11" s="74"/>
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A12" s="96"/>
-      <c r="B12" s="102"/>
-      <c r="C12" s="97"/>
+      <c r="A12" s="108"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="107"/>
       <c r="D12" s="2" t="s">
         <v>23</v>
       </c>
@@ -7383,27 +7386,27 @@
       <c r="S12" s="74"/>
       <c r="T12" s="74"/>
       <c r="U12" s="74"/>
-      <c r="V12" s="113"/>
+      <c r="V12" s="105"/>
       <c r="W12" s="74"/>
       <c r="X12" s="74"/>
       <c r="Y12" s="74"/>
       <c r="Z12" s="74"/>
       <c r="AA12" s="74"/>
       <c r="AB12" s="74"/>
-      <c r="AC12" s="110"/>
+      <c r="AC12" s="102"/>
       <c r="AD12" s="74"/>
       <c r="AE12" s="74"/>
       <c r="AF12" s="74"/>
       <c r="AG12" s="74"/>
       <c r="AH12" s="74"/>
       <c r="AI12" s="74"/>
-      <c r="AJ12" s="107"/>
+      <c r="AJ12" s="99"/>
       <c r="AK12" s="74"/>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A13" s="96"/>
-      <c r="B13" s="102"/>
-      <c r="C13" s="97"/>
+      <c r="A13" s="108"/>
+      <c r="B13" s="110"/>
+      <c r="C13" s="107"/>
       <c r="D13" s="33" t="s">
         <v>45</v>
       </c>
@@ -7428,27 +7431,27 @@
       <c r="S13" s="74"/>
       <c r="T13" s="74"/>
       <c r="U13" s="74"/>
-      <c r="V13" s="113"/>
+      <c r="V13" s="105"/>
       <c r="W13" s="74"/>
       <c r="X13" s="74"/>
       <c r="Y13" s="74"/>
       <c r="Z13" s="74"/>
       <c r="AA13" s="74"/>
       <c r="AB13" s="74"/>
-      <c r="AC13" s="110"/>
+      <c r="AC13" s="102"/>
       <c r="AD13" s="74"/>
       <c r="AE13" s="74"/>
       <c r="AF13" s="74"/>
       <c r="AG13" s="74"/>
       <c r="AH13" s="74"/>
       <c r="AI13" s="74"/>
-      <c r="AJ13" s="107"/>
+      <c r="AJ13" s="99"/>
       <c r="AK13" s="74"/>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A14" s="96"/>
-      <c r="B14" s="102"/>
-      <c r="C14" s="97"/>
+      <c r="A14" s="108"/>
+      <c r="B14" s="110"/>
+      <c r="C14" s="107"/>
       <c r="D14" s="34" t="s">
         <v>27</v>
       </c>
@@ -7473,27 +7476,27 @@
       <c r="S14" s="74"/>
       <c r="T14" s="74"/>
       <c r="U14" s="74"/>
-      <c r="V14" s="113"/>
+      <c r="V14" s="105"/>
       <c r="W14" s="74"/>
       <c r="X14" s="74"/>
       <c r="Y14" s="74"/>
       <c r="Z14" s="74"/>
       <c r="AA14" s="74"/>
       <c r="AB14" s="74"/>
-      <c r="AC14" s="110"/>
+      <c r="AC14" s="102"/>
       <c r="AD14" s="74"/>
       <c r="AE14" s="74"/>
       <c r="AF14" s="74"/>
       <c r="AG14" s="74"/>
       <c r="AH14" s="74"/>
       <c r="AI14" s="74"/>
-      <c r="AJ14" s="107"/>
+      <c r="AJ14" s="99"/>
       <c r="AK14" s="74"/>
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A15" s="96"/>
-      <c r="B15" s="102"/>
-      <c r="C15" s="97" t="s">
+      <c r="A15" s="108"/>
+      <c r="B15" s="110"/>
+      <c r="C15" s="107" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -7520,27 +7523,27 @@
       <c r="S15" s="74"/>
       <c r="T15" s="74"/>
       <c r="U15" s="74"/>
-      <c r="V15" s="113"/>
+      <c r="V15" s="105"/>
       <c r="W15" s="74"/>
       <c r="X15" s="74"/>
       <c r="Y15" s="74"/>
       <c r="Z15" s="74"/>
       <c r="AA15" s="74"/>
       <c r="AB15" s="74"/>
-      <c r="AC15" s="110"/>
+      <c r="AC15" s="102"/>
       <c r="AD15" s="74"/>
       <c r="AE15" s="74"/>
       <c r="AF15" s="74"/>
       <c r="AG15" s="74"/>
       <c r="AH15" s="74"/>
       <c r="AI15" s="74"/>
-      <c r="AJ15" s="107"/>
+      <c r="AJ15" s="99"/>
       <c r="AK15" s="74"/>
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A16" s="96"/>
-      <c r="B16" s="102"/>
-      <c r="C16" s="97"/>
+      <c r="A16" s="108"/>
+      <c r="B16" s="110"/>
+      <c r="C16" s="107"/>
       <c r="D16" s="35" t="s">
         <v>45</v>
       </c>
@@ -7565,27 +7568,27 @@
       <c r="S16" s="74"/>
       <c r="T16" s="74"/>
       <c r="U16" s="74"/>
-      <c r="V16" s="113"/>
+      <c r="V16" s="105"/>
       <c r="W16" s="74"/>
       <c r="X16" s="74"/>
       <c r="Y16" s="74"/>
       <c r="Z16" s="74"/>
       <c r="AA16" s="74"/>
       <c r="AB16" s="74"/>
-      <c r="AC16" s="110"/>
+      <c r="AC16" s="102"/>
       <c r="AD16" s="74"/>
       <c r="AE16" s="74"/>
       <c r="AF16" s="74"/>
       <c r="AG16" s="74"/>
       <c r="AH16" s="74"/>
       <c r="AI16" s="74"/>
-      <c r="AJ16" s="107"/>
+      <c r="AJ16" s="99"/>
       <c r="AK16" s="74"/>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A17" s="96"/>
-      <c r="B17" s="102"/>
-      <c r="C17" s="97"/>
+      <c r="A17" s="108"/>
+      <c r="B17" s="110"/>
+      <c r="C17" s="107"/>
       <c r="D17" s="2" t="s">
         <v>23</v>
       </c>
@@ -7610,30 +7613,30 @@
       <c r="S17" s="74"/>
       <c r="T17" s="74"/>
       <c r="U17" s="74"/>
-      <c r="V17" s="113"/>
+      <c r="V17" s="105"/>
       <c r="W17" s="74"/>
       <c r="X17" s="74"/>
       <c r="Y17" s="74"/>
       <c r="Z17" s="74"/>
       <c r="AA17" s="74"/>
       <c r="AB17" s="74"/>
-      <c r="AC17" s="110"/>
+      <c r="AC17" s="102"/>
       <c r="AD17" s="74"/>
       <c r="AE17" s="74"/>
       <c r="AF17" s="74"/>
       <c r="AG17" s="74"/>
       <c r="AH17" s="74"/>
       <c r="AI17" s="74"/>
-      <c r="AJ17" s="107"/>
+      <c r="AJ17" s="99"/>
       <c r="AK17" s="74"/>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A18" s="96"/>
-      <c r="B18" s="102"/>
-      <c r="C18" s="97" t="s">
+      <c r="A18" s="108"/>
+      <c r="B18" s="110"/>
+      <c r="C18" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="97" t="s">
+      <c r="D18" s="107" t="s">
         <v>95</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -7665,28 +7668,28 @@
       <c r="S18" s="74"/>
       <c r="T18" s="74"/>
       <c r="U18" s="74"/>
-      <c r="V18" s="113"/>
+      <c r="V18" s="105"/>
       <c r="W18" s="74"/>
       <c r="X18" s="74"/>
       <c r="Y18" s="74"/>
       <c r="Z18" s="74"/>
       <c r="AA18" s="74"/>
       <c r="AB18" s="74"/>
-      <c r="AC18" s="110"/>
+      <c r="AC18" s="102"/>
       <c r="AD18" s="74"/>
       <c r="AE18" s="74"/>
       <c r="AF18" s="74"/>
       <c r="AG18" s="74"/>
       <c r="AH18" s="74"/>
       <c r="AI18" s="74"/>
-      <c r="AJ18" s="107"/>
+      <c r="AJ18" s="99"/>
       <c r="AK18" s="74"/>
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A19" s="96"/>
-      <c r="B19" s="102"/>
-      <c r="C19" s="97"/>
-      <c r="D19" s="97"/>
+      <c r="A19" s="108"/>
+      <c r="B19" s="110"/>
+      <c r="C19" s="107"/>
+      <c r="D19" s="107"/>
       <c r="E19" s="2" t="s">
         <v>138</v>
       </c>
@@ -7716,28 +7719,28 @@
       <c r="S19" s="74"/>
       <c r="T19" s="74"/>
       <c r="U19" s="74"/>
-      <c r="V19" s="113"/>
+      <c r="V19" s="105"/>
       <c r="W19" s="74"/>
       <c r="X19" s="74"/>
       <c r="Y19" s="74"/>
       <c r="Z19" s="74"/>
       <c r="AA19" s="74"/>
       <c r="AB19" s="74"/>
-      <c r="AC19" s="110"/>
+      <c r="AC19" s="102"/>
       <c r="AD19" s="74"/>
       <c r="AE19" s="74"/>
       <c r="AF19" s="74"/>
       <c r="AG19" s="74"/>
       <c r="AH19" s="74"/>
       <c r="AI19" s="74"/>
-      <c r="AJ19" s="107"/>
+      <c r="AJ19" s="99"/>
       <c r="AK19" s="74"/>
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A20" s="96"/>
-      <c r="B20" s="102"/>
-      <c r="C20" s="97"/>
-      <c r="D20" s="97"/>
+      <c r="A20" s="108"/>
+      <c r="B20" s="110"/>
+      <c r="C20" s="107"/>
+      <c r="D20" s="107"/>
       <c r="E20" s="2" t="s">
         <v>112</v>
       </c>
@@ -7767,28 +7770,28 @@
       <c r="S20" s="74"/>
       <c r="T20" s="74"/>
       <c r="U20" s="74"/>
-      <c r="V20" s="113"/>
+      <c r="V20" s="105"/>
       <c r="W20" s="74"/>
       <c r="X20" s="74"/>
       <c r="Y20" s="74"/>
       <c r="Z20" s="74"/>
       <c r="AA20" s="74"/>
       <c r="AB20" s="74"/>
-      <c r="AC20" s="110"/>
+      <c r="AC20" s="102"/>
       <c r="AD20" s="74"/>
       <c r="AE20" s="74"/>
       <c r="AF20" s="74"/>
       <c r="AG20" s="74"/>
       <c r="AH20" s="74"/>
       <c r="AI20" s="74"/>
-      <c r="AJ20" s="107"/>
+      <c r="AJ20" s="99"/>
       <c r="AK20" s="74"/>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A21" s="96"/>
-      <c r="B21" s="102"/>
-      <c r="C21" s="97"/>
-      <c r="D21" s="97"/>
+      <c r="A21" s="108"/>
+      <c r="B21" s="110"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="107"/>
       <c r="E21" s="2" t="s">
         <v>108</v>
       </c>
@@ -7818,28 +7821,28 @@
       <c r="S21" s="74"/>
       <c r="T21" s="74"/>
       <c r="U21" s="74"/>
-      <c r="V21" s="113"/>
+      <c r="V21" s="105"/>
       <c r="W21" s="74"/>
       <c r="X21" s="74"/>
       <c r="Y21" s="74"/>
       <c r="Z21" s="74"/>
       <c r="AA21" s="74"/>
       <c r="AB21" s="74"/>
-      <c r="AC21" s="110"/>
+      <c r="AC21" s="102"/>
       <c r="AD21" s="74"/>
       <c r="AE21" s="74"/>
       <c r="AF21" s="74"/>
       <c r="AG21" s="74"/>
       <c r="AH21" s="74"/>
       <c r="AI21" s="74"/>
-      <c r="AJ21" s="107"/>
+      <c r="AJ21" s="99"/>
       <c r="AK21" s="74"/>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A22" s="96"/>
-      <c r="B22" s="102"/>
-      <c r="C22" s="97"/>
-      <c r="D22" s="97"/>
+      <c r="A22" s="108"/>
+      <c r="B22" s="110"/>
+      <c r="C22" s="107"/>
+      <c r="D22" s="107"/>
       <c r="E22" s="2" t="s">
         <v>135</v>
       </c>
@@ -7869,28 +7872,28 @@
       <c r="S22" s="74"/>
       <c r="T22" s="74"/>
       <c r="U22" s="74"/>
-      <c r="V22" s="113"/>
+      <c r="V22" s="105"/>
       <c r="W22" s="74"/>
       <c r="X22" s="74"/>
       <c r="Y22" s="74"/>
       <c r="Z22" s="74"/>
       <c r="AA22" s="74"/>
       <c r="AB22" s="74"/>
-      <c r="AC22" s="110"/>
+      <c r="AC22" s="102"/>
       <c r="AD22" s="74"/>
       <c r="AE22" s="74"/>
       <c r="AF22" s="74"/>
       <c r="AG22" s="74"/>
       <c r="AH22" s="74"/>
       <c r="AI22" s="74"/>
-      <c r="AJ22" s="107"/>
+      <c r="AJ22" s="99"/>
       <c r="AK22" s="74"/>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A23" s="96"/>
-      <c r="B23" s="102"/>
-      <c r="C23" s="97"/>
-      <c r="D23" s="97"/>
+      <c r="A23" s="108"/>
+      <c r="B23" s="110"/>
+      <c r="C23" s="107"/>
+      <c r="D23" s="107"/>
       <c r="E23" s="2" t="s">
         <v>118</v>
       </c>
@@ -7920,28 +7923,28 @@
       <c r="S23" s="74"/>
       <c r="T23" s="74"/>
       <c r="U23" s="74"/>
-      <c r="V23" s="113"/>
+      <c r="V23" s="105"/>
       <c r="W23" s="74"/>
       <c r="X23" s="74"/>
       <c r="Y23" s="74"/>
       <c r="Z23" s="74"/>
       <c r="AA23" s="74"/>
       <c r="AB23" s="74"/>
-      <c r="AC23" s="110"/>
+      <c r="AC23" s="102"/>
       <c r="AD23" s="74"/>
       <c r="AE23" s="74"/>
       <c r="AF23" s="74"/>
       <c r="AG23" s="74"/>
       <c r="AH23" s="74"/>
       <c r="AI23" s="74"/>
-      <c r="AJ23" s="107"/>
+      <c r="AJ23" s="99"/>
       <c r="AK23" s="74"/>
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A24" s="96"/>
-      <c r="B24" s="102"/>
-      <c r="C24" s="97"/>
-      <c r="D24" s="97"/>
+      <c r="A24" s="108"/>
+      <c r="B24" s="110"/>
+      <c r="C24" s="107"/>
+      <c r="D24" s="107"/>
       <c r="E24" s="2" t="s">
         <v>109</v>
       </c>
@@ -7971,28 +7974,28 @@
       <c r="S24" s="74"/>
       <c r="T24" s="74"/>
       <c r="U24" s="74"/>
-      <c r="V24" s="113"/>
+      <c r="V24" s="105"/>
       <c r="W24" s="74"/>
       <c r="X24" s="74"/>
       <c r="Y24" s="74"/>
       <c r="Z24" s="74"/>
       <c r="AA24" s="74"/>
       <c r="AB24" s="74"/>
-      <c r="AC24" s="110"/>
+      <c r="AC24" s="102"/>
       <c r="AD24" s="74"/>
       <c r="AE24" s="74"/>
       <c r="AF24" s="74"/>
       <c r="AG24" s="74"/>
       <c r="AH24" s="74"/>
       <c r="AI24" s="74"/>
-      <c r="AJ24" s="107"/>
+      <c r="AJ24" s="99"/>
       <c r="AK24" s="74"/>
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A25" s="96"/>
-      <c r="B25" s="102"/>
-      <c r="C25" s="97"/>
-      <c r="D25" s="97"/>
+      <c r="A25" s="108"/>
+      <c r="B25" s="110"/>
+      <c r="C25" s="107"/>
+      <c r="D25" s="107"/>
       <c r="E25" s="2" t="s">
         <v>167</v>
       </c>
@@ -8022,28 +8025,28 @@
       <c r="S25" s="74"/>
       <c r="T25" s="74"/>
       <c r="U25" s="74"/>
-      <c r="V25" s="113"/>
+      <c r="V25" s="105"/>
       <c r="W25" s="74"/>
       <c r="X25" s="74"/>
       <c r="Y25" s="74"/>
       <c r="Z25" s="74"/>
       <c r="AA25" s="74"/>
       <c r="AB25" s="74"/>
-      <c r="AC25" s="110"/>
+      <c r="AC25" s="102"/>
       <c r="AD25" s="74"/>
       <c r="AE25" s="74"/>
       <c r="AF25" s="74"/>
       <c r="AG25" s="74"/>
       <c r="AH25" s="74"/>
       <c r="AI25" s="74"/>
-      <c r="AJ25" s="107"/>
+      <c r="AJ25" s="99"/>
       <c r="AK25" s="74"/>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A26" s="96"/>
-      <c r="B26" s="102"/>
-      <c r="C26" s="97"/>
-      <c r="D26" s="97"/>
+      <c r="A26" s="108"/>
+      <c r="B26" s="110"/>
+      <c r="C26" s="107"/>
+      <c r="D26" s="107"/>
       <c r="E26" s="2" t="s">
         <v>106</v>
       </c>
@@ -8073,28 +8076,28 @@
       <c r="S26" s="74"/>
       <c r="T26" s="74"/>
       <c r="U26" s="74"/>
-      <c r="V26" s="113"/>
+      <c r="V26" s="105"/>
       <c r="W26" s="74"/>
       <c r="X26" s="74"/>
       <c r="Y26" s="74"/>
       <c r="Z26" s="74"/>
       <c r="AA26" s="74"/>
       <c r="AB26" s="74"/>
-      <c r="AC26" s="110"/>
+      <c r="AC26" s="102"/>
       <c r="AD26" s="74"/>
       <c r="AE26" s="74"/>
       <c r="AF26" s="74"/>
       <c r="AG26" s="74"/>
       <c r="AH26" s="74"/>
       <c r="AI26" s="74"/>
-      <c r="AJ26" s="107"/>
+      <c r="AJ26" s="99"/>
       <c r="AK26" s="74"/>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A27" s="96"/>
-      <c r="B27" s="102"/>
-      <c r="C27" s="97"/>
-      <c r="D27" s="97"/>
+      <c r="A27" s="108"/>
+      <c r="B27" s="110"/>
+      <c r="C27" s="107"/>
+      <c r="D27" s="107"/>
       <c r="E27" s="2" t="s">
         <v>102</v>
       </c>
@@ -8124,28 +8127,28 @@
       <c r="S27" s="74"/>
       <c r="T27" s="74"/>
       <c r="U27" s="74"/>
-      <c r="V27" s="113"/>
+      <c r="V27" s="105"/>
       <c r="W27" s="74"/>
       <c r="X27" s="74"/>
       <c r="Y27" s="74"/>
       <c r="Z27" s="74"/>
       <c r="AA27" s="74"/>
       <c r="AB27" s="74"/>
-      <c r="AC27" s="110"/>
+      <c r="AC27" s="102"/>
       <c r="AD27" s="74"/>
       <c r="AE27" s="74"/>
       <c r="AF27" s="74"/>
       <c r="AG27" s="74"/>
       <c r="AH27" s="74"/>
       <c r="AI27" s="74"/>
-      <c r="AJ27" s="107"/>
+      <c r="AJ27" s="99"/>
       <c r="AK27" s="74"/>
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A28" s="96"/>
-      <c r="B28" s="102"/>
-      <c r="C28" s="97"/>
-      <c r="D28" s="97" t="s">
+      <c r="A28" s="108"/>
+      <c r="B28" s="110"/>
+      <c r="C28" s="107"/>
+      <c r="D28" s="107" t="s">
         <v>25</v>
       </c>
       <c r="E28" s="2" t="s">
@@ -8177,28 +8180,28 @@
       <c r="S28" s="74"/>
       <c r="T28" s="74"/>
       <c r="U28" s="74"/>
-      <c r="V28" s="113"/>
+      <c r="V28" s="105"/>
       <c r="W28" s="74"/>
       <c r="X28" s="74"/>
       <c r="Y28" s="74"/>
       <c r="Z28" s="74"/>
       <c r="AA28" s="74"/>
       <c r="AB28" s="74"/>
-      <c r="AC28" s="110"/>
+      <c r="AC28" s="102"/>
       <c r="AD28" s="74"/>
       <c r="AE28" s="74"/>
       <c r="AF28" s="74"/>
       <c r="AG28" s="74"/>
       <c r="AH28" s="74"/>
       <c r="AI28" s="74"/>
-      <c r="AJ28" s="107"/>
+      <c r="AJ28" s="99"/>
       <c r="AK28" s="74"/>
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A29" s="96"/>
-      <c r="B29" s="102"/>
-      <c r="C29" s="97"/>
-      <c r="D29" s="97"/>
+      <c r="A29" s="108"/>
+      <c r="B29" s="110"/>
+      <c r="C29" s="107"/>
+      <c r="D29" s="107"/>
       <c r="E29" s="2" t="s">
         <v>119</v>
       </c>
@@ -8228,28 +8231,28 @@
       <c r="S29" s="74"/>
       <c r="T29" s="74"/>
       <c r="U29" s="74"/>
-      <c r="V29" s="113"/>
+      <c r="V29" s="105"/>
       <c r="W29" s="74"/>
       <c r="X29" s="74"/>
       <c r="Y29" s="74"/>
       <c r="Z29" s="74"/>
       <c r="AA29" s="74"/>
       <c r="AB29" s="74"/>
-      <c r="AC29" s="110"/>
+      <c r="AC29" s="102"/>
       <c r="AD29" s="74"/>
       <c r="AE29" s="74"/>
       <c r="AF29" s="74"/>
       <c r="AG29" s="74"/>
       <c r="AH29" s="74"/>
       <c r="AI29" s="74"/>
-      <c r="AJ29" s="107"/>
+      <c r="AJ29" s="99"/>
       <c r="AK29" s="74"/>
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A30" s="96"/>
-      <c r="B30" s="102"/>
-      <c r="C30" s="97"/>
-      <c r="D30" s="97" t="s">
+      <c r="A30" s="108"/>
+      <c r="B30" s="110"/>
+      <c r="C30" s="107"/>
+      <c r="D30" s="107" t="s">
         <v>13</v>
       </c>
       <c r="E30" s="2" t="s">
@@ -8279,28 +8282,28 @@
       <c r="S30" s="74"/>
       <c r="T30" s="74"/>
       <c r="U30" s="74"/>
-      <c r="V30" s="113"/>
+      <c r="V30" s="105"/>
       <c r="W30" s="74"/>
       <c r="X30" s="74"/>
       <c r="Y30" s="74"/>
       <c r="Z30" s="74"/>
       <c r="AA30" s="74"/>
       <c r="AB30" s="74"/>
-      <c r="AC30" s="110"/>
+      <c r="AC30" s="102"/>
       <c r="AD30" s="74"/>
       <c r="AE30" s="74"/>
       <c r="AF30" s="74"/>
       <c r="AG30" s="74"/>
       <c r="AH30" s="74"/>
       <c r="AI30" s="74"/>
-      <c r="AJ30" s="107"/>
+      <c r="AJ30" s="99"/>
       <c r="AK30" s="74"/>
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A31" s="96"/>
-      <c r="B31" s="102"/>
-      <c r="C31" s="97"/>
-      <c r="D31" s="97"/>
+      <c r="A31" s="108"/>
+      <c r="B31" s="110"/>
+      <c r="C31" s="107"/>
+      <c r="D31" s="107"/>
       <c r="E31" s="2" t="s">
         <v>143</v>
       </c>
@@ -8324,28 +8327,28 @@
       <c r="S31" s="74"/>
       <c r="T31" s="74"/>
       <c r="U31" s="74"/>
-      <c r="V31" s="113"/>
+      <c r="V31" s="105"/>
       <c r="W31" s="74"/>
       <c r="X31" s="74"/>
       <c r="Y31" s="74"/>
       <c r="Z31" s="74"/>
       <c r="AA31" s="74"/>
       <c r="AB31" s="74"/>
-      <c r="AC31" s="110"/>
+      <c r="AC31" s="102"/>
       <c r="AD31" s="74"/>
       <c r="AE31" s="74"/>
       <c r="AF31" s="74"/>
       <c r="AG31" s="74"/>
       <c r="AH31" s="74"/>
       <c r="AI31" s="74"/>
-      <c r="AJ31" s="107"/>
+      <c r="AJ31" s="99"/>
       <c r="AK31" s="74"/>
     </row>
     <row r="32" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A32" s="96"/>
-      <c r="B32" s="102"/>
-      <c r="C32" s="97"/>
-      <c r="D32" s="97"/>
+      <c r="A32" s="108"/>
+      <c r="B32" s="110"/>
+      <c r="C32" s="107"/>
+      <c r="D32" s="107"/>
       <c r="E32" s="2" t="s">
         <v>113</v>
       </c>
@@ -8375,28 +8378,28 @@
       <c r="S32" s="74"/>
       <c r="T32" s="74"/>
       <c r="U32" s="74"/>
-      <c r="V32" s="113"/>
+      <c r="V32" s="105"/>
       <c r="W32" s="74"/>
       <c r="X32" s="74"/>
       <c r="Y32" s="74"/>
       <c r="Z32" s="74"/>
       <c r="AA32" s="74"/>
       <c r="AB32" s="74"/>
-      <c r="AC32" s="110"/>
+      <c r="AC32" s="102"/>
       <c r="AD32" s="74"/>
       <c r="AE32" s="74"/>
       <c r="AF32" s="74"/>
       <c r="AG32" s="74"/>
       <c r="AH32" s="74"/>
       <c r="AI32" s="74"/>
-      <c r="AJ32" s="107"/>
+      <c r="AJ32" s="99"/>
       <c r="AK32" s="74"/>
     </row>
     <row r="33" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A33" s="96"/>
-      <c r="B33" s="102"/>
-      <c r="C33" s="97"/>
-      <c r="D33" s="99" t="s">
+      <c r="A33" s="108"/>
+      <c r="B33" s="110"/>
+      <c r="C33" s="107"/>
+      <c r="D33" s="95" t="s">
         <v>90</v>
       </c>
       <c r="E33" s="2" t="s">
@@ -8428,28 +8431,28 @@
       <c r="S33" s="74"/>
       <c r="T33" s="74"/>
       <c r="U33" s="74"/>
-      <c r="V33" s="113"/>
+      <c r="V33" s="105"/>
       <c r="W33" s="74"/>
       <c r="X33" s="74"/>
       <c r="Y33" s="74"/>
       <c r="Z33" s="74"/>
       <c r="AA33" s="74"/>
       <c r="AB33" s="74"/>
-      <c r="AC33" s="110"/>
+      <c r="AC33" s="102"/>
       <c r="AD33" s="74"/>
       <c r="AE33" s="74"/>
       <c r="AF33" s="74"/>
       <c r="AG33" s="74"/>
       <c r="AH33" s="74"/>
       <c r="AI33" s="74"/>
-      <c r="AJ33" s="107"/>
+      <c r="AJ33" s="99"/>
       <c r="AK33" s="74"/>
     </row>
     <row r="34" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A34" s="96"/>
-      <c r="B34" s="102"/>
-      <c r="C34" s="97"/>
-      <c r="D34" s="100"/>
+      <c r="A34" s="108"/>
+      <c r="B34" s="110"/>
+      <c r="C34" s="107"/>
+      <c r="D34" s="96"/>
       <c r="E34" s="2" t="s">
         <v>141</v>
       </c>
@@ -8479,28 +8482,28 @@
       <c r="S34" s="74"/>
       <c r="T34" s="74"/>
       <c r="U34" s="74"/>
-      <c r="V34" s="113"/>
+      <c r="V34" s="105"/>
       <c r="W34" s="74"/>
       <c r="X34" s="74"/>
       <c r="Y34" s="74"/>
       <c r="Z34" s="74"/>
       <c r="AA34" s="74"/>
       <c r="AB34" s="74"/>
-      <c r="AC34" s="110"/>
+      <c r="AC34" s="102"/>
       <c r="AD34" s="74"/>
       <c r="AE34" s="74"/>
       <c r="AF34" s="74"/>
       <c r="AG34" s="74"/>
       <c r="AH34" s="74"/>
       <c r="AI34" s="74"/>
-      <c r="AJ34" s="107"/>
+      <c r="AJ34" s="99"/>
       <c r="AK34" s="74"/>
     </row>
     <row r="35" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A35" s="96"/>
-      <c r="B35" s="102"/>
-      <c r="C35" s="97"/>
-      <c r="D35" s="100"/>
+      <c r="A35" s="108"/>
+      <c r="B35" s="110"/>
+      <c r="C35" s="107"/>
+      <c r="D35" s="96"/>
       <c r="E35" s="2" t="s">
         <v>103</v>
       </c>
@@ -8530,28 +8533,28 @@
       <c r="S35" s="74"/>
       <c r="T35" s="74"/>
       <c r="U35" s="74"/>
-      <c r="V35" s="113"/>
+      <c r="V35" s="105"/>
       <c r="W35" s="74"/>
       <c r="X35" s="74"/>
       <c r="Y35" s="74"/>
       <c r="Z35" s="74"/>
       <c r="AA35" s="74"/>
       <c r="AB35" s="74"/>
-      <c r="AC35" s="110"/>
+      <c r="AC35" s="102"/>
       <c r="AD35" s="74"/>
       <c r="AE35" s="74"/>
       <c r="AF35" s="74"/>
       <c r="AG35" s="74"/>
       <c r="AH35" s="74"/>
       <c r="AI35" s="74"/>
-      <c r="AJ35" s="107"/>
+      <c r="AJ35" s="99"/>
       <c r="AK35" s="74"/>
     </row>
     <row r="36" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A36" s="96"/>
-      <c r="B36" s="102"/>
-      <c r="C36" s="97"/>
-      <c r="D36" s="100"/>
+      <c r="A36" s="108"/>
+      <c r="B36" s="110"/>
+      <c r="C36" s="107"/>
+      <c r="D36" s="96"/>
       <c r="E36" s="2" t="s">
         <v>224</v>
       </c>
@@ -8581,28 +8584,28 @@
       <c r="S36" s="74"/>
       <c r="T36" s="74"/>
       <c r="U36" s="74"/>
-      <c r="V36" s="113"/>
+      <c r="V36" s="105"/>
       <c r="W36" s="74"/>
       <c r="X36" s="74"/>
       <c r="Y36" s="74"/>
       <c r="Z36" s="74"/>
       <c r="AA36" s="74"/>
       <c r="AB36" s="74"/>
-      <c r="AC36" s="110"/>
+      <c r="AC36" s="102"/>
       <c r="AD36" s="74"/>
       <c r="AE36" s="74"/>
       <c r="AF36" s="74"/>
       <c r="AG36" s="74"/>
       <c r="AH36" s="74"/>
       <c r="AI36" s="74"/>
-      <c r="AJ36" s="107"/>
+      <c r="AJ36" s="99"/>
       <c r="AK36" s="74"/>
     </row>
     <row r="37" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A37" s="96"/>
-      <c r="B37" s="102"/>
-      <c r="C37" s="97"/>
-      <c r="D37" s="100"/>
+      <c r="A37" s="108"/>
+      <c r="B37" s="110"/>
+      <c r="C37" s="107"/>
+      <c r="D37" s="96"/>
       <c r="E37" s="2" t="s">
         <v>251</v>
       </c>
@@ -8632,28 +8635,28 @@
       <c r="S37" s="74"/>
       <c r="T37" s="74"/>
       <c r="U37" s="74"/>
-      <c r="V37" s="113"/>
+      <c r="V37" s="105"/>
       <c r="W37" s="74"/>
       <c r="X37" s="74"/>
       <c r="Y37" s="74"/>
       <c r="Z37" s="74"/>
       <c r="AA37" s="74"/>
       <c r="AB37" s="74"/>
-      <c r="AC37" s="110"/>
+      <c r="AC37" s="102"/>
       <c r="AD37" s="74"/>
       <c r="AE37" s="74"/>
       <c r="AF37" s="74"/>
       <c r="AG37" s="74"/>
       <c r="AH37" s="74"/>
       <c r="AI37" s="74"/>
-      <c r="AJ37" s="107"/>
+      <c r="AJ37" s="99"/>
       <c r="AK37" s="74"/>
     </row>
     <row r="38" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A38" s="96"/>
-      <c r="B38" s="102"/>
-      <c r="C38" s="97"/>
-      <c r="D38" s="101"/>
+      <c r="A38" s="108"/>
+      <c r="B38" s="110"/>
+      <c r="C38" s="107"/>
+      <c r="D38" s="97"/>
       <c r="E38" s="2" t="s">
         <v>253</v>
       </c>
@@ -8675,27 +8678,27 @@
       <c r="S38" s="74"/>
       <c r="T38" s="74"/>
       <c r="U38" s="74"/>
-      <c r="V38" s="113"/>
+      <c r="V38" s="105"/>
       <c r="W38" s="74"/>
       <c r="X38" s="74"/>
       <c r="Y38" s="74"/>
       <c r="Z38" s="74"/>
       <c r="AA38" s="74"/>
       <c r="AB38" s="74"/>
-      <c r="AC38" s="110"/>
+      <c r="AC38" s="102"/>
       <c r="AD38" s="74"/>
       <c r="AE38" s="74"/>
       <c r="AF38" s="74"/>
       <c r="AG38" s="74"/>
       <c r="AH38" s="74"/>
       <c r="AI38" s="74"/>
-      <c r="AJ38" s="107"/>
+      <c r="AJ38" s="99"/>
       <c r="AK38" s="74"/>
     </row>
     <row r="39" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A39" s="96"/>
-      <c r="B39" s="102"/>
-      <c r="C39" s="97"/>
+      <c r="A39" s="108"/>
+      <c r="B39" s="110"/>
+      <c r="C39" s="107"/>
       <c r="D39" s="2" t="s">
         <v>24</v>
       </c>
@@ -8722,27 +8725,27 @@
       <c r="S39" s="74"/>
       <c r="T39" s="74"/>
       <c r="U39" s="74"/>
-      <c r="V39" s="113"/>
+      <c r="V39" s="105"/>
       <c r="W39" s="74"/>
       <c r="X39" s="74"/>
       <c r="Y39" s="74"/>
       <c r="Z39" s="74"/>
       <c r="AA39" s="74"/>
       <c r="AB39" s="74"/>
-      <c r="AC39" s="110"/>
+      <c r="AC39" s="102"/>
       <c r="AD39" s="74"/>
       <c r="AE39" s="74"/>
       <c r="AF39" s="74"/>
       <c r="AG39" s="74"/>
       <c r="AH39" s="74"/>
       <c r="AI39" s="74"/>
-      <c r="AJ39" s="107"/>
+      <c r="AJ39" s="99"/>
       <c r="AK39" s="74"/>
     </row>
     <row r="40" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A40" s="96"/>
-      <c r="B40" s="102"/>
-      <c r="C40" s="97"/>
+      <c r="A40" s="108"/>
+      <c r="B40" s="110"/>
+      <c r="C40" s="107"/>
       <c r="D40" s="2" t="s">
         <v>144</v>
       </c>
@@ -8775,27 +8778,27 @@
       <c r="S40" s="74"/>
       <c r="T40" s="74"/>
       <c r="U40" s="74"/>
-      <c r="V40" s="113"/>
+      <c r="V40" s="105"/>
       <c r="W40" s="74"/>
       <c r="X40" s="74"/>
       <c r="Y40" s="74"/>
       <c r="Z40" s="74"/>
       <c r="AA40" s="74"/>
       <c r="AB40" s="74"/>
-      <c r="AC40" s="110"/>
+      <c r="AC40" s="102"/>
       <c r="AD40" s="74"/>
       <c r="AE40" s="74"/>
       <c r="AF40" s="74"/>
       <c r="AG40" s="74"/>
       <c r="AH40" s="74"/>
       <c r="AI40" s="74"/>
-      <c r="AJ40" s="107"/>
+      <c r="AJ40" s="99"/>
       <c r="AK40" s="74"/>
     </row>
     <row r="41" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A41" s="96"/>
-      <c r="B41" s="102"/>
-      <c r="C41" s="97"/>
+      <c r="A41" s="108"/>
+      <c r="B41" s="110"/>
+      <c r="C41" s="107"/>
       <c r="D41" s="2" t="s">
         <v>94</v>
       </c>
@@ -8818,27 +8821,27 @@
       <c r="S41" s="74"/>
       <c r="T41" s="74"/>
       <c r="U41" s="74"/>
-      <c r="V41" s="113"/>
+      <c r="V41" s="105"/>
       <c r="W41" s="74"/>
       <c r="X41" s="74"/>
       <c r="Y41" s="74"/>
       <c r="Z41" s="74"/>
       <c r="AA41" s="74"/>
       <c r="AB41" s="74"/>
-      <c r="AC41" s="110"/>
+      <c r="AC41" s="102"/>
       <c r="AD41" s="74"/>
       <c r="AE41" s="74"/>
       <c r="AF41" s="74"/>
       <c r="AG41" s="74"/>
       <c r="AH41" s="74"/>
       <c r="AI41" s="74"/>
-      <c r="AJ41" s="107"/>
+      <c r="AJ41" s="99"/>
       <c r="AK41" s="74"/>
     </row>
     <row r="42" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A42" s="96"/>
-      <c r="B42" s="102"/>
-      <c r="C42" s="97"/>
+      <c r="A42" s="108"/>
+      <c r="B42" s="110"/>
+      <c r="C42" s="107"/>
       <c r="D42" s="2" t="s">
         <v>23</v>
       </c>
@@ -8863,27 +8866,27 @@
       <c r="S42" s="74"/>
       <c r="T42" s="74"/>
       <c r="U42" s="74"/>
-      <c r="V42" s="113"/>
+      <c r="V42" s="105"/>
       <c r="W42" s="74"/>
       <c r="X42" s="74"/>
       <c r="Y42" s="74"/>
       <c r="Z42" s="74"/>
       <c r="AA42" s="74"/>
       <c r="AB42" s="74"/>
-      <c r="AC42" s="110"/>
+      <c r="AC42" s="102"/>
       <c r="AD42" s="74"/>
       <c r="AE42" s="74"/>
       <c r="AF42" s="74"/>
       <c r="AG42" s="74"/>
       <c r="AH42" s="74"/>
       <c r="AI42" s="74"/>
-      <c r="AJ42" s="107"/>
+      <c r="AJ42" s="99"/>
       <c r="AK42" s="74"/>
     </row>
     <row r="43" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A43" s="96"/>
-      <c r="B43" s="102"/>
-      <c r="C43" s="97"/>
+      <c r="A43" s="108"/>
+      <c r="B43" s="110"/>
+      <c r="C43" s="107"/>
       <c r="D43" s="34" t="s">
         <v>27</v>
       </c>
@@ -8908,27 +8911,27 @@
       <c r="S43" s="74"/>
       <c r="T43" s="74"/>
       <c r="U43" s="74"/>
-      <c r="V43" s="113"/>
+      <c r="V43" s="105"/>
       <c r="W43" s="74"/>
       <c r="X43" s="74"/>
       <c r="Y43" s="74"/>
       <c r="Z43" s="74"/>
       <c r="AA43" s="74"/>
       <c r="AB43" s="74"/>
-      <c r="AC43" s="110"/>
+      <c r="AC43" s="102"/>
       <c r="AD43" s="74"/>
       <c r="AE43" s="74"/>
       <c r="AF43" s="74"/>
       <c r="AG43" s="74"/>
       <c r="AH43" s="74"/>
       <c r="AI43" s="74"/>
-      <c r="AJ43" s="107"/>
+      <c r="AJ43" s="99"/>
       <c r="AK43" s="74"/>
     </row>
     <row r="44" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A44" s="96"/>
-      <c r="B44" s="102"/>
-      <c r="C44" s="97"/>
+      <c r="A44" s="108"/>
+      <c r="B44" s="110"/>
+      <c r="C44" s="107"/>
       <c r="D44" s="33" t="s">
         <v>45</v>
       </c>
@@ -8953,27 +8956,27 @@
       <c r="S44" s="74"/>
       <c r="T44" s="74"/>
       <c r="U44" s="74"/>
-      <c r="V44" s="113"/>
+      <c r="V44" s="105"/>
       <c r="W44" s="74"/>
       <c r="X44" s="74"/>
       <c r="Y44" s="74"/>
       <c r="Z44" s="74"/>
       <c r="AA44" s="74"/>
       <c r="AB44" s="74"/>
-      <c r="AC44" s="110"/>
+      <c r="AC44" s="102"/>
       <c r="AD44" s="74"/>
       <c r="AE44" s="74"/>
       <c r="AF44" s="74"/>
       <c r="AG44" s="74"/>
       <c r="AH44" s="74"/>
       <c r="AI44" s="74"/>
-      <c r="AJ44" s="107"/>
+      <c r="AJ44" s="99"/>
       <c r="AK44" s="74"/>
     </row>
     <row r="45" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A45" s="96"/>
-      <c r="B45" s="102"/>
-      <c r="C45" s="97"/>
+      <c r="A45" s="108"/>
+      <c r="B45" s="110"/>
+      <c r="C45" s="107"/>
       <c r="D45" s="2" t="s">
         <v>26</v>
       </c>
@@ -8996,27 +8999,27 @@
       <c r="S45" s="74"/>
       <c r="T45" s="74"/>
       <c r="U45" s="74"/>
-      <c r="V45" s="113"/>
+      <c r="V45" s="105"/>
       <c r="W45" s="74"/>
       <c r="X45" s="74"/>
       <c r="Y45" s="74"/>
       <c r="Z45" s="74"/>
       <c r="AA45" s="74"/>
       <c r="AB45" s="74"/>
-      <c r="AC45" s="110"/>
+      <c r="AC45" s="102"/>
       <c r="AD45" s="74"/>
       <c r="AE45" s="74"/>
       <c r="AF45" s="74"/>
       <c r="AG45" s="74"/>
       <c r="AH45" s="74"/>
       <c r="AI45" s="74"/>
-      <c r="AJ45" s="107"/>
+      <c r="AJ45" s="99"/>
       <c r="AK45" s="74"/>
     </row>
     <row r="46" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A46" s="96"/>
-      <c r="B46" s="102"/>
-      <c r="C46" s="97" t="s">
+      <c r="A46" s="108"/>
+      <c r="B46" s="110"/>
+      <c r="C46" s="107" t="s">
         <v>42</v>
       </c>
       <c r="D46" s="35" t="s">
@@ -9041,27 +9044,27 @@
       <c r="S46" s="74"/>
       <c r="T46" s="74"/>
       <c r="U46" s="74"/>
-      <c r="V46" s="113"/>
+      <c r="V46" s="105"/>
       <c r="W46" s="74"/>
       <c r="X46" s="74"/>
       <c r="Y46" s="74"/>
       <c r="Z46" s="74"/>
       <c r="AA46" s="74"/>
       <c r="AB46" s="74"/>
-      <c r="AC46" s="110"/>
+      <c r="AC46" s="102"/>
       <c r="AD46" s="74"/>
       <c r="AE46" s="74"/>
       <c r="AF46" s="74"/>
       <c r="AG46" s="74"/>
       <c r="AH46" s="74"/>
       <c r="AI46" s="74"/>
-      <c r="AJ46" s="107"/>
+      <c r="AJ46" s="99"/>
       <c r="AK46" s="74"/>
     </row>
     <row r="47" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A47" s="96"/>
-      <c r="B47" s="102"/>
-      <c r="C47" s="97"/>
+      <c r="A47" s="108"/>
+      <c r="B47" s="110"/>
+      <c r="C47" s="107"/>
       <c r="D47" s="2" t="s">
         <v>26</v>
       </c>
@@ -9084,27 +9087,27 @@
       <c r="S47" s="74"/>
       <c r="T47" s="74"/>
       <c r="U47" s="74"/>
-      <c r="V47" s="113"/>
+      <c r="V47" s="105"/>
       <c r="W47" s="74"/>
       <c r="X47" s="74"/>
       <c r="Y47" s="74"/>
       <c r="Z47" s="74"/>
       <c r="AA47" s="74"/>
       <c r="AB47" s="74"/>
-      <c r="AC47" s="110"/>
+      <c r="AC47" s="102"/>
       <c r="AD47" s="74"/>
       <c r="AE47" s="74"/>
       <c r="AF47" s="74"/>
       <c r="AG47" s="74"/>
       <c r="AH47" s="74"/>
       <c r="AI47" s="74"/>
-      <c r="AJ47" s="107"/>
+      <c r="AJ47" s="99"/>
       <c r="AK47" s="74"/>
     </row>
     <row r="48" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A48" s="96"/>
-      <c r="B48" s="102"/>
-      <c r="C48" s="97" t="s">
+      <c r="A48" s="108"/>
+      <c r="B48" s="110"/>
+      <c r="C48" s="107" t="s">
         <v>43</v>
       </c>
       <c r="D48" s="33" t="s">
@@ -9129,27 +9132,27 @@
       <c r="S48" s="74"/>
       <c r="T48" s="74"/>
       <c r="U48" s="74"/>
-      <c r="V48" s="113"/>
+      <c r="V48" s="105"/>
       <c r="W48" s="74"/>
       <c r="X48" s="74"/>
       <c r="Y48" s="74"/>
       <c r="Z48" s="74"/>
       <c r="AA48" s="74"/>
       <c r="AB48" s="74"/>
-      <c r="AC48" s="110"/>
+      <c r="AC48" s="102"/>
       <c r="AD48" s="74"/>
       <c r="AE48" s="74"/>
       <c r="AF48" s="74"/>
       <c r="AG48" s="74"/>
       <c r="AH48" s="74"/>
       <c r="AI48" s="74"/>
-      <c r="AJ48" s="107"/>
+      <c r="AJ48" s="99"/>
       <c r="AK48" s="74"/>
     </row>
     <row r="49" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A49" s="96"/>
-      <c r="B49" s="102"/>
-      <c r="C49" s="97"/>
+      <c r="A49" s="108"/>
+      <c r="B49" s="110"/>
+      <c r="C49" s="107"/>
       <c r="D49" s="2" t="s">
         <v>26</v>
       </c>
@@ -9172,27 +9175,27 @@
       <c r="S49" s="74"/>
       <c r="T49" s="74"/>
       <c r="U49" s="74"/>
-      <c r="V49" s="113"/>
+      <c r="V49" s="105"/>
       <c r="W49" s="74"/>
       <c r="X49" s="74"/>
       <c r="Y49" s="74"/>
       <c r="Z49" s="74"/>
       <c r="AA49" s="74"/>
       <c r="AB49" s="74"/>
-      <c r="AC49" s="110"/>
+      <c r="AC49" s="102"/>
       <c r="AD49" s="74"/>
       <c r="AE49" s="74"/>
       <c r="AF49" s="74"/>
       <c r="AG49" s="74"/>
       <c r="AH49" s="74"/>
       <c r="AI49" s="74"/>
-      <c r="AJ49" s="107"/>
+      <c r="AJ49" s="99"/>
       <c r="AK49" s="74"/>
     </row>
     <row r="50" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A50" s="96"/>
-      <c r="B50" s="102"/>
-      <c r="C50" s="97"/>
+      <c r="A50" s="108"/>
+      <c r="B50" s="110"/>
+      <c r="C50" s="107"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="19"/>
@@ -9213,27 +9216,27 @@
       <c r="S50" s="74"/>
       <c r="T50" s="74"/>
       <c r="U50" s="74"/>
-      <c r="V50" s="113"/>
+      <c r="V50" s="105"/>
       <c r="W50" s="74"/>
       <c r="X50" s="74"/>
       <c r="Y50" s="74"/>
       <c r="Z50" s="74"/>
       <c r="AA50" s="74"/>
       <c r="AB50" s="74"/>
-      <c r="AC50" s="110"/>
+      <c r="AC50" s="102"/>
       <c r="AD50" s="74"/>
       <c r="AE50" s="74"/>
       <c r="AF50" s="74"/>
       <c r="AG50" s="74"/>
       <c r="AH50" s="74"/>
       <c r="AI50" s="74"/>
-      <c r="AJ50" s="107"/>
+      <c r="AJ50" s="99"/>
       <c r="AK50" s="74"/>
     </row>
     <row r="51" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A51" s="96"/>
-      <c r="B51" s="102"/>
-      <c r="C51" s="97" t="s">
+      <c r="A51" s="108"/>
+      <c r="B51" s="110"/>
+      <c r="C51" s="107" t="s">
         <v>17</v>
       </c>
       <c r="D51" s="2" t="s">
@@ -9260,32 +9263,32 @@
       <c r="S51" s="74"/>
       <c r="T51" s="74"/>
       <c r="U51" s="74"/>
-      <c r="V51" s="113"/>
+      <c r="V51" s="105"/>
       <c r="W51" s="74"/>
       <c r="X51" s="74"/>
       <c r="Y51" s="74"/>
       <c r="Z51" s="74"/>
       <c r="AA51" s="74"/>
       <c r="AB51" s="74"/>
-      <c r="AC51" s="110"/>
+      <c r="AC51" s="102"/>
       <c r="AD51" s="74"/>
       <c r="AE51" s="74"/>
       <c r="AF51" s="74"/>
       <c r="AG51" s="74"/>
       <c r="AH51" s="74"/>
       <c r="AI51" s="74"/>
-      <c r="AJ51" s="107"/>
+      <c r="AJ51" s="99"/>
       <c r="AK51" s="74"/>
     </row>
     <row r="52" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A52" s="96"/>
-      <c r="B52" s="102"/>
-      <c r="C52" s="97"/>
+      <c r="A52" s="108"/>
+      <c r="B52" s="110"/>
+      <c r="C52" s="107"/>
       <c r="D52" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E52" s="2"/>
-      <c r="F52" s="93" t="s">
+      <c r="F52" s="91" t="s">
         <v>283</v>
       </c>
       <c r="G52" s="19"/>
@@ -9305,32 +9308,32 @@
       <c r="S52" s="74"/>
       <c r="T52" s="74"/>
       <c r="U52" s="74"/>
-      <c r="V52" s="113"/>
+      <c r="V52" s="105"/>
       <c r="W52" s="74"/>
       <c r="X52" s="74"/>
       <c r="Y52" s="74"/>
       <c r="Z52" s="74"/>
       <c r="AA52" s="74"/>
       <c r="AB52" s="74"/>
-      <c r="AC52" s="110"/>
+      <c r="AC52" s="102"/>
       <c r="AD52" s="74"/>
       <c r="AE52" s="74"/>
       <c r="AF52" s="74"/>
       <c r="AG52" s="74"/>
       <c r="AH52" s="74"/>
       <c r="AI52" s="74"/>
-      <c r="AJ52" s="107"/>
+      <c r="AJ52" s="99"/>
       <c r="AK52" s="74"/>
     </row>
     <row r="53" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A53" s="96"/>
-      <c r="B53" s="102"/>
-      <c r="C53" s="97"/>
+      <c r="A53" s="108"/>
+      <c r="B53" s="110"/>
+      <c r="C53" s="107"/>
       <c r="D53" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E53" s="2"/>
-      <c r="F53" s="93" t="s">
+      <c r="F53" s="91" t="s">
         <v>283</v>
       </c>
       <c r="G53" s="19"/>
@@ -9350,32 +9353,32 @@
       <c r="S53" s="74"/>
       <c r="T53" s="74"/>
       <c r="U53" s="74"/>
-      <c r="V53" s="113"/>
+      <c r="V53" s="105"/>
       <c r="W53" s="74"/>
       <c r="X53" s="74"/>
       <c r="Y53" s="74"/>
       <c r="Z53" s="74"/>
       <c r="AA53" s="74"/>
       <c r="AB53" s="74"/>
-      <c r="AC53" s="110"/>
+      <c r="AC53" s="102"/>
       <c r="AD53" s="74"/>
       <c r="AE53" s="74"/>
       <c r="AF53" s="74"/>
       <c r="AG53" s="74"/>
       <c r="AH53" s="74"/>
       <c r="AI53" s="74"/>
-      <c r="AJ53" s="107"/>
+      <c r="AJ53" s="99"/>
       <c r="AK53" s="74"/>
     </row>
     <row r="54" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A54" s="96"/>
-      <c r="B54" s="102"/>
-      <c r="C54" s="97"/>
+      <c r="A54" s="108"/>
+      <c r="B54" s="110"/>
+      <c r="C54" s="107"/>
       <c r="D54" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E54" s="2"/>
-      <c r="F54" s="93" t="s">
+      <c r="F54" s="91" t="s">
         <v>283</v>
       </c>
       <c r="G54" s="19"/>
@@ -9395,32 +9398,32 @@
       <c r="S54" s="74"/>
       <c r="T54" s="74"/>
       <c r="U54" s="74"/>
-      <c r="V54" s="113"/>
+      <c r="V54" s="105"/>
       <c r="W54" s="74"/>
       <c r="X54" s="74"/>
       <c r="Y54" s="74"/>
       <c r="Z54" s="74"/>
       <c r="AA54" s="74"/>
       <c r="AB54" s="74"/>
-      <c r="AC54" s="110"/>
+      <c r="AC54" s="102"/>
       <c r="AD54" s="74"/>
       <c r="AE54" s="74"/>
       <c r="AF54" s="74"/>
       <c r="AG54" s="74"/>
       <c r="AH54" s="74"/>
       <c r="AI54" s="74"/>
-      <c r="AJ54" s="107"/>
+      <c r="AJ54" s="99"/>
       <c r="AK54" s="74"/>
     </row>
     <row r="55" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A55" s="96"/>
-      <c r="B55" s="102"/>
-      <c r="C55" s="97"/>
+      <c r="A55" s="108"/>
+      <c r="B55" s="110"/>
+      <c r="C55" s="107"/>
       <c r="D55" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E55" s="2"/>
-      <c r="F55" s="93" t="s">
+      <c r="F55" s="91" t="s">
         <v>283</v>
       </c>
       <c r="G55" s="19"/>
@@ -9440,27 +9443,27 @@
       <c r="S55" s="74"/>
       <c r="T55" s="74"/>
       <c r="U55" s="74"/>
-      <c r="V55" s="113"/>
+      <c r="V55" s="105"/>
       <c r="W55" s="74"/>
       <c r="X55" s="74"/>
       <c r="Y55" s="74"/>
       <c r="Z55" s="74"/>
       <c r="AA55" s="74"/>
       <c r="AB55" s="74"/>
-      <c r="AC55" s="110"/>
+      <c r="AC55" s="102"/>
       <c r="AD55" s="74"/>
       <c r="AE55" s="74"/>
       <c r="AF55" s="74"/>
       <c r="AG55" s="74"/>
       <c r="AH55" s="74"/>
       <c r="AI55" s="74"/>
-      <c r="AJ55" s="107"/>
+      <c r="AJ55" s="99"/>
       <c r="AK55" s="74"/>
     </row>
     <row r="56" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A56" s="96"/>
-      <c r="B56" s="102"/>
-      <c r="C56" s="97" t="s">
+      <c r="A56" s="108"/>
+      <c r="B56" s="110"/>
+      <c r="C56" s="107" t="s">
         <v>121</v>
       </c>
       <c r="D56" s="2" t="s">
@@ -9493,27 +9496,27 @@
       <c r="S56" s="74"/>
       <c r="T56" s="74"/>
       <c r="U56" s="74"/>
-      <c r="V56" s="113"/>
+      <c r="V56" s="105"/>
       <c r="W56" s="74"/>
       <c r="X56" s="74"/>
       <c r="Y56" s="74"/>
       <c r="Z56" s="74"/>
       <c r="AA56" s="74"/>
       <c r="AB56" s="74"/>
-      <c r="AC56" s="110"/>
+      <c r="AC56" s="102"/>
       <c r="AD56" s="74"/>
       <c r="AE56" s="74"/>
       <c r="AF56" s="74"/>
       <c r="AG56" s="74"/>
       <c r="AH56" s="74"/>
       <c r="AI56" s="74"/>
-      <c r="AJ56" s="107"/>
+      <c r="AJ56" s="99"/>
       <c r="AK56" s="74"/>
     </row>
     <row r="57" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A57" s="96"/>
-      <c r="B57" s="102"/>
-      <c r="C57" s="97"/>
+      <c r="A57" s="108"/>
+      <c r="B57" s="110"/>
+      <c r="C57" s="107"/>
       <c r="D57" s="2" t="s">
         <v>151</v>
       </c>
@@ -9544,26 +9547,26 @@
       <c r="S57" s="74"/>
       <c r="T57" s="74"/>
       <c r="U57" s="74"/>
-      <c r="V57" s="113"/>
+      <c r="V57" s="105"/>
       <c r="W57" s="74"/>
       <c r="X57" s="74"/>
       <c r="Y57" s="74"/>
       <c r="Z57" s="74"/>
       <c r="AA57" s="74"/>
       <c r="AB57" s="74"/>
-      <c r="AC57" s="110"/>
+      <c r="AC57" s="102"/>
       <c r="AD57" s="74"/>
       <c r="AE57" s="74"/>
       <c r="AF57" s="74"/>
       <c r="AG57" s="74"/>
       <c r="AH57" s="74"/>
       <c r="AI57" s="74"/>
-      <c r="AJ57" s="107"/>
+      <c r="AJ57" s="99"/>
       <c r="AK57" s="74"/>
     </row>
     <row r="58" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="96"/>
-      <c r="B58" s="102"/>
+      <c r="A58" s="108"/>
+      <c r="B58" s="110"/>
       <c r="C58" s="20" t="s">
         <v>71</v>
       </c>
@@ -9575,7 +9578,7 @@
       <c r="G58" s="20"/>
       <c r="H58" s="37"/>
       <c r="I58" s="37"/>
-      <c r="J58" s="94">
+      <c r="J58" s="92">
         <v>0</v>
       </c>
       <c r="K58" s="85"/>
@@ -9589,32 +9592,32 @@
       <c r="S58" s="20"/>
       <c r="T58" s="20"/>
       <c r="U58" s="20"/>
-      <c r="V58" s="113"/>
+      <c r="V58" s="105"/>
       <c r="W58" s="20"/>
       <c r="X58" s="20"/>
       <c r="Y58" s="20"/>
       <c r="Z58" s="20"/>
       <c r="AA58" s="20"/>
       <c r="AB58" s="20"/>
-      <c r="AC58" s="110"/>
+      <c r="AC58" s="102"/>
       <c r="AD58" s="74"/>
       <c r="AE58" s="74"/>
       <c r="AF58" s="74"/>
       <c r="AG58" s="74"/>
       <c r="AH58" s="74"/>
       <c r="AI58" s="74"/>
-      <c r="AJ58" s="107"/>
+      <c r="AJ58" s="99"/>
       <c r="AK58" s="74"/>
     </row>
     <row r="59" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A59" s="96"/>
-      <c r="B59" s="103" t="s">
+      <c r="A59" s="108"/>
+      <c r="B59" s="111" t="s">
         <v>120</v>
       </c>
-      <c r="C59" s="97" t="s">
+      <c r="C59" s="107" t="s">
         <v>92</v>
       </c>
-      <c r="D59" s="97" t="s">
+      <c r="D59" s="107" t="s">
         <v>29</v>
       </c>
       <c r="E59" s="2" t="s">
@@ -9646,28 +9649,28 @@
       <c r="S59" s="74"/>
       <c r="T59" s="74"/>
       <c r="U59" s="74"/>
-      <c r="V59" s="113"/>
+      <c r="V59" s="105"/>
       <c r="W59" s="74"/>
       <c r="X59" s="74"/>
       <c r="Y59" s="74"/>
       <c r="Z59" s="74"/>
       <c r="AA59" s="74"/>
       <c r="AB59" s="74"/>
-      <c r="AC59" s="110"/>
+      <c r="AC59" s="102"/>
       <c r="AD59" s="74"/>
       <c r="AE59" s="74"/>
       <c r="AF59" s="74"/>
       <c r="AG59" s="74"/>
       <c r="AH59" s="74"/>
       <c r="AI59" s="74"/>
-      <c r="AJ59" s="107"/>
+      <c r="AJ59" s="99"/>
       <c r="AK59" s="74"/>
     </row>
     <row r="60" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A60" s="96"/>
-      <c r="B60" s="104"/>
-      <c r="C60" s="97"/>
-      <c r="D60" s="97"/>
+      <c r="A60" s="108"/>
+      <c r="B60" s="112"/>
+      <c r="C60" s="107"/>
+      <c r="D60" s="107"/>
       <c r="E60" s="2" t="s">
         <v>130</v>
       </c>
@@ -9697,30 +9700,30 @@
       <c r="S60" s="74"/>
       <c r="T60" s="74"/>
       <c r="U60" s="74"/>
-      <c r="V60" s="113"/>
+      <c r="V60" s="105"/>
       <c r="W60" s="74"/>
       <c r="X60" s="74"/>
       <c r="Y60" s="74"/>
       <c r="Z60" s="74"/>
       <c r="AA60" s="74"/>
       <c r="AB60" s="74"/>
-      <c r="AC60" s="110"/>
+      <c r="AC60" s="102"/>
       <c r="AD60" s="74"/>
       <c r="AE60" s="74"/>
       <c r="AF60" s="74"/>
       <c r="AG60" s="74"/>
       <c r="AH60" s="74"/>
       <c r="AI60" s="74"/>
-      <c r="AJ60" s="107"/>
+      <c r="AJ60" s="99"/>
       <c r="AK60" s="74"/>
     </row>
     <row r="61" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A61" s="96"/>
-      <c r="B61" s="104"/>
-      <c r="C61" s="97" t="s">
+      <c r="A61" s="108"/>
+      <c r="B61" s="112"/>
+      <c r="C61" s="107" t="s">
         <v>96</v>
       </c>
-      <c r="D61" s="97" t="s">
+      <c r="D61" s="107" t="s">
         <v>95</v>
       </c>
       <c r="E61" s="2" t="s">
@@ -9752,28 +9755,28 @@
       <c r="S61" s="74"/>
       <c r="T61" s="74"/>
       <c r="U61" s="74"/>
-      <c r="V61" s="113"/>
+      <c r="V61" s="105"/>
       <c r="W61" s="74"/>
       <c r="X61" s="74"/>
       <c r="Y61" s="74"/>
       <c r="Z61" s="74"/>
       <c r="AA61" s="74"/>
       <c r="AB61" s="74"/>
-      <c r="AC61" s="110"/>
+      <c r="AC61" s="102"/>
       <c r="AD61" s="74"/>
       <c r="AE61" s="74"/>
       <c r="AF61" s="74"/>
       <c r="AG61" s="74"/>
       <c r="AH61" s="74"/>
       <c r="AI61" s="74"/>
-      <c r="AJ61" s="107"/>
+      <c r="AJ61" s="99"/>
       <c r="AK61" s="74"/>
     </row>
     <row r="62" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A62" s="96"/>
-      <c r="B62" s="104"/>
-      <c r="C62" s="97"/>
-      <c r="D62" s="97"/>
+      <c r="A62" s="108"/>
+      <c r="B62" s="112"/>
+      <c r="C62" s="107"/>
+      <c r="D62" s="107"/>
       <c r="E62" s="2" t="s">
         <v>146</v>
       </c>
@@ -9803,28 +9806,28 @@
       <c r="S62" s="74"/>
       <c r="T62" s="74"/>
       <c r="U62" s="74"/>
-      <c r="V62" s="113"/>
+      <c r="V62" s="105"/>
       <c r="W62" s="74"/>
       <c r="X62" s="74"/>
       <c r="Y62" s="74"/>
       <c r="Z62" s="74"/>
       <c r="AA62" s="74"/>
       <c r="AB62" s="74"/>
-      <c r="AC62" s="110"/>
+      <c r="AC62" s="102"/>
       <c r="AD62" s="74"/>
       <c r="AE62" s="74"/>
       <c r="AF62" s="74"/>
       <c r="AG62" s="74"/>
       <c r="AH62" s="74"/>
       <c r="AI62" s="74"/>
-      <c r="AJ62" s="107"/>
+      <c r="AJ62" s="99"/>
       <c r="AK62" s="74"/>
     </row>
     <row r="63" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A63" s="96"/>
-      <c r="B63" s="104"/>
-      <c r="C63" s="97"/>
-      <c r="D63" s="97"/>
+      <c r="A63" s="108"/>
+      <c r="B63" s="112"/>
+      <c r="C63" s="107"/>
+      <c r="D63" s="107"/>
       <c r="E63" s="2" t="s">
         <v>147</v>
       </c>
@@ -9854,28 +9857,28 @@
       <c r="S63" s="74"/>
       <c r="T63" s="74"/>
       <c r="U63" s="74"/>
-      <c r="V63" s="113"/>
+      <c r="V63" s="105"/>
       <c r="W63" s="74"/>
       <c r="X63" s="74"/>
       <c r="Y63" s="74"/>
       <c r="Z63" s="74"/>
       <c r="AA63" s="74"/>
       <c r="AB63" s="74"/>
-      <c r="AC63" s="110"/>
+      <c r="AC63" s="102"/>
       <c r="AD63" s="74"/>
       <c r="AE63" s="74"/>
       <c r="AF63" s="74"/>
       <c r="AG63" s="74"/>
       <c r="AH63" s="74"/>
       <c r="AI63" s="74"/>
-      <c r="AJ63" s="107"/>
+      <c r="AJ63" s="99"/>
       <c r="AK63" s="74"/>
     </row>
     <row r="64" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A64" s="96"/>
-      <c r="B64" s="104"/>
-      <c r="C64" s="97"/>
-      <c r="D64" s="97"/>
+      <c r="A64" s="108"/>
+      <c r="B64" s="112"/>
+      <c r="C64" s="107"/>
+      <c r="D64" s="107"/>
       <c r="E64" s="2" t="s">
         <v>107</v>
       </c>
@@ -9905,28 +9908,28 @@
       <c r="S64" s="74"/>
       <c r="T64" s="74"/>
       <c r="U64" s="74"/>
-      <c r="V64" s="113"/>
+      <c r="V64" s="105"/>
       <c r="W64" s="74"/>
       <c r="X64" s="74"/>
       <c r="Y64" s="74"/>
       <c r="Z64" s="74"/>
       <c r="AA64" s="74"/>
       <c r="AB64" s="74"/>
-      <c r="AC64" s="110"/>
+      <c r="AC64" s="102"/>
       <c r="AD64" s="74"/>
       <c r="AE64" s="74"/>
       <c r="AF64" s="74"/>
       <c r="AG64" s="74"/>
       <c r="AH64" s="74"/>
       <c r="AI64" s="74"/>
-      <c r="AJ64" s="107"/>
+      <c r="AJ64" s="99"/>
       <c r="AK64" s="74"/>
     </row>
     <row r="65" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A65" s="96"/>
-      <c r="B65" s="104"/>
-      <c r="C65" s="97"/>
-      <c r="D65" s="97"/>
+      <c r="A65" s="108"/>
+      <c r="B65" s="112"/>
+      <c r="C65" s="107"/>
+      <c r="D65" s="107"/>
       <c r="E65" s="2" t="s">
         <v>108</v>
       </c>
@@ -9956,28 +9959,28 @@
       <c r="S65" s="74"/>
       <c r="T65" s="74"/>
       <c r="U65" s="74"/>
-      <c r="V65" s="113"/>
+      <c r="V65" s="105"/>
       <c r="W65" s="74"/>
       <c r="X65" s="74"/>
       <c r="Y65" s="74"/>
       <c r="Z65" s="74"/>
       <c r="AA65" s="74"/>
       <c r="AB65" s="74"/>
-      <c r="AC65" s="110"/>
+      <c r="AC65" s="102"/>
       <c r="AD65" s="74"/>
       <c r="AE65" s="74"/>
       <c r="AF65" s="74"/>
       <c r="AG65" s="74"/>
       <c r="AH65" s="74"/>
       <c r="AI65" s="74"/>
-      <c r="AJ65" s="107"/>
+      <c r="AJ65" s="99"/>
       <c r="AK65" s="74"/>
     </row>
     <row r="66" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A66" s="96"/>
-      <c r="B66" s="104"/>
-      <c r="C66" s="97"/>
-      <c r="D66" s="97" t="s">
+      <c r="A66" s="108"/>
+      <c r="B66" s="112"/>
+      <c r="C66" s="107"/>
+      <c r="D66" s="107" t="s">
         <v>97</v>
       </c>
       <c r="E66" s="2" t="s">
@@ -10009,28 +10012,28 @@
       <c r="S66" s="74"/>
       <c r="T66" s="74"/>
       <c r="U66" s="74"/>
-      <c r="V66" s="113"/>
+      <c r="V66" s="105"/>
       <c r="W66" s="74"/>
       <c r="X66" s="74"/>
       <c r="Y66" s="74"/>
       <c r="Z66" s="74"/>
       <c r="AA66" s="74"/>
       <c r="AB66" s="74"/>
-      <c r="AC66" s="110"/>
+      <c r="AC66" s="102"/>
       <c r="AD66" s="74"/>
       <c r="AE66" s="74"/>
       <c r="AF66" s="74"/>
       <c r="AG66" s="74"/>
       <c r="AH66" s="74"/>
       <c r="AI66" s="74"/>
-      <c r="AJ66" s="107"/>
+      <c r="AJ66" s="99"/>
       <c r="AK66" s="74"/>
     </row>
     <row r="67" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A67" s="96"/>
-      <c r="B67" s="104"/>
-      <c r="C67" s="97"/>
-      <c r="D67" s="97"/>
+      <c r="A67" s="108"/>
+      <c r="B67" s="112"/>
+      <c r="C67" s="107"/>
+      <c r="D67" s="107"/>
       <c r="E67" s="2" t="s">
         <v>146</v>
       </c>
@@ -10060,30 +10063,30 @@
       <c r="S67" s="74"/>
       <c r="T67" s="74"/>
       <c r="U67" s="74"/>
-      <c r="V67" s="113"/>
+      <c r="V67" s="105"/>
       <c r="W67" s="74"/>
       <c r="X67" s="74"/>
       <c r="Y67" s="74"/>
       <c r="Z67" s="74"/>
       <c r="AA67" s="74"/>
       <c r="AB67" s="74"/>
-      <c r="AC67" s="110"/>
+      <c r="AC67" s="102"/>
       <c r="AD67" s="74"/>
       <c r="AE67" s="74"/>
       <c r="AF67" s="74"/>
       <c r="AG67" s="74"/>
       <c r="AH67" s="74"/>
       <c r="AI67" s="74"/>
-      <c r="AJ67" s="107"/>
+      <c r="AJ67" s="99"/>
       <c r="AK67" s="74"/>
     </row>
     <row r="68" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="96"/>
-      <c r="B68" s="104"/>
-      <c r="C68" s="97" t="s">
+      <c r="A68" s="108"/>
+      <c r="B68" s="112"/>
+      <c r="C68" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="D68" s="97" t="s">
+      <c r="D68" s="107" t="s">
         <v>93</v>
       </c>
       <c r="E68" s="2" t="s">
@@ -10115,28 +10118,28 @@
       <c r="S68" s="74"/>
       <c r="T68" s="74"/>
       <c r="U68" s="74"/>
-      <c r="V68" s="113"/>
+      <c r="V68" s="105"/>
       <c r="W68" s="74"/>
       <c r="X68" s="74"/>
       <c r="Y68" s="74"/>
       <c r="Z68" s="74"/>
       <c r="AA68" s="74"/>
       <c r="AB68" s="74"/>
-      <c r="AC68" s="110"/>
+      <c r="AC68" s="102"/>
       <c r="AD68" s="74"/>
       <c r="AE68" s="74"/>
       <c r="AF68" s="74"/>
       <c r="AG68" s="74"/>
       <c r="AH68" s="74"/>
       <c r="AI68" s="74"/>
-      <c r="AJ68" s="107"/>
+      <c r="AJ68" s="99"/>
       <c r="AK68" s="74"/>
     </row>
     <row r="69" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="96"/>
-      <c r="B69" s="104"/>
-      <c r="C69" s="97"/>
-      <c r="D69" s="97"/>
+      <c r="A69" s="108"/>
+      <c r="B69" s="112"/>
+      <c r="C69" s="107"/>
+      <c r="D69" s="107"/>
       <c r="E69" s="2" t="s">
         <v>130</v>
       </c>
@@ -10166,28 +10169,28 @@
       <c r="S69" s="74"/>
       <c r="T69" s="74"/>
       <c r="U69" s="74"/>
-      <c r="V69" s="113"/>
+      <c r="V69" s="105"/>
       <c r="W69" s="74"/>
       <c r="X69" s="74"/>
       <c r="Y69" s="74"/>
       <c r="Z69" s="74"/>
       <c r="AA69" s="74"/>
       <c r="AB69" s="74"/>
-      <c r="AC69" s="110"/>
+      <c r="AC69" s="102"/>
       <c r="AD69" s="74"/>
       <c r="AE69" s="74"/>
       <c r="AF69" s="74"/>
       <c r="AG69" s="74"/>
       <c r="AH69" s="74"/>
       <c r="AI69" s="74"/>
-      <c r="AJ69" s="107"/>
+      <c r="AJ69" s="99"/>
       <c r="AK69" s="74"/>
     </row>
     <row r="70" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="96"/>
-      <c r="B70" s="104"/>
-      <c r="C70" s="97"/>
-      <c r="D70" s="99" t="s">
+      <c r="A70" s="108"/>
+      <c r="B70" s="112"/>
+      <c r="C70" s="107"/>
+      <c r="D70" s="95" t="s">
         <v>98</v>
       </c>
       <c r="E70" s="2" t="s">
@@ -10219,28 +10222,28 @@
       <c r="S70" s="74"/>
       <c r="T70" s="74"/>
       <c r="U70" s="74"/>
-      <c r="V70" s="113"/>
+      <c r="V70" s="105"/>
       <c r="W70" s="74"/>
       <c r="X70" s="74"/>
       <c r="Y70" s="74"/>
       <c r="Z70" s="74"/>
       <c r="AA70" s="74"/>
       <c r="AB70" s="74"/>
-      <c r="AC70" s="110"/>
+      <c r="AC70" s="102"/>
       <c r="AD70" s="74"/>
       <c r="AE70" s="74"/>
       <c r="AF70" s="74"/>
       <c r="AG70" s="74"/>
       <c r="AH70" s="74"/>
       <c r="AI70" s="74"/>
-      <c r="AJ70" s="107"/>
+      <c r="AJ70" s="99"/>
       <c r="AK70" s="74"/>
     </row>
     <row r="71" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="96"/>
-      <c r="B71" s="104"/>
-      <c r="C71" s="97"/>
-      <c r="D71" s="101"/>
+      <c r="A71" s="108"/>
+      <c r="B71" s="112"/>
+      <c r="C71" s="107"/>
+      <c r="D71" s="97"/>
       <c r="E71" s="2" t="s">
         <v>130</v>
       </c>
@@ -10270,27 +10273,27 @@
       <c r="S71" s="74"/>
       <c r="T71" s="74"/>
       <c r="U71" s="74"/>
-      <c r="V71" s="113"/>
+      <c r="V71" s="105"/>
       <c r="W71" s="74"/>
       <c r="X71" s="74"/>
       <c r="Y71" s="74"/>
       <c r="Z71" s="74"/>
       <c r="AA71" s="74"/>
       <c r="AB71" s="74"/>
-      <c r="AC71" s="110"/>
+      <c r="AC71" s="102"/>
       <c r="AD71" s="74"/>
       <c r="AE71" s="74"/>
       <c r="AF71" s="74"/>
       <c r="AG71" s="74"/>
       <c r="AH71" s="74"/>
       <c r="AI71" s="74"/>
-      <c r="AJ71" s="107"/>
+      <c r="AJ71" s="99"/>
       <c r="AK71" s="74"/>
     </row>
     <row r="72" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A72" s="96"/>
-      <c r="B72" s="104"/>
-      <c r="C72" s="100" t="s">
+      <c r="A72" s="108"/>
+      <c r="B72" s="112"/>
+      <c r="C72" s="96" t="s">
         <v>282</v>
       </c>
       <c r="D72" s="2" t="s">
@@ -10325,27 +10328,27 @@
       <c r="S72" s="74"/>
       <c r="T72" s="74"/>
       <c r="U72" s="74"/>
-      <c r="V72" s="113"/>
+      <c r="V72" s="105"/>
       <c r="W72" s="74"/>
       <c r="X72" s="74"/>
       <c r="Y72" s="74"/>
       <c r="Z72" s="74"/>
       <c r="AA72" s="74"/>
       <c r="AB72" s="74"/>
-      <c r="AC72" s="110"/>
+      <c r="AC72" s="102"/>
       <c r="AD72" s="74"/>
       <c r="AE72" s="74"/>
       <c r="AF72" s="74"/>
       <c r="AG72" s="74"/>
       <c r="AH72" s="74"/>
       <c r="AI72" s="74"/>
-      <c r="AJ72" s="107"/>
+      <c r="AJ72" s="99"/>
       <c r="AK72" s="74"/>
     </row>
     <row r="73" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A73" s="96"/>
-      <c r="B73" s="104"/>
-      <c r="C73" s="100"/>
+      <c r="A73" s="108"/>
+      <c r="B73" s="112"/>
+      <c r="C73" s="96"/>
       <c r="D73" s="2" t="s">
         <v>191</v>
       </c>
@@ -10378,27 +10381,27 @@
       <c r="S73" s="74"/>
       <c r="T73" s="74"/>
       <c r="U73" s="74"/>
-      <c r="V73" s="113"/>
+      <c r="V73" s="105"/>
       <c r="W73" s="74"/>
       <c r="X73" s="74"/>
       <c r="Y73" s="74"/>
       <c r="Z73" s="74"/>
       <c r="AA73" s="74"/>
       <c r="AB73" s="74"/>
-      <c r="AC73" s="110"/>
+      <c r="AC73" s="102"/>
       <c r="AD73" s="74"/>
       <c r="AE73" s="74"/>
       <c r="AF73" s="74"/>
       <c r="AG73" s="74"/>
       <c r="AH73" s="74"/>
       <c r="AI73" s="74"/>
-      <c r="AJ73" s="107"/>
+      <c r="AJ73" s="99"/>
       <c r="AK73" s="74"/>
     </row>
     <row r="74" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A74" s="96"/>
-      <c r="B74" s="104"/>
-      <c r="C74" s="101"/>
+      <c r="A74" s="108"/>
+      <c r="B74" s="112"/>
+      <c r="C74" s="97"/>
       <c r="D74" s="2" t="s">
         <v>161</v>
       </c>
@@ -10431,27 +10434,27 @@
       <c r="S74" s="74"/>
       <c r="T74" s="74"/>
       <c r="U74" s="74"/>
-      <c r="V74" s="113"/>
+      <c r="V74" s="105"/>
       <c r="W74" s="74"/>
       <c r="X74" s="74"/>
       <c r="Y74" s="74"/>
       <c r="Z74" s="74"/>
       <c r="AA74" s="74"/>
       <c r="AB74" s="74"/>
-      <c r="AC74" s="110"/>
+      <c r="AC74" s="102"/>
       <c r="AD74" s="74"/>
       <c r="AE74" s="74"/>
       <c r="AF74" s="74"/>
       <c r="AG74" s="74"/>
       <c r="AH74" s="74"/>
       <c r="AI74" s="74"/>
-      <c r="AJ74" s="107"/>
+      <c r="AJ74" s="99"/>
       <c r="AK74" s="74"/>
     </row>
     <row r="75" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A75" s="96"/>
-      <c r="B75" s="104"/>
-      <c r="C75" s="97" t="s">
+      <c r="A75" s="108"/>
+      <c r="B75" s="112"/>
+      <c r="C75" s="107" t="s">
         <v>13</v>
       </c>
       <c r="D75" s="2" t="s">
@@ -10484,27 +10487,27 @@
       <c r="S75" s="74"/>
       <c r="T75" s="74"/>
       <c r="U75" s="74"/>
-      <c r="V75" s="113"/>
+      <c r="V75" s="105"/>
       <c r="W75" s="74"/>
       <c r="X75" s="74"/>
       <c r="Y75" s="74"/>
       <c r="Z75" s="74"/>
       <c r="AA75" s="74"/>
       <c r="AB75" s="74"/>
-      <c r="AC75" s="110"/>
+      <c r="AC75" s="102"/>
       <c r="AD75" s="74"/>
       <c r="AE75" s="74"/>
       <c r="AF75" s="74"/>
       <c r="AG75" s="74"/>
       <c r="AH75" s="74"/>
       <c r="AI75" s="74"/>
-      <c r="AJ75" s="107"/>
+      <c r="AJ75" s="99"/>
       <c r="AK75" s="74"/>
     </row>
     <row r="76" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A76" s="96"/>
-      <c r="B76" s="104"/>
-      <c r="C76" s="97"/>
+      <c r="A76" s="108"/>
+      <c r="B76" s="112"/>
+      <c r="C76" s="107"/>
       <c r="D76" s="2" t="s">
         <v>126</v>
       </c>
@@ -10535,27 +10538,27 @@
       <c r="S76" s="74"/>
       <c r="T76" s="74"/>
       <c r="U76" s="74"/>
-      <c r="V76" s="113"/>
+      <c r="V76" s="105"/>
       <c r="W76" s="74"/>
       <c r="X76" s="74"/>
       <c r="Y76" s="74"/>
       <c r="Z76" s="74"/>
       <c r="AA76" s="74"/>
       <c r="AB76" s="74"/>
-      <c r="AC76" s="110"/>
+      <c r="AC76" s="102"/>
       <c r="AD76" s="74"/>
       <c r="AE76" s="74"/>
       <c r="AF76" s="74"/>
       <c r="AG76" s="74"/>
       <c r="AH76" s="74"/>
       <c r="AI76" s="74"/>
-      <c r="AJ76" s="107"/>
+      <c r="AJ76" s="99"/>
       <c r="AK76" s="74"/>
     </row>
     <row r="77" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="96"/>
-      <c r="B77" s="104"/>
-      <c r="C77" s="99" t="s">
+      <c r="A77" s="108"/>
+      <c r="B77" s="112"/>
+      <c r="C77" s="95" t="s">
         <v>99</v>
       </c>
       <c r="D77" s="2" t="s">
@@ -10588,27 +10591,27 @@
       <c r="S77" s="74"/>
       <c r="T77" s="74"/>
       <c r="U77" s="74"/>
-      <c r="V77" s="113"/>
+      <c r="V77" s="105"/>
       <c r="W77" s="74"/>
       <c r="X77" s="74"/>
       <c r="Y77" s="74"/>
       <c r="Z77" s="74"/>
       <c r="AA77" s="74"/>
       <c r="AB77" s="74"/>
-      <c r="AC77" s="110"/>
+      <c r="AC77" s="102"/>
       <c r="AD77" s="74"/>
       <c r="AE77" s="74"/>
       <c r="AF77" s="74"/>
       <c r="AG77" s="74"/>
       <c r="AH77" s="74"/>
       <c r="AI77" s="74"/>
-      <c r="AJ77" s="107"/>
+      <c r="AJ77" s="99"/>
       <c r="AK77" s="74"/>
     </row>
     <row r="78" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A78" s="96"/>
-      <c r="B78" s="104"/>
-      <c r="C78" s="100"/>
+      <c r="A78" s="108"/>
+      <c r="B78" s="112"/>
+      <c r="C78" s="96"/>
       <c r="D78" s="2" t="s">
         <v>156</v>
       </c>
@@ -10639,27 +10642,27 @@
       <c r="S78" s="74"/>
       <c r="T78" s="74"/>
       <c r="U78" s="74"/>
-      <c r="V78" s="113"/>
+      <c r="V78" s="105"/>
       <c r="W78" s="74"/>
       <c r="X78" s="74"/>
       <c r="Y78" s="74"/>
       <c r="Z78" s="74"/>
       <c r="AA78" s="74"/>
       <c r="AB78" s="74"/>
-      <c r="AC78" s="110"/>
+      <c r="AC78" s="102"/>
       <c r="AD78" s="74"/>
       <c r="AE78" s="74"/>
       <c r="AF78" s="74"/>
       <c r="AG78" s="74"/>
       <c r="AH78" s="74"/>
       <c r="AI78" s="74"/>
-      <c r="AJ78" s="107"/>
+      <c r="AJ78" s="99"/>
       <c r="AK78" s="74"/>
     </row>
     <row r="79" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="96"/>
-      <c r="B79" s="104"/>
-      <c r="C79" s="100"/>
+      <c r="A79" s="108"/>
+      <c r="B79" s="112"/>
+      <c r="C79" s="96"/>
       <c r="D79" s="2" t="s">
         <v>187</v>
       </c>
@@ -10690,27 +10693,27 @@
       <c r="S79" s="74"/>
       <c r="T79" s="74"/>
       <c r="U79" s="74"/>
-      <c r="V79" s="113"/>
+      <c r="V79" s="105"/>
       <c r="W79" s="74"/>
       <c r="X79" s="74"/>
       <c r="Y79" s="74"/>
       <c r="Z79" s="74"/>
       <c r="AA79" s="74"/>
       <c r="AB79" s="74"/>
-      <c r="AC79" s="110"/>
+      <c r="AC79" s="102"/>
       <c r="AD79" s="74"/>
       <c r="AE79" s="74"/>
       <c r="AF79" s="74"/>
       <c r="AG79" s="74"/>
       <c r="AH79" s="74"/>
       <c r="AI79" s="74"/>
-      <c r="AJ79" s="107"/>
+      <c r="AJ79" s="99"/>
       <c r="AK79" s="74"/>
     </row>
     <row r="80" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A80" s="96"/>
-      <c r="B80" s="104"/>
-      <c r="C80" s="101"/>
+      <c r="A80" s="108"/>
+      <c r="B80" s="112"/>
+      <c r="C80" s="97"/>
       <c r="D80" s="2" t="s">
         <v>157</v>
       </c>
@@ -10741,27 +10744,27 @@
       <c r="S80" s="74"/>
       <c r="T80" s="74"/>
       <c r="U80" s="74"/>
-      <c r="V80" s="113"/>
+      <c r="V80" s="105"/>
       <c r="W80" s="74"/>
       <c r="X80" s="74"/>
       <c r="Y80" s="74"/>
       <c r="Z80" s="74"/>
       <c r="AA80" s="74"/>
       <c r="AB80" s="74"/>
-      <c r="AC80" s="110"/>
+      <c r="AC80" s="102"/>
       <c r="AD80" s="74"/>
       <c r="AE80" s="74"/>
       <c r="AF80" s="74"/>
       <c r="AG80" s="74"/>
       <c r="AH80" s="74"/>
       <c r="AI80" s="74"/>
-      <c r="AJ80" s="107"/>
+      <c r="AJ80" s="99"/>
       <c r="AK80" s="74"/>
     </row>
     <row r="81" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A81" s="96"/>
-      <c r="B81" s="104"/>
-      <c r="C81" s="97" t="s">
+      <c r="A81" s="108"/>
+      <c r="B81" s="112"/>
+      <c r="C81" s="107" t="s">
         <v>30</v>
       </c>
       <c r="D81" s="2" t="s">
@@ -10792,27 +10795,27 @@
       <c r="S81" s="74"/>
       <c r="T81" s="74"/>
       <c r="U81" s="74"/>
-      <c r="V81" s="113"/>
+      <c r="V81" s="105"/>
       <c r="W81" s="74"/>
       <c r="X81" s="74"/>
       <c r="Y81" s="74"/>
       <c r="Z81" s="74"/>
       <c r="AA81" s="74"/>
       <c r="AB81" s="74"/>
-      <c r="AC81" s="110"/>
+      <c r="AC81" s="102"/>
       <c r="AD81" s="74"/>
       <c r="AE81" s="74"/>
       <c r="AF81" s="74"/>
       <c r="AG81" s="74"/>
       <c r="AH81" s="74"/>
       <c r="AI81" s="74"/>
-      <c r="AJ81" s="107"/>
+      <c r="AJ81" s="99"/>
       <c r="AK81" s="74"/>
     </row>
     <row r="82" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A82" s="96"/>
-      <c r="B82" s="104"/>
-      <c r="C82" s="97"/>
+      <c r="A82" s="108"/>
+      <c r="B82" s="112"/>
+      <c r="C82" s="107"/>
       <c r="D82" s="2" t="s">
         <v>32</v>
       </c>
@@ -10837,27 +10840,27 @@
       <c r="S82" s="74"/>
       <c r="T82" s="74"/>
       <c r="U82" s="74"/>
-      <c r="V82" s="113"/>
+      <c r="V82" s="105"/>
       <c r="W82" s="74"/>
       <c r="X82" s="74"/>
       <c r="Y82" s="74"/>
       <c r="Z82" s="74"/>
       <c r="AA82" s="74"/>
       <c r="AB82" s="74"/>
-      <c r="AC82" s="110"/>
+      <c r="AC82" s="102"/>
       <c r="AD82" s="74"/>
       <c r="AE82" s="74"/>
       <c r="AF82" s="74"/>
       <c r="AG82" s="74"/>
       <c r="AH82" s="74"/>
       <c r="AI82" s="74"/>
-      <c r="AJ82" s="107"/>
+      <c r="AJ82" s="99"/>
       <c r="AK82" s="74"/>
     </row>
     <row r="83" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A83" s="96"/>
-      <c r="B83" s="104"/>
-      <c r="C83" s="97"/>
+      <c r="A83" s="108"/>
+      <c r="B83" s="112"/>
+      <c r="C83" s="107"/>
       <c r="D83" s="2" t="s">
         <v>33</v>
       </c>
@@ -10886,26 +10889,26 @@
       <c r="S83" s="74"/>
       <c r="T83" s="74"/>
       <c r="U83" s="74"/>
-      <c r="V83" s="113"/>
+      <c r="V83" s="105"/>
       <c r="W83" s="74"/>
       <c r="X83" s="74"/>
       <c r="Y83" s="74"/>
       <c r="Z83" s="74"/>
       <c r="AA83" s="74"/>
       <c r="AB83" s="74"/>
-      <c r="AC83" s="110"/>
+      <c r="AC83" s="102"/>
       <c r="AD83" s="74"/>
       <c r="AE83" s="74"/>
       <c r="AF83" s="74"/>
       <c r="AG83" s="74"/>
       <c r="AH83" s="74"/>
       <c r="AI83" s="74"/>
-      <c r="AJ83" s="107"/>
+      <c r="AJ83" s="99"/>
       <c r="AK83" s="74"/>
     </row>
     <row r="84" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A84" s="96"/>
-      <c r="B84" s="104"/>
+      <c r="A84" s="108"/>
+      <c r="B84" s="112"/>
       <c r="C84" s="74" t="s">
         <v>258</v>
       </c>
@@ -10931,26 +10934,26 @@
       <c r="S84" s="74"/>
       <c r="T84" s="74"/>
       <c r="U84" s="74"/>
-      <c r="V84" s="113"/>
+      <c r="V84" s="105"/>
       <c r="W84" s="74"/>
       <c r="X84" s="74"/>
       <c r="Y84" s="74"/>
       <c r="Z84" s="74"/>
       <c r="AA84" s="74"/>
       <c r="AB84" s="74"/>
-      <c r="AC84" s="110"/>
+      <c r="AC84" s="102"/>
       <c r="AD84" s="74"/>
       <c r="AE84" s="74"/>
       <c r="AF84" s="74"/>
       <c r="AG84" s="74"/>
       <c r="AH84" s="74"/>
       <c r="AI84" s="74"/>
-      <c r="AJ84" s="107"/>
+      <c r="AJ84" s="99"/>
       <c r="AK84" s="74"/>
     </row>
     <row r="85" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A85" s="96"/>
-      <c r="B85" s="105"/>
+      <c r="A85" s="108"/>
+      <c r="B85" s="113"/>
       <c r="C85" s="74" t="s">
         <v>259</v>
       </c>
@@ -10976,25 +10979,25 @@
       <c r="S85" s="74"/>
       <c r="T85" s="74"/>
       <c r="U85" s="74"/>
-      <c r="V85" s="114"/>
+      <c r="V85" s="106"/>
       <c r="W85" s="74"/>
       <c r="X85" s="74"/>
       <c r="Y85" s="74"/>
       <c r="Z85" s="74"/>
       <c r="AA85" s="74"/>
       <c r="AB85" s="74"/>
-      <c r="AC85" s="111"/>
+      <c r="AC85" s="103"/>
       <c r="AD85" s="74"/>
       <c r="AE85" s="74"/>
       <c r="AF85" s="74"/>
       <c r="AG85" s="74"/>
       <c r="AH85" s="74"/>
       <c r="AI85" s="74"/>
-      <c r="AJ85" s="108"/>
+      <c r="AJ85" s="100"/>
       <c r="AK85" s="74"/>
     </row>
     <row r="86" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A86" s="96"/>
+      <c r="A86" s="108"/>
       <c r="B86" s="38" t="s">
         <v>21</v>
       </c>
@@ -11015,20 +11018,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="D33:D38"/>
-    <mergeCell ref="AJ5:AJ85"/>
-    <mergeCell ref="AC5:AC85"/>
-    <mergeCell ref="V5:V85"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="D18:D27"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="D61:D65"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="D68:D69"/>
     <mergeCell ref="A5:A86"/>
     <mergeCell ref="C11:C14"/>
     <mergeCell ref="C15:C17"/>
@@ -11045,6 +11034,20 @@
     <mergeCell ref="B11:B58"/>
     <mergeCell ref="C61:C67"/>
     <mergeCell ref="B59:B85"/>
+    <mergeCell ref="D33:D38"/>
+    <mergeCell ref="AJ5:AJ85"/>
+    <mergeCell ref="AC5:AC85"/>
+    <mergeCell ref="V5:V85"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="D18:D27"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="D61:D65"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="D68:D69"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="K3:AK5 AK6:AK85 W6:AB85 AD6:AI85 K6:U85">
@@ -11123,24 +11126,24 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B3" s="115"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
+      <c r="B3" s="114"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
     </row>
     <row r="4" spans="2:14" ht="45.75" x14ac:dyDescent="0.4">
-      <c r="B4" s="115"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="115"/>
-      <c r="H4" s="115"/>
-      <c r="I4" s="115"/>
+      <c r="B4" s="114"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="114"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="114"/>
       <c r="K4" s="11" t="s">
         <v>73</v>
       </c>
@@ -11149,14 +11152,14 @@
       </c>
     </row>
     <row r="5" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B5" s="115"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="115"/>
-      <c r="H5" s="115"/>
-      <c r="I5" s="115"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="114"/>
+      <c r="G5" s="114"/>
+      <c r="H5" s="114"/>
+      <c r="I5" s="114"/>
       <c r="K5" s="12" t="s">
         <v>75</v>
       </c>
@@ -11165,28 +11168,28 @@
       </c>
     </row>
     <row r="6" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B6" s="115"/>
-      <c r="C6" s="115"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
+      <c r="B6" s="114"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="114"/>
+      <c r="F6" s="114"/>
+      <c r="G6" s="114"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="114"/>
       <c r="K6" s="12" t="s">
         <v>76</v>
       </c>
       <c r="L6" s="13"/>
     </row>
     <row r="7" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="115"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="115"/>
+      <c r="B7" s="114"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
       <c r="K7" s="12" t="s">
         <v>77</v>
       </c>
@@ -11195,28 +11198,28 @@
       </c>
     </row>
     <row r="8" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B8" s="115"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="115"/>
+      <c r="B8" s="114"/>
+      <c r="C8" s="114"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="114"/>
+      <c r="F8" s="114"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="114"/>
+      <c r="I8" s="114"/>
       <c r="K8" s="12" t="s">
         <v>78</v>
       </c>
       <c r="L8" s="13"/>
     </row>
     <row r="9" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B9" s="115"/>
-      <c r="C9" s="115"/>
-      <c r="D9" s="115"/>
-      <c r="E9" s="115"/>
-      <c r="F9" s="115"/>
-      <c r="G9" s="115"/>
-      <c r="H9" s="115"/>
-      <c r="I9" s="115"/>
+      <c r="B9" s="114"/>
+      <c r="C9" s="114"/>
+      <c r="D9" s="114"/>
+      <c r="E9" s="114"/>
+      <c r="F9" s="114"/>
+      <c r="G9" s="114"/>
+      <c r="H9" s="114"/>
+      <c r="I9" s="114"/>
       <c r="K9" s="12" t="s">
         <v>79</v>
       </c>
@@ -11225,28 +11228,28 @@
       </c>
     </row>
     <row r="10" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B10" s="115"/>
-      <c r="C10" s="115"/>
-      <c r="D10" s="115"/>
-      <c r="E10" s="115"/>
-      <c r="F10" s="115"/>
-      <c r="G10" s="115"/>
-      <c r="H10" s="115"/>
-      <c r="I10" s="115"/>
+      <c r="B10" s="114"/>
+      <c r="C10" s="114"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="114"/>
+      <c r="G10" s="114"/>
+      <c r="H10" s="114"/>
+      <c r="I10" s="114"/>
       <c r="K10" s="12" t="s">
         <v>80</v>
       </c>
       <c r="L10" s="13"/>
     </row>
     <row r="11" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B11" s="115"/>
-      <c r="C11" s="115"/>
-      <c r="D11" s="115"/>
-      <c r="E11" s="115"/>
-      <c r="F11" s="115"/>
-      <c r="G11" s="115"/>
-      <c r="H11" s="115"/>
-      <c r="I11" s="115"/>
+      <c r="B11" s="114"/>
+      <c r="C11" s="114"/>
+      <c r="D11" s="114"/>
+      <c r="E11" s="114"/>
+      <c r="F11" s="114"/>
+      <c r="G11" s="114"/>
+      <c r="H11" s="114"/>
+      <c r="I11" s="114"/>
       <c r="K11" s="12" t="s">
         <v>81</v>
       </c>
@@ -11256,136 +11259,136 @@
       <c r="N11" s="10"/>
     </row>
     <row r="12" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B12" s="115"/>
-      <c r="C12" s="115"/>
-      <c r="D12" s="115"/>
-      <c r="E12" s="115"/>
-      <c r="F12" s="115"/>
-      <c r="G12" s="115"/>
-      <c r="H12" s="115"/>
-      <c r="I12" s="115"/>
+      <c r="B12" s="114"/>
+      <c r="C12" s="114"/>
+      <c r="D12" s="114"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="114"/>
+      <c r="G12" s="114"/>
+      <c r="H12" s="114"/>
+      <c r="I12" s="114"/>
       <c r="K12" s="12" t="s">
         <v>82</v>
       </c>
       <c r="L12" s="13"/>
     </row>
     <row r="13" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B13" s="115"/>
-      <c r="C13" s="115"/>
-      <c r="D13" s="115"/>
-      <c r="E13" s="115"/>
-      <c r="F13" s="115"/>
-      <c r="G13" s="115"/>
-      <c r="H13" s="115"/>
-      <c r="I13" s="115"/>
+      <c r="B13" s="114"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="114"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="114"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="114"/>
+      <c r="I13" s="114"/>
       <c r="K13" s="12" t="s">
         <v>83</v>
       </c>
       <c r="L13" s="13"/>
     </row>
     <row r="14" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B14" s="115"/>
-      <c r="C14" s="115"/>
-      <c r="D14" s="115"/>
-      <c r="E14" s="115"/>
-      <c r="F14" s="115"/>
-      <c r="G14" s="115"/>
-      <c r="H14" s="115"/>
-      <c r="I14" s="115"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="114"/>
+      <c r="D14" s="114"/>
+      <c r="E14" s="114"/>
+      <c r="F14" s="114"/>
+      <c r="G14" s="114"/>
+      <c r="H14" s="114"/>
+      <c r="I14" s="114"/>
       <c r="K14" s="12" t="s">
         <v>84</v>
       </c>
       <c r="L14" s="13"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B15" s="115"/>
-      <c r="C15" s="115"/>
-      <c r="D15" s="115"/>
-      <c r="E15" s="115"/>
-      <c r="F15" s="115"/>
-      <c r="G15" s="115"/>
-      <c r="H15" s="115"/>
-      <c r="I15" s="115"/>
+      <c r="B15" s="114"/>
+      <c r="C15" s="114"/>
+      <c r="D15" s="114"/>
+      <c r="E15" s="114"/>
+      <c r="F15" s="114"/>
+      <c r="G15" s="114"/>
+      <c r="H15" s="114"/>
+      <c r="I15" s="114"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B16" s="115"/>
-      <c r="C16" s="115"/>
-      <c r="D16" s="115"/>
-      <c r="E16" s="115"/>
-      <c r="F16" s="115"/>
-      <c r="G16" s="115"/>
-      <c r="H16" s="115"/>
-      <c r="I16" s="115"/>
+      <c r="B16" s="114"/>
+      <c r="C16" s="114"/>
+      <c r="D16" s="114"/>
+      <c r="E16" s="114"/>
+      <c r="F16" s="114"/>
+      <c r="G16" s="114"/>
+      <c r="H16" s="114"/>
+      <c r="I16" s="114"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B17" s="115"/>
-      <c r="C17" s="115"/>
-      <c r="D17" s="115"/>
-      <c r="E17" s="115"/>
-      <c r="F17" s="115"/>
-      <c r="G17" s="115"/>
-      <c r="H17" s="115"/>
-      <c r="I17" s="115"/>
+      <c r="B17" s="114"/>
+      <c r="C17" s="114"/>
+      <c r="D17" s="114"/>
+      <c r="E17" s="114"/>
+      <c r="F17" s="114"/>
+      <c r="G17" s="114"/>
+      <c r="H17" s="114"/>
+      <c r="I17" s="114"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B18" s="115"/>
-      <c r="C18" s="115"/>
-      <c r="D18" s="115"/>
-      <c r="E18" s="115"/>
-      <c r="F18" s="115"/>
-      <c r="G18" s="115"/>
-      <c r="H18" s="115"/>
-      <c r="I18" s="115"/>
+      <c r="B18" s="114"/>
+      <c r="C18" s="114"/>
+      <c r="D18" s="114"/>
+      <c r="E18" s="114"/>
+      <c r="F18" s="114"/>
+      <c r="G18" s="114"/>
+      <c r="H18" s="114"/>
+      <c r="I18" s="114"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B19" s="115"/>
-      <c r="C19" s="115"/>
-      <c r="D19" s="115"/>
-      <c r="E19" s="115"/>
-      <c r="F19" s="115"/>
-      <c r="G19" s="115"/>
-      <c r="H19" s="115"/>
-      <c r="I19" s="115"/>
+      <c r="B19" s="114"/>
+      <c r="C19" s="114"/>
+      <c r="D19" s="114"/>
+      <c r="E19" s="114"/>
+      <c r="F19" s="114"/>
+      <c r="G19" s="114"/>
+      <c r="H19" s="114"/>
+      <c r="I19" s="114"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B20" s="115"/>
-      <c r="C20" s="115"/>
-      <c r="D20" s="115"/>
-      <c r="E20" s="115"/>
-      <c r="F20" s="115"/>
-      <c r="G20" s="115"/>
-      <c r="H20" s="115"/>
-      <c r="I20" s="115"/>
+      <c r="B20" s="114"/>
+      <c r="C20" s="114"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="114"/>
+      <c r="F20" s="114"/>
+      <c r="G20" s="114"/>
+      <c r="H20" s="114"/>
+      <c r="I20" s="114"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B21" s="115"/>
-      <c r="C21" s="115"/>
-      <c r="D21" s="115"/>
-      <c r="E21" s="115"/>
-      <c r="F21" s="115"/>
-      <c r="G21" s="115"/>
-      <c r="H21" s="115"/>
-      <c r="I21" s="115"/>
+      <c r="B21" s="114"/>
+      <c r="C21" s="114"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="114"/>
+      <c r="F21" s="114"/>
+      <c r="G21" s="114"/>
+      <c r="H21" s="114"/>
+      <c r="I21" s="114"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B22" s="115"/>
-      <c r="C22" s="115"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="115"/>
-      <c r="F22" s="115"/>
-      <c r="G22" s="115"/>
-      <c r="H22" s="115"/>
-      <c r="I22" s="115"/>
+      <c r="B22" s="114"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="114"/>
+      <c r="E22" s="114"/>
+      <c r="F22" s="114"/>
+      <c r="G22" s="114"/>
+      <c r="H22" s="114"/>
+      <c r="I22" s="114"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B23" s="115"/>
-      <c r="C23" s="115"/>
-      <c r="D23" s="115"/>
-      <c r="E23" s="115"/>
-      <c r="F23" s="115"/>
-      <c r="G23" s="115"/>
-      <c r="H23" s="115"/>
-      <c r="I23" s="115"/>
+      <c r="B23" s="114"/>
+      <c r="C23" s="114"/>
+      <c r="D23" s="114"/>
+      <c r="E23" s="114"/>
+      <c r="F23" s="114"/>
+      <c r="G23" s="114"/>
+      <c r="H23" s="114"/>
+      <c r="I23" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11431,22 +11434,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="115" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" s="115"/>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
+      <c r="A2" s="114"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="7"/>
@@ -11533,7 +11536,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B10" s="117" t="s">
+      <c r="B10" s="116" t="s">
         <v>173</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -11547,7 +11550,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B11" s="117"/>
+      <c r="B11" s="116"/>
       <c r="C11" s="2" t="s">
         <v>176</v>
       </c>
@@ -11555,7 +11558,7 @@
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B12" s="117"/>
+      <c r="B12" s="116"/>
       <c r="C12" s="2" t="s">
         <v>172</v>
       </c>
@@ -11563,7 +11566,7 @@
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B13" s="117"/>
+      <c r="B13" s="116"/>
       <c r="C13" s="2" t="s">
         <v>175</v>
       </c>
@@ -11668,12 +11671,12 @@
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="117" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -12068,17 +12071,17 @@
   <dimension ref="B6:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="39.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.125" style="79" customWidth="1"/>
-    <col min="4" max="4" width="21.25" customWidth="1"/>
+    <col min="4" max="4" width="13" style="94" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.5" style="86" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.75" style="95" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.75" style="93" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="2:8" x14ac:dyDescent="0.4">
@@ -12088,14 +12091,14 @@
       <c r="C6" s="79" t="s">
         <v>199</v>
       </c>
-      <c r="D6" s="79" t="s">
+      <c r="D6" s="94" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="86" t="s">
         <v>288</v>
       </c>
       <c r="F6" s="79"/>
-      <c r="G6" s="95" t="s">
+      <c r="G6" s="93" t="s">
         <v>286</v>
       </c>
     </row>
@@ -12103,10 +12106,10 @@
       <c r="B7" s="23" t="s">
         <v>258</v>
       </c>
-      <c r="C7" s="89" t="s">
+      <c r="C7" s="87" t="s">
         <v>273</v>
       </c>
-      <c r="D7" s="87" t="s">
+      <c r="D7" s="77" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="86" t="s">
@@ -12118,10 +12121,10 @@
       <c r="B8" s="23" t="s">
         <v>259</v>
       </c>
-      <c r="C8" s="89" t="s">
+      <c r="C8" s="87" t="s">
         <v>273</v>
       </c>
-      <c r="D8" s="87" t="s">
+      <c r="D8" s="77" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="86" t="s">
@@ -12133,17 +12136,17 @@
       <c r="B9" s="24" t="s">
         <v>263</v>
       </c>
-      <c r="C9" s="90" t="s">
+      <c r="C9" s="88" t="s">
         <v>272</v>
       </c>
-      <c r="D9" s="87" t="s">
+      <c r="D9" s="77" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="86" t="s">
         <v>275</v>
       </c>
       <c r="F9" s="79"/>
-      <c r="G9" s="95" t="s">
+      <c r="G9" s="93" t="s">
         <v>287</v>
       </c>
     </row>
@@ -12151,17 +12154,17 @@
       <c r="B10" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="C10" s="90" t="s">
+      <c r="C10" s="88" t="s">
         <v>272</v>
       </c>
-      <c r="D10" s="87" t="s">
+      <c r="D10" s="77" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="86" t="s">
         <v>275</v>
       </c>
       <c r="F10" s="79"/>
-      <c r="G10" s="95" t="s">
+      <c r="G10" s="93" t="s">
         <v>287</v>
       </c>
       <c r="H10" s="79"/>
@@ -12170,10 +12173,10 @@
       <c r="B11" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="C11" s="90" t="s">
+      <c r="C11" s="88" t="s">
         <v>272</v>
       </c>
-      <c r="D11" s="87" t="s">
+      <c r="D11" s="77" t="s">
         <v>12</v>
       </c>
       <c r="E11" s="86" t="s">
@@ -12186,17 +12189,17 @@
       <c r="B12" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="C12" s="90" t="s">
+      <c r="C12" s="88" t="s">
         <v>272</v>
       </c>
-      <c r="D12" s="87" t="s">
+      <c r="D12" s="77" t="s">
         <v>12</v>
       </c>
       <c r="E12" s="86" t="s">
         <v>277</v>
       </c>
       <c r="F12" s="79"/>
-      <c r="G12" s="95" t="s">
+      <c r="G12" s="93" t="s">
         <v>287</v>
       </c>
     </row>
@@ -12204,10 +12207,10 @@
       <c r="B13" s="24" t="s">
         <v>266</v>
       </c>
-      <c r="C13" s="90" t="s">
+      <c r="C13" s="88" t="s">
         <v>272</v>
       </c>
-      <c r="D13" s="87" t="s">
+      <c r="D13" s="77" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="86" t="s">
@@ -12221,17 +12224,17 @@
       <c r="B14" s="24" t="s">
         <v>267</v>
       </c>
-      <c r="C14" s="90" t="s">
+      <c r="C14" s="88" t="s">
         <v>272</v>
       </c>
-      <c r="D14" s="87" t="s">
+      <c r="D14" s="77" t="s">
         <v>12</v>
       </c>
       <c r="E14" s="86" t="s">
         <v>276</v>
       </c>
       <c r="F14" s="79"/>
-      <c r="G14" s="95" t="s">
+      <c r="G14" s="93" t="s">
         <v>287</v>
       </c>
     </row>
@@ -12239,10 +12242,10 @@
       <c r="B15" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="90" t="s">
+      <c r="C15" s="88" t="s">
         <v>272</v>
       </c>
-      <c r="D15" s="87" t="s">
+      <c r="D15" s="77" t="s">
         <v>12</v>
       </c>
       <c r="E15" s="86" t="s">
@@ -12255,10 +12258,10 @@
       <c r="B16" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="90" t="s">
+      <c r="C16" s="88" t="s">
         <v>272</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="118" t="s">
         <v>120</v>
       </c>
       <c r="E16" s="86" t="s">
@@ -12270,10 +12273,10 @@
       <c r="B17" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="90" t="s">
+      <c r="C17" s="88" t="s">
         <v>272</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="118" t="s">
         <v>120</v>
       </c>
       <c r="E17" s="86" t="s">
@@ -12285,10 +12288,10 @@
       <c r="B18" s="24" t="s">
         <v>269</v>
       </c>
-      <c r="C18" s="90" t="s">
+      <c r="C18" s="88" t="s">
         <v>272</v>
       </c>
-      <c r="D18" s="87" t="s">
+      <c r="D18" s="77" t="s">
         <v>12</v>
       </c>
       <c r="E18" s="86" t="s">
@@ -12301,16 +12304,16 @@
       <c r="B19" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="C19" s="90" t="s">
+      <c r="C19" s="88" t="s">
         <v>272</v>
       </c>
-      <c r="D19" s="87" t="s">
+      <c r="D19" s="77" t="s">
         <v>12</v>
       </c>
       <c r="E19" s="86" t="s">
         <v>276</v>
       </c>
-      <c r="G19" s="95" t="s">
+      <c r="G19" s="93" t="s">
         <v>289</v>
       </c>
     </row>
@@ -12318,10 +12321,10 @@
       <c r="B20" s="24" t="s">
         <v>271</v>
       </c>
-      <c r="C20" s="90" t="s">
+      <c r="C20" s="88" t="s">
         <v>272</v>
       </c>
-      <c r="D20" s="87" t="s">
+      <c r="D20" s="77" t="s">
         <v>12</v>
       </c>
       <c r="E20" s="86" t="s">
@@ -12332,24 +12335,24 @@
       <c r="B21" s="24" t="s">
         <v>292</v>
       </c>
-      <c r="C21" s="90" t="s">
+      <c r="C21" s="88" t="s">
         <v>290</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="118" t="s">
         <v>120</v>
       </c>
-      <c r="E21" s="95" t="s">
+      <c r="E21" s="93" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B22" s="91" t="s">
+      <c r="B22" s="89" t="s">
         <v>268</v>
       </c>
-      <c r="C22" s="92" t="s">
+      <c r="C22" s="90" t="s">
         <v>274</v>
       </c>
-      <c r="D22" s="87" t="s">
+      <c r="D22" s="77" t="s">
         <v>12</v>
       </c>
       <c r="E22" s="86" t="s">
@@ -12357,13 +12360,13 @@
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B23" s="91" t="s">
+      <c r="B23" s="89" t="s">
         <v>285</v>
       </c>
-      <c r="C23" s="92" t="s">
+      <c r="C23" s="90" t="s">
         <v>274</v>
       </c>
-      <c r="D23" s="87" t="s">
+      <c r="D23" s="77" t="s">
         <v>12</v>
       </c>
       <c r="E23" s="86" t="s">
@@ -12374,10 +12377,10 @@
       <c r="B25" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="90" t="s">
+      <c r="C25" s="88" t="s">
         <v>272</v>
       </c>
-      <c r="D25" s="88" t="s">
+      <c r="D25" s="119" t="s">
         <v>7</v>
       </c>
       <c r="E25" s="86" t="s">
@@ -12388,10 +12391,10 @@
       <c r="B26" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="90" t="s">
+      <c r="C26" s="88" t="s">
         <v>272</v>
       </c>
-      <c r="D26" s="88" t="s">
+      <c r="D26" s="119" t="s">
         <v>7</v>
       </c>
       <c r="E26" s="86" t="s">
@@ -12402,10 +12405,10 @@
       <c r="B27" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="90" t="s">
+      <c r="C27" s="88" t="s">
         <v>272</v>
       </c>
-      <c r="D27" s="88" t="s">
+      <c r="D27" s="119" t="s">
         <v>7</v>
       </c>
       <c r="E27" s="86" t="s">

--- a/schedule/ガントチャート.xlsx
+++ b/schedule/ガントチャート.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="298">
   <si>
     <t>カテゴリ</t>
     <phoneticPr fontId="1"/>
@@ -2053,6 +2053,38 @@
     <t>アイテム、オブジェクトをXファイルに変換</t>
     <rPh sb="18" eb="20">
       <t>ヘンカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>逃げる敵行動</t>
+    <rPh sb="0" eb="1">
+      <t>ニ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボスのキィイーテクスチャ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>岡</t>
+    <rPh sb="0" eb="1">
+      <t>オカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2726,7 +2758,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3012,6 +3044,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="8" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="18" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3021,6 +3071,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="9" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -3048,27 +3110,6 @@
     <xf numFmtId="0" fontId="21" fillId="8" borderId="3" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3081,10 +3122,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="8" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="18" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="16" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6998,10 +7036,10 @@
       </c>
     </row>
     <row r="5" spans="1:45" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="108" t="s">
+      <c r="A5" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="109" t="s">
+      <c r="B5" s="100" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="19" t="s">
@@ -7037,7 +7075,7 @@
       <c r="S5" s="75"/>
       <c r="T5" s="75"/>
       <c r="U5" s="75"/>
-      <c r="V5" s="104" t="s">
+      <c r="V5" s="114" t="s">
         <v>110</v>
       </c>
       <c r="W5" s="75"/>
@@ -7046,7 +7084,7 @@
       <c r="Z5" s="75"/>
       <c r="AA5" s="75"/>
       <c r="AB5" s="75"/>
-      <c r="AC5" s="101" t="s">
+      <c r="AC5" s="111" t="s">
         <v>111</v>
       </c>
       <c r="AD5" s="75"/>
@@ -7055,14 +7093,14 @@
       <c r="AG5" s="75"/>
       <c r="AH5" s="75"/>
       <c r="AI5" s="75"/>
-      <c r="AJ5" s="98" t="s">
+      <c r="AJ5" s="108" t="s">
         <v>88</v>
       </c>
       <c r="AK5" s="75"/>
     </row>
     <row r="6" spans="1:45" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="108"/>
-      <c r="B6" s="109"/>
+      <c r="A6" s="98"/>
+      <c r="B6" s="100"/>
       <c r="C6" s="19" t="s">
         <v>9</v>
       </c>
@@ -7094,26 +7132,26 @@
       <c r="S6" s="74"/>
       <c r="T6" s="74"/>
       <c r="U6" s="74"/>
-      <c r="V6" s="105"/>
+      <c r="V6" s="115"/>
       <c r="W6" s="74"/>
       <c r="X6" s="74"/>
       <c r="Y6" s="74"/>
       <c r="Z6" s="74"/>
       <c r="AA6" s="74"/>
       <c r="AB6" s="74"/>
-      <c r="AC6" s="102"/>
+      <c r="AC6" s="112"/>
       <c r="AD6" s="74"/>
       <c r="AE6" s="74"/>
       <c r="AF6" s="74"/>
       <c r="AG6" s="74"/>
       <c r="AH6" s="74"/>
       <c r="AI6" s="74"/>
-      <c r="AJ6" s="99"/>
+      <c r="AJ6" s="109"/>
       <c r="AK6" s="74"/>
     </row>
     <row r="7" spans="1:45" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="108"/>
-      <c r="B7" s="109"/>
+      <c r="A7" s="98"/>
+      <c r="B7" s="100"/>
       <c r="C7" s="19" t="s">
         <v>10</v>
       </c>
@@ -7143,26 +7181,26 @@
       <c r="S7" s="74"/>
       <c r="T7" s="74"/>
       <c r="U7" s="74"/>
-      <c r="V7" s="105"/>
+      <c r="V7" s="115"/>
       <c r="W7" s="74"/>
       <c r="X7" s="74"/>
       <c r="Y7" s="74"/>
       <c r="Z7" s="74"/>
       <c r="AA7" s="74"/>
       <c r="AB7" s="74"/>
-      <c r="AC7" s="102"/>
+      <c r="AC7" s="112"/>
       <c r="AD7" s="74"/>
       <c r="AE7" s="74"/>
       <c r="AF7" s="74"/>
       <c r="AG7" s="74"/>
       <c r="AH7" s="74"/>
       <c r="AI7" s="74"/>
-      <c r="AJ7" s="99"/>
+      <c r="AJ7" s="109"/>
       <c r="AK7" s="74"/>
     </row>
     <row r="8" spans="1:45" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="108"/>
-      <c r="B8" s="109"/>
+      <c r="A8" s="98"/>
+      <c r="B8" s="100"/>
       <c r="C8" s="19" t="s">
         <v>11</v>
       </c>
@@ -7192,26 +7230,26 @@
       <c r="S8" s="74"/>
       <c r="T8" s="74"/>
       <c r="U8" s="74"/>
-      <c r="V8" s="105"/>
+      <c r="V8" s="115"/>
       <c r="W8" s="74"/>
       <c r="X8" s="74"/>
       <c r="Y8" s="74"/>
       <c r="Z8" s="74"/>
       <c r="AA8" s="74"/>
       <c r="AB8" s="74"/>
-      <c r="AC8" s="102"/>
+      <c r="AC8" s="112"/>
       <c r="AD8" s="74"/>
       <c r="AE8" s="74"/>
       <c r="AF8" s="74"/>
       <c r="AG8" s="74"/>
       <c r="AH8" s="74"/>
       <c r="AI8" s="74"/>
-      <c r="AJ8" s="99"/>
+      <c r="AJ8" s="109"/>
       <c r="AK8" s="74"/>
     </row>
     <row r="9" spans="1:45" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="108"/>
-      <c r="B9" s="109"/>
+      <c r="A9" s="98"/>
+      <c r="B9" s="100"/>
       <c r="C9" s="19" t="s">
         <v>34</v>
       </c>
@@ -7245,26 +7283,26 @@
       <c r="S9" s="74"/>
       <c r="T9" s="74"/>
       <c r="U9" s="74"/>
-      <c r="V9" s="105"/>
+      <c r="V9" s="115"/>
       <c r="W9" s="74"/>
       <c r="X9" s="74"/>
       <c r="Y9" s="74"/>
       <c r="Z9" s="74"/>
       <c r="AA9" s="74"/>
       <c r="AB9" s="74"/>
-      <c r="AC9" s="102"/>
+      <c r="AC9" s="112"/>
       <c r="AD9" s="74"/>
       <c r="AE9" s="74"/>
       <c r="AF9" s="74"/>
       <c r="AG9" s="74"/>
       <c r="AH9" s="74"/>
       <c r="AI9" s="74"/>
-      <c r="AJ9" s="99"/>
+      <c r="AJ9" s="109"/>
       <c r="AK9" s="74"/>
     </row>
     <row r="10" spans="1:45" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="108"/>
-      <c r="B10" s="109"/>
+      <c r="A10" s="98"/>
+      <c r="B10" s="100"/>
       <c r="C10" s="19" t="s">
         <v>35</v>
       </c>
@@ -7292,29 +7330,29 @@
       <c r="S10" s="74"/>
       <c r="T10" s="74"/>
       <c r="U10" s="74"/>
-      <c r="V10" s="105"/>
+      <c r="V10" s="115"/>
       <c r="W10" s="74"/>
       <c r="X10" s="74"/>
       <c r="Y10" s="74"/>
       <c r="Z10" s="74"/>
       <c r="AA10" s="74"/>
       <c r="AB10" s="74"/>
-      <c r="AC10" s="102"/>
+      <c r="AC10" s="112"/>
       <c r="AD10" s="74"/>
       <c r="AE10" s="74"/>
       <c r="AF10" s="74"/>
       <c r="AG10" s="74"/>
       <c r="AH10" s="74"/>
       <c r="AI10" s="74"/>
-      <c r="AJ10" s="99"/>
+      <c r="AJ10" s="109"/>
       <c r="AK10" s="74"/>
     </row>
     <row r="11" spans="1:45" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="108"/>
-      <c r="B11" s="110" t="s">
+      <c r="A11" s="98"/>
+      <c r="B11" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="107" t="s">
+      <c r="C11" s="99" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="40" t="s">
@@ -7341,27 +7379,27 @@
       <c r="S11" s="74"/>
       <c r="T11" s="74"/>
       <c r="U11" s="74"/>
-      <c r="V11" s="105"/>
+      <c r="V11" s="115"/>
       <c r="W11" s="74"/>
       <c r="X11" s="74"/>
       <c r="Y11" s="74"/>
       <c r="Z11" s="74"/>
       <c r="AA11" s="74"/>
       <c r="AB11" s="74"/>
-      <c r="AC11" s="102"/>
+      <c r="AC11" s="112"/>
       <c r="AD11" s="74"/>
       <c r="AE11" s="74"/>
       <c r="AF11" s="74"/>
       <c r="AG11" s="74"/>
       <c r="AH11" s="74"/>
       <c r="AI11" s="74"/>
-      <c r="AJ11" s="99"/>
+      <c r="AJ11" s="109"/>
       <c r="AK11" s="74"/>
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A12" s="108"/>
-      <c r="B12" s="110"/>
-      <c r="C12" s="107"/>
+      <c r="A12" s="98"/>
+      <c r="B12" s="104"/>
+      <c r="C12" s="99"/>
       <c r="D12" s="2" t="s">
         <v>23</v>
       </c>
@@ -7386,27 +7424,27 @@
       <c r="S12" s="74"/>
       <c r="T12" s="74"/>
       <c r="U12" s="74"/>
-      <c r="V12" s="105"/>
+      <c r="V12" s="115"/>
       <c r="W12" s="74"/>
       <c r="X12" s="74"/>
       <c r="Y12" s="74"/>
       <c r="Z12" s="74"/>
       <c r="AA12" s="74"/>
       <c r="AB12" s="74"/>
-      <c r="AC12" s="102"/>
+      <c r="AC12" s="112"/>
       <c r="AD12" s="74"/>
       <c r="AE12" s="74"/>
       <c r="AF12" s="74"/>
       <c r="AG12" s="74"/>
       <c r="AH12" s="74"/>
       <c r="AI12" s="74"/>
-      <c r="AJ12" s="99"/>
+      <c r="AJ12" s="109"/>
       <c r="AK12" s="74"/>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A13" s="108"/>
-      <c r="B13" s="110"/>
-      <c r="C13" s="107"/>
+      <c r="A13" s="98"/>
+      <c r="B13" s="104"/>
+      <c r="C13" s="99"/>
       <c r="D13" s="33" t="s">
         <v>45</v>
       </c>
@@ -7431,27 +7469,27 @@
       <c r="S13" s="74"/>
       <c r="T13" s="74"/>
       <c r="U13" s="74"/>
-      <c r="V13" s="105"/>
+      <c r="V13" s="115"/>
       <c r="W13" s="74"/>
       <c r="X13" s="74"/>
       <c r="Y13" s="74"/>
       <c r="Z13" s="74"/>
       <c r="AA13" s="74"/>
       <c r="AB13" s="74"/>
-      <c r="AC13" s="102"/>
+      <c r="AC13" s="112"/>
       <c r="AD13" s="74"/>
       <c r="AE13" s="74"/>
       <c r="AF13" s="74"/>
       <c r="AG13" s="74"/>
       <c r="AH13" s="74"/>
       <c r="AI13" s="74"/>
-      <c r="AJ13" s="99"/>
+      <c r="AJ13" s="109"/>
       <c r="AK13" s="74"/>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A14" s="108"/>
-      <c r="B14" s="110"/>
-      <c r="C14" s="107"/>
+      <c r="A14" s="98"/>
+      <c r="B14" s="104"/>
+      <c r="C14" s="99"/>
       <c r="D14" s="34" t="s">
         <v>27</v>
       </c>
@@ -7476,27 +7514,27 @@
       <c r="S14" s="74"/>
       <c r="T14" s="74"/>
       <c r="U14" s="74"/>
-      <c r="V14" s="105"/>
+      <c r="V14" s="115"/>
       <c r="W14" s="74"/>
       <c r="X14" s="74"/>
       <c r="Y14" s="74"/>
       <c r="Z14" s="74"/>
       <c r="AA14" s="74"/>
       <c r="AB14" s="74"/>
-      <c r="AC14" s="102"/>
+      <c r="AC14" s="112"/>
       <c r="AD14" s="74"/>
       <c r="AE14" s="74"/>
       <c r="AF14" s="74"/>
       <c r="AG14" s="74"/>
       <c r="AH14" s="74"/>
       <c r="AI14" s="74"/>
-      <c r="AJ14" s="99"/>
+      <c r="AJ14" s="109"/>
       <c r="AK14" s="74"/>
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A15" s="108"/>
-      <c r="B15" s="110"/>
-      <c r="C15" s="107" t="s">
+      <c r="A15" s="98"/>
+      <c r="B15" s="104"/>
+      <c r="C15" s="99" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -7523,27 +7561,27 @@
       <c r="S15" s="74"/>
       <c r="T15" s="74"/>
       <c r="U15" s="74"/>
-      <c r="V15" s="105"/>
+      <c r="V15" s="115"/>
       <c r="W15" s="74"/>
       <c r="X15" s="74"/>
       <c r="Y15" s="74"/>
       <c r="Z15" s="74"/>
       <c r="AA15" s="74"/>
       <c r="AB15" s="74"/>
-      <c r="AC15" s="102"/>
+      <c r="AC15" s="112"/>
       <c r="AD15" s="74"/>
       <c r="AE15" s="74"/>
       <c r="AF15" s="74"/>
       <c r="AG15" s="74"/>
       <c r="AH15" s="74"/>
       <c r="AI15" s="74"/>
-      <c r="AJ15" s="99"/>
+      <c r="AJ15" s="109"/>
       <c r="AK15" s="74"/>
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A16" s="108"/>
-      <c r="B16" s="110"/>
-      <c r="C16" s="107"/>
+      <c r="A16" s="98"/>
+      <c r="B16" s="104"/>
+      <c r="C16" s="99"/>
       <c r="D16" s="35" t="s">
         <v>45</v>
       </c>
@@ -7568,27 +7606,27 @@
       <c r="S16" s="74"/>
       <c r="T16" s="74"/>
       <c r="U16" s="74"/>
-      <c r="V16" s="105"/>
+      <c r="V16" s="115"/>
       <c r="W16" s="74"/>
       <c r="X16" s="74"/>
       <c r="Y16" s="74"/>
       <c r="Z16" s="74"/>
       <c r="AA16" s="74"/>
       <c r="AB16" s="74"/>
-      <c r="AC16" s="102"/>
+      <c r="AC16" s="112"/>
       <c r="AD16" s="74"/>
       <c r="AE16" s="74"/>
       <c r="AF16" s="74"/>
       <c r="AG16" s="74"/>
       <c r="AH16" s="74"/>
       <c r="AI16" s="74"/>
-      <c r="AJ16" s="99"/>
+      <c r="AJ16" s="109"/>
       <c r="AK16" s="74"/>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A17" s="108"/>
-      <c r="B17" s="110"/>
-      <c r="C17" s="107"/>
+      <c r="A17" s="98"/>
+      <c r="B17" s="104"/>
+      <c r="C17" s="99"/>
       <c r="D17" s="2" t="s">
         <v>23</v>
       </c>
@@ -7613,30 +7651,30 @@
       <c r="S17" s="74"/>
       <c r="T17" s="74"/>
       <c r="U17" s="74"/>
-      <c r="V17" s="105"/>
+      <c r="V17" s="115"/>
       <c r="W17" s="74"/>
       <c r="X17" s="74"/>
       <c r="Y17" s="74"/>
       <c r="Z17" s="74"/>
       <c r="AA17" s="74"/>
       <c r="AB17" s="74"/>
-      <c r="AC17" s="102"/>
+      <c r="AC17" s="112"/>
       <c r="AD17" s="74"/>
       <c r="AE17" s="74"/>
       <c r="AF17" s="74"/>
       <c r="AG17" s="74"/>
       <c r="AH17" s="74"/>
       <c r="AI17" s="74"/>
-      <c r="AJ17" s="99"/>
+      <c r="AJ17" s="109"/>
       <c r="AK17" s="74"/>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A18" s="108"/>
-      <c r="B18" s="110"/>
-      <c r="C18" s="107" t="s">
+      <c r="A18" s="98"/>
+      <c r="B18" s="104"/>
+      <c r="C18" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="107" t="s">
+      <c r="D18" s="99" t="s">
         <v>95</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -7668,28 +7706,28 @@
       <c r="S18" s="74"/>
       <c r="T18" s="74"/>
       <c r="U18" s="74"/>
-      <c r="V18" s="105"/>
+      <c r="V18" s="115"/>
       <c r="W18" s="74"/>
       <c r="X18" s="74"/>
       <c r="Y18" s="74"/>
       <c r="Z18" s="74"/>
       <c r="AA18" s="74"/>
       <c r="AB18" s="74"/>
-      <c r="AC18" s="102"/>
+      <c r="AC18" s="112"/>
       <c r="AD18" s="74"/>
       <c r="AE18" s="74"/>
       <c r="AF18" s="74"/>
       <c r="AG18" s="74"/>
       <c r="AH18" s="74"/>
       <c r="AI18" s="74"/>
-      <c r="AJ18" s="99"/>
+      <c r="AJ18" s="109"/>
       <c r="AK18" s="74"/>
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A19" s="108"/>
-      <c r="B19" s="110"/>
-      <c r="C19" s="107"/>
-      <c r="D19" s="107"/>
+      <c r="A19" s="98"/>
+      <c r="B19" s="104"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="99"/>
       <c r="E19" s="2" t="s">
         <v>138</v>
       </c>
@@ -7719,28 +7757,28 @@
       <c r="S19" s="74"/>
       <c r="T19" s="74"/>
       <c r="U19" s="74"/>
-      <c r="V19" s="105"/>
+      <c r="V19" s="115"/>
       <c r="W19" s="74"/>
       <c r="X19" s="74"/>
       <c r="Y19" s="74"/>
       <c r="Z19" s="74"/>
       <c r="AA19" s="74"/>
       <c r="AB19" s="74"/>
-      <c r="AC19" s="102"/>
+      <c r="AC19" s="112"/>
       <c r="AD19" s="74"/>
       <c r="AE19" s="74"/>
       <c r="AF19" s="74"/>
       <c r="AG19" s="74"/>
       <c r="AH19" s="74"/>
       <c r="AI19" s="74"/>
-      <c r="AJ19" s="99"/>
+      <c r="AJ19" s="109"/>
       <c r="AK19" s="74"/>
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A20" s="108"/>
-      <c r="B20" s="110"/>
-      <c r="C20" s="107"/>
-      <c r="D20" s="107"/>
+      <c r="A20" s="98"/>
+      <c r="B20" s="104"/>
+      <c r="C20" s="99"/>
+      <c r="D20" s="99"/>
       <c r="E20" s="2" t="s">
         <v>112</v>
       </c>
@@ -7770,28 +7808,28 @@
       <c r="S20" s="74"/>
       <c r="T20" s="74"/>
       <c r="U20" s="74"/>
-      <c r="V20" s="105"/>
+      <c r="V20" s="115"/>
       <c r="W20" s="74"/>
       <c r="X20" s="74"/>
       <c r="Y20" s="74"/>
       <c r="Z20" s="74"/>
       <c r="AA20" s="74"/>
       <c r="AB20" s="74"/>
-      <c r="AC20" s="102"/>
+      <c r="AC20" s="112"/>
       <c r="AD20" s="74"/>
       <c r="AE20" s="74"/>
       <c r="AF20" s="74"/>
       <c r="AG20" s="74"/>
       <c r="AH20" s="74"/>
       <c r="AI20" s="74"/>
-      <c r="AJ20" s="99"/>
+      <c r="AJ20" s="109"/>
       <c r="AK20" s="74"/>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A21" s="108"/>
-      <c r="B21" s="110"/>
-      <c r="C21" s="107"/>
-      <c r="D21" s="107"/>
+      <c r="A21" s="98"/>
+      <c r="B21" s="104"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="99"/>
       <c r="E21" s="2" t="s">
         <v>108</v>
       </c>
@@ -7821,28 +7859,28 @@
       <c r="S21" s="74"/>
       <c r="T21" s="74"/>
       <c r="U21" s="74"/>
-      <c r="V21" s="105"/>
+      <c r="V21" s="115"/>
       <c r="W21" s="74"/>
       <c r="X21" s="74"/>
       <c r="Y21" s="74"/>
       <c r="Z21" s="74"/>
       <c r="AA21" s="74"/>
       <c r="AB21" s="74"/>
-      <c r="AC21" s="102"/>
+      <c r="AC21" s="112"/>
       <c r="AD21" s="74"/>
       <c r="AE21" s="74"/>
       <c r="AF21" s="74"/>
       <c r="AG21" s="74"/>
       <c r="AH21" s="74"/>
       <c r="AI21" s="74"/>
-      <c r="AJ21" s="99"/>
+      <c r="AJ21" s="109"/>
       <c r="AK21" s="74"/>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A22" s="108"/>
-      <c r="B22" s="110"/>
-      <c r="C22" s="107"/>
-      <c r="D22" s="107"/>
+      <c r="A22" s="98"/>
+      <c r="B22" s="104"/>
+      <c r="C22" s="99"/>
+      <c r="D22" s="99"/>
       <c r="E22" s="2" t="s">
         <v>135</v>
       </c>
@@ -7872,28 +7910,28 @@
       <c r="S22" s="74"/>
       <c r="T22" s="74"/>
       <c r="U22" s="74"/>
-      <c r="V22" s="105"/>
+      <c r="V22" s="115"/>
       <c r="W22" s="74"/>
       <c r="X22" s="74"/>
       <c r="Y22" s="74"/>
       <c r="Z22" s="74"/>
       <c r="AA22" s="74"/>
       <c r="AB22" s="74"/>
-      <c r="AC22" s="102"/>
+      <c r="AC22" s="112"/>
       <c r="AD22" s="74"/>
       <c r="AE22" s="74"/>
       <c r="AF22" s="74"/>
       <c r="AG22" s="74"/>
       <c r="AH22" s="74"/>
       <c r="AI22" s="74"/>
-      <c r="AJ22" s="99"/>
+      <c r="AJ22" s="109"/>
       <c r="AK22" s="74"/>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A23" s="108"/>
-      <c r="B23" s="110"/>
-      <c r="C23" s="107"/>
-      <c r="D23" s="107"/>
+      <c r="A23" s="98"/>
+      <c r="B23" s="104"/>
+      <c r="C23" s="99"/>
+      <c r="D23" s="99"/>
       <c r="E23" s="2" t="s">
         <v>118</v>
       </c>
@@ -7923,28 +7961,28 @@
       <c r="S23" s="74"/>
       <c r="T23" s="74"/>
       <c r="U23" s="74"/>
-      <c r="V23" s="105"/>
+      <c r="V23" s="115"/>
       <c r="W23" s="74"/>
       <c r="X23" s="74"/>
       <c r="Y23" s="74"/>
       <c r="Z23" s="74"/>
       <c r="AA23" s="74"/>
       <c r="AB23" s="74"/>
-      <c r="AC23" s="102"/>
+      <c r="AC23" s="112"/>
       <c r="AD23" s="74"/>
       <c r="AE23" s="74"/>
       <c r="AF23" s="74"/>
       <c r="AG23" s="74"/>
       <c r="AH23" s="74"/>
       <c r="AI23" s="74"/>
-      <c r="AJ23" s="99"/>
+      <c r="AJ23" s="109"/>
       <c r="AK23" s="74"/>
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A24" s="108"/>
-      <c r="B24" s="110"/>
-      <c r="C24" s="107"/>
-      <c r="D24" s="107"/>
+      <c r="A24" s="98"/>
+      <c r="B24" s="104"/>
+      <c r="C24" s="99"/>
+      <c r="D24" s="99"/>
       <c r="E24" s="2" t="s">
         <v>109</v>
       </c>
@@ -7974,28 +8012,28 @@
       <c r="S24" s="74"/>
       <c r="T24" s="74"/>
       <c r="U24" s="74"/>
-      <c r="V24" s="105"/>
+      <c r="V24" s="115"/>
       <c r="W24" s="74"/>
       <c r="X24" s="74"/>
       <c r="Y24" s="74"/>
       <c r="Z24" s="74"/>
       <c r="AA24" s="74"/>
       <c r="AB24" s="74"/>
-      <c r="AC24" s="102"/>
+      <c r="AC24" s="112"/>
       <c r="AD24" s="74"/>
       <c r="AE24" s="74"/>
       <c r="AF24" s="74"/>
       <c r="AG24" s="74"/>
       <c r="AH24" s="74"/>
       <c r="AI24" s="74"/>
-      <c r="AJ24" s="99"/>
+      <c r="AJ24" s="109"/>
       <c r="AK24" s="74"/>
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A25" s="108"/>
-      <c r="B25" s="110"/>
-      <c r="C25" s="107"/>
-      <c r="D25" s="107"/>
+      <c r="A25" s="98"/>
+      <c r="B25" s="104"/>
+      <c r="C25" s="99"/>
+      <c r="D25" s="99"/>
       <c r="E25" s="2" t="s">
         <v>167</v>
       </c>
@@ -8025,28 +8063,28 @@
       <c r="S25" s="74"/>
       <c r="T25" s="74"/>
       <c r="U25" s="74"/>
-      <c r="V25" s="105"/>
+      <c r="V25" s="115"/>
       <c r="W25" s="74"/>
       <c r="X25" s="74"/>
       <c r="Y25" s="74"/>
       <c r="Z25" s="74"/>
       <c r="AA25" s="74"/>
       <c r="AB25" s="74"/>
-      <c r="AC25" s="102"/>
+      <c r="AC25" s="112"/>
       <c r="AD25" s="74"/>
       <c r="AE25" s="74"/>
       <c r="AF25" s="74"/>
       <c r="AG25" s="74"/>
       <c r="AH25" s="74"/>
       <c r="AI25" s="74"/>
-      <c r="AJ25" s="99"/>
+      <c r="AJ25" s="109"/>
       <c r="AK25" s="74"/>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A26" s="108"/>
-      <c r="B26" s="110"/>
-      <c r="C26" s="107"/>
-      <c r="D26" s="107"/>
+      <c r="A26" s="98"/>
+      <c r="B26" s="104"/>
+      <c r="C26" s="99"/>
+      <c r="D26" s="99"/>
       <c r="E26" s="2" t="s">
         <v>106</v>
       </c>
@@ -8076,28 +8114,28 @@
       <c r="S26" s="74"/>
       <c r="T26" s="74"/>
       <c r="U26" s="74"/>
-      <c r="V26" s="105"/>
+      <c r="V26" s="115"/>
       <c r="W26" s="74"/>
       <c r="X26" s="74"/>
       <c r="Y26" s="74"/>
       <c r="Z26" s="74"/>
       <c r="AA26" s="74"/>
       <c r="AB26" s="74"/>
-      <c r="AC26" s="102"/>
+      <c r="AC26" s="112"/>
       <c r="AD26" s="74"/>
       <c r="AE26" s="74"/>
       <c r="AF26" s="74"/>
       <c r="AG26" s="74"/>
       <c r="AH26" s="74"/>
       <c r="AI26" s="74"/>
-      <c r="AJ26" s="99"/>
+      <c r="AJ26" s="109"/>
       <c r="AK26" s="74"/>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A27" s="108"/>
-      <c r="B27" s="110"/>
-      <c r="C27" s="107"/>
-      <c r="D27" s="107"/>
+      <c r="A27" s="98"/>
+      <c r="B27" s="104"/>
+      <c r="C27" s="99"/>
+      <c r="D27" s="99"/>
       <c r="E27" s="2" t="s">
         <v>102</v>
       </c>
@@ -8127,28 +8165,28 @@
       <c r="S27" s="74"/>
       <c r="T27" s="74"/>
       <c r="U27" s="74"/>
-      <c r="V27" s="105"/>
+      <c r="V27" s="115"/>
       <c r="W27" s="74"/>
       <c r="X27" s="74"/>
       <c r="Y27" s="74"/>
       <c r="Z27" s="74"/>
       <c r="AA27" s="74"/>
       <c r="AB27" s="74"/>
-      <c r="AC27" s="102"/>
+      <c r="AC27" s="112"/>
       <c r="AD27" s="74"/>
       <c r="AE27" s="74"/>
       <c r="AF27" s="74"/>
       <c r="AG27" s="74"/>
       <c r="AH27" s="74"/>
       <c r="AI27" s="74"/>
-      <c r="AJ27" s="99"/>
+      <c r="AJ27" s="109"/>
       <c r="AK27" s="74"/>
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A28" s="108"/>
-      <c r="B28" s="110"/>
-      <c r="C28" s="107"/>
-      <c r="D28" s="107" t="s">
+      <c r="A28" s="98"/>
+      <c r="B28" s="104"/>
+      <c r="C28" s="99"/>
+      <c r="D28" s="99" t="s">
         <v>25</v>
       </c>
       <c r="E28" s="2" t="s">
@@ -8180,28 +8218,28 @@
       <c r="S28" s="74"/>
       <c r="T28" s="74"/>
       <c r="U28" s="74"/>
-      <c r="V28" s="105"/>
+      <c r="V28" s="115"/>
       <c r="W28" s="74"/>
       <c r="X28" s="74"/>
       <c r="Y28" s="74"/>
       <c r="Z28" s="74"/>
       <c r="AA28" s="74"/>
       <c r="AB28" s="74"/>
-      <c r="AC28" s="102"/>
+      <c r="AC28" s="112"/>
       <c r="AD28" s="74"/>
       <c r="AE28" s="74"/>
       <c r="AF28" s="74"/>
       <c r="AG28" s="74"/>
       <c r="AH28" s="74"/>
       <c r="AI28" s="74"/>
-      <c r="AJ28" s="99"/>
+      <c r="AJ28" s="109"/>
       <c r="AK28" s="74"/>
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A29" s="108"/>
-      <c r="B29" s="110"/>
-      <c r="C29" s="107"/>
-      <c r="D29" s="107"/>
+      <c r="A29" s="98"/>
+      <c r="B29" s="104"/>
+      <c r="C29" s="99"/>
+      <c r="D29" s="99"/>
       <c r="E29" s="2" t="s">
         <v>119</v>
       </c>
@@ -8231,28 +8269,28 @@
       <c r="S29" s="74"/>
       <c r="T29" s="74"/>
       <c r="U29" s="74"/>
-      <c r="V29" s="105"/>
+      <c r="V29" s="115"/>
       <c r="W29" s="74"/>
       <c r="X29" s="74"/>
       <c r="Y29" s="74"/>
       <c r="Z29" s="74"/>
       <c r="AA29" s="74"/>
       <c r="AB29" s="74"/>
-      <c r="AC29" s="102"/>
+      <c r="AC29" s="112"/>
       <c r="AD29" s="74"/>
       <c r="AE29" s="74"/>
       <c r="AF29" s="74"/>
       <c r="AG29" s="74"/>
       <c r="AH29" s="74"/>
       <c r="AI29" s="74"/>
-      <c r="AJ29" s="99"/>
+      <c r="AJ29" s="109"/>
       <c r="AK29" s="74"/>
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A30" s="108"/>
-      <c r="B30" s="110"/>
-      <c r="C30" s="107"/>
-      <c r="D30" s="107" t="s">
+      <c r="A30" s="98"/>
+      <c r="B30" s="104"/>
+      <c r="C30" s="99"/>
+      <c r="D30" s="99" t="s">
         <v>13</v>
       </c>
       <c r="E30" s="2" t="s">
@@ -8282,28 +8320,28 @@
       <c r="S30" s="74"/>
       <c r="T30" s="74"/>
       <c r="U30" s="74"/>
-      <c r="V30" s="105"/>
+      <c r="V30" s="115"/>
       <c r="W30" s="74"/>
       <c r="X30" s="74"/>
       <c r="Y30" s="74"/>
       <c r="Z30" s="74"/>
       <c r="AA30" s="74"/>
       <c r="AB30" s="74"/>
-      <c r="AC30" s="102"/>
+      <c r="AC30" s="112"/>
       <c r="AD30" s="74"/>
       <c r="AE30" s="74"/>
       <c r="AF30" s="74"/>
       <c r="AG30" s="74"/>
       <c r="AH30" s="74"/>
       <c r="AI30" s="74"/>
-      <c r="AJ30" s="99"/>
+      <c r="AJ30" s="109"/>
       <c r="AK30" s="74"/>
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A31" s="108"/>
-      <c r="B31" s="110"/>
-      <c r="C31" s="107"/>
-      <c r="D31" s="107"/>
+      <c r="A31" s="98"/>
+      <c r="B31" s="104"/>
+      <c r="C31" s="99"/>
+      <c r="D31" s="99"/>
       <c r="E31" s="2" t="s">
         <v>143</v>
       </c>
@@ -8327,28 +8365,28 @@
       <c r="S31" s="74"/>
       <c r="T31" s="74"/>
       <c r="U31" s="74"/>
-      <c r="V31" s="105"/>
+      <c r="V31" s="115"/>
       <c r="W31" s="74"/>
       <c r="X31" s="74"/>
       <c r="Y31" s="74"/>
       <c r="Z31" s="74"/>
       <c r="AA31" s="74"/>
       <c r="AB31" s="74"/>
-      <c r="AC31" s="102"/>
+      <c r="AC31" s="112"/>
       <c r="AD31" s="74"/>
       <c r="AE31" s="74"/>
       <c r="AF31" s="74"/>
       <c r="AG31" s="74"/>
       <c r="AH31" s="74"/>
       <c r="AI31" s="74"/>
-      <c r="AJ31" s="99"/>
+      <c r="AJ31" s="109"/>
       <c r="AK31" s="74"/>
     </row>
     <row r="32" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A32" s="108"/>
-      <c r="B32" s="110"/>
-      <c r="C32" s="107"/>
-      <c r="D32" s="107"/>
+      <c r="A32" s="98"/>
+      <c r="B32" s="104"/>
+      <c r="C32" s="99"/>
+      <c r="D32" s="99"/>
       <c r="E32" s="2" t="s">
         <v>113</v>
       </c>
@@ -8378,28 +8416,28 @@
       <c r="S32" s="74"/>
       <c r="T32" s="74"/>
       <c r="U32" s="74"/>
-      <c r="V32" s="105"/>
+      <c r="V32" s="115"/>
       <c r="W32" s="74"/>
       <c r="X32" s="74"/>
       <c r="Y32" s="74"/>
       <c r="Z32" s="74"/>
       <c r="AA32" s="74"/>
       <c r="AB32" s="74"/>
-      <c r="AC32" s="102"/>
+      <c r="AC32" s="112"/>
       <c r="AD32" s="74"/>
       <c r="AE32" s="74"/>
       <c r="AF32" s="74"/>
       <c r="AG32" s="74"/>
       <c r="AH32" s="74"/>
       <c r="AI32" s="74"/>
-      <c r="AJ32" s="99"/>
+      <c r="AJ32" s="109"/>
       <c r="AK32" s="74"/>
     </row>
     <row r="33" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A33" s="108"/>
-      <c r="B33" s="110"/>
-      <c r="C33" s="107"/>
-      <c r="D33" s="95" t="s">
+      <c r="A33" s="98"/>
+      <c r="B33" s="104"/>
+      <c r="C33" s="99"/>
+      <c r="D33" s="101" t="s">
         <v>90</v>
       </c>
       <c r="E33" s="2" t="s">
@@ -8431,28 +8469,28 @@
       <c r="S33" s="74"/>
       <c r="T33" s="74"/>
       <c r="U33" s="74"/>
-      <c r="V33" s="105"/>
+      <c r="V33" s="115"/>
       <c r="W33" s="74"/>
       <c r="X33" s="74"/>
       <c r="Y33" s="74"/>
       <c r="Z33" s="74"/>
       <c r="AA33" s="74"/>
       <c r="AB33" s="74"/>
-      <c r="AC33" s="102"/>
+      <c r="AC33" s="112"/>
       <c r="AD33" s="74"/>
       <c r="AE33" s="74"/>
       <c r="AF33" s="74"/>
       <c r="AG33" s="74"/>
       <c r="AH33" s="74"/>
       <c r="AI33" s="74"/>
-      <c r="AJ33" s="99"/>
+      <c r="AJ33" s="109"/>
       <c r="AK33" s="74"/>
     </row>
     <row r="34" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A34" s="108"/>
-      <c r="B34" s="110"/>
-      <c r="C34" s="107"/>
-      <c r="D34" s="96"/>
+      <c r="A34" s="98"/>
+      <c r="B34" s="104"/>
+      <c r="C34" s="99"/>
+      <c r="D34" s="102"/>
       <c r="E34" s="2" t="s">
         <v>141</v>
       </c>
@@ -8482,28 +8520,28 @@
       <c r="S34" s="74"/>
       <c r="T34" s="74"/>
       <c r="U34" s="74"/>
-      <c r="V34" s="105"/>
+      <c r="V34" s="115"/>
       <c r="W34" s="74"/>
       <c r="X34" s="74"/>
       <c r="Y34" s="74"/>
       <c r="Z34" s="74"/>
       <c r="AA34" s="74"/>
       <c r="AB34" s="74"/>
-      <c r="AC34" s="102"/>
+      <c r="AC34" s="112"/>
       <c r="AD34" s="74"/>
       <c r="AE34" s="74"/>
       <c r="AF34" s="74"/>
       <c r="AG34" s="74"/>
       <c r="AH34" s="74"/>
       <c r="AI34" s="74"/>
-      <c r="AJ34" s="99"/>
+      <c r="AJ34" s="109"/>
       <c r="AK34" s="74"/>
     </row>
     <row r="35" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A35" s="108"/>
-      <c r="B35" s="110"/>
-      <c r="C35" s="107"/>
-      <c r="D35" s="96"/>
+      <c r="A35" s="98"/>
+      <c r="B35" s="104"/>
+      <c r="C35" s="99"/>
+      <c r="D35" s="102"/>
       <c r="E35" s="2" t="s">
         <v>103</v>
       </c>
@@ -8533,28 +8571,28 @@
       <c r="S35" s="74"/>
       <c r="T35" s="74"/>
       <c r="U35" s="74"/>
-      <c r="V35" s="105"/>
+      <c r="V35" s="115"/>
       <c r="W35" s="74"/>
       <c r="X35" s="74"/>
       <c r="Y35" s="74"/>
       <c r="Z35" s="74"/>
       <c r="AA35" s="74"/>
       <c r="AB35" s="74"/>
-      <c r="AC35" s="102"/>
+      <c r="AC35" s="112"/>
       <c r="AD35" s="74"/>
       <c r="AE35" s="74"/>
       <c r="AF35" s="74"/>
       <c r="AG35" s="74"/>
       <c r="AH35" s="74"/>
       <c r="AI35" s="74"/>
-      <c r="AJ35" s="99"/>
+      <c r="AJ35" s="109"/>
       <c r="AK35" s="74"/>
     </row>
     <row r="36" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A36" s="108"/>
-      <c r="B36" s="110"/>
-      <c r="C36" s="107"/>
-      <c r="D36" s="96"/>
+      <c r="A36" s="98"/>
+      <c r="B36" s="104"/>
+      <c r="C36" s="99"/>
+      <c r="D36" s="102"/>
       <c r="E36" s="2" t="s">
         <v>224</v>
       </c>
@@ -8584,28 +8622,28 @@
       <c r="S36" s="74"/>
       <c r="T36" s="74"/>
       <c r="U36" s="74"/>
-      <c r="V36" s="105"/>
+      <c r="V36" s="115"/>
       <c r="W36" s="74"/>
       <c r="X36" s="74"/>
       <c r="Y36" s="74"/>
       <c r="Z36" s="74"/>
       <c r="AA36" s="74"/>
       <c r="AB36" s="74"/>
-      <c r="AC36" s="102"/>
+      <c r="AC36" s="112"/>
       <c r="AD36" s="74"/>
       <c r="AE36" s="74"/>
       <c r="AF36" s="74"/>
       <c r="AG36" s="74"/>
       <c r="AH36" s="74"/>
       <c r="AI36" s="74"/>
-      <c r="AJ36" s="99"/>
+      <c r="AJ36" s="109"/>
       <c r="AK36" s="74"/>
     </row>
     <row r="37" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A37" s="108"/>
-      <c r="B37" s="110"/>
-      <c r="C37" s="107"/>
-      <c r="D37" s="96"/>
+      <c r="A37" s="98"/>
+      <c r="B37" s="104"/>
+      <c r="C37" s="99"/>
+      <c r="D37" s="102"/>
       <c r="E37" s="2" t="s">
         <v>251</v>
       </c>
@@ -8635,28 +8673,28 @@
       <c r="S37" s="74"/>
       <c r="T37" s="74"/>
       <c r="U37" s="74"/>
-      <c r="V37" s="105"/>
+      <c r="V37" s="115"/>
       <c r="W37" s="74"/>
       <c r="X37" s="74"/>
       <c r="Y37" s="74"/>
       <c r="Z37" s="74"/>
       <c r="AA37" s="74"/>
       <c r="AB37" s="74"/>
-      <c r="AC37" s="102"/>
+      <c r="AC37" s="112"/>
       <c r="AD37" s="74"/>
       <c r="AE37" s="74"/>
       <c r="AF37" s="74"/>
       <c r="AG37" s="74"/>
       <c r="AH37" s="74"/>
       <c r="AI37" s="74"/>
-      <c r="AJ37" s="99"/>
+      <c r="AJ37" s="109"/>
       <c r="AK37" s="74"/>
     </row>
     <row r="38" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A38" s="108"/>
-      <c r="B38" s="110"/>
-      <c r="C38" s="107"/>
-      <c r="D38" s="97"/>
+      <c r="A38" s="98"/>
+      <c r="B38" s="104"/>
+      <c r="C38" s="99"/>
+      <c r="D38" s="103"/>
       <c r="E38" s="2" t="s">
         <v>253</v>
       </c>
@@ -8678,27 +8716,27 @@
       <c r="S38" s="74"/>
       <c r="T38" s="74"/>
       <c r="U38" s="74"/>
-      <c r="V38" s="105"/>
+      <c r="V38" s="115"/>
       <c r="W38" s="74"/>
       <c r="X38" s="74"/>
       <c r="Y38" s="74"/>
       <c r="Z38" s="74"/>
       <c r="AA38" s="74"/>
       <c r="AB38" s="74"/>
-      <c r="AC38" s="102"/>
+      <c r="AC38" s="112"/>
       <c r="AD38" s="74"/>
       <c r="AE38" s="74"/>
       <c r="AF38" s="74"/>
       <c r="AG38" s="74"/>
       <c r="AH38" s="74"/>
       <c r="AI38" s="74"/>
-      <c r="AJ38" s="99"/>
+      <c r="AJ38" s="109"/>
       <c r="AK38" s="74"/>
     </row>
     <row r="39" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A39" s="108"/>
-      <c r="B39" s="110"/>
-      <c r="C39" s="107"/>
+      <c r="A39" s="98"/>
+      <c r="B39" s="104"/>
+      <c r="C39" s="99"/>
       <c r="D39" s="2" t="s">
         <v>24</v>
       </c>
@@ -8725,27 +8763,27 @@
       <c r="S39" s="74"/>
       <c r="T39" s="74"/>
       <c r="U39" s="74"/>
-      <c r="V39" s="105"/>
+      <c r="V39" s="115"/>
       <c r="W39" s="74"/>
       <c r="X39" s="74"/>
       <c r="Y39" s="74"/>
       <c r="Z39" s="74"/>
       <c r="AA39" s="74"/>
       <c r="AB39" s="74"/>
-      <c r="AC39" s="102"/>
+      <c r="AC39" s="112"/>
       <c r="AD39" s="74"/>
       <c r="AE39" s="74"/>
       <c r="AF39" s="74"/>
       <c r="AG39" s="74"/>
       <c r="AH39" s="74"/>
       <c r="AI39" s="74"/>
-      <c r="AJ39" s="99"/>
+      <c r="AJ39" s="109"/>
       <c r="AK39" s="74"/>
     </row>
     <row r="40" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A40" s="108"/>
-      <c r="B40" s="110"/>
-      <c r="C40" s="107"/>
+      <c r="A40" s="98"/>
+      <c r="B40" s="104"/>
+      <c r="C40" s="99"/>
       <c r="D40" s="2" t="s">
         <v>144</v>
       </c>
@@ -8778,27 +8816,27 @@
       <c r="S40" s="74"/>
       <c r="T40" s="74"/>
       <c r="U40" s="74"/>
-      <c r="V40" s="105"/>
+      <c r="V40" s="115"/>
       <c r="W40" s="74"/>
       <c r="X40" s="74"/>
       <c r="Y40" s="74"/>
       <c r="Z40" s="74"/>
       <c r="AA40" s="74"/>
       <c r="AB40" s="74"/>
-      <c r="AC40" s="102"/>
+      <c r="AC40" s="112"/>
       <c r="AD40" s="74"/>
       <c r="AE40" s="74"/>
       <c r="AF40" s="74"/>
       <c r="AG40" s="74"/>
       <c r="AH40" s="74"/>
       <c r="AI40" s="74"/>
-      <c r="AJ40" s="99"/>
+      <c r="AJ40" s="109"/>
       <c r="AK40" s="74"/>
     </row>
     <row r="41" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A41" s="108"/>
-      <c r="B41" s="110"/>
-      <c r="C41" s="107"/>
+      <c r="A41" s="98"/>
+      <c r="B41" s="104"/>
+      <c r="C41" s="99"/>
       <c r="D41" s="2" t="s">
         <v>94</v>
       </c>
@@ -8821,27 +8859,27 @@
       <c r="S41" s="74"/>
       <c r="T41" s="74"/>
       <c r="U41" s="74"/>
-      <c r="V41" s="105"/>
+      <c r="V41" s="115"/>
       <c r="W41" s="74"/>
       <c r="X41" s="74"/>
       <c r="Y41" s="74"/>
       <c r="Z41" s="74"/>
       <c r="AA41" s="74"/>
       <c r="AB41" s="74"/>
-      <c r="AC41" s="102"/>
+      <c r="AC41" s="112"/>
       <c r="AD41" s="74"/>
       <c r="AE41" s="74"/>
       <c r="AF41" s="74"/>
       <c r="AG41" s="74"/>
       <c r="AH41" s="74"/>
       <c r="AI41" s="74"/>
-      <c r="AJ41" s="99"/>
+      <c r="AJ41" s="109"/>
       <c r="AK41" s="74"/>
     </row>
     <row r="42" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A42" s="108"/>
-      <c r="B42" s="110"/>
-      <c r="C42" s="107"/>
+      <c r="A42" s="98"/>
+      <c r="B42" s="104"/>
+      <c r="C42" s="99"/>
       <c r="D42" s="2" t="s">
         <v>23</v>
       </c>
@@ -8866,27 +8904,27 @@
       <c r="S42" s="74"/>
       <c r="T42" s="74"/>
       <c r="U42" s="74"/>
-      <c r="V42" s="105"/>
+      <c r="V42" s="115"/>
       <c r="W42" s="74"/>
       <c r="X42" s="74"/>
       <c r="Y42" s="74"/>
       <c r="Z42" s="74"/>
       <c r="AA42" s="74"/>
       <c r="AB42" s="74"/>
-      <c r="AC42" s="102"/>
+      <c r="AC42" s="112"/>
       <c r="AD42" s="74"/>
       <c r="AE42" s="74"/>
       <c r="AF42" s="74"/>
       <c r="AG42" s="74"/>
       <c r="AH42" s="74"/>
       <c r="AI42" s="74"/>
-      <c r="AJ42" s="99"/>
+      <c r="AJ42" s="109"/>
       <c r="AK42" s="74"/>
     </row>
     <row r="43" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A43" s="108"/>
-      <c r="B43" s="110"/>
-      <c r="C43" s="107"/>
+      <c r="A43" s="98"/>
+      <c r="B43" s="104"/>
+      <c r="C43" s="99"/>
       <c r="D43" s="34" t="s">
         <v>27</v>
       </c>
@@ -8911,27 +8949,27 @@
       <c r="S43" s="74"/>
       <c r="T43" s="74"/>
       <c r="U43" s="74"/>
-      <c r="V43" s="105"/>
+      <c r="V43" s="115"/>
       <c r="W43" s="74"/>
       <c r="X43" s="74"/>
       <c r="Y43" s="74"/>
       <c r="Z43" s="74"/>
       <c r="AA43" s="74"/>
       <c r="AB43" s="74"/>
-      <c r="AC43" s="102"/>
+      <c r="AC43" s="112"/>
       <c r="AD43" s="74"/>
       <c r="AE43" s="74"/>
       <c r="AF43" s="74"/>
       <c r="AG43" s="74"/>
       <c r="AH43" s="74"/>
       <c r="AI43" s="74"/>
-      <c r="AJ43" s="99"/>
+      <c r="AJ43" s="109"/>
       <c r="AK43" s="74"/>
     </row>
     <row r="44" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A44" s="108"/>
-      <c r="B44" s="110"/>
-      <c r="C44" s="107"/>
+      <c r="A44" s="98"/>
+      <c r="B44" s="104"/>
+      <c r="C44" s="99"/>
       <c r="D44" s="33" t="s">
         <v>45</v>
       </c>
@@ -8956,27 +8994,27 @@
       <c r="S44" s="74"/>
       <c r="T44" s="74"/>
       <c r="U44" s="74"/>
-      <c r="V44" s="105"/>
+      <c r="V44" s="115"/>
       <c r="W44" s="74"/>
       <c r="X44" s="74"/>
       <c r="Y44" s="74"/>
       <c r="Z44" s="74"/>
       <c r="AA44" s="74"/>
       <c r="AB44" s="74"/>
-      <c r="AC44" s="102"/>
+      <c r="AC44" s="112"/>
       <c r="AD44" s="74"/>
       <c r="AE44" s="74"/>
       <c r="AF44" s="74"/>
       <c r="AG44" s="74"/>
       <c r="AH44" s="74"/>
       <c r="AI44" s="74"/>
-      <c r="AJ44" s="99"/>
+      <c r="AJ44" s="109"/>
       <c r="AK44" s="74"/>
     </row>
     <row r="45" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A45" s="108"/>
-      <c r="B45" s="110"/>
-      <c r="C45" s="107"/>
+      <c r="A45" s="98"/>
+      <c r="B45" s="104"/>
+      <c r="C45" s="99"/>
       <c r="D45" s="2" t="s">
         <v>26</v>
       </c>
@@ -8999,27 +9037,27 @@
       <c r="S45" s="74"/>
       <c r="T45" s="74"/>
       <c r="U45" s="74"/>
-      <c r="V45" s="105"/>
+      <c r="V45" s="115"/>
       <c r="W45" s="74"/>
       <c r="X45" s="74"/>
       <c r="Y45" s="74"/>
       <c r="Z45" s="74"/>
       <c r="AA45" s="74"/>
       <c r="AB45" s="74"/>
-      <c r="AC45" s="102"/>
+      <c r="AC45" s="112"/>
       <c r="AD45" s="74"/>
       <c r="AE45" s="74"/>
       <c r="AF45" s="74"/>
       <c r="AG45" s="74"/>
       <c r="AH45" s="74"/>
       <c r="AI45" s="74"/>
-      <c r="AJ45" s="99"/>
+      <c r="AJ45" s="109"/>
       <c r="AK45" s="74"/>
     </row>
     <row r="46" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A46" s="108"/>
-      <c r="B46" s="110"/>
-      <c r="C46" s="107" t="s">
+      <c r="A46" s="98"/>
+      <c r="B46" s="104"/>
+      <c r="C46" s="99" t="s">
         <v>42</v>
       </c>
       <c r="D46" s="35" t="s">
@@ -9044,27 +9082,27 @@
       <c r="S46" s="74"/>
       <c r="T46" s="74"/>
       <c r="U46" s="74"/>
-      <c r="V46" s="105"/>
+      <c r="V46" s="115"/>
       <c r="W46" s="74"/>
       <c r="X46" s="74"/>
       <c r="Y46" s="74"/>
       <c r="Z46" s="74"/>
       <c r="AA46" s="74"/>
       <c r="AB46" s="74"/>
-      <c r="AC46" s="102"/>
+      <c r="AC46" s="112"/>
       <c r="AD46" s="74"/>
       <c r="AE46" s="74"/>
       <c r="AF46" s="74"/>
       <c r="AG46" s="74"/>
       <c r="AH46" s="74"/>
       <c r="AI46" s="74"/>
-      <c r="AJ46" s="99"/>
+      <c r="AJ46" s="109"/>
       <c r="AK46" s="74"/>
     </row>
     <row r="47" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A47" s="108"/>
-      <c r="B47" s="110"/>
-      <c r="C47" s="107"/>
+      <c r="A47" s="98"/>
+      <c r="B47" s="104"/>
+      <c r="C47" s="99"/>
       <c r="D47" s="2" t="s">
         <v>26</v>
       </c>
@@ -9087,27 +9125,27 @@
       <c r="S47" s="74"/>
       <c r="T47" s="74"/>
       <c r="U47" s="74"/>
-      <c r="V47" s="105"/>
+      <c r="V47" s="115"/>
       <c r="W47" s="74"/>
       <c r="X47" s="74"/>
       <c r="Y47" s="74"/>
       <c r="Z47" s="74"/>
       <c r="AA47" s="74"/>
       <c r="AB47" s="74"/>
-      <c r="AC47" s="102"/>
+      <c r="AC47" s="112"/>
       <c r="AD47" s="74"/>
       <c r="AE47" s="74"/>
       <c r="AF47" s="74"/>
       <c r="AG47" s="74"/>
       <c r="AH47" s="74"/>
       <c r="AI47" s="74"/>
-      <c r="AJ47" s="99"/>
+      <c r="AJ47" s="109"/>
       <c r="AK47" s="74"/>
     </row>
     <row r="48" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A48" s="108"/>
-      <c r="B48" s="110"/>
-      <c r="C48" s="107" t="s">
+      <c r="A48" s="98"/>
+      <c r="B48" s="104"/>
+      <c r="C48" s="99" t="s">
         <v>43</v>
       </c>
       <c r="D48" s="33" t="s">
@@ -9132,27 +9170,27 @@
       <c r="S48" s="74"/>
       <c r="T48" s="74"/>
       <c r="U48" s="74"/>
-      <c r="V48" s="105"/>
+      <c r="V48" s="115"/>
       <c r="W48" s="74"/>
       <c r="X48" s="74"/>
       <c r="Y48" s="74"/>
       <c r="Z48" s="74"/>
       <c r="AA48" s="74"/>
       <c r="AB48" s="74"/>
-      <c r="AC48" s="102"/>
+      <c r="AC48" s="112"/>
       <c r="AD48" s="74"/>
       <c r="AE48" s="74"/>
       <c r="AF48" s="74"/>
       <c r="AG48" s="74"/>
       <c r="AH48" s="74"/>
       <c r="AI48" s="74"/>
-      <c r="AJ48" s="99"/>
+      <c r="AJ48" s="109"/>
       <c r="AK48" s="74"/>
     </row>
     <row r="49" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A49" s="108"/>
-      <c r="B49" s="110"/>
-      <c r="C49" s="107"/>
+      <c r="A49" s="98"/>
+      <c r="B49" s="104"/>
+      <c r="C49" s="99"/>
       <c r="D49" s="2" t="s">
         <v>26</v>
       </c>
@@ -9175,27 +9213,27 @@
       <c r="S49" s="74"/>
       <c r="T49" s="74"/>
       <c r="U49" s="74"/>
-      <c r="V49" s="105"/>
+      <c r="V49" s="115"/>
       <c r="W49" s="74"/>
       <c r="X49" s="74"/>
       <c r="Y49" s="74"/>
       <c r="Z49" s="74"/>
       <c r="AA49" s="74"/>
       <c r="AB49" s="74"/>
-      <c r="AC49" s="102"/>
+      <c r="AC49" s="112"/>
       <c r="AD49" s="74"/>
       <c r="AE49" s="74"/>
       <c r="AF49" s="74"/>
       <c r="AG49" s="74"/>
       <c r="AH49" s="74"/>
       <c r="AI49" s="74"/>
-      <c r="AJ49" s="99"/>
+      <c r="AJ49" s="109"/>
       <c r="AK49" s="74"/>
     </row>
     <row r="50" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A50" s="108"/>
-      <c r="B50" s="110"/>
-      <c r="C50" s="107"/>
+      <c r="A50" s="98"/>
+      <c r="B50" s="104"/>
+      <c r="C50" s="99"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="19"/>
@@ -9216,27 +9254,27 @@
       <c r="S50" s="74"/>
       <c r="T50" s="74"/>
       <c r="U50" s="74"/>
-      <c r="V50" s="105"/>
+      <c r="V50" s="115"/>
       <c r="W50" s="74"/>
       <c r="X50" s="74"/>
       <c r="Y50" s="74"/>
       <c r="Z50" s="74"/>
       <c r="AA50" s="74"/>
       <c r="AB50" s="74"/>
-      <c r="AC50" s="102"/>
+      <c r="AC50" s="112"/>
       <c r="AD50" s="74"/>
       <c r="AE50" s="74"/>
       <c r="AF50" s="74"/>
       <c r="AG50" s="74"/>
       <c r="AH50" s="74"/>
       <c r="AI50" s="74"/>
-      <c r="AJ50" s="99"/>
+      <c r="AJ50" s="109"/>
       <c r="AK50" s="74"/>
     </row>
     <row r="51" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A51" s="108"/>
-      <c r="B51" s="110"/>
-      <c r="C51" s="107" t="s">
+      <c r="A51" s="98"/>
+      <c r="B51" s="104"/>
+      <c r="C51" s="99" t="s">
         <v>17</v>
       </c>
       <c r="D51" s="2" t="s">
@@ -9263,27 +9301,27 @@
       <c r="S51" s="74"/>
       <c r="T51" s="74"/>
       <c r="U51" s="74"/>
-      <c r="V51" s="105"/>
+      <c r="V51" s="115"/>
       <c r="W51" s="74"/>
       <c r="X51" s="74"/>
       <c r="Y51" s="74"/>
       <c r="Z51" s="74"/>
       <c r="AA51" s="74"/>
       <c r="AB51" s="74"/>
-      <c r="AC51" s="102"/>
+      <c r="AC51" s="112"/>
       <c r="AD51" s="74"/>
       <c r="AE51" s="74"/>
       <c r="AF51" s="74"/>
       <c r="AG51" s="74"/>
       <c r="AH51" s="74"/>
       <c r="AI51" s="74"/>
-      <c r="AJ51" s="99"/>
+      <c r="AJ51" s="109"/>
       <c r="AK51" s="74"/>
     </row>
     <row r="52" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A52" s="108"/>
-      <c r="B52" s="110"/>
-      <c r="C52" s="107"/>
+      <c r="A52" s="98"/>
+      <c r="B52" s="104"/>
+      <c r="C52" s="99"/>
       <c r="D52" s="2" t="s">
         <v>36</v>
       </c>
@@ -9308,27 +9346,27 @@
       <c r="S52" s="74"/>
       <c r="T52" s="74"/>
       <c r="U52" s="74"/>
-      <c r="V52" s="105"/>
+      <c r="V52" s="115"/>
       <c r="W52" s="74"/>
       <c r="X52" s="74"/>
       <c r="Y52" s="74"/>
       <c r="Z52" s="74"/>
       <c r="AA52" s="74"/>
       <c r="AB52" s="74"/>
-      <c r="AC52" s="102"/>
+      <c r="AC52" s="112"/>
       <c r="AD52" s="74"/>
       <c r="AE52" s="74"/>
       <c r="AF52" s="74"/>
       <c r="AG52" s="74"/>
       <c r="AH52" s="74"/>
       <c r="AI52" s="74"/>
-      <c r="AJ52" s="99"/>
+      <c r="AJ52" s="109"/>
       <c r="AK52" s="74"/>
     </row>
     <row r="53" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A53" s="108"/>
-      <c r="B53" s="110"/>
-      <c r="C53" s="107"/>
+      <c r="A53" s="98"/>
+      <c r="B53" s="104"/>
+      <c r="C53" s="99"/>
       <c r="D53" s="2" t="s">
         <v>37</v>
       </c>
@@ -9353,27 +9391,27 @@
       <c r="S53" s="74"/>
       <c r="T53" s="74"/>
       <c r="U53" s="74"/>
-      <c r="V53" s="105"/>
+      <c r="V53" s="115"/>
       <c r="W53" s="74"/>
       <c r="X53" s="74"/>
       <c r="Y53" s="74"/>
       <c r="Z53" s="74"/>
       <c r="AA53" s="74"/>
       <c r="AB53" s="74"/>
-      <c r="AC53" s="102"/>
+      <c r="AC53" s="112"/>
       <c r="AD53" s="74"/>
       <c r="AE53" s="74"/>
       <c r="AF53" s="74"/>
       <c r="AG53" s="74"/>
       <c r="AH53" s="74"/>
       <c r="AI53" s="74"/>
-      <c r="AJ53" s="99"/>
+      <c r="AJ53" s="109"/>
       <c r="AK53" s="74"/>
     </row>
     <row r="54" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A54" s="108"/>
-      <c r="B54" s="110"/>
-      <c r="C54" s="107"/>
+      <c r="A54" s="98"/>
+      <c r="B54" s="104"/>
+      <c r="C54" s="99"/>
       <c r="D54" s="2" t="s">
         <v>38</v>
       </c>
@@ -9398,27 +9436,27 @@
       <c r="S54" s="74"/>
       <c r="T54" s="74"/>
       <c r="U54" s="74"/>
-      <c r="V54" s="105"/>
+      <c r="V54" s="115"/>
       <c r="W54" s="74"/>
       <c r="X54" s="74"/>
       <c r="Y54" s="74"/>
       <c r="Z54" s="74"/>
       <c r="AA54" s="74"/>
       <c r="AB54" s="74"/>
-      <c r="AC54" s="102"/>
+      <c r="AC54" s="112"/>
       <c r="AD54" s="74"/>
       <c r="AE54" s="74"/>
       <c r="AF54" s="74"/>
       <c r="AG54" s="74"/>
       <c r="AH54" s="74"/>
       <c r="AI54" s="74"/>
-      <c r="AJ54" s="99"/>
+      <c r="AJ54" s="109"/>
       <c r="AK54" s="74"/>
     </row>
     <row r="55" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A55" s="108"/>
-      <c r="B55" s="110"/>
-      <c r="C55" s="107"/>
+      <c r="A55" s="98"/>
+      <c r="B55" s="104"/>
+      <c r="C55" s="99"/>
       <c r="D55" s="2" t="s">
         <v>33</v>
       </c>
@@ -9443,27 +9481,27 @@
       <c r="S55" s="74"/>
       <c r="T55" s="74"/>
       <c r="U55" s="74"/>
-      <c r="V55" s="105"/>
+      <c r="V55" s="115"/>
       <c r="W55" s="74"/>
       <c r="X55" s="74"/>
       <c r="Y55" s="74"/>
       <c r="Z55" s="74"/>
       <c r="AA55" s="74"/>
       <c r="AB55" s="74"/>
-      <c r="AC55" s="102"/>
+      <c r="AC55" s="112"/>
       <c r="AD55" s="74"/>
       <c r="AE55" s="74"/>
       <c r="AF55" s="74"/>
       <c r="AG55" s="74"/>
       <c r="AH55" s="74"/>
       <c r="AI55" s="74"/>
-      <c r="AJ55" s="99"/>
+      <c r="AJ55" s="109"/>
       <c r="AK55" s="74"/>
     </row>
     <row r="56" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A56" s="108"/>
-      <c r="B56" s="110"/>
-      <c r="C56" s="107" t="s">
+      <c r="A56" s="98"/>
+      <c r="B56" s="104"/>
+      <c r="C56" s="99" t="s">
         <v>121</v>
       </c>
       <c r="D56" s="2" t="s">
@@ -9496,27 +9534,27 @@
       <c r="S56" s="74"/>
       <c r="T56" s="74"/>
       <c r="U56" s="74"/>
-      <c r="V56" s="105"/>
+      <c r="V56" s="115"/>
       <c r="W56" s="74"/>
       <c r="X56" s="74"/>
       <c r="Y56" s="74"/>
       <c r="Z56" s="74"/>
       <c r="AA56" s="74"/>
       <c r="AB56" s="74"/>
-      <c r="AC56" s="102"/>
+      <c r="AC56" s="112"/>
       <c r="AD56" s="74"/>
       <c r="AE56" s="74"/>
       <c r="AF56" s="74"/>
       <c r="AG56" s="74"/>
       <c r="AH56" s="74"/>
       <c r="AI56" s="74"/>
-      <c r="AJ56" s="99"/>
+      <c r="AJ56" s="109"/>
       <c r="AK56" s="74"/>
     </row>
     <row r="57" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A57" s="108"/>
-      <c r="B57" s="110"/>
-      <c r="C57" s="107"/>
+      <c r="A57" s="98"/>
+      <c r="B57" s="104"/>
+      <c r="C57" s="99"/>
       <c r="D57" s="2" t="s">
         <v>151</v>
       </c>
@@ -9547,26 +9585,26 @@
       <c r="S57" s="74"/>
       <c r="T57" s="74"/>
       <c r="U57" s="74"/>
-      <c r="V57" s="105"/>
+      <c r="V57" s="115"/>
       <c r="W57" s="74"/>
       <c r="X57" s="74"/>
       <c r="Y57" s="74"/>
       <c r="Z57" s="74"/>
       <c r="AA57" s="74"/>
       <c r="AB57" s="74"/>
-      <c r="AC57" s="102"/>
+      <c r="AC57" s="112"/>
       <c r="AD57" s="74"/>
       <c r="AE57" s="74"/>
       <c r="AF57" s="74"/>
       <c r="AG57" s="74"/>
       <c r="AH57" s="74"/>
       <c r="AI57" s="74"/>
-      <c r="AJ57" s="99"/>
+      <c r="AJ57" s="109"/>
       <c r="AK57" s="74"/>
     </row>
     <row r="58" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="108"/>
-      <c r="B58" s="110"/>
+      <c r="A58" s="98"/>
+      <c r="B58" s="104"/>
       <c r="C58" s="20" t="s">
         <v>71</v>
       </c>
@@ -9592,32 +9630,32 @@
       <c r="S58" s="20"/>
       <c r="T58" s="20"/>
       <c r="U58" s="20"/>
-      <c r="V58" s="105"/>
+      <c r="V58" s="115"/>
       <c r="W58" s="20"/>
       <c r="X58" s="20"/>
       <c r="Y58" s="20"/>
       <c r="Z58" s="20"/>
       <c r="AA58" s="20"/>
       <c r="AB58" s="20"/>
-      <c r="AC58" s="102"/>
+      <c r="AC58" s="112"/>
       <c r="AD58" s="74"/>
       <c r="AE58" s="74"/>
       <c r="AF58" s="74"/>
       <c r="AG58" s="74"/>
       <c r="AH58" s="74"/>
       <c r="AI58" s="74"/>
-      <c r="AJ58" s="99"/>
+      <c r="AJ58" s="109"/>
       <c r="AK58" s="74"/>
     </row>
     <row r="59" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A59" s="108"/>
-      <c r="B59" s="111" t="s">
+      <c r="A59" s="98"/>
+      <c r="B59" s="105" t="s">
         <v>120</v>
       </c>
-      <c r="C59" s="107" t="s">
+      <c r="C59" s="99" t="s">
         <v>92</v>
       </c>
-      <c r="D59" s="107" t="s">
+      <c r="D59" s="99" t="s">
         <v>29</v>
       </c>
       <c r="E59" s="2" t="s">
@@ -9649,28 +9687,28 @@
       <c r="S59" s="74"/>
       <c r="T59" s="74"/>
       <c r="U59" s="74"/>
-      <c r="V59" s="105"/>
+      <c r="V59" s="115"/>
       <c r="W59" s="74"/>
       <c r="X59" s="74"/>
       <c r="Y59" s="74"/>
       <c r="Z59" s="74"/>
       <c r="AA59" s="74"/>
       <c r="AB59" s="74"/>
-      <c r="AC59" s="102"/>
+      <c r="AC59" s="112"/>
       <c r="AD59" s="74"/>
       <c r="AE59" s="74"/>
       <c r="AF59" s="74"/>
       <c r="AG59" s="74"/>
       <c r="AH59" s="74"/>
       <c r="AI59" s="74"/>
-      <c r="AJ59" s="99"/>
+      <c r="AJ59" s="109"/>
       <c r="AK59" s="74"/>
     </row>
     <row r="60" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A60" s="108"/>
-      <c r="B60" s="112"/>
-      <c r="C60" s="107"/>
-      <c r="D60" s="107"/>
+      <c r="A60" s="98"/>
+      <c r="B60" s="106"/>
+      <c r="C60" s="99"/>
+      <c r="D60" s="99"/>
       <c r="E60" s="2" t="s">
         <v>130</v>
       </c>
@@ -9700,30 +9738,30 @@
       <c r="S60" s="74"/>
       <c r="T60" s="74"/>
       <c r="U60" s="74"/>
-      <c r="V60" s="105"/>
+      <c r="V60" s="115"/>
       <c r="W60" s="74"/>
       <c r="X60" s="74"/>
       <c r="Y60" s="74"/>
       <c r="Z60" s="74"/>
       <c r="AA60" s="74"/>
       <c r="AB60" s="74"/>
-      <c r="AC60" s="102"/>
+      <c r="AC60" s="112"/>
       <c r="AD60" s="74"/>
       <c r="AE60" s="74"/>
       <c r="AF60" s="74"/>
       <c r="AG60" s="74"/>
       <c r="AH60" s="74"/>
       <c r="AI60" s="74"/>
-      <c r="AJ60" s="99"/>
+      <c r="AJ60" s="109"/>
       <c r="AK60" s="74"/>
     </row>
     <row r="61" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A61" s="108"/>
-      <c r="B61" s="112"/>
-      <c r="C61" s="107" t="s">
+      <c r="A61" s="98"/>
+      <c r="B61" s="106"/>
+      <c r="C61" s="99" t="s">
         <v>96</v>
       </c>
-      <c r="D61" s="107" t="s">
+      <c r="D61" s="99" t="s">
         <v>95</v>
       </c>
       <c r="E61" s="2" t="s">
@@ -9755,28 +9793,28 @@
       <c r="S61" s="74"/>
       <c r="T61" s="74"/>
       <c r="U61" s="74"/>
-      <c r="V61" s="105"/>
+      <c r="V61" s="115"/>
       <c r="W61" s="74"/>
       <c r="X61" s="74"/>
       <c r="Y61" s="74"/>
       <c r="Z61" s="74"/>
       <c r="AA61" s="74"/>
       <c r="AB61" s="74"/>
-      <c r="AC61" s="102"/>
+      <c r="AC61" s="112"/>
       <c r="AD61" s="74"/>
       <c r="AE61" s="74"/>
       <c r="AF61" s="74"/>
       <c r="AG61" s="74"/>
       <c r="AH61" s="74"/>
       <c r="AI61" s="74"/>
-      <c r="AJ61" s="99"/>
+      <c r="AJ61" s="109"/>
       <c r="AK61" s="74"/>
     </row>
     <row r="62" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A62" s="108"/>
-      <c r="B62" s="112"/>
-      <c r="C62" s="107"/>
-      <c r="D62" s="107"/>
+      <c r="A62" s="98"/>
+      <c r="B62" s="106"/>
+      <c r="C62" s="99"/>
+      <c r="D62" s="99"/>
       <c r="E62" s="2" t="s">
         <v>146</v>
       </c>
@@ -9806,28 +9844,28 @@
       <c r="S62" s="74"/>
       <c r="T62" s="74"/>
       <c r="U62" s="74"/>
-      <c r="V62" s="105"/>
+      <c r="V62" s="115"/>
       <c r="W62" s="74"/>
       <c r="X62" s="74"/>
       <c r="Y62" s="74"/>
       <c r="Z62" s="74"/>
       <c r="AA62" s="74"/>
       <c r="AB62" s="74"/>
-      <c r="AC62" s="102"/>
+      <c r="AC62" s="112"/>
       <c r="AD62" s="74"/>
       <c r="AE62" s="74"/>
       <c r="AF62" s="74"/>
       <c r="AG62" s="74"/>
       <c r="AH62" s="74"/>
       <c r="AI62" s="74"/>
-      <c r="AJ62" s="99"/>
+      <c r="AJ62" s="109"/>
       <c r="AK62" s="74"/>
     </row>
     <row r="63" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A63" s="108"/>
-      <c r="B63" s="112"/>
-      <c r="C63" s="107"/>
-      <c r="D63" s="107"/>
+      <c r="A63" s="98"/>
+      <c r="B63" s="106"/>
+      <c r="C63" s="99"/>
+      <c r="D63" s="99"/>
       <c r="E63" s="2" t="s">
         <v>147</v>
       </c>
@@ -9857,28 +9895,28 @@
       <c r="S63" s="74"/>
       <c r="T63" s="74"/>
       <c r="U63" s="74"/>
-      <c r="V63" s="105"/>
+      <c r="V63" s="115"/>
       <c r="W63" s="74"/>
       <c r="X63" s="74"/>
       <c r="Y63" s="74"/>
       <c r="Z63" s="74"/>
       <c r="AA63" s="74"/>
       <c r="AB63" s="74"/>
-      <c r="AC63" s="102"/>
+      <c r="AC63" s="112"/>
       <c r="AD63" s="74"/>
       <c r="AE63" s="74"/>
       <c r="AF63" s="74"/>
       <c r="AG63" s="74"/>
       <c r="AH63" s="74"/>
       <c r="AI63" s="74"/>
-      <c r="AJ63" s="99"/>
+      <c r="AJ63" s="109"/>
       <c r="AK63" s="74"/>
     </row>
     <row r="64" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A64" s="108"/>
-      <c r="B64" s="112"/>
-      <c r="C64" s="107"/>
-      <c r="D64" s="107"/>
+      <c r="A64" s="98"/>
+      <c r="B64" s="106"/>
+      <c r="C64" s="99"/>
+      <c r="D64" s="99"/>
       <c r="E64" s="2" t="s">
         <v>107</v>
       </c>
@@ -9908,28 +9946,28 @@
       <c r="S64" s="74"/>
       <c r="T64" s="74"/>
       <c r="U64" s="74"/>
-      <c r="V64" s="105"/>
+      <c r="V64" s="115"/>
       <c r="W64" s="74"/>
       <c r="X64" s="74"/>
       <c r="Y64" s="74"/>
       <c r="Z64" s="74"/>
       <c r="AA64" s="74"/>
       <c r="AB64" s="74"/>
-      <c r="AC64" s="102"/>
+      <c r="AC64" s="112"/>
       <c r="AD64" s="74"/>
       <c r="AE64" s="74"/>
       <c r="AF64" s="74"/>
       <c r="AG64" s="74"/>
       <c r="AH64" s="74"/>
       <c r="AI64" s="74"/>
-      <c r="AJ64" s="99"/>
+      <c r="AJ64" s="109"/>
       <c r="AK64" s="74"/>
     </row>
     <row r="65" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A65" s="108"/>
-      <c r="B65" s="112"/>
-      <c r="C65" s="107"/>
-      <c r="D65" s="107"/>
+      <c r="A65" s="98"/>
+      <c r="B65" s="106"/>
+      <c r="C65" s="99"/>
+      <c r="D65" s="99"/>
       <c r="E65" s="2" t="s">
         <v>108</v>
       </c>
@@ -9959,28 +9997,28 @@
       <c r="S65" s="74"/>
       <c r="T65" s="74"/>
       <c r="U65" s="74"/>
-      <c r="V65" s="105"/>
+      <c r="V65" s="115"/>
       <c r="W65" s="74"/>
       <c r="X65" s="74"/>
       <c r="Y65" s="74"/>
       <c r="Z65" s="74"/>
       <c r="AA65" s="74"/>
       <c r="AB65" s="74"/>
-      <c r="AC65" s="102"/>
+      <c r="AC65" s="112"/>
       <c r="AD65" s="74"/>
       <c r="AE65" s="74"/>
       <c r="AF65" s="74"/>
       <c r="AG65" s="74"/>
       <c r="AH65" s="74"/>
       <c r="AI65" s="74"/>
-      <c r="AJ65" s="99"/>
+      <c r="AJ65" s="109"/>
       <c r="AK65" s="74"/>
     </row>
     <row r="66" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A66" s="108"/>
-      <c r="B66" s="112"/>
-      <c r="C66" s="107"/>
-      <c r="D66" s="107" t="s">
+      <c r="A66" s="98"/>
+      <c r="B66" s="106"/>
+      <c r="C66" s="99"/>
+      <c r="D66" s="99" t="s">
         <v>97</v>
       </c>
       <c r="E66" s="2" t="s">
@@ -10012,28 +10050,28 @@
       <c r="S66" s="74"/>
       <c r="T66" s="74"/>
       <c r="U66" s="74"/>
-      <c r="V66" s="105"/>
+      <c r="V66" s="115"/>
       <c r="W66" s="74"/>
       <c r="X66" s="74"/>
       <c r="Y66" s="74"/>
       <c r="Z66" s="74"/>
       <c r="AA66" s="74"/>
       <c r="AB66" s="74"/>
-      <c r="AC66" s="102"/>
+      <c r="AC66" s="112"/>
       <c r="AD66" s="74"/>
       <c r="AE66" s="74"/>
       <c r="AF66" s="74"/>
       <c r="AG66" s="74"/>
       <c r="AH66" s="74"/>
       <c r="AI66" s="74"/>
-      <c r="AJ66" s="99"/>
+      <c r="AJ66" s="109"/>
       <c r="AK66" s="74"/>
     </row>
     <row r="67" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A67" s="108"/>
-      <c r="B67" s="112"/>
-      <c r="C67" s="107"/>
-      <c r="D67" s="107"/>
+      <c r="A67" s="98"/>
+      <c r="B67" s="106"/>
+      <c r="C67" s="99"/>
+      <c r="D67" s="99"/>
       <c r="E67" s="2" t="s">
         <v>146</v>
       </c>
@@ -10063,30 +10101,30 @@
       <c r="S67" s="74"/>
       <c r="T67" s="74"/>
       <c r="U67" s="74"/>
-      <c r="V67" s="105"/>
+      <c r="V67" s="115"/>
       <c r="W67" s="74"/>
       <c r="X67" s="74"/>
       <c r="Y67" s="74"/>
       <c r="Z67" s="74"/>
       <c r="AA67" s="74"/>
       <c r="AB67" s="74"/>
-      <c r="AC67" s="102"/>
+      <c r="AC67" s="112"/>
       <c r="AD67" s="74"/>
       <c r="AE67" s="74"/>
       <c r="AF67" s="74"/>
       <c r="AG67" s="74"/>
       <c r="AH67" s="74"/>
       <c r="AI67" s="74"/>
-      <c r="AJ67" s="99"/>
+      <c r="AJ67" s="109"/>
       <c r="AK67" s="74"/>
     </row>
     <row r="68" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="108"/>
-      <c r="B68" s="112"/>
-      <c r="C68" s="107" t="s">
+      <c r="A68" s="98"/>
+      <c r="B68" s="106"/>
+      <c r="C68" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="D68" s="107" t="s">
+      <c r="D68" s="99" t="s">
         <v>93</v>
       </c>
       <c r="E68" s="2" t="s">
@@ -10118,28 +10156,28 @@
       <c r="S68" s="74"/>
       <c r="T68" s="74"/>
       <c r="U68" s="74"/>
-      <c r="V68" s="105"/>
+      <c r="V68" s="115"/>
       <c r="W68" s="74"/>
       <c r="X68" s="74"/>
       <c r="Y68" s="74"/>
       <c r="Z68" s="74"/>
       <c r="AA68" s="74"/>
       <c r="AB68" s="74"/>
-      <c r="AC68" s="102"/>
+      <c r="AC68" s="112"/>
       <c r="AD68" s="74"/>
       <c r="AE68" s="74"/>
       <c r="AF68" s="74"/>
       <c r="AG68" s="74"/>
       <c r="AH68" s="74"/>
       <c r="AI68" s="74"/>
-      <c r="AJ68" s="99"/>
+      <c r="AJ68" s="109"/>
       <c r="AK68" s="74"/>
     </row>
     <row r="69" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="108"/>
-      <c r="B69" s="112"/>
-      <c r="C69" s="107"/>
-      <c r="D69" s="107"/>
+      <c r="A69" s="98"/>
+      <c r="B69" s="106"/>
+      <c r="C69" s="99"/>
+      <c r="D69" s="99"/>
       <c r="E69" s="2" t="s">
         <v>130</v>
       </c>
@@ -10169,28 +10207,28 @@
       <c r="S69" s="74"/>
       <c r="T69" s="74"/>
       <c r="U69" s="74"/>
-      <c r="V69" s="105"/>
+      <c r="V69" s="115"/>
       <c r="W69" s="74"/>
       <c r="X69" s="74"/>
       <c r="Y69" s="74"/>
       <c r="Z69" s="74"/>
       <c r="AA69" s="74"/>
       <c r="AB69" s="74"/>
-      <c r="AC69" s="102"/>
+      <c r="AC69" s="112"/>
       <c r="AD69" s="74"/>
       <c r="AE69" s="74"/>
       <c r="AF69" s="74"/>
       <c r="AG69" s="74"/>
       <c r="AH69" s="74"/>
       <c r="AI69" s="74"/>
-      <c r="AJ69" s="99"/>
+      <c r="AJ69" s="109"/>
       <c r="AK69" s="74"/>
     </row>
     <row r="70" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="108"/>
-      <c r="B70" s="112"/>
-      <c r="C70" s="107"/>
-      <c r="D70" s="95" t="s">
+      <c r="A70" s="98"/>
+      <c r="B70" s="106"/>
+      <c r="C70" s="99"/>
+      <c r="D70" s="101" t="s">
         <v>98</v>
       </c>
       <c r="E70" s="2" t="s">
@@ -10222,28 +10260,28 @@
       <c r="S70" s="74"/>
       <c r="T70" s="74"/>
       <c r="U70" s="74"/>
-      <c r="V70" s="105"/>
+      <c r="V70" s="115"/>
       <c r="W70" s="74"/>
       <c r="X70" s="74"/>
       <c r="Y70" s="74"/>
       <c r="Z70" s="74"/>
       <c r="AA70" s="74"/>
       <c r="AB70" s="74"/>
-      <c r="AC70" s="102"/>
+      <c r="AC70" s="112"/>
       <c r="AD70" s="74"/>
       <c r="AE70" s="74"/>
       <c r="AF70" s="74"/>
       <c r="AG70" s="74"/>
       <c r="AH70" s="74"/>
       <c r="AI70" s="74"/>
-      <c r="AJ70" s="99"/>
+      <c r="AJ70" s="109"/>
       <c r="AK70" s="74"/>
     </row>
     <row r="71" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="108"/>
-      <c r="B71" s="112"/>
-      <c r="C71" s="107"/>
-      <c r="D71" s="97"/>
+      <c r="A71" s="98"/>
+      <c r="B71" s="106"/>
+      <c r="C71" s="99"/>
+      <c r="D71" s="103"/>
       <c r="E71" s="2" t="s">
         <v>130</v>
       </c>
@@ -10273,27 +10311,27 @@
       <c r="S71" s="74"/>
       <c r="T71" s="74"/>
       <c r="U71" s="74"/>
-      <c r="V71" s="105"/>
+      <c r="V71" s="115"/>
       <c r="W71" s="74"/>
       <c r="X71" s="74"/>
       <c r="Y71" s="74"/>
       <c r="Z71" s="74"/>
       <c r="AA71" s="74"/>
       <c r="AB71" s="74"/>
-      <c r="AC71" s="102"/>
+      <c r="AC71" s="112"/>
       <c r="AD71" s="74"/>
       <c r="AE71" s="74"/>
       <c r="AF71" s="74"/>
       <c r="AG71" s="74"/>
       <c r="AH71" s="74"/>
       <c r="AI71" s="74"/>
-      <c r="AJ71" s="99"/>
+      <c r="AJ71" s="109"/>
       <c r="AK71" s="74"/>
     </row>
     <row r="72" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A72" s="108"/>
-      <c r="B72" s="112"/>
-      <c r="C72" s="96" t="s">
+      <c r="A72" s="98"/>
+      <c r="B72" s="106"/>
+      <c r="C72" s="102" t="s">
         <v>282</v>
       </c>
       <c r="D72" s="2" t="s">
@@ -10328,27 +10366,27 @@
       <c r="S72" s="74"/>
       <c r="T72" s="74"/>
       <c r="U72" s="74"/>
-      <c r="V72" s="105"/>
+      <c r="V72" s="115"/>
       <c r="W72" s="74"/>
       <c r="X72" s="74"/>
       <c r="Y72" s="74"/>
       <c r="Z72" s="74"/>
       <c r="AA72" s="74"/>
       <c r="AB72" s="74"/>
-      <c r="AC72" s="102"/>
+      <c r="AC72" s="112"/>
       <c r="AD72" s="74"/>
       <c r="AE72" s="74"/>
       <c r="AF72" s="74"/>
       <c r="AG72" s="74"/>
       <c r="AH72" s="74"/>
       <c r="AI72" s="74"/>
-      <c r="AJ72" s="99"/>
+      <c r="AJ72" s="109"/>
       <c r="AK72" s="74"/>
     </row>
     <row r="73" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A73" s="108"/>
-      <c r="B73" s="112"/>
-      <c r="C73" s="96"/>
+      <c r="A73" s="98"/>
+      <c r="B73" s="106"/>
+      <c r="C73" s="102"/>
       <c r="D73" s="2" t="s">
         <v>191</v>
       </c>
@@ -10381,27 +10419,27 @@
       <c r="S73" s="74"/>
       <c r="T73" s="74"/>
       <c r="U73" s="74"/>
-      <c r="V73" s="105"/>
+      <c r="V73" s="115"/>
       <c r="W73" s="74"/>
       <c r="X73" s="74"/>
       <c r="Y73" s="74"/>
       <c r="Z73" s="74"/>
       <c r="AA73" s="74"/>
       <c r="AB73" s="74"/>
-      <c r="AC73" s="102"/>
+      <c r="AC73" s="112"/>
       <c r="AD73" s="74"/>
       <c r="AE73" s="74"/>
       <c r="AF73" s="74"/>
       <c r="AG73" s="74"/>
       <c r="AH73" s="74"/>
       <c r="AI73" s="74"/>
-      <c r="AJ73" s="99"/>
+      <c r="AJ73" s="109"/>
       <c r="AK73" s="74"/>
     </row>
     <row r="74" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A74" s="108"/>
-      <c r="B74" s="112"/>
-      <c r="C74" s="97"/>
+      <c r="A74" s="98"/>
+      <c r="B74" s="106"/>
+      <c r="C74" s="103"/>
       <c r="D74" s="2" t="s">
         <v>161</v>
       </c>
@@ -10434,27 +10472,27 @@
       <c r="S74" s="74"/>
       <c r="T74" s="74"/>
       <c r="U74" s="74"/>
-      <c r="V74" s="105"/>
+      <c r="V74" s="115"/>
       <c r="W74" s="74"/>
       <c r="X74" s="74"/>
       <c r="Y74" s="74"/>
       <c r="Z74" s="74"/>
       <c r="AA74" s="74"/>
       <c r="AB74" s="74"/>
-      <c r="AC74" s="102"/>
+      <c r="AC74" s="112"/>
       <c r="AD74" s="74"/>
       <c r="AE74" s="74"/>
       <c r="AF74" s="74"/>
       <c r="AG74" s="74"/>
       <c r="AH74" s="74"/>
       <c r="AI74" s="74"/>
-      <c r="AJ74" s="99"/>
+      <c r="AJ74" s="109"/>
       <c r="AK74" s="74"/>
     </row>
     <row r="75" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A75" s="108"/>
-      <c r="B75" s="112"/>
-      <c r="C75" s="107" t="s">
+      <c r="A75" s="98"/>
+      <c r="B75" s="106"/>
+      <c r="C75" s="99" t="s">
         <v>13</v>
       </c>
       <c r="D75" s="2" t="s">
@@ -10487,27 +10525,27 @@
       <c r="S75" s="74"/>
       <c r="T75" s="74"/>
       <c r="U75" s="74"/>
-      <c r="V75" s="105"/>
+      <c r="V75" s="115"/>
       <c r="W75" s="74"/>
       <c r="X75" s="74"/>
       <c r="Y75" s="74"/>
       <c r="Z75" s="74"/>
       <c r="AA75" s="74"/>
       <c r="AB75" s="74"/>
-      <c r="AC75" s="102"/>
+      <c r="AC75" s="112"/>
       <c r="AD75" s="74"/>
       <c r="AE75" s="74"/>
       <c r="AF75" s="74"/>
       <c r="AG75" s="74"/>
       <c r="AH75" s="74"/>
       <c r="AI75" s="74"/>
-      <c r="AJ75" s="99"/>
+      <c r="AJ75" s="109"/>
       <c r="AK75" s="74"/>
     </row>
     <row r="76" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A76" s="108"/>
-      <c r="B76" s="112"/>
-      <c r="C76" s="107"/>
+      <c r="A76" s="98"/>
+      <c r="B76" s="106"/>
+      <c r="C76" s="99"/>
       <c r="D76" s="2" t="s">
         <v>126</v>
       </c>
@@ -10538,27 +10576,27 @@
       <c r="S76" s="74"/>
       <c r="T76" s="74"/>
       <c r="U76" s="74"/>
-      <c r="V76" s="105"/>
+      <c r="V76" s="115"/>
       <c r="W76" s="74"/>
       <c r="X76" s="74"/>
       <c r="Y76" s="74"/>
       <c r="Z76" s="74"/>
       <c r="AA76" s="74"/>
       <c r="AB76" s="74"/>
-      <c r="AC76" s="102"/>
+      <c r="AC76" s="112"/>
       <c r="AD76" s="74"/>
       <c r="AE76" s="74"/>
       <c r="AF76" s="74"/>
       <c r="AG76" s="74"/>
       <c r="AH76" s="74"/>
       <c r="AI76" s="74"/>
-      <c r="AJ76" s="99"/>
+      <c r="AJ76" s="109"/>
       <c r="AK76" s="74"/>
     </row>
     <row r="77" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="108"/>
-      <c r="B77" s="112"/>
-      <c r="C77" s="95" t="s">
+      <c r="A77" s="98"/>
+      <c r="B77" s="106"/>
+      <c r="C77" s="101" t="s">
         <v>99</v>
       </c>
       <c r="D77" s="2" t="s">
@@ -10591,27 +10629,27 @@
       <c r="S77" s="74"/>
       <c r="T77" s="74"/>
       <c r="U77" s="74"/>
-      <c r="V77" s="105"/>
+      <c r="V77" s="115"/>
       <c r="W77" s="74"/>
       <c r="X77" s="74"/>
       <c r="Y77" s="74"/>
       <c r="Z77" s="74"/>
       <c r="AA77" s="74"/>
       <c r="AB77" s="74"/>
-      <c r="AC77" s="102"/>
+      <c r="AC77" s="112"/>
       <c r="AD77" s="74"/>
       <c r="AE77" s="74"/>
       <c r="AF77" s="74"/>
       <c r="AG77" s="74"/>
       <c r="AH77" s="74"/>
       <c r="AI77" s="74"/>
-      <c r="AJ77" s="99"/>
+      <c r="AJ77" s="109"/>
       <c r="AK77" s="74"/>
     </row>
     <row r="78" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A78" s="108"/>
-      <c r="B78" s="112"/>
-      <c r="C78" s="96"/>
+      <c r="A78" s="98"/>
+      <c r="B78" s="106"/>
+      <c r="C78" s="102"/>
       <c r="D78" s="2" t="s">
         <v>156</v>
       </c>
@@ -10642,27 +10680,27 @@
       <c r="S78" s="74"/>
       <c r="T78" s="74"/>
       <c r="U78" s="74"/>
-      <c r="V78" s="105"/>
+      <c r="V78" s="115"/>
       <c r="W78" s="74"/>
       <c r="X78" s="74"/>
       <c r="Y78" s="74"/>
       <c r="Z78" s="74"/>
       <c r="AA78" s="74"/>
       <c r="AB78" s="74"/>
-      <c r="AC78" s="102"/>
+      <c r="AC78" s="112"/>
       <c r="AD78" s="74"/>
       <c r="AE78" s="74"/>
       <c r="AF78" s="74"/>
       <c r="AG78" s="74"/>
       <c r="AH78" s="74"/>
       <c r="AI78" s="74"/>
-      <c r="AJ78" s="99"/>
+      <c r="AJ78" s="109"/>
       <c r="AK78" s="74"/>
     </row>
     <row r="79" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="108"/>
-      <c r="B79" s="112"/>
-      <c r="C79" s="96"/>
+      <c r="A79" s="98"/>
+      <c r="B79" s="106"/>
+      <c r="C79" s="102"/>
       <c r="D79" s="2" t="s">
         <v>187</v>
       </c>
@@ -10693,27 +10731,27 @@
       <c r="S79" s="74"/>
       <c r="T79" s="74"/>
       <c r="U79" s="74"/>
-      <c r="V79" s="105"/>
+      <c r="V79" s="115"/>
       <c r="W79" s="74"/>
       <c r="X79" s="74"/>
       <c r="Y79" s="74"/>
       <c r="Z79" s="74"/>
       <c r="AA79" s="74"/>
       <c r="AB79" s="74"/>
-      <c r="AC79" s="102"/>
+      <c r="AC79" s="112"/>
       <c r="AD79" s="74"/>
       <c r="AE79" s="74"/>
       <c r="AF79" s="74"/>
       <c r="AG79" s="74"/>
       <c r="AH79" s="74"/>
       <c r="AI79" s="74"/>
-      <c r="AJ79" s="99"/>
+      <c r="AJ79" s="109"/>
       <c r="AK79" s="74"/>
     </row>
     <row r="80" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A80" s="108"/>
-      <c r="B80" s="112"/>
-      <c r="C80" s="97"/>
+      <c r="A80" s="98"/>
+      <c r="B80" s="106"/>
+      <c r="C80" s="103"/>
       <c r="D80" s="2" t="s">
         <v>157</v>
       </c>
@@ -10744,27 +10782,27 @@
       <c r="S80" s="74"/>
       <c r="T80" s="74"/>
       <c r="U80" s="74"/>
-      <c r="V80" s="105"/>
+      <c r="V80" s="115"/>
       <c r="W80" s="74"/>
       <c r="X80" s="74"/>
       <c r="Y80" s="74"/>
       <c r="Z80" s="74"/>
       <c r="AA80" s="74"/>
       <c r="AB80" s="74"/>
-      <c r="AC80" s="102"/>
+      <c r="AC80" s="112"/>
       <c r="AD80" s="74"/>
       <c r="AE80" s="74"/>
       <c r="AF80" s="74"/>
       <c r="AG80" s="74"/>
       <c r="AH80" s="74"/>
       <c r="AI80" s="74"/>
-      <c r="AJ80" s="99"/>
+      <c r="AJ80" s="109"/>
       <c r="AK80" s="74"/>
     </row>
     <row r="81" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A81" s="108"/>
-      <c r="B81" s="112"/>
-      <c r="C81" s="107" t="s">
+      <c r="A81" s="98"/>
+      <c r="B81" s="106"/>
+      <c r="C81" s="99" t="s">
         <v>30</v>
       </c>
       <c r="D81" s="2" t="s">
@@ -10795,27 +10833,27 @@
       <c r="S81" s="74"/>
       <c r="T81" s="74"/>
       <c r="U81" s="74"/>
-      <c r="V81" s="105"/>
+      <c r="V81" s="115"/>
       <c r="W81" s="74"/>
       <c r="X81" s="74"/>
       <c r="Y81" s="74"/>
       <c r="Z81" s="74"/>
       <c r="AA81" s="74"/>
       <c r="AB81" s="74"/>
-      <c r="AC81" s="102"/>
+      <c r="AC81" s="112"/>
       <c r="AD81" s="74"/>
       <c r="AE81" s="74"/>
       <c r="AF81" s="74"/>
       <c r="AG81" s="74"/>
       <c r="AH81" s="74"/>
       <c r="AI81" s="74"/>
-      <c r="AJ81" s="99"/>
+      <c r="AJ81" s="109"/>
       <c r="AK81" s="74"/>
     </row>
     <row r="82" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A82" s="108"/>
-      <c r="B82" s="112"/>
-      <c r="C82" s="107"/>
+      <c r="A82" s="98"/>
+      <c r="B82" s="106"/>
+      <c r="C82" s="99"/>
       <c r="D82" s="2" t="s">
         <v>32</v>
       </c>
@@ -10840,27 +10878,27 @@
       <c r="S82" s="74"/>
       <c r="T82" s="74"/>
       <c r="U82" s="74"/>
-      <c r="V82" s="105"/>
+      <c r="V82" s="115"/>
       <c r="W82" s="74"/>
       <c r="X82" s="74"/>
       <c r="Y82" s="74"/>
       <c r="Z82" s="74"/>
       <c r="AA82" s="74"/>
       <c r="AB82" s="74"/>
-      <c r="AC82" s="102"/>
+      <c r="AC82" s="112"/>
       <c r="AD82" s="74"/>
       <c r="AE82" s="74"/>
       <c r="AF82" s="74"/>
       <c r="AG82" s="74"/>
       <c r="AH82" s="74"/>
       <c r="AI82" s="74"/>
-      <c r="AJ82" s="99"/>
+      <c r="AJ82" s="109"/>
       <c r="AK82" s="74"/>
     </row>
     <row r="83" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A83" s="108"/>
-      <c r="B83" s="112"/>
-      <c r="C83" s="107"/>
+      <c r="A83" s="98"/>
+      <c r="B83" s="106"/>
+      <c r="C83" s="99"/>
       <c r="D83" s="2" t="s">
         <v>33</v>
       </c>
@@ -10889,26 +10927,26 @@
       <c r="S83" s="74"/>
       <c r="T83" s="74"/>
       <c r="U83" s="74"/>
-      <c r="V83" s="105"/>
+      <c r="V83" s="115"/>
       <c r="W83" s="74"/>
       <c r="X83" s="74"/>
       <c r="Y83" s="74"/>
       <c r="Z83" s="74"/>
       <c r="AA83" s="74"/>
       <c r="AB83" s="74"/>
-      <c r="AC83" s="102"/>
+      <c r="AC83" s="112"/>
       <c r="AD83" s="74"/>
       <c r="AE83" s="74"/>
       <c r="AF83" s="74"/>
       <c r="AG83" s="74"/>
       <c r="AH83" s="74"/>
       <c r="AI83" s="74"/>
-      <c r="AJ83" s="99"/>
+      <c r="AJ83" s="109"/>
       <c r="AK83" s="74"/>
     </row>
     <row r="84" spans="1:37" x14ac:dyDescent="0